--- a/Bruksela_miejsca_odnosniki.xlsx
+++ b/Bruksela_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0777D6B4-BE27-4477-B69A-817FB764F941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F3B97-9DBB-4E38-A171-922F96E95994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,18 +1239,12 @@
 Please note that details like the exact opening year or specific historical events associated with the location may require further research or local inquiry to confirm.</t>
   </si>
   <si>
-    <t>Delirium Cafe to nie tylko bar, ale przeżycie kulturalne pośrodku Brukseli, oferujące imponujący wybór ponad 2000 różnych piw z całego świata. Jego wystrój, pełen browarnianych pamiątek, tworzy idealne tło dla czwartkowych koncertów na żywo oraz spotkań z różnorodną międzynarodową publicznością. Znany z charakterystycznego logo różowego słonia, Delirium Cafe jest nie tylko punktem obowiązkowym dla miłośników piwa, ale i znaczącym przyczółkiem lokalnej kultury i życia nocnego.</t>
-  </si>
-  <si>
     <t>Park Brukselski, ulokowany w centrum Brukseli to zielona oaza w tętniącym życiem mieście. Obszerne 13-hektarowe tereny zielone, które kiedyś były poligonem łowieckim, obecnie przyciągają mieszkańców i turystów swoimi symetrycznymi alejkami, neoklasycznymi posągami i fontannami. Park, umiejscowiony pomiędzy Pałacem Królewskim a Parlamentem Belgii, jest popularnym miejscem zarówno dla miłośników joggingu, jak i miłośników kultury, oferując scenę teatralną na świeżym powietrzu oraz liczne wydarzenia kulturalne.</t>
   </si>
   <si>
     <t>Katedra św. Michała i św. Guduli stanowi serce religijne miasta. Znana z monumentalnej fasady z dwiema wieżami oraz przepięknych witraży, od wieków przyciąga zarówno wiernych, jak i miłośników historii oraz sztuki. Katedra jest miejscem kluczowych uroczystości królewskich.</t>
   </si>
   <si>
-    <t>Art Mountain to malownicze wzgórze utkane z obiektów kultury takich jak biblioteka królewska, archiwa narodowe oraz centra konferencyjne, otoczone ogrodem. Kompleks, będący przykładem architektury modernistycznej, łączy górną i dolną część miasta, tworząc spójną przestrzeń odpoczynku i inspiracji. Zaprojektowany w latach 50. i 60. XX wieku, stanowi idealne miejsce do zwiedzania dla miłośników sztuki i historii.</t>
-  </si>
-  <si>
     <t>Pałac Królewski w Brukseli to architektoniczny klejnot w centrum miasta. Choć Król i Królowa Belgii nie rezydują w nim na co dzień, każdego lata otwiera swoje podwoje dla zwiedzających, oferując dostęp do tak wyjątkowych pomieszczeń jak Sala Tronowa czy Salon Luster z niezwykłym dziełem sztuki Jana Fabre. Wzniesiony w stylu neoklasycznym pałac przyciąga uwagę długą kolumnadą i imponuje bogato zdobionym wnętrzem, pełnym fresków i dzieł sztuki.</t>
   </si>
   <si>
@@ -1344,9 +1338,6 @@
     <t>Frit Flagey jest znane z oferowania klasycznych belgijskich frytek. Obok szerokiej gamy sosów, dostępne są również lokalne przekąski, jak frikandele.</t>
   </si>
   <si>
-    <t>Le Zinneke w Brukseli to miejsce oferujące lokalne podejście do belgijskiej kuchni ze szczególnym naciskiem na szeroki wybór muszli. Restauracja cieszy się uznaniem za swoje tradycyjne dania i przytulną atmosferę, pełną elementów kulturalnego dziedzictwa Belgii. Jest to idealne miejsce dla każdego, kto chce zanurzyć się w lokalne smaki.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Łuk Triumphalny położony w Parku Cinquantenaire, to znaczący zabytek przywołujący 50. rocznicę niepodległości Belgii. Zakończony w 1905 roku, charakteryzuje się trzema bramami, z których środkowa jest największa, zdobiona różnymi rzeźbami symbolizującymi belgijskie prowincje i osiągnięcia kulturalne oraz ekonomiczne. </t>
   </si>
   <si>
@@ -1411,6 +1402,15 @@
   </si>
   <si>
     <t xml:space="preserve">Królewskie Galerie Świętego Huberta to zabytkowy, osłonięty szklanym dachem pasaż handlowy w sercu Brukseli. Atrakcja ta jest jednym z najstarszych takich miejsc w Europie, gdzie na długości 200 metrów rozciągają się luksusowe sklepy, kawiarnie oraz przestrzenie kulturalne. </t>
+  </si>
+  <si>
+    <t>Delirium Cafe oferuje imponujący wybór ponad 2000 różnych piw z całego świata. Wystrój, pełen browarnianych pamiątek, tworzy idealne tło dla czwartkowych koncertów na żywo oraz spotkań z różnorodną międzynarodową publicznością. Znany z charakterystycznego logo różowego słonia, Delirium Cafe jest nie tylko punktem obowiązkowym dla miłośników piwa, ale i znaczącym przyczółkiem lokalnej kultury i życia nocnego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art Mountain to malownicze wzgórze utkane z obiektów kultury takich jak biblioteka królewska, archiwa narodowe oraz centra konferencyjne, otoczone ogrodem. Kompleks, będący przykładem architektury modernistycznej, łączy górną i dolną część miasta, tworząc spójną przestrzeń odpoczynku i inspiracji. </t>
+  </si>
+  <si>
+    <t>Le Zinneke to miejsce oferujące lokalne podejście do belgijskiej kuchni ze szczególnym naciskiem na szeroki wybór muszli. Restauracja cieszy się uznaniem za swoje tradycyjne dania i przytulną atmosferę, pełną elementów kulturalnego dziedzictwa Belgii. Jest to idealne miejsce dla każdego, kto chce zanurzyć się w lokalne smaki.</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1874,7 @@
         <v>279</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,7 @@
         <v>281</v>
       </c>
       <c r="M4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1997,7 +1997,7 @@
         <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
         <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
         <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
         <v>285</v>
       </c>
       <c r="M8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
         <v>286</v>
       </c>
       <c r="M9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2202,7 +2202,7 @@
         <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>288</v>
       </c>
       <c r="M11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
         <v>289</v>
       </c>
       <c r="M12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2325,7 +2325,7 @@
         <v>290</v>
       </c>
       <c r="M13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2366,7 +2366,7 @@
         <v>291</v>
       </c>
       <c r="M14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2407,7 +2407,7 @@
         <v>292</v>
       </c>
       <c r="M15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
         <v>293</v>
       </c>
       <c r="M16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2489,7 +2489,7 @@
         <v>294</v>
       </c>
       <c r="M17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2527,7 +2527,7 @@
         <v>295</v>
       </c>
       <c r="M18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2568,7 +2568,7 @@
         <v>296</v>
       </c>
       <c r="M19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2606,7 +2606,7 @@
         <v>297</v>
       </c>
       <c r="M20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
         <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2688,7 +2688,7 @@
         <v>299</v>
       </c>
       <c r="M22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2729,7 +2729,7 @@
         <v>300</v>
       </c>
       <c r="M23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2770,7 +2770,7 @@
         <v>301</v>
       </c>
       <c r="M24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2808,7 +2808,7 @@
         <v>302</v>
       </c>
       <c r="M25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
         <v>303</v>
       </c>
       <c r="M26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>304</v>
       </c>
       <c r="M27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2925,7 +2925,7 @@
         <v>305</v>
       </c>
       <c r="M28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>306</v>
       </c>
       <c r="M29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
         <v>307</v>
       </c>
       <c r="M30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -3045,7 +3045,7 @@
         <v>308</v>
       </c>
       <c r="M31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -3086,7 +3086,7 @@
         <v>309</v>
       </c>
       <c r="M32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -3127,7 +3127,7 @@
         <v>310</v>
       </c>
       <c r="M33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -3168,7 +3168,7 @@
         <v>311</v>
       </c>
       <c r="M34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -3206,7 +3206,7 @@
         <v>312</v>
       </c>
       <c r="M35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
         <v>313</v>
       </c>
       <c r="M36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -3285,7 +3285,7 @@
         <v>314</v>
       </c>
       <c r="M37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -3323,7 +3323,7 @@
         <v>315</v>
       </c>
       <c r="M38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
         <v>316</v>
       </c>
       <c r="M39" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3402,7 +3402,7 @@
         <v>317</v>
       </c>
       <c r="M40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>318</v>
       </c>
       <c r="M41" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3481,7 +3481,7 @@
         <v>319</v>
       </c>
       <c r="M42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3519,7 +3519,7 @@
         <v>320</v>
       </c>
       <c r="M43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
         <v>321</v>
       </c>
       <c r="M44" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -3595,7 +3595,7 @@
         <v>322</v>
       </c>
       <c r="M45" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -3636,7 +3636,7 @@
         <v>323</v>
       </c>
       <c r="M46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
         <v>324</v>
       </c>
       <c r="M47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -3712,7 +3712,7 @@
         <v>325</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -3750,7 +3750,7 @@
         <v>326</v>
       </c>
       <c r="M49" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -3788,7 +3788,7 @@
         <v>327</v>
       </c>
       <c r="M50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -3826,7 +3826,7 @@
         <v>328</v>
       </c>
       <c r="M51" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3867,7 +3867,7 @@
         <v>329</v>
       </c>
       <c r="M52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -3905,7 +3905,7 @@
         <v>330</v>
       </c>
       <c r="M53" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3943,7 +3943,7 @@
         <v>331</v>
       </c>
       <c r="M54" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3984,7 +3984,7 @@
         <v>332</v>
       </c>
       <c r="M55" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>333</v>
       </c>
       <c r="M56" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -4060,7 +4060,7 @@
         <v>334</v>
       </c>
       <c r="M57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -4101,7 +4101,7 @@
         <v>335</v>
       </c>
       <c r="M58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -4139,7 +4139,7 @@
         <v>336</v>
       </c>
       <c r="M59" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Bruksela_miejsca_odnosniki.xlsx
+++ b/Bruksela_miejsca_odnosniki.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F3B97-9DBB-4E38-A171-922F96E95994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="479">
   <si>
     <t>Miejsce</t>
   </si>
@@ -61,6 +55,9 @@
     <t>summ</t>
   </si>
   <si>
+    <t>description_vec</t>
+  </si>
+  <si>
     <t>Grand Palace</t>
   </si>
   <si>
@@ -760,103 +757,384 @@
     <t>Pub</t>
   </si>
   <si>
-    <t>Ogromny plac miejski otoczony ze wszystkich stron eleganckimi zabytkowymi budynkami z XIV wieku.</t>
-  </si>
-  <si>
-    <t>Gigantyczny atom ze stali nierdzewnej z cząstkami połączonymi ruchomymi schodami, wystawami i widokiem z 92 m.</t>
-  </si>
-  <si>
-    <t>Słynna XVII-wieczna fontanna z brązową figurką małego chłopca, ubieraną w różne kostiumy z okazji świąt.</t>
-  </si>
-  <si>
-    <t>Osłonięte szklanym, łukowym dachem ozdobne centrum handlowe z luksusowymi sklepami, restauracjami i teatrami.</t>
-  </si>
-  <si>
-    <t>XIX-wieczny park miejski z rabatami kwiatowymi i fontannami. Są tu muzea sztuki i wojska.</t>
-  </si>
-  <si>
-    <t>Bar z ponad 2000 gatunkami piwa, pamiątkami z browarów i muzyką na żywo w czwartkowe wieczory.</t>
-  </si>
-  <si>
-    <t>Położony na dawnych terenach łowieckich park królewski z posągami, fontanną i sceną teatralną pod gołym niebem.</t>
-  </si>
-  <si>
-    <t>Belgijski kościół w stylu gotyku brabanckiego – miejsce, w którym odbywają się królewskie śluby i pogrzeby.</t>
-  </si>
-  <si>
-    <t>Położone na wzgórzu niewielkie śródmieście z wypielęgnowanym ogrodem, muzeami i ciekawą architekturą.</t>
-  </si>
-  <si>
-    <t>Pałac monarchii konstytucyjnej z salą tronową i innymi komnatami królewskimi, latem otwarty dla zwiedzających.</t>
-  </si>
-  <si>
-    <t>Duże centrum konferencyjno-wystawowe z 1935 roku obejmujące 12 hal i 2 audytoria.</t>
-  </si>
-  <si>
-    <t>Muzeum historii naturalnej z wystawami dotyczącymi minerałów, dinozaurów i zwierząt oraz interaktywnymi eksponatami.</t>
-  </si>
-  <si>
-    <t>Nowoczesne centrum handlowe z przeszklonym sufitem mieszczące klasyczne sklepy oraz supermarket i restauracje.</t>
-  </si>
-  <si>
-    <t>Park miniatur ze słynnymi europejskimi budynkami zrekonstruowanymi w skali 1:25 – od Big Bena po Wieżę Eiffla.</t>
-  </si>
-  <si>
-    <t>Przestronne muzeum samochodów wystawiające różnorodne pojazdy, od starych powozów i limuzyn prezydenckich po słynne wyścigówki.</t>
-  </si>
-  <si>
-    <t>Figurka małej dziewczynki uważanej przez niektórych za siostrę słynnego Manneken Pisa.</t>
-  </si>
-  <si>
-    <t>Kompleks muzeów z ponad 20 tysiącami dzieł sztuki reprezentującymi historię malarstwa, rzeźby i rysunku.</t>
-  </si>
-  <si>
-    <t>Małe muzeum z wystawami na temat czekolady i programem pokazów na żywo prowadzonych przez mistrza czekolady.</t>
-  </si>
-  <si>
-    <t>Muzeum sztuki z chronologicznie uporządkowanymi dziełami René Magritte'a i powiązanymi z nim artefaktami.</t>
-  </si>
-  <si>
-    <t>Rozległy park z magnoliami i zaprojektowanym pod koniec XIX wieku okazałym pomnikiem Leopolda I.</t>
-  </si>
-  <si>
-    <t>Założona w 1948 roku restauracja serwująca klasyczne frytki belgijskie z różnymi sosami oraz burgery i przekąski.</t>
-  </si>
-  <si>
-    <t>Secesyjne muzeum z eksponatami poświęconymi tradycyjnym i mechanicznym instrumentom oraz salą koncertową.</t>
-  </si>
-  <si>
-    <t>Muzeum wojskowości ze sprzętem z różnych epok, w tym XX-wiecznymi czołgami i średniowiecznymi zbrojami.</t>
-  </si>
-  <si>
-    <t>Rozległa, zwieńczona kopułą świątynia rzymskokatolicka w stylu art déco z 2 wieżami i 2 muzeami.</t>
-  </si>
-  <si>
-    <t>XV-wieczny katolicki kościół słynący z barokowych kaplic i gotyckiej architektury.</t>
-  </si>
-  <si>
-    <t>Galeria ze stałymi i czasowymi wystawami poświęconymi historii Europy oraz kawiarnia i sklep.</t>
-  </si>
-  <si>
-    <t>Duże, nowoczesne muzeum mieszczące stałą kolekcję eksponatów z plastiku oraz wystawy czasowe.</t>
-  </si>
-  <si>
-    <t>Usytuowane w dawnej szklarni centrum kulturalne z regularną ofertą koncertów, wystaw sztuki i występów teatralnych.</t>
-  </si>
-  <si>
-    <t>Muzeum komiksu z oryginalnymi rysunkami i czytelnią usytuowane w secesyjnym magazynie projektu Victora Horty.</t>
-  </si>
-  <si>
-    <t>Kanapki, sery, napoje owocowe i inne podstawowe produkty delikatesowe w popularnym, bezpretensjonalnym sklepie.</t>
-  </si>
-  <si>
-    <t>Gotycko-romański kościół z 1134 roku oraz miejsce pochówku malarza Pietera Bruegla (starszego).</t>
-  </si>
-  <si>
-    <t>XV-wieczny ratusz z misterną gotycką fasadą i wieżą, a także arrasami i lustrzaną salą koncertową.</t>
-  </si>
-  <si>
-    <t>Zbudowany w eklektycznym stylu neoklasycystycznym okazały budynek – siedziba najważniejszych sądów w kraju.</t>
+    <t>Ogromny plac miejski otoczony ze wszystkich stron eleganckimi zabytkowymi budynkami z XIV wieku.The Grand-Place, or Grote Markt in Dutch, is the central square of Brussels, Belgium, renowned for its aesthetic and historical significance. It is surrounded by opulent guildhalls, the striking Town Hall, and the King's House or Maison du Roi, which houses the Brussels City Museum. The square is a fine example of the eclectic blend of architectural and artistic styles that characterizes the heritage of this region.
+The Town Hall, a standout building on the square, dates back to the early 15th century and is noted for its Gothic architecture, highlighted by a distinctive, soaring spire. The King's House, opposite the Town Hall, contrasts with its more classical façade. The surrounding guildhalls are decorated with gold, ornate stonework, and statues, reflecting the wealth and influence of the various trades and guilds of the time.
+The Grand-Place has a history that dates back to the 10th century as a market place. Over the centuries, it has hosted numerous social and historical events, including markets, festivals, and even executions. Today, it continues to be a focal point for public and cultural events in Brussels. Notably, every two years in August, an enormous "flower carpet" is set up in the square for a few days, consisting of about a million begonias arranged in patterns covering nearly the entire area of the Grand-Place.
+The square was almost completely destroyed in 1695 by a bombardment by the French troops of King Louis XIV, but was rebuilt in the following four years by the city's guilds. The rapid reconstruction is seen as a symbol of the resilience and community spirit of the citizens of Brussels.
+Grand-Place was designated a UNESCO World Heritage site in 1998, recognized as an outstanding blend of architectural and artistic styles. The site is one of the most important tourist attractions in Brussels, drawing visitors from around the world to admire its architecture and experience its vibrant atmosphere.
+The location of Grand-Place at the very heart of Brussels makes it a starting point to explore the cultural and historical contexts of the city, offering a window into the past and present of the Belgian capital.</t>
+  </si>
+  <si>
+    <t>Gigantyczny atom ze stali nierdzewnej z cząstkami połączonymi ruchomymi schodami, wystawami i widokiem z 92 m.The Atomium is an iconic building and major tourist attraction located in Brussels, Belgium. It was originally constructed for the 1958 Brussels World's Fair (Expo 58). The structure was designed by engineer André Waterkeyn and architects André and Jean Polak. The Atomium represents a single unit cell of an iron crystal, magnified 165 billion times. 
+The structure stands 102 meters (335 feet) tall and consists of nine stainless steel spheres connected by tubes. Each sphere has a diameter of 18 meters (about 59 feet). The tubes connecting the spheres along the 12 edges of the cube and all eight vertices are 3 meters (about 10 feet) in diameter. These tubes contain escalators and stairs that allow visitors to traverse between spheres, where exhibitions and public spaces are located, including a restaurant in the top sphere that offers panoramic views of Brussels.
+The Atomium was not intended to survive beyond the Expo, but its popularity and success made it a key landmark and it was completely renovated from 2004 to 2006. During the renovation, the aluminum panels were replaced with stainless steel ones to ensure its durability and improve its appearance.
+Today, the Atomium serves as a museum, an exhibition center, and a cultural space. It hosts permanent and temporary exhibitions related to science, design, and society, and it also serves educational purposes. The Atomium continues to be a symbol of scientific and technological progress and a popular attraction drawing visitors from around the world.</t>
+  </si>
+  <si>
+    <t>Słynna XVII-wieczna fontanna z brązową figurką małego chłopca, ubieraną w różne kostiumy z okazji świąt.Manneken Pis, often translated into English as "Little Man Pee," is a famous bronze sculpture and fountain located in Brussels, Belgium. This iconic statue depicts a naked little boy urinating into the fountain's basin. It was designed by Hieronymus Duquesnoy the Elder and installed in 1618 or 1619.
+The statue is a significant symbol of Brussels and often reflects the city's sense of humor and independence of mind. It is located near the Grand Place, at the junction of Rue de l'Étuve/Stoofstraat and Rue du Chêne/Eikstraat. Over the years, Manneken Pis has become a popular tourist attraction and has inspired numerous replicas and similar statues around the world.
+Manneken Pis is often dressed in various costumes according to a published schedule managed by the "Friends of Manneken-Pis," a local nonprofit organization. The wardrobe of the statue includes hundreds of different outfits, representing many different countries, cultures, and occasions. The costume changes are typically accompanied by ceremonies that attract tourists and locals alike.
+The statue has been stolen several times in its history but has always been recovered or replaced. Due to its fame, it also has been a target for vandalism. However, the city of Brussels maintains the statue carefully, considering its importance to the cultural and touristic appeal of the city.</t>
+  </si>
+  <si>
+    <t>Osłonięte szklanym, łukowym dachem ozdobne centrum handlowe z luksusowymi sklepami, restauracjami i teatrami.The Galeries Royales Saint-Hubert (Królewskie Galerie Świętego Huberta in Polish) is a renowned shopping arcade in Brussels, Belgium. This elegant structure, inaugurated in 1847 by King Leopold I, is one of the oldest shopping arcades in Europe.
+Designed by architect Jean-Pierre Cluysenaar, the arcade is known for its splendid glass-roofed design, which creates a bright and inviting atmosphere for shoppers and visitors. Spanning approximately 200 meters in length, it consists of two major sections, the King's Gallery and the Queen's Gallery, and a smaller section known as the Princes' Gallery.
+The Galeries Royales Saint-Hubert are situated in the heart of Brussels, near other significant landmarks like the Grand Place and the Brussels Stock Exchange. They house a variety of upscale shops, cafes, and cultural spaces, including theaters and a cinema. This location is popular not only for shopping but also for its architectural beauty and historical significance.
+The galleries have been a central part of Brussels’ social and cultural life since their opening and continue to attract both locals and tourists alike, offering a unique blend of retail, history, and art under one magnificent glass-roofed arcade.</t>
+  </si>
+  <si>
+    <t>XIX-wieczny park miejski z rabatami kwiatowymi i fontannami. Są tu muzea sztuki i wojska.The Cinquantenaire Park (Parc du Cinquantenaire) is a large public, urban park in the eastern part of the European Quarter in Brussels, Belgium. It was established in 1880 to commemorate the fiftieth anniversary of Belgian independence, which occurred in 1830. The name 'Cinquantenaire' translates to 'fiftieth anniversary' in French.
+Covering about 30 hectares, the park is dominated by the impressive Cinquantenaire Arch, an imposing triumphal arch that was initially commissioned by King Leopold II. The arch was designed by the architect Gédéon Bordiau but was completed by Charles Girault after Bordiau's death. It consists of three arches with the larger central arch flanked by two smaller ones. The structure is adorned with sculptures and reliefs that celebrate Belgian independence and the country's cultural and economic achievements.
+The arch also serves as a gateway to several museums located within or adjacent to the park. These include:
+1. The Royal Museum of the Armed Forces and Military History, which showcases military artifacts and uniforms.
+2. The Art &amp; History Museum, known for its extensive collection of artifacts from various civilizations around the world.
+3. Autoworld, a museum dedicated to the history of automobiles, featuring a vast collection of vintage cars.
+Apart from serving as a cultural and historical hub, Cinquantenaire Park is a popular recreational space for both locals and tourists. It hosts various events, including concerts, festivals, and national celebrations like the Belgian National Day on July 21. The park's expansive lawns, picturesque ponds, and beautifully maintained gardens make it a favorable spot for picnics, jogs, and leisurely walks.
+Cinquantenaire is not only a testament to Belgium's rich history but also a vibrant center of contemporary cultural life, reflecting the nation's past and present in a serene, green space in the heart of Brussels.</t>
+  </si>
+  <si>
+    <t>Bar z ponad 2000 gatunkami piwa, pamiątkami z browarów i muzyką na żywo w czwartkowe wieczory.Delirium Café, located in Brussels, Belgium, is renowned for holding a Guinness World Record for the most varieties of beer available for purchase. This popular bar, a highlight of the city’s vibrant nightlife, boasts an incredibly extensive selection featuring over 2,000 different beers from around the world. This range includes everything from well-known international brands to rare and exotic craft beers.
+The café is situated in an alley near the Grand Place and is part of a larger complex that includes other thematic bars, making the area a significant draw for both tourists and locals. Delirium Café is easily recognizable by its pink elephant logo, which is associated with the Delirium beer brand from the Huyghe Brewery.
+What sets Delirium Café apart, besides its record-breaking beer selection, is its lively atmosphere, often packed with a diverse crowd. The interior is characteristically decorated with brewery memorabilia and beer bottles, which contributes to its unique and cozy ambiance. The bar also hosts live music and events, further enhancing its festive environment.
+Due to its popularity and central location, Delirium Café is considered a must-visit for beer enthusiasts and anyone looking to experience a quintessential part of Brussels' cultural and social life.</t>
+  </si>
+  <si>
+    <t>Położony na dawnych terenach łowieckich park królewski z posągami, fontanną i sceną teatralną pod gołym niebem.Park Brukselski, also known as Brussels Park or Parc de Bruxelles, is a major public park located in the center of Brussels, Belgium. It is positioned between the Royal Palace of Brussels to the south and the Belgian Parliament to the north. The park lies opposite the Palace of the Nation, a key government building.
+Originally part of a royal hunting reserve, the park was redesigned in a neoclassical style during the late 18th century based on designs by Barnabé Guimard and Joachim Zinner. It is characterized by its symmetrical layout and formal garden style, typical of the period.
+The park spans approximately 13 hectares (32 acres) and is the largest urban public park in the center of Brussels. It is a popular place for jogging, walking, and public gatherings. The park is also known for its historical statues, fountains, and monuments, including numerous busts of historical figures that line the paths.
+Brussels Park serves as a cultural venue as well, hosting various events throughout the year, including concerts, festivals, and public celebrations like the Belgian National Day festivities.
+The park's location near major national landmarks and accessibility via public transportation makes it a significant green space and recreational area within the urban setting of Brussels.</t>
+  </si>
+  <si>
+    <t>Belgijski kościół w stylu gotyku brabanckiego – miejsce, w którym odbywają się królewskie śluby i pogrzeby.The Cathedral of St. Michael and St. Gudula, known in Dutch as Sint-Michiels- en Sint-Goedelekathedraal and in French as Cathédrale Saints-Michel-et-Gudule, is a Roman Catholic church located in the heart of Brussels, Belgium. This cathedral is dedicated to St. Michael and St. Gudula, who are the patron saints of the city of Brussels.
+The church's origins date back to the 9th century, but the current Gothic structure was primarily constructed between the 13th and 15th centuries. The cathedral features a striking facade with two towers that are approximately 64 meters high, which were completed in the 15th century, making it a notable example of Brabant Gothic architecture.
+The interior of the cathedral is noted for its beautiful stained glass windows, some of which date back to the 16th century. The windows depict various biblical scenes as well as events from the lives of saints. Notably, the cathedral also features a modern stained glass window designed by the Belgian artist Jan Huet, which was installed in 2000 to mark the Millennium.
+The chapel of the Blessed Sacrament of the Miracle contains a shrine where, in 1370, the miraculous Hosts were preserved after being stolen and desecrated. This event is commemorated annually in the city by the Ommegang procession, which is a significant historical and cultural event in Brussels.
+In addition to being a place of worship, the Cathedral of St. Michael and St. Gudula has also served as a venue for royal ceremonies, including royal weddings and state funerals.
+The cathedral is not only a historic landmark but also an active place of worship and a symbol of the religious heritage of Brussels. It is open to visitors who wish to explore its architectural beauty and historical significance.</t>
+  </si>
+  <si>
+    <t>Położone na wzgórzu niewielkie śródmieście z wypielęgnowanym ogrodem, muzeami i ciekawą architekturą.The Art Mountain, also known as Mont des Arts or Kunstberg, is a historic site and urban complex located in central Brussels, Belgium. It includes the Royal Library of Belgium, the National Archives of Belgium, the Square – Brussels Meeting Centre, and a public garden. The Mont des Arts garden is situated below Place Royale and serves as a transition between the upper and lower parts of the city, including the Royal Quarter. The complex was built between 1954-1969 and designed by architects Maurice Houyoux, Jules Ghobert, and René Péchère (garden) in the style of Modernism.</t>
+  </si>
+  <si>
+    <t>Pałac monarchii konstytucyjnej z salą tronową i innymi komnatami królewskimi, latem otwarty dla zwiedzających.The Royal Palace of Brussels is a significant landmark in Brussels, Belgium, located at the coordinates 50.8420026 latitude and 4.3623406 longitude. It serves as the official palace of the King and Queen of Belgium but is not used as a royal residence; the royal family resides at the Royal Palace of Laeken on the outskirts of the city.
+The palace's history dates back to the 18th century when it was originally built. Over the years, it has been renovated and expanded several times. One of the notable enlargements was undertaken during the reign of King Leopold II in the late 19th and early 20th centuries, who had the structure significantly embellished to reflect its importance and to showcase Belgium's power and wealth.
+Architecturally, the Royal Palace of Brussels is magnificent, displaying neoclassical style. The façade is imposing with a long colonnade that fronts the building, lending it a grand and authoritative presence. The interior of the palace is equally impressive, with lavish decorations, intricate frescoes, and numerous works of art. Some of the notable rooms inside the palace include the Goya Room, the Mirror Room, and the Throne Room.
+The Mirror Room is particularly famous for its contemporary art piece by the artist Jan Fabre, titled "Heaven of Delight," which is an installation made up of jewel beetle wing cases that decorate the ceiling and chandelier, creating a stunning visual effect.
+The palace is also known for its annual summer opening, when it is opened to the public for several weeks. During this time, visitors can tour several of the state rooms inside the palace and view various exhibitions related to the royal family and the history of Belgium.
+Additionally, the palace has a role in the ceremonial functions of the state; it is here that the King undertakes official duties including audiences and state receptions. The front of the palace faces Brussels Park, and it stands opposite the modernist building of the Belgian Parliament, demonstrating the monarch's constitutional role in Belgian governance.
+Overall, the Royal Palace of Brussels not only serves as a symbol of the Belgian monarchy but also as a testament to the country's history and cultural heritage.</t>
+  </si>
+  <si>
+    <t>Duże centrum konferencyjno-wystawowe z 1935 roku obejmujące 12 hal i 2 audytoria.Brussels Expo, also known as the Brussels Exhibition Centre, is a major venue located in Brussels, Belgium, specifically situated at the coordinates 50.8995814 latitude and 4.3372731 longitude. It is one of the largest exhibition centers in Belgium and hosts various events, including trade fairs, exhibitions, conferences, and concerts.
+The site comprises multiple halls, each equipped to handle different types and sizes of events. Its history dates back to the 1935 when it was built for the Brussels International Exposition of 1935, and it includes the notable Atomium, a structure built for the Expo 58, the 1958 Brussels World's Fair. This iconic building, representing an iron crystal magnified 165 billion times, has become a symbol of Brussels and Belgium and is located near the exhibition center.
+Brussels Expo is easily accessible by public transport and car, providing ample parking facilities for visitors. This accessibility, combined with its versatile event spaces, makes it a popular location for both national and international events.
+The venue contributes significantly to the local and national economy by attracting tourists and business travelers, thereby supporting local businesses and generating employment opportunities.</t>
+  </si>
+  <si>
+    <t>Muzeum historii naturalnej z wystawami dotyczącymi minerałów, dinozaurów i zwierząt oraz interaktywnymi eksponatami.The coordinates you provided, (50.8366595, 4.376632), are closely associated with the Royal Belgian Institute of Natural Sciences, located in Brussels, Belgium. This museum, known for its natural history collections, is one of the most famous in the country and a leading destination for both tourists and researchers.
+The museum is particularly renowned for its exhibit of Iguanodon dinosaur fossils, which were discovered in the 19th century at a coal mine in Bernissart, Belgium. The Dinosaur Gallery, which displays these fossils, is one of the largest and most impressive in Europe. In addition to dinosaurs, the museum encompasses various other sections such as the Gallery of Evolution, the Mineral Hall, and displays on human biology and evolution.
+The museum also plays a significant role in research, focusing on natural sciences including biology, paleontology, and oceanography. It operates under the purview of the Federal Science Policy Office (BELSPO) of Belgium.
+The museum's goals extend to education, with a strong emphasis on providing educational programs and resources to schools and families. These programs aim to raise awareness about natural history and the importance of biodiversity and conservation.
+It's important to note that while colloquially it might be referred to as a "Muzeum Historii Naturalnej" by Polish-speaking visitors or residents in Belgium, it is officially known as the Royal Belgian Institute of Natural Sciences.</t>
+  </si>
+  <si>
+    <t>Nowoczesne centrum handlowe z przeszklonym sufitem mieszczące klasyczne sklepy oraz supermarket i restauracje.Woluwe Shopping Center, located in Brussels, Belgium, is a prominent shopping mall that has been serving customers since its opening in 1968. Situated in the eastern part of Brussels, specifically in the Woluwe-Saint-Lambert area, it is a convenient shopping destination for both locals and tourists.
+The shopping center hosts a diverse range of retail outlets, including both local and international brands, spanning categories such as fashion, electronics, beauty, and home goods. It also offers various services like banks, dry cleaners, and hairdressers. Food and beverage options are plentiful, with a mix of cafes, restaurants, and fast food establishments available to cater to different tastes.
+Providing a modern shopping experience, Woluwe Shopping Center typically features clean, well-maintained facilities with a pleasant indoor environment that includes open walking spaces, seating areas, and decorative elements. It is known for its accessibility, offering ample parking and being well connected to public transport. The nearest metro station is Roodebeek, which makes it easy for visitors traveling via public transit.
+Throughout the year, Woluwe Shopping Center organizes different events and promotions to attract and engage visitors, contributing to its role as a community hub in the area.
+As of my last update, always check the latest details or any specific changes directly from the shopping center’s official sources or website, especially for the most current shop listings, opening hours, and any specific health and safety guidelines.</t>
+  </si>
+  <si>
+    <t>Park miniatur ze słynnymi europejskimi budynkami zrekonstruowanymi w skali 1:25 – od Big Bena po Wieżę Eiffla.Mini-Europe is a miniature park located in Bruparck at the foot of the Atomium in Brussels, Belgium. The park is renowned for displaying replicas of famous European landmarks at a scale of 1:25. Approximately 350 models cover the park, which spans an area of 24,000 square meters.
+Mini-Europe offers visitors a unique experience to stroll around the continent in a few short hours. Each model is finely crafted with meticulous detail, and the landmarks represented in the park are chosen for their architectural and cultural significance in Europe. Some of the notable miniature landmarks include the Eiffel Tower from France, London's Big Ben, the Acropolis of Athens, and Mount Vesuvius in Italy.
+The park not only showcases models but also features interactive exhibits. Some miniatures have animated parts (like trains, mills, an erupting Mount Vesuvius, and cable cars) and sound effects which enhance the visitor experience. Visitors can also engage with buttons that trigger actions within the scenes, such as historical recaps or national anthems.
+Mini-Europe was inaugurated in 1989, and since then, it has become one of Brussels' most popular tourist attractions. It aims to provide both an educational and entertaining experience by giving insights into European heritage and history through its detailed representations.
+Additionally, the park includes a “Spirit of Europe” exhibition, which offers interactive multimedia displays about the European Union, addressing its member states, history, and the functioning of its institutions.
+Mini-Europe is positioned near other popular attractions like the Atomium, making it a convenient visit for tourists who are exploring this area of Brussels. It's particularly appealing to families, school groups, and tourists interested in European architecture and history.</t>
+  </si>
+  <si>
+    <t>Przestronne muzeum samochodów wystawiające różnorodne pojazdy, od starych powozów i limuzyn prezydenckich po słynne wyścigówki.Autoworld is a vintage car museum located in Brussels, Belgium. It is situated in the Parc du Cinquantenaire, a large public park often used for national events and festivities. The museum is housed in a historic complex that was originally built for the 1880 World Exhibition, which makes the setting particularly distinctive. 
+Autoworld showcases an extensive collection of over 250 vehicles, ranging from cars and trucks to motorcycles, primarily focusing on the automotive history from the late 19th century to the latter half of the 20th century. The collection includes both European and American classic cars which detail the evolution of the automobile industry. Highlights include classic models from iconic brands such as Ford, Ferrari, Porsche, and Rolls-Royce.
+The museum is not only about static displays; it regularly hosts temporary exhibits and events that delve into specific themes related to automotive history or focus on particular types of vehicles. These events often attract car enthusiasts and historians alike.
+Autoworld provides educational tours and has a library dedicated to automotive books and periodicals, providing resources for research and learning. The museum's location within Parc du Cinquantenaire adds to its appeal, offering visitors a scenic spot to enjoy before or after their museum visit.
+In sum, Autoworld serves as a comprehensive chronicle of automotive history preserved in a historic venue, making it a must-visit for car enthusiasts and history buffs in Brussels.</t>
+  </si>
+  <si>
+    <t>Figurka małej dziewczynki uważanej przez niektórych za siostrę słynnego Manneken Pisa.Jeanneke Pis is a small bronze sculpture located in Brussels, Belgium, depicting a young girl squatting and urinating. It was created in 1987 by Brussels sculptor Denis-Adrien Debouvrie. The statue is relatively modern compared to its more famous counterpart, the Manneken Pis, a bronze sculpture of a urinating boy that dates back to the 17th century.
+Jeanneke Pis is situated at the dead-end street called Impasse de la Fidélité/Getrouwheidsgang, not far from the Rue des Bouchers/Beenhouwersstraat, a street famous for its numerous restaurants. It is near the Delirium Café and its entrance is marked by a wrought iron gate.
+The statue is often viewed as part of a trio of similar sculptures, along with Manneken Pis and Zinneke Pis (a statue of a peeing dog). Jeanneke Pis is considered a symbol of the city’s sense of humor and its less conventional aspects.
+The sculpture is encased behind iron bars, protecting it from potential vandalism, but also allowing viewers to see it clearly. Although it attracts fewer visitors than Manneken Pis, Jeanneke Pis contributes to Brussels' rich tradition of quirky and whimsical public art.</t>
+  </si>
+  <si>
+    <t>-Fritland is a well-known friterie located in the heart of Brussels, Belgium. Situated at a central location, it is known for serving traditional Belgian fries (frites), which are thickly cut and fried twice for extra crispiness. This method of frying ensures that the fries are soft and fluffy on the inside while maintaining a crispy exterior.
+In addition to fries, Fritland also offers a variety of other local fast food, including items like frikandels (a type of deep-fried sausage), burgers, and an array of sauces to accompany the fries. The establishment is popular among both locals and tourists, often noted for its authentic Belgian fast-food experience.
+Fritland has been serving customers since its opening, and over the years, it has gained a reputation for its quality and service, making it a frequented spot in the bustling area of Brussels it resides in.
+The location of Fritland is also significant as it is near many cultural and tourist attractions in Brussels, which adds to its appeal for visitors looking for a quick and tasty meal in between sightseeing.</t>
+  </si>
+  <si>
+    <t>Kompleks muzeów z ponad 20 tysiącami dzieł sztuki reprezentującymi historię malarstwa, rzeźby i rysunku.The Royal Museums of Fine Arts of Belgium, also known as "Królewskie Muzea Sztuk Pięknych" or "Muzeum sztuki" in Polish, is a group of six art museums located in Brussels, Belgium. These museums include the Oldmasters Museum, the Magritte Museum, the Fin-de-Siècle Museum, the Modern Museum, the Antoine Wiertz Museum, and the Constantin Meunier Museum. The museums were founded in 1801 by Napoleon Bonaparte. It is worth noting that the museum holds the most important collection of visual arts in the country, including paintings, sculptures, and drawings. The director of the museum is Michel Draguet. The museum is located at Rue de la Régence 3, 1000 Bruxelles, Belgium.</t>
+  </si>
+  <si>
+    <t>-BOZAR, or the Centre for Fine Arts, is a prominent cultural venue located in Brussels, Belgium. It serves as a multidisciplinary arts center, renowned for its dedication to music, fine arts, theater, cinema, literature, and more.
+Designed by the famous Belgian architect Victor Horta, BOZAR is an example of Art Deco architecture and was completed in 1928. The building itself is considered an architectural masterpiece, known for its elegant use of space and light and its integration of artistic elements into its structure.
+BOZAR hosts an extensive range of cultural and artistic activities including exhibitions, concerts, film screenings, theatre performances, and dance, making it one of the key cultural hubs in Brussels. It also organizes workshops, lectures, and educational programs, aiming to make art accessible to a wider audience.
+The institution also plays a significant role in international cultural exchange and has partnerships with numerous cultural organizations around the world. It frequently collaborates with other cultural institutions, festivals, and artists to bring diverse cultural expressions to the Brussels audience.
+Moreover, it houses several concert halls, exhibition spaces, a cinema, and conference rooms. The Henry Le Boeuf Hall, the main concert hall, is particularly noted for its excellent acoustics and is the venue for the annual Queen Elisabeth Competition, a highly prestigious international competition for career-starting musicians.</t>
+  </si>
+  <si>
+    <t>Małe muzeum z wystawami na temat czekolady i programem pokazów na żywo prowadzonych przez mistrza czekolady.Choco-Story Brussels, also known as the Brussels Chocolate Museum, is a museum dedicated to the history and production of chocolate. Located in the heart of Brussels, Belgium, near the famous Grand Place, the museum offers visitors an extensive look into the world of chocolate, from its origins with the ancient Aztecs and Mayans to its current status as a beloved global confection.
+The museum showcases the entire chocolate-making process, including how cocoa beans are cultivated, harvested, and processed into the finished product. Exhibits often include demonstrations, where skilled chocolatiers craft chocolate right before visitors' eyes, offering insights into the techniques involved in chocolate production.
+Aside from educational displays, Choco-Story Brussels also provides numerous interactive experiences. Visitors can taste different types of chocolate and even participate in workshops to create their own chocolates. These activities make the museum particularly popular among families and school groups.
+Choco-Story Brussels not only focuses on the manufacturing and cultural aspects of chocolate but also discusses its economic impact and variations in consumption around the world. The museum aims to educate visitors on the importance of sustainable cocoa farming practices and fair trade in the chocolate industry.
+Overall, Choco-Story Brussels serves as an informative and enjoyable destination for those interested in learning more about one of the world's favorite treats, offering both educational content and hands-on experiences related to the art and science of chocolate.</t>
+  </si>
+  <si>
+    <t>Muzeum sztuki z chronologicznie uporządkowanymi dziełami René Magritte'a i powiązanymi z nim artefaktami.Muzeum Magritte'a, known as the Magritte Museum, is located in Brussels, Belgium. It is dedicated to the work of the renowned Belgian surrealist artist, René Magritte. The museum is part of the Royal Museums of Fine Arts of Belgium and is situated at the Place Royale, in the heart of Brussels.
+The Magritte Museum opened to the public on June 2, 2009. The museum houses the world’s largest collection of works by René Magritte, featuring more than 200 works including paintings, drawings, and sculptures. This extensive collection provides a comprehensive overview of the various periods and artistic techniques of Magritte's career.
+The museum's collection includes some of Magritte's most famous works such as "The Empire of Lights," "The Lovers," and "The Return." It also showcases lesser-known works and various personal documents that belonged to the artist, offering a deep insight into his life and artistic journey.
+The museum occupies the neo-classical Altenloh Hotel, which is an elegant building on the Place Royale. The presentation of the works is arranged in a manner that provides both a thematic and chronological exploration of Magritte’s work, thereby allowing visitors to understand the evolution of his thought and technique.
+Educational programs, temporary exhibits, and research initiatives are also part of the museum's offerings, helping to promote Magritte's legacy and influence in the world of modern art. The Magritte Museum is not only a tribute to the artist but also a significant cultural attraction in Brussels, drawing art lovers and tourists from around the world.</t>
+  </si>
+  <si>
+    <t>Rozległy park z magnoliami i zaprojektowanym pod koniec XIX wieku okazałym pomnikiem Leopolda I.Parc de Laeken, also known as Royal Park, is located in the northern part of Brussels, Belgium. It surrounds the Royal Palace of Laeken, which is the official residence of the Belgian Royal Family. The coordinates you provided, 50.889217, 4.3535906, pinpoint the location of the park.
+The park itself is extensive and features a variety of landscaped gardens, wooded areas, and grassy expanses, making it a popular destination for both tourists and locals. It is known for its beautiful settings and paths ideal for walking, jogging, and leisurely strolls.
+Within or adjacent to Parc de Laeken, several notable attractions can be found:
+1. **Royal Greenhouses of Laeken** - These are a complex of monumental heated greenhouses in the Art Nouveau style. They are open to the public seasonally, typically in the spring when most flowers are in bloom.
+2. **The Chinese Pavilion and Japanese Tower** - These are parts of the Museums of the Far East. The Chinese Pavilion was built in the early 20th century and features a collection of Chinese ceramics. The Japanese Tower is a pagoda-style building, both built under the reign of King Leopold II.
+3. **The Atomium** - Although technically just outside the park's immediate boundaries, this iconic building from the 1958 Brussels World’s Fair is nearby and visually associated with Laeken.
+The park is also noted for its tranquility and natural beauty, which includes a range of plant species and scenic spots ideal for picnicking and relaxation.
+Overall, Parc de Laeken serves as a significant cultural and historical site in Brussels, reflecting royal history and the broader architectural and aesthetic tastes of different periods in Belgian history.</t>
+  </si>
+  <si>
+    <t>Założona w 1948 roku restauracja serwująca klasyczne frytki belgijskie z różnymi sosami oraz burgery i przekąski.Maison Antoine is a well-known friterie in Brussels, Belgium, located in the Jourdan Place. This establishment has been serving fries since 1948 and is renowned for its traditional Belgian fries, which are fried twice for extra crispiness.
+Maison Antoine is not just famous locally but also recognized internationally, attracting tourists and visitors from around the world. It has been frequently recommended in travel and cuisine-related publications.
+What sets Maison Antoine apart is not only the quality of its fries but also its variety of sauces and accompaniments, including traditional Belgian items like frikandel and mitraillette. The friterie is situated in an area surrounded by various European Union buildings, making it a popular spot for both locals and EU staff.
+Customers often enjoy their fries outdoors, as Maison Antoine is located in a lively square and many nearby bars allow patrons to consume their fries inside while enjoying a drink. This has contributed to the vibrant local atmosphere and the cultural experience surrounding Belgian frites.
+Maison Antoine has also been acknowledged for its historical and cultural significance in Brussels, symbolizing the Belgian tradition of local friteries as integral parts of community life.</t>
+  </si>
+  <si>
+    <t>-The Parlamentarium is the official visitors' center of the European Parliament, located in Brussels, Belgium. It serves as an interactive museum that gives insights into the European Parliament and the wider European Union. The facility is situated in the European Quarter of Brussels, which is home to many of the EU's important institutions.
+The goal of the Parlamentarium is to educate visitors about the European Parliament's role, how it functions, and its impact on the lives of European citizens. It is designed to be accessible to a wide audience, offering multimedia displays and exhibits in all 24 official languages of the European Union.
+One of the highlights of the Parlamentarium is the 360-degree cinema which presents a session of the European Parliament in action, providing a unique immersive experience. In addition, there are interactive floor maps that show how European legislation affects different regions.
+The exhibitions are free of charge and cater to individuals of all ages, making it a popular educational destination for schools, tourists, and anyone interested in the workings of the European Union.
+The facility also hosts temporary exhibitions and has a role in fostering a better understanding of the democratic processes and the role citizens can play within the European Union.
+It's important to note that the information provided here is accurate as of the last update and it is advisable to check the official European Parliament website or contact the Parlamentarium directly for the most current visitor information and opening hours.</t>
+  </si>
+  <si>
+    <t>Secesyjne muzeum z eksponatami poświęconymi tradycyjnym i mechanicznym instrumentom oraz salą koncertową.The **Musical Instruments Museum (MIM)** in Brussels, Belgium, is a renowned institution dedicated to the preservation and display of a vast array of musical instruments from around the world. Located at the address 50.8428875, 4.3590038, the museum is situated in the heart of Brussels, near the Mont des Arts, making it easily accessible to visitors and tourists.
+Housed in the beautiful Art Nouveau building designed by the architect Paul Saintenoy, originally built for the department store “Old England,” the museum’s infrastructure itself is a sight to behold. The building features a striking façade made of iron and glass, typical of the Art Nouveau style, and has been a part of Brussels' architectural heritage since its completion in 1899.
+The MIM holds a collection of over 8,000 instruments, of which about 1,200 are on display. These instruments range from classical orchestral instruments to ethnic music instruments from all over the world. The collection covers a broad spectrum of the history of music production and includes rare and antique instruments that trace the evolution of music over centuries.
+One of the unique features of the museum is the use of infrared headphones that allow visitors to listen to the sounds of the instruments on display, providing a more immersive experience. This audio guide enriches the visitor's experience by offering musical samples and explanations about the instruments’ histories and uses.
+The museum also organizes temporary exhibitions, workshops, and concerts, which makes it a dynamic hub for cultural activities and learning. Its educational programs are designed to cater to different age groups, encouraging an interactive and engaging approach to learning about music history and instrumentology.
+In addition to its vast collection and educational outreach, the museum offers stunning views of Brussels from its rooftop café, adding an extra allure to the visit.
+Overall, the Musical Instruments Museum in Brussels serves not only as a custodian of musical heritage but also as a center for cultural engagement and learning, attracting music lovers, historians, and tourists from around the globe.</t>
+  </si>
+  <si>
+    <t>-Waffle Factory is a popular fast food outlet located in Brussels, Belgium, known for specializing in a variety of waffles. It caters to both sweet and savory tastes, offering a range of toppings and fillings that include everything from classic sugar and chocolate to more substantial options like cheese, ham, and other ingredients that can transform a waffle into a full meal.
+Situated at the coordinates 50.8456375, 4.3511008, Waffle Factory is centrally located, making it easily accessible for both locals and tourists. The exact address or neighborhood within Brussels might not be specified, but these coordinates suggest that it is in or near the bustling center of the city.
+The concept behind Waffle Factory focuses on fresh, made-to-order waffles using quality ingredients. This reflects a typical Belgian pride in their national dish, but with a modern twist that adapts the traditional waffle into something that can be enjoyed as a snack or a main dish throughout the day.
+In addition to serving food, Waffle Factory is known for its casual and friendly atmosphere, making it an ideal spot for a quick stop during a day out in Brussels. The outlet might also offer options for take-away and delivery, adapting to the various needs of its customers.
+This summary provides a good overview of what one might expect when visiting Waffle Factory in Brussels, focusing on its offerings, location, and dining experience.</t>
+  </si>
+  <si>
+    <t>-Le Bistro - Porte de Hal is a warm-industrial, bi-level bistro located at Bd de Waterloo 138, 1000 Bruxelles, Belgium, in the "Marolles" district. It's situated in front of a sumptuous castle in an authentic setting. The restaurant serves traditional Belgian plates &amp; beers and has a small patio. It usually operates from 10:30 AM to 11 PM from Monday to Sunday. The restaurant provides a friendly service and atmosphere and is known for its great value compared to the center of the old city. They also have a gluten-free vegetarian pasta option on the menu that's highly recommended by customers. You can usually expect a wait time of up to 15 minutes and people typically spend 1-2 hours there. For more information or to view the menu, you can visit their website at le-bistro.be.</t>
+  </si>
+  <si>
+    <t>Muzeum wojskowości ze sprzętem z różnych epok, w tym XX-wiecznymi czołgami i średniowiecznymi zbrojami.The Royal Museum of the Armed Forces and Military History, commonly referred to as the Military Museum, is located in Brussels, Belgium. Positioned in the Cinquantenaire Park (Parc du Cinquantenaire), the museum is a significant institution dedicated to the preservation and display of Belgium’s military history.
+**Historical Background and Establishment:**
+The museum was officially inaugurated in 1923, following an initial exhibition of military equipment in 1910 that was intended to celebrate the Belgian Independence Jubilee. The positive reception of this exhibition led to the creation of a permanent museum. The museum's establishment was aimed at showcasing Belgium's military heritage and to foster national pride and memory.
+**Collection and Exhibits:**
+The museum spans a vast period, covering the Middle Ages to the present day. Its collection includes an impressive array of military artifacts, including uniforms, weapons, armoured vehicles, and aircraft. Key highlights include:
+1. **Aircraft Hall:** One of the most notable features of the museum is the Aviation Hall, which contains more than 130 aircraft, ranging from early aviation models to modern jets.
+2. **Armored Vehicle Section:** This section displays a variety of tanks and armored vehicles used in different periods of military conflicts.
+3. **Uniforms and Small Arms:** The museum has an extensive collection of military uniforms and small arms, reflecting changes in military fashion and technology through the centuries.
+4. **World War I and II Exhibits:** These exhibits provide a comprehensive look at Belgium’s role and experiences during the world wars, featuring personal items, weaponry, and interactive displays that offer insights into the life of soldiers and civilians during these periods.
+**Educational Role and Public Engagement:**
+The Royal Museum of the Armed Forces and Military History not only serves as a repository of artifacts but also plays a vital educational role. It offers guided tours, educational programs, and temporary exhibitions that delve into specific historical periods or themes, enhancing public understanding of military history and its impacts on society.
+**Location and Architecture:**
+Situated in the Parc du Cinquantenaire, the museum is part of a grand complex designed for the National Exhibition of 1880 to celebrate 50 years of Belgian independence. The museum building is noted for its grand architecture, which complements the rich historical narrative contained within.
+In summary, the Royal Museum of the Armed Forces and Military History in Brussels is a key institution for understanding Belgium's military past, offering extensive collections that cover various aspects of warfare and defense. It is both a tribute to those who served and a place for learning about the complexities of military history.</t>
+  </si>
+  <si>
+    <t>Rozległa, zwieńczona kopułą świątynia rzymskokatolicka w stylu art déco z 2 wieżami i 2 muzeami.The National Basilica of the Sacred Heart in Brussels, also known as the Koekelberg Basilica, is a Roman Catholic Minor Basilica and parish church in Brussels, Belgium. Situated at the coordinates 50.8672216, 4.3169473 in the Koekelberg municipality, it is one of the largest Roman Catholic churches in the world.
+This Art Deco church, which holds the title of fifth largest church building in the world, was dedicated to the Sacred Heart, inspired by the Basilique du Sacré-Coeur in Paris. The idea for the basilica was conceived by King Leopold II during the celebration of the 75th anniversary of Belgian independence in 1905, and the building was meant to demonstrate the country's economic and industrial strength while showcasing national unity.
+Construction began in the early 20th century based on plans by architect Albert Van Huffel, but progress was hindered by two world wars and financial constraints. It wasn't until 1970 that the building was completed, largely following the design of architect Paul Rome who continued after Van Huffel's death.
+The architectural style is Art Deco, marked by its use of brick and reinforced concrete, with stained glass windows and a green copper dome that stands 89 meters high. The interior is spacious, covering an area of 3,600 square meters, capable of accommodating up to 3,500 people. From its dome, the basilica offers a panoramic view of Brussels and its surroundings.
+The Basilica of Koekelberg is not only a place of worship but also a venue for cultural events and concerts, making it a significant fixture in the cultural landscape of Brussels. It has also been recognized as a cultural heritage site by the Flemish government.</t>
+  </si>
+  <si>
+    <t>-Café Belga is a popular café and bar located in the heart of Brussels, specifically in the Ixelles neighborhood. It is situated at Place Flagey, which is a vibrant square known for hosting various cultural activities and a local market. Café Belga is notably housed on the ground floor of the Flagey building, which is an iconic Art Deco structure originally home to the National Institute for Radio Broadcasting.
+This café is renowned for its lively atmosphere and is a favorite among both locals and tourists. It offers a wide range of Belgian beers, as well as coffee and other beverages. The menu also includes light meals and snacks suitable for breakfast, lunch, or dinner. The interior of Café Belga retains a classic charm with a spacious and somewhat vintage setup, often filled with a diverse crowd.
+Café Belga also serves as a cultural hub, hosting various events including live music performances, DJ sets, and other entertainment. Its location near the Flagey ponds makes it a scenic spot, particularly in the warmer months when outdoor seating is available, allowing visitors to enjoy the view over the water and bustling square.
+The café is easily accessible by public transport, making it a convenient stop for those exploring Brussels. It embodies much of the city's historic yet cosmopolitan charm, making it a must-visit for anyone looking to soak in local culture and hospitality.</t>
+  </si>
+  <si>
+    <t>XV-wieczny katolicki kościół słynący z barokowych kaplic i gotyckiej architektury.The Church of Our Lady of Victories at the Sablon, also known simply as the Sablon Church, is a prominent Catholic church located in Brussels, Belgium. It is situated in the Sablon district, an area known for its antique shops, art galleries, and historic charm.
+The church's history dates back to the 15th century when it was significantly rebuilt in the Brabantine Gothic style, although its origins likely trace back even earlier. The church was initially associated with the archers' guild, which held considerable influence during the medieval period.
+Architecturally, the Church of Our Lady of Victories is notable for its elegant structure, featuring a richly decorated facade, a striking nave, and beautiful stained glass windows that contribute to its serene and inspiring atmosphere. The church's interior is adorned with various works of art, including paintings, sculptures, and altarpieces, reflecting its historical and artistic significance.
+The Sablon Church has undergone various renovations and restorations over the years to preserve its architectural heritage and religious significance. It continues to serve as a place of worship and a cultural landmark in Brussels, attracting both worshippers and visitors from around the world.</t>
+  </si>
+  <si>
+    <t>Galeria ze stałymi i czasowymi wystawami poświęconymi historii Europy oraz kawiarnia i sklep.The House of European History (Dom Historii Europejskiej) is a museum in Brussels, Belgium, dedicated to exploring the shared history of Europe and its peoples. The museum is located in the European Quarter at 135 Rue Belliard, part of a beautifully renovated Eastman Building in Parc Leopold. Its geographic coordinates are approximately 50.83996339999999 latitude and 4.3785536 longitude.
+The museum was initiated by the European Parliament and opened its doors to the public in May 2017. The idea behind the museum is to provide a comprehensive overview of European history, encouraging visitors to reflect on Europe's past and its implications for the present and future of Europe.
+The exhibitions in the museum cover a wide range of themes from across European history, including the continent's diverse cultures, various historical turning points, and significant movements. The exhibitions are designed to be interactive, utilizing multimedia displays and incorporating personal stories and objects to make the history more relatable and engaging for visitors.
+The museum showcases the complexities of European history, including its darker periods like wars and totalitarian regimes, aiming to foster a deeper understanding of how such historical events have shaped modern Europe.
+The House of European History offers materials and tours in all 24 official languages of the European Union, making it accessible to a wide European audience as well as international visitors. Admission to the museum is free, encouraging people from all walks of life to explore Europe's historical narrative.
+In summary, the House of European History in Brussels serves as a vital institution for education and reflection on European history, designed to promote a better understanding among citizens of the European Union and beyond.</t>
+  </si>
+  <si>
+    <t>Duże, nowoczesne muzeum mieszczące stałą kolekcję eksponatów z plastiku oraz wystawy czasowe.Design Museum Brussels, also known as the Brussels Design Museum, focuses on design and its history. It was established following the acquisition of a private collection by the Atomium, specifically the Plasticarium collection which is a significant collection of plastic design from the 1960s to the present. This museum is situated in the Heysel area, near the iconic Atomium in Brussels, Belgium.
+The museum's collection addresses a broad spectrum of design facets, from industrial design and furniture to graphic design, creating a comprehensive overview of the evolution and impact of design over the past century. Its exhibitions tend to explore both the historical and contemporary aspects of design, often emphasizing sustainability and innovation.
+The space not only showcases permanent collections like the Plasticarium but also hosts temporary exhibitions that highlight different themes or aspects of design, and sometimes the works of specific designers. This approach allows visitors to continually engage with new material on repeat visits.
+Educational programs and events are also key components of the museum's offerings, aiming to engage the community and foster a deeper understanding of design's role in everyday life.</t>
+  </si>
+  <si>
+    <t>-Noordzee - Mer du Nord is a popular seafood market and dining spot located in Brussels, Belgium. Situated in the heart of the city, specifically at the coordinates 50.8502933 latitude and 4.3476576 longitude, it is known for its bustling atmosphere and fresh seafood offerings.
+The place operates primarily as a seafood counter where fresh fish and shellfish are displayed and sold, but it is also famous for its ready-to-eat dishes which patrons can enjoy at standing tables set up around the venue. This setup makes it a unique hybrid between a market and a casual eatery.
+Noordzee - Mer du Nord is highly appreciated for its quality of seafood and the simplicity of its dishes, which highlight the freshness of the ingredients. Popular items on the menu often include fish soup, shrimp croquettes, and a variety of seafood platters. Its street-side location adds to its charm, making it a favorite spot for both locals and tourists looking to experience authentic Belgian seafood in a convivial, open-air setting.
+The venue is known to be particularly busy during lunch hours and on weekends, attracting a diverse crowd eager to sample its seafood offerings. Given its popularity and central location, it makes for an ideal stop to experience local Brussels culture and cuisine.</t>
+  </si>
+  <si>
+    <t>Usytuowane w dawnej szklarni centrum kulturalne z regularną ofertą koncertów, wystaw sztuki i występów teatralnych.Le Botanique, often referred to simply as "Botanique" or "Le Bota" by locals, is a cultural complex and music venue in Brussels, Belgium. Historically, the building served as the city's botanical garden—the Botanical Garden of Brussels—which was established in 1826. As such, it features a notable neoclassical orangery known as the Orangerie, alongside other 19th-century architectural elements.
+By the late 20th century, the original botanical function of the site had largely moved to the National Botanic Garden of Belgium located in Meise, just outside Brussels. The Botanique was then repurposed into a cultural center and officially opened in this new capacity in 1984. It rapidly became one of Brussels' premier venues for concerts, art exhibitions, and other cultural events.
+Le Botanique houses several performance spaces, including the Orangerie, which is the main concert hall, the Rotonde, and the Grand Salon. These venues are known for hosting a mix of international and local artists spanning various genres, from rock and electronic music to classical performances. Additionally, the center includes exhibition spaces that host contemporary art, photography, and multimedia displays.
+The complex is also noted for organizing the "Les Nuits Botanique" festival, an annual music festival that takes place during the spring, featuring a wide array of performances across its multiple venues.
+Located near the Brussels-North railway station and situated on the Rue Royale, Le Botanique is easily accessible and plays a significant role in the cultural life of Brussels, attracting both residents and tourists with its diverse programming and historic ambiance.</t>
+  </si>
+  <si>
+    <t>-Maison Dandoy is a renowned biscuit shop located in Brussels, Belgium. Established in 1829 by Jean-Baptiste Dandoy, it has gained fame for its traditional Belgian biscuits, particularly speculoos, which are spiced shortcrust cookies often associated with the Christmas season.
+Maison Dandoy is known for its commitment to quality and craftsmanship, using natural ingredients and traditional methods to produce their biscuits. The shop's interior often retains a charming, old-world aesthetic that reflects its long history.
+Besides speculoos, Maison Dandoy also offers a range of other baked goods including waffles, pain à la grecque, and almond bread. Their products can serve as a delightful treat or a special gift, given the shop’s iconic status and the quality of its offerings.
+The Maison Dandoy located at the coordinates you provided (50.8461197, 4.3520321) is likely one of their shops in the central part of Brussels, possibly in or near the historic Grand Place, which is a popular area for both locals and tourists.
+As of the last update, Maison Dandoy operates several locations across Brussels, each maintaining the quality and tradition that the brand is known for.</t>
+  </si>
+  <si>
+    <t>-Frites Atelier is a highly-rated restaurant located at Rue Sainte-Catherine 32, 1000 Bruxelles, Belgium. It specialises in traditional Belgian frites that are crunchy on the outside and creamy on the inside. The restaurant also serves burgers, including a vegan option, and croquettes. Their sauces are considered special. The service is quick and the food is tasty. It typically opens at 12 PM and closes between 9 PM and 10 PM. The restaurant's phone number is +31 85 876 9838. It ranks #19 on Tripadvisor among 4870 restaurants in Brussels.</t>
+  </si>
+  <si>
+    <t>Muzeum komiksu z oryginalnymi rysunkami i czytelnią usytuowane w secesyjnym magazynie projektu Victora Horty.The Belgian Comic Strip Center, also known as the Belgisch Stripcentrum in Dutch and Centre Belge de la Bande Dessinée in French, is a museum in Brussels dedicated to Belgian comics. It is located at Rue des Sables 20, close to the coordinates you provided (approximately 50.8510063, 4.3601312).
+The building that houses the museum is a notable example of Art Nouveau architecture, designed by Victor Horta in 1906. Originally, it served as a textile department store, the Waucquez warehouse, before being repurposed into the comic strip center. The museum was inaugurated in 1989, aligning with a growing recognition of comic strips as an important part of Belgian culture.
+The Belgian Comic Strip Center exhibits a comprehensive collection of comic strip art, showcasing the rich history and diversity of Belgian comics. It features permanent exhibitions on famous Belgian comics like Tintin, created by Hergé, and The Smurfs, by Peyo. Additionally, it has rotating exhibitions focusing on different aspects of comic art, including the works of new artists, specific themes, or the history of comics.
+The museum not only serves as a cultural archive but also supports the comic industry through its research library, preservation efforts, and promotion of comic strip art. It has become a major tourist attraction in Brussels, attracting both comic enthusiasts and those interested in the artistic and cultural heritage of Belgium.</t>
+  </si>
+  <si>
+    <t>-The **Royal Museums of Art and History, Brussels** are a group of notable museums in Brussels, Belgium, dedicated to art and history. It includes several locations, the most prominent of which is the **Cinquantenaire Museum** located in the Cinquantenaire Park. This museum is known for its vast collection which spans various domains such as national archaeology, non-European civilizations (notably Egypt, China, and the Americas), and European decorative arts.
+The Cinquantenaire Museum, with its location marked by the coordinates (50.8393483, 4.391503), is housed in a grand building commissioned by King Leopold II for the National Exhibition commemorating the fiftieth anniversary of Belgian independence in 1880. The museum structure, recognized by its impressive triumphal arch and expansive exhibition halls, was designed in part by the famous architect Gédéon Bordiau. 
+The collections in the museum cover a wide range from prehistoric artifacts to the 20th century, including tools from the Neolithic period, items from ancient Egypt, Roman and Greek antiquities, as well as Merovingian and Carolingian textiles. There is also a significant amount of objects from non-European cultures, contributing to its reputation as a comprehensive repository of world arts and cultures.
+The Royal Museums of Art and History also manage other entities including the **Musical Instruments Museum**, which is located in central Brussels and is famously known for its extensive collection of over 8,000 instruments.
+The museum plays a crucial role not only as a custodian of heritage but also as an educational and research institution, offering various workshops, guided tours, and scholarly publications that provide deeper insight into its collections and related subjects.</t>
+  </si>
+  <si>
+    <t>-Gaston is an ice cream shop located in Brussels, Belgium. It's known primarily for offering a wide variety of freshly made ice creams and sorbets. This establishment is popular among locals and tourists alike, who often praise the quality and the unique flavors of its offerings.
+The location of Gaston is favorable, being situated in a bustling area of Brussels. This allows for a pleasant atmosphere where customers can enjoy their ice cream while soaking in the local vibes of the city.
+As the coordinates suggest, Gaston is located at approximately 50.8533145 latitude and 4.3465976 longitude, placing it conveniently within the city for visitors exploring nearby attractions and locals alike. Given this central location, it's a popular spot during the warmer months particularly.
+The shop typically features a range of both classic and innovative flavors, often made with high-quality, natural ingredients. The artisanal aspect of Gaston's ice cream production is a significant draw, emphasizing craftsmanship and quality.
+While detailed, more specific information such as the owners' backgrounds, the exact opening date, and other intricate details about the business operations at Gaston are not provided here, it is clear that Gaston enjoys a solid reputation in Brussels for its quality ice cream and strategic location.</t>
+  </si>
+  <si>
+    <t>Kanapki, sery, napoje owocowe i inne podstawowe produkty delikatesowe w popularnym, bezpretensjonalnym sklepie.Tonton Garby, located in Brussels, Belgium, is a highly popular sandwich shop known for its delectable and personalized cheese sandwiches. This small and cozy establishment is situated at 50.84514919999999 latitude and 4.3548433 longitude, which places it in the heart of the city near key attractions and governmental buildings.
+The shop is especially famed for its friendly service, which is largely attributed to the owner, Garby, who is known for his warm personality and for taking the time to chat with each customer, making recommendations based on their preferences. The atmosphere in Tonton Garby is welcoming and personalized, making it feel more like a visit to a family member’s home rather than a typical sandwich shop.
+The menu at Tonton Garby primarily features a variety of cheeses, which can be used to create custom sandwiches according to the preferences of the customers. The ingredients used are fresh and high-quality, contributing to the strong reputation of the sandwiches. Despite its simplicity, the quality of the ingredients and the care put into making each sandwich are reasons why people frequently visit and recommend this place.
+Due to its popularity, Tonton Garby is often busy, and there may be a wait to get served, especially during peak hours. However, patrons generally feel that the quality of the sandwiches and the personal service are well worth the wait.
+In summary, Tonton Garby in Brussels is celebrated for its exceptional cheese sandwiches, personalized service, and charming atmosphere, making it a must-visit for anyone in the city looking for a quick and delicious meal.</t>
+  </si>
+  <si>
+    <t>-Frit Flagey is a popular friterie or fry shop located near Place Flagey in Brussels, Belgium. This establishment is well-known for serving traditional Belgian fries, often referred to locally as "frites." These fries are typically thick-cut and double-fried, which makes them crispy on the outside and soft on the inside—a characteristic hallmark of Belgian frites.
+Place Flagey, where Frit Flagey is situated, is a vibrant public square that is often bustling with activity, making it a prime location for a snack vendor like Frit Flagey. The area is not only a cultural hub but also hosts various events and markets, drawing both locals and tourists who might stop at Frit Flagey for a quick, delicious treat.
+Frit Flagey is particularly famous for the quality of its fries and the variety of sauces available, ranging from traditional mayonnaise to more exotic flavors. The popularity of this spot means that there can often be queues, especially during peak hours and on weekends, which attests to its reputation and locals’ love for good frites.
+In addition to fries, Frit Flagey may also offer a range of typical Belgian street food snacks like frikandels (a type of deep-fried sausage), burgers, and other meat-based treats often served in a bun or with fries.
+If visiting Frit Flagey, it's also worth exploring the surrounding area of Place Flagey, which is known for its art deco architecture, including the Maison de la Radio Flagey, a cultural venue that hosts concerts and events. This combination of great food and vibrant local culture makes Frit Flagey a notable stop in Brussels for food enthusiasts and culture seekers alike.</t>
+  </si>
+  <si>
+    <t>-Le Zinneke is a restaurant located in Brussels, Belgium, known for its focus on Belgian cuisine. Its name, "Le Zinneke," refers to a colloquial term for the residents of Brussels, which in turn comes from the name of a small, wandering river (the Zenne) that once flowed through the city. The term is affectionate and embodies a sense of local pride and multiculturalism, which is fitting for a restaurant known for traditional and regional dishes.
+Le Zinneke is particularly famous for its extensive selection of mussels (moules), which is a staple in Belgian culinary tradition. They serve these mussels with a variety of sauces and preparations, making it a popular destination for both tourists and locals who wish to experience authentic Belgian cuisine. Besides mussels, the menu typically features a range of other Belgian specialties including stews, fries, and a selection of Belgian beers, which are integral to the country's gastronomic culture.
+The restaurant's location in Brussels adds to its appeal, situated in an area that is accessible and often visited by those exploring the city's culinary scene. The ambiance of Le Zinneke is typically described as cozy and traditional, with decor that reflects Belgian cultural heritage.
+If you are planning a visit, it might be a good idea to check for current details like opening hours, menu changes, or any special guidelines they might be following, especially in light of any recent health and safety regulations.</t>
+  </si>
+  <si>
+    <t>-The Triumphal Arch (Arc de Triomphe) in Brussels, not to be confused with the more famous Arc de Triomphe in Paris, is a notable historical and architectural landmark located in the Parc du Cinquantenaire (Jubelpark). This park was established to celebrate the 50th anniversary of Belgian independence. The construction of the park began in 1880, and the arch itself was completed in 1905.
+The arch was designed by the architect Gédéon Bordiau. The design features three archways, with the central arch being the tallest and most prominent. It is adorned with various sculptures that represent Belgian provinces and other allegorical figures, which highlight the economic and cultural achievements of Belgium.
+The arch, along with the surrounding park and the museums located at its base, is a popular tourist attraction and event space. It offers visitors not only historical insights but also picturesque views of the sprawling park and the European Quarter of Brussels.
+The area around the Triumphal Arch also houses important museums such as the Royal Museum of the Armed Forces and Military History and Autoworld, making it a center for both historical and cultural education.
+Overall, the Triumphal Arch in Brussels is a symbol of Belgian national pride and a testament to the country's rich history and architecture.</t>
+  </si>
+  <si>
+    <t>Gotycko-romański kościół z 1134 roku oraz miejsce pochówku malarza Pietera Bruegla (starszego).The Church of Our Lady of the Chapel, also known as Église Notre-Dame de la Chapelle in French and Onze-Lieve-Vrouw ter Kapellekerk in Dutch, is a Roman Catholic church located in Brussels, Belgium. It is situated in the Marolles district, a historically vibrant and diverse area of the city.
+The church itself has a rich history, dating back to the 12th century. It was initially built around 1134, which makes it one of the older churches in Brussels. The original structure was replaced in the 13th century by a larger building in the Gothic style, which is the basis for the current structure. Over the centuries, the church has undergone several renovations and restorations, which have added to its architectural complexity.
+Architecturally, the Church of Our Lady of the Chapel is noted for its Gothic style, with characteristic pointed arches, ribbed vaults, and flying buttresses. The facade of the church is relatively simple compared to its richly decorated interior, which houses several notable artworks, including paintings, sculptures, and stained glass windows.
+One of the most famous historical figures associated with the Church of Our Lady of the Chapel is Pieter Bruegel the Elder, a renowned Flemish Renaissance painter. Bruegel was buried in this church in 1569. His tomb was lost over the centuries, but the church still holds a significant place in the history of Flemish art due to this association.
+The Church of Our Lady of the Chapel is not only a place of worship but also a cultural and historical monument that reflects the rich heritage of Brussels. It continues to serve the local community and is open to visitors who wish to explore its architectural beauty and historical significance.</t>
+  </si>
+  <si>
+    <t>-La Machine is a bar located at Pl. Saint-Géry 2, 1000 Bruxelles, Belgium. It is an industrial-style hangout that offers an extensive selection of drinks, including 59 beers, 70 cocktails, and 60 selected spirits. The bar is also known for its steampunk-inspired decor. It features live music and has outdoor seating. It usually opens at 2 PM and closes late into the night, with extended hours on the weekend. Patrons typically spend 1 to 2.5 hours here. The bar, which opened in 2016, is a popular spot in the Place Saint-Géry area of Brussels.</t>
+  </si>
+  <si>
+    <t>-'t Kelderke is a restaurant located in Brussels, Belgium, known for serving traditional Belgian cuisine. It is situated in a prime location on the Grand Place, which is the central square of Brussels and a major tourist attraction. The name 't Kelderke actually translates to "the cellar" in Dutch, reflecting its unique setting in a historic cellar of a building.
+The restaurant is famous for offering a range of Belgian specialties such as stoofvlees (a Flemish beef stew), waterzooi (a creamy fish or chicken stew), and, of course, Belgian fries. The ambiance of 't Kelderke is particularly noted for its cozy, authentic feel that complements the traditional meals.
+Given its location and its focus on traditional local cuisine, 't Kelderke is popular among tourists seeking to experience authentic Belgian food. It also receives positive reviews for its atmosphere and quality of food, making it a recommended place for those visiting Brussels and wanting to indulge in the local culinary culture.</t>
+  </si>
+  <si>
+    <t>-Mokafé is a well-known establishment located in the heart of Brussels, specifically housed within the historical Galeries Royales Saint-Hubert, which is a prime location for both tourists and locals alike. Known for its cozy brasserie-style ambiance, Mokafé offers a warm and welcoming setting where patrons can enjoy a variety of traditional Belgian dishes along with a selection of beverages.
+Although I don't have precise menu details, establishments like Mokafé typically serve a range of coffee, pastries, and perhaps light meals which could include Belgian waffles, sandwiches, and perhaps some local delicacies. Given its location within one of Brussels' most iconic shopping galleries, it serves as a perfect spot for people watching or relaxing after a day of shopping or sightseeing.
+Being in such a central and frequented location, Mokafé typically attracts a diverse crowd, and its setting in the Galeries Royales offers an elegant backdrop that enhances the dining experience with a touch of historical charm. The café might also be appreciated for its service and for offering a taste of Belgian hospitality in a classical European environment. 
+If you're planning a visit, checking their latest reviews and potentially their website (if available) might give you a better idea of current offerings and any special health measures or hours of operation adjustments.</t>
+  </si>
+  <si>
+    <t>-Au Vieux Saint Martin is a well-regarded restaurant located in Brussels, Belgium, specifically situated in the quaint and bustling area of Sablon. It is known for serving traditional Belgian cuisine, highlighting the country's rich culinary heritage.
+The restaurant is noted for its classic and cozy ambiance that captures the historic charm of the area. It is a family-owned business, which adds to the authenticity and personal touch of the dining experience. The menu at Au Vieux Saint Martin typically features a selection of Belgian favorites, including dishes like moules-frites (mussels served with fries), carbonnade flamande (a Flemish beef and beer stew), and a range of local beers, which Belgium is famously known for.
+This establishment is particularly popular among locals and tourists alike, who are looking to enjoy traditional Belgian dishes in a friendly and inviting setting. The location in Sablon makes it an ideal spot for visitors exploring the nearby antique shops and enjoying the neighborhood's lively market and picturesque squares.
+Overall, Au Vieux Saint Martin is celebrated for its adherence to traditional Belgian cooking, its welcoming atmosphere, and its prime location in one of Brussels' most charming districts.</t>
+  </si>
+  <si>
+    <t>-Pierre Marcolini is a renowned luxury chocolatier based in Belgium. He is famous for his dedication to artisanal chocolate-making techniques and the high quality of his products. Marcolini sources cocoa beans directly from independent producers and countries around the world, ensuring control over every step of the production process from bean to bar.
+While I can't provide specifics about a location by the name of "Pierre Marcolini Zavel" (as it might be a misinterpretation or incorrect spelling), Pierre Marcolini does have multiple boutique locations in Brussels. These boutiques typically offer a wide range of his chocolate products, including pralines, ganaches, truffles, and his famous macarons.
+In these boutiques, visitors can often witness the meticulous process of chocolate creation, sometimes even including live demonstrations or tasting sessions. The boutiques themselves are usually luxuriously designed, reflecting the high-end nature of the Marcolini brand.
+To find the exact location and more specific information about the Pierre Marcolini stores in Brussels, it would be best to visit the official Pierre Marcolini website or consult local directories.</t>
+  </si>
+  <si>
+    <t>XV-wieczny ratusz z misterną gotycką fasadą i wieżą, a także arrasami i lustrzaną salą koncertową.The "Ratusz w Brukseli" refers to the Brussels Town Hall, one of Belgium's most iconic historic buildings. It is located in the heart of Brussels on the famous Grand Place (Grote Markt), a UNESCO World Heritage site known for its ornate architecture and cultural significance.
+The Brussels Town Hall stands out due to its distinctive and elegant Gothic architecture. It was constructed in stages during the 15th century, with the foundation stone laid in 1401 and the tower completed in 1455. The architect of the tower, which is approximately 96 meters tall, is believed to be Jan van Ruysbroek.
+The building serves as the seat of the local government, housing the offices of the Mayor, and it's also used for municipal council meetings. Its facade is richly decorated with numerous statues representing nobles, saints, and allegorical figures. The interior of the town hall features opulent rooms decorated in various historical styles.
+The Town Hall's location on the Grand Place ensures it is not just a center of political life but also a major tourist attraction, contributing to Brussels' status as a hub of European culture.
+This building symbolizes the city's medieval roots and reflects the historical and political developments of Brussels and Belgium as a whole. It has also witnessed numerous historical events, including royal marriages and proclamations.</t>
+  </si>
+  <si>
+    <t>-BBP Dansaert is a brasserie located at Rue Antoine Dansaert, 188, Brussels 1000, Belgium. It was established in 2015 and is home to the DANSAERT lambic brewery, a beer shop, and taproom. They also have an ongoing beer project, with the Dansaert Gueuze being a result of their mixed and spontaneous fermentation brewery project. The brewery offers tours and tastings, which can be booked. The taproom operates from 5pm to 11pm from Tuesday to Wednesday and from 2pm to 11:30pm from Thursday to Saturday. The brasserie has a rating of 4.6 based on roughly 1.3k reviews and offers dine-in and takeout. Also, the BBP Beer Shop located at Rue Antoine Dansaert 182 opens at 2 PM.</t>
+  </si>
+  <si>
+    <t>-La Fleur en Papier Doré, also known as "Het Goudblommeke in Papier" in Dutch, is a historic café located in the heart of Brussels, Belgium. The café is situated at an address that corresponds to the coordinates you provided (50.842895, 4.350739799999999). This location places it in the vicinity of central Brussels, not far from the Grand Place and other major tourist attractions.
+La Fleur en Papier Doré has a rich history and has been a popular gathering spot for artists, writers, and intellectuals, especially during the mid-20th century. It was known as a hub for the surrealist movement in Belgium, attracting figures such as René Magritte and Louis Scutenaire. The café's ambiance retains a bohemian and artistic flair, decorated with memorabilia and artworks that reflect its historic connections to the Belgian surrealist movement.
+Aside from its cultural significance, La Fleur en Papier Doré is also known for serving a variety of Belgian beers and typical local dishes, making it a popular spot for both locals and tourists seeking to experience a piece of Brussels' cultural heritage. The café's atmosphere is typically described as cozy and welcoming, with an interior that feels like stepping back in time due to its preserved historic décor.
+In addition to being a café, La Fleur en Papier Doré often hosts readings, exhibitions, and other cultural events, continuing its legacy as a center for artistic and intellectual exchange in Brussels.</t>
+  </si>
+  <si>
+    <t>Bar z ponad 2000 gatunkami piwa, pamiątkami z browarów i muzyką na żywo w czwartkowe wieczory.The Delirium Taphouse is located in the Delirium Village in the heart of Old Brussels, above the Delirium Cafe. This unique bar offers 29 quality draft beers, and the selection changes regularly. Over the course of a year, patrons have the opportunity to taste and discover more than 250 different beers on tap. The bar is open from 11 AM to 3 AM.</t>
+  </si>
+  <si>
+    <t>-"Kościół pw Świętego Mikołaja", also known as the Saint Nicholas Catholic Church, is a landmark church located in Brussels, Belgium. It dates back to the 12th century and is renowned for its art collection, which notably includes a painting by Rubens. The church is designed in the Gothic architectural style. Unfortunately, more specific details about its history or significance are not readily available.</t>
+  </si>
+  <si>
+    <t>-Laurent Gerbaud is a well-known chocolatier based in Brussels, Belgium. He has established himself through his chocolate company, where he crafts high-quality chocolates that are recognized for their unique blends and flavors. Gerbaud particularly stands out for his use of fruits and nuts, often combining them with high-quality chocolate sourced from around the world.
+His shop in Brussels, which includes both a workshop and a retail space, allows visitors to see the chocolate-making process and to taste and purchase his products. Gerbaud's approach to chocolate making is artisanal, emphasizing quality ingredients and careful production methods. He is noted for using less sugar and focusing on the natural flavors of the cacao and his selected additions, such as dried fruits and spices.
+Located in the heart of Brussels, near key attractions, his chocolate shop has become a popular destination for both tourists and locals who are looking to experience fine Belgian chocolate with a distinctive twist.
+Laurent Gerbaud has also participated in various international food and chocolate events and has garnered recognition for his contributions to the chocolate industry. His creations reflect a blend of Belgian chocolate-making traditions and a more global influence, drawing from his experiences and travels, particularly in Asia.
+While specific details about the coordinates provided might be tied to his physical shop location, making it accessible for those who are visiting Brussels and wish to have a unique and high-quality chocolate experience directly from a master chocolatier.</t>
+  </si>
+  <si>
+    <t>Zbudowany w eklektycznym stylu neoklasycystycznym okazały budynek – siedziba najważniejszych sądów w kraju.Pałac Sprawiedliwości, or the Palace of Justice, located in Brussels, Belgium, is an iconic building and a major architectural landmark. It is situated at Place Poelaert/Poelaertplein in the Marolles/Marollen district of Brussels. Although the location coordinates you provided point near this area, the precise location of the Palace of Justice is at GPS coordinates 50.8367° N, 4.3549° E.
+The Palace of Justice was designed by the architect Joseph Poelaert in the eclectic style, which blends elements of Neoclassicism and Assyrian revival. The construction of the building began in 1866 and was completed in 1883, making it one of the largest buildings constructed in the 19th century. The building's total area is about 26,000 square meters, and its most prominent feature is the massive dome that rises 104 meters above the ground, dominating the Brussels skyline.
+The construction of the Palace of Justice was ordered by Leopold II and is noted for its grand scale and the use of expensive materials, including various kinds of marbles and gilded ornaments. The architecture was significantly ahead of its time, particularly in terms of the use of iron and glass.
+The Palace of Justice has served as the most important court building in Belgium, housing the Supreme Court of Belgium (Cour de cassation/Hof van Cassatie). Its large scale and opulent design are reflective of the concept of judicial and governmental power, intended to impress and convey the authority of the law.
+The building underwent extensive restoration and renovation works, which were necessitated by both age and damage suffered during the Second World War when it was hit by bombs.
+The Palace of Justice is not just a functional building; it has also been a point of contention and symbol in various social contexts, often associated with the reach and face of justice in Belgium. It provides a backdrop for many public and political events and is a focal point for many tours in Brussels.
+Visitors to the Palace can explore some parts of its interiors and the surrounding area, which offer panoramic views of the city. The building's imposing presence and architectural details continue to make it one of the most photographed and visited sites in Brussels.</t>
+  </si>
+  <si>
+    <t>-A l’Imaige Nostre-Dame is a historic pub located in Brussels, Belgium. This pub is known for its charming and authentic atmosphere, providing a glimpse into the traditional Belgian pub culture. Situated in close proximity to key landmarks in Brussels, its location makes it a convenient spot for both locals and tourists to enjoy a relaxed setting.
+The name "A l’Imaige Nostre-Dame" translates to "In the Image of Our Lady," indicating a historical connection likely to religious imagery or a dedication, which reflects the common historical practice in Belgium of naming pubs and other communal spaces with religious references.
+Specializing in a variety of Belgian beers, A l’Imaige Nostre-Dame offers patrons the opportunity to taste different local brews in an authentic setting, enriched by the historical elements of its decor and architecture. This spot is not just about enjoying a drink; it’s also about immersing oneself in the historical ambiance that is typical of the old Brussels establishments.
+Please note that details like the exact opening year or specific historical events associated with the location may require further research or local inquiry to confirm.</t>
   </si>
   <si>
     <t>The Grand-Place, or Grote Markt in Dutch, is the central square of Brussels, Belgium, renowned for its aesthetic and historical significance. It is surrounded by opulent guildhalls, the striking Town Hall, and the King's House or Maison du Roi, which houses the Brussels City Museum. The square is a fine example of the eclectic blend of architectural and artistic styles that characterizes the heritage of this region.
@@ -1239,12 +1517,33 @@
 Please note that details like the exact opening year or specific historical events associated with the location may require further research or local inquiry to confirm.</t>
   </si>
   <si>
-    <t>Park Brukselski, ulokowany w centrum Brukseli to zielona oaza w tętniącym życiem mieście. Obszerne 13-hektarowe tereny zielone, które kiedyś były poligonem łowieckim, obecnie przyciągają mieszkańców i turystów swoimi symetrycznymi alejkami, neoklasycznymi posągami i fontannami. Park, umiejscowiony pomiędzy Pałacem Królewskim a Parlamentem Belgii, jest popularnym miejscem zarówno dla miłośników joggingu, jak i miłośników kultury, oferując scenę teatralną na świeżym powietrzu oraz liczne wydarzenia kulturalne.</t>
+    <t>Grand-Place to ogromny plac miejski, otoczony starymi kamienicami, w tym ratuszem i domem królewskim. Plac jest ważnym punktem życia codziennego miasta, a także miejscem szczególnych atrakcji, jak na przykład wystawa kwiatowych dywanów z begonii.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atomium to nie tylko gigantyczny model atomu w Brukseli, ale także muzeum i centrum wystawowe. Składające się z dziewięciu stalowych sfer połączonych ruchomymi schodami, Atomium oferuje zarówno ekspozycje naukowe, jak i widoki na miasto z wysokości 92 metrów. </t>
+  </si>
+  <si>
+    <t>Manneken Pis to nie tylko zwykła brązowa fontanna przedstawiająca siusiającego chłopca, ale istotny symbol Brukseli. Zainstalowana w XVII wieku, statua przyciąga liczne tłumy dzięki swoim różnorodnym przebraniom, które zmieniają się zgodnie z kalendarzem zarządzanym przez lokalne organizacje. Choć bywała celem ataków i kradzieży, nadal stanowi kluczową atrakcję turystyczną, otoczoną opieką z uwagi na swoje kulturowe znaczenie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Królewskie Galerie Świętego Huberta to zabytkowy, osłonięty szklanym dachem pasaż handlowy w sercu Brukseli. Atrakcja ta jest jednym z najstarszych takich miejsc w Europie, gdzie na długości 200 metrów rozciągają się luksusowe sklepy, kawiarnie oraz przestrzenie kulturalne. </t>
+  </si>
+  <si>
+    <t>Cinquantenaire to rozległy park miejski, którego nazwa nawiązuje do 50. rocznicy niepodległości Belgii. Park znany jest z imponującego Łuku Triumfalnego i okolicznych muzeów, w tym Sił Zbrojnych i Historii Wojskowej oraz Muzeum Sztuki i Historii. Przyciąga zarówno turystów, jak i mieszkańców, oferując zielone przestrzenie idealne na spacery czy pikniki, a także będąc miejscem różnorodnych wydarzeń kulturalnych.</t>
+  </si>
+  <si>
+    <t>Delirium Cafe oferuje imponujący wybór ponad 2000 różnych piw z całego świata. Wystrój, pełen browarnianych pamiątek, tworzy idealne tło dla czwartkowych koncertów na żywo oraz spotkań z różnorodną międzynarodową publicznością. Znany z charakterystycznego logo różowego słonia, Delirium Cafe jest nie tylko punktem obowiązkowym dla miłośników piwa, ale i znaczącym przyczółkiem lokalnej kultury i życia nocnego.</t>
+  </si>
+  <si>
+    <t>Park Brukselski, ulokowany w centrum Brukseli to zielona oaza w tętniącym życiem mieście. Obszerne 13-hektarowe tereny zielone przyciągają mieszkańców i turystów swoimi symetrycznymi alejkami, neoklasycznymi posągami i fontannami. Park, umiejscowiony pomiędzy Pałacem Królewskim a Parlamentem Belgii, jest popularnym miejscem zarówno dla miłośników joggingu, jak i miłośników kultury, oferując scenę teatralną na świeżym powietrzu oraz liczne wydarzenia kulturalne.</t>
   </si>
   <si>
     <t>Katedra św. Michała i św. Guduli stanowi serce religijne miasta. Znana z monumentalnej fasady z dwiema wieżami oraz przepięknych witraży, od wieków przyciąga zarówno wiernych, jak i miłośników historii oraz sztuki. Katedra jest miejscem kluczowych uroczystości królewskich.</t>
   </si>
   <si>
+    <t xml:space="preserve">Art Mountain to malownicze wzgórze utkane z obiektów kultury takich jak biblioteka królewska, archiwa narodowe oraz centra konferencyjne, otoczone ogrodem. Kompleks, będący przykładem architektury modernistycznej, łączy górną i dolną część miasta, tworząc spójną przestrzeń odpoczynku i inspiracji. </t>
+  </si>
+  <si>
     <t>Pałac Królewski w Brukseli to architektoniczny klejnot w centrum miasta. Choć Król i Królowa Belgii nie rezydują w nim na co dzień, każdego lata otwiera swoje podwoje dla zwiedzających, oferując dostęp do tak wyjątkowych pomieszczeń jak Sala Tronowa czy Salon Luster z niezwykłym dziełem sztuki Jana Fabre. Wzniesiony w stylu neoklasycznym pałac przyciąga uwagę długą kolumnadą i imponuje bogato zdobionym wnętrzem, pełnym fresków i dzieł sztuki.</t>
   </si>
   <si>
@@ -1275,6 +1574,9 @@
     <t>BOZAR, czyli Centrum Sztuk Pięknych, jest wielodyscyplinarnym ośrodkiem kultury znanym z zaangażowania w muzykę, sztukę, teatr, kino i literaturę. Zaprojektowany przez Belgijskiego architekta Victora Horta w stylu Art Deco, budynek uważany jest za arcydzieło architektury z 1928 roku. BOZAR jest nie tylko miejscem wystaw i koncertów, ale również centrum wymiany kulturalnej, goszczącym prestiżowy coroczny konkurs muzyczny Queen Elisabeth Competition.</t>
   </si>
   <si>
+    <t>Choco-Story Brussels to muzeum poświęcone historii i produkcji czekolady. Oferuje ono zwiedzającym szczegółowy wgląd w proces tworzenia czekolady, od początków u starożytnych Azteków i Majów, po współczesne metody produkcji. Muzeum zapewnia także interaktywne doświadczenia, takie jak degustacje czekolady i warsztaty.</t>
+  </si>
+  <si>
     <t>Muzeum Magritte'a to dom dla największej kolekcji prac René Magritte’a, belgijskiego artysty surrealizmu. Mieści się w eleganckim budynku neoklasycznym Altenloh Hotel i prezentuje ponad 200 dzieł, w tym malowidła, rysunki i rzeźby. Ekspozycja w muzeum jest zorganizowana tematycznie i chronologicznie, co pozwala odwiedzającym śledzić ewolucję myśli i technik artysty, a także zapoznać się z mniej znanymi dziełami i osobistymi dokumentami Magritte’a.</t>
   </si>
   <si>
@@ -1320,24 +1622,30 @@
     <t>Le Botanique to kulturalne serce Brukseli, mieszczące się w zabytkowej szklarni, gdzie kiedyś rozwijał się botaniczny ogród miasta. Obecnie centrum oferuje szeroki wachlarz działalności — od koncertów po wystawy sztuki. Znane jest także z organizacji festiwalu "Les Nuits Botanique", który co wiosnę ożywia miasto muzyką różnych gatunków.</t>
   </si>
   <si>
+    <t>Maison Dandoy to prawdziwy skarb dla miłośników tradycyjnych belgijskich ciasteczek, z speculoos na czele. Od 1829 zachowuje wysoką jakość i wyjątkowy, niezmieniony przez lata wystrój wnętrza. Oferuje również inne wypieki, takie jak gofry i pain à la grecque.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frites Atelier to cenione miejsce dla miłośników tradycyjnych belgijskich frytek. Restauracja oferuje także burgery, w tym opcję wegańską, oraz krokiety, a jej specjalne sosy dodatkowo podnoszą kulinarne doznania. </t>
   </si>
   <si>
-    <t>Maison Dandoy to prawdziwy skarb dla miłośników tradycyjnych belgijskich ciasteczek, z speculoos na czele. Od 1829 zachowuje wysoką jakość i wyjątkowy, niezmieniony przez lata wystrój wnętrza. Oferuje również inne wypieki, takie jak gofry i pain à la grecque.</t>
-  </si>
-  <si>
     <t>Belgijskie Centrum Komiksu jest miejscem, gdzie miłośnicy komiksów mogą zgłębiać swoją pasję. Znajduje się w imponującym budynku secesyjnym, zaprojektowanym przez Victora Horty. Muzeum oferuje zarówno stałe wystawy ikon komiksu, jak Tintin czy Smerfy, jak i rotacyjne ekspozycje, które prezentują różnorodne aspekty sztuki komiksowej.</t>
   </si>
   <si>
     <t>Królewskie Muzeum Sztuki i Historii w Brukseli zgromadziło kolekcję dzieł, rozciągającą się od prehistorii aż po współczesność. Znajduje się w okazałym budynku, który pierwotnie został wzniesiony z okazji pięćdziesiątej rocznicy niepodległości Belgii. Muzeum jest nie tylko skarbcem narodowych i nieeuropejskich dzieł sztuki, ale również ośrodkiem edukacyjnym oferującym warsztaty i wycieczki.</t>
   </si>
   <si>
+    <t>Gaston jest lokalną lodziarnią cenioną zarówno przez mieszkańców, jak i turystów za szeroką gamę lodów oraz sorbetów tworzonych na miejscu. Gaston stanowi idealne miejsce na odpoczynek, gdzie można spróbować zarówno klasycznych, jak i nowatorskich smaków, przygotowanych z naturalnych składników.</t>
+  </si>
+  <si>
     <t>Tonton Garby to urokliwy sklepik będący rajem dla miłośników kanapek. Zaangażowanie w personalizowanie zamówień, używanie świeżych składników oraz bliskość do głównych atrakcji miasta czynią to miejsce obowiązkowym punktem na mapie każdego smakosza.</t>
   </si>
   <si>
     <t>Frit Flagey jest znane z oferowania klasycznych belgijskich frytek. Obok szerokiej gamy sosów, dostępne są również lokalne przekąski, jak frikandele.</t>
   </si>
   <si>
+    <t>Le Zinneke to miejsce oferujące lokalne podejście do belgijskiej kuchni ze szczególnym naciskiem na szeroki wybór muszli. Restauracja cieszy się uznaniem za swoje tradycyjne dania i przytulną atmosferę, pełną elementów kulturalnego dziedzictwa Belgii. Jest to idealne miejsce dla każdego, kto chce zanurzyć się w lokalne smaki.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Łuk Triumphalny położony w Parku Cinquantenaire, to znaczący zabytek przywołujący 50. rocznicę niepodległości Belgii. Zakończony w 1905 roku, charakteryzuje się trzema bramami, z których środkowa jest największa, zdobiona różnymi rzeźbami symbolizującymi belgijskie prowincje i osiągnięcia kulturalne oraz ekonomiczne. </t>
   </si>
   <si>
@@ -1383,41 +1691,185 @@
     <t xml:space="preserve">A l’Imaige Nostre-Dame to pub, który serwuje różnorodne belgijskie piwa w scenerii pełnej historycznych elementów. Położony w pobliżu kluczowych zabytków miasta, pub jest popularnym wyborem zarówno dla mieszkańców, jak i turystów. </t>
   </si>
   <si>
-    <t xml:space="preserve">Atomium to nie tylko gigantyczny model atomu w Brukseli, ale także muzeum i centrum wystawowe. Składające się z dziewięciu stalowych sfer połączonych ruchomymi schodami, Atomium oferuje zarówno ekspozycje naukowe, jak i widoki na miasto z wysokości 92 metrów. </t>
-  </si>
-  <si>
-    <t>Manneken Pis to nie tylko zwykła brązowa fontanna przedstawiająca siusiającego chłopca, ale istotny symbol Brukseli. Zainstalowana w XVII wieku, statua przyciąga liczne tłumy dzięki swoim różnorodnym przebraniom, które zmieniają się zgodnie z kalendarzem zarządzanym przez lokalne organizacje. Choć bywała celem ataków i kradzieży, nadal stanowi kluczową atrakcję turystyczną, otoczoną opieką z uwagi na swoje kulturowe znaczenie.</t>
-  </si>
-  <si>
-    <t>Cinquantenaire to rozległy park miejski, którego nazwa nawiązuje do 50. rocznicy niepodległości Belgii. Park znany jest z imponującego Łuku Triumfalnego i okolicznych muzeów, w tym Sił Zbrojnych i Historii Wojskowej oraz Muzeum Sztuki i Historii. Przyciąga zarówno turystów, jak i mieszkańców, oferując zielone przestrzenie idealne na spacery czy pikniki, a także będąc miejscem różnorodnych wydarzeń kulturalnych.</t>
-  </si>
-  <si>
-    <t>Choco-Story Brussels to muzeum poświęcone historii i produkcji czekolady. Oferuje ono zwiedzającym szczegółowy wgląd w proces tworzenia czekolady, od początków u starożytnych Azteków i Majów, po współczesne metody produkcji. Muzeum zapewnia także interaktywne doświadczenia, takie jak degustacje czekolady i warsztaty.</t>
-  </si>
-  <si>
-    <t>Gaston jest lokalną lodziarnią cenioną zarówno przez mieszkańców, jak i turystów za szeroką gamę lodów oraz sorbetów tworzonych na miejscu. Gaston stanowi idealne miejsce na odpoczynek, gdzie można spróbować zarówno klasycznych, jak i nowatorskich smaków, przygotowanych z naturalnych składników.</t>
-  </si>
-  <si>
-    <t>Grand-Place to ogromny plac miejski, otoczony starymi kamienicami, w tym ratuszem i domem królewskim. Plac jest ważnym punktem życia codziennego miasta, a także miejscem szczególnych atrakcji, jak na przykład wystawa kwiatowych dywanów z begonii.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Królewskie Galerie Świętego Huberta to zabytkowy, osłonięty szklanym dachem pasaż handlowy w sercu Brukseli. Atrakcja ta jest jednym z najstarszych takich miejsc w Europie, gdzie na długości 200 metrów rozciągają się luksusowe sklepy, kawiarnie oraz przestrzenie kulturalne. </t>
-  </si>
-  <si>
-    <t>Delirium Cafe oferuje imponujący wybór ponad 2000 różnych piw z całego świata. Wystrój, pełen browarnianych pamiątek, tworzy idealne tło dla czwartkowych koncertów na żywo oraz spotkań z różnorodną międzynarodową publicznością. Znany z charakterystycznego logo różowego słonia, Delirium Cafe jest nie tylko punktem obowiązkowym dla miłośników piwa, ale i znaczącym przyczółkiem lokalnej kultury i życia nocnego.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art Mountain to malownicze wzgórze utkane z obiektów kultury takich jak biblioteka królewska, archiwa narodowe oraz centra konferencyjne, otoczone ogrodem. Kompleks, będący przykładem architektury modernistycznej, łączy górną i dolną część miasta, tworząc spójną przestrzeń odpoczynku i inspiracji. </t>
-  </si>
-  <si>
-    <t>Le Zinneke to miejsce oferujące lokalne podejście do belgijskiej kuchni ze szczególnym naciskiem na szeroki wybór muszli. Restauracja cieszy się uznaniem za swoje tradycyjne dania i przytulną atmosferę, pełną elementów kulturalnego dziedzictwa Belgii. Jest to idealne miejsce dla każdego, kto chce zanurzyć się w lokalne smaki.</t>
+    <t>[-0.011602694168686867, 0.009263965301215649, 0.007276045624166727, -0.01855391636490822, -0.017202651128172874, 0.00678231380879879, -0.010115002281963825, -3.9537106204079464e-05, -0.0008035320206545293, -0.031079109758138657, -0.005366083700209856, -0.011843063868582249, -0.02892228215932846, 0.0023614666424691677, -0.01785229705274105, 0.013317761942744255, 0.030325518921017647, -0.006730342283844948, -0.01420128159224987, -0.02234785445034504, -0.018333036452531815, 0.02199704572558403, 0.00685377512127161, -0.0177613478153944, 0.010257924906909466, -0.003741966327652335, 0.02321838214993477, -0.02353021129965782, 0.012590157799422741, 0.004248690791428089, -0.02837657742202282, -0.009764193557202816, -0.0276749599725008, 0.0018092667451128364, -0.0074384575709700584, -0.0016842096811160445, 0.02258172817528248, 1.101988982554758e-05, -0.004570266231894493, 0.005249147303402424, -0.0029591417405754328, 0.014591069892048836, 0.007315024267882109, -0.0031069363467395306, -0.006278837565332651, 0.027778903022408485, -0.002661928301677108, 0.004719684831798077, -0.010777642950415611, 0.0002566105395089835, -0.00795817468315363, 0.03942057490348816, -0.021581271663308144, -0.005986496340483427, -0.015955328941345215, -0.04051198437809944, -0.001924579031765461, -0.0004119167570024729, 0.029467985033988953, -0.03541875258088112, -0.003933612257242203, -0.023945985361933708, -0.03315797820687294, -0.0027301411610096693, -0.012310809455811977, -0.01568247750401497, -0.03801734000444412, -0.01496786531060934, -0.011654665693640709, -0.01587737165391445, 0.026310700923204422, 0.026414643973112106, 0.015474589541554451, 0.004320152103900909, 0.022282889112830162, -0.006678370293229818, 0.01872282475233078, 0.023984964936971664, 0.00997208058834076, 0.003225496970117092, -0.00244916882365942, -0.02249077707529068, 0.01060873456299305, 0.0296498853713274, 0.02213996835052967, 0.011674155481159687, 0.0008356083417311311, 0.014928886666893959, -0.013259293511509895, -0.002367963083088398, 0.000716641778126359, -0.0007345070480369031, 0.0032612276263535023, 0.014409168623387814, -0.009764193557202816, -0.013486670330166817, 0.007379989139735699, 0.014019381254911423, -0.007789266761392355, 0.008334970101714134, 0.011420792900025845, -0.00998507346957922, -0.014746985398232937, -0.01860588788986206, -0.04646274819970131, -0.010147484950721264, -0.0009939598385244608, -0.0035503203980624676, 0.02086665853857994, 0.01997014693915844, 0.01730659417808056, 0.023543205112218857, -0.006743335165083408, -0.042876698076725006, -0.011147941462695599, -0.01935947872698307, 0.011024508625268936, -0.003056588815525174, 0.025609081611037254, -0.013772514648735523, 0.024205844849348068, 0.00039141226443462074, 0.017436522990465164, -0.019697295501828194, 0.022529754787683487, -0.002830836456269026, -0.01311637181788683, 0.0017654155381023884, -0.03087122179567814, 0.003225496970117092, 0.007055165711790323, 0.008003650233149529, 0.01308388914912939, 0.0032384898513555527, 0.003449625102803111, 0.016072265803813934, -0.01294096652418375, 0.008705268613994122, -0.03165080025792122, -0.042330995202064514, 0.03778346627950668, 0.017254622653126717, -0.023439262062311172, 0.005336849484592676, 0.007490429095923901, 0.027752917259931564, -0.016423074528574944, 0.03196262940764427, 0.020918631926178932, -0.006064454093575478, 0.036847975105047226, -0.0006094500422477722, 0.011134948581457138, 0.004001825116574764, 0.02738911472260952, 0.003071205923333764, -0.011180424131453037, 0.03487304598093033, 0.0061456598341465, 0.013616600073873997, -0.0033424333669245243, 0.012180879712104797, 0.00677581736817956, 0.009595285169780254, 0.015643497928977013, 0.020268984138965607, 0.005937772803008556, 0.03461318835616112, 0.004437088500708342, 0.010335883125662804, -0.01681286282837391, 0.011635176837444305, -0.044383879750967026, 0.024309787899255753, 0.021659228950738907, 0.03424938768148422, -0.002627821872010827, 0.008646801114082336, 0.0033456815872341394, 0.011271374300122261, -0.013369733467698097, -0.027077283710241318, 0.03188467025756836, 0.02295852266252041, -0.0024686583783477545, 0.007912700064480305, 0.019905181601643562, 0.014474133960902691, 0.0034398804418742657, -0.0235951766371727, 0.010738663375377655, 0.014682020992040634, -0.0014454644406214356, -0.016617968678474426, -0.6440339684486389, 0.020905638113617897, -0.0014430282171815634, -0.010322889313101768, -0.005567474290728569, 0.01483793556690216, 0.01381149422377348, 0.015318674966692924, -0.014227267354726791, -0.008627311326563358, -0.032534319907426834, 0.00984215084463358, 0.008633807301521301, -0.008036132901906967, -0.028766365721821785, -0.0038101791869848967, 0.01370755024254322, -0.019840218126773834, 0.021282432600855827, -0.0018726072739809752, 0.02086665853857994, 0.015955328941345215, -0.019307507202029228, 0.008906659670174122, -0.011576708406209946, 0.011544225737452507, 0.006113177631050348, -0.018073176965117455, -0.027545029297471046, 0.01643606647849083, -0.023958979174494743, 0.013369733467698097, -0.014578077010810375, 0.015227723866701126, 0.0501527413725853, 0.01733257994055748, -0.03440530225634575, 0.025959892198443413, 0.010589244775474072, 0.02790883183479309, 0.0013943046797066927, -0.0012237724149599671, 0.03162481263279915, -0.023140422999858856, 0.029831787571310997, 0.015864377841353416, 0.03565262258052826, 0.003076078137382865, -0.035262834280729294, -0.01047880481928587, -0.002650559414178133, -0.011420792900025845, -0.004677457734942436, 0.0211265180259943, 0.006041716318577528, -0.013278783299028873, 0.023842042312026024, 0.008978120982646942, 0.002598587656393647, 0.002871439326554537, 0.023140422999858856, 0.012122412212193012, -0.0071980878710746765, -0.026011863723397255, -0.0011685524368658662, 0.0021535796113312244, -0.03248234838247299, 0.01369455736130476, -0.023140422999858856, 0.0072630527429282665, 0.0015770179452374578, 0.02941601350903511, -0.005492764990776777, 0.0029932481702417135, 0.015513569116592407, 0.015695469453930855, 0.0028763117734342813, -0.01987919583916664, 0.011830070987343788, 0.03349579498171806, 0.003035475267097354, -0.007763280998915434, -0.02411489374935627, 0.021061552688479424, 0.01573444902896881, 0.002590467222034931, -0.005119218025356531, 0.007250059861689806, 0.028090734034776688, 0.009263965301215649, 0.01594233512878418, 0.012947463430464268, -0.006272341124713421, -0.04292866960167885, -0.00940688792616129, 0.03388558328151703, 0.007354003377258778, 0.035054948180913925, 0.00562269426882267, -0.02136039175093174, -0.020684758201241493, -0.024621618911623955, -0.010277414694428444, 0.013356740586459637, 0.015994306653738022, 0.020762715488672256, -0.0016403584741055965, 0.012232852168381214, 0.03359973803162575, -0.016591982915997505, -0.00754889752715826, 0.028948267921805382, -0.010335883125662804, -0.012031461112201214, -0.0036055403761565685, -0.024595633149147034, 0.0170467346906662, 0.03320994973182678, 0.011277871206402779, -0.007633351255208254, 0.022010037675499916, 0.004505301360040903, 0.00622361758723855, -0.041811276227235794, 0.00940688792616129, 0.011596198193728924, 0.029104182496666908, -0.009822661988437176, -0.023491233587265015, 0.009744703769683838, 0.010011059232056141, -0.011355828493833542, 0.022737642750144005, 0.0016809614608064294, 0.0126486262306571, 0.019515393301844597, 0.032794177532196045, -0.020450886338949203, 0.0015266702976077795, -0.04430592060089111, -0.02133440598845482, -0.00817255862057209, 0.002429679501801729, -0.019606344401836395, -0.00930294394493103, -0.00045800110092386603, -0.03370368108153343, 0.008906659670174122, -0.0386669859290123, 0.012668115086853504, -0.02599886991083622, -0.010095513425767422, -0.029026225209236145, 0.008367452770471573, -0.0008238335140049458, 0.010647713206708431, -0.019697295501828194, -0.0057006520219147205, -0.02110053226351738, 0.00993959791958332, 0.015539554879069328, 0.004294166341423988, -0.009335426613688469, -0.01544860377907753, 0.012694100849330425, -0.019580358639359474, -0.02275063470005989, 0.009718718007206917, -0.003540575737133622, -0.03523685038089752, -0.007743791211396456, -0.011583204381167889, -0.0039985766634345055, 0.03063734993338585, -0.018073176965117455, 0.00879621971398592, -0.019047647714614868, -0.025803975760936737, 0.00138943234924227, 0.0007511542644351721, 0.01933349296450615, -0.015474589541554451, -0.025544118136167526, -0.002467034151777625, 0.007730798330157995, 0.0014397799968719482, 0.015474589541554451, -0.013720543123781681, -0.013720543123781681, 0.013954415917396545, 0.013226811774075031, 0.004823628347367048, -0.02651858702301979, -0.01166765857487917, -0.0032823411747813225, 0.0036152852699160576, -0.011336338706314564, -0.002405317733064294, -0.024907464161515236, 0.017527474090456963, 0.01308388914912939, 0.02593390643596649, 0.03521086275577545, -0.004112265072762966, 0.019294513389468193, -0.03349579498171806, 0.011914525181055069, -0.010030549019575119, 0.030533405020833015, -0.00565192848443985, 0.009959087707102299, -0.003680249908939004, -0.033261921256780624, -0.007581379730254412, 0.0061196740716695786, 0.018242085352540016, 0.0022347853519022465, -0.001927827252075076, -0.01255117915570736, 0.014733992516994476, 0.04807387292385101, -0.0003745620488189161, 0.020528843626379967, 0.0023630906362086535, -0.04643676429986954, -0.0009160022018477321, 0.0006110741524025798, 0.03521086275577545, -0.020450886338949203, -0.027726931497454643, -0.0033456815872341394, 0.019931167364120483, -0.006545193027704954, 0.0012716838391497731, -0.010569755919277668, 0.02507637068629265, -0.005401814356446266, -0.007951678708195686, 0.01582540012896061, -0.011998978443443775, 0.01808617077767849, 0.015370646491646767, 0.007860727608203888, 0.0021178489550948143, -0.0033846604637801647, -0.0018303801771253347, 0.0235042255371809, 0.008659793995320797, -0.0019814232364296913, 0.000610262097325176, -0.007568386849015951, -2.1491005099960603e-06, -0.0034918521996587515, -0.012869506143033504, 0.011323345825076103, -0.013473677448928356, 0.019801238551735878, -0.002059380756691098, 0.02486848458647728, 0.015175752341747284, 0.002501140581443906, -0.014863922260701656, 0.010556763038039207, 0.025141336023807526, 0.006418511737138033, -0.0005046944716013968, 0.016799869015812874, 0.0035600652918219566, -0.001697202562354505, -0.011440282687544823, 0.0198272243142128, -0.0016233052592724562, -0.007341010496020317, -0.00559995649382472, -0.021893100813031197, -0.03196262940764427, -0.026076827198266983, 0.0015745817217975855, -0.019489407539367676, 0.02666150964796543, 0.0019213308114558458, -0.03196262940764427, -0.004567017778754234, 0.03825121000409126, 0.005606452934443951, -0.01104399748146534, -0.03313199430704117, 0.010810124687850475, -0.014097338542342186, 0.02868840843439102, -0.007516414858400822, 0.02223091758787632, -0.016630960628390312, 0.0008908283780328929, -0.012876002117991447, -0.00433314498513937, 0.01585138589143753, -0.008205040358006954, 0.018787790089845657, -0.034795090556144714, -0.0016078761545941234, -0.009127539582550526, -0.019203564152121544, -0.010810124687850475, 0.02660953812301159, -0.006067702546715736, -0.015227723866701126, -0.009660249575972557, -0.0052881259471178055, -0.0032060076482594013, -0.008646801114082336, -9.602593490853906e-05, 0.012992938980460167, -0.007594372611492872, 0.011706638149917126, 0.00558046717196703, -0.0056356871500611305, 0.02590791881084442, 0.032066572457551956, -0.004437088500708342, 0.007243563421070576, -0.04394211992621422, -0.014915893785655499, -0.003033851273357868, 0.08913155645132065, 0.008705268613994122, -0.010998522862792015, 0.010745160281658173, -0.015370646491646767, 0.004193470813333988, 0.010907571762800217, 0.0038686473853886127, 0.0029705106280744076, 0.04087578505277634, -0.009010602720081806, -0.04448782280087471, 0.03139093890786171, 0.02373809926211834, 0.010647713206708431, -0.009900619275867939, -0.007204584311693907, -0.022997502237558365, 0.02741510048508644, 0.02759700082242489, -0.0055155023001134396, 0.015695469453930855, -0.0069252364337444305, 0.022438805550336838, 0.01314235758036375, 0.014253254048526287, 0.01068019587546587, -0.033054035156965256, -0.00747093977406621, -0.019697295501828194, -0.00489184120669961, 0.0023598424158990383, -0.021945074200630188, 0.006964215077459812, -0.018670853227376938, 0.016267159953713417, -0.004524790681898594, 0.013850472867488861, -0.006519206799566746, 0.018969690427184105, 0.033054035156965256, 0.007639847695827484, -0.0006496469140984118, -0.01718965731561184, 0.006801803596317768, -0.007782770320773125, 0.011037501506507397, 0.029545942321419716, -0.02086665853857994, -0.017020748928189278, 0.024673590436577797, -0.021464334800839424, 0.0010126371635124087, -0.008282998576760292, 0.020074089989066124, -0.007302031386643648, 0.00937440525740385, 0.008003650233149529, -0.025440173223614693, 0.002683041850104928, 0.007392982020974159, -0.03346981108188629, -0.003849158063530922, -0.010829614475369453, -0.020541835576295853, -0.012226355262100697, -0.027752917259931564, -0.006710852961987257, -0.02246479131281376, -0.003508093534037471, -0.0015274822944775224, -0.012154893949627876, -0.020035112276673317, -0.0020074089989066124, 0.025141336023807526, -0.006340553984045982, 0.01733257994055748, -0.01292797364294529, -0.00492757186293602, 0.027726931497454643, -0.002718772506341338, -0.019918175414204597, -0.01834603026509285, -0.034275371581315994, -0.012876002117991447, 0.024036936461925507, 0.007321520708501339, -0.001451960881240666, -0.0188397616147995, 0.013785507529973984, 0.012161390855908394, -0.0011782970977947116, 0.017553459852933884, 0.007185094989836216, -0.01834603026509285, -0.013642585836350918, -0.009900619275867939, 0.014733992516994476, 0.021048560738563538, -0.01066720299422741, 0.006402270402759314, -7.004006329225376e-05, -0.012414752505719662, -0.02336130291223526, 0.016565997153520584, -0.011934014037251472, 0.012408256530761719, -0.015357653610408306, -0.006538696587085724, -0.0006902498425915837, 0.006269092671573162, -0.03718579187989235, 0.0013114747125655413, -0.002580722328275442, -0.023426268249750137, -0.02208799496293068, 0.00619438337162137, 0.032794177532196045, 0.016708919778466225, -0.021490320563316345, -0.030507419258356094, -0.0252972524613142, 0.025375209748744965, 0.02341327629983425, -0.010498294606804848, 0.00632431311532855, -0.009263965301215649, 0.0004640915140043944, -3.331978223286569e-05, -0.009543313644826412, -0.0016874579014256597, 0.01243424229323864, -0.005934524815529585, -0.0034723628778010607, -0.007360499817878008, -0.011570211499929428, 0.003017609938979149, 0.00489184120669961, -0.02741510048508644, -0.003654263913631439, -0.045371342450380325, 0.03744564950466156, -0.006616653874516487, 0.004654720425605774, -0.01641008071601391, -0.023945985361933708, -0.009835654869675636, -0.0208146870136261, -0.01950240135192871, 0.031312983483076096, 0.001968430122360587, -0.009354915469884872, -0.005668169353157282, 0.010894578881561756, -0.006827789358794689, -0.020788701251149178, -0.005879304837435484, -0.03773149475455284, 0.0006809111800976098, 0.002405317733064294, 0.013246300630271435, 0.013265790417790413, 0.022295882925391197, 0.0055284951813519, -0.020074089989066124, -0.011453275568783283, -0.01881377585232258, -0.007490429095923901, -0.028090734034776688, 0.01886574737727642, 0.0036607603542506695, 0.04828175902366638, -0.023660141974687576, -0.013980401679873466, -0.009263965301215649, 0.014993851073086262, 0.0013463932555168867, -0.0002495050139259547, -0.016890820115804672, -0.01898268423974514, 0.0071266270242631435, -0.01617620885372162, -0.005547984968870878, 0.011472764424979687, -0.030533405020833015, 0.0030046170577406883, 0.01243424229323864, -0.010426833294332027, 0.007613861933350563, 0.007561890408396721, 0.01968430168926716, -0.04906133562326431, 0.04604697600007057, 0.004768408369272947, 0.001620057038962841, 0.004349386319518089, -0.02008708380162716, -0.027077283710241318, -0.02136039175093174, -0.0010345627088099718, -0.011908028274774551, -0.01181058119982481, -0.01672191172838211, -0.01730659417808056, 0.010115002281963825, 0.004203215707093477, -0.010797131806612015, -0.0013772514648735523, -0.007139619905501604, -0.02571302466094494, -0.013876458629965782, -0.002632694086059928, 0.008218033239245415, -0.006415263283997774, 0.003923867363482714, -0.009705725125968456, -0.00276424759067595, 0.0160592719912529, -0.026999326422810555, -0.026271721348166466, 0.024764541536569595, 0.0011076480150222778, 0.01857990212738514, 0.007685323245823383, 0.013343747705221176, -0.008627311326563358, -0.009738207794725895, 0.0027853611391037703, 0.0434224009513855, -0.0046287341974675655, -0.00338790868408978, 0.01959335058927536, -0.008458402939140797, -0.01660497486591339, -0.00748393265530467, -0.00493406830355525, 0.0019635579083114862, -0.012707093730568886, -0.01796923391520977, 0.05254344269633293, 0.02011306956410408, -0.01557853352278471, -0.013993394561111927, 0.00862081442028284, 0.003969342913478613, 0.010992025956511497, -0.015123780816793442, -0.01256417203694582, -0.013473677448928356, -0.013434698805212975, -0.0170467346906662, 0.0009509206865914166, -0.02666150964796543, 0.012778555043041706, -0.007366996258497238, -0.013538641855120659, 0.02785686030983925, -0.039472546428442, -0.035288821905851364, 0.027778903022408485, 0.011433785781264305, 0.00873775128275156, -0.006425008177757263, -0.007211080752313137, 0.016358109191060066, -0.00811409018933773, -0.020827680826187134, -0.021607257425785065, 0.013330754823982716, 0.021581271663308144, -0.005249147303402424, 0.005132210906594992, 0.0020252743270248175, 0.03435333073139191, 0.026336686685681343, -0.02373809926211834, -0.005603204946964979, 0.008555850014090538, 0.0017345573287457228, -0.015344660729169846, -0.009367908351123333, -0.003855654504150152, 0.011394807137548923, -0.00017043080879375339, 0.005924779921770096, -0.0029851277358829975, -0.011050494387745857, 0.005983248353004456, 0.019034655764698982, -0.005239402409642935, -0.018177121877670288, 0.0019489408005028963, -0.00934841949492693, 0.02223091758787632, -0.010400847531855106, 0.0035990439355373383, -0.0010110130533576012, 0.017410537227988243, -0.009744703769683838, -0.004703443963080645, 0.00984215084463358, 0.03773149475455284, -0.0068602715618908405, -0.007496925536543131, 0.010836110450327396, 0.002429679501801729, 0.023984964936971664, -0.0078022596426308155, -0.023374296724796295, -0.016591982915997505, -0.008321977220475674, -0.013122867792844772, 0.0020804943051189184, -0.015773426741361618, -0.005512254312634468, -0.0033846604637801647, 0.005869559943675995, 0.007503421977162361, -0.04451380670070648, 0.02263369970023632, 0.021698206663131714, 0.0011336338939145207, 0.033807627856731415, -0.024998413398861885, 0.0035243346355855465, 0.006486724596470594, 0.0009598533506505191, 0.030975164845585823, -0.04492958262562752, 0.016527017578482628, 0.007522911299020052, 0.002291629556566477, -0.008497381582856178, 0.007191591430455446, -0.02176317200064659, -0.0296498853713274, -0.018216099590063095, 0.0262847151607275, -0.003475611098110676, -0.017865290865302086, 0.016033286228775978, 0.024933449923992157, -0.010842607356607914, 0.02327035367488861, -0.0087247584015131, -0.008218033239245415, -0.011778098531067371, -0.010933557525277138, -0.01585138589143753, -0.013746528886258602, -0.03450924530625343, 0.033261921256780624, -0.001140130334533751, -0.02889629639685154, -0.010673698969185352, 0.02046387828886509, -0.04500753805041313, -0.006113177631050348, -0.0002901079715229571, 0.015331667847931385, 0.016942791640758514, 0.03139093890786171, -0.009816165082156658, 0.01421427447348833, -0.009471852332353592, 0.023673133924603462, -0.00941988080739975, 0.015539554879069328, 0.022646691650152206, -0.019268527626991272, 0.029052210971713066, -6.176721217343584e-05, -0.04116163030266762, -0.017371559515595436, 0.032534319907426834, 0.016760891303420067, -0.019866203889250755, 0.012408256530761719, -0.00027041553403250873, 0.016397088766098022, -0.00862081442028284, -0.0015096170827746391, 0.001561588840559125, 0.02239982597529888, 0.033054035156965256, -0.022036023437976837, 0.012947463430464268, -0.00036542638554237783, 0.02660953812301159, -0.009686235338449478, -0.005781857762485743, -0.02048986405134201, 0.003907626494765282, 0.015409625135362148, 0.0003049280203413218, -0.0036412710323929787, -0.00041354086715728045, -0.00690574711188674, 0.021607257425785065, -0.006814796477556229, -0.016358109191060066, 0.012739576399326324, 0.0063210646621882915, -0.013733536005020142, -0.01056325901299715, -0.004846366122364998, -0.04547528550028801, -0.004622237756848335, -0.008393438532948494, -0.03435333073139191, 0.00992660503834486, -0.01933349296450615, 0.030741292983293533, -0.026973340660333633, -0.012973449192941189, -0.0017719119787216187, -0.00628858245909214, -0.02037292718887329, 0.02159426361322403, 0.03645818680524826, -0.0023371048737317324, 0.009023595601320267, -0.024530667811632156, -0.021724194288253784, -0.029208125546574593, -0.015552547760307789, -0.010153981857001781, -0.02614179253578186, 0.00627558957785368, 3.253310205764137e-05, -0.03695191815495491, -0.023140422999858856, 0.0007336949929594994, 0.0030695816967636347, -0.013090386055409908, -0.003959598019719124, 0.20019519329071045, 0.0023663388565182686, -0.007964671589434147, 0.011771602556109428, 0.0026570558547973633, 0.016072265803813934, 0.01056325901299715, 0.006155404727905989, -0.017293602228164673, 0.009530320763587952, -0.0286624226719141, 0.011518239974975586, -0.02573901228606701, 0.0048041390255093575, 0.0211265180259943, -0.011459771543741226, -0.017033742740750313, -0.03440530225634575, 0.004066789988428354, -0.0010199457174167037, -0.006418511737138033, -0.007808756083250046, -0.013850472867488861, 0.014617055654525757, -0.006340553984045982, -0.014292232692241669, 0.008841694332659245, 0.004563769791275263, 0.03243037313222885, 0.03560065105557442, 0.008601325564086437, 0.015331667847931385, 0.012148397974669933, 0.002225040690973401, 0.003186518093571067, 0.014643041417002678, -0.005025018937885761, -0.004138250835239887, 0.03318396583199501, 0.009043085388839245, 0.0075359041802585125, -0.012037958018481731, -0.023517219349741936, 0.01617620885372162, 0.024413730949163437, 0.0222049318253994, -0.01591634936630726, -0.01131684985011816, -0.009803172200918198, 0.010660706087946892, -0.01608525775372982, -0.004515046253800392, -0.006671873852610588, 0.03796536847949028, 0.017904268577694893, 0.003210879862308502, 0.017514482140541077, -0.0013756273547187448, 0.012466724961996078, -0.0052881259471178055, -0.027778903022408485, 0.025829961523413658, -0.024907464161515236, 0.00866628997027874, -0.0019180825911462307, 0.01721564307808876, -0.025557110086083412, 0.017280608415603638, 0.014863922260701656, 0.006096936296671629, 0.025842955335974693, 0.0016111243749037385, -0.005184182431548834, -0.006749831605702639, 0.014798956923186779, -0.01421427447348833, 0.031546853482723236, -0.001209967420436442, 0.026089821010828018, 0.020476872101426125, -0.02301049418747425, 0.0027333893813192844, -0.005999489221721888, 0.002389076631516218, 0.012440739199519157, -0.018527930602431297, 0.006220369599759579, 0.00430391076952219, -0.026817426085472107, -0.009205496869981289, -0.009907115250825882, -0.008094600401818752, 0.006493221037089825, 0.004839869681745768, 0.015357653610408306, 0.004018066450953484, 0.00621062470600009, 0.01971028745174408, -0.03988832235336304, -0.007204584311693907, 0.0028568224515765905, -0.0037127321120351553, 0.02074972353875637, -0.013733536005020142, -0.026505595073103905, 0.010582748800516129, 0.012330298312008381, 0.012765562161803246, 0.013369733467698097, -0.023075459524989128, -0.018021205440163612, -0.02941601350903511, -0.001106836018152535, -0.024309787899255753, 0.018190113827586174, 0.01119991298764944, 0.019515393301844597, -0.0016695925733074546, 0.007626854814589024, -0.01495487242937088, -0.010784138925373554, -0.016942791640758514, 0.010686691850423813, 0.011238891631364822, -0.005986496340483427, -0.024907464161515236, -0.043110571801662445, 0.02263369970023632, -0.017657402902841568, -0.02440073899924755, 0.0008786474936641753, -0.0062301140278577805, 0.00941988080739975, 0.015149766579270363, -0.018008213490247726, 0.0013512655859813094, -0.011180424131453037, -0.00426168367266655, 0.0018661108333617449, 0.007652841042727232, 0.0035243346355855465, -0.015396632254123688, 0.012479717843234539, -0.018774796277284622, -0.0010475557064637542, 0.0026375665329396725, -0.008861184120178223, -0.014682020992040634, -0.01069318875670433, -0.024816513061523438, -0.005885801278054714, -0.022594720125198364, -0.021165497601032257, -0.047865986824035645, 0.024946441873908043, -0.016137229278683662, -0.0031556598842144012, -0.011745616793632507, 0.01660497486591339, 0.019866203889250755, -0.010959543287754059, -0.0009980200557038188, 0.02642763778567314, -0.0013374605914577842, -0.0007544024847447872, 0.010654210112988949, -0.1630873680114746, 0.0311310812830925, 0.02692136913537979, -0.005866311956197023, 0.017137685790657997, 0.003884888719767332, 0.00802963599562645, 0.0034626182168722153, -0.019554372876882553, 0.03840712830424309, 0.018242085352540016, 0.0064964694902300835, -0.036873959004879, -0.009121042676270008, -0.012622639536857605, -0.021256446838378906, -0.007652841042727232, 0.00873775128275156, 0.020788701251149178, 0.020918631926178932, 0.012538185343146324, -0.02098359540104866, 0.01420128159224987, -0.0018758554942905903, 0.003920619376003742, 0.007074655033648014, -0.01829405687749386, 0.02008708380162716, 0.01796923391520977, -0.02208799496293068, -0.009744703769683838, -0.007386485580354929, 0.0404600091278553, -0.011401304043829441, 0.0010386230424046516, 0.005057501140981913, -0.015266702510416508, -0.017579445615410805, -0.01666994020342827, 0.00023448193678632379, 0.01194051094353199, -0.010082520544528961, -0.00818555150181055, -0.024738555774092674, -0.015240716747939587, 0.034327343106269836, 0.01794324815273285, -0.03087122179567814, 0.0026083323173224926, 0.0055155023001134396, 0.03232643008232117, 0.005817588418722153, 0.023400282487273216, 0.015747440978884697, 0.028246648609638214, 0.03599043935537338, 0.00943287368863821, 0.008601325564086437, -0.007016187068074942, -0.008166061714291573, -0.007503421977162361, -0.01806018501520157, -0.0026034601032733917, -0.010862097144126892, -0.009380902163684368, -0.023686127737164497, -0.01356462761759758, 0.02915615402162075, -0.011908028274774551, 0.001711819670163095, 0.02162024937570095, -0.018969690427184105, 0.02550513856112957, 0.004167485050857067, 0.00678231380879879, 0.014136317186057568, -0.002315991325303912, -0.0061748940497636795, 0.014006387442350388, 0.008711765520274639, -0.0014828190905973315, 0.04152543097734451, -0.014097338542342186, -0.021633243188261986, -0.008627311326563358, -0.00566492136567831, -0.00999806635081768, 0.029597913846373558, -0.018566910177469254, 0.007308527827262878, -0.006691363174468279, -0.018644867464900017, -0.0045475284568965435, -0.013915437273681164, 0.00754240108653903, 0.020398912951350212, 0.0055284951813519, 0.007620358373969793, -0.017228636890649796, -0.018398001790046692, -0.016475046053528786, 0.0033424333669245243, -0.029286082834005356, 0.01433121133595705, 0.02861045114696026, 0.026583552360534668, 0.014630048535764217, 0.013317761942744255, 0.04194120690226555, -0.0001206922170240432, 0.005135458894073963, -0.0016614720225334167, 0.01417529582977295, 0.010816621594130993, -0.021776165813207626, 0.011771602556109428, 0.04344838857650757, -0.017696382477879524, 0.021555285900831223, 0.0023614666424691677, 0.019060641527175903, -0.03336586803197861, 0.0008128707413561642, 0.021724194288253784, -0.0005729073891416192, 0.003985583782196045, -0.09318535774946213, -0.007289038505405188, 0.0054083107970654964, 0.01924254186451435, -0.011284367181360722, 0.02666150964796543, -0.014759978279471397, 0.004771656822413206, 0.0010589244775474072, 0.006619902327656746, -0.0317547433078289, -0.015604519285261631, 0.008861184120178223, -0.007555393967777491, 0.043604303151369095, -0.0040635415352880955, 0.011225898750126362, 0.017956241965293884, -0.002397197065874934, -0.004781401250511408, -0.012687604874372482, -0.004138250835239887, 0.0004860171175096184, -0.015240716747939587, -0.0012814286164939404, 0.006571178790181875, -0.028844323009252548, 0.036068398505449295, 0.013915437273681164, 0.010082520544528961, -0.0027285171672701836, -0.018995676189661026, 0.011784595437347889, -0.01434420421719551, 0.0136815644800663, -0.018242085352540016, 0.008874177001416683, -0.027181226760149002, 0.014162302948534489, -0.012850016355514526, -0.005765616428107023, 0.009004106745123863, 0.026336686685681343, -0.053374990820884705, 0.019203564152121544, -0.002723644720390439, -0.014993851073086262, 0.03339185193181038, -0.001784904976375401, -0.012219858355820179, -0.023426268249750137, -0.019268527626991272, -0.014591069892048836, -0.02564806118607521, 0.021399369463324547, 0.02411489374935627, -0.011407800018787384, -0.005431048572063446, -0.02692136913537979, -0.014630048535764217, 0.007626854814589024, -0.006048212759196758, -0.027051297947764397, -0.00936141237616539, 0.011440282687544823, 0.025050384923815727, -0.011089473031461239, -0.0016452308045700192, 0.0008124646847136319, -0.010329386219382286, -0.016254166141152382, -0.00928995106369257, -0.012850016355514526, 0.0033521782606840134, -0.03295009210705757, -0.0060936883091926575, -0.021490320563316345, -0.016825854778289795, 0.007639847695827484, -0.0112583814188838, -0.021698206663131714, -0.012167886830866337, 0.00941988080739975, -0.003962846472859383, 0.015617512166500092, 0.01543561089783907, -0.004713188391178846, -0.008874177001416683, 0.022594720125198364, -0.03414544090628624, 0.017371559515595436, 0.03916071727871895, 0.021984051913022995, -0.029987702146172523, -0.014136317186057568, 0.03269023448228836, 0.023686127737164497, -0.006652384530752897, -0.008081607520580292, 0.002437800168991089, -0.017878282815217972, 0.0010499918134883046, -0.06512060761451721, 0.006418511737138033, -1.4350599485624116e-05, 0.025193307548761368, -0.02176317200064659, 0.019606344401836395, 0.02284158580005169, 0.005898794159293175, -0.013395720161497593, 0.00430391076952219, -0.030013687908649445, 0.012473220936954021, 0.009803172200918198, -0.011550722643733025, -0.049139294773340225, -0.03674403205513954, 0.013993394561111927, 0.016384094953536987, -0.005791602190583944, -0.0008989489288069308, 0.001961933681741357, -0.0032141280826181173, 0.013785507529973984, -0.016540011391043663, -0.032794177532196045, 0.014227267354726791, -0.019164584577083588, 0.02213996835052967, -0.0296498853713274, -0.00804262887686491, 0.009608278051018715, -0.031053123995661736, -0.008568842895328999, 0.03497698903083801, -0.0004588131560012698, -0.050620488822460175, -0.0321185439825058, 0.03988832235336304, 0.013980401679873466, 0.02654457278549671, -0.029571928083896637, -0.01509779505431652, 0.030247561633586884, -0.028012774884700775, 0.006587419658899307, -0.005275133065879345, 0.007191591430455446, -0.003988832235336304, 0.02025599218904972, 0.00034796714317053556, 0.00033375612110830843, -0.007113633677363396, 0.010426833294332027, -0.018995676189661026, -0.004281173460185528, 0.016358109191060066, -0.007087647914886475, 0.03864099830389023, 0.03282016143202782, -0.005502509418874979, 0.03825121000409126, 0.02397197112441063, 0.006350298877805471, -0.003888136940076947, 0.02295852266252041, -0.04173331707715988, -0.008646801114082336, 0.003540575737133622, 0.006434753071516752, -0.03037749044597149, -0.021048560738563538, -0.018164128065109253, 0.024361759424209595, 0.01794324815273285, -0.014292232692241669, -0.019398458302021027, 0.013226811774075031, -0.037549592554569244, 0.0008339842315763235, 0.029260097071528435, -0.008926148526370525, 0.020035112276673317, -0.018735816702246666, 0.008705268613994122, 0.021633243188261986, -0.01808617077767849, -0.019905181601643562, -0.0170467346906662, -0.006048212759196758, 0.033028051257133484, 0.006613405887037516, 0.018774796277284622, 0.006226866040378809, 0.015006843954324722, 0.010998522862792015, -0.0022087995894253254, -0.012837023474276066, 0.0013374605914577842, 0.0005777797196060419, 0.025258272886276245, -0.013954415917396545, 0.013259293511509895, -0.003368419362232089, -0.027830874547362328, -0.007003193721175194, 0.011901531368494034, -0.025557110086083412, -0.00429741432890296, 0.008425920270383358, 0.03599043935537338, 0.01660497486591339, 0.029208125546574593, 0.022620705887675285, -0.005239402409642935, 0.008438914082944393, 0.005840325728058815, 0.01356</t>
+  </si>
+  <si>
+    <t>[-0.022509848698973656, 0.007332261651754379, 0.0008840603404678404, -0.0111055513843894, -0.0032732151448726654, 0.020600473508238792, -0.030056428164243698, -0.015534782782196999, 0.0130798714235425, 0.0003064580087084323, 0.004162958357483149, -0.0025117381010204554, -0.015236036852002144, 0.004474692977964878, -0.010962672531604767, -0.011982304975390434, 0.025484317913651466, 0.012794114649295807, -0.029484914615750313, -0.030887721106410027, -0.011969316750764847, 0.005981410853564739, 0.006552924867719412, -0.005760598927736282, -0.015508805401623249, -0.014833379536867142, 0.03896684572100639, -0.033771269023418427, 0.006929604336619377, -0.006741264369338751, 0.024653024971485138, -0.006293145939707756, -0.03281008452177048, -0.011014629155397415, -0.01611928641796112, 0.009092263877391815, 0.011488725431263447, 0.005468347575515509, 0.01992504857480526, -0.00950791034847498, 0.011988800019025803, 0.022055234760046005, 0.007241338957101107, -0.0013979356735944748, -0.013690352439880371, 0.028523731976747513, -0.0039096735417842865, 0.011644592508673668, -0.011936844326555729, -0.010170347057282925, 0.0008702595951035619, 0.0174571480602026, -0.017626004293560982, -0.027146903797984123, -0.03933053836226463, -0.04769542068243027, -0.023743798956274986, 6.956190918572247e-05, 0.013781274668872356, -0.023613909259438515, -0.0034745438024401665, -0.010202819481492043, -0.02015884965658188, 0.011625109240412712, -0.028004173189401627, -0.014963269233703613, -0.019041799008846283, 0.010508059523999691, -0.03127738833427429, -0.029978493228554726, 0.03036816231906414, 0.027562549337744713, 0.023432064801454544, -0.00501698162406683, 0.02266571670770645, -0.024107489734888077, 0.008137576282024384, 0.016833677887916565, 0.0030442848801612854, -0.004880597349256277, -0.002313656499609351, -0.004188936203718185, 0.013781274668872356, 0.02478291466832161, 0.007234844379127026, 0.021561656147241592, -0.011969316750764847, 0.002399708377197385, -0.00794274266809225, 0.010137874633073807, -0.00888444110751152, 0.012560313567519188, -0.015326960012316704, 0.007189383264631033, 0.014482677914202213, 0.019665269181132317, -0.012755148112773895, 0.015521793626248837, -0.014872346073389053, -0.01261876430362463, -0.016664821654558182, 0.010962672531604767, -0.008780529722571373, -0.017392203211784363, -0.030212294310331345, -0.0006664954707957804, 0.01470348984003067, -0.01380725298076868, 0.01863914169371128, -0.011904371902346611, 0.003271591616794467, 0.016599876806139946, 0.0009725475683808327, -0.0464484803378582, 0.013352639973163605, -0.012397951446473598, 0.023886676877737045, -0.016054341569542885, 0.024120477959513664, -0.017340246587991714, 0.024081511422991753, 0.043720800429582596, 0.018054639920592308, -0.0017697443254292011, 0.020119881257414818, -0.0016422902699559927, -0.0426037535071373, -0.009715734049677849, -0.01003396324813366, -0.006013883277773857, 0.01482039038091898, -0.0035524775739759207, 0.019808147102594376, 0.011073078960180283, -0.013183782808482647, 0.009969018399715424, -0.024497156962752342, 0.0089299026876688, -0.025484317913651466, -0.018989844247698784, 0.041746482253074646, 0.002721184864640236, -0.004757202696055174, 0.00577034056186676, -0.018678108230233192, 0.0377458855509758, 0.005835285410284996, 0.02162659913301468, -0.0038284927140921354, -0.001148710143752396, 0.014274855144321918, 0.001262363512068987, -0.007325767073780298, 0.006955582182854414, 0.020847262814641, 0.021769478917121887, -0.02454911358654499, 0.010339203290641308, -0.00032005581306293607, 0.003880448406562209, -0.008702595718204975, 0.030861742794513702, 0.005672923289239407, -0.028913401067256927, 0.009774183854460716, 0.025484317913651466, -0.0057346210815012455, -0.002159412717446685, -0.0031546910759061575, -0.013151310384273529, 0.0034810383804142475, 0.01296297088265419, -0.023626897484064102, 0.027276793494820595, 0.0032050232402980328, 0.033823221921920776, 0.015287992544472218, 0.02730276994407177, -0.011378319002687931, 0.002068490022793412, -0.013339650817215443, -0.02396460995078087, 0.02441922388970852, 0.013118838891386986, -0.004023327026516199, -0.01289153192192316, 0.009904073551297188, 0.02061346173286438, 0.029510891065001488, -0.03444669395685196, 0.011865404434502125, 0.024380257353186607, -0.01161212008446455, -0.013144816271960735, -0.6484083533287048, 0.0011901124380528927, 0.0004659785481635481, -0.02606881968677044, -0.017574047669768333, 0.01046909298747778, 0.01030673086643219, 0.00840384978801012, -0.019847113639116287, -0.026835167780518532, -0.021457742899656296, -0.0034972745925188065, 0.011852416209876537, -0.01392415352165699, -0.03800566494464874, -0.0004635431105270982, -0.004348050802946091, -0.029926538467407227, 0.012553819455206394, -0.006046355701982975, -0.008429828099906445, 0.018976854160428047, -0.03306986391544342, 0.011904371902346611, -0.00982613954693079, -0.009572855196893215, 0.011832932941615582, -0.02482188120484352, -0.034290824085474014, -0.011047100648283958, -0.011962821707129478, 0.008027170784771442, -0.01443072222173214, -0.003558971919119358, 0.04109703376889229, 0.00636783242225647, -0.008709089830517769, 0.021561656147241592, -0.004656538367271423, 0.012612269259989262, 0.01814556121826172, -0.010637949220836163, 0.030991632491350174, -0.01854821853339672, 0.013469540514051914, 0.0005536539247259498, 0.03733024001121521, -0.006884142756462097, 0.002248711884021759, -0.03013436123728752, -0.009728723205626011, -0.0025409632362425327, 0.004289600532501936, 0.022107191383838654, 0.016197219491004944, 0.017846815288066864, 0.044993720948696136, 0.007806358393281698, -0.01767795905470848, -0.003468049457296729, 0.014976258389651775, -0.006523699499666691, 0.00014460353122558445, -0.011988800019025803, 0.0036434002686291933, 0.007689457852393389, -0.028939377516508102, 0.028160041198134422, 0.008046654053032398, -0.007936247624456882, 0.019795158877968788, 0.0444222055375576, -0.02404254488646984, 0.008851968683302402, -0.015339948236942291, 0.034420713782310486, 0.008787023834884167, -0.020860252901911736, 0.02327619679272175, 0.03452462702989578, 0.011404297314584255, 0.003591444343328476, -0.006929604336619377, -0.009540382772684097, 0.03257628530263901, 0.015313970856368542, -0.019340544939041138, -0.00590997189283371, 0.030575985088944435, 0.012852565385401249, 0.015417882241308689, -0.005861263256520033, -0.002417568117380142, -0.045409366488456726, -0.027224836871027946, 0.0047799330204725266, 0.013391606509685516, 0.016456998884677887, 0.0154568487778306, -0.01653493195772171, -0.03587547689676285, -0.04013585299253464, 0.019444456323981285, -0.01758703775703907, -0.0018168292008340359, -0.0018184528453275561, -0.02766646072268486, 0.011404297314584255, 0.03972020745277405, -0.01133935246616602, -0.01094968430697918, -0.003052402986213565, -0.0034323297441005707, -0.0036044332664459944, -0.00781285297125578, -0.016599876806139946, 0.02753657102584839, 0.016145262867212296, 0.0015870871720835567, -0.006348348688334227, 0.02748461626470089, -0.007566062733530998, 0.025899963453412056, -0.01057949848473072, -0.011962821707129478, 0.0018476779805496335, 0.033277686685323715, -0.037486106157302856, -0.03527798503637314, 0.014729468151926994, 0.007890786044299603, 0.028601665049791336, 0.004046057816594839, -0.015145114623010159, 0.03605732321739197, 0.03239443898200989, 0.012261567637324333, -0.021821433678269386, -0.0016625854186713696, -0.011287396773695946, -0.03356344252824783, -0.010293741710484028, -0.0008402226376347244, -0.023055383935570717, 0.0010204443242400885, -0.02945893630385399, -0.034888315945863724, 0.016599876806139946, -0.020171837881207466, -0.013638396747410297, -0.039590317755937576, 0.0227696280926466, 0.0008256100700236857, 0.02436726912856102, 0.0059229605831205845, 0.006137278396636248, -0.0007046504761092365, -0.02790026180446148, -0.003912921063601971, 0.01956135779619217, -0.0034485659562051296, 0.01882098615169525, -0.02353597618639469, 0.005026723258197308, 0.006708791945129633, -0.009514405392110348, -0.03395311161875725, -0.007631007581949234, -0.012768137268722057, -0.03553776443004608, 0.005594989750534296, -0.0046305605210363865, 0.006429529748857021, 0.008572706021368504, -0.01758703775703907, 0.021288886666297913, -0.002323398133739829, -0.008189531974494457, -0.009157208725810051, -0.018483273684978485, 0.010917211882770061, -0.014846368692815304, -0.014080020599067211, -0.017833827063441277, 0.020808296278119087, 0.03569363057613373, 0.03257628530263901, -0.009416988119482994, -0.017989695072174072, 0.015287992544472218, 0.0048643616028130054, 0.0168986227363348, 0.007851819507777691, -0.022691693156957626, -0.0019386006752029061, -0.01440474484115839, 0.000266679358901456, -0.013768285512924194, -0.012190128676593304, 0.0218084454536438, 0.009462449699640274, 0.025120627135038376, 0.02821199782192707, -0.010092413052916527, 0.02354896441102028, -0.018522242084145546, 0.006656836252659559, -0.007481634616851807, 0.028887422755360603, -0.00525727728381753, 0.03143325820565224, -0.017561059445142746, -0.02922513522207737, -0.010027468204498291, 0.008988352492451668, 0.008910419419407845, -0.003679119748994708, 0.019444456323981285, -0.014002086594700813, -0.0009059791918843985, 0.021730512380599976, 0.0034388243220746517, 0.0032147648744285107, 0.0011527691967785358, -0.004523401614278555, -0.003783031366765499, 0.025757085531949997, 0.04177245870232582, 0.008137576282024384, -0.01841832883656025, -0.009033814072608948, 0.010300236754119396, -0.0005881558172404766, -0.001670703524723649, 0.011969316750764847, 0.016703788191080093, 0.0029095245990902185, -0.016742754727602005, 0.03156314417719841, 0.008871451951563358, 0.013742308132350445, 0.00234125810675323, 0.014690501615405083, 0.012904521077871323, 0.012729169800877571, 0.014118987135589123, 0.042343974113464355, 0.010969167575240135, -0.007475140038877726, -0.016340097412467003, -0.018080616369843483, 0.001365463249385357, -0.025068672373890877, 0.009520899504423141, -0.024393245577812195, 0.009631305932998657, 0.03125141188502312, -0.005075431894510984, 0.008650640025734901, 0.02112003043293953, 0.010534037835896015, -0.009618316777050495, 0.03023827262222767, 0.019821135327219963, 0.013242233544588089, -0.0018752794712781906, -0.0009481932502239943, -0.0057281265035271645, -0.0016439137980341911, 0.007117943838238716, -0.011683559976518154, -0.008663629181683064, 0.007052999455481768, 0.0027244321536272764, 0.013820242136716843, -0.015028214082121849, -0.0179117601364851, -0.0021837670356035233, 0.01722334697842598, 0.028601665049791336, -0.01763899251818657, -0.02518557198345661, -0.03174499049782753, 0.02730276994407177, 0.01722334697842598, 0.0007123626419343054, -0.02844579890370369, 0.0006656836485490203, -0.01057949848473072, 0.009780678898096085, -0.019912058487534523, 0.0013963120291009545, -0.022548815235495567, 0.009157208725810051, -0.024354279041290283, -0.027770372107625008, -0.005984658375382423, -0.015171092003583908, 0.023782765492796898, -0.014417733065783978, -0.008027170784771442, -0.017522092908620834, 0.01081329956650734, 0.011118540540337563, 0.020951174199581146, 0.002482512965798378, 0.020236782729625702, -0.024627046659588814, 0.008079126477241516, 0.023055383935570717, -0.012105700559914112, -0.004208419471979141, 0.002373730530962348, -0.00540664978325367, -0.016379063948988914, -0.019132722169160843, 0.002253582701086998, -0.008105103857815266, 0.019769180566072464, -0.018704086542129517, -0.007325767073780298, -0.022250069305300713, -0.03330366685986519, -0.008364883251488209, 0.05107254907488823, -0.0020538775715976954, -0.01007942482829094, -0.0016211832407861948, -0.024938782677054405, -0.0049974978901445866, -0.019210655242204666, 0.004305836744606495, 0.006669825408607721, 0.0024321808014065027, 0.004085024353116751, -0.02803015150129795, 0.02373080886900425, 0.0015716628404334188, -0.014028064906597137, 0.002933878917247057, 0.014054043218493462, -0.00444222055375576, 0.024743948131799698, -0.0017177885165438056, 0.0028591924346983433, -0.015080169774591923, 0.012878542765974998, 0.029692737385630608, 0.0059229605831205845, 0.004182441625744104, -0.010683410800993443, -0.002290925942361355, 0.004835136234760284, -0.04525349661707878, 0.01566467247903347, -0.012086217291653156, 0.0068776486441493034, -0.003484285669401288, -0.010800311341881752, 0.009994995780289173, -0.0033673851285129786, 0.030498052015900612, -0.015651684254407883, -0.006708791945129633, 0.00479941675439477, -0.009326064959168434, -0.0009002965525723994, 0.00357196107506752, -0.002661110833287239, 0.004393511917442083, 0.011716032400727272, 0.017535081133246422, -0.008189531974494457, -0.004815652966499329, 0.03143325820565224, -0.010339203290641308, -0.016482975333929062, -0.024172434583306313, -0.007799863815307617, 0.010826288722455502, 0.0015846517635509372, -0.011443263851106167, -0.024120477959513664, -0.002703324891626835, 0.0016804452752694488, -0.039096735417842865, 0.014651534147560596, -0.005653440020978451, -0.017509102821350098, -0.03888891264796257, -0.009936545975506306, -0.009579350240528584, -0.009702744893729687, -0.02353597618639469, 0.00709846056997776, -0.010644443333148956, -0.019989991560578346, -0.011858910322189331, 0.03504418581724167, -0.011839427053928375, -0.0027991184033453465, -0.011826437897980213, -0.03013436123728752, 0.02070438489317894, -0.014950280077755451, -0.0021675308234989643, -0.028783511370420456, -0.02431531250476837, -0.016729766502976418, 0.02551029622554779, 0.027796350419521332, -0.00733875622972846, -0.008890935219824314, 0.01965227909386158, 0.011404297314584255, -8.742171485209838e-05, 0.01676873303949833, 0.011813448742032051, 0.018795009702444077, -0.003123842179775238, 0.012865553610026836, 0.015287992544472218, 0.006481485441327095, -0.01030673086643219, 0.0003699820954352617, -0.0016966814873740077, -0.009189681150019169, 0.007527095731347799, 0.009196176193654537, -0.0024370516184717417, 1.707336377876345e-05, 0.0044065010733902454, 0.0002873805060517043, -0.004182441625744104, -0.004679268691688776, -0.012794114649295807, 0.0016593382460996509, -0.02501671575009823, -0.03179694712162018, -0.00497152004390955, -0.0023380108177661896, 0.014391755685210228, 0.004286353010684252, -0.028549710288643837, -0.020860252901911736, -0.035200051963329315, 0.005497572477906942, 0.024795902892947197, 0.0012006659526377916, 0.01598939672112465, -0.006812703795731068, 0.003744064597412944, 0.005780082195997238, -0.00412399135529995, 0.0005784141249023378, 0.012943487614393234, -0.008715584874153137, -0.019951025024056435, 0.0014271608088165522, -0.022237081080675125, -0.022328002378344536, 0.003951887600123882, 0.008670123293995857, -0.010754849761724472, -0.019678257405757904, 0.029147202149033546, -0.008183037862181664, 0.01685965619981289, -0.05496923252940178, -0.018859954550862312, -0.003406351897865534, 0.008702595718204975, -0.01658688858151436, 0.011709537357091904, 0.016872644424438477, 0.009832634590566158, -0.012553819455206394, -0.012449907138943672, 0.0013305554166436195, -0.038317400962114334, -0.010521048679947853, -0.007631007581949234, 0.04036965221166611, 0.026536421850323677, 0.018989844247698784, 0.018392352387309074, 0.04379873722791672, 0.009546877816319466, -0.012443413026630878, -0.007040010299533606, -0.0026026605628430843, 0.004685763269662857, -0.01708046719431877, 0.01428784430027008, 0.011858910322189331, 0.01841832883656025, -0.011553670279681683, -0.0030085653997957706, -0.009027319960296154, 0.017755893990397453, 0.013073377311229706, 0.012975960038602352, -0.014950280077755451, -0.02634158916771412, 0.018483273684978485, -0.013573451898992062, 0.006198975723236799, 0.015378915704786777, -0.023925643414258957, -0.0007363110198639333, 0.012703192420303822, -0.0014442087849602103, 0.011839427053928375, -0.0017648733919486403, 0.014144965447485447, -0.03688861429691315, 0.018795009702444077, -0.004984509199857712, 0.010228796862065792, -0.007384217344224453, -0.011871899478137493, -0.018028661608695984, -0.010046952404081821, 0.017626004293560982, 0.013664374127984047, -0.01491131354123354, 0.006371079478412867, -0.024847859516739845, -0.009546877816319466, 0.011891382746398449, -0.011352341622114182, -0.011521197855472565, -0.007845325395464897, -0.006910121068358421, -0.013274705968797207, -0.026419522240757942, -0.01081329956650734, -0.03878500312566757, 0.0028819229919463396, 0.017028512433171272, 0.008994847536087036, 0.016275152564048767, -0.009520899504423141, -0.019223645329475403, 0.03720035031437874, -0.008410344831645489, 0.029744692146778107, 0.014248876832425594, 0.011560164391994476, 0.023600921034812927, -0.005341705400496721, -0.019769180566072464, 0.006968571338802576, -0.01419692113995552, 0.003170927055180073, 0.022886527702212334, 0.005858016200363636, -0.004763696808367968, -0.004568862728774548, -0.005228051915764809, -0.0024841364938765764, -0.010657432489097118, -0.03540787473320961, 0.019951025024056435, 0.0005280819605104625, 0.030575985088944435, -0.008631156757473946, -0.009059791453182697, 0.0019239881075918674, 0.0033933629747480154, 0.012170645408332348, -0.0101443687453866, -0.013248727656900883, -0.0016341721639037132, -0.031770970672369, 0.003688861383125186, -0.00936503242701292, 0.0309136975556612, -0.008994847536087036, -0.0179117601364851, 0.034290824085474014, -0.026172732934355736, -0.02171752229332924, 0.011287396773695946, 0.017522092908620834, 0.02280859462916851, -0.0001543452381156385, 0.006851670797914267, 0.021639589220285416, 0.002726055681705475, -0.00028941003256477416, -0.022379959002137184, 0.007001043297350407, 0.027172882109880447, -0.024951770901679993, -0.011482231318950653, -0.0065918914042413235, 0.02849775366485119, 0.015911461785435677, -0.01974320225417614, -0.020080914720892906, 0.003037790535017848, 0.0002764210803434253, -0.003685614326968789, -0.002841332694515586, -0.01667780987918377, 0.016379063948988914, -0.02643251046538353, -0.0013776404084637761, -0.0028153546154499054, -0.019405489787459373, 0.006036614067852497, 0.002737421076744795, -0.031770970672369, -0.016418032348155975, 0.004497423768043518, -0.003112476784735918, 0.01772991567850113, -0.012729169800877571, 0.0013922529760748148, -0.007916764356195927, 0.031225433573126793, -0.00514037674292922, 0.006049602758139372, 0.04195430502295494, 0.02670527994632721, 0.006121042184531689, 0.012521347030997276, 0.009494922123849392, 0.008735068142414093, 0.01589847356081009, 0.012696697376668453, -0.009352043271064758, -0.026510445401072502, -0.005562517326325178, 0.01264474168419838, 0.024588080123066902, -0.03392713516950607, 0.02166556753218174, -0.006773736793547869, -0.0018541724421083927, -0.023146307095885277, -0.04218810796737671, 0.022847561165690422, -0.009741711430251598, 0.048890404403209686, 0.025315461680293083, -0.023717820644378662, -0.017418179661035538, 0.015690650790929794, -0.015833528712391853, -0.007228350266814232, -0.019639290869235992, -0.005403402727097273, 0.0017827332485467196, 0.011469242163002491, -0.011962821707129478, -0.019210655242204666, -0.026601366698741913, -0.020691394805908203, -0.015430871397256851, 0.018405340611934662, -0.006270415149629116, 0.014573601074516773, 0.01250186376273632, 0.019860103726387024, 0.010365181602537632, 0.02523752860724926, -0.01809360645711422, -0.010150863789021969, 0.0013540979707613587, -0.018392352387309074, -0.03535591810941696, -0.00036774962791241705, 0.013203267008066177, 0.020002981647849083, 0.014248876832425594, -0.014599578455090523, -0.003581702709197998, 0.013755297288298607, -0.049903541803359985, 0.0022178629878908396, -0.015703639015555382, 0.0037505589425563812, 0.020301727578043938, 0.032913997769355774, 0.000498045003041625, 0.02171752229332924, 0.009852117858827114, 0.007052999455481768, -0.023626897484064102, 0.006552924867719412, 0.02643251046538353, -0.015054191462695599, 0.00392915727570653, -0.014002086594700813, -0.04359091445803642, -0.012105700559914112, 0.011443263851106167, -0.016911610960960388, -0.0070854718796908855, -0.0023315162397921085, 0.0034550605341792107, -0.003847976215183735, 0.028653621673583984, -0.0024776419159024954, -0.0023120329715311527, 0.015508805401623249, 0.012352490797638893, -0.004020079504698515, 0.0028104837983846664, -0.019210655242204666, -0.009949535131454468, -0.011897876858711243, 0.012949981726706028, -0.029017312452197075, -0.006198975723236799, -0.003248860826715827, 0.017015522345900536, -0.013729318976402283, 0.0025555756874382496, -0.0028007421642541885, 0.017002534121274948, 0.010657432489097118, -0.011313374154269695, 0.0054715946316719055, 0.01236547902226448, -0.005400155670940876, -0.014469688758254051, 0.004838383290916681, -0.020132871344685555, -0.011761493049561977, 0.014326810836791992, -0.007221855688840151, 0.00232989271171391, -0.004130485933274031, 0.01854821853339672, -0.020691394805908203, 0.0010602229740470648, 0.012988949194550514, -0.02706896886229515, -0.026081809774041176, 0.009839128702878952, 0.016846666112542152, 0.005526797845959663, -0.0009270862210541964, -0.02706896886229515, -0.010046952404081821, -0.016885634511709213, -0.01380725298076868, 0.0066048805601894855, -0.03925260528922081, -0.027692439034581184, 0.001735648256726563, -0.02065242826938629, -0.00991706270724535, 0.00030036945827305317, 0.017093457281589508, 0.014118987135589123, -0.02565317414700985, 0.21530482172966003, -0.028367863968014717, -0.002290925942361355, 0.03125141188502312, 0.007890786044299603, -0.008735068142414093, 0.00685816491022706, -0.005120893009006977, -0.011547175236046314, 0.02121095359325409, -0.02701701410114765, 0.02784830704331398, 0.007397206500172615, 0.001100001623854041, 0.011164001189172268, 0.003026425139978528, -0.02267870493233204, 0.005098162684589624, -0.021535677835345268, 0.0337972454726696, 0.008001192472875118, -0.004714988637715578, 0.013534484431147575, 0.01046909298747778, 0.005935949739068747, -0.011735515668988228, -0.008429828099906445, -0.015729617327451706, 0.038733046501874924, 0.02849775366485119, 0.005780082195997238, -0.02492579258978367, 0.00386421219445765, -0.0015464967582374811, 0.0021090805530548096, -8.493554923916236e-05, -0.019314566627144814, -0.00208959705196321, 0.020210804417729378, 0.025964908301830292, -0.005666429176926613, -0.0050721843726933, -0.02945893630385399, 0.010527542792260647, 0.004322072956711054, -0.005445616785436869, -0.009209164418280125, -0.012755148112773895, -0.007299789227545261, 0.0014125482412055135, -0.019938036799430847, -0.016015373170375824, -0.0041726999916136265, 0.026328599080443382, -0.0016853160923346877, -0.008163554593920708, 0.010449609719216824, 0.0037148394621908665, 0.02266571670770645, 0.013495517894625664, -0.021561656147241592, 0.03852522373199463, -0.024614058434963226, 0.01580755040049553, 0.0012339501408860087, 0.010170347057282925, -0.011514702811837196, 0.03143325820565224, -0.0024955018889158964, 0.017418179661035538, 0.0068386816419661045, 0.010196325369179249, -0.03626514598727226, -0.005896982736885548, -0.0010537285124883056, -0.010728871449828148, 0.022509848698973656, 0.011280901730060577, 0.015028214082121849, -0.0034323297441005707, -0.015976406633853912, -0.021275898441672325, -0.005305985454469919, 0.014209910295903683, 0.011391308158636093, 0.021184975281357765, 0.016223197802901268, 0.008423333056271076, -0.002782882424071431, -0.0339011549949646, 0.0028494505677372217, -0.015404893085360527, -0.0015302605461329222, 0.02790026180446148, 0.018067628145217896, -0.006286651361733675, 0.011742009781301022, 0.017963716760277748, -0.009832634590566158, 0.004594840575009584, -0.023938633501529694, 0.008942890912294388, 0.024717969819903374, 0.00984562374651432, -0.009930051863193512, 0.005484583787620068, -0.013664374127984047, 0.004968272987753153, 0.003338159993290901, -0.02199028991162777, -0.016093308106064796, -0.01722334697842598, -0.0008938020328059793, 0.003841481637209654, 0.025159593671560287, 0.007150416262447834, 0.02106807567179203, -0.00943647138774395, 0.02431531250476837, -0.028705576434731483, 0.009930051863193512, -0.012982454150915146, 0.015820540487766266, 0.0018574197310954332, -0.004328567069023848, -0.03751208633184433, -0.030498052015900612, 0.010845771990716457, -0.009852117858827114, -0.02313331887125969, -0.007202372420579195, 0.02088622935116291, 0.009423482231795788, 0.007027021609246731, -0.014183931984007359, 0.0007902963552623987, -0.005137129221111536, -0.01177448220551014, 0.010592487640678883, -0.01640504226088524, -0.006786725949496031, -0.022925494238734245, 0.02235398069024086, -0.005111151374876499, 0.015171092003583908, -0.011345846578478813, 0.006065838970243931, 0.009813151322305202, 0.01491131354123354, -0.024289334192872047, 0.015443860553205013, -0.008553222753107548, -0.0231722854077816, -0.012969465926289558, -0.003123842179775238, -0.020600473508238792, -0.00975470058619976, -0.025731107220053673, -0.00553004490211606, -0.002480889204889536, -0.013157805427908897, -0.011521197855472565, 0.029614804312586784, 0.0045786043629050255, -0.010943189263343811, 0.018833976238965988, -0.16345293819904327, 0.020782317966222763, 0.018015671521425247, -0.003705097595229745, 0.015430871397256851, -0.019912058487534523, 0.011261418461799622, -0.001027750549837947, -0.008228499442338943, 0.020847262814641, 0.029692737385630608, -0.014443711377680302, -0.036628834903240204, -0.015223047696053982, 0.0026383802760392427, -0.02048357203602791, 0.005137129221111536, 0.002813731087371707, 0.03319975361227989, 0.0037473116535693407, 0.009183187037706375, -0.01069639902561903, 0.02665332332253456, 0.009767689742147923, 0.0120667340233922, 0.028887422755360603, -0.005682665389031172, 0.021249920129776, 0.007403701078146696, -0.0037245810963213444, 0.021886378526687622, -0.03473244979977608, 0.039278581738471985, -0.01767795905470848, 0.017885781824588776, 0.001556238392367959, 0.008319421671330929, -0.02056150697171688, -0.023419074714183807, 0.012540830299258232, 0.027874285355210304, 0.005491078365594149, 0.006608127616345882, -0.04034367576241493, -0.005085173528641462, 0.010702894069254398, 0.0008824366959743202, -0.024120477959513664, 0.016612865030765533, -0.015872495248913765, 0.04112301394343376, -0.008364883251488209, 0.0014101127162575722, 0.006962076760828495, 0.008397355675697327, 0.00805964320898056, 0.010430126450955868, 0.016703788191080093, 0.026731256395578384, -0.010930200107395649, -0.01030673086643219, -0.00342908245511353, 0.0168986227363348, -0.049955498427152634, 0.00943647138774395, -0.003399857319891453, 0.0011397802736610174, 0.017002534121274948, -0.007156910840421915, -0.006715286523103714, 0.011560164391994476, -5.439122469397262e-05, 0.01443072222173214, -0.007124438416212797, -0.008442817255854607, 0.01900283247232437, -0.022847561165690422, -0.021886378526687622, 0.003695355961099267, -0.001742142834700644, -0.006786725949496031, 0.05689159780740738, -0.010449609719216824, -0.010053446516394615, -0.024977749213576317, -0.006552924867719412, -0.025705130770802498, 0.022886527702212334, -0.03605732321739197, 0.009157208725810051, -0.007234844379127026, -0.025848008692264557, -0.019717223942279816, -0.021197965368628502, 0.010722377337515354, 0.017833827063441277, -0.0016090060817077756, 0.025354428216814995, 0.0018931393278762698, -0.00987160112708807, -0.005445616785436869, 0.00610480597242713, -0.017249323427677155, 0.010482082143425941, 0.02454911358654499, 0.051825907081365585, 0.01213817298412323, 0.020028959959745407, 0.02761450596153736, 0.025406384840607643, -0.005630709230899811, 0.002459782175719738, -0.007494623307138681, 0.03078380972146988, -0.018262462690472603, 0.01675574481487274, 0.019535379484295845, -0.008507761172950268, -0.013131827116012573, 0.02093818597495556, 0.041928328573703766, 0.0034648021683096886, -0.024886826053261757, 0.011099057272076607, -0.02327619679272175, -0.01193034928292036, -0.08463598787784576, -0.017924750223755836, 0.017106445506215096, 0.044370248913764954, 0.014664523303508759, -0.0013540979707613587, -0.005143623799085617, 0.014690501615405083, -0.026029853150248528, 0.023626897484064102, -0.006072333548218012, -0.015651684254407883, 0.007403701078146696, -0.0009506287169642746, 0.01961331255733967, 0.0087285740301013, 0.013534484431147575, 0.007676468696445227, -0.017392203211784363, -0.006280156783759594, 0.008767540566623211, -0.004140227567404509, 0.005169601645320654, -0.006121042184531689, -0.007377722766250372, -0.00765049085021019, -0.009423482231795788, 0.03707046061754227, 0.028471775352954865, 0.006442518904805183, -0.0030345432460308075, -0.009293592534959316, 0.00907278060913086, -0.03600536659359932, 0.002251958940178156, -0.008033664897084236, -0.007949236780405045, 0.009196176193654537, 0.026913102716207504, -0.012794114649295807, -0.01639205403625965, 0.011157507076859474, 0.018535230308771133, -0.027224836871027946, 0.015508805401623249, -0.021964313462376595, -0.00829344429075718, 0.02271767146885395, -0.010702894069254398, -0.01518408115953207, -0.0052767605520784855, -0.01117699034512043, -0.018846964463591576, -0.0120667340233922, 0.015703639015555382, 0.011904371902346611, 0.0064262826927006245, 0.017210356891155243, -0.01443072222173214, -0.008572706021368504, 0.020730363205075264, 0.01154068112373352, 0.018405340611934662, -0.005221557337790728, 0.024302324280142784, 0.0019499659538269043, -0.020639440044760704, 0.013092860579490662, 0.016288142651319504, -0.030575985088944435, 0.01919766701757908, -0.013651384972035885, -0.007838830351829529, -0.002719561103731394, -0.009196176193654537, -0.031407278031110764, -0.020899219438433647, -0.008787023834884167, 0.010222302749752998, -0.04130485653877258, -0.028913401067256927, -0.0032521081157028675, 0.005046206526458263, 0.000533358717802912, 0.0016252422938123345, 0.01850925199687481, 0.0020701137837022543, -0.03403104469180107, 0.03920064866542816, -0.023380108177661896, 0.020301727578043938, 0.02958882600069046, 0.021094053983688354, -0.01731426827609539, -0.01863914169371128, 0.029303068295121193, 0.024107489734888077, -0.018833976238965988, -0.00014511091285385191, 0.01882098615169525, -0.027094947174191475, -0.03823946416378021, -0.060944147408008575, 0.015417882241308689, 0.03275812789797783, -0.009170197881758213, -0.036343079060316086, 0.015469837933778763, 0.02056150697171688, 0.0036596362479031086, 0.00729329464957118, 0.006497721653431654, -0.023717820644378662, -0.014157954603433609, 0.010228796862065792, -0.0030670156702399254, -0.019535379484295845, -0.020002981647849083, 0.03397909179329872, 0.010761343874037266, -0.010131380520761013, 0.002029523253440857, 0.012820092961192131, -0.0025815535336732864, 0.0012323264963924885, 0.015223047696053982, -0.036810681223869324, -0.007968720048666, -0.014924302697181702, -0.008585695177316666, -0.006302887573838234, 0.00357196107506752, 0.013365628197789192, -0.0227696280926466, -0.004942295141518116, 0.021834423765540123, 0.02144475467503071, -0.04211017116904259, -0.021782467141747475, 0.0059067243710160255, -0.001997050829231739, 0.02097715251147747, -0.01882098615169525, -0.02144475467503071, 0.019574346020817757, 0.00434155622497201, -0.011073078960180283, 0.013378617353737354, 0.015002235770225525, -0.008780529722571373, 0.01028075348585844, 0.03234248235821724, 0.0016049470286816359, 0.023756787180900574, 0.008748057298362255, -0.029069267213344574, -0.012222601100802422, 0.0011852416209876537, -0.0061762453988194466, 0.028549710288643837, 0.011014629155397415, 0.0024029556661844254, 0.05226752907037735, 0.00781285297125578, -0.0145216453820467, 0.0037408173084259033, -0.005871004890650511, -0.028367863968014717, -0.02675723470747471, -0.0002512549690436572, 0.015521793626248837, -0.02761450596153736, -0.0005938385147601366, 0.014080020599067211, 0.016249174252152443, 0.007572557311505079, 0.003373879473656416, -0.005250782705843449, -0.018626153469085693, -0.01527500431984663, 0.00028474212740547955, 0.031173476949334145, 0.010845771990716457, -0.0015262014931067824, -0.023120328783988953, 0.014222899451851845, 0.026315610855817795, -0.0028997829649597406, -0.028367863968014717, -0.005455358419567347, 0.009040308184921741, 0.01380725298076868, -0.003721333807334304, 0.025536274537444115, -0.0038025148678570986, -0.006497721653431654, 0.01845729723572731, -0.0060333670116961, -0.007631007581949234, -0.009865107014775276, -0.0054943254217505455, 0.013287695124745369, 0.011956327594816685, -0.020353682339191437, -0.00835838820785284, -0.023795753717422485, -0.010150863789021969, 0.014339799992740154, -0.024627046659588814, -0.028783511370420456, -0.007611523848026991, 0.008579201065003872, -0.009488427080214024, 0.0065918914042413235, 0.0009668648708611727, 0.004107755143195391, 0.010267764329910278, 0.01</t>
+  </si>
+  <si>
+    <t>[-0.003057159250602126, -0.00032193426159210503, 0.013059016317129135, -0.016490818932652473, -0.0053001572377979755, 0.019215501844882965, -0.013727212324738503, 0.008861706592142582, -0.009516928344964981, -0.01732119917869568, -0.00015346614236477762, -0.001260165823623538, -0.013792085461318493, 0.021200628951191902, -0.003986470866948366, -0.008018353022634983, 0.021122779697179794, 0.011988605372607708, 0.021382274106144905, -0.025806639343500137, -0.007304745260626078, 0.008855219930410385, -0.005741296336054802, -0.00836218148469925, -0.01490790769457817, -0.0169060081243515, 0.02748037315905094, -0.02238132432103157, 0.008634650148451328, -0.021460121497511864, 0.008602213114500046, -0.020487021654844284, -0.02934872731566429, -0.010509490966796875, -0.029141133651137352, 0.017424996942281723, 0.00685711856931448, -0.0049238912761211395, 0.016802212223410606, -0.022965185344219208, 0.01890411041676998, 0.009160124696791172, -0.002496004104614258, -0.016815185546875, -0.016335122287273407, 0.017217401415109634, -0.0022170485462993383, 0.01142420619726181, 0.0016656246734783053, 0.008135125041007996, 0.013175788335502148, 0.0066949352622032166, -0.012643826194107533, -0.011249048635363579, -0.01987721025943756, -0.026299677789211273, -0.010431643575429916, -0.017736388370394707, -0.00193971476983279, -0.02123955264687538, 0.01595885679125786, 0.0008652490214444697, -0.010340820997953415, 0.0009325551800429821, -0.010970092378556728, -0.023847462609410286, -0.014959806576371193, -0.009199048392474651, -0.012741136364638805, -0.0006491395179182291, 0.02611803263425827, 0.01021107379347086, 0.0006495449342764914, -0.01931929960846901, 0.03596581518650055, -0.024223728105425835, -0.013623414561152458, 0.02628670260310173, 0.0019510675920173526, 0.02114873006939888, 0.022498097270727158, -0.03490189090371132, -0.02709113247692585, 0.022965185344219208, 0.005037419963628054, -0.0012334055500105023, -0.008401106111705303, 0.03116518259048462, -0.0033117872662842274, -0.00029841766809113324, -0.006934966892004013, -0.002460323739796877, -0.003100948641076684, -0.0009195805178023875, 0.008355694822967052, 0.004220014903694391, -0.01817752793431282, 0.012598414905369282, 0.00546882813796401, 0.006513289641588926, -0.00825838465243578, -6.816775567131117e-05, -0.005030932370573282, -0.009075788781046867, -0.02264081872999668, 0.00836866907775402, -0.010944142937660217, -0.0280253104865551, 0.008569777011871338, 0.027065183967351913, -0.0062343343161046505, 0.052469607442617416, 0.018320249393582344, -0.04029935970902443, 0.007499365601688623, -0.009361231699585915, 0.020188603550195694, 0.003357198555022478, 0.02187531255185604, -0.0032193425577133894, 0.01178100984543562, 0.026909487321972847, -0.0005218254518695176, -0.011579902842640877, 0.0364329032599926, 0.029660120606422424, -0.028466450050473213, -0.0009674246539361775, -0.016711389645934105, -0.004573574755340815, 0.01093765627592802, -0.02645537443459034, 0.028232906013727188, 0.001904034405015409, -0.014025629498064518, 0.0045768185518682, -0.018839236348867416, 0.0008360560168512166, -0.017554743215441704, -0.0373670794069767, 0.02475569024682045, -0.0007444223156198859, -0.02735062688589096, 0.02152499556541443, -0.01514145266264677, 0.03954682499170303, 0.006315425969660282, -0.008459491655230522, -0.000693334499374032, -0.008251897059381008, 0.0050893183797597885, -0.0008068629540503025, 0.007051738910377026, -0.009049839340150356, -0.0034382904414087534, 0.027246829122304916, -0.034123409539461136, 0.029971512034535408, 0.01187183242291212, -0.014051578938961029, -0.022368349134922028, 0.03183986619114876, -0.0016575154149904847, -0.02968606911599636, 0.01563449017703533, 0.024768665432929993, -0.0025608777068555355, 0.03342277929186821, 0.011236073449254036, -0.005056881811469793, 0.013221199624240398, 0.035784170031547546, -0.032592397183179855, 0.02632562629878521, -0.0010566255077719688, 0.017399046570062637, -0.005245014559477568, 0.020733539015054703, 0.008472466841340065, 0.005845093633979559, -0.013182275928556919, -0.0061727045103907585, 0.0010428399546071887, 0.01868353970348835, -0.010515978559851646, -0.0054461220279335976, -0.0014766808599233627, -0.0006673851166851819, 0.008971991948783398, 0.0013242283603176475, -0.016970882192254066, 0.009179586544632912, -0.014700313098728657, -0.015374996699392796, -0.6414682269096375, -0.009653162211179733, -0.020240502431988716, 0.00587104307487607, -0.007681010756641626, 0.011184174567461014, 0.011917244642972946, 0.0029079504311084747, 0.014090503565967083, 9.031593799591064e-05, 0.0011498810490593314, 0.011346357874572277, -0.004751977045089006, -0.006720884703099728, -0.03882024437189102, -0.00952990259975195, -0.008647624403238297, -0.024729741737246513, 0.0347461961209774, -0.0040253945626318455, 0.015413920395076275, 0.009549365378916264, -0.005802926141768694, 0.01834619790315628, 0.010794934816658497, 0.00910822581499815, 0.016711389645934105, -0.021044932305812836, -0.011132275685667992, -0.010483542457222939, -0.0010225670412182808, 0.02815505675971508, -0.010931168682873249, 0.012222149409353733, 0.05041960999369621, -0.004424366168677807, -0.016828160732984543, 0.02929682843387127, -0.005167166702449322, 0.03856075182557106, -0.008174048736691475, 0.005786707624793053, 0.01019161194562912, -0.00807025097310543, 0.026675943285226822, 0.023899361491203308, 0.025365501642227173, -0.002742523094639182, -0.005845093633979559, -0.0086411377415061, 0.021291451528668404, -0.013033066876232624, 0.025157906115055084, 0.016322148963809013, 0.003172309370711446, 0.008582751266658306, 0.03295568749308586, -0.007428004872053862, 0.0016348097706213593, 0.0028203711844980717, 0.0012236746260896325, -0.004310837481170893, 0.013532591983675957, 0.00665601110085845, 0.01702278107404709, 0.029452525079250336, -0.021434172987937927, 0.0005850769812241197, -0.003164200345054269, -0.008777371607720852, 0.01924145221710205, 0.029063284397125244, -0.013123889453709126, 0.0029630926437675953, 0.0034026100765913725, 0.0061467550694942474, -0.016361072659492493, -0.010866295546293259, 0.010898731648921967, -0.010457593016326427, 0.0013104428071528673, 0.01131392177194357, -0.02675379253923893, 0.007998890243470669, 0.03360442444682121, 0.020967084914445877, -0.007103637792170048, -0.00034281538682989776, 0.021031957119703293, 0.006863606162369251, 0.022835437208414078, 0.0077523719519376755, -0.016581641510128975, -0.01842404715716839, -0.020629743114113808, 0.028336701914668083, -0.00626352708786726, 0.019721515476703644, 0.006980378180742264, -0.03529113158583641, -0.014453793875873089, -0.022835437208414078, -0.015193351544439793, -0.01741202175617218, 0.011287972331047058, 0.0010339198634028435, -0.028466450050473213, 0.027636069804430008, 0.025456324219703674, -0.039728473871946335, 0.0053423247300088406, 0.002033781260251999, 0.0035745245404541492, -0.012533541768789291, -0.005407198332250118, -0.0158810093998909, 0.02776581607758999, 0.015336073003709316, 0.03204746171832085, -0.007674523629248142, -0.013441769406199455, -0.0021408223547041416, 0.01063923817127943, -0.007823732681572437, -0.004988764878362417, 0.008881169371306896, 0.008913605473935604, -0.011326896026730537, -0.011073890142142773, 0.001289358944632113, -0.002006209921091795, 0.0027506323531270027, 0.014635439962148666, -0.02092815935611725, 0.023886386305093765, 0.018787337467074394, 0.012319459579885006, -0.006185679230839014, 0.01065870001912117, -0.017931008711457253, -0.024509171023964882, -0.02114873006939888, -0.002672784263268113, -0.026675943285226822, -0.006555457599461079, -0.04234935715794563, -0.016101578250527382, 0.0006649523857049644, -0.028803791850805283, 0.02709113247692585, -0.020525945350527763, -0.007278795819729567, -0.014401895925402641, 0.00547855906188488, 0.016763286665081978, 0.011495566926896572, -0.013532591983675957, -0.008997941389679909, 0.007363131269812584, 0.0012423256412148476, -0.01860569231212139, 0.021901261061429977, -0.02968606911599636, -0.013441769406199455, -0.0034577525220811367, -0.022952210158109665, -0.0077329096384346485, -0.002744144992902875, 0.002421399811282754, -0.03575821965932846, -0.004333543591201305, -0.0002165149780921638, -0.006649523973464966, 0.002067839726805687, -0.030205056071281433, 0.01767151430249214, -0.008485441096127033, -0.0356803722679615, -0.030386703088879585, -0.012747623957693577, -0.003872942179441452, -0.018437020480632782, -0.021797463297843933, -0.012780060060322285, 0.043257586658000946, 0.02649429813027382, 0.030334804207086563, 0.013934806920588017, -0.013792085461318493, 0.018060754984617233, -0.009821833111345768, -0.02292626164853573, 0.008238921873271465, -0.020525945350527763, 0.021667717024683952, 0.006824682001024485, 0.021460121497511864, 0.002204073825851083, 0.013376896269619465, 0.0319436639547348, 0.004972546361386776, 0.02598828636109829, 0.011216611601412296, -0.021421197801828384, 0.00834271963685751, -0.05906074494123459, 0.014596516266465187, 0.001970529556274414, 0.03778227046132088, 0.005157435778528452, 0.011540978215634823, -0.020357273519039154, -0.033059485256671906, -0.024055058136582375, -0.00953639019280672, -0.005922941956669092, 0.005845093633979559, -0.018696514889597893, -0.008122149854898453, 0.017347147688269615, 0.010736548341810703, -0.014337021857500076, -0.012449205853044987, 0.005601818207651377, -0.004622229840606451, -0.00216514989733696, 0.01518037635833025, 0.02152499556541443, -0.015349047258496284, -0.018696514889597893, -0.0012317837681621313, 0.0205518938601017, 0.014583541080355644, 0.023886386305093765, -0.005348812323063612, 0.02591043710708618, -0.005738052539527416, -0.019513919949531555, -0.002903084736317396, -0.0008547070901840925, 0.014129427261650562, -0.007674523629248142, 0.014259174466133118, 0.0016704901354387403, 0.00983480829745531, 0.016335122287273407, 0.016335122287273407, -0.008920093066990376, -0.010464079678058624, 0.03254050016403198, -0.005592087283730507, 0.023419298231601715, -0.017476895824074745, 0.014531642198562622, 0.0051152678206563, -0.005241771228611469, 0.023795563727617264, -0.01481708511710167, 0.011249048635363579, -0.0008563289302401245, 0.019734488800168037, -0.011009017005562782, 0.03316328302025795, 0.012267560698091984, 0.027636069804430008, -0.014920882880687714, 0.011579902842640877, -0.030256954953074455, -0.013097940012812614, -0.005867799278348684, -0.0057088593021035194, -0.021888285875320435, -0.008848732337355614, -0.007103637792170048, 0.019851261749863625, -0.030983537435531616, -0.011599364690482616, -0.013753161765635014, 0.006934966892004013, 0.0003791039634961635, -0.013792085461318493, -0.026429424062371254, -0.01070411130785942, 0.030334804207086563, 0.019968032836914062, -0.015284174121916294, -0.026909487321972847, 0.016931958496570587, -0.025131955742836, -0.009302846156060696, -0.019993983209133148, 0.014804110862314701, -0.009743984788656235, -0.005283938720822334, -0.006633305456489325, -0.03347467631101608, 0.0014255930436775088, -0.003133385442197323, 0.013688287697732449, -0.006519777234643698, -0.0037594137247651815, 0.0072398716583848, -0.0063543496653437614, -0.02378259040415287, 0.030334804207086563, -0.008355694822967052, 0.0032793504651635885, -0.010178636759519577, -0.008478953503072262, 0.011184174567461014, -0.006357593461871147, -0.00433029979467392, -0.01091170683503151, 0.0057088593021035194, -0.0016996831400319934, -0.0023127368185669184, 0.0133120222017169, 0.013201737776398659, 0.03731518238782883, -0.0059878150932490826, -0.005828875117003918, -0.040273409336805344, -0.020266450941562653, 0.01898195780813694, 0.08698225766420364, -0.007194460369646549, -0.0007375294808298349, 0.007590188179165125, 0.0049238912761211395, -0.004657910205423832, -0.01524524949491024, -0.005241771228611469, 0.02441834844648838, -0.002839833265170455, 0.003960521426051855, -0.02021455205976963, 0.017943983897566795, 0.007836706936359406, 0.021330375224351883, -0.0046546668745577335, 0.008615188300609589, -0.0039832270704209805, 0.02761012129485607, 0.007992403581738472, 0.002706842729821801, -0.016633540391921997, 0.02314683049917221, 0.048395559191703796, -0.01137879490852356, -0.017995882779359818, -0.0024976260028779507, 0.012514079920947552, 0.00432056887075305, -0.019773412495851517, -0.014946832321584225, -0.027324678376317024, -0.014583541080355644, -0.013636389747262001, -0.00904335267841816, 0.03622530773282051, 0.00606241961941123, 0.029037335887551308, 0.029919613152742386, -0.005650473292917013, 0.049199990928173065, -0.01326661091297865, 0.002711708191782236, 0.015323097817599773, -0.0028982192743569613, -0.006286232732236385, 0.0007456386811099946, 0.0169060081243515, 0.019384173676371574, -0.023289551958441734, 0.016503794118762016, -0.022147780284285545, -0.026987336575984955, -0.015491768717765808, 0.02544334903359413, 8.403132960665971e-05, 0.01595885679125786, -0.009627212770283222, -0.008971991948783398, 0.02012372948229313, -0.0031739312689751387, -0.022472146898508072, -0.0114890793338418, -0.007564238738268614, -0.02484651282429695, -0.008511390537023544, -0.0012196199968457222, -0.00453140726312995, -0.02262784354388714, -0.01584208570420742, -0.010503004305064678, -0.011482592672109604, -0.01254651602357626, -0.01210537739098072, 0.02017562836408615, 0.0012269181897863746, 0.019734488800168037, -0.03137277811765671, -0.01481708511710167, -0.0005137162515893579, -0.0014847900019958615, -0.03204746171832085, -0.016659490764141083, -0.028336701914668083, -0.012540029361844063, 0.05636201426386833, 0.028336701914668083, -0.005313131958246231, -0.057555682957172394, -0.012228637002408504, 0.041934169828891754, 0.022965185344219208, 0.03388986736536026, 0.003934571985155344, 0.004258939065039158, -0.011502054519951344, 0.01915062963962555, -0.0003464645124040544, 0.004398416727781296, -0.0026695404667407274, 0.02849239856004715, -0.013545566238462925, -0.013506642542779446, -0.018099678680300713, 0.02348417229950428, 0.01095711812376976, -0.00012102944310754538, -0.011287972331047058, -0.016633540391921997, -0.0034609960857778788, 0.013428794220089912, -0.028466450050473213, 0.0266240444034338, -0.017645565792918205, -0.0008960638660937548, -0.013921832665801048, -0.011372307315468788, 0.004291375633329153, 0.020668666809797287, -0.020266450941562653, -0.01732119917869568, -0.02258891984820366, 0.030905690044164658, 0.026727842167019844, -0.01732119917869568, 0.03095758892595768, -0.00940664391964674, -0.002027293900027871, -0.016931958496570587, 0.00018134144193027169, 0.006120805628597736, 0.030334804207086563, 0.01017215009778738, -0.022147780284285545, 0.0007472605211660266, -0.035317081958055496, -0.009899681434035301, -0.012157276272773743, -0.00868654903024435, -0.0169060081243515, -0.024003159254789352, 0.015258224681019783, -0.0018861942226067185, 0.015271198935806751, -0.017476895824074745, -0.019864236935973167, -0.001957555068656802, 0.005014714319258928, -0.023120880126953125, -0.002616019919514656, -0.015465819276869297, 0.021732591092586517, 0.00742151727899909, 0.01813860423862934, 0.01995505951344967, -0.017593666911125183, -0.018878160044550896, -0.011203636415302753, 0.013818034902215004, -0.009562339633703232, 0.018021831288933754, 0.03321518376469612, 0.000855517981108278, 0.028336701914668083, -0.031580373644828796, -0.0025965580716729164, -0.012702212668955326, -0.016490818932652473, -0.03443480283021927, 0.020331325009465218, 0.008907117880880833, 0.034798093140125275, 0.009348257444798946, 0.008848732337355614, -0.02748037315905094, -0.003444777801632881, -0.007428004872053862, 0.00018417964747641236, -0.03627720847725868, -0.02518385462462902, 0.005102293100208044, -0.02148607186973095, 0.004460046533495188, -0.003156091086566448, -0.011047940701246262, 0.011852370575070381, 0.01877436228096485, -0.0018586229998618364, -0.0021781246177852154, -0.006535995285958052, 0.011683699674904346, -0.055012647062540054, 0.029193032532930374, 0.0328778401017189, 0.008809808641672134, 0.02242024801671505, -0.013078478164970875, -0.004930378869175911, -0.0007561806123703718, -0.0053780050948262215, -0.014648414216935635, -0.013792085461318493, 0.004229745827615261, -0.00015934529074002057, -0.02118765376508236, 0.020331325009465218, 0.0072982581332325935, -0.01284493412822485, 0.015219300054013729, -0.0008336232276633382, -0.017437970265746117, -0.010950630530714989, -0.015906957909464836, -0.03274809569120407, -0.004748733248561621, -0.012384332716464996, -0.0005708859534934163, 0.008861706592142582, -0.01750284433364868, -0.028803791850805283, 0.003256644820794463, 0.004644935484975576, 0.01860569231212139, 0.0063186693005263805, 0.04489239677786827, 0.026481322944164276, -0.0027198174502700567, -0.013097940012812614, 0.03749682754278183, 0.017476895824074745, -0.008809808641672134, 0.012014554813504219, 0.00605268869549036, 0.030905690044164658, -0.027143031358718872, -0.010833858512341976, 0.008167561143636703, -0.026779741048812866, -0.03500568866729736, 0.037522777915000916, 0.00685711856931448, -0.011644775979220867, -0.016361072659492493, -0.02514493092894554, 0.009932118467986584, 0.007998890243470669, -0.042998090386390686, -0.01364936400204897, -0.017892085015773773, -0.003031209809705615, -0.03575821965932846, 0.010691137053072453, -0.015323097817599773, 0.013999680057168007, -0.02591043710708618, -0.00978939700871706, 0.014804110862314701, -0.027272779494524002, -0.030516449362039566, 0.022407272830605507, 0.01571233756840229, 0.003843749174848199, 0.012306484393775463, 0.009705061092972755, 0.02976391837000847, 0.0028868664521723986, -0.001972151454538107, -0.0028236149810254574, 0.024301577359437943, 0.022199679166078568, 0.0003231506561860442, -0.0008587616612203419, -0.010885757394134998, 0.006954428739845753, 0.00012974681158084422, 6.0768132243538275e-05, -0.003454508725553751, -0.013571515679359436, 0.009776421822607517, 0.012598414905369282, 0.0077329096384346485, -0.014272148720920086, -0.024314552545547485, -0.018151577562093735, -0.016075629740953445, -0.007103637792170048, -0.019423097372055054, -0.01795695722103119, -0.003031209809705615, -0.02135632373392582, -0.002220292342826724, -0.0005643985932692885, 0.021421197801828384, 0.015932908281683922, 0.010794934816658497, -0.00795996654778719, 0.015660440549254417, 0.016893034800887108, -0.0022138049826025963, 0.017567718401551247, -0.016361072659492493, 0.0033961227163672447, 0.013480693101882935, -0.004489239305257797, 0.026987336575984955, -0.013234173879027367, 0.03588796779513359, 0.01444081962108612, 0.0017288762610405684, 0.005695885047316551, 0.004706565290689468, 0.013052528724074364, 0.015154426917433739, -0.022692715749144554, 0.000443977362010628, -0.005566137842833996, 0.0010720329592004418, -0.02921898104250431, -0.002350039081647992, 0.023289551958441734, 0.0005092562059871852, 0.019565818831324577, 0.005712103098630905, 0.006231090519577265, -0.018800312653183937, 0.014972781762480736, 0.010626263916492462, 0.014972781762480736, -0.03791201859712601, -0.01070411130785942, -0.019202526658773422, -0.0015253359451889992, -0.017814235761761665, -0.03116518259048462, -0.01804778166115284, -0.001385047216899693, -0.022952210158109665, 0.03150252625346184, 0.01129445992410183, -0.00287226983346045, 0.01129445992410183, 0.022601893171668053, 0.00536178657785058, 0.01748986914753914, 0.0014677607687190175, 0.0063186693005263805, -0.008122149854898453, -0.015530692413449287, -0.015932908281683922, 0.004018907435238361, -0.016672464087605476, 0.024807589128613472, 0.005235283635556698, -0.015790186822414398, -0.024431323632597923, 0.021589869633316994, -0.04873289912939072, -0.008946042507886887, -0.011878320015966892, 0.007745884358882904, 0.011579902842640877, 0.028985437005758286, 0.005906723439693451, -0.01282547228038311, 7.845627260394394e-05, 0.019513919949531555, -0.025106007233262062, 0.01364936400204897, 0.01767151430249214, 0.009984016418457031, -0.019864236935973167, 0.007551264017820358, -0.026131007820367813, -0.031865816563367844, 0.028596196323633194, 0.006643036380410194, 0.001207456225529313, 0.025417398661375046, -0.01295521855354309, -0.00868654903024435, -0.012676263228058815, -0.006571675650775433, 0.010334333404898643, -0.013020091690123081, 0.02921898104250431, -0.023510120809078217, -0.02411993220448494, -0.02436644956469536, 0.0373670794069767, -0.031865816563367844, 0.010567877441644669, -0.030308853834867477, 0.0028171276208013296, -0.017892085015773773, -0.0063186693005263805, 0.00683765672147274, 0.0012334055500105023, 0.012202687561511993, 0.022783540189266205, -0.00035903372918255627, -0.03534302860498428, 0.021200628951191902, 0.006409492343664169, 0.003587499260902405, -0.026221830397844315, 0.017632590606808662, -0.022835437208414078, -0.013110915198922157, -0.009698573499917984, -0.013519617728888988, 0.00132179562933743, -0.016931958496570587, 0.007330694701522589, -0.016283223405480385, -0.010749522596597672, -0.003263132181018591, -0.0055272141471505165, -0.01784018613398075, 0.03775632008910179, 0.0047941445372998714, -0.006117561832070351, 0.02369176782667637, -0.008783859200775623, 0.0035939866211265326, -0.050004418939352036, -0.030101260170340538, -0.030205056071281433, -0.021252527832984924, -0.026053158566355705, -0.005193116143345833, -0.015530692413449287, -0.024742716923356056, -0.00323718274012208, 0.011242561042308807, 0.0055693816393613815, 0.015154426917433739, 0.21693666279315948, -0.007810757961124182, 0.022965185344219208, 0.015984807163476944, -0.005757514387369156, 0.028725942596793175, 0.023769615218043327, -0.011015503667294979, 0.008459491655230522, 0.014894933439791203, -0.023289551958441734, 0.009309333749115467, -0.026040183380246162, 0.013350946828722954, 0.01829429902136326, -0.00944556761533022, -0.029712019488215446, -0.012312971986830235, -0.015400946140289307, -0.009731010533869267, -0.006681960541754961, -0.0028219930827617645, 0.005202847067266703, -0.010820883326232433, 0.008997941389679909, -0.008868194185197353, 0.0002959849080070853, -0.013078478164970875, 0.06217467039823532, 0.01978638768196106, 0.006980378180742264, 0.009354745037853718, -0.003675078274682164, -0.024029109627008438, -0.013960756361484528, 0.008822782896459103, -0.019643666222691536, 0.0016210242174565792, 0.03342277929186821, 0.017256325110793114, 0.009030377492308617, 0.001646162592805922, -0.011171200312674046, 0.007415030151605606, 0.0057088593021035194, 0.01524524949491024, 0.00019593795877881348, -0.02696138620376587, 0.012916294857859612, -0.0026679188013076782, -0.02238132432103157, 0.005180141422897577, 0.013636389747262001, 0.03749682754278183, -0.005225552711635828, -0.006373811978846788, -0.00530664436519146, 0.021031957119703293, -0.001386668998748064, -0.017217401415109634, 0.00028544297674670815, 0.019254425540566444, -0.023302527144551277, -0.013921832665801048, -0.0056926412507891655, 0.03422720730304718, -0.02544334903359413, 0.012416769750416279, -0.004349761642515659, -0.006224602926522493, -0.0068181948736310005, -0.024820564314723015, 0.018826261162757874, 0.005958622321486473, -0.003986470866948366, -0.017645565792918205, 0.01918955333530903, 0.02047404646873474, 0.01327309850603342, 0.015452845022082329, -0.012248098850250244, 0.009782909415662289, 0.00011251481191720814, 0.015089553780853748, 0.013097940012812614, -0.015855059027671814, 0.008757909759879112, 0.007687498349696398, -0.014337021857500076, -0.013033066876232624, 0.005822387989610434, -0.02761012129485607, 0.010405694134533405, 0.019643666222691536, -0.004803875461220741, 0.026935437694191933, 0.0011896160431206226, 0.009932118467986584, -0.02182341367006302, 0.01575126312673092, 0.0014450550079345703, -0.021641766652464867, 0.017827210947871208, -0.0021051419898867607, -0.02374366484582424, 0.01259192731231451, -0.016698414459824562, 0.013597465120255947, 0.0015415542293339968, -0.02021455205976963, -0.007998890243470669, -0.008401106111705303, -0.011962655931711197, -0.014233225025236607, 0.049874674528837204, 0.015777211636304855, 0.01758069172501564, -0.0015310123562812805, -0.015893984586000443, -0.00312203262001276, -0.0008169994107447565, -0.01859271712601185, 0.012254585511982441, -0.004998495802283287, -0.011080377735197544, -0.021940184757113457, -0.007934017106890678, 0.015893984586000443, 0.004612498916685581, -0.014583541080355644, 0.0114890793338418, -0.04177847132086754, 0.005819144193083048, -0.0060721505433321, -0.022666767239570618, 0.015426895581185818, -0.015271198935806751, -0.01294873096048832, 0.03723733499646187, 0.008971991948783398, 0.0011571793584153056, 0.010178636759519577, -0.0003685620322357863, 0.010853320360183716, 0.01885221153497696, -0.020954109728336334, 0.037003789097070694, -0.010107276029884815, 0.0190598051995039, -0.009030377492308617, -0.002645212924107909, -0.003454508725553751, 0.005050394684076309, -0.00836218148469925, 0.018034806475043297, -0.02092815935611725, 0.002259216271340847, -0.025274677202105522, 0.006733859423547983, 0.01551771815866232, -0.0294265765696764, -0.00341882836073637, 0.028648095205426216, 0.013376896269619465, -0.009659649804234505, 0.01601075567305088, -0.16306579113006592, 0.018151577562093735, 0.015595566481351852, 0.003425315720960498, 0.024703791365027428, -0.008401106111705303, 0.014609490521252155, 0.000954449933487922, 0.0182164516299963, 0.003960521426051855, 0.023367399349808693, 0.0008652490214444697, -0.01441487018018961, -0.035732269287109375, -0.03674429655075073, 0.000790644611697644, -0.013363921083509922, 0.0045930370688438416, 0.020967084914445877, 0.01627025008201599, 0.03451265022158623, -0.017386071383953094, 0.016153477132320404, 0.011476105079054832, 0.012630851939320564, -0.007213922683149576, -0.021395249292254448, 0.03695189207792282, -0.01560854073613882, -0.016231326386332512, 0.010768985375761986, -0.010035915300250053, 0.03217720985412598, 0.026143981143832207, 0.007791295647621155, 0.0013307157205417752, -0.006279745604842901, -0.010120251215994358, -0.029322778806090355, 0.019228477030992508, 0.014933857135474682, 0.009017403237521648, 0.004372467286884785, -0.013467718847095966, -0.012118351645767689, 0.028725942596793175, 0.021667717024683952, -0.012818984687328339, -0.00555316312238574, 0.004975790157914162, 0.016672464087605476, -0.02849239856004715, 0.015128477476537228, 0.0021765027195215225, -0.013299047946929932, 0.010944142937660217, 0.011223099194467068, 0.006934966892004013, 0.005867799278348684, 0.009101738221943378, -0.025274677202105522, 0.0012034015962854028, 0.017554743215441704, -0.003057159250602126, 0.015362021513283253, -0.00790158100426197, 0.01656866818666458, 0.019565818831324577, -0.03383796662092209, 0.0016672464553266764, -0.012851420789957047, -0.0347461961209774, 0.013519617728888988, -0.01719145104289055, 0.005322862882167101, 0.01907278038561344, -0.012494617141783237, -0.01129445992410183, -0.00247978582046926, 0.012436231598258018, -0.008693035691976547, 0.056673403829336166, -0.0242886021733284, -0.015232275240123272, -0.013467718847095966, 0.0009220132487826049, -0.012118351645767689, -0.01029540877789259, 0.007869143970310688, -0.004852530546486378, -0.019228477030992508, -0.022744614630937576, -0.0019105217652395368, -0.02641645073890686, 0.004103242885321379, 0.015219300054013729, -0.0020126972813159227, 0.00412919232621789, 0.008245409466326237, -0.022874362766742706, 0.0084075927734375, 0.003950790502130985, -0.03350062668323517, 0.027662020176649094, 0.013007117435336113, 0.014285123907029629, 0.004388685803860426, 0.005004982929676771, 0.008894143626093864, 0.017775312066078186, 0.005598574876785278, 0.006759808864444494, 0.017295248806476593, 0.020136704668402672, -0.026182904839515686, 0.02123955264687538, 0.022160755470395088, -0.016815185546875, 0.0025446591898798943, -0.027194930240511894, 0.05490884929895401, -0.021512020379304886, 0.005118511617183685, 0.008498416282236576, 0.004271913785487413, -0.017567718401551247, -0.10281136631965637, -0.03466834872961044, 0.00825838465243578, 0.026935437694191933, 0.011515028774738312, 0.008232435211539268, 0.006643036380410194, 0.015374996699392796, 0.007895093411207199, 0.00034159902133978903, -0.008978478610515594, -0.018748413771390915, 0.013350946828722954, 0.0013047662796452641, 0.0347461961209774, -0.0044632903300225735, 0.004661154001951218, -0.015932908281683922, -0.003691296558827162, 0.005390979815274477, 0.01829429902136326, 0.018437020480632782, -0.01254651602357626, -0.024197779595851898, -0.01021107379347086, -0.01473923772573471, -0.039858218282461166, 0.028388600796461105, 0.023328475654125214, 0.024574045091867447, -0.014272148720920086, -0.020655691623687744, -0.0005733186844736338, -0.015011705458164215, 0.012008067220449448, -0.007616137620061636, -0.03596581518650055, 0.009237973019480705, 0.013000629842281342, -0.02051297016441822, 0.014064554125070572, -0.003160956548526883, 0.029063284397125244, -0.04183037206530571, 0.01364936400204897, -0.01551771815866232, -0.005043907091021538, 0.023938285186886787, 0.0027409011963754892, -0.028907587751746178, -0.017087655141949654, -0.018281325697898865, -0.03907973691821098, -0.0061272927559912205, 0.03723733499646187, -0.0075058527290821075, -0.02789556421339512, 0.012981167994439602, 0.0012682750821113586, -0.017424996942281723, 0.0074020554311573505, -0.0002120549324899912, 0.002638725796714425, 0.0011158225825056434, 0.003160956548526883, 0.01664651557803154, -0.027402525767683983, 0.016296198591589928, 0.0075058527290821075, -0.003846992738544941, -0.03334492817521095, -0.004839555826038122, -0.013104427605867386, 0.018618667498230934, -0.0220439825206995, -0.015764236450195312, 0.012299997732043266, -0.008965504355728626, -0.01868353970348835, -0.01655569300055504, -0.0028252366464585066, -0.016931958496570587, 0.004657910205423832, -0.002457080176100135, 0.006613843608647585, 0.014220249839127064, 0.03523923456668854, 0.004871992394328117, 0.00016968449926935136, -0.031787969172000885, -0.005783463828265667, 0.014388920739293098, 0.023432273417711258, -0.01928037591278553, 0.0008064574794843793, 0.024820564314723015, 0.01651676930487156, -0.008102688007056713, -0.010730060748755932, -0.016750313341617584, -0.0017888840520754457, -0.03264429792761803, -0.0644582137465477, -0.004810363054275513, -0.0015577726298943162, -0.037600625306367874, -0.005647229962050915, 0.0158810093998909, 0.009030377492308617, 0.01397373154759407, -0.012196199968457222, -0.0025316844694316387, -0.03313733637332916, 0.01847594603896141, 0.004706565290689468, -0.005381248891353607, -0.02415885590016842, -0.005530457478016615, 0.03510948643088341, -0.008939554914832115, -0.011612338945269585, 0.0041551413014531136, 0.004372467286884785, 0.017126578837633133, 0.016789237037301064, 0.0012650314019992948, -0.02552119642496109, -0.0031804186291992664, -0.0006077826838009059, 0.019397146999835968, -0.0008169994107447565, -0.0147132882848382, 0.01673733815550804, -0.02755822241306305, -0.0018667321419343352, 0.012202687561511993, 0.00024185616348404437, -0.007648574188351631, -0.00800537783652544, -0.0013955890899524093, -0.002714951988309622, 0.03409745916724205, -0.03139872848987579, -0.008673573844134808, 0.027324678376317024, -0.031528472900390625, -0.0026906244456768036, 0.030438600108027458, 0.016399996355175972, 0.009945092722773552, 0.013960756361484528, 0.004962815437465906, 0.018060754984617233, 0.023639868944883347, 0.002870648168027401, -0.006312182173132896, -0.010269459336996078, -0.010918193496763706, -0.012040503323078156, 0.013480693101882935, -0.0007525314576923847, -0.029504423961043358, 0.04022150859236717, 0.014155376702547073, -0.016659490764141083, -0.01135933306068182, -0.0031074360013008118, 0.006759808864444494, -0.0233544260263443, 0.016283223405480385, -0.0022138049826025963, -0.023730691522359848, -0.024781640619039536, -0.004946596920490265, -0.00528718251734972, 0.004797388333827257, 0.026143981143832207, -0.010898731648921967, -0.011268510483205318, -0.009815345518290997, -0.02123955264687538, 0.037860117852687836, 0.004953084513545036, 0.006149998866021633, -0.04395821690559387, 0.004447071813046932, 0.0328778401017189, -0.01490790769457817, -0.018527844920754433, 0.00987373199313879, 0.008731960318982601, 0.025002209469676018, -0.0073566441424191, 0.00987373199313879, 0.011612338945269585, 0.015297148376703262, 0.0034966764505952597, -0.0034966764505952597, -0.009328795596957207, 0.005997546017169952, 0.0015683145029470325, 0.00018884243036154658, -0.0011758304899558425, -0.019033856689929962, -0.009996991604566574, -0.026649994775652885, 0.009964554570615292, -0.010665187612175941, -0.034123409539461136, -0.03321518376469612, 0.004602767992764711, 0.025002209469676018, -0.016542717814445496, 0.0003349089529365301, -0.006805220153182745, 0.008946042507886887, 0.006282</t>
+  </si>
+  <si>
+    <t>[-0.002409707522019744, 0.0044519430957734585, 0.0013056647730991244, -0.04295198246836662, -0.007798217236995697, -0.002152802189812064, -0.0003758054517675191, -3.793114592554048e-05, 0.012103821150958538, -0.030048176646232605, 0.005791753530502319, -0.021280871704220772, -0.03290990740060806, -0.018848400563001633, -0.009827444329857826, 0.01564846560359001, 0.033456236124038696, 0.023856431245803833, -0.002765798009932041, -0.033690378069877625, -0.016793157905340195, 0.0035771639086306095, 0.00018089066725224257, -0.010172152891755104, -0.006913681980222464, -0.01886140927672386, 0.038087040185928345, -0.022958887740969658, -0.004686084575951099, -0.0030942466109991074, -0.004539745859801769, 0.007108800113201141, -0.014685883186757565, -0.007297414354979992, -0.014633852057158947, 0.0007711226935498416, 0.03335217386484146, 0.0005471434560604393, 0.006952705793082714, 0.01687120459973812, 0.006357595790177584, 0.011440420523285866, 0.0045722657814621925, -0.009313633665442467, 0.0016024067299440503, 0.026614097878336906, -0.00568769033998251, 0.0070567685179412365, -0.006829130928963423, -0.004562509711831808, -0.010035570710897446, 0.020045125856995583, -0.01931668445467949, -0.010425806045532227, -0.017014291137456894, -0.026067767292261124, -0.021280871704220772, 0.00018708972493186593, 0.022438572719693184, -0.024675926193594933, -0.0052779424004256725, -0.004442187026143074, -0.027472617104649544, 0.009716877713799477, -0.015297253616154194, -0.0148679930716753, -0.00834454782307148, 0.0004906405229121447, -0.02208735980093479, 0.008246988989412785, 0.013606230728328228, 0.03746265918016434, 0.01175911258906126, -0.005372249521315098, 0.027602696791291237, -0.02251661941409111, 0.013059900142252445, 0.01929066888988018, 0.00779171334579587, -0.008793318644165993, 0.010107113979756832, -0.033872488886117935, 0.0067966110073029995, 0.02368732914328575, 0.016533000394701958, 0.007290909998118877, -0.01789882592856884, 0.01497205626219511, -0.012604624032974243, -0.001477206009440124, 0.012201380915939808, -0.007908783853054047, -0.007531555835157633, -0.00018922383605968207, -0.0029901836533099413, -0.0004337310965638608, 0.008669744245707989, 0.016012685373425484, -0.003551148111000657, 0.012572105042636395, -0.0076421224512159824, 0.005443792790174484, -0.005339730065315962, -0.01766468584537506, -0.04576168209314346, 0.0012999738100916147, 0.0077591934241354465, -0.0045429980382323265, 0.019745944067835808, 0.006139713805168867, 0.003333266358822584, 0.02294587902724743, 0.0028844948392361403, -0.02716042846441269, 0.011694073677062988, -0.025040145963430405, 0.0027186444494873285, 0.01377533283084631, 0.03543343394994736, -0.023088965564966202, 0.012201380915939808, 0.014555804431438446, -0.017222417518496513, -0.0003766184381674975, 0.02955387718975544, -0.0020292275585234165, -0.022425565868616104, -0.01988903060555458, -0.005043800920248032, -0.00926160253584385, 0.011427412740886211, -0.010809538885951042, 0.027654727920889854, -0.008559177629649639, 0.0036129355430603027, 0.0030942466109991074, -0.003349526086822152, 0.017183393239974976, -0.01326802559196949, -0.02410358004271984, 0.02373936027288437, 0.014841977506875992, -0.014620844274759293, -0.006725067738443613, -0.0130729079246521, 0.03072458505630493, -0.014113537035882473, 0.023453187197446823, 0.005681186448782682, 0.005752729717642069, 0.024806004017591476, -0.023180020973086357, 0.007154327817261219, -0.01086157001554966, 0.032883889973163605, 0.004113738425076008, -0.008168941363692284, 0.020994698628783226, -0.0029251445084810257, 0.011492451652884483, -0.008962421678006649, 0.03202537074685097, -0.004939738195389509, -0.018198007717728615, 0.020812589675188065, 0.019225629046559334, 0.0005113718216307461, 0.03272779658436775, 0.0034958645701408386, 0.028044963255524635, -0.004783643409609795, 0.009508751332759857, -0.026028744876384735, 0.0017690700478851795, 0.0142696313560009, 0.0389975905418396, -0.010568892583251, 0.009716877713799477, -0.005378753412514925, -0.017391519621014595, -0.0007845370564609766, -0.01769070141017437, 0.027862854301929474, 0.015791552141308784, -0.008604705333709717, 0.00236418005079031, -0.00028698609094135463, 0.006549461744725704, 0.010484341531991959, -0.036291953176259995, 0.0066730366088449955, 0.03483507037162781, 0.006188493221998215, -0.019420746713876724, -0.6464390158653259, -0.0022015816066414118, -0.01093961764127016, -0.020747549831867218, -0.015336276963353157, 0.005193391349166632, 0.01732647977769375, 0.027992932125926018, -0.030802631750702858, -0.026900270953774452, -0.01207130216062069, 0.01785980351269245, 0.007934799417853355, -0.003260097000747919, -0.025053154677152634, -0.007420988753437996, 0.011733097024261951, -0.02229548618197441, 0.009144531562924385, 0.010783522389829159, -0.004071462899446487, 0.03309201821684837, -0.01952481083571911, -0.004295848309993744, -0.002512144623324275, 0.027706759050488472, 0.015960654243826866, -0.01869230717420578, -0.02068250998854637, -0.009287618100643158, -0.03012622334063053, 0.0008194957044906914, -0.002043861197307706, -0.011739601381123066, 0.045709650963544846, 0.013619238510727882, -0.018770353868603706, 0.04136501997709274, 0.025014130398631096, 0.038295164704322815, -0.007551067508757114, 0.009736389853060246, 0.019954070448875427, -0.032701779156923294, 0.02331010065972805, 0.012285931967198849, 0.05244772508740425, 0.013593222014605999, -0.01326802559196949, 0.002102396683767438, 0.011629033833742142, -0.022373532876372337, -0.001350379316136241, 0.02154102921485901, 0.030074192211031914, -0.0109461210668087, 0.02431170642375946, -0.00047966514830477536, -0.0009089247905649245, 0.012845270335674286, 0.0036682188510894775, 0.023635296151041985, -0.014308655634522438, -0.02252962812781334, -0.005160871893167496, 0.009996546432375908, -0.03595374897122383, -0.00027174249407835305, -0.00668604439124465, 0.016988275572657585, -0.0007186847506090999, 0.01926465332508087, -0.012598120607435703, 0.012630640529096127, 0.01164854597300291, 0.01609073393046856, -0.002190199913457036, 0.01728745736181736, 0.016155771911144257, 0.03140099346637726, 0.015206198208034039, -0.004816163331270218, -0.013580214232206345, 0.020422352477908134, -0.010120121762156487, 0.0035934236366301775, -0.018588243052363396, -0.00728440610691905, -0.0003664560499601066, 0.014841977506875992, -0.0032617230899631977, 0.005463304929435253, -0.007928295992314816, -0.02454584836959839, -0.018211016431450844, 0.02595069818198681, -0.002078006975352764, 0.03012622334063053, -0.003941384144127369, -0.03457491472363472, -0.0047738878056406975, -0.007381965406239033, -0.01831507869064808, 0.007368957623839378, 0.028044963255524635, 0.008370563387870789, -0.022620683535933495, 0.005502328276634216, 0.025638507679104805, -0.031088804826140404, -0.010848562233150005, 0.01527123712003231, 0.002102396683767438, -0.0037137463223189116, -0.031062789261341095, -0.025196241214871407, 0.03761875629425049, 0.019420746713876724, 0.010484341531991959, -0.016767142340540886, 0.03238959237933159, 0.01015264168381691, 0.015063111670315266, -0.03382045775651932, 0.002954412018880248, 0.014998071826994419, 0.01648096926510334, -0.03743664547801018, -0.025495421141386032, 0.0026243373285979033, 0.03803500533103943, -0.010913601145148277, 0.017417535185813904, -0.013398104347288609, 0.015778543427586555, 0.0224906038492918, 0.029215672984719276, 0.000897542922757566, 0.0016162276733666658, -0.03860735148191452, -0.03160912171006203, -0.022594667971134186, 0.024025533348321915, -0.027472617104649544, 0.0004922664957121015, -0.027420585975050926, -0.020838605239987373, -0.009872972033917904, -0.021046731621026993, -0.024636901915073395, -0.027056366205215454, -0.015024088323116302, -0.022594667971134186, 0.014581819996237755, 0.012103821150958538, 0.01788581907749176, -0.025053154677152634, -0.000583728076890111, -0.019980086013674736, 0.0006524259224534035, 0.010783522389829159, 0.010907097719609737, -0.023049943149089813, 0.005141359753906727, 0.018419140949845314, -0.007420988753437996, 0.0005601513548754156, 0.0033267622347921133, -0.016012685373425484, -0.041286975145339966, -0.01650698482990265, 0.0036682188510894775, -0.006237272638827562, 0.027628712356090546, -0.008071382530033588, 0.0066437688656151295, -0.018198007717728615, -0.005853540729731321, -0.01054287701845169, 0.007973823696374893, 0.01748257502913475, -0.01649397797882557, -0.016832182183861732, -0.00886486191302538, 0.007934799417853355, 0.01186317577958107, -0.0007113678148016334, -0.011258309707045555, -0.013098923489451408, 0.009677854366600513, 0.001263389247469604, 0.0130729079246521, -0.012715191580355167, -0.013957442715764046, -0.02994411252439022, -0.019784968346357346, -0.00025223070406354964, 0.007212862838059664, 0.00653645396232605, 0.017950858920812607, 0.017235426232218742, 0.010959128849208355, 0.004510478116571903, -0.0016593162436038256, 0.02050040103495121, -0.03340420499444008, 0.02513120137155056, -0.012630640529096127, 0.04622996225953102, -0.012494057416915894, 0.009736389853060246, -0.015973662957549095, -0.02833113633096218, 0.010887585580348969, -0.00026259635342285037, 0.01811996102333069, 0.004978761542588472, 0.013098923489451408, -0.003117010463029146, 0.0076096029952168465, 0.026874255388975143, 0.0019869518000632524, -0.0018715070327743888, 0.007590091321617365, -0.02329709194600582, 0.014920025132596493, 0.0028324632439762354, 0.02731652371585369, -0.019628873094916344, -0.01075750682502985, -0.012136341072618961, 0.02130688913166523, 0.005938091780990362, 0.019784968346357346, -0.005892564542591572, 0.042587760835886, -0.009072988294064999, -0.020799580961465836, 0.01185667235404253, -0.0008446984575130045, 0.02150200679898262, 0.029866065829992294, 0.006425886880606413, 0.02173614874482155, 0.0007816915749572217, 0.008780310861766338, 0.03491311892867088, 0.002221093513071537, -0.021827202290296555, -0.00642913905903697, -0.026171831414103508, -0.00753805972635746, 0.009892484173178673, 0.004393407609313726, 0.008786815218627453, 0.016038700938224792, 0.026900270953774452, 0.005047053098678589, 0.015986669808626175, 0.022659705951809883, 0.0011658301809802651, -0.004679580684751272, 0.00923558697104454, 0.008585193194448948, 0.001907278667204082, -0.010731491260230541, 0.01407451368868351, -0.0017463063122704625, 0.004819415044039488, -0.03663015738129616, 0.005531596019864082, 0.007954311557114124, -0.0032666008919477463, -0.008825838565826416, -0.0069982330314815044, -0.0014975308440625668, -0.00985996425151825, -0.019017502665519714, -0.008409586735069752, 0.042483698576688766, 0.012936324812471867, -0.023973502218723297, 0.01215585321187973, 0.0313749797642231, 0.005573871545493603, -0.018145976588129997, -0.026666130870580673, 0.004627549089491367, -0.020825596526265144, 0.026392964646220207, -0.006972217466682196, 0.017417535185813904, -0.01127131748944521, 0.007967319339513779, -0.017209410667419434, -0.02494909055531025, 0.017183393239974976, -0.017378512769937515, 0.035069212317466736, -0.022256461903452873, -0.013059900142252445, -0.022230446338653564, 0.00035385467344895005, -0.003580415854230523, 0.016741126775741577, 0.00012174552102806047, 0.009892484173178673, 0.004448690917342901, -0.005921832285821438, -0.016519993543624878, -0.01706632412970066, -0.0006012074300087988, 0.0035348881501704454, -0.0016845189966261387, 0.006952705793082714, 0.006594989448785782, -0.0074990359134972095, 0.0007682772120460868, 0.012253412045538425, 0.0005455174832604825, -0.014399710111320019, -0.030256301164627075, -0.014959048479795456, -0.014555804431438446, 0.07861955463886261, 0.004445439204573631, -0.020149188116192818, 0.020955676212906837, -0.004074714612215757, 0.006978721357882023, -0.008142925798892975, -0.010477838106453419, -0.0008650232339277864, 0.014620844274759293, 0.007017745170742273, -0.041703224182128906, 0.021436966955661774, 0.012227396480739117, 0.0215150136500597, -0.009723381139338017, 0.00011331072892062366, -0.017534606158733368, 0.034262724220752716, 0.021384935826063156, -0.00022316623653750867, 0.0036584630142897367, -0.01750859059393406, 0.03652609512209892, 0.0018276055343449116, 0.017820779234170914, 0.02213939279317856, -0.006071422714740038, 0.0012235526228323579, -0.036916330456733704, -0.003814557334408164, -0.010764011181890965, -0.038321178406476974, 0.006237272638827562, -0.012084309943020344, 0.005264934618026018, 0.009079491719603539, 0.0023901958484202623, -0.00013170466991141438, 0.015505379065871239, 0.0279409009963274, 0.014399710111320019, 0.008741287514567375, -0.0021430463530123234, 0.0045429980382323265, -0.0018194755539298058, 0.004113738425076008, 0.014724906533956528, -0.029423797503113747, -0.009033964946866035, 0.03938782587647438, -0.016337882727384567, 0.0023235303815454245, -0.009125019423663616, 0.014256623573601246, -0.016962260007858276, 0.006191745400428772, 0.005765737500041723, -0.03722852095961571, -0.017183393239974976, 0.010302231647074223, -0.02511819452047348, 0.003944635856896639, 0.010003050789237022, -0.01447775773704052, -0.031244900077581406, -0.029449813067913055, -0.004705596249550581, -0.016428938135504723, -0.0035706597846001387, -0.004302352666854858, -0.0215150136500597, -0.0060616666451096535, -0.0021040227729827166, 0.013320056721568108, -0.01668909564614296, 0.013424119912087917, 0.008624216541647911, -0.00986646767705679, 0.0357196070253849, -0.01588260754942894, -0.004712100140750408, 0.0005951100029051304, -0.027836838737130165, -0.0065332017838954926, 0.020461376756429672, -0.008513649925589561, 0.010289223864674568, -0.03054247424006462, 0.0019202865660190582, 0.014946040697395802, -0.012708687223494053, 0.010653444565832615, 0.001144692418165505, 0.023778382688760757, -0.003149530151858926, 0.026978319510817528, 0.0018487432971596718, 0.006341335829347372, 0.0025918178725987673, -0.009203067049384117, -0.003814557334408164, -0.0191215667873621, -0.010100609622895718, 0.019758952781558037, -0.009898987598717213, -0.004715352319180965, -0.018926449120044708, 0.01477693859487772, -0.005996627267450094, -0.015167174860835075, -0.012123333290219307, -0.010276216082274914, -0.023036934435367584, -0.0337684266269207, -0.005843784660100937, 0.001840613316744566, 0.023999517783522606, 0.016832182183861732, -0.00835105124861002, -0.0389975905418396, -0.027030350640416145, 0.0005658422596752644, 0.029840050265192986, -0.028825435787439346, 0.006048658862709999, -0.006419382989406586, -0.015817567706108093, -0.000499583431519568, -0.007251886650919914, 0.0066437688656151295, 0.0136712696403265, -0.0106469402089715, -0.021046731621026993, -0.01646796055138111, -0.02833113633096218, -0.010276216082274914, -0.0019202865660190582, -0.023062950000166893, -0.0209166519343853, -0.030906695872545242, 0.022204430773854256, -0.017170386388897896, -0.00953476782888174, -0.023193029686808586, -0.019563833251595497, -0.0005024289130233228, -0.006650272756814957, -0.01156399492174387, 0.012799742631614208, 0.010913601145148277, -0.005011281464248896, 0.003993415739387274, 0.00804536696523428, 0.0038113053888082504, -0.02250361256301403, -0.008708767592906952, -0.027680743485689163, 0.014985064044594765, 0.025846634060144424, 0.03033434972167015, 0.0038308172952383757, 0.033872488886117935, 0.003951140213757753, 0.0013950938591733575, -0.002341416198760271, 0.0016479343175888062, 0.006744579877704382, -0.04279588535428047, 0.03694234788417816, -0.0018015897367149591, 0.03277982771396637, -0.012851773761212826, -0.0021349163725972176, -0.004702344536781311, 0.011999758891761303, 0.009170547127723694, 0.01096563320606947, -0.01789882592856884, -0.019160589203238487, -0.007154327817261219, -0.021996306255459785, -0.014737915247678757, -0.006393367424607277, -0.03314404934644699, 0.00024714949540793896, 0.011837160214781761, 0.009372169151902199, -0.009196562692523003, -0.008689256384968758, 0.020435361191630363, -0.0582752488553524, 0.03733258321881294, 0.015323269180953503, -0.0069657135754823685, -0.0013690781779587269, -0.022958887740969658, -0.023427171632647514, 0.009027460590004921, 0.013554198667407036, 0.015635456889867783, -0.01588260754942894, -0.02552143856883049, -0.03556351363658905, 0.013137946836650372, 0.018250038847327232, -0.008689256384968758, -0.006894170306622982, 0.00985996425151825, -0.020240243524312973, -0.026874255388975143, -0.0004085283726453781, 0.010991648770868778, -0.03116685338318348, -0.016441944986581802, 0.00406821072101593, -0.005401517264544964, 0.02812301181256771, -0.01488100178539753, -0.02328408509492874, 0.019654888659715652, 0.011446923948824406, 0.01930367574095726, 0.0030844907741993666, 0.015206198208034039, 0.01785980351269245, -0.006972217466682196, 0.0012373734498396516, 0.0349651500582695, -0.013684277422726154, -0.011921711266040802, 0.024662917479872704, 0.026588082313537598, -0.010386782698333263, -0.01990203931927681, -0.0015202945796772838, 0.018783362582325935, -0.012253412045538425, -0.00985996425151825, 0.0534883551299572, 0.014243615791201591, 0.016402922570705414, -0.015830576419830322, -0.0026601089630275965, 0.0033023725263774395, 0.004946242086589336, -0.014685883186757565, -0.005960855633020401, -0.010907097719609737, -0.014438733458518982, -0.01785980351269245, 0.016806166619062424, -0.029007546603679657, 0.017651677131652832, -0.0032633489463478327, -0.02191825769841671, 0.01437369454652071, -0.03077661618590355, -0.03309201821684837, 0.024233657866716385, 0.0004144225677009672, 0.006653524469584227, -0.012149348855018616, 0.00026503531262278557, 0.03132294863462448, -0.022386541590094566, -0.010380279272794724, -0.01667608693242073, 0.01908254250884056, 0.020838605239987373, -0.02252962812781334, 0.011843664571642876, 0.017378512769937515, 0.01005508191883564, 0.01547936350107193, -0.026288902387022972, 0.007583587430417538, 0.02190525084733963, -0.0006199062336236238, -0.027446601539850235, -0.021163802593946457, -0.0070567685179412365, 0.003476352896541357, 0.006168981548398733, -0.006647020578384399, 0.0063543436117470264, -0.0321294330060482, 0.0012950958916917443, 0.01847117394208908, -0.017365504056215286, -0.02736855484545231, -0.006357595790177584, -0.0042535727843642235, 0.0061819893307983875, -0.004048699047416449, 0.003889352548867464, 0.007121807895600796, 0.03637000173330307, -0.008207964710891247, 0.02511819452047348, -0.009307130239903927, 0.019420746713876724, -0.008390075527131557, -0.005681186448782682, 0.00617223372682929, 0.0021658099722117186, 0.033039987087249756, -0.021436966955661774, -0.02033129893243313, -0.01477693859487772, -0.0035706597846001387, -0.0148679930716753, -0.003134896280243993, -0.009794924408197403, -0.01105018425732851, -0.007394973188638687, -0.0012666411930695176, -0.016519993543624878, -0.04204143211245537, 0.011908703483641148, 0.020747549831867218, -0.0026958805974572897, 0.016337882727384567, -0.03681226819753647, 0.012006262317299843, 0.01771671697497368, 0.001552001340314746, 0.009677854366600513, -0.042275570333004, 0.0133720887824893, 0.0070242490619421005, 0.008708767592906952, 0.004357635974884033, -0.004913722164928913, -0.018158983439207077, -0.003469848772510886, -0.015349284745752811, 0.014061505906283855, -0.0013520052889361978, -0.011993254534900188, 0.014412717893719673, 0.0209166519343853, 0.014998071826994419, 0.019602857530117035, -0.011225790716707706, 0.01105668768286705, -0.019017502665519714, -0.00935265701264143, -0.02556046098470688, -0.01216235663741827, -0.02310197427868843, 0.018549220636487007, 0.0021641841158270836, -0.042301587760448456, -0.0097493976354599, 0.011577002704143524, -0.03397655114531517, 0.0069657135754823685, -0.00953476782888174, 0.012175364419817924, 0.0012463163584470749, 0.028981531038880348, -0.00256742793135345, -0.010894089937210083, -0.010659947991371155, 0.017599646002054214, -0.011420908384025097, 0.0024649910628795624, 0.017755739390850067, -0.041130878031253815, 0.013411112129688263, -0.010529869236052036, -0.04576168209314346, -0.020617472007870674, 0.03231154382228851, 0.023661311715841293, 0.004734863992780447, 0.02131989598274231, -0.008572185412049294, 0.010894089937210083, 0.024584870785474777, 0.0069657135754823685, 0.018367109820246696, 0.021970288828015327, 0.030828647315502167, -0.024480808526277542, 0.000920306658372283, 0.005440541077405214, 0.03056848980486393, -0.007570579182356596, -0.006588485091924667, -0.012006262317299843, -0.006464910693466663, 0.003343022195622325, 0.001091034966520965, 0.007486028131097555, 0.009970530867576599, 0.01267616730183363, 0.03996017202734947, -0.007193351164460182, -0.006500682327896357, 0.015089127235114574, 0.022607674822211266, -0.02415561117231846, -0.007928295992314816, 0.010419302619993687, -0.0029560381080955267, -0.015752527862787247, 0.010029066354036331, -0.033508267253637314, 0.015193190425634384, -0.029631923884153366, 0.001352818333543837, -0.009990043006837368, -0.012533080764114857, -0.013007868081331253, -0.007206358946859837, -0.019030511379241943, 0.04217150807380676, 0.0015162297058850527, -0.0215150136500597, 0.008077885955572128, -0.006224264856427908, -0.013411112129688263, 0.006042154971510172, 0.00201134174130857, 0.007011240813881159, -0.01145993173122406, -0.010302231647074223, -0.007102296222001314, -0.041495099663734436, -0.027992932125926018, -0.010419302619993687, -0.020552432164549828, 0.006084430497139692, -0.0067055560648441315, 0.2026105523109436, -0.013762325048446655, -0.013170466758310795, 0.0064453985542058945, 0.009736389853060246, 0.0029267703648656607, 0.016741126775741577, 0.0074990359134972095, -0.003921872470527887, 0.007037256844341755, -0.033274129033088684, 0.022165408357977867, -0.0061494698747992516, 0.011941223405301571, 0.01953781768679619, -0.000367269036360085, -0.008325035683810711, -0.02150200679898262, 4.9363843572791666e-05, 0.012767222709953785, 0.023466194048523903, 0.003139774315059185, 0.0005902320262975991, -0.0034731009509414434, 0.005030793137848377, -0.012526577338576317, -0.02212638407945633, -0.007121807895600796, 0.05447695404291153, 0.024610886350274086, -0.00502754095941782, 0.002700758632272482, 0.017625661566853523, -0.01930367574095726, 0.002715392503887415, 0.009612814523279667, -0.021358920261263847, -0.0023609281051903963, 0.031270913779735565, 0.017144370824098587, -0.009885979816317558, 0.008253492414951324, -0.02433772198855877, 0.015401315875351429, -0.007264894433319569, 0.010835554450750351, -0.026002729311585426, -0.004910470452159643, -0.004887706600129604, 0.007447004783898592, -0.026275893673300743, -0.008481130003929138, 0.020201219245791435, 0.04420073702931404, 0.0060941861011087894, -0.020591456443071365, 0.015817567706108093, 0.00042194273555651307, 0.006191745400428772, 0.010601412504911423, -0.01830206997692585, 0.0406365804374218, -0.02372635155916214, 0.003349526086822152, 0.015635456889867783, 0.014737915247678757, -0.040480487048625946, 0.014256623573601246, -0.0019999598152935505, -0.0007881955243647099, 0.02269873023033142, -0.011830655857920647, -0.024441784247756004, -0.011290829628705978, 0.0004251947102602571, -0.016194796189665794, 0.02611980028450489, -0.026874255388975143, 0.020019110292196274, -0.006542957853525877, 0.01315745897591114, -0.00668604439124465, -0.007264894433319569, 0.022971894592046738, 0.006295808125287294, -0.017014291137456894, 0.0009373794891871512, 0.0389975905418396, -0.009554279036819935, -0.022373532876372337, 0.002245483221486211, 0.0022324754390865564, 0.002422715537250042, 0.01787281036376953, 0.01066645234823227, -0.005690942518413067, 0.035303354263305664, 0.021762164309620857, -0.03574562072753906, -0.001053637359291315, -0.006364099681377411, 0.0017398024210706353, 0.01891344040632248, -0.012637143954634666, -0.030022159218788147, 0.00883234292268753, 0.009983538649976254, -0.005606391467154026, 0.005121848080307245, -0.01467287540435791, -0.01709233969449997, -0.03499116748571396, -0.017963865771889687, -0.014854985289275646, 0.016546009108424187, 0.012981852516531944, 0.018132967874407768, -0.021254856139421463, -0.0020910147577524185, -0.014191584661602974, 0.0028243334963917732, 0.007954311557114124, 0.016572024673223495, 0.012630640529096127, -0.013983458280563354, -0.021671108901500702, -0.03499116748571396, 0.00926160253584385, 0.0032779828179627657, -0.03676023706793785, 0.003808053443208337, 0.0030909946653991938, 0.001712160650640726, 0.001577204093337059, 0.002183695789426565, 0.011726593598723412, -0.008299020119011402, 0.01056238915771246, 0.0005621837917715311, 0.016246827319264412, -0.015739521011710167, -0.002609703689813614, 0.006959209684282541, 0.001998333726078272, -0.011180263012647629, -0.02190525084733963, 0.0010853440035134554, 0.0027788057923316956, 0.016246827319264412, 0.0036519591230899096, 0.003785289591178298, -0.010295728221535683, -0.03075060062110424, -0.03176521509885788, 0.01867929846048355, -0.023570258170366287, -0.013983458280563354, -0.016116749495267868, 0.012786734849214554, 0.00943070463836193, -0.008591696619987488, 0.004962501581758261, 0.043550342321395874, 0.01913457363843918, 0.017768748104572296, 0.0011511963093653321, -0.16369101405143738, 0.025014130398631096, 0.008702264167368412, -0.006978721357882023, 0.013983458280563354, -0.007447004783898592, -0.0027853099163621664, 0.018536211922764778, -0.02736855484545231, 0.03460092842578888, 0.007882768288254738, 0.007564075291156769, -0.025599485263228416, -0.020409345626831055, 0.005778745282441378, -0.023088965564966202, -0.00218206993304193, -0.0011064817663282156, 0.02957989275455475, 0.004855186678469181, 0.023414162918925285, -0.020058132708072662, 0.026405973359942436, 0.025573469698429108, -0.004598281346261501, -0.007362453266978264, -0.01347615197300911, 0.017339488491415977, 0.008325035683810711, -0.0029056326020509005, -0.006809619255363941, 0.010783522389829159, 0.04508526995778084, -0.010412798263132572, -0.008038862608373165, 0.01610374078154564, -0.011889191344380379, 0.013710292987525463, -0.012637143954634666, 0.02012317255139351, 0.007414484862238169, 0.008513649925589561, 0.01145993173122406, -0.029605908319354057, 0.0002239792374894023, 0.033690378069877625, 0.016025694087147713, -0.03015223890542984, -0.0019950817804783583, 0.006302312016487122, 0.015843583270907402, -0.001666633179411292, 0.02411658875644207, -0.0022113376762717962, 0.0148679930716753, 0.035069212317466736, 0.012220892123878002, 0.016350889578461647, -0.00996402744203806, -0.01605170965194702, -0.006230768747627735, -0.005655170883983374, 0.008058374747633934, -0.044356830418109894, 0.0054177772253751755, -0.03298795595765114, -0.007427492644637823, 0.00986646767705679, -0.00923558697104454, 0.004562509711831808, 0.021189818158745766, -0.008851854130625725, -0.009619318880140781, -0.0005434849881567061, 0.0018666291143745184, 0.02152802236378193, -0.01930367574095726, -0.017755739390850067, 0.0014137927209958434, -0.012337963096797466, -0.0026536050718277693, 0.028409184888005257, -0.01566147431731224, -0.009814436547458172, 0.007414484862238169, -0.001641430426388979, -0.03410663083195686, 0.031453024595975876, -0.01670210249722004, 0.00956078339368105, -0.008019350469112396, -0.027706759050488472, -0.010822546668350697, -0.007128311786800623, 0.015167174860835075, 0.0133720887824893, -0.005635658744722605, -0.009599806740880013, -0.0024471052456647158, -0.011707081459462643, -0.009872972033917904, -0.007915288209915161, -0.01830206997692585, 0.011199774220585823, 0.018015896901488304, 0.030438411980867386, 0.005941343959420919, 0.02814902737736702, 0.029996143653988838, 0.006656776648014784, 0.015713505446910858, -0.0031576601322740316, -0.0005239731981419027, 0.008461618795990944, -0.00805187039077282, 0.020630478858947754, 0.018783362582325935, -0.025599485263228416, 0.03959595039486885, -0.013710292987525463, 0.015167174860835075, -0.021423958241939545, -0.01177212130278349, 0.01649397797882557, -0.01134936511516571, -0.020344305783510208, -0.08892178535461426, -0.016598040238022804, 0.02553444541990757, 0.009898987598717213, -0.019850006327033043, 0.027004335075616837, -0.01035426277667284, 0.0005138107808306813, -0.0016828930238261819, -0.0027918138075619936, -0.033664364367723465, -0.021645093336701393, 0.009911995381116867, -0.004969005472958088, 0.04646410420536995, -0.0002587346243672073, 0.013710292987525463, -0.004490966442972422, -0.0012097317958250642, -0.007557571399956942, -0.011908703483641148, 0.002063373103737831, 0.008487634360790253, -0.019043520092964172, -0.0031462782062590122, -0.020006101578474045, -0.0354074165225029, 0.041469085961580276, 0.025976713746786118, -0.004858438856899738, -0.00010507918341318145, -0.012129837647080421, -0.005664926487952471, -0.01568748988211155, -0.01931668445467949, -0.027602696791291237, 0.0033007466699928045, -0.01437369454652071, 0.022828808054327965, -0.02695230394601822, -0.007856752723455429, 0.0077591934241354465, 0.029501846060156822, -0.02833113633096218, 0.013697285205125809, -0.019381724298000336, -0.004351132083684206, 0.024792997166514397, 7.779314910294488e-05, -0.018809378147125244, -0.01026320829987526, 0.0004853560822084546, -0.007525051943957806, -0.0070242490619421005, 0.02368732914328575, 0.018445156514644623, -0.00943720806390047, 0.00011442859249655157, 0.0023446683771908283, -0.024623895063996315, 0.014998071826994419, 0.022776776924729347, -0.029788019135594368, 0.001689396915026009, 0.019381724298000336, 0.0218922421336174, -0.03699437901377678, 0.0025088926777243614, 0.003762525971978903, 0.0021658099722117186, 0.021606069058179855, 0.002115404698997736, -0.02228247933089733, 0.014152560383081436, -0.029657939448952675, -0.009222578257322311, -0.045735664665699005, -0.008903886191546917, 0.017924843356013298, -0.018549220636487007, 7.388062658719718e-05, -0.0016479343175888062, 0.013437127694487572, 0.008702264167368412, 0.021619077771902084, 0.013300545513629913, -0.007707161828875542, -0.007850248366594315, 0.013085915707051754, -0.027888869866728783, 0.015167174860835075, 0.031869277358055115, 0.013033883646130562, -0.03072458505630493, -0.016533000394701958, 0.03574562072753906, 0.004090974573045969, -0.004360887687653303, 0.013176970183849335, 0.008936405181884766, -0.02492307499051094, -0.00945672020316124, -0.07778704911470413, 0.0012926568742841482, 0.01316396240144968, 0.02150200679898262, -0.00835105124861002, 0.031635135412216187, -0.0008568933117203414, 0.0034828567877411842, 0.0006650272407568991, -0.0009007948683574796, -0.01590862311422825, 0.022555643692612648, 0.016415929421782494, -0.005372249521315098, -0.023999517783522606, -0.028591293841600418, 0.022269470617175102, 0.006299060303717852, 0.0021869479678571224, 0.011577002704143524, 0.011583507061004639, 0.004061706829816103, 0.00442917924374342, 0.018536211922764778, -0.04526738077402115, 0.010510358028113842, -0.027394570410251617, 0.01731347292661667, -0.0011690821265801787, 0.013697285205125809, 0.009807933121919632, -0.04620394855737686, -0.02254263497889042, 0.042093463242053986, 0.002551168203353882, -0.04719254747033119, -0.030022159218788147, 0.007954311557114124, 0.021996306255459785, 0.016806166619062424, -0.017612652853131294, -0.026405973359942436, 0.02134591154754162, 0.0026812469586730003, -0.017430543899536133, 0.0076421224512159824, 0.015206198208034039, 0.02208735980093479, 0.009677854366600513, -0.015336276963353157, 0.01226641982793808, 0.02677019312977791, 0.018393125385046005, -0.04482511430978775, -0.027238477021455765, 0.008201461285352707, -0.02511819452047348, 0.036109842360019684, 0.014998071826994419, -0.03262373432517052, 0.032051388174295425, 0.016780151054263115, 0.004438934847712517, -0.010705475695431232, 0.011609522625803947, -0.04859739542007446, -0.003590171691030264, -0.015011079609394073, 0.0003684885159600526, -0.03644804656505585, -0.02269873023033142, -0.0009129897807724774, 0.0027706760447472334, 0.007713665720075369, 0.01056238915771246, -0.013918419368565083, -0.0051348558627069, -0.028279105201363564, -0.023010918870568275, 0.029683955013751984, -0.006373855285346508, -0.002429219428449869, 0.007460012566298246, 0.005108840297907591, 0.02433772198855877, -0.004910470452159643, 0.004786895588040352, -0.011960734613239765, 0.008825838565826416, 0.014620844274759293, -0.002647101180627942, 0.014894009567797184, -0.010959128849208355, 0.014048498123884201, 0.007557571399956942, 0.004396659322082996, -0.019043520092964172, -0.005209651309996843, -0.004110486246645451, 0.009216074831783772, -0.0038243134040385485, 0.013684277422726154, -0.0061819893307983875, -0.019797975197434425, -0.016012685373425484, 0.01246153749525547, -0.010568892583251, -0.01767769269645214, 0.0033397702500224113, 0.014321663416922092, 0.0035088725853711367, 0.02412959560751915, 0.02812301181256771, 0.006162477657198906, 0.014633852057158947, -0</t>
+  </si>
+  <si>
+    <t>[-0.003447202267125249, -0.0032415909226983786, 0.014238583855330944, -0.006765897385776043, -0.009612329304218292, 0.009265360422432423, -0.012902110815048218, -0.015407998114824295, -0.024236435070633888, -0.010601833462715149, 0.006682367995381355, 0.00919468142092228, -0.03338613733649254, -0.02481471560895443, -0.005953090265393257, -0.00327693042345345, 0.02809164673089981, -0.0117712477222085, 0.004603765904903412, -0.010074954479932785, -0.0024850056506693363, 0.006720920093357563, 0.00046262546675279737, -0.013428989797830582, 0.0014416887424886227, 0.007697573862969875, 0.016114788129925728, -0.025470102205872536, 0.027629021555185318, -0.012632245197892189, -0.006409290246665478, -0.014624104835093021, -0.015896325930953026, 0.0031468169763684273, 0.0009895045077428222, 0.002645639469847083, 0.01988004520535469, 0.0009204319212585688, 0.017528364434838295, 0.007093590684235096, 0.016140488907694817, 0.018235154449939728, 0.00126900733448565, -0.013750256970524788, -0.01412292756140232, 0.020252715796232224, -0.006155489012598991, -0.007742551155388355, -0.004671232309192419, -0.0003813045914284885, 0.0045748520642519, 0.006309697404503822, -0.03724135085940361, 0.00280627328902483, -0.015703564509749413, -0.058650627732276917, -0.024506298825144768, 0.01463695615530014, 0.0076333205215632915, -0.033617451786994934, -0.011282920837402344, 0.0025974493473768234, -0.0009381016716361046, 0.00013141856470610946, -0.008089520037174225, -0.01881343685090542, -0.01729705184698105, -0.0013445052318274975, -0.014508448541164398, -0.002539621200412512, 0.030687490478157997, 0.025264490395784378, 0.021139413118362427, -0.0010762467281892896, 0.0372670516371727, -0.01602483168244362, -0.0021444617304950953, 0.025315893813967705, -0.003649601014330983, 0.017990991473197937, 0.008417213335633278, -0.04101945832371712, -0.007980289869010448, 0.016615964472293854, 0.01575496792793274, -0.0016175828641280532, -0.010524729266762733, 0.027140693739056587, 0.00783250667154789, 0.008629250340163708, 0.004947522655129433, -0.01566501334309578, 0.0014352634316310287, -0.010499028488993645, -0.0026504583656787872, -0.006242231000214815, 0.01254229061305523, -0.0016103542875498533, 0.03251228854060173, 0.01473976206034422, -0.0009477396961301565, 0.023825211450457573, 0.0009397079702466726, -0.020291266962885857, -0.03382306173443794, -0.004774037748575211, 0.0020031039603054523, -0.003938741981983185, 0.028374362736940384, 0.010248439386487007, -0.00044937318307347596, 0.02809164673089981, 0.0017525152070447803, -0.05659451708197594, -0.0011742333881556988, -0.03433709219098091, 0.012098941020667553, 0.022771453484892845, 0.02857997454702854, -0.010801020078361034, 0.032409485429525375, 0.016744472086429596, 0.016037683933973312, -0.030764594674110413, 0.04405222460627556, -0.00464231800287962, -0.004941096995025873, 0.00503105204552412, -0.03752406686544418, 0.002036837162449956, -0.022128919139504433, -0.0001434661098755896, 0.018042393028736115, 0.008674227632582188, 0.005313767585903406, 0.015523654408752918, -0.010582557879388332, 0.02090810053050518, -0.028400063514709473, -0.04230453073978424, 0.029865045100450516, 0.019340315833687782, -0.034799717366695404, 0.007813230156898499, 0.010505453683435917, 0.03611048683524132, -0.016307547688484192, 0.021897606551647186, 0.013750256970524788, 0.0027163182385265827, 0.026883680373430252, 0.011539935134351254, 0.013994420878589153, -0.009965723380446434, 0.02597128041088581, -0.0002831171441357583, -0.021165115758776665, 0.006637390702962875, 0.0025605035480111837, -0.005413360428065062, -0.009400292299687862, 0.008391511626541615, -0.00614263815805316, -0.005998067557811737, 0.01972583681344986, 0.021370727568864822, 0.0012425028253346682, 0.02266864851117134, -0.00681087514385581, 0.010614684782922268, 0.006033407058566809, 0.04384661465883255, -0.026138339191675186, 0.015459401533007622, 0.011237943544983864, 0.030276266857981682, -0.0027018613182008266, -0.008526444435119629, -0.030404774472117424, -0.02050972916185856, 0.002544440096244216, -0.007575491908937693, 0.023131273686885834, 0.013814510777592659, 0.005853497423231602, -0.006322548259049654, 0.024377793073654175, 0.002412720350548625, -0.0038680629804730415, -0.013904465362429619, 0.00102805660571903, 0.008648525923490524, -0.0003305041464045644, -0.02099805697798729, -0.642329752445221, -0.008815585635602474, -0.0206382367759943, -0.0007686329772695899, 0.0031966136302798986, 0.017489813268184662, 0.00201916741207242, 0.02626684680581093, -0.023593898862600327, -0.012426634319126606, -0.00736345537006855, -0.006036620121449232, 0.00029857814661227167, 0.006357887759804726, -0.05068318918347359, 0.0011862809769809246, -0.013840212486684322, -0.03505672886967659, 0.009079025126993656, 0.009079025126993656, 0.007189970929175615, 0.02929961308836937, -0.018929092213511467, 0.023156974464654922, -0.005133857484906912, 0.047084990888834, 0.004674444906413555, -0.0071128667332232, -0.004427068866789341, -0.008577846921980381, -0.01711714267730713, 0.010563281364738941, -0.021653441712260246, -5.0599661335581914e-05, 0.04808734729886055, 0.012227448634803295, -0.013943017460405827, 0.02302846871316433, 0.011617039330303669, 0.03762687370181084, -0.00480295205488801, 0.014238583855330944, 0.032615095376968384, 0.0126065444201231, -0.00459734071046114, 0.002542833797633648, 0.02914540469646454, 0.003951592370867729, -0.0062454440630972385, -0.007202821783721447, 0.004356389865279198, -0.005875986069440842, 0.008108796551823616, 0.014392792247235775, -7.740543514955789e-05, -0.016204742714762688, 0.01346754189580679, -0.0024593041744083166, 0.0023661365266889334, -0.005484039429575205, -0.014881119132041931, 0.008989069610834122, -0.010293416678905487, -0.012490888126194477, -0.010582557879388332, 0.014418493956327438, -0.032075367867946625, -0.013075594790279865, -0.0041315024718642235, 0.0029910022858530283, 0.0060044932179152966, 0.008314407430589199, -0.01763117127120495, -0.00792246125638485, 0.026048384606838226, 0.005072816740721464, 0.01057613268494606, -0.010132783092558384, -0.027217797935009003, 0.015780668705701828, 0.014405643567442894, -0.021897606551647186, -0.0363675020635128, 0.018337959423661232, -0.001758940634317696, 0.011964009143412113, -0.020188461989164352, 0.0024994625709950924, 0.037858184427022934, 0.013840212486684322, 0.01666736789047718, -0.011662017554044724, -0.009451695717871189, -0.04042832553386688, -0.026138339191675186, 0.02385091409087181, -0.0014119715197011828, 0.02472476102411747, -0.02660096436738968, -0.034953925758600235, -0.017644021660089493, -0.012510163709521294, 0.017926737666130066, 0.002811092184856534, 0.02672947198152542, 0.012677223421633244, -0.019160404801368713, 0.0217562485486269, 0.040865249931812286, -0.02418503165245056, -0.027654722332954407, 0.0028223367407917976, -0.0019500948255881667, 0.0038680629804730415, -0.008468616753816605, -0.02590702660381794, 0.019301762804389, 0.029762238264083862, 0.019623029977083206, 0.013171975500881672, 0.00609766086563468, 0.0009493460529483855, -0.0066887931898236275, -0.0350310280919075, -0.001784641994163394, 0.01733560487627983, 0.015857772901654243, -0.008886264637112617, -0.03248658776283264, 0.004757974296808243, 0.016590263694524765, 0.01107730995863676, 0.019687283784151077, 0.013184825889766216, 0.01702718809247017, 0.02300276607275009, 0.022925661876797676, -0.020227013155817986, -0.009464546106755733, -0.022989915683865547, -0.03708714246749878, -0.019867194816470146, 0.00033170889946632087, -0.030558982864022255, -0.013236228376626968, -0.021139413118362427, -0.01666736789047718, 0.0011910999892279506, -0.031921159476041794, 0.022527290508151054, -0.02530304342508316, 0.014675508253276348, -0.04094235599040985, 0.00792246125638485, 0.017823930829763412, 0.02202611230313778, -0.0010658055543899536, -0.01103233266621828, -0.019867194816470146, -0.006862277630716562, 0.020985204726457596, -0.007607618812471628, -0.023645302280783653, -0.016050534322857857, 0.0007830900140106678, -0.0014946978772059083, 0.005207749083638191, 0.012336679734289646, 0.0038937644567340612, -0.03675302490592003, -0.021897606551647186, -0.0034986052196472883, -0.007254224270582199, 0.01593487709760666, -0.006226168014109135, 0.01836366206407547, -0.02121651917695999, -0.009657306596636772, -0.00018071307567879558, -0.011051608249545097, -0.0004304987087380141, -0.004835078958421946, -0.0284514669328928, -0.009355315007269382, -0.0013171975733712316, -0.0007108047720976174, 0.0035435825120657682, -0.0017236011335626245, -0.01558790821582079, 0.015343745239078999, 0.007234948221594095, 0.00303758610971272, -0.011886904947459698, -0.013493242673575878, -0.0061811902560293674, -0.007055038586258888, -0.00014969066251069307, 0.00736988103017211, -0.018427914008498192, 0.027629021555185318, 0.0014328538672998548, 0.014714060351252556, 0.04137927666306496, -0.00925893522799015, 0.00999785028398037, -0.03420858457684517, 0.0002937591343652457, -0.001395104918628931, 0.05094020441174507, -0.006945807486772537, 0.028888391330838203, 0.0033829486928880215, -0.0569029338657856, -0.00762046966701746, -0.021460682153701782, 0.005140283145010471, 0.008712779730558395, -0.01346754189580679, -0.016114788129925728, 0.015883473679423332, 0.020496878772974014, 0.0023516796063631773, -0.009483822621405125, 0.00535553228110075, -0.038526419550180435, 0.00919468142092228, -0.015883473679423332, 0.04135357588529587, -0.023979419842362404, -0.035288043320178986, -0.008520019240677357, 0.02708929218351841, -0.017155693843960762, 0.018594974651932716, -0.022475887089967728, 0.041070859879255295, 0.002790209837257862, -0.020766744390130043, 0.01845361664891243, 0.01228527631610632, 0.04006850719451904, 0.003156455000862479, 0.02236023172736168, 0.005419786088168621, -0.01062110997736454, -0.0006224561366252601, 0.016718771308660507, 0.025611460208892822, -0.0096508814021945, 0.0026504583656787872, -0.008307982236146927, 0.0009405111777596176, 0.0018874476663768291, 0.0009959298186004162, 0.0018778096418827772, 0.002158918883651495, 0.03518523648381233, -0.006740196142345667, 0.015677863731980324, 0.02960802987217903, 0.016628814861178398, -0.006740196142345667, 0.009593052789568901, 0.008654951117932796, 0.015947727486491203, -0.017656872048974037, 0.030199162662029266, -0.01775967702269554, 0.006232593208551407, -0.01745126023888588, 0.023015616461634636, -0.0016657729865983129, -0.006226168014109135, -0.001407955656759441, -0.019198957830667496, -0.009631604887545109, -0.017528364434838295, -0.006971508730202913, -0.004436706658452749, 0.025560056790709496, 0.024493448436260223, -0.03066178783774376, 0.014392792247235775, 0.03832080960273743, 0.0059402394108474255, -0.001648103236220777, -0.013686003163456917, 0.023067019879817963, -0.013917316682636738, 0.02093380317091942, 0.009059748612344265, 0.030944503843784332, -0.025868473574519157, -0.001387073309160769, 0.0096508814021945, -0.020702490583062172, 0.020111357793211937, 0.012760752812027931, 0.01709144189953804, -0.01860782504081726, 0.002907472662627697, 0.0034536276943981647, -0.0070421877317130566, -0.01653886027634144, 0.017258500680327415, 0.0022424485068768263, -0.02472476102411747, -0.009168979711830616, -0.012156769633293152, 0.009914320893585682, -0.014444195665419102, -0.004944309592247009, 0.01639750227332115, 0.0032897810451686382, 0.015215237624943256, 0.0005477613885886967, 0.01709144189953804, 0.008494317531585693, 0.02863137610256672, 0.007427709177136421, -0.006361100357025862, -0.04659666493535042, -0.01092310156673193, 0.00456842640414834, 0.0883614644408226, -0.003550007939338684, 0.01006210409104824, 0.013686003163456917, -0.026806576177477837, -0.012670797295868397, -0.010094230994582176, -0.0010015519801527262, -0.0023982631973922253, 0.013024192303419113, -0.01657741330564022, -0.011874053627252579, 0.03194686025381088, 0.007697573862969875, -0.007697573862969875, -0.0045041730627417564, 0.003427926218137145, -0.009008346125483513, 0.0011766429524868727, 0.008757757022976875, -0.003945167176425457, 0.0037299178075045347, 0.002697042189538479, 0.05178835242986679, 0.007453410420566797, -0.0035981980618089437, 0.024159330874681473, -0.006708069238811731, 0.020535429939627647, -0.027474813163280487, 0.002960481680929661, -0.013814510777592659, -0.010801020078361034, 0.007909610867500305, -0.03929746523499489, 0.031407129019498825, 0.02396656945347786, 0.009567352011799812, 0.01845361664891243, -0.01498392503708601, 0.021409278735518456, 0.0010882943170145154, 0.0010489389533177018, 0.01269649900496006, 0.018749183043837547, -0.012979215011000633, 1.4243703844840638e-05, 0.009792239405214787, -0.014020121656358242, -0.0011043576523661613, 0.0370357409119606, -0.010518304072320461, -0.00408331211656332, -0.010010701604187489, 0.007614044472575188, -0.0008288706303574145, 0.026780875399708748, 0.009798664599657059, -0.032743602991104126, -0.0026906169950962067, 0.0013292450457811356, -0.03541655093431473, -0.0014786345418542624, -0.01838936284184456, 0.002820730209350586, -0.0032255277037620544, 0.0008770608110353351, 0.008963368833065033, -0.023593898862600327, 0.005194898694753647, -0.03425998613238335, -0.02088239975273609, -0.002801454160362482, 0.001409561955370009, 0.012214597314596176, -0.0023452541790902615, 0.034953925758600235, -0.005824583116918802, -0.013390437699854374, 0.014328539371490479, 0.00766544695943594, -0.012844282202422619, -0.010653236880898476, -0.033617451786994934, -0.021165115758776665, 0.03289781138300896, 0.003169305855408311, -0.011218667961657047, -0.006778748240321875, 0.015163835138082504, 0.02178194932639599, -0.02211606688797474, 0.026138339191675186, 0.0033186953514814377, -0.031098712235689163, -0.010036402381956577, -0.006213317159563303, 0.014495598152279854, -0.000999142532236874, -0.02048402838408947, 0.02490467205643654, 0.007080739829689264, -0.0066887931898236275, -0.005291278939694166, 0.022745752707123756, 0.0023773808497935534, -0.003193400800228119, -0.013428989797830582, -0.009130427613854408, 0.00016274215886369348, -0.011758397333323956, -0.016641667112708092, 0.0025524718221277, 0.0117712477222085, -0.025290193036198616, -0.010331968776881695, -0.01087812427431345, 0.017438409850001335, 0.022141769528388977, -0.014405643567442894, -0.025341594591736794, -0.01113513857126236, 0.014277135953307152, 0.027140693739056587, -0.01682157628238201, 0.013261930085718632, -0.02227027714252472, 0.027706125751137733, -0.0035981980618089437, 0.006190828513354063, -0.00997214950621128, 0.037010036408901215, 0.016924381256103516, -0.015677863731980324, -0.01219532173126936, -0.032409485429525375, -0.0028753457590937614, -0.00021926520275883377, -0.014932522550225258, -0.00456842640414834, -0.02445489726960659, 0.03618759289383888, 0.006547435652464628, 0.005959515459835529, 0.005474401637911797, -0.0168472770601511, -0.010884549468755722, -0.012979215011000633, -0.0271149929612875, 0.01254229061305523, -0.020792445167899132, 0.00614263815805316, 0.0007405220530927181, 0.001758940634317696, -0.012818580493330956, -0.019507374614477158, -0.012221022509038448, -0.01635895110666752, 0.004391729366034269, -0.0033219079487025738, -0.014791164547204971, 0.02090810053050518, 0.024223584681749344, 0.018415063619613647, 2.7207357561565004e-05, -0.004070461727678776, -0.023555347695946693, 0.00995287299156189, -0.02642105519771576, 0.021255070343613625, 0.008899115025997162, 0.038680631667375565, -0.014585552737116814, -0.025187386199831963, 0.004831865895539522, 0.019584478810429573, -0.0060269818641245365, -0.017348455265164375, -0.027551917359232903, -0.016962934285402298, -0.009946447797119617, 0.005413360428065062, -0.019340315833687782, -0.00923965871334076, 0.001399923930875957, 0.014161479659378529, 0.007543365471065044, 0.002401476027444005, 0.009355315007269382, 0.00934888981282711, 0.01624329388141632, -0.024287836626172066, 0.033797360956668854, 0.02260439470410347, 0.00016645682626403868, -0.011360025964677334, -0.01431568805128336, -0.013403288088738918, -0.015806369483470917, 0.008777033537626266, 0.008751331828534603, -0.028065945953130722, -0.018286556005477905, -0.03356604650616646, -0.01131504774093628, 0.025855623185634613, -0.006039832718670368, -0.019198957830667496, 0.004198968876153231, -0.010588983073830605, -0.02097235433757305, -0.014598404057323933, -0.013159124180674553, -0.008346534334123135, -0.0047708251513540745, 0.0031387852504849434, -0.022437335923314095, 0.010685363784432411, -0.0009083843906410038, -0.03891194239258766, 0.022720051929354668, -0.005792456679046154, 0.03862922638654709, 0.012407357804477215, 0.014200031757354736, -0.0022520865313708782, -0.0065795620903372765, -0.011700569652020931, 0.03436279296875, 0.004356389865279198, -0.002181407529860735, 0.027706125751137733, 0.001399923930875957, 0.0091497041285038, -0.019288912415504456, -0.000752971158362925, 0.01678302325308323, -0.041559189558029175, -0.018016692250967026, 0.05541225150227547, 0.0021155476570129395, 0.001262582023628056, -0.01387876458466053, -0.0042664348147809505, 0.004211819265037775, 0.03266649693250656, -0.010852422565221786, -0.011231518350541592, -0.01791388727724552, -0.009252509102225304, -0.024763314053416252, 0.02048402838408947, -0.04464335739612579, 0.011096586473286152, -0.012657946906983852, -0.048472870141267776, 0.020458325743675232, -0.02857997454702854, -0.019314613193273544, 0.015652161091566086, -0.007742551155388355, 0.013441840186715126, -0.004635892808437347, -0.009747262112796307, 0.019957149401307106, 0.006720920093357563, -0.028040243312716484, -0.016962934285402298, -0.0015734084881842136, 0.023748107254505157, -0.03135572746396065, 0.015626460313796997, -0.0028544634114950895, 0.026343951001763344, 0.007845357060432434, -0.009599478915333748, -0.018749183043837547, -0.022013261914253235, 0.027294902130961418, -0.0037845333572477102, -0.009291061200201511, -0.002289032330736518, -0.0007196396472863853, -0.004520236514508724, 0.00046342864516191185, 0.015253789722919464, -0.007601193618029356, 0.013377586379647255, 0.017052888870239258, -0.012516588903963566, -0.007556215859949589, 0.006390014197677374, -0.015742117539048195, 0.013159124180674553, -0.007607618812471628, 0.010331968776881695, -0.0101520586758852, 0.019378867000341415, -0.01936601661145687, 0.018132347613573074, 0.001916361739858985, 0.015086730942130089, 0.0019324251916259527, 0.002807879587635398, -0.009940022602677345, -0.005233450792729855, 0.03595627844333649, -0.0009196287719532847, -0.031124413013458252, -0.009946447797119617, 0.0021123350597918034, 0.008648525923490524, 0.005233450792729855, -0.019340315833687782, 0.011392151936888695, -0.007543365471065044, -0.008757757022976875, 0.0022376293782144785, -0.04888409003615379, 0.028734182938933372, -0.007851782254874706, 0.013544646091759205, 0.017836783081293106, -0.03400297090411186, -0.002057719510048628, -0.009663731791079044, 0.0061587016098201275, 0.027706125751137733, -0.02860567532479763, -0.013159124180674553, -0.007395582273602486, -0.004651956260204315, -0.028836987912654877, -0.020651087164878845, -0.019340315833687782, -0.025020327419042587, -0.023259781301021576, 0.024262135848402977, 0.005512953735888004, -0.012895684689283371, 0.046159740537405014, 0.04117366671562195, 0.023928018286824226, 0.021614890545606613, 0.009104725904762745, -0.003710641758516431, -0.01787533424794674, -0.0015918813878670335, -0.02126792073249817, -0.0070164864882826805, -0.03220387175679207, 0.013139848597347736, 0.01970013417303562, -0.009631604887545109, -0.01644890569150448, 0.00480295205488801, -0.02541869878768921, 0.01602483168244362, -0.006618114188313484, -0.003273717826232314, 0.021563487127423286, 0.05006635561585426, -0.0029620882123708725, -0.003916253335773945, 0.000897140009328723, 0.022308828309178352, -0.018774883821606636, 0.007234948221594095, 0.023799510672688484, -0.03133002668619156, 0.024172181263566017, -0.007883909158408642, -0.04212461784482002, -0.034774016588926315, 0.024442045018076897, 0.0030150972306728363, 0.014161479659378529, 0.011662017554044724, -0.018415063619613647, -0.009297487325966358, -0.004430281464010477, -0.01230455283075571, 0.023748107254505157, 0.0005983610753901303, 0.024956073611974716, -0.02269434928894043, -0.0024737613275647163, -0.016166189685463905, 0.017901035025715828, -0.0005871166940778494, 0.007241373881697655, -0.007286351174116135, -0.0004602159606292844, 0.0225401408970356, -0.009387441910803318, -0.014020121656358242, 0.01775967702269554, -0.013506093993782997, 0.011000205762684345, 0.007395582273602486, -0.012638671323657036, 0.0041539911180734634, 0.009483822621405125, -0.017952438443899155, -0.027860334143042564, -0.00706146378070116, -0.028836987912654877, -0.010736766271293163, -0.012291701510548592, -0.013069169595837593, 0.040402624756097794, -0.031766947358846664, 0.013647451065480709, -0.004125077277421951, -0.016872979700565338, -0.007993140257894993, -0.012747901491820812, -0.012876409105956554, 0.032615095376968384, 0.010820295661687851, -0.01608908548951149, 0.010916676372289658, -0.011385726742446423, -0.006467118393629789, -0.011668442748486996, -0.03117581643164158, -0.009400292299687862, -0.028682779520750046, -0.004186118021607399, 0.011353599838912487, -0.0493210144340992, -0.01827370561659336, 0.0003656428016256541, 0.02421073243021965, 0.006990784779191017, 0.015163835138082504, 0.19625601172447205, 0.00884771253913641, 0.005474401637911797, 0.0073313284665346146, 0.0045748520642519, 0.03449130058288574, 0.013493242673575878, 0.000762609182856977, -0.035108134150505066, 0.01446989644318819, -0.03402867540717125, 0.031741246581077576, -0.010948803275823593, 0.009663731791079044, 0.027294902130961418, -0.024339240044355392, -0.018736330792307854, -0.017733976244926453, -0.022887110710144043, 0.012805730104446411, -0.007209246978163719, -0.00997214950621128, -0.0022360230796039104, 0.0039001896511763334, -0.01362175028771162, -0.0025942365173250437, -0.00303437327966094, -0.005824583116918802, 0.036830127239227295, 0.021627740934491158, 0.003681727685034275, -0.01001712679862976, 0.009747262112796307, -0.01473976206034422, -0.03045617789030075, 0.010544005781412125, -0.016744472086429596, 0.00031203124672174454, 0.02726920135319233, 0.019494524225592613, 0.009040473029017448, -0.012073240242898464, -0.009278210811316967, 0.01202826201915741, 0.0016272208886221051, 0.005323405843228102, -0.009760112501680851, -0.01146925613284111, -0.008449340239167213, 0.011295772157609463, -0.03117581643164158, -0.017952438443899155, -0.01507387962192297, 0.014264285564422607, 0.010126357898116112, -0.013428989797830582, 0.018170900642871857, -0.0020127419847995043, 0.009059748612344265, 0.014392792247235775, -0.0038584249559789896, 0.01682157628238201, -0.016281846910715103, 0.005882411263883114, 0.015215237624943256, 0.01633324846625328, -0.010486177168786526, 0.023799510672688484, 0.020098507404327393, -0.01894194260239601, -0.0017910674214363098, -0.023748107254505157, -0.010640385560691357, 0.0021316111087799072, 0.00798671506345272, -0.007935311645269394, 0.03197256103157997, -0.002401476027444005, 0.033591751009225845, 0.006656666751950979, 0.006126574706286192, -0.005304129794239998, 0.010518304072320461, 0.01581922173500061, 0.0016135670011863112, -0.017836783081293106, 0.02166629210114479, 0.017052888870239258, -0.020047103986144066, -0.008712779730558395, -0.0007256633834913373, -0.004549150355160236, 0.010595408268272877, -0.010229162871837616, 0.004526661708950996, 0.00018141584587283432, 0.01639750227332115, 0.008404362946748734, -0.02014990895986557, -0.006524947006255388, -0.012529440224170685, -0.003932316321879625, 0.0050760293379426, -0.002637607743963599, -0.03246088698506355, 0.016166189685463905, -0.020021403208374977, 0.012362380512058735, 0.015061029233038425, -0.019288912415504456, -0.020651087164878845, -0.010094230994582176, 0.000630889437161386, -0.005095305386930704, 0.027860334143042564, 0.005419786088168621, 0.00047788568190298975, -0.02390231564640999, -0.013583198189735413, -0.0019613392651081085, -0.012548715807497501, -0.03505672886967659, -0.0228742603212595, 0.009554500691592693, -0.016307547688484192, -0.02032981999218464, -0.03875773400068283, 0.017464112490415573, 0.00812164694070816, -0.03978579118847847, -0.011719845235347748, -0.022732902318239212, 0.02448059804737568, -0.014084375463426113, -0.017476962879300117, 0.008070244453847408, -0.003284962149336934, 0.015626460313796997, 0.010993780568242073, 0.02942812070250511, 0.007851782254874706, -0.008192325942218304, -0.0049057574942708015, -0.020856698974967003, 0.015099581331014633, -0.0006176371243782341, 0.013673152774572372, -0.003903402481228113, 0.02151208370923996, -0.028811287134885788, 0.0005501708947122097, 0.005162771791219711, -0.031432829797267914, -0.01507387962192297, 0.03032767027616501, -0.017618320882320404, -0.012233873829245567, -0.02642105519771576, 0.007215672172605991, 0.01787533424794674, -0.007215672172605991, -0.01927606202661991, 0.03408007696270943, 0.008250154554843903, 0.0017412708839401603, 0.006428566295653582, -0.16017122566699982, 0.02266864851117134, 0.011109436862170696, -0.01729705184698105, 0.01994429901242256, 0.0036014108918607235, 0.005856710020452738, 0.00046061756438575685, -0.0259969811886549, 0.013917316682636738, 0.03693293407559395, 0.007132142782211304, -0.009297487325966358, -0.01912185363471508, -0.016988635063171387, 0.005644673481583595, -0.01633324846625328, 0.024673359468579292, 0.011925457045435905, 0.030379073694348335, 0.0029829705599695444, -0.03456840291619301, 0.019674433395266533, 0.01113513857126236, 0.002785390941426158, -0.0008722417987883091, -0.02693508379161358, 0.03179265186190605, -0.0010529548162594438, -0.002248873934149742, -0.00044053830788470805, -0.004407792817801237, 0.05186545476317406, -0.013094871304929256, -0.005291278939694166, 0.0008690290851518512, 0.0010409073438495398, -0.01996999979019165, -0.025675714015960693, 0.016770172864198685, 0.0240950770676136, -0.0014167905319482088, 0.0039772940799593925, -0.01784963347017765, -0.01336473599076271, 0.03184405341744423, 0.0262154433876276, -0.021627740934491158, -0.019892895594239235, -0.0049057574942708015, 0.007067888975143433, -0.018492167815566063, 0.035108134150505066, 0.0028833774849772453, 0.011552786454558372, 0.016615964472293854, -0.014701209962368011, 0.014341389760375023, -0.0024721547961235046, -0.0033443965949118137, -0.01711714267730713, -0.0022344167809933424, 0.008622825145721436, -0.008969794027507305, -0.005272002890706062, -0.00824372936040163, -0.021293623372912407, 0.02160204015672207, 0.00018543169426266104, 0.003566071391105652, 0.019288912415504456, -0.023259781301021576, 0.02809164673089981, -0.017708275467157364, -0.0006674336036667228, -0.010723915882408619, -0.008944092318415642, -0.02893979288637638, -0.006499245297163725, -0.0032801430206745863, 0.0019565201364457607, 0.03855212405323982, -0.01802954263985157, -0.00021826123702339828, 0.0005549899069592357, -0.01362175028771162, 0.0018055244581773877, 0.035442251712083817, -0.005763542372733355, 0.009130427613854408, -0.010614684782922268, -0.045954130589962006, 0.01548510231077671, -0.009554500691592693, 0.0019693709909915924, 0.01948167197406292, -0.002141249133273959, 0.01290853600949049, -0.007729700766503811, -0.02305416949093342, -0.02115226536989212, -0.00681087514385581, -0.0015918813878670335, -0.009721560403704643, 0.024506298825144768, 0.023773809894919395, -0.008044542744755745, 0.006264720112085342, 0.008738481439650059, 0.005095305386930704, 0.002652064897119999, 0.005535442382097244, 0.0034664783161133528, 0.0038937644567340612, -0.022810006514191628, 0.003823085455223918, 0.01966158300638199, -0.0024801865220069885, 0.006255081854760647, 0.0024368155281990767, 0.02291281148791313, -0.010993780568242073, 0.011025907471776009, 0.007100015878677368, 0.011327899061143398, 0.0009429206838831306, -0.0883614644408226, 0.001648103236220777, 0.017708275467157364, 0.017823930829763412, -0.011327899061143398, 0.015266641043126583, -0.014392792247235775, 0.009342464618384838, 0.021640591323375702, -0.0024271775037050247, -0.03320622816681862, -0.015832072123885155, 0.01778537966310978, 0.0033925867173820734, 0.027834633365273476, -0.008160199038684368, 0.0076782978139817715, -0.010100656189024448, -0.0065313722006976604, -0.019417420029640198, -0.008822010830044746, 0.006203678902238607, 0.01805524341762066, -0.02115226536989212, -0.010646811686456203, -0.00431783776730299, -0.022899961099028587, 0.029351016506552696, 0.01243948470801115, 0.009034047834575176, -0.01754121668636799, -4.2593066609697416e-05, -0.000893927353899926, -0.015896325930953026, -6.820663656981196e-06, -0.018042393028736115, 0.010325543582439423, -0.0014866662677377462, -0.0021348237060010433, -0.025919876992702484, 0.004035122226923704, -0.004812589846551418, 0.03744696080684662, -0.05050328001379967, 0.019417420029640198, 0.0025701415725052357, 0.004716209601610899, 0.013763108290731907, -0.006550648249685764, -0.044412046670913696, -0.038860540837049484, -0.012298127636313438, -0.010370520874857903, -0.012336679734289646, 0.012426634319126606, -0.006412503309547901, -0.012940662913024426, -0.0008208389626815915, -0.007916036061942577, -0.012529440224170685, -0.008295131847262383, 0.002162131480872631, -0.0065795620903372765, -0.010884549468755722, 0.026806576177477837, 0.012722200714051723, -0.003546795342117548, -0.010691788978874683, -0.012670797295868397, 0.018170900642871857, -0.03048187866806984, -0.02463480643928051, 0.00828870665282011, -0.0023452541790902615, -0.033257629722356796, -0.040222715586423874, -0.009541650302708149, 0.0017541216220706701, -0.00025560861104168, -0.013428989797830582, -0.016834426671266556, -0.009946447797119617, 0.018196601420640945, -0.019558776170015335, 0.00581815792247653, 0.032409485429525375, 0.001662560272961855, 0.00038953707553446293, 0.029582329094409943, -0.024005122482776642, -0.0013220165856182575, 0.016101935878396034, 0.027808930724859238, -0.008976219221949577, -0.0013380799209699035, 0.030687490478157997, 0.039862893521785736, -0.007048612926155329, -0.015009626746177673, 0.029068300500512123, -0.01736130565404892, 0.004745123907923698, -0.0725293904542923, 0.005422998685389757, 0.003527519293129444, -0.009053323417901993, 0.005670374725013971, 0.02911970391869545, 0.01524093933403492, 0.015215237624943256, 0.0009686221019364893, 0.004064036067575216, -0.02324693091213703, -0.0006806859164498746, 0.03400297090411186, -0.0006553860730491579, -0.05685153231024742, -0.021923307329416275, 0.019520225003361702, 0.023709556087851524, 0.004378878511488438, 0.02724350057542324, 0.009580202400684357, 0.017721125856041908, 0.019494524225592613, 0.016628814861178398, -0.05183975398540497, -0.007755402009934187, -0.01256156712770462, 0.016808725893497467, -0.0001903511001728475, 0.00816662423312664, 0.010743191465735435, -0.02514883503317833, -0.021679144352674484, 0.023465391248464584, -0.006030194461345673, -0.02242448553442955, -0.01923750899732113, 0.01011993270367384, -0.01593487709760666, 0.05006635561585426, -0.03061038628220558, -0.024107927456498146, 0.04009420797228813, -0.02630539797246456, -0.019828641787171364, 0.005451912526041269, 0.020278416574001312, 0.008455765433609486, 0.0240950770676136, 0.023259781301021576, 0.008609973825514317, 0.0020850272849202156, 0.009914320893585682, -0.026202592998743057, 0.0038937644567340612, 0.0019083301303908229, 0.004176479764282703, 0.025598609820008278, 0.009772962890565395, -0.014598404057323933, 0.0370357409119606, 0.02191045694053173, 0.012947088107466698, 0.009355315007269382, 0.008783458732068539, -0.03870633244514465, -0.01742555946111679, 0.006203678902238607, 0.019828641787171364, -0.03220387175679207, 0.0005236663273535669, -0.013930167071521282, 0.03814090043306351, 0.02445489726960659, 0.004195755813270807, 0.004382091108709574, 0.0024769739247858524, -0.048318661749362946, 0.006216529756784439, 0.020895250141620636, 0.00893766712397337, 0.013416138477623463, -0.03449130058288574, 0.00431783776730299, 0.025225939229130745, -0.005371595732867718, -0.01107730995863676, -0.01489397045224905, -0.0007979486254043877, 0.015947727486491203, 0.007035762537270784, 0.005924176424741745, 0.008173050358891487, -0.004092950373888016, -0.016988635063171387, -0.003550007939338684, -0.009593052789568901, -0.009689433500170708, -0.0206382367759943, 0.025919876992702484, 0.006817300338298082, 0.016551710665225983, -0.0040865251794457436, -0.014521299861371517, 0.01691153086721897, -0.016860129311680794, -0.016410354524850845, -0.013146273791790009, -0.0020802083890885115, 0.005943452473729849, -0.00408331211656332, 0.035288043320178986, -0.001916361739858985, -0.004141140729188919, 0.01801669225096</t>
+  </si>
+  <si>
+    <t>[-0.011372129432857037, -0.011628791689872742, -0.007278689183294773, -0.05262242257595062, -0.016465894877910614, 0.005251712631434202, -0.019098332151770592, 0.005501794163137674, 0.011398453265428543, -0.00756825739517808, -0.013754485175013542, 0.0011212537065148354, -0.02284955605864525, -0.027772214263677597, -0.019269440323114395, 0.009259598329663277, 0.035564228892326355, 0.0020203955937176943, -0.006824593525379896, -0.02329706959426403, -0.01611051708459854, -0.004149379208683968, 0.01125366985797882, 0.01441259402781725, -0.01937473937869072, 0.01998019963502884, -0.001429742551408708, -0.00593614624813199, -0.0072326213121414185, 0.022533662617206573, 0.009450449608266354, -0.012688348069787025, -0.004221771378070116, 0.009042422287166119, -0.022533662617206573, -0.015176001004874706, 0.022099310532212257, 0.0019743279553949833, 0.03827563673257828, -0.008877894841134548, 0.015518218278884888, 0.006041443441063166, 0.006219133269041777, -0.022020338103175163, -0.023139124736189842, 0.03311606124043465, 0.021559661254286766, 0.021388553082942963, -0.00220631156116724, 0.0028677114751189947, 0.01937473937869072, 0.0030783063266426325, -0.010082234628498554, 0.006166484206914902, -0.02121744491159916, -0.03953920677304268, -0.013675511814653873, -0.009588653221726418, 0.027877511456608772, 0.0042941635474562645, -0.005814395844936371, -0.001660903450101614, -0.02619275078177452, 0.0020878517534583807, -0.017255626618862152, -0.014083539135754108, -0.032694872468709946, -0.0003362527349963784, -0.007028607651591301, -0.024731747806072235, 0.025639940053224564, 0.012411941774189472, 0.005857172887772322, -0.022889042273163795, 0.02631121128797531, -0.01382029615342617, -0.0039322031661868095, 0.017782114446163177, 0.02030925452709198, 0.02567942626774311, 0.01692657172679901, -0.048937007784843445, -0.007666973862797022, 0.03524833545088768, 0.020019685849547386, 0.01568932645022869, -0.0020203955937176943, 0.009424125775694847, 0.00042694841977208853, 0.007054931949824095, -0.021888716146349907, -0.006456052418798208, 0.012227671220898628, 0.0037347704637795687, -0.0040407911874353886, -0.015820948407053947, 0.004113183356821537, 0.031194381415843964, -0.002374129369854927, -0.005475469399243593, 0.009878220967948437, 0.00500163109973073, -0.000791376456618309, -0.027298374101519585, -0.018269114196300507, -0.035774823278188705, -0.007370824459940195, -0.0025797884445637465, 0.020177632570266724, -0.0006585206720046699, 0.010411289520561695, 0.026442833244800568, 0.01044419500976801, -0.04904230684041977, -0.009957194328308105, 0.0007054109591990709, 0.015281298197805882, 0.0037676759529858828, 0.012194765731692314, -0.020230280235409737, 0.005715679377317429, 0.027903836220502853, 0.01513651479035616, -0.0038104529958218336, 0.01713716611266136, 0.013195091858506203, -0.02864091843366623, 0.0017143747536465526, 0.00685749901458621, -0.0045014675706624985, 0.009957194328308105, -0.005857172887772322, 0.02625856176018715, -0.0021783418487757444, -0.005439273547381163, 0.01443891879171133, -0.0112997367978096, 0.007864406332373619, -0.0004952272865921259, -0.005531408824026585, 0.020756768062710762, 0.020322415977716446, -0.021691283211112022, -0.00636062677949667, -0.031826168298721313, 0.04946349561214447, -0.0043007442727684975, 0.0133398761972785, 0.0023132541682571173, 0.010714019648730755, 0.020862065255641937, -0.03301076218485832, -0.0011039783712476492, 0.00910165160894394, 0.01006249152123928, 0.013938755728304386, -0.008700205013155937, 0.03993407264351845, -0.015491893514990807, 0.008871314115822315, -0.02311279997229576, 0.017703140154480934, -0.004205318633466959, -0.020559335127472878, 0.027772214263677597, 0.025205587968230247, 0.01000326219946146, 0.010240181349217892, 0.0002967661712318659, -0.017518870532512665, 0.010424451902508736, 0.03440595418214798, -0.026179589331150055, 0.027508970350027084, 0.010253343731164932, 0.042566511780023575, -0.0037216083146631718, 0.0043928795494139194, -0.016531705856323242, -0.029562270268797874, -0.00040370895294472575, -0.006034862715750933, 0.03050994873046875, 0.021322742104530334, -0.005041117314249277, 0.0023971633054316044, 0.01575513742864132, 0.00549192214384675, 0.005942727439105511, -0.013293808326125145, -0.012536983005702496, 0.009167462587356567, -0.005475469399243593, -0.006021700333803892, -0.6423146724700928, 0.010009842924773693, -0.012536983005702496, -0.011128628626465797, -0.030562596395611763, 0.022678447887301445, 0.003948655910789967, 0.026416508480906487, -0.012622537091374397, -0.007337918970733881, -0.01650538109242916, -0.003961818292737007, 0.019032521173357964, -0.0056827738881111145, -0.026113778352737427, 0.019756441935896873, 0.002217828528955579, -0.0055511523969471455, -0.006150031462311745, 0.008746272884309292, -0.005873625632375479, 0.02399466559290886, -0.008015771396458149, 0.007620905991643667, 0.0042086089961230755, 0.035169363021850586, 0.0068311747163534164, -0.02000652439892292, -0.037406932562589645, 0.0009871639776974916, -0.020533010363578796, 0.012648860923945904, -0.016860760748386383, -0.015215487219393253, 0.05027955397963524, 0.013872944749891758, -0.017097679898142815, 0.024942344054579735, 0.011615629307925701, 0.03643293306231499, 0.012997658923268318, -0.014596864581108093, 0.030167732387781143, -0.005725550930947065, 0.008752853609621525, 0.002928586443886161, 0.028403999283909798, 0.020559335127472878, 0.009588653221726418, -0.012332968413829803, 0.013701836578547955, -0.022020338103175163, -0.006544897332787514, 0.025481993332505226, 0.022296743467450142, -0.0035866957623511553, 0.021507013589143753, -0.003134245751425624, -0.0074497973546385765, 1.3817724720865954e-05, 0.003599857911467552, 0.0033431954216212034, -0.0034682361874729395, -0.005630125291645527, -0.01671597734093666, 0.00288251880556345, -0.01946687325835228, -0.021177958697080612, 0.01867714338004589, 0.02182290516793728, -0.0012907169293612242, 0.028351349756121635, -0.038249313831329346, -0.014689000323414803, -0.007647230289876461, 0.013089794665575027, 0.02054617367684841, -0.0017834763275459409, 0.015728812664747238, 0.014162512496113777, -0.0019776185508817434, -0.014860108494758606, -0.03074686788022518, 0.012411941774189472, 0.013135862536728382, 0.005725550930947065, 0.005228678695857525, -0.00833166390657425, 0.025824209675192833, 0.018150655552744865, 0.008864732459187508, 0.0043928795494139194, 0.013570214621722698, -0.0021849230397492647, -0.020809417590498924, 0.020440876483917236, -0.014215161092579365, 0.015860434621572495, 0.018900899216532707, -0.012938429601490498, -0.009555747732520103, -0.024850208312273026, -0.0010817672591656446, -0.012194765731692314, 0.019150981679558754, 0.028114430606365204, -0.02088839001953602, 0.0016033188439905643, 0.05438615381717682, 0.004215190187096596, -0.02208614908158779, -0.013912430964410305, -0.015649840235710144, -0.0034649455919861794, 0.009318827651441097, -0.025100288912653923, 0.016729138791561127, 0.014531053602695465, 0.012089468538761139, -0.010964101180434227, 0.001007729908451438, -0.008239529095590115, 0.01743989624083042, -0.0031687964219599962, 0.006005247589200735, 0.008305340074002743, 0.01708451844751835, 0.008502772077918053, -0.03727531060576439, -0.007989447563886642, 0.022494176402688026, 0.03809136897325516, 0.026298047974705696, -0.007884149439632893, -0.0030470462515950203, 0.03137865290045738, 0.03635396063327789, -0.01759784296154976, -0.011516912840306759, -0.01998019963502884, -0.016071029007434845, -0.013609700836241245, -0.0021158214658498764, -0.01475481130182743, -0.021599147468805313, -0.009904545731842518, -0.019453711807727814, 0.0032181546557694674, -0.02299433946609497, -0.005396496504545212, -0.00670613395050168, 0.0031737321987748146, -0.012602793984115124, 0.016307950019836426, -0.009299084544181824, 0.002077980199828744, 0.004438947420567274, -0.018848251551389694, -0.019782766699790955, -0.002912133699283004, 0.01678178831934929, 0.017545195296406746, -0.013333294540643692, -0.0011294800788164139, 0.004165831953287125, -0.011799899861216545, -0.0009164172224700451, -0.007732784375548363, -0.00666993809863925, -0.014162512496113777, -0.009338571690022945, 0.011108885519206524, -0.007403729949146509, 0.016492219641804695, -0.001426451955921948, -0.0035439187195152044, -0.018295438960194588, -0.006818012800067663, -0.010319153778254986, -0.018176980316638947, 0.0013162186369299889, -0.0009748244192451239, -0.02502131648361683, -0.02275742031633854, 0.019414225593209267, -0.0023510956671088934, 0.015649840235710144, 0.0031704416032880545, -0.012352712452411652, 0.03603806719183922, 0.007713041268289089, 0.01837441325187683, -0.016768625006079674, -0.004942400846630335, -0.02381039597094059, -0.002852903911843896, 0.014649513177573681, -0.02906210720539093, 0.0010973972966894507, 0.022349392995238304, 0.020085496827960014, 0.023046988993883133, 0.018387574702501297, -0.004965434782207012, 0.026363858953118324, -0.009167462587356567, 0.005050988867878914, -0.03272119536995888, 0.021441202610731125, 0.007732784375548363, 0.017400410026311874, 0.0015761718386784196, -0.02311279997229576, 0.0014914402272552252, -0.015978895127773285, 0.019032521173357964, 0.01379397138953209, 0.0018723210087046027, -0.036143362522125244, 0.019335251301527023, 0.008640975691378117, -0.01230006292462349, 0.000321856583468616, 0.03032567724585533, -0.005294489674270153, 0.0007284447783604264, -0.0023757745511829853, 0.043382566422224045, -0.00968736968934536, -0.015676164999604225, -0.010023005306720734, 0.028114430606365204, 0.007383986841887236, 0.023836718872189522, -0.02332339435815811, -0.00048700091429054737, -0.0025978866033256054, -0.02084890380501747, 0.017847925424575806, 0.013280645944178104, 0.02266528457403183, 0.02845664694905281, 0.0230601504445076, -0.0037775475066155195, 0.00424151448532939, -0.01629478670656681, -0.00534055707976222, 0.00772620365023613, -0.005577476695179939, -0.013991404324769974, -0.031431302428245544, 0.011484007351100445, -0.02284955605864525, 0.009384638629853725, -0.00890421960502863, 0.010095397010445595, 0.021046336740255356, -0.01699238270521164, -0.008851570077240467, 0.031062759459018707, -0.00988480169326067, -0.004797616973519325, 0.0337478443980217, 0.0016057867323979735, -0.0024432309437543154, -0.018400736153125763, 0.018598169088363647, -0.006064477376639843, -0.005946017801761627, -0.016979221254587173, 0.00866071879863739, -0.006818012800067663, -0.007588000502437353, 0.004080277867615223, 0.014083539135754108, -0.015439244918525219, -0.021796580404043198, -0.009391220286488533, -0.011536656878888607, 0.016939733177423477, -0.0025699168909341097, -0.027351023629307747, -0.012938429601490498, 0.018295438960194588, 0.008640975691378117, -0.01044419500976801, -0.009193787351250648, -0.0024267781991511583, -0.013135862536728382, 0.005103637930005789, -0.006123707164078951, -0.0002825756964739412, -0.021994013339281082, 0.005584057420492172, 0.0063704983331263065, -0.01534710917621851, 0.01006249152123928, -0.010792993009090424, 0.00864755641669035, 0.010246762074530125, 0.0021454363595694304, -0.0046956101432442665, -0.018124330788850784, -0.012207928113639355, 0.03135232999920845, -0.012997658923268318, -0.028588268905878067, -0.007186553906649351, 0.007107580546289682, 0.01474164891988039, -0.011852549389004707, 0.01287261862307787, -0.010161207988858223, -0.010865384712815285, 0.0057913619093596935, 0.005880206823348999, 0.000306637812172994, 0.017584681510925293, 0.002745961071923375, 0.0053339758887887, -0.02140171453356743, -0.02381039597094059, -0.022941691800951958, -0.010871966369450092, 0.09908494353294373, -0.005412949249148369, 0.007061513140797615, 0.007838082499802113, -0.0009147719829343259, -0.008048676885664463, -0.030404651537537575, -0.014399431645870209, -0.012694928795099258, 0.024692261591553688, -0.006166484206914902, -0.02492918074131012, 0.016136839985847473, 0.005518246907740831, 0.004373136442154646, -0.009239855222404003, -0.020046010613441467, -0.019098332151770592, 0.03464287519454956, 0.011878873221576214, 0.0011294800788164139, 0.008706786669790745, -0.0082066236063838, 0.03448493033647537, 0.02187555469572544, 0.0030338841024786234, 0.00967420730739832, 0.022954853251576424, 0.003316870890557766, -0.031220706179738045, -0.011905197985470295, -0.005103637930005789, -0.030457299202680588, 0.005939436610788107, -0.0012668604031205177, 0.028088105842471123, -0.0038269057404249907, 0.011648534797132015, 0.02115163393318653, 0.021322742104530334, 0.017216140404343605, 0.013221416622400284, -0.008627813309431076, -0.008772597648203373, 0.0024152612313628197, -0.01816381700336933, 0.005587348248809576, 0.010898290202021599, -0.03311606124043465, -0.01750570721924305, 0.03685412183403969, 0.012082886882126331, -0.007765689864754677, -0.0057518756948411465, 0.011964427307248116, 0.019098332151770592, 0.015597190707921982, 0.01093777734786272, -0.019756441935896873, -0.003116147592663765, -0.000799191533587873, -0.02908843196928501, -0.005416239611804485, 0.0007263881852850318, -0.024731747806072235, -0.011082560755312443, -0.0061533222906291485, 0.002291865646839142, -0.005715679377317429, -0.004017757251858711, -0.014689000323414803, -0.02136222831904888, -0.023455016314983368, -0.012589631602168083, 0.010779830627143383, -0.007976285181939602, 0.0207041185349226, -0.0078117577359080315, 0.015557704493403435, 0.02163863554596901, -0.002173406071960926, 0.008785759098827839, -0.01690024696290493, -0.028140755370259285, -0.013287227600812912, 0.030220380052924156, 0.010148045606911182, -0.011793319135904312, -0.016044706106185913, 0.007219459395855665, -0.0004689029010478407, 0.005830848589539528, 0.033905792981386185, -0.0032461241353303194, -0.002780511975288391, -0.0038137435913085938, 0.01690024696290493, -0.00833166390657425, 0.00025378342252224684, -0.01743989624083042, 0.03572217375040054, 0.004498177208006382, -0.028904162347316742, 0.005709098186343908, 0.032484278082847595, -0.023244421929121017, 0.005742003675550222, -0.01678178831934929, 0.0021174666471779346, 0.000489880156237632, 0.012319806963205338, 0.0058440109714865685, 0.022862717509269714, -0.0034846889320760965, -0.01657119207084179, 0.013675511814653873, -0.021994013339281082, 0.030983787029981613, 0.00487329950556159, -0.020046010613441467, 0.0011006878921762109, -0.024613289162516594, 0.01813749223947525, 0.0375385545194149, -0.0034649455919861794, 0.027666915208101273, 0.01045735739171505, -0.00620268052443862, -0.00944386888295412, -0.018334925174713135, 0.02079625427722931, 0.053885992616415024, -0.007614324800670147, -0.014531053602695465, -0.045041002333164215, -0.02474491111934185, -0.004297453910112381, 0.011424778029322624, -0.014307296834886074, -0.02278374508023262, -0.034932442009449005, 0.012155279517173767, -0.007390567567199469, 0.01083247922360897, -0.021085822954773903, -0.02175709418952465, 0.015610353089869022, 0.0115300752222538, -0.0037479326128959656, 0.0020878517534583807, 0.007903892546892166, 0.013570214621722698, 0.010602140799164772, 0.02040138840675354, -0.003117793006822467, -0.01867714338004589, -0.023283908143639565, -0.019993361085653305, 0.011799899861216545, 0.01014146488159895, 0.012458009645342827, 0.02785118669271469, 0.01403089053928852, 0.0015918018762022257, -0.01513651479035616, -0.009792666882276535, -0.005255002994090319, -0.002545237774029374, -0.023494502529501915, 0.017097679898142815, 0.011345804668962955, 0.025429343804717064, 0.00272786314599216, 0.003738061059266329, 0.021493850275874138, 0.01862449385225773, -0.017281951382756233, -0.01187229249626398, -0.041355591267347336, 0.006403403822332621, 0.0044948868453502655, -0.021954527124762535, -0.007028607651591301, 0.013471498154103756, -0.006113835610449314, 0.006291524972766638, 0.009384638629853725, 0.008022353053092957, -0.004662704654037952, -0.009318827651441097, 0.014807459898293018, -0.02803545817732811, 0.050621770322322845, 0.0422506183385849, 0.010417870245873928, 0.010529749095439911, -0.02782486192882061, -0.027693239971995354, -0.022020338103175163, 0.01303714606910944, 0.01599205657839775, 0.004050662741065025, 0.0014988440088927746, -0.004504758398979902, -0.012036819942295551, 0.005212225951254368, 0.003876263974234462, -0.010437614284455776, -0.009937451221048832, -0.009121395647525787, -0.03195779025554657, -0.018703466281294823, -0.03193146362900734, -0.02567942626774311, -0.0004483369702938944, 0.008634394034743309, -0.015399757772684097, 0.03490611910820007, -0.007377405650913715, -0.041934724897146225, 0.002370838774368167, -0.008706786669790745, 0.04259283468127251, 0.01503121666610241, 0.013464916497468948, 0.02079625427722931, -0.02040138840675354, -0.00425467686727643, 0.01897987350821495, 0.00834482628852129, -0.00927934143692255, 0.01636059768497944, 0.028904162347316742, -0.0010151336900889874, -0.010858803987503052, -0.01472848653793335, 0.02175709418952465, -0.02121744491159916, -0.02574523724615574, 0.024850208312273026, 0.013636025600135326, 0.0028923905920237303, -0.012563306838274002, -0.003009204985573888, 0.010273086838424206, 0.011332642287015915, -0.017966384068131447, 0.022415203973650932, 0.010463938117027283, -0.01783476211130619, -0.007614324800670147, 0.004600184038281441, -0.04003937169909477, 0.012017075903713703, -0.021414877846837044, -0.009318827651441097, 0.022586312144994736, -0.011898616328835487, -0.05112193152308464, 0.016307950019836426, 0.0036327634006738663, 0.0003348131140228361, -0.0017341180937364697, -0.0016946315299719572, 0.010714019648730755, -0.02320493571460247, -0.0025699168909341097, -0.004899623803794384, 0.005399786867201328, 0.026061128824949265, -0.014175674878060818, -0.0018361250404268503, 0.022099310532212257, -0.015610353089869022, 0.024823883548378944, -0.024876533076167107, -0.0056070913560688496, 0.010536330752074718, -0.0001228813489433378, -0.014386270195245743, -0.009174044243991375, 0.013583376072347164, -0.0035340471658855677, 0.010707438923418522, -0.00040782210999168456, -0.004830522462725639, -0.044804081320762634, 0.0013310260837897658, 0.01443891879171133, -0.012339550070464611, -0.005880206823348999, -0.002130629029124975, 0.0007547691348008811, 0.007857825607061386, -0.001877256901934743, 0.006949634291231632, -0.015294460579752922, 0.025837372988462448, -0.025876859202980995, -0.005801233928650618, -0.011892035603523254, 0.022257257252931595, -0.006982539780437946, -0.006870661396533251, 0.0009279341320507228, -0.005301070399582386, 0.027693239971995354, -0.0060447342693805695, -0.005880206823348999, -0.026534967124462128, -0.005110219120979309, 0.0033152257092297077, 0.0029664277099072933, -0.008463285863399506, 0.0017472802428528666, 0.007574838120490313, 0.005514956079423428, -0.023955179378390312, -0.04638354480266571, 0.009226692840456963, -0.022072987630963326, -0.00310134026221931, 0.016452733427286148, -0.02012498304247856, 0.002265541348606348, 0.03506406396627426, -0.01021385658532381, 0.005212225951254368, -0.021994013339281082, -0.006502120289951563, -0.010227018967270851, 0.01708451844751835, -0.004932529293000698, -0.00562683492898941, 0.007870987989008427, -0.018387574702501297, -0.023731421679258347, 0.012089468538761139, 0.018150655552744865, 0.0011089142644777894, 0.008436961099505424, 0.029588595032691956, -0.009318827651441097, 0.017479384317994118, 0.0115300752222538, -0.012918686494231224, -0.031247030943632126, -0.0056597404181957245, -0.017571518197655678, 0.0005281327175907791, -0.033274006098508835, -0.004435657057911158, 0.0044948868453502655, -0.0032049925066530704, -0.027877511456608772, 0.014465242624282837, -0.015610353089869022, 0.013478078879415989, 0.013899268582463264, 0.013872944749891758, 0.0202829297631979, 0.011332642287015915, -0.011668277904391289, 0.0015580737963318825, -0.000690603454131633, 0.02362612448632717, -0.01412302628159523, -0.0006309623131528497, 0.02100685052573681, -0.02631121128797531, 0.015820948407053947, -0.01513651479035616, -0.051595769822597504, -0.030220380052924156, 0.02616642601788044, 0.01897987350821495, -0.008239529095590115, 0.02444218099117279, -0.02411312609910965, -0.01349124126136303, 0.022559987381100655, -0.03959185630083084, -0.01545240730047226, 0.007252364885061979, 0.01433362066745758, -0.014386270195245743, -0.01185913011431694, -0.02532404661178589, 0.014675837941467762, -0.0021224026568233967, 0.009167462587356567, -0.005442563910037279, -0.014860108494758606, 0.024178937077522278, -0.005011502653360367, -0.006199389696121216, 0.01563667692244053, 0.004616636782884598, 0.005919693503528833, -0.0027097652200609446, 0.0015482022427022457, 0.014057215303182602, 0.00393878435716033, -0.02374458499252796, -0.03853888064622879, 0.016702814027667046, -0.02254682593047619, -0.012754159048199654, 0.005998666398227215, -0.02392885461449623, -0.000899964477866888, -0.009812409989535809, 0.012030238285660744, -0.01371499802917242, -0.0027492516674101353, -0.022191446274518967, -0.015426082536578178, -0.02187555469572544, 0.03353725001215935, 0.012583049945533276, -0.020230280235409737, 0.000830451725050807, -0.012740996666252613, 0.005814395844936371, -0.017676817253232002, -0.0057847811840474606, -0.009753180667757988, -0.021085822954773903, -0.020717281848192215, 0.02698248252272606, -0.029378000646829605, -0.021743932738900185, -0.0010916388127952814, 0.014886433258652687, -0.007864406332373619, -0.008864732459187508, 0.2079625427722931, -0.006413275375962257, -0.006791688036173582, 0.023218097165226936, -0.008311920799314976, 0.03935493901371956, 0.0062783630564808846, 0.0006597546162083745, -0.0006062831962481141, 0.006222423631697893, -0.012694928795099258, 0.009950612671673298, -0.01897987350821495, 0.003428749507293105, 0.0033250972628593445, -0.022954853251576424, -0.0503321997821331, -0.04448819160461426, -0.01762416772544384, 0.0021043044980615377, -0.011806481517851353, -0.017216140404343605, -0.01155639998614788, 0.008081582374870777, 0.009318827651441097, 0.0022721225395798683, 0.005718970205634832, -0.0039025882724672556, 0.0708652138710022, 0.035327307879924774, -0.013056889176368713, -0.023073313757777214, -0.025942670181393623, -0.007870987989008427, -0.004945691674947739, 0.015241811983287334, -0.012221090495586395, -0.011595886200666428, 0.03235265612602234, -0.009331990033388138, -0.020414551720023155, -0.0038104529958218336, -0.015557704493403435, 0.01021385658532381, -0.019730117172002792, -0.016255300492048264, 0.0032181546557694674, -0.0060447342693805695, 0.015478731133043766, 0.006363917142152786, -0.02290220372378826, -0.013517565093934536, -0.021270092576742172, 0.0409870482981205, 0.01844022423028946, -0.015307622961699963, 0.01589992083609104, 0.010997006669640541, -0.0019167434656992555, 0.018058519810438156, -0.022836392745375633, 0.024376370012760162, -0.0007921991054899991, 0.002436649752780795, -0.023639287799596786, 0.005485341418534517, -0.027561618015170097, 0.019953874871134758, 0.014649513177573681, -0.01403089053928852, -0.0020500104874372482, -0.03522201254963875, -0.02528456039726734, -0.02544250711798668, -0.008687043562531471, -0.00818029884248972, 0.04201370105147362, -0.0009205304086208344, 0.02338920533657074, 0.01741357333958149, 0.009825572371482849, -0.011609048582613468, -0.009022679179906845, 0.01874295435845852, 0.011023331433534622, 0.0016732430085539818, 0.01940106227993965, 0.0221782848238945, -0.005432692356407642, -0.021915040910243988, -0.00819346122443676, -0.015241811983287334, 0.0066798096522688866, 0.026442833244800568, 0.02408680133521557, 0.006910148076713085, -0.010556073859333992, 0.004080277867615223, -0.007963122799992561, -0.0221782848238945, -0.010332316160202026, 0.007548513822257519, 0.023468177765607834, 0.0027706401888281107, -0.03951288387179375, -0.004606765229254961, 0.010503425262868404, 0.007555095013231039, 0.005722260568290949, -0.005639996845275164, -0.03424800932407379, -0.04088175296783447, 0.006824593525379896, -0.015070703811943531, 0.018519196659326553, 0.0038598112296313047, 0.004373136442154646, -0.00849619135260582, 0.015202325768768787, -0.014465242624282837, -0.0009238209458999336, -0.007792014628648758, 0.0059855044819414616, 0.01202365756034851, -0.008338245563209057, -0.02278374508023262, -0.015399757772684097, 0.013701836578547955, -0.0034221685491502285, -0.025310885161161423, 0.0064790863543748856, 0.0036689594853669405, 0.018413899466395378, -0.009555747732520103, -0.026719238609075546, 0.015189163386821747, -0.002372484188526869, -0.017874250188469887, 0.01318851113319397, -0.006255329120904207, 0.0020417841151356697, 0.0009221757063642144, 0.00534055707976222, -0.013227997347712517, 0.002046719891950488, -0.012003914453089237, 0.01876927725970745, 0.011747251264750957, -0.005705807823687792, -0.02178341895341873, 0.00452779233455658, -0.02740367315709591, -0.030667895451188087, -0.03179984167218208, 0.020361902192234993, -0.018716629594564438, -0.014649513177573681, -0.023942017927765846, -0.009891383349895477, 0.028509296476840973, -0.03548525646328926, -0.005811105482280254, 0.026600778102874756, 0.0035274659749120474, -0.01632111147046089, 0.013274065218865871, -0.1660541445016861, 0.011102304793894291, 0.005514956079423428, -0.0013203318230807781, 0.023165447637438774, -0.011484007351100445, 0.0031441173050552607, 0.014557378366589546, -0.029772866517305374, 0.03548525646328926, -0.0006589319673366845, -0.002173406071960926, -0.041355591267347336, -0.02700880728662014, 0.02332339435815811, -0.017426734790205956, 0.015623515471816063, 0.006400112994015217, 0.00850935373455286, 0.009529422968626022, 0.028088105842471123, -0.023705098778009415, 0.008423799648880959, 0.007792014628648758, -0.0003278207150287926, 0.011957846581935883, -0.019414225593209267, 0.037828125059604645, 0.013260902836918831, -0.022072987630963326, 0.0025041059125214815, 0.0022540243808180094, 0.05085868760943413, -0.015465568751096725, 0.008621232584118843, -0.0018509324872866273, -0.006265200674533844, -0.010990425944328308, -0.0037742569111287594, 0.018005870282649994, 0.014070377685129642, 0.020361902192234993, -0.0005737890605814755, -0.0015111835673451424, 0.01804535835981369, 0.024968666955828667, 0.016729138791561127, -0.010338897816836834, -0.015307622961699963, -0.007588000502437353, 0.024178937077522278, -0.024310559034347534, 0.004383007995784283, -0.010733762755990028, 0.016373759135603905, 0.03048362396657467, 0.017097679898142815, 0.006433018483221531, 0.0014009502483531833, -0.027666915208101273, -0.02278374508023262, -0.033063411712646484, 0.023981504142284393, -0.011641954071819782, 0.005695936270058155, -0.024178937077522278, -0.007634068373590708, 0.023770909756422043, 0.006689681205898523, -0.005672902334481478, 0.0013170413440093398, -0.004777873866260052, -0.007699878886342049, -0.00967420730739832, 0.010766668245196342, 0.015649840235710144, -0.018966710194945335, -0.012668604962527752, 0.02413945086300373, -0.03214205801486969, -0.005663030780851841, 0.03572217375040054, -0.03048362396657467, -0.013701836578547955, -0.01062188483774662, -0.026087453588843346, -0.010437614284455776, 0.03561687842011452, -0.0074432166293263435, -0.020256604999303818, 0.0162026509642601, -0.01753203198313713, -0.005442563910037279, -0.013366200029850006, -0.01272125355899334, 0.022309906780719757, -0.016834435984492302, 0.013833457604050636, 0.004642961081117392, -0.021349066868424416, 0.011016749776899815, 0.015149676240980625, -0.021888716146349907, 0.02525823563337326, 0.03314238414168358, 0.032879140228033066, 0.014807459898293018, 0.006617289502173662, 0.018032195046544075, 0.008634394034743309, 0.010806155391037464, 0.007160229608416557, 0.012892361730337143, 0.01876927725970745, -0.014254648238420486, -0.00654818769544363, 0.030878489837050438, -0.0059855044819414616, 0.024218423292040825, 0.01886141300201416, 0.04064483195543289, -0.04146088659763336, -0.01853235810995102, 0.004672576207667589, -0.02806178107857704, -0.002852903911843896, -0.09919023513793945, -0.005827558226883411, 0.0030964044854044914, 0.0076274871826171875, -0.01015462726354599, 0.017071355134248734, -0.010161207988858223, 0.010180951096117496, -0.020414551720023155, 0.00794996041804552, -0.034748174250125885, 0.006222423631697893, 0.005212225951254368, -0.012576469220221043, 0.054544102400541306, 0.008759435266256332, 0.0023362881038337946, 0.014307296834886074, -0.02030925452709198, -0.010332316160202026, 0.00022663640265818685, 0.01883508823812008, -0.004034209996461868, -0.009713693521916866, -0.022046662867069244, -0.009779504500329494, -0.01412302628159523, 0.01958533376455307, 0.014504729770123959, -0.0045870221219956875, -0.008002609014511108, -0.01076008751988411, 0.004429075866937637, -0.00866071879863739, 0.01907200738787651, -0.012589631602168083, 0.0015120061580091715, -0.01170776505023241, 0.023007502779364586, -0.02284955605864525, -0.0006346642039716244, 0.02336288057267666, 0.023139124736189842, -0.012128954753279686, 0.004481724463403225, 0.0036854122299700975, -0.009588653221726418, 0.024060476571321487, 0.012471172027289867, -0.024916019290685654, -0.02371826022863388, -0.015307622961699963, -0.018756115809082985, 0.01163537334650755, 0.04556749016046524, -0.013043726794421673, 0.012352712452411652, 0.0022885752841830254, -0.02821972779929638, -0.016650166362524033, 0.010134883224964142, 8.339479245478287e-05, 0.022612636908888817, 0.008153975009918213, 0.03148395195603371, 0.008680461905896664, -0.0260479673743248, 0.028719890862703323, 0.01940106227993965, -0.015123352408409119, -0.026205914095044136, -0.01413618866354227, -0.005370172206312418, 5.419119042926468e-05, -0.01169460266828537, 0.007792014628648758, 0.004652833100408316, 0.004146088846027851, -0.002028621966019273, 0.005610382184386253, -0.008575164712965488, -0.010687695816159248, -0.008877894841134548, 0.0019430677639320493, 0.010338897816836834, 0.01904568448662758, 0.008667299523949623, -0.006620579864829779, 0.016952896490693092, -0.03166821971535683, 0.006577802821993828, 0.007844663225114346, 0.018005870282649994, -0.025797884911298752, -0.030878489837050438, 0.01062188483774662, 0.04372478276491165, -0.015110190026462078, 0.0018196722958236933, 0.04119764268398285, -0.019124656915664673, -0.032457951456308365, -0.06986488401889801, 0.016544869169592857, 0.0035866957623511553, -0.01410986389964819, 0.008996354416012764, -0.0001645273296162486, 0.01137871015816927, 0.02474491111934185, 0.0047120628878474236, 0.010207275860011578, -0.031247030943632126, -0.009088490158319473, -0.001646096003241837, -0.0198222529143095, -0.018874576315283775, -0.013833457604050636, 0.026811374351382256, -0.002609403571113944, -0.0037742569111287594, 0.004152670037001371, 0.01834808848798275, 0.019967036321759224, 0.02390252985060215, 0.014149350114166737, -0.03311606124043465, -0.006702843587845564, -0.016584355384111404, 0.028693566098809242, -0.012306644581258297, 0.005366881377995014, 0.019361576065421104, -0.02248101495206356, 0.007291851099580526, 0.014991730451583862, -0.01047051977366209, -0.03551157936453819, -0.04364581033587456, 0.024126287549734116, 0.0010636692168191075, 0.009029259905219078, -0.022941691800951958, -0.01443891879171133, 0.032879140228033066, -0.03011508285999298, 0.007094418630003929, 0.018492871895432472, 0.011398453265428543, 0.007588000502437353, 0.03735428676009178, -0.0011204311158508062, 0.007745946757495403, 0.015189163386821747, 0.011181277222931385, -0.017058193683624268, -0.02208614908158779, 0.015544542111456394, -0.0011467555304989219, 0.017268788069486618, 0.016123678535223007, -0.0006260264781303704, 0.020269766449928284, -0.004445528611540794, 0.0073247565887868404, -0.006850918289273977, 0.011766994372010231, -0.02691667154431343, -0.002928586443886161, -0.010858803987503052, 0.012523820623755455, -0.03914434090256691, -0.009871640242636204, 0.02502131648361683, 0.028746215626597404, -0.006910148076713085, -0.00034180554212071, -0.03280016779899597, -0.007252364885061979, -0.004146088846027851, -0.021651796996593475, 0.013688674196600914, 0.0018048648489639163, -0.004030919633805752, -0.014083539135754108, 0.014201999641954899, 0.03777547553181648, -0.008548839949071407, -0.004665995016694069, -0.014965405687689781, 0.007528770714998245, 0.0033728103153407574, 0.0011566270841285586, 0.009108233265578747, -0.0029401034116744995, 0.02803545817732811, 0.0191904678940773, 0.009358314797282219, -0.026653427630662918, -0.029193729162216187, 0.020230280235409737, 0.0018377703381702304, -0.006623870227485895, 0.004741677548736334, 0.009720275178551674, -0.024679100140929222, -0.0085225161164999, -0.026021642610430717, -0.011760413646697998, -0.03645925596356392, 0.022323068231344223, 0.008502772077918053, 0.0011763704242184758, -0.001645273296162486, -0.009075327776372433, 0.0043336497619748116, 0.0173477</t>
+  </si>
+  <si>
+    <t>[-0.0019474081927910447, 0.00325742457062006, 0.004567441064864397, -0.018641307950019836, -0.008411009795963764, 0.018961606547236443, -0.007731979247182608, 0.0004227925674058497, -0.006553284823894501, -0.00747574120759964, -0.01298485603183508, -0.018192892894148827, -0.028109299018979073, -7.947379344841465e-05, -0.017975090071558952, -0.010710745118558407, 0.02366357110440731, -0.014874611049890518, 0.0065917205065488815, -0.014093085192143917, -0.012683777138590813, 4.884535155724734e-05, -0.011171973310410976, -0.0038243508897721767, -0.009019575081765652, -0.011985528282821178, 0.016719523817300797, -0.016706712543964386, 0.008084306493401527, -0.015515205450356007, -0.014387759380042553, -0.004628297407180071, -0.02415042370557785, 0.014067461714148521, -0.0022100519854575396, -0.0048012579791247845, 0.014592749066650867, -0.016283920034766197, 0.0006421962752938271, 0.0032285978086292744, 0.0028298276010900736, 0.009211753495037556, -5.5019836509018205e-06, -0.015553641133010387, -0.0030556372366845608, 0.02457321621477604, 0.02119087614119053, 0.007033730857074261, -0.011870221234858036, 0.004814069718122482, 8.392792369704694e-05, 0.01876942813396454, -0.03046668879687786, -0.0004267962940502912, -0.02318953163921833, -0.03387465327978134, -0.0011130335042253137, -0.005480288527905941, 0.01060184370726347, -0.029159875586628914, 0.0020515047945082188, -0.003513662377372384, 0.0025463642086833715, -0.012254578061401844, 0.00138848926872015, -0.009698605164885521, -0.019038477912545204, 0.006287437863647938, -0.023471392691135406, -0.024342602118849754, 0.030979163944721222, 0.027776191011071205, 0.02263862080872059, 0.004179880954325199, 0.0415617898106575, -0.00519842654466629, 0.010313576087355614, 0.0318247489631176, -0.00027085148030892015, 0.012004746124148369, 0.0015918780118227005, -0.030184825882315636, -0.008276484906673431, 0.015668949112296104, 0.02317672036588192, 0.0027769785374403, -0.008071494288742542, 0.028570527210831642, -0.008526316843926907, 0.00324621400795877, -0.006322670727968216, -0.031030410900712013, -0.005252877250313759, -0.012811895459890366, -0.00014713661221321672, -0.007225909270346165, -0.001724801491945982, 0.010473724454641342, 0.002613626653328538, -0.0005044683930464089, 0.006726245395839214, -0.0035200684797018766, -0.025188187137246132, -0.01736011914908886, -0.047480884939432144, -0.008756930939853191, 0.00047524124966003, -0.00445853965356946, 0.03279845416545868, 0.014656809158623219, 0.010057338513433933, 0.014528689906001091, -0.0019458066672086716, -0.04876207560300827, 0.012709400616586208, -0.020358102396130562, 0.020089052617549896, 0.004010123200714588, 0.017155129462480545, -0.0025559731293469667, 0.03436150401830673, 0.010697932913899422, 0.011722885072231293, -0.024957573041319847, 0.026161890476942062, -0.0036770140286535025, -0.002085136016830802, 0.007853692397475243, -0.030569182708859444, -0.0016343174502253532, -0.0034047614317387342, -0.00030928716296330094, 0.010973388329148293, -0.00409019785001874, 0.007040136959403753, 0.013439678587019444, -0.015092412941157818, 0.023099849000573158, -0.01842350699007511, -0.03249096870422363, 0.03489960357546806, 0.016668276861310005, -0.03044106438755989, -0.006027997005730867, 0.004820475820451975, 0.029185498133301735, 0.005784571170806885, 0.01498991809785366, 0.012401915155351162, -0.002823421498760581, 0.039819370955228806, -0.001552641624584794, 0.0041286335326731205, -0.0037410736549645662, 0.006226581521332264, -0.011024636216461658, -0.014054649509489536, 0.021344618871808052, 0.0052560800686478615, 0.010070149786770344, -0.0025063271168619394, 0.030082331970334053, -0.009467991068959236, -0.003965281881392002, 0.026699990034103394, 0.02453478053212166, 0.0018337025539949536, 0.032004114240407944, 0.003635375527665019, 0.007084978278726339, 0.0046090795658528805, 0.021793033927679062, -0.02992858923971653, 0.014157145284116268, 0.0016118966741487384, 0.0293904896825552, 0.014336511492729187, 0.002019474981352687, -0.01692451350390911, -0.004913362208753824, -0.0012083218898624182, -0.017975090071558952, 0.027878684923052788, 0.029595479369163513, 0.005656451918184757, -0.0003419174754526466, 0.036001428961753845, -0.017193565145134926, 0.006668591871857643, -0.018013525754213333, 0.011665231548249722, 0.0037410736549645662, -0.015630513429641724, -0.019986556842923164, -0.6481794118881226, 0.0021043538581579924, -0.01112072542309761, -0.0024903123266994953, -0.0013412453699856997, 0.015617701224982738, 0.012177706696093082, 0.00300599099136889, -0.023535452783107758, -0.023074224591255188, -0.007559018675237894, -0.015425522811710835, 0.007802444510161877, 0.005634031258523464, -0.031132906675338745, -0.0006117680459283292, -0.0002178022259613499, -0.023958245292305946, 0.04186927527189255, -0.010249516926705837, 9.98427058220841e-05, 0.01788540743291378, -0.020153112709522247, 0.008282890543341637, -0.006258611101657152, 0.04289422556757927, 0.015079601667821407, -0.01976875588297844, -0.006924829911440611, 0.0003489239898044616, -0.01646328531205654, 0.006149710156023502, -0.008910673670470715, -0.005009451415389776, 0.052887506783008575, 0.012139271013438702, -0.020127488300204277, 0.031594134867191315, 0.013362807221710682, 0.04104931280016899, 0.005297719035297632, 0.0163479782640934, 0.03336217626929283, -0.02078089490532875, 0.007507770787924528, -0.003987702541053295, 0.046532806009054184, 0.0011594765819609165, -0.012613311409950256, -0.019589388743042946, 0.0039108311757445335, -0.007309186737984419, 0.020652776584029198, 0.017513861879706383, 0.008167583495378494, -0.007181067485362291, 0.02074245922267437, -0.01732168346643448, 0.0031965679954737425, -0.0192819032818079, 0.00821883138269186, 0.015733007341623306, -0.01586112752556801, -0.02652062475681305, -0.0014221204910427332, 0.011370557360351086, -0.032644711434841156, -0.0052560800686478615, -0.01689889095723629, -0.0014109100447967649, 0.006982483435422182, 0.017706040292978287, -0.007815256714820862, 0.0026104238349944353, 0.011722885072231293, -0.00603440310806036, 0.010307170450687408, 0.0023942231200635433, -0.006316264625638723, 0.03518146649003029, 0.0071426318027079105, -0.002019474981352687, -0.018641307950019836, 0.008289296180009842, 0.003097275737673044, 0.014259640127420425, -0.006604532245546579, 0.01738574355840683, 0.0368213877081871, 0.007853692397475243, 0.03633453696966171, 0.009852347895503044, -0.0125428456813097, -0.027801813557744026, -0.03438713029026985, 0.029723597690463066, 0.01598924584686756, 0.017693229019641876, 0.0036706081591546535, -0.025662226602435112, -0.004211910534650087, -0.016078928485512733, 0.00749495904892683, -0.00445853965356946, 0.02557254396378994, 0.0077704149298369884, -0.027801813557744026, 0.017014198005199432, 0.028314290568232536, -0.019461270421743393, -0.025892840698361397, 0.026366882026195526, 0.010966982692480087, -0.00012141273327870294, -0.001957016997039318, -0.018436318263411522, 0.013926531188189983, 0.008788960985839367, 0.0256494153290987, 0.003641781397163868, 0.010717150755226612, 0.013439678587019444, -0.006486022379249334, -0.040818698704242706, 0.009141287766397, 0.025239434093236923, 0.022497689351439476, -0.03136352077126503, -0.01324750017374754, -0.009589703753590584, -0.0019874454010277987, 0.015822691842913628, 0.02509850449860096, -0.0047051687724888325, 0.014093085192143917, 0.009583298116922379, 0.04186927527189255, -0.020012181252241135, -0.00712341396138072, -0.02359951287508011, -0.039306897670030594, -0.016078928485512733, -0.0011170371435582638, -0.015079601667821407, -0.012433945201337337, -0.015579265542328358, -0.029774846509099007, 0.011921469122171402, -0.03989624232053757, 0.002786587458103895, -0.009634546004235744, -0.002817015629261732, -0.03185037150979042, -0.013119380921125412, 0.008161177858710289, 0.015553641133010387, -0.020960262045264244, -0.010550595819950104, -0.02325359173119068, -0.0007534996257163584, 0.013695917092263699, -0.005220847669988871, -0.046660926192998886, -0.002342975465580821, 0.00014363336958922446, -0.019140971824526787, -0.0036866229493170977, 0.014823363162577152, 0.012465974316000938, -0.04932579770684242, -0.014157145284116268, -0.003121298039332032, -0.003827553940936923, 0.01684764213860035, -0.00943596102297306, -0.0035264743492007256, -0.022318322211503983, -0.01739855483174324, -0.020665587857365608, -0.0018144847126677632, 0.007757602725178003, -0.008763336576521397, -0.020422162488102913, -0.014810551889240742, 0.015694571658968925, 0.00448096077889204, 0.029851717874407768, -0.01228660810738802, -0.029621103778481483, 0.0029867731500416994, 0.010409665293991566, 0.014336511492729187, -0.0169117022305727, -0.008532722480595112, -0.0014413383323699236, -0.005243268329650164, 0.0007651104242540896, 0.00014533493958879262, -0.006338685285300016, 0.0067582749761641026, 0.01744980178773403, 0.02034529112279415, 0.027238091453909874, -0.016706712543964386, -0.0005881460965611041, -0.024470720440149307, 0.014336511492729187, -0.012389102950692177, 0.041254304349422455, -0.00760385999456048, 0.029211122542619705, -0.00011480660032248124, -0.046148449182510376, -0.006668591871857643, -0.017167940735816956, 0.0071938796900212765, 0.0022821188904345036, -0.003946064040064812, -0.002733738161623478, 0.00264565646648407, 0.027673695236444473, -0.016668276861310005, 0.003456008853390813, -0.005249674431979656, -0.05035075172781944, 0.005499506369233131, 0.008724900893867016, 0.04099806770682335, -0.004647515248507261, -0.01226739026606083, -0.009608921594917774, 0.017539486289024353, -0.02024279534816742, 0.013580610044300556, -0.013324371539056301, 0.02413761243224144, 0.011665231548249722, -0.02025560662150383, 0.011639607138931751, -0.000822363537736237, 0.033977147191762924, 0.017629168927669525, 0.020370913669466972, 0.00240543344989419, 0.010223892517387867, -0.0013636661460623145, 0.03428463265299797, 0.009224564768373966, -0.019205031916499138, -0.013759976252913475, -0.017706040292978287, -0.012997668236494064, 0.007008106913417578, -0.009519238956272602, 0.001644727075472474, -0.00662375008687377, 0.03279845416545868, 0.00290509732440114, 0.017116693779826164, 0.032644711434841156, 0.009544862434267998, -0.006200957577675581, 0.01925627887248993, 0.011716478504240513, 0.019948121160268784, -0.02558535523712635, 0.01160757802426815, -0.0024166437797248363, -0.0071426318027079105, -0.01738574355840683, 0.012818302027881145, 0.008756930939853191, -0.008833802305161953, -0.0006185743259266019, -0.0034047614317387342, -0.003949266858398914, -0.025803158059716225, -0.03172225505113602, -0.005060698837041855, 0.009474396705627441, 0.0014597553526982665, -0.015463958494365215, 0.009064416401088238, 0.02516256272792816, 0.012863143347203732, -0.005563565995544195, -0.026392504572868347, 0.010480131022632122, 0.0046827481128275394, 0.006184942554682493, 0.0015910773072391748, 0.022459253668785095, -0.006572502665221691, 0.022792363539338112, -0.0034399940632283688, -0.006460398435592651, 0.01086448784917593, 0.01597643457353115, 0.03190162032842636, -0.024752583354711533, 0.0006754271453246474, 0.0017792520811781287, -0.023432957008481026, -0.00760385999456048, 0.01979437842965126, 0.003987702541053295, -0.017270436510443687, -0.012427538633346558, -0.001472567324526608, 0.013888095505535603, -0.020934637635946274, 0.00896192155778408, 0.007828067988157272, 0.0014533494831994176, -0.0011594765819609165, 0.017667604610323906, 0.014503066428005695, 0.01208161748945713, 0.01834663562476635, -0.0014277256559580564, -0.01352936215698719, -0.05637234076857567, -0.021037133410573006, 0.007052948698401451, 0.07933125644922256, -0.006168927997350693, 0.010108585469424725, 0.02759682387113571, -0.013337183743715286, -0.002863458823412657, -0.011947092600166798, -0.006956859491765499, -0.005095931701362133, 0.025687851011753082, -0.004179880954325199, -0.023842938244342804, 0.018026337027549744, 0.005204832646995783, 0.003539286321029067, -0.004420103970915079, -0.014374947175383568, -0.011139943264424801, 0.013465302996337414, 0.018615685403347015, 0.0016639449167996645, 0.005358575377613306, -0.008820990100502968, 0.06180458515882492, 0.009333466179668903, 0.014067461714148521, 0.012363479472696781, -0.012293013744056225, 0.016104552894830704, -0.026699990034103394, -0.010499348863959312, -0.0076230778358876705, -0.007680731359869242, 0.018231328576803207, -0.03243971988558769, 0.022920481860637665, 0.008289296180009842, 0.014144333079457283, 0.010909329168498516, 0.009852347895503044, 0.023958245292305946, 0.008391791954636574, 0.0024823048152029514, -0.0053297486156225204, 0.01985843852162361, -0.015425522811710835, -0.0037090438418090343, 0.020153112709522247, -0.018615685403347015, -0.018974417820572853, 0.028365537524223328, -0.01788540743291378, 0.0005332951550371945, 0.0054963030852377415, 0.027878684923052788, -0.01377278845757246, 0.03992186859250069, 0.030184825882315636, -0.013439678587019444, -0.007968999445438385, 0.005685278680175543, -0.038794420659542084, 0.0031389144714921713, -0.01184459775686264, -0.015592076815664768, -0.014080273918807507, -0.00531053077429533, 8.387787966057658e-05, -0.01349092647433281, -0.003167741233482957, -0.019051289185881615, -0.017667604610323906, -0.0041734748519957066, -0.01399059034883976, 0.032106611877679825, -0.019576577469706535, 0.02509850449860096, -0.013234687969088554, -0.014169956557452679, 0.01933315023779869, -0.0023525843862444162, -0.013337183743715286, -0.0045610349625349045, -0.026225950568914413, -0.02174178697168827, 0.03587330877780914, 0.0033791374880820513, -0.0031036818400025368, -0.02320234291255474, 0.02412479929625988, 0.010191863402724266, 0.003731464734300971, 0.022958917543292046, 0.006668591871857643, -0.012863143347203732, -0.01638641394674778, -0.011818974278867245, 0.00871849525719881, 0.025905653834342957, -0.0013164222473278642, 0.002613626653328538, 0.005806991830468178, -0.02659749612212181, -0.0034367910120636225, 0.03915315493941307, -0.011351339519023895, -0.0072387210093438625, -0.023061413317918777, 0.012055994011461735, -0.0013756772968918085, -0.0006085650529712439, -0.02318953163921833, 0.002855451311916113, -0.0018224922241643071, -0.010089367628097534, -0.03684701398015022, 0.0007346821366809309, 0.010729962959885597, 0.02125493437051773, -0.001376478117890656, -0.028826765716075897, -0.010518566705286503, 0.010986200533807278, 0.03459211811423302, -0.01298485603183508, 0.017065444961190224, -0.011947092600166798, 0.020652776584029198, -0.0074821473099291325, 0.0035809248220175505, 0.009820317849516869, 0.023548264056444168, -0.001114634913392365, -0.0021620073821395636, -0.004471351858228445, -0.01837225817143917, 0.0042951880022883415, 0.014464630745351315, -0.019627824425697327, -0.0064956312999129295, -0.03876879811286926, 0.04453415051102638, 0.013695917092263699, 0.007225909270346165, -0.01254925224930048, -0.010768398642539978, -0.005906283855438232, -0.019435646012425423, -0.014515877701342106, 0.016552969813346863, -0.02025560662150383, -0.0010882103815674782, 0.01302329171448946, 0.010281546041369438, -0.0004552226746454835, -0.028673022985458374, 0.008788960985839367, -0.01256847009062767, 0.011678042821586132, 0.002270908560603857, 0.0012259383220225573, 0.03272158280014992, 0.012337855994701385, 0.019051289185881615, -0.011191191151738167, -0.00324621400795877, -0.029851717874407768, -0.004887738265097141, -0.028826765716075897, 0.03441275283694267, -0.004404089413583279, 0.04053683951497078, -0.014336511492729187, -0.02180584706366062, -0.009788288734853268, 0.00712341396138072, -0.003465617774054408, 0.005589189473539591, -0.030312946066260338, -0.013465302996337414, -0.002190834144130349, -0.009813912212848663, -0.01976875588297844, 0.023855749517679214, -0.007200285326689482, 0.015143660828471184, -0.0033310928847640753, 0.005666060838848352, -8.282690396299586e-05, 0.0015013940865173936, 0.006771087180823088, -0.04865958169102669, 0.03338779881596565, 0.036001428961753845, 4.8820329539012164e-05, -0.011031042784452438, -0.017680415883660316, -0.023484205827116966, -0.017987901344895363, 0.011018230579793453, -0.0036930290516465902, -0.017091069370508194, -0.006008779164403677, -0.0207168348133564, -0.0006914419936947525, 0.00966016948223114, -0.006674997508525848, -0.015617701224982738, 0.0013500534696504474, -0.010512160137295723, -0.005800585728138685, -0.0038531776517629623, 0.006508443038910627, -0.017693229019641876, -0.010371229611337185, 0.0015862728469073772, 0.006341888569295406, 0.018615685403347015, -0.006421962752938271, -0.014913046732544899, 0.020499033853411674, -0.0029899762012064457, 0.030671678483486176, 0.016642652451992035, 0.02557254396378994, 0.004557832144200802, -0.026264386251568794, -0.0003697432985063642, 0.04279173165559769, 0.011831785552203655, -0.0038563807029277086, 0.021511172875761986, 0.0016463286010548472, 0.0002127975894836709, -0.016130177304148674, -0.018730992451310158, 0.011671637184917927, -0.026904981583356857, -0.01648890972137451, 0.04876207560300827, 0.005243268329650164, -0.0011538714170455933, -0.008539128117263317, -0.0036449844483286142, -0.0027129189111292362, 0.011018230579793453, -0.02603377215564251, -0.00581019464880228, -0.016078928485512733, -0.008346949703991413, -0.025675039738416672, 0.004445727914571762, -0.03441275283694267, 0.0042247227393090725, -0.0034752266947180033, -0.013657481409609318, 0.014400570653378963, -0.02034529112279415, -0.033029068261384964, 0.01636079140007496, 0.01738574355840683, 0.011242439039051533, -0.008391791954636574, -0.009852347895503044, 0.02220301516354084, -0.011831785552203655, -0.006037605926394463, 0.005694887600839138, -0.005893472116440535, 0.023394521325826645, -0.0293904896825552, 0.01587393879890442, -0.0013612639158964157, 0.014285263605415821, 0.013324371539056301, -0.008487881161272526, 0.0029563449788838625, 0.005246471147984266, 0.022958917543292046, -0.013683104887604713, 0.0010890112025663257, 0.014618373475968838, -0.01646328531205654, -0.015797067433595657, -0.0010689925402402878, 0.010441695339977741, -0.006066432688385248, -0.00481086689978838, 0.009058010764420033, -0.008968327194452286, -0.015053977258503437, -0.01015983335673809, -0.0076487017795443535, 0.016745148226618767, -0.018526000902056694, 0.01033919956535101, -0.016540156677365303, 0.012241766788065434, -0.008635218255221844, -0.0004159862291999161, -0.016732335090637207, 0.020960262045264244, 0.006681403610855341, 0.022894857451319695, 0.0007194680511020124, -0.032183483242988586, 0.040383096784353256, -0.008891455829143524, -0.024842265993356705, -0.022484878078103065, -0.010909329168498516, -0.008840207941830158, 0.008577564731240273, -0.03848693519830704, 0.00985875353217125, -0.013683104887604713, -0.0026264386251568794, -0.008513504639267921, -0.03866630047559738, 0.028775518760085106, 0.004900550004094839, 0.015579265542328358, 0.02700747735798359, -0.015425522811710835, 0.0015198111068457365, -0.0007835275027900934, 0.012132865376770496, 0.023356085643172264, -0.02224145084619522, -0.006018388085067272, 4.944590909872204e-05, -0.0038307567592710257, -0.0028698646929115057, -0.017552297562360764, -0.009628139436244965, -0.011793349869549274, -0.028596151620149612, 0.037871964275836945, 0.012158488854765892, -0.010524972341954708, 0.024893512949347496, 0.030312946066260338, 0.007828067988157272, 0.03377215564250946, -0.014413382858037949, -0.017014198005199432, -0.02409917674958706, -0.032106611877679825, -0.018269764259457588, -0.009314248338341713, -0.025931276381015778, 0.011998340487480164, 0.013465302996337414, -0.03174787759780884, -0.03361841291189194, 0.001216329401358962, -0.03766697272658348, 0.010480131022632122, 0.021485548466444016, 0.0038307567592710257, 0.01835944689810276, 0.036975130438804626, -0.009250189177691936, 0.009647357277572155, -0.007635890040546656, 0.025021633133292198, -0.021946776658296585, 0.015463958494365215, 0.011178378947079182, -0.029134251177310944, 0.02174178697168827, -0.010960577055811882, -0.022010836750268936, -0.02176741138100624, 0.01985843852162361, 0.0060151852667331696, -0.0001774647826096043, 0.025393176823854446, -0.007309186737984419, -0.01732168346643448, 0.0013132193125784397, -0.006223378237336874, 0.008673653937876225, 0.019602200016379356, 0.029723597690463066, -0.021818658336997032, 0.003753885393962264, -9.33366609388031e-05, 0.02659749612212181, -0.005211238749325275, -0.011767726391553879, -0.017014198005199432, 0.0014157145051285625, 0.01427245233207941, 0.0008640022133477032, -0.015579265542328358, -0.004131836351007223, -0.007225909270346165, 0.01280548982322216, 0.01306172739714384, -0.014887423254549503, 0.016591405496001244, 0.005499506369233131, -0.0040293410420417786, -0.029595479369163513, -0.011050260625779629, -0.038461312651634216, -0.0070721665397286415, 0.002762565156444907, -0.020089052617549896, 0.01973032020032406, -0.023407334461808205, 0.028673022985458374, -0.02517537586390972, -0.026751238852739334, -0.00481086689978838, -0.008776148781180382, -0.021485548466444016, 0.0368213877081871, 0.0047275894321501255, -0.028826765716075897, 0.01498991809785366, -0.015476769767701626, -0.0023798097390681505, -0.029723597690463066, -0.0066621857695281506, -0.0028042036574333906, -0.024393849074840546, 0.014964294619858265, -0.0037570884451270103, -0.04981265217065811, -0.022023649886250496, 0.002174819353967905, 0.010249516926705837, -0.009564080275595188, 0.00495820352807641, 0.205912783741951, -0.012491598725318909, 0.0017456208588555455, 0.014477442018687725, 0.017078256234526634, 0.0356939435005188, 0.0017392148729413748, -0.0029867731500416994, -0.030646054074168205, 0.009166911244392395, -0.040716204792261124, 0.016142988577485085, -0.01888473518192768, 0.00891707930713892, 0.031594134867191315, -0.012773459777235985, -0.0113257160410285, -0.030107954517006874, -0.014900234527885914, 0.012600499205291271, 0.0035200684797018766, -0.02552129700779915, 0.00349764758720994, 0.007808850612491369, -0.00553473923355341, -0.00688639422878623, 0.010608249343931675, -0.0037154497113078833, 0.03876879811286926, 0.03820507228374481, 0.009211753495037556, 0.0014629584038630128, 0.0025223419070243835, 4.524200630839914e-05, -0.01108228974044323, 0.009589703753590584, -0.0101406155154109, -0.013183441013097763, 0.03379778191447258, 0.016091741621494293, -0.003949266858398914, -0.013465302996337414, -0.022958917543292046, 0.024060741066932678, -0.010505754500627518, -0.0022340742871165276, -0.00011780938802985474, 0.0016671479679644108, 0.0016735538374632597, 0.01783415861427784, -0.027827437967061996, -0.012485192157328129, 0.00010820046736625955, 0.04550785571336746, 0.011921469122171402, 0.0019137769704684615, 0.012408320792019367, -0.0027849858161062002, 0.011287280358374119, -0.0021475940011441708, -0.011979122646152973, 0.03487398102879524, -0.009058010764420033, 0.007962592877447605, -0.010659497231245041, -8.858225191943347e-05, -0.014554313383996487, 0.026366882026195526, 0.022010836750268936, -0.0034207762219011784, -0.010569813661277294, -0.021793033927679062, -0.018013525754213333, -0.002817015629261732, -0.004935782868415117, -0.013670292682945728, 0.018974417820572853, 0.00312610249966383, 0.03441275283694267, 0.011338528245687485, -0.016681088134646416, -0.007469335105270147, -0.012664559297263622, 0.0038691924419254065, 0.011851003393530846, -0.013836847618222237, 0.0045129903592169285, 0.009980467148125172, 0.0017792520811781287, -0.02463727630674839, -0.007296374533325434, -0.011421805247664452, 0.0030828623566776514, 0.009685792960226536, 0.008648029528558254, 0.0006470007356256247, 0.004625094588845968, 0.01924346759915352, -0.03774384409189224, 0.015438334085047245, 0.004189489874988794, 0.011646013706922531, 0.020383726805448532, -0.0075526125729084015, -0.02990296483039856, 0.02261299639940262, 0.01638641394674778, 0.0016895687440410256, 0.008539128117263317, -0.008564752526581287, -0.02890363708138466, -0.029134251177310944, 0.002495116787031293, -0.025341929867863655, 0.03420776128768921, 0.010211081244051456, 0.024855077266693115, -0.00553473923355341, 0.012273795902729034, -0.010211081244051456, -0.012280202470719814, -0.021472737193107605, 0.006120883394032717, -0.006636561825871468, 0.002727332292124629, -0.017103880643844604, -0.03095353953540325, 0.018474753946065903, 0.0006097661680541933, -0.026776861399412155, -0.002357388846576214, -0.010576220229268074, 0.01086448784917593, 0.00940393190830946, -0.023561077192425728, 0.0008567955228500068, -0.0113257160410285, 0.00962173379957676, 0.015668949112296104, 0.010044526308774948, -0.006764681078493595, -0.009371901862323284, -0.008270078338682652, -0.016719523817300797, 0.012619717046618462, -0.011799756437540054, 0.01204318180680275, 0.004048558883368969, 0.012754241935908794, -0.005887066014111042, -0.01586112752556801, 0.0016655464423820376, -0.04976140335202217, -0.03223472833633423, 0.018461942672729492, -0.006149710156023502, -0.011710072867572308, -0.025329118594527245, -0.0012179308105260134, 0.030722925439476967, -0.014797739684581757, 0.0011851004092022777, 0.03587330877780914, 0.002815414220094681, 0.006668591871857643, 0.018705368041992188, -0.16019994020462036, 0.03361841291189194, 0.020409349352121353, 0.014054649509489536, 0.01276705414056778, 0.0037570884451270103, 0.006098462268710136, -0.017167940735816956, -0.013554985634982586, 0.024970384314656258, 0.03226035460829735, 0.006860770285129547, -0.03174787759780884, -0.018077585846185684, -0.012555657885968685, -0.0009616929455660284, 0.011402587406337261, 0.017770100384950638, 0.022408006712794304, 0.018602872267365456, 0.008263672702014446, -0.03136352077126503, 0.014592749066650867, 0.007078572642058134, -0.0031485233921557665, 0.013452490791678429, -0.01423401664942503, 0.02174178697168827, 0.010031714104115963, -0.01779572293162346, -0.004378465469926596, -0.0008351754513569176, 0.04573846980929375, -0.038820043206214905, -0.0103584174066782, -0.007885721512138844, -0.007687137462198734, -0.015028353780508041, -0.021126816049218178, 0.01789821870625019, 0.011780538596212864, -0.010761992074549198, -0.0014533494831994176, -0.0328240767121315, 0.009737040847539902, 0.01352936215698719, 0.024355413392186165, -0.022984541952610016, -0.013798411935567856, -0.0009849144844338298, 0.008302108384668827, 0.003795524127781391, 0.03618079423904419, 0.007885721512138844, 0.0020098660606890917, 0.02792993374168873, 0.0037506825756281614, 0.02887801267206669, 0.004253549501299858, -0.001018545706756413, -0.014195580966770649, -0.012658152729272842, -0.005095931701362133, 0.005214441567659378, -0.015643324702978134, -0.0006902408786118031, -0.00966016948223114, 0.02312547154724598, -0.0032237933482974768, 0.00032710371306166053, 0.024701334536075592, -0.029826093465089798, 0.026725614443421364, -0.008859425783157349, 0.002192435786128044, -0.008033058606088161, -0.0040805889293551445, -0.02079370617866516, 1.845463521021884e-05, 0.01686045527458191, 0.005067104939371347, 0.03728261590003967, -0.019589388743042946, -0.02025560662150383, 0.015438334085047245, -0.0021283761598169804, -0.003657796187326312, 0.026418128982186317, -0.0037666973657906055, 0.008449445478618145, -0.014362134970724583, -0.03133789822459221, 0.011921469122171402, -0.015374274924397469, 0.014887423254549503, 0.020114677026867867, 0.006604532245546579, 0.005541144870221615, 0.00894270371645689, -0.0032830482814460993, 0.0050895255990326405, 0.008929891511797905, -0.039435014128685, 0.019986556842923164, 0.013157816603779793, 0.019871249794960022, -0.002993179252371192, 0.012837519869208336, 0.008763336576521397, 0.007232315372675657, 0.009256594814360142, 0.008968327194452286, 0.008654436096549034, 0.014861798845231533, -0.02268986776471138, -0.0012803887948393822, 0.027878684923052788, -0.022343946620821953, 0.023945434018969536, -0.009948437102138996, 0.026315633207559586, -0.02892926149070263, -0.007065760437399149, -0.004474554676562548, -0.0007831271504983306, -0.012927202507853508, -0.08717213571071625, -0.01349092647433281, 0.0045866589061915874, 0.030133578926324844, -0.015246155671775341, 0.022600185126066208, -0.008206019178032875, 0.0012331450125202537, 0.0009913204703480005, -0.00240543344989419, -0.04110056161880493, -0.006277828942984343, 0.01593799889087677, -0.01085808128118515, 0.05514239892363548, 0.013708728365600109, 0.011594765819609165, 0.0047532133758068085, -0.005102337338030338, 0.0005829412839375436, -0.0008391791488975286, 0.008814584463834763, -0.004862114321440458, -0.026238761842250824, 0.002350982977077365, -0.00031289050821214914, -0.033567167818546295, 0.014823363162577152, 0.018666932359337807, 0.016168612986803055, 0.003063644515350461, -0.008782554417848587, 0.0037763062864542007, -0.018602872267365456, 0.017706040292978287, -0.005390604957938194, -0.011133537627756596, -0.013567797839641571, 0.011216814629733562, -0.015399898402392864, -0.012555657885968685, -0.007712761405855417, 0.026366882026195526, -0.05831975117325783, -0.004205504897981882, -0.016514534130692482, -0.0038211478386074305, -0.004996639210730791, -0.0016911702696233988, -0.032644711434841156, -0.025700662285089493, -0.01792384311556816, -0.02652062475681305, -0.0002280117041664198, 0.020832141861319542, 0.015361462719738483, -0.009602515958249569, 0.02413761243224144, -0.0036385783459991217, 0.001090612611733377, -0.012658152729272842, -0.0024518766440451145, -0.016591405496001244, -0.005227253306657076, 0.0025864015333354473, 0.024240106344223022, -0.021049944683909416, -0.006249002180993557, -0.004724386613816023, 0.0037891182582825422, -0.02795555628836155, -0.01743699051439762, 0.0010641880799084902, -0.0013300349237397313, -0.027109971269965172, -0.015733007341623306, -0.02557254396378994, -0.01737293042242527, 0.0023077428340911865, -0.038461312651634216, -0.005435446742922068, -0.013542174361646175, 0.015592076815664768, -0.01586112752556801, 0.014080273918807507, 0.006835146341472864, -0.008084306493401527, -0.014144333079457283, 0.029621103778481483, -0.023420145735144615, 0.0048717232421040535, 0.019192220643162727, 0.03630891442298889, -0.031209778040647507, -0.0027545576449483633, 0.004436118993908167, 0.035975802689790726, -0.029672350734472275, -0.014349323697388172, 0.03131227195262909, -0.011453835293650627, -0.0013268319889903069, -0.06872300803661346, -0.0032606273889541626, 0.026315633207559586, -0.011761320754885674, -0.018077585846185684, 0.019935309886932373, 0.009474396705627441, 0.004794851876795292, 0.006232987158000469, 0.00544185284525156, -0.030697302892804146, -0.006796710658818483, 0.01837225817143917, -0.002752956235781312, -0.029723597690463066, -0.03912752866744995, 0.02992858923971653, 0.006418759934604168, 0.0023942231200635433, 0.017706040292978287, 0.009467991068959236, -0.011114319786429405, 0.031209778040647507, -0.010044526308774948, -0.043124839663505554, 0.001014541951008141, -0.014567125588655472, 0.019538141787052155, -0.01304891612380743, -0.004650718066841364, -0.0004376063297968358, -0.020434973761439323, -0.01834663562476635, 0.029339240863919258, 0.015348651446402073, -0.025367554277181625, -0.017039820551872253, 0.02222863957285881, -0.0007250732160173357, 0.03415651246905327, -0.03336217626929283, -0.020396538078784943, 0.0222158282995224, -0.021998025476932526, -0.00519842654466629, 0.002399027580395341, 0.014157145284116268, -0.0039364551194012165, 0.02178022265434265, 0.02754557691514492, 0.004282376263290644, 0.006329076364636421, 0.014310888014733791, -0.03479710966348648, 0.010922141373157501, 0.003946064040064812, -0.01584831438958645, 0.05350247770547867, 0.010627467185258865, -0.023356085643172264, 0.03033856861293316, 0.014426195062696934, 0.009077228605747223, -0.003146921982988715, 0.012055994011461735, -0.03341342508792877, -0.006777492817491293, -0.004016529303044081, 0.009314248338341713, -0.03674451634287834, -0.027186842635273933, 0.004605876747518778, 0.02413761243224144, 0.005877457093447447, -0.0004560234083328396, -0.007559018675237894, -0.005893472116440535, -0.022817986086010933, 0.006018388085067272, 0.04161303862929344, 0.011742102913558483, -0.0053521692752838135, -0.027109971269965172, 0.013414055109024048, 0.019909685477614403, -0.02116525173187256, 0.0003461213782429695, -0.009788288734853268, 0.008724900893867016, 0.024009492248296738, 0.006002373062074184, 0.003635375527665019, -0.0029083003755658865, 0.013157816603779793, -0.022100521251559258, -0.0022100519854575396, 0.012299420312047005, -0.01138336956501007, -0.014054649509489536, 0.012241766788065434, -0.011370557360351086, 0.009961249306797981, -0.009461585432291031, -0.04525161534547806, 0.0004199899558443576, -0.03710325062274933, -0.030184825882315636, -0.010217486880719662, 0.0038467717822641134, 0.021921154111623764, 0.0064507895149</t>
+  </si>
+  <si>
+    <t>[0.0010428166715428233, -0.004233329091221094, -0.014294018968939781, -0.02916293404996395, -0.0027291253209114075, 0.012000965885818005, -0.011622056365013123, -0.012902507558465004, -0.007401793263852596, -0.004452181980013847, -0.00015291104500647634, 0.008636514656245708, -0.021362634375691414, 0.005500714760273695, -0.021140513941645622, 0.002087266417220235, 0.025360777974128723, 0.0043247900903224945, -0.025609027594327927, -0.018880125135183334, -0.02417178638279438, 0.007754570804536343, -0.009021956473588943, 0.00884556770324707, -0.008172676898539066, -0.02171541005373001, 0.01472519151866436, -0.02793474681675434, 0.00010503703379072249, 0.018527347594499588, -0.020108314231038094, -0.014124163426458836, -0.027804087847471237, -0.0012143056374043226, 0.0019190439488738775, -0.01036120392382145, 0.020787736400961876, 0.007153542246669531, 0.0068334294483065605, 0.025047197937965393, 0.0053079938516020775, -0.00195497483946383, 0.014307084493339062, -0.026588965207338333, -0.010942633263766766, 0.04149707779288292, -0.008937028236687183, -0.0035800377372652292, -0.005461517255753279, -0.030260464176535606, 0.007872163318097591, 0.021310370415449142, -0.013562332838773727, -0.013281417079269886, -0.044815801084041595, -0.015561404637992382, 0.004654702264815569, -0.00026478723157197237, 0.000850912241730839, -0.030574044212698936, -0.0025756019167602062, -0.013627661392092705, -0.02043495886027813, 0.011863774619996548, -0.015247824601829052, -0.030495649203658104, -0.022786809131503105, -0.004782094154506922, -0.031462520360946655, -0.00026213322416879237, 0.027412112802267075, 0.026406044140458107, 0.01081850752234459, -0.016881054267287254, 0.009740577079355717, -0.02694174274802208, 0.013614595867693424, -0.0023469498846679926, 0.005304727237671614, 0.009322470054030418, 0.013085429556667805, -0.037603460252285004, 0.022238044068217278, 0.0327691026031971, 0.0010713981464505196, -0.004821291659027338, -0.021336501464247704, 0.0059972163289785385, -0.028065403923392296, -0.010923034511506557, 0.01607097126543522, 0.016397617757320404, 0.0009497225983068347, -0.0021983259357511997, -0.012621592730283737, 0.0004981348174624145, -0.0034526458475738764, 0.02279987558722496, 0.0008313134894706309, 0.003962213173508644, 0.007029416970908642, -0.01442467700690031, 0.0007349529769271612, -0.019925391301512718, -0.04753349348902702, -0.0309660192579031, -0.001416826038621366, -0.005000946577638388, 0.024720551446080208, -0.004070006310939789, -0.006601511035114527, 0.023335574194788933, 0.009727510623633862, -0.04157547280192375, 0.0071274107322096825, -0.00736259575933218, 0.01548300962895155, 0.014215623959898949, 0.033997293561697006, -0.003393849590793252, -0.005811028182506561, 0.007911360822618008, 0.005154470447450876, -0.016332289204001427, 0.030208200216293335, 0.008166144602000713, -0.01569206267595291, -0.017678068950772285, -0.01586191914975643, -0.014555335976183414, 0.011902972124516964, 0.00543538574129343, 0.01279798150062561, 0.010387335903942585, 0.016214696690440178, 0.03172383829951286, -0.02212045155465603, 0.039223622530698776, -0.020826933905482292, -0.03475511074066162, 0.025805015116930008, 0.003968745935708284, -0.00983203761279583, -0.0005838793003931642, -0.014006570912897587, 0.01473825704306364, 0.0036192352417856455, 0.014842784032225609, 0.004566507879644632, 0.0016217962838709354, 0.028117667883634567, -0.02916293404996395, 0.017390619963407516, -0.0030296395998448133, 0.03621848300099373, 0.011053692549467087, -0.028901617974042892, 0.0281960628926754, 0.008708376437425613, 0.00642185565084219, -0.02523011900484562, 0.02511252649128437, 0.017939385026693344, -0.00830333586782217, 0.022224977612495422, 0.017129303887486458, -0.006892225705087185, 0.007421392016112804, -0.025073328986763954, -0.006983686704188585, -0.005040144082158804, 0.03182836249470711, -0.020448025315999985, 0.01345780584961176, 0.004194131586700678, 0.030547913163900375, -0.009413931518793106, 0.018932389095425606, -0.01983393169939518, 0.0006410423084162176, -0.015300087630748749, -0.014973442070186138, 0.01918064057826996, 0.03287363052368164, -0.003140699118375778, 0.00993003137409687, 0.017573542892932892, 0.000353389885276556, 0.019036915153265, -0.024576827883720398, 0.0021003324072808027, 0.020513353869318962, 0.0005479482933878899, -0.01863187551498413, -0.6451384425163269, 0.010322006419301033, -0.026236187666654587, 0.005154470447450876, -0.016214696690440178, -0.004148401319980621, 0.02320491522550583, -0.0026050000451505184, -0.017769530415534973, -0.03378823772072792, -0.008388263173401356, 0.02137569896876812, 0.00507934158667922, -0.0042104641906917095, -0.028091536834836006, -0.014359348453581333, -0.009211410768330097, -0.018161505460739136, 0.01101449504494667, -0.0076696425676345825, -0.013379410840570927, -0.0017165235476568341, -0.014986507594585419, 0.0019517084583640099, -0.010099886916577816, 0.012196953408420086, 0.01113208755850792, -0.009838570840656757, 0.006846495438367128, 0.02619699016213417, -0.0354345329105854, 0.015509141609072685, -0.03384050354361534, -0.0075128525495529175, 0.045442961156368256, 0.008669178932905197, -0.03039112314581871, 0.028953881934285164, 0.014006570912897587, 0.019363561645150185, -0.0005781630170531571, 0.0029006144031882286, 0.01422868948429823, -0.023531561717391014, -0.0011824576649814844, 0.028744827955961227, 0.04034728556871414, 0.004769028164446354, 0.00013443514762911946, -0.002794454572722316, 0.007303799502551556, -0.005134871695190668, -0.018958520144224167, 0.007636978290975094, 0.018984653055667877, 0.003968745935708284, 0.050094395875930786, -0.014476940967142582, -0.006261799484491348, 0.010909968987107277, 0.015848852694034576, 0.004014476668089628, -0.009858169592916965, -0.014973442070186138, -0.0062911976128816605, -0.0030394389759749174, -0.0506170280277729, -0.008015886880457401, -0.0007418941822834313, 0.030260464176535606, 0.0026490972377359867, 0.018527347594499588, -0.015104100108146667, 0.006872626952826977, 0.0037400941364467144, 0.02277374267578125, -0.006108276080340147, -0.007336464244872332, 0.022407900542020798, 0.02299586310982704, 0.0029365455266088247, 0.003488576738163829, -0.014751323498785496, 0.016658933833241463, 0.012379874475300312, 0.007538984529674053, -0.018344426527619362, -0.0023665486369282007, 0.014816652052104473, 0.016136301681399345, 0.01583578623831272, 0.001711623859591782, -0.014006570912897587, -0.040451813489198685, -0.0033611850813031197, 0.03843967616558075, -0.010165216401219368, 0.011256213299930096, 0.02913680300116539, -0.02585727907717228, -0.008048552088439465, -0.008603849448263645, -0.01118435151875019, -0.006451253779232502, 0.021506357938051224, 0.01894545555114746, -0.03870099037885666, -0.011360740289092064, 0.03370984271168709, -0.04246395081281662, -0.001269018859602511, 0.025818081572651863, 0.0028761159628629684, -0.01454226952046156, -0.03433700278401375, -0.024119524285197258, 0.02248629555106163, 0.024184852838516235, -0.004298658575862646, -0.010668250732123852, 0.01001495961099863, 0.0009154247818514705, -0.012902507558465004, -0.010504928417503834, -0.005347191356122494, -0.007748037576675415, 0.0016234294744208455, -0.026014069095253944, -0.006026614457368851, 0.0014445909764617682, 0.003429780714213848, -0.007454056292772293, 0.025504501536488533, -0.004233329091221094, 0.02631458267569542, 0.032742973417043686, 0.01198789943009615, -0.008394796401262283, -0.005595441907644272, -0.018997717648744583, -0.017129303887486458, -0.0031684639398008585, 0.018932389095425606, -0.028013141825795174, -0.0005083424621261656, -0.025295449420809746, -0.042882055044174194, 0.002845084760338068, -0.01655440777540207, -0.0071600754745304585, -0.013065830804407597, -0.0053896550089120865, -0.01718156784772873, -0.004765762016177177, 0.005053210072219372, 0.016332289204001427, -0.02911067195236683, -0.022094320505857468, -0.0007561849779449403, -0.0005793879390694201, -0.003972012549638748, 0.011112488806247711, -0.02351849526166916, -0.016528276726603508, -0.00592862069606781, -0.002972476417198777, -0.024106457829475403, 0.002652363618835807, -0.006287930998951197, -0.023557692766189575, 0.00767617579549551, 0.0017295893048867583, 0.0010558824287727475, 0.029319724068045616, 0.023165717720985413, 0.0007026967359706759, -0.023322507739067078, -0.037394408136606216, -0.027987008914351463, -0.0033366866409778595, 0.020252037793397903, -0.015744326636195183, 0.0054647838696837425, -0.009420463815331459, 0.00920487754046917, 0.004788626916706562, 0.015613667666912079, -0.00830333586782217, -0.019337430596351624, 0.02793474681675434, 0.02539997547864914, -0.00014841966913081706, -0.012601993978023529, -0.018971586599946022, -0.015469944104552269, -0.006624376401305199, -0.004377053119242191, -0.00907421950250864, -0.021728476509451866, 0.014790520071983337, 0.01194216962903738, 0.007493253797292709, 0.025439172983169556, 0.004383586347103119, 0.005040144082158804, -0.029581040143966675, 0.017220765352249146, -0.009021956473588943, 0.04094831272959709, -0.029868489131331444, -0.007636978290975094, -0.018070043995976448, -0.02000378631055355, 0.007617379538714886, -0.00569996889680624, 0.012445203959941864, 0.008146545849740505, -0.01614936627447605, -0.006800765171647072, 0.0019941723439842463, 0.023636087775230408, 0.004226796329021454, 0.01441161148250103, 0.013627661392092705, -0.016423748806118965, 0.008009354583919048, -0.0072515360079705715, 0.02725532278418541, -0.013301015831530094, -0.029293593019247055, -0.00013157700595911592, 0.01655440777540207, -0.004347654990851879, 0.010615987703204155, 0.009727510623633862, 0.024406971409916878, -0.0014454075135290623, -0.02405419386923313, 0.01923290267586708, -0.007107811979949474, 0.0014960375847294927, 0.016907185316085815, 0.004070006310939789, 0.0003527774242684245, 0.0017965517472475767, -0.011151686310768127, 0.038936175405979156, 0.00543538574129343, 0.00045444592251442373, -0.006898758467286825, -0.01279798150062561, -0.0210882518440485, -0.010596388950943947, 0.0071600754745304585, 0.00642185565084219, -0.02040882781147957, 0.013732188381254673, -0.0010077022016048431, 0.0014821551740169525, 0.001558916992507875, 0.010380802676081657, 0.0020399028435349464, 0.017299160361289978, 0.006294464226812124, 0.01184417586773634, 0.016057906672358513, 0.0016144467517733574, 0.007199272979050875, -0.023871272802352905, -0.01583578623831272, -0.008930495008826256, -0.004350921604782343, 0.001272285240702331, -0.006307529751211405, 0.004295391961932182, -0.02214658260345459, -0.008336000144481659, 0.01279798150062561, -0.007885228842496872, 0.03415408357977867, 0.016044840216636658, -0.022420965135097504, -0.004357454366981983, 0.025674358010292053, 0.006418589502573013, -0.01631922274827957, -0.022786809131503105, 0.00480822566896677, -0.040739260613918304, 0.006768100429326296, -0.018030846491456032, 0.026301518082618713, -0.03504255786538124, 0.002812420018017292, -0.013131160289049149, -0.0287970919162035, 0.005108739715069532, -0.018880125135183334, 0.013497003354132175, 0.010491861961781979, 0.004667768254876137, -0.004004677291959524, -0.009453129023313522, -0.013549266383051872, 0.017246896401047707, -0.013823648914694786, 0.004550175741314888, 0.005177335347980261, 0.0006565580260939896, 0.009492326527833939, -0.010152150876820087, 0.0024335109628736973, -0.010393868200480938, -0.009283272549510002, 0.010498395189642906, 0.015104100108146667, 0.00256090285256505, 0.00959032028913498, 0.017926320433616638, -0.0022113919258117676, 0.00593515345826745, -0.029554909095168114, -0.004363987594842911, -0.014385479502379894, 0.06757647544145584, 0.001291067455895245, 0.008564651943743229, 0.010798908770084381, 0.004004677291959524, 0.02017364278435707, -0.02528238296508789, 0.011386871337890625, 0.010308940894901752, 0.00928980577737093, 0.018331360071897507, -0.0038674860261380672, 0.013007034547626972, 0.0073168654926121235, -0.0019239436369389296, 0.0006083777407184243, -0.006794231943786144, 0.008623448200523853, 0.027751823887228966, 0.0307308342307806, -0.00615073973312974, 2.1882715373067185e-06, 0.007277667988091707, 0.022211913019418716, 0.027804087847471237, -0.006056012585759163, 0.006617843173444271, -0.008401329629123211, -0.005664037540555, -0.03316107764840126, -0.006095210090279579, 0.009172213263809681, -0.005628106649965048, -0.00930287130177021, 0.00619973661378026, 0.005010745953768492, 0.007075147237628698, 0.016502143815159798, 0.009368200786411762, -0.009479260072112083, 0.030547913163900375, 0.013536200858652592, 0.005637906026095152, 0.00444564875215292, 0.02034349925816059, -0.013575398363173008, -0.009570721536874771, 0.013588463887572289, 0.004782094154506922, -0.02845737896859646, 0.04813452064990997, -0.02511252649128437, -0.005817561410367489, -0.0204872228205204, 0.015430746600031853, -0.01872333511710167, 0.016907185316085815, 0.015901116654276848, -0.02231643907725811, 0.027333717793226242, -0.0034428464714437723, -0.02653670310974121, -0.00048302742652595043, -0.014555335976183414, -0.0215716864913702, -0.008629981428384781, -0.02202899008989334, 3.804912921623327e-05, -0.03402342274785042, -0.0243416428565979, -0.016763461753726006, -0.015901116654276848, -0.017874056473374367, -0.004086338449269533, 0.015195561572909355, -0.0033219875767827034, 0.027960877865552902, -0.0011628589127212763, 0.003478777362033725, 0.025974871590733528, -0.002410645829513669, -0.008643046952784061, -0.016371486708521843, -0.028431247919797897, -0.007009818218648434, 0.02065707929432392, 0.012765316292643547, -0.02149329148232937, -0.025974871590733528, 0.012092426419258118, -0.005503981374204159, 0.011079824529588223, -0.009760175831615925, -0.005637906026095152, 0.002859783824533224, -0.004527310375124216, 0.01486891508102417, -0.008917429484426975, -0.009329003281891346, -0.019128376618027687, 0.003687830874696374, 0.000422597979195416, -0.008355598896741867, -0.000705146580003202, 0.016815723851323128, 0.002686661435291171, 0.009093818254768848, -0.018252965062856674, 0.009250608272850513, 0.005298194475471973, 0.009309404529631138, -0.03943267837166786, 0.008153078146278858, -0.015535272657871246, -0.03352692350745201, 0.0024825078435242176, -0.007062081713229418, 0.028431247919797897, 0.024785881862044334, -0.011354207061231136, -0.033370133489370346, -0.014777454547584057, 0.015652865171432495, 0.03752506524324417, -0.01997765526175499, 0.015378482639789581, -0.027333717793226242, -0.0028663165867328644, 0.005948219448328018, 0.0011824576649814844, -0.0014666394563391805, 0.020056050270795822, -0.01162858959287405, -0.03661045804619789, -0.004014476668089628, -0.018932389095425606, 0.0008754106820560992, 0.030626308172941208, -0.026497505605220795, -0.00938779953867197, -0.036453668028116226, 0.04424090310931206, -0.024616025388240814, -0.014476940967142582, -0.02691561169922352, -0.024642156437039375, -0.021702345460653305, -0.029999148100614548, 0.002420445205643773, 0.019193705171346664, 0.009903899393975735, 0.006023347843438387, 0.01279798150062561, -0.009296339005231857, 0.0012224718229845166, -0.0232571791857481, -0.017273029312491417, -0.013170357793569565, 0.006787699181586504, 0.007558583281934261, 0.03256005048751831, 0.02311345562338829, 0.030286595225334167, 0.015561404637992382, -0.026523636654019356, -0.0030247399117797613, -0.011243147775530815, -0.0013376144925132394, -0.04654049128293991, 0.01580965518951416, -0.0015115533024072647, 0.025752753019332886, -0.020395761355757713, -0.012693454511463642, -0.023753680288791656, -0.0054647838696837425, 0.009760175831615925, -0.013666858896613121, -0.019141443073749542, -0.02947651408612728, -0.027333717793226242, 0.0027862885035574436, -0.011765780858695507, -0.011563260108232498, -0.020983723923563957, 0.0011996065732091665, 0.025517567992210388, -0.007035949733108282, 0.013176890090107918, -0.005811028182506561, 0.006500250659883022, -0.049754682928323746, 0.039850782603025436, 0.006898758467286825, 0.004429316613823175, -0.0010591489262878895, -0.005347191356122494, -0.015509141609072685, -0.017965517938137054, 0.0007790501695126295, 0.014045768417418003, -0.02086613141000271, -0.0009701379458419979, -0.01032853964716196, -0.023074258118867874, 0.008440527133643627, -0.012131623923778534, -0.017050908878445625, -0.00426599383354187, -0.02887548692524433, -0.020252037793397903, -0.00884556770324707, -0.02060481533408165, 0.008420928381383419, 0.008140012621879578, 0.02368835173547268, -0.004344388842582703, 0.024184852838516235, 0.0009685046970844269, -0.03561745584011078, 0.025530632585287094, -0.014202558435499668, 0.03070470318198204, 0.002111764857545495, 0.023008927702903748, 0.015561404637992382, -0.008597317151725292, 0.004047140944749117, 0.03538227081298828, 0.008068150840699673, -0.0023877806961536407, 0.010152150876820087, 0.018658006563782692, 0.007186206988990307, -0.00808774959295988, 0.004902952816337347, 0.016841856762766838, 0.001576065900735557, 0.00017761363415047526, 0.03480737283825874, 0.035852640867233276, -0.004334589466452599, -0.026249254122376442, 0.004706965759396553, 0.009858169592916965, 0.004657968878746033, -0.01058985572308302, -0.0063009969890117645, -0.04113123565912247, -0.021140513941645622, -0.020787736400961876, 0.018514283001422882, -0.02913680300116539, 0.01230147946625948, -0.009740577079355717, 0.0013351646484807134, 0.038596466183662415, -0.02468135394155979, -0.03504255786538124, 0.012203485704958439, -0.0012192053254693747, 0.012628125958144665, 0.005213266704231501, -0.017965517938137054, 0.010387335903942585, -0.0013343479949980974, -0.005183868575841188, 0.010877303779125214, 0.024864276871085167, 0.025465304031968117, 0.0007806834182702005, -0.004661235027015209, 0.014516138471662998, 0.005033611319959164, 0.02662816271185875, -0.016057906672358513, -0.0010158683871850371, 0.030756965279579163, -0.011922570876777172, -0.027673428878188133, -0.019154507666826248, -0.017730332911014557, 0.011837642639875412, -0.008825968950986862, -0.009146081283688545, -0.015339285135269165, 0.000703513331245631, 0.0012175721349194646, 0.016110168769955635, -0.01923290267586708, -0.007473655045032501, -0.019507285207509995, -0.006581912282854319, 0.024132588878273964, -0.011556727811694145, 0.008590783923864365, 0.03342239558696747, 0.02762116678059101, -6.634992314502597e-05, 0.0015793322818353772, 0.012732652015984058, 0.006670106668025255, 0.0025756019167602062, -0.019415823742747307, 0.01969020627439022, -0.013124627061188221, 0.011491398327052593, -0.00821840763092041, -0.01439854595810175, -0.0021607617381960154, 0.001434791600331664, 0.0011073291534557939, 0.012079360894858837, -0.028431247919797897, -0.002995341783389449, -0.01408496592193842, 0.007218871731311083, -0.0034624452237039804, -0.012504000216722488, 0.03316107764840126, 0.008649580180644989, -0.013039698824286461, 0.027751823887228966, -0.004746163263916969, 0.012654257006943226, 0.04026889055967331, 0.009433530271053314, 0.012164288200438023, -0.05539912357926369, -0.017103172838687897, 0.005304727237671614, -0.0014780721394345164, -0.0072842007502913475, 0.0024727084673941135, -0.02294359914958477, 0.012321078218519688, -0.028013141825795174, 0.02060481533408165, 0.007558583281934261, -0.019167574122548103, 0.022904401645064354, 0.009283272549510002, -0.004181066062301397, 0.030913755297660828, -0.025987938046455383, -0.004086338449269533, -0.004236595705151558, -0.024393906816840172, -0.014045768417418003, -0.012490934692323208, -0.03370984271168709, 0.02080080285668373, 0.005366790108382702, -0.0036486333701759577, -0.004533843137323856, 0.0196379441767931, -0.038282886147499084, 0.010831573978066444, 0.002154228975996375, 0.014385479502379894, 0.0201213788241148, 0.03987691551446915, 0.015535272657871246, -0.004520777612924576, -0.004514244385063648, 0.02296973019838333, -0.026784952729940414, 0.016528276726603508, 0.026392977684736252, -0.02822219394147396, -0.003348119091242552, -0.014463874511420727, -0.028091536834836006, -0.017795661464333534, 0.01566593162715435, 0.001429075258783996, 0.016685066744685173, 0.015456877648830414, 0.00812041386961937, -0.0030084075406193733, 0.008649580180644989, -0.012412539683282375, 0.0017165235476568341, 0.012830645777285099, 0.018814796581864357, -0.03621848300099373, 0.008381730876863003, -0.00395241379737854, 0.014568401500582695, 0.0005552978254854679, 0.003112934296950698, -0.005147937219589949, 0.005370056256651878, -0.010694382712244987, -0.008107348345220089, 0.000106874416815117, 0.0024727084673941135, 0.002951244590803981, 0.014790520071983337, 0.02000378631055355, -0.005063009448349476, 0.006496984511613846, 0.026288451626896858, -0.00830333586782217, -0.00592208793386817, 0.008055084384977818, -0.045103248208761215, -0.027804087847471237, -0.0038838181644678116, -0.03749893605709076, 0.0038609530311077833, -0.014908112585544586, 0.02479894645512104, -0.02188526652753353, 0.003080269554629922, -0.025360777974128723, -0.0003399157430976629, -0.01485584955662489, 0.017560476437211037, 0.02419791929423809, -0.026092464104294777, 0.007957090623676777, 0.0037302947603166103, 0.011419536545872688, -0.031070545315742493, -0.019899260252714157, -0.024276314303278923, -0.02183300256729126, -0.0058502256870269775, -0.011537129059433937, -0.035539060831069946, -0.014215623959898949, -0.003991611301898956, 0.002802620641887188, 0.00048670219257473946, -0.007062081713229418, 0.21198004484176636, -0.002283253939822316, -0.017286093905568123, 0.006879160180687904, -0.0031341661233454943, 0.0034918433520942926, -0.008571185171604156, 0.013941241428256035, -0.02754277177155018, 0.016763461753726006, -0.026863347738981247, 0.011804978363215923, 0.0028859153389930725, 0.009662182070314884, 0.020382696762681007, -0.007062081713229418, -0.014516138471662998, -0.030521780252456665, -0.010877303779125214, -0.02268228307366371, 0.0076696425676345825, -0.0057685645297169685, -0.0019092445727437735, 0.003478777362033725, -0.011112488806247711, -3.5395132726989686e-05, 0.014568401500582695, 0.006846495438367128, 0.07160075008869171, 0.021650081500411034, 0.0140980314463377, 0.012471335940063, 0.013510068878531456, 0.002972476417198777, -0.009577253833413124, 0.010805441997945309, -0.012909040786325932, -0.013601530343294144, 0.024184852838516235, 0.02453763037919998, -0.018697204068303108, -0.01754740998148918, -0.021075185388326645, 0.016018709167838097, -0.0035767711233347654, 0.02699400670826435, -0.017168501392006874, -0.003694363636896014, 0.017416752874851227, 0.006376125384122133, -0.021166646853089333, 0.0059547522105276585, 0.015874983742833138, 0.026275385171175003, 0.009962695650756359, -0.027699561789631844, 0.007721906062215567, -0.0016250626649707556, 0.0013400642201304436, 0.00889129750430584, -0.03595716506242752, 0.022786809131503105, -0.009198345243930817, 0.010877303779125214, 0.000706779770553112, -0.0019076112657785416, -0.0496501587331295, 0.022329505532979965, 0.0037172287702560425, -0.027176927775144577, 0.008603849448263645, 0.003374250838533044, -0.009779774583876133, -0.013281417079269886, -0.009191812016069889, -0.002547837095335126, 0.0388055182993412, -0.00010217887756880373, 0.017416752874851227, 0.007173140998929739, -0.019115310162305832, -0.007754570804536343, 0.012902507558465004, 0.001977840205654502, 0.013810583390295506, 0.0028842822648584843, 0.0016217962838709354, 0.010759711265563965, -0.010563724674284458, -0.01600564271211624, 0.008322934620082378, -0.01087077148258686, 0.012536664493381977, 0.035173214972019196, 0.014751323498785496, 0.010080288164317608, 0.0010950799332931638, 0.03258618339896202, -0.018226834014058113, 0.014973442070186138, -0.01091650128364563, -0.005781630054116249, 0.023035060614347458, 0.006872626952826977, -0.01872333511710167, 0.036061692982912064, 0.0028320187702775, -0.0036290346179157495, -0.009093818254768848, -0.02046109177172184, -0.024328576400876045, -0.0139151094481349, -0.01780872792005539, -0.009583787061274052, 0.030182069167494774, 0.018880125135183334, 0.02537384442985058, -0.011622056365013123, 0.0013433307176455855, -0.0012036897242069244, 0.007323398254811764, -0.010478796437382698, 0.000986470258794725, 0.01549607515335083, -0.018644940108060837, -0.007401793263852596, -0.03909296542406082, 0.01569206267595291, -0.0020382695365697145, -0.04740283265709877, 0.010537592694163322, -0.02251242659986019, 0.01486891508102417, 0.013392476364970207, -0.015104100108146667, 0.03127959743142128, 0.005252464208751917, -0.00141600938513875, 0.004589373245835304, 0.003965479787439108, -0.003390583209693432, 0.0074409907683730125, 0.02619699016213417, -0.014006570912897587, -0.0038838181644678116, -0.0008623448084108531, 0.00040667399298399687, 0.0039034169167280197, 0.00056713871890679, -0.00820534210652113, -0.005020545329898596, -0.02699400670826435, 0.004674301017075777, -0.04113123565912247, 0.03185449540615082, -0.005696702282875776, 0.0006177687901072204, -0.018056977540254593, -0.008871698752045631, 0.01586191914975643, -0.018514283001422882, -0.009551122784614563, 0.04680180549621582, -0.004256194457411766, -0.007467122282832861, 0.0038674860261380672, -0.16442041099071503, 0.03681951016187668, 0.012595460750162601, 0.005967818200588226, 0.031148940324783325, 0.014960376545786858, 0.00927674025297165, 0.018566545099020004, -0.019468087702989578, 0.02128423936665058, 0.0060396804474294186, 0.02185913547873497, -0.04207197576761246, -0.004429316613823175, -0.006859561428427696, -0.0046285707503557205, -0.005912288557738066, 0.012732652015984058, 0.01535235159099102, 0.01101449504494667, 0.0009603385697118938, -0.017338357865810394, 0.0177172664552927, -0.009152614511549473, 0.0003003099700435996, -0.00017332640709355474, -0.006715836934745312, 0.01720769889652729, -0.004399918485432863, -0.008179210126399994, -0.011053692549467087, 0.023361705243587494, 0.026406044140458107, -0.015221692621707916, -0.01411109697073698, 0.008793303743004799, -0.029946884140372276, -0.0034265141002833843, -0.016881054267287254, 0.008407861925661564, 0.01439854595810175, -0.0028793825767934322, -0.006474119145423174, -0.03313494846224785, -0.024616025388240814, 0.0419413186609745, 0.009217943996191025, -0.020565617829561234, 0.012210018932819366, 0.005598708521574736, 0.03938041254878044, -0.007937491871416569, 0.0064577870070934296, -0.0012469702633097768, 0.005379855632781982, 0.028431247919797897, 0.009466194547712803, 0.030783098191022873, -0.0029120470862835646, -0.005765297915786505, 0.01067478395998478, -0.02366221882402897, 0.0086169159039855, 0.013392476364970207, 0.010387335903942585, -0.019285166636109352, -0.002667062683030963, 0.024433104321360588, -6.211373693076894e-05, -0.007264601998031139, 0.0052753291092813015, -0.029973015189170837, -0.018252965062856674, -0.020709341391921043, 0.008780238218605518, 0.027124665677547455, -0.008244539611041546, -0.00821840763092041, -0.009453129023313522, 0.0014748056419193745, 0.011824577115476131, 0.034911900758743286, -0.015456877648830414, -0.029816225171089172, -0.005562777630984783, -0.008799836970865726, -0.005249197594821453, 0.016711197793483734, 0.006065811961889267, 0.008074683137238026, 0.004726564511656761, -0.02585727907717228, 0.027464376762509346, -0.005007479805499315, 0.019102245569229126, 0.01949421875178814, -0.010354670695960522, -0.0026262321043759584, -0.01569206267595291, -0.012523598968982697, -0.007630445063114166, 0.0028712162747979164, -0.03807383030653, 0.015417680144309998, 0.0228913351893425, 0.023623021319508553, 0.017416752874851227, 0.016881054267287254, 0.03504255786538124, 0.02017364278435707, 0.003235426265746355, 0.005533379502594471, 0.0077023073099553585, 0.0036323009990155697, -0.024498432874679565, -8.150832582032308e-05, 0.03188062831759453, -0.015313154086470604, 0.01516942959278822, -0.009779774583876133, 0.03381437063217163, -0.014490006491541862, -0.006781166419386864, -0.011778846383094788, -0.036453668028116226, -0.00791789311915636, -0.10280195623636246, -0.01624082773923874, 0.014437743462622166, 0.028300588950514793, -0.0019043448846787214, 0.011706984601914883, -0.009479260072112083, 0.009956163354218006, 0.000568771967664361, 0.0027046268805861473, -0.029659435153007507, -0.008551586419343948, 0.012850244529545307, 0.008355598896741867, 0.031802233308553696, 0.007421392016112804, -0.010295874439179897, 0.00758471479639411, 0.008865166455507278, -0.012889442034065723, -0.019677141681313515, 0.003233793191611767, -0.0026164327282458544, -0.023387838155031204, 0.010426533408463001, -0.01894545555114746, -0.023936601355671883, 0.03193289041519165, 0.02845737896859646, 0.002933278912678361, -0.007525918539613485, -0.02979009412229061, -0.00028867321088910103, -0.00831640139222145, 0.012647724710404873, -0.017129303887486458, -0.006526382640004158, -0.026079397648572922, 0.008336000144481659, -0.0011800078209489584, 0.00727113476023078, 0.0012943338369950652, 0.027385981753468513, -0.027020137757062912, 0.0060298810712993145, 0.0056215738877654076, -0.010609454475343227, 0.024785881862044334, 0.013601530343294144, -0.009283272549510002, -0.021532488986849785, -0.026811085641384125, -0.020382696762681007, -0.02400193177163601, 0.027333717793226242, 0.0026409311685711145, -0.006036413833498955, -0.005412520375102758, -0.029894620180130005, -0.018801730126142502, 0.019115310162305832, 0.018853994086384773, -0.0030884358566254377, -0.0030296395998448133, 0.018540414050221443, -0.00930287130177021, -0.02754277177155018, -0.0026311317924410105, 0.011916037648916245, -0.009355135262012482, 0.018527347594499588, -0.01660667173564434, -0.016084037721157074, 0.00258213491179049, -0.022786809131503105, 0.006581912282854319, -0.012778382748365402, -0.0118703069165349, -0.011974833905696869, -0.018814796581864357, -0.0011759247863665223, -0.014659862034022808, 0.01218388695269823, 0.0011922570411115885, 0.024393906816840172, 0.023440100252628326, 0.011053692549467087, -0.007748037576675415, 0.014947310090065002, -0.02328331023454666, 0.012974370270967484, 0.03172383829951286, 0.030756965279579163, -0.019507285207509995, -0.018135372549295425, 0.03167157247662544, 0.014568401500582695, -0.003212561132386327, -0.012739185243844986, 0.005069542210549116, -0.006951021961867809, -0.020369630306959152, -0.07515466213226318, -0.00038891262374818325, 0.004207197576761246, 0.0020497022196650505, 0.002990442095324397, 0.0029202131554484367, 0.005984150338917971, -0.00735606299713254, -0.005801228806376457, 0.021140513941645622, -0.025125592947006226, 0.012889442034065723, 0.02508639544248581, -0.0048572225496172905, -0.02419791929423809, -0.02034349925816059, 0.013098495081067085, 0.006996752228587866, -0.004831091035157442, 0.013078896328806877, -0.017887122929096222, -0.006095210090279579, 0.006441454403102398, 0.038883913308382034, -0.03807383030653, 0.018880125135183334, -0.02600100263953209, 0.01826603151857853, -0.006608043797314167, 0.003808689769357443, 0.025386909022927284, -0.03634914010763168, -0.0034428464714437723, 0.03600943088531494, -0.00020190791110508144, -0.03755119815468788, -0.021846069023013115, 0.014372413977980614, 0.014581467024981976, 0.040425680577754974, -0.0142809534445405, -0.020526420325040817, 0.02950264699757099, 0.0023224514443427324, 0.011236614547669888, 0.001845548627898097, 0.00908728502690792, 0.00993003137409687, 0.01978166773915291, -0.0018292163731530309, 0.0015050204237923026, 0.00884556770324707, 0.031802233308553696, -0.0354345329105854, -0.013483937829732895, 0.01689411886036396, -0.014006570912897587, 0.05367443338036537, 0.002415545517578721, 0.005984150338917971, 0.03467671573162079, 0.018239900469779968, 0.0026948275044560432, -0.00033174961572512984, 0.035748112946748734, -0.026157792657613754, -0.002957777353003621, 0.008166144602000713, 0.0089762257412076, -0.03538227081298828, -0.019298233091831207, -0.005236131604760885, 0.01141300331801176, 0.018370557576417923, -0.004017742816358805, -0.0024465767201036215, 0.003406915348023176, -0.02619699016213417, -0.00256090285256505, 0.028405116870999336, 0.018671073019504547, -0.007467122282832861, 0.003991611301898956, 0.02219884656369686, 0.015770457684993744, -0.021323436871170998, 0.011177818290889263, 0.003403648966923356, 0.02185913547873497, 0.0139151094481349, 0.018501216545701027, 0.019363561645150185, 0.017847925424575806, 0.0033040218986570835, 0.019154507666826248, -0.0050466773100197315, -0.021075185388326645, -0.001417642692103982, 0.008257605135440826, 0.031096678227186203, -0.013928175903856754, 0.013679925352334976, -0.0196379441767931, -0.027987008914351463, -0.011563260108232498, 0.02908453904092312, -0.019755536690354347, -0.013823648914694786, 0.006229134742170572, 0.01473825704306364, -0.0005071175401099026, 0.01269998773932457, 0.009825504384934902, 0.012249216437339783, 0.01460759900510</t>
+  </si>
+  <si>
+    <t>[-0.006188966333866119, 0.00916161946952343, 0.003110727062448859, -0.033969465643167496, -0.014775548130273819, 0.03999923914670944, -0.033969465643167496, -0.007257821969687939, 0.01194259338080883, -0.014554629102349281, 0.003632159670814872, -0.016997728496789932, -0.011026430875062943, -0.004697766620665789, -0.015555259771645069, 0.008895217441022396, 0.0256655290722847, 0.0032829137053340673, -0.00720584113150835, -0.023222431540489197, -0.005493722856044769, 0.010870489291846752, 0.006292928010225296, -0.01320312824100256, 0.005974545609205961, -0.014541634358465672, 0.04319605976343155, -0.029914962127804756, -0.0038238391280174255, -0.0002499546390026808, 0.0018924267496913671, -0.015581250190734863, -0.01594511605799198, -0.006078507285565138, -0.02561354823410511, -0.0018599387258291245, 0.030980568379163742, -0.012007568962872028, 0.01100693829357624, -0.012429913505911827, 0.015451299026608467, 0.00019381129823159426, 0.017153671011328697, -0.02563953958451748, 0.001323074335232377, 0.01983068324625492, 0.024158086627721786, 0.014229749329388142, -0.00676400400698185, 0.019921649247407913, -0.019011985510587692, 0.024976784363389015, -0.007433257065713406, 0.004018767271190882, -0.02851147949695587, -0.037114303559064865, -0.01920691318809986, 0.012546869926154613, 0.03321574255824089, -0.031838253140449524, -0.010883484035730362, -0.02981100045144558, -0.015750188380479813, 0.013748927041888237, -0.0270560160279274, -0.011819139122962952, -0.021650010719895363, -0.005263058003038168, -0.012170009315013885, -0.015750188380479813, 0.028147613629698753, 0.02949911542236805, -0.0006988983368501067, -0.0070304060354828835, 0.021818948909640312, -0.015139413997530937, 0.013281099498271942, 0.028069643303751945, 0.01659487746655941, 0.0204804427921772, -0.009564470499753952, -0.013372065499424934, 0.005230569746345282, 0.02674413099884987, 0.007017410825937986, 0.010409158654510975, 0.024041129276156425, 0.014567624777555466, 0.01772546023130417, 0.0036516524851322174, -0.00853784941136837, 0.00948649924248457, 0.006494353525340557, -0.013099166564643383, -0.0149184949696064, 0.00257467501796782, 0.0021458331029862165, -0.0011395170586183667, -0.018908023834228516, 0.0011062168050557375, 0.011279838159680367, 0.010116767138242722, -0.010701551102101803, -0.020155562087893486, -0.0614413283765316, -0.015750188380479813, 0.009363044984638691, -0.017452560365200043, 0.01966174505650997, 0.0013506890973076224, -0.03012288548052311, 0.019037974998354912, -0.00657232478260994, -0.0388556607067585, -0.010220728814601898, -0.00760869262740016, 0.018258262425661087, 0.013372065499424934, 0.045795101672410965, -0.00682248268276453, 0.018479181453585625, 0.02975901961326599, 0.0011265218490734696, -0.028615441173315048, 0.054787784814834595, 0.020350491628050804, -0.022169819101691246, -0.013605979271233082, -0.03165631741285324, -0.010941962711513042, 0.003817341523244977, -0.0006456992705352604, 0.00626043975353241, -0.00368414050899446, -0.0046945177018642426, 0.0023261415772140026, -0.017920387908816338, 0.0007614378118887544, -0.01934986002743244, -0.023729244247078896, 0.020779332146048546, 0.014671586453914642, -0.014528638683259487, -0.008654806762933731, -0.01092247013002634, 0.033371686935424805, -0.008420892991125584, 0.021260155364871025, 0.008122002705931664, -0.018856042996048927, 0.020272519439458847, -0.02697804570198059, -0.0034469780512154102, 0.00846637599170208, 0.0038465806283056736, -0.00330078206025064, -0.024937797337770462, -0.0024430984631180763, -0.0079010846093297, 0.016153039410710335, -0.006770501844584942, 0.037140294909477234, 0.010155752301216125, -0.02887534536421299, 0.022910546511411667, 0.011091407388448715, -0.010448144748806953, 0.018765075132250786, -0.012494889087975025, 0.01296271663159132, 0.0135280080139637, 0.011767158284783363, -0.022845569998025894, -0.004983661230653524, 0.0007557523786090314, 0.041792578995227814, -0.0180373452603817, 0.00859632808715105, -0.019466817378997803, 0.008102510124444962, -0.007738644722849131, -0.01656888611614704, 0.028485488146543503, 0.028667422011494637, -0.013476027175784111, 0.009570968337357044, -0.001118399784900248, -0.000672095746267587, 0.005350775551050901, -0.016542896628379822, 0.004298164043575525, 0.0027062513399869204, -0.013424046337604523, -0.02765379659831524, -0.6532949209213257, -0.006757506635040045, -0.005561947822570801, 0.007465745322406292, 0.016646858304739, 0.0006424504681490362, 0.016724828630685806, 0.004086991772055626, -0.022104842588305473, -0.02482084184885025, 0.0007049898849800229, 0.03233207017183304, -0.0015927248168736696, 0.00534102926030755, -0.027082007378339767, -0.004223441705107689, -0.011981578543782234, -0.042026493698358536, 0.0016601374372839928, 0.004028513561934233, -0.009057657793164253, 0.02226078510284424, -0.015451299026608467, 0.010662565939128399, -0.009661935269832611, -0.0009843867737799883, 0.013852888718247414, -0.006231200881302357, -0.022754603996872902, 0.007472242694348097, -0.04314408078789711, 0.013865883462131023, -0.011000441387295723, 0.012429913505911827, 0.03407342731952667, 0.008986184373497963, -0.022754603996872902, 0.03753015026450157, 0.014268734492361546, 0.025717509910464287, 0.002261165762320161, 0.017478549852967262, 0.018622128292918205, -0.028121624141931534, 0.007810118142515421, 0.009661935269832611, 0.0375041626393795, -0.0001272108784178272, -0.002449596067890525, -0.03134443238377571, -0.0035704325418919325, -0.0007675293018110096, 0.013761921785771847, 0.011897110380232334, 0.003781604580581188, 0.00877826102077961, 0.023014508187770844, 0.005058383569121361, -0.0009291571332141757, -0.00298889703117311, -0.01111739780753851, 0.003420987632125616, -0.018375219777226448, -0.021974891424179077, 0.004317656625062227, -0.011897110380232334, -0.024599922820925713, 0.006796492263674736, -0.004372886382043362, 0.0018339483067393303, -0.0022579168435186148, 0.027757758274674416, -0.024859827011823654, -0.00010350477532483637, 0.02028551511466503, 0.008122002705931664, 0.0027972178068012, -0.0223777424544096, -0.0012304834090173244, 0.022598661482334137, 0.011838631704449654, 0.009116136468946934, -0.010643072426319122, -0.0030067656189203262, 0.024742869660258293, -0.0038888149429112673, -0.008654806762933731, 0.001973646692931652, 0.0270560160279274, 0.01351501327008009, -0.010779522359371185, 0.008797753602266312, 0.0005596060073003173, -0.03999923914670944, 0.003433982841670513, 0.02563953958451748, 0.02201387658715248, 0.04662679508328438, -0.005945306271314621, -0.03157834708690643, -0.027263939380645752, 0.0006534151616506279, 0.010513120330870152, -0.0024853330105543137, 0.0028508231043815613, 0.004363140091300011, -0.037062324583530426, -0.00846637599170208, 0.031214481219649315, -0.013450036756694317, -0.015893135219812393, -0.0015253121964633465, -0.00014061217370908707, -0.0010331188095733523, -0.017686473205685616, -0.026874084025621414, 0.006945936940610409, 0.015308351255953312, 0.014541634358465672, 0.014996466226875782, 0.011292832903563976, 0.006621056701987982, 0.004005772061645985, -0.022715618833899498, -0.0033560115844011307, 0.01889502815902233, 0.025392631068825722, -0.037062324583530426, -0.030798636376857758, -0.0046457857824862, 0.007244826760143042, 0.02671814151108265, 0.024950793012976646, -0.011201866902410984, 0.04834216088056564, 0.019102951511740685, 0.00930456630885601, -5.934138607699424e-05, 0.01018174272030592, -0.018193285912275314, -0.044261667877435684, -0.023586297407746315, 0.01011026930063963, -0.024379003793001175, 0.01834922842681408, -0.029629066586494446, -0.021169189363718033, 0.004798479378223419, -0.030902598053216934, 0.018219277262687683, -0.05348826199769974, 0.006491104606539011, -0.008037534542381763, 0.004132475238293409, 0.019323870539665222, 0.009051159955561161, -0.0030587464570999146, -0.01130582857877016, -0.00991534162312746, -0.005454737227410078, 0.01772546023130417, -0.005230569746345282, -0.020922278985381126, -0.016633862629532814, 0.017036713659763336, -0.01738758385181427, -0.011975081637501717, 0.0058868275955319405, -0.022091848775744438, -0.035840775817632675, -0.010760029777884483, -0.006731516215950251, 0.01633497327566147, 0.009376040659844875, -0.014541634358465672, -0.013047185726463795, 0.0011403291719034314, -0.006712023168802261, -0.01889502815902233, -0.009441016241908073, -0.006552832201123238, -0.0021718235220760107, -0.004584058653563261, -0.02016855776309967, 0.01676381379365921, 0.017777441069483757, 0.024404995143413544, -0.024288037791848183, -0.00534102926030755, 0.015165404416620731, -0.008570337668061256, 0.018232272937893867, -0.0050291442312300205, -0.007764635141938925, 0.004301412962377071, 0.0009470255463384092, -0.0005811293376609683, 0.01503545232117176, 0.02127315104007721, 0.027185969054698944, 0.01795937307178974, 0.02626330964267254, 0.029992932453751564, 0.014047816395759583, 0.017036713659763336, -0.034645214676856995, 0.005470981355756521, -0.014346705749630928, 0.045821093022823334, -0.0171926561743021, 0.024495961144566536, -0.02028551511466503, -0.03545092046260834, -0.01619202457368374, -0.013170639984309673, -0.013943854719400406, 0.012683319859206676, -0.006666540168225765, -0.011409790255129337, 0.004977163393050432, 0.02467789314687252, -0.003505456494167447, 0.014996466226875782, 0.0005608242936432362, -0.020922278985381126, 0.01812831126153469, -0.0004308722564019263, 0.018102319911122322, -0.015061442740261555, -0.016036082059144974, -3.835108145722188e-05, 0.017036713659763336, -0.0038498295471072197, 0.01704970933496952, -0.004804977215826511, 0.015919126570224762, -0.005958301480859518, -0.026107367128133774, 0.03043477050960064, -0.00657232478260994, 0.012735300697386265, 0.016516905277967453, -0.0011452024336904287, -0.006396889686584473, -0.005516464356333017, 0.019791696220636368, 0.016218015924096107, 0.011715177446603775, 0.0038368343375623226, -0.012982209213078022, -0.02504175901412964, -0.00954497791826725, 0.010350680910050869, 0.01645192876458168, -0.01055210642516613, 0.001124085276387632, 0.018622128292918205, 0.006435875315219164, 0.007153860293328762, 0.013943854719400406, 0.006666540168225765, -0.006828980054706335, 0.009285073727369308, 0.017946377396583557, 0.009765896014869213, -0.024015137925744057, 0.012572860345244408, -0.017140675336122513, -0.0004637663660105318, -0.0270560160279274, 0.003755614161491394, -0.010896479710936546, 0.01988266408443451, 0.005763373337686062, -0.009317561984062195, -0.0163089819252491, -0.01755652204155922, 0.009044663049280643, 0.017062703147530556, 0.010773024521768093, -0.01678980514407158, -0.02093527466058731, 0.009499494917690754, 0.013229118660092354, 0.00814149621874094, -0.005230569746345282, -0.008583332411944866, 0.014255739748477936, -0.0111888712272048, 0.01911594718694687, 0.011383799836039543, 0.0016958742635324597, 0.002449596067890525, 0.013502017594873905, -0.013709940947592258, -0.01827125810086727, -0.0029125502333045006, -0.006357904057949781, 0.029577085748314857, 0.006110995076596737, -0.013592984527349472, -0.015555259771645069, 0.014788542874157429, 0.00011330193956382573, 0.012767788954079151, 0.0020857304334640503, -0.007049898616969585, -0.0069069513119757175, -0.014268734492361546, -0.029577085748314857, 0.0021685748361051083, 0.0070304060354828835, 0.021857934072613716, 0.01383989304304123, -0.017322607338428497, 0.012475396506488323, -0.0004637663660105318, 0.00433390075340867, 0.01721864566206932, -0.0019541538786143064, -0.0031659568194299936, -0.038959622383117676, -0.015919126570224762, 0.008005046285688877, 0.08597627282142639, -0.003963537514209747, -0.0020841059740632772, 0.01313165482133627, -0.026536207646131516, -0.003706882242113352, -0.01642593927681446, -0.025561567395925522, 0.0010859117610380054, 0.014515643939375877, -3.3960124710574746e-05, -0.03485313802957535, -0.0017673479160293937, 0.0149184949696064, 0.00534102926030755, 0.0033884996082633734, -0.009480002336204052, -0.0016097810585051775, 0.021714987233281136, 0.007277314551174641, -0.007966060191392899, -0.005792612675577402, 0.005483976565301418, 0.045197322964668274, 0.009207102470099926, 0.002764729782938957, 0.006406635977327824, -0.01552927028387785, 0.01294972188770771, -0.03417738899588585, 0.0028605693951249123, -0.02261165715754032, -0.0021230916026979685, 5.939214679528959e-05, -0.011299330741167068, 0.02563953958451748, 0.02028551511466503, 0.02153305523097515, 0.0035346958320587873, -0.019219908863306046, 0.030928587540984154, 0.020077591761946678, -0.013066678307950497, -0.00028751889476552606, 0.017309613525867462, -0.006789994426071644, 0.005051885731518269, 0.02796568162739277, -0.015776177868247032, -0.022728612646460533, 0.03500908240675926, -0.01789439655840397, -0.020610395818948746, -0.009668432176113129, 0.018089326098561287, -0.003635408589616418, 0.026393260806798935, 0.02283257432281971, -0.01460660994052887, -0.0031123515218496323, -0.005860837176442146, -0.026159347966313362, -0.004372886382043362, -0.006614559330046177, -0.013605979271233082, -0.017257632687687874, -0.004613297525793314, 0.01563323102891445, -0.009746403433382511, 0.0036419061943888664, -0.020870298147201538, -0.010740537196397781, -0.009590460918843746, 8.284443174488842e-05, 0.011715177446603775, 0.001176878227852285, 0.009285073727369308, -0.018427200615406036, -0.016555890440940857, 0.040856923907995224, -0.017426569014787674, -0.013125156983733177, -0.006926444359123707, -0.036178652197122574, -0.020077591761946678, -0.0013880502665415406, 0.018596138805150986, -0.004610049072653055, -0.02019454911351204, 0.019765706732869148, 0.014840523712337017, -0.00030152936233207583, 0.028693411499261856, -3.439160764173721e-06, -0.00648135831579566, -0.0153603320941329, 0.004272173624485731, 0.008622318506240845, 0.013320084661245346, -0.009772393852472305, 0.0055229621939361095, -0.013943854719400406, -0.01243641134351492, -0.013917864300310612, 0.033995456993579865, 0.012559865601360798, 0.009330556727945805, -0.018284253776073456, 0.013566994108259678, 0.0012207370018586516, -0.01289124321192503, -0.014333711005747318, -0.002743612742051482, -0.014671586453914642, -0.017036713659763336, -0.020064596086740494, -0.02547060139477253, 0.0028751890640705824, 0.01429472491145134, 0.004473599139600992, -0.01688077114522457, -0.028719402849674225, 0.016841785982251167, 0.03170830011367798, -0.012689817696809769, 0.02434001863002777, -0.009895848110318184, 0.018479181453585625, -0.0021637016907334328, -0.011156382970511913, -0.01818029209971428, 0.021805953234434128, 0.0034892125986516476, -0.0012321078684180975, 0.007322798017412424, -0.021961895748972893, -0.0038465806283056736, 0.00046214196481741965, -0.009148623794317245, -0.005776368547230959, -0.03324173390865326, 0.04350794479250908, -0.014268734492361546, 0.0011443902039900422, -0.03417738899588585, -0.01764748804271221, -0.014632600359618664, -0.00784260593354702, -0.034931112080812454, 0.018726089969277382, -0.003658150089904666, 0.011591723188757896, 0.00041828316170722246, 0.0139698451384902, 0.005636670161038637, -0.0282775666564703, -0.013424046337604523, -0.00024203569046221673, 0.033657580614089966, -0.01022722665220499, 0.004077245481312275, 0.014398686587810516, 0.02062338963150978, 0.007088884245604277, 0.0020418716594576836, -0.020571408793330193, 0.005146101117134094, 0.024158086627721786, -0.03921952843666077, 0.01721864566206932, 0.018570147454738617, 0.00978538952767849, -0.005545703694224358, -0.02734191156923771, -0.01232595182955265, -0.004496341105550528, -0.00046904568444006145, 0.00562367495149374, -0.02573050558567047, -0.025249682366847992, -0.013787912204861641, -0.003144839545711875, -0.00930456630885601, -0.002521069720387459, -0.024262048304080963, -0.008388404734432697, 0.027419881895184517, 0.021831944584846497, -0.005081125069409609, -0.014684581197798252, 0.02064938098192215, -0.0402851365506649, 0.039245519787073135, 0.005938808433711529, -0.006367650348693132, -0.0021701992955058813, -0.008713284507393837, -0.022962527349591255, 0.0022920293267816305, 0.02408011443912983, -0.0014254115521907806, -0.01303419005125761, -0.00852485466748476, -0.04397577419877052, 0.012917233631014824, 0.017491545528173447, 0.003026258433237672, -0.014203758910298347, -0.018791066482663155, -0.0254965927451849, -0.0046815224923193455, 0.0006209271377883852, 0.013222620822489262, -0.029343172907829285, 0.0106820585206151, 0.006387143395841122, 0.0010607335716485977, 0.019635753706097603, -0.008953696116805077, -0.01351501327008009, 0.029888970777392387, -0.009609954431653023, 0.04259828105568886, 0.01647792011499405, 0.015906130895018578, 0.0083234291523695, -0.024781854823231697, -0.009752901270985603, 0.03173429146409035, 0.008057027123868465, -0.0005730073316954076, 0.01860913261771202, 0.0180373452603817, -0.007166855502873659, -0.005328034050762653, -0.015984101220965385, 0.023014508187770844, 0.005464483518153429, 0.004392379429191351, 0.05273454263806343, 0.017153671011328697, 0.009921838529407978, -0.0037231261376291513, 0.005139603745192289, 0.00954497791826725, 0.009382537566125393, -0.02498977817595005, -0.014762552455067635, -0.009694422595202923, 0.006195463705807924, -0.002584421308711171, 0.0006911824457347393, -0.03139641508460045, 0.02580847777426243, 0.0020987256430089474, -0.0025178210344165564, 0.026874084025621414, -0.016321977600455284, -0.019323870539665222, 0.02278059348464012, 0.011585225351154804, 0.02198788709938526, -0.01309266872704029, 0.003996025305241346, 0.022962527349591255, -0.005659411661326885, -0.012930229306221008, -0.01442467700690031, 0.0004101611557416618, 0.02297552302479744, -0.025080746039748192, 0.011643704026937485, -0.034619227051734924, 0.005805607885122299, 0.02348233573138714, 0.012131024152040482, -0.012189501896500587, 0.020519427955150604, 0.011383799836039543, -0.01521738525480032, 0.0015098804142326117, -0.01022722665220499, -0.0158021692186594, -0.004216943867504597, -0.005224072374403477, -0.0009291571332141757, 0.005025895312428474, -0.003172454424202442, 0.007426759693771601, -0.022455714643001556, -0.01750454120337963, -0.015191394835710526, -0.008895217441022396, 0.03069467470049858, -0.001960651483386755, -0.0195967685431242, 0.0058868275955319405, 0.03688039258122444, -0.014216754585504532, 0.02947312407195568, -0.00574388075619936, 0.008238960057497025, -0.003099356312304735, 0.02431402914226055, 0.005825100466609001, -0.0149184949696064, 0.029992932453751564, -0.010526116006076336, -0.019310874864459038, -0.02535364404320717, -0.00866780150681734, -0.010643072426319122, -0.0011500755790621042, -0.014996466226875782, 0.019635753706097603, -0.02139010652899742, -0.0017965870210900903, -0.006487856153398752, -0.01611405424773693, 0.00380434631370008, 0.017114683985710144, 0.01851816661655903, 0.012618344277143478, -0.023053493350744247, -0.01201406680047512, 0.01080551277846098, 0.01625700108706951, 0.008635313250124454, -0.029914962127804756, -0.0036256620660424232, 0.015958111733198166, 0.007342290598899126, -0.004548321478068829, -0.004915436264127493, -0.010812010616064072, -0.021650010719895363, -0.026107367128133774, 0.01957077905535698, 0.014840523712337017, -0.014944485388696194, 0.02853746898472309, 0.03636058419942856, 0.007173352874815464, 0.010870489291846752, -0.010025800205767155, 0.008134998381137848, -0.01365796010941267, -0.025028765201568604, -0.01937585137784481, -0.008310433477163315, -0.018388215452432632, 0.03266994655132294, -0.013157645240426064, -0.023300401866436005, -0.025145720690488815, -0.004636039491742849, -0.03940146043896675, -0.0038368343375623226, 0.0018014602828770876, 0.006796492263674736, 0.01395685039460659, 0.030616702511906624, -0.00035533763002604246, -0.008505361154675484, 0.006751008797436953, 0.021013246849179268, -0.006965429987758398, -0.0010672311764210463, 0.018856042996048927, -0.019986625760793686, 0.008271448314189911, 0.006059014238417149, -0.030252836644649506, -0.034593235701322556, 0.026874084025621414, 0.006686032749712467, 0.0014708947855979204, 0.026796111837029457, -0.0002292435383424163, -0.012312956154346466, 0.014671586453914642, -0.005246813874691725, -0.009629447013139725, 0.027263939380645752, 0.01289124321192503, -0.0298369899392128, -0.006867965683341026, -0.011039426550269127, 0.004769240040332079, -0.02592543326318264, 0.010370173491537571, -0.010220728814601898, -0.006039521656930447, 0.02113020233809948, 0.013424046337604523, 0.01131882332265377, -0.010253217071294785, -0.00916161946952343, 0.030798636376857758, 0.017153671011328697, -0.002439849777147174, 0.011793148703873158, 0.02161102555692196, -0.00022416727733798325, -0.01690676063299179, -0.0035217006225138903, -0.00797255802899599, -0.041714608669281006, -0.00018985182396136224, -0.024638907983899117, 0.025236688554286957, -0.004778986796736717, 0.008310433477163315, -0.015308351255953312, -0.005932311061769724, -0.007966060191392899, 0.01383989304304123, -0.008615820668637753, 0.02760181576013565, 0.022390738129615784, -0.02825157530605793, 0.00657232478260994, -0.0035152030177414417, -0.01642593927681446, -0.0038660734426230192, -0.010051790624856949, -0.005607430823147297, -0.019921649247407913, 0.011897110380232334, 0.01619202457368374, -0.026341279968619347, -0.017478549852967262, 0.0013726184843108058, 0.005825100466609001, -0.02153305523097515, 0.00768016604706645, 0.19555184245109558, -0.02158503606915474, -0.004268924705684185, 0.0213641170412302, 0.012897741049528122, 0.016244005411863327, 0.010142757557332516, 0.006338411010801792, -0.008648308925330639, 0.028433509171009064, -0.028485488146543503, 0.01707569882273674, 0.004528828896582127, 0.009356547147035599, 0.008739274926483631, -0.01611405424773693, -0.012774286791682243, -0.001045301789417863, -0.007738644722849131, 0.027549834921956062, 0.008329926058650017, -0.0020028860308229923, 0.010058288462460041, 0.008381906896829605, -0.0039895279332995415, -0.021766968071460724, 0.005435244645923376, -0.006692530587315559, 0.02439199946820736, 0.009038165211677551, 0.0040220157243311405, 0.004061001352965832, -0.0074202618561685085, -0.045197322964668274, 0.0026981295086443424, -0.002521069720387459, -0.037114303559064865, 0.024781854823231697, 0.027263939380645752, 0.04168861731886864, -0.006744511425495148, 0.03142240643501282, -0.00948649924248457, 0.026419252157211304, 0.006965429987758398, 0.007244826760143042, -0.021169189363718033, -0.003089610021561384, 0.0002414265472907573, 0.014073806814849377, -0.025340650230646133, 0.004441111348569393, 0.011975081637501717, 0.0353989377617836, 0.010617082007229328, -0.015646226704120636, -0.004863455425947905, 0.003362509189173579, 0.005974545609205961, 0.015191394835710526, -0.02019454911351204, 0.02657519467175007, -0.015243375673890114, 0.0030441267881542444, -0.0006416382384486496, 0.00205649109557271, -0.02532765455543995, 0.025886448100209236, 0.010786020196974277, -0.010980947874486446, 0.003133468795567751, -0.022026872262358665, 0.003508705412968993, -0.006841975264251232, 0.005298794712871313, -0.016997728496789932, 0.031214481219649315, -0.009038165211677551, 0.03176027908921242, 0.006075258366763592, -0.012917233631014824, -0.020701361820101738, -0.004856957588344812, 0.006010282319039106, -0.00470751291140914, -0.02978500910103321, 0.010747034102678299, 0.029369162395596504, -0.012449406087398529, -0.02206585742533207, -0.00528255058452487, -0.018245266750454903, 0.012839262373745441, 0.021598029881715775, 0.017751449719071388, 0.025223692879080772, 0.006562578491866589, 0.006640549749135971, -0.032462023198604584, 0.002201062859967351, 0.01968773454427719, -0.00814149621874094, 0.023898182436823845, 0.010077781043946743, -0.03230607882142067, 0.015282360836863518, -0.007615189999341965, 0.0009112887200899422, 0.0012053052196279168, -0.017738454043865204, -0.006114243995398283, -0.03968735411763191, -0.001028245547786355, -0.006432626396417618, -0.0010842874180525541, 0.002092228038236499, 0.009876355528831482, -0.01334607508033514, -0.014619605615735054, -0.03690638020634651, 0.0009340303367935121, -0.021624021232128143, 0.010454642586410046, 0.0014327213866636157, -0.0006298613152466714, -0.018245266750454903, -0.03191622346639633, 0.0074202618561685085, 0.003918054047971964, -0.036204639822244644, -0.0021637016907334328, 0.0075567117892205715, 0.001094033825211227, 0.019960634410381317, -0.03724425658583641, 0.02396315708756447, -0.02153305523097515, -0.002919047838076949, 0.02002561092376709, 0.00883673969656229, -0.02535364404320717, 0.011182373389601707, 0.013489022850990295, 0.0038823175709694624, 0.011097905226051807, -0.034281350672245026, 0.00736828101798892, 0.0065495832823216915, -0.007615189999341965, 0.0008950447081588209, 0.006997917778789997, 0.011052421294152737, -0.025691520422697067, -0.04680872708559036, 0.012390927411615849, 7.385946810245514e-05, -0.014489653520286083, -0.029629066586494446, -0.01733560301363468, 0.028173604980111122, -0.00961645133793354, -0.007751639932394028, 0.051357049494981766, -0.0025974165182560682, 0.014463663101196289, 0.01395685039460659, -0.16405147314071655, 0.023781225085258484, 0.029395153746008873, -0.017153671011328697, 0.004597053863108158, 0.009031667374074459, 0.014320715330541134, -0.006965429987758398, -0.0182062815874815, 0.03222810849547386, 0.012514382600784302, 0.025717509910464287, -0.012735300697386265, -0.013437042012810707, -0.004730254411697388, 0.0073877740651369095, -0.008817246183753014, 0.020246529951691628, 0.027809739112854004, 0.01827125810086727, 0.005873832385987043, -0.016724828630685806, 0.006104497704654932, 0.007238328922539949, 0.0022319264244288206, 0.014398686587810516, -0.003086361102759838, 0.013489022850990295, -0.004853709135204554, 0.011156382970511913, 0.016295986250042915, 0.010519618168473244, 0.0357368141412735, -0.01504844706505537, -0.0008479371317662299, 0.011669693514704704, -0.0057081435807049274, -0.00897968653589487, -0.023755233734846115, 0.005032393150031567, 0.0084078973159194, 0.018908023834228516, 0.01429472491145134, -0.022845569998025894, -0.00714736245572567, 0.04623693972826004, 0.020727351307868958, -0.01945382170379162, -0.012585856020450592, 0.0007062081713229418, 0.010818508453667164, -0.00023695944400969893, -0.012092038057744503, -0.0016252128407359123, 0.028797373175621033, 0.028043651953339577, 0.00768016604706645, 0.00380434631370008, 0.010474135167896748, -0.007511228322982788, -0.013073176145553589, -0.019128940999507904, 0.007550213951617479, 0.00480822566896677, -0.009441016241908073, -0.029681047424674034, -0.017738454043865204, 0.029291192069649696, -0.0032341815531253815, -0.006624305620789528, 0.001063982374034822, -0.01892101764678955, 0.0009697671630419791, -0.008109007962048054, -0.027133988216519356, 0.01187111996114254, -0.011253847740590572, -0.013255109079182148, 0.001746230642311275, 0.0014522142009809613, -6.502679025288671e-05, 0.02396315708756447, -0.026562198996543884, -0.009661935269832611, 0.016360962763428688, -0.014242744073271751, -0.018362224102020264, 0.019895657896995544, -0.01011026930063963, 0.015672216191887856, -0.0013961723307147622, -0.02944713458418846, 0.0068744635209441185, -0.017595507204532623, 0.023508325219154358, 0.011292832903563976, -0.018544157966971397, 0.005574943032115698, -0.009752901270985603, -0.023807214573025703, 0.016555890440940857, -0.018076330423355103, -0.015295356512069702, 0.01633497327566147, 0.021714987233281136, 0.020233534276485443, 0.012306459248065948, 0.026536207646131516, 0.013437042012810707, 0.008193477056920528, -0.008830241858959198, 0.01195558812469244, 0.008258452638983727, 0.02578248642385006, -0.012826267629861832, 0.009525485336780548, 0.03264395520091057, -0.02697804570198059, 0.01755652204155922, -0.0038368343375623226, 0.016841785982251167, -0.02161102555692196, -0.020415466278791428, 0.009434518404304981, 0.01016874797642231, -0.006660042330622673, -0.07781528681516647, -0.003973283804953098, 0.021325131878256798, 0.0015196268213912845, -0.02362528257071972, 0.02652321383357048, -0.006679535377770662, 0.008206471800804138, 0.007069391664117575, 0.014164773747324944, -0.030954578891396523, -0.012917233631014824, 0.016997728496789932, -0.010428652167320251, 0.022442718967795372, -0.0015204389346763492, 0.00978538952767849, -0.004749747458845377, -0.0074007692746818066, 0.011266842484474182, -0.017829421907663345, 0.00815449096262455, 0.022702623158693314, -0.022416727617383003, 0.016841785982251167, -0.01738758385181427, -0.03638657182455063, 0.03758213296532631, 0.021429093554615974, 0.01042215432971716, -0.007160357665270567, -0.01503545232117176, -0.003953791223466396, -0.023066489025950432, 0.0016463299980387092, -0.007049898616969585, -0.013592984527349472, -0.0030944831669330597, 0.005766622256487608, -0.011780153028666973, -0.017543526366353035, -0.0007711841608397663, 0.027861719951033592, -0.04693868011236191, 0.01940184086561203, -0.020012615248560905, -0.02215682342648506, -0.005490473937243223, -0.014788542874157429, -0.018219277262687683, -0.018791066482663155, -0.009116136468946934, -0.02323542721569538, 0.005380014888942242, 0.009447514079511166, -0.005136354826390743, -0.018076330423355103, 0.003924551885575056, -0.024898812174797058, 0.004216943867504597, -0.007472242694348097, 0.003398246131837368, -0.0025909189134836197, -0.009428021498024464, 0.031500376760959625, 0.014567624777555466, -0.005457986146211624, 0.010441646911203861, 0.006958932150155306, -0.010597589425742626, 0.004151967819780111, 0.009005676954984665, -0.0003559467731975019, 0.0014124163426458836, -0.022702623158693314, -0.019843677058815956, -0.03409941866993904, -0.01784241572022438, 0.009285073727369308, -0.01599709689617157, -0.0077126543037593365, -0.005068129859864712, -0.0014993217773735523, -0.022767599672079086, 0.020519427955150604, 0.0030132632236927748, -0.01225447840988636, -0.021546049043536186, 0.023820210248231888, -0.02345634438097477, 0.0050291442312300205, 0.020233534276485443, 0.0070628938265144825, -0.03914155811071396, -0.007121372036635876, 0.005526210647076368, 0.02153305523097515, -0.012988707050681114, -0.0077451420947909355, 0.006461865734308958, -0.02703002654016018, -0.010838001035153866, -0.07485237717628479, -0.006029774900525808, 0.026302294805645943, 0.00031229102751240134, -0.01704970933496952, 0.034281350672245026, 0.016672847792506218, 0.001770596718415618, 0.006172722205519676, -0.006286430172622204, -0.01988266408443451, -0.013618974946439266, 0.010630077682435513, 0.010435149073600769, -0.007849103771150112, -0.027731766924262047, 0.02144208736717701, 0.01314464956521988, 0.00426242733374238, -0.00190217315685004, -0.0031042294576764107, 0.012488392181694508, 0.014385691843926907, 0.007244826760143042, -0.04187054932117462, 0.003385250922292471, -0.048264190554618835, 0.036776430904865265, -0.019726721569895744, -0.0030587464570999146, 0.006039521656930447, -0.029862981289625168, -0.006429377477616072, 0.047718390822410583, 0.008557341992855072, -0.028667422011494637, -0.02067537046968937, 0.03997325152158737, -0.00042681125341914594, 0.046392880380153656, -0.03940146043896675, -0.018076330423355103, 0.02563953958451748, -0.0005937184323556721, -0.0024577181320637465, 0.0045028384774923325, 0.006848473101854324, 0.0038563271518796682, 0.028771383687853813, 0.002940165111795068, 0.029083268716931343, 0.012260976247489452, 0.005123359616845846, -0.03498309105634689, -0.012618344277143478, 0.01985667273402214, -0.011585225351154804, 0.037088315933942795, -0.010246719233691692, -0.018063334748148918, 0.041480693966150284, 0.011136890389025211, 0.010604087263345718, -0.003563934937119484, 0.0030408778693526983, -0.011292832903563976, -0.008927705697715282, 0.005730885546654463, -0.004532077815383673, -0.028329547494649887, -0.020246529951691628, -0.009148623794317245, 0.003911556676030159, -0.013670955784618855, 0.008492366410791874, 0.0024723378010094166, -0.00676400400698185, -0.03189023211598396, -0.0019785198383033276, 0.03269593417644501, -0.0009039789438247681, 0.0031968203838914633, -0.009824374690651894, 0.01568521186709404, -0.001926539116539061, -0.011890612542629242, -0.0279396902769804, -0.013943854719400406, 0.008336423896253109, 0.027731766924262047, 0.0051655941642820835, 0.008310433477163315, 0.0009583963546901941, -0.008173983544111252, 0.014307720586657524, 0.003120473586022854, -0.006406635977327824, -0.011169378645718098, -0.001794962678104639, 0.020870298147201538, 0.003957039676606655, 0.016802800819277763, -0.022286776453256607, -0.03945344313979149, 0.0005693524144589901, -0.0055229621939361095, -0.032150138169527054, -0.040493059903383255, -0.011578727513551712, 0.01383989304304123, 0.0014221627498045564, 0.03594473749399185, 0.010279207490384579, -0.0020662376191467047, 0.013235616497695446, -0.0033</t>
+  </si>
+  <si>
+    <t>[0.008092254400253296, 0.010622275993227959, -0.010889262892305851, -0.030487393960356712, -0.010908333584666252, 0.009776816703379154, -0.003547115484252572, 0.005559054668992758, 0.017519444227218628, 0.008848718367516994, -0.007094230968505144, -0.014951282180845737, -0.024283120408654213, -0.004068376030772924, -0.013412927277386189, -0.002034188015386462, 0.027868377044796944, -0.0209902785718441, 0.0050441506318748, -0.019464636221528053, -0.0015741119859740138, -0.019235791638493538, -0.010501495562493801, 0.012643749825656414, -0.006515758577734232, -0.036895085126161575, 0.01862553507089615, -0.02035459503531456, -0.006515758577734232, -0.012789957225322723, -0.009986592456698418, -0.018714530393481255, -0.019006945192813873, 0.011048183776438236, 0.008117681369185448, -0.0001319043803960085, 0.013412927277386189, 0.008257532492280006, -0.003381837625056505, 0.008270245976746082, 0.015879381448030472, 0.017341453582048416, 0.0032642362639307976, -0.003480368759483099, -0.006967094261199236, 0.020278312265872955, 0.013883333653211594, 0.0005733072757720947, -0.0025045941583812237, 0.00652211531996727, -0.004557852633297443, 0.019362928345799446, -0.017290597781538963, -0.006201095413416624, -0.023952564224600792, -0.03046196699142456, -0.016654914245009422, 0.00749471178278327, -0.008238461799919605, -0.021536966785788536, 0.012332265265285969, -0.006474439054727554, -0.01816784217953682, -0.005829220172017813, -0.018307693302631378, -0.021168269217014313, -0.014124893583357334, 0.022782906889915466, -0.01072398480027914, -0.023507585749030113, 0.0341997854411602, 0.022757479920983315, 0.02282104827463627, 0.004195512738078833, 0.020252885296940804, -0.013946902006864548, -0.0013953258749097586, 0.02608846127986908, -0.005705262068659067, 0.014417308382689953, -0.008867789059877396, -0.02437211573123932, -0.011124465614557266, 0.020761432126164436, 0.022007372230291367, 0.0035026175901293755, -0.01352735050022602, 0.012192415073513985, -0.016248077154159546, 0.0012364049907773733, 0.007469284348189831, 0.004087446723133326, -0.009090278297662735, -0.007640918716788292, -0.007825267501175404, -0.00971960462629795, 0.00196426291950047, 0.021091988310217857, -0.0033373397309333086, -0.004948798101395369, 0.011709295213222504, 0.002113648457452655, -0.04363333433866501, -0.015154700726270676, -0.05670299381017685, -0.020774146541953087, 0.0033786592539399862, -0.00923648476600647, 0.028631197288632393, 0.002495058812201023, -0.011194391176104546, 0.03308098390698433, 0.015752244740724564, -0.03231816366314888, -0.0004692140792030841, -0.02344401739537716, 0.00722772441804409, -2.447134284011554e-05, 0.017506731674075127, -0.003289663465693593, 0.029470300301909447, 0.024651816114783287, -0.004611885640770197, -0.011385096237063408, 0.03229273483157158, -0.020875854417681694, -0.01970619708299637, -0.003652003360912204, -0.017519444227218628, 0.0004572950128931552, -0.0077680558897554874, 0.001903872936964035, 0.013184081763029099, 0.017176175490021706, 0.0033055555541068316, -0.0022757479455322027, -0.010285363532602787, 0.012306837365031242, -0.01692190207540989, -0.016858333721756935, 0.04320107027888298, 0.017977137118577957, -0.03325897455215454, 0.005892788525670767, -0.0011076789814978838, 0.027410684153437614, -0.0067827459424734116, 0.014201175421476364, 0.0005574151873588562, -0.003257879288867116, 0.03918354585766792, -0.010545994155108929, 0.015879381448030472, 0.010209081694483757, 0.015027564018964767, 0.012681891210377216, -0.018676389008760452, 0.032547008246183395, 0.007812553085386753, -0.0038903846871107817, -0.03450491651892662, 0.046532053500413895, -0.016095513477921486, 0.00035697617568075657, 0.02452467940747738, 0.028834616765379906, -0.0011140358401462436, 0.023037180304527283, -0.003286485094577074, 0.017328739166259766, -0.013921475037932396, 0.023545727133750916, -0.027283547446131706, 0.008880502544343472, 0.011677511036396027, 0.03758162632584572, -0.012141560204327106, -0.011728365905582905, -0.007583707571029663, -0.006134348455816507, -0.019070513546466827, -0.006534829270094633, 0.019197650253772736, 0.01974433846771717, -0.0007795072160661221, 0.005381063092499971, 0.03758162632584572, 0.005244391039013863, 0.014188461937010288, -0.023342307657003403, 0.028453204780817032, 0.0067573185078799725, 0.006153418682515621, -0.02235064096748829, -0.6371077299118042, 0.007208654191344976, -0.013387500308454037, -0.010304434224963188, -0.0035947917494922876, 0.022452350705862045, 0.013857905752956867, 0.013692628592252731, -0.03747991472482681, -0.03707307577133179, -0.011639369651675224, -0.006776389200240374, 0.013234935700893402, -0.0023552083875983953, -0.029165171086788177, -0.023520300164818764, 0.004297222476452589, -0.018905235454440117, 0.026495300233364105, -0.013552778400480747, -0.014887713827192783, 0.014239316806197166, -0.02421955205500126, 0.0186509620398283, -0.004961512051522732, 0.002924145432189107, 0.021778525784611702, -0.002962286351248622, -0.020913995802402496, 0.008645298890769482, -0.01632435992360115, -0.004446608014404774, -0.015002137050032616, -0.0064553688280284405, 0.03633568435907364, 0.011156249791383743, -0.03170790523290634, 0.032369017601013184, 0.03323354572057724, 0.022096367552876472, 0.0011609174543991685, 0.004786698613315821, 0.014048611745238304, -0.033182691782712936, 0.011836431920528412, -0.007304006721824408, 0.03341154009103775, 0.020456302911043167, -0.019006945192813873, -0.012948878109455109, -0.004500641021877527, -0.011620298959314823, -0.016565918922424316, 0.00664289528504014, 0.013311218470335007, -0.0033023771829903126, 0.03892927244305611, -0.015180128626525402, -0.014366453513503075, -0.010921047069132328, 0.007119658403098583, 0.004672275856137276, -0.009528899565339088, -0.025910470634698868, -0.009630609303712845, 0.0010178886586800218, -0.029241453856229782, -0.003173651173710823, -0.03366581350564957, 0.007920620031654835, 0.0013444711221382022, 0.02952115423977375, -0.007609134539961815, -0.0024219551123678684, -0.0037060363683849573, 0.008874145336449146, 0.013387500308454037, 0.018511110916733742, -0.004303579218685627, 0.03241987153887749, 0.02002403885126114, 0.008944070897996426, -0.02252863347530365, -0.0015200788620859385, 0.009573397226631641, 0.01218605786561966, -0.016222650185227394, 0.014811431989073753, 0.021969230845570564, 0.00020838508498854935, 0.020163889974355698, 0.007164156064391136, 0.002258266555145383, -0.034123506397008896, -0.005393776576966047, 0.015256410464644432, 1.328479811490979e-06, 0.0022328393533825874, 0.015205555595457554, -0.030792521312832832, 0.0008168536587618291, -0.023520300164818764, -0.002895539626479149, 0.00823210459202528, 0.017023611813783646, 0.014849572442471981, -0.017977137118577957, 0.01437916699796915, 0.03740363195538521, -0.015968376770615578, -0.007081517018377781, 0.008295672945678234, 0.02221079170703888, -0.00956704095005989, -0.015192842110991478, -0.025249360129237175, 0.045133545994758606, 0.011861858889460564, -0.000427497347118333, -0.0051490385085344315, 0.040912605822086334, -0.00115614989772439, -0.005177644081413746, -0.04365876317024231, -0.0004014740407001227, 0.02221079170703888, 0.018701815977692604, -0.02687671035528183, -0.0030703525990247726, 0.008982211351394653, 0.01877809874713421, 0.007475641090422869, 0.022757479920983315, -0.013730769045650959, 0.014836858958005905, 0.0178372859954834, 0.037352778017520905, -0.02038002200424671, 0.0034358708653599024, -0.022159935906529427, -0.0051490385085344315, -0.018066132441163063, 0.0007791099487803876, -0.006808173377066851, -0.004872516263276339, -0.026800427585840225, -0.025897756218910217, 0.008778792805969715, -0.027614103630185127, 0.0017004540422931314, -0.04177713766694069, -0.008187606930732727, -0.015281837433576584, 0.006585683673620224, 0.024308547377586365, 0.024041559547185898, -0.018727244809269905, 0.012885309755802155, -0.0372510701417923, -0.00148670538328588, 0.02390171028673649, -0.018205983564257622, -0.03758162632584572, -0.0023615651298314333, 0.019032372161746025, -0.03186047077178955, -0.005203071516007185, 0.01506570540368557, 0.010437927208840847, -0.03740363195538521, -0.005880075041204691, 0.009363622404634953, 0.0024998264852911234, 0.02735983021557331, -0.0077998400665819645, 0.009020352736115456, -0.010062874294817448, -0.018371261656284332, -0.019299359992146492, -0.006309161428362131, 0.01692190207540989, 0.007698130328208208, -0.013018803671002388, -0.02486795000731945, 0.013463782146573067, 0.008136752061545849, 0.03061453066766262, -0.0014596888795495033, -0.038115598261356354, 0.013400213792920113, 0.0005907886079512537, 0.012058921158313751, -0.0005339743802323937, -0.020456302911043167, -0.002965464722365141, -0.006061244755983353, -0.01047606859356165, 0.007335790898650885, -0.0035947917494922876, 0.010660416446626186, 0.009992948733270168, 0.018905235454440117, 0.007412072736769915, -0.022744765505194664, 0.004135122988373041, -0.0388784185051918, 0.031784188002347946, -0.012192415073513985, 0.04322649538516998, -0.006067601498216391, 0.010787553153932095, -0.007812553085386753, -0.042794231325387955, -0.014226602390408516, -0.01296159252524376, 0.008416453376412392, 0.02345673181116581, -0.0015025974716991186, -0.0027461538556963205, 0.013654487207531929, 0.019159508869051933, 0.0048407320864498615, 0.008893216028809547, 0.016349786892533302, -0.025579914450645447, -0.003110082820057869, 0.015014850534498692, 0.043887607753276825, 0.003283306723460555, -0.01959177292883396, -0.020405448973178864, 0.010673130862414837, -0.027232693508267403, 0.009382692165672779, -0.019388355314731598, 0.02705470100045204, 0.009363622404634953, -0.02207094058394432, -0.0005141092697158456, -0.007475641090422869, 0.015269123949110508, 0.01757030002772808, 0.012090705335140228, 0.009560683742165565, 0.005101362243294716, -0.006992521695792675, 0.04058205336332321, 0.019820619374513626, -0.001129927928559482, -0.017938995733857155, -0.00656661344692111, -0.011861858889460564, -0.003261057659983635, 0.0034994392190128565, -0.002868523122742772, -0.009999305941164494, 0.01757030002772808, 0.008492735214531422, 0.02891089767217636, 0.023062607273459435, 0.007208654191344976, -0.0028796475380659103, 0.008645298890769482, 0.010965544730424881, 0.008727937936782837, -0.013400213792920113, 0.0048788730055093765, -0.007526495959609747, 0.012624680064618587, -0.01296159252524376, -0.006611111108213663, 0.007793482858687639, 0.01849839836359024, -0.005568590015172958, -0.01249754335731268, -0.010749412700533867, -0.03168248012661934, -0.007609134539961815, -0.000667865271680057, 0.03803931549191475, 0.002347262343391776, -0.032547008246183395, 0.005244391039013863, 0.030360257253050804, 0.008804219774901867, -0.03058910369873047, -0.04841367527842522, 0.004030235111713409, -0.000223879877012223, 0.03936154022812843, -0.00031327290344052017, 0.007882478646934032, -0.022414209321141243, -0.012847169302403927, -0.010933760553598404, -0.041268590837717056, -0.006922596134245396, 0.007049732841551304, 0.032089315354824066, -0.030055128037929535, -0.007405715994536877, -0.014086752198636532, -0.010062874294817448, -0.0034168001729995012, 0.02021474391222, -0.003998450934886932, -0.003877670969814062, -0.018383974209427834, -0.0068272436037659645, 0.011054540984332561, -0.019973184913396835, -0.002229660749435425, -0.00277634896337986, -0.012631036341190338, -0.0004104133404325694, 0.014722435735166073, 0.002385403262451291, 0.011302457191050053, 0.01768472231924534, 0.0029718216974288225, -0.02115555666387081, -0.015739530324935913, -0.013171367347240448, 0.005060042720288038, 0.06117820739746094, -0.006967094261199236, 0.0012554754503071308, 0.012586538679897785, -0.015281837433576584, -0.006067601498216391, -0.008244818076491356, -0.010043803602457047, 0.009910309687256813, 0.022770192474126816, -0.005485950969159603, -0.018828952684998512, 0.020278312265872955, 0.03046196699142456, -0.000491462997160852, -0.0021978765726089478, 0.018422115594148636, -0.022617628797888756, 0.021168269217014313, 0.030105983838438988, -0.0008446648134849966, -0.006379086524248123, 0.0020691505633294582, 0.04724401608109474, 0.0019118189811706543, -0.005158573854714632, 0.011060897260904312, -0.024130556732416153, -0.0013230168260633945, -0.0279700867831707, 0.0008192374370992184, -0.0025045941583812237, -0.017672007903456688, 0.015510683879256248, -0.010050160810351372, 0.020163889974355698, -0.002762045944109559, 0.0006015157559886575, 0.004843910224735737, -0.0013222222914919257, 0.030029701068997383, 0.0178372859954834, -0.011779219843447208, -0.009535256773233414, 0.023049892857670784, 0.009681464172899723, 0.004046127200126648, 0.019782479852437973, -0.0128026707097888, -0.013552778400480747, 0.039870087057352066, -0.019960470497608185, 0.008047756738960743, -0.0015081597957760096, -0.0002743372751865536, -0.003782318439334631, 0.01233862154185772, 0.021486110985279083, -0.019668055698275566, 0.006210630293935537, 0.0036742521915584803, -0.03219102695584297, 0.0016813835827633739, -0.0036392896436154842, -0.01739230751991272, -0.008607158437371254, -0.0124276177957654, 0.009166560135781765, -0.015574252232909203, -0.008168536238372326, 0.01723974384367466, -0.02921602688729763, -0.005339743569493294, -0.005730689037591219, 0.02499508671462536, -0.01880352571606636, 0.007577350363135338, -0.013336645439267159, -0.01974433846771717, 0.03631025552749634, 0.01025357935577631, -0.013807051815092564, -0.022337928414344788, -0.029775427654385567, -0.027258120477199554, 0.03104679472744465, 0.02842777781188488, -0.022897329181432724, -0.030538247898221016, 0.0032960204407572746, 0.014048611745238304, 0.006706463638693094, 0.007844338193535805, 0.01250389963388443, 0.0005721154157072306, 0.0023552083875983953, -0.01804070547223091, 0.01600651815533638, 0.007189583498984575, 0.0034040866885334253, -0.0005431123427115381, -0.0030020165722817183, -0.023062607273459435, -0.0006889223004691303, 0.02378728613257408, 0.010711271315813065, -0.009522543288767338, -0.028224360197782516, -0.006935310084372759, 0.00027413861243985593, -0.0056702992878854275, -0.013069658540189266, -0.018689103424549103, -0.01893066242337227, -0.0356745719909668, -0.020418163388967514, -0.022096367552876472, 0.02203279919922352, 0.027461538091301918, -0.015167415142059326, -0.036564528942108154, -0.01753215864300728, 0.004179620649665594, 0.023838141933083534, -0.03468290716409683, 0.0194010678678751, -0.02218536287546158, 0.0178372859954834, 0.00924919918179512, -0.006251949816942215, 0.01601923070847988, 0.01453173067420721, -0.012097062543034554, -0.0100883012637496, -0.01741773448884487, -0.00947804469615221, -0.00815582275390625, 0.008664369583129883, -0.014976710081100464, 0.0010266292374581099, -0.044040173292160034, 0.037505343556404114, -0.014925855211913586, -0.0004171674663666636, 0.004678632598370314, -0.01166479755192995, 0.010812981054186821, -0.007640918716788292, -0.02781752124428749, -3.521092003211379e-05, 0.00799054466187954, -0.001744951936416328, -0.01725245825946331, 0.00026639123097993433, 0.010819337330758572, -0.02282104827463627, -0.02611389011144638, -0.0209902785718441, 0.004990117624402046, 0.0007870559929870069, 0.001205415348522365, 0.0031164397951215506, 0.01926121860742569, 0.001303946366533637, -0.005387419834733009, -0.014315598644316196, -0.01337478682398796, -0.004255902953445911, -0.03773418813943863, 0.026978420093655586, 0.004147836472839117, 0.02702927403151989, -0.007780769374221563, -0.0016639023087918758, -0.018587393686175346, 0.010501495562493801, 0.0001862354838522151, -0.005911859218031168, -0.026291880756616592, -0.021358974277973175, -0.009166560135781765, -0.004859802313148975, -0.018434830009937286, 0.011245246045291424, -0.02113012783229351, 0.010832051746547222, 0.01707446575164795, 0.000640451384242624, 0.009586111642420292, -0.001524051884189248, 0.00703066261485219, -0.04426901787519455, 0.045921795070171356, 0.021702243015170097, 0.0032276844140142202, 0.0034485843498259783, -0.02020202949643135, -0.024982372298836708, -0.012446688488125801, 0.010952831245958805, -0.009166560135781765, -0.007920620031654835, -0.018841667100787163, -0.02967371791601181, -0.012421260587871075, 0.017468590289354324, -0.014315598644316196, -0.007291292771697044, -0.005991319660097361, -0.010736699216067791, -0.010310790501534939, -0.012764530256390572, 0.010819337330758572, -0.03249615430831909, -0.007882478646934032, -0.004999652970582247, 0.004643669817596674, 0.03061453066766262, -0.004074732773005962, -0.02472809888422489, 0.018294978886842728, -0.0018673210870474577, 0.028148077428340912, 0.025821475312113762, 0.02674957364797592, 0.004999652970582247, -0.03465747833251953, -0.006541186012327671, 0.02873290702700615, -0.005314316134899855, -0.006674679461866617, 0.024766240268945694, 0.02733440138399601, -0.0014175748219713569, -0.017036324366927147, -0.021702243015170097, -0.002680996200069785, -0.006089850328862667, -0.0240669883787632, 0.028478633612394333, 0.0008621460874564946, 0.009528899565339088, -0.010679487138986588, 0.017010897397994995, 0.010526923462748528, 0.00550819979980588, -0.025516346096992493, -0.01987147517502308, -0.02457553520798683, -0.02360929548740387, -0.019184935837984085, -0.0016893296269699931, -0.018396688625216484, 0.011194391176104546, -0.021867521107196808, -0.00893135741353035, 0.04571837559342384, -0.02032916620373726, -0.03290299326181412, 0.02596132457256317, 0.0007799045415595174, 0.0097132483497262, -0.004500641021877527, 0.0020214742980897427, 0.021829381585121155, -0.0008029480814002454, -0.005854647606611252, -0.02393985167145729, 0.010361645370721817, 0.027232693508267403, -0.02824978716671467, 0.003839530050754547, 0.007761698681861162, 0.021371688693761826, 0.012364049442112446, -0.02188023552298546, 0.004033413715660572, 0.025376496836543083, 0.021549679338932037, -0.021714957430958748, -0.009579754434525967, -0.0033786592539399862, -0.018371261656284332, -0.017672007903456688, -0.007475641090422869, -0.004862980917096138, -0.018765384331345558, 0.007602777797728777, -0.014582585543394089, -0.008982211351394653, -0.010673130862414837, 0.0032388088293373585, -0.006414049305021763, 0.016120940446853638, 0.009109348058700562, 0.013196795247495174, -0.012840812094509602, 0.018905235454440117, -0.006115277763456106, 0.01614636741578579, 0.0015407385071739554, 0.026291880756616592, -0.008098611608147621, -0.007526495959609747, -0.00033989216899499297, -0.006916239392012358, 0.0233041662722826, -0.013756196945905685, -0.021829381585121155, -0.010323503986001015, 0.0151419872418046, -0.0024203660432249308, 0.008346527814865112, -0.025541773065924644, 8.780381904216483e-05, 0.005184001289308071, -0.00893135741353035, -0.00041835938463918865, -0.03870042786002159, 0.01196356862783432, 0.008893216028809547, 0.005873717833310366, 0.012974306009709835, -0.010190011002123356, -0.007965117692947388, 0.018422115594148636, -0.00217403843998909, 0.012332265265285969, -0.030487393960356712, -0.003346875077113509, 0.011194391176104546, -0.008829647675156593, 0.016565918922424316, -0.01072398480027914, -0.006245593074709177, -0.004567387979477644, -0.022261645644903183, 0.02531292848289013, 0.0014366452815011144, -0.013298504054546356, 0.02654615417122841, 0.025401923805475235, 0.0038268163334578276, 0.025529060512781143, -0.014239316806197166, -0.02035459503531456, -0.006579326931387186, -0.02435940131545067, -0.02157510630786419, -0.008384669199585915, -0.029444871470332146, 0.012554754503071308, 0.00481212604790926, -0.02964829094707966, -0.011753792874515057, 0.002340905601158738, -0.04002264887094498, 0.007037019357085228, 0.014480876736342907, 0.008658013306558132, 0.01956634595990181, 0.026978420093655586, 0.004491105675697327, 0.0022010549437254667, -0.010488782078027725, 0.039514102041721344, -0.015281837433576584, 0.014925855211913586, 0.03094508685171604, -0.03809017315506935, 0.016248077154159546, -0.0016090745339170098, -0.01833312027156353, 0.01615908183157444, 0.024753525853157043, -0.014875000342726707, 0.005012366455048323, 0.014760577119886875, -0.006019925232976675, -0.020939422771334648, 0.01259289588779211, 0.012135202996432781, 0.018549252301454544, 0.03219102695584297, 0.024155983701348305, -0.045260682702064514, 0.018091559410095215, 0.010819337330758572, 0.003810924245044589, -0.018205983564257622, -0.019998611882328987, -0.0014644564362242818, -0.01266917772591114, -0.0030020165722817183, -0.012599252164363861, 0.0006932925898581743, 0.005403311923146248, -0.013883333653211594, 0.02115555666387081, 0.0010782786412164569, 0.0013047409011051059, 0.012796314433217049, 0.01445544883608818, -0.011779219843447208, -0.023240597918629646, -0.01554882526397705, -0.01660406030714512, -0.010317147709429264, -0.0004350460949353874, -0.025592628866434097, 0.013260363601148129, -0.012542041018605232, 0.019032372161746025, -0.027232693508267403, -0.004373504314571619, -0.0078061968088150024, -0.004309935960918665, -0.015637820586562157, 0.03707307577133179, 0.016896475106477737, -0.0186509620398283, -0.010120085440576077, -0.03529316186904907, -0.03015683777630329, -0.019146794453263283, 0.004052483942359686, -0.01018365379422903, -0.023405876010656357, 0.013616346754133701, -0.004103338811546564, -0.03392008692026138, -0.021803952753543854, -0.007221367675811052, 0.0015717281494289637, -0.004926549270749092, -0.009147489443421364, 0.21684445440769196, -0.022325213998556137, 0.0032165597658604383, 0.02316431701183319, -0.007520139217376709, 0.01570138894021511, -0.007640918716788292, 0.003464476438239217, -0.026368163526058197, 0.011779219843447208, -0.03310640901327133, 0.014328312128782272, -0.024105127900838852, 0.013158653862774372, 0.015281837433576584, 0.0020135282538831234, -0.0052507477812469006, -0.021536966785788536, 0.018409401178359985, 0.002480756025761366, -0.0056321583688259125, -0.0178372859954834, 0.00013557942293118685, 0.010094658471643925, 0.0046214209869503975, 0.0073485043831169605, -0.0029463942628353834, -0.009153846651315689, 0.04772713780403137, 0.031199360266327858, 0.002903485670685768, -0.006592040881514549, 0.01135331206023693, 0.005787900649011135, -0.019757051020860672, 0.018600106239318848, -0.0009837206453084946, -0.0023297809530049562, 0.03015683777630329, 0.02840235084295273, -0.020697863772511482, -0.01337478682398796, -0.017608439549803734, 0.007876122370362282, 4.256101601640694e-05, 0.022795619443058968, -0.007056090049445629, 0.00275886757299304, -0.004500641021877527, 0.02903803437948227, -0.021854808554053307, 0.003969845362007618, -0.005272997077554464, 0.03508974239230156, 0.02565619722008705, -0.012147916480898857, 0.01896880380809307, 0.01910865493118763, 0.003078298643231392, 0.005908680614084005, -0.015345405787229538, 0.02919059805572033, -0.015803098678588867, -0.002671461086720228, 0.021943803876638412, 0.010120085440576077, -0.01523098349571228, 0.016082799062132835, 0.015904808416962624, -0.0041700853034853935, 0.009115705266594887, -0.01336207240819931, -0.019210362806916237, -0.027283547446131706, 0.002895539626479149, -0.017977137118577957, 0.03712393343448639, -0.010336218401789665, 0.031123077496886253, 0.0052507477812469006, 0.01079391036182642, -0.008104967884719372, -0.006429941393435001, 0.006693750154227018, 0.02285918779671192, -0.0053683496080338955, 0.007971474900841713, 0.015167415142059326, -0.0178754273802042, 0.0026444445829838514, -0.011524946428835392, -0.004370325710624456, -0.008314743638038635, 0.022655770182609558, 0.011207104660570621, -0.007526495959609747, 0.012255983427166939, 0.021638674661517143, -0.025223931297659874, 0.003515331307426095, -0.003617040580138564, 0.008734295144677162, 0.0466591902077198, -0.014035897329449654, -0.018053419888019562, 0.007895192131400108, 0.013832478784024715, 0.00845459382981062, 0.020710576325654984, -0.018447542563080788, -0.0147478636354208, -0.02034188061952591, -0.007431143429130316, -0.011435951106250286, 0.02855491451919079, 0.001361952512525022, 0.03791217878460884, -0.01467158179730177, 0.016337072476744652, -0.006464904174208641, -0.007659989409148693, 0.006210630293935537, 0.019540918990969658, 0.01973162405192852, -0.012828098610043526, -0.02654615417122841, -0.05639786273241043, 0.03608141094446182, -0.00172747066244483, -0.016438782215118408, -0.00520942872390151, 0.00832110084593296, 0.011944497935473919, 0.030105983838438988, -0.02344401739537716, 0.003909455146640539, -0.01898151822388172, 0.010774839669466019, -0.004595993552356958, -0.0009384281584061682, 0.004802590701729059, -0.009636965580284595, 0.0021374865900725126, -0.0170871801674366, -0.005304781254380941, 0.013883333653211594, -0.00916020292788744, -0.004125587642192841, 0.012605609372258186, 0.007882478646934032, -0.0011569444322958589, -0.017010897397994995, -0.025681624189019203, -0.04493013024330139, 0.02549091912806034, 0.0022709802724421024, -0.0030051949433982372, -0.03775961697101593, -0.000982131459750235, 0.035979703068733215, -0.0147478636354208, 0.005203071516007185, 0.027868377044796944, -0.02022745832800865, 0.004602350294589996, 0.02285918779671192, -0.15744616091251373, 0.014773290604352951, -0.00025665730936452746, 0.005578124895691872, 0.009853098541498184, 0.006973451003432274, 0.006623825058341026, 0.018231410533189774, -0.018600106239318848, 0.030563674867153168, 0.016184508800506592, 0.027232693508267403, -0.03714935854077339, -0.013997756876051426, -0.016184508800506592, 0.0005474826321005821, -0.0026206064503639936, 0.013845192268490791, 0.02425769343972206, 0.003912633750587702, -0.007075160276144743, -0.03000427410006523, 0.01352735050022602, 0.007208654191344976, -0.012681891210377216, 0.0010846353834494948, -0.012065278366208076, 0.013870620168745518, 0.010603205300867558, -0.018231410533189774, 0.0008986979373730719, -0.0010480836499482393, 0.04256538674235344, -0.018739957362413406, 0.008295672945678234, 0.0032038462813943624, -0.020697863772511482, -0.013069658540189266, -0.016705770045518875, 0.021498825401067734, 0.028046367689967155, -0.003029033076018095, -0.0035375801380723715, -0.03679337725043297, -0.009350907988846302, 0.05451624095439911, 0.015091132372617722, -0.014697008766233921, 0.006216987501829863, 0.005079113412648439, -0.0039062765426933765, -0.01912136748433113, 0.016044657677412033, -0.0045896368101239204, 0.03186047077178955, 0.03992094099521637, 0.016387928277254105, 0.037657905369997025, 0.006572970189154148, 0.004309935960918665, -0.004011164419353008, -0.025071367621421814, 0.00299089215695858, -0.0178754273802042, 0.013412927277386189, -0.008899573236703873, 0.0002324218803551048, 0.034098077565431595, 0.002634909236803651, -0.0022964077070355415, 0.024461111053824425, -0.022592201828956604, -0.003167294431477785, -0.016845619305968285, 0.0100883012637496, 0.01235133595764637, 0.001808520290069282, -0.015764957293868065, 0.007996901869773865, 0.009033066220581532, -0.006547542754560709, 0.03600512817502022, -0.0028446849901229143, -0.029699144884943962, 0.00823210459202528, -0.026952991262078285, -0.026063034310936928, 0.037047650665044785, -0.015650535002350807, 0.010978259146213531, -0.011582158505916595, -0.029775427654385567, 0.015917520970106125, -0.023850854486227036, 0.03170790523290634, 0.013807051815092564, -0.004843910224735737, 0.001822823192924261, -0.005921394098550081, -0.02142254263162613, -0.00656661344692111, -0.0005669504753313959, -0.029622863978147507, 0.019642628729343414, 0.033945512026548386, 0.012758173048496246, -0.00761549174785614, 0.010145513340830803, 0.019299359992146492, -0.00598178431391716, 0.022655770182609558, -0.009884882718324661, 0.008193964138627052, 0.02751239389181137, -0.02561805583536625, 0.0012022369774058461, 0.018256837502121925, -0.010101014748215675, 0.023812714964151382, -0.003963488154113293, 0.0326487198472023, -0.039234403520822525, 0.0008391026058234274, 0.0116520831361413, -0.01538354717195034, 0.0012554754503071308, -0.09062308073043823, -0.029750000685453415, 0.0256307702511549, 0.014798718504607677, -0.004637313075363636, 0.01538354717195034, -0.007329433690756559, 0.004710416775196791, -0.0024012953508645296, -0.011130822822451591, -0.034403204917907715, -0.014341025613248348, 0.015599680133163929, -0.018994230777025223, 0.02129540592432022, 0.0029209668282419443, 0.02283376082777977, 0.014951282180845737, 0.008791506290435791, 0.019680770114064217, 0.0064108707010746, -0.0029511619359254837, 0.015358120203018188, -0.03524230793118477, 0.000546290713828057, -0.01800256408751011, -0.02964829094707966, 0.01025993563234806, 0.009293696843087673, 0.015777671709656715, 0.0014652510872110724, -0.01345106866210699, -0.008200320415198803, -0.0051871794275939465, 0.003261057659983635, -0.007863407954573631, -0.0029479835648089647, -0.007748985197395086, 0.016222650185227394, -0.006070780102163553, -0.011289743706583977, -0.009293696843087673, 0.01863824762403965, -0.04882051423192024, 0.005924572702497244, -0.01676933839917183, -0.0020977563690394163, 0.02142254263162613, 0.0033723025117069483, -0.01989690214395523, -0.018066132441163063, -0.010412500239908695, -0.044345300644636154, -0.0020707398653030396, 0.00830838643014431, 0.017125321552157402, -0.016133654862642288, 0.014773290604352951, -0.0037346421740949154, -0.02472809888422489, -0.00458010146394372, 0.03234358876943588, -0.002488702069967985, -0.009465331211686134, 0.023952564224600792, 0.014608013443648815, -0.021625962108373642, 0.005803792737424374, 0.010997328907251358, 0.004198691342025995, 0.00034267327282577753, -0.0139723289757967, -0.004386217799037695, 0.009166560135781765, -0.02936859056353569, -0.02083771489560604, -0.032394446432590485, -0.02348215878009796, 0.011938141658902168, -0.036284830421209335, -0.013031517155468464, -0.0020151175558567047, 0.025414636358618736, 0.0018911592196673155, 0.014404593966901302, 0.022477777674794197, 0.011804647743701935, -0.030563674867153168, 0.018142415210604668, -0.00785705167800188, 0.005511378403753042, 0.03104679472744465, 0.014646153897047043, -0.022121794521808624, -0.01645149663090706, 0.014887713827192783, 0.013654487207531929, -0.011054540984332561, 0.006700106896460056, 0.014544445089995861, -0.030995940789580345, -0.023075321689248085, -0.07511239498853683, -0.009363622404634953, 0.005603552330285311, 0.004208226688206196, -0.013412927277386189, 0.01755758561193943, 0.017659295350313187, 0.006928952876478434, -0.004354433622211218, 0.00013895650045014918, -0.03135192394256592, 0.0068653845228254795, 0.009560683742165565, -0.0043957531452178955, -0.03277585655450821, -0.01156944502145052, 0.03381837531924248, 0.01645149663090706, -0.017023611813783646, 0.010310790501534939, 0.013641773723065853, -0.006598397623747587, 0.03928525745868683, 0.004265438299626112, -0.043099358677864075, -0.0003108890959993005, -0.0030020165722817183, 0.0013031517155468464, -0.014709722250699997, -0.004491105675697327, 0.008492735214531422, -0.033640384674072266, -0.026952991262078285, 0.0419805571436882, -0.014442735351622105, -0.019985897466540337, -0.02654615417122841, 0.011811004020273685, 0.008143109269440174, 0.033487822860479355, -0.011594871990382671, -0.013018803671002388, 0.021002991124987602, -0.014976710081100464, 0.010113729164004326, 0.015739530324935913, 0.005473237484693527, 0.006414049305021763, -0.0009034655522555113, 0.019922329112887383, -0.011976282112300396, 0.038420725613832474, 0.018116988241672516, -0.025529060512781143, 0.013145940378308296, 0.02391442283987999, -0.008435524068772793, 0.048693377524614334, 0.011842788197100163, -0.02204551361501217, 0.035801708698272705, 0.00924919918179512, 0.023177029564976692, 0.002318656537681818, 0.022020086646080017, -0.03526773676276207, -0.011938141658902168, 0.0017004540422931314, -0.013857905752956867, -0.03809017315506935, -0.01863824762403965, -0.0030655849259346724, 0.006147061940282583, 0.010800267569720745, 0.011118109337985516, -0.010660416446626186, 0.0008986979373730719, -0.026190171018242836, -0.007742628455162048, 0.033487822860479355, 0.02034188061952591, -0.012344978749752045, -0.03043653815984726, 0.021041132509708405, 0.026622436940670013, -0.004538781940937042, -0.01771014928817749, -0.009191987104713917, 0.002927323803305626, 0.024511966854333878, 0.002234428422525525, 0.01164572685956955, 0.0073866453021764755, 0.02004946582019329, -0.004522889852523804, -0.016820192337036133, -0.0021803954150527716, -0.0007075954927131534, 0.008867789059877396, 0.012046207673847675, -0.019617201760411263, -0.0051490385085344315, -0.017290597781538963, -0.04752371832728386, -0.01771014928817749, -0.004894765093922615, -0.03343696519732475, -0.008391025476157665, 0.019757051020860672, 0.01571410335600376, -0.006770031992346048, 0.023100748658180237, 0.0021247731056064367, 0.015358120203018188, 0.01773557811975479, 0.</t>
+  </si>
+  <si>
+    <t>[-0.011260990984737873, 0.003974277526140213, 0.011480527929961681, -0.020894819870591164, -0.022806089371442795, 0.004826600197702646, -0.01659446395933628, -0.01823453977704048, 0.011984173208475113, -0.003318892791867256, 0.001447172835469246, 0.0022276616655290127, -0.029650498181581497, 0.0019322542939335108, -0.02475610002875328, -0.0049525112845003605, 0.021346809342503548, -0.012604044750332832, -0.03024454042315483, -0.04321017861366272, -0.005598210263997316, -0.006302022375166416, 0.0005427907453849912, 0.008762135170400143, -0.007619248237460852, -0.016349099576473236, 0.019719647243618965, -0.02276734635233879, -0.005636952351778746, 0.00024354959896299988, -0.0015286924317479134, -0.00916246883571148, -0.01640075445175171, 0.005498127080500126, 0.012210167944431305, 0.004051761236041784, 0.0008127735927700996, 0.007806500885635614, 0.026241207495331764, 0.00033031540806405246, 0.007871070876717567, 0.0046135191805660725, 0.0004979953519068658, 0.0007756459526717663, 0.0037515112198889256, 0.03760550916194916, 0.008684651926159859, -0.004077589139342308, -0.0073867966420948505, -0.004484379664063454, 0.0015262709930539131, 0.035022713243961334, -0.024936895817518234, 0.008497399277985096, -0.030709445476531982, -0.030192885547876358, -0.011273904703557491, 0.010634662583470345, -0.008781506679952145, -0.03943929448723793, -0.004691003356128931, -0.01576796919107437, -0.025324314832687378, 0.014399087987840176, -0.013508022762835026, -0.021785885095596313, -0.013843786902725697, 0.02160508930683136, -0.01832493767142296, -0.039955854415893555, 0.020701110363006592, 0.03318892791867256, 0.026228293776512146, -0.015354722738265991, 0.02345178835093975, -0.01235222164541483, 0.009969593025743961, 0.03052864968776703, 0.012707356363534927, 0.0018273282330483198, -0.01135138887912035, -0.009956678375601768, 0.011454700492322445, 0.03016705811023712, 0.017330560833215714, 0.018428249284625053, -0.010686318390071392, 0.0028104048687964678, -0.02057196944952011, 0.0004709567001555115, 0.018841497600078583, -0.0065473876893520355, -0.0018386279698461294, 0.011538641527295113, 0.00526244705542922, -0.011932517401874065, 0.014683195389807224, 0.016839830204844475, -0.0067733824253082275, -0.011771093122661114, -0.006863780319690704, 0.01955176517367363, -0.023555099964141846, -0.013740474358201027, -0.037476371973752975, -0.0022179761435836554, 0.01783420704305172, -0.019435539841651917, 0.014838162809610367, -0.006837952416390181, -0.00723828561604023, 0.029133938252925873, 0.011454700492322445, -0.04295189678668976, -0.012771925888955593, -0.02887566015124321, 0.0013624249259009957, -0.019370969384908676, 0.0006299600936472416, -0.00970485620200634, 0.02983129397034645, 0.03507436811923981, -0.00329145067371428, -0.01694314181804657, 0.024678615853190422, -0.0038063956890255213, -0.032000843435525894, -0.0030412422493100166, 0.014980216510593891, -0.00012671842705458403, -0.006069570779800415, -0.0035287451464682817, 0.010608834214508533, 0.01265570055693388, -0.004481151234358549, 0.017601754516363144, -0.01584545336663723, 0.011648409999907017, -0.02655114233493805, -0.027145186439156532, 0.0338604561984539, 0.03197501599788666, -0.017369303852319717, 0.00973714143037796, -0.017524270340800285, 0.0522499643266201, -0.0006501381867565215, 0.014902733266353607, 0.003058999078348279, 0.009491775184869766, 0.032827336341142654, 0.016155388206243515, 0.002166320104151964, 0.02538888528943062, 0.023568013682961464, 0.02278026007115841, -0.006941264495253563, 0.023542186245322227, 0.020417002961039543, -0.0060017723590135574, -0.020623626187443733, 0.026938563212752342, -0.017924604937434196, -0.014089152216911316, 0.010757345706224442, 0.02360675483942032, 0.0018499275902286172, 0.009885651990771294, 0.006318164523690939, -0.009446576237678528, -0.0069993771612644196, 0.02010706625878811, -0.031716734170913696, 0.008994586765766144, 0.026938563212752342, 0.02750677801668644, 0.0026538230013102293, 0.013456366956233978, -0.011745264753699303, -0.007251199800521135, -0.0075482213869690895, -0.010473238304257393, 0.025776304304599762, 0.00493636867031455, -0.007864614017307758, 0.0027377638034522533, 0.01907394826412201, -0.014011668041348457, 0.008484484627842903, -0.03708894923329353, 0.009840453043580055, 0.01611664704978466, -0.02017163671553135, -0.00024052287335507572, -0.6504513621330261, 0.01269444264471531, -0.01907394826412201, -0.014334517531096935, -0.02340013161301613, 0.0219537653028965, 0.02895314246416092, 0.017111023887991905, -0.03641742467880249, -0.01073151733726263, -0.004955739714205265, -0.00482014287263155, 0.0003361670533195138, -0.009072070941329002, -0.025970013812184334, -0.012791297398507595, -0.00536898709833622, -0.025195175781846046, 0.023348476737737656, -0.009956678375601768, 0.0014374874299392104, 0.020675282925367355, -0.02585378848016262, 0.009220581501722336, -0.007729017175734043, -0.006837952416390181, 0.017795464023947716, -0.03300813212990761, -0.006402105558663607, -0.016749432310461998, -0.008684651926159859, -0.000369259127182886, -0.023787550628185272, -0.002185691148042679, 0.045715488493442535, 0.029727982357144356, -0.003967820201069117, 0.019926270470023155, 0.018337851390242577, 0.025221003219485283, -0.008968759328126907, -0.004135702271014452, 0.025685906410217285, -0.01238450687378645, 0.014360345900058746, -0.0020097382366657257, 0.03685649856925011, -0.0013616178184747696, -0.005914602894335985, -0.0370631217956543, -0.013327227905392647, -0.010047076269984245, -0.007102689240127802, 0.016516979783773422, -0.0005532833165489137, -0.002216361928731203, 0.02120475471019745, -0.013895442709326744, -0.024988550692796707, -0.0005674079875461757, 0.014114980585873127, 0.019216002896428108, -0.0014818792697042227, -0.03437701612710953, -0.009569259360432625, 0.009995420463383198, -0.041324734687805176, 0.011441786773502827, 1.0738529454101808e-05, 0.00908498466014862, 0.013365969061851501, 0.047575101256370544, -0.011306189931929111, -0.008051866665482521, 0.016839830204844475, 0.014102065935730934, 0.006812124513089657, -0.003790253074839711, -0.003473860677331686, 0.045095618814229965, 0.003929078578948975, -0.0056304954923689365, -0.022651121020317078, 0.0006343992426991463, 0.019216002896428108, -0.0041873580776154995, -0.026383262127637863, -0.009272237308323383, 0.01640075445175171, 0.004190586507320404, 0.020752765238285065, 0.0036869412288069725, 0.013908356428146362, -0.028849830850958824, -0.03559092804789543, 0.022521981969475746, 0.0033866912126541138, 0.022328272461891174, 0.010008334182202816, -0.009846909902989864, -0.017175594344735146, -0.041324734687805176, 0.013508022762835026, -0.013895442709326744, 0.00806478038430214, 0.02483358420431614, -0.01912560500204563, 0.03140680119395256, 0.02879817597568035, -0.002439128002151847, -0.017653411254286766, 0.01934514194726944, -0.005885546561330557, -0.01262341532856226, -0.017808377742767334, -0.02680942229926586, 0.02010706625878811, 0.01182920578867197, 0.0046877749264240265, -0.01214559841901064, 0.044010844081640244, 0.015419292263686657, 0.009556345641613007, -0.02497563697397709, -0.0038419091142714024, 0.00011108040780527517, 0.022586550563573837, -0.03724391758441925, -0.029960433021187782, -0.005184962879866362, 0.0016820458695292473, 0.007961468771100044, 0.020881906151771545, -0.00936263520270586, 0.02680942229926586, 0.030683616176247597, 0.034428671002388, -0.03566841408610344, -0.014592797495424747, -0.015587174333631992, -0.024794841185212135, -0.016284529119729996, 0.0032155809458345175, -0.031303487718105316, -0.010918769985437393, -0.018751099705696106, -0.026654455810785294, 0.027145186439156532, -0.01962924934923649, 0.0013067333493381739, -0.019461367279291153, 0.0027958767022937536, -0.013572593219578266, 0.009104356169700623, 0.016000421717762947, 0.01722724922001362, -0.0009338422096334398, -0.01982295885682106, -0.0311485193669796, 0.001026661368086934, 0.012261823751032352, 0.008968759328126907, -0.012875238433480263, -0.005149449687451124, 0.003551344620063901, -0.01128681842237711, -0.017860034480690956, 0.002937930403277278, 0.006837952416390181, -0.02544054016470909, 0.007961468771100044, -0.0031623109243810177, -0.008955845609307289, 0.03646907955408096, -0.002516611944884062, -0.004387524910271168, 0.0026731938123703003, -0.007031661923974752, -0.020339518785476685, -0.008200377225875854, 0.016426581889390945, 0.013010835275053978, -0.013637162744998932, -0.01423120591789484, 0.004584462847560644, 0.017640497535467148, 0.022689862176775932, -0.02319350838661194, -0.03290482237935066, 0.010686318390071392, 0.0006771768094040453, 0.013972926884889603, -0.0126879857853055, -0.019784217700362206, -0.004352011252194643, 0.01694314181804657, -0.009356178343296051, -0.007141430862247944, -0.0072189150378108025, 0.016013335436582565, 0.02722267061471939, 0.02064945362508297, 0.011938974261283875, 0.0047910865396261215, 0.014683195389807224, -0.0036675704177469015, 0.003670798847451806, -0.015380550175905228, 0.028359100222587585, -0.0002229679375886917, 0.0173563901335001, -0.02957301400601864, -0.02311602421104908, 0.0019806816708296537, -0.0036804843693971634, -0.002269631950184703, 0.020546142011880875, 0.007593420334160328, -0.015419292263686657, 0.01968090608716011, 0.02928890660405159, -0.02311602421104908, 0.00642793346196413, -0.0003646181430667639, -0.03603000566363335, -0.009446576237678528, 0.013004377484321594, 0.02915976755321026, -0.003954906482249498, -0.012778383679687977, -0.0020775366574525833, 0.017408045008778572, -0.008949387818574905, 0.014709023758769035, 0.00696063507348299, 0.027584262192249298, 0.014050410129129887, -0.006818581372499466, 0.019990840926766396, 0.00672172661870718, 0.026628626510500908, 0.02023620717227459, 0.027610089629888535, 0.001569048617966473, -0.001279291114769876, -0.0011574154486879706, 0.03231077641248703, 0.0040097907185554504, 0.0015440277056768537, -0.021295152604579926, -0.024174971505999565, -0.00021711629233323038, 0.00507519394159317, -0.003919392824172974, -0.01900937780737877, 0.013843786902725697, 0.023839207366108894, 0.0009879195131361485, 0.017214335501194, 0.023774636909365654, 0.0031962101347744465, -0.016349099576473236, 0.020520314574241638, 0.0198875293135643, -0.0012114928103983402, -0.012513646855950356, -0.012268280610442162, 0.006741097662597895, 0.0029831293504685163, -0.011370759457349777, 0.0013583892723545432, -0.0017094881040975451, 0.003015414346009493, 0.022199131548404694, -0.009110813029110432, 0.004042075946927071, -0.03352469205856323, -0.01286232378333807, -0.0056208097375929356, 0.029443874955177307, -0.01659446395933628, -0.011938974261283875, 0.0010000263573601842, 0.019513024017214775, 0.008478027768433094, 0.0034060622565448284, -0.022237874567508698, 0.013572593219578266, -0.00711560295894742, 0.020610712468624115, -0.009453033097088337, 0.023568013682961464, -0.028100820258259773, -0.0044036670587956905, -0.00012056410923833027, -0.004891169723123312, -0.010628205724060535, -0.001124323345720768, 0.021308066323399544, -0.028359100222587585, 0.010098732076585293, -0.00658290134742856, 0.0018111857352778316, -0.009775882586836815, 0.03246574476361275, -0.009653200395405293, 0.013314313255250454, -0.026112068444490433, 0.0033350354060530663, 0.025066034868359566, -0.010131017304956913, 0.00805832352489233, 0.0008386015542782843, -0.016413668170571327, -0.011118937283754349, 0.005682151298969984, 0.02119184099137783, 0.013004377484321594, 0.023580927401781082, -0.0047362023033201694, -0.007199543993920088, -0.029314734041690826, -0.01640075445175171, -0.010944598354399204, 0.0816163569688797, 0.012913980521261692, -0.00750947929918766, 0.008000210858881474, -0.010447409935295582, -0.009349721483886242, -0.025685906410217285, 0.007457823492586613, 0.007832328788936138, 0.013779216445982456, -0.0023116024676710367, -0.041195597499608994, 0.03455781191587448, 0.009265780448913574, -0.012713813222944736, -0.0015206211246550083, -0.008426371961832047, -0.009691942483186722, 0.041195597499608994, 0.029934605583548546, -0.010557178407907486, -0.01396001223474741, -0.006059885025024414, 0.03125183284282684, 0.01900937780737877, 0.018815668299794197, 0.019810045138001442, 0.002894345670938492, 0.004858884960412979, -0.03633993864059448, 0.016516979783773422, 0.011719437316060066, 0.008135807700455189, 0.021114356815814972, -0.018557390198111534, 0.0028862745966762304, -0.009814624674618244, 0.014386174269020557, 0.00011955520312767476, 0.004000105429440737, 0.012294108979403973, 0.002137263771146536, 0.015871280804276466, 0.00357394409365952, 0.002537596970796585, -0.008684651926159859, 0.011538641527295113, 0.017524270340800285, -0.022405754774808884, -0.006130911875516176, 0.03280150890350342, 0.005514269694685936, -0.004884712863713503, -0.028694864362478256, -0.019913356751203537, -0.006130911875516176, 0.011189963668584824, -0.0032220380380749702, -0.03189752995967865, -0.015161012299358845, 0.01021495833992958, -0.02701604552567005, -0.003896793583407998, 0.0042519280686974525, -0.03417039290070534, -0.01097688265144825, -0.01505770068615675, -0.009679027833044529, -0.022134561091661453, -0.0006626485846936703, -0.006305250804871321, -0.023761723190546036, -0.008523226715624332, -0.0033544062171131372, 0.046955231577157974, -0.01447657123208046, -0.0020839935168623924, -0.012526560574769974, -0.026434917002916336, 0.01605207659304142, -0.00836180243641138, -0.0015779269160702825, -0.029650498181581497, -0.018479906022548676, -0.01947428286075592, 0.04261613264679909, -0.001286555314436555, -0.016155388206243515, -0.017924604937434196, 0.011106022633612156, 0.001694959937594831, -0.015458034351468086, 0.029727982357144356, -0.0013390183448791504, 0.011790463700890541, -0.0015916480915620923, 0.009026871994137764, 0.018363678827881813, 0.018712356686592102, -0.009614458307623863, 0.0007982453680597246, -0.00998250674456358, -0.017911691218614578, 0.01926765777170658, 0.02399417571723461, -0.004774943925440311, -0.00603405712172389, -0.02776505798101425, -0.012604044750332832, -0.021036872640252113, -0.008768592029809952, -0.010434496216475964, 0.01230702269822359, -0.017872948199510574, -0.03187170252203941, -0.0035061456728726625, -0.009827538393437862, 0.026112068444490433, 0.013223915360867977, 0.009956678375601768, -0.039000220596790314, -0.01625870168209076, 0.0007643462158739567, 0.032491572201251984, -0.01450239960104227, 0.017730895429849625, -0.025827961042523384, -0.01673651859164238, 0.0014116594102233648, -0.0029653727542608976, 0.0016497609904035926, 0.031510110944509506, -0.00714788818731904, -0.006592586636543274, -0.0051236217841506, -0.021101443096995354, 0.008109979331493378, 0.01605207659304142, -0.027455121278762817, -0.019939186051487923, -0.017924604937434196, 0.022728605195879936, 0.00471360282972455, 0.0024003861472010612, -0.02660279907286167, -0.018970636650919914, -0.014915646985173225, 0.01080254465341568, -0.008716936223208904, 0.012804211117327213, 0.0247690137475729, 0.013508022762835026, -0.0034706322476267815, -0.01505770068615675, -0.013456366956233978, -0.057441383600234985, -0.0073222266510128975, -0.009775882586836815, 0.028359100222587585, 0.017459701746702194, 0.002510154852643609, 0.018673615530133247, 0.034196220338344574, 0.010776716284453869, 0.0004374610725790262, -0.0010654033394530416, 0.004474693909287453, 0.007186629809439182, -0.011687152087688446, 0.021824626252055168, 0.0004126420244574547, 0.03182004764676094, -0.014166636392474174, -0.020184550434350967, -0.0044133528135716915, 0.01583253964781761, 0.018131228163838387, -0.005362530238926411, -0.020830249413847923, -0.02352927252650261, 0.015664657577872276, -0.01162903942167759, 0.0042519280686974525, 0.029030626639723778, -0.031380970031023026, 0.02179879881441593, -0.012636329047381878, -0.005788691341876984, 0.00781295821070671, -0.01700771227478981, 0.005846804473549128, -0.032827336341142654, 0.036933984607458115, 0.02524683065712452, -0.008594254031777382, -0.0023099882528185844, -0.020391173660755157, -0.021282238885760307, -0.0014738079626113176, 0.011609667912125587, 0.0044036670587956905, -0.016839830204844475, -0.006779839750379324, -0.006092170253396034, 0.0017450015293434262, 0.008116436190903187, 0.009924394078552723, -0.002156634582206607, -0.010873571038246155, -0.019500110298395157, 0.00018795893993228674, -0.008807334117591381, 0.0004414966970216483, -0.01797625981271267, 0.007606334052979946, 0.007948555052280426, 0.0031671535689383745, 0.02600875496864319, -0.009653200395405293, -0.01392127014696598, 0.02730015479028225, -0.011364302597939968, 0.025466369464993477, 0.005181734450161457, 0.028849830850958824, 0.017730895429849625, -0.01135138887912035, -0.002054937183856964, 0.012985006906092167, -0.007296398747712374, 0.007657990325242281, 0.015561345964670181, 0.002797490917146206, -0.013469281606376171, -0.015651743859052658, -0.0005633723922073841, 0.012629872187972069, -0.010854200460016727, -0.02278026007115841, 0.028617380186915398, -0.0011775936000049114, 0.010027705691754818, -0.009756512008607388, -0.007632162421941757, 0.0066700708121061325, 0.0178212933242321, -0.008148721419274807, -0.01213914155960083, -0.0145411416888237, -0.00861362461000681, -0.0065086460672318935, 0.020210379734635353, -0.026112068444490433, 0.028978971764445305, -0.0027861911803483963, -0.007645076140761375, 0.01872527040541172, -0.01633618399500847, -0.03406707942485809, 0.017717979848384857, -0.0038838793989270926, -0.003867737017571926, -0.006279422901570797, 0.020610712468624115, 0.021566346287727356, 0.0013906742678955197, -0.021514691412448883, -0.01478650700300932, 0.008484484627842903, 0.020894819870591164, -0.012746098451316357, 0.007741930894553661, -0.015096442773938179, 0.019358055666089058, 0.012642786838114262, -0.018053743988275528, -0.014166636392474174, 0.007929183542728424, 0.007419081404805183, -0.01665903441607952, -0.014889818616211414, 0.007864614017307758, -0.0018676844192668796, -0.026447830721735954, 0.006902522407472134, 0.00912372674793005, -0.020455744117498398, 0.005766092333942652, 0.000787752796895802, -0.012436162680387497, -0.004758801776915789, -0.00355780147947371, -0.0029088740702718496, 0.01722724922001362, -0.0018596131121739745, 0.021282238885760307, -0.003128411713987589, 0.02421371266245842, -0.010363468900322914, 0.0012365136062726378, 0.020274948328733444, 0.02044283039867878, 0.0029153309296816587, 0.00037228583823889494, -0.004781401250511408, 0.011344931088387966, 0.01996501348912716, 0.010156845673918724, -0.013075404800474644, -0.02776505798101425, -0.008465114049613476, 0.019590508192777634, 0.018208712339401245, -0.029857121407985687, 0.01097688265144825, -0.009969593025743961, -0.010557178407907486, -0.005672465544193983, -0.03404125198721886, 0.013456366956233978, -0.014257034286856651, 0.028514068573713303, 0.02612498216331005, -0.031045207753777504, 0.014076238498091698, 0.014424915425479412, -0.004865341819822788, 0.0036901698913425207, -0.03238826245069504, -0.013378883711993694, 0.016168303787708282, 0.005788691341876984, 0.010537807829678059, -0.01680108718574047, -0.008174549788236618, -0.017240162938833237, -0.016504066064953804, 0.017059367150068283, -0.015458034351468086, 0.014941475354135036, 0.006747554522007704, 0.007877527736127377, 0.01638784073293209, 0.029676325619220734, -0.01729181967675686, -0.016090819612145424, -0.011325560510158539, -0.01975839026272297, -0.035280995070934296, 0.0058306618593633175, -0.01478650700300932, 0.0209206473082304, 0.0027748914435505867, -0.04295189678668976, -0.01961633563041687, -0.0033221214544028044, -0.037347231060266495, 0.023413045331835747, 0.0010928455740213394, 0.010298899374902248, 0.01864778809249401, 0.02696439065039158, -0.010118103586137295, 0.018492819741368294, -0.02284483052790165, 0.02544054016470909, -0.019099775701761246, 0.0028701319824904203, 0.01940971240401268, -0.024794841185212135, 0.013430539518594742, -0.003457718063145876, -0.03517768159508705, -0.003706312272697687, 0.0311485193669796, 0.009562802501022816, 0.00045077860704623163, 0.02058488503098488, -0.0037159977946430445, -0.00967257097363472, 0.017808377742767334, 0.013533851131796837, 0.005885546561330557, 0.023090196773409843, 0.022005422040820122, -0.027196841314435005, 0.019564678892493248, 0.0004176865331828594, -0.005875860806554556, 0.0016295828390866518, -0.000864429515786469, -0.008277861401438713, 0.004429494962096214, -0.005381901282817125, 0.005033223889768124, -0.004058218095451593, 0.013947098515927792, -0.022935228422284126, -0.0047265165485441685, 0.0045747775584459305, 0.003444804111495614, 0.008219748735427856, 0.009026871994137764, -0.005449699703603983, -0.02305145375430584, -0.014360345900058746, -0.020326605066657066, -0.00632785027846694, 0.014592797495424747, -0.021566346287727356, -0.014114980585873127, -0.02187628298997879, 0.017575927078723907, -0.024317024275660515, -0.002208290621638298, -0.02792002446949482, -0.01700771227478981, -0.01659446395933628, 0.016749432310461998, 0.01104145310819149, -0.030554477125406265, -0.02276734635233879, -0.01237805001437664, -0.0007066368707455695, -0.021153099834918976, 0.003128411713987589, -0.0032446375116705894, -0.03435118868947029, -0.014166636392474174, -0.01734347455203533, -0.04589628428220749, -0.019861701875925064, -0.015315980650484562, 0.02599584124982357, -0.0035804009530693293, 0.004649032838642597, 0.1956726312637329, -0.031303487718105316, -0.005707979202270508, 0.015858367085456848, 0.015264324843883514, 0.0014439444057643414, 0.01392127014696598, -0.0013801816385239363, -0.01708519645035267, 0.028410756960511208, -0.02977963723242283, 0.01926765777170658, -0.02228952944278717, 0.006747554522007704, 0.025970013812184334, -0.013275571167469025, -0.03417039290070534, -0.017033539712429047, -0.005892003420740366, 0.02057196944952011, 0.013650077395141125, 0.00309451250359416, 0.014709023758769035, 0.0012696057092398405, 0.00024314603069797158, -0.022819003090262413, 0.007929183542728424, 0.012455534189939499, 0.03120017610490322, 0.031019380316138268, 0.011661323718726635, -0.01348219532519579, -0.01261695846915245, 0.001540799275971949, -0.007380339782685041, 0.01190023310482502, -0.006766925565898418, -0.02093356102705002, 0.028307443484663963, 0.020675282925367355, -0.009498232044279575, -0.007735474035143852, -0.02208290621638298, 0.0038548230659216642, -0.010415124706923962, -0.005662780255079269, 0.0048879412934184074, -0.017240162938833237, -0.0027748914435505867, 0.004487608093768358, -0.027532605454325676, -0.000780488655436784, -0.012061657384037971, 0.03401542454957962, 0.003599771996960044, -0.013817958533763885, 0.005346387624740601, -0.007289941888302565, 0.03324058651924133, 0.013740474358201027, -0.017240162938833237, 0.031923357397317886, -0.014037496410310268, 0.010234328918159008, 0.006005000788718462, 0.0054529281333088875, -0.005908146034926176, 0.013094775378704071, 0.00618902500718832, -0.004865341819822788, 0.0048879412934184074, 0.011654866859316826, -0.03538430482149124, -0.011693608947098255, -0.0003157871833536774, -0.007625705096870661, 0.0247690137475729, -0.000184629563591443, 0.04176381230354309, 0.013637162744998932, 0.0002833004400599748, 0.0004624818975571543, -0.025905443355441093, 0.009898565709590912, -0.0031267974991351366, 0.007089775055646896, 0.012991463765501976, 0.0182474534958601, -0.015315980650484562, -0.017911691218614578, -0.005646637640893459, -0.0042357854545116425, 0.0008539369446225464, 0.018273280933499336, 0.00915601197630167, -0.006908979266881943, 0.003535202005878091, 0.026706110686063766, -0.026938563212752342, 0.010195586830377579, -0.018492819741368294, 0.05336056649684906, 0.021501777693629265, -0.026099152863025665, -0.014760679565370083, 0.006792753469198942, 0.020675282925367355, 0.004988024942576885, 0.018428249284625053, -0.002277703257277608, -0.015793798491358757, -0.009782339446246624, -0.0014084309805184603, -0.004807229153811932, 0.009272237308323383, 0.014373259618878365, 0.021927937865257263, -0.027480948716402054, 0.02688690647482872, -0.02278026007115841, 0.0021421064157038927, -0.02173422835767269, 0.02504020743072033, 0.004584462847560644, 0.005055823363363743, -0.015935851261019707, -0.03765716776251793, 0.020081238821148872, -0.011499899439513683, -0.022379927337169647, 0.0031461683101952076, 0.01878984086215496, 0.016000421717762947, 0.008051866665482521, -0.010163302533328533, -0.013740474358201027, 0.008316603489220142, -0.009582173079252243, -0.013766302727162838, 0.009369092993438244, -0.009859823621809483, -0.0332147553563118, 0.00357394409365952, -0.020326605066657066, -0.014360345900058746, 0.007948555052280426, -0.0019435540307313204, 0.018286196514964104, 0.000744975230190903, -0.021101443096995354, 0.005314102862030268, -0.015135184861719608, -0.017123937606811523, -0.03512602671980858, 0.016697775572538376, -0.010202044621109962, -0.01183566264808178, -0.020468657836318016, 0.009795254096388817, 0.018970636650919914, -0.02044283039867878, -0.010156845673918724, 0.012507189996540546, -0.006147054489701986, -0.00442626653239131, 0.01152572687715292, -0.16188965737819672, 0.019254744052886963, 0.003748282790184021, 0.008245576173067093, -0.005046137608587742, -0.010608834214508533, 0.013740474358201027, 0.001293819397687912, -0.02303854003548622, 0.019151432439684868, 0.023981260135769844, -0.00645053293555975, -0.042900241911411285, -0.028772348538041115, 0.00406467542052269, -0.01837659440934658, -0.0012760626850649714, 0.011177049949765205, 0.018880238756537437, -0.00809706561267376, 0.00033314034226350486, -0.03003791719675064, 0.0210627019405365, -0.0009289994486607611, -0.002799105131998658, 0.02298688516020775, -0.014218292199075222, 0.007754845079034567, -0.0019370970549061894, -0.00029560906114056706, -0.0026166951283812523, -0.01423120591789484, 0.040911488234996796, -0.006340763997286558, 0.005559468641877174, -0.016142474487423897, -0.022405754774808884, -0.013301399536430836, -0.01529015228152275, -0.002292231423780322, 0.028849830850958824, -0.0037515112198889256, -0.012700899504125118, -0.040782347321510315, -0.010583006776869297, 0.035280995070934296, 0.00687669450417161, -0.017162678763270378, 0.009097899310290813, -0.004200271796435118, 0.02915976755321026, -0.01584545336663723, 0.014709023758769035, 0.0009628986590541899, 0.023438874632120132, 0.02825578860938549, 0.00039125324110500515, 0.018970636650919914, 0.010034162551164627, -0.004258384928107262, -0.013934184797108173, -0.020972304046154022, 0.01474776491522789, -0.026292864233255386, 0.005798377096652985, -0.008161635138094425, -0.001736930338665843, 0.015419292263686657, -0.0001589024905115366, 0.001082352944649756, 0.025698820129036903, -0.0027539061848074198, -0.007625705096870661, -0.018957722932100296, 0.0077096461318433285, -0.005594981834292412, -0.010854200460016727, -0.015199754387140274, -0.009453033097088337, -0.004636118654161692, 0.007089775055646896, 0.04080817848443985, -0.004578005988150835, -0.006098627112805843, -0.02921142242848873, -0.021566346287727356, -0.007987297140061855, 0.020752765238285065, -0.016697775572538376, 0.007444909308105707, 0.0009193139849230647, -0.031923357397317886, -0.0034286617301404476, -0.002973443828523159, 0.02408457361161709, 0.033989597111940384, 0.003247865941375494, 0.027945853769779205, 0.02063653990626335, -0.0026990219485014677, -0.0033544062171131372, 0.007967925630509853, -0.020249120891094208, 0.010072904638946056, 0.027480948716402054, 0.023219335824251175, 0.003425433300435543, 0.01702062599360943, 0.047161854803562164, 0.006637785583734512, -0.003480317536741495, 0.00035493267932906747, 0.011971259489655495, 0.024174971505999565, -0.016362013295292854, 0.00997604988515377, 0.0332147553563118, -0.012003544718027115, 0.01179692056030035, 0.00727057084441185, 0.005724121816456318, -0.03094189614057541, -0.027816712856292725, 0.011222248896956444, -0.015897110104560852, 0.0034932317212224007, -0.08864156156778336, -0.022715691477060318, 0.020184550434350967, 0.011648409999907017, 0.009285151958465576, 0.00998250674456358, -0.014347432181239128, 0.017240162938833237, 0.006308479234576225, 0.01320454478263855, -0.0311485193669796, -0.004933140240609646, 0.0110479099676013, 0.006947721354663372, 0.04189295321702957, 0.007464280351996422, -0.0063859629444777966, 0.012507189996540546, -0.005930745508521795, 0.014902733266353607, -0.00766444718465209, -0.002108207205310464, 0.011603211052715778, -0.016439497470855713, -0.013430539518594742, -0.0024923982564359903, -0.029030626639723778, 0.02524683065712452, 0.025427626445889473, 0.012720270082354546, -0.019241830334067345, -0.028229961171746254, 0.004949282854795456, -0.03905187547206879, 0.018337851390242577, -0.004006562288850546, -0.009814624674618244, -0.012022915296256542, 0.011144764721393585, -0.023516356945037842, -0.006101855542510748, 0.010021248832345009, 0.01693022809922695, -0.03197501599788666, 0.011654866859316826, -0.028978971764445305, 0.003996876999735832, 0.009491775184869766, 0.002046865876764059, -0.010686318390071392, -0.038096241652965546, -0.0048491996712982655, -0.021243497729301453, -0.01018912997096777, -0.002637680387124419, 0.005381901282817125, 0.0028297759126871824, 0.01576796919107437, -0.009775882586836815, -0.0017756723100319505, 0.01880275458097458, 0.005753178149461746, -0.013598420657217503, -0.012455534189939499, 0.016478238627314568, 0.008594254031777382, -0.009892108850181103, 0.016516979783773422, 0.011422415263950825, -0.03300813212990761, 0.007122059818357229, -0.02949552983045578, -0.005930745508521795, 0.006408562418073416, -0.030916068702936172, -0.029934605583548546, -0.020145809277892113, -0.015755055472254753, 0.015277238562703133, -0.03065778873860836, -0.020339518785476685, -0.017872948199510574, -0.0020129666663706303, 0.002003281144425273, 0.010757345706224442, 0.019810045138001442, 0.002763591706752777, -0.029727982357144356, 0.02600875496864319, -0.02330973371863365, 0.02093356102705002, 0.032749854028224945, 0.034402843564748764, -0.026047497987747192, -0.019564678892493248, 0.020972304046154022, 0.03210415318608284, -0.021501777693629265, -0.002222818788141012, 0.024536561220884323, -0.012436162680387497, -0.007993753999471664, -0.06797919422388077, 0.017924604937434196, 0.02895314246416092, -0.0069929203018546104, -0.0010323112364858389, 0.0006670877919532359, 0.03174256160855293, -0.002644137479364872, 0.004142159130424261, -0.0010880028130486608, -0.03267236799001694, 0.0038257665000855923, 0.0037579683121293783, 0.005333473905920982, -0.01844116300344467, -0.01611664704978466, 0.028281616047024727, -0.0002889503084588796, -0.009375549852848053, 0.024510733783245087, 0.015044786967337132, -0.0021146642975509167, 0.02730015479028225, 0.011538641527295113, -0.033033959567546844, -0.008316603489220142, -0.024923982098698616, 0.0006053427932783961, -0.014050410129129887, 0.02188919670879841, 0.005323788151144981, -0.028514068573713303, -0.013546764850616455, 0.02846241183578968, 0.0018676844192668796, -0.042822759598493576, -0.04023996368050575, 0.02236701361835003, -0.01289460901170969, 0.046335361897945404, -0.0219537653028965, -0.019810045138001442, 0.013430539518594742, -0.016568636521697044, -0.020830249413847923, 0.012197254225611687, 0.00812935084104538, -0.011338474228978157, 0.021346809342503548, 0.02776505798101425, -0.0006142211495898664, 0.01235222164541483, 0.016297442838549614, -0.011848576366901398, 0.0036094575189054012, 0.021230584010481834, -0.0197454746812582, 0.05506521090865135, 0.026525314897298813, -0.008839619345963001, 0.0474717915058136, 0.0030541562009602785, -0.007754845079034567, 0.010453866794705391, 0.014360345900058746, -0.035435959696769714, -0.007748388219624758, -0.011712979525327682, 0.014941475354135036, -0.0409889742732048, -0.007089775055646896, 0.006369820795953274, 0.017885861918330193, 0.008252033032476902, 0.0016820458695292473, -0.006256823427975178, -0.016219958662986755, -0.006279422901570797, -0.0026392946019768715, 0.032000843435525894, 0.0032591656781733036, -0.009504688903689384, -0.02330973371863365, 0.02859155274927616, 0.02365841157734394, -0.0016061762580648065, -0.022664034739136696, -0.014192463830113411, -0.00970485620200634, 0.021114356815814972, 0.011577382683753967, 0.019228916615247726, -0.010279527865350246, 0.01681400276720524, -0.0020694653503596783, 0.003112269099801779, -0.004193814937025309, -0.006715269759297371, 0.00836180243641138, 0.024923982098698616, 0.00888481829315424, 0.011396587826311588, -0.010105189867317677, -0.02660279907286167, -0.011215792037546635, 0.008858989924192429, -0.026654455810785294, -0.012274738401174545, 0.02367132529616356, 0.013353055343031883, -0.012571759521961212, 0.022108733654022217, 0.01320454478263855, 0.005097793415188789, 0.</t>
+  </si>
+  <si>
+    <t>[-0.017932137474417686, -0.00818641111254692, 0.00585063174366951, -0.026942942291498184, -0.03747471794486046, 0.01000774372369051, -0.010800182819366455, -0.023952122777700424, 0.017881013453006744, 0.009963009506464005, -0.008812693879008293, -0.009496492333710194, 0.003540415083989501, -0.022469492629170418, -0.01619388349354267, 0.008921334519982338, 0.03484177589416504, 0.006735735572874546, 0.00137718312907964, -0.013573721051216125, -0.010250587947666645, 0.011253918521106243, 0.009093881584703922, -0.012742937542498112, 0.022980744019150734, -0.010832136496901512, 0.025409188121557236, -0.030521700158715248, -0.009438976645469666, -0.001026496640406549, -0.0054224589839577675, 0.007668768987059593, -0.0028310539200901985, -0.02732638083398342, -0.005815483164042234, -0.0008347774855792522, 0.0143405981361866, 0.00022906453523319215, 0.019018547609448433, -0.014302254654467106, 0.0010856101289391518, 0.022673994302749634, 0.011298652738332748, -0.004824934061616659, -0.004511792678385973, 0.02978038601577282, 0.005463997833430767, 0.008454818278551102, -0.017765982076525688, -0.008256708271801472, -0.008442036807537079, 0.0274541936814785, 0.0004784992488566786, 0.005131684709340334, -0.03087957762181759, -0.0439164824783802, 0.004115572664886713, 0.005479974672198296, -0.0034030163660645485, -0.03302683308720589, -0.019606485962867737, -0.0038599472027271986, -0.027300817891955376, 0.02732638083398342, -0.02581818960607052, -0.023568684235215187, -0.01405941043049097, 0.0068188137374818325, -0.015324756503105164, -0.004901621490716934, 0.028451133519411087, 0.01412331685423851, 0.02318524569272995, 0.00025382827152498066, 0.04130910336971283, 0.0011910557514056563, 0.01659010350704193, 0.023019088432192802, 0.023070214316248894, 0.009247257374227047, -0.0015505292685702443, -0.03149307891726494, -0.012346718460321426, 0.006857157684862614, 0.025971565395593643, 0.01618110202252865, -0.011126105673611164, 0.008020254783332348, 0.0019715128000825644, -0.004805761855095625, -0.004645995795726776, 0.013842128217220306, -0.004572503734380007, 0.0039238533936440945, -0.014660130254924297, 0.004310487303882837, 0.0013228626921772957, 0.001204635831527412, -0.007457877974957228, -0.03128857910633087, -0.011324215680360794, 0.012103874236345291, -0.009215304628014565, -0.014928537420928478, -0.04440217465162277, -0.0013508216943591833, 0.01366319041699171, -0.017957700416445732, 0.014532317407429218, -0.010365619324147701, -0.0011559071717783809, 0.03747471794486046, 0.0036778138019144535, -0.05227544158697128, -0.002279861131682992, -0.009637086652219296, 0.021050771698355675, 0.010678760707378387, 0.017369762063026428, 0.0008243926567956805, 0.022648431360721588, 0.0044958158396184444, 0.014148878864943981, -0.027173005044460297, 0.04373754560947418, 0.00547677930444479, -0.02015608176589012, -0.011560669168829918, 0.005940100643783808, -0.02001548744738102, -0.0034733132924884558, -0.014481192454695702, 0.02309577539563179, 0.0005547875189222395, -0.019517017528414726, -0.006074304226785898, -0.00017424482211936265, -0.015912696719169617, -0.0066910008899867535, 0.0019635243806988, 0.03049613907933235, 0.037065718322992325, -0.030675075948238373, -1.3767337804893032e-05, -0.011522325687110424, 0.047009553760290146, -0.012544828467071056, 0.03330802172422409, -0.003212894778698683, 0.0014067398151382804, 0.027045192196965218, -0.02282737009227276, -0.010186681523919106, 0.003613907378166914, 0.012691812589764595, 0.0023741230834275484, -0.006074304226785898, 0.009438976645469666, 0.009669039398431778, -0.005051801446825266, -0.022316118702292442, 0.02296796254813671, -0.009579570963978767, -0.014839068055152893, 0.021101895719766617, 0.04199929162859917, 0.010410354472696781, -0.0008691271650604904, -0.004818543326109648, -0.0094581488519907, -0.0009058733703568578, 0.03916184604167938, -0.03514852374792099, 0.02037336304783821, -9.32134862523526e-05, 0.02261008694767952, 0.010129165835678577, 0.019171923398971558, -0.011362559162080288, -0.0005336184985935688, 0.009490101598203182, -0.002821468049660325, 0.02309577539563179, 0.01952979899942875, -0.010237806476652622, -0.016820166260004044, 0.012736547738313675, 0.0004641202976927161, 0.0204500500112772, -0.021574804559350014, 0.0094581488519907, -0.010282541625201702, 0.014033847488462925, -0.008269489742815495, -0.6437675952911377, -0.0011463211849331856, -0.0004237793618813157, -0.003310352098196745, -0.0032160901464521885, 0.015030787326395512, 0.010256978683173656, 0.002783124102279544, -0.01412331685423851, -0.008697662502527237, -0.014647348783910275, -0.00216163438744843, -0.004754636902362108, -0.02727525494992733, -0.027173005044460297, -0.007445096503943205, 0.0032592269126325846, -0.04217822849750519, 0.02788875624537468, 0.003479704027995467, -0.029115760698914528, 0.017497574910521507, 0.007048876956105232, 0.009304773062467575, -0.012602344155311584, 0.016487853601574898, 0.0022862518671900034, 0.006301172077655792, 0.015260850079357624, -0.014519535936415195, -0.035301901400089264, -0.005147661082446575, -0.005639740731567144, 0.0059432960115373135, 0.033231332898139954, 0.008128895424306393, -0.0027575616259127855, 0.027121879160404205, 0.0015657070325687528, 0.026994066312909126, -0.0108257457613945, 0.0033902348950505257, 0.03246445581316948, -0.014072190970182419, 0.011062199249863625, 0.018558422103524208, 0.02221386693418026, 0.025537000969052315, 0.022405587136745453, -0.0021696225740015507, -0.005754772108048201, 0.0011862626997753978, 0.0021009230986237526, 0.007739066146314144, 0.01644950918853283, 0.0026441277004778385, 0.017535919323563576, -0.014570660889148712, 0.012282812036573887, 0.0009410218917764723, 0.00016875285655260086, -0.0007493026205338538, -0.009796852245926857, -0.013343658298254013, -0.00906192883849144, 0.01330531481653452, -0.03154420480132103, 0.010844917967915535, 0.0018516882555559278, -0.008525114506483078, 0.02235446125268936, 0.03972422331571579, -0.018596764653921127, 0.010097213089466095, -0.004713097587227821, 0.01657732203602791, -0.004390370100736618, 0.004908012226223946, 0.013982722535729408, 0.02855338342487812, 0.03159532696008682, -0.004435104783624411, -0.009969400241971016, -0.0041027916595339775, 0.034995149821043015, 0.007451487239450216, 0.004658777266740799, -0.010487041436135769, 0.029192447662353516, 0.009624305181205273, 0.01641116663813591, -0.008761568926274776, -0.02138308435678482, -0.022712336853146553, -0.0017446449492126703, 0.019938800483942032, 0.012276421301066875, 0.00490481685847044, -0.002810284262523055, -0.021280834451317787, -0.00561098288744688, 0.0035468055866658688, 0.012027186341583729, -0.004221018403768539, -0.005118903238326311, -0.0012653468875214458, -0.027991008013486862, 0.016743479296565056, 0.029243573546409607, -0.005227544344961643, -0.01042313501238823, 0.012889922596514225, 0.0014235152630135417, -0.007406753022223711, -0.026994066312909126, -0.016027728095650673, 0.00798830110579729, 0.017050229012966156, 0.02133195847272873, 0.00941341370344162, 0.0296014491468668, 0.006307562347501516, -0.003840775229036808, -0.025370843708515167, 0.0016535783652216196, 0.0015872754156589508, 0.004914402961730957, -0.03588983789086342, -0.02124249003827572, 0.0045533315278589725, 0.024565624073147774, 0.011145277880132198, 0.02367093414068222, -0.024131059646606445, 0.026278315111994743, 0.04095122590661049, 0.03617102652788162, -0.010129165835678577, -0.01211665477603674, -0.003626688616350293, -0.01900576613843441, -0.017893794924020767, 0.008908553048968315, -0.03752584382891655, -0.007675159722566605, -0.03681009262800217, -0.01330531481653452, 0.01846895180642605, -0.024258872494101524, -0.011714044958353043, -0.022188305854797363, -0.015324756503105164, -0.00791800394654274, 0.025230249390006065, 0.01738254353404045, 0.026457253843545914, -0.014391723088920116, -0.012468140572309494, -0.0019475477747619152, -0.004908012226223946, 0.007892441935837269, 0.0033710631541907787, -0.03494402393698692, -0.007515393663197756, 0.012653469108045101, -0.020731238648295403, -0.012615124695003033, 0.006508867722004652, -0.011113324202597141, -0.03144195303320885, -0.010372010059654713, -0.004777004010975361, -0.012218905612826347, 0.010244197212159634, 0.0058250692673027515, -0.026738442480564117, -0.021063553169369698, -0.013011344708502293, -0.02498740516602993, -0.007061658427119255, -0.006259632762521505, -0.005045411176979542, 0.0030275662429630756, -0.020130518823862076, 0.01095355860888958, -0.002377318451181054, 0.03563421219587326, -0.012436186894774437, -0.003081886563450098, 0.045169051736593246, 0.0066910008899867535, 0.002176013309508562, -0.01632169634103775, -0.026738442480564117, -0.008429255336523056, -0.01345868967473507, -0.02089739590883255, 0.0016871291445568204, -0.014685693196952343, 0.03241332992911339, 0.02221386693418026, 0.038113784044981, 0.021536460146307945, 0.0032720081508159637, 0.012078311294317245, -0.004757832270115614, 0.01659010350704193, -0.023990465328097343, 0.051892004907131195, -0.014366161078214645, 0.014864630997180939, -0.027837632223963737, -0.017229167744517326, -0.022226648405194283, 0.007483440451323986, -0.009221694432199001, -0.0037033765111118555, -0.010365619324147701, -0.019810987636446953, 0.028783446177840233, 0.011950498446822166, 0.0025866120122373104, 0.013509814627468586, -0.0009522055042907596, -0.02732638083398342, -0.0074898311868309975, 0.00619253097102046, 0.029678136110305786, 0.004304096568375826, 0.012615124695003033, -0.014021066017448902, 0.014442848041653633, -0.02094852179288864, 0.004284924827516079, -0.011317824944853783, 0.037858158349990845, 0.010026915930211544, -0.011356168426573277, -0.0010927995899692178, 0.010704323649406433, -0.0029908199794590473, 0.022226648405194283, 0.03494402393698692, 0.013957159593701363, 0.022495055571198463, -0.00665265740826726, 0.018839608877897263, -0.0006722155376337469, -0.03770478069782257, -0.01016111858189106, -0.009010803885757923, -0.015503695234656334, -0.016296133399009705, 0.0037161577492952347, -0.010499822907149792, -0.003329523839056492, 0.023594245314598083, -0.0014307047240436077, 0.010800182819366455, 0.01330531481653452, 0.01000774372369051, -0.0002634142292663455, 0.04148804023861885, 0.0017686098581179976, 0.017970481887459755, -0.018059950321912766, 0.006131819915026426, -0.00036027238820679486, 0.009068319573998451, -0.010499822907149792, -0.03128857910633087, -0.008454818278551102, 0.004783394746482372, -0.007042486220598221, -0.0028438351582735777, 0.0016240215627476573, 0.0043871751986444, -0.011183621361851692, -0.0028741906862705946, 0.02353033982217312, 0.00928560085594654, -0.025498656556010246, 0.002893362659960985, 0.028476696461439133, 0.00014718444435857236, -0.019261391833424568, -0.02252061851322651, 0.011822685599327087, -0.014915755949914455, 0.01555482018738985, 0.00409320555627346, 0.003125023329630494, -0.03318020701408386, 0.016705134883522987, -0.004987895023077726, -0.010550947859883308, -0.0037640875671058893, -0.013471471145749092, 0.018315576016902924, -0.013599283993244171, 0.012135826982557774, -0.015759320929646492, -0.007962738163769245, 0.0006510465173050761, 0.018711796030402184, -0.0034094068687409163, 0.022955182939767838, -0.007572909351438284, -0.011464809998869896, 0.012346718460321426, -0.025754282251000404, 0.004032494500279427, 0.016730697825551033, -0.009496492333710194, -0.009969400241971016, 0.007362018339335918, 0.006093475967645645, 0.00039042820571921766, 0.018724577501416206, -0.02015608176589012, -0.006569578777998686, -0.0390595979988575, -0.015248069539666176, -0.01745923049747944, 0.06794529408216476, 0.01412331685423851, -0.024131059646606445, 0.007074439432471991, -0.015184163115918636, -0.017267512157559395, -0.025933220982551575, -0.006202117074280977, 0.001016111928038299, -0.010129165835678577, -0.011317824944853783, -0.005694061052054167, 0.01117723062634468, 0.03013826161623001, -0.030521700158715248, -0.016526198014616966, -0.00645454740151763, -0.0002781926013994962, 0.022852931171655655, 0.006205312442034483, -0.008908553048968315, -0.017612606287002563, 0.01000774372369051, 0.044453296810388565, 0.024923499673604965, -0.002596197882667184, 8.792123844614252e-05, 0.0038088220171630383, -0.010346448048949242, -0.036707840859889984, -0.009343116544187069, -0.0042977058328688145, -0.015414225868880749, -0.00020629787468351424, -0.00399095518514514, 0.023249151185154915, -0.004042080603539944, 0.01027615088969469, 0.0019411571556702256, -0.017714856192469597, 0.017280293628573418, 0.014992443844676018, -0.015733757987618446, -0.005703647155314684, 0.005007067229598761, 0.020782364532351494, -0.0037449155934154987, 0.027863195165991783, -0.021651491522789, 0.00466516800224781, 0.03911072388291359, -0.01555482018738985, 0.005524708889424801, -0.009093881584703922, 0.010800182819366455, 0.005959272850304842, 0.007425924763083458, 0.026380565017461777, -0.024603966623544693, 0.004703511483967304, -0.0052531068213284016, -0.03159532696008682, 0.0062692188657820225, -0.006237265653908253, -0.03307795897126198, -0.013420346193015575, 6.240860238904133e-05, 0.014187222346663475, -0.011822685599327087, -0.0032304690685123205, 0.0005356156034395099, -0.044146548956632614, -0.008058598265051842, -0.0175487007945776, 0.013586502522230148, -0.014902974478900433, -0.008218363858759403, 0.007413143292069435, 0.0008906955481506884, 0.02507687546312809, 0.0023309863172471523, 0.00864653754979372, -0.02098686434328556, -0.016219446435570717, 0.013548159040510654, 0.003450946183875203, 0.009726555086672306, 0.01198884192854166, -0.020526738837361336, 0.018865171819925308, 0.014366161078214645, 0.007131955120712519, 0.013407564722001553, 0.015503695234656334, -0.0020849464926868677, -0.0025003382470458746, 0.00298123387619853, 0.009081101045012474, 0.0020513958297669888, 0.00432326877489686, 0.010947167873382568, -0.0017797935288399458, -0.02947363629937172, 8.093147334875539e-05, 0.017254730686545372, -0.0022894470021128654, -0.0005639740847982466, -0.00941341370344162, -0.006371468771249056, 0.0046523865312337875, 0.007349236868321896, -0.02565203234553337, 0.024795686826109886, -0.02041170746088028, -0.029090197756886482, -0.015631508082151413, -0.012621515430510044, 0.027965445071458817, 2.4564025807194412e-05, -0.025498656556010246, -0.014251128770411015, -0.014110535383224487, 0.014493973925709724, 0.03949416056275368, -0.01460900530219078, 0.014187222346663475, -0.026815129444003105, -0.016219446435570717, -0.01596382074058056, 0.004173088353127241, -0.01460900530219078, -0.0013947574188932776, -0.015951039269566536, -0.01035922858864069, -0.015874352306127548, -0.012832406908273697, -0.029371386393904686, 0.009886321611702442, -0.041334666311740875, -0.023479213938117027, -0.005090145394206047, 0.005176418926566839, 0.015644289553165436, -0.011464809998869896, -0.006965798791497946, -0.018494514748454094, -0.0009625902748666704, -0.010065259411931038, -0.013420346193015575, 0.004955941811203957, -0.0068891108967363834, -0.007464268710464239, -0.021651491522789, -0.01843060925602913, 0.019210265949368477, -0.018545640632510185, -0.007860488258302212, 0.007528175134211779, 0.03289901837706566, 0.028221070766448975, 0.01592547632753849, -0.008205583319067955, 0.028757883235812187, 0.0024316387716680765, 0.007355627603828907, 0.0026153698563575745, 0.00042697470053099096, 0.020616207271814346, -0.03430496156215668, 0.001326856785453856, 0.02252061851322651, -0.005010262597352266, -0.004412737675011158, -0.008288661018013954, -0.01528641302138567, 0.010046087205410004, -6.49049470666796e-05, -0.007061658427119255, -0.030112700536847115, -0.016922418028116226, -0.007349236868321896, -0.012602344155311584, 0.0047993711195886135, 0.02450171671807766, -0.016871292144060135, 0.001890032086521387, 0.022290555760264397, -0.01680738478899002, 0.00436480762436986, -0.02032223716378212, 0.010857698507606983, -0.029627012088894844, 0.03801153227686882, 0.004866472911089659, -0.012417015619575977, -0.004860082641243935, 0.004550136160105467, -0.0286811962723732, -0.014749599620699883, 0.005524708889424801, -0.0009346312144771218, -0.007643206510692835, 0.023376964032649994, -0.015414225868880749, -0.004917598329484463, -0.012455359101295471, 0.017356980592012405, -0.01238506194204092, -0.0059241242706775665, -0.012608734890818596, -0.02581818960607052, 0.014775161631405354, 0.01156705990433693, -0.02903907187283039, 0.022149961441755295, 0.010940777137875557, 0.00791800394654274, 0.021089114248752594, 0.005793116055428982, -0.01807273179292679, 0.028783446177840233, 0.0025898071471601725, 0.033231332898139954, 0.015363100916147232, 0.03289901837706566, 0.019427549093961716, -0.021127458661794662, -0.014315035194158554, 0.04215266928076744, -0.004534159786999226, 0.0021312786266207695, 0.03540414944291115, 0.018839608877897263, 0.006496086250990629, -0.037730343639850616, -0.0009538031299598515, 0.007119174115359783, 0.00798191037029028, -0.024182185530662537, 0.026687316596508026, -0.022852931171655655, 0.016641229391098022, -0.012896313332021236, 0.007298111915588379, -0.005054996814578772, -0.0019571338780224323, -0.01097912061959505, 0.008838256821036339, -0.014200003817677498, -0.01641116663813591, -0.016385603696107864, 0.012768500484526157, -0.020667333155870438, 0.03315464407205582, -0.005342575721442699, 0.001125551643781364, 0.0053010364063084126, 0.01271098479628563, -0.02547309547662735, 0.025179125368595123, -0.005604592151939869, 0.012685421854257584, -0.0071447365917265415, 0.00736840907484293, 0.005320208612829447, -0.004540550522506237, -0.001125551643781364, -0.006256437394768, -0.008755178190767765, 0.0299081988632679, -0.024028809741139412, -0.0030323590617626905, -0.02551143802702427, 0.020079392939805984, -0.007234205491840839, -0.008109723217785358, -0.011714044958353043, 0.027786506339907646, -0.01653897948563099, -0.018162202090024948, -0.004016517661511898, 0.0011143679730594158, -0.008205583319067955, -0.007611253298819065, -0.005716428160667419, 0.039749786257743835, -0.00029556715162470937, -0.0018293209141120315, -0.003962197341024876, -0.03269451856613159, -0.01476238016039133, -0.007579300086945295, 0.005256302189081907, -0.0012877141125500202, 0.00024544054758735, 0.013318095356225967, -0.010812964290380478, 0.04552692547440529, 0.010365619324147701, 0.03026607446372509, -0.015465350821614265, 0.01212304551154375, -0.00426894798874855, -0.010710714384913445, -0.01278128195554018, -0.01882682740688324, 0.020398925989866257, -0.002720815362408757, -0.028911259025335312, -0.009694602340459824, -0.0062979767099022865, 0.003815212519839406, -0.0054703885689377785, -0.04869668185710907, 0.0013835737481713295, -0.004546940792351961, 0.004923988599330187, 0.005920928902924061, -0.04205041751265526, 0.04711180552840233, 0.027863195165991783, 0.01225085835903883, 0.006051937118172646, 0.010576510801911354, -0.0007093611638993025, -0.006582360249012709, -0.004783394746482372, -0.013842128217220306, -0.029013508930802345, -0.013842128217220306, -0.019849330186843872, 0.010455088689923286, 0.022111617028713226, -0.0001078420682461001, -0.011279481463134289, -0.019031329080462456, -0.034739524126052856, 0.013030516915023327, 0.0037385248579084873, -0.005681279581040144, 0.021216927096247673, 0.04074672609567642, 0.027607569471001625, 0.018417827785015106, -0.004457471892237663, -0.008895772509276867, -0.015273631550371647, -0.02929469756782055, -0.04199929162859917, 0.003227273700758815, -0.014992443844676018, 0.03484177589416504, 0.009764899499714375, -0.012020795606076717, -0.033410269767045975, 0.02477012388408184, -0.01812385767698288, 0.0019379619043320417, -0.002537084510549903, 0.005249911453574896, 0.026585066691040993, 0.02464231103658676, -0.0069466265849769115, 0.012889922596514225, -0.021651491522789, 0.029269134625792503, -0.008173629641532898, 0.0056173731572926044, 0.0045756991021335125, -0.007285330444574356, 0.04015878587961197, 0.02581818960607052, -0.012365889735519886, -0.03404933586716652, 0.033231332898139954, -0.024207748472690582, 0.008486771024763584, 0.027965445071458817, -0.02983151189982891, -0.007534565404057503, 0.0192230474203825, 0.0015281620435416698, 0.01636004075407982, 0.02586931362748146, 0.03668227791786194, -0.011253918521106243, -0.016730697825551033, -0.012065529823303223, -0.006448156666010618, -0.014749599620699883, 0.008940506726503372, -0.016692353412508965, 0.0035500009544193745, 0.0274541936814785, -0.0013084837701171637, 0.002064177067950368, 0.011982452124357224, 0.0034733132924884558, 0.015337537974119186, -0.001161498948931694, -0.009081101045012474, 0.0042306045070290565, 0.004192260559648275, -0.0061989217065274715, -0.032617829740047455, -0.004374393727630377, -0.01817498356103897, -0.010614854283630848, 0.002423650585114956, -0.014519535936415195, 0.02860450930893421, -0.018226107582449913, 0.017561480402946472, -0.023249151185154915, 0.00456291763111949, -0.008243926800787449, -0.001934766536578536, -0.04020991176366806, 0.02542196959257126, -0.012391452677547932, -0.01601494662463665, -0.013957159593701363, -0.02837444469332695, -0.016526198014616966, -0.010851308703422546, -0.009432585909962654, -0.009637086652219296, -0.01299856323748827, -0.005189200397580862, 0.011784342117607594, -0.01904411055147648, -0.03146751597523689, -0.0002194785774918273, 0.000277793180430308, 0.004415933042764664, 0.0028006983920931816, 0.19969475269317627, -0.024936281144618988, 0.0019555361941456795, 0.019695954397320747, 0.012008014135062695, 0.02190711721777916, 0.008269489742815495, -0.010940777137875557, -0.01473681814968586, 0.0045054019428789616, -0.003907877020537853, 0.025268593803048134, -0.0025019359309226274, 0.00568447494879365, 0.029499199241399765, -0.037014592438936234, -0.018622327595949173, 0.001409935182891786, -0.02181764878332615, 0.008371739648282528, 0.004812152590602636, 0.0024779709056019783, -0.005857022479176521, -5.9444191720103845e-06, -0.001679140841588378, -0.023568684235215187, -0.0032304690685123205, -0.02388821542263031, 0.02160036563873291, 0.017318636178970337, -0.02001548744738102, -0.022188305854797363, -0.0025834166444838047, -0.027786506339907646, -0.02758200652897358, -0.0035340243484824896, -0.016884073615074158, 0.002166427206248045, 0.017408106476068497, 0.04248498007655144, -0.006029569543898106, -0.0012150206603109837, -0.03228551894426346, 0.015439788810908794, 0.0011375340400263667, 0.015043568797409534, -0.004601261578500271, 0.00947732012718916, 0.0007341248565353453, 0.04161585494875908, -0.04570586234331131, -0.002022637752816081, -0.02235446125268936, 0.03361476957798004, 0.005064582917839289, -0.015490913763642311, 0.004173088353127241, -0.00700414227321744, 0.02485959231853485, 0.021740959957242012, -0.006633485201746225, 0.021766522899270058, 0.0044958158396184444, 0.010582901537418365, -0.010736276395618916, 0.013433126732707024, -0.02489793673157692, 0.04488786309957504, 0.005920928902924061, 0.011848248541355133, 0.009253648109734058, -0.019951580092310905, -0.03300127014517784, -0.02590765804052353, 0.0018037584377452731, -0.026712879538536072, 0.028630070388317108, 0.0014898182125762105, 0.028348883613944054, -0.012008014135062695, 0.0050262389704585075, 0.003901486285030842, -0.011483981274068356, 0.03062395192682743, -0.00665265740826726, -0.010372010059654713, -0.02507687546312809, 0.007668768987059593, -0.019120797514915466, -0.024821249768137932, -0.005326599348336458, -0.0069466265849769115, -0.0010424732463434339, 0.00467475363984704, 0.008256708271801472, 0.0008259903406724334, 0.007547346875071526, 0.04764861986041069, -0.0335380844771862, -0.009170569479465485, -0.017574261873960495, 0.015401444397866726, 0.012059139087796211, -0.00014588635531254113, -0.025191906839609146, 0.002334181685000658, 0.00948371086269617, 0.0016024531796574593, 0.00399095518514514, -0.008972459472715855, 0.0027112294919788837, -0.014110535383224487, -0.003256031544879079, -0.011682091280817986, 0.008946897462010384, -0.0024316387716680765, 0.023785965517163277, -0.025485875084996223, 0.012282812036573887, -0.008256708271801472, -0.007905222475528717, -0.023696497082710266, 0.02261008694767952, -0.004173088353127241, -0.00033830455504357815, -0.02635500393807888, -0.027658693492412567, 0.024885155260562897, 0.004860082641243935, -0.027991008013486862, -0.010333666577935219, 0.004134744871407747, 0.034381646662950516, -0.005227544344961643, -0.021702617406845093, 0.0024731780868023634, -0.026764003559947014, -0.007119174115359783, 0.006189335603266954, 0.004412737675011158, -0.014072190970182419, -0.0009010803769342601, 0.005866608582437038, 0.0001380977628286928, 0.005281864665448666, -0.004473448731005192, 0.015529257245361805, 0.015759320929646492, -0.005847436375916004, 0.0022846541833132505, -0.013624846003949642, -0.014225566759705544, -0.013599283993244171, -0.010109993629157543, 0.015388662926852703, -0.0018884344026446342, -0.01803438924252987, -0.03123745322227478, 0.006831595208495855, 0.012365889735519886, -0.004783394746482372, -0.001706301118247211, 0.02239280566573143, -0.0072150337509810925, 0.005649326369166374, 0.013739878311753273, -0.1593059003353119, 0.025894876569509506, 0.02635500393807888, -0.0025386821944266558, 0.010435916483402252, -0.0077454568818211555, -0.01421278528869152, 0.0006278804503381252, 0.0002891765034291893, -0.00928560085594654, 0.007905222475528717, 0.009758508764207363, -0.04394204542040825, -0.011867419816553593, -0.01440450455993414, 0.010199462994933128, 0.00019880884792655706, 0.007362018339335918, 0.016794605180621147, -0.007528175134211779, 0.0034094068687409163, -0.0242460910230875, 0.021153021603822708, -0.025306938216090202, -0.006106257438659668, 0.024706218391656876, 0.006844376213848591, 0.00972016528248787, 0.01614275947213173, -0.0027415850199759007, 0.0014251129468902946, -0.00020529933681245893, 0.028757883235812187, -0.03087957762181759, 0.007700722198933363, 0.026278315111994743, -0.011247527785599232, -0.028297757729887962, -0.02125527150928974, 0.011190012097358704, 0.010186681523919106, 0.0016983128152787685, 0.004684339743107557, -0.03131414204835892, -0.0038375798612833023, -0.003482899395748973, -0.012627906166017056, -0.0028150773141533136, 0.030291637405753136, -0.031160764396190643, 0.0399542860686779, -0.008288661018013954, 0.010972730815410614, 0.0015201737405732274, 0.014200003817677498, 0.020296676084399223, -0.007074439432471991, 0.01684572920203209, -0.0012214112794026732, -0.00967543013393879, -0.010148338042199612, -0.04161585494875908, 0.0193636417388916, -0.0029652572702616453, 0.00019581323431339115, -0.02691737934947014, -0.00858263112604618, 0.024540061131119728, -0.023747621104121208, -0.003920658025890589, 0.007157517597079277, -0.03652890399098396, 0.0068188137374818325, 0.014557880349457264, 0.005042215809226036, -0.009113053791224957, 0.0031346094328910112, -0.02455284260213375, -0.004658777266740799, -0.006486500613391399, -0.028885696083307266, 0.029857074841856956, -0.035915400832891464, -0.004221018403768539, -0.003367867786437273, -0.015171381644904613, -0.02177930437028408, 0.01619388349354267, -0.018098294734954834, 0.01628335379064083, 0.005454412195831537, -0.020692896097898483, -0.005690865684300661, -0.01979820616543293, 0.032490018755197525, 0.02709631808102131, -0.017446449026465416, 0.014749599620699883, 0.004805761855095625, -0.0035659775603562593, 0.007355627603828907, 7.499017374357209e-05, -0.011132496409118176, 0.01839226484298706, 0.03057282604277134, 0.03458615019917488, 0.017957700416445732, -0.005770748946815729, 0.03458615019917488, 0.012091092765331268, 0.01528641302138567, 0.02740306779742241, -0.003136207116767764, 0.04534798860549927, -0.021625928580760956, 0.00116868840996176, 0.0038216032553464174, -0.017101354897022247, 0.030291637405753136, 0.008307833224534988, 0.02520468831062317, -0.024054372683167458, -0.014174441806972027, 0.009004413150250912, -0.0030323590617626905, -0.025894876569509506, -0.08732172101736069, -0.006460938137024641, 0.029857074841856956, 0.0215108972042799, -0.01636004075407982, 0.007534565404057503, -0.002022637752816081, 0.00570684252306819, 0.005505537148565054, 0.00947732012718916, -0.020974082872271538, 0.004163502715528011, 0.020603425800800323, 0.0027176199946552515, 0.02714744210243225, 0.01110693346709013, -0.020002705976366997, 0.005448021460324526, -0.00038503610994666815, 0.01137534063309431, 0.006959408055990934, 0.006470523774623871, 0.013203063979744911, 0.003425383474677801, 0.0012669445713981986, -0.010966340079903603, -0.02612493932247162, 0.034739524126052856, 0.018136639147996902, -0.009713774546980858, -0.013624846003949642, -0.01944033056497574, -0.00959235243499279, -0.018098294734954834, -0.03617102652788162, 0.015938257798552513, -0.0016407970106229186, -0.02806769497692585, 0.019862111657857895, -0.006013593170791864, -0.0053713335655629635, 0.01372709684073925, 0.021945461630821228, -0.02125527150928974, 0.0045245736837387085, -0.03356364741921425, -0.010065259411931038, 0.018814045935869217, 0.0006003208109177649, -0.036094341427087784, -0.02837444469332695, -0.003684204537421465, -0.042868420481681824, 0.018187763169407845, 0.013164720498025417, 0.02349199540913105, -0.005109317600727081, 0.02208605408668518, -0.0066718291491270065, -0.012896313332021236, 0.0057963114231824875, 0.014724036678671837, -0.002179208444431424, 0.010774620808660984, 0.01882682740688324, 0.028936821967363358, -0.01738254353404045, 0.0012006416218355298, 0.010704323649406433, -0.014200003817677498, 0.016436727717518806, -0.001966719748452306, -0.006844376213848591, -0.009963009506464005, -0.032490018755197525, 0.0018564811907708645, -0.035787589848041534, 0.003225676016882062, 0.011119714938104153, -0.052863381803035736, 0.007381190080195665, -0.009931055828928947, -0.004294510465115309, -0.014570660889148712, 0.014583442360162735, -0.00027399873943068087, 0.0016407970106229186, -0.022891275584697723, 0.01860954612493515, -0.009164178743958473, -0.007655987981706858, 0.026764003559947014, 0.010218635201454163, -0.027530880644917488, -0.009994962252676487, 0.021127458661794662, 0.008889381773769855, -0.009847977198660374, 0.0024156621657311916, -0.011535107158124447, -0.02023276872932911, -0.008569849655032158, -0.0671272948384285, 0.010582901537418365, 0.012423406355082989, -0.01619388349354267, 0.00872961524873972, 0.013420346193015575, 0.029499199241399765, 0.005732404999434948, 0.033256895840168, 0.011982452124357224, -0.05608426406979561, 0.002870995318517089, 0.003681009169667959, -0.010806573554873466, -0.011714044958353043, -0.016960760578513145, 0.03008713759481907, 0.015516475774347782, -0.006595141254365444, 0.01684572920203209, 0.02392655983567238, -0.004802566487342119, 0.025805408135056496, 0.010084431618452072, -0.03507183864712715, 0.004569308366626501, -0.015094693750143051, 0.023108556866645813, -0.008627365343272686, 0.012225296348333359, 0.01724194921553135, -0.03471396118402481, 0.0007397166918963194, 0.03087957762181759, 0.014634567312896252, -0.04248498007655144, -0.03287345543503761, 0.008090551011264324, 0.006780469790101051, 0.04337967187166214, -0.017893794924020767, -0.02361980825662613, 0.009617914445698261, -0.003182539250701666, 0.0010704323649406433, 0.01680738478899002, 0.00655679777264595, 0.0035659775603562593, 0.011388122104108334, 0.0013316498370841146, 0.009081101045012474, 0.027812069281935692, 0.0028614094480872154, -0.040721163153648376, -0.010039696469902992, 0.026866253465414047, -0.008007473312318325, 0.03466283529996872, 0.020041050389409065, 0.006374664139002562, 0.013030516915023327, 0.014877412468194962, 0.005208372138440609, 0.00690828263759613, -0.010608463548123837, -0.036401089280843735, -0.010487041436135769, -0.004649191163480282, 0.021983804181218147, -0.03888066112995148, -0.032055456191301346, -0.0012230088468641043, -0.00526908366009593, 0.0017590238712728024, 0.021983804181218147, -0.005147661082446575, -0.03272008150815964, -0.025460314005613327, 0.0037161577492952347, 0.029422510415315628, 0.006326734554022551, 0.010212244465947151, -0.021971022710204124, 0.016308914870023727, 0.03159532696008682, 0.01101746503263712, -0.021651491522789, 0.012218905612826347, 0.019031329080462456, 0.02354312129318714, -0.012059139087796211, 0.026559503749012947, 0.008461209014058113, -0.0008211973472498357, -0.012199733406305313, -0.008857428096234798, 0.0002013051853282377, -0.0022590914741158485, -4.510893631959334e-05, 0.015311975963413715, 0.007227814756333828, -0.0016088437987491488, 0.0015233689919114113, -0.0341515839099884, -0.013560939580202103, 0.0015689024003222585, -0.014417286030948162, -0.040005411952733994, 0.016999104991555214, 0.022149961441755295, -0.030470576137304306, 0.026022689417004585, -0.012551219202578068, 0.0016487853135913</t>
+  </si>
+  <si>
+    <t>[-0.009504965506494045, -0.0015204678056761622, 0.014672269113361835, -0.019323496147990227, -0.04092034325003624, 0.0059120231308043, 0.009197931736707687, -0.007643167860805988, -0.0003492911346256733, -0.0301023218780756, 0.01735064387321472, -0.009544161148369312, -0.020198866724967957, -0.016919491812586784, -0.002372974995523691, 0.012300927191972733, 0.023791808634996414, 0.0032058842480182648, -0.015077291987836361, -0.03470128774642944, -0.026653097942471504, 0.0020692080724984407, 0.0008182108867913485, -0.0059022242203354836, 0.010916011407971382, -0.009139138273894787, 0.019493343308568, -0.022001871839165688, -0.003602741053327918, -0.011980828829109669, 0.007414525840431452, -0.013404940254986286, -0.02187121845781803, 0.00896275695413351, 0.016867229714989662, -0.004811276216059923, 0.033551547676324844, -0.017912449315190315, 0.01536472700536251, -0.01324162445962429, 0.0107265654951334, -0.0009015018586069345, 0.004553237464278936, 0.017664210870862007, -0.006352975033223629, 0.041050996631383896, -0.008832105435431004, 0.009531095623970032, -0.0026489782612770796, 0.005137907341122627, -0.01895766891539097, 0.039457038044929504, -0.02295563369989395, 0.0009251825977116823, -0.0050725811161100864, -0.02166217379271984, -0.00723161268979311, 0.004246204160153866, 0.0071532209403812885, -0.05092832073569298, -0.005474337376654148, 0.00747331976890564, -0.0417565181851387, 0.00825723446905613, 0.00015127102960832417, -0.021583782508969307, -0.0012771276524290442, 0.006300713866949081, -0.0009774435311555862, -0.003099729074165225, 0.026679228991270065, 0.022602872923016548, 0.007218547165393829, -0.013404940254986286, 0.01958480104804039, -0.011863241903483868, 0.010837620124220848, 0.03323798254132271, 0.023961657658219337, -0.0017556421225890517, 0.005245695356279612, -0.026522444561123848, -0.00647056195884943, 0.041625868529081345, 0.039300255477428436, 0.011634599417448044, -0.023334525525569916, 0.01928430050611496, -0.012085351161658764, 0.013574788346886635, 0.01206575334072113, -0.010563249699771404, -0.015025030821561813, 0.002056142780929804, 0.0017654411494731903, 0.00029580527916550636, 0.0038085186388343573, -0.0020234796684235334, -0.0182260163128376, -0.00508564617484808, -0.006421567406505346, 0.0070748296566307545, -0.016592860221862793, -0.010746163316071033, -0.049308229237794876, -0.003481887513771653, -0.006806991994380951, -0.013418005779385567, 0.03773242607712746, 0.018578777089715004, 0.0008974189404398203, 0.033525414764881134, 0.019232038408517838, -0.023635026067495346, -0.0036256052553653717, -0.0060622734017670155, 0.002910283161327243, 0.007310003973543644, 0.00862959399819374, -0.02735862135887146, 0.02735862135887146, 0.028377709910273552, 0.013849158771336079, -0.010275814682245255, 0.029631974175572395, 0.004853738006204367, -0.02025112882256508, -0.004811276216059923, 0.0071466886438429356, -0.0054612718522548676, -0.003935904707759619, 0.005376347806304693, 0.024236027151346207, 0.015599901787936687, -0.01209841575473547, 0.0060622734017670155, -0.009589889086782932, 0.023007893934845924, -0.007192417047917843, -0.0301023218780756, 0.03446611389517784, 0.03250632807612419, -0.02678374946117401, -0.007884874939918518, -0.015991859138011932, 0.020290324464440346, 0.004690422676503658, 0.026039032265543938, 0.02154458686709404, -6.200887582963333e-05, 0.03112141042947769, -0.021335544064641, 0.020603889599442482, -0.019545605406165123, 0.010262749157845974, 0.031591761857271194, 0.009080344811081886, 0.02025112882256508, -0.01535166148096323, 0.005673582199960947, -0.0042004757560789585, 0.007610504515469074, -0.01102706603705883, 0.012000426650047302, 0.006114534102380276, 0.01979384385049343, -0.0007079729111865163, 0.02184508740901947, -0.005751973483711481, 0.02832544967532158, -0.010295412503182888, 0.010406467132270336, -0.020564693957567215, 0.020630020648241043, 0.02694053389132023, 0.02754153497517109, 0.024170702323317528, 0.020055148750543594, 0.0017589085036888719, -0.0017229790100827813, 0.010360738262534142, -0.008714517578482628, 0.03033749759197235, 0.019924497231841087, -0.016292359679937363, -0.002779630711302161, 0.008714517578482628, 0.0018209683476015925, -0.0013996142661198974, -0.009818530641496181, -0.0053044892847537994, 0.020917456597089767, -0.006127599626779556, -0.020891325548291206, -0.6522169709205627, 0.01651446893811226, -0.0033936970867216587, -0.00887130107730627, -0.011706458404660225, 0.006173328030854464, 0.02265513315796852, 0.012124546803534031, -0.03624298796057701, 0.0012844768352806568, -0.002466064877808094, 0.007127090822905302, -0.0024856626987457275, -0.0006054923869669437, -0.007662765681743622, -0.02000288851559162, 0.020316453650593758, -0.008564267307519913, 0.006852720398455858, -0.005451472941786051, -0.0010582847753539681, 0.03608620539307594, -0.03561585396528244, -0.007414525840431452, 0.019388822838664055, 0.018840081989765167, 0.017154665663838387, -0.01895766891539097, -0.012346656061708927, -0.01744210161268711, -0.01783405803143978, 0.015403922647237778, -0.009681345894932747, -0.008342158049345016, 0.057957421988248825, 0.013418005779385567, -0.012647156603634357, 0.03485807031393051, 0.02955358289182186, 0.01475066039711237, -0.0008868034346960485, -0.002789429621770978, 0.013836093246936798, -0.018565712496638298, 0.027828969061374664, 0.00940044317394495, 0.039091210812330246, 0.0005095445085316896, -0.006496692541986704, -0.01895766891539097, -0.004095953889191151, -0.022498350590467453, 0.010765761137008667, 0.02371341735124588, 0.021113434806466103, -0.00857080053538084, 0.0017703406047075987, -0.027619926258921623, 0.0035112842451781034, 0.036504290997982025, -0.001125244190916419, 0.018905408680438995, -0.006006746087223291, -0.029841016978025436, -0.0076562329195439816, 0.03410028666257858, -0.030572671443223953, -0.01912751793861389, -0.002412170637398958, 0.01753355748951435, -0.008008994162082672, 0.021113434806466103, -0.008335625752806664, 0.003805252257734537, 0.011020533740520477, 0.02521592192351818, 0.0010272548533976078, 0.01895766891539097, 0.010648174211382866, 0.0406067781150341, 0.004246204160153866, -0.01596572808921337, -0.021204890683293343, -0.0007839146419428289, 0.009224061854183674, 0.006709002889692783, -0.01399287674576044, -0.006630611140280962, 0.01149741467088461, 0.005026852712035179, 0.029083233326673508, 0.010863750241696835, 0.00970094371587038, -0.04274947941303253, -0.022302372381091118, 0.022576741874217987, 0.007336134556680918, 0.03305506706237793, -0.009054213762283325, -0.02488929033279419, -0.02359583042562008, -0.005010521039366722, -0.012679819017648697, -0.012725547887384892, 0.006581616587936878, 0.021322477608919144, -0.014110463671386242, -0.004729618318378925, 0.02292950265109539, -0.005787902977317572, -0.008348691277205944, 0.02325613424181938, -0.014633073471486568, -0.012072285637259483, -0.032297283411026, -0.02648324891924858, 0.023517439141869545, 0.022589806467294693, 0.00063570577185601, -0.022341568022966385, 0.021897349506616592, 0.0002655919233802706, 0.0186832994222641, -0.02205413207411766, -0.024458136409521103, 0.006529355887323618, 0.026039032265543938, -0.009034615941345692, -0.027463143691420555, -0.01605718582868576, 0.04031934216618538, -0.020616954192519188, 0.020381780341267586, -0.005569060333073139, -0.003818317549303174, 0.015743618831038475, 0.01348333153873682, -0.004468313418328762, -0.011562741361558437, -0.028795797377824783, -0.019937561824917793, -0.00800246186554432, 0.011634599417448044, -0.0429062619805336, -0.01428031176328659, -0.013731571845710278, -0.026352597400546074, 0.01131450105458498, -0.03308119624853134, -0.012150676921010017, -0.04068516939878464, -0.007107492536306381, -0.016187837347388268, -0.005719310604035854, 0.022694328799843788, 0.020329520106315613, -0.022472219541668892, -0.00781954824924469, -0.03485807031393051, 0.004504242911934853, 0.015181813389062881, 0.016880296170711517, -0.011157718487083912, 0.004435650538653135, 0.004657759331166744, -0.00346555607393384, -0.01235318835824728, -0.004429117776453495, -0.01566522754728794, -0.041599735617637634, -0.006134131923317909, -0.0011472917394712567, -0.013267755508422852, 0.04355952516198158, -0.009263258427381516, 0.010321542620658875, -0.033394765108823776, 0.003615806344896555, -0.0221455879509449, -0.0012232335284352303, 0.019271234050393105, -0.006558752618730068, -0.0066110133193433285, -0.013627049513161182, -0.013718506321310997, 0.016867229714989662, 0.025359638035297394, -0.004109019413590431, -0.022406892850995064, 0.009766269475221634, 0.024301353842020035, 0.009766269475221634, -0.0008794542518444359, -0.007551711052656174, -0.027802839875221252, -0.017820993438363075, -0.0006802092539146543, 0.00693111214786768, 0.004530373495072126, 0.021296348422765732, 0.011536610312759876, 0.004723085556179285, -0.009877324104309082, -0.000284169043879956, 0.023582765832543373, -0.034962594509124756, 0.004768813960254192, -0.02486315928399563, 0.038882166147232056, 0.020564693957567215, 0.008283364586532116, -0.027410881593823433, -0.008446680381894112, 0.002154132118448615, 0.00698990561068058, 0.018435059115290642, -0.003606007434427738, 0.021400868892669678, 0.02036871574819088, 0.0017099138349294662, 0.037079162895679474, -0.012359720654785633, 0.003655001986771822, 0.006542420946061611, -0.03300280496478081, 0.009478834457695484, 0.0018715962069109082, 0.03639977052807808, -0.007421058602631092, -0.014123529195785522, -0.008884365670382977, 0.02419683150947094, 0.006392170675098896, 0.010589380748569965, 0.015155683271586895, 0.023778744041919708, 0.01295418944209814, -0.03488420322537422, 0.0009292654576711357, -0.010053705424070358, 0.0339173749089241, 0.05753933638334274, 0.01810842752456665, -0.001042769756168127, 0.014005941338837147, -0.0038542470429092646, 0.021074239164590836, 0.003168321680277586, -0.02096971683204174, -0.02106117270886898, -0.021283281967043877, 0.013058711774647236, -0.0017834057798609138, -5.124025483382866e-05, -0.0015376158989965916, -0.001204452128149569, 0.017559688538312912, -0.022785786539316177, 0.022197850048542023, 0.009890389628708363, -0.010210487991571426, -0.009714009240269661, 0.01101400051265955, 0.015181813389062881, 0.003436159109696746, -0.007087894715368748, 0.003919573035091162, -0.01288233045488596, 0.007891407236456871, -0.020825998857617378, 0.010158226825296879, -0.0016592859756201506, -0.0030164383351802826, -0.006000213325023651, 0.002924981527030468, -0.012947657145559788, -0.03655655309557915, 0.0064117684960365295, -0.009616019204258919, 0.02503300830721855, 0.008884365670382977, -0.01861797273159027, -0.007852211594581604, 0.046747442334890366, -0.0006667357520200312, -0.00035133256460539997, -0.04640774801373482, 0.011634599417448044, -0.003478621132671833, 0.009361247532069683, -0.004402987193316221, 0.015377792529761791, -0.017873253673315048, 0.00021190193365328014, -0.006143930833786726, -0.015704423189163208, 0.022433023899793625, -0.007852211594581604, 0.03467515856027603, -0.028038013726472855, 0.00430173147469759, -0.013006450608372688, -0.01090947911143303, -0.0007814649143256247, 0.02320387400686741, -1.2778165910276584e-05, 0.012346656061708927, 0.0017066474538296461, -0.0038901763036847115, -7.139951776480302e-05, -0.00862959399819374, -0.020917456597089767, 0.004674091003835201, -0.002505260519683361, -0.004781879484653473, 0.006852720398455858, 0.01386222429573536, 0.005173836834728718, 0.009557225741446018, 0.007100960239768028, 0.002588551491498947, -0.028038013726472855, 0.009328584186732769, -0.001599675859324634, 0.07306084781885147, 0.012418514117598534, 0.007061764597892761, 0.017860189080238342, 0.009766269475221634, -0.008146179839968681, -0.026417924091219902, -0.0022178252693265676, 0.0023060154635459185, 0.017429035156965256, -0.004536905791610479, -0.05471724271774292, 0.03240180388092995, 0.001356335706077516, 0.02030338905751705, -0.00940044317394495, -0.013071776367723942, -0.014293377287685871, 0.028586754575371742, 0.018095362931489944, -0.01028887927532196, -0.00349168642424047, -0.012529568746685982, 0.02772444859147072, 0.02549029141664505, 0.04324595630168915, 0.03974447399377823, 0.01810842752456665, 0.005154238548129797, -0.03174854442477226, -0.013653179630637169, -0.004406253341585398, -0.022772720083594322, 0.017860189080238342, -0.007434123661369085, 0.008819039911031723, -0.025620942935347557, 0.0106677720323205, 0.006496692541986704, -0.00024823963758535683, 0.03462289646267891, 0.028691275045275688, 0.005993680562824011, 0.00028253591153770685, -0.008218038827180862, -0.0011350431013852358, 0.024353614076972008, 0.00484393909573555, -0.031774673610925674, -0.021766696125268936, 0.010145162232220173, 0.004736151080578566, 0.007839146070182323, -0.001638871501199901, 0.008890898898243904, 0.0022831514943391085, 0.014214985072612762, 0.006408502347767353, -0.021975740790367126, -0.035328421741724014, -0.00026375462766736746, -0.0077934181317687035, -0.011549675837159157, 0.017860189080238342, -0.014476289972662926, -0.02039484679698944, -0.0022553878370672464, 0.0036811325699090958, -0.015090356580913067, -0.009531095623970032, 0.011464751325547695, -0.012131079100072384, -0.0295274518430233, 0.008936626836657524, 0.027881231158971786, 0.0018634304869920015, 0.00825723446905613, 0.010752695612609386, -0.020603889599442482, 0.04021482169628143, -0.004902733024209738, 0.0015670127468183637, 0.019846105948090553, -0.008485876023769379, -0.020355651155114174, 0.03587716072797775, -0.006467295810580254, 0.007826081477105618, -0.014620007947087288, 0.013914484530687332, -0.001124427537433803, 0.005265293177217245, 0.014293377287685871, 0.0026424454990774393, 0.01725918799638748, -0.001313873566687107, 0.02187121845781803, 0.018539581447839737, -0.0012640623608604074, 0.015194878913462162, -0.007669298443943262, 0.010269281454384327, -0.011046663857996464, 0.0026734755374491215, 0.012986852787435055, -0.0025820189621299505, -0.015769749879837036, -0.029004842042922974, 0.004745949991047382, 0.008505473844707012, -0.00904114916920662, -0.012379318475723267, 0.016083315014839172, -0.011850176379084587, -0.029240015894174576, 0.01048485841602087, 0.00041727122152224183, 0.026535511016845703, 0.022851111367344856, -0.007590906694531441, -0.02694053389132023, -0.021832022815942764, 0.0037693229969590902, 0.017559688538312912, -0.022615937516093254, 0.01269941683858633, -0.016488337889313698, -0.015377792529761791, -0.009831596165895462, 0.0080155273899436, 0.014476289972662926, 0.018056167289614677, -0.008041657507419586, -0.015025030821561813, -0.012660221196711063, -0.014110463671386242, -0.00281719327904284, -0.0029151826165616512, -0.030154583975672722, -0.02025112882256508, -0.027254099026322365, 0.019388822838664055, -0.009864259511232376, -0.008172309957444668, 0.0029151826165616512, -0.024641050025820732, -0.014437094330787659, -0.014228050597012043, -0.0044095199555158615, 0.01919284276664257, 0.023465178906917572, -0.0032810093834996223, -0.0044258516281843185, -0.011242642067372799, -0.003602741053327918, -0.028978710994124413, -0.02223704569041729, -0.0339173749089241, 0.01299991738051176, 0.025019941851496696, 0.02738475240767002, 0.020865194499492645, 0.02991940826177597, -0.01651446893811226, -0.012131079100072384, -0.007610504515469074, -0.0061243330128490925, 0.010112498886883259, -0.036713335663080215, 0.02795962244272232, -0.005970816593617201, 0.016867229714989662, 0.0028890520334243774, -0.004167812876403332, -0.00560498982667923, 0.019846105948090553, 0.002622847678139806, -0.006366040091961622, -0.0019009930547326803, -0.012973787263035774, 0.0035243495367467403, -0.01725918799638748, -0.011066261678934097, 0.0007198132807388902, -0.019937561824917793, 0.0035962085239589214, -0.003752991324290633, 0.004203742370009422, -0.0011579073034226894, -0.0027535001281648874, 0.01048485841602087, -0.02181895822286606, 0.03093849867582321, 0.013391874730587006, -0.021740566939115524, -0.007081362418830395, -0.019754648208618164, -0.03187919408082962, -0.006352975033223629, 0.026287270709872246, -0.0002827400458045304, -0.017037078738212585, -0.016592860221862793, -0.012372786179184914, -0.003792187198996544, 0.01621396839618683, -0.002181895775720477, -0.01102706603705883, 0.017546622082591057, -0.008838637731969357, -0.006754731293767691, -0.02341291680932045, 0.003235280979424715, -0.011249175295233727, -0.014620007947087288, -0.007688896264880896, -0.012503438629209995, 0.024667181074619293, -0.026104357093572617, -0.02895257994532585, 0.025046072900295258, -0.01053058635443449, 0.0159134678542614, -0.0022178252693265676, 0.03877764567732811, 0.00216883048415184, -0.0024611654225736856, -0.0050725811161100864, 0.020538562908768654, -0.02931840717792511, -0.016828034073114395, 0.01995062828063965, 0.024392809718847275, 0.005644185468554497, -0.025777727365493774, -0.011360229924321175, 0.0005205683410167694, -0.0273324903100729, -0.029187755659222603, 0.037314336746931076, -0.004605498630553484, 0.024575723335146904, -0.02666616253554821, 0.001490254420787096, -0.006254985462874174, 0.02754153497517109, -0.024745572358369827, -0.004259269684553146, -0.020956652238965034, -0.027881231158971786, -0.012817004695534706, 0.030363626778125763, -0.021505391225218773, 0.016253164038062096, 0.0019009930547326803, -0.011242642067372799, 0.012209470383822918, -0.03462289646267891, -0.028795797377824783, 0.020499367266893387, 0.020590825006365776, 0.009733607061207294, -0.0021965941414237022, 0.0077934181317687035, 0.011445153504610062, -0.01663205586373806, -0.0022700862027704716, -0.01979384385049343, 0.011118522845208645, 0.017102403566241264, -0.021165695041418076, 0.014894378371536732, 0.01336574461311102, -0.012470775283873081, 0.010367271490395069, -0.00268164137378335, -0.01985917054116726, 0.011758719570934772, 0.00891702901571989, -0.025424964725971222, -0.019153647124767303, 0.0025803856551647186, 0.0015800779219716787, -0.008701452985405922, 0.011484349146485329, -0.005529864691197872, -0.03519776836037636, -0.0160310547798872, 0.01840892806649208, 0.0026065162383019924, -0.0003548030217643827, -0.0009178334148600698, -0.0015106688952073455, -0.02606516145169735, 0.0009619285701774061, -0.0005266926600597799, -0.015456183813512325, 0.015952663496136665, -0.019623996689915657, 0.008505473844707012, -0.0016609191661700606, 0.019571736454963684, -0.008139646612107754, -0.0133200166746974, 0.0030817643273621798, -0.013770767487585545, 0.036687206476926804, 0.007198949344456196, -0.04149521514773369, -0.019441083073616028, -0.00837482139468193, -0.02055162936449051, -0.014358703047037125, -0.01882701739668846, -0.0008173943497240543, -0.004046959336847067, -0.003883643774315715, -0.0024301353842020035, -0.03477967903017998, 0.0012689618160948157, -0.009727073833346367, -0.0008827205747365952, 0.0022357897832989693, -0.025503356009721756, 0.01366624515503645, 0.02025112882256508, 0.001422478468157351, 0.006911514326930046, -0.027463143691420555, 0.0070748296566307545, 0.016775773838162422, -0.007453721947968006, 0.01958480104804039, 0.006617546081542969, -0.015835076570510864, 0.001028887927532196, -0.016187837347388268, 0.01988530158996582, 0.01259489543735981, -0.020865194499492645, 0.01408433262258768, 0.010386869311332703, -0.005601723212748766, 0.014907443895936012, -0.01477679144591093, 0.009335116483271122, -0.006735133472830057, -0.020434042438864708, -0.011412491090595722, -0.02187121845781803, -0.022576741874217987, 0.02717570774257183, 0.014228050597012043, -0.03302893787622452, -0.021309413015842438, 0.006036142818629742, -0.03402189537882805, 0.008995420299470425, 0.009080344811081886, 0.002900484250858426, 0.002477496862411499, 0.017572753131389618, -0.024601854383945465, 0.021217957139015198, -0.01205268781632185, 0.016710447147488594, -0.006558752618730068, 0.002724103396758437, 0.003374099265784025, -0.010844152420759201, 0.030076192691922188, 0.012202938087284565, -0.03600781410932541, -0.0017376774922013283, 0.05192127823829651, 0.01759888418018818, 0.001963052898645401, 0.005340418312698603, -0.025176724418997765, 0.008355223573744297, 0.014541616663336754, 0.01783405803143978, 0.006170061416924, 0.018395863473415375, 0.03289828449487686, -0.03958768770098686, 0.014201920479536057, 0.014724530279636383, 0.008518539369106293, 0.015273270197212696, -0.010452195070683956, -0.01617477275431156, 0.006761263590306044, 0.003452490782365203, -0.0011040131794288754, -0.009994911961257458, 0.00509217893704772, -0.025477226823568344, 0.01621396839618683, 0.0192581694573164, -0.011477816849946976, 0.012320525012910366, -0.010014509782195091, -0.000716546957846731, -0.0026342798955738544, -0.01741597056388855, -0.025424964725971222, -0.00849894154816866, 0.009648682549595833, -0.02437974512577057, 0.01096827257424593, -0.021309413015842438, 0.018304407596588135, -0.012464242987334728, -0.0123989162966609, -0.022302372381091118, -0.0026587771717458963, -0.021165695041418076, 0.016710447147488594, -0.01476372592151165, -0.02660083770751953, 0.011223044246435165, -0.004889667499810457, -0.002379507524892688, -0.002208026358857751, -0.006284382194280624, -0.008159245364367962, -0.01312403753399849, -0.017820993438363075, -0.02500687725841999, -0.03744499012827873, -0.02597370557487011, -0.01378383208066225, -0.015181813389062881, -0.006192925851792097, 0.0039032415952533484, 0.1985917091369629, 0.0026587771717458963, -0.017520492896437645, 0.025294313207268715, 0.029266146942973137, -0.0020381780341267586, 0.031147541478276253, -0.007310003973543644, -0.0008186192135326564, 0.0047198194079101086, -0.013071776367723942, 0.012686352245509624, -0.007630102336406708, 0.00536981550976634, 0.007296938914805651, -0.0008876200299710035, -0.012431579641997814, -0.020904390141367912, -0.014672269113361835, 0.00644116522744298, 0.01299991738051176, -0.0019842840265482664, 0.004350726492702961, -0.014175789430737495, -0.007029101252555847, 0.0015653795562684536, 0.008204973302781582, -0.010432597249746323, 0.046538397669792175, 0.03211437165737152, -0.0046414281241595745, 0.0013996142661198974, 0.012771275825798512, 0.003047468140721321, -0.008590398356318474, 0.011876306496560574, -0.008838637731969357, -0.022041067481040955, 0.03480581194162369, -0.00403716042637825, -0.026078227907419205, 0.008956224657595158, -0.02066921629011631, 0.0182260163128376, -0.025960639119148254, 0.025411900132894516, -0.014593877829611301, -0.0002453816123306751, 0.005177102982997894, 0.005938153248280287, -0.023752612993121147, 0.009354714304208755, -0.003560279030352831, 0.019663192331790924, -0.0006924579502083361, 0.006976840551942587, 0.005337152164429426, 0.0035700779408216476, 0.004363791551440954, 0.015586836263537407, -0.014397898688912392, 0.02181895822286606, -0.028665145859122276, 0.031356584280729294, -0.006094936281442642, 0.004801477305591106, -0.008884365670382977, -0.0016290725907310843, 0.013326548971235752, 0.02039484679698944, 0.03762790188193321, -0.0016633688937872648, -0.00674819853156805, -0.0008851703023537993, 0.004327862057834864, -0.01725918799638748, 0.02509833313524723, 0.0013783832546323538, 0.017363708466291428, 0.02657470665872097, -0.015430052764713764, 0.01158233918249607, -0.03248019516468048, 0.01083108689635992, 0.006872318219393492, -0.011758719570934772, 0.009322051890194416, 0.0050725811161100864, -0.019022995606064796, -0.010811489075422287, -0.008943159133195877, 0.007911005057394505, 0.005814033560454845, 0.01910138688981533, 0.003815051168203354, 0.00016106995462905616, 0.018448123708367348, 0.01690642535686493, -0.030990758910775185, -0.006679606158286333, -0.003988165874034166, 0.024340549483895302, 0.013731571845710278, -0.029292277991771698, -0.012960721738636494, 0.004151481203734875, 0.003749724943190813, -0.0031748542096465826, 0.0026800082996487617, -0.005013787187635899, -0.01241198182106018, -0.04719166085124016, -0.025712400674819946, -0.02117876149713993, 0.009661748073995113, 0.02488929033279419, 0.017847122624516487, -0.013600919395685196, -0.013757701963186264, -0.028377709910273552, -0.0008418916841037571, -0.02000288851559162, 0.012104948982596397, 0.0003350010374560952, 0.0006867418996989727, -0.016579795628786087, -0.04742683470249176, -0.00698337284848094, -0.0006140664918348193, -0.025019941851496696, 0.01612251065671444, -0.006408502347767353, -0.013613983988761902, 0.007512515410780907, 0.00647709472104907, 0.004269068595021963, -0.010275814682245255, 4.7871872084215283e-05, 0.014489355497062206, -0.0005038284580223262, -0.013404940254986286, -0.005595190916210413, -0.012124546803534031, -0.01804310269653797, -0.012542634271085262, -0.005827098619192839, -0.008707985281944275, 0.00777382031083107, 0.0015808945754542947, -0.012725547887384892, 0.008100450970232487, -0.008988888002932072, -0.02076067216694355, -0.025934509932994843, 0.010765761137008667, -0.0029429462738335133, -0.022197850048542023, -0.0021475995890796185, 0.024941550567746162, -0.002157398499548435, -0.005418810062110424, -0.013431071303784847, 0.02283804677426815, -0.004651227034628391, -0.008512006141245365, 0.014685334637761116, -0.16441303491592407, 0.024000853300094604, 0.015443118289113045, -0.0021557651925832033, 0.012327057309448719, 0.0033936970867216587, -0.005232630297541618, 0.01318283099681139, -0.0242229625582695, 0.019597865641117096, -0.00535674998536706, -0.015286335721611977, -0.01738983951508999, -0.009302454069256783, 0.009844661690294743, -0.007316536735743284, -0.009210997261106968, 0.019846105948090553, 0.01181098073720932, 0.00040420598816126585, 0.023857135325670242, -0.020708411931991577, 0.02136167325079441, 0.01723305694758892, 0.008342158049345016, 0.004739417228847742, -0.026888271793723106, 0.018604908138513565, 0.004674091003835201, 0.0018617972964420915, -0.013248157687485218, -0.01705014333128929, 0.03449224308133125, -0.01125570759177208, -0.005967550445348024, 0.0013359212316572666, -0.010517521761357784, 0.00011197322601219639, -0.008936626836657524, 0.019036060199141502, 0.02232850156724453, 0.004389922134578228, -0.0035537462681531906, -0.018578777089715004, 0.017481297254562378, 0.03086010552942753, 0.03425706923007965, -0.02503300830721855, -0.02669229358434677, -0.009380845353007317, 0.019454147666692734, 0.011712991632521152, 0.018657168373465538, -0.007551711052656174, 0.002508526900783181, 0.016462206840515137, 0.007584374397993088, 0.007845679298043251, 0.0037039967719465494, -0.019898366183042526, 0.0017589085036888719, -0.014045136980712414, -0.0015653795562684536, -0.001977751264348626, 0.00028947682585567236, -0.012287861667573452, -0.01456774678081274, 0.00349168642424047, -0.005542929749935865, -0.0012085350463166833, 0.02057775855064392, -0.008048190735280514, -0.006806991994380951, 0.0007055231835693121, -0.0009676446206867695, 0.02286417782306671, -0.0020104143768548965, -0.010406467132270336, 0.003112794365733862, -0.00884517002850771, 0.0032842757645994425, 0.029187755659222603, -0.02853449247777462, 0.009210997261106968, -0.023334525525569916, 0.003955502528697252, 0.00042339556966908276, 0.00908687710762024, 0.005804234649986029, 0.01799084059894085, -0.016462206840515137, -0.006153729744255543, -0.018552646040916443, -0.02394859306514263, 0.012176807038486004, 0.018657168373465538, -0.0041939434595406055, 0.014711464755237103, 0.008348691277205944, -0.018879277631640434, -0.007447189185768366, 0.0031944522634148598, -0.03673946484923363, 0.008975822478532791, 0.022250110283493996, 0.025634009391069412, 0.021583782508969307, 0.02717570774257183, 0.040449995547533035, -0.014071268029510975, 0.025660138577222824, 0.008342158049345016, 0.008459745906293392, -0.018735559657216072, -0.03548520430922508, 0.016919491812586784, 0.033734459429979324, -0.012601427733898163, 0.033368632197380066, 0.008113516494631767, 0.012817004695534706, -0.029814887791872025, -0.014842117205262184, 0.010334608145058155, -0.02046017162501812, -0.004605498630553484, -0.09067279100418091, -0.027097316458821297, 0.0027110381051898003, 0.03410028666257858, -0.027646057307720184, 0.013535592705011368, -0.028586754575371742, 0.03292441368103027, -0.005650718230754137, 0.0013938982738181949, -0.009335116483271122, -0.01397981122136116, -1.7632975868764333e-05, 0.022942569106817245, 0.02853449247777462, -0.012588362209498882, -0.002745334291830659, 0.011053196154534817, -0.015456183813512325, -0.006555486004799604, -0.011699926108121872, -0.006467295810580254, -0.007466787006705999, -0.008707985281944275, -0.02754153497517109, 0.0008418916841037571, -0.031043019145727158, 0.02006821520626545, 0.013509462587535381, 0.019663192331790924, -0.02211945876479149, -0.007630102336406708, 0.020799867808818817, -0.02910936437547207, -9.446783951716498e-05, -0.015586836263537407, -0.004118818324059248, -0.031043019145727158, 0.018813950940966606, -0.022106392309069633, -0.008466278202831745, 0.005353483837097883, 0.0006785761215724051, -0.029475189745426178, 0.016684316098690033, -0.02175363153219223, -0.0010403200285509229, 0.004752482753247023, -0.0036256052553653717, 0.007388395722955465, 0.00965521577745676, 0.013509462587535381, -0.016070250421762466, -0.02221091464161873, 0.03326411172747612, 0.01979384385049343, -0.0162662286311388, -0.006722067948430777, 0.0027681984938681126, -0.0061243330128490925, 0.002885785885155201, 0.007022568490356207, -0.05173836648464203, -0.007460254244506359, 0.008721050806343555, 0.015769749879837036, -0.014593877829611301, 0.023556634783744812, 0.02597370557487011, -0.007845679298043251, 0.022602872923016548, -0.026378728449344635, -0.00884517002850771, 0.02087825909256935, -0.03370833024382591, -0.02440587617456913, -0.01642301119863987, -0.018748626112937927, 0.015168748795986176, -0.006212523672729731, -0.01553457509726286, -0.013039113953709602, 0.0027551334351301193, -0.01663205586373806, 0.018395863473415375, 0.03438772261142731, -0.0029478457290679216, -0.009576823562383652, 0.02449733205139637, -0.048890143632888794, 0.003315305570140481, 0.026378728449344635, 0.03715755417943001, -0.02530737780034542, -0.0021769963204860687, 0.015521509572863579, -0.006878850981593132, -0.019715452566742897, 0.022589806467294693, 0.01012556441128254, -0.010112498886883259, -0.003641936695203185, -0.07055231928825378, -0.0014657570281997323, 0.010889881290495396, -0.010818022303283215, -0.02359583042562008, 0.003586409380659461, 0.010902945883572102, -0.005239163059741259, 0.007257743272930384, 0.008224571123719215, -0.029762625694274902, 0.01771647110581398, 0.010791891254484653, -0.01000144425779581, -0.028194796293973923, -0.011935100890696049, 0.022406892850995064, 0.001164439832791686, 0.0058466969057917595, 0.002016947139054537, 0.014672269113361835, -0.00866225641220808, 0.01850038580596447, -0.006676339544355869, -0.024236027151346207, 0.0014633073005825281, -0.02973649464547634, 0.009433106519281864, -0.007950200699269772, 0.02892645075917244, 0.015011965297162533, -0.029658103361725807, -0.011249175295233727, 0.04619870334863663, -0.003749724943190813, -0.040058039128780365, -0.02832544967532158, 0.021622978150844574, 0.0073230694979429245, 0.02304708957672119, -0.03775855526328087, -0.03501485288143158, 0.01563909649848938, -0.0009937750874087214, -0.017820993438363075, -0.0007426774827763438, 0.019728519022464752, -2.6360150513937697e-05, 0.025869183242321014, -0.0012028190540149808, 0.0159134678542614, 0.015521509572863579, 0.008727583102881908, -0.009877324104309082, 0.00050178705714643, 0.020290324464440346, -0.022550610825419426, 0.022106392309069633, 0.02832544967532158, -0.01073963101953268, 0.02871740609407425, 0.009825063869357109, 0.025594813749194145, 0.004399721045047045, 0.01624009758234024, -0.034544505178928375, 0.004994189366698265, 0.002779630711302161, 0.008512006141245365, -0.035119377076625824, -0.02811640501022339, 0.010262749157845974, 0.03052040934562683, 0.0007606421713717282, -0.010092901065945625, -0.014606942422688007, -0.024954617023468018, -0.02835157886147499, -0.005346951074898243, 0.030232975259423256, -0.0015082191675901413, 0.0039293719455599785, -0.006761263590306044, 0.040998734533786774, 0.03250632807612419, 0.013418005779385567, -0.003599474672228098, -0.004615297541022301, -0.009589889086782932, 0.0048635369166731834, -0.0079567339271307, 0.015808945521712303, 0.005118309520184994, 0.017977776005864143, -0.008198441006243229, 0.010687369853258133, -0.007087894715368748, 0.01125570759177208, 0.01446322537958622, 0.019245104864239693, -0.0032467131968587637, 0.013823028653860092, -0.01077229343354702, -0.03263698145747185, -0.01104013156145811, -0.0011799548519775271, -0.020525498315691948, -0.023844070732593536, -0.011164250783622265, 0.021975740790367126, 0.0012697783531621099, 0.021583782508969307, 0.033342503011226654, -0.005448206793516874, 0.0281686652451</t>
+  </si>
+  <si>
+    <t>[-0.023794880136847496, -0.0089839156717062, 0.014416356571018696, -0.027491044253110886, -0.035514745861291885, 0.02340027131140232, -0.019493650645017624, -0.0038211236242204905, 0.0031568664126098156, -0.02374226599931717, -0.0025978379417210817, -0.0019960603676736355, -0.030069151893258095, -0.014482124708592892, -0.006635996047407389, 0.0027343067340552807, 0.02100631408393383, -0.0011821807129308581, -0.01115426141768694, -0.005327212158590555, -0.019519956782460213, 0.005307481624186039, 0.022716283798217773, -0.030858367681503296, 0.009727094322443008, -0.015271341428160667, 0.01958572492003441, -0.01637624390423298, -0.003387054428458214, -0.004827374592423439, 0.006379500962793827, -0.020111870020627975, -0.011969785206019878, -0.007510710973292589, 0.011055609211325645, -0.009806016460061073, 0.008549846708774567, -0.00669518718495965, 0.02980607934296131, 0.005636321846395731, 0.000717693823389709, 0.016139479354023933, 0.00920752715319395, -0.004607051610946655, -0.015310801565647125, 0.04014481604099274, 0.010253238491714, 0.018493974581360817, 0.0019763298332691193, 0.010766229592263699, -0.017573222517967224, 0.02420264296233654, -0.001079418114386499, -0.004048023372888565, -0.03622504323720932, -0.04248616099357605, -0.01010197214782238, -0.014942500740289688, 0.009819169528782368, -0.028280261904001236, -0.006412384565919638, -0.000673711474519223, -0.029779773205518723, 0.015665948390960693, -0.002290372271090746, -0.006885914597660303, 0.004784625489264727, -0.014008594676852226, -0.01243673823773861, -0.03335755318403244, 0.02707012929022312, 0.028122417628765106, 0.027964575216174126, -0.008128930814564228, 0.010358467698097229, -0.019506802782416344, 0.02019079029560089, 0.033278632909059525, 0.005695512983947992, 0.009339063428342342, -0.011331834830343723, -0.030253302305936813, -0.017033925279974937, 0.019454188644886017, 0.02467617206275463, 0.0007090618018992245, -0.019204270094633102, 0.015021421946585178, 0.012910268269479275, 0.020756395533680916, -0.012732693925499916, 0.012384123168885708, -0.008878686465322971, 0.019756721332669258, 0.0022278926335275173, 0.014140130952000618, -0.008076316677033901, 0.025518003851175308, -0.0007592099136672914, -0.002186787547543645, 0.010134856216609478, 0.012883961200714111, -0.004755029920488596, -0.015784332528710365, -0.03509383276104927, -0.0030927425250411034, 0.0006889203214086592, -0.02359757572412491, 0.009385100565850735, 0.004442631732672453, -0.0069582597352564335, 0.03388369828462601, -0.007767206523567438, -0.033752162009477615, 0.010463696904480457, -0.005656052380800247, 0.00621179211884737, -0.006353193428367376, 0.02632037363946438, -0.008359119296073914, 0.03880314901471138, 0.034067850559949875, 0.02371595799922943, -0.024281563237309456, 0.03080575354397297, 0.003709317883476615, -0.01402174774557352, -0.008122353814542294, -0.011588330380618572, 0.010286122560501099, 0.014942500740289688, 0.0006021886947564781, 0.001335913548246026, -0.0035843586083501577, -0.01130552776157856, -0.00961528904736042, 0.0014978672843426466, 0.018033599480986595, -0.03093728981912136, -0.02017763815820217, 0.030042843893170357, 0.005445594433695078, -0.01874389313161373, 0.010713615454733372, 0.0005195675767026842, 0.03814546763896942, -0.006672168616205454, 0.016770852729678154, 0.006027641706168652, -0.0036961643490940332, 0.022808359935879707, -0.00621179211884737, -0.007333137560635805, 0.009720517322421074, 0.020677475258708, 0.01873074099421501, -0.018020445480942726, 0.01444266363978386, -0.01425851322710514, 0.0023890244774520397, -0.009417984634637833, 0.017099693417549133, -0.018059905618429184, -0.01050973404198885, 0.019822489470243454, 0.026044147089123726, 0.019769875332713127, 0.01908588781952858, -0.003735625185072422, -0.001035024644806981, 0.0058533563278615475, 0.026912285014986992, -0.05855987221002579, 0.03275248780846596, 0.0112134525552392, 0.019493650645017624, -0.001396748935803771, 0.010411081835627556, -0.005830337759107351, -0.015955328941345215, -0.00500494847074151, -0.015323955565690994, 0.008648497983813286, 0.016731392592191696, -0.005136484745889902, 0.0050904471427202225, 0.013048380613327026, 0.0069582597352564335, 0.009727094322443008, -0.03309448063373566, 0.004343979526311159, 0.0019401574973016977, -0.014008594676852226, -0.010095395147800446, -0.6448425650596619, 0.01729699596762657, -0.00018723341054283082, 0.0008632056415081024, -0.01862551085650921, 0.01683662086725235, 0.010851727798581123, 0.011226605623960495, -0.019309498369693756, -0.02484716847538948, -0.013561371713876724, -0.007201601285487413, 0.013600832782685757, -0.020901085808873177, -0.03846115618944168, -0.004906296264380217, -0.004692550282925367, -0.04006589576601982, 0.02613622322678566, -0.009332486428320408, -0.01353506464511156, 0.019033273681998253, -0.00962186511605978, 0.026662366464734077, -0.0031437126453965902, 0.004676108248531818, 0.007648824248462915, -0.026583446189761162, -0.011779057793319225, 0.006435403600335121, -0.002175278263166547, 0.03656703606247902, -0.021690303459763527, 0.004028292838484049, 0.042275700718164444, 0.023321351036429405, -0.011173991486430168, 0.01379813626408577, 0.021203618496656418, 0.03383108600974083, 0.004337402991950512, 0.015679102391004562, 0.020809011533856392, -0.01114110741764307, 0.027227971702814102, 0.005297616124153137, 0.03509383276104927, -0.006238099653273821, 0.005988180637359619, -0.02612306922674179, 0.013521910645067692, 0.0001365714706480503, -0.010207201354205608, 0.03467291593551636, 0.010910918936133385, 0.011391025967895985, 0.030674217268824577, 0.007839551195502281, 0.011483101174235344, 0.005810607224702835, -0.008865533396601677, 0.0014863578835502267, -0.015126651152968407, -0.009069413878023624, 0.01000989694148302, -0.0012463044840842485, -0.011279220692813396, 0.006103274878114462, 0.00032842918881215155, -0.014245359227061272, 0.006366346962749958, 0.026912285014986992, -0.021558767184615135, -0.017099693417549133, 0.015271341428160667, 0.012620888650417328, 0.015271341428160667, -0.03980282321572304, -0.011542292311787605, 0.03548843786120415, 0.02179553173482418, -0.019309498369693756, -0.025912610813975334, 0.011996092274785042, 0.02228221483528614, 0.009911244735121727, -0.013587678782641888, 0.0013087841216474771, 0.027306893840432167, 0.012712963856756687, 0.027491044253110886, -0.0016244708094745874, 0.003007244085893035, -0.030200688168406487, -0.03227895870804787, 0.009575827978551388, -0.0052515785209834576, 0.02403164468705654, 0.016047403216362, -0.023452885448932648, -0.02342657931149006, -0.010062511079013348, 0.014416356571018696, -0.007438366301357746, -0.00175271846819669, -0.007727745920419693, -0.028438104316592216, 0.01024666242301464, 0.03419938683509827, -0.01667877659201622, -4.855531733483076e-05, 0.018388746306300163, -0.007859282195568085, 0.007648824248462915, -0.018717586994171143, -0.030200688168406487, 0.019664647057652473, 0.011108223348855972, 0.02178237773478031, -0.0011254557175561786, 0.012476199306547642, -0.003380477661266923, 0.00200592540204525, -0.0030861657578498125, -0.020769549533724785, -0.007096372544765472, 0.03133189678192139, -0.0179678313434124, -0.03877684101462364, 0.01619209349155426, 0.002635654527693987, 0.010772806592285633, 0.01297603640705347, -0.012370970100164413, 0.018717586994171143, 0.03317340463399887, 0.03414677083492279, -0.027359507977962494, 0.001118056825362146, -0.014048054814338684, -0.032436802983284, -0.023808034136891365, -0.008109200745821, -0.014100669883191586, 0.004847105126827955, -0.02712274342775345, -0.0024663018994033337, 0.002218027366325259, -0.01058207917958498, -0.004366998560726643, -0.02194022201001644, 0.005021390505135059, -0.015547567047178745, -0.0014362097717821598, 0.01075307559221983, 0.017691604793071747, -0.019756721332669258, -0.018059905618429184, -0.005537669640034437, 0.012653772719204426, -0.0027458160184323788, 0.015323955565690994, -0.04414351284503937, -0.0027688348200172186, 0.008365696296095848, 0.008694536052644253, -0.004274923354387283, -0.015665948390960693, -0.0014205898623913527, -0.028674868866801262, -0.01379813626408577, -0.0062841372564435005, -0.010720192454755306, 0.012640618719160557, -0.0003444601607043296, 0.004945757333189249, 0.007898742333054543, -0.025268085300922394, -0.00921410322189331, -0.014048054814338684, 0.0012175310403108597, -0.012226280756294727, -0.015337108634412289, 0.005856644827872515, 0.017678450793027878, 0.023623883724212646, 0.03448876366019249, -0.029885001480579376, -0.02388695627450943, 0.0197172611951828, 0.026530830189585686, 0.0072870999574661255, -0.009845476597547531, -0.009963859803974628, -0.013285146094858646, -0.0048339515924453735, -0.001205199514515698, 0.010851727798581123, -0.017204921692609787, 0.029253628104925156, -0.0013161831302568316, 0.03125297650694847, 0.03496229648590088, -0.024163180962204933, 0.013995440676808357, -0.04585348442196846, -0.002431773580610752, -0.011910594068467617, 0.03354170545935631, -0.0007624982972629368, 0.02133515477180481, -0.0219796821475029, -0.04332799091935158, -0.011759326793253422, -0.00987178459763527, -0.013837597332894802, 0.009575827978551388, 0.008372272364795208, -0.029464086517691612, 0.00021374615607783198, 0.013350914232432842, -0.016757698729634285, 0.0024531481321901083, 0.006224945653229952, -0.019441034644842148, 0.005560688674449921, 0.004288076888769865, 0.027201665565371513, -0.001867812592536211, -0.01115426141768694, -0.016770852729678154, 0.0030532816890627146, 0.0025534445885568857, 0.006833300460129976, -0.0023446308914572, 0.013318030163645744, 0.007990817539393902, -0.005044409539550543, -0.0014880021335557103, 0.0054192873649299145, 0.022821513935923576, 0.023781726136803627, 0.017099693417549133, 0.01130552776157856, 0.003222634317353368, 0.010739922523498535, 0.029306242242455482, 0.020427556708455086, -0.013232531026005745, 0.003219346050173044, -0.025702154263854027, 0.002234469400718808, 0.009996743872761726, 0.0050740051083266735, -0.01616578735411167, 0.009332486428320408, 0.03319971263408661, -0.0031798852141946554, 0.025439081713557243, 0.037145793437957764, 0.004199289716780186, -0.002234469400718808, 0.03740886598825455, 0.0051956758834421635, -0.0018924756441265345, -0.012357816100120544, -0.002142394194379449, -0.013969133608043194, 0.003946083132177591, -0.0038277003914117813, 0.009588981978595257, 0.0049720644019544125, -0.005152926780283451, -0.008470924571156502, 0.013482450507581234, -0.024886630475521088, -0.0033015559893101454, -0.009773132391273975, 0.031831733882427216, 0.02307143248617649, -0.0047484529204666615, -0.026570292189717293, -0.01444266363978386, 0.031174054369330406, 0.003636973211541772, 2.1220472262939438e-05, -0.03572520241141319, -0.01782314106822014, -0.02340027131140232, 0.006221657618880272, -0.006474864203482866, 0.022834666073322296, -0.023663343861699104, -0.002964494749903679, -0.023137198761105537, -0.012548543512821198, 0.002065116772428155, -0.0016902388306334615, 0.023216120898723602, -0.014850425533950329, -0.015823792666196823, -0.019151655957102776, -0.016797158867120743, -0.021137850359082222, 0.005070716608315706, 0.0040710424073040485, 0.000547930074390024, -0.018849123269319534, -0.006997720338404179, 0.011726442724466324, -0.015376569703221321, -0.005231848452240229, 0.017257535830140114, -0.0006428826600313187, -0.014863579533994198, 0.0032999119721353054, -0.0054916320368647575, 0.013449566438794136, 0.04235462471842766, -0.018244056031107903, 0.005600149277597666, -0.028674868866801262, -0.016415705904364586, 0.008628767915070057, 0.09160173684358597, -0.0003872093802783638, 0.0034100732300430536, 0.016323629766702652, -0.03133189678192139, -0.0019483783980831504, -0.011114800348877907, 0.0010226931190118194, 0.004564302507787943, 0.013377221301198006, -0.030411146581172943, -0.01958572492003441, 0.03393631428480148, -0.0015619911719113588, -0.004705703817307949, -0.0001569184532854706, -0.011989515274763107, -0.010384774766862392, 0.011029302142560482, -0.0010720192221924663, 0.004685973282903433, -0.001964820548892021, 0.0029496969655156136, 0.05566607788205147, 0.012114474549889565, 0.007576479110866785, 0.015416030772030354, 0.006146023981273174, 0.01600794307887554, -0.03704056516289711, 0.0184150543063879, -0.01524503342807293, 0.005353519227355719, -0.008681382052600384, -0.012759001925587654, 0.005975027102977037, -0.009588981978595257, 0.04377521201968193, 0.0025731748901307583, 0.00809604674577713, 0.022058604285120964, 0.011193721555173397, -0.004038158338516951, 0.0016631095204502344, 0.0014773148577660322, 0.0024399945978075266, 0.006116428412497044, 0.012601158581674099, -0.004751741420477629, -0.005212117917835712, 0.031174054369330406, -5.626251095236512e-06, -0.01606055721640587, -0.017546916380524635, 0.0036303962115198374, 0.019480496644973755, 0.005902682431042194, -0.0037487787194550037, -0.005915835965424776, 0.000646171101834625, 0.006261118222028017, -0.0378560908138752, -0.014455817639827728, 0.006938529200851917, -0.038855765014886856, -0.03688272088766098, -0.013982287608087063, 0.003893468528985977, -0.027964575216174126, -0.018073059618473053, -0.018322978168725967, -0.03188434988260269, -0.02053278498351574, -0.007602786645293236, 0.029543006792664528, 0.0045215534046292305, 0.012410431168973446, -0.01050973404198885, -0.008845802396535873, 0.017231229692697525, 0.004215731751173735, -0.004126945044845343, -0.02759627252817154, -0.023663343861699104, -0.01043081283569336, 0.032962944358587265, 0.03172650560736656, -0.012745847925543785, -0.03030591644346714, 0.008641921915113926, 0.0017017482314258814, 0.011627791449427605, 0.03722471743822098, -0.0006626130780205131, -0.003877026494592428, 0.0050904471427202225, -0.004439343232661486, 0.008799765259027481, 0.012456468306481838, -0.01371921505779028, 0.014824118465185165, 0.011331834830343723, -0.01829667203128338, -0.009023376740515232, 0.019756721332669258, 0.013916519470512867, 0.004952333867549896, -0.02487347647547722, 0.008937877602875233, -0.013640292920172215, -0.009029952809214592, -0.01925688423216343, 0.01442950963973999, 0.009608712047338486, -0.019954025745391846, -0.005573842208832502, -0.005679070949554443, 0.02054593898355961, -0.0019187828293070197, -0.026583446189761162, -0.02835918217897415, -0.0309635978192091, 0.017744218930602074, 0.024255257099866867, -0.012699809856712818, 0.024952398613095284, -0.009516636840999126, 0.016113171353936195, 0.0054357293993234634, 0.015350262634456158, -0.018809661269187927, 0.022019142284989357, 0.004163117613643408, 0.004682685248553753, -0.0011073695495724678, -0.012463045306503773, -0.0015126651851460338, 0.029279936105012894, -0.01763899065554142, -0.018007291480898857, -0.024294717237353325, 0.021611381322145462, 0.019756721332669258, 0.015981635078787804, -0.034567687660455704, -0.01729699596762657, -0.003028618637472391, 0.0018135539721697569, -0.02307143248617649, 0.0025370025541633368, 0.011917170137166977, 0.03412046283483505, -0.02004610188305378, -0.0035153022035956383, -0.0008196342969313264, -0.04411720857024193, -0.01162121444940567, -0.01620524749159813, 0.018993811681866646, 0.01686292700469494, 0.015665948390960693, 0.03669857233762741, 0.0072542158886790276, 0.006945106200873852, -0.006129581946879625, 0.0036008006427437067, 0.011489678174257278, 0.005810607224702835, -0.04025004431605339, 0.008227583020925522, 0.007714591920375824, 0.020440708845853806, -0.025886304676532745, -0.027017515152692795, -0.011450217105448246, 0.002180210780352354, -0.016626162454485893, 0.00621179211884737, -0.02550484985113144, -0.01654724031686783, 0.004439343232661486, 0.010785959661006927, -0.0013301587896421552, 0.0164946261793375, -0.018875429406762123, 0.02005925588309765, 0.002175278263166547, 0.0007489336421713233, 0.01890173740684986, 0.00669189915060997, -0.002130884677171707, -0.054455943405628204, 0.036987949162721634, 0.0059585850685834885, -0.007181870751082897, -0.0028839290607720613, -0.016639316454529762, -0.02951670065522194, -0.02806980349123478, 0.013574525713920593, 0.01290369126945734, -0.016139479354023933, -0.008076316677033901, -0.008628767915070057, -0.019204270094633102, 0.01809936761856079, -0.004261769354343414, -0.00022525557142216712, -0.013094418682157993, -0.011443640105426311, -0.016876081004738808, 0.0016425569774582982, -0.017704758793115616, -0.025518003851175308, 0.0066162655130028725, -0.010128279216587543, -0.004136810079216957, 0.021571919322013855, -0.008904993534088135, -0.02679390273988247, 0.009457445703446865, -0.00022196715872269124, 0.03162127733230591, 0.02355811558663845, 0.03606719896197319, 0.018875429406762123, 0.003387054428458214, -0.03233157470822334, 0.0045379954390227795, -0.016889235004782677, 0.011206875555217266, 0.011101646348834038, 0.011779057793319225, -0.018678126856684685, -0.017546916380524635, -0.020125022158026695, -0.010029627941548824, -0.008076316677033901, -0.023150352761149406, 0.035672590136528015, -0.024439407512545586, 0.02163768745958805, -0.017270689830183983, -0.017533762380480766, 0.011733019724488258, 0.00420586671680212, -0.004429478198289871, -0.007319984026253223, -0.007431789766997099, -0.01306811161339283, -0.029911309480667114, 0.015929020941257477, -0.020506476983428, 0.03396262228488922, -0.012476199306547642, -0.019125347957015038, 0.03201588615775108, -0.03754040226340294, -0.040670961141586304, 0.017441686242818832, 0.005514651071280241, 0.010536041110754013, 0.007879012264311314, 0.011601483449339867, 0.009667903184890747, -0.003564628306776285, -0.014771503396332264, -0.017231229692697525, 0.03846115618944168, 0.029595622792840004, -0.006067102309316397, -0.0015365059953182936, -0.011502832174301147, 0.008050009608268738, 0.02308458462357521, -0.012061860412359238, -0.014284820295870304, 8.61150401760824e-05, 0.011081916280090809, -0.013469296507537365, 0.01242358423769474, -0.007195024751126766, 0.0006839876878075302, -0.030358530580997467, -0.014140130952000618, 0.008273620158433914, -0.0035843586083501577, -0.005271309055387974, 0.01138444896787405, -0.018796509131789207, -0.004981929901987314, -0.0017214786494150758, 0.0008340210770256817, 0.01017431728541851, -0.017560068517923355, 0.00976655539125204, -0.005807318724691868, 0.013048380613327026, -0.014534738846123219, 0.017218075692653656, 0.016455166041851044, 0.015047729946672916, -0.001210132148116827, -0.004830663092434406, 0.006146023981273174, 0.003013820853084326, 0.023045124486088753, 0.0032029040157794952, -0.03561997413635254, 0.00019463231728877872, -0.00841173343360424, 0.02596522495150566, 0.004238750785589218, -0.03540951758623123, 0.010641270317137241, -0.015547567047178745, 0.003834277158603072, -0.006369635462760925, -0.0368301086127758, 0.014048054814338684, -0.0026800481136888266, 0.02743843011558056, 0.010700461454689503, -0.010378197766840458, -0.0014641612069681287, 0.004018427804112434, -0.008023701608181, 0.010601809248328209, -0.03275248780846596, -0.007523864973336458, 0.0014929347671568394, 0.0033327958080917597, 4.277492189430632e-05, -0.016810312867164612, -0.021229926496744156, -0.03172650560736656, -0.011759326793253422, 0.027385815978050232, 0.02230852283537388, 0.0014888242585584521, -0.003597512375563383, 0.03861899673938751, 0.014876732602715492, 0.01798098534345627, -0.0024695901665836573, 0.005031255539506674, -0.0073923286981880665, -0.010713615454733372, -0.02262420952320099, -0.007589632645249367, -0.0017346323002129793, 0.04837897792458534, 0.01813882775604725, -0.012870807200670242, -0.01909904181957245, -0.0015217082109302282, -0.05311427637934685, 0.008438040502369404, -0.00432753749191761, 0.016047403216362, 0.029753465205430984, 0.02660975232720375, 0.005998046137392521, 0.01811252161860466, -0.01603425107896328, 0.01669193059206009, -0.011463371105492115, 0.008451194502413273, 0.02069062739610672, -0.012949728406965733, 0.001900696661323309, 0.007905319333076477, -0.028122417628765106, -0.022821513935923576, 0.015823792666196823, -0.004347268026322126, -0.01941472850739956, 0.019769875332713127, -0.005919124465435743, -0.005475190002471209, 0.011358141899108887, -0.011364718899130821, 0.019480496644973755, 0.00521540641784668, 0.022347982972860336, -0.013929672539234161, 0.009016799740493298, -0.018046753481030464, -0.002694845898076892, -0.006441980600357056, -0.004787913989275694, -0.006247964687645435, -0.007681708317250013, 0.01588956080377102, 0.02387380227446556, 0.004919450264424086, -0.004926026798784733, -0.017862601205706596, 0.00954294390976429, 0.00175271846819669, -0.004353845026344061, 0.02550484985113144, -0.0020733377896249294, 0.0025106952525675297, -0.02518916316330433, 0.016797158867120743, -0.010338737629354, 0.01171328965574503, 0.0016803736798465252, -0.015902714803814888, 0.010180894285440445, -0.007109526079148054, 0.0018809662433341146, -0.009996743872761726, 0.0047287228517234325, -0.014626814052462578, 0.0004036514146719128, -0.020098716020584106, 0.0164946261793375, 0.03772455453872681, -0.002382447477430105, 0.01782314106822014, -0.0018316401401534677, -0.005590284243226051, -0.01859920471906662, -0.012002669274806976, 0.00741863576695323, -0.04366998374462128, 0.007622516714036465, 0.01193690113723278, -0.0340152345597744, -0.013969133608043194, 0.010878034867346287, 0.017599530518054962, 0.018033599480986595, 0.006458422634750605, 0.19625185430049896, -0.009306179359555244, -0.0003202082007192075, 0.03882945701479912, 0.012627465650439262, 0.013133879750967026, 0.004837240092456341, 0.0014411424053832889, -0.013955979607999325, 0.008661651983857155, -0.04330168291926384, 0.027464738115668297, -0.002518916269764304, 0.0049227382987737656, 0.021690303459763527, -0.039539750665426254, -0.021769223734736443, -0.012463045306503773, -0.027990881353616714, 0.028806405141949654, 4.416221781866625e-05, -0.012370970100164413, 0.004376863595098257, 0.008286774158477783, -0.02499185875058174, -0.0055409581400454044, -0.0013589323498308659, 0.0004042679793201387, 0.052035681903362274, 0.0245183277875185, 0.005031255539506674, 0.00033480048296041787, -0.009700787253677845, 0.0020141464192420244, -0.008392003364861012, -0.0024136872962117195, 0.002638943027704954, -0.0038803149946033955, 0.034409843385219574, 0.03514644503593445, -0.009260141290724277, -0.0034857066348195076, -0.015942174941301346, 0.020256558433175087, 0.009510059840977192, -0.00773432245478034, -0.009569250978529453, -0.0112134525552392, 0.01587640680372715, 0.0025172720197588205, -0.03172650560736656, -0.013087841682136059, 0.006912222132086754, 0.02215067856013775, 0.020953699946403503, -0.00649788323789835, 0.0036895875819027424, 0.003778374521061778, 0.010055935010313988, 0.013271992094814777, -0.019296346232295036, 0.012864230200648308, -0.006747801788151264, 0.013041804544627666, -0.021229926496744156, 0.016271015629172325, -0.008109200745821, -0.0017116134986281395, 0.00976655539125204, 0.004534706939011812, 0.006123005412518978, -0.01331145316362381, -0.022005988284945488, -0.015205573290586472, 0.00011314159928588197, -0.008102623745799065, 0.03922406584024429, -0.0006527478690259159, 0.010542618110775948, 0.00509702367708087, -0.021558767184615135, -0.003017109353095293, -0.008063162676990032, 0.030384838581085205, 0.027833038941025734, 0.00016215934010688215, 0.0349096804857254, -0.004903008230030537, -0.02341342531144619, -0.02354496158659458, -0.0015718563226982951, -0.0259915329515934, 0.004738587886095047, 0.005708666518330574, 0.012811616063117981, -0.0024531481321901083, -0.0049720644019544125, 0.01762583665549755, -0.02583369053900242, 0.006899068132042885, -0.010595232248306274, 0.0034034964628517628, 0.014639968052506447, -0.01874389313161373, -0.020624859258532524, 0.004317672457545996, -0.0002585506299510598, 0.013008920475840569, -0.00034815960680134594, -0.015902714803814888, -0.015784332528710365, -0.041012953966856, -0.003051637439057231, -0.00260770320892334, 0.014376895502209663, 0.019191116094589233, 0.02563638612627983, -0.008753727190196514, 0.016047403216362, -0.018638664856553078, -0.02119046449661255, -0.03483076021075249, 0.03548843786120415, -0.0028411797247827053, -0.005843491293489933, -0.008931300602853298, -0.04088141769170761, 0.02259790152311325, -0.006964836269617081, -0.00826046708971262, -0.0024169757962226868, -0.0025106952525675297, 0.022979356348514557, 0.0031568664126098156, -0.024163180962204933, -0.005912547465413809, -0.012173665687441826, -0.017270689830183983, 0.04317014664411545, 0.010463696904480457, 0.013784983195364475, 0.00793162640184164, -0.0052811745554208755, -0.009996743872761726, -0.005307481624186039, 0.004804356023669243, 0.021611381322145462, 0.03448876366019249, 0.00437028706073761, -0.01218024268746376, 0.003400208195671439, 0.004051311872899532, -0.023018816486001015, -0.022887280210852623, 0.024150026962161064, -0.012574850581586361, 0.0019697530660778284, -0.010457119904458523, -0.00621179211884737, 0.006395942997187376, -0.02563638612627983, -0.0012767222942784429, 0.02851702645421028, 0.014705736190080643, -0.01974356919527054, 0.022479519248008728, -0.165419802069664, 0.03882945701479912, 0.040460504591464996, -0.0033492378424853086, 0.024465713649988174, -0.018809661269187927, 0.003653415013104677, -0.018480822443962097, -0.0046432241797447205, -0.0016450233524665236, 0.042275700718164444, -0.012522236444056034, -0.034067850559949875, -0.01273927092552185, -0.015955328941345215, -0.00010522887896513566, -0.010476849973201752, -0.0012767222942784429, 0.02295304834842682, 0.013271992094814777, 0.011351564899086952, -0.02183499187231064, 0.01827036403119564, 0.012351240031421185, 0.008161814883351326, 0.019283192232251167, -0.014376895502209663, 0.014363741502165794, 0.025859996676445007, -0.0062874252907931805, -0.007431789766997099, -0.019625185057520866, 0.04564302787184715, -0.012364393100142479, 0.004705703817307949, -0.0016836620634421706, -0.005659340415149927, -0.028332876041531563, -0.02920101396739483, 0.012489352375268936, 0.03170020133256912, -0.000249302014708519, -0.004893142729997635, -0.0264387559145689, 0.012219703756272793, 0.0067346482537686825, -0.0018776777433231473, -0.02179553173482418, -0.006116428412497044, 0.006931952200829983, 0.013114148750901222, -0.02099316194653511, 0.017888909205794334, 0.004304518923163414, 0.01058207917958498, 0.02246636524796486, 0.015744870528578758, 0.018244056031107903, 0.01411382295191288, -0.011805364862084389, -0.029753465205430984, 0.0012635686434805393, 0.0016951714642345905, -0.0189280454069376, 0.008852379396557808, -0.0294903926551342, -0.013929672539234161, 0.007767206523567438, -0.014732043258845806, -0.0019319364801049232, -0.0025600213557481766, -0.03188434988260269, 0.024334177374839783, -0.019690953195095062, 0.0006745335413143039, 0.007070065476000309, -0.01098984107375145, -0.009253564290702343, -0.0070306044071912766, 0.01619209349155426, -0.012239433825016022, 0.059717386960983276, -0.016139479354023933, 0.0071687172167003155, -0.025123395025730133, -0.0073594446294009686, -0.012476199306547642, 0.03125297650694847, -0.014784657396376133, 0.01732330396771431, -0.013600832782685757, -0.032305266708135605, -0.006793839391320944, -0.004962199367582798, 0.01452158484607935, 0.024768246337771416, -0.019519956782460213, 0.011996092274785042, -0.010476849973201752, -0.0179678313434124, -0.003303200239315629, 0.009141759015619755, -0.005981604102998972, 0.02179553173482418, 0.020467016845941544, 0.02098000794649124, 0.01225916389375925, 0.010108549147844315, 0.01990141160786152, 0.02518916316330433, 0.00809604674577713, -0.002311746822670102, -0.010726768523454666, 0.016271015629172325, -0.034251999109983444, -0.004751741420477629, 0.030753139406442642, 0.001238083466887474, 0.0019960603676736355, 0.00905626080930233, 0.017507454380393028, -0.03093728981912136, -0.008174968883395195, -0.0030828772578388453, -0.0031338476110249758, -0.012088167481124401, -0.10217723995447159, -0.024452561512589455, 0.02082216367125511, 0.01813882775604725, 0.0016442012274637818, 0.013916519470512867, 0.0009939196752384305, 0.0001495195465395227, -0.002579751657322049, 0.014166438020765781, -0.034383535385131836, -0.003054925939068198, 0.028806405141949654, -0.009733671322464943, 0.025136549025774002, 0.010983264073729515, -0.014126976951956749, 0.007339714094996452, -0.0032719604205340147, 0.00749098090454936, 0.008536692708730698, 0.022821513935923576, -0.006639284547418356, -0.010312429629266262, 0.022163832560181618, -0.00914833601564169, -0.017546916380524635, 0.01249592937529087, 0.014455817639827728, 0.02134830877184868, -0.02051963098347187, -0.02130884863436222, 0.015166112221777439, -0.030568988993763924, 0.011114800348877907, 0.01954626478254795, -0.0031946829985827208, -0.00021271852892823517, 0.004804356023669243, -0.005363384261727333, -0.0003976911830250174, 0.0001920632494147867, 0.016810312867164612, -0.03309448063373566, 0.0009084211778827012, -0.020914239808917046, -0.020743243396282196, 0.01250908337533474, -0.00701087387278676, -0.009312755428254604, -0.009233834221959114, 0.002129240659996867, -0.02613622322678566, 0.01225258782505989, 0.00572839705273509, 0.011200298555195332, -0.0029184571467339993, 0.015771178528666496, 0.002074982039630413, 0.004584033042192459, -0.0005060029216110706, -0.01114110741764307, 0.00577443465590477, -0.002086491324007511, 0.019112195819616318, 0.008589306846261024, -0.00014170959184411913, 0.009779708459973335, 0.0022541999351233244, -0.01731014996767044, -0.03133189678192139, 4.8606700147502124e-05, 0.016047403216362, -0.00408419594168663, -0.02728058584034443, -0.03217373043298721, -0.00874057412147522, -0.0044492087326943874, 0.015231880359351635, -0.021742917597293854, -0.012778731994330883, -0.009411407634615898, 0.007267369423061609, -0.012791885994374752, 0.004228885751217604, 0.011581753380596638, 0.0049556223675608635, -0.018822815269231796, 0.01669193059206009, -0.040802497416734695, 0.012568274512887001, -0.0071489871479570866, 0.035199061036109924, -0.010128279216587543, -0.0052844625897705555, 0.009411407634615898, 0.031831733882427216, -0.017362764105200768, -0.015929020941257477, 0.01506088301539421, -0.04074988141655922, -0.028490718454122543, -0.06613635271787643, 0.0062841372564435005, -0.0026044147089123726, -0.020164484158158302, -0.00701087387278676, 0.029885001480579376, 0.0010835286229848862, -0.004261769354343414, 0.006977989803999662, 0.004232173785567284, -0.023137198761105537, -0.018007291480898857, 0.01273927092552185, 0.005100312177091837, -0.01938842050731182, -0.029437778517603874, 0.03235787898302078, -0.004113791510462761, 0.005751416087150574, 0.0026488080620765686, 0.02371595799922943, -0.0022262483835220337, 0.015100344084203243, 0.008648497983813286, -0.025254931300878525, -0.009102297946810722, -0.008161814883351326, 0.026846516877412796, -0.014679428189992905, 0.005350230727344751, 0.015087190084159374, -0.03191065788269043, -0.0214666910469532, 0.025689000263810158, 0.012331509031355381, -0.023518653586506844, -0.0164946261793375, 0.012732693925499916, 0.0059421430341899395, 0.03556736186146736, -0.03527798131108284, -0.01733645796775818, 0.008207852952182293, 0.0032407206017524004, -0.014613660052418709, -0.005422575864940882, 0.008451194502413273, -0.010062511079013348, 0.008155237883329391, 0.023623883724212646, 0.029753465205430984, 0.022966202348470688, 0.01266692578792572, -0.02483401447534561, -0.014547892846167088, 0.026820210739970207, -0.0250313188880682, 0.032094806432724, 0.018520282581448555, -0.007451519835740328, 0.03654072806239128, -0.006688610650599003, -0.005037832539528608, 0.006001334637403488, -0.007622516714036465, -0.021453537046909332, -0.0021062218584120274, 0.002454792382195592, 0.009944128803908825, -0.029148399829864502, -0.014876732602715492, 0.009404830634593964, 0.011765903793275356, 0.004064465407282114, 0.0038704497274011374, -0.021137850359082222, -3.874149115290493e-05, -0.022571593523025513, -0.0058204722590744495, 0.05145692080259323, 0.009865207597613335, 0.0034265152644366026, -0.0512990765273571, 0.02228221483528614, 0.01921742409467697, -0.0229398962110281, -0.021058930084109306, -0.005333788692951202, -0.0023133910726755857, 0.012469622306525707, 0.007786937057971954, 0.01002305094152689, 0.00905626080930233, 0.007313407026231289, -0.004827374592423439, -0.00198126258328557, -0.008720843121409416, -0.01637624390423298, -0.017902063205838203, -0.004587321542203426, 0.021532459184527397, -0.0014937567757442594, -0.002203229581937194, -0.049378652125597, -0.010187470354139805, 0.00020470305753406137, -0.040328968316316605, -0.00753701850771904, 0.00338376616127789, 0.02103262208402157, 0.007162140682339668, 0.008799765259027481, 0.0025994821917265654, -0.0056067262776196, 0.010529465042054653, 0.00801712553948164, 0.028122417</t>
+  </si>
+  <si>
+    <t>[-0.01024407148361206, -0.003980534616857767, 0.010191738605499268, -0.02111613191664219, -0.028495002537965775, 0.0015667019179090858, -0.010721605271100998, 0.008621766231954098, -0.006273348815739155, -0.0077321152202785015, -0.012069164775311947, 0.010649647563695908, -0.0183555968105793, -0.011735545471310616, -0.014888573437929153, 0.00026779482141137123, 0.029410820454359055, -0.010348736308515072, -0.007620908785611391, -0.02675495110452175, -0.024125246331095695, -0.007542410399764776, -0.008458227850496769, -0.011166430078446865, 0.012677528895437717, -0.014953989535570145, -0.0020311521366238594, -0.016458546742796898, 0.017793023958802223, -0.017570611089468002, -0.007208791095763445, -0.00608037319034338, -0.0063125984743237495, -0.01082627009600401, 0.0027981491293758154, -0.023981332778930664, 0.023157095536589622, -0.0029060847591608763, 0.0156735610216856, -0.004333778750151396, 0.004804770462214947, 0.022463692352175713, -0.0022045031655579805, -0.01177479512989521, -0.029698649421334267, 0.02820717543363571, -0.004144073463976383, 0.001936299609951675, 0.017269698902964592, 0.0023173450026661158, 0.0014693962875753641, 0.03650186210870743, -0.008327396586537361, -0.003185736248269677, -0.023222511634230614, -0.03378057852387428, -0.016118384897708893, 0.02432149276137352, 0.009262838400900364, -0.015935221686959267, 0.002034422941505909, 0.011329969391226768, -0.03665886074304581, -0.003542250720784068, -0.02247677557170391, -0.00667565455660224, -0.02370658703148365, 0.007830238901078701, -0.015333399176597595, -0.009688039310276508, 0.039196982979774475, -0.005900480318814516, 0.0114738829433918, -0.00010374494013376534, 0.026951197534799576, -0.011918708682060242, -0.00022915877343621105, 0.02416449598968029, 0.015045571140944958, 0.006237370427697897, 0.002413832815364003, -0.02899216115474701, 0.005099140107631683, 0.029463153332471848, 0.020618973299860954, 0.008360104635357857, -0.01036181952804327, 0.012226161547005177, 0.009576832875609398, 0.013384017162024975, -0.020370395854115486, 0.007849862799048424, 0.0009133642888627946, -0.010872060433030128, 0.015451147221028805, 0.0015585249057039618, 0.022071199491620064, 0.014901656657457352, -0.011513132601976395, -0.027265191078186035, 0.0021358169615268707, 0.007620908785611391, -0.0017678545555099845, -0.02285618521273136, -0.04560770466923714, -0.014626911841332912, 0.00833393819630146, 0.00428471714258194, 0.012834526598453522, 0.00064066331833601, 0.002933886367827654, 0.025760633870959282, 0.011683212593197823, -0.051809098571538925, 0.0020556829404085875, -0.006286432035267353, 0.0018103746697306633, 0.012415867298841476, 0.008059192448854446, -0.022882351651787758, 0.02653253823518753, 0.03433007001876831, 0.013567180372774601, -0.022843101993203163, 0.02378508634865284, -0.017766857519745827, -0.02675495110452175, 0.011977583169937134, -0.028887497261166573, -0.008687182329595089, -0.006188308820128441, -0.007830238901078701, 0.01859109289944172, -0.009943160228431225, -0.016013721004128456, 0.012474740855395794, -0.030169641599059105, 0.025433557108044624, -0.03014347516000271, -0.024452323094010353, 0.03527205064892769, 0.01683795638382435, -0.023340260609984398, -0.0012069164076820016, -0.034984223544597626, 0.030457468703389168, 0.01178133673965931, 0.0063976384699344635, -0.009092758409678936, 0.006037853192538023, 0.03278626129031181, 0.002832492347806692, 0.005001016892492771, -0.007274206727743149, 0.017923854291439056, 0.018185516819357872, 0.01136267650872469, -0.006387826055288315, -0.006986378226429224, 0.02629704214632511, -0.0154903968796134, 0.029201490804553032, -0.005933188367635012, -0.0052201589569449425, 0.018695756793022156, 0.023144014179706573, 0.008961927145719528, 0.007130292244255543, -0.010669272392988205, -0.010008575394749641, -0.01827709749341011, 0.02255527302622795, -0.03807183727622032, 0.028652001172304153, -0.008176940493285656, 0.041787438094615936, 0.008399353362619877, 0.020147982984781265, -0.03396373987197876, -0.023052431643009186, 0.022084280848503113, 0.00799377728253603, 0.027343690395355225, 0.018447179347276688, 0.00703871063888073, 0.0014227876672521234, 0.012906483374536037, -0.014692327007651329, 0.01620996743440628, -0.0071695419028401375, -0.0005380426882766187, 0.02515881136059761, -0.0016623720293864608, -0.022293612360954285, -0.6472473740577698, 0.002438363851979375, -0.008229273371398449, -0.006750882137566805, -0.006551364902406931, 0.021587124094367027, 0.011683212593197823, 0.017335115000605583, -0.033545080572366714, -0.011624339036643505, -0.021927284076809883, 0.011074848473072052, -0.0007821244071237743, -0.014234418980777264, -0.010145948268473148, -0.013815758749842644, 0.00011631697998382151, -0.032864760607481, 0.021469375118613243, 0.010165573097765446, 0.004971580114215612, 0.0309807937592268, -0.0043632155284285545, -0.003983805421739817, -0.0037286849692463875, 0.02927999012172222, -0.0004906164249405265, -0.017871521413326263, 0.0003546748193912208, -0.015738975256681442, -0.007136833854019642, 0.004350132308900356, -0.02003023400902748, 0.0021570769604295492, 0.04827665910124779, 0.02807634323835373, -0.0309807937592268, 0.029384654015302658, 0.017112702131271362, 0.03982497379183769, 0.023601921275258064, -0.01525490079075098, 0.012075706385076046, -0.013946590013802052, 0.020697472617030144, 0.0030499990098178387, 0.03616170212626457, 0.002940427977591753, 0.013030773028731346, -0.027029694989323616, 0.01897050254046917, 0.004742625635117292, 0.01289340015500784, 0.027814682573080063, 0.025276560336351395, -0.0004705829487647861, 0.024962564930319786, -0.0074181207455694675, 0.0026084440760314465, 0.011715920642018318, 0.008732972666621208, 0.028233341872692108, -0.007843321189284325, -0.008288146927952766, -0.007673241198062897, 0.008863803930580616, -0.020239563658833504, -0.003079436020925641, -0.00844514463096857, -0.010944017209112644, -0.014208252541720867, 0.031687282025814056, -0.030012642964720726, -0.0012044634204357862, 0.0009607905521988869, 0.017871521413326263, 0.018486427143216133, 0.0052921161986887455, -0.003552063135430217, 0.035062722861766815, 0.029777146875858307, 0.0016419297317042947, -0.008556351065635681, 0.0008221914176829159, 0.014221335761249065, 0.006538281682878733, -0.025119561702013016, -0.007980694063007832, 0.013815758749842644, 0.024151412770152092, 0.030457468703389168, -0.013985839672386646, 0.0017858438659459352, -0.030692964792251587, -0.01895741932094097, 0.019977901130914688, -0.005383697804063559, 0.014953989535570145, -0.00048530142521485686, -0.020985301584005356, -0.015451147221028805, -0.010387985967099667, 0.014404498971998692, 0.015869807451963425, 0.009236671961843967, 0.013168145902454853, -0.03655419498682022, -0.00632895203307271, 0.01597447134554386, -0.023196345195174217, -0.017165035009384155, 0.026349375024437904, 0.013868091627955437, 0.002307532588019967, -0.02310476452112198, -0.01821168325841427, 0.002605173271149397, 0.02891366183757782, 0.0229477658867836, -0.015869807451963425, 0.024831734597682953, -0.011244929395616055, 0.002876647748053074, -0.01789768785238266, -0.009086216799914837, -0.023444924503564835, 0.028887497261166573, -0.0175967775285244, -0.02975098229944706, -0.00250541465356946, 0.0279193464666605, 0.004150615073740482, 0.013671845197677612, -0.013063481077551842, 0.02126004546880722, 0.00021811989427078515, 0.030719131231307983, -0.020291896536946297, 0.01170283742249012, -0.00944600161164999, -0.02799784578382969, -0.009851578623056412, 0.0006443429156206548, -0.03388524428009987, 0.01821168325841427, -0.013514847494661808, -0.014430665411055088, 0.01704728603363037, -0.021312378346920013, -0.0006656029727309942, -0.01675945706665516, 0.0015683372039347887, -0.030378971248865128, 0.013194311410188675, -0.010204821825027466, 0.025747550651431084, -0.0013173051411285996, -0.010302945040166378, -0.028965994715690613, 0.012173829600214958, 0.0107019804418087, -0.0014743023784831166, 0.00012183641956653446, 0.022372109815478325, 0.013881174847483635, -0.011624339036643505, -0.0156735610216856, 0.005743483081459999, -0.021377794444561005, -0.025721384212374687, -0.009818870574235916, 0.0021243691444396973, -0.008647932671010494, 0.02569521963596344, -0.008209648542106152, 0.008373187854886055, -0.014927823096513748, -0.016694042831659317, 0.003601124742999673, -0.018407929688692093, 0.014012006111443043, -0.0014105222653597593, -0.01380267646163702, -0.016550127416849136, 0.01178133673965931, -0.0016394766280427575, 0.029620150104165077, -0.015895972028374672, -0.026558704674243927, 0.02776234969496727, -0.0058546895161271095, 0.010806645266711712, -0.021351628005504608, -0.01178133673965931, -0.010492650792002678, 0.004700105637311935, -0.007862946018576622, 0.005331365391612053, 0.011486966162919998, 0.03603087365627289, 0.004480963572859764, 0.014339083805680275, 0.019519994035363197, -0.01407742127776146, 0.022816935554146767, -0.015215651132166386, 0.003185736248269677, -0.01581747457385063, 0.051050275564193726, -0.010126323439180851, 0.02555130422115326, -0.009916993789374828, -0.025119561702013016, -0.007902195677161217, 0.0008168763597495854, 0.015477313660085201, -0.0013778145657852292, -0.008170398883521557, -0.02279076911509037, 0.014169002883136272, 0.023510340601205826, 0.015895972028374672, 0.03221060708165169, 0.007476994767785072, -0.007234957069158554, 0.0073265391401946545, 0.011912167072296143, 0.046628188341856, -0.011186054907739162, -0.008098442107439041, -0.019676990807056427, 0.01890508644282818, -0.014666161499917507, 0.017387447878718376, -0.01851259358227253, 0.024674735963344574, 0.00394128542393446, -0.01789768785238266, 0.028573501855134964, -0.006508844904601574, 0.037051353603601456, 0.018185516819357872, 0.030849961563944817, 0.01881350576877594, -0.006096727214753628, -0.009831953793764114, 0.03249843418598175, 0.004824395291507244, -0.01781918853521347, -0.019598491489887238, -0.023981332778930664, -0.007470453158020973, 0.008922677487134933, 0.014391415752470493, -0.03692052140831947, 0.015359565615653992, 0.016641709953546524, -0.02752685360610485, 0.01974240504205227, 0.028390338644385338, 0.01873500645160675, 0.015424980781972408, 0.011415009386837482, 0.001820187084376812, 0.0022519296035170555, -0.00208511995151639, 0.021168464794754982, -0.0028292215429246426, 0.007104126270860434, 0.010401069186627865, -0.004448255989700556, -0.0028880955651402473, 0.014482997357845306, -0.03328341990709305, 0.012141121551394463, 0.00357495853677392, -0.012716778554022312, -0.018826588988304138, -0.0022960850037634373, 0.029698649421334267, -0.007581659592688084, -0.03378057852387428, 0.0013377475552260876, 0.02935848757624626, -0.0046575856395065784, -0.008772222325205803, -0.026061546057462692, 0.0009239942883141339, 0.00018643424846231937, 0.015778224915266037, -0.008072275668382645, 0.011493507772684097, -0.021534791216254234, -0.01982090435922146, -0.0015478949062526226, 0.00304018659517169, 0.01751827821135521, 0.0002506232412997633, 0.02959398366510868, -0.01895741932094097, -0.005481821019202471, -0.02042272686958313, 0.0016640074318274856, 0.00428471714258194, 0.01897050254046917, 0.0051482017152011395, 0.014469914138317108, -0.017099618911743164, -0.013436349108815193, 0.011859835125505924, -0.021155381575226784, -0.00655790651217103, 0.00523978378623724, -0.008818012662231922, -0.0051776389591395855, 0.00963570736348629, 0.007934903725981712, 0.004029596224427223, 0.02875666506588459, 0.012592488899827003, -0.003113779006525874, -0.01713886857032776, -0.019847070798277855, -0.013541013933718204, 0.07043943554162979, -0.014208252541720867, -0.018682673573493958, 0.020448893308639526, -0.027945512905716896, -0.012749485671520233, -0.028233341872692108, -0.009975867345929146, 0.003987076226621866, 0.032236769795417786, -0.02708202786743641, -0.02692503109574318, 0.03647569939494133, 0.022843101993203163, 0.0062635368667542934, -0.019310662522912025, -0.013449432328343391, -0.0028815539553761482, 0.005972437560558319, 0.00024530821247026324, -0.02891366183757782, -0.018015436828136444, -0.01734819822013378, 0.0336759127676487, 0.022267445921897888, 0.002834127750247717, 0.0036796233616769314, 0.003014020388945937, -0.010917851701378822, -0.0405576266348362, 0.003640374168753624, -0.020841386169195175, -0.01215420477092266, 0.0038987654261291027, -0.01463999506086111, 0.026349375024437904, -0.00026738597080111504, 0.05552469938993454, 0.009354420006275177, -0.002580642467364669, 0.014247501268982887, 0.014051254838705063, -0.009190881624817848, 0.0006987195811234415, -0.004713188856840134, -0.0023009912110865116, -0.0005752478027716279, 0.02629704214632511, -0.008261981420218945, -0.023523423820734024, 0.034984223544597626, -0.013828841969370842, 0.0071891662664711475, -0.00500755850225687, -0.0006803214782848954, -0.005638818256556988, 0.021600207313895226, 0.010080533102154732, -0.029410820454359055, 0.018918169662356377, 0.002889730967581272, -0.023157095536589622, 0.004176781512796879, -0.0008708441746421158, -0.04149961099028587, -0.011729003861546516, -0.009367503225803375, 0.0005188268842175603, -0.00630605686455965, -0.006221016403287649, -0.001113699283450842, -0.02820717543363571, -0.00261989189311862, -0.002256835578009486, 0.0202788133174181, -0.004801499657332897, 0.019611574709415436, -0.014731576666235924, -0.006400909274816513, 0.029620150104165077, 0.012716778554022312, -0.003764663590118289, -0.0164454635232687, -0.033388085663318634, -0.009033883921802044, 0.02309168130159378, 0.004929060116410255, 0.002726192120462656, -0.02561672031879425, 0.033309586346149445, 0.016798706725239754, -0.00883109588176012, 0.03757467865943909, 0.0028602939564734697, -0.013161604292690754, -0.0062177455984056, 0.013141979463398457, 0.006535010877996683, 0.0047066472470760345, -0.007601283956319094, 0.016026804223656654, 0.0010294768726453185, -0.014195169322192669, -0.005772920325398445, 0.008150774985551834, 0.01605297066271305, -0.012913024984300137, -0.021770287305116653, 0.006070560775697231, 0.002456353046000004, -0.012252327986061573, 0.004768792074173689, -0.014286750927567482, -0.010217905044555664, -0.056466683745384216, -0.010806645266711712, -0.02553822100162506, 0.030692964792251587, 0.014744659885764122, -0.0063125984743237495, -0.02852116897702217, -0.034905724227428436, 0.01001511700451374, 0.042703256011009216, -0.016615543514490128, 0.01525490079075098, -0.035298217087984085, -0.002242117188870907, -0.005527611821889877, 0.009936618618667126, 0.0033983367029577494, 0.02392899990081787, -0.008667557500302792, 0.00944600161164999, -0.00548836262896657, -0.01919291540980339, 0.012585947290062904, 0.004340320359915495, -0.012193454429507256, -0.006060748361051083, -0.011153346858918667, 0.017531361430883408, 0.00040353203075937927, 0.011369218118488789, -0.0030761652160435915, -0.015869807451963425, -0.0016509243287146091, 0.004059033468365669, -0.026126962155103683, 0.030562134459614754, 0.003725414164364338, 0.0001697737316135317, -0.0040426794439554214, -0.009504876099526882, 1.9381905076443218e-05, -0.030771464109420776, -0.008170398883521557, -0.019781654700636864, 0.009982408955693245, 0.01668095961213112, 0.020252646878361702, -0.0038660576101392508, 0.013292434625327587, -0.0097534554079175, -0.0003334147622808814, 0.004009971860796213, -0.012585947290062904, 0.017793023958802223, -0.005609381478279829, 0.018237849697470665, 0.01728278212249279, 0.02394208312034607, -0.004441714379936457, -0.002314074197784066, 0.009884285740554333, 0.024112163111567497, -0.004837478045374155, -0.00523651298135519, -0.007352705113589764, 0.0037679343950003386, 0.002644422696903348, -0.004696834832429886, -0.007359246723353863, 0.014692327007651329, -0.02653253823518753, 0.018303263932466507, 0.007496619131416082, 0.007130292244255543, -0.003038551192730665, 0.0012216349132359028, 0.012442032806575298, -0.025799883529543877, 0.03427773714065552, -0.0020720367319881916, -0.013475598767399788, -0.0071891662664711475, -0.015215651132166386, -0.03524588420987129, -0.011238387785851955, 0.00642380490899086, 0.0049486844800412655, -0.021155381575226784, 0.007771364413201809, -0.028547335416078568, 0.009203964844346046, 0.016772540286183357, 0.011159888468682766, -0.007771364413201809, -0.012788735330104828, -0.009413294494152069, -0.023314094170928, 0.0010131229646503925, -0.003148122224956751, -0.01895741932094097, 0.006633134558796883, 0.01660246029496193, -0.004942142870277166, 0.018944336101412773, -0.025263477116823196, -0.0298294797539711, 0.03930164873600006, -0.010682355612516403, 0.04495355114340782, 0.007555493153631687, 0.014064338058233261, 0.014339083805680275, -0.03380674496293068, 0.0005196445854380727, 0.02354959025979042, -0.009426377713680267, -0.00787602923810482, 0.021011468023061752, 0.020174147561192513, -0.009053508751094341, -0.02555130422115326, -0.030640631914138794, -0.004444985184818506, -0.01895741932094097, -0.024910232052206993, 0.022123530507087708, 0.009622624143958092, 0.016955705359578133, -0.008085358887910843, -0.0068686301819980145, -0.0015822380082681775, 0.019101332873106003, -0.016118384897708893, 0.01311581302434206, -0.004840748850256205, 0.0012437127297744155, -0.028233341872692108, 0.001887237885966897, -0.036057040095329285, -0.003987076226621866, -0.01525490079075098, -0.04168277233839035, 0.043331243097782135, -0.03194894269108772, -0.016707126051187515, 0.020618973299860954, -0.009975867345929146, 0.018172433599829674, 0.018107017502188683, -0.009203964844346046, 0.013868091627955437, 0.011114098131656647, -0.025446640327572823, -0.016301549971103668, -0.0023909374140203, 0.022450609132647514, -0.0336759127676487, 0.021312378346920013, -0.015189485624432564, 0.029332322999835014, 0.004291258752346039, -0.010270237922668457, -0.0038366205990314484, 0.012854151427745819, 0.006103268824517727, -0.009995492175221443, -0.005903751123696566, 0.015411898493766785, -0.001189744914881885, -0.011539299041032791, -0.010767395608127117, 0.0065971557050943375, -0.010060908272862434, -0.00039433297934010625, 0.014600745402276516, -0.01743977889418602, -0.025211144238710403, -0.010950558818876743, 0.006907879374921322, -8.621562301414087e-05, -0.014587662182748318, 0.015516563318669796, 0.008916135877370834, 0.042336929589509964, -0.007293831091374159, 0.019062085077166557, -0.015621228143572807, 0.02875666506588459, 0.012579405680298805, 0.00214235857129097, 0.0002647284709382802, -0.014326000586152077, 0.024753235280513763, 0.003882411401718855, -0.04079312086105347, 0.006835922598838806, -0.0015846911119297147, -0.0028717415407299995, -0.01188600156456232, -0.026597952470183372, 0.0021963263861835003, 0.008039568550884724, 0.0022601063828915358, -0.011460800655186176, -0.04497971758246422, 0.008759139105677605, 0.005171097349375486, 0.026558704674243927, 0.013933506794273853, -0.004971580114215612, 0.007961069233715534, 0.02922765724360943, -0.006489220075309277, 0.01712578535079956, -0.02508031204342842, -0.014103587716817856, -0.009426377713680267, 0.008693723939359188, -0.004830936435610056, -0.006433616857975721, -0.03859516233205795, -0.0359262079000473, -0.032472267746925354, 0.009118924848735332, 0.014692327007651329, -0.01086551882326603, 0.008981551975011826, 0.019768571481108665, 0.014234418980777264, 0.012180371209979057, -0.0066265929490327835, 0.008006860502064228, 0.006907879374921322, -0.012370076030492783, -0.022385193035006523, 0.003033644985407591, -0.024347659200429916, 0.04346207529306412, 0.004546379204839468, -0.014901656657457352, -0.016811789944767952, 0.015791308134794235, -0.034303903579711914, 0.01766219176352024, -0.007607825566083193, 0.005279032979160547, 0.021914200857281685, 0.02042272686958313, -0.010695438832044601, -0.020632056519389153, 0.004817853681743145, 0.031791944056749344, -0.008209648542106152, 0.0019919027108699083, 0.002686942694708705, -0.034905724227428436, 0.02591763250529766, -0.015189485624432564, -0.032864760607481, -0.012762568891048431, 0.0051351189613342285, -0.0013884445652365685, 0.008353563025593758, 0.02034422941505909, 0.005393510218709707, -0.009871202521026134, 0.003493189113214612, 2.7878257242264226e-05, 0.026794198900461197, 0.008654474280774593, 0.012448574416339397, -0.03027430549263954, -0.012422408908605576, -0.00945254322141409, -0.013083104975521564, 0.0027899721171706915, -0.007705949246883392, -0.015424980781972408, 0.004546379204839468, 0.0008961927378550172, 0.0065971557050943375, -0.014443748630583286, 0.012566322460770607, -0.023157095536589622, 0.022215113043785095, -0.023418758064508438, 0.0054262178018689156, 0.021430127322673798, 0.015006321482360363, 0.0015249995049089193, -0.024910232052206993, -0.01849951036274433, -0.006590614095330238, -0.019310662522912025, -0.019925570115447044, -0.01441758219152689, 0.02255527302622795, 0.0012641550274565816, 0.012298119254410267, -0.01889200322329998, 0.004471151158213615, -0.008255439810454845, -0.009845037013292313, -0.008575975894927979, 0.0566236786544323, -0.012108414433896542, -0.03153028339147568, 0.008347021415829659, -0.009321712888777256, 0.005318282172083855, -0.012899941764771938, -0.017793023958802223, -0.002750722924247384, -0.020448893308639526, -0.019977901130914688, -0.0054916334338486195, -0.03336191922426224, -0.012919566594064236, 0.006692008581012487, 0.006489220075309277, 0.007228415459394455, -0.005154743324965239, 0.1973978877067566, -0.0191144160926342, -0.0062635368667542934, 0.009334796108305454, -0.005916834343224764, 0.033388085663318634, 0.00821619015187025, -0.007679782807826996, -0.027867013588547707, 0.00940675288438797, -0.010957100428640842, 0.01457457896322012, -0.002307532588019967, 0.007535868790000677, 0.012186912819743156, -0.018080851063132286, -0.017400529235601425, -0.01614455133676529, -0.02201886661350727, 0.03574304282665253, 0.007784447632730007, -0.018996668979525566, 0.0016860852483659983, -0.015097903087735176, -0.006718174554407597, -0.017400529235601425, 0.0022862725891172886, -0.01487549114972353, 0.03477489575743675, 0.034303903579711914, 0.0006991284317336977, -0.017936937510967255, -0.002315709600225091, -0.01819860003888607, -0.016720209270715714, 0.008922677487134933, -0.02852116897702217, 0.0003101104812230915, 0.03385907784104347, 0.03244610130786896, -0.0009526135982014239, -0.013907341286540031, -0.0024596238508820534, 0.018407929688692093, -0.009694580920040607, 0.004317424725741148, 0.0024089268408715725, -0.0061065396293997765, -0.005838335957378149, 0.003947827033698559, -0.03349275141954422, -0.01683795638382435, -0.025642886757850647, 0.043017249554395676, 0.017531361430883408, -0.013410182669758797, 0.006358389277011156, 0.012873775325715542, 0.007692866027355194, -0.001738417660817504, -0.01889200322329998, 0.017099618911743164, -0.02078905515372753, -0.0012420773273333907, -0.009648790583014488, 0.008667557500302792, -0.004307612311094999, -0.004140802659094334, 0.02768385037779808, -0.018329430371522903, 0.013868091627955437, -0.01487549114972353, -0.022673022001981735, -0.02959398366510868, 0.009197423234581947, -0.02553822100162506, 0.024831734597682953, 0.0034899183083325624, 0.02247677557170391, 0.005694421473890543, 0.008248898200690746, -0.0010654553771018982, -0.003130133030936122, 0.025211144238710403, 0.014273667708039284, -0.019022835418581963, -0.004346861969679594, 0.008824554271996021, -0.014849324710667133, -0.004222572315484285, -0.009243213571608067, -0.024674735963344574, -0.0015389003092423081, -0.002768712118268013, 0.002044235123321414, -0.012304660864174366, 0.01082627009600401, 0.011905625462532043, -0.006054207216948271, -0.02943698689341545, -0.011166430078446865, 0.006629863753914833, 0.009256296791136265, -0.0030679882038384676, -0.00991045217961073, 0.018630342558026314, 0.01158508937805891, -0.004356673918664455, 0.009184340015053749, -0.02040964365005493, -2.851708086382132e-05, -0.02394208312034607, -0.003318202681839466, -0.007300372701138258, 0.010217905044555664, 0.007208791095763445, 0.01097018364816904, -0.007130292244255543, 0.024295326322317123, 0.0026558702811598778, -0.006345306057482958, -0.017845354974269867, 0.01059731561690569, -0.02891366183757782, 0.006907879374921322, -0.01866959221661091, -0.052960410714149475, 0.03540288284420967, -0.009197423234581947, -0.005789273884147406, -0.00655790651217103, -0.005733671132475138, 0.0018496239790692925, -0.007614367175847292, -0.017308948561549187, -0.02241135947406292, -0.021286211907863617, -0.02094605192542076, 0.012095331214368343, 0.005707504693418741, 0.008046110160648823, -0.001016393769532442, 0.01215420477092266, -0.025132644921541214, 0.0027719829231500626, -0.00015035350224934518, 0.00833393819630146, 0.009799245744943619, 0.004389381967484951, -0.009982408955693245, -0.015660477802157402, -0.0030679882038384676, -0.02439999207854271, -0.016772540286183357, 0.016353880986571312, -0.007686324417591095, -0.0107085220515728, -0.01074122916907072, 0.0016762728337198496, 0.016733292490243912, -0.0183555968105793, 0.00537388538941741, 0.033911410719156265, 0.013240102678537369, -0.0013320236466825008, -0.005393510218709707, -0.16474245488643646, 0.02836417220532894, 0.009125465527176857, -0.001528270193375647, 0.021521707996726036, -0.005321552976965904, 0.0023271574173122644, 0.020082566887140274, -0.02118154801428318, 0.013194311410188675, 0.029410820454359055, -0.01627538353204727, -0.036972854286432266, -0.014116670936346054, 0.021076882258057594, -0.014247501268982887, -0.0024825192522257566, 0.030797630548477173, 0.00596262514591217, 0.013554097153246403, 0.01873500645160675, -0.028782831504940987, 0.01857800967991352, 0.001862707082182169, 0.008667557500302792, 0.02402058057487011, 0.015359565615653992, 0.024674735963344574, 0.003215173026546836, -0.01597447134554386, 0.016877206042408943, -0.00040496300789527595, 0.04872148483991623, -0.013076563365757465, 0.0008103348081931472, 0.008314313367009163, -0.036214035004377365, -0.026205459609627724, -0.02470090240240097, 0.0086021414026618, 0.008425519801676273, -0.008019943721592426, 0.007522785570472479, -0.036371033638715744, 0.014967072755098343, 0.03244610130786896, -0.0035291677340865135, -0.030326638370752335, 0.013985839672386646, -0.008438603021204472, 0.030169641599059105, 0.01675945706665516, 0.01001511700451374, -0.0002538940170779824, 0.014770826324820518, 0.020985301584005356, 0.012801818549633026, 0.0032838594634085894, 0.008235814981162548, -0.00535099022090435, -0.022921601310372353, 0.0008164675673469901, 0.013789593242108822, -0.0024645300582051277, -0.0014841147931292653, -0.020252646878361702, 0.0029175325762480497, 0.019637741148471832, 0.006273348815739155, -0.0031268622260540724, 0.0191274993121624, -0.012213079258799553, 0.009890827350318432, -0.006005145143717527, -0.0011676670983433723, -0.0014718493912369013, -0.020357312634587288, 0.0032331624533981085, 0.010342194698750973, -0.004238926339894533, -0.027474520727992058, 0.030614467337727547, -0.022424442693591118, -0.017269698902964592, -0.023117847740650177, -0.01881350576877594, -0.010950558818876743, 0.026493288576602936, -0.03456556424498558, 0.014613828621804714, -0.00906659197062254, -0.0366850271821022, -0.013789593242108822, -0.011035599745810032, 0.0054491134360432625, 0.03425157070159912, -0.009916993789374828, 0.013998922891914845, -0.008471311070024967, -0.012553239241242409, -0.010172114707529545, 0.006014957558363676, -0.02086755260825157, -0.0043861111626029015, 0.026323208585381508, 0.02799784578382969, 0.017308948561549187, 0.017701441422104836, 0.01407742127776146, 0.015084820799529552, 0.006436887662857771, 0.01774069108068943, -0.0022519296035170555, 0.02578680031001568, -0.008118066936731339, -0.002050776733085513, 0.04058379307389259, 0.01013286504894495, 0.01767527498304844, 0.01982090435922146, 0.03090229444205761, -0.029175324365496635, -0.013985839672386646, 0.0044776927679777145, 0.0024498114362359047, -0.01155238226056099, -0.08284222334623337, -0.009818870574235916, 0.020762888714671135, -0.003568416927009821, -0.01689028926193714, 0.016340797767043114, -0.006757423747330904, 0.008889970369637012, -0.0007641350966878235, 0.0011635787086561322, -0.023301010951399803, -0.015424980781972408, 0.010335653088986874, -0.011408467777073383, 0.048067327588796616, -0.009701122529804707, 0.01780610717833042, 0.004879998508840799, -0.027814682573080063, -0.000624309410341084, -0.013554097153246403, 0.014993238262832165, 0.0010867154924198985, 0.014967072755098343, -0.017413612455129623, -0.00166891363915056, -0.02416449598968029, 0.04461338743567467, 0.0026329748798161745, -0.007712490390986204, -0.015516563318669796, 0.004409006331115961, -0.01025061309337616, -0.024151412770152092, 0.01254015602171421, -0.0035291677340865135, 0.005982249975204468, -0.00417023990303278, 0.018682673573493958, -0.016641709953546524, -0.001397439162246883, 0.019389161840081215, 0.023353343829512596, -0.04016513377428055, -0.001511916401796043, -0.018237849697470665, 0.011480424553155899, 0.016798706725239754, 0.01971624046564102, -0.01706036925315857, -0.04343590885400772, -0.0015822380082681775, -0.037365347146987915, 0.003781017381697893, -0.0011431362945586443, 0.00346048129722476, 0.000955066701862961, -0.000315221055643633, -0.011984124779701233, 0.007496619131416082, -0.007862946018576622, -0.012697153724730015, 0.007758281659334898, -0.0060836439952254295, 0.008582517504692078, 0.015006321482360363, 0.006590614095330238, 0.0042291139252483845, 0.01063002273440361, -0.00430434150621295, -0.020632056519389153, -0.027317523956298828, 0.0022502942010760307, -0.00328058865852654, -0.012788735330104828, -0.02935848757624626, 0.0033721704967319965, 0.011343052610754967, 0.006227558013051748, -0.010675814002752304, 0.001050736871547997, 0.0007792624528519809, -0.005887397564947605, -0.031791944056749344, -0.007588201202452183, 0.001910133403725922, -0.0033410980831831694, -0.005279032979160547, 0.01312235463410616, -0.03969414159655571, -0.004909435287117958, 0.012141121551394463, 0.030483635142445564, -0.0366850271821022, -0.001664825133047998, 0.014849324710667133, 0.03014347516000271, 0.015424980781972408, -0.003954368643462658, 0.01780610717833042, 0.001838176278397441, -0.0051482017152011395, -0.0757250115275383, 0.003310025669634342, 0.007077959831804037, -0.01675945706665516, -0.0015985919162631035, 0.029044494032859802, 0.019676990807056427, -0.004297799896448851, 0.019598491489887238, 0.023902833461761475, -0.05146893486380577, -0.01238970085978508, 0.020671306177973747, -0.0019117688061669469, -0.03173961490392685, -0.007666699588298798, 0.024347659200429916, 0.0015789673198014498, -0.00751624396070838, 0.008412436582148075, 0.036214035004377365, 0.0026084440760314465, 0.033989906311035156, 0.015948304906487465, -0.0367111936211586, -0.00022772779630031437, -0.02470090240240097, 0.026977363973855972, 0.00039065335295163095, 0.02088063582777977, 0.03642336651682854, -0.024504655972123146, -0.008595599792897701, 0.04068845883011818, 0.009374044835567474, -0.02241135947406292, -0.036057040095329285, 0.0027736183255910873, -0.011729003861546516, 0.04115945100784302, -0.03770551085472107, -0.020291896536946297, 0.00963570736348629, -0.019454577937722206, -0.017112702131271362, 0.01273640338331461, 0.02631012536585331, -0.006999461445957422, 0.014025089330971241, 0.0063976384699344635, 0.009033883921802044, 0.020671306177973747, -0.012625196948647499, -0.03650186210870743, -0.02286926843225956, 0.016236133873462677, -0.005566861480474472, 0.02477940171957016, 0.021704871207475662, -0.0019068625988438725, 0.03456556424498558, 0.032001275569200516, 0.006849005818367004, -0.012599030509591103, 0.014940906316041946, -0.051966093480587006, -0.006237370427697897, -0.012363534420728683, 0.00219959719106555, -0.021704871207475662, -0.027396023273468018, 0.0037679343950003386, 0.007666699588298798, 0.01690337248146534, 0.015778224915266037, -0.0032576932571828365, -0.016615543514490128, -0.008268522098660469, -0.015961388126015663, 0.02967248298227787, -0.006227558013051748, 0.00046935639693401754, -0.029960311949253082, 0.023117847740650177, 0.0321059413254261, -0.005985520780086517, -0.016079137101769447, -0.02248985879123211, 0.013050397858023643, 0.010773937217891216, -0.0017367822583764791, 0.018486427143216133, -0.000346906716004014, 0.006413992494344711, -0.016301549971103668, -0.02247677557170391, -0.018931252881884575, -0.011827127076685429, -0.004651044029742479, 0.026362456381320953, 0.007182624656707048, 0.004739354830235243, -0.009223589673638344, -0.04262475669384003, 0.0026411518920212984, 0.019284497946500778, -0.018551843240857124, -0.01300460658967495, -0.0018986857030540705, 0.013076563365757465, 0.004641231615096331, 0.019925570115447044, -0.000861031876411289, -0.008085358887910843, 0.00953758414834737</t>
+  </si>
+  <si>
+    <t>[-0.017478900030255318, 0.015455164015293121, 0.004740314092487097, -0.011227228678762913, -0.012251987121999264, 0.013508766889572144, -0.00636123726144433, -0.0006428909837268293, -0.0013405646895989776, -0.03537028282880783, 0.0006908258073963225, -0.011523700319230556, -0.0006489331717602909, 0.017556240782141685, -0.01334119588136673, -0.016989078372716904, 0.01912882551550865, 0.010737407021224499, 0.024723105132579803, -0.02531604841351509, -0.0007375522400252521, 0.007360215298831463, -8.413775503868237e-05, -0.004540518391877413, -0.014411070384085178, 0.005971312988549471, 0.027481574565172195, -0.013573217205703259, -0.007482671178877354, -0.002481333678588271, -0.008462314493954182, -0.020572511479258537, -0.03529294207692146, -0.017762482166290283, -0.03377191722393036, 0.009158376604318619, 0.017801152542233467, -0.004772539250552654, 0.02120412327349186, -0.007585791405290365, 0.021088114008307457, 0.013740787282586098, -0.016718387603759766, -0.02681129239499569, -0.016318796202540398, 0.02229977771639824, -0.01501690223813057, 0.009957559406757355, 0.006677043158560991, 0.00549438176676631, 0.01604810543358326, 0.01745312102138996, -0.01925772614777088, -0.0005635366542264819, -0.021668165922164917, -0.030188484117388725, -0.01758202165365219, -0.025109807029366493, -0.0003208412672393024, -0.012993165291845798, 0.01682150922715664, -0.005336478352546692, -0.02171972580254078, -0.007405330892652273, -0.01334119588136673, -0.03232823312282562, -0.010840527713298798, -0.007224869914352894, -0.02286694012582302, 0.006135661154985428, 0.024852005764842033, 0.011362574063241482, 0.007469780743122101, -0.021101003512740135, 0.04001069813966751, -0.02995646372437477, -0.011794391088187695, 0.019940899685025215, 0.005078677553683519, 0.01611255668103695, 0.0277135968208313, -0.039211515337228775, -0.00828185398131609, 0.014320839196443558, 0.003931463696062565, -0.00928083248436451, -0.02170683443546295, 0.022970059886574745, -0.001878723967820406, 0.004762871656566858, -0.019296396523714066, 0.0020607959013432264, 0.00021288714196998626, 0.006544920150190592, -0.007540676277130842, -0.006200111471116543, -0.009951114654541016, 0.011098328046500683, -0.0007850842666812241, 0.0150426821783185, -0.010266920551657677, 0.014256389811635017, 0.009673978202044964, -0.016525037586688995, -0.027275335043668747, -0.014771991409361362, -0.013263856060802937, -0.018020281568169594, 0.008114282973110676, 0.0174015611410141, -0.012361552566289902, 0.047641605138778687, 0.010453825816512108, -0.039417754858732224, 0.0153649328276515, -0.013263856060802937, 0.01778826117515564, 0.01317362580448389, 0.01765936054289341, -0.02249312773346901, 0.02473599649965763, 0.0235243309289217, -0.002877702470868826, -0.016834398731589317, 0.041583284735679626, 0.022273996844887733, -0.015738744288682938, 0.0011053213384002447, -0.012832039035856724, -0.008932800963521004, 0.004830544348806143, -0.03516404330730438, 0.04196998476982117, 0.009899554774165154, -0.005897195544093847, -0.013379866257309914, -0.022892719134688377, -0.0015774192288517952, -0.005997093394398689, -0.03957243636250496, 0.022003306075930595, 0.003425529459491372, -0.029466642066836357, 0.03106500767171383, -0.011717050336301327, 0.02840965799987316, 0.002073685871437192, -0.014346620067954063, -0.013637667521834373, -0.009822214022278786, 0.00029908932629041374, 0.014527080580592155, 7.990820449776947e-05, -0.008584769442677498, 0.011195003986358643, 0.02539338730275631, -0.02402704395353794, 0.04563075676560402, 0.0024797222577035427, -0.008294743485748768, -0.036762408912181854, 0.04251136630773544, -0.013154290616512299, -0.02229977771639824, 0.03848967328667641, 0.027816716581583023, -0.0013099508360028267, 0.02487778663635254, 0.0037638931535184383, -0.0031145571265369654, 0.02222243696451187, 0.0382576510310173, -0.028332319110631943, 0.02550939843058586, -0.006003538146615028, 0.01463020034134388, -0.00465330621227622, 0.010331370867788792, 0.009673978202044964, 0.003467421978712082, -0.005114125087857246, -0.0004926414112560451, -0.0008177122217603028, 0.004389060195535421, -0.01330252643674612, -0.007224869914352894, -0.009351727552711964, -0.002642459236085415, -0.009802878834307194, 0.010086460039019585, -0.007160419598221779, 0.004827321507036686, -0.01959286816418171, -0.025741418823599815, -0.6298591494560242, -0.026914414018392563, -0.0005397706408984959, 0.017801152542233467, 0.012284212745726109, 0.010228250175714493, 0.009055256843566895, 0.0018513327231630683, 0.014256389811635017, 0.004875659476965666, -0.006535252556204796, 0.012870709411799908, -0.00010352316894568503, 0.006213001441210508, -0.043207429349422455, -0.006038986146450043, -0.00197378802113235, -0.03214777261018753, 0.03085876628756523, -0.010827637277543545, 0.017169538885354996, 0.013418536633253098, -0.0016120611689984798, 0.016705498099327087, 0.010060680098831654, 0.012348663061857224, 0.02217087708413601, -0.01590631529688835, 0.001798161189071834, -0.002482944866642356, -0.012084417045116425, 0.02784249745309353, -0.009242162108421326, -0.0026698505971580744, 0.04936886951327324, -0.011588150635361671, -0.009667533449828625, 0.04173796623945236, 0.010105795226991177, 0.042098887264728546, -0.020340491086244583, -0.009622418321669102, 0.009964004158973694, -0.005890750326216221, 0.012355107814073563, 0.02139747329056263, 0.03539606183767319, -0.0003669634461402893, -0.012245542369782925, -0.003989468794316053, 0.018793685361742973, -0.005971312988549471, 0.025947660207748413, 0.02333098091185093, 0.004898217041045427, -0.006422464735805988, 0.03524138405919075, 0.00047290351358242333, -0.003515759715810418, 0.011588150635361671, -0.0018142737681046128, -0.001331702689640224, 0.022854048758745193, -0.012535568326711655, 0.00744400080293417, 0.0229958388954401, -0.01609966531395912, -0.001086791860871017, -0.010660067200660706, 0.01098876353353262, 0.012690248899161816, 0.02351144142448902, -0.01867767423391342, 0.007340880576521158, 0.020959213376045227, 0.014952451921999454, -0.019811999052762985, 0.004437397699803114, 0.004414840135723352, -0.017233990132808685, -0.0012358330423012376, 0.01027981098741293, -0.02139747329056263, 0.01188462134450674, 0.03511248156428337, 0.006348346825689077, -0.007605126593261957, 0.010821192525327206, 0.015532503835856915, 0.0014799382770434022, 0.01951552741229534, 0.006345124449580908, 0.0014751044800505042, -0.015519613400101662, -0.010073569603264332, 0.025367608293890953, -0.012271322309970856, 0.025483617559075356, 0.003925018478184938, -0.03042050637304783, 0.0008173094247467816, -0.015532503835856915, -0.018458543345332146, -0.02357589267194271, 0.007327990606427193, 0.0020994660444557667, -0.030317384749650955, 0.022518908604979515, 0.027481574565172195, -0.02590898983180523, -0.00860410463064909, 0.0039024611469358206, 0.0016394525300711393, -0.015352043323218822, -0.01914171688258648, -0.02049517072737217, 0.03054940514266491, 0.026141010224819183, 0.03397815674543381, -0.019928008317947388, 0.004395505413413048, -0.002863201079890132, 0.004882104229182005, -0.008591215126216412, -0.017053529620170593, 0.007772697135806084, 0.006722158286720514, -0.0006751160835847259, -0.023795021697878838, -0.01778826117515564, -0.002386269625276327, 0.012490453198552132, -0.0023959369864314795, -0.018149182200431824, 0.013225185684859753, 0.01649925671517849, -0.002516781212761998, -0.00531392078846693, 0.013676336966454983, -0.02075297199189663, -0.01577741466462612, -0.01272247452288866, -0.0016821508761495352, -0.012264877557754517, -0.009976894594728947, -0.02655349299311638, -0.01562273409217596, 0.010125130414962769, -0.014849331229925156, 0.020714301615953445, -0.028203418478369713, -0.0010521499207243323, -0.013702117837965488, 0.026321470737457275, 0.019734658300876617, 0.01933506689965725, -0.022067757323384285, -0.010943648405373096, -0.006999294273555279, 0.0012019966961815953, -0.019167495891451836, 0.02228688634932041, -0.01843276433646679, -0.03191575035452843, -0.006535252556204796, -0.014411070384085178, 0.007424665614962578, 0.0041151465848088264, -0.01907726563513279, -0.04521827772259712, -0.0035479848738759756, -0.0012173035647720098, -0.009712648577988148, 0.0010054234880954027, -0.013547437265515327, 0.02371768280863762, -0.006909064017236233, -0.03748425096273422, -0.024130163714289665, -0.0035834324080497026, -0.01091786753386259, -0.021668165922164917, -0.03279227390885353, -0.015532503835856915, 0.04537295550107956, 0.009300167672336102, 0.02403993345797062, 0.012909379787743092, -0.007244205102324486, 0.026373030617833138, -0.018767904490232468, -0.010428045876324177, 0.01758202165365219, -0.018471434712409973, 0.001496050856076181, -0.0015669460408389568, 0.030497845262289047, -0.003815453266724944, 0.011684825643897057, 0.03402971848845482, 0.012239097617566586, 0.0228798296302557, 0.01060206163674593, -0.01965731754899025, 0.005610391963273287, -0.041016120463609695, 0.025870319455862045, -0.02294427901506424, 0.040113817900419235, 0.006280674133449793, 0.005922975484281778, -0.011124108918011189, -0.02686285227537155, -0.021603714674711227, -0.015957875177264214, -0.00804983265697956, 0.005984203424304724, -0.011620375327765942, -0.008262518793344498, 0.018058951944112778, 0.009577303193509579, -0.005636171903461218, -0.0013590940507128835, 0.025999220088124275, -0.009873773902654648, 0.009719093330204487, 0.015455164015293121, 0.013102730736136436, -0.011227228678762913, -0.02481333538889885, -0.031348589807748795, 0.021925965324044228, 0.007579346187412739, 0.024645766243338585, -0.013521657325327396, 0.0225575789809227, -0.010215360671281815, -0.02539338730275631, 0.0016257568495348096, 0.01318007055670023, 0.013134955428540707, -0.008204513229429722, 0.009126151911914349, 0.012374443002045155, 0.005304253194481134, 0.017246879637241364, 0.02441374398767948, -0.006525584962219, 0.007553566247224808, 0.01990222930908203, -0.012574238702654839, 0.008784565143287182, -0.009235717356204987, 0.03861857205629349, 0.005661952309310436, -0.003132280893623829, 0.013650557026267052, -0.003741335589438677, 0.040423180907964706, 0.005794075317680836, 0.03459687903523445, -0.011794391088187695, 0.022660698741674423, 0.015609844587743282, 0.03021426498889923, -0.017942942678928375, 0.011162778362631798, -0.03163217008113861, 0.003170951036736369, -0.0035544298589229584, -0.019992459565401077, -0.02396259270608425, -0.004836989101022482, 0.007766251917928457, 0.005868192762136459, -0.03575698286294937, -0.014320839196443558, -0.011510809883475304, 0.018342534080147743, -0.001588698010891676, -0.01637035608291626, -0.03939197584986687, 0.010254030115902424, 0.021603714674711227, 0.007579346187412739, -0.016550816595554352, -0.024658655747771263, -0.0015830586198717356, -0.009068146347999573, 0.003857345785945654, -0.00969975907355547, 0.022596247494220734, -0.01771092228591442, 0.0003264806582592428, -0.009403287433087826, -0.011240119114518166, -0.006167886313050985, -0.009905999526381493, 0.004124814178794622, -0.015210253186523914, 0.0005023089470341802, -0.004666196182370186, -0.007611571345478296, -0.01243244856595993, 0.009499963372945786, -0.016331685706973076, -0.0014783269725739956, -0.023936813697218895, -0.01330252643674612, -0.005429931450635195, -0.004588855896145105, 0.003370746737346053, -0.0029405413661152124, -0.00536225875839591, -0.014488410204648972, -0.0029647103510797024, 0.014153269119560719, 0.008919910527765751, 0.05295230448246002, 0.00017119590484071523, -0.005755404941737652, -0.041841086000204086, -0.02892526052892208, 0.01635746657848358, 0.08749762177467346, -0.015816085040569305, 0.0002733092405833304, 0.008326969109475613, -0.002528059994801879, 0.00859765987843275, -0.004672641400247812, -0.0014646312920376658, 0.01746601052582264, 0.012387332506477833, -0.0005977757973596454, -0.017221100628376007, 0.03915995731949806, 0.018278082832694054, 0.004875659476965666, -0.0031081121414899826, 0.012993165291845798, -0.017749590799212456, 0.039727117866277695, 0.00888768583536148, -0.010299146175384521, -0.008165842853486538, 0.028951039537787437, 0.04465111345052719, 0.0015830586198717356, -0.0009506408241577446, 0.012928714975714684, 0.01738866977393627, 0.010228250175714493, -0.021681055426597595, -0.0021751951426267624, -0.0335141159594059, -0.02840965799987316, -0.007985382340848446, -0.016344577074050903, 0.027146434411406517, 0.019167495891451836, 0.02178417518734932, 0.015880534425377846, -0.0011375464964658022, 0.03872169554233551, -0.005893973167985678, 0.006419242359697819, 0.014746211469173431, 0.004389060195535421, 0.005910085514187813, 0.0027955283876508474, 0.016860177740454674, 0.015416493639349937, -0.01117566879838705, 0.02797139622271061, -0.02409149333834648, -0.012954494915902615, -0.002697241958230734, 0.014965342357754707, 0.00586174800992012, 0.010614952072501183, -0.003261181293055415, -0.0128900445997715, 0.01275469921529293, -0.005723179783672094, -0.01946396753191948, -0.01920616626739502, -0.008120727725327015, -0.023098960518836975, -0.02602500095963478, 0.010247585363686085, -0.00032768910750746727, -0.020598292350769043, -0.03137436881661415, -0.015107132494449615, -0.0348031222820282, -0.012032857164740562, -0.014900892041623592, 0.0016499257180839777, 0.007424665614962578, 0.023047400638461113, -0.013947028666734695, -0.013779457658529282, 0.007933822460472584, -0.00889413058757782, -0.04135126248002052, -0.01869056560099125, -0.02681129239499569, -0.009383952245116234, 0.05913952365517616, 0.027790935710072517, -0.0011335182934999466, -0.04545029625296593, -0.018587443977594376, 0.047847844660282135, 0.01347009651362896, 0.026115231215953827, -0.006954179145395756, 0.004543740767985582, -0.02402704395353794, 0.02712065353989601, 0.0033643017522990704, -0.0008676611469127238, -0.007031519431620836, 0.02539338730275631, -0.014527080580592155, -0.0015758079243823886, -0.02035338059067726, 0.01072451751679182, 0.013689227402210236, -0.007695356849581003, -0.010273365303874016, -0.018381204456090927, -0.003441642038524151, 0.01706641912460327, -0.019231947138905525, 0.01682150922715664, -0.0045050703920423985, -0.017698030918836594, 0.004917552229017019, -0.018587443977594376, 0.00247327727265656, 0.01791716180741787, -0.013431426137685776, -0.011736385524272919, -0.014810661785304546, 0.02848699875175953, 0.03671084716916084, -0.021874405443668365, 0.016151225194334984, -0.021938856691122055, 0.002742357086390257, -0.020134249702095985, -0.011291678994894028, 0.01901281625032425, 0.028976820409297943, 0.0030501068104058504, -0.022776709869503975, 0.004398727789521217, -0.035086702555418015, -0.011420579627156258, -0.015674294903874397, 0.0014299893518909812, -0.017749590799212456, -0.008932800963521004, 0.008558989502489567, -0.019296396523714066, 0.0007355381967499852, -0.01201352197676897, -0.02784249745309353, -0.010099350474774837, 0.0017949386965483427, -0.018909696489572525, -0.004102256614714861, -0.00631289929151535, 0.019502637907862663, 0.02223532646894455, 0.011897510848939419, 0.01861322484910488, -0.013354086317121983, -0.010840527713298798, -0.008449424058198929, 0.009789989329874516, 0.010795412585139275, -0.0004181208205409348, 0.03910839557647705, -0.0006058320868760347, 0.0376131497323513, -0.02061118185520172, -0.0031403370667248964, 0.006538475397974253, -0.0037542255595326424, -0.039727117866277695, 0.026914414018392563, 0.006715713068842888, 0.024658655747771263, 0.004650083836168051, 0.0023943257983773947, -0.024761775508522987, -0.01201996672898531, -0.013263856060802937, -0.006818833760917187, -0.017839821055531502, -0.025109807029366493, 0.007373105734586716, -0.013934138230979443, 0.003757447935640812, -0.004244047217071056, -0.01318007055670023, 0.008945691399276257, 0.002636014251038432, -0.006316122133284807, -0.0034835345577448606, 0.005516939330846071, 0.029466642066836357, -0.04882748797535896, 0.03477733954787254, 0.02241578698158264, 0.02655349299311638, 0.018149182200431824, -0.021113893017172813, -0.00018307891150470823, 0.003117779502645135, 0.0025038912426680326, -0.02763625606894493, 2.4747878342168406e-05, -0.005881082732230425, -0.00665126321837306, -0.010202470235526562, 0.027043314650654793, 0.01727266050875187, -0.013740787282586098, 0.010492496192455292, -0.01629301719367504, -0.020198700949549675, -0.016860177740454674, -0.007469780743122101, -0.037200670689344406, -0.001591114909388125, -0.014243499375879765, -0.0039475760422647, 0.015132912434637547, -0.020598292350769043, -0.024632874876260757, -0.003013047855347395, 0.013405646197497845, 0.01688595861196518, 0.012941604480147362, 0.055839672684669495, 0.03266337141394615, 0.017801152542233467, -0.008056278340518475, 0.033746138215065, 0.016409026458859444, 0.007128194905817509, 0.009454848244786263, 0.013250965625047684, 0.027017533779144287, -0.017040638253092766, -0.003622102551162243, 0.02067563124001026, -0.029543982818722725, -0.03268915414810181, 0.031168127432465553, 0.0011923291021957994, -0.016705498099327087, -0.025664078071713448, -0.012774034403264523, 0.02442663535475731, 0.01433372963219881, -0.04594011977314949, -0.010827637277543545, -0.0373811312019825, 0.006051876116544008, -0.02900260128080845, 0.014668870717287064, -0.016525037586688995, 0.007257095072418451, -0.04251136630773544, -0.007141084875911474, 0.010196025483310223, -0.01105321291834116, -0.025135587900877, 0.03397815674543381, 0.00876522995531559, 0.001648314413614571, 0.012213317677378654, -0.0010956537444144487, 0.030136924237012863, 0.00037300566327758133, 0.008868350647389889, -0.006928399205207825, 0.02017292007803917, 0.026656612753868103, -0.0010070347925648093, -0.010634287260472775, -0.004050696734338999, -0.008849015459418297, 0.004334277473390102, 0.005710289813578129, -0.004057141486555338, -0.00899080652743578, 0.020662741735577583, -0.004128037020564079, 0.016705498099327087, -0.0168730691075325, -0.01714375987648964, -0.01598365604877472, -0.013128510676324368, -0.010995208285748959, -0.035989005118608475, -0.00723131513223052, -0.00918415654450655, -0.02345988154411316, 0.014295059256255627, -0.011646155267953873, 0.016189895570278168, 0.004878881853073835, 0.022016195580363274, -0.013702117837965488, -0.00033735664328560233, 0.007605126593261957, -0.020250260829925537, 0.01938662678003311, -0.014810661785304546, 0.004666196182370186, 0.00428593996912241, -0.005968090612441301, 0.01714375987648964, -0.009261497296392918, 0.030008023604750633, -0.0027294668834656477, 0.006525584962219, -0.01669260859489441, 0.004343945067375898, 0.015223142690956593, 0.014114598743617535, -0.017311330884695053, 0.004456732887774706, -0.008520319126546383, 0.005694177467375994, -0.04266604781150818, 0.0029485977720469236, 0.020005349069833755, 0.008526764810085297, 0.013038280420005322, -0.0012664468958973885, -0.0035640974529087543, -0.007920932024717331, 0.001015896676108241, 0.005700622219592333, 0.02093343250453472, -0.027172213420271873, -0.02068852260708809, -0.004456732887774706, -0.006329012103378773, -0.024632874876260757, -0.0128900445997715, -0.015584063716232777, -0.018587443977594376, -0.02075297199189663, 0.03665928542613983, 0.012329327873885632, -0.0026037890929728746, 0.0015524447662755847, 0.02436218410730362, -0.0027455794624984264, 0.0275073554366827, 0.0204178299754858, -0.004550185985863209, -0.012413113377988338, -0.01880657486617565, -0.020714301615953445, 0.004176374524831772, -0.0036833302583545446, 0.020018238574266434, 0.01385679841041565, -0.020894762128591537, -0.02668239176273346, 0.019502637907862663, -0.028254978358745575, 0.003180618630722165, -0.027404235675930977, 0.005417041480541229, -2.98334034596337e-05, 0.027945617213845253, 0.00029506118153221905, -0.011414134874939919, 0.008842570707201958, 0.020843202248215675, -0.026579272001981735, 0.012393778190016747, 0.026501931250095367, -0.0019238392123952508, -0.0005728013347834349, 0.010041344910860062, -0.03593744337558746, -0.031348589807748795, 0.033797696232795715, 0.024181723594665527, -0.013843907974660397, 0.023098960518836975, -0.012084417045116425, -0.006612592842429876, -0.006196889095008373, -0.011169224046170712, 0.004614635836333036, -0.013225185684859753, 0.03400393947958946, -0.025303157046437263, -0.019863558933138847, -0.02223532646894455, 0.02926040068268776, -0.009873773902654648, 0.006432132329791784, -0.037793610244989395, -0.006580367684364319, -0.01362477708607912, -0.00180782878305763, 0.017543351277709007, 0.0008136840770021081, 0.011949071660637856, 0.016396136954426765, 0.010576281696557999, -0.024465305730700493, 0.026012109592556953, 0.0009530576644465327, -0.00899080652743578, -0.019309286028146744, 0.008926356211304665, -0.03281805291771889, -0.010254030115902424, -0.007089524529874325, -0.01443685032427311, 0.009622418321669102, -0.02603789046406746, 0.0011004875414073467, -0.01564851403236389, -0.0030098254792392254, -0.006174331530928612, 0.0006835751701146364, -0.017130868509411812, 0.03343677520751953, 0.015880534425377846, -0.0033997492864727974, 0.02396259270608425, -0.010324926115572453, -0.008262518793344498, -0.03292117267847061, -0.029982244595885277, -0.03854123502969742, -0.02892526052892208, -0.02170683443546295, -0.005774740129709244, -0.02699175290763378, -0.027558915317058563, -0.0034996471367776394, 0.009661088697612286, 0.015158692374825478, 0.005890750326216221, 0.21325290203094482, 0.005661952309310436, 0.015828974545001984, 0.01562273409217596, -0.007843592204153538, 0.018793685361742973, 0.019476857036352158, -0.007489115931093693, 0.007211979944258928, 0.017478900030255318, -0.02732689492404461, 0.008133618161082268, -0.02423328347504139, 0.017130868509411812, 0.011710605584084988, -0.013934138230979443, -0.024259064346551895, -0.014643090777099133, -0.0012994776479899883, -0.0005530634662136436, 0.0034545320086181164, 0.009744874201714993, -0.005020672455430031, -0.005581389181315899, 0.0024797222577035427, -0.012935159727931023, 0.0007049243431538343, -0.007463335990905762, 0.04661040008068085, 0.013689227402210236, -0.0016096443869173527, -0.004563075955957174, -0.008707225322723389, -0.011903956532478333, -0.010524721816182137, 0.0037832281086593866, -0.01914171688258648, -0.0034287518355995417, 0.04498625546693802, 0.0154680535197258, 0.003062996780499816, -0.0154680535197258, -0.00011157945118611678, 0.008919910527765751, -0.0023153743240982294, 0.006129216402769089, -0.006876838859170675, -0.020456500351428986, 0.007837147451937199, -0.0025393387768417597, -0.013263856060802937, 0.009499963372945786, 0.01938662678003311, 0.040758322924375534, -0.003480312181636691, -0.006838168483227491, 0.002963098930194974, 0.026888633146882057, -0.001301088836044073, 0.0013856798177585006, -0.01176216546446085, 0.013998588547110558, -0.010924313217401505, 0.023279421031475067, -0.012290657497942448, 0.02339543029665947, -0.027017533779144287, 0.010189580731093884, -0.0008708836394362152, 0.0013204239076003432, -0.0020656296983361244, -0.02590898983180523, 0.02951820194721222, -0.014127489179372787, -0.012967385351657867, -0.01785271242260933, 0.046043239533901215, 0.004650083836168051, 0.019541308283805847, 0.006715713068842888, 0.003006602870300412, 0.00586497038602829, -0.007224869914352894, 0.015210253186523914, 0.01117566879838705, -0.0124646732583642, 0.02552228793501854, 0.005462156608700752, -0.016383247449994087, -0.015584063716232777, 0.01072451751679182, -0.016280125826597214, 0.006219446659088135, -0.005690954625606537, 0.004173152148723602, 0.028719019144773483, -0.01417904905974865, 0.014797771349549294, -0.031090788543224335, 0.013534546829760075, -0.004749981686472893, -0.01887102611362934, 0.010344261303544044, -0.0023911031894385815, -0.022712258622050285, 0.020069800317287445, -0.01347009651362896, 0.002772970823571086, 0.003912128508090973, -0.018252303823828697, -0.014037258923053741, -0.026321470737457275, -0.009390397928655148, -0.015352043323218822, 0.030755646526813507, 0.030884547159075737, 0.014449739828705788, -0.0029340963810682297, -0.021487705409526825, -0.01893547549843788, -0.011517254635691643, -0.016318796202540398, 0.01044093631207943, -0.004350390285253525, -0.01604810543358326, -0.02789405733346939, -0.006000315770506859, 0.021668165922164917, 0.007792031858116388, -0.02074008248746395, 0.01629301719367504, -0.04091300070285797, 0.007746916729956865, 0.009371062740683556, -0.018020281568169594, 0.005897195544093847, -0.005139905493706465, -0.00293087400496006, 0.02681129239499569, 0.014372400008141994, -0.0033836367074400187, 0.0035544298589229584, 0.01957997865974903, 0.010131575167179108, 0.01771092228591442, -0.02402704395353794, 0.03441641852259636, -0.013560326769948006, 0.004965889733284712, -0.008430088870227337, -0.006225891411304474, -0.006490137428045273, 0.0021445811726152897, -0.012658024206757545, 0.026012109592556953, -0.009590193629264832, -0.007199089974164963, -0.03191575035452843, -0.003989468794316053, 0.025805870071053505, -0.025999220088124275, 0.005816632881760597, 0.031219689175486565, 0.03256025165319443, -0.019708877429366112, 0.009693313390016556, -0.16055840253829956, 0.01925772614777088, 0.02389814332127571, 0.002312151715159416, 0.018406983464956284, 0.00715397484600544, 0.006921953987330198, 0.004846656695008278, 0.02171972580254078, -0.010782522149384022, 0.023563001304864883, 0.007637351285666227, -0.005465378984808922, -0.0180460624396801, -0.020701412111520767, 0.00036756767076440156, -0.0014565750025212765, 0.0023105405271053314, 0.03962399810552597, 0.017362890765070915, 0.028435438871383667, -0.020056908950209618, 0.02621835097670555, 0.023537222295999527, -0.002552228746935725, 0.013392756693065166, -0.03266337141394615, 0.013225185684859753, -0.020765861496329308, -0.004869214259088039, 0.015429383143782616, -0.014978231862187386, 0.03732956945896149, 0.019876448437571526, 0.01732422038912773, 0.004308497533202171, -0.01843276433646679, -0.008662110194563866, -0.03395237773656845, 0.005658729467540979, 0.01914171688258648, 0.022377118468284607, 0.006657707970589399, -0.020469391718506813, 0.011059658601880074, 0.012696693651378155, 0.008952136151492596, -0.009035921655595303, -0.011575260199606419, 0.0022799265570938587, 0.009377507492899895, -0.016060994938015938, 0.0029743777122348547, -0.004517960827797651, -0.003912128508090973, 0.015184472315013409, 0.009783543646335602, 0.018600335344672203, 0.002911538816988468, 0.008384973742067814, -0.006954179145395756, -0.01919327676296234, 0.020727191120386124, 0.0003736098879016936, 0.014166159555315971, -0.016473477706313133, 0.005036784801632166, 0.016215676441788673, -0.03743268921971321, -0.004408395383507013, -0.019708877429366112, -0.024774665012955666, 0.013096285052597523, -0.02088187262415886, -0.011104773730039597, 0.021371694281697273, -0.013057615607976913, -0.008172288537025452, -0.007843592204153538, 0.010846972465515137, 0.0004978780052624643, 0.051250819116830826, -0.03580854460597038, -0.01848432421684265, -0.002413660753518343, -0.021603714674711227, -0.010389376431703568, -0.005587834399193525, 0.0007923349621705711, 0.003370746737346053, -0.006883284077048302, -0.03511248156428337, -0.006670597940683365, -0.024323513731360435, 0.002573175122961402, 0.002747190883383155, 0.0006348346942104399, 0.0101509103551507, -0.006612592842429876, -0.02294427901506424, -0.004546963144093752, 0.0035995449870824814, -0.026914414018392563, 0.025354718789458275, 0.01952841691672802, 0.016718387603759766, 0.010479606688022614, 0.0013792348327115178, 0.00847520399838686, 0.02797139622271061, 0.00781136704608798, 0.007366660516709089, 0.0010360373416915536, 0.024503974243998528, -0.019347956404089928, 0.03828343376517296, 0.026501931250095367, -0.018136292695999146, 0.02371768280863762, -0.008417199365794659, 0.06011916697025299, -0.02623124048113823, 0.002068852074444294, -0.0003546776424627751, -0.00016736917314119637, -0.013573217205703259, -0.09729405492544174, -0.02371768280863762, 0.009506408125162125, 0.04421285167336464, 0.02139747329056263, 0.013972808606922626, 0.0031596722546964884, 0.01218109205365181, 0.01205219142138958, 0.00681238854303956, -0.022892719134688377, -0.005040007643401623, 0.019876448437571526, -0.005951978266239166, 0.02055962197482586, -0.009789989329874516, -0.0018819465767592192, -0.010563391260802746, 0.004295607563108206, 0.01875501498579979, 0.01881946437060833, 0.014411070384085178, -0.002916372613981366, -0.018961256369948387, -0.011588150635361671, -0.013392756693065166, -0.0335141159594059, 0.03498358279466629, 0.019115936011075974, 0.02905416116118431, -0.030136924237012863, -0.018071843311190605, -0.006480469834059477, -0.016847288236021996, 0.007998272776603699, -0.02132013440132141, -0.044676896184682846, 0.011981296353042126, 0.02378213219344616, -0.01912882551550865, 0.0125677939504385, -0.005955200642347336, 0.021088114008307457, -0.02520003728568554, -0.003925018478184938, -0.009119706228375435, -0.008578324690461159, 0.027558915317058563, -0.004298829939216375, -0.026334362104535103, -0.025780089199543, -0.00933883711695671, -0.02171972580254078, 0.0009836715180426836, 0.05346790701150894, -0.009093926288187504, -0.0003955632564611733, 0.021758396178483963, -0.015674294903874397, -0.023214969784021378, 0.012245542369782925, 0.008481649681925774, 0.006747938226908445, 0.0005204355693422258, 0.004202154465019703, 0.02086898311972618, -0.01849721372127533, 0.013637667521834373, 0.03343677520751953, -1.4425772860704456e-05, -0.02099788188934326, -0.00041449550190009177, -0.002967932727187872, 0.013186515308916569, -0.031683728098869324, -0.02378213219344616, 0.009377507492899895, -0.013250965625047684, -0.01475910097360611, -0.020147139206528664, -0.0031355032697319984, -0.008829680271446705, -0.005014227237552404, -0.01727266050875187, 0.021990416571497917, 0.001458186306990683, 0.030961887910962105, 0.012645133771002293, 0.010866307653486729, -0.02204197645187378, -0.02584454044699669, 0.016460586339235306, 0.023343870416283607, -0.025419168174266815, -0.006087323650717735, 0.007553566247224808, 0.010943648405373096, -0.02636014111340046, -0.015132912434637547, -0.012973830103874207, -0.012226207181811333, -0.028590118512511253, -0.06207845360040665, -0.008223848417401314, -0.005877860356122255, -0.024078603833913803, 0.0037928957026451826, 0.0004725006874650717, 0.004472845699638128, 0.010904978029429913, -0.00814650859683752, 0.005568499211221933, -0.038438111543655396, 0.012832039035856724, -0.009944669902324677, -0.005123792681843042, -0.023214969784021378, -0.017672251909971237, 0.01938662678003311, -0.00989310909062624, 0.003925018478184938, -0.009377507492899895, 0.002571563934907317, 0.02093343250453472, 0.02874480001628399, 0.00037300566327758133, -0.03021426498889923, 0.006644818000495434, -0.015352043323218822, 0.012542013078927994, -0.0038799033500254154, -0.016396136954426765, 0.01914171688258648, -0.03323053568601608, -0.009577303193509579, 0.012902935035526752, -0.0027036869432777166, -0.004756426438689232, -0.00012849763152189553, 0.01005423441529274, 0.009235717356204987, 0.02944086119532585, -0.0255738478153944, -0.02003112994134426, 0.021629495546221733, -0.010737407021224499, -0.006780163384974003, 0.020920543000102043, 0.020843202248215675, -0.008919910527765751, 0.010718071833252907, 0.007566456217318773, 0.01301250047981739, 0.032508693635463715, 0.0124646732583642, -0.013025389984250069, -0.01914171688258648, -0.0002501474227756262, -0.005252693314105272, 0.006238781847059727, -0.009377507492899895, -0.021565044298768044, 0.03699442744255066, 0.013457207009196281, -0.02081742137670517, -0.0022138652857393026, 0.0034029718954116106, 0.005181797780096531, -0.03356567770242691, 0.010782522149384022, -0.007095969747751951, -0.03575698286294937, -0.017040638253092766, -0.007759806700050831, -0.010080015286803246, -0.007933822460472584, 0.01880657486617565, -0.018974145874381065, -0.016396136954426765, -0.024452414363622665, -0.024246174842119217, 0.0470486618578434, 0.004227934870868921, 0.009035921655595303, -0.03500936180353165, 0.00860410463064909, 0.028048736974596977, -0.01214886736124754, -0.016447696834802628, -0.0016644269926473498, 0.019476857036352158, 0.019347956404089928, 0.002178417518734932, 0.014269279316067696, 0.013089840300381184, 0.01162682007998228, 0.00536225875839591, 0.0019947343971580267, -0.01227776799350977, -0.002331486903131008, -0.0009047199855558574, -0.007772697135806084, 0.002152637578547001, -0.02075297199189663, -0.002518392400816083, -0.022828269749879837, 0.0031596722546964884, -0.023240750655531883, -0.03441641852259636, -0.024826226755976677, 0.002426550956442952, 0.016653938218951225, -0.013611887581646442, 0.003686552867293358, 0.007476225960999727, 0.005887527950108051, 0.012297102250158787, 0.011665490455925465, 0.02539338730275631, -0.012090861</t>
+  </si>
+  <si>
+    <t>[0.007171921897679567, -0.009245414286851883, -0.010649614967405796, -0.021850410848855972, 0.0013377636205404997, -0.00013912822760175914, -0.02287403494119644, -0.013582688756287098, 0.007014441303908825, -0.014606310985982418, -0.010505258105695248, 0.02120736613869667, -0.025275610387325287, -0.023517079651355743, -0.010301846079528332, 0.001226214924827218, 0.02607613615691662, -0.0009694889886304736, 0.0004474249144550413, -0.01686353050172329, -0.008687671273946762, -0.0037335988599807024, 0.021797917783260345, -0.00685696117579937, 0.004954072181135416, -0.013727045617997646, 0.003325134050101042, -0.005269033368676901, -0.013923895545303822, 0.010229667648673058, -0.013818909414112568, 0.00590879749506712, -0.0035334674175828695, 0.006505910772830248, 0.0006844658055342734, -0.0054822880774736404, 0.0035236249677836895, 0.007769035175442696, 0.016587940976023674, -0.01820211485028267, 0.011174550279974937, -0.02347770892083645, 0.008451450616121292, -0.006666671950370073, -0.007066934835165739, 0.03939635679125786, -0.002230972982943058, 0.018818913027644157, -0.0022637813817709684, 0.007729664910584688, 0.017624685540795326, 0.035905539989471436, -0.02813650667667389, -0.0002885090943891555, -0.011745416559278965, -0.017204739153385162, -0.008884522132575512, 0.012690299190580845, 0.004409452434629202, -0.014002636075019836, -0.01623360998928547, 0.002570540178567171, -0.026286110281944275, -0.008740164339542389, -0.004967195447534323, -0.02206038497388363, -0.010820219293236732, -0.01229003630578518, -0.004888455383479595, 0.0022506581153720617, 0.009698170237243176, 0.005528219975531101, 0.024816293269395828, 0.010853026993572712, 0.030761180445551872, 0.015104998834431171, -0.01845145784318447, 0.02654857747256756, 0.005433075129985809, 0.0051279570907354355, 0.0008042165427468717, -0.03664045035839081, -0.0003274691116530448, 0.053412117063999176, 0.024553826078772545, 0.00887139793485403, -0.011528881266713142, 0.025879286229610443, -0.0015428161714226007, -0.013897649012506008, -0.006115490570664406, 0.012860902585089207, 0.01347770169377327, 0.001619095797650516, -0.028713934123516083, -0.01120079681277275, 0.004980319179594517, 0.015879279002547264, -0.026272987946867943, -0.024160124361515045, -0.0018782824045047164, 0.015288726426661015, -0.015118123032152653, -0.014330720528960228, -0.0308136735111475, 0.006443575024604797, -0.0026246740017086267, -0.03391078859567642, 0.009862212464213371, -0.01774279586970806, 0.0018733610631898046, 0.010649614967405796, 0.020301854237914085, -0.04548560082912445, -0.008576122112572193, -0.014606310985982418, 0.0027493461966514587, -0.018937023356556892, -0.01687665469944477, -0.04950135201215744, 0.005141080357134342, 0.022677183151245117, 0.006174545735120773, 0.020853035151958466, 0.03427824378013611, -0.016522323712706566, 0.007486882619559765, -0.011509195901453495, -0.0284514669328928, 0.0022014454007148743, -6.525801290990785e-05, 0.014160116203129292, -0.0003284943522885442, -0.03139110282063484, -0.016049882397055626, 0.01442258432507515, -0.02349083311855793, 0.0012253946624696255, -0.018937023356556892, -0.010938329622149467, 0.05144361034035683, 0.017375342547893524, -0.028556453064084053, 0.016771666705608368, -0.013300536200404167, 0.031233621761202812, -0.02654857747256756, 0.03446197137236595, -0.002583663444966078, -0.010118118487298489, 0.021338600665330887, -0.01601051166653633, 0.014566941186785698, -0.01068242359906435, 0.017204739153385162, 0.008188983425498009, -0.023530203849077225, 0.009586622007191181, 0.001568242791108787, 0.0020226393826305866, -0.009553813375532627, 0.017296602949500084, 0.004101053345948458, 0.011246728710830212, 0.017283478751778603, 0.03601052984595299, 0.007513129618018866, 0.01702101156115532, 0.019422588869929314, 0.00685696117579937, 0.007874022237956524, 0.042677201330661774, -0.02719162404537201, 0.023267734795808792, 0.03656170889735222, 4.977653225068934e-05, -0.013451454229652882, -0.016351720318198204, 0.0015887480694800615, -0.0052460674196481705, -0.01829397864639759, 0.0008718839380890131, 0.04503940790891647, 0.03997378423810005, 0.004865489434450865, 0.0013476060703396797, 0.03167981654405594, 0.014160116203129292, -0.015538070350885391, -0.012723107822239399, -0.013293974101543427, 0.011870088055729866, 0.027926532551646233, -0.023320229724049568, -0.6429401636123657, -0.0013500667409971356, 0.010728355497121811, -0.00997376162558794, -0.006200792267918587, 0.02429135888814926, 0.0058891125954687595, 0.0001998238149099052, -0.019895030185580254, 0.008451450616121292, -0.01143045537173748, 0.00038590910844504833, 0.01398951280862093, 0.0005155024118721485, -0.025826793164014816, -0.008064310997724533, -0.007874022237956524, -2.3017160856397822e-05, 0.015275603160262108, -0.001691274344921112, 0.0071259899996221066, 0.025013143196702003, -0.00863517727702856, -0.004484911914914846, 0.004442261066287756, 0.014855654910206795, -0.0007792001124471426, 0.0039140451699495316, 0.002153873210772872, -0.008451450616121292, -0.03343834728002548, -0.004645673092454672, -0.0008932094206102192, -0.02246721088886261, 0.04834649711847305, -0.0008226712816394866, -0.013156178407371044, 0.030209997668862343, 0.026981649920344353, 0.01758531667292118, 0.0017076785443350673, -0.02049870416522026, 0.038582708686590195, -0.0038746751379221678, 0.024698182940483093, 0.0007262965082190931, 0.019803166389465332, 0.00569554278627038, -0.013438330963253975, -0.008838590234518051, 0.002678808057680726, 0.0012401584535837173, 0.002462272299453616, 0.008530191145837307, 0.018241485580801964, -0.02484253980219364, 0.017598439007997513, -0.015065629035234451, 0.004898298066109419, 0.02317587286233902, -0.005068901926279068, 0.025091884657740593, -0.019278230145573616, -0.00029937687213532627, -0.00756562314927578, 0.0020997391548007727, -0.02837272733449936, -0.01158793643116951, 0.012486887164413929, -0.007263785693794489, -0.006929139606654644, 0.04577431455254555, -0.006922577973455191, -0.005958009976893663, 0.020446211099624634, 0.021929152309894562, 0.009153550490736961, 0.009160112589597702, 0.007447512820363045, 0.021548574790358543, 0.019055133685469627, -0.005744755268096924, -0.01961943879723549, 0.019186368212103844, -0.005862865597009659, 0.017939647659659386, 0.013727045617997646, -0.000586860696785152, 0.01656169258058071, 0.002270343014970422, -0.008884522132575512, 0.011417332105338573, -0.0005573331145569682, -0.04469820111989975, -0.015800537541508675, 0.026522330939769745, -0.02405513823032379, -0.0013229998294264078, 0.005403547547757626, -0.014527571387588978, -0.013385837897658348, -0.010669300332665443, 0.011837280355393887, 0.0010925205424427986, 0.012887150049209595, 0.023267734795808792, -0.022283483296632767, 0.015826784074306488, -0.01059712190181017, -0.008759849704802036, -0.011870088055729866, 0.002360566286370158, -0.011535442434251308, -0.020131250843405724, -0.03112863376736641, -0.026745429262518883, 0.017598439007997513, 0.02018374390900135, 0.01068242359906435, -0.01513124629855156, 0.0034776930697262287, -0.015813661739230156, 0.02174542471766472, 0.0009005913161672652, 0.016522323712706566, 0.009061687625944614, 0.03225724399089813, -0.00571522768586874, -0.036430474370718, -0.0052460674196481705, -0.0017421274678781629, 0.01891077682375908, 0.012979012914001942, -0.011916019953787327, -0.024304481223225594, 0.024881910532712936, 0.009133866056799889, -0.003162732347846031, 0.019199490547180176, -0.04002628102898598, -0.014855654910206795, -0.007775596808642149, 0.0029478371143341064, -0.025485584512352943, -0.03104989416897297, -0.015223109163343906, -0.008169298060238361, 0.00954069010913372, -0.025446215644478798, -0.0044061713851988316, 0.00518045062199235, -0.004711289890110493, -0.03317588195204735, 0.018792666494846344, 0.007139113266021013, 0.01717849262058735, -0.009146989323198795, -0.031207375228405, -0.019356971606612206, -0.03199477866292, 0.02657482586801052, -0.00037483626510947943, 0.0006705222185701132, 0.004550528712570667, 0.015472454018890858, -0.009330715984106064, 0.00043840258149430156, -0.005866146646440029, -0.003989504650235176, -0.020853035151958466, -0.0059744142927229404, -0.012303159572184086, 0.0007816607248969376, 0.04627300426363945, -0.004753940738737583, 0.03422575071454048, -0.023608943447470665, 0.003069228259846568, 0.005761159583926201, -0.00011134359374409541, 0.0016445223009213805, -0.017952769994735718, -0.0267323050647974, -0.01568242721259594, 0.02687666192650795, -0.01355644129216671, -0.0001247745385626331, 0.006269690115004778, -0.02916012890636921, 0.021653560921549797, 0.017703427001833916, -0.00013102864613756537, -0.006791344378143549, -0.00732940249145031, -0.011515757068991661, 0.019107626751065254, 0.019580068066716194, -0.002045605331659317, -0.01044620294123888, 0.029028894379734993, 0.0021932432428002357, 0.026049889624118805, 0.012795286253094673, -0.015433083288371563, 0.03304464742541313, -0.024173248559236526, 0.031338609755039215, -0.0005971133359707892, 0.02103676274418831, 0.010715232230722904, 0.011240166611969471, 0.005833338014781475, -0.02578742243349552, -0.011233605444431305, -0.012401584535837173, 0.008956700563430786, 0.010367462411522865, 0.008950138464570045, -0.007519691251218319, 0.02986879087984562, 0.02395015023648739, 0.00260170828551054, 0.010000008158385754, 0.028818922117352486, -0.022559072822332382, -0.0007956043118610978, -0.0007578746299259365, 0.002970803063362837, 0.009980322793126106, -0.0382939949631691, 0.005167326889932156, 0.037637826055288315, -0.004465226549655199, 0.014671928249299526, -0.00045931796194054186, 0.013182425871491432, 0.011758539825677872, -0.029658816754817963, 0.023556450381875038, -0.006981633137911558, 0.02649608440697193, 0.028713934123516083, 0.020511828362941742, -0.007309717126190662, 0.010118118487298489, 0.006328745279461145, 0.017244108021259308, 0.029973777011036873, 0.011207357980310917, 0.001891405787318945, -0.00835958682000637, 0.020629938691854477, -0.0022244113497436047, 0.0008362047374248505, 0.0040321554988622665, 0.008031502366065979, 0.016994765028357506, -0.030131258070468903, 0.011981637217104435, 0.02152232825756073, 0.0032086640130728483, 0.005643049255013466, 0.019120750948786736, 0.0010515101021155715, -0.004209320992231369, 0.010741478763520718, -0.003510501468554139, -0.021482957527041435, -0.0009005913161672652, -0.008267723023891449, -0.00591207854449749, -0.0017142402939498425, -0.013923895545303822, -0.010551190003752708, -0.00883202813565731, -0.005446198862046003, -0.0063648344948887825, 0.020209990441799164, -0.020236236974596977, 0.014383213594555855, 0.012270350940525532, -0.03372706100344658, 0.029763804748654366, 0.02270343154668808, -0.001968505559489131, -0.011338591575622559, -0.011929143220186234, 0.019527575001120567, -0.006804467644542456, 0.011305783875286579, -0.009363524615764618, -0.0009145348449237645, -0.0027641099877655506, 0.020446211099624634, -0.0058759888634085655, -0.018070880323648453, 0.018254607915878296, -0.031417347490787506, 0.042283497750759125, 0.012703422456979752, -0.002739503514021635, 0.008097119629383087, -0.030866166576743126, -0.016824161633849144, 0.02923886850476265, -0.0042519718408584595, -0.018740173429250717, 0.0012327765580266714, 0.023897657170891762, -0.005574151407927275, -0.004888455383479595, 0.024816293269395828, -0.012736231088638306, 0.002111222129315138, 0.004438980016857386, -0.016115499660372734, 0.004025593865662813, 0.015669304877519608, 0.015892401337623596, 0.0022998705971986055, -0.010603683069348335, 0.0004859748005401343, -0.02018374390900135, 0.011332030408084393, 0.08855650573968887, -0.003372706240043044, 0.010748039931058884, 6.710348679916933e-05, 0.01513124629855156, 0.0038746751379221678, -0.00018403476860839874, -0.022480333223938942, -0.015984265133738518, 0.008838590234518051, 0.01985565945506096, -0.02939634956419468, 0.02001314051449299, -0.015538070350885391, -0.006102367304265499, -0.0183595959097147, -0.01309056207537651, -0.024737553671002388, 0.0029970495961606503, 0.012467201799154282, 0.021574821323156357, 0.0004297903797123581, 0.002831367077305913, 0.012027569115161896, 0.009547252207994461, -0.004087930079549551, 0.017322849482297897, 0.023740176111459732, -0.010767725296318531, -0.027769051492214203, -0.008687671273946762, -0.021797917783260345, -0.01083334255963564, -0.011266413144767284, -0.003269359702244401, 0.016036758199334145, -0.000606955902185291, 0.005374019965529442, -1.3251527889224235e-05, 0.009402894414961338, 0.028582701459527016, 0.008300531655550003, -0.009527566842734814, -0.008517066948115826, -0.0029839263297617435, -0.029501335695385933, -0.007972447201609612, 0.008169298060238361, -0.004786749370396137, 0.00663714436814189, 0.017769044265151024, 0.009488197043538094, 0.021574821323156357, -0.0063615539111196995, -0.024448838084936142, -0.01442258432507515, 0.02797902561724186, -0.006286094430834055, -0.028477713465690613, -0.006765097379684448, 0.030446218326687813, -0.032598450779914856, 0.008202106691896915, -0.017913401126861572, -0.02183728851377964, 0.0062434435822069645, 0.004114176612347364, -0.007027565035969019, -0.002816603286191821, 0.018740173429250717, -0.01347770169377327, -0.03477692976593971, -0.021482957527041435, 0.012624681927263737, 0.009698170237243176, 0.004635830409824848, -0.000761155504733324, 0.007664048112928867, -0.005351054482161999, 0.030629945918917656, 0.0005183731555007398, -0.0035859609488397837, -0.0016691286582499743, -0.021220490336418152, -0.03262469917535782, 0.03438322991132736, 0.052703455090522766, -0.0049967230297625065, -0.02821524627506733, -0.006578089203685522, 0.011765101924538612, -0.0043864864856004715, 0.01922573707997799, -0.0015378949465230107, -0.010387147776782513, -0.0030036114621907473, 0.009055125527083874, -0.013622058555483818, 0.017598439007997513, -0.00571522768586874, 0.011994760483503342, 0.010780848562717438, -0.01379266194999218, -0.010564313270151615, 0.0422310046851635, -0.01106956321746111, 0.00035310068051330745, -0.04238848760724068, 0.008615492843091488, -0.016023635864257812, 0.004868770483881235, 0.00379265402443707, -0.009704732336103916, 0.030000025406479836, -0.010853026993572712, 0.027375349774956703, -0.006043312139809132, 0.025669312104582787, -0.020538074895739555, -0.0050295316614210606, -0.0063615539111196995, -0.02358269691467285, 0.007532814517617226, 0.015866154804825783, -0.02900264784693718, 0.014619434252381325, 0.010577436536550522, -0.024238865822553635, -0.01963256113231182, 0.0074606360867619514, -0.0008394856122322381, 0.04929137974977493, -0.012132556177675724, -0.010387147776782513, -0.009311031550168991, 0.005016408395022154, 0.002560697728767991, 0.010190296918153763, -0.04257221519947052, -0.03650921583175659, -0.03112863376736641, 0.010433079674839973, -0.0059940991923213005, -0.005226382054388523, 0.009534128941595554, -0.022112879902124405, 0.0025262488052248955, -0.0053838626481592655, 0.008851713500916958, 0.03191603720188141, 0.001534614129923284, -0.0014460313832387328, -0.025511831045150757, 0.011719170026481152, 0.014855654910206795, -0.01702101156115532, -0.008700794540345669, -0.013635181821882725, 0.0039960662834346294, 0.028425220400094986, 0.0005926021840423346, 0.024685058742761612, 0.02089240588247776, -0.008641739375889301, -0.02018374390900135, -0.0056168027222156525, -0.03572181239724159, -0.0031545301899313927, -0.03160107508301735, 0.015249356627464294, 0.030288739129900932, 0.01892389915883541, 0.002637797500938177, 0.002291668439283967, -0.006223758216947317, 0.012080062180757523, 0.0063648344948887825, 0.003454727353528142, -0.0011376321781426668, -0.007690295111387968, 0.027769051492214203, -0.001094160950742662, -0.007217853795737028, 0.0020521669648587704, -0.014881902374327183, -0.009422579780220985, -0.004547247663140297, -0.01656169258058071, 0.011135179549455643, 0.023084009066224098, 0.01489502564072609, -0.025879286229610443, 0.018241485580801964, -0.004271657206118107, -0.024973774328827858, -0.0026181123685091734, -0.019580068066716194, -0.01328085083514452, -0.019409464672207832, 0.003277561627328396, -0.00567257683724165, -0.024317605420947075, -0.010931767523288727, 0.008287408389151096, -0.006492787506431341, 0.008444888517260551, 0.011332030408084393, -0.037637826055288315, -0.02152232825756073, -0.0029379944317042828, -0.01402888260781765, -0.019593192264437675, -0.029842544347047806, -0.010111556388437748, 0.01931760087609291, -0.028792673721909523, -0.01083334255963564, 0.025354351848363876, 0.0014977046521380544, -0.04551184922456741, 0.0007677171379327774, -0.004340554587543011, 0.024225741624832153, 0.004350397270172834, 0.027244117110967636, 0.0015797256492078304, 0.007637801580131054, -0.025892410427331924, 0.013530194759368896, 0.012585312128067017, -0.015118123032152653, 0.03837273642420769, -0.017847783863544464, 0.006000661291182041, -0.044015783816576004, -0.012165363878011703, 0.05343836545944214, -0.02128610759973526, -0.03703415021300316, 0.010275598615407944, 0.022755924612283707, -0.015958018600940704, -0.024711307138204575, 0.0022244113497436047, 0.00883202813565731, 0.017847783863544464, -0.026981649920344353, -0.006712603848427534, -0.043622083961963654, 0.008438327349722385, -0.039842553436756134, 0.020144373178482056, -0.017834659665822983, 0.04002628102898598, -0.0011696204310283065, 0.005042654927819967, 0.00010175738134421408, -0.01851707510650158, -0.03317588195204735, 0.02522311732172966, 0.01843833550810814, -0.001614174572750926, -0.010610245168209076, 0.006666671950370073, 0.009750664234161377, 0.013530194759368896, -0.018241485580801964, -0.02727036364376545, 0.007965886034071445, 0.024015767499804497, -0.01106956321746111, 0.006574808619916439, 0.0022375346161425114, -0.004422575701028109, 0.032677192240953445, -0.028661441057920456, -0.0033480997662991285, 0.026771675795316696, -0.0041338615119457245, -0.01829397864639759, 0.016259856522083282, -0.015551193617284298, -0.020511828362941742, -0.01158793643116951, 0.0041666701436042786, -0.017322849482297897, -0.011161426082253456, -0.02166668511927128, 0.010741478763520718, -0.006397643126547337, -0.009291346184909344, 0.005567589774727821, 0.013398961164057255, -0.04044622555375099, -0.005495411343872547, 0.014343843795359135, 0.009094495326280594, 0.02292652800679207, -0.037795305252075195, 0.02371392957866192, -0.00664370646700263, 0.029501335695385933, 0.0036942288279533386, 0.008503943681716919, 0.009796596132218838, 0.017690302804112434, 0.024488208815455437, -0.01670605130493641, -0.0031020366586744785, 0.0018684398382902145, -0.01646983064711094, -0.008667985908687115, 0.0017880592495203018, -0.019422588869929314, 0.008412080816924572, -0.00479002995416522, 0.002705054823309183, -0.008143051527440548, -0.01351707149296999, 0.012434393167495728, 0.008641739375889301, -0.008412080816924572, 0.01687665469944477, -0.004914702381938696, -0.004970476496964693, -0.0035137825179845095, 0.007263785693794489, 0.00520341657102108, 0.00012754274939652532, -0.006689637899398804, -0.004333992954343557, 0.007440951187163591, -0.019724424928426743, 0.005534781608730555, -0.016115499660372734, 0.011791348457336426, -0.009724417701363564, 0.01908138021826744, -0.011253289878368378, -0.02452757954597473, 0.028188999742269516, 0.018254607915878296, 0.007171921897679567, 0.017795290797948837, -0.013156178407371044, -0.03139110282063484, -0.019042009487748146, -0.010748039931058884, -0.01135171577334404, -0.00784121360629797, -0.012585312128067017, 0.039527591317892075, 0.019435711205005646, -0.01631234958767891, -0.003845147555693984, 0.00401903223246336, -0.022244112566113472, 0.017559070140123367, 0.005059059243649244, 0.021574821323156357, 0.011778225190937519, 0.013543318025767803, -0.014475077390670776, 0.011522319167852402, -0.005075463559478521, 0.03737535700201988, -0.014435707591474056, 0.006000661291182041, 0.01979004219174385, -0.0028953435830771923, -0.005049216561019421, -0.019816288724541664, -0.034724436700344086, -0.01569555141031742, 0.033543333411216736, 0.016194239258766174, 0.01285434141755104, 0.004612864460796118, -0.02782154455780983, -0.007670609746128321, -0.007250661961734295, -0.006669952999800444, 0.010931767523288727, 0.010977699421346188, 0.012664052657783031, -0.007283470593392849, 0.006935701239854097, 7.72535931901075e-05, 0.016824161633849144, -0.011443578638136387, 0.004288061056286097, -0.016377966850996017, 0.01182415708899498, 0.00799869466573, -0.024868786334991455, 0.0038057772908359766, 0.015104998834431171, -0.022047262638807297, 0.023989520967006683, -0.026443591341376305, -0.007434389088302851, 0.008654862642288208, -0.004337274003773928, -0.024934403598308563, -0.013818909414112568, -0.02577430009841919, -0.03446197137236595, -0.020157497376203537, 0.004212602041661739, -0.01646983064711094, -0.0010392068652436137, 0.012368776835501194, 0.03517063334584236, -0.00839895661920309, -0.003385829506441951, -0.042519718408584595, 0.006830714177340269, -0.007867460139095783, 0.024212617427110672, -0.010032816790044308, -0.0059940991923213005, -0.0008312835125252604, 0.007933077402412891, 0.013937019743025303, -0.009790034033358097, -0.005698823370039463, 0.0009744102717377245, -0.008129928261041641, 0.020918652415275574, 0.008576122112572193, -0.04372707009315491, -0.042440980672836304, 0.005918640177696943, -0.007788720075041056, 0.0027641099877655506, 0.009173235855996609, 0.20126000046730042, -0.0003596623719204217, 0.009960638359189034, 0.02223099023103714, -0.005902235861867666, 0.02482941746711731, 0.002306432230398059, -0.0067191654816269875, 0.003917326219379902, 0.02531498111784458, 0.01742783561348915, 0.01355644129216671, -0.004206040408462286, 0.010531504638493061, 0.02143046446144581, -0.014488200657069683, -0.014527571387588978, -0.03540685400366783, 0.00479002995416522, 0.012683737091720104, -0.0008280026377178729, -0.020826788619160652, -0.0055183772929012775, -0.016102375462651253, 0.028713934123516083, 0.012316282838582993, -0.021627314388751984, -0.015459329821169376, 0.04887143149971962, 0.02166668511927128, -0.013267727568745613, 0.0027477056719362736, 0.005859585013240576, 0.023976396769285202, -0.01985565945506096, 0.025879286229610443, -0.005091867875307798, 0.003933730069547892, 0.01750657521188259, -0.00455380929633975, 0.02278217114508152, -0.03073493391275406, 0.00591207854449749, -0.012447516433894634, -0.00992782972753048, 0.012624681927263737, 0.011332030408084393, -0.01694227196276188, -0.009566936641931534, 0.024645689874887466, -0.021706053987145424, -0.008405518718063831, -0.011725731194019318, 0.013963266275823116, 0.010295283980667591, -0.004022312816232443, 0.006135175470262766, -0.004419295117259026, -0.007355649024248123, 0.011318907141685486, -0.0051115527749061584, 0.02782154455780983, -0.012926519848406315, 0.013110246509313583, -0.0123294061049819, 0.022126002237200737, -0.03501315042376518, 0.023530203849077225, 0.015734920278191566, -0.001359089044854045, 0.011404208838939667, -0.01709975115954876, 0.0067519741132855415, -0.024409469217061996, -0.009238853119313717, -0.010708670131862164, 0.029606323689222336, 0.006630582734942436, 0.02633860521018505, 0.03509189188480377, -0.0075984313152730465, 0.0028789392672479153, -0.003920606803148985, 0.019566945731639862, -0.016889777034521103, -0.012408146634697914, 0.015275603160262108, -0.002616472076624632, 0.005557747557759285, -0.0233333520591259, 0.004291342105716467, 0.00455380929633975, 0.015380590222775936, -0.0018372718477621675, 0.011968513950705528, 0.0010498695774003863, 0.00474737910553813, 0.0032726405188441277, -0.030524959787726402, -0.031889788806438446, -0.007736227009445429, -0.01671917364001274, 0.029370103031396866, -0.011502633802592754, -0.030997401103377342, -0.0040321554988622665, -0.0035793993156403303, 0.028792673721909523, -0.006315622013062239, -0.011791348457336426, -0.01218504924327135, -0.0395800843834877, 0.0065977745689451694, -0.02381891757249832, 0.01930447854101658, 0.02017061971127987, -0.010820219293236732, -0.010465888306498528, 0.019370093941688538, -0.04293966665863991, -0.005938325077295303, -0.009914706461131573, 0.0406562015414238, -0.012152240611612797, -0.0521785207092762, -0.018188990652561188, -0.01577429100871086, 0.022742800414562225, 0.0028182438109070063, -0.01517061609774828, 0.009501320309937, -0.033464595675468445, -0.009724417701363564, 0.017139121890068054, -0.02813650667667389, 0.006916016340255737, -0.02531498111784458, -0.0041305809281766415, 0.010702108964323997, 0.008254599757492542, 0.021968521177768707, 0.009619430638849735, 0.005495411343872547, -0.007316278759390116, 0.009114180691540241, -0.0029330733232200146, 0.007021002937108278, 0.004977038130164146, -0.0036154885310679674, -0.011640429496765137, 0.016653556376695633, -0.018320225179195404, -0.004527562763541937, -0.032992154359817505, 0.016666680574417114, -0.008838590234518051, -0.013031506910920143, 0.007493444252759218, 0.0005073003121651709, 0.01985565945506096, -0.04162733256816864, -0.003159451298415661, 0.028871415182948112, -0.012742792256176472, -0.004225725308060646, 0.01734909601509571, -0.16451457142829895, 0.02514437772333622, -0.0034711314365267754, 0.011961951851844788, 0.02514437772333622, -0.0052657523192465305, 0.009849089197814465, 0.025196870788931847, -0.0006163882790133357, 0.018254607915878296, 0.006778220646083355, 0.01868767850100994, -0.02419949509203434, -0.0398687981069088, 0.006512472406029701, -0.02371392957866192, -0.024002645164728165, 0.017007887363433838, 0.022519703954458237, -0.010131241753697395, 0.033858295530080795, -0.03288716450333595, 0.028871415182948112, -0.003900921903550625, -0.004826119635254145, 0.004127299878746271, -0.004360239952802658, 0.005429794546216726, 0.018241485580801964, -0.013267727568745613, 0.0021965240593999624, -0.032677192240953445, 0.018320225179195404, -0.016889777034521103, -0.011948828585445881, -0.013910772278904915, -0.016509199514985085, -0.015249356627464294, -0.02994753047823906, 0.006916016340255737, 0.028346480801701546, 0.02908138930797577, 0.0040288749150931835, -0.009350401349365711, 0.01067586150020361, 0.01355644129216671, 0.01648295298218727, -0.03461945056915283, 0.008149612694978714, -0.013923895545303822, 0.021181119605898857, -0.00713255163282156, -0.0031939002219587564, 0.027847791090607643, 0.016968518495559692, -0.0014452111208811402, -0.0243700984865427, 0.014803161844611168, 0.010150927118957043, 0.006824152544140816, -0.007979009300470352, 0.006627302151173353, 0.008733603172004223, 0.014580064453184605, -0.001416503801010549, -0.03761157765984535, -0.03194228187203407, -0.004419295117259026, -0.009698170237243176, 0.0032201469875872135, -0.00569226173684001, -0.006279532797634602, -0.002332678996026516, 0.00451443949714303, -0.007296593859791756, 0.004307746421545744, -0.013123370707035065, -0.0226903073489666, 0.006036750506609678, 0.003517063334584236, -0.0011852043680846691, 0.015433083288371563, -0.03317588195204735, -0.00024114192638080567, -0.014055130071938038, -0.008687671273946762, 0.01095801405608654, 0.04280843585729599, -0.032913412898778915, -0.00012221139331813902, 0.0020538074895739555, -0.025183748453855515, 0.029028894379734993, -0.019173244014382362, -0.007427827455103397, 0.019042009487748146, -7.525432738475502e-05, 0.0226903073489666, 0.001592849032022059, -0.003254595911130309, -0.0043864864856004715, 0.004632549826055765, -0.034645698964595795, 0.025026267394423485, 0.03776906058192253, 0.02048558183014393, 0.0008472775807604194, 0.02758532389998436, 0.01648295298218727, -0.0038320240564644337, 0.03577430918812752, 0.008897645398974419, 0.008451450616121292, 0.008149612694978714, -0.02395015023648739, 0.006302498746663332, 0.026679811999201775, -0.02183728851377964, 0.04288717359304428, 0.030236246064305305, 0.008622054010629654, -0.021889781579375267, 0.012204734608530998, 0.01788715459406376, -0.022664060816168785, 0.0034711314365267754, -0.11013132333755493, -0.010242790915071964, 0.014527571387588978, 0.03711289167404175, -0.02931760996580124, 0.006440293975174427, -0.0016420617466792464, 0.007900268770754337, 0.020524950698018074, 0.01402888260781765, -0.029763804748654366, -0.013182425871491432, 0.013175863772630692, 0.000729987455997616, 0.041023656725883484, 0.012303159572184086, 0.03241472318768501, 0.010702108964323997, -0.007808405440300703, 0.002152232686057687, 0.0043864864856004715, -0.0038517091888934374, -0.02837272733449936, -0.026128631085157394, -0.025813668966293335, -0.014514447189867496, -0.032992154359817505, 0.005807091481983662, 0.016771666705608368, 0.012677175924181938, -0.001568242791108787, -0.024383222684264183, 0.014002636075019836, -0.015984265133738518, 0.01804463379085064, -0.00213910941965878, -0.01749345287680626, -0.0074606360867619514, 0.003290685126557946, -0.019251983612775803, -0.007401580922305584, -0.006414047442376614, 0.010544627904891968, -0.006315622013062239, 0.0032447532285004854, -0.016732297837734222, -0.0061286138370633125, 0.02687666192650795, 0.01209318544715643, -0.02246721088886261, -0.009704732336103916, -0.0247638002038002, -0.027926532551646233, -0.014514447189867496, 0.028031518682837486, 0.004665357992053032, -0.009514443576335907, -0.013805785216391087, -0.03257220610976219, -0.01954069919884205, -0.024002645164728165, 0.00894357729703188, -0.0324934646487236, -0.012992136180400848, 0.01955382153391838, 0.018700802698731422, -0.010091871954500675, -0.013451454229652882, -0.0034055146388709545, 0.00887139793485403, -0.00894357729703188, -0.002770671620965004, -0.008772972971200943, 0.021942274644970894, -0.023700807243585587, -0.00331037025898695, -0.03186354413628578, -0.01608925126492977, -0.021456710994243622, -0.022427840158343315, -0.016614187508821487, -0.015433083288371563, -0.00011575222742976621, -0.016128621995449066, 0.006745412480086088, 0.01162730623036623, 0.03422575071454048, -0.0054986923933029175, -0.0007016902090981603, -0.05448823422193527, 0.007624678313732147, 0.006778220646083355, 0.028976401314139366, -0.0006836456013843417, -0.019593192264437675, 0.01772967353463173, 0.006706042215228081, 0.003500659018754959, -0.004517720080912113, -0.012066938914358616, -0.03656170889735222, -0.010977699421346188, -0.07055123895406723, -0.00973097886890173, 0.010006570257246494, -0.014619434252381325, 0.002226051641628146, -0.006030188873410225, 0.01540683675557375, 0.0018421930726617575, 0.014317597262561321, 0.02324148826301098, -0.022178495302796364, 0.011942267417907715, 0.012152240611612797, -0.005803810432553291, -0.042913421988487244, -0.030761180445551872, 0.02191602811217308, 0.01312993187457323, 0.009717855602502823, 0.017847783863544464, 0.02631235681474209, 0.010931767523288727, 0.024461962282657623, 0.008070873096585274, -0.016679802909493446, 0.012736231088638306, -0.005396985914558172, 0.03530186787247658, -0.002951117930933833, 0.0052427863702178, 0.02167980745434761, -0.0233333520591259, -0.019173244014382362, 0.009612868539988995, -0.020144373178482056, -0.022126002237200737, -0.03545934706926346, 0.02939634956419468, 0.007171921897679567, 0.013858279213309288, -0.030367478728294373, -0.017913401126861572, 0.03530186787247658, -0.01750657521188259, -0.007657486479729414, 0.009750664234161377, 0.00887139793485403, -0.019055133685469627, 0.015721797943115234, 0.0390813983976841, 0.007007879670709372, 0.014094499871134758, -0.001809384673833847, -0.030078765004873276, -0.00894357729703188, 0.02206038497388363, 0.012821532785892487, 0.0123294061049819, -0.014173240400850773, -0.0073622106574475765, 0.04152234271168709, -0.00571850873529911, 0.0067519741132855415, -0.007250661961734295, 0.024330727756023407, -0.00689633097499609, -0.007513129618018866, 0.009875335730612278, 0.0013049551052972674, -0.03538060560822487, -0.001845474005676806, 0.019015762954950333, 0.03367456793785095, -0.0022900281473994255, 0.027086636051535606, -0.0007004598737694323, -0.014199486933648586, -0.030472466722130775, 0.01418636366724968, 0.024711307138204575, 0.0031381258741021156, -0.01016405038535595, -0.030761180445551872, 0.014396336860954762, 0.00541667127981782, 0.0009776911465451121, -0.02703414298593998, -0.021942274644970894, -0.01347770169377327, 0.021456710994243622, 0.0020587288308888674, 0.01853019930422306, -0.004527562763541937, 0.005209978204220533, -0.009573498740792274, 0.011502633802592754, -0.014763792045414448, 0.009074810892343521, 0.018425211310386658, -0.00736877229064703, 0.0015403556171804667, -0.004078087396919727, -0.0056168027222156525, -0.009015755727887154, -0.012270350940525532, -0.005997380241751671, 0.0036778245121240616, -0.0025820231530815363, 0.0009506241185590625, 0.023687683045864105, 0.008202106691896915, -0.0053805820643901825, 0.002088256413117051, 0.014724421314895153, -0.00430446537</t>
+  </si>
+  <si>
+    <t>[-0.013366851024329662, -0.004253674764186144, 0.0011770111741498113, -0.03614334762096405, -0.035524629056453705, 0.02043052949011326, -0.016563551500439644, 0.0019189874874427915, 0.00895205233246088, -0.001959268469363451, -0.0031258065719157457, -0.008732923306524754, -0.002041441621258855, -0.011762055568397045, -0.028512511402368546, -0.005255866330116987, 0.022364018484950066, -0.00429556705057621, -0.005168859381228685, -0.032018572092056274, -0.005652231629937887, -0.00855246465653181, -0.011517147533595562, -0.030317101627588272, 0.011272238567471504, -0.013457080349326134, 0.022299569100141525, -0.028718750923871994, -0.017349837347865105, -0.02220933884382248, 0.003077469300478697, -0.007489045616239309, 0.003941094037145376, -0.0067929900251328945, -0.000971578003372997, 0.00332882278598845, 0.01646043360233307, -0.002565094968304038, -0.0038476423360407352, -0.0051946393214166164, 0.0187032800167799, 0.021642182022333145, 0.02121681533753872, -0.011227123439311981, -0.014578503556549549, 0.01790410466492176, 0.01777520589530468, 0.00730214174836874, -0.008513795211911201, 0.006850994657725096, 0.005397655535489321, 0.021113695576786995, -0.012155198492109776, -0.008036867715418339, -0.031167836859822273, -0.04717712104320526, -0.029157007113099098, 0.02166796289384365, -0.0029936847276985645, -0.022570256143808365, 0.0066383108496665955, -0.005919697694480419, -0.030910037457942963, 0.0017433621687814593, -0.013444190844893456, -0.023949477821588516, -0.024026818573474884, 0.006999228615313768, -0.015944836661219597, -0.031245175749063492, 0.041660234332084656, 0.023511221632361412, -0.0009280745289288461, -0.0023588561452925205, 0.04191803187131882, -0.009254964999854565, 0.004530808422714472, 0.035576190799474716, -0.0035415065940469503, 0.010511732660233974, 0.0034867243375629187, -0.016060845926404, -0.005774686112999916, 0.03005930222570896, 0.011472032405436039, -0.004572700709104538, 0.011156229302287102, 0.035189490765333176, 0.01599639654159546, 0.01275458000600338, -0.005494330078363419, 0.01502965111285448, 0.007895078510046005, -0.019876262173056602, 0.00257798470556736, 0.005545889958739281, -0.006722095422446728, -0.0007161963731050491, -0.01671823114156723, -0.005671566352248192, -0.0023491885513067245, 0.007843518629670143, -0.027455538511276245, -0.017594745382666588, -0.041273538023233414, -0.009770561940968037, -0.0071603525429964066, -0.014784743078052998, 0.007895078510046005, -0.004134443122893572, -0.0031918673776090145, 0.03377160057425499, 0.0036317361518740654, -0.03877289220690727, -0.0008781260694377124, -0.012013409286737442, 0.007837073877453804, 0.010460173711180687, 0.024825993925333023, -0.01836814172565937, 0.005404100753366947, 0.037432339042425156, 0.01066641230136156, -0.028460951521992683, 0.0380510538816452, 0.005636119283735752, -0.011278683319687843, -0.010408613830804825, -0.02517402172088623, 0.005919697694480419, 0.023756129667162895, -0.013109052553772926, 0.020572317764163017, 0.00447924854233861, 0.003779970109462738, 0.0051849717274308205, -0.030291320756077766, 0.015197220258414745, -0.014243366196751595, -0.02477443404495716, 0.03384894132614136, 0.007759734056890011, -0.015545248053967953, -0.0035995112266391516, -0.04050014168024063, 0.03268884867429733, -0.0011504257563501596, 0.017736535519361496, 0.013237952254712582, -0.0189095176756382, 0.03018820285797119, -0.019386446103453636, -0.014823412522673607, 0.009138955734670162, 0.04312968626618385, 0.005819800775498152, 0.0023491885513067245, 0.0010046084644272923, -0.018471261486411095, 0.0024990339297801256, -0.0327661857008934, 0.04336170479655266, 0.019193096086382866, -0.009519209153950214, 0.017878323793411255, 0.01071152649819851, 0.007366591598838568, 0.007012118585407734, 0.003206368535757065, 0.018406812101602554, 0.008326890878379345, 0.004785384051501751, -0.03779325634241104, 0.019128646701574326, 0.012309877201914787, 0.038231514394283295, 0.0033191554248332977, 0.00616138381883502, -0.01657644286751747, -0.007508380804210901, 0.009602993726730347, -0.0040248786099255085, 0.02193864993751049, 0.016022175550460815, -0.008848932571709156, 0.0034319423139095306, 0.010266824625432491, -0.006332175340503454, 0.02188709005713463, -0.020043831318616867, 0.004720934666693211, 0.006048596929758787, 0.012097193859517574, -0.03039444051682949, -0.6550143957138062, -0.009854346513748169, -0.016073735430836678, -0.017336947843432426, 0.015068321488797665, 0.00637406762689352, 0.019064197316765785, -0.0004733018868137151, -0.026914160698652267, -0.017066258937120438, -0.015467909164726734, 0.007398816291242838, -0.004337459336966276, -0.023691680282354355, -0.016499102115631104, 0.0011955404188483953, 0.0023540223482996225, -0.04604280740022659, 0.022351128980517387, 0.0008708754903636873, -0.021951541304588318, 0.03982986509799957, -0.006857439409941435, 0.011310908012092113, -0.015145660378038883, 0.0061227139085531235, 0.020056720823049545, 0.0016402428736910224, -0.026682142168283463, -0.0017481959657743573, -0.036787841469049454, 0.003011408494785428, -0.0015226223040372133, -0.002555427374318242, 0.038231514394283295, 0.02054653875529766, -0.02611498534679413, 0.027739116922020912, 0.025882966816425323, 0.023163193836808205, -0.003593066241592169, 0.013792218640446663, 0.01948956586420536, -0.03150297328829765, 0.015687037259340286, 0.02424594759941101, 0.037097200751304626, 0.014062906615436077, -0.003312710439786315, 0.010427948087453842, -0.005027070175856352, 0.011542926542460918, -0.0069025540724396706, 0.019579794257879257, 0.024593975394964218, 0.005010957829654217, 0.015815936028957367, -0.012554786168038845, -0.010685746558010578, 0.013727769255638123, -0.010292604565620422, -0.002320186235010624, -0.031038936227560043, -0.005906807724386454, 0.004988400731235743, -0.0004082480736542493, -0.025277141481637955, 0.0031096942257136106, 0.002415249589830637, -0.014101576991379261, 0.011304463259875774, 0.01646043360233307, -0.029621046036481857, 0.006116269156336784, 0.0021767858415842056, 0.02009539119899273, 0.006448184605687857, -0.004546920768916607, 0.007134573068469763, 0.00901650171726942, 0.030703799799084663, -0.0006565804942511022, -0.005149524658918381, 0.0023346873931586742, 0.021642182022333145, 0.0046951547265052795, -0.010002581402659416, 4.600846750690835e-06, 0.012806139886379242, 0.024490855634212494, -0.005935810040682554, -0.008217326365411282, 0.0013155778869986534, -0.037251878529787064, -0.004485693760216236, 0.016563551500439644, 0.008790927939116955, 0.030703799799084663, -0.006973448675125837, -0.03343646228313446, -0.018716169521212578, -0.0005095548112876713, 0.02193864993751049, 0.0003240607329644263, -0.004182780161499977, -0.004791829269379377, -0.030884258449077606, -0.0029227903578430414, 0.03508637472987175, -0.018935298547148705, -0.0359371080994606, 0.02094612643122673, 0.006986338645219803, -0.012625680305063725, -0.017143599689006805, -0.02121681533753872, 0.01611240580677986, 0.03098737634718418, 0.014733183197677135, -0.00019214043277315795, 0.031219396740198135, 0.0012922148453071713, 0.0015870719216763973, -0.027661776170134544, -0.008945607580244541, 0.009474094025790691, 0.014707403257489204, -0.020520759746432304, -0.029724163934588432, 0.008842487819492817, 0.03299820423126221, 0.02062387764453888, 0.025032231584191322, -0.01963135413825512, 0.01969580352306366, 0.015119880437850952, 0.02419438771903515, 0.0029276239220052958, -0.0017788094701245427, -0.028383612632751465, -0.02412993833422661, -0.016808461397886276, 0.0021622846834361553, -0.02722351998090744, 0.019940711557865143, -0.03377160057425499, -0.021990209817886353, 0.0051011876203119755, -0.01070508174598217, 0.019773144274950027, -0.04284610599279404, 0.005558779928833246, -0.015571027994155884, 0.010015470907092094, 0.02967260591685772, 0.020378969609737396, -0.016138184815645218, 0.0015161773189902306, -0.011304463259875774, -0.014410935342311859, 0.014771852642297745, -0.005007735453546047, -0.020366080105304718, -0.00159351690672338, 0.006631866097450256, -0.02312452346086502, -0.0058294679038226604, 0.007508380804210901, -0.015467909164726734, -0.034055180847644806, -0.012638570740818977, -0.00862335879355669, -0.0013502195943146944, 0.009248520247638226, -0.010814646258950233, 0.011910289525985718, -0.016357313841581345, -0.015467909164726734, -0.02021140046417713, -0.016615111380815506, 0.01593194529414177, -0.012258317321538925, -0.007746844086796045, -0.014333595521748066, 0.01060196291655302, 0.007598610129207373, 0.027790676802396774, -0.017272498458623886, -0.019244655966758728, 0.027868015691637993, 0.009770561940968037, -0.015390569344162941, 0.0024071934167295694, -0.038953348994255066, 0.003216036129742861, 0.012412996962666512, -0.02246713824570179, 0.010034806095063686, 0.012122973799705505, 0.027171960100531578, 0.010350609198212624, 0.02232534810900688, 0.02571539767086506, 0.0061130463145673275, 0.009931686334311962, -0.036787841469049454, 0.018058784306049347, -0.00515596941113472, 0.04421243816614151, -0.008797372691333294, 0.013089717365801334, -0.013753549195826054, -0.026862600818276405, 0.001696636201813817, -0.008906937204301357, -0.011472032405436039, 0.02861563116312027, -0.0019463784992694855, -0.014810523018240929, 0.011787835508584976, 0.011581596918404102, -0.009699667803943157, 0.009867236949503422, 0.01599639654159546, -0.025264250114560127, 0.007076568435877562, 0.008217326365411282, 0.04369684308767319, -0.005268756300210953, 0.0013155778869986534, -0.01718226820230484, 0.016950249671936035, -0.009532098658382893, 0.007037898525595665, -0.017362726852297783, 0.029105449095368385, 0.003216036129742861, -0.021126585081219673, 0.008571799844503403, -0.0027423312421888113, 0.016963139176368713, 0.01889662817120552, 0.012773914262652397, 0.024967782199382782, 0.0031934785656630993, -0.0015983505873009562, 0.03207013010978699, 0.002621488180011511, -0.009835012257099152, -0.0016869688406586647, -0.014578503556549549, -0.018716169521212578, -0.003029132029041648, 0.012477446347475052, -0.011884509585797787, -0.00843001063913107, 0.02835783362388611, -0.005068962462246418, -0.0030097973067313433, 0.023549892008304596, 0.00662542087957263, -0.014217586256563663, 0.0059841470792889595, -0.004134443122893572, 0.009474094025790691, -0.0018126455834135413, 0.02887343056499958, -0.017362726852297783, 0.0037509677931666374, -0.017865434288978577, -0.03439031541347504, -0.0062419455498456955, 0.008803818374872208, 0.0019302661530673504, 0.012187423184514046, -0.022183559834957123, -0.0060195946134626865, -0.013141277246177197, -0.0021284488029778004, 0.022853834554553032, -0.016279973089694977, -0.024233056232333183, 0.009409644640982151, 0.013869558461010456, 0.009963911026716232, -0.027790676802396774, -0.026914160698652267, 0.005004513077437878, -0.020520759746432304, 0.010937100276350975, 0.018020113930106163, 0.019064197316765785, -0.0237819105386734, 0.00862335879355669, -0.020456308498978615, -0.0059938146732747555, -0.0009723836556077003, -0.007933747954666615, 0.025161132216453552, 0.00036615438875742257, -0.004021656233817339, -0.010859761387109756, 0.009628773666918278, -0.012561230920255184, 0.013779329136013985, 0.0024764765985310078, -0.002693994203582406, -0.005674789194017649, -0.018664609640836716, 0.009080951102077961, -0.015442129224538803, -0.004276232328265905, 0.009660998359322548, 0.003950761631131172, -0.00580046558752656, 0.01731116697192192, -0.014166026376187801, 0.002769722370430827, 0.028203153982758522, -0.0008225382771342993, -0.013005933724343777, -0.053415846079587936, -0.011368912644684315, -0.026192326098680496, 0.07847385853528976, -0.011768500320613384, -0.02142305299639702, 0.009673887863755226, -0.026811042800545692, -0.02214488945901394, -0.017220938578248024, 0.00530098145827651, -0.006541636306792498, 0.019450895488262177, -0.004853056278079748, -0.007772624026983976, 0.027326639741659164, 0.030239760875701904, -0.007611500099301338, -0.023936588317155838, 0.01205852348357439, -0.006473964545875788, 0.01930910535156727, 0.018729059025645256, -0.0070507884956896305, -0.004195670131593943, 0.005458883009850979, 0.043258585035800934, 0.0008604024187661707, -0.0033191554248332977, 0.013547309674322605, -0.003338490379974246, 0.009757672436535358, -0.04251096770167351, 0.003117750398814678, -0.008533129468560219, -0.02141016349196434, 1.617534326214809e-05, -0.0033900500275194645, 0.02683682180941105, 0.015106990933418274, 0.02227378822863102, -0.0024893665686249733, -0.003294986905530095, 0.021912870928645134, 0.004482470918446779, -0.018123233690857887, -0.005139857064932585, 0.015828827396035194, -0.003393272403627634, -0.015287449583411217, 0.027584437280893326, -0.023562781512737274, -0.0317092128098011, 0.034003619104623795, -0.03183811157941818, 0.0069218892604112625, -0.004395463969558477, 0.025534939020872116, 0.002693994203582406, -0.010421503335237503, 0.028125813230872154, -0.028460951521992683, 0.0005715875886380672, 0.004801496863365173, -0.018780618906021118, -0.0004136860079597682, 0.0009103508782573044, -0.026089206337928772, -0.025341590866446495, -0.0024458630941808224, 0.00021630903938785195, -0.02048208937048912, -0.00213167117908597, -0.005623229313641787, -0.020301630720496178, -0.0006001871079206467, -0.0015951280947774649, 0.010376389138400555, 0.0031064716167747974, 0.015635477378964424, -0.0075663854368031025, -0.01612529531121254, 0.03302398696541786, -0.007102347910404205, -0.007811293937265873, -0.0037380780559033155, -0.037561237812042236, -0.008584689348936081, 0.009435424581170082, 0.006367622409015894, -0.0023975258227437735, -0.028177373111248016, 0.02438773587346077, 0.008803818374872208, 0.003573731519281864, 0.02391080930829048, 0.004769271705299616, -0.007630834821611643, -0.009538543410599232, 0.005181749351322651, 0.0010094421450048685, 0.0019415448186919093, -0.0004181169206276536, 0.02523847110569477, 0.009641663171350956, -0.018600160256028175, -0.012432331219315529, 0.014294926077127457, 0.005955144762992859, -0.006480409298092127, -0.017942775040864944, -0.0061484938487410545, 0.012761024758219719, -0.00859113410115242, -0.02498067356646061, 0.03026554174721241, -0.020404750481247902, -0.03289508447051048, -0.014423824846744537, -0.022776495665311813, 0.026089206337928772, 0.006670535542070866, -0.011723386123776436, -0.014423824846744537, -0.010028360411524773, -0.003638181136921048, 0.032946646213531494, -0.0317092128098011, 0.03297242522239685, -0.019850483164191246, -0.005742460954934359, -0.005868137814104557, 0.014797632582485676, -0.008243106305599213, 0.023369431495666504, -0.015571027994155884, -0.03356536105275154, -0.009996135719120502, -0.014062906615436077, -0.021835532039403915, 0.01014437060803175, -0.028383612632751465, -0.01150425709784031, -0.025290030986070633, 0.028048474341630936, -0.01057618297636509, -0.01242588646709919, -0.006857439409941435, -0.012148753739893436, 0.005436325445771217, -0.017530295997858047, -0.026553243398666382, 0.021397273987531662, 0.00895205233246088, 0.005362208466976881, -0.0021429499611258507, 0.009068061597645283, -0.0008434844203293324, -0.02861563116312027, -0.0056328969076275826, -0.009712557308375835, 0.01831658184528351, 0.015132770873606205, 0.005690901540219784, 0.026011867448687553, 0.02650168351829052, 0.009106731042265892, -0.007888633757829666, 0.0069025540724396706, -0.00848801527172327, 0.014217586256563663, -0.03250838816165924, 0.02233823761343956, 0.015106990933418274, 0.014681623317301273, -0.023111633956432343, -0.009196960367262363, 0.006490076892077923, 0.011671826243400574, 0.0029340689070522785, 6.7281880546943285e-06, -0.026063425466418266, -0.005578114651143551, -0.0008060230757109821, -0.01844548061490059, -0.0017208048375323415, 0.013753549195826054, -0.022286677733063698, 0.01678268052637577, 0.021693741902709007, 0.01897396892309189, -0.00450825085863471, -0.0069218892604112625, 0.026256775483489037, -0.04044857993721962, 0.05083785951137543, 0.002125226194038987, -0.005536222364753485, -0.017401397228240967, 0.0037993050646036863, -0.03237948939204216, -0.00975122768431902, 0.007347256876528263, 0.004488916136324406, -0.009280744940042496, -0.009738337248563766, -0.016035065054893494, -0.00407966086640954, -0.0014493108028545976, -0.002774556167423725, -0.025135351344943047, -0.02345966175198555, -0.01566125825047493, -0.040732160210609436, 0.019244655966758728, 0.01285125408321619, -0.032611507922410965, -0.0003679670626297593, -0.0021542285103350878, -0.010614852420985699, 0.021255483850836754, -0.003895979607477784, -0.024026818573474884, 0.015970615670084953, -0.006876774597913027, 0.03106471709907055, 0.014758963137865067, 0.013076827861368656, 0.016344424337148666, -0.018664609640836716, -0.003048466984182596, 0.028048474341630936, -0.013237952254712582, -0.002631155773997307, 0.01969580352306366, 0.02286672592163086, -0.0024942003656178713, -0.011987629346549511, -0.018071673810482025, 0.006844549439847469, -0.012954373843967915, -0.025431819260120392, 0.0490332692861557, 0.003570508910343051, 0.026282554492354393, -0.003957206849008799, 0.015197220258414745, -0.008894047699868679, 0.005291313864290714, -0.01908997818827629, -0.004933618474751711, -0.007347256876528263, -0.02168085239827633, -0.02822893299162388, 0.010137924924492836, -0.027171960100531578, 0.002908289199694991, -0.016370203346014023, -0.02815159410238266, 0.02432328648865223, -0.002750387415289879, -0.03825729340314865, 0.028100034222006798, -0.005023847799748182, 0.022428467869758606, 0.01803300343453884, 0.0027133289258927107, 0.032121691852808, -0.002104280050843954, -0.010962880216538906, -0.007121683098375797, 0.013225061818957329, 0.03005930222570896, -0.003970096353441477, 0.0005176109843887389, -0.005352540872991085, 0.012993043288588524, 0.016086624935269356, 0.0011061165714636445, -0.009061616845428944, 0.013637539930641651, -0.010047695599496365, -0.015532358549535275, -0.015532358549535275, -0.016537772491574287, -0.00902294646948576, 0.0006154938600957394, -0.009164735674858093, 0.0072376923635602, -0.010627741925418377, 0.0005006929859519005, 0.010866206139326096, -0.04217582941055298, -0.020327409729361534, -0.004666152410209179, -0.007637280039489269, 0.02232534810900688, -0.0038347523659467697, 0.003037188434973359, 0.006180718541145325, 0.031425636261701584, -0.004324569366872311, 0.01599639654159546, -0.03217324987053871, -0.0007609082967974246, -0.0064449617639184, -4.597070437739603e-05, -0.016550661996006966, -0.010195929557085037, 0.023240532726049423, -0.004253674764186144, -0.03018820285797119, -0.00038528788718394935, -0.005861693061888218, -0.007360146380960941, 0.008829598315060139, -0.031348295509815216, 0.0037831927184015512, -0.007650170009583235, -0.012213203124701977, -0.01113044936209917, -0.024684203788638115, 0.015506578609347343, 0.02635989524424076, 0.01724671758711338, 0.010962880216538906, -0.013038158416748047, -0.0010263602016493678, 0.020340299233794212, 0.01403712760657072, 0.02068832889199257, -0.025754068046808243, -0.009222740307450294, 0.015880385413765907, -0.0006787350866943598, 0.00013030906848143786, 0.0016168798319995403, -0.011059555225074291, -0.01830369234085083, -0.029182787984609604, 0.012567675672471523, 0.01633153297007084, -0.007837073877453804, 0.009873681701719761, 0.045166295021772385, 0.004234340041875839, 0.024207277223467827, -0.016279973089694977, -0.0010924210073426366, -0.023936588317155838, -0.013328181579709053, -0.02259603701531887, 0.018883738666772842, -0.0479762963950634, 0.03663316369056702, 0.0016773013630881906, -0.021435944363474846, -0.024877553805708885, 0.022170668467879295, -0.01598350517451763, 0.006383734755218029, -0.00942253414541483, 0.0162670835852623, 0.02280227467417717, 0.035576190799474716, -0.007572830189019442, -0.016421763226389885, -0.006496521644294262, 0.028306273743510246, -0.023549892008304596, 0.003924981690943241, 0.01325084175914526, -0.025070901960134506, 0.011452697217464447, -0.014707403257489204, -0.026321224868297577, -0.018819289281964302, 0.04132509604096413, -0.006248390767723322, -0.0057617961429059505, 0.026656363159418106, -0.0221964493393898, -0.008365560322999954, 0.013882447965443134, 0.010041250847280025, 0.024697095155715942, 0.0195540152490139, 0.03132251650094986, -0.01756896637380123, -0.015751486644148827, -0.008971387520432472, -0.008964941836893559, -0.015145660378038883, 0.004888503812253475, -0.002582818502560258, 0.006048596929758787, 0.015455018728971481, -0.008139986544847488, 0.011729830875992775, -0.003947539255023003, -0.0051946393214166164, 0.03395206108689308, 0.0007746038609184325, 0.004901393782347441, 0.014050017111003399, 0.011774946004152298, 0.003114527789875865, -0.018406812101602554, -0.009267855435609818, 0.0044212439097464085, -0.03178655356168747, -0.0006287866272032261, -0.005562002304941416, 0.016937360167503357, -0.0028067808598279953, 0.010060586035251617, -0.008713589049875736, -0.0036736284382641315, -0.01493942178785801, 0.003779970109462738, -0.012509671039879322, 0.01963135413825512, 0.011948959901928902, -0.009435424581170082, 0.0010996715864166617, -0.017027590423822403, -0.012509671039879322, -0.014153136871755123, -0.008120652288198471, -0.015042541548609734, -0.007617944851517677, -0.0030903592705726624, 0.015751486644148827, -0.02485177293419838, -0.012071413919329643, -0.01232921238988638, 0.0038250850047916174, 0.00039797640056349337, 0.009312969632446766, 0.1906677484512329, -0.010357053950428963, 0.0005897140363231301, 0.023936588317155838, 0.002534481231123209, 0.011085334233939648, 0.0065351915545761585, 0.0032031461596488953, -0.0013131609885022044, 0.022248009219765663, -0.010621297173202038, 0.02273782528936863, -0.031348295509815216, 0.016073735430836678, 0.014127356931567192, -0.013431300409138203, -0.02584429830312729, -0.013392630964517593, 0.0074117062613368034, 0.011555816978216171, -0.01017659530043602, 0.008797372691333294, 0.0028051696717739105, 0.004427688661962748, -0.018716169521212578, -0.008732923306524754, 0.011839395388960838, -0.0061484938487410545, 0.029234347864985466, 0.017362726852297783, 0.0006702760583721101, -0.010221709497272968, -0.002302462700754404, -0.012412996962666512, -0.03418407961726189, 0.004192447755485773, -0.04743491858243942, 0.0024136381689459085, 0.03812839463353157, 0.027378197759389877, -0.0031709212344139814, 0.016537772491574287, -0.03207013010978699, 0.009538543410599232, 0.012438776902854443, 0.02278938516974449, -0.013141277246177197, -0.012438776902854443, -0.004053880926221609, 0.02722351998090744, -0.02828049287199974, 0.006786544807255268, -0.0008877934888005257, 0.04941996932029724, 0.014578503556549549, -0.008732923306524754, 0.005532999988645315, 0.02179686166346073, 0.014359375461935997, 0.021294154226779938, -0.006032484583556652, 0.015841716900467873, -0.019205987453460693, 0.003294986905530095, 0.0044212439097464085, 0.008997166529297829, -0.016370203346014023, 0.02193864993751049, 0.006876774597913027, -0.00942253414541483, -0.005365430843085051, -0.019876262173056602, -0.011117559857666492, -0.025058012455701828, 0.021307043731212616, -0.014398044906556606, 0.04078371822834015, -0.012941483408212662, 0.01783965528011322, 0.00849446002393961, -0.004389019217342138, -0.01910286769270897, -0.006531969178467989, 0.016834240406751633, 0.016769791021943092, -0.013534420169889927, -0.0025940972846001387, 0.027275079861283302, -0.0017481959657743573, -0.007540605496615171, -0.016808461397886276, -0.012097193859517574, 0.005114077124744654, 0.02465842477977276, 0.010440838523209095, 0.009835012257099152, 0.020172731950879097, 0.03219902887940407, -0.03475123643875122, -0.005294536240398884, -0.015119880437850952, 0.008906937204301357, 0.01242588646709919, 0.016963139176368713, -0.02353700064122677, 0.002281516557559371, 0.001712748664431274, 0.0020736665464937687, 0.0102474894374609, -0.017826765775680542, -0.009525653906166553, -0.0197602529078722, -0.010369943454861641, -0.01116911880671978, 0.01420469582080841, 0.008017532527446747, 0.011459141969680786, -0.009925241582095623, -0.006696315482258797, -0.004882058594375849, 0.006042151711881161, -0.006883219350129366, 0.020971905440092087, -0.014243366196751595, -0.008964941836893559, -0.012412996962666512, -0.03668472543358803, 0.0179685540497303, 0.010253934189677238, -0.037638578563928604, 0.003821862395852804, -0.005845580715686083, 0.0178525447845459, 0.0032820969354361296, -0.02179686166346073, -0.0025940972846001387, -0.025328701362013817, 0.011188453994691372, 0.0171178188174963, 0.0005764212692156434, -0.019180206581950188, 0.016705341637134552, -0.0006493299151770771, -0.005307426210492849, -0.0044470238499343395, -0.0149007523432374, 0.01599639654159546, 0.011439807713031769, 0.0035447292029857635, 0.005407323129475117, -0.0011061165714636445, -0.0018368142191320658, -0.029775723814964294, -0.05135345831513405, 0.022428467869758606, 0.000990107306279242, 0.004040990956127644, -0.01150425709784031, -0.008294666185975075, 0.022621816024184227, -0.015287449583411217, -0.0041634454391896725, 0.023420991376042366, 0.010614852420985699, 0.0023379100020974874, 0.017362726852297783, -0.16210368275642395, 0.03338490426540375, 0.018935298547148705, -0.00016172826872207224, 0.017272498458623886, 0.006335397716611624, 0.017620526254177094, 0.015944836661219597, -0.01315416768193245, 0.0153261199593544, 0.004340681713074446, 0.016679560765624046, -0.027120400220155716, -0.016486212611198425, -0.002714940346777439, -0.006119491532444954, -0.007753289304673672, 0.02583140693604946, 0.016563551500439644, 0.014630063436925411, 0.02126837521791458, -0.016215523704886436, 0.019205987453460693, -0.011807170696556568, -0.0009022947051562369, 0.0026488793082535267, -0.0006062292377464473, 0.019064197316765785, -0.0019496009917929769, -0.0061323815025389194, 0.009184070862829685, 0.009100286290049553, 0.041196197271347046, -0.020378969609737396, -0.004057103767991066, 0.026050535961985588, -0.030446000397205353, -0.015467909164726734, -0.01771075464785099, 0.01665378175675869, 0.02603764645755291, 0.005394433159381151, -0.003763857763260603, -0.021719522774219513, 0.010956435464322567, 0.031760770827531815, 0.028564071282744408, -0.03225059062242508, -0.004749936982989311, -0.0015620976919308305, -0.006357954815030098, -0.0022927953395992517, 0.004408353939652443, -0.006283837836235762, 0.01159448642283678, 0.024929113686084747, 0.01291570346802473, 0.011658935807645321, 0.004073216114193201, -0.016163963824510574, -0.007115237880498171, -0.03279196843504906, 0.020391859114170074, -0.01074375119060278, 0.005694123916327953, -0.014372264966368675, -0.0030887480825185776, 0.023833468556404114, -0.004343904554843903, -0.0007025008671917021, 0.01453983411192894, -0.009835012257099152, 0.00030029495246708393, -0.007907968014478683, -0.011878064833581448, 0.013521530665457249, -0.007315031718462706, -0.015055431053042412, 0.007972418330609798, 0.00530420383438468, -0.01566125825047493, 0.035447292029857635, -0.02835783362388611, -0.02220933884382248, 0.012064969167113304, -0.013534420169889927, -0.0179685540497303, 0.012232538312673569, -0.01790410466492176, 0.014372264966368675, 0.006580306217074394, -0.02840939164161682, -0.009493429213762283, -0.0041892253793776035, 0.015235889703035355, 0.021397273987531662, -0.025135351344943047, -0.005790798459202051, 0.004424466285854578, -0.01272235531359911, 0.024632643908262253, -0.003937871661037207, -0.018020113930106163, 0.005510442424565554, 0.041402436792850494, 0.018613049760460854, 0.015970615670084953, 0.013328181579709053, 0.016834240406751633, 0.0163830928504467, 0.006312840152531862, 0.01968291401863098, -0.007733954582363367, 0.020314520224928856, -0.010775976814329624, 2.0253795810276642e-05, 0.03583398833870888, -0.002299240091815591, 0.04369684308767319, -0.00815932173281908, 0.02920856699347496, -0.023498332127928734, -0.022235119715332985, 0.027171960100531578, 0.012406552210450172, 0.008533129468560219, -0.08672340959310532, -0.011227123439311981, 0.01275458000600338, 0.030497560277581215, -0.01611240580677986, 0.021229704841971397, -0.011111114174127579, 0.01573859713971615, 0.013573089614510536, 0.005281646270304918, -0.011903844773769379, -0.008739368058741093, 0.03132251650094986, 0.005320316180586815, 0.031245175749063492, 0.00622905557975173, 0.009564323350787163, -0.011394692584872246, -0.01229054294526577, 0.0015161773189902306, -0.005413767881691456, 0.009602993726730347, 0.01950245536863804, -0.01443671528249979, 0.012348547577857971, -0.02155195362865925, -0.027996914461255074, 0.04137665778398514, 0.023214753717184067, 0.0016869688406586647, -0.0257798470556736, -0.016950249671936035, -0.0029356800951063633, -0.032018572092056274, 0.0003411801881156862, -0.009757672436535358, -0.011317353695631027, -0.02299562469124794, 0.010647077113389969, -0.00662542087957263, 0.001830369234085083, 0.013276621699333191, 0.03245683014392853, -0.04581078886985779, -0.0010529456194490194, -0.003158031264320016, -0.0022509030532091856, -0.0030903592705726624, -0.007598610129207373, -0.01968291401863098, -0.04132509604096413, -0.004923950880765915, -0.04336170479655266, 0.0012406551977619529, 0.010067030787467957, 0.0019496009917929769, -0.0006755125941708684, 0.011298018507659435, -0.020765667781233788, -0.017349837347865105, 0.016073735430836678, -0.001484758104197681, 0.0017997556133195758, 0.014294926077127457, 0.004801496863365173, 0.02253158763051033, -0.009119621478021145, -0.022557366639375687, -0.009615883231163025, 0.001385666779242456, 0.006116269156336784, 0.007037898525595665, -0.009544989094138145, -0.017401397228240967, -0.03614334762096405, 0.0005816578050144017, -0.03323022276163101, -0.01817479357123375, 0.007759734056890011, -0.02589585818350315, 0.009216295555233955, -0.00680587999522686, -0.003499614307656884, 0.002608598442748189, 0.027249298989772797, 0.008900492452085018, -0.0006457046256400645, -0.009119621478021145, -0.009867236949503422, -0.009731892496347427, 0.010131480172276497, 0.02067543752491474, 0.004653262440115213, -0.021049246191978455, -0.0074632661417126656, 0.0247228741645813, 0.01328951120376587, -0.01113044936209917, 0.0038605323061347008, 0.003444832284003496, -0.017749425023794174, -0.020984796807169914, -0.07419440150260925, -0.013353961519896984, 0.012812584638595581, -0.008346226066350937, 0.004698377102613449, 0.014333595521748066, 0.004498583264648914, 8.222361793741584e-05, 0.018136123195290565, 0.007476156111806631, -0.04405776038765907, 0.0028051696717739105, 0.009461204521358013, 3.897188071277924e-05, -0.02115236595273018, -0.0012704631080850959, 0.014320705085992813, 0.005165637005120516, -0.012380772270262241, 0.005613561719655991, 0.014758963137865067, 0.0032079797238111496, 0.027146179229021072, 0.0054878853261470795, -0.033539582043886185, -0.005987369455397129, -0.022686265408992767, 0.030291320756077766, -0.021049246191978455, 0.008913382887840271, 0.01718226820230484, -0.0357050895690918, -0.0189095176756382, 0.026939941570162773, 0.01149781234562397, -0.032869305461645126, -0.04044857993721962, 0.010382833890616894, 0.0038798670284450054, 0.03330756351351738, -0.013405521400272846, -0.022093329578638077, 0.0171178188174963, -0.01585460640490055, 0.0004100607184227556, 0.008333335630595684, 0.009660998359322548, 0.010531067848205566, 0.0034931693226099014, 0.0011109503684565425, 0.006119491532444954, 0.022415578365325928, 0.0007286834879778326, -0.04591390863060951, -0.015880385413765907, 0.026656363159418106, -0.022505806758999825, 0.03199279308319092, 0.02358856052160263, -0.00813354179263115, 0.0395205058157444, 0.017878323793411255, 0.019837593659758568, -0.015506578609347343, -0.010653521865606308, -0.0422789491713047, 0.002286350354552269, 0.011723386123776436, 0.0068961093202233315, -0.052178412675857544, -0.028821870684623718, 0.011246458627283573, -0.0020543315913528204, -0.003246649634093046, 0.02360145002603531, -0.013341071084141731, -0.004418021533638239, -0.03526683151721954, -0.013701989315450191, 0.0266305822879076, -0.0011222290340811014, 0.0033578251022845507, -0.030162421986460686, 0.011310908012092113, 0.014127356931567192, -0.008172212168574333, -0.021165255457162857, -0.01651199348270893, 0.015571027994155884, 0.03794793784618378, -0.003999099135398865, 0.012168087996542454, 0.00010926224786089733, 0.001309938495978713, -0.0005764212692156434, -0.009538543410599232, -0.0033417127560824156, 0.0004070396244060248, 0.004395463969558477, 0.015261669643223286, -0.011974738910794258, 0.002378190867602825, -0.018857959657907486, -0.029749944806098938, -0.01631864346563816, 0.009216295555233955, -0.032482609152793884, -0.01580304652452469, 0.005861693061888218, 0.032482609152793884, -0.014062906615436077, 0.03549885004758835, 0.0021123362239450216, -0.00635</t>
+  </si>
+  <si>
+    <t>[-0.023241180926561356, -0.00854067225009203, -0.0011170473881065845, -0.023241180926561356, -0.010143284685909748, 0.017714476212859154, -0.014166304841637611, -0.00424725329503417, 0.0046495553106069565, -0.007043581455945969, -0.007788829505443573, -0.010123499669134617, -0.007854780182242393, -0.011310620233416557, -0.025575852021574974, -0.011290835216641426, 0.015617229044437408, 0.008290058001875877, 0.001714729587547481, -0.031128937378525734, -0.019732579588890076, -0.000530494493432343, 0.0002856508654076606, 0.0013783788308501244, 0.0038911171723157167, -0.002534172497689724, 0.03368784114718437, -0.025536280125379562, 0.004336287267506123, 0.003035401226952672, 0.006133455783128738, 0.010380709543824196, -0.0033635080326348543, -0.008052634075284004, 0.00396366324275732, 0.012352648191154003, 0.0261430311948061, 0.004999096039682627, -0.0017196759581565857, -0.009008925408124924, 0.0037328344769775867, -0.00022299728880170733, 0.0018334416672587395, 0.009899266064167023, 0.005645417608320713, 0.023346703499555588, 0.0026182602159678936, -0.008877023123204708, -0.011053410358726978, 0.00841536559164524, 0.009332085959613323, 0.038568224757909775, -0.006799562368541956, 0.022449767217040062, -0.010822582058608532, -0.041100747883319855, -0.02880745753645897, 0.011693136766552925, 0.015775512903928757, -0.04297376051545143, -0.007881160825490952, -0.016646066680550575, -0.0292295441031456, 0.0038152732886373997, -0.006690742913633585, -0.007821804843842983, -0.0181893240660429, 0.020352521911263466, -0.02072184719145298, -0.020695466548204422, 0.030020957812666893, 0.015498517081141472, 0.000504526193253696, 0.011719517409801483, 0.03822527825832367, 0.012590072117745876, -0.015775512903928757, 0.02432277984917164, 0.02962525188922882, -0.008626408874988556, -0.008969354443252087, -0.009299110621213913, 0.01333532016724348, 0.019983194768428802, 0.028042424470186234, 0.013111086562275887, 0.01281430572271347, 0.008013063110411167, -0.009740983135998249, -0.0019620463717728853, -0.0027963281609117985, 0.0062587629072368145, 0.012741759419441223, 0.00943760760128498, 0.006423640996217728, 0.006430236157029867, 0.006759991869330406, 0.0015292420284822583, -0.007201864384114742, -0.004982608370482922, -0.005704773589968681, 0.0015663395170122385, -0.017424290999770164, -0.026288123801350594, -0.03089151345193386, -0.016421834006905556, 0.008811072446405888, -0.002247285097837448, 0.02182982675731182, 0.012003106996417046, 0.005348637234419584, 0.025443948805332184, 0.013836548663675785, -0.04202406480908394, 0.00880447681993246, -0.0031409228686243296, 0.009622271172702312, 0.0005849041626788676, 0.012603262439370155, -0.005183759611099958, 0.0015127542428672314, 0.04616579785943031, -0.009147422388195992, -0.009892670437693596, 0.032922808080911636, -0.007637141738086939, -0.0193236842751503, -0.014575201086699963, 0.00031058862805366516, 0.0008524184813722968, 0.003528385888785124, 0.004464892204850912, 0.006608304101973772, 0.002769947750493884, 0.004276931285858154, 0.006426938343793154, -0.014285016804933548, 0.004046102520078421, -0.022462958469986916, -0.04722101613879204, 0.030390284955501556, 0.023333512246608734, -0.02185620740056038, -0.007261220365762711, -0.029466968029737473, 0.035455331206321716, 0.008995735086500645, 0.03355593979358673, -0.008204321376979351, 0.02172430418431759, 0.040230195969343185, -0.004075780510902405, -0.005137593485414982, -0.01497090794146061, 0.012807711027562618, 0.01721324771642685, -0.0012926423223689198, 0.016316311433911324, 0.012590072117745876, 0.004356072749942541, -0.03075961023569107, 0.03284366801381111, -0.00468582846224308, -0.004511057864874601, 0.0157491322606802, 0.02458658441901207, 0.013810168020427227, 0.0031574107706546783, -0.011013840325176716, 0.00045300187775865197, -0.007742663379758596, 0.028860218822956085, -0.024085355922579765, 0.02329394221305847, 0.023887502029538155, 0.03521790727972984, 0.008764905855059624, 0.013915689662098885, -0.002027997514232993, -0.00654565030708909, -0.014245445840060711, -0.008698955178260803, 0.04133817180991173, 0.016065698117017746, -0.011165527626872063, 0.011567829176783562, 0.012926422990858555, -0.006473104003816843, 0.00730079086497426, -0.005180461797863245, -0.003933985251933336, 0.006334607023745775, 0.011383166536688805, -0.007102937437593937, -0.6508585810661316, 0.0019867781084030867, -0.030812371522188187, -0.000920842750929296, -0.01958748884499073, -0.0016463053179904819, 0.03186758980154991, 0.006690742913633585, -0.03566637635231018, -0.008105394430458546, -0.018571840599179268, -0.0045143552124500275, -0.006618196610361338, -0.005210139788687229, -0.009206779301166534, -0.01516876183450222, 0.023953452706336975, -0.025153763592243195, 0.012108628638088703, 0.005520110484212637, -0.00024999602464959025, 0.008725335821509361, -0.019693009555339813, -0.01130402460694313, -0.0011500229593366385, 0.008032849058508873, 0.013783788308501244, -0.014839005656540394, 0.009708007797598839, -0.04020381346344948, -0.013968450948596, 0.014416919089853764, 0.005932305008172989, 0.000228355813305825, 0.0412590317428112, 0.04526885971426964, -0.006766586564481258, 0.05634865164756775, 0.04078418388962746, 0.038436323404312134, -0.0013346861815080047, -0.005681690759956837, 0.038963932543992996, -0.007083152420818806, 0.0006108724046498537, 0.006318118888884783, 0.020405281335115433, 0.01741109974682331, -0.00730079086497426, -0.0219221580773592, -0.006898488849401474, -0.015353424474596977, -0.0023396166507154703, 0.013731027022004128, 0.004158219322562218, -0.010908318683505058, 0.03579827770590782, -0.015419376082718372, -0.004893574398010969, -0.004174706991761923, -0.003927390091121197, 0.007604166399687529, -0.004346179775893688, -0.021513260900974274, 0.022265104576945305, -0.0006718772347085178, -0.000740301504265517, -0.0006644577370025218, -0.013876119628548622, 0.00821751169860363, 0.016448214650154114, 0.027699477970600128, -0.027198249474167824, -0.0034723274875432253, 0.008316438645124435, 0.03566637635231018, -0.003600932192057371, 0.008131775073707104, -0.004154921509325504, 0.019086258485913277, 0.00906168669462204, -0.004412130918353796, -0.015353424474596977, 0.017318768426775932, -0.007729473523795605, 0.008243892341852188, -0.003713048994541168, 0.012444979511201382, 0.03316023200750351, 0.014575201086699963, 0.026433216407895088, 0.0012794521171599627, -0.004201087635010481, -0.013770597986876965, -0.002517684595659375, 0.030311143025755882, 0.008487911894917488, 0.019534727558493614, -0.010835772380232811, -0.01036092359572649, -0.01894116774201393, -0.01607888750731945, 0.015485326759517193, 0.008270272985100746, 0.018400367349386215, -0.0033156934659928083, -0.014139924198389053, -0.006054314319044352, 0.03118169866502285, -0.0078745661303401, -0.04120627045631409, 0.008501101285219193, -0.011086386628448963, -0.007933922111988068, -0.019732579588890076, -0.02572094462811947, 0.016580116003751755, 0.012530716136097908, 0.029018500819802284, -0.01665925793349743, 0.01763533428311348, -0.012867067009210587, 0.0005173042300157249, -0.03817251697182655, 0.01588103361427784, 0.008454935625195503, -0.0006273601902648807, -0.029018500819802284, -0.0470891110599041, -0.002014807192608714, 0.009839910082519054, -0.00968162715435028, 0.00627525057643652, -0.007155698258429766, 0.021328598260879517, 0.02354455552995205, 0.0013948666164651513, -0.010123499669134617, -0.003084864467382431, -0.020154668018221855, -0.03804061561822891, -0.03563999384641647, -0.010308163240551949, -0.026327693834900856, -0.014904957264661789, -0.020444853231310844, -0.007188674062490463, 0.0016017882153391838, -0.026222173124551773, 0.011125956661999226, -0.012847281992435455, -0.0008363428642041981, -0.020735038444399834, 0.01028178259730339, 0.026802541688084602, 0.017740856856107712, -0.008731930516660213, -0.003165654605254531, -0.03859460726380348, 0.0009101257310248911, 0.035613615065813065, -0.011475497856736183, -0.006700635422021151, -0.007683307398110628, -0.016065698117017746, -0.019666628912091255, 0.011442522518336773, 0.013454032130539417, -0.020405281335115433, -0.02812156453728676, 0.015933794900774956, -0.014364157803356647, 0.0005259603494778275, 0.03440011292695999, 0.008065824396908283, 0.012563691474497318, -0.021315407007932663, -0.0028095184825360775, -0.02289823442697525, -0.0004962823004461825, 0.009008925408124924, -0.01432458683848381, -0.010901723057031631, -0.01156123448163271, -0.0011038571828976274, 0.0157491322606802, 0.004346179775893688, -0.0007699795532971621, -0.010235616937279701, 0.012741759419441223, 0.010466445237398148, 0.00028626914718188345, -0.02088013105094433, -0.021711114794015884, 1.5302724932553247e-05, 0.008026253432035446, 0.004187897313386202, 0.0032316057477146387, 0.006077397149056196, 0.027435673400759697, 0.004976013209670782, 0.018400367349386215, 0.024824008345603943, 0.019284112378954887, 0.0054178861901164055, -0.005048559512943029, 0.009905860759317875, 0.0036174198612570763, 0.0386473685503006, -0.008877023123204708, 0.03381974250078201, -0.019864482805132866, -0.02471848577260971, 0.0001680723507888615, 0.02130221761763096, -0.005401398055255413, 0.0324743390083313, 0.013849738985300064, -0.013216608203947544, 0.005381613038480282, 0.013968450948596, -0.0032794203143566847, 0.008257082663476467, 0.006572030950337648, -0.027198249474167824, 0.0017872758908197284, 0.011435926891863346, 0.040942467749118805, -0.0008598379790782928, 0.0015836517559364438, -0.012834091670811176, 0.038409944623708725, -0.004972715862095356, 0.015142381191253662, 0.0016223980346694589, 0.00010861328337341547, 0.00948377326130867, -0.014416919089853764, -0.0029381231870502234, -0.006555543281137943, 0.02994181588292122, 0.016619686037302017, -0.00015014188829809427, 0.01630312204360962, 0.007703092880547047, 0.0016438320744782686, -0.0045539261773228645, 0.019112639129161835, -0.003887819591909647, -0.0012464765459299088, -0.013955260626971722, -0.015867844223976135, -0.008276867680251598, -0.015577659010887146, 0.0077558537013828754, -0.008375794626772404, 0.008600028231739998, 0.003089810721576214, 0.03846270218491554, 0.011693136766552925, -0.0017130807973444462, -0.011224883608520031, 0.013097896240651608, 0.02263442985713482, -0.011422737501561642, -0.0033272348809987307, 0.01825527474284172, -0.022001300007104874, -0.0035184931475669146, -0.0013173739425837994, 0.009635461494326591, 0.005137593485414982, 0.010809391736984253, 0.0038614391814917326, -0.007525024935603142, 0.003226659493520856, -0.03358231857419014, -0.003009020583704114, -0.023201610893011093, 0.025312047451734543, -0.009747577831149101, -0.038278039544820786, 0.013447437435388565, 0.0023313728161156178, 0.00727441068738699, -0.022726763039827347, -0.021803446114063263, 0.010400494560599327, -0.007109532598406076, 0.024151306599378586, 0.0024302995298057795, 0.01912583038210869, -0.006858918350189924, 0.0073073860257864, -0.0026842113584280014, -0.00789435114711523, -0.010987459681928158, -0.002738621085882187, 0.028147945180535316, -0.011646971106529236, -0.016606496647000313, -0.030548566952347755, -0.00031264961580745876, -0.006459914147853851, 0.014575201086699963, -0.01737152971327305, -0.003226659493520856, -0.00758438091725111, 4.427871772350045e-06, -0.004168111830949783, 0.029862675815820694, -0.0009290866437368095, 0.0146147720515728, 0.00452424818649888, -0.003009020583704114, 0.011488688178360462, -0.007966897450387478, 0.003924092743545771, 0.01945558562874794, -0.007610761560499668, -0.01032794825732708, -0.013849738985300064, -0.01792551949620247, -0.02867555432021618, 0.09908498823642731, 0.004534140694886446, -0.0033552641980350018, 0.024415111169219017, -0.011567829176783562, -0.008013063110411167, -0.03144550323486328, -0.019495155662298203, 0.007340361829847097, 0.016289930790662766, -0.004929847549647093, -0.03368784114718437, 0.018334416672587395, 0.010090524330735207, -0.011218288913369179, -0.0008853940526023507, -0.014693913981318474, -0.009219968691468239, 0.023927072063088417, -0.008890213444828987, -0.0013083056546747684, 0.0015951931709423661, -0.003083215793594718, 0.04004552960395813, 0.022858664393424988, -0.009846504777669907, 0.004939740058034658, 0.016223980113863945, 0.01734514907002449, -0.029018500819802284, 0.011864610016345978, -0.011455712839961052, -0.019218161702156067, 0.0005601724842563272, -0.007538215257227421, 0.02147369086742401, -0.004926550202071667, 0.005856460891664028, -3.7870380765525624e-05, -0.012372433207929134, 0.02198810875415802, 0.019442396238446236, 0.0008107867906801403, -0.00042827019933611155, 0.008210917003452778, -0.0057344515807926655, -0.002453382359817624, 0.04479401186108589, -0.015472137369215488, 0.0011244668858125806, 0.011079791001975536, -0.004788052756339312, 0.0045143552124500275, -0.00762395141646266, -0.013889309950172901, -0.02322799153625965, 0.0014921445399522781, 0.013183632865548134, -0.016039317473769188, -0.036589689552783966, 0.004458297044038773, -0.019917244091629982, 0.009272729977965355, -0.006097182631492615, -0.0004938091733492911, -0.008448340930044651, -0.014865386299788952, -0.0052002472802996635, -0.029440587386488914, 0.016461404040455818, -0.001980182947590947, -0.023214800283312798, -0.004606686998158693, 0.019508346915245056, 0.020906509831547737, -0.019310493022203445, 0.0103938989341259, 0.01211522426456213, -0.003525088308379054, 0.01659330725669861, 0.002286855597048998, -0.018426747992634773, -0.0034228640142828226, -0.03867374733090401, 0.009035306051373482, 0.009523344226181507, 0.005500325001776218, 0.0048441109247505665, -0.02711910754442215, 0.017912328243255615, 0.009622271172702312, -0.00440223840996623, 0.029968196526169777, -0.0016438320744782686, 0.01008392870426178, -0.0033255862072110176, 0.013216608203947544, -0.007379932329058647, 0.016329502686858177, -0.010308163240551949, -0.012359242886304855, 0.007887756451964378, -0.03408354893326759, 0.004458297044038773, 0.00210384139791131, -0.011013840325176716, -0.010367519222199917, -0.01923135109245777, -0.004972715862095356, 0.0012349350145086646, 0.004267038777470589, -0.015841463580727577, 0.004547331016510725, 0.006496187299489975, -0.036853495985269547, -0.02221234329044819, -0.018228894099593163, 0.03901669383049011, 0.010057548992335796, -0.011277644895017147, -0.0019571001175791025, -0.013519983738660812, -0.0027452160138636827, 0.03202587366104126, -0.02380836009979248, 0.01460158172994852, -0.002169792540371418, -0.006146646104753017, 0.0006525040953420103, 0.014205874875187874, -0.0045671164989471436, 0.03136635944247246, -0.011574424803256989, -0.006812752690166235, -0.026974014937877655, -0.02878107689321041, 0.007254625204950571, -0.012418598867952824, -0.022819094359874725, -0.015907414257526398, -0.026683829724788666, 0.024177687242627144, -0.004913359880447388, -0.03579827770590782, -0.019627058878540993, -0.02383474074304104, -0.009266135282814503, -0.009226564317941666, -0.035745516419410706, 0.013744217343628407, 0.008421960286796093, 0.01656692661345005, -0.007900946773588657, 0.008764905855059624, 0.005137593485414982, -0.02578689530491829, -0.012266911566257477, -0.021091174334287643, 0.005523407831788063, 0.011587615124881268, -0.0004027141258120537, -0.002649586880579591, 0.01091491337865591, 0.017331959679722786, -0.002377538476139307, -0.0021664949599653482, -0.01945558562874794, 0.017292387783527374, -0.03366146236658096, 0.04650874435901642, 0.008837452158331871, 0.024375541135668755, -0.03917497768998146, -0.018492698669433594, 0.006001553498208523, 0.006938059814274311, 0.013097896240651608, 0.009892670437693596, -0.0140475919470191, -0.01894116774201393, 0.010163070634007454, -0.01621078886091709, -0.00528598390519619, -0.004293418955057859, -0.0037262393161654472, 0.011435926891863346, 0.031155318021774292, -0.0011500229593366385, 0.01967982016503811, -0.0006244748365134001, 0.014654343016445637, -0.02510100230574608, 0.03466391935944557, 0.00703039113432169, 0.009892670437693596, 0.01714729517698288, -0.012214151211082935, -0.040546759963035583, 0.012247126549482346, 0.0025457139126956463, -0.008072419092059135, -0.010136689990758896, -0.0006912503740750253, -0.02147369086742401, 0.0020642706658691168, 0.005305768921971321, 0.002657830948010087, -0.021157125011086464, -0.004629769828170538, -0.02394026331603527, -0.024243637919425964, -0.008336223661899567, 0.0063807726837694645, -0.007716283202171326, 0.001874661073088646, 0.008448340930044651, -0.013849738985300064, 0.017384719103574753, -0.005170569289475679, -0.021961728110909462, 0.033635079860687256, -0.006027934141457081, 0.0280951838940382, -0.0073073860257864, 0.019073069095611572, 0.002309938659891486, -0.004821028094738722, 0.00651267496868968, 0.03060132823884487, -0.0015308908186852932, -0.0041977898217737675, 0.018993927165865898, 0.0063807726837694645, 0.004613282158970833, 0.0037031564861536026, 0.01489176694303751, 0.023900693282485008, -0.03432097285985947, -0.026736591011285782, 0.04073142260313034, -0.005229925271123648, 0.01000478770583868, -0.01685710996389389, 0.006314821541309357, -0.003874629270285368, 0.012418598867952824, -0.0211175549775362, 0.01179206371307373, -0.0028853623662143946, -0.011244668625295162, -0.015709560364484787, -0.007340361829847097, -0.029308686032891273, 0.012299886904656887, -0.0058432710357010365, -0.011844824068248272, 0.013249583542346954, 0.00016827844956424087, -0.0180310420691967, 0.020932890474796295, 0.00758438091725111, 0.005437671206891537, -0.010545587167143822, 0.014984098263084888, 0.02978353388607502, 0.007643736898899078, -0.00997181236743927, -0.013665075413882732, -0.0008441745885647833, 0.02909764274954796, -0.03310747072100639, -0.035613615065813065, 0.003779000137001276, 0.02263442985713482, 0.006116968113929033, -0.021592402830719948, -0.019706200808286667, -0.005500325001776218, -0.015155571512877941, -0.013651886023581028, -0.009088066406548023, -0.0005280213081277907, -0.0011096278904005885, 0.00440883357077837, 0.012933018617331982, -0.003746024565771222, -0.013421056792140007, -0.0010461498750373721, 0.005859758704900742, -0.0001826022198656574, -0.006753396708518267, -0.014285016804933548, -0.004458297044038773, 0.01191737037152052, 0.011943751014769077, 0.010156475007534027, -0.018215704709291458, 0.030944274738430977, -0.026367265731096268, 0.016184410080313683, -0.009510153904557228, -0.001283574034459889, -0.02527247555553913, -0.002469870029017329, -0.011666756123304367, -0.00901552103459835, 0.02049761451780796, -0.009378251619637012, -0.03276452422142029, -0.025536280125379562, -0.01040708925575018, 0.0041285413317382336, 0.009391441941261292, -0.016118457540869713, 0.007854780182242393, -0.01743748039007187, 0.0011277644662186503, -0.008665979839861393, -0.02572094462811947, 0.0059421975165605545, 0.008923188783228397, 0.005467349197715521, 0.007821804843842983, -0.05909221991896629, 0.009839910082519054, 0.0071491035632789135, 0.014073972590267658, -0.0030485913157463074, -0.04078418388962746, -0.0036174198612570763, 0.0180310420691967, 0.0027023479342460632, -0.005717963445931673, -0.002206065459176898, 0.002735323505476117, -0.010736845433712006, -0.02247614786028862, -0.002328075235709548, -0.00011778461339417845, 0.004821028094738722, 0.027303772047162056, 0.023597316816449165, 0.01952153630554676, 0.016738398000597954, 0.0028672257903963327, 0.009529939852654934, -0.00813837070018053, -0.01460158172994852, -0.027224630117416382, -0.000326870329445228, -0.03302833065390587, 0.02179025672376156, -0.00937165692448616, -0.018822453916072845, -0.018822453916072845, 0.01916540041565895, -0.026327693834900856, 0.03511238470673561, -0.006700635422021151, 0.017516622319817543, 0.012016297318041325, 0.018716933205723763, -0.010974269360303879, 0.004049399867653847, -0.01544575672596693, 0.013559553772211075, -0.0292295441031456, -0.023280750960111618, 0.007854780182242393, -0.010776416398584843, 0.02163197286427021, -0.003103001043200493, -0.0347430594265461, -0.03951792046427727, 0.0448203943669796, 0.0016537248156964779, 0.007597571238875389, 0.022080441936850548, 0.0018235489260405302, -0.01952153630554676, 0.0207877978682518, 0.016764778643846512, 0.0021500070579349995, 0.024547014385461807, 0.01796508952975273, -0.030997034162282944, 0.0058465683832764626, -0.006107075605541468, -0.003449244424700737, -0.005965280346572399, 0.010835772380232811, -0.0041977898217737675, 0.015076430514454842, 0.028912978246808052, 0.015551278367638588, 0.016395453363656998, 0.03426821157336235, -0.0011904180282726884, 0.01572275161743164, 0.000821503868792206, 0.003290961729362607, 0.023755600675940514, 0.00792732648551464, -0.008791286498308182, -0.011172122322022915, -0.015379805117845535, -0.026683829724788666, -0.019046688452363014, 0.0004773213586304337, -0.025417568162083626, 0.0145356310531497, -0.038409944623708725, 0.01175908837467432, -0.02692125365138054, 0.014126733876764774, -0.019785340875387192, 0.013585934415459633, -0.023861121386289597, 0.04624493792653084, -0.006486294325441122, -0.012636237777769566, -0.008342819288372993, -0.013955260626971722, -0.032817285507917404, -0.022515717893838882, 0.0055992514826357365, -0.014773054979741573, -0.004214277490973473, -0.00024834726355038583, -0.008290058001875877, -0.03738110512495041, -0.0347430594265461, -0.0040889703668653965, 0.010255401954054832, -0.011534853838384151, 0.00317554734647274, 0.18603497743606567, -0.010486231185495853, -0.014707103371620178, 0.017358340322971344, -0.00579050974920392, 0.020669085904955864, -0.002816113643348217, 0.005193652119487524, -0.0008812720770947635, 0.01065110880881548, -0.004929847549647093, 0.027989663183689117, -0.024639345705509186, 0.004751779604703188, 0.02419087663292885, -0.019481966271996498, -0.009589295834302902, -0.03007371909916401, -0.004276931285858154, 0.014456489123404026, -0.0028045722283422947, -0.008243892341852188, -0.004141731653362513, -0.011033625341951847, 0.01750343292951584, -0.013130871579051018, -0.009444203227758408, -0.00904849637299776, 0.02806880511343479, 0.01068408414721489, -0.0011335351737216115, -0.02072184719145298, -0.025219714269042015, -0.030812371522188187, -0.007017201278358698, 0.019350063055753708, -0.021882588043808937, -0.014021212235093117, 0.015129190869629383, 0.025866037234663963, -0.0012827495811507106, 0.013572744093835354, -0.02806880511343479, 0.008428554981946945, 0.00758438091725111, 0.02198810875415802, -0.009233159013092518, 0.005130998324602842, -0.018373986706137657, 0.02438873052597046, -0.03234243765473366, -0.004072482697665691, -0.008230702020227909, 0.027198249474167824, 0.0140475919470191, -0.011943751014769077, -0.0064895921386778355, 0.010545587167143822, 0.016975823789834976, 0.012352648191154003, -0.0002697813615668565, 0.026908064261078835, -0.015300664119422436, 0.03875288739800453, 0.015036859549582005, 0.001731217373162508, -0.008731930516660213, -0.0005972699727863073, 0.02147369086742401, 0.029124023392796516, 0.023043327033519745, -0.021552832797169685, -0.021223075687885284, -0.020286569371819496, -0.009266135282814503, -0.022238723933696747, 0.033925265073776245, -0.011119361966848373, 0.026169411838054657, 0.0214341189712286, 0.009200183674693108, 0.000377570278942585, -0.03165654465556145, 0.016751589253544807, -0.016646066680550575, -0.015604039654135704, 0.022687191143631935, 0.015696370974183083, -0.019376443699002266, 0.0023643483873456717, -0.010077334009110928, -0.018862025812268257, 0.004520950373262167, 0.0018482806626707315, 0.00703039113432169, 0.0017361637437716126, 0.005572871305048466, 0.03221053630113602, -0.028042424470186234, 0.021064793691039085, -0.010222426615655422, 0.03358231857419014, 0.0211175549775362, -0.0036405029240995646, -0.012801116332411766, -0.003041996154934168, -0.006911679171025753, 0.011897585354745388, 0.02407216466963291, 0.0020543779246509075, -0.0029826401732861996, -0.02140774019062519, -0.018268465995788574, -0.006885298993438482, 0.006558840628713369, 0.018202513456344604, 0.01701539382338524, 0.001779031939804554, 0.034347351640462875, -0.0337669812142849, -0.011046815663576126, -0.010433469898998737, 0.01792551949620247, 0.012998969294130802, -0.001905987854115665, -0.03732834383845329, -0.034109927713871, 0.017239628359675407, -0.017582572996616364, -0.028728315606713295, 0.010967674665153027, 0.011369976215064526, 0.002614962635561824, 0.00302056223154068, -0.02653873711824417, 0.011389761231839657, -0.006281845737248659, -0.004075780510902405, -0.02578689530491829, 0.022885045036673546, -0.025325236842036247, 0.000920842750929296, 0.009186993353068829, -0.008949569426476955, -0.012260316871106625, -0.02474486641585827, 0.02283228375017643, -0.022370625287294388, 0.0072480300441384315, -0.0261430311948061, 0.010321353562176228, -0.00651267496868968, -0.038858409970998764, -0.042472533881664276, 0.008553862571716309, -0.02529885619878769, -0.014271826483309269, -0.010374113917350769, 0.01747705228626728, 0.009345276281237602, -0.026195792481303215, 0.01159420982003212, 0.03397802636027336, -0.006199406925588846, -0.002300045918673277, 0.009582700207829475, -0.16609135270118713, 0.009536534547805786, 0.028833838179707527, 0.013097896240651608, 0.01894116774201393, -0.002469870029017329, -0.012293292209506035, 0.012379028834402561, -0.02825346775352955, 0.03822527825832367, 0.012517525814473629, 0.005869651213288307, -0.004346179775893688, -0.016421834006905556, -0.018083801493048668, -0.02562861144542694, -0.0017081344267353415, 0.013757407665252686, 0.028965739533305168, 0.0027666501700878143, 0.026063889265060425, -0.023241180926561356, 0.02120988629758358, -0.008619814179837704, 0.004158219322562218, 0.011211693286895752, 0.016131648793816566, 0.01627674140036106, -0.0029216355178505182, -0.02738291211426258, 0.0009975109715014696, 0.006456616334617138, 0.020220618695020676, -0.019270922988653183, -0.006852323189377785, 0.0112050985917449, -0.011264454573392868, -0.030522186309099197, -0.016329502686858177, -0.008975950069725513, 0.0188356451690197, 0.01783318817615509, -0.008204321376979351, -0.03877926990389824, -0.0067929672077298164, 0.03276452422142029, 0.03893755003809929, -0.022067250683903694, -0.007485453970730305, -0.013770597986876965, 0.010901723057031631, 0.002786435652524233, 0.007947112433612347, 0.00826367735862732, 0.023109279572963715, 0.018571840599179268, 0.006677552592009306, 0.01919178105890751, -0.01741109974682331, -0.018176132813096046, -0.011435926891863346, -0.008237296715378761, 0.018228894099593163, -0.0010420279577374458, -0.010980864055454731, -0.014588391408324242, 0.006407152861356735, 0.006146646104753017, -0.0212758369743824, 0.00503536919131875, 0.02909764274954796, -0.0009257891215384007, -0.012820901349186897, -0.022885045036673546, -0.0061598364263772964, 0.0214341189712286, -0.015590849332511425, -0.021869396790862083, 0.002611665055155754, -0.006766586564481258, 0.008177940733730793, 0.017239628359675407, -0.015894224867224693, -0.02007552608847618, -0.0020642706658691168, -0.010842367075383663, -0.014311396516859531, 0.02114393562078476, -0.00854067225009203, 0.005863056052476168, 0.007511834613978863, -0.019139019772410393, 0.0004975189222022891, 0.005741046741604805, 0.014627962373197079, 0.024889959022402763, -0.013130871579051018, -0.004784754943102598, -0.014984098263084888, -0.01274835504591465, 0.012893447652459145, 0.002689157612621784, -0.006242275238037109, 0.015498517081141472, 0.035191528499126434, 0.03777681291103363, -0.01708134450018406, 0.017490241676568985, 0.029862675815820694, 0.015116000548005104, 0.00010011176345869899, -0.004468189552426338, 0.03226329758763313, 0.020418472588062286, -0.02156602218747139, 0.0032926106359809637, 0.024045784026384354, -0.015116000548005104, 0.026288123801350594, -0.01123807393014431, 0.03302833065390587, -0.013533173128962517, -0.029572490602731705, 0.01274835504591465, -0.015221523120999336, -0.018914787098765373, -0.11048134416341782, 0.01148209348320961, 0.00980693381279707, 0.0243623498827219, -0.019073069095611572, 0.016843920573592186, -0.00980693381279707, 0.022106820717453957, 0.0003825165913440287, 0.01965343952178955, -0.009457393549382687, -0.026169411838054657, -0.012372433207929134, -0.00727441068738699, 0.028860218822956085, 0.02016785740852356, 0.017305579036474228, 0.00559595413506031, -0.0017262710025534034, 0.001088193734176457, -0.003386590862646699, 0.0009793743956834078, 0.0193236842751503, 0.0007312332163564861, 0.003858141601085663, -0.017885949462652206, -0.02520652487874031, 0.035903800278902054, 0.008039443753659725, 0.007076557260006666, -0.017041774466633797, -0.005536598153412342, -0.0006764113786630332, -0.02582646533846855, -0.0037328344769775867, -0.008197726681828499, 0.007004010956734419, -0.03403078764677048, 0.010585157200694084, -0.01812337338924408, 0.002849089214578271, 0.028464511036872864, 0.007637141738086939, -0.036853495985269547, 0.013368295505642891, -0.034637536853551865, -0.0026561820413917303, 0.016514165326952934, -0.004629769828170538, -0.011013840325176716, -0.034479256719350815, -0.000626123626716435, -0.03310747072100639, -0.03648417070508003, 0.037011779844760895, -0.02523290552198887, 0.007096342276781797, 0.019112639129161835, -0.03300194814801216, -0.0049661207012832165, 0.030812371522188187, 0.01130402460694313, -0.010156475007534027, 0.012524121440947056, -0.011699731461703777, -0.005506920162588358, -0.005401398055255413, -0.00234291423112154, 0.02029976062476635, -0.03426821157336235, 0.0037822977174073458, 0.011884395033121109, 0.0025226310826838017, -0.006605006288737059, -0.02247614786028862, -0.012636237777769566, -0.022594859823584557, 0.021104363724589348, 0.01880926452577114, -0.010288377292454243, -0.018110182136297226, -0.01809699274599552, -0.005520110484212637, 0.005038667004555464, -0.0016388858202844858, 0.020405281335115433, 0.011554639786481857, -0.005487134680151939, 0.028016043826937675, -0.03563999384641647, 0.004181302152574062, 0.03880564868450165, 0.006130158435553312, -0.04476763308048248, -0.0028243574779480696, 0.006407152861356735, 0.038568224757909775, -0.011086386628448963, -0.02280590310692787, 0.016646066680550575, -0.030680470168590546, 0.0038614391814917326, -0.07191312313079834, 0.0036075273528695107, 0.01552489772439003, -0.007788829505443573, -0.006291738711297512, 0.012735164724290371, 0.02754119597375393, 0.007663522381335497, -0.009147422388195992, 0.02358412742614746, -0.0438443161547184, 0.0011368327541276813, -0.00234291423112154, -0.020181048661470413, -0.016395453363656998, -0.02432277984917164, 0.028174325823783875, -0.006558840628713369, -0.008375794626772404, 0.007933922111988068, 0.019930433481931686, 0.017951900139451027, 0.017134105786681175, -0.006120265461504459, -0.03880564868450165, -0.019838102161884308, -0.022687191143631935, 0.024955911561846733, -0.008210917003452778, 0.013144061900675297, 0.019864482805132866, -0.029994577169418335, -0.008982544764876366, 0.03851546347141266, -0.006364285014569759, -0.02692125365138054, -0.01743748039007187, 0.020115097984671593, 0.01057196781039238, 0.03706454113125801, -0.012220745906233788, -0.022067250683903694, 0.027488434687256813, -0.008600028231739998, -0.0031541131902486086, 0.008059228770434856, 0.005806997884064913, 0.009708007797598839, 0.014627962373197079, 0.006360987201333046, 0.0067105283960700035, 0.027936901897192, 0.003211820498108864, -0.03593017905950546, -0.013599124737083912, 0.035323429852724075, 0.0033272348809987307, 0.01060494314879179, 0.00210384139791131, -0.019864482805132866, 0.040810562670230865, 0.011613995768129826, 0.024692106992006302, 0.013467222452163696, -0.004613282158970833, -0.024612965062260628, 0.0063939630053937435, -1.0060124623123556e-05, 0.018083801493048668, -0.012675808742642403, -0.022713571786880493, -0.010209236294031143, 0.00786137580871582, 0.006067504640668631, 0.008639599196612835, -0.006502781994640827, -0.025681372731924057, -0.018756503239274025, -0.020576754584908485, 0.03078599087893963, -0.0015111054526641965, 0.013447437435388565, 0.004517653025686741, 0.021908968687057495, 0.010215830989181995, -0.00825048703700304, -0.0386473685503006, -0.017200056463479996, -0.003795488039031625, 0.020642707124352455, -0.0019439097959548235, 0.02273995243012905, 0.012412004172801971, 0.0030964058823883533, -0.01792551949620247, 0.013770597986876965, -0.018730122596025467, -0.010413684882223606, -0.01247136015444994, 0.014904957264661789, -0.020220618695020676, 0.03727558255195618, -0.00817134603857994, -0.03935964033007622, -0.010512611828744411, -0.006687445566058159, -0.025931987911462784, -0.03959706425666809, -0.0019571001175791025, 0.013862929306924343, -0.010097119025886059, 0.012900042347609997, 0.017780426889657974, -0.0034393519163131714, 0.019666628912091255, 0.004784754</t>
+  </si>
+  <si>
+    <t>[-0.027037041261792183, -0.020212912932038307, 0.005114852916449308, -0.03334222733974457, -0.022574113681912422, 0.0058705671690404415, -0.005838132929056883, -0.0193307064473629, -0.007849045097827911, 0.0058284024707973, -0.011883843690156937, -0.0057213702239096165, -0.04535580426454544, -0.025272628292441368, -0.02245735190808773, -0.007589572574943304, 0.03521042689681053, -0.008517187088727951, -0.010301060974597931, -0.02851603552699089, -0.012960654683411121, 0.014413701370358467, 0.016528403386473656, -0.003583964891731739, 0.014232070185244083, -0.02825656346976757, 0.01520509272813797, -0.020576175302267075, -0.004654289223253727, 0.004209942650049925, 0.010832980275154114, 0.007180903572589159, -0.015282934531569481, -0.008270688354969025, -0.015568354167044163, -0.0286976657807827, 0.015698090195655823, 0.006554925814270973, 0.0022120035719126463, -0.004492118954658508, 0.012454683892428875, 0.01873392052948475, 0.010528099723160267, -0.004537526518106461, -0.02040751837193966, 0.021834617480635643, 0.0014360185014083982, 0.0015316990902647376, -0.0030666415113955736, 0.0027293271850794554, 0.02088754251599312, 0.032174598425626755, -0.02698514796793461, -6.005370960338041e-05, -0.022989269345998764, -0.03873925656080246, -0.011377871967852116, -0.006639254279434681, 0.03438011556863785, -0.025298576802015305, -0.00455374363809824, 0.008822067640721798, -0.028204668313264847, 0.01769602857530117, 0.0065062749199569225, -0.0237157940864563, -0.036715369671583176, 0.00689548347145319, -0.00836150348186493, 0.0005740830674767494, 0.01610027253627777, 0.0184355266392231, 0.0012324947165325284, -0.0016622461844235659, 0.03847978264093399, -0.009626432321965694, -0.004297514446079731, 0.02843819372355938, 0.029917187988758087, 0.006804668344557285, 0.00455374363809824, -0.029424190521240234, 0.006019763648509979, 0.054333556443452835, 0.007667414378374815, 0.03738999739289284, -0.004631585441529751, 0.01620406284928322, -0.016217036172747612, -0.008543134666979313, -0.004920248873531818, -0.0186301302164793, -0.02253519371151924, 0.000836799037642777, 0.0050207944586873055, 0.005951652303338051, -0.0067787207663059235, 0.010424310341477394, -0.0075765992514789104, -0.007719309069216251, 0.00283473776653409, 0.007849045097827911, -0.014491543173789978, -0.03048802725970745, -0.05015604943037033, -0.016969505697488785, 0.018422553315758705, -0.0027650045230984688, 0.03194107487797737, -0.00316070020198822, 0.0015876478282734752, 0.04374707490205765, 0.004809972830116749, -0.03884304314851761, -0.015749985352158546, -0.008004728704690933, -0.0037234313786029816, 0.0007881479687057436, 0.021990301087498665, -0.015672143548727036, 0.013388784602284431, 0.011202728375792503, 0.0027520309668034315, -0.017086269333958626, 0.02535047009587288, 0.00021852455392945558, -0.02253519371151924, -0.0032125948928296566, -0.02580454759299755, -0.010657835751771927, -0.002758517861366272, 0.004702940583229065, 0.014206123538315296, 0.004809972830116749, -0.014621279202401638, 0.0029677175916731358, -0.024377448484301567, 0.041437771171331406, -0.01408936083316803, 0.000460969255072996, 0.03847978264093399, 0.01955125853419304, 0.001808199449442327, 0.00260283425450325, -0.020718885585665703, 0.0498187355697155, -0.007524704560637474, 0.04561527818441391, -0.015036435797810555, 0.008166898973286152, 0.037831101566553116, -0.02036859653890133, -0.007531191222369671, 0.009801576845347881, 0.019239891320466995, 0.027763566002249718, 0.017747923731803894, 0.009814550168812275, -0.008056623861193657, 0.0128049710765481, -0.007291179150342941, 0.02230166830122471, -0.0004119127115700394, -0.009568051435053349, 0.01568511687219143, 0.035184480249881744, 0.015412670560181141, -0.014232070185244083, 0.006966838613152504, -0.006084631662815809, 0.0026936496142297983, 0.020498333498835564, -0.028879297897219658, 0.04078909009695053, 0.002490936778485775, 0.02836035192012787, 0.005497575271874666, 0.013116338290274143, -0.0011035692878067493, -0.010768111795186996, -0.013142285868525505, -0.015918642282485962, 0.02309305965900421, -0.0034801759757101536, -0.021795695647597313, 0.0015089951921254396, 0.0009949151426553726, 0.004709427244961262, 0.023547135293483734, -0.01442667469382286, 0.0014238557778298855, 0.009606972336769104, -0.005124583374708891, -0.015711063519120216, -0.6472283601760864, 0.010495665483176708, -0.01791658066213131, -0.0068630496971309185, -0.007511730771511793, 0.014491543173789978, 0.025376416742801666, 0.011682752519845963, -0.02297629602253437, -0.023106032982468605, 0.006334374193102121, 0.02134162001311779, 0.014258017763495445, -0.021134041249752045, -0.025311550125479698, -0.002995286602526903, 0.010657835751771927, -0.039647407829761505, 0.007874992676079273, 0.01256495900452137, -0.024675842374563217, 0.02416986972093582, -0.013635283336043358, 0.009366960264742374, -0.005507305264472961, 0.010132404044270515, 0.013492573983967304, -0.023521188646554947, -0.017293846234679222, -0.007725795730948448, -0.005144043825566769, 4.5433040213538334e-05, -0.006661958526819944, 0.022807639092206955, 0.04055556282401085, 0.041645348072052, -0.006843589246273041, 0.025752652436494827, 0.004920248873531818, 0.029657715931534767, -0.020641043782234192, -0.0004925924586132169, 0.02877550758421421, -0.006850075908005238, 0.02112106792628765, 0.018266869708895683, 0.03632615879178047, 0.01955125853419304, -0.004676993004977703, -0.0177349504083395, 0.005941921845078468, -0.01264280080795288, -0.012052500620484352, 0.01765710860490799, 0.0071419826708734035, 0.011163807474076748, 0.03155186399817467, -0.026595938950777054, -0.0012397924438118935, 0.017566293478012085, -0.006026250310242176, 0.0019055017037317157, -0.017709003761410713, -0.0053808125667274, -0.0067138527520000935, 0.02253519371151924, -0.016009457409381866, -0.003241785569116473, -0.0050078206695616245, -0.00701873330399394, 0.00551054859533906, 0.021471355110406876, -0.028645772486925125, -0.001117353793233633, 0.00025075592566281557, 0.015269961208105087, -0.0023320098407566547, -0.007654441054910421, 0.0012479008873924613, 0.02164001204073429, 0.016748955473303795, 0.003011503489688039, -0.007291179150342941, 0.003840194083750248, 0.026349440217018127, 0.01494562067091465, -0.008465292863547802, -0.005273779854178429, 0.008724764920771122, 0.014478569850325584, 0.010249166749417782, -0.0054002730175852776, -0.023261716589331627, -0.020459411665797234, 0.004631585441529751, 0.021847590804100037, 0.0099637471139431, 0.02096538431942463, 0.011085965670645237, -0.01955125853419304, -0.014802910387516022, 0.00849123951047659, 0.004991603549569845, 0.01100163720548153, 0.0015698090428486466, 0.018863655626773834, -0.030851289629936218, 0.003898575436323881, 0.039310093969106674, -0.014660200104117393, -0.010936768725514412, 0.02315792627632618, -0.009250197559595108, -0.015853773802518845, -0.008134464733302593, -0.01873392052948475, 0.01721600443124771, 0.008899909444153309, 0.02453313209116459, -0.015023461543023586, 0.0183317381888628, 0.0024179599713534117, -0.0046153683215379715, -0.01403746660798788, 0.006613307166844606, 0.0072068506851792336, 0.024442316964268684, -0.019434494897723198, -0.03513258695602417, -0.004748348146677017, 0.015127250924706459, -0.004962413106113672, 0.014906699769198895, -0.022210853174328804, 0.018189027905464172, 0.015295907855033875, 0.02688135951757431, -0.019680995494127274, -0.0066360109485685825, -0.014283965341746807, -0.016217036172747612, -0.017903607338666916, 0.012409275397658348, -0.007317126728594303, 0.0008692331030033529, -0.02040751837193966, -0.017423583194613457, 0.009366960264742374, -0.007907426916062832, 0.0015276448102667928, -0.021159987896680832, 0.003973173908889294, -0.006888996809720993, 0.012156290002167225, 0.017942529171705246, 0.01403746660798788, -0.015295907855033875, -0.009243709966540337, -0.01555538084357977, -3.544942592270672e-05, 0.012033040635287762, 0.0076284934766590595, -0.03432822227478027, 0.020277781412005424, 0.003687754040583968, -0.0027325705159455538, -0.011254622600972652, -0.018240921199321747, -0.027270566672086716, -0.018279843032360077, -0.025376416742801666, -0.00284933322109282, -0.02357308380305767, 0.026440255343914032, 0.009399393573403358, 0.013803941197693348, -0.005371082108467817, -0.015594301745295525, -0.023521188646554947, -0.010995150543749332, 0.006522492039948702, 0.0047159139066934586, -0.023067111149430275, -0.02413094975054264, 0.007738769520074129, 0.012668748386204243, 0.023624977096915245, -0.004073719494044781, -0.02200327441096306, 0.02271682396531105, 0.022288694977760315, 0.0013500682543963194, -0.001697923638857901, -0.02427366003394127, -0.009036132134497166, -0.014504516497254372, -0.011280570179224014, 0.008562594652175903, -0.0031104274094104767, 0.02267790213227272, 0.02836035192012787, 0.03142212703824043, 0.01702140085399151, -0.016515430063009262, 0.00028075743466615677, -0.03949172422289848, 0.02196435257792473, -0.024481236934661865, 0.04628990590572357, 0.0021147015504539013, 0.018500395119190216, -0.0318891778588295, -0.01646353490650654, -0.0019687481690198183, 0.013829887844622135, -0.004038041923195124, 0.016191087663173676, -0.011228675954043865, -0.04039987921714783, 0.01550348661839962, 0.008685844019055367, -0.014984541572630405, 0.003707214491441846, 0.0013484464725479484, -0.01331094279885292, 0.018526341766119003, 0.00609760545194149, 0.03497690334916115, -0.011702213436365128, -0.02148432843387127, -0.002422825200483203, 0.0016784631880000234, -0.018604183569550514, 0.017929553985595703, -0.014283965341746807, 0.011008123867213726, 0.004200212191790342, -0.022742770612239838, 0.02007020264863968, 0.016969505697488785, 0.007304152939468622, 0.029527978971600533, 0.030384238809347153, 0.032953016459941864, -0.010346468538045883, -0.0028655503410845995, 0.01580188050866127, 0.014932646416127682, 0.004235889762639999, -0.007051167078316212, -0.038791149854660034, -0.01572403870522976, -0.004041285254061222, -0.004761321935802698, -0.015425644814968109, 0.010813519358634949, 0.009198302403092384, 3.843944432446733e-05, 0.003280706238001585, 0.01107947900891304, 0.0056078508496284485, 0.011436253786087036, -0.0013143907999619842, 0.008672870695590973, 0.0008449075394310057, -0.0015146711375564337, 0.0011733025312423706, -0.010339981876313686, -0.011345438659191132, -0.02200327441096306, 0.002244437811896205, -0.001517914584837854, -0.01955125853419304, 0.008400424383580685, -0.007849045097827911, -0.0028412246610969305, -0.0021909214556217194, -0.024520158767700195, 0.006979812402278185, 0.017008427530527115, -0.002031994517892599, -0.016710033640265465, -0.00873773917555809, 0.014245044440031052, 0.013142285868525505, 0.0027147317305207253, -0.020550228655338287, -0.0031201576348394156, -0.03204486146569252, 0.015127250924706459, -0.021237829700112343, 0.0014781828504055738, -0.01639866642653942, -0.006168960593640804, -0.017864687368273735, 0.004316974896937609, -0.014958593994379044, -0.017527371644973755, 0.019460443407297134, -0.01083946693688631, -0.009717247448861599, 0.000110275846964214, -0.003956956788897514, 0.0006592224817723036, 0.013239587657153606, 0.001005456200800836, 0.0033082752488553524, -0.009950772859156132, -0.026959199458360672, 0.016826797276735306, -0.006464110687375069, 0.00275527429766953, 0.01761818863451481, -0.010930282063782215, 0.01940854825079441, 9.040997247211635e-05, -0.0011789784766733646, 0.015451591461896896, 0.031318340450525284, -0.010080509819090366, -0.003450985299423337, -0.043254077434539795, -0.033549804240465164, -0.012441709637641907, 0.07441673427820206, 0.013038496486842632, -0.024481236934661865, -0.0005234048585407436, -0.0058284024707973, -0.0036326160188764334, -0.024377448484301567, -0.0008384207612834871, 0.007472810335457325, 0.012311973609030247, -0.008815580978989601, -0.032771386206150055, 0.01616514101624489, 0.02066699042916298, -0.011864383704960346, -0.005406759679317474, 0.00037887049256823957, 0.013194180093705654, 0.031837284564971924, 0.02494828775525093, 0.010009154677391052, -0.012551985681056976, -0.007057654205709696, 0.021808668971061707, 0.015620249323546886, 0.0021276751067489386, -0.0030861019622534513, 0.0023855259642004967, -0.024481236934661865, -0.03754568099975586, 0.010612428188323975, -0.005095392465591431, -0.0008659897139295936, -0.005984086077660322, -0.017384663224220276, 0.04167129471898079, -0.01840957999229431, 0.018448499962687492, -0.007064140867441893, 0.0067138527520000935, 0.015399697236716747, 0.009658866561949253, -0.007557138800621033, 0.009931312873959541, -0.007381994742900133, -0.01632082462310791, -0.0091658690944314, 0.032174598425626755, -0.014322886243462563, -0.03297896310687065, 0.0490143708884716, -0.0023368748370558023, -0.005568929947912693, -0.010138890706002712, 0.014686147682368755, -0.017449529841542244, -0.001808199449442327, 0.023002244532108307, -0.008958290331065655, 0.011416792869567871, -0.009120460599660873, -0.029009032994508743, 6.664187822025269e-05, 0.0063278875313699245, -0.02895713970065117, 0.0040153381414711475, -0.01755332015454769, 0.0005298916366882622, -0.0039796605706214905, -0.019136102870106697, -0.017203031107783318, -0.021432435140013695, 0.0021747045684605837, -0.004320218227803707, 0.027789512649178505, -0.002456880873069167, 0.0037331616040319204, -0.016748955473303795, -0.010132404044270515, 0.023521188646554947, 0.0028979843482375145, -0.00972373504191637, -0.028671719133853912, -0.026051046326756477, 0.0007293611997738481, 0.02516883984208107, 0.02114701457321644, -0.02970960922539234, -0.03108481504023075, 0.026673780754208565, -0.015036435797810555, 0.01442667469382286, 0.013700151816010475, 0.00421967264264822, 0.006837102118879557, -0.006733313202857971, 0.00843934528529644, 0.005448923911899328, 0.02112106792628765, -0.01687869057059288, 0.005572173744440079, 0.023041164502501488, -0.01743655651807785, 0.011066505685448647, 0.01576295867562294, 0.014699121005833149, -0.02483152598142624, -0.01769602857530117, 0.01126110926270485, 0.017825765535235405, 0.013038496486842632, -0.016710033640265465, 0.005932191852480173, -0.0028769022319465876, -0.031655654311180115, -0.006603577174246311, -0.01507535669952631, 0.03790894150733948, 0.015321855433285236, 7.16590293450281e-05, -0.005458654370158911, -0.03282327950000763, 0.012629827484488487, 0.026647834107279778, -0.03744189068675041, 0.016515430063009262, -0.02293737605214119, 0.0015625114319846034, 0.0031509699765592813, -0.016307851299643517, -0.014738041907548904, 0.031396180391311646, -0.01781279221177101, -0.007654441054910421, -0.03744189068675041, -0.018422553315758705, -0.003201242769137025, 0.010962716303765774, -0.011922764591872692, -0.006921431049704552, -0.017228979617357254, 0.017384663224220276, 0.007161443121731281, -0.014478569850325584, -0.00016267714090645313, -0.027011094614863396, 0.004057502374053001, -0.01761818863451481, -0.01847444660961628, 0.016268929466605186, 0.021458381786942482, 0.020602121949195862, -0.023106032982468605, -0.002578508807346225, 0.018422553315758705, -0.027011094614863396, -0.010865413583815098, -0.015360776335000992, 0.01952531188726425, 0.01765710860490799, 0.025454258546233177, -0.0039147925563156605, 0.022613035514950752, -0.022768719121813774, -0.0022898453753441572, 0.010554047301411629, 0.001411692937836051, 0.015477539040148258, -0.01799442246556282, 0.007232797797769308, -0.012980115599930286, 0.012519551441073418, -0.025441285222768784, -0.007777690421789885, -0.00464780256152153, 0.02134162001311779, 0.007537678349763155, -0.005176478065550327, -0.024481236934661865, -0.005296484101563692, 0.0034639588557183743, -0.009600485675036907, 0.0006592224817723036, 0.0286976657807827, -0.01691761240363121, 0.02237951010465622, 0.0245071854442358, 0.00041211541974917054, 0.016930585727095604, 0.0023839042987674475, 0.01665813848376274, -0.03175944462418556, 0.03175944462418556, -0.008841527625918388, -0.019395574927330017, 0.009859957732260227, -0.018824735656380653, -0.03557369112968445, 0.004518066067248583, 0.023443346843123436, 0.016593271866440773, -0.018344711512327194, 0.014011519029736519, -0.006237071938812733, -0.014154229313135147, 0.01735871471464634, -0.0025314793456345797, -0.005611094180494547, -0.011903304606676102, -0.017008427530527115, -0.03733810409903526, -0.01646353490650654, 0.004453198052942753, -0.03022855520248413, 0.01275307685136795, 0.0062922099605202675, -0.00775174330919981, 0.017306821420788765, -0.020161019638180733, -0.004456441383808851, 0.0178387388586998, -0.009892391972243786, 0.037753257900476456, 0.01755332015454769, 0.012279539369046688, 0.007874992676079273, -0.014478569850325584, -0.002145513892173767, 0.027270566672086716, 0.00921776331961155, 0.008225280791521072, 0.02542831189930439, 0.02895713970065117, 0.02148432843387127, -0.021730827167630196, -0.032589755952358246, 0.009321551769971848, -0.006509518250823021, -0.01955125853419304, 0.016191087663173676, 0.005795968696475029, 0.01174762099981308, -0.022483298555016518, 0.0005359730566851795, -0.011358411982655525, 0.009730221703648567, -0.02921661175787449, 0.00332773569971323, -0.016048379242420197, -0.022210853174328804, -0.008024189621210098, 0.017293846234679222, -0.012240618467330933, 0.023884451016783714, -0.012941194698214531, -0.008108518086373806, 0.0027082450687885284, -0.005559199955314398, -0.048754896968603134, 0.024481236934661865, 0.023624977096915245, 0.01695653237402439, -0.009139921516180038, 0.003921279218047857, 0.01587972231209278, 0.004456441383808851, -0.020122097805142403, -0.013297969475388527, 0.01243522297590971, 0.025856442749500275, -0.007343073841184378, 0.005646771751344204, -0.0010103213135153055, 0.005640285089612007, -0.0013314186362549663, -0.003703970927745104, -9.861985017778352e-05, -0.0004719157295767218, -0.014387753792107105, -0.023897424340248108, -0.0030179903842508793, -0.005795968696475029, -0.006418702658265829, -0.01892852410674095, 0.009341012686491013, 0.0031298878602683544, -0.03733810409903526, -0.007453349884599447, 0.01094974298030138, -0.002554183127358556, -0.018656078726053238, -0.021756775677204132, 0.010190784931182861, 0.03041018545627594, -0.015659170225262642, 0.006772234104573727, -0.005734344013035297, 0.044369809329509735, -0.024027159437537193, 0.021134041249752045, -0.02580454759299755, -0.0007054410525597632, 0.0020238859578967094, -0.01650245487689972, -0.008030676282942295, -0.012311973609030247, 0.00974319502711296, -0.0021503788884729147, -0.027945196256041527, -0.019421521574258804, -0.0030877236276865005, 0.01187735702842474, 0.009198302403092384, -0.035418007522821426, 0.0053289178758859634, -0.011773567646741867, 0.00015821745910216123, -0.0028541982173919678, -0.024143923074007034, 0.03342006728053093, -0.006522492039948702, 0.004466171842068434, 0.019693968817591667, -0.026375386863946915, -0.008530160412192345, 0.008685844019055367, 0.014738041907548904, 0.007771203760057688, -0.018980419263243675, -0.0064705973491072655, 0.004183995071798563, 0.018656078726053238, -0.0029206881299614906, -0.0032563807908445597, -0.020290754735469818, -0.028671719133853912, -0.03186323121190071, 0.0021682176738977432, -0.007129008881747723, -0.02538939192891121, -0.004420763812959194, 0.03876520320773125, 0.007330100052058697, 0.029657715931534767, -0.011942225508391857, 0.0066360109485685825, -0.02877550758421421, -0.012720642611384392, -0.03282327950000763, -0.013168233446776867, -0.030773447826504707, 0.028308458626270294, 0.013006063178181648, -0.014180175960063934, -0.03591100499033928, 0.003441255073994398, -0.018578236922621727, 0.009808063507080078, -0.01781279221177101, 0.010229705832898617, 0.007933373562991619, 0.016943559050559998, -0.018461473286151886, 0.013674204237759113, -0.012655775062739849, 0.039906881749629974, -0.019395574927330017, 0.006554925814270973, 0.02416986972093582, -0.03432822227478027, 0.0161391943693161, 0.005273779854178429, -0.021575143560767174, -0.013135799206793308, 0.034925010055303574, 0.007972294464707375, 0.011663292534649372, 0.00514080049470067, -0.006888996809720993, -0.002576886909082532, 0.005617581307888031, 0.019136102870106697, 0.016178114339709282, 0.002612564479932189, 0.02698514796793461, -0.019136102870106697, -0.007479296997189522, -0.02442934364080429, -0.010099969804286957, -0.002403364749625325, -0.008387451060116291, -0.013687178492546082, 0.00424886355176568, 0.01057350728660822, -0.0065841167233884335, 0.0021844347938895226, -0.0030309639405459166, 0.007381994742900133, 0.03048802725970745, -0.005841376259922981, -0.0024179599713534117, -0.004132100846618414, 0.014361807145178318, -0.010813519358634949, -0.02765977568924427, 0.0006786829326301813, -0.018007395789027214, -0.008270688354969025, -0.0057862382382154465, -0.00990536529570818, 0.0013687178725376725, -0.009937799535691738, 0.003438011510297656, 0.007609033025801182, 0.006340860854834318, -0.006953864824026823, -0.005789481569081545, -0.01632082462310791, 0.02353416197001934, -0.005971112754195929, -0.028204668313264847, -0.0077128224074840546, -0.00721333734691143, -0.014309911988675594, 0.0018682025838643312, -0.02018696628510952, -0.012766050174832344, -0.032511912286281586, -0.007784177083522081, -0.01273361686617136, -0.03412064164876938, -0.009120460599660873, -0.011390846222639084, 0.006483571138232946, -0.0045829345472157, -0.020576175302267075, 0.20840837061405182, -0.02212003618478775, -0.024598000571131706, 0.032252442091703415, 0.001316823298111558, 0.022145984694361687, 0.011163807474076748, 0.004316974896937609, -0.00587381049990654, 0.017903607338666916, -0.020420491695404053, 0.03152591735124588, -0.007135495543479919, 0.004621854983270168, -0.00563379842787981, -0.017125189304351807, -0.027867354452610016, -0.025558048859238625, -0.007777690421789885, 0.00474186148494482, 0.012727129273116589, -0.014971567317843437, -0.003295301692560315, -0.0069279177114367485, -0.0031542135402560234, 0.002088754205033183, -0.00077598518691957, -0.000804364972282201, 0.058796484023332596, 0.01661921851336956, -0.00974319502711296, -0.004171021748334169, -0.004183995071798563, -0.026038073003292084, -0.010132404044270515, 0.006263019051402807, -0.0019022582564502954, -0.010579993948340416, 0.04091882333159447, -0.002669324167072773, -0.01288281287997961, -0.0016703547444194555, -0.015892695635557175, 0.010554047301411629, -0.0047288876958191395, 0.01331094279885292, 0.0012941195163875818, -0.001083298004232347, 0.016671113669872284, 0.015036435797810555, -0.025532100349664688, -0.014361807145178318, 0.008608002215623856, 0.054748713970184326, 0.006869536358863115, -0.01576295867562294, 0.007116035092622042, 0.014893725514411926, 0.007777690421789885, -0.0033212490379810333, -0.03549584746360779, 0.01709924265742302, -0.0029304183553904295, 0.01144922710955143, -0.002208760241046548, 0.00010003883653553203, -0.016009457409381866, 0.004904031753540039, -0.01020375918596983, 0.00531594455242157, -0.0004966467386111617, -0.018189027905464172, -0.01421909686177969, -0.04021824896335602, 0.007570112124085426, -0.024883419275283813, 0.03969930484890938, -0.0029174447990953922, 0.030254501849412918, 0.025116944685578346, -0.013064444065093994, -0.010171324945986271, -0.005173234269022942, 0.01009348314255476, 0.00461861165240407, -0.010904334485530853, 0.008205819875001907, 0.005903000943362713, -0.020848620682954788, -0.0193307064473629, 0.004287784453481436, -0.0031720520928502083, -0.0005797590129077435, 0.004122370388358831, 0.016969505697488785, 0.003069884842261672, 0.025960231199860573, 0.03108481504023075, -0.0028298727702349424, -0.010074022226035595, -0.02903498150408268, -0.02524668164551258, 0.005951652303338051, 0.014413701370358467, -0.01695653237402439, 0.0034704457502812147, -0.0009535616845823824, -0.012058988213539124, 0.003830463858321309, -0.006817641668021679, 0.0028931191191077232, -0.02442934364080429, -2.3464022888219915e-05, -0.007926886901259422, 0.00683061545714736, 0.020238861441612244, 0.0018503637984395027, -0.007745256181806326, 0.030903182923793793, -0.013687178492546082, 0.005322431214153767, -0.029009032994508743, 0.000761795265134424, 0.0010614049388095737, 0.005883540492504835, -0.03476932644844055, -0.016684086993336678, 0.010210245847702026, 0.005280266981571913, -0.011423280462622643, -0.0010784328915178776, -0.0065354653634130955, 0.01709924265742302, 0.011228675954043865, -0.015866747125983238, -0.02000533603131771, -0.007952834479510784, 0.0011214080732315779, 0.01096920296549797, 0.01817605458199978, 0.008971264585852623, -0.0026255380362272263, -0.00788147933781147, -0.024027159437537193, 0.007252258248627186, -0.01951233670115471, -0.009023158811032772, 0.008802606724202633, 0.005854350049048662, -0.003337465925142169, -0.00018011045176535845, -0.02361200377345085, -0.014491543173789978, -0.03160376101732254, 0.016969505697488785, -0.027530040591955185, -0.0036553198006004095, -0.010923795402050018, -0.0027293271850794554, 0.00350936665199697, -0.020161019638180733, 0.017527371644973755, 0.0286976657807827, 0.01241576299071312, 0.0060651712119579315, 0.023002244532108307, -0.16294877231121063, 0.03936199098825455, 0.01353149488568306, -0.0022038952447474003, 0.01434883289039135, -0.020290754735469818, -0.0008943694992922246, 0.015788905322551727, -0.02282061241567135, 0.01555538084357977, 0.006616550497710705, 0.0030552896205335855, -0.030384238809347153, -0.014673174358904362, -0.0024212035350501537, 0.011514095589518547, -0.018720945343375206, 0.001284389290958643, 0.02446826361119747, 0.02409202791750431, 0.009671839885413647, -0.012350894510746002, 0.023106032982468605, 0.013544468209147453, 0.010255653411149979, 0.015737012028694153, -0.0038791149854660034, 0.004702940583229065, 0.002343361731618643, -0.00825122743844986, -0.015711063519120216, -0.006541952025145292, 0.031733494251966476, -0.0192269179970026, 0.02512991800904274, 0.007051167078316212, -0.030955078080296516, -0.022366534918546677, -0.02018696628510952, 0.004294271115213633, 0.011176780797541142, 0.004787269048392773, 0.00867935735732317, -0.025934284552931786, 0.011014610528945923, 0.02807493321597576, 0.0014295317232608795, -0.01185789704322815, 0.012363867834210396, 0.00026231055380776525, 0.04691264033317566, -0.0023271446116268635, 0.011137859895825386, 0.010067535564303398, -0.0005915163783356547, 0.036715369671583176, 0.010820006020367146, 0.0168397706001997, -0.00987293105572462, -0.004881327971816063, 0.006324644200503826, -0.03186323121190071, 0.0028055470902472734, -0.013907729648053646, -0.019421521574258804, -0.027166778221726418, -0.002319036051630974, 0.0246109738945961, 0.0011124886805191636, -0.0005566497566178441, 0.004670506343245506, -0.00788147933781147, 0.004608881659805775, 0.00849123951047659, -0.0015608896501362324, 0.02004425600171089, 0.017008427530527115, -0.025013156235218048, 0.02516883984208107, 0.015179145149886608, -0.027945196256041527, 0.006973325274884701, -0.039647407829761505, -0.003305031917989254, -0.004991603549569845, -0.016333797946572304, -0.017410609871149063, 0.016385693103075027, -0.015568354167044163, 0.010696756653487682, -0.016074325889348984, -0.013187693431973457, 0.013505547307431698, -0.008828554302453995, 0.017306821420788765, 0.017929553985595703, -0.029009032994508743, 0.011034071445465088, 0.007180903572589159, -0.00045407700235955417, -0.004939709324389696, 0.0215232502669096, -0.0224184300750494, 0.00010348496289225295, 0.023222794756293297, 0.024377448484301567, 0.010975689627230167, 0.02616780810058117, 0.032174598425626755, 0.002333631506189704, -0.0002785275864880532, 0.0285938773304224, 0.0024585025385022163, 0.035002849996089935, -0.0028736586682498455, 0.027374356985092163, 0.022353561595082283, -0.001637109788134694, 0.031396180391311646, 0.005611094180494547, 0.024559078738093376, -0.033030860126018524, -0.026557017117738724, 0.0015454834792762995, -0.012941194698214531, -0.0007808502996340394, -0.09169761091470718, -0.011695725843310356, -0.011332464404404163, -0.009438314475119114, -0.016645165160298347, 0.0044499547220766544, -0.004472658503800631, 0.014841831289231777, 0.021276751533150673, 0.002659593941643834, -0.021575143560767174, 5.06022188346833e-05, 0.04587475210428238, -0.0005246211076155305, 0.05428166314959526, 0.0029677175916731358, 0.0004804296768270433, 0.02970960922539234, -0.004929978866130114, 0.011721673421561718, -0.009632918983697891, 0.013777993619441986, 0.005332161206752062, -0.011598424054682255, -0.004495362285524607, 0.023339558392763138, -0.00625653238967061, 0.01721600443124771, 0.02327468991279602, 0.01126110926270485, -0.010599454864859581, -0.017851712182164192, -0.007103061769157648, -0.015827827155590057, 0.011060018092393875, 0.0003861681616399437, 0.004670506343245506, -0.020420491695404053, 0.03399090841412544, -0.02104322612285614, 0.0099637471139431, 0.012097909115254879, 0.012389815412461758, -0.04872895032167435, 0.01643758825957775, -0.015827827155590057, -0.01761818863451481, 0.023858502507209778, -0.0005278644966892898, -0.02197732776403427, -0.034068748354911804, 0.002957987366244197, -0.03609263524413109, 0.002576886909082532, 0.02724462002515793, 0.0065841167233884335, -0.012571446597576141, 0.005033767782151699, -0.019473416730761528, -0.03497690334916115, 0.014634253457188606, 0.007479296997189522, 0.002088754205033183, 0.008504213765263557, 0.017890634015202522, 0.015347803011536598, -0.02535047009587288, 0.00022663307026959956, 0.011351925320923328, -0.006966838613152504, -0.006061927881091833, -0.025674810633063316, -0.018643103539943695, -0.0007658495451323688, -0.028282510116696358, -0.02186056412756443, -0.017929553985595703, 0.005228372290730476, -0.004725644364953041, -0.02672567591071129, 0.014024492353200912, -0.005134313367307186, 0.012240618467330933, -0.007784177083522081, 0.010638375766575336, 0.010086996480822563, 0.005173234269022942, 0.0019946955144405365, -0.004754834808409214, -0.012097909115254879, 0.0063570779748260975, 0.041697241365909576, -0.009671839885413647, -0.026829464361071587, -0.017410609871149063, 0.023326585069298744, 0.011442740447819233, 0.006759260315448046, 0.017228979617357254, 0.009379933588206768, -0.029787451028823853, -0.019564231857657433, -0.07586978375911713, 0.01421909686177969, 0.022184904664754868, -0.011961685493588448, -0.003447741735726595, 0.03321249037981033, 0.01918799616396427, 0.007894452661275864, 0.03404280170798302, 0.010080509819090366, -0.03196702152490616, -0.006253289058804512, 0.016969505697488785, -0.005348378326743841, -0.02204219438135624, -0.02212003618478775, 0.021069172769784927, 0.0010119429789483547, 0.0033763868268579245, 0.007505244109779596, 0.015581328421831131, -0.011553016491234303, 0.025103971362113953, 0.023767687380313873, -0.021458381786942482, 0.005163504276424646, -0.021315671503543854, 0.03837599232792854, -0.00908802729099989, 0.004796999040991068, 0.020498333498835564, -0.025895362719893456, 0.010858926922082901, 0.03728620707988739, -0.000761795265134424, -0.017151137813925743, -0.041541557759046555, 0.016489481553435326, 0.013648257590830326, 0.03762352466583252, -0.03111076168715954, -0.0029985299333930016, 0.004959169775247574, -0.018020370975136757, -0.010151864029467106, 0.0011684374185279012, 0.012071961537003517, 0.0055429828353226185, 0.009503182955086231, -0.004119127057492733, -0.002408229745924473, 0.019084207713603973, 0.027374356985092163, -0.029268506914377213, -0.003215838223695755, 0.013855835422873497, 0.0040445285849273205, 0.030721552670001984, -0.004706183914095163, 0.0010524856625124812, 0.030436132103204727, 0.011481661349534988, 0.023300636559724808, -0.0016144058899953961, -0.00918532907962799, -0.04545959457755089, 0.006026250310242176, -0.007784177083522081, 0.00219740835018456, -0.04193076863884926, -0.010729190893471241, 0.0036423462443053722, 0.005847862921655178, 0.0013581766979768872, 0.011163807474076748, -0.025078024715185165, -0.01687869057059288, -0.01386880874633789, -0.021549196913838387, 0.0374678410589695, -0.012727129273116589, 0.021198909729719162, -0.023222794756293297, 0.030643710866570473, 0.020083177834749222, 0.0033861170522868633, -0.01731979474425316, -0.02750409208238125, 0.005880297161638737, 0.008426371961832047, -0.0007427402306348085, 0.02688135951757431, 0.007868506014347076, 0.002477962989360094, -0.005740830674767494, 0.009379933588206768, -0.01606135256588459, -0.040581509470939636, 0.027530040591955185, 0.012266566045582294, -0.009263170883059502, 0.00659060338512063, -0.014413701370358467, -0.02464989386498928, -0.016009457409381866, 0.016865717247128487, -0.022107062861323357, -0.0214194618165493, 0.031318340450525284, 0.031733494251966476, -0.008017702959477901, 0.0005225939676165581, 0.002657972276210785, -0.0065354653634130955, 0.0065354653634130955, 0</t>
+  </si>
+  <si>
+    <t>[-0.023663191124796867, -0.006821535527706146, 0.002633290132507682, -0.021991059184074402, -0.01447913609445095, 0.01314903236925602, -0.004934053868055344, 0.004021982196718454, 0.006992548704147339, -0.004956222139298916, 0.011983606964349747, -0.00640666950494051, -0.008474664762616158, -0.025183310732245445, -0.013845753856003284, -0.0035912818275392056, 0.022320417687296867, -0.005067064426839352, 0.0023530179169028997, -0.046008944511413574, 0.004785208962857723, -0.004759873729199171, -0.017101341858506203, -0.02149702049791813, 0.010235469788312912, -0.023257825523614883, 0.021864382550120354, -0.023055143654346466, 0.001890648389235139, 0.0006116104777902365, 0.004725037608295679, -0.0049403877928853035, -0.012673994526267052, -0.020458271726965904, -0.020369598641991615, -0.013693741522729397, 0.01941952481865883, 0.0009730347082950175, 0.01209128275513649, -0.01787406951189041, 0.014352459460496902, 0.0069798813201487064, 0.0003731022006832063, -0.018469449132680893, -0.015403876081109047, 0.044590167701244354, 0.016898659989237785, -0.006381334271281958, -0.00796795915812254, -0.007207898888736963, 0.0068088676780462265, 0.012914679944515228, -0.013301043771207333, -0.015201193280518055, -0.012927347794175148, -0.05097466707229614, -0.02359985187649727, 0.009279062040150166, 0.016455290839076042, -0.024486588314175606, 0.0010838767047971487, -0.019786886870861053, -0.034152012318372726, 0.008107302710413933, 0.011787258088588715, -0.022953800857067108, -0.026019375771284103, -0.012008942663669586, -0.010248137637972832, -0.0034044338390231133, 0.034126680344343185, 0.0180260818451643, 0.011806259863078594, -0.01492250431329012, 0.046008944511413574, -0.01993889920413494, 0.0029262297321110964, 0.02214307151734829, -0.003873137291520834, 0.015695231035351753, 0.004747205879539251, -0.03108643926680088, 0.0009081129683181643, 0.01724068634212017, 0.012870343402028084, 0.015125187113881111, 0.016404621303081512, 0.028096871450543404, 0.015049180947244167, 0.007879285141825676, -0.01665797457098961, -0.005206408444792032, 0.001331687904894352, -0.0069418782368302345, -0.00793628953397274, -0.0010284556774422526, -0.004778875038027763, 0.007974292151629925, -0.0017718890449032187, -0.020255589857697487, 0.0011582992738112807, -0.00011024823470506817, -0.007606930565088987, -0.016341282054781914, -0.04296870529651642, -0.00656184833496809, 0.005820790305733681, -0.028476901352405548, 0.008151640184223652, -0.007309240289032459, -0.01416244450956583, 0.05340685695409775, 0.008759687654674053, -0.02845156565308571, -0.016961997374892235, -0.01589791476726532, 0.025854695588350296, 0.004744038917124271, 0.02148435264825821, -0.017696721479296684, 0.016809986904263496, 0.026804771274328232, 0.013719077222049236, -0.026526082307100296, 0.043880779296159744, 0.030807752162218094, -0.029312968254089355, -0.013681073673069477, -0.013237705454230309, -0.0054312595166265965, -0.007119225338101387, -0.0014884502161294222, 0.012445976957678795, 0.013073026202619076, 0.009139717556536198, 0.011198212392628193, -0.027894189581274986, 0.035646796226501465, -0.014263786375522614, -0.02700745314359665, 0.0289582721889019, -0.0017750560073181987, -0.0199135635048151, -0.0030972431413829327, -0.04068852588534355, 0.020939644426107407, -0.016847988590598106, 0.01931818202137947, 0.0017085507279261947, 0.0034994413144886494, 0.025360656902194023, -0.010007452219724655, -0.019039494916796684, 0.014035767875611782, 0.03709091246128082, 0.01559389103204012, -0.012192623689770699, -0.004620529245585203, -0.027362147346138954, -0.012224292382597923, -0.025816693902015686, 0.02356185019016266, 0.011559240520000458, -0.002117082942277193, 0.021636364981532097, 0.020179584622383118, 0.010488823056221008, -0.0015399125404655933, -0.003344262484461069, 0.013212370686233044, 0.010875186882913113, 0.04076453298330307, -0.050087932497262955, 0.0332399420440197, 0.007005216553807259, 0.0343293622136116, 0.01867213286459446, 0.0004433681315276772, -0.001906482968479395, -0.0015248697018250823, 0.0055642700754106045, -0.009405738674104214, 0.02361251972615719, -5.754878657171503e-05, -0.002147168619558215, -0.007315574213862419, -0.0003257963981013745, 0.010900522582232952, 0.011578242294490337, -0.020470939576625824, 0.0021408346947282553, 0.02014158107340336, -0.001312686363235116, -0.036305516958236694, -0.6445305943489075, -0.01648062653839588, -0.014251118525862694, -0.02082563377916813, 0.0038826381787657738, 0.0011567157926037908, 0.010020120069384575, 0.018773473799228668, -0.022371089085936546, -0.010286140255630016, -0.009754098951816559, 0.009260060265660286, 0.014783160760998726, -0.025005962699651718, -0.023042475804686546, -0.0007794570410624146, -0.00518740713596344, -0.03154247626662254, 0.021243667230010033, -0.0009381986455991864, -0.03260656073689461, 0.026424741372466087, -0.007562593556940556, 0.008164307102560997, -0.009918778203427792, 0.024423250928521156, 0.022282416000962257, -0.0041834949515759945, -0.022054398432374, 0.01450447179377079, -0.02550000138580799, 0.009659091010689735, -0.00792995560914278, -0.006827869452536106, 0.03964977711439133, 0.019622206687927246, -0.007486587390303612, 0.040308497846126556, 0.015125187113881111, 0.025069300085306168, 0.014010433107614517, -0.004921386484056711, 0.030579732730984688, -0.019014159217476845, 0.005858793389052153, 0.0038668035995215178, 0.03635618835687637, 0.012154621072113514, 0.0025968705303967, 0.0009469076758250594, 0.008962370455265045, -0.010647169314324856, -0.007150894496589899, 0.015074516646564007, 0.03602682799100876, 0.016163935884833336, 0.01594858430325985, 0.004075820092111826, -0.010184799320995808, 0.003309426363557577, -0.003255588933825493, -0.01007079053670168, -0.007087556179612875, -0.009488077834248543, 0.010298808105289936, 0.023967213928699493, -0.015517884865403175, -0.0015969170490279794, -0.013744411990046501, -0.0004619737737812102, 0.014099106192588806, 0.02415722981095314, -0.033493295311927795, -0.006865872070193291, -0.006827869452536106, 0.021116990596055984, 0.00551676657050848, 0.007093890104442835, 0.013288375921547413, 0.01312369666993618, 0.026754099875688553, 0.00023494551714975387, -0.009260060265660286, 0.014377795159816742, 0.02829955518245697, 0.021573025733232498, -0.006511177867650986, 0.004455849528312683, 0.023156484588980675, 0.029895680025219917, -0.002414772752672434, -0.015061848796904087, 0.008328987285494804, -0.036406856030225754, -0.01239530649036169, 0.01416244450956583, -0.0004188245511613786, 0.02200372703373432, 0.002034743083640933, -0.019128168001770973, -0.016075260937213898, -0.02081296779215336, 0.007258569821715355, -0.0020711624529212713, -0.014985842630267143, 0.00932973250746727, -0.014643816277384758, 0.003394933184608817, 0.040435172617435455, -0.017722057178616524, -0.03858569636940956, 0.019622206687927246, 0.00869001541286707, -0.016455290839076042, -0.02069895714521408, -0.01797541044652462, 0.017519375309348106, 0.03541877865791321, 0.021547691896557808, -0.014365127310156822, 0.03367064148187637, -0.008842027746140957, -0.006482675671577454, -0.00897503737360239, 0.0038192998617887497, 0.008075634017586708, 0.036989569664001465, -0.018773473799228668, -0.0069418782368302345, 0.009583085775375366, 0.021319672465324402, 0.007334575522691011, 0.011502236127853394, -0.009709762409329414, 0.008430328220129013, 0.011888599954545498, 0.028780926018953323, -0.013934426940977573, -0.012743666768074036, -0.012750000692903996, -0.025728018954396248, -0.014859165996313095, 0.01279433723539114, -0.006473174784332514, -0.0016816320130601525, -0.029946349561214447, -0.01100186351686716, 0.015061848796904087, -0.026120716705918312, 0.023371834307909012, -0.041803281754255295, 0.016898659989237785, -0.012699330225586891, 0.02769150771200657, 0.020166916772723198, 0.015099851414561272, -0.022586438804864883, -0.013617735356092453, -0.021611029282212257, -0.009412071667611599, 0.02971833199262619, 0.024435918778181076, -0.026754099875688553, -0.009424739517271519, -0.012553651817142963, -0.010311475954949856, -0.003844635095447302, -0.0061849853955209255, -0.03260656073689461, -0.03405067324638367, -0.003911140374839306, 0.002687127562239766, -0.006821535527706146, 0.016163935884833336, -0.015175857581198215, 0.009507079608738422, -0.026576751843094826, -0.0158852469176054, -0.006134314928203821, -0.013212370686233044, 0.01947019435465336, 0.009481743909418583, -0.023181820288300514, -0.0075689274817705154, -0.0036356186028569937, 0.004547690507024527, 0.01992623135447502, -0.014238450676202774, -0.018380776047706604, 0.03377198427915573, -0.014149777591228485, 0.0005276872543618083, 0.014238450676202774, -0.020876305177807808, -0.00688487384468317, 0.00761959794908762, -0.0158219076693058, -0.014225782826542854, 0.002530365251004696, 0.034861404448747635, 0.009526081383228302, 0.021053653210401535, 0.01727868989109993, 0.000675344665069133, 0.019533533602952957, -0.012876677326858044, 0.015669897198677063, -0.011077869683504105, 0.03881371393799782, -0.011464233510196209, 0.016404621303081512, -0.030985098332166672, -0.024651268497109413, -0.013503726571798325, -0.0011487985029816628, 0.01862146146595478, 0.006032973527908325, 0.00929172895848751, -0.022447094321250916, 0.015416542999446392, 0.01786140166223049, 0.0034677721560001373, 0.010881520807743073, 0.012578987516462803, -0.009994784370064735, 0.008132638409733772, -0.0008582340087741613, 0.02344783954322338, -0.010552161373198032, -0.01869746670126915, -0.00251611415296793, 0.006112146191298962, -0.0051937410607934, 0.0069798813201487064, -0.00259212008677423, 0.041904620826244354, -0.006834202911704779, -0.025943370535969734, 0.014390463009476662, 0.01587257906794548, 0.010805514641106129, 0.02425857074558735, 0.03242921084165573, 0.010970194824039936, -0.005573770962655544, 0.0007652058848179877, 0.01663263887166977, -0.01036848034709692, -0.016391953453421593, 0.00518424017354846, -0.01855812408030033, 0.00858867447823286, -0.0010260805720463395, 0.012946349568665028, -0.014884501695632935, 0.0023957714438438416, 0.011286885477602482, -0.026678094640374184, 0.012762668542563915, 0.019229508936405182, 0.010431818664073944, 0.002718796720728278, 0.00934240035712719, 0.014149777591228485, 0.018279435113072395, -0.0015763320261612535, 0.030225038528442383, -0.014428465627133846, 0.009659091010689735, -0.00011806655675172806, -0.014390463009476662, -0.010235469788312912, 0.0014290704857558012, -0.005823957268148661, 0.00929172895848751, -0.009507079608738422, -0.024537259712815285, 0.002660208847373724, 0.002704545622691512, 0.0268807765096426, -0.019647542387247086, -0.036913562566041946, -0.003778129816055298, 0.027336811646819115, 0.008728018030524254, -0.003280924167484045, -0.03161848336458206, 0.004446349106729031, -0.03047839179635048, -0.005899962969124317, 0.004310171585530043, 0.017038004472851753, -0.020470939576625824, 0.016265276819467545, -0.01589791476726532, -0.024562595412135124, -0.0023878540378063917, -0.016075260937213898, 0.015302534215152264, -0.007543592248111963, 0.0027647169772535563, -0.003781296778470278, 0.004056818317621946, 0.002740965224802494, 0.005675111897289753, -0.005418592132627964, 0.0014274870045483112, -0.011407229118049145, -0.00963375624269247, 0.01173658762127161, -0.02558867447078228, 0.00519057409837842, 0.01309836097061634, 0.007030551787465811, -0.01659463532269001, 0.0021202496718615294, 0.0024543593171983957, -0.008620343171060085, 0.012376304715871811, 0.004661699291318655, -0.01141356211155653, -0.048745159059762955, -0.02142101526260376, -0.021889718249440193, 0.07549925893545151, 0.013655738905072212, -0.02624739333987236, 0.012572653591632843, -0.036280181258916855, -0.02216840721666813, -0.004649031441658735, -0.0032429213169962168, 0.0015953335678204894, -0.005323584657162428, -0.011831595562398434, -0.007024217862635851, 0.04066319018602371, 0.010469822213053703, -0.0021059985738247633, -0.007556259632110596, 0.02137034386396408, 0.001345939002931118, 0.012895679101347923, 4.753465418616543e-06, -0.005909463856369257, -0.017114009708166122, -0.0077336071990430355, 0.025829359889030457, 0.010419150814414024, -0.019533533602952957, 0.023916544392704964, 0.0014963675057515502, 0.0043861777521669865, -0.05923398211598396, -0.0010110377334058285, -0.019546201452612877, -0.013351714238524437, 0.0035279435105621815, -0.016467958688735962, 0.02974366769194603, 0.01451713964343071, -0.0057289497926831245, -0.010824516415596008, -0.006127981003373861, 0.023827869445085526, 0.005782787222415209, -0.009773100726306438, -0.017823398113250732, 0.0193055160343647, 0.00518424017354846, -0.011489568278193474, 0.029464978724718094, -0.015289866365492344, -0.024385247379541397, 0.03777496516704559, -0.010001118294894695, -0.010837184265255928, 0.0001250931527465582, 0.019191507250070572, 0.01376974768936634, 0.010083458386361599, 0.008423994295299053, -0.017418034374713898, 0.007587928790599108, 0.0021345007698982954, -0.02219374105334282, -0.0061501492746174335, -0.011590910144150257, -0.024410583078861237, -0.01805141754448414, -0.0013364382321015, 0.007195231504738331, -0.025753354653716087, -0.0029008942656219006, 0.0022722617723047733, -0.018064085394144058, -0.011299553327262402, 0.001938152126967907, 0.021230999380350113, -0.01006445661187172, 0.008519002236425877, -0.002576285507529974, 0.006007638294249773, 0.015327869914472103, -0.0054629286751151085, -0.013668405823409557, -0.014099106192588806, -0.020420270040631294, -0.013579732738435268, 0.006511177867650986, 0.010127794928848743, -0.007575261406600475, -0.03448137268424034, 0.02832488901913166, 0.024511924013495445, 0.011236215010285378, 0.021142326295375824, 0.01669597625732422, 0.0023482677061110735, -0.008544337004423141, 0.008816692046821117, 0.001324562355875969, 0.005817623343318701, -0.012686662375926971, 0.00688487384468317, 0.02632339857518673, -0.01420044805854559, -0.0024084390606731176, 0.0015193276340141892, 0.014973174780607224, -0.012895679101347923, -0.01067883800715208, -0.0031922506168484688, 0.009994784370064735, -0.00746125215664506, -0.01523919589817524, 0.013554397039115429, -0.005852459464222193, -0.009469076991081238, -0.016379285603761673, -0.019812222570180893, 0.04347541183233261, 0.015606557950377464, -0.013275709003210068, -0.02143368311226368, -0.02484128251671791, 0.005998137407004833, 0.05599106103181839, -0.023865872994065285, 0.018482116982340813, -0.014441133476793766, -0.0051937410607934, -0.009690760634839535, -0.005918964743614197, -0.004794709850102663, 0.024739941582083702, -0.013085694052278996, -0.0303010456264019, -0.016936663538217545, -0.021991059184074402, -0.00671386020258069, -0.0009864941239356995, -0.0007727273041382432, -0.012673994526267052, -0.01867213286459446, 0.013237705454230309, -0.016404621303081512, 0.021636364981532097, -0.008012295700609684, -0.01585991121828556, 0.011261550709605217, -0.005849292501807213, -0.016936663538217545, -0.0008115220116451383, 0.012984352186322212, -0.004911885596811771, -0.016442622989416122, 0.0008796107140369713, -0.0002802720118779689, -0.027944859117269516, -0.015644561499357224, -0.013643071055412292, 0.016974665224552155, 0.00793628953397274, -0.007999627850949764, 0.02481594868004322, 0.029464978724718094, -0.004142324905842543, -0.007834948599338531, 0.009101714007556438, 0.017658719792962074, 0.004072653129696846, -0.027184801176190376, 0.032175857573747635, -0.0008115220116451383, 0.007385246455669403, -0.014732489362359047, -0.0036831223405897617, -0.009424739517271519, 0.020470939576625824, -0.0004734538379125297, 0.018127422779798508, -0.016201937571167946, -0.018988823518157005, -0.016797319054603577, -0.0075309243984520435, 0.00397447869181633, 0.020508943125605583, -0.009247392416000366, 0.01661997102200985, 0.03595082089304924, 0.025145307183265686, -0.0009389903862029314, -0.00047662074211984873, 0.016227273270487785, -0.04162593558430672, 0.03111177496612072, 0.007220566738396883, 0.006013972219079733, -0.02703278884291649, 0.008804024197161198, -0.034810733050107956, -0.037749629467725754, -0.012154621072113514, 0.01420044805854559, -0.03359463810920715, -0.009044709615409374, -0.027260806411504745, 0.01651863008737564, -0.001346730743534863, 0.015619225800037384, 0.0009484910988248885, -0.014010433107614517, -0.019495530053973198, -0.03111177496612072, 0.0002998673007823527, -0.0004655365482904017, -0.025157975032925606, -0.00023633104865439236, 0.021775709465146065, -0.01249031350016594, 0.025804026052355766, -0.008157974109053612, -0.025968704372644424, 0.009494411759078503, -0.026424741372466087, 0.04836513102054596, 0.01559389103204012, 0.0040504843927919865, 0.0034361029975116253, -0.030579732730984688, -0.002772634383291006, 0.044640835374593735, -0.008747019805014133, -0.014795827679336071, 0.018152758479118347, -0.0007228484028019011, -0.003759128274396062, -0.011812593787908554, -0.030123697593808174, -0.008069300092756748, -0.00796162523329258, -0.030047692358493805, 0.04000447317957878, 0.007030551787465811, 0.0017291357507929206, -0.034152012318372726, -0.0016547131817787886, 0.0005229368689469993, 0.004224664997309446, -0.008366989903151989, 0.0009667008998803794, -0.00397764565423131, -0.026602087542414665, -0.03524143248796463, 0.00761959794908762, -0.0289582721889019, 0.0043196724727749825, -0.026551418006420135, -0.036254845559597015, 0.02206706628203392, -0.021040985360741615, -0.028755590319633484, 0.026728764176368713, 0.0020252421963959932, 0.025335321202874184, 0.0077906115911901, -0.0018193927826359868, 0.034810733050107956, -0.003746460657566786, -0.007473920006304979, -0.021129658445715904, -0.00792362168431282, 0.018114754930138588, -0.006432004738599062, -0.009564084000885487, -0.020382266491651535, 0.008886364288628101, 0.021053653210401535, -0.001985655864700675, -0.003746460657566786, 0.005618107505142689, 0.005228577181696892, -0.008728018030524254, 0.0010474572191014886, -0.013757079839706421, -0.021877050399780273, -0.01311102882027626, -0.0023910210002213717, -0.003350596409291029, -0.025373324751853943, 1.2414060620358214e-05, 0.011888599954545498, -0.02406855672597885, -0.011685917153954506, 0.004275335464626551, 0.003277757205069065, 0.001968237804248929, -0.005738450214266777, 0.0035026082769036293, 0.006973547395318747, 0.04284203052520752, -0.023865872994065285, 0.008962370455265045, 0.0006480300216935575, -0.00535208685323596, -0.00029096033540554345, -0.009488077834248543, 0.005633942317217588, -0.010659836232662201, 0.03572280332446098, 0.0038002983201295137, -0.019824888557195663, -0.013668405823409557, 0.004053651355206966, -0.01808941923081875, 0.00778427766636014, -0.03541877865791321, -0.008151640184223652, -0.007277571130543947, 0.006102645769715309, -0.0017528876196593046, -0.030047692358493805, 0.02215573936700821, 0.01993889920413494, 0.00899403914809227, 0.004991058260202408, -0.0018352273618802428, 0.011698585003614426, 0.014289121143519878, 0.009697094559669495, 0.02152235619723797, -0.03468405455350876, -0.02492995746433735, -0.0035786142107099295, -0.0022405926138162613, -0.016062594950199127, -0.014669151045382023, 0.011698585003614426, 0.0028280552942305803, -0.03706557676196098, 0.018292102962732315, 0.0011226714123040438, -0.00535525381565094, 0.003303092671558261, 0.029287632554769516, 0.005367921199649572, 0.013415052555501461, -0.012363636866211891, 0.0041486588306725025, -0.016835320740938187, -0.018114754930138588, -0.03997913748025894, -0.003318927250802517, -0.0357988104224205, 0.020179584622383118, 0.005643442738801241, -0.013959762640297413, -0.021813713014125824, 0.020280925557017326, -0.039092402905225754, 0.0030006521847099066, -0.01929284818470478, 0.013491058722138405, 0.009842772968113422, 0.013921759091317654, 0.009095381014049053, -0.019647542387247086, -0.0025541172362864017, 0.02905961498618126, 0.0031114942394196987, 0.023954546079039574, 0.02276378683745861, -0.03303726017475128, 0.009912444278597832, -0.0016657974338158965, -0.02496795915067196, -0.02771684154868126, 0.025867363438010216, 0.003293591784313321, -0.0067771985195577145, 0.023169152438640594, -0.021154994145035744, 0.005424925591796637, 0.010127794928848743, 0.0018700634827837348, 0.017481371760368347, 0.013402385637164116, 0.03876304253935814, -0.0009421572904102504, -0.012952683493494987, -0.02563934586942196, -0.011166542768478394, -0.030959762632846832, -0.002699795179069042, -0.007017883937805891, 0.004883383400738239, 0.0316438153386116, -0.004104322288185358, 0.00931706465780735, 0.004360842052847147, 0.0030164867639541626, 0.03450670838356018, 0.01580924168229103, 0.014403130859136581, -0.006463673897087574, 0.014884501695632935, -0.0047060358338057995, -0.026804771274328232, 0.004110655747354031, -0.014149777591228485, -0.010482489131391048, -0.0028280552942305803, -0.0155812231823802, 0.022282416000962257, 0.004259501118212938, 0.019685545936226845, -0.0036831223405897617, 0.008867362514138222, -0.0030655739828944206, -0.0005926089943386614, -0.00972876325249672, 0.015023846179246902, 0.010691505856812, -0.013326379470527172, 0.007860283367335796, -0.017760060727596283, -0.013719077222049236, -0.001378399902023375, -0.010241803713142872, -0.023232489824295044, -0.03101043403148651, -0.021699702367186546, 0.008962370455265045, -0.022941134870052338, -0.0042183310724794865, -0.013795082457363605, -0.0010221218690276146, 0.010279807262122631, -0.016683310270309448, 0.2013651430606842, -0.016189271584153175, -0.004202496726065874, -0.0016309613129124045, -0.011274218559265137, 0.011850596405565739, 0.008943368680775166, 0.012034278362989426, 0.0067075262777507305, 0.005618107505142689, -0.025208644568920135, 0.00824031326919794, -0.028122207149863243, 0.011894933879375458, -0.004012481775134802, -0.02690611220896244, -0.0303010456264019, -0.02211773581802845, -0.0051937410607934, 0.0024416917003691196, 0.001386317191645503, 0.010444486513733864, -0.02134500816464424, -0.017443368211388588, -0.0165566336363554, -0.007138227112591267, 0.009557750076055527, -0.022383756935596466, 0.039067067205905914, 0.027767512947320938, -0.005206408444792032, -0.006432004738599062, -0.022966468706727028, -0.017722057178616524, -0.04010581597685814, 0.014542474411427975, -0.030529063194990158, -0.007815946824848652, 0.03341728821396828, 0.026070045307278633, 0.0008241896866820753, 0.011983606964349747, -0.03182116523385048, 0.025854695588350296, 0.0171646811068058, 0.030174368992447853, -0.010438152588903904, -0.010482489131391048, 0.014276454225182533, 0.008024963550269604, -0.018393443897366524, -0.019115500152111053, -0.008392325602471828, 0.038383014500141144, 0.02011624537408352, 0.0010522075463086367, 0.014124441891908646, 0.01587257906794548, 0.017430702224373817, 0.002571535063907504, -0.023802535608410835, 0.017392698675394058, -0.003398100147023797, 0.01420044805854559, 0.0035184428561478853, 0.03448137268424034, -0.02416989766061306, 0.025259315967559814, 0.003911140374839306, -0.012369970791041851, 0.0036292849108576775, -0.023283161222934723, -0.015479881316423416, -0.023029807955026627, 0.01111587230116129, -0.003166915150359273, 0.04002980887889862, -0.017582712695002556, 0.011141208000481129, 0.013972429558634758, 0.00022742409782949835, -0.02343517355620861, -0.004845380317419767, 0.0010815015994012356, 0.0028391394298523664, -0.003844635095447302, -0.00656184833496809, 0.02913562022149563, -0.0034962743520736694, -0.0008344821399077773, -0.005643442738801241, -0.024385247379541397, 0.00023989382316358387, 0.02210506796836853, 0.007340909447520971, 0.014542474411427975, 0.01177459117025137, 0.025968704372644424, -0.008639344945549965, -0.0011630496010184288, -0.008398659527301788, -0.0069418782368302345, 0.030529063194990158, 0.0061881523579359055, -0.02135767601430416, 0.024005217477679253, 0.013997765257954597, 0.020546946674585342, 0.024537259712815285, -0.01793740876019001, -0.004766207654029131, -0.030579732730984688, -0.018798809498548508, -0.0014670734526589513, 0.008208644576370716, 0.022510433569550514, 0.001919150585308671, -0.005219076294451952, 0.0075309243984520435, -0.012350969016551971, 0.013985097408294678, -0.0207749642431736, 0.017798064276576042, -0.017722057178616524, 0.003271423513069749, -0.018355440348386765, -0.010583830997347832, 0.010457154363393784, -0.0011487985029816628, -0.015403876081109047, -0.0022928465623408556, -0.0005633150576613843, 0.025690017268061638, 0.011882266029715538, -0.0171646811068058, 0.005143070127815008, -0.003879471216350794, 0.011818927712738514, 0.015099851414561272, -0.0018668965203687549, -0.011514903977513313, -0.002628539688885212, -0.01342772040516138, -0.009488077834248543, -0.0036736216861754656, 0.002650707960128784, 0.005263413302600384, -0.007176229730248451, 0.004167660605162382, 0.013681073673069477, 0.010222801938652992, -0.007720939349383116, -0.02144634909927845, -0.043906111270189285, 0.01865946501493454, -0.015378540381789207, -0.003746460657566786, -0.03032637946307659, -0.013073026202619076, 0.04476751387119293, -0.022269748151302338, 0.0022928465623408556, 0.0357988104224205, 0.026019375771284103, 0.011375559493899345, 0.004702869337052107, -0.15707899630069733, 0.020394934341311455, 0.030250374227762222, 0.0015826658345758915, 0.03531743958592415, 0.00624515675008297, 0.005079731810837984, 0.01801341399550438, -0.013668405823409557, 0.011793592013418674, 0.006967213470488787, 0.009684426710009575, -0.03387332707643509, -0.01720268279314041, 0.002617455553263426, 0.003746460657566786, 0.00779694551602006, 0.013415052555501461, 0.023067811504006386, 0.010919523425400257, 0.025842027738690376, -0.015061848796904087, 0.018178094178438187, 0.009608420543372631, -0.011907601729035378, -0.0028090537525713444, -0.0029705665074288845, 0.030731745064258575, 0.007562593556940556, -0.0014076938387006521, -0.0002094122755806893, -0.009906111285090446, 0.053508199751377106, -0.020394934341311455, 0.010488823056221008, 0.003165331669151783, -0.005538934841752052, -0.01860879361629486, -0.013693741522729397, 0.00779694551602006, 0.01738003082573414, 0.01658196747303009, 0.0009389903862029314, -0.014453801326453686, -0.0003770608454942703, 0.028071535751223564, 0.034962743520736694, 0.0021677534095942974, -0.002702962141484022, 0.003287258092314005, 0.009424739517271519, -0.0064225043170154095, -0.009431073442101479, -0.005925298202782869, 0.01867213286459446, -0.00014745949010830373, 0.023751864209771156, 0.007340909447520971, -0.00389530579559505, -0.018342772498726845, -0.005485097412019968, -0.02555067278444767, 0.03331594914197922, -0.0028074702713638544, 0.002001490443944931, -0.02282712422311306, 0.00902570877224207, 0.013795082457363605, 0.003190667135640979, 0.007803278975188732, 0.006070976611226797, 0.01003912091255188, -0.01492250431329012, 0.001979321939870715, -0.0024290240835398436, 0.01731669344007969, -0.026602087542414665, -0.012141953222453594, 0.006587183568626642, 0.0048707155510783195, -0.013415052555501461, 0.025715351104736328, -0.010938525199890137, -0.02761550061404705, 0.011210880242288113, -0.030149033293128014, -0.013972429558634758, 0.019178839400410652, -0.03339195251464844, 0.005165238864719868, 0.012344636023044586, -0.040409836918115616, -0.016075260937213898, -0.02553800493478775, 0.005412258207798004, 0.0047408719547092915, -0.012154621072113514, 0.003382265567779541, 0.017696721479296684, -0.014327124692499638, 0.01801341399550438, 0.005089232698082924, 0.0028296387754380703, 0.004696535412222147, 0.03673621639609337, 0.019748883321881294, 0.007720939349383116, 0.015517884865403175, 0.027058124542236328, 0.007321908138692379, 0.006967213470488787, 0.002820138121023774, -0.001282600685954094, 0.025715351104736328, -0.021826379001140594, -0.0024575262796133757, 0.028730254620313644, -0.005846125539392233, 0.03450670838356018, 0.007359911222010851, 0.030833085998892784, -0.02552533708512783, -0.015201193280518055, 0.007879285141825676, -0.007885619066655636, -0.010919523425400257, -0.09196721762418747, -0.008297317661345005, 0.027260806411504745, 0.014377795159816742, 0.00381296593695879, 0.01579657383263111, -0.010856185108423233, -0.00014310497499536723, 0.009101714007556438, -0.003239754354581237, -0.006283159833401442, -0.021154994145035744, 0.027767512947320938, -0.0049372208304703236, 0.029946349561214447, 0.0036831223405897617, 0.016201937571167946, -0.0029262297321110964, -0.022459762170910835, 0.0035184428561478853, -0.026703428477048874, 0.013529062271118164, 0.018330104649066925, -0.005801788531243801, -0.0029388973489403725, 0.0023466842249035835, -0.010495156981050968, 0.030022356659173965, 0.014415797777473927, -0.00962108839303255, -0.011198212392628193, -0.006327496841549873, -0.0165566336363554, -0.029870344325900078, 0.01805141754448414, -0.003917474299669266, -0.01207861490547657, -0.0035342774353921413, 0.014035767875611782, -0.0268807765096426, -0.008309985511004925, 0.00900037307292223, 0.01715201325714588, -0.02708345837891102, -0.0014947840245440602, -0.02422056719660759, -0.012775336392223835, 0.004402012098580599, 0.007347243372350931, -0.029921015724539757, -0.0498599149286747, 0.008164307102560997, -0.032935917377471924, 0.009228390641510487, 0.02416989766061306, 0.014086439274251461, -0.0042500002309679985, 0.0029879845678806305, -0.017038004472851753, -0.013288375921547413, 0.014707154594361782, -0.0007422457565553486, 0.004436848219484091, 0.014099106192588806, 0.016277944669127464, 0.023827869445085526, -0.013326379470527172, -0.01345305610448122, 0.012008942663669586, -0.01037481427192688, 0.006669523660093546, -0.014466469176113605, -0.0022437593434005976, 0.004794709850102663, -0.03296125307679176, -0.011983606964349747, -0.0060836439952254295, -0.01926751248538494, 0.014403130859136581, -0.04421013593673706, 0.012281297706067562, -0.01807675138115883, -0.0023197655100375414, -0.00030620110919699073, 0.01792474091053009, 0.012540983967483044, 0.007746274583041668, -0.008791356347501278, 0.015403876081109047, -0.005095566622912884, -0.0015509967925027013, 0.027058124542236328, -0.0062198215164244175, -0.034912072122097015, -0.012363636866211891, 0.023067811504006386, 0.014365127310156822, -0.01037481427192688, -0.003445603884756565, 0.008069300092756748, -0.016936663538217545, -0.03572280332446098, -0.06921610236167908, -0.0037116247694939375, 0.011122206225991249, -0.002034743083640933, 0.00793628953397274, 0.01102086529135704, 0.017709389328956604, 0.008956036530435085, 0.0044210138730704784, -0.0014251118991523981, -0.0620715394616127, -0.0010252888314425945, 0.009830105118453503, 0.0070748887956142426, -0.01727868989109993, -0.0053615872748196125, 0.003945976495742798, 0.009152385406196117, -0.024689272046089172, 0.0010244970908388495, 0.017139345407485962, 0.012293964624404907, 0.017456036061048508, 0.005253912415355444, -0.04187928885221481, 0.014010433107614517, -0.021256335079669952, 0.024385247379541397, -0.011217214167118073, 0.0128323407843709, 0.016062594950199127, -0.029591655358672142, -0.0062863267958164215, 0.03394933044910431, 0.00792362168431282, -0.030529063194990158, -0.04023249074816704, 0.008607675321400166, 0.0234605073928833, 0.03595082089304924, -0.034101344645023346, -0.022928467020392418, 0.032758571207523346, 0.005918964743614197, 0.006998882628977299, 0.006270491983741522, 0.023169152438640594, -0.004728204570710659, 0.030073026195168495, 0.020508943125605583, 0.011223547160625458, 0.0296929981559515, -0.002720380201935768, -0.021915053948760033, -0.007492921315133572, 0.008626677095890045, -0.005079731810837984, 0.03448137268424034, 0.01726602204144001, -0.015606557950377464, 0.049378544092178345, 0.01103353314101696, 0.010634501464664936, -0.018380776047706604, -0.010995529592037201, -0.03919374197721481, -0.014618480578064919, 0.008404993452131748, 0.012566319666802883, -0.04618629068136215, -0.009792101569473743, -0.004474851302802563, 0.0011464232811704278, 0.019115500152111053, 0.02204173058271408, 0.007454918697476387, -0.007695604115724564, -0.016176603734493256, -0.008753353729844093, 0.028198212385177612, -0.011641580611467361, -0.0014528223546221852, -0.02556334063410759, 0.0043196724727749825, 0.009868107736110687, 0.00567194540053606, -0.022611774504184723, -0.014745157212018967, 0.014542474411427975, 0.020521610975265503, 0.0014053186168894172, 0.01346572395414114, 0.008968704380095005, 0.000636549957562238, -0.012034278362989426, -0.009817437268793583, -0.0009397820685990155, -0.006134314928203821, 0.014897169545292854, 0.029312968254089355, 0.0014829080319032073, 0.0009872858645394444, -0.015707898885011673, -0.024689272046089172, -0.010773845948278904, 0.010963860899209976, -0.03531743958592415, -0.039700448513031006, 0.007727273274213076, 0.03942175954580307, -0.016417289152741432, 0.02695678174495697, -0.0033854322973638773, 0.002406855</t>
+  </si>
+  <si>
+    <t>[0.007423362694680691, -0.003578773932531476, 0.015300555154681206, -0.035061612725257874, -0.013783467002213001, 0.019086794927716255, -0.010036126710474491, -0.017064008861780167, -0.020059287548065186, 0.001768316375091672, -0.009109017439186573, -0.005423268768936396, -0.010885437950491905, -0.009342415258288383, -0.021355945616960526, 0.0050375135615468025, 0.02628324180841446, -0.016208214685320854, 0.006230438128113747, -0.008136523887515068, -0.01867186464369297, 0.005559417884796858, 0.00029762336635030806, -0.0017456248169764876, 0.013251837342977524, -0.015819218009710312, 0.013018438592553139, -0.025362616404891014, 0.009744379669427872, -0.008376405574381351, -0.01575438492000103, -0.010976203717291355, -0.019475791603326797, 0.006181813310831785, -0.0017245541093870997, 0.00023258788860403, 0.027126070111989975, -0.012720207683742046, 0.014198397286236286, -0.005163937341421843, 0.008700570091605186, 0.0017277958104386926, 0.015508020296692848, -0.020811349153518677, -0.006055389530956745, 0.030186180025339127, 0.005575626157224178, -0.007980925031006336, -0.01751783862709999, 0.017465973272919655, -0.010003711096942425, 0.025933144614100456, -0.019553590565919876, 0.0014554978115484118, -0.024882853031158447, -0.039418380707502365, -0.005280636716634035, -0.013057338073849678, 0.006522186100482941, -0.014250263571739197, 0.011261467821896076, -0.002411782508715987, -0.00499213021248579, -0.005475135054439306, -0.007663244381546974, -0.017258508130908012, 0.0015924571780487895, 0.010885437950491905, -0.012480325996875763, -0.01925536058843136, 0.03327222540974617, 0.01676577888429165, 0.02977124974131584, 0.014496628195047379, 0.025907211005687714, -0.011293884366750717, -0.006246646400541067, 0.02537558227777481, -0.008065207861363888, 0.009510980919003487, -0.007092715241014957, -0.032208964228630066, -0.023806627839803696, 0.039236847311258316, 0.022652601823210716, -0.005394094157963991, -0.008985835127532482, 0.019151628017425537, 0.002876958344131708, 0.004979163873940706, -0.0018444949528202415, 0.005455685313791037, -0.0012731553288176656, -0.00647031981498003, -0.011831996962428093, -0.01755673997104168, -8.468792657367885e-05, -0.0022043173667043447, -0.002946653636172414, -0.01976105570793152, -0.0010073406156152487, 0.016778744757175446, -0.032572031021118164, -0.011585632339119911, -0.048391249030828476, -0.017258508130908012, 0.007773460354655981, 0.0011102628195658326, 0.031664371490478516, 0.02112254686653614, -0.0050050970166921616, 0.02397519163787365, 0.01686951145529747, -0.04203762859106064, 0.0028413000982254744, -0.03475041314959526, 0.0045545087195932865, 0.005465410184115171, 0.003355100518092513, -0.005663150455802679, 0.0400148443877697, 0.018049469217658043, 0.001697000116109848, -0.035269077867269516, 0.03373902291059494, -0.0105418236926198, -0.0018898779526352882, 0.001568955252878368, -0.0396517775952816, -0.009485047310590744, -0.024143757298588753, -0.002077893353998661, -0.002539827488362789, 0.004573958460241556, -0.014574427157640457, 0.01694731041789055, -0.014989357441663742, 0.012020012363791466, -0.026633339002728462, -0.029278520494699478, 0.02040938474237919, 0.01697324402630329, -0.010833571664988995, 0.011345750652253628, -0.0002834411570802331, 0.030704842880368233, -0.011767164804041386, 0.015806252136826515, 0.013537101447582245, -0.006295270752161741, 0.023404663428664207, 0.0036371236201375723, 0.014042798429727554, 0.0003877815615851432, 0.02509031817317009, -0.00019622071704361588, -0.008097624406218529, 0.02122627943754196, -0.002460407093167305, 0.012668341398239136, -0.015948884189128876, 0.032105233520269394, -0.02754100039601326, 0.0032286765053868294, 0.020772449672222137, 0.03910718113183975, 0.013550068251788616, 0.013796432875096798, -0.012441426515579224, 0.017491906881332397, 0.004081228747963905, 0.027878131717443466, -0.020824315026402473, 0.01968325674533844, 0.012032979167997837, 0.024597587063908577, 0.007436329498887062, -0.006165605038404465, -0.01041864138096571, -0.007773460354655981, 0.002150830114260316, 0.0013217800296843052, 0.00905066728591919, 0.01137168426066637, -0.007501162122935057, 0.012032979167997837, 0.03179403394460678, -0.007196447812020779, 0.007410396356135607, -0.0009911323431879282, 0.028941389173269272, 0.005753916688263416, -0.0002755396708380431, -0.016713911667466164, -0.6344284415245056, -0.0032254348043352365, -0.009666579775512218, -0.00442484300583601, -0.002588452072814107, 0.016013717278838158, -0.0008744332590140402, 0.007287213578820229, -0.02912292256951332, -0.02130407840013504, -0.023962225764989853, -0.03122350573539734, 2.8491003831732087e-05, -0.0061623635701835155, -0.03910718113183975, -0.020928047597408295, -0.0009076600545085967, -0.029071055352687836, 0.027100136503577232, -0.007877192460000515, -0.017427073791623116, 0.011728264391422272, -0.0335315577685833, 0.004502642434090376, -0.01567658595740795, 0.014911558479070663, 0.02743726782500744, -0.012726690620183945, -0.005977590102702379, 0.0002542663714848459, -0.03031584620475769, 0.011092903092503548, -0.02527184970676899, 0.0014611706137657166, 0.04133743420243263, 0.004207652993500233, -0.025725679472088814, 0.03869225084781647, 0.021355945616960526, 0.03897751867771149, 0.0111771859228611, 0.011021587066352367, 0.025751613080501556, -0.0176604725420475, -0.005539968144148588, -0.0002747292455751449, 0.04128556698560715, 0.011216085404157639, -0.022613702341914177, -0.02837086096405983, 0.0020195436663925648, -0.016169315204024315, -0.008998801000416279, -0.005076413042843342, 0.010606655851006508, -0.004415118135511875, 0.013109204359352589, -0.0029498953372240067, -0.004492917563766241, 0.01701214350759983, 0.006444386672228575, -0.0033324090763926506, -0.02180977538228035, -0.020772449672222137, -0.015300555154681206, 0.021900540217757225, -0.032468296587467194, -0.004619341343641281, -0.025868311524391174, 0.0018525990890339017, 0.010263042524456978, 0.03596927225589752, -0.0025025485083460808, 0.01128091849386692, 0.0063860369846224785, 0.004800873342901468, 0.016675012186169624, 0.014730026014149189, -0.02350839599967003, 0.02764473296701908, 0.018153201788663864, -0.003494491335004568, -0.028111528605222702, -0.003539874218404293, 0.015987783670425415, 0.013290736824274063, -0.02245810441672802, 0.01076225470751524, 0.03335002437233925, 0.014483661390841007, 0.03329815715551376, -0.01052885688841343, -0.006515702698379755, -0.03301289305090904, -0.027670666575431824, 0.011293884366750717, -0.009757345542311668, 0.018179135397076607, -0.0024976860731840134, -0.023404663428664207, -0.014107630588114262, -0.014029831625521183, 0.015689551830291748, 0.004042328801006079, 0.016791710630059242, -0.002748913364484906, -0.009070117026567459, 0.0010421882616356015, 0.043852947652339935, -0.009413731284439564, -0.031742170453071594, -7.167069998104125e-05, 0.0182050671428442, 0.002851025201380253, -0.00879781972616911, -0.02948598563671112, 0.008026308380067348, 0.028344927355647087, 0.008836719207465649, -0.0036273987498134375, 0.03181996941566467, 0.007527095265686512, 0.002034130971878767, -0.04247849062085152, -0.010087992995977402, 0.014665193855762482, 0.019592491909861565, -0.016052616760134697, -0.004356768447905779, -0.011099386028945446, 0.011118835769593716, 0.011015103198587894, 0.02188757434487343, -0.007708627264946699, 0.01899602822959423, 0.016273047775030136, 0.021641209721565247, -0.020266752690076828, -0.008519038558006287, -0.024973617866635323, -0.02187460847198963, -0.019670290872454643, 0.00825322326272726, -0.039055317640304565, -0.002457165392115712, -0.027411334216594696, -0.01213022880256176, 0.010554789565503597, -0.0411040335893631, -0.0004307333438191563, -0.016493480652570724, 0.0008703811909072101, -0.030108381062746048, 0.0005847113789059222, 0.0082921227440238, 0.024104857817292213, -0.007916092872619629, 0.0031022524926811457, -0.030575178563594818, 0.010062060318887234, 0.03672133386135101, -0.009510980919003487, -0.030627043917775154, -0.013744566589593887, 0.02873392403125763, -0.034335482865571976, -0.0038640385027974844, 0.014976391568779945, 0.0036338819190859795, -0.0454089380800724, -0.007708627264946699, -0.0043762181885540485, -0.016337880864739418, 0.018619997426867485, -0.0036371236201375723, -0.017673438414931297, -0.01377050019800663, -0.02101881429553032, -0.02389739267528057, 0.0004009507247246802, 0.01950172521173954, 0.005818749312311411, -0.026412907987833023, -0.014016864821314812, 0.01160508207976818, 0.0066583347506821156, 0.033868689090013504, 0.0067231678403913975, -0.020175985991954803, 0.015352421440184116, -0.00036812908365391195, 0.005925723817199469, 0.009374831803143024, -0.011533766053617, 0.0006341464468277991, -0.0024879612028598785, -0.0008476896909996867, 0.0008517417008988559, -0.009297032840549946, 0.012136711739003658, 0.0018866362515836954, 0.007896642200648785, 0.022367337718605995, -0.01629898138344288, 0.00492081418633461, -0.017465973272919655, 0.01160508207976818, -0.02123924531042576, 0.04525333642959595, -0.004165511578321457, 0.030341779813170433, -0.0020325102377682924, -0.04416414722800255, 0.008117074146866798, -0.013329636305570602, 0.012506259605288506, 0.01454849448055029, 0.007715110667049885, 0.00451560877263546, -0.0016645836876705289, 0.02501251921057701, 0.0060942890122532845, -0.0064314198680222034, -0.0035074579063802958, -0.031275372952222824, -0.0081105912104249, 0.010502923280000687, 0.049117375165224075, -0.010677972808480263, -0.023962225764989853, -0.004609616473317146, 0.017867937684059143, -0.01314162090420723, 0.014029831625521183, -0.020059287548065186, 0.016234148293733597, 0.008013341575860977, -0.01380939967930317, 0.01214967854321003, -0.002982311649248004, 0.015637686476111412, 0.028578326106071472, 0.017453007400035858, 0.008953418582677841, -0.008441238664090633, 0.0005644510965794325, 0.016311947256326675, 0.03226083144545555, -0.014678159728646278, -0.005890065338462591, -0.010204692371189594, -0.010327874682843685, -0.011047519743442535, 0.005222287029027939, 0.003539874218404293, -0.008629254065454006, 0.02393629215657711, 0.0004485623794607818, 0.030652977526187897, 0.02523295022547245, 0.01589701697230339, -0.006078080739825964, 0.009271099232137203, 0.01373160071671009, -0.005086137913167477, -0.014328062534332275, 0.021680109202861786, 0.010937304235994816, 0.007494678720831871, -0.0027829506434500217, 0.020072253420948982, 0.011942213401198387, -0.0024830985348671675, -0.00368574820458889, -0.024195624515414238, -0.006651851814240217, -0.018049469217658043, -0.030056515708565712, 0.0018088368233293295, 0.0374993272125721, 0.008382889442145824, -0.019021961838006973, 0.018645931035280228, 0.032494232058525085, 0.009219232946634293, -0.012045945972204208, -0.027281668037176132, 0.016389748081564903, 0.0038251387886703014, 0.024247489869594574, 0.014276196248829365, 0.01859406568109989, -0.018438465893268585, 0.011754197999835014, -0.0147818922996521, -0.031197573989629745, 0.00693063298240304, -0.002286979230120778, 0.03853665292263031, -0.025751613080501556, -0.015702519565820694, 0.007377979811280966, -0.02170604281127453, -0.008596837520599365, 0.03086044266819954, -0.0033032342325896025, 0.0002469726896379143, -0.005212562158703804, -0.005708533339202404, 0.015248688869178295, -0.019670290872454643, 0.001008150982670486, 0.019021961838006973, -0.006625918671488762, -0.018645931035280228, 0.01308327168226242, 0.020915081724524498, 0.013796432875096798, 0.02660740725696087, -0.007099198643118143, -0.0024166449438780546, -0.03503567725419998, -0.004100678488612175, 0.024558687582612038, 0.06576645374298096, -0.005799299571663141, 0.020707616582512856, 0.019877756014466286, -0.014198397286236286, 0.00012014339881716296, 0.0007800203748047352, -0.0032643345184624195, -0.00023501912073697895, 0.03031584620475769, -0.0123441768810153, -0.028396794572472572, 0.008434755727648735, 0.003941838163882494, -0.0030374196358025074, -0.023119399324059486, -0.015806252136826515, -0.019047895446419716, -0.004356768447905779, 0.009199783205986023, -0.007248314097523689, 0.010159309953451157, 0.0025835896376520395, 0.05471893772482872, 0.005222287029027939, 0.027100136503577232, 0.016778744757175446, -0.0031703270506113768, 0.015508020296692848, -0.028630191460251808, -0.009517463855445385, -0.0024798570666462183, -0.015585820190608501, 0.007766976952552795, -0.01935909315943718, 0.024532755836844444, 0.012694274075329304, 0.011105868965387344, -0.0029353077989071608, -0.010820604860782623, 0.02015005424618721, 0.03096417523920536, -0.0034782830625772476, -0.003909421619027853, 0.02075948193669319, 0.0063990033231675625, 0.0012196681927889585, 0.02681487239897251, -0.019890721887350082, -0.014146531000733376, 0.03345375880599022, -0.017465973272919655, 0.0035269076470285654, -0.005351952742785215, 0.0025446899235248566, 0.0029515160713344812, 0.022691501304507256, 0.006379553582519293, -0.005818749312311411, 0.0005478376988321543, -0.00737149640917778, -0.03734372928738594, 0.00966009683907032, -0.008609804324805737, -0.016104482114315033, -0.015080124139785767, -0.008428271859884262, -0.0015203306684270501, -0.0180235356092453, -0.00035941717214882374, -0.008745953440666199, -0.015469120815396309, -0.012441426515579224, -0.003899696748703718, 0.0290191899985075, -0.00685931695625186, 0.00693063298240304, -0.022069105878472328, -0.018619997426867485, 0.026088744401931763, -0.0015900259604677558, -0.008104107342660427, -0.0008221617317758501, -0.016999175772070885, -0.017829036340117455, 0.04201169312000275, 0.00908308383077383, -0.016804678365588188, -0.0016662045381963253, -0.005582109559327364, 0.02873392403125763, -0.0019757815171033144, 0.03503567725419998, 0.02286006696522236, -0.009193300269544125, -0.006450869608670473, -0.022406237199902534, 0.026153577491641045, 0.002964482642710209, 0.0020859972573816776, 0.018918229267001152, 0.006116980686783791, -0.0292007215321064, 0.0031930184923112392, 0.027566934004426003, -0.006557844113558531, -0.0073974295519292355, -0.021641209721565247, 0.005086137913167477, 0.005886823870241642, 0.0019514691084623337, -0.016415681689977646, -0.015067157335579395, 0.0008517417008988559, -0.016960276290774345, -0.01386126596480608, -0.01314162090420723, 0.017180709168314934, 0.015144956298172474, -0.014263229444622993, -0.0428934209048748, -0.023093465715646744, 0.0022448378149420023, 0.007429846096783876, -0.009348899126052856, 0.028967322781682014, -0.015261655673384666, 0.016415681689977646, -0.007196447812020779, 0.010801155120134354, 0.00982217863202095, 0.017712337896227837, -0.00020442612003535032, -0.0004858412721659988, -0.0015081744641065598, -0.030471445992588997, -0.007565995212644339, 0.00691118324175477, -0.005773366428911686, -0.002189729828387499, -0.028993256390094757, 0.026309175416827202, -0.004045570734888315, 0.001047050696797669, -0.0029288246296346188, -0.019799957051873207, -0.01225341111421585, -2.1437897885334678e-05, -0.026918604969978333, 0.01305085513740778, -0.0033113383688032627, 0.011656948365271091, 0.0031298063695430756, 0.014146531000733376, -0.01747893914580345, -0.02057795040309429, -0.0042757270857691765, 0.006976015865802765, 0.023378729820251465, 0.0036825065035372972, 0.004058537073433399, 0.005150971002876759, 0.008473655208945274, 0.016921376809477806, -0.010055577382445335, 0.003458833321928978, -0.0342576839029789, -0.002087618224322796, -0.03669539839029312, 0.02286006696522236, 0.014263229444622993, 0.03936651349067688, -0.01155321579426527, -0.008480138145387173, -0.00980272889137268, 0.019462825730443, 0.008499587886035442, -8.848672587191686e-05, -0.011618048883974552, -0.030549244955182076, -0.0165842454880476, -0.0013979586074128747, -0.017245542258024216, -0.007267763838171959, -0.0022707709576934576, 0.014794859103858471, -0.01160508207976818, -0.005643700715154409, 0.005844682455062866, -0.00805872492492199, 0.01450959499925375, -0.03041957877576351, 0.030756710097193718, 0.021965373307466507, 0.017673438414931297, -0.0021070679649710655, -0.01925536058843136, -0.024247489869594574, -0.014276196248829365, 0.01143003348261118, -0.004943505860865116, -0.01672687940299511, 0.001789386966265738, -0.02790406346321106, -3.477168866083957e-05, 0.0024798570666462183, -0.002492823638021946, -0.005760399624705315, -0.01729740761220455, -0.008285639807581902, -0.012467359192669392, 0.005971106700599194, 0.011015103198587894, -0.013705667108297348, 0.0011937350500375032, 0.0007601653342135251, -0.002152451081201434, 0.019774023443460464, -0.0022270088084042072, -0.02480505406856537, 0.03288322687149048, 0.015093090012669563, 0.03215710073709488, 0.007754010148346424, 0.034698549658060074, -0.0008091951604001224, -0.020085221156477928, 0.009167366661131382, 0.037291862070560455, -0.008227290585637093, 0.011922763660550117, 0.029045121744275093, 0.025388548150658607, -0.025207016617059708, -0.01769937202334404, -0.008117074146866798, 0.014081697911024094, -0.008726503700017929, -0.018840430304408073, 0.03762899339199066, 0.002776467241346836, 0.014872658997774124, -0.01824396662414074, -0.003996945917606354, -0.007578961551189423, 0.005796058103442192, -0.01992962136864662, -0.011475416831672192, -0.0196443572640419, -0.008447721600532532, -0.03796612471342087, 0.023067532107234, -0.03379088640213013, 0.007488195784389973, -0.01281745731830597, -0.03311662748456001, 0.038303256034851074, -0.020318619906902313, -0.01935909315943718, 0.04247849062085152, 0.00883023627102375, 0.0192812941968441, -0.014678159728646278, -0.020889148116111755, 0.01391313225030899, 0.00447995075955987, -0.0016645836876705289, -0.012739657424390316, 0.0020227853674441576, 0.02282116748392582, -0.02948598563671112, 0.022250639274716377, -0.0012123745400458574, 0.01286932360380888, 0.017569705843925476, -0.02286006696522236, -0.012337693944573402, 0.0066583347506821156, 0.022652601823210716, -0.00822080671787262, -0.012214511632919312, 0.0015381596749648452, -0.01561175286769867, -0.0146003607660532, -0.007961475290358067, 0.0004761163436342031, -0.001747245667502284, -0.020201919600367546, -0.004327593371272087, -0.00654163584113121, -0.01061313971877098, -0.009796245954930782, -0.0008168940548785031, 0.012700757943093777, 0.013990932144224644, 0.0006892543751746416, -0.023378729820251465, 0.014379928819835186, -0.004499400500208139, 0.015909984707832336, -0.00781235983595252, 0.00565990898758173, -0.009478564374148846, 0.00578633276745677, -0.018088368698954582, -0.02033158577978611, 0.04501993954181671, -0.006813933607190847, -0.04323055222630501, -0.016247116029262543, -0.016415681689977646, -0.004301660228520632, 0.004774940200150013, -0.036902863532304764, 0.0030276947654783726, -0.0015965092461556196, -0.005747433286160231, -0.005727983545511961, -0.040792837738990784, 0.012772073969244957, -0.013614901341497898, 0.01648051291704178, 0.009498014114797115, -0.008791335858404636, -0.0026468015275895596, 0.0015430221101269126, -0.004100678488612175, 0.016999175772070885, -0.021900540217757225, 0.0023728827945888042, 0.0028461627662181854, -0.0051963538862764835, 0.00825322326272726, -0.0020795140881091356, -0.00739094614982605, -0.009724928997457027, -0.024195624515414238, 0.027022337540984154, 0.010276008397340775, -0.006411970127373934, 0.04035197198390961, 0.04115590080618858, 0.008467172272503376, 0.03788832575082779, -0.011715298518538475, -0.0033226842060685158, -0.0009254891192540526, -0.022302504628896713, -0.027203869074583054, -0.010729839093983173, -0.02015005424618721, 0.03586553782224655, 0.02397519163787365, -0.02112254686653614, -0.021135512739419937, 0.004398909863084555, -0.028033729642629623, 0.0004098652570974082, 0.002889924915507436, 0.0033259259071201086, 0.025933144614100456, 0.050491832196712494, -0.008655186742544174, 0.006988982670009136, -0.014042798429727554, 0.03456888347864151, -0.015209789387881756, -0.005980831570923328, 0.017530806362628937, -0.03550247475504875, 0.018451431766152382, -0.01152079924941063, -0.027203869074583054, -0.0290191899985075, 0.03622860461473465, 0.0020649267826229334, -0.006314720958471298, 0.03254609555006027, -0.020033353939652443, -0.01488562487065792, -0.004629066213965416, -0.005073171574622393, 0.004622583277523518, 0.0198258887976408, 0.01737520657479763, -0.037369661033153534, -0.005047238431870937, -0.0008476896909996867, 0.01996852084994316, 0.001384992036037147, 0.0005287930252961814, -0.0031411522068083286, -0.007105681579560041, 0.015637686476111412, 0.009348899126052856, 0.0023404662497341633, 0.019112728536128998, -0.004596650134772062, 0.024779120460152626, 0.019112728536128998, -0.012000562623143196, 0.023274997249245644, 0.0057571581564843655, -0.0003537443117238581, -0.01139113400131464, -0.04102623462677002, -0.03666946664452553, -0.009212750010192394, 0.008331023156642914, -0.020629817619919777, 0.025388548150658607, -0.028967322781682014, 0.025207016617059708, -0.018010569736361504, -0.026322141289711, 0.02120034582912922, -0.0020422351080924273, -0.02148560993373394, 0.04691305756568909, 0.00024190761905629188, -0.0044086347334086895, -0.0008890206227079034, -0.02616654336452484, 0.0011783372610807419, -0.00982217863202095, -0.0028607500717043877, -0.012947122566401958, -0.01636381447315216, 0.0030844234861433506, 0.010023160837590694, -0.03910718113183975, -0.019190527498722076, 0.004749007057398558, -0.008285639807581902, -0.002457165392115712, -0.0020795140881091356, 0.21202939748764038, -0.011618048883974552, -0.0045545087195932865, 0.016999175772070885, 0.008207840844988823, 0.027489133179187775, 0.004959714133292437, 0.002074651652947068, -0.022769302129745483, 0.021615276113152504, -0.015845151618123055, 0.007942025549709797, -0.017854969948530197, 0.012791523709893227, 0.010924337431788445, -0.006450869608670473, -0.014483661390841007, -0.024493854492902756, -0.018477365374565125, 0.011760680936276913, -0.0034523499198257923, -0.026840804144740105, 0.005170420743525028, 0.006116980686783791, -0.013977965340018272, -0.0010073406156152487, 0.011015103198587894, -0.002964482642710209, 0.023080499842762947, 0.026399942114949226, 0.02138187736272812, -0.014159496873617172, 0.002239975379779935, -0.0023193955421447754, -0.014029831625521183, -0.007176998071372509, -0.00766972778365016, -0.004372976720333099, 0.042737822979688644, 0.021978341042995453, -0.02025378681719303, -0.03124943934381008, -0.014717060141265392, 0.023884426802396774, -0.01553395390510559, 0.003157360479235649, -0.005076413042843342, -0.004317868500947952, -0.014016864821314812, 0.026361042633652687, -0.03558027371764183, -0.023884426802396774, 0.0012553263222798705, 0.02764473296701908, 0.00781235983595252, 0.012862839736044407, 0.014029831625521183, 0.007261280436068773, 0.01798463612794876, 0.020137086510658264, -0.005575626157224178, 0.03695473074913025, -0.00578633276745677, -0.0049370224587619305, 0.013232387602329254, -0.002648422494530678, -0.013005471788346767, 0.013653800822794437, 0.01382236648350954, 0.008875618688762188, 0.014055764302611351, -0.03638420253992081, -0.004369734786450863, -0.009439664892852306, -0.004654999356716871, -0.02321016415953636, 0.0396517775952816, -0.00035495992051437497, 0.02581644617021084, 0.0050050970166921616, -0.0025690020993351936, 0.00695008272305131, -0.012324727140367031, 0.008350472897291183, 0.009180333465337753, 0.006123463623225689, 0.014263229444622993, 0.013206453993916512, -0.012765591032803059, -0.0015916468109935522, -0.014405862428247929, -0.02509031817317009, -0.015780318528413773, 0.020539050921797752, 0.002218904672190547, -0.00818190723657608, 0.005572384689003229, 0.015780318528413773, -0.04260815680027008, -0.021317044273018837, -0.008609804324805737, -0.006314720958471298, 0.014872658997774124, -0.0062271966598927975, -0.02494768612086773, 0.01741410605609417, 0.0035495993215590715, 0.013550068251788616, 0.009705479256808758, -0.011935729533433914, -0.012195060960948467, -0.02717793546617031, -0.002752155065536499, -0.010716872289776802, 0.024558687582612038, 0.010451056994497776, 0.017582671716809273, 0.0028558876365423203, 0.010976203717291355, 0.0005656667053699493, -0.006807450670748949, -0.023845527321100235, 0.015196822583675385, -0.004473467357456684, 0.0026403183583170176, -0.01081412099301815, -0.04159676283597946, 0.028630191460251808, 0.0053422278724610806, -0.0228860005736351, 0.0006548119126819074, -0.011916279792785645, 0.0026192476507276297, 0.02660740725696087, -0.02379366010427475, -0.0012220994103699923, -0.014353996142745018, 0.01812726818025112, 0.00798740889877081, -0.0033048551995307207, 0.008538488298654556, -0.005604800768196583, 0.013206453993916512, -0.024001125246286392, 0.018658896908164024, -0.00265490566380322, -0.003312959335744381, 0.017893869429826736, 0.0064184535294771194, -0.012622958049178123, 0.00032315129647031426, -0.0028137462213635445, -0.03845885396003723, -0.021511543542146683, 0.007676210720092058, -0.00656108558177948, 0.003873763605952263, -0.039781443774700165, 0.00033348402939736843, 0.025505248457193375, -0.016013717278838158, 0.00521904556080699, 0.015144956298172474, -0.012512742541730404, 0.008000374771654606, 0.014522560872137547, -0.16213402152061462, 0.025583047419786453, 0.022691501304507256, -0.002209179801866412, 0.014665193855762482, 0.01070390548557043, 0.004593408200889826, -0.003014728194102645, -0.01668797805905342, 0.015196822583675385, 0.023171264678239822, 0.012934155762195587, -0.027929997071623802, -0.012862839736044407, -0.020059287548065186, 0.009271099232137203, 0.018619997426867485, 0.019203493371605873, 0.014341029338538647, 0.012609992176294327, -0.012020012363791466, -0.042530357837677, 0.005860890727490187, 0.0004898933111689985, -0.006625918671488762, 0.008655186742544174, -0.019670290872454643, 0.0165842454880476, 0.0004825996293220669, 0.00039203622145578265, -0.004742523655295372, -0.011034552939236164, 0.046135064214468, -0.015248688869178295, -0.0016613421030342579, -0.008266190066933632, 0.004736040718853474, -0.009744379669427872, -0.031742170453071594, 0.0038543136324733496, 0.018360666930675507, -0.0010924336966127157, 0.003124943934381008, -0.028422726318240166, 0.013601934537291527, 0.03980737924575806, 0.029823116958141327, -0.012584058567881584, -0.016558313742280006, -0.015106056816875935, 0.008434755727648735, -0.0031589812133461237, 0.04629066213965416, 0.0041849613189697266, 0.016130415722727776, 0.01367973443120718, 0.0043632518500089645, 0.03589147329330444, 0.0015170889673754573, 0.0022497002501040697, -0.014315095730125904, -0.03013431467115879, 0.00012530977255664766, -0.005789574701339006, 0.019553590565919876, -0.016273047775030136, -0.021044747903943062, 0.011948696337640285, -0.0123441768810153, -0.00039487265166826546, 0.01773827150464058, -0.03169030323624611, 0.011611565947532654, 0.006800967268645763, 0.0038640385027974844, -0.0017796620959416032, 0.006058630999177694, -0.024065958335995674, 0.0026370766572654247, 0.01533945556730032, -0.020357519388198853, 0.051606956869363785, -0.016610179096460342, -0.00575067475438118, -0.0008638979052193463, -0.009686029516160488, -0.02217283844947815, 0.04048163816332817, -0.010237108916044235, 0.007040848955512047, -0.024014092981815338, -0.04297121986746788, 0.018879329785704613, -0.0320793017745018, 0.010237108916044235, 0.024247489869594574, 0.0008444480481557548, 0.004385943058878183, 0.011864413507282734, -0.012545159086585045, 0.007105681579560041, 0.0005368971615098417, -0.02339169755578041, -0.010846537537872791, 0.035320945084095, 0.03140503913164139, -0.0028413000982254744, 0.010878954082727432, 0.026659272611141205, 0.004136336501687765, 0.0091025335714221, -0.008026308380067348, 0.018645931035280228, 0.024779120460152626, -0.040170442312955856, 0.001555178314447403, 0.023054566234350204, -0.00897286832332611, 0.008467172272503376, 1.4334140360006131e-05, 0.013485235162079334, -0.01225341111421585, -0.010237108916044235, 0.0111771859228611, -0.0027716048061847687, -0.007040848955512047, -0.0840233862400055, -0.003000140655785799, 0.014055764302611351, 0.028241194784641266, -0.011825514025986195, 0.000506101525388658, -0.0063990033231675625, 0.004648516420274973, 0.009005284868180752, -0.0006045664194971323, -0.036462001502513885, -0.002353432821109891, 0.02004632167518139, -0.011987595818936825, 0.03311662748456001, -0.0059030321426689625, 0.001569765736348927, -0.01533945556730032, 0.0001950050937011838, 0.020992880687117577, -0.013939065858721733, -1.4156863471725956e-05, 0.008713536895811558, -0.030341779813170433, 0.005394094157963991, -0.011112352833151817, -0.030341779813170433, 0.021965373307466507, 0.01992962136864662, 0.019410958513617516, 0.014392895624041557, 0.016156349331140518, 0.011274434626102448, -0.01856813207268715, 0.009290548972785473, 0.0008825373370200396, -0.010308424942195415, -0.008480138145387173, 0.0012269619619473815, -0.022652601823210716, -0.008668153546750546, 0.001583542674779892, 0.022069105878472328, -0.060113031417131424, 0.013135137967765331, -0.019307225942611694, -0.002552794059738517, 0.002251321217045188, 0.0064314198680222034, -0.021148480474948883, -0.0261406097561121, 0.0025333440862596035, -0.023625094443559647, 0.01377050019800663, 0.028163395822048187, -0.010334358550608158, -0.011773647740483284, 0.02448088862001896, -0.02223767153918743, -0.015702519565820694, -0.008856168948113918, 0.015352421440184116, -0.012071878649294376, -0.018801530823111534, 0.017401140183210373, 0.018192101269960403, -0.02422155812382698, -0.0048592230305075645, 0.008363439701497555, 0.005494585260748863, -0.019385026767849922, -0.007462262641638517, 0.015559886582195759, 0.0014279438182711601, -0.03324629366397858, -0.03060111030936241, -0.03565807268023491, -0.021433744579553604, 0.007546545006334782, -0.020033353939652443, -0.004327593371272087, -0.007501162122935057, 0.011643982492387295, -0.020487183704972267, 0.009225715883076191, 0.032494232058525085, 0.0015511262463405728, -0.012622958049178123, 0.009828661568462849, -0.025686779990792274, -0.003993704449385405, 0.006616193801164627, 0.027774399146437645, -0.018088368698954582, -0.020733550190925598, 0.004347043577581644, 0.01553395390510559, -0.019449857994914055, -0.013238870538771152, 0.025570081546902657, -0.02379366010427475, -0.022847101092338562, -0.06467726081609726, 0.00807169172912836, 0.010113926604390144, -0.012084845453500748, -0.021511543542146683, 0.01925536058843136, 0.011514316312968731, 0.0023242582101374865, 0.006885250099003315, -0.004505883902311325, -0.03537280857563019, 0.0021962132304906845, 0.015495054423809052, -0.01992962136864662, -0.02501251921057701, -0.034050218760967255, 0.023625094443559647, 0.02523295022547245, 0.006142913829535246, 0.009997227229177952, 0.030938241630792618, 0.0019628149457275867, 0.030471445992588997, 0.014185430482029915, -0.03947024792432785, -0.01238307636231184, -0.012700757943093777, 0.00834398902952671, -0.011656948365271091, 0.004946747329086065, 0.012577575631439686, -0.021537477150559425, -0.02217283844947815, 0.03537280857563019, -0.016156349331140518, -0.01483375858515501, -0.0212651789188385, 0.0036630567628890276, -0.007164031267166138, 0.04667966067790985, -0.020383451133966446, -0.025440415367484093, 0.016169315204024315, -0.020746516063809395, -0.015157923102378845, 0.010917853564023972, 0.012195060960948467, -0.0021881090942770243, 0.006373070180416107, 0.019994454458355904, -0.0017018626676872373, 0.009971294552087784, -0.007520611863583326, -0.020422352477908134, 0.02000742219388485, 0.004972680471837521, 0.011365200392901897, 0.038303256034851074, 0.020707616582512856, -0.011754197999835014, 0.033972419798374176, -0.004573958460241556, 0.01733630709350109, 0.008117074146866798, 0.00010748072963906452, -0.03236456587910652, -0.017854969948530197, -7.222786371130496e-05, 0.003987221047282219, -0.05923130363225937, -0.030756710097193718, 0.0029871740844100714, 0.027489133179187775, 0.010321391746401787, 0.0070602986961603165, -0.01152079924941063, -0.00039183360058814287, -0.03547654300928116, -0.0007836672011762857, 0.03013431467115879, 0.004181719850748777, -0.018944162875413895, -0.033505622297525406, 0.01812726818025112, 0.024027058854699135, -0.01773827150464058, -0.029693450778722763, 0.014302129857242107, 0.01907382719218731, 0.0421672947704792, 0.005958139896392822, 0.01589701697230339, -0.007611378096044064, 0.006502735894173384, -0.006528669036924839, -0.0295637845993042, -0.004635549616068602, -0.017569705843925476, -0.0011596977710723877, 0.0123441768810153, 0.0040520536713302135, -0.0009133329731412232, -0.008629254065454006, -0.048858046531677246, 0.003967771306633949, -0.022198772057890892, -0.033324092626571655, -0.024390121921896935, 0.012065395712852478, 0.0113522345200181, -0.007540062069892883, 0.018542198464274406, 0.020526085048913956, 0.0030811817</t>
+  </si>
+  <si>
+    <t>[0.010284597054123878, -0.001112452824600041, -0.018713725730776787, -0.028150107711553574, -0.008826728910207748, -0.003754010424017906, -0.007183313835412264, 0.0031311032362282276, -0.005818219389766455, -0.016063056886196136, -0.0021801756229251623, 0.011006904765963554, -0.0260560791939497, -0.006467632949352264, -0.017547430470585823, -0.006341726519167423, 0.040926333516836166, 0.01742815040051937, 0.00674595357850194, -0.024690985679626465, -0.020794501528143883, 0.014446147717535496, 0.0015141948824748397, -0.016155829653143883, 0.013796733692288399, -0.006673059891909361, -0.002935616299510002, -0.025830771774053574, -0.021298127248883247, -0.010390623472630978, 0.000623735599219799, -0.0008109391201287508, -0.02365722320973873, -0.008130928501486778, -0.02637415938079357, 0.0009592109709046781, 0.00641130656003952, 0.012126811780035496, 0.017931777983903885, 0.008866488933563232, 0.01604980230331421, -0.015731722116470337, -0.001986345276236534, -0.012100305408239365, -0.011755718849599361, 0.021589701995253563, -0.016155829653143883, 0.009197822771966457, 0.0034690634347498417, -0.015943776816129684, 0.017679965123534203, 0.019045058637857437, -0.012464772909879684, -0.01908481866121292, -0.011477397754788399, -0.033583980053663254, -0.02539341151714325, 0.0248500257730484, -0.0025413292460143566, -0.013100933283567429, 0.0017892017494887114, 0.006567033473402262, -0.025340398773550987, -0.009873743169009686, -0.023683730512857437, -0.008634555153548717, -0.020648714154958725, -0.011517157778143883, -0.014870255254209042, 0.006109792739152908, 0.014472654089331627, 0.028733255341649055, 0.020052313804626465, -0.011722585186362267, 0.041456468403339386, 0.007865861058235168, -0.015307615511119366, 0.02325962297618389, 0.008071288466453552, -0.004598911385983229, 0.003863350488245487, -0.02942243032157421, 0.0030068529304116964, 0.03851422667503357, 0.024174103513360023, 0.02160295471549034, -0.0038799173198640347, 0.01597028225660324, 0.008190568536520004, 0.007819474674761295, 0.008886368945240974, 0.016990790143609047, 0.023418663069605827, -0.001372549682855606, -0.024876531213521957, -0.012835865840315819, -0.010688823647797108, 0.015214841812849045, -0.006073345895856619, -0.015320869162678719, -0.0027500693686306477, 0.013743720017373562, -0.014300361275672913, -0.02710309438407421, -0.040608253329992294, 0.003555210307240486, 0.00632847286760807, -0.010344237089157104, 0.016606442630290985, -0.0028378728311508894, 0.010052663274109364, 0.0250620786100626, 0.019707726314663887, -0.051873598247766495, -0.00864780880510807, -0.00718994066119194, 0.009085169062018394, -0.0013708930928260088, 0.001767665147781372, -0.02054268680512905, 0.002713622758165002, 0.03501534089446068, -0.0015779766254127026, 0.015002788044512272, 0.05086634308099747, -0.02365722320973873, -0.016354629769921303, -0.00970807671546936, -0.018660711124539375, -0.008780342526733875, 0.021655967459082603, 0.008674315176904202, 0.0270500797778368, -0.002653982723131776, -0.009674943052232265, 0.01591726951301098, -0.03109235130250454, 0.009336982853710651, -0.00020604812016244978, -0.015453401952981949, 0.038408197462558746, -0.004131730645895004, -0.04058174788951874, -0.0003984287322964519, -0.006997766904532909, 0.02875976264476776, -0.022172849625349045, 0.017587190493941307, 0.0004675946256611496, -0.0012565829092636704, 0.023365650326013565, -0.03392856568098068, -0.0025976558681577444, -0.014234093949198723, 0.01855468563735485, -0.004648611415177584, -0.016951030120253563, 0.01272321306169033, -0.012868999503552914, 0.026069331914186478, -0.00858154147863388, 0.024571703746914864, 0.00510585168376565, 0.011238837614655495, 0.03154296427965164, 0.01903180591762066, -0.00748814083635807, 0.018210098147392273, 0.004711564630270004, -0.003132759826257825, 0.014538921415805817, 0.03220563381910324, -0.021046314388513565, 0.034432195127010345, 0.015294361859560013, 0.018660711124539375, 0.0012797763338312507, 0.006345039699226618, -0.01517508178949356, -0.0005189513321965933, -0.010284597054123878, 0.007647180929780006, 0.06064731255173683, 0.02166922204196453, 0.012219585478305817, -0.004996511619538069, 0.01070870365947485, 0.026427173987030983, -0.0028809462673962116, -0.015095561742782593, -0.006659806706011295, 0.005191998556256294, 0.028150107711553574, -0.01494977530092001, -0.6454910039901733, 0.011126184836030006, -0.006003765854984522, -0.011855118907988071, 0.02663922682404518, 0.02133788727223873, 0.010092423297464848, 0.014194333925843239, -0.009025529026985168, -0.021125834435224533, -0.036420196294784546, 0.007017646916210651, 0.020714981481432915, -0.009456262923777103, -0.02067522145807743, -0.01245814561843872, 0.0012342178961262107, -0.029581470414996147, 0.010529783554375172, 0.000765794946346432, -0.002584402682259679, 0.04031667858362198, -0.02743442729115486, 0.003545270301401615, 0.00960867665708065, 0.002486659213900566, 0.008223701268434525, 0.00281633622944355, -0.022318635135889053, -0.00875383522361517, -0.006215819623321295, 0.004270890727639198, 0.002682145917788148, -0.02849469520151615, 0.05298687890172005, 0.00862130243331194, -0.006560406647622585, 0.06223771721124649, 0.022093329578638077, 0.02433314360678196, -0.0014106531161814928, -0.02804408222436905, 0.03504185006022453, -0.002147042192518711, 0.01982700638473034, 0.015201588161289692, 0.03498883545398712, 0.02426687814295292, 0.003212279872968793, -0.01060267724096775, -0.004217877518385649, 0.016420897096395493, -0.0021785188000649214, 0.0012880596332252026, 0.019866766408085823, -0.023948797956109047, 0.02809709496796131, -0.015135321766138077, 0.004446497652679682, 0.006169432774186134, -0.00914480909705162, 0.007912248373031616, 0.012478025630116463, -0.020502926781773567, 0.004893798381090164, 0.011119557544589043, -0.019575193524360657, -0.01822335086762905, 3.406524410820566e-05, -0.0024584957864135504, 0.003585030324757099, 0.03042968362569809, -0.030906803905963898, 0.0002851540339179337, -0.009111675433814526, 0.02539341151714325, -0.013167199678719044, 0.004724818281829357, 0.01775948517024517, 0.027089839801192284, -0.0001891708088805899, -0.0004767063073813915, -0.02420061081647873, 0.0033961699809879065, 0.020847514271736145, 0.022225862368941307, -0.003184116445481777, -0.010821357369422913, 0.021655967459082603, 0.014260601252317429, -0.0022613522596657276, 0.0005922589334659278, 0.006441126577556133, -0.02777901478111744, -0.01795828528702259, 0.03846121206879616, -0.03167549893260002, 0.02632114663720131, 0.006719446741044521, -0.035757530480623245, -0.021523434668779373, -0.002755039371550083, 0.01650041714310646, -0.006742639932781458, -0.003833530470728874, 0.011358117684721947, -0.02557895891368389, 0.008999022655189037, 0.007991768419742584, -0.010768343694508076, -0.007421873975545168, 0.0005761064239777625, -0.0027881728019565344, -0.028786268085241318, -0.01312743965536356, -0.024571703746914864, 0.007070660591125488, 0.015559429302811623, 0.007408620789647102, -0.01697753742337227, -0.009303849190473557, -0.006706193555146456, 0.005645925644785166, 0.00281633622944355, -0.0036380435340106487, 0.02591029182076454, 0.02730189450085163, -0.011629811488091946, -0.03143693879246712, -0.00412841746583581, 0.009105049073696136, 0.02261020988225937, -0.006798966787755489, -0.016288362443447113, -0.004443184472620487, 0.015678709372878075, 0.010894251056015491, 0.0007881599594838917, 0.02339215762913227, -0.031781524419784546, -0.01050327718257904, -0.01173583883792162, 0.007223073858767748, -0.020714981481432915, -0.033053845167160034, -0.01881975308060646, -0.024611463770270348, 0.003730816999450326, -0.022119835019111633, 0.018607698380947113, 0.0008005849667824805, 0.02420061081647873, -0.034829795360565186, 0.020449914038181305, 0.017732977867126465, 0.014552174136042595, -0.01597028225660324, -0.008926128968596458, -0.019641458988189697, -0.00603027269244194, -0.003966064192354679, 0.0017312184209004045, 0.005056151654571295, 0.010953891091048717, 0.010383997112512589, -0.014803987927734852, 0.0037076238077133894, -0.009350236505270004, 0.01644740253686905, -0.0102117033675313, -0.0005516705568879843, -0.004201310686767101, -0.004827531520277262, 0.001261552912183106, -0.01203403901308775, 0.02928989566862583, -0.05017717182636261, 0.0014868598664179444, -0.007408620789647102, -0.013432267121970654, 0.010496650822460651, -0.005261578597128391, -0.02844168245792389, -0.02306082285940647, 0.021178847178816795, -0.021192101761698723, 7.392882253043354e-05, -0.007574287708848715, -0.034962330013513565, 0.037347931414842606, 0.012173199094831944, -0.006275459658354521, 0.004463064484298229, -0.016791990026831627, -0.004734758287668228, 0.010934011079370975, 0.00891950260847807, -0.010794850997626781, -0.010847864672541618, 0.023617463186383247, 0.015731722116470337, 0.032391179352998734, 0.02724887989461422, -0.0015663799131289124, 0.021245114505290985, -0.02234514243900776, 0.033053845167160034, -0.0031277898233383894, 0.040528733283281326, -0.011417757719755173, 0.0044730044901371, -0.02425362356007099, -0.017202844843268394, -0.01684500277042389, 0.004207937512546778, 0.001183689571917057, -0.006798966787755489, 0.011252091266214848, -0.010357490740716457, 0.02239815518260002, 0.03400808572769165, 0.006142925936728716, -0.005662492476403713, 0.03400808572769165, -0.02332589030265808, -0.010324357077479362, 0.00844900868833065, 0.00891950260847807, 0.014870255254209042, -0.008223701268434525, -0.009999649599194527, 0.04315289482474327, -0.00964180938899517, 0.00768694095313549, 0.02047642134130001, -0.006679686717689037, 0.002925676293671131, -0.015943776816129684, 0.0006050980882719159, -0.008170688524842262, 0.02367047779262066, 0.0028875728603452444, 0.030774271115660667, 0.0011447578435763717, 0.01842215098440647, 0.0010097393533214927, 0.009469516575336456, 0.026731999590992928, 0.0017825751565396786, 0.005400738678872585, 0.012000905349850655, 0.011245464906096458, -0.002475062385201454, 0.009456262923777103, -0.005129045341163874, -0.01050990354269743, 0.01537388190627098, -0.019310126081109047, 0.013664199970662594, 0.01956193894147873, -0.002065865322947502, 5.596432674792595e-05, 0.002206682227551937, 0.01223283912986517, -0.001622706651687622, -0.004648611415177584, -0.009774343110620975, -0.0270500797778368, -0.002133788773790002, -0.011709331534802914, -0.0192173533141613, -0.013551547192037106, -0.00031994408345781267, -0.006417932920157909, 0.005119105335325003, -0.026069331914186478, -0.01139787770807743, 0.0073423539288342, -0.007898994721472263, 0.013173826970160007, -0.006586913485080004, -0.02504882588982582, 0.029395923018455505, 0.0255126915872097, 0.0004299054271541536, -0.013796733692288399, -0.016858257353305817, 0.021921034902334213, -0.02950195036828518, 0.014697961509227753, 0.011914758943021297, -0.010337610729038715, -0.013611187227070332, 0.0034591234289109707, -0.00670950673520565, -0.008879742585122585, 0.004115164279937744, -0.01203403901308775, 0.03172851353883743, 0.00475463829934597, 0.020463166758418083, -0.007812847383320332, -0.018064310774207115, -0.005112478509545326, 0.04005161300301552, -0.009959889575839043, -0.015360629186034203, 0.0025678358506411314, -0.008588168770074844, -0.006951380521059036, 0.008979142643511295, 0.020794501528143883, -0.0009351892513222992, 0.013783480040729046, 0.01644740253686905, -0.024571703746914864, -0.006043525878340006, 0.012007531709969044, 0.027063334360718727, -0.007130300626158714, -0.008164061233401299, -0.007315847557038069, -0.03286829963326454, 0.010337610729038715, 0.08195869624614716, 0.0006974573479965329, -0.014565427787601948, -0.003744070418179035, -0.004108537454158068, -0.0007024273509159684, -0.01923060603439808, -0.005026331637054682, -0.015572682023048401, 0.00508928531780839, 0.004890484735369682, -0.0010809761006385088, 0.036287661641836166, 0.004549211356788874, 0.010264717042446136, -0.012749719433486462, 0.004767891485244036, -0.021841514855623245, 0.018872765824198723, 0.004353724420070648, -0.00045434129424393177, -0.007315847557038069, 0.01070207729935646, 0.01822335086762905, 0.01604980230331421, 0.01544014923274517, 0.015135321766138077, 0.025300638750195503, 0.0010942294029518962, -0.02107282169163227, -0.0021205353550612926, -0.021788502112030983, -0.016142576932907104, -0.005977259483188391, -0.00864780880510807, 2.6765546863316558e-05, -0.0013576396740972996, 0.01954868622124195, 0.009953263215720654, -0.0037672638427466154, 0.03604910150170326, 0.0005852180765941739, -0.011523785069584846, -0.01176234520971775, -0.00664655352011323, -0.010470143519341946, -0.0012781196273863316, 0.014870255254209042, -0.005155551712960005, -0.007567660883069038, 0.028282642364501953, -0.008309848606586456, 0.00954240933060646, -0.012305731885135174, 0.01855468563735485, -0.013312987051904202, 0.011179197579622269, 0.012511159293353558, -0.049620531499385834, -0.0009940010495483875, 0.005960692651569843, -0.04251673445105553, -0.0020029121078550816, -0.025287386029958725, -0.003581716911867261, -0.012868999503552914, -0.006898366846144199, 0.0007720074499957263, -0.0013849746901541948, 0.028070587664842606, 0.009197822771966457, -0.02531389147043228, -0.02047642134130001, -0.0012168228859081864, 0.025009065866470337, 0.02624162659049034, 0.010761717334389687, -0.0026075958739966154, -0.026281386613845825, 0.039282917976379395, 0.012888879515230656, 0.01156354509294033, -0.0020393587183207273, -0.011523785069584846, -0.017335377633571625, 0.0270500797778368, 0.04201310873031616, -0.012478025630116463, -0.012941893190145493, -0.006530586630105972, 0.004844098351895809, 0.012252719141542912, 0.021788502112030983, -0.0014694648561999202, -0.020171593874692917, -0.021457167342305183, -0.007567660883069038, -0.008309848606586456, 0.009794223122298717, -0.004585657734423876, 0.007580914068967104, 0.014406387694180012, -0.012279225513339043, 0.003223876468837261, 0.02822962775826454, -0.015161828137934208, 0.0040290174074471, -0.03101283125579357, -0.00043404710595496, -0.004721504636108875, 0.009065289050340652, -0.0038997973315417767, -0.019906526431441307, -0.003952810540795326, -0.011079797521233559, 0.01976073905825615, -0.00961530301719904, 0.024227118119597435, -0.016328122466802597, 0.011126184836030006, -0.021496927365660667, -0.02266322262585163, -0.0010602676775306463, 0.0293694157153368, -0.02703682705760002, 0.003760637016966939, -0.004141670651733875, -0.007746580988168716, -0.012637065723538399, -0.006649866700172424, 0.005122418515384197, 0.04967354238033295, -0.014644947834312916, -0.03626115620136261, -0.003800397040322423, -0.015413641929626465, -0.005901052616536617, -0.006345039699226618, -0.022557195276021957, -0.03708286210894585, -0.03498883545398712, 0.006388112902641296, -0.011709331534802914, 0.012511159293353558, 0.010940637439489365, -0.019588446244597435, -0.009993023239076138, -0.01166957151144743, 0.005009764805436134, 0.020781246945261955, 0.01597028225660324, -0.028600722551345825, -0.008515275083482265, 0.009880369529128075, 0.00855503510683775, -0.017467910423874855, 0.004615477751940489, 0.004728131461888552, 0.003295113332569599, 0.04116489365696907, -0.0003046198980882764, 0.009787596762180328, 0.028150107711553574, 0.004893798381090164, -0.017719725146889687, -0.01591726951301098, -0.029926056042313576, 0.013087679632008076, -0.0315694734454155, 0.030588723719120026, 0.03464424982666969, 0.039468467235565186, 0.001597028225660324, 0.013743720017373562, -0.005987199489027262, 0.00432721758261323, -0.012782853096723557, -0.01618233695626259, -0.00904540903866291, -0.01528110820800066, 0.031861044466495514, -0.016155829653143883, -0.0009012275841087103, 0.007965261116623878, 0.0011944578727707267, -0.002415422350168228, 0.006235699634999037, 0.006268832832574844, -0.0036181635223329067, 0.016738977283239365, 0.01583774946630001, -0.02730189450085163, 0.03883230686187744, -0.010291223414242268, -0.0202113538980484, -0.0019084819359704852, -0.009091795422136784, -0.01631486974656582, -0.008992395363748074, 0.012318985536694527, -0.010914131067693233, -0.028256135061383247, 0.005629358813166618, -0.012584052979946136, 0.009449636563658714, 0.014817241579294205, -0.008164061233401299, -0.030138110741972923, -0.023365650326013565, -0.013703959994018078, -0.016725722700357437, -0.022119835019111633, -0.009436382912099361, -0.01782575063407421, 0.017945030704140663, -0.0024982558097690344, -0.003913050517439842, 0.014843747951090336, -0.008521901443600655, -0.037029851227998734, 0.0178920179605484, -0.02670549415051937, 0.02306082285940647, 0.013372627086937428, 0.017653457820415497, 0.008104421198368073, -0.0033183067571371794, -0.01428710762411356, 0.026215119287371635, 0.00848214142024517, -0.007130300626158714, 0.022252369672060013, -0.01868721842765808, 0.008965888991951942, -0.02658621408045292, -0.009529156610369682, 0.047367461025714874, -0.027328399941325188, -0.032709259539842606, 0.042861323803663254, 0.0036281035281717777, 0.008873115293681622, -0.014167827554047108, 0.0010312760714441538, 0.011225584894418716, 0.015188335441052914, -0.01729561761021614, 0.00540405185893178, -0.028070587664842606, -0.02022460661828518, -0.03334541991353035, 0.01583774946630001, 0.008535155095160007, 0.01830287091434002, -0.010668943636119366, 0.0015083964681252837, 0.030005576089024544, -0.030270643532276154, -0.0198800191283226, 0.02359095774590969, 0.0036711769644171, 0.012113559059798717, -0.01856793835759163, 0.0194294061511755, -0.0004994855262339115, 0.02339215762913227, -0.035571981221437454, -0.01391601376235485, 0.00941650290042162, 0.024081330746412277, -0.016738977283239365, 0.012047291733324528, -0.004979944787919521, -0.0028494694270193577, 0.02332589030265808, -0.019734233617782593, -0.005679058842360973, 0.01292201317846775, 0.007739954628050327, -0.013849747367203236, 0.003946184180676937, -0.0005835614283569157, -0.010165316984057426, -0.0080580348148942, 0.002736816182732582, -0.009562289342284203, -0.006417932920157909, -0.029714003205299377, 0.005420618690550327, -0.009171315468847752, -0.0028610662557184696, -0.009336982853710651, -0.008170688524842262, -0.014830495230853558, 0.001885288511402905, 0.007269460707902908, -0.01717633754014969, 0.02266322262585163, -0.02492954581975937, 0.02817661501467228, -0.01565220206975937, 0.03660574182868004, 0.012478025630116463, 0.030270643532276154, 0.007315847557038069, 0.026625974103808403, 0.030509203672409058, 0.00788574106991291, -0.004244384355843067, -0.023100582882761955, -0.0020410153083503246, -0.012073799036443233, -0.003700996981933713, -0.03220563381910324, 0.019999299198389053, 0.002965436317026615, -0.009986396878957748, -0.029183870181441307, -0.026413919404149055, 0.002933959709480405, -0.009754463098943233, 0.016871510073542595, 0.02412109076976776, -0.001227591186761856, -0.012497905641794205, 0.01777273789048195, -0.003561836900189519, 0.001096714404411614, -0.013273227028548717, -0.002523105824366212, 0.006626673508435488, 0.015201588161289692, -0.0145786814391613, 0.0010834611020982265, -0.005165491718798876, -0.026811519637703896, -0.01650041714310646, 0.02769949473440647, 0.0002055304212262854, -0.02910434827208519, 0.03493582084774971, 0.007713447790592909, -0.006567033473402262, 0.011855118907988071, -0.009833983145654202, -0.016593189910054207, -0.018475165590643883, -0.007653807755559683, -0.013551547192037106, -0.012020785361528397, -0.0178920179605484, 0.03591657057404518, 0.006123045925050974, -0.009595423005521297, 0.003913050517439842, 0.006785713601857424, -0.02413434349000454, 0.015930522233247757, -0.022252369672060013, -0.005503452382981777, 0.020900527015328407, 0.006838726811110973, 0.001573006622493267, -0.008740582503378391, -0.002175205620005727, 0.025737999007105827, -0.020317381247878075, 0.0032702633179724216, 0.004814278334379196, -0.006600166670978069, 0.003691056976094842, -0.013153946958482265, -0.0587388314306736, -0.01862095110118389, 0.016685962677001953, -0.004121790640056133, 0.0019631520844995975, 0.014896761626005173, -0.014260601252317429, -0.019773993641138077, -0.0013162229442968965, -0.002244785660877824, 0.017414897680282593, -0.00270202592946589, 0.025897039100527763, -0.00495343841612339, 0.002875976264476776, 0.012815985828638077, 0.0019449286628514528, -0.02188127487897873, -0.007600794080644846, -0.02777901478111744, 0.00815080851316452, 0.017269110307097435, -0.010934011079370975, -0.021642714738845825, 0.001243329606950283, 0.006736013572663069, 0.023378903046250343, -0.002226562239229679, -0.006567033473402262, -0.009820729494094849, 0.028812775388360023, -0.025698238983750343, -0.016089562326669693, -0.01909807324409485, -0.0293694157153368, -0.02213308960199356, -0.0029190497007220984, -0.012378625571727753, 0.018581191077828407, -0.0020310753025114536, 0.021258367225527763, -0.005115791689604521, 0.0008192224777303636, -0.020463166758418083, 0.011079797521233559, -0.00020366665557958186, 0.011729211546480656, 0.010847864672541618, -0.008972515352070332, 0.006971260532736778, -0.007474887650460005, -0.010615930892527103, -0.0019730920903384686, -0.009979769587516785, -0.008270088583230972, -0.02479701116681099, 0.00574863888323307, 0.025631971657276154, -0.030986323952674866, -0.020264366641640663, -0.008508648723363876, -0.021841514855623245, 0.007123673800379038, 0.030270643532276154, 0.20707029104232788, -0.000541316403541714, -0.018740233033895493, 0.03679129108786583, -0.0016790333902463317, 0.006924873683601618, -0.01041050348430872, 0.0122593455016613, 0.0030399863608181477, 0.039733532816171646, 0.013273227028548717, 0.004002510569989681, -0.013902761042118073, 0.003382916795089841, 0.020980047062039375, -0.020370393991470337, -0.022027062252163887, -0.027487440034747124, -0.0010635810904204845, 0.018673965707421303, -0.008144181221723557, -0.030482696369290352, 0.011974398978054523, -0.00359497033059597, 0.014618441462516785, 0.018912525847554207, 0.0005438014050014317, -0.034034594893455505, 0.034299660474061966, 0.009363489225506783, -0.01494977530092001, -0.015161828137934208, 0.011311731301248074, 0.016805242747068405, -0.014830495230853558, 0.011106304824352264, -0.014048547483980656, 0.005298025440424681, 0.033106859773397446, 0.012173199094831944, 0.003071462968364358, -0.01828961819410324, 0.004632044583559036, -0.0015141948824748397, -0.006325159687548876, 0.000947614258620888, 0.01086774468421936, -0.023113835602998734, -0.0032189064659178257, 0.032046593725681305, -0.02234514243900776, -0.028123602271080017, -0.011185824871063232, 0.009158062748610973, 0.009602049365639687, -0.011517157778143883, 0.02101980708539486, 0.011112931184470654, -0.00038621079875156283, 0.0010909161064773798, -0.009827356785535812, 0.0270500797778368, -0.034246645867824554, 0.026745254173874855, -0.011676198802888393, 0.034432195127010345, -0.01282261312007904, 0.01750767044723034, 0.0024402723647654057, -0.005264891777187586, 0.013942521065473557, -0.03212611377239227, 0.0080580348148942, -0.014803987927734852, 0.008574915118515491, -0.01090087741613388, 0.010880997404456139, -0.006858606822788715, 0.024743998423218727, 0.023962050676345825, -0.010370743460953236, 0.008866488933563232, -0.005596225615590811, 0.027593467384576797, -0.004489571321755648, -0.01292863953858614, 0.009648436680436134, -0.0017693217378109694, -0.018117325380444527, -0.03700334206223488, 0.004986571613699198, -0.015519669279456139, 0.004648611415177584, 0.001392429694533348, -0.005099225323647261, -0.00728934071958065, 0.015479909256100655, 0.014936521649360657, -0.01896553859114647, -0.006321846507489681, -0.014446147717535496, -0.013863001018762589, 0.0178920179605484, 0.0022514122538268566, -0.04686383530497551, -0.00991350319236517, 0.003384573385119438, 0.02386927790939808, 0.00670950673520565, 0.00744175398722291, -0.014790735207498074, -0.03202008455991745, -0.014803987927734852, -0.021589701995253563, 0.021576447412371635, 0.00941650290042162, -0.007011020556092262, -0.03212611377239227, 0.010072543285787106, -0.01855468563735485, 0.015002788044512272, -0.02127162180840969, 0.023551197722554207, 0.018064310774207115, -0.037162382155656815, -0.007739954628050327, -0.02597655914723873, 0.013405759818851948, 0.011928011663258076, -0.036685261875391006, 0.034511715173721313, -0.024280130863189697, -0.00818394124507904, 0.03347795456647873, -0.026559706777334213, 0.009290595538914204, -0.031914059072732925, 0.009105049073696136, 0.0033282467629760504, 0.003565150313079357, -0.007057406939566135, -0.001926705241203308, 0.008634555153548717, -0.00904540903866291, 0.007348980754613876, -0.009303849190473557, 0.016328122466802597, 0.011040037497878075, -0.014618441462516785, -0.003331559943035245, 0.0184354055672884, -0.015466655604541302, -0.02512834593653679, -0.01995953917503357, -0.0007844324572943151, -0.010914131067693233, -0.011556917801499367, -0.012478025630116463, 0.007739954628050327, 0.020118579268455505, -0.03763950616121292, 0.0015224781818687916, 0.021894529461860657, 0.01764020510017872, 0.0030482697766274214, 0.025698238983750343, -0.16762833297252655, 0.031463444232940674, -0.008999022655189037, -0.000863952562212944, 0.04296734929084778, -0.00865443516522646, 0.01981375366449356, 0.020794501528143883, 0.0016434149583801627, 0.011676198802888393, 0.010337610729038715, -0.0005280630430206656, -0.013246719725430012, -0.04294084385037422, 0.004767891485244036, -0.005523332394659519, -0.021430661901831627, 0.03127789869904518, 0.04029017314314842, -0.0014205931220203638, 0.04381556436419487, -0.01554617565125227, -0.0005475289071910083, -0.010629183612763882, 0.015758229419589043, 0.014817241579294205, -0.00027355735073797405, 0.00497000478208065, 0.021046314388513565, -0.01571846939623356, 0.007739954628050327, -0.04055524244904518, 0.02804408222436905, 0.008574915118515491, 0.00646431976929307, -0.005076031666249037, -0.004012450575828552, 0.01916433870792389, -0.015042548067867756, 0.00269374274648726, 0.031145364046096802, 0.03199357911944389, -0.004857351537793875, -0.023431917652487755, -0.01691127009689808, 0.003754010424017906, 0.017613697797060013, -0.015069055370986462, -0.01100027747452259, 0.001666608382947743, -0.004062150605022907, -0.010191823355853558, 0.019840259104967117, 0.011729211546480656, 0.002783202799037099, -0.003999197389930487, -0.008422501385211945, 0.014910015277564526, 0.00805140845477581, -0.01544014923274517, 0.006583599839359522, -0.006858606822788715, 0.038805797696113586, 0.02239815518260002, -0.0013402446638792753, -0.030270643532276154, -0.005718818865716457, 0.007415247615426779, 0.01100027747452259, -0.0009757776279002428, -0.0005587114137597382, -0.0012482996098697186, 0.016871510073542595, -0.01003940962255001, -0.008574915118515491, 0.003291799919679761, -0.011205704882740974, -0.011537037789821625, 0.02716935984790325, -0.006119732744991779, -0.020251113921403885, 0.022901782765984535, -0.04381556436419487, -0.003073119791224599, -0.006467632949352264, 0.000748814083635807, 0.001984688686206937, 0.04211913421750069, -0.025830771774053574, 0.004386857617646456, -0.005221818573772907, -0.03533342108130455, 0.005447125528007746, -0.03965401276946068, -0.0028411862440407276, 0.02585727907717228, 0.0011207361239939928, 0.011821985244750977, 0.00034065241925418377, -0.02247767522931099, -0.012471399269998074, 0.0026672359090298414, -0.018276365473866463, 0.01050327718257904, 0.03978654742240906, 0.02928989566862583, 0.0011414444306865335, 0.011981025338172913, 0.019045058637857437, 0.004260950721800327, 0.015744976699352264, 0.02107282169163227, -0.0012748063309118152, 0.004082030616700649, -0.02637415938079357, 0.02035714127123356, 0.036367181688547134, -0.013253347016870975, 0.023895783349871635, 0.02769949473440647, 0.016738977283239365, -0.02538015879690647, 0.014499161392450333, 0.01643414981663227, -0.016725722700357437, 0.0033961699809879065, -0.08821427822113037, 0.0022878588642925024, 0.023909037932753563, 0.010655690915882587, -0.00981410313397646, 0.004390171263366938, -5.065781078883447e-05, 0.008608048781752586, -0.0037573238369077444, 0.008435755036771297, -0.014644947834312916, -0.03294781967997551, 0.02545967884361744, -0.01770647056400776, 0.02088727429509163, 0.011318357661366463, 0.02670549415051937, 0.005109165329486132, -0.004277517553418875, -0.004048897419124842, -0.009277342818677425, -0.008468888700008392, -0.0037473838310688734, -0.015599189326167107, -0.006785713601857424, -0.011033411137759686, -0.02385602332651615, 0.015320869162678719, 0.008064661175012589, -0.0005226788343861699, -0.00485403835773468, -0.013452147133648396, 0.007620674092322588, -0.02928989566862583, 0.01644740253686905, 0.004698311444371939, 0.010092423297464848, 5.943297583144158e-05, 0.01578473672270775, 0.000134604299091734, -0.006997766904532909, -0.0038368438836187124, 0.01749441772699356, -0.030668243765830994, 0.01994628645479679, -0.017945030704140663, -0.005510078743100166, 0.025234371423721313, 0.006374859716743231, -0.026069331914186478, -0.014326867647469044, -0.001795828458853066, -0.028600722551345825, -0.016063056886196136, 0.03162248432636261, 0.009979769587516785, -0.011417757719755173, -0.003783830441534519, -0.036897316575050354, -0.008210448548197746, -0.013134066946804523, -0.001877005212008953, -0.013259973376989365, -0.010244837030768394, 0.017587190493941307, 0.016142576932907104, -0.010589423589408398, 0.0011530411429703236, 0.010092423297464848, 0.015241348184645176, 0.0034591234289109707, -0.00699114054441452, -0.013087679632008076, 0.009105049073696136, -0.030721258372068405, -0.03109235130250454, -0.03172851353883743, -0.013100933283567429, -0.01651366986334324, -0.019508926197886467, -0.008144181221723557, -0.007017646916210651, -0.008707448840141296, -0.011245464906096458, 0.00699114054441452, -0.010827983729541302, 0.01671246998012066, -0.009661689400672913, -0.014048547483980656, -0.04031667858362198, 0.001795828458853066, 0.021960794925689697, 0.01418108120560646, 0.004814278334379196, -0.01850167103111744, 0.011775598861277103, 0.03281528502702713, 0.007706820964813232, 0.004784458316862583, -0.00606671953573823, -0.033583980053663254, -0.017852257937192917, -0.07745255529880524, 0.002456839196383953, -0.001426391419954598, -0.024478930979967117, 0.0012507846113294363, 0.00825020857155323, 0.02300781011581421, 0.0033779467921704054, 0.004353724420070648, 0.008468888700008392, -0.009502649307250977, 0.006063405890017748, 0.004436557646840811, -0.006431186571717262, -0.007819474674761295, -0.014220841228961945, 0.018793245777487755, -0.00033485409221611917, 0.021033061668276787, 0.005629358813166618, 0.002942242892459035, 0.011318357661366463, 0.03339843451976776, 0.006742639932781458, -0.03875278681516647, 0.012007531709969044, -0.009290595538914204, 0.03406110033392906, -0.005516705568879843, 0.018673965707421303, 0.012226211838424206, -0.023643970489501953, -0.00291573628783226, 0.02101980708539486, -0.02531389147043228, -0.01643414981663227, -0.02564522624015808, 0.025950051844120026, 0.009582169353961945, 0.010370743460953236, -0.05428570881485939, -0.011921385303139687, 0.025539198890328407, -0.02571149170398712, -0.02128487452864647, 0.0024916292168200016, 0.008674315176904202, -0.00480765150859952, 0.02094028703868389, 0.012113559059798717, -0.021178847178816795, 0.026466934010386467, -0.001283089630305767, -0.03835518658161163, -0.008707448840141296, 0.02650669403374195, -0.004340471234172583, 0.021589701995253563, -0.003402796806767583, -0.01650041714310646, 0.047049380838871, -0.0019333319505676627, -0.0004688371263910085, -0.003255353309214115, 0.0017792617436498404, -0.013551547192037106, -0.004506137687712908, 0.00497000478208065, 0.01822335086762905, -0.049620531499385834, -0.015069055370986462, 0.004837471526116133, 0.013942521065473557, -0.0013592963805422187, 0.030270643532276154, 0.01428710762411356, -0.01923060603439808, -0.018316125497221947, 0.02233188971877098, 0.037162382155656815, 0.006371546536684036, 0.0032702633179724216, -0.013478653505444527, 0.02154994197189808, 0.01623534969985485, 0.0015183364739641547, -0.027222374454140663, -0.022981302812695503, -0.007892368361353874, 0.009734583087265491, 0.0026688927318900824, 0.008574915118515491, 0.0034458700101822615, -0.0194294061511755, -0.026016319170594215, 0.008641182444989681, -0.0012110245879739523, -0.005115791689604521, -0.008044781163334846, -0.009330355562269688, 0.016818497329950333, 0.0024899723939597607, -0.02577775903046131, -0.002446899190545082, -0.01000627689063549, -0.012438265606760979, -0.009376742877066135, -0.03167549893260002, 0.0013791763922199607, -0.0006523131742142141, 0.0022398156579583883, 0.03639369085431099, -0.003035016357898712, 0.010171943344175816, -0.0016898016911000013, 0.013969027437269688, -0.0015349031891673803, -0.0117689715698</t>
+  </si>
+  <si>
+    <t>[-0.004442703910171986, -0.0015334079507738352, -0.005696434061974287, -0.04886331409215927, -0.020946931093931198, 0.014813299290835857, -0.009084719233214855, -0.005648213438689709, -0.02067689783871174, 0.00963764637708664, -0.0005830647423863411, -0.0029109034221619368, -0.018825234845280647, -0.028623616322875023, -0.021345553919672966, -0.012440857477486134, 0.027620632201433182, -0.026797670871019363, -0.0024737052153795958, -0.025306053459644318, -0.0009081504540517926, -0.01062134187668562, 0.008956131525337696, -0.0006674503674730659, 0.006464745383709669, -0.011810777708888054, 0.014376102015376091, -0.025254618376493454, -0.016124894842505455, -0.000393196998629719, -0.007053033914417028, -0.0011773809092119336, -0.018079426139593124, -0.020882638171315193, 0.01829802617430687, 0.0020316853187978268, 0.0154948141425848, 0.012247975915670395, 0.005863597616553307, -0.00808816496282816, 0.008801826275885105, -0.006477604154497385, 0.008743961341679096, -0.008197464048862457, -0.003674392821267247, 0.033021312206983566, 0.012228687293827534, 0.011212845332920551, -0.02179560996592045, 0.011148551478981972, 0.007451655343174934, 0.012003659270703793, -0.0031005702912807465, -0.0025090668350458145, -0.01343741174787283, -0.04544288292527199, -0.013450270518660545, -0.001497242716141045, -0.008338910527527332, -0.03140110895037651, 0.004362336825579405, -0.004690235480666161, -0.02942086011171341, 0.01620204746723175, -0.012022946961224079, -0.013977480120956898, -0.031169651076197624, 0.0027823157142847776, -0.004092302639037371, -0.00970836915075779, 0.02983233891427517, 0.030320972204208374, 0.009804810397326946, 0.007740977685898542, 0.017642227932810783, -0.006050049792975187, -0.008319621905684471, 0.007657395675778389, -0.01634349301457405, 0.020316852256655693, -0.002986448584124446, -0.02395588345825672, -0.0005617673741653562, 0.021216966211795807, 0.012055094353854656, 0.00096842588391155, 0.010151996277272701, 0.02011111192405224, 0.00025898360763676465, -0.00542318494990468, -0.004298042971640825, -0.0016748544294387102, -0.007245915476232767, 0.0008209518855437636, -0.017539357766509056, 0.007535237353295088, 0.0073294974863529205, 0.01760365255177021, -0.0006726742722094059, -0.011913647875189781, 0.022309960797429085, -0.0034847259521484375, -0.015031898394227028, -0.0024367363657802343, -0.03705896809697151, -0.025948991999030113, -0.004532715305685997, -0.017127877101302147, 0.032044049352407455, 0.0028176773339509964, 0.007368073798716068, 0.02239997312426567, -0.0016065422678366303, -0.04984058067202568, 0.0014602737501263618, -0.0004199191171210259, 0.012003659270703793, 0.005207800772041082, -0.007740977685898542, -0.0017487923614680767, 0.021178388968110085, 0.023158639669418335, 0.009284029714763165, -0.00286911241710186, 0.035001564770936966, -0.012755896896123886, -0.003526516957208514, -0.013733163475990295, -0.0036486752796918154, -0.0034686524886637926, -0.019185280427336693, 0.007978864945471287, 0.02209136262536049, 0.010132708586752415, -0.009631216526031494, -0.0038479859940707684, 0.007098039612174034, 0.030603865161538124, -0.012884484604001045, -0.018683789297938347, 0.042176757007837296, 0.012910202145576477, -0.029086532071232796, -0.0130902249366045, -0.008628232404589653, 0.03844771534204483, 0.004140522796660662, 0.031735438853502274, -0.00025335789541713893, 0.007348785642534494, 0.025871839374303818, 0.002182775642722845, -0.008274616673588753, 0.00135579623747617, 0.025858981534838676, 0.017089301720261574, -0.01593201234936714, 0.02479170262813568, 0.0005191726959310472, 0.003674392821267247, -0.018812377005815506, 0.01901811733841896, -0.011920076794922352, -0.014363243244588375, 0.03250696510076523, 0.03798479959368706, 0.000233868820942007, -0.005124218761920929, -0.004760958719998598, -0.0035007994156330824, 0.01021629013121128, 0.030500994995236397, -0.02477884478867054, 0.018130861222743988, 0.0016033275751397014, 0.03510443493723869, 0.0038094096817076206, -0.011579319834709167, -0.013746022246778011, -0.013334541581571102, -0.020303992554545403, -0.02166702225804329, 0.020484015345573425, 0.010666347108781338, -0.005616066511720419, 0.021461281925439835, 0.016086317598819733, 0.0019014901481568813, 0.017089301720261574, -0.017925120890140533, 0.028829356655478477, -0.012974495999515057, -0.011527884751558304, -0.0048927608877420425, -0.6513736844062805, 0.010505612939596176, 0.006252575665712357, 0.006516180466860533, -0.03407573327422142, 0.006178637500852346, 0.015160486102104187, 0.012267263606190681, -0.015160486102104187, -0.013398835435509682, 0.004706308711320162, 0.000502295617479831, 0.007798842154443264, -0.0015993091510608792, -0.03402429819107056, -0.006451886612921953, -0.0011138906702399254, -0.021499859169125557, 0.015430520288646221, -0.008223181590437889, -0.005252806469798088, 0.010370595380663872, -0.01804085075855255, 0.021474141627550125, -0.006541898008435965, -0.00023507433070335537, 0.012633739039301872, -0.005358891095966101, -0.0030378836672753096, 0.00815888773649931, 0.0004484495148062706, 0.009374041110277176, -0.024843137711286545, 0.002242247574031353, 0.02885507419705391, 0.03867917135357857, -0.01968677155673504, 0.01859377697110176, 0.016806408762931824, 0.013771739788353443, 0.00714304530993104, 0.010936381295323372, 0.026437625288963318, -0.017230747267603874, 0.011650042608380318, -0.016433503478765488, 0.04940338432788849, -0.009939827024936676, -0.001766473171301186, -0.019095269963145256, -0.014903310686349869, -0.02493315003812313, -0.0009933398105204105, 0.031041063368320465, 0.00873110257089138, -0.0002344715758226812, 0.012640167959034443, -0.020471157506108284, -0.01456898357719183, 0.01603488251566887, 0.0015896650729700923, 0.0071816216222941875, -0.008068876340985298, -0.0086668087169528, -0.006091841030865908, 0.0007847866509109735, -0.02000824175775051, -0.004699879325926304, -0.023878730833530426, -0.015366226434707642, 0.0051017156802117825, 0.04562290757894516, -0.034821540117263794, -0.005789659917354584, 0.009952685795724392, 0.0012673921883106232, 0.0041115907952189445, -0.013385976664721966, 0.005333173554390669, 0.011900789104402065, 0.01211295835673809, -9.051366214407608e-05, -0.012511580251157284, 0.006287937052547932, 0.004015150014311075, 0.007284491788595915, -0.010717782191932201, 0.010016979649662971, 0.0326869860291481, 0.02267000637948513, 0.036956097930669785, 0.010737070813775063, 0.016394928097724915, -0.022502843290567398, -0.022142797708511353, 0.011913647875189781, 0.005509981885552406, 0.013771739788353443, 0.004079443868249655, -0.010119849815964699, 0.006660841405391693, -0.020998366177082062, 0.007419508416205645, 0.01689641922712326, 0.013257388956844807, 0.03585024178028107, -0.03981074318289757, -0.0021715243346989155, 0.04029937461018562, -0.021474141627550125, -0.018645212054252625, -0.0056739309802651405, -0.0012424783781170845, -0.01049275416880846, -0.015957729890942574, -0.028675051406025887, 0.028186418116092682, 0.024534527212381363, 0.0309896282851696, -0.015263356268405914, 0.02702912874519825, -0.017950838431715965, 0.007297350559383631, -0.014761865139007568, 0.003735471749678254, 0.004442703910171986, 0.010730640962719917, -0.0309896282851696, -0.03348422795534134, 0.002070261398330331, 0.024958867579698563, 0.008981849066913128, 0.0127366092056036, -0.010299872606992722, 0.02084406092762947, 0.044439900666475296, 0.02957516349852085, -0.0349501296877861, 0.0006260612281039357, 0.00714304530993104, -0.014980463311076164, -0.030295254662632942, 0.008068876340985298, -0.030295254662632942, -0.019815359264612198, -0.030038079246878624, -0.005339602939784527, -0.004478065762668848, -0.009811239317059517, -0.007483802270144224, -0.04114805534482002, 0.022168515250086784, -0.01701214909553528, 0.027774937450885773, 0.027954960241913795, 0.01729504205286503, -0.0160606000572443, -0.00648081861436367, -0.030218102037906647, -0.013926045037806034, 0.02619330957531929, -0.002361191203817725, -0.041045185178518295, -0.0030314542818814516, -0.00036607301444746554, 0.008570368401706219, -0.0188895296305418, 0.001690927892923355, -0.01703786663711071, -0.02436736412346363, 0.008075306192040443, 0.021011225879192352, -0.003045920515432954, 0.02944657765328884, 0.02155129425227642, 0.0055324845016002655, 0.009746945463120937, -0.004642014857381582, -0.0019384591141715646, -0.0034815112594515085, -0.005481049418449402, -0.010737070813775063, -0.016562091186642647, -0.01757793501019478, 0.007265203632414341, 0.02054831013083458, 0.040762290358543396, -0.0009467267082072794, -0.02366013079881668, 0.015224779956042767, 0.014954745769500732, 0.005879671312868595, -0.016137752681970596, -0.020162547007203102, -0.006429383531212807, 0.012235117144882679, 0.00022663577692583203, 0.0032613049261271954, -0.010036267340183258, 0.018066568300127983, 0.01647208072245121, 0.02394302375614643, 0.020201122388243675, -0.018375178799033165, 0.008011012338101864, -0.03186402469873428, 0.01387460995465517, -0.007991723716259003, 0.028469311073422432, 0.0048991902731359005, 0.030295254662632942, -0.027517762035131454, -0.01743648760020733, -0.008345339447259903, -0.012858767062425613, 0.008197464048862457, 0.014646136201918125, -0.01786082796752453, -0.02916368469595909, 0.012132246978580952, 0.006943734362721443, -0.014671853743493557, 0.006532253697514534, 0.02998664416372776, -0.012897343374788761, 0.01435038447380066, -0.009528346359729767, 0.02888079173862934, -0.01842661388218403, -0.027774937450885773, -0.019223857671022415, 0.011335003189742565, -0.01702500693500042, 0.02012396976351738, 0.008891837671399117, 0.012518010102212429, 0.0042723254300653934, -0.004677376709878445, -0.005252806469798088, 0.013797457329928875, 0.01985393650829792, 0.03628744184970856, 0.02954944595694542, -0.0005951198399998248, 0.007490231655538082, -0.01746220514178276, 0.03379283845424652, 0.02465025708079338, 0.005831450689584017, -0.017385052517056465, -0.02110123634338379, -0.00022643485863227397, -0.001378299086354673, -0.007901712320744991, -0.017822250723838806, 0.008287475444376469, 0.00521423015743494, -0.00096842588391155, 0.02772350236773491, 0.011707907542586327, -0.00752880796790123, 0.01034487783908844, 0.012839479371905327, 0.007008028216660023, -0.0006059693987481296, -0.01289091445505619, -0.0038447713013738394, -0.020484015345573425, 0.0007618819363415241, -0.011482879519462585, 0.009907679632306099, 0.02366013079881668, -0.009104006923735142, 0.004281969275325537, -0.013681728392839432, -0.004831681959331036, -0.026849105954170227, -0.005873241927474737, -0.0007663021679036319, 0.01926243305206299, -0.01499332208186388, -0.03363853320479393, -0.0029816266614943743, 0.012563015334308147, 0.003954071085900068, -0.03567022085189819, -0.028623616322875023, 0.0021216964814811945, -0.030912475660443306, 0.015546249225735664, -0.03420431911945343, 0.018838094547390938, -0.03379283845424652, -0.008853261359035969, 0.00017670758825261146, -0.012202969752252102, -0.007168762851506472, 0.011135692708194256, 0.03873060643672943, -0.005066354293376207, -0.015713414177298546, -0.017127877101302147, 0.0038672741502523422, -0.016009164974093437, 0.009097578004002571, 0.027620632201433182, -0.024740267544984818, -0.03266127035021782, 0.0054906937293708324, 0.002087942324578762, -0.015816284343600273, 0.006737994030117989, 0.013295965269207954, -0.007535237353295088, -0.012151534669101238, 0.008473927155137062, 0.005326744168996811, 0.013475988060235977, 0.013617434538900852, 0.0060307616367936134, -0.01512190978974104, -0.009836956858634949, -0.001967391464859247, 0.01069206465035677, 0.10487610846757889, 0.009219735860824585, 0.014954745769500732, 0.01540480274707079, -0.03453864902257919, -0.011174269020557404, -0.026437625288963318, -0.006808717269450426, -0.002123303944244981, 0.028340723365545273, -0.018208013847470284, -0.021615587174892426, 0.02255427837371826, -0.010955669917166233, 0.011740054003894329, 0.0010094132740050554, 0.0043205455876886845, 0.012974495999515057, 0.019030975177884102, -0.007380932569503784, 0.008473927155137062, -0.015301932580769062, -0.007908142171800137, 0.050766412168741226, 0.007908142171800137, -0.0007707223412580788, 0.017397912219166756, -0.011347861960530281, -0.005037421826273203, -0.03206976503133774, 0.0017745099030435085, -0.00271159247495234, -0.011225704103708267, 0.004944195970892906, -0.04042796418070793, 0.003164864145219326, -0.01634349301457405, 0.011097116395831108, 0.010235578753054142, 0.0044555626809597015, 0.010942811146378517, 0.014530407264828682, -0.015842001885175705, -0.0033111325465142727, -0.0020477587822824717, 0.003155220067128539, -0.0033754264004528522, 0.021165531128644943, 0.011071398854255676, -0.016690678894519806, 0.024843137711286545, 0.0007888050167821348, 0.015289073809981346, -0.009894820861518383, -0.01576484926044941, 0.0008904696442186832, 0.02519032545387745, 0.021216966211795807, -0.018966682255268097, -0.015237638726830482, -0.007676683831959963, -0.029112249612808228, 0.008454639464616776, 0.0005681967595592141, -0.03309846669435501, -0.010929952375590801, -0.00789528340101242, 0.025241760537028313, -0.009399758651852608, -0.0044137719087302685, 0.0036486752796918154, -0.03590167686343193, -0.02267000637948513, -0.012215828523039818, 0.013694587163627148, -0.018118003383278847, 0.020458297803997993, -0.003291844390332699, -0.010929952375590801, 0.03055243007838726, 0.0046966648660600185, -0.016150612384080887, -0.02620616741478443, -0.022579995915293694, -0.024470234289765358, 0.031761154532432556, 0.013283106498420238, -0.03867917135357857, -0.023120062425732613, 0.02929227240383625, 0.002091157017275691, -0.012569445185363293, 0.016986431553959846, -0.00551962573081255, -0.010769217275083065, 0.01387460995465517, 0.0064615304581820965, 0.014427537098526955, -0.0008679667953401804, -0.015520531684160233, -0.009734086692333221, -0.009618357755243778, -0.011862212792038918, 0.016112035140395164, 0.010762788355350494, 0.01077564712613821, 0.002602292923256755, -0.0028096407186239958, -0.0034493643324822187, -0.006062908563762903, -0.008557509630918503, -0.0037901215255260468, -0.008203892968595028, -0.01204223558306694, -0.012299410998821259, -0.027697784826159477, -0.009206877090036869, 0.032326940447092056, 0.0304238423705101, -0.015996307134628296, -0.015816284343600273, -0.0304238423705101, 0.00901399552822113, 0.033021312206983566, -0.014941886998713017, 0.014877593144774437, -0.005468190647661686, 0.011064969003200531, 0.015160486102104187, 0.0019111342262476683, 0.008621803484857082, 0.020368287339806557, -0.006641553249210119, 0.007117327768355608, -0.027080563828349113, -0.026514777913689613, -0.0023017192725092173, 0.017912263050675392, -0.010537759400904179, 0.006924446206539869, -0.013180236332118511, 0.01915956288576126, -0.005169224459677935, -0.002748561557382345, 0.0016555662732571363, -0.01575198955833912, -0.0055260551162064075, -0.006435812916606665, -0.009804810397326946, 0.029343707486987114, 0.0016298487316817045, 0.031838309019804, -0.02014968730509281, 0.005419970490038395, 0.005934320855885744, -0.029600881040096283, -0.02070261538028717, -0.017642227932810783, 0.016780691221356392, 0.008210322819650173, 0.0016844985075294971, -0.011109975166618824, -0.0022776091936975718, 0.0008800218929536641, -0.001867735874839127, -0.018915247172117233, -0.014414678327739239, 0.0014843839453533292, -0.026566212996840477, 0.0244830921292305, 0.019918229430913925, 0.019905371591448784, -0.030320972204208374, -0.003774048062041402, 0.004339833743870258, 0.02013682946562767, 0.007901712320744991, 0.009200448170304298, -0.011971511878073215, -0.007638107519596815, 0.01021629013121128, -0.00977266300469637, -0.025267478078603745, 0.016214905306696892, -0.031066780909895897, 0.02549893595278263, 0.010254866443574429, -0.005281738471239805, 0.017783675342798233, 0.004748099949210882, 0.005111359991133213, -0.043436914682388306, 0.020021099597215652, 0.010113419964909554, 0.0005010900786146522, 0.0058282362297177315, -0.007657395675778389, -0.038370560854673386, 0.006442242302000523, 0.014697571285068989, 0.008583227172493935, -0.03430718928575516, -0.004902405198663473, -0.02296575903892517, -0.01287162583321333, 0.01577770709991455, -0.006956593133509159, -0.013848892413079739, 0.0056867897510528564, -0.01661352626979351, -0.014543266035616398, -0.0030443130526691675, -0.01607345975935459, -0.022489983588457108, -0.0026440839283168316, 0.0028546464163810015, -0.004571291618049145, 0.024727409705519676, -0.002192419720813632, -0.0094447648152709, 0.018542341887950897, -0.013115942478179932, 0.025820404291152954, 0.03168400377035141, 0.006268648896366358, -0.017230747267603874, -0.005651428364217281, -0.01647208072245121, -0.001838803756982088, -0.00598897086456418, -0.004233749117702246, 0.02916368469595909, 0.0024512025993317366, -0.002608722308650613, -0.024585962295532227, -0.0011805956019088626, 0.006731564644724131, 0.011997229419648647, -0.016240622848272324, 0.02405875362455845, 0.014016056433320045, 0.006525824312120676, -0.0020075750071555376, 0.012788044288754463, 0.0005087250028736889, 0.023145779967308044, -0.012183682061731815, -0.007567384280264378, -0.02124268375337124, 0.005133862607181072, -0.013488846831023693, 0.0044137719087302685, -0.019635338336229324, -4.023387737106532e-05, 0.0031889742240309715, -0.016677821055054665, 0.03615885227918625, -0.01014556735754013, -0.029883773997426033, 0.005500337574630976, -0.005355676636099815, -0.0018259449861943722, -0.015867719426751137, 0.006680129561573267, 0.00851250346750021, 0.010197002440690994, -0.021615587174892426, -0.019956806674599648, -0.014453254640102386, 0.0256146639585495, -0.020869778469204903, -0.0053299590945243835, 0.01746220514178276, 0.017282182350754738, 0.011881500482559204, -0.0357988066971302, -0.009740516543388367, 0.012704461812973022, 0.017115019261837006, -0.02479170262813568, -0.007972436025738716, -0.0038737035356462, -0.004966698586940765, -0.011585748754441738, -0.00178576132748276, 0.008608944714069366, -0.026386190205812454, -0.0017616511322557926, 0.0029350135009735823, 0.005304241552948952, -0.014826158061623573, 0.003995861858129501, 0.004500568378716707, 0.03507871553301811, -0.011765771545469761, 0.006982310675084591, -0.004510212689638138, 0.01843947172164917, -0.013411694206297398, -0.015571966767311096, -0.0006453493842855096, 0.015983447432518005, -0.01337311789393425, -0.023544402793049812, 0.0006244538817554712, 0.0007663021679036319, 0.028829356655478477, 0.0014490223256871104, -0.025228900834918022, -0.015713414177298546, -0.00629436643794179, 0.0278778076171875, -0.0007341552409343421, -0.03677607327699661, -0.00016515479364898056, -0.00850607454776764, -0.014800440520048141, 0.004089088179171085, -0.02452166937291622, 0.013398835435509682, 0.010293442755937576, -0.005481049418449402, 0.011797918938100338, -0.04338547959923744, 0.014890451915562153, 0.026823388412594795, -0.00202204124070704, 0.008589656092226505, -0.03955356776714325, -0.0009644075180403888, 0.0029076887294650078, -0.010029838420450687, -0.019082410261034966, -0.019403880462050438, -0.008686097338795662, -0.02026541717350483, -0.015481955371797085, 0.022155655547976494, -0.004153381567448378, -0.006628694478422403, 0.026244744658470154, 0.0321212001144886, 0.012440857477486134, 0.01858091913163662, -0.013823174871504307, 0.008210322819650173, -0.014183220453560352, -0.02268286608159542, -0.016819266602396965, -0.00517243891954422, -0.030346689745783806, 0.014877593144774437, 0.00551962573081255, -0.02068975567817688, -0.008467498235404491, 0.015481955371797085, -0.04323117434978485, 0.02452166937291622, 0.008743961341679096, 0.02733773924410343, 0.034281473606824875, 0.029189402237534523, 0.0036068842746317387, 0.03142682835459709, -0.010807793587446213, 0.010042697191238403, -0.03718755394220352, -0.024843137711286545, 0.029395142570137978, -0.04279397800564766, 0.024110188707709312, 0.001788976020179689, -0.014106067828834057, -0.011598607525229454, 0.03631315752863884, 0.011064969003200531, 0.004368766210973263, 0.018838094547390938, -0.008403204381465912, -0.029729468747973442, 0.02926655486226082, 0.018966682255268097, -0.0016989646246656775, 0.008062447421252728, 0.013283106498420238, -0.019763924181461334, 0.013013072311878204, -0.0009411009959876537, -0.011572889983654022, -0.009496199898421764, -0.0039765737019479275, 0.008248899132013321, 0.003414002712816, 0.019056692719459534, -0.004073014482855797, -0.023042909801006317, 0.00717519223690033, -0.032301224768161774, 0.02929227240383625, 0.005002060439437628, -0.016536373645067215, 0.016382070258259773, -0.002970375120639801, -0.029240837320685387, -0.03206976503133774, 0.0012400673003867269, -0.024663114920258522, -0.008911125361919403, 0.007856707088649273, -0.018773799762129784, 0.009541205130517483, -0.018953822553157806, 0.005931106396019459, -0.012421568855643272, 0.009894820861518383, -0.03250696510076523, 0.016960714012384415, -0.022991474717855453, 0.023261509835720062, 0.007355215027928352, -0.022297102957963943, 0.005500337574630976, -0.030500994995236397, -0.010402742773294449, -0.014170361682772636, -0.0009306532447226346, 0.006590118166059256, -0.015610543079674244, 0.008853261359035969, -0.004240178503096104, -0.014247514307498932, -0.030192384496331215, 0.014684712514281273, 0.0290093794465065, -0.003240409307181835, 0.0012698032660409808, 0.19637909531593323, -0.014620418660342693, -0.0036358165089040995, 0.015366226434707642, -0.002645691391080618, 0.01927529275417328, -0.000638518133200705, 0.00499563105404377, -0.028186418116092682, -0.017989415675401688, -0.02774921990931034, 0.008602514863014221, -0.0116050373762846, 0.010698494501411915, 0.01127713918685913, -0.01927529275417328, -0.03140110895037651, -0.023582978174090385, -0.012273693457245827, 0.013578858226537704, -0.006918016821146011, 0.0003803382278420031, 0.006975881289690733, 0.004632371012121439, 0.015983447432518005, -0.0018163009081035852, -0.0035940255038440228, -0.008647521026432514, 0.043694090098142624, 0.02841787599027157, -0.0030507424380630255, -0.013643152080476284, -0.011714336462318897, -0.017526499927043915, -0.004140522796660662, 0.002613544464111328, -0.012473003938794136, -0.006828005425632, 0.021165531128644943, 0.03937354311347008, -0.029472295194864273, 0.0110392514616251, -0.01071135327219963, 0.0002686276857275516, 0.012788044288754463, 0.023582978174090385, -0.0149290282279253, 0.00031082049827091396, 0.010479895398020744, 0.014658994972705841, -0.03464151918888092, -0.001588861458003521, -0.004638800397515297, 0.03083532303571701, 0.0014562553260475397, -0.011592178605496883, 0.006136846728622913, 0.009779092855751514, 0.019326727837324142, 0.03165828436613083, -0.012408710084855556, 0.03338135778903961, 0.0011894359486177564, 0.015134768560528755, -0.003168078837916255, 0.010679205879569054, -0.004497353918850422, 0.02067689783871174, 0.010531330481171608, -0.012691603042185307, 0.006394022144377232, 0.0042723254300653934, -0.03096391074359417, -0.0154948141425848, 0.0038479859940707684, -0.01555910799652338, 0.04238249734044075, 0.006522609852254391, 0.030012361705303192, 0.01230583991855383, 0.013051648624241352, -0.012563015334308147, -0.027543479576706886, 0.01634349301457405, 0.010582765564322472, -0.0035007994156330824, 0.03250696510076523, -0.006005044095218182, -0.00123042322229594, -0.0188895296305418, 0.0031102143693715334, 0.002216530032455921, -0.003674392821267247, 0.014581842347979546, 0.0040633706375956535, -0.007027316372841597, 0.014093209058046341, 0.02140984684228897, -0.038782041519880295, 0.009039713069796562, -0.005178868304938078, 0.038241975009441376, 0.022991474717855453, -0.020792625844478607, -0.016009164974093437, 0.032326940447092056, 0.0043076868169009686, 0.020599745213985443, 0.001631456078030169, -0.0030603865161538124, -0.014530407264828682, -0.02944657765328884, -0.00032528661540709436, 0.0046034385450184345, 0.0022004565689712763, 0.01400319766253233, 0.04073657467961311, -0.008358198218047619, 0.029395142570137978, -0.010248437523841858, -0.026977693662047386, -0.008647521026432514, 0.0039283535443246365, -0.002767849713563919, -0.007470943499356508, -0.032609835267066956, -0.043128304183483124, 0.027569197118282318, -0.021615587174892426, -0.0027453468646854162, -0.006246146280318499, 0.01941673830151558, 0.011052110232412815, -0.00749666104093194, -0.01014556735754013, -0.009110436774790287, 0.002718021860346198, -0.015880577266216278, 0.007323068100959063, 0.018619494512677193, 0.005992185324430466, -0.007760265842080116, -0.003545805113390088, -0.023428672924637794, 0.001766473171301186, 0.008467498235404491, 0.028469311073422432, 0.015006180852651596, 0.014363243244588375, -0.022592853754758835, 0.009611928835511208, -0.012055094353854656, -0.005317100323736668, -0.02841787599027157, 0.035413045436143875, -0.0002838974760379642, 0.0016338671557605267, -0.007380932569503784, -0.004590579774230719, 0.018966682255268097, -0.0025749681517481804, -0.022168515250086784, 0.02367299050092697, -0.02380157820880413, -0.0030732452869415283, 0.022875746712088585, -0.160477414727211, 0.0024319144431501627, 0.012350846081972122, 0.008904696442186832, 0.0036583193577826023, -0.030655300244688988, -0.002698733704164624, 0.023891588672995567, -0.02408447116613388, 0.02265714854001999, 0.012582303956151009, 0.0008760035270825028, -0.0389106310904026, -0.020226839929819107, 0.002960731042549014, -0.009399758651852608, 0.00970836915075779, 0.003278985619544983, 0.02690054103732109, 0.0034815112594515085, 0.012948778457939625, -0.01859377697110176, 0.029035096988081932, -0.0003483922337181866, 0.010962098836898804, -0.0010873695136979222, -0.013058078475296497, 0.020175404846668243, 0.01607345975935459, -0.006136846728622913, -0.013733163475990295, -0.009168300777673721, 0.044259876012802124, 0.0016145789995789528, 0.01337311789393425, 0.0026858749333769083, -0.011000675149261951, -0.028109265491366386, -0.021577011793851852, 0.016227765008807182, 0.015957729890942574, -2.762625808827579e-05, -0.005323529709130526, -0.03152969852089882, 0.010762788355350494, 0.0194553155452013, 0.02364727295935154, -0.00276463502086699, 0.005272094625979662, -0.013553140684962273, 0.028212135657668114, -0.008602514863014221, 0.013565999455749989, -0.01260802149772644, 0.02588469907641411, 0.021191248670220375, 0.008898266591131687, 0.01746220514178276, 0.0177579578012228, 0.003764403983950615, -0.004381624981760979, -0.00838391575962305, 0.0021441993303596973, -0.013643152080476284, 0.010434889234602451, -0.0094447648152709, -0.01274303812533617, 0.0142217967659235, 0.00844820961356163, 0.0062622195109725, -0.006152919959276915, -0.02405875362455845, -0.01555910799652338, -0.006217213813215494, 0.0017986200982704759, -0.004506997764110565, -0.008364628069102764, -0.021499859169125557, 0.022489983588457108, 0.010370595380663872, 0.0021875977981835604, 0.020509732887148857, -0.008120311424136162, 0.010891376063227654, -0.0028739343397319317, -0.024315929040312767, -0.02167988196015358, 0.04140523076057434, -0.02828928828239441, 0.011148551478981972, -0.008499644696712494, -0.018362319096922874, 0.005776801146566868, 0.00290125934407115, 0.026386190205812454, 0.01859377697110176, -0.010833511129021645, 0.006175423040986061, -0.010955669917166233, -0.04091659560799599, -0.007567384280264378, 0.016266340389847755, -0.029600881040096283, 0.023055769503116608, 0.02138412930071354, 0.013045219704508781, -0.012659456580877304, -0.003941212315112352, 0.03070673532783985, 0.007792412769049406, -0.003193796379491687, -0.008962560445070267, 0.011515025980770588, 0.01815657876431942, -0.003954071085900068, -0.0014940280234441161, 0.01689641922712326, -0.011399297043681145, -0.0038158390671014786, 0.005889315158128738, 0.02461167983710766, -0.008525362238287926, -0.0015551071846857667, 0.00279678194783628, -0.020303992554545403, 0.009341894648969173, -0.09006280452013016, -0.016382070258259773, 0.017102159559726715, 0.03253268077969551, -0.019763924181461334, 0.015353367663919926, 0.01287162583321333, -0.006191496271640062, 0.02039400488138199, -0.011592178605496883, -0.06177351623773575, 0.00013119960203766823, 0.0013115942711010575, 0.0016419037710875273, 0.02308148704469204, 0.0018130862154066563, 0.008653949946165085, 0.009830527938902378, -0.014273231849074364, 0.0005191726959310472, 0.009978403337299824, -0.00916187185794115, 0.021435564383864403, -0.019738206639885902, -0.007953147403895855, -0.011984370648860931, -0.02057402767241001, 0.00594717962667346, 0.0171921718865633, 0.01761651039123535, -0.034127168357372284, -0.026180449873209, 0.007355215027928352, -0.01105854008346796, 0.021332694217562675, -0.0029189400374889374, 0.0033175619319081306, -0.015726272016763687, 0.013045219704508781, -0.025846121832728386, -0.004895975813269615, -0.004969913512468338, 0.016536373645067215, -0.027131998911499977, 0.026977693662047386, -0.025100313127040863, -0.025408923625946045, 0.005043851211667061, 0.011206415481865406, -0.01189435925334692, -0.030500994995236397, 0.0017118233954533935, -0.0341014489531517, -0.0010262903524562716, 0.002583004767075181, 0.03901350125670433, -0.015379085205495358, 0.008390345610678196, -0.015147627331316471, -0.008242469280958176, 0.004895975813269615, 0.01226083468645811, 0.013347400352358818, -0.0059632533229887486, 0.020046817138791084, 0.005201371386647224, -0.009181159548461437, -0.012183682061731815, 0.024097329005599022, -0.01688356138765812, 0.002721236553043127, -0.005371749866753817, 0.018105143681168556, -0.03227550536394119, -0.00972765777260065, -0.032738421112298965, -0.013295965269207954, 0.003407573327422142, 0.005284953396767378, -0.011521454900503159, -0.020188264548778534, -0.014106067828834057, 0.004902405198663473, 0.011579319834709167, 0.0049538398161530495, 0.01577770709991455, 0.016999289393424988, -0.014453254640102386, 0.007020886987447739, -0.02211708016693592, 0.014646136201918125, 0.014749006368219852, 0.01732075959444046, -0.017552217468619347, -0.018233731389045715, 0.025948991999030113, 0.01969963125884533, -0.018053708598017693, -0.0036647487431764603, 0.019249575212597847, -0.03996504843235016, -0.009091148152947426, -0.06964308023452759, -0.0031536126043647528, 0.0048573995009064674, -0.01005555596202612, -0.009194018319249153, 0.02605186216533184, 0.015417661517858505, 0.013514564372599125, 0.026849105954170227, -0.0021554508712142706, -0.037959080189466476, -0.00648081861436367, 0.0011235347483307123, -0.00018002273282036185, -0.035258740186691284, 0.003407573327422142, 0.04261395335197449, 0.009046142920851707, -0.0020172190852463245, 0.02462453953921795, -0.003529731649905443, -0.009554063901305199, 0.013668869622051716, 0.023428672924637794, -0.029215119779109955, -0.014543266035616398, -0.008467498235404491, 0.0027758863288909197, -0.010229148901998997, 0.021036943420767784, 0.004622726701200008, -0.007548096124082804, -0.028675051406025887, 0.028495028614997864, 0.009277600795030594, -0.02084406092762947, -0.026270460337400436, 0.03677607327699661, 0.027106281369924545, 0.03451292961835861, -0.03307274729013443, -0.011656472459435463, 0.019532468169927597, -0.03142682835459709, -0.0008390345610678196, 0.013823174871504307, 0.0006083804182708263, -0.008917555212974548, -0.003918709233403206, 0.006667270790785551, 0.005014919210225344, 0.0267462357878685, -0.010229148901998997, -0.01260802149772644, 0.00602111779153347, 0.021641304716467857, -0.018272308632731438, 0.024110188707709312, 0.0030346689745783806, -0.019095269963145256, 0.03929639235138893, -0.007104468997567892, 0.00707875145599246, 0.007098039612174034, 0.011733625084161758, -0.02841787599027157, -0.01647208072245121, 0.0031857595313340425, 0.001322845695540309, -0.031889744102954865, -0.003896206384524703, 0.005024563055485487, 0.028366440907120705, 0.009026854299008846, 0.018812377005815506, -0.01463327743113041, -0.007477372884750366, -0.01483901683241129, -0.0012183681828901172, 0.01930101029574871, 0.01593201234936714, 0.005098501220345497, -0.022348538041114807, 0.027414891868829727, 0.022142797708511353, -0.007374503184109926, -0.010685635730624199, -0.012749467976391315, -0.018503766506910324, 0.011502167209982872, -0.012415139935910702, 0.02012396976351738, 0.00929688848555088, -0.0005436847568489611, -0.00859608594328165, 0.005693219136446714, 0.014311808161437511, -0.010222719982266426, -0.00031644621049053967, 0.023814436048269272, 0.016253482550382614, -0.00034678488736972213, -0.0110392514616251, -0.04197101667523384, -0.00935475341975689, -0.023120062425732613, -0.026244744658470154, -0.017629370093345642, -0.0012247975682839751, 0.015610543079674244, -0.005789659917354584, 0.013257388956844807, 0.03574737161397934, -0.007554525509476662, 0.01226083468645811, 0</t>
+  </si>
+  <si>
+    <t>[-0.027274584397673607, 0.002385880332440138, 0.0005044571589678526, -0.03662439435720444, -0.030348140746355057, 0.028359368443489075, -0.011299840174615383, 0.009343353100121021, 0.010234426707029343, 0.003183326218277216, -0.010460423305630684, -0.012035943567752838, -0.010311910882592201, -0.017072442919015884, -0.015303211286664009, -0.0016118413768708706, 0.024820905178785324, -0.001124334055930376, -0.007341667078435421, -0.026603050529956818, -0.020546337589621544, -0.005217297468334436, -0.0004382723418530077, -0.009537064470350742, 0.002996071707457304, -0.013611463829874992, 0.00519469752907753, -0.017395297065377235, -0.027222927659749985, 0.009808260947465897, 0.007909887470304966, -0.008930101990699768, -0.01970691978931427, -0.01609097234904766, 0.0020404281094670296, -0.018712535500526428, 0.01035710982978344, -0.019694006070494652, 0.011448351666331291, -0.01929366961121559, 0.0007373145199380815, 0.018660878762602806, 0.00801965780556202, -0.0063117677345871925, -0.02043011039495468, 0.056253831833601, -0.002878230530768633, 0.027816977351903915, -0.007309381850063801, 0.008568506687879562, 0.01603931561112404, 0.018557565286755562, -0.011035100556910038, 0.015587321482598782, -0.020352626219391823, -0.02558283694088459, -0.0009548364323563874, 0.015290297567844391, -0.002873387886211276, -0.029134215787053108, -0.01937115378677845, 0.013353182002902031, -0.033292558044195175, -0.004084085114300251, -0.008859074674546719, -0.021928146481513977, -0.02571197785437107, -0.004271339625120163, -0.0066087921150028706, -0.017860203981399536, 0.044062916189432144, 0.030089858919382095, 0.02572489157319069, -0.016387995332479477, 0.04047279804944992, 0.006844474468380213, 9.171030978905037e-05, 0.008374795317649841, 0.024833818897604942, 0.002862087916582823, 0.017137013375759125, -0.026009002700448036, 0.0031381268054246902, 0.028540166094899178, 0.005172098055481911, 0.0014003729447722435, 0.011060928925871849, 0.0121521707624197, 0.013727691024541855, -0.00596308708190918, -0.004697504919022322, 0.008407080546021461, -0.00718024093657732, -0.003577206516638398, 0.011997201479971409, 0.020727135241031647, -0.005013900343328714, 0.011784118600189686, 0.010938244871795177, 0.00821982603520155, 0.00452639302238822, -0.009311067871749401, -0.0035707494243979454, -0.016245940700173378, -0.0501067191362381, -0.017317811027169228, 0.007761375512927771, -0.024536794051527977, 0.017421124503016472, -0.009943858720362186, 0.0005238282610662282, 0.01751152239739895, -0.008310224860906601, -0.05305113270878792, 0.008407080546021461, 0.002967015141621232, 0.010234426707029343, 0.0009185155504383147, 0.02724875696003437, -0.027481209486722946, 0.025905689224600792, 0.02665470726788044, -0.006838017143309116, -0.03275016322731972, 0.04207414761185646, 0.003425465663895011, -0.028695136308670044, -0.012817246839404106, -0.012965759262442589, -0.014709162525832653, 0.0008620163425803185, -0.0063957092352211475, 0.015471095219254494, 0.006708876229822636, -0.005901745054870844, 0.02164403535425663, -0.0241235438734293, 0.023464923724532127, -0.009504779241979122, -0.01610388606786728, 0.013185299001634121, 0.018880417570471764, -0.03251770883798599, -0.004813731648027897, -0.017395297065377235, 0.028075259178876877, -0.0011219126172363758, 0.019655264914035797, 0.006418309174478054, 0.007716176100075245, 0.025272898375988007, -0.024278512224555016, -0.020068515092134476, -0.00831668172031641, 0.01709827221930027, 0.0022599678486585617, -0.004458594135940075, 0.016659192740917206, 0.009259411133825779, 0.012707476504147053, -0.027765320613980293, 0.013869746588170528, 0.006657219957560301, 0.002506950171664357, 0.029366668313741684, 0.027610350400209427, -0.014179684221744537, 0.006127741653472185, -0.0009282011305913329, 0.007677434012293816, 0.011196526698768139, 0.012636449187994003, -0.026680536568164825, 0.009569349698722363, -0.01326278317719698, 0.045793406665325165, 0.018932074308395386, 0.021605294197797775, -0.005433608777821064, -0.02284504659473896, -0.01436048187315464, 0.003832259913906455, 0.02145032398402691, 0.007774289697408676, -0.007993829436600208, 0.020417196676135063, -0.003213997231796384, 0.013101357035338879, 0.01603931561112404, -0.008484565652906895, 0.01503201574087143, 0.011932631023228168, -0.0029928432777523994, -0.007670976687222719, -0.650457501411438, 0.01603931561112404, -0.022793391719460487, -0.0002598963037598878, -0.009524150751531124, 0.010712248273193836, 0.028075259178876877, 0.0020888561848551035, -0.029805747792124748, -0.0010347424540668726, -0.010873674415051937, 0.0033608952071517706, 0.020791705697774887, -0.02023639902472496, -0.006350509822368622, -0.025156671181321144, -0.004045342560857534, -0.04313310235738754, 0.0007110827718861401, -0.006198769435286522, 0.003522321581840515, 0.026706364005804062, -0.0028604737017303705, 0.02365863509476185, -0.015548579394817352, -0.006595877930521965, 0.006085770670324564, -0.0142959114164114, -0.002479507587850094, -0.0109899016097188, -0.01804100163280964, 0.009556435979902744, -0.014541279524564743, 0.003987228963524103, 0.04729144275188446, 0.010169855318963528, -0.017485694959759712, 0.046800706535577774, 0.028230227530002594, 0.01804100163280964, -0.0015246712137013674, -0.005268953740596771, 0.03448065370321274, -0.01724032685160637, 0.021682778373360634, 0.016142629086971283, 0.06477713584899902, 0.004507021978497505, 0.015019101090729237, -0.02724875696003437, 0.0014245869824662805, -0.0038193457294255495, 0.013178841210901737, 0.02303875982761383, 0.02518250048160553, -0.013101357035338879, 0.02566032111644745, -0.017666492611169815, -0.003178483573719859, 0.014037629589438438, 0.000843452347908169, -0.0022212255280464888, -0.01242336630821228, -0.012726848013699055, -0.017886031419038773, -0.002419780008494854, -0.007909887470304966, -0.01970691978931427, -0.0056144059635698795, -0.0028685450088232756, 0.004513478837907314, 0.025970259681344032, -0.03127795457839966, 0.0019064444350078702, 0.0005318996263667941, 0.017886031419038773, 0.007535378914326429, 0.0037483181804418564, 0.007064014207571745, 0.024084800854325294, 0.011835775338113308, -0.0005016321665607393, -0.003887144848704338, -0.02905673161149025, 0.03866482153534889, -0.0004959822399541736, 0.001943572424352169, -0.01609097234904766, 0.01683999039232731, 0.0025117930490523577, 0.011648520827293396, -0.0007502286462113261, 0.012533136643469334, -0.028411025181412697, -0.03574623540043831, 0.023154985159635544, 0.007935715839266777, 0.0304514542222023, 0.005143041256815195, -0.02137283980846405, -0.022496366873383522, -0.014709162525832653, 0.024678850546479225, -0.00666367681697011, -0.005578892305493355, -0.007806574925780296, -0.015871431678533554, 0.006486108060926199, 0.03419654443860054, -0.018932074308395386, -0.026758020743727684, 0.0015270926523953676, 0.010415223427116871, -0.017589008435606956, -0.01937115378677845, -0.02183774672448635, 0.03331838548183441, 0.026086486876010895, 0.02892758883535862, -0.019810233265161514, 0.01226194016635418, -0.015871431678533554, 0.008788046427071095, -0.016284683719277382, -0.01102218683809042, 0.0054949508048594, 0.00718024093657732, -0.022690078243613243, -0.0347389355301857, 0.009646834805607796, -0.0016433194978162646, 0.008826789446175098, 0.005924344528466463, -0.02732624113559723, 0.036650221794843674, 0.017330724745988846, 0.02004268765449524, -0.024937132373452187, -0.0007695998065173626, -0.01849299483001232, -0.03603034466505051, -0.025208327919244766, 0.005930801387876272, -0.0111513277515769, 0.006637848913669586, -0.027610350400209427, -0.006160026881843805, 0.002122755628079176, 0.011073842644691467, -0.006476422306150198, -0.010583107359707355, 0.012875360436737537, 0.005356124136596918, -0.00788406003266573, 0.01730489730834961, 0.011112585663795471, -0.017537351697683334, 0.0011525836307555437, -0.026628879830241203, 0.0010395852150395513, -0.006838017143309116, 0.014580021612346172, -0.038716480135917664, -0.009343353100121021, -0.005730633158236742, 0.003661148017272353, 0.0012115042190998793, -0.007251268718391657, -0.00818754080682993, -0.020662564784288406, -0.0029783148784190416, 0.00932398159056902, -0.009007586166262627, 0.0070833852514624596, 0.011512922123074532, -0.012584793381392956, -0.0167625043541193, -0.020662564784288406, -0.022070201113820076, -0.015044929459691048, -0.0029153586365282536, -0.018053915351629257, -0.019732749089598656, -0.012733304873108864, 0.010854302905499935, 0.004971929360181093, 0.03486807644367218, -0.02518250048160553, -0.020856276154518127, 0.031071331351995468, 0.002889530500397086, -0.01769232004880905, -0.008729933761060238, -0.01823471300303936, -0.011345039121806622, 0.0056144059635698795, -0.03233691304922104, -0.005969543941318989, -0.010505622252821922, 0.03936218470335007, 0.008200455456972122, 0.015057843178510666, 0.030968017876148224, -0.0045360783115029335, 0.0016513909213244915, -0.034558139741420746, 0.022806305438280106, -0.020055601373314857, 0.028152743354439735, 0.0008135884418152273, 0.03603034466505051, -0.02652556635439396, -0.008478107862174511, -0.019758576527237892, 0.01022151205688715, -0.007490179501473904, 0.013172384351491928, -0.0012760747922584414, -0.029702436178922653, 0.016297597438097, 0.00925295427441597, 0.0064957938157022, 0.013753519393503666, 0.02719710022211075, -0.026603050529956818, -0.010234426707029343, 0.017718149349093437, 0.04783383756875992, 0.002460136543959379, -0.008516850881278515, -0.01636216789484024, 0.014644592069089413, 0.005197926424443722, 0.005175326485186815, -0.0018628592370077968, 0.019526122137904167, 0.0037257184740155935, -0.015419438481330872, 0.009259411133825779, 0.00801320094615221, 0.019009558483958244, 0.031071331351995468, 0.008658905513584614, 0.011809946969151497, 0.011984286829829216, -0.019784405827522278, 0.011790575459599495, 0.010615392588078976, -0.0009185155504383147, -0.010873674415051937, -0.03745089843869209, -0.025944432243704796, -0.010557278990745544, 0.010854302905499935, -0.01038293819874525, -0.0030961560551077127, 0.010072999633848667, -0.0269129890948534, 0.023426182568073273, 0.010679963044822216, 0.008471651002764702, 0.0032511253375560045, 0.024213941767811775, 0.007993829436600208, 0.0071673267520964146, 0.0027733035385608673, 0.022070201113820076, -0.00462324870750308, 0.0001948213466675952, 0.015729377046227455, -0.027042130008339882, -0.006363424006849527, -0.002590891905128956, -3.178080078214407e-05, 0.01004717219620943, -0.02471759170293808, -0.000874123303219676, -0.0074578942731022835, -0.0024149371311068535, 0.01655587926506996, 0.0017708463128656149, -0.041531752794981, -0.006137427408248186, 0.009840546175837517, 0.0038128888700157404, -0.008342510089278221, -0.0476788654923439, -0.006072856951504946, -0.031897831708192825, 0.004742704331874847, -0.0022438252344727516, 0.023284126073122025, -0.020081428810954094, -0.012765590101480484, 0.007503093685954809, -0.01012465637177229, 0.004523164592683315, -0.0011953616049140692, 0.02185066230595112, 0.009666205383837223, 0.004813731648027897, -0.017485694959759712, -0.024007316678762436, -0.014011801220476627, 0.0012058543507009745, 0.023284126073122025, -0.013546893373131752, -0.023697378113865852, -0.010111742652952671, 0.02318081445991993, -0.005808117799460888, 0.00026332662673667073, 0.0024004087317734957, -0.01503201574087143, -0.004003371577709913, 0.015587321482598782, -0.005914658773690462, 0.008206912316381931, 0.0229096170514822, 0.005265725310891867, -0.013140099123120308, -0.03719261661171913, -0.016917474567890167, 0.0026570765767246485, 0.07949921488761902, -0.020675478503108025, -0.016078056767582893, 0.011480636894702911, -0.02959912270307541, -0.015819774940609932, -0.024872561916708946, -0.013663120567798615, 0.0030154429841786623, 0.0089882155880332, -0.007031728979200125, -0.02163112163543701, 0.03065807931125164, 0.026758020743727684, -0.00519469752907753, -0.017330724745988846, -0.012985129840672016, 0.006040571257472038, 0.013688948936760426, 0.0109899016097188, 0.009601634927093983, -0.006176169496029615, -0.016710849478840828, 0.04682653769850731, 0.02572489157319069, -0.01943572424352169, -0.00807777140289545, -0.005940487142652273, 0.012513765133917332, -0.04509604722261429, 0.00459096347913146, -0.019190356135368347, -0.005740318447351456, 0.0034609795548021793, -0.009898659773170948, 0.012597707100212574, 0.003131669946014881, 0.003412551712244749, -0.009033414535224438, -0.0058113462291657925, 0.015316125936806202, 0.0016917474567890167, -0.006921959109604359, -0.0050461855717003345, 0.0018935302505269647, 0.0038903732784092426, -0.017330724745988846, 0.021786091849207878, -0.008955930359661579, -0.01636216789484024, 0.03052893839776516, 0.008968844078481197, 0.001499650184996426, -0.015471095219254494, 0.01909995824098587, -0.0016199126839637756, 0.0076516056433320045, 0.01897081732749939, -0.013663120567798615, -0.014179684221744537, 0.0007288396591320634, -0.026964645832777023, 0.01682707481086254, -0.0045457640662789345, -0.030761392787098885, -0.01636216789484024, -0.022289741784334183, 0.004048570990562439, -0.02959912270307541, -0.0036805192939937115, -0.005339981522411108, -0.024433482438325882, -0.019396981224417686, -0.013353182002902031, 0.025027530267834663, -0.015471095219254494, 0.02124369889497757, 0.0020872417371720076, -0.007742004469037056, 0.02372320555150509, -0.008788046427071095, 0.006198769435286522, -0.017601922154426575, -0.012642906047403812, -0.005310924723744392, 0.026228541508316994, 0.026938818395137787, -0.004029199946671724, -0.025557009503245354, 0.017279069870710373, 0.02017182856798172, 0.0009903502650558949, 0.04003371670842171, -0.0003129652177449316, 0.012513765133917332, 0.002350366674363613, 0.01831219717860222, 7.375163113465533e-05, -0.0009798575192689896, -0.0068703023716807365, 0.0059049734845757484, -0.007328753359615803, -0.02737789787352085, 0.00017323058273177594, 0.013985972851514816, 0.003268882166594267, -0.007477265316992998, -0.01232005376368761, 0.01408928632736206, 0.011202983558177948, -0.007735547609627247, 0.0022599678486585617, 0.0067863608710467815, -0.02023639902472496, -0.019138699397444725, -0.028540166094899178, -0.00567897642031312, 0.03634028509259224, 0.005485265050083399, -0.010524993762373924, -0.016542965546250343, -0.025014616549015045, 0.00021711834415327758, 0.040653593838214874, -0.01735655404627323, 0.014554193243384361, -0.028307713568210602, -0.002713575726374984, -0.003409323049709201, 0.002185711869969964, 0.00229548173956573, 0.0368826761841774, -0.009298154152929783, 0.005892059300094843, -0.007141498848795891, -0.03559126704931259, -0.009072156623005867, 0.0034771221689879894, -0.013521065004169941, -0.006683047860860825, -0.014670420438051224, 0.019539037719368935, 0.016207199543714523, 0.0007938137277960777, -0.021127471700310707, -0.014024714939296246, -0.0027281041257083416, -0.0029476438648998737, -0.046981506049633026, 0.02324538491666317, 0.01215862762182951, 0.03422237187623978, -0.023865262046456337, -0.0035287784412503242, 0.0031332841608673334, -0.025557009503245354, -0.02578946202993393, -0.00047499683569185436, 0.005298010539263487, 0.030580595135688782, 0.021140385419130325, 0.015742290765047073, 0.024071887135505676, 0.005733861587941647, 0.005934030283242464, -0.011680806055665016, 0.0014310439582914114, 0.011706634424626827, -0.02699047513306141, 0.019745662808418274, 0.012010115198791027, 0.005934030283242464, -0.023594064638018608, -0.0017127328319475055, -0.03561709448695183, 0.008871988393366337, 0.0009847002802416682, 0.0018047458725050092, -0.026499738916754723, -0.014941616915166378, 0.005653148517012596, -0.030606422573328018, -0.005791975185275078, 0.040576111525297165, -0.028075259178876877, 0.028824277222156525, 0.01929366961121559, -0.004096998833119869, 0.024795077741146088, 0.01439922396093607, 0.019087042659521103, -0.03788997605443001, 0.042926475405693054, 0.0013148171128705144, -0.004500564653426409, -0.007277096621692181, -0.004416623152792454, -0.029547465965151787, -0.028875933960080147, 0.0025957345496863127, -0.0032591966446489096, -0.022121857851743698, -0.013559808023273945, -0.0227675624191761, 0.0018354167696088552, 0.01419259887188673, -0.010912416502833366, -0.01195845939218998, -0.011971373111009598, -0.007412694860249758, -0.030942190438508987, -0.0035061787348240614, -0.011461266316473484, -0.017860203981399536, 0.003848402528092265, 0.007109213620424271, -0.0023374524898827076, 0.016271770000457764, -0.024937132373452187, -0.012830160558223724, 0.019022472202777863, -0.01315947063267231, 0.04522518813610077, 0.022225171327590942, 0.010815560817718506, 0.016116799786686897, -0.001872544875368476, -0.009440208785235882, 0.034093230962753296, 0.005385180935263634, -0.02143741026520729, 0.029934890568256378, 0.005346438381820917, -0.007748461328446865, -0.020223485305905342, -0.008471651002764702, 0.009362724609673023, -0.005617634393274784, -0.014050543308258057, 0.028023602440953255, -0.018531737849116325, 0.007993829436600208, -0.024691764265298843, 0.008032571524381638, 0.0008458737283945084, 0.010738076642155647, -0.018144313246011734, 0.01038293819874525, 0.010996358469128609, 0.004642619751393795, -0.011487094685435295, 0.018596308305859566, -0.013650206848978996, 0.020352626219391823, -0.023632807657122612, -0.0010363567853346467, 0.027093786746263504, -0.02838519774377346, -0.03600451722741127, 0.014915788546204567, 0.0065732779912650585, 0.016956215724349022, 0.005875916685909033, 0.011861602775752544, 0.030167343094944954, 0.007968001067638397, -0.014218427240848541, -0.020882103592157364, 0.033421698957681656, 0.02330995537340641, -0.0009532222175039351, -0.0076451487839221954, -0.008639534935355186, 0.003302781842648983, -0.0033608952071517706, -0.003042885335162282, -0.014683334156870842, -0.006231054663658142, 0.004694276489317417, -0.014954530633985996, -0.010273168794810772, 0.005976000800728798, -0.004022743087261915, -0.0021970116067677736, -0.016387995332479477, 0.019061215221881866, -0.01209405716508627, -0.006792817730456591, 0.006360195577144623, -0.0044521368108689785, -0.01028608251363039, -0.012010115198791027, -0.00039771400042809546, 0.009162555448710918, 0.006831560283899307, 0.00763223459944129, 0.0015730991726741195, 0.014786647632718086, 0.0006755689973942935, 0.030425624921917915, -0.0073545812629163265, 0.01937115378677845, 0.014476709067821503, 0.0037806034088134766, 0.002879844978451729, -0.004552220925688744, 0.02425268478691578, -0.0021195269655436277, -0.02297418937087059, -0.007528921589255333, -0.006373109761625528, 0.005440065637230873, -0.001966172130778432, -0.025750720873475075, -0.007767832837998867, -0.013947230763733387, -0.004335910081863403, -0.012772046960890293, -0.030348140746355057, 0.030477281659841537, -0.005701576359570026, 0.011855145916342735, 0.011829317547380924, -0.006980072241276503, -0.005753232631832361, 0.014618763700127602, 0.0033802662510424852, -0.010524993762373924, -0.025195414200425148, -0.01837676763534546, 0.014412138611078262, 0.004774989560246468, -0.0026506194844841957, -0.0011727618984878063, 0.0018999873427674174, -0.009556435979902744, -0.04122181609272957, 0.0006614442099817097, 0.002912130206823349, 0.00769680505618453, -0.004933187272399664, 0.022793391719460487, 0.015871431678533554, 0.023594064638018608, -0.0081487987190485, 0.019526122137904167, -0.03357666730880737, -0.026964645832777023, -0.042513225227594376, 0.0068703023716807365, -0.028953418135643005, 0.029676606878638268, 0.0039678579196333885, -0.010951158590614796, -0.022354312241077423, 0.023632807657122612, -0.03685684874653816, 0.0051494985818862915, -0.016594622284173965, 0.022005630657076836, 0.018273456022143364, 0.014437966980040073, -0.014024714939296246, 0.008303768001496792, -6.805126758990809e-05, 0.02571197785437107, -0.0167625043541193, -0.013921402394771576, 0.030348140746355057, -0.007722633425146341, 0.010240883566439152, -0.003081627655774355, -0.022457623854279518, -0.018893331289291382, 0.022548023611307144, -0.0007474037120118737, 0.005272182170301676, 0.02116621471941471, -0.00912381336092949, -0.023994402959942818, 0.027429554611444473, 0.01306261494755745, 0.01519989874213934, 0.01751152239739895, 0.014670420438051224, -0.006169712636619806, -0.0022777249105274677, -0.031768690794706345, -0.016478395089507103, -0.01631051115691662, -0.004168026614934206, 0.0022389825899153948, -0.0062762536108493805, 0.001226032618433237, 0.005649920087307692, -0.011493551544845104, 0.004713647533208132, -0.01532903965562582, 0.015083671547472477, -0.017149928957223892, 0.016801247373223305, 0.0024811220355331898, 0.009530607610940933, -0.009775975719094276, -0.028979245573282242, 0.017601922154426575, -0.012933474034070969, -0.017756890505552292, -0.003441608278080821, -0.023632807657122612, 0.015122413635253906, -0.006292396690696478, 0.008581421338021755, -0.004445679951459169, -0.00921421218663454, -0.01703370176255703, -0.005879145115613937, -0.026344768702983856, -0.007683890871703625, 0.0018483309540897608, -0.01809265837073326, -0.021489067003130913, 0.0018547879299148917, -0.007793660741299391, -0.01956486515700817, -0.026706364005804062, -0.0009717862121760845, -0.01623302698135376, 0.006340824533253908, 0.0023471382446587086, -0.02686133421957493, -0.017911860719323158, 0.009724318981170654, 0.005236668512225151, 0.00763223459944129, -0.011435437947511673, 0.2032163143157959, -0.011906802654266357, -0.011538750492036343, 0.013985972851514816, 0.0027587751392275095, 0.0267321914434433, 0.007064014207571745, 0.0026651478838175535, -0.010918873362243176, -0.005733861587941647, -0.03184617683291435, 0.026809677481651306, -0.008813874796032906, 0.00818108394742012, 0.017847290262579918, -0.023297041654586792, -0.011667891405522823, -0.024691764265298843, -0.01412802841514349, 0.011906802654266357, -0.0003256775380577892, -0.011106127873063087, 0.007516007870435715, -0.005821031518280506, -0.004500564653426409, 0.006831560283899307, -0.01539361011236906, -0.0007058363989926875, 0.037786662578582764, 0.02686133421957493, 0.0025473067071288824, -0.00794863048940897, -0.013650206848978996, -0.010867217555642128, -0.020559251308441162, 0.020998330786824226, -0.021204955875873566, -0.004413394723087549, 0.026706364005804062, 0.027971945703029633, -0.01312072854489088, -0.00831668172031641, -0.019823146983981133, 0.030270656570792198, 0.020597994327545166, 0.005914658773690462, -0.004771760664880276, 0.0004009425174444914, -0.0037515468429774046, 0.0057435473427176476, -0.018815847113728523, -0.026151057332754135, -0.0025311640929430723, 0.035229671746492386, 0.009466037154197693, -0.016052229329943657, -0.01018922682851553, 0.019022472202777863, 0.015535665675997734, 0.00036381446989253163, -0.011945544742047787, 0.002200240269303322, -0.011784118600189686, 0.0028911447152495384, -0.007038185838609934, 0.026409339159727097, -0.025466609746217728, 0.014657506719231606, 0.008394166827201843, -0.0008789661224000156, 0.0184413380920887, -0.015083671547472477, -0.02064964920282364, -0.026938818395137787, 0.009549979120492935, -0.01563897728919983, 0.05444585531949997, -0.008768675848841667, 0.03672770783305168, -0.0037321755662560463, -0.013482322916388512, -0.014321739785373211, -0.020559251308441162, 0.02024931274354458, 0.016465481370687485, 0.001179218990728259, 0.0072448113933205605, -0.005640234332531691, -0.004226140212267637, -0.02464010752737522, -0.004232597071677446, -0.013495237566530704, 0.012739761732518673, 0.01339192409068346, -0.0015577636659145355, 0.0124556515365839, 0.01930658333003521, 0.02043011039495468, -0.01503201574087143, -0.008452280424535275, -0.019048301503062248, 0.016659192740917206, 0.008755761198699474, 0.0059049734845757484, -0.012539593502879143, 0.01095761638134718, 0.011403152719140053, -0.014657506719231606, 0.0019177441718056798, -0.024420568719506264, 0.006298853550106287, -0.038044944405555725, -0.012830160558223724, -0.009582264348864555, 0.015251555480062962, 0.005414237268269062, 0.03367998078465462, -0.013701862655580044, 0.020288055762648582, -0.004875073675066233, -0.005427151452749968, -0.004103456158190966, 0.02838519774377346, -0.006850931327790022, 0.001491578877903521, -0.02753286622464657, -0.034764762967824936, 0.040524452924728394, -0.006553906947374344, -0.015290297567844391, -0.0008733161957934499, 0.0016610764432698488, 0.03553960844874382, -0.0038516311906278133, -0.016672106459736824, 0.003144583897665143, 0.0067863608710467815, -0.020998330786824226, 0.007135041523724794, 0.003252739552408457, 0.00922066904604435, -0.006153570022433996, 0.015484008938074112, 0.007154413033276796, 0.013469409197568893, 0.0007825138745829463, 0.029573295265436172, 0.025608666241168976, 0.014709162525832653, -0.004613562952727079, -0.0035287784412503242, -0.006437680218368769, -0.017911860719323158, -0.03099384531378746, 0.01842842437326908, -0.002217997098341584, -0.015341953374445438, -0.03326672688126564, -0.010938244871795177, 0.01302387285977602, -0.011467723175883293, 0.0017902174731716514, 0.019151614978909492, 0.017188670113682747, -0.0034706650767475367, 0.015070757828652859, -0.1624077558517456, 0.013146555982530117, 0.022883789613842964, 0.0038451740983873606, 0.026086486876010895, -0.012772046960890293, -0.007825946435332298, 0.012959301471710205, -0.013960144482553005, 0.012759133242070675, 0.018880417570471764, 0.011758290231227875, -0.02231556922197342, -0.02250928059220314, 0.002100155921652913, -0.012397538870573044, -0.016284683719277382, 0.025143757462501526, 0.0181572288274765, -0.0010161784011870623, -0.00654422165825963, -0.011964916251599789, 0.013973059132695198, -0.007122127339243889, -0.013469409197568893, -0.0011533907381817698, -0.009698490612208843, 0.012307140044867992, 0.0026764478534460068, -0.019719835370779037, -0.0022777249105274677, -0.011274011805653572, 0.04434702917933464, -0.017072442919015884, 0.016387995332479477, 0.017821460962295532, -0.0207658763974905, -0.02002977393567562, -0.011855145916342735, 0.006850931327790022, 0.01696913130581379, 0.002926658606156707, -0.009298154152929783, -0.013404838740825653, 0.026422254741191864, 0.02965077944099903, 0.01442505232989788, -0.023555323481559753, 0.0048331026919186115, -0.015806861221790314, 0.018131399527192116, -0.011241726577281952, 0.009834089316427708, 0.0010629920288920403, 0.00918192695826292, 0.004652305506169796, 0.010796189308166504, 0.00666367681697011, 0.014037629589438438, -0.012965759262442589, -0.0020355854649096727, -0.022677164524793625, 0.020804619416594505, -0.006447365507483482, -0.005323838908225298, -0.009924488142132759, 0.012068228796124458, 0.027171270921826363, -0.02010725811123848, 0.0030864705331623554, 0.00808422826230526, -0.006747618783265352, 0.011713091284036636, -0.016207199543714523, 0.002479507587850094, 0.015948915854096413, -0.005407780408859253, -0.012313596904277802, 0.000999228679575026, 0.001436693943105638, -0.010621849447488785, 0.03481642156839371, -0.014838303439319134, -0.020752962678670883, -0.014838303439319134, -0.010524993762373924, -0.010602477937936783, 0.020417196676135063, 0.0031817120034247637, 0.035772062838077545, 0.009575807489454746, -0.02284504659473896, -0.011144870892167091, -0.015936002135276794, 0.017537351697683334, 0.020597994327545166, -0.023413268849253654, -0.0038290314842015505, -0.005152727011591196, -0.007386866491287947, 0.005795203614979982, 0.0028750021010637283, -0.010983443818986416, 0.007670976687222719, 0.012914102524518967, 0.03174286335706711, 0.0012074685655534267, -0.0021195269655436277, 0.01950029470026493, 0.018919160589575768, 0.000999228679575026, 0.011506465263664722, 0.018195969983935356, 0.027145443484187126, -0.017046615481376648, 0.006389252375811338, 0.040369484573602676, -0.005666062701493502, 0.011338582262396812, 0.012881817296147346, 0.03140709921717644, -0.03734758496284485, -0.019319497048854828, 0.00791634526103735, -0.01603931561112404, -0.0030009145848453045, -0.08466485887765884, -0.008271482773125172, 0.019074128940701485, 0.004784674849361181, -0.003690204815939069, 0.02191523276269436, -0.010886588133871555, 0.020804619416594505, 0.0023277669679373503, 0.012584793381392956, -0.03254354000091553, -0.0066765910014510155, 0.006708876229822636, 0.0017627750057727098, 0.0356687530875206, 0.006415080279111862, -0.0053173815831542015, -0.005791975185275078, -0.015716463327407837, 0.013204669579863548, -0.0002332609728910029, 0.019267840310931206, -0.003871002234518528, 0.0046297055669128895, 0.018402596935629845, -0.001701432978734374, -0.03039979748427868, 0.042848993092775345, 0.011745376512408257, 0.0016594622284173965, -0.022754648700356483, -0.016994958743453026, -0.007896973751485348, -0.029160043224692345, -0.00043665809789672494, 0.012655820697546005, 0.006298853550106287, -0.009201298467814922, 0.025350382551550865, -0.005236668512225151, -0.008904273621737957, 0.007774289697408676, 0.02572489157319069, -0.030115686357021332, 0.019745662808418274, -0.030942190438508987, -0.0011776047758758068, 0.001553728012368083, 0.0012623535003513098, -0.015406524762511253, -0.02892758883535862, -0.009775975719094276, -0.046516597270965576, -0.006805731914937496, 0.013663120567798615, -0.0009015657706186175, -0.012035943567752838, 0.017653578892350197, -0.03401574492454529, -0.005275411065667868, 0.022276826202869415, 0.011267554014921188, 0.014373396523296833, 0.017395297065377235, 0.005843631457537413, 0.001404408598318696, -0.00027281043003313243, 0.014605849981307983, -0.004907358903437853, -0.01126109715551138, 0.005914658773690462, -0.002737789647653699, 0.0057080332189798355, -0.017395297065377235, -0.03233691304922104, -0.022212255746126175, -0.0002667569206096232, -0.0035546068102121353, -0.0019807005301117897, -0.01696913130581379, 0.0045360783115029335, -0.014683334156870842, -0.0043326811864972115, -0.012539593502879143, 0.005097841843962669, 0.015290297567844391, 0.006240739952772856, -0.008813874796032906, 0.02532455511391163, -0.022948360070586205, -0.0032753392588347197, 0.029005074873566628, 0.008090685121715069, -0.01018922682851553, 0.011144870892167091, 0.01339192409068346, 0.01326278317719698, -0.021811919286847115, -0.0007231897325254977, 0.011558122001588345, -0.01911287195980549, -0.012642906047403812, -0.07722633332014084, -0.0007760568405501544, 0.012449194677174091, -0.011409609578549862, -0.007444980088621378, 0.018531737849116325, 0.02745538204908371, 0.00794863048940897, 0.025673236697912216, 0.016013486310839653, -0.05101070553064346, -0.0012558965245261788, 0.022948360070586205, 0.003059027949348092, -0.018544651567935944, -0.01990063115954399, 0.026938818395137787, -0.002803974552080035, 0.0011130342027172446, -0.0019322725711390376, 0.027093786746263504, -0.00023003245587460697, 0.01951320841908455, -0.004203540273010731, -0.04550929740071297, -0.00028552275034599006, -0.029082559049129486, 0.02985740453004837, -0.017537351697683334, 0.02250928059220314, 0.034558139741420746, -0.02452388033270836, -0.021411582827568054, 0.03205280378460884, 0.0047330185770988464, -0.038044944405555725, -0.012694562785327435, 0.02719710022211075, 0.019978117197752, 0.0368826761841774, -0.01682707481086254, -0.025750720873475075, 0.022031458094716072, 0.012739761732518673, 0.00179506023414433, 0.008846160024404526, 0.01730489730834961, 0.0001352953986497596, -0.0006650763098150492, -0.009995515458285809, 0.012875360436737537, 0.01205531507730484, 0.00807777140289545, -0.041970834136009216, -0.015664806589484215, 0.021747348830103874, -0.02002977393567562, 0.021062901243567467, 0.022664250805974007, -0.010951158590614796, 0.04333972930908203, 0.012384624220430851, 0.01002134382724762, -0.008491022512316704, -0.019074128940701485, -0.02959912270307541, -0.01824762672185898, 0.0069994437508285046, 0.014282997697591782, -0.04827291518449783, -0.03432568535208702, -0.0011525836307555437, 0.011512922123074532, 0.016749590635299683, 0.019939374178647995, -0.01744695194065571, -0.01206177193671465, -0.021062901243567467, -0.0005508671747520566, 0.035823721438646317, 0.0239814892411232, 0.011364410631358624, -0.011441894806921482, -0.002708733081817627, 0.0307355634868145, 0.0021566550713032484, -0.029883233830332756, -7.698015542700887e-05, 0.007735547609627247, 0.006605563685297966, 0.007612863555550575, 0.025699064135551453, 0.004774989560246468, 0.00031114916782826185, -0.010344196110963821, 0.00013509362179320306, -0.016078056767582893, -0.018531737849116325, 0.013036786578595638, 0.0069994437508285046, -0.0018079743022099137, -0.0043585095554590225, -0.014799561351537704, -0.027222927659749985, 0.004313310142606497, 0.02111455798149109, -0.039568811655044556, -0.015781033784151077, 0.003428694326430559, 0.024007316678762436, -0.015858517959713936, 0.02451096661388874, -0.00784531</t>
+  </si>
+  <si>
+    <t>[-0.0075826686806976795, -0.02256888896226883, -0.017235146835446358, -0.00920136645436287, -0.02304653637111187, -0.011078789830207825, 0.000511647725943476, -0.020300058647990227, -0.008411919698119164, -0.007337210699915886, 0.010514899156987667, 0.002139466814696789, -0.04397018998861313, -0.013586443848907948, 0.006146406289190054, -0.007025412283837795, 0.023099608719348907, -0.009698916226625443, -0.013719124719500542, -0.03932638838887215, -0.011755458079278469, 0.0019487392855808139, 0.0008358847699128091, -0.005217645782977343, -0.0074698906391859055, -0.006474789697676897, 0.004720095079392195, -0.007914368994534016, -0.015443965792655945, 0.009168196469545364, 0.005419983062893152, -0.0183496605604887, -0.030994076281785965, 0.005240864586085081, 0.011145129799842834, 0.00584455905482173, 0.009380483999848366, -0.022661764174699783, 0.02251581661403179, -0.016054295003414154, 0.022728104144334793, 0.009181464090943336, 0.02222391963005066, 0.0008205436170101166, -0.005091599654406309, 0.03770769014954567, 0.010621043853461742, 0.011775360442698002, 0.0027448199689388275, 0.01496631745249033, -6.509618106065318e-05, 0.03688507154583931, -0.03372728452086449, -0.0052541326731443405, 0.0014354330487549305, -0.020366398617625237, -0.0141171645373106, 0.014992853626608849, 0.009393752552568913, -0.020963458344340324, 0.0077286167070269585, 0.005459786858409643, -0.032559700310230255, -0.016147170215845108, -0.004706826992332935, -0.017075931653380394, -0.001960348803550005, 0.000788202858529985, 0.008053682744503021, 0.0018293270841240883, 0.013493567705154419, 0.02420085296034813, 0.010946109890937805, -0.0034596340265125036, 0.022104507312178612, -0.003778066486120224, -0.005031893495470285, 0.025487851351499557, 0.003671922255307436, -0.0015266506234183908, -0.0014744078507646918, -0.017301486805081367, 0.007940905168652534, 0.05774238705635071, 0.021056335419416428, 0.020366398617625237, -0.027862824499607086, 0.029826490208506584, -0.017420899122953415, -0.02067156322300434, -0.010581239126622677, 0.003748213406652212, -0.0046371701173484325, -0.011019083671271801, -0.006043579429388046, -0.014661152847111225, -0.00282276957295835, -0.008445089682936668, -0.009698916226625443, -0.020087769255042076, -0.007416818756610155, 0.03226780518889427, -0.018694628030061722, -0.01868136040866375, -0.028287401422858238, -0.011908040381968021, 0.003754847450181842, -0.01594815030694008, 0.04022861272096634, -0.012266277335584164, -0.011403855867683887, 0.012989383190870285, 0.01006378699094057, -0.010926207527518272, -0.0133608877658844, 0.0020067868754267693, 0.011403855867683887, -0.0046736570075154305, 0.015669522807002068, -0.03075525164604187, 0.010853233747184277, 0.028738513588905334, 0.025819551199674606, 0.014780565164983273, 0.04243110120296478, -0.0053602769039571285, -0.017513776198029518, -0.003761481260880828, -0.022462744265794754, -0.017075931653380394, 0.007828126661479473, 0.014621349051594734, 0.018296588212251663, 0.00044821001938544214, -0.006398498546332121, 0.0034662680700421333, -0.012452028691768646, 0.02583281882107258, -0.012226472608745098, 0.003635435365140438, 0.05678709223866463, 0.03306388482451439, -0.02455908991396427, 0.01568279042840004, -0.021441107615828514, 0.030516427010297775, 0.0031627623829990625, 0.010123493149876595, 0.0008964200387708843, -0.0035160230472683907, 0.011954478919506073, -0.02420085296034813, 0.00610328558832407, 0.009234536439180374, 0.013261377811431885, 0.016611550003290176, -0.004401662852615118, 0.03370074927806854, -0.01787201128900051, -0.00321251736022532, 0.014143700711429119, 0.021733002737164497, -0.0175933837890625, 0.00026660412549972534, 0.01861502043902874, 0.03054296411573887, 0.004650438204407692, 0.009493262507021427, -0.0023235606495290995, 0.012385688722133636, -0.0009951009415090084, 0.02599203586578369, -0.02884465828537941, 0.004647121299058199, 0.008790058083832264, -0.010368951596319675, -0.011728922836482525, 0.011536536738276482, -0.008325677365064621, 0.011815164238214493, -0.0036851903423666954, -0.012359153479337692, 0.023165948688983917, 0.02591242641210556, -0.007018778473138809, -0.020844046026468277, 0.017540311440825462, -0.013652783818542957, -0.0047532650642097, -0.017898548394441605, 0.008942640386521816, 0.024519285187125206, 0.00814655888825655, 0.0013599712401628494, -0.6513001918792725, 0.0027497955597937107, -0.003705092240124941, -0.019198812544345856, -0.011310979723930359, 0.021640127524733543, 0.011549804359674454, 0.013891608454287052, -0.014170236885547638, 0.002025030320510268, -0.020008161664009094, 0.004156204871833324, -0.002514288295060396, -0.015974685549736023, -0.013380790129303932, -0.01929168961942196, -0.004852775484323502, -0.022807711735367775, -0.012299447320401669, 0.003917380701750517, -0.002164344536140561, 0.03752193599939346, -0.035637881606817245, 0.006454887799918652, -0.002637017285451293, 0.011171665973961353, 0.01841600053012371, -0.0037183603271842003, -0.009964277036488056, -0.014714225195348263, -0.018654825165867805, 0.030171459540724754, -0.0019570316653698683, -0.012876605615019798, 0.039777498692274094, 0.0014064093120396137, -0.0033435390796512365, 0.01807103306055069, 0.034682583063840866, 0.0062359655275940895, -0.00896917562931776, -0.02897733822464943, 0.03393957391381264, -0.008113388903439045, 0.018230248242616653, -0.009639210999011993, 0.028818121179938316, 0.01833639293909073, -0.02441314235329628, -0.03048989176750183, 0.0106409452855587, -0.012014185078442097, -0.016001222655177116, 0.01643906719982624, 0.024797914549708366, -0.008544599637389183, 0.021786075085401535, -0.019888749346137047, 0.0019122521625831723, 0.017580116167664528, 0.007231066469103098, 0.026018571108579636, -0.017752598971128464, -0.016346190124750137, -0.013626248575747013, 0.02577974647283554, -0.005771585274487734, -0.0008897860534489155, 0.0005087453173473477, -0.004006939474493265, -0.015642985701560974, 0.030038779601454735, -0.006643956992775202, 0.002170978346839547, 0.011602876707911491, 0.014647885225713253, 0.01305572409182787, 0.003867625491693616, 0.026297198608517647, 0.026615632697939873, 0.009367216378450394, 0.0016759157879278064, -0.022807711735367775, 0.00048179467557929456, 0.003933965694159269, -0.0012024135794490576, -0.005774902179837227, 0.004647121299058199, 0.016823839396238327, -0.002467850223183632, 0.01520514115691185, 0.00961930863559246, -0.006454887799918652, -0.041767701506614685, -0.010621043853461742, 0.013891608454287052, -0.0023036585189402103, -0.004746631253510714, 0.013957948423922062, -0.014621349051594734, -0.02271483652293682, -0.0004040524363517761, 0.007244334556162357, -0.0031892983242869377, -0.0018840576522052288, 0.021985094994306564, -0.006498008966445923, 0.0060170432552695274, 0.01470095757395029, -0.002106296829879284, -0.005419983062893152, 0.0068131242878735065, -0.008604305796325207, -0.0362747460603714, -0.035425592213869095, -0.021122675389051437, 0.031471725553274155, 0.019066132605075836, -0.0037084093783050776, -0.01943763718008995, 0.014488669112324715, 0.012923043221235275, 0.027995504438877106, -0.014263113029301167, -0.002476142719388008, 0.012034086510539055, 0.02701367251574993, -0.00886303186416626, -0.043545614928007126, -0.013997752219438553, 0.02331189624965191, 0.005473054945468903, 0.005745049100369215, -0.011914675123989582, -0.011675850488245487, 0.029136553406715393, 0.010528167709708214, -0.009964277036488056, 0.014674421399831772, -0.030118387192487717, -0.016823839396238327, -0.01507246121764183, -0.0019354711985215545, -0.018097568303346634, -0.023364968597888947, -0.0013060698984190822, -0.004640487022697926, 0.004003622569143772, -0.035027552396059036, 0.009168196469545364, -0.0014080677647143602, 0.00392069760710001, -0.0064880577847361565, 0.033037349581718445, 0.022184116765856743, 0.005164573434740305, -0.0021096139680594206, -0.03152479603886604, -0.030038779601454735, -0.02857929840683937, 0.011171665973961353, -0.004448100924491882, -0.014037556946277618, -0.01155643817037344, 0.010680750012397766, -0.018628288060426712, -0.008504795841872692, -0.0012770461617037654, 0.00896917562931776, -0.023033268749713898, 0.0031196412164717913, -0.027026940137147903, -0.015019389800727367, 0.04386404901742935, -0.009791792370378971, 0.030091850087046623, -0.02489078976213932, 0.008697181940078735, -0.026297198608517647, -0.015497038140892982, 6.4947175815177616e-06, 0.018721165135502815, -0.04718105122447014, -0.01726168394088745, 0.003315344452857971, -0.009062051773071289, 0.028287401422858238, 0.02079097367823124, -0.04121044650673866, 0.0020034697372466326, 0.014740761369466782, -0.015536841936409473, -0.023165948688983917, -0.0253020990639925, 0.006700345780700445, 0.00308481277897954, -0.000763739924877882, -0.0018724481342360377, -0.007164726499468088, 0.019875481724739075, 0.018044495955109596, 0.040122468024492264, -0.012412224896252155, -0.011198202148079872, 0.028260866180062294, -0.03396610915660858, 0.0208573155105114, -0.019119204953312874, 0.03417839854955673, -0.0011982673313468695, -0.0008906152797862887, -0.02993263490498066, -0.009672380983829498, -0.0038808935787528753, -0.0030649106483906507, 0.008816594257950783, 0.011211469769477844, 0.020963458344340324, 0.009785158559679985, 0.0075760348699986935, 0.03014492243528366, -0.004939017351716757, 0.0005356959882192314, 0.01724841631948948, -0.024784646928310394, 0.0008599330321885645, 0.005380178801715374, 0.02693406492471695, -0.00656103203073144, -0.0218258798122406, -0.003040033159777522, 0.02857929840683937, -0.010992547497153282, 0.001170072820968926, 0.007954172790050507, -0.0023235606495290995, -0.007423452567309141, -0.011888138949871063, 0.0042722998186945915, 0.016876911744475365, 0.044421304017305374, 0.026297198608517647, 0.0170493945479393, -0.0037216772325336933, 0.005031893495470285, -0.008617573417723179, 0.0024977033026516438, 0.010786893777549267, -0.01104561984539032, -0.021945292130112648, -0.024426409974694252, 0.02175953984260559, -0.00866401195526123, 0.009878034703433514, -0.0032606138847768307, 0.015298017300665379, 0.01746070384979248, -0.021573787555098534, 0.026774847880005836, 0.0027066743932664394, 0.000393064838135615, 0.006766686215996742, 0.005934118293225765, 0.024320265278220177, -0.007032046094536781, -0.005691977217793465, 0.011078789830207825, -0.01846907287836075, 0.004570830147713423, -0.004060011822730303, 0.006544447038322687, -0.007741884794086218, 0.002084736479446292, 0.0026204322930425406, -0.011211469769477844, -0.019384564831852913, -0.023696668446063995, -0.015629718080163002, -0.01711573451757431, 0.018561948090791702, -0.010057153180241585, -0.03261277452111244, 0.004129668697714806, 0.02788936160504818, 0.008922738023102283, 0.007755152881145477, -0.016319654881954193, 0.028473153710365295, -0.006378596648573875, 0.013692588545382023, -0.010441925376653671, 0.010229636915028095, -0.020207181572914124, -0.0037647983990609646, 0.001162609551101923, -0.002622090745717287, 0.003255638526752591, -0.01470095757395029, 0.026681972667574883, -0.011364052072167397, 0.0047798012383282185, -0.012040720321238041, -0.006398498546332121, -0.008975810371339321, 0.027305567637085915, -0.007602570578455925, -0.008577769622206688, 0.0004875994345638901, 0.006839659996330738, -0.023975297808647156, -0.004302152898162603, 0.02495712973177433, 0.0045277089811861515, 0.0013939704513177276, -0.0033136860001832247, -0.00944019015878439, -0.005473054945468903, 0.014170236885547638, 0.01744743622839451, -0.004627218935638666, 0.007629106752574444, -0.006444936618208885, -0.011510000564157963, 0.009314144030213356, 0.09404366463422775, 0.020101038739085197, 0.005814705975353718, 0.011038986034691334, 0.001143536763265729, 0.00797407515347004, -0.026774847880005836, -0.0011012449394911528, 0.002434680238366127, 0.014807101339101791, 0.0106409452855587, -0.03110021911561489, 0.03900795429944992, -0.004879311192780733, -0.006162991281598806, -0.010143395513296127, -0.02087058313190937, -0.012923043221235275, 0.035292912274599075, 0.011264542117714882, 0.00141470180824399, -0.013340986333787441, -0.017142271623015404, 0.025394974276423454, 0.01779240369796753, 0.026376808062195778, 0.02788936160504818, 0.02678811550140381, -0.012438761070370674, -0.0203133262693882, 0.0008300800109282136, -0.002325219102203846, -0.038981419056653976, -0.0010050518903881311, 0.004607317037880421, 0.0048925792798399925, -0.01513880118727684, 0.005293936934322119, 0.006673810072243214, 0.013088894076645374, 0.021985094994306564, 0.00784139521420002, -0.007735250983387232, 0.012160132639110088, 0.006763368844985962, -0.012007550336420536, 0.01108542364090681, 0.018230248242616653, -0.004030158743262291, -0.0055128587409853935, 0.0301979947835207, -0.010355683043599129, 0.025209221988916397, -0.009327412582933903, -0.012989383190870285, -0.006259184796363115, 0.010541435331106186, 0.012226472608745098, -0.016385994851589203, -0.027862824499607086, 0.002713308436796069, -0.007848029024899006, 0.002580628264695406, -0.003930648323148489, -0.025899158790707588, -0.011390588246285915, -0.010342415422201157, 0.009824962355196476, 0.006799856200814247, -0.007244334556162357, -0.012770461849868298, -0.014846905134618282, -0.019066132605075836, -0.0016079171327874064, 0.03240048512816429, 0.00013910680718254298, -0.004862726200371981, 0.0073637464083731174, -0.016890179365873337, 0.020777706056833267, -0.00521432887762785, 0.011344149708747864, -0.017274951562285423, -0.018124103546142578, -0.0301979947835207, 0.04848131537437439, 0.046597257256507874, -0.035558272153139114, -0.01040212158113718, -0.006285720504820347, -0.0007260090205818415, 0.012923043221235275, 0.020910385996103287, 0.008265971206128597, 0.002814477076753974, 0.004411614034324884, -0.0012952896067872643, -0.003277198877185583, -0.0015034315874800086, -0.0028874510899186134, 0.0007032046560198069, 0.017500508576631546, -0.012438761070370674, 0.014581545256078243, 0.04527045786380768, 0.010050519369542599, 0.00378470029681921, -0.03478872776031494, -0.006899366155266762, -0.010859867557883263, 0.005419983062893152, 0.013307816348969936, -0.0017065979773178697, 0.015045925043523312, -0.04240456596016884, 0.019822409376502037, 0.006179576739668846, 0.028658905997872353, 0.006408449728041887, 0.0015706008998677135, -0.018973257392644882, -0.020273521542549133, 0.018522145226597786, 0.010760357603430748, -0.02592569589614868, 0.017885280773043633, -0.003668605349957943, -0.00788119900971651, 0.0005261595943011343, -0.016001222655177116, 0.000846665003336966, 0.02564706653356552, -0.002671845955774188, -0.015629718080163002, -0.008942640386521816, -0.02385588549077511, 0.0009320778190158308, 0.013957948423922062, -0.027385177090764046, -0.035425592213869095, -0.017553579062223434, 0.0245458222925663, 0.0018940087174996734, -0.013811999931931496, 0.008909470401704311, -0.025328634306788445, 0.009188097901642323, -0.010634311474859715, -0.01342722773551941, 0.032771989703178406, 0.01935802958905697, -0.009990813210606575, -0.01616043783724308, -0.017580116167664528, 0.0064847408793866634, -0.020167378708720207, -0.021719735115766525, -0.020485810935497284, 0.00841855350881815, 0.02576647885143757, 0.010143395513296127, 0.012710755690932274, 0.021719735115766525, 0.0014810417778789997, -0.008876299485564232, -0.013772196136415005, -0.021242087706923485, -0.0001169243550975807, -0.022807711735367775, 0.028393546119332314, 0.01078025996685028, 0.021427839994430542, -0.003499438054859638, 0.012325982563197613, -0.017009591683745384, 0.023006733506917953, 0.00475658243522048, -0.012279544956982136, 0.000602036016061902, -0.01496631745249033, 0.010388853028416634, -0.02461216226220131, -0.006421717815101147, 0.03614206612110138, -0.014780565164983273, 0.0043751271441578865, 0.0006368645699694753, -0.00016719767882023007, 0.01690344698727131, 0.027942432090640068, 0.008736985735595226, 0.0025043373461812735, 0.037681154906749725, -0.005463103763759136, -0.018442535772919655, 0.004129668697714806, -0.014674421399831772, -0.0212818905711174, -0.024121245369315147, 0.02693406492471695, 0.008192997425794601, -0.02251581661403179, -0.0016784034669399261, -0.017646456137299538, -0.016744231805205345, 0.0053967637941241264, 0.008159827440977097, -0.014926513656973839, -0.006564348936080933, -0.0161737073212862, -0.021175747737288475, -0.019928554072976112, -0.014541741460561752, -0.015443965792655945, -0.00301681412383914, -0.016107365489006042, -0.02386915311217308, 0.014263113029301167, -0.024041637778282166, -0.03574402257800102, 0.007118288427591324, -0.005894314497709274, 0.0031926154624670744, 0.01984894648194313, 0.05238211154937744, 0.00941365398466587, 0.021985094994306564, -0.006199478637427092, 0.017619919031858444, -0.012491833418607712, -0.00018430098134558648, 0.010163296945393085, -0.010820063762366772, 0.004627218935638666, -0.02169319987297058, -0.03526637703180313, 0.032692380249500275, 0.0033800259698182344, -0.02966727502644062, 0.02515614964067936, 0.005579199176281691, 0.005735097918659449, -0.007171360310167074, 0.014515205286443233, -0.008670645765960217, 0.027252497151494026, -0.0020084453281015158, -0.016452334821224213, -0.00443151593208313, -0.0031511527486145496, -0.017633188515901566, 0.022064704447984695, -0.01418350450694561, 0.032294340431690216, -0.01117829978466034, 0.021666662767529488, 0.018973257392644882, -0.01840273290872574, -0.03348846361041069, 0.04662379249930382, 0.018707897514104843, 0.0059739225544035435, -0.016253314912319183, 0.015457233414053917, 0.00017279511666856706, -0.0037448962684720755, -0.014395792968571186, 0.0015589913818985224, 0.02169319987297058, 0.02072463370859623, -0.015722593292593956, 0.0007289114291779697, 0.0021228818222880363, -0.018323125317692757, 0.036168601363897324, -0.01820371299982071, -0.0043751271441578865, 0.009168196469545364, 0.008544599637389183, -0.03224126994609833, -0.004073279444128275, 0.0007989830919541419, -0.007642374839633703, -0.016478870064020157, 0.005814705975353718, -0.02577974647283554, -0.03213512524962425, -0.037256576120853424, 0.0010697334073483944, -0.004355224780738354, -0.0009295900817960501, -0.017102466896176338, -0.0009362240671180189, -0.011609510518610477, 0.018230248242616653, 0.010753723792731762, -0.003073203144595027, 0.00455424515530467, -0.02276790887117386, 0.006362011656165123, 0.005837925244122744, 0.015536841936409473, -0.003904112381860614, -0.0067069800570607185, -0.0068131242878735065, 0.012710755690932274, 0.022794444113969803, -0.0033136860001832247, -0.016691159456968307, -0.01405082456767559, -0.010972646065056324, 0.008226167410612106, -0.005429933778941631, -0.017513776198029518, 0.010176565498113632, 0.00630562286823988, -0.004550928249955177, -0.015802202746272087, -0.009672380983829498, 0.00557588180527091, -0.017911816015839577, -0.0017862061504274607, 0.010216369293630123, 0.008358847349882126, -0.007602570578455925, 0.021388035267591476, -0.02317921631038189, -0.0021245405077934265, -0.008637475781142712, -0.011264542117714882, -0.0019421052420511842, -0.002980327233672142, 0.02067156322300434, 0.01589507795870304, -0.006677126977592707, -0.01807103306055069, -0.02120228298008442, 0.011954478919506073, -0.004209276754409075, -0.04556235298514366, 0.03818533942103386, 0.013314450159668922, -0.013254744000732899, 0.020950190722942352, -0.009659112431108952, -0.012186668813228607, -0.025341901928186417, -0.019490709528326988, -0.017022859305143356, -0.027464784681797028, -0.017699528485536575, 0.010886403732001781, 0.011888138949871063, -0.00852469727396965, -0.03128597140312195, 0.006617420818656683, -0.013108795508742332, 0.0008624207694083452, 0.0069657061249017715, 0.006650590803474188, 0.009785158559679985, 0.005393446888774633, -0.032984279096126556, 0.02741171233355999, -0.007649008650332689, 0.016585014760494232, -0.02762399986386299, 0.02317921631038189, 0.008809959515929222, -0.013155234046280384, 0.0028841341845691204, -0.005021942313760519, -0.027650536969304085, 0.008889568038284779, 0.018933452665805817, 0.00521432887762785, -0.012677585706114769, -0.0006244258256629109, -0.010879769921302795, 0.006859562359750271, 0.0011675850255414844, 0.01963665708899498, 0.00584787642583251, 0.016810571774840355, 0.03200244531035423, -0.020286791026592255, 0.021321695297956467, -0.005174524616450071, 0.007715349085628986, -0.013274645432829857, -0.013838536106050014, -0.012452028691768646, -0.006471472792327404, 0.013838536106050014, -0.012657683342695236, -0.030251067131757736, -0.001975275343284011, -0.022409671917557716, 0.028207793831825256, 0.0031279337126761675, -0.0009602723876014352, 0.001174219069071114, -0.007045314181596041, -0.014608081430196762, -0.007357112597674131, -0.017274951562285423, -0.019490709528326988, -0.016810571774840355, 0.0008379578939639032, -0.0210696030408144, -0.01746070384979248, 0.008717083372175694, 0.025487851351499557, -0.002414778107777238, -0.0032257854472845793, -0.03728311508893967, 0.006819758098572493, -0.015483769588172436, 0.023709937930107117, -0.00024608016246929765, -0.022807711735367775, 0.003927331417798996, 0.011092058382928371, -0.006285720504820347, 0.004179423674941063, 0.002328536007553339, 0.005191109608858824, -0.008856398053467274, 0.0003768944588955492, -0.005496273748576641, -0.04309450089931488, -0.027862824499607086, 0.017553579062223434, 0.006925902329385281, -0.01394468080252409, -0.012558173388242722, 0.20581339299678802, -0.010116859339177608, -0.012664317153394222, 0.030834859237074852, 0.013891608454287052, 0.012034086510539055, 0.013460397720336914, 0.0036851903423666954, -0.003635435365140438, 0.012836801819503307, 0.006756735034286976, 0.014156968332827091, -0.014329452998936176, 0.004036792553961277, 0.0037349453195929527, -0.011981015093624592, -0.013354253955185413, -0.02067156322300434, -0.005605734884738922, 0.0024695086758583784, -0.003618850139901042, -0.015311285853385925, -0.0112910782918334, -0.018362928181886673, 0.0203133262693882, 0.022728104144334793, -0.029508057981729507, -0.02762399986386299, 0.057370882481336594, 0.03879566490650177, -0.014979585073888302, -0.01149009820073843, -0.002224050462245941, 0.017672991380095482, -0.015974685549736023, 0.020552150905132294, 0.008750254288315773, -0.0053602769039571285, 0.01265104953199625, 0.031179828569293022, -0.020074501633644104, -0.009546334855258465, -0.0007065216195769608, 0.004972187336534262, -0.012266277335584164, 0.009831597097218037, -0.0034563171211630106, -0.005628954153507948, -0.007396916393190622, 0.04577464237809181, -0.021361500024795532, -0.013825268484652042, -0.006265818607062101, 0.016465602442622185, 0.013506836257874966, -0.004517758265137672, 0.004902530461549759, 0.009871400892734528, 0.0009635893511585891, 0.011496732011437416, -0.01642579957842827, 0.02945498563349247, -0.014210040681064129, 0.0109129399061203, -0.01343386247754097, 0.014979585073888302, -0.006577617023140192, -0.00971218477934599, 0.01624004729092121, -0.0016070879064500332, 0.02360379323363304, -0.008670645765960217, -0.004932383541017771, 0.008139925077557564, -0.021109407767653465, -0.02291385643184185, 0.044978559017181396, 0.006030311342328787, 0.028526226058602333, 0.04335986450314522, 0.005164573434740305, 0.01678403466939926, -0.016624819487333298, 0.009858133271336555, -0.0041595217771828175, -0.008557867258787155, 0.022860784083604813, 0.011330882087349892, -0.008332311175763607, -0.039167169481515884, -0.006756735034286976, 0.009771890938282013, 0.012770461849868298, 0.0026088228914886713, -0.012531637214124203, -0.009970910847187042, 0.0051048677414655685, 0.01894672028720379, -0.004368492867797613, -0.019517244771122932, -0.01117829978466034, 0.01971626654267311, -0.0033916356042027473, 0.01108542364090681, -0.02291385643184185, -0.014740761369466782, 0.0140110207721591, 0.010475095361471176, -0.014661152847111225, -0.018933452665805817, -0.02625739574432373, -0.03847723454236984, -0.006365328561514616, -0.027305567637085915, 0.023696668446063995, 0.006179576739668846, 0.00352929113432765, -0.013679319992661476, 0.009453458711504936, -0.03680546581745148, 0.0051048677414655685, -0.021998364478349686, 0.013254744000732899, 0.015855275094509125, -0.018933452665805817, -0.022595424205064774, -0.03879566490650177, 0.024174317717552185, 0.0013251426862552762, -0.010256173089146614, 0.00507833156734705, 0.012624513357877731, -0.009062051773071289, 0.017779136076569557, -0.021865682676434517, -0.010229636915028095, -0.022595424205064774, -0.005648856051266193, -0.01278372947126627, 0.0062359655275940895, 0.005536078009754419, -0.00788119900971651, 0.025806283578276634, -0.011795262806117535, -0.0004909164272248745, -0.01342722773551941, 0.011927942745387554, 0.012697487138211727, 0.009042150340974331, -0.01356654241681099, 0.0070652165450155735, -0.016147170215845108, 0.013493567705154419, -0.024797914549708366, 0.019212082028388977, 0.013175135478377342, -0.02264849655330181, -0.011974380351603031, 0.022343331947922707, -0.010010714642703533, -0.011589608155190945, -0.017619919031858444, 0.034204933792352676, -0.001779572106897831, -0.023205753415822983, 0.017235146835446358, -0.16738924384117126, 0.024306997656822205, -0.029083482921123505, 8.940359839471057e-05, 0.03566441684961319, 0.00719126220792532, 0.01950397714972496, 0.013274645432829857, -0.01882730796933174, 0.024081440642476082, 0.0018608386162668467, -0.019729534164071083, -0.021295158192515373, -0.032214730978012085, 0.009380483999848366, -0.012525003403425217, -0.03404571861028671, 0.0190130602568388, 0.01513880118727684, 0.008856398053467274, 0.006773320026695728, -0.02367013320326805, 0.01805776357650757, 0.025938963517546654, 0.006879464257508516, 0.009267706423997879, -0.004156204871833324, 0.008100121282041073, 0.016677891835570335, -0.003990354482084513, 0.014329452998936176, -0.025275561958551407, 0.03776076063513756, -0.01424984447658062, 0.00359563110396266, -0.020631758496165276, -0.02897733822464943, 0.003967135678976774, -0.008073585107922554, -0.002320243511348963, 0.028393546119332314, 0.0065908851101994514, -0.0036288013216108084, -0.009566236287355423, 0.016147170215845108, 0.02012757398188114, 0.02434680238366127, -0.015404161997139454, 0.004477954003959894, -0.018508875742554665, 0.020963458344340324, -0.007284138351678848, 0.01142375823110342, 0.017540311440825462, 0.009572871029376984, 0.005755000282078981, -0.010946109890937805, 0.010713919997215271, 0.006872829981148243, -0.009327412582933903, -0.006700345780700445, 0.0026801384519785643, 0.016890179365873337, -0.001019978430122137, -0.020008161664009094, -0.023418040946125984, -0.04025514796376228, -0.0023467796854674816, 0.0015283090760931373, -0.0026817969046533108, -0.007244334556162357, -0.018628288060426712, 0.006282403599470854, 0.001109537435695529, -0.00057757314061746, 0.025965498760342598, -0.001892350148409605, -0.0210696030408144, 0.017686259001493454, 0.010322513058781624, -0.0013259719125926495, 0.006932536140084267, -0.01231271494179964, -0.01002398319542408, -0.014754028990864754, -0.017619919031858444, 0.0006381084676831961, 0.041900381445884705, -0.010521532967686653, -0.00738364877179265, -0.007702080998569727, -0.005287302657961845, 0.017062664031982422, -0.0432271808385849, 0.030171459540724754, 0.024054905399680138, -0.0026088228914886713, 0.028207793831825256, 0.003924014512449503, -0.00957950484007597, -0.00666717579588294, 0.009479994885623455, -0.030516427010297775, 0.00937385018914938, 0.03176362067461014, 0.03730965033173561, -0.0010755382245406508, 0.038636449724435806, 0.028287401422858238, -0.0005448177107609808, 0.023895690217614174, 0.014820368960499763, -0.006000458262860775, 0.007277504540979862, -0.012796997092664242, 0.0053635938093066216, 0.010813429951667786, -0.02230352722108364, 0.03075525164604187, 0.026297198608517647, 0.012525003403425217, -0.023922225460410118, -0.020101038739085197, 0.003963818773627281, -0.029614202678203583, 0.020976725965738297, -0.11049599945545197, 0.002333511598408222, 0.010276075452566147, 0.0237895455211401, -0.036513566970825195, -0.008989077992737293, 0.012730657123029232, 0.02495712973177433, 0.006716931238770485, 0.014276380650699139, -0.029614202678203583, -0.023617060855031013, 0.008093487471342087, -0.0044149309396743774, 0.03484179824590683, 0.025938963517546654, 0.015390893444418907, 0.03393957391381264, -0.02339150570333004, 0.026615632697939873, -0.00288910954259336, -0.0035226570907980204, 0.017898548394441605, -0.024360070005059242, -0.021043065935373306, 0.0018376196967437863, -0.02209123969078064, 0.008305775001645088, 0.0022406354546546936, 0.0018989841919392347, -0.022263724356889725, -0.015642985701560974, 0.004199325572699308, -0.016956519335508347, 0.0160808302462101, 0.0029703760519623756, 0.0007326430059038103, -0.012465297244489193, 0.016332922503352165, -0.03271891549229622, -0.01670442707836628, -0.0006621567299589515, 0.012166766449809074, -0.019862214103341103, 0.008100121282041073, -0.009791792370378971, -0.02059195376932621, 0.023404773324728012, 0.00790773518383503, -0.026774847880005836, 0.008378749713301659, -0.005055112298578024, -0.04840170592069626, -0.020751170814037323, 0.03309042006731033, -0.01746070384979248, -0.021374767646193504, -0.0022074654698371887, -0.0032191514037549496, -0.023510916158556938, 0.006617420818656683, 0.016346190124750137, -0.034602973610162735, -0.024466214701533318, 0.01594815030694008, 0.008717083372175694, -0.012412224896252155, 0.011516634374856949, 0.019610121846199036, 0.0041230348870158195, -0.0024413142818957567, -0.006527862045913935, -0.007012144196778536, 0.027491319924592972, -0.01970299705862999, -0.02515614964067936, 0.00896917562931776, -0.006003775168210268, -0.006000458262860775, -0.01915900968015194, -0.02810164913535118, -0.01121810358017683, -0.0009080295567400753, 0.0004942334489896894, 0.00443151593208313, 0.0036088991910219193, 0.005632271058857441, 0.010853233747184277, 0.006053530611097813, -0.0523555763065815, 0.0016601600218564272, 0.023510916158556938, 0.031604405492544174, -0.016279850155115128, -0.02012757398188114, 0.017354559153318405, -0.006136455573141575, -0.02727903239428997, -0.009141660295426846, -4.4624055590247735e-05, -0.023006733506917953, -0.012531637214124203, -0.0625719428062439, -0.002945498563349247, 0.005788170266896486, -0.02169319987297058, 0.0016908422112464905, 0.0006343768327496946, 0.025793015956878662, 0.017354559153318405, 0.010017349384725094, 0.027332104742527008, -0.007436720654368401, 0.010820063762366772, -0.003502755193039775, -0.017354559153318405, -0.012034086510539055, -0.035611342638731, 0.026761580258607864, -0.0002355072065256536, 0.021587055176496506, 0.011277809739112854, 0.013035821728408337, -0.014143700711429119, 0.03654010593891144, 0.005429933778941631, -0.0267217755317688, 0.0027547709178179502, -0.017845476046204567, 0.013088894076645374, -0.009274340234696865, 0.025262294337153435, 0.010859867557883263, -0.030436819419264793, -0.00397376948967576, 0.0373627208173275, -0.019185544922947884, -0.004829556215554476, -0.03646049648523331, 0.035027552396059036, 0.021733002737164497, -0.0018127420917153358, -0.04277607053518295, -0.021308427676558495, 0.016133902594447136, -0.013626248575747013, -0.006776636932045221, 0.0047433143481612206, 0.006640640087425709, -0.001000905642285943, 0.022608691826462746, 0.025872623547911644, 0.01240559108555317, 0.029906099662184715, 0.010727187618613243, -0.03123289905488491, -0.009161562658846378, 0.013838536106050014, -0.01642579957842827, 0.015390893444418907, 0.007085118442773819, -0.012080525048077106, 0.035637881606817245, -0.006279086694121361, 0.032984279096126556, 0.018309855833649635, -0.007476524915546179, -0.005997141357511282, 0.0059805563651025295, 0.005685342941433191, 0.008365481160581112, -0.02876504883170128, -0.0040168906562030315, 0.0067434669472277164, 0.02810164913535118, -0.0011501708067953587, 0.014289649203419685, -0.00890283565968275, -0.03553173691034317, -0.007741884794086218, -7.395879947580397e-05, 0.03171055018901825, 0.014276380650699139, -0.007403550669550896, -0.04044089838862419, 0.02958766557276249, 0.0245458222925663, -0.002791258040815592, -0.028950801119208336, -0.026230858638882637, -0.016691159456968307, 0.032214730978012085, 0.003307051956653595, -0.0013914827723056078, -0.00648142397403717, 0.018362928181886673, -0.02243620716035366, 0.009665746241807938, -0.012325982563197613, -0.002709991531446576, 0.017487239092588425, 0.0037946514785289764, -0.004912481177598238, 0.0029372060671448708, -0.013579810038208961, -0.010926207527518272, -0.003963818773627281, -0.008192997425794601, -0.017022859305143356, -0.015165337361395359, 0.013327717781066895, 0.020220449194312096, 0.007987342774868011, 0.007775054778903723, 0.010939476080238819, 0.0127107556</t>
+  </si>
+  <si>
+    <t>[0.01741638407111168, -0.011845050379633904, -0.012554253451526165, -0.02270812727510929, -0.019748570397496223, 0.011476810090243816, -0.006355547811836004, -0.002848744858056307, 0.0007663140422664583, -0.018016478046774864, 0.007078389171510935, 0.00923327449709177, -0.033414360135793686, -0.01622983254492283, -0.00110557209700346, 0.006236210931092501, 0.019325776025652885, 0.0017218624707311392, 0.030086563900113106, -0.031123090535402298, -0.0233627762645483, -0.014388632960617542, 0.027986232191324234, -0.012329217977821827, -0.018534742295742035, -0.020907843485474586, 0.019584907218813896, -0.020907843485474586, 0.006294174585491419, -0.015206944197416306, 0.019448522478342056, 0.016802649945020676, -0.03930620104074478, 0.007610291242599487, 0.0069829197600483894, -0.0013621466932818294, 0.008012627251446247, 0.024672074243426323, 0.02246263436973095, -0.002301499480381608, 0.02669057436287403, -0.007098847068846226, 0.02032138779759407, -0.004667781759053469, -0.027590716257691383, 0.0132975522428751, 0.01978948526084423, 0.005155358463525772, 1.7527623640489765e-05, -0.004562083166092634, 0.0037096759770065546, 0.02749524638056755, -0.019748570397496223, 0.009642429649829865, -0.0051349010318517685, -0.014061309397220612, -0.0011004576226696372, 0.011742761358618736, 0.03278699144721031, 0.0009086660575121641, -0.0036517123226076365, -0.008326313458383083, -0.03717859089374542, -0.00425521656870842, -0.00405404856428504, -0.028231726959347725, -0.008660457096993923, 0.005649754777550697, -0.015152390114963055, 0.001046756049618125, 0.02831355668604374, 0.021698877215385437, 0.01387718878686428, -0.015370606444776058, 0.042715828865766525, -0.0038051456212997437, -0.021357914432883263, 0.005632706917822361, 0.012513337656855583, 0.017048142850399017, 0.007910339161753654, -0.009922019205987453, -0.00668287230655551, 0.0340690091252327, 0.0417611338198185, 0.004896226804703474, -0.002865792950615287, 0.011367701925337315, -0.010310716927051544, -0.028231726959347725, 0.001830970635637641, 0.005537237040698528, -0.01481142733246088, -0.021753432229161263, -0.023321861401200294, 0.003043093718588352, -0.011688207276165485, 0.023580992594361305, 0.0024447038304060698, -0.01241786777973175, -0.02137155272066593, -0.01050165668129921, -0.004108602646738291, -0.013577141799032688, -0.03518736734986305, -0.007201136089861393, 0.009124166332185268, -0.01560246106237173, 0.02855904959142208, -0.007821688428521156, -0.013345287181437016, 0.02763163112103939, 0.024481134489178658, -0.025272168219089508, -0.02858632802963257, -0.00024336225760634989, 0.01592978462576866, 0.0020116809755563736, 0.007132943253964186, -0.023594630882143974, 0.020648712292313576, 0.027208836749196053, 0.0033124543260782957, 0.004575721919536591, 0.03663305193185806, 0.011476810090243816, -0.01676173508167267, -0.011708664707839489, -0.010603945702314377, 0.019844038411974907, -0.00889913085848093, -0.0015027938643470407, -0.0031948222313076258, -0.004582541063427925, -0.0060316333547234535, 0.01076078787446022, -0.01712997443974018, -0.004729154985398054, -0.012942951172590256, -0.01794828660786152, 0.027795294299721718, 0.00019157851056661457, -0.01560246106237173, -0.0063453190959990025, -0.01712997443974018, 0.020266832783818245, -0.004493890795856714, 0.01712997443974018, -0.014606849290430546, -0.008680914528667927, 0.003114695893600583, -0.038215119391679764, -0.004258626140654087, -0.014252248220145702, -0.0027924859896302223, 0.012806565500795841, 0.0024873241782188416, 0.026867873966693878, -0.0020577108953148127, -0.016802649945020676, -0.012165555730462074, 0.007255690172314644, 0.0007040883647277951, 0.006965871434658766, 0.029568299651145935, 0.02644508145749569, 0.020253194496035576, 0.013427117839455605, -0.017511853948235512, 0.010951727628707886, 0.001092785969376564, 0.027836209163069725, -0.03611478954553604, 0.011995074339210987, 0.012663361616432667, 0.022776320576667786, -0.011913242749869823, -0.01740274578332901, 0.0014277820009738207, -0.00514512974768877, -0.021316999569535255, -0.01820741780102253, 0.026799682527780533, 0.04639822617173195, -0.025694962590932846, 0.0017951695481315255, 0.046425506472587585, 0.007330701686441898, 0.0012087133945897222, -0.00693859439343214, 0.0009188949479721487, 0.03202323243021965, 0.00015290053852368146, -0.005581562407314777, -0.6433014869689941, -0.004446155857294798, -0.044434282928705215, -0.019584907218813896, -0.010337994433939457, 0.00368580874055624, 0.025422191247344017, 0.010256162844598293, -0.0026117756497114897, 0.004466613754630089, 0.0024753904435783625, -0.0026117756497114897, -0.014579572714865208, -0.008346770890057087, 0.008469518274068832, -0.030250227078795433, 0.001747434725984931, -0.006089597009122372, -0.0037471819669008255, -0.0017414678586646914, -0.007589833810925484, 0.021044228225946426, -0.02153521589934826, 0.02150793746113777, 0.009581056423485279, 0.0005451143952086568, 0.03335980698466301, -0.023321861401200294, -0.018562018871307373, -0.007876242510974407, 0.006386234425008297, 0.020703265443444252, -0.0015769533347338438, -0.012042808346450329, 0.045907240360975266, 0.013570322655141354, -0.027795294299721718, 0.03772413358092308, 0.03971535712480545, 0.034860044717788696, -0.01676173508167267, -0.014388632960617542, 0.027849847450852394, -0.024781182408332825, -0.006208933889865875, 0.005762272514402866, 0.038596998900175095, 0.014415910467505455, -0.032350558787584305, -0.02763163112103939, 0.01481142733246088, -0.023035451769828796, -0.012090543285012245, 0.03603295609354973, 0.012424686923623085, -0.022094395011663437, 0.03663305193185806, -0.016543518751859665, 0.0012061562156304717, 0.016448048874735832, 0.023608269169926643, 0.012731553986668587, 0.0015155799919739366, -0.02246263436973095, 0.007221593521535397, -0.030468443408608437, -0.004575721919536591, -0.011108570732176304, -0.018834788352251053, 0.013372563757002354, 0.009083250537514687, 0.025858623906970024, -0.009847007691860199, -0.0077330381609499454, 0.024481134489178658, 0.018657488748431206, 0.0033516651019454002, 0.021467022597789764, 0.0059975371696054935, 0.014470464549958706, 0.015997977927327156, -0.007548918016254902, -0.0217807088047266, -0.002263993490487337, 0.010542572475969791, -0.00015290053852368146, -0.004323409404605627, -0.0023287765216082335, 0.031013982370495796, 0.012138278223574162, 0.020948758348822594, 0.027208836749196053, 0.005087166093289852, -0.029050037264823914, 0.0014865981647744775, 0.030250227078795433, -0.021453384310007095, 0.030495719984173775, 0.004197252914309502, -0.04208845645189285, -0.012472421862185001, -0.023021813482046127, 0.014715957455337048, -0.0002211996616097167, 0.03576018661260605, 0.014988727867603302, -0.01689811982214451, 0.008674095384776592, 0.008905950002372265, 0.010876716114580631, -0.005765682086348534, 0.0141431400552392, -0.03600567951798439, -0.00110557209700346, -0.005322430282831192, -0.027017898857593536, 0.011108570732176304, 0.006260078400373459, 0.009396936744451523, -0.027454331517219543, -0.0017644829349592328, -0.020798735320568085, 0.004425697959959507, 0.004568902309983969, -0.0007006787345744669, 0.01662535034120083, 0.028531773015856743, -0.01422497071325779, -0.02469935081899166, -0.01794828660786152, 0.011394979432225227, 0.010208428837358952, 0.011258593760430813, -0.011347244493663311, 0.002079873578622937, 0.02006225474178791, 0.015520630404353142, -0.005864561535418034, -0.0032851772848516703, -0.020826011896133423, -0.02071690373122692, -0.02948646992444992, -0.0099561158567667, -0.02112605981528759, -0.013236179016530514, -0.0350782610476017, -0.015875231474637985, -0.0037267243023961782, -0.020416857674717903, 0.015493352897465229, -0.01845291070640087, -0.003344845725223422, -0.015384244732558727, 0.00923327449709177, 0.013481671921908855, -0.006369186565279961, 0.004674600902944803, -0.015752485021948814, -0.043643247336149216, -0.02218986302614212, -0.0007782477769069374, -0.0043847826309502125, -0.015861593186855316, -0.005059889052063227, 0.000808934448286891, -0.007644387427717447, 0.030522996559739113, 0.0265951044857502, -0.0032510810997337103, -0.02801351062953472, -0.00011390291183488443, -0.010447102598845959, -0.02233988791704178, 0.034614551812410355, -0.006072548683732748, 0.01462048850953579, -0.008176289498806, -0.002393559319898486, -0.028340833261609077, 0.0007893290603533387, 0.0014073242200538516, -0.0023952641058713198, -0.02018500305712223, -0.0213851910084486, 0.016707180067896843, 0.006894269492477179, 0.017320914193987846, 0.006880630739033222, -0.017730070278048515, 0.027413414791226387, 0.017975563183426857, -0.01427952479571104, -0.012663361616432667, -0.000984530313871801, 0.000782083603553474, 0.022912705317139626, 0.025599492713809013, -0.0006350433686748147, -0.0007023835205473006, -0.008742287755012512, 0.01848018728196621, 0.02643144130706787, 0.008046723902225494, -0.008449059911072254, 0.012063266709446907, -0.023417329415678978, 0.020525965839624405, -0.027590716257691383, 0.05447223037481308, -0.004824624862521887, 0.020662350580096245, -0.0054281288757920265, -0.03630572557449341, 0.0013979477807879448, -0.004077916033565998, 0.02366282418370247, 0.008012627251446247, 0.014115863479673862, 0.005298563279211521, 0.020894205197691917, 0.0435614176094532, -0.0018360851099714637, 0.007289786357432604, 0.02233988791704178, -0.025749515742063522, -0.010515294969081879, 0.022639933973550797, 0.02418108657002449, 0.014429548755288124, -0.012451964430510998, -0.001288839615881443, 0.030632104724645615, 0.0029135276563465595, 0.016270749270915985, 0.007589833810925484, 0.0006844829767942429, 0.010174332186579704, -0.018016478046774864, 0.013065697625279427, 0.01202917005866766, 0.03840605914592743, 0.0297592394053936, 0.007862604223191738, -0.015752485021948814, -0.00431999983265996, -0.0013169690500944853, 0.014252248220145702, 0.0168572049587965, -0.009792453609406948, -0.017334552481770515, 0.0025504021905362606, 0.02299453690648079, 0.004262035712599754, -0.0009555484284646809, 0.0006776637164875865, 0.011354063637554646, 0.0033260928466916084, 0.0037846879567950964, 0.03955169394612312, 0.010944908484816551, -0.0036005680449306965, 0.028777265921235085, -0.00045816885540261865, 0.01712997443974018, -0.003126629628241062, -0.039933573454618454, -0.006222572643309832, -0.003951759543269873, 0.01622983254492283, -0.0032630146015435457, -0.0034590684808790684, 0.007044292986392975, 0.01407494768500328, -0.012601987458765507, -0.0022844511549919844, -0.015206944197416306, -0.00634872866794467, 0.015193305909633636, -0.016148000955581665, 0.020703265443444252, -0.021166974678635597, -0.017361829057335854, 0.03202323243021965, 0.02858632802963257, 0.00026424622046761215, -0.0017423202516511083, -0.02259901911020279, 0.02765890769660473, -0.004524577409029007, 0.013188444077968597, 0.008551348932087421, 0.00351873692125082, -0.008189928717911243, 0.006202114745974541, -0.020771458745002747, -0.017866455018520355, 0.004906455986201763, -0.029322806745767593, 0.02801351062953472, 0.0023918545339256525, -0.00199292809702456, -0.001738910679705441, 0.0029885396361351013, -0.03344164043664932, 0.03556924685835838, -0.006454427260905504, -0.028804544359445572, -0.018111947923898697, 0.0011447828728705645, -0.014634126797318459, 0.011115389876067638, 0.0012121229665353894, -0.014525018632411957, -0.019503075629472733, 0.009458309970796108, 0.01209736242890358, 0.0059873079881072044, 0.0007087765843607485, 0.014497741125524044, -0.015288774855434895, -0.011913242749869823, -0.01368624996393919, -0.01726635918021202, -0.00019157851056661457, 0.0927964523434639, 0.016243470832705498, 0.02615867182612419, 0.01674809679389, -0.010072043165564537, 0.00777395348995924, -0.022108033299446106, -0.009935658425092697, 0.008046723902225494, 0.0025589263532310724, 0.02180798538029194, -0.02469935081899166, 0.008012627251446247, 0.014197694137692451, 0.010992643423378468, -0.014293164014816284, 0.003549423534423113, -0.011204039677977562, 0.03641483560204506, 0.002952738432213664, -0.0016894710715860128, -0.0008613574900664389, -0.02723611518740654, 0.030386611819267273, 0.013679430820047855, 0.004333638120442629, 0.018166501075029373, 0.0045313965529203415, 0.0021122649777680635, 0.0029510336462408304, 0.011183582246303558, -0.018766596913337708, -0.01294977031648159, -0.0030720755457878113, 0.007194316480308771, -0.0013314600801095366, -0.0008430306916125119, -0.0040063136257231236, 0.03205050900578499, 0.03027750365436077, 0.02524489164352417, 0.03030478022992611, -0.01282020378857851, 0.0022128489799797535, -0.0010024307994171977, -0.029295530170202255, -0.020280471071600914, 0.019694015383720398, -0.014184055849909782, -0.016843566671013832, 0.018166501075029373, 0.008878673426806927, -0.016134362667798996, -0.027958955615758896, -0.008728649467229843, -0.006369186565279961, 0.020771458745002747, 0.0025827938225120306, -0.02206711657345295, -0.0033806469291448593, 0.012397410348057747, -0.02006225474178791, 0.011422256007790565, 0.020375940948724747, -0.02326730638742447, -0.01208372414112091, -0.016543518751859665, -0.00909688975661993, -0.009049154818058014, 0.002806124510243535, -0.01845291070640087, -0.010085681453347206, -0.017839178442955017, 0.0036414836067706347, 0.015888869762420654, -0.0049576000310480595, 0.012881577014923096, -0.004708697088062763, -0.012663361616432667, 0.04587996378540993, -0.011244955472648144, -0.0030891236383467913, -0.004572312347590923, -0.019448522478342056, 0.002226487500593066, 0.04517076164484024, 0.014975089579820633, 0.02060779556632042, -0.030904874205589294, 0.011756399646401405, 0.023212753236293793, -0.01335210632532835, 0.024017425253987312, -0.010658499784767628, -0.005666803102940321, -0.0024037882685661316, 0.013529406860470772, 0.01741638407111168, 0.006706739775836468, -0.006607860326766968, 0.0077125802636146545, -0.0003326518926769495, -0.02814989537000656, -0.00944467168301344, 0.005475863814353943, -0.0057861399836838245, 0.00863317959010601, -0.022298971191048622, -0.0005340331117622554, 0.010460740886628628, 0.02592681720852852, 0.001946898060850799, -0.023567354306578636, 0.020662350580096245, -0.03764230012893677, 0.00178494059946388, -0.016584433615207672, 0.02844994142651558, 0.011722303926944733, -0.004964419640600681, -0.014715957455337048, -0.006468065548688173, 0.00668287230655551, 0.00733752129599452, -0.010331175290048122, -0.002289565745741129, 0.0012607101816684008, -0.006693101022392511, -0.002944214502349496, 0.0022418308071792126, 0.0012956588761880994, 0.017443660646677017, 0.022830873727798462, -0.018834788352251053, -0.030250227078795433, -0.017061783000826836, 0.004974648356437683, -0.00851043313741684, -0.005018973723053932, -0.003781278384849429, -0.04598907381296158, 0.017511853948235512, -0.008524071425199509, 0.002589612966403365, -0.030632104724645615, -0.013454395346343517, -0.0029203470330685377, -0.019571268931031227, -0.023962870240211487, 0.007269328460097313, -0.0012794631766155362, 0.015125113539397717, 0.0001942422823049128, 0.012499699369072914, -0.005083756521344185, -0.04195207357406616, -0.02418108657002449, -0.03131403028964996, 0.01702086627483368, 0.008871854282915592, 0.009021877311170101, 0.008128554560244083, 0.027208836749196053, 0.00029812942375428975, -0.002419131575152278, -0.010917630977928638, -0.008878673426806927, -0.01753913052380085, -0.03357802331447601, 0.023540077731013298, 0.01966673880815506, 0.03109581395983696, -0.0028214678168296814, 0.022094395011663437, -0.015125113539397717, 0.023553716018795967, 0.014197694137692451, -0.001848018728196621, -0.028913652524352074, -0.02602228708565235, 0.004616637248545885, -0.008953684940934181, -0.013515768572688103, -0.01009932067245245, 0.00574522465467453, 0.0027600943576544523, 0.003893796121701598, -0.01938032917678356, 0.009594695642590523, -0.004313180223107338, 0.029731962829828262, -0.014347718097269535, 0.010856257751584053, -0.0076784840784966946, 0.01848018728196621, -0.00039423833368346095, 0.000667434826027602, -0.029050037264823914, -0.0043847826309502125, 0.00981973111629486, -0.019243944436311722, -0.014838703908026218, -0.017866455018520355, -0.0313413068652153, -0.008715011179447174, 0.0005348855047486722, 0.01262926496565342, -0.018575657159090042, -0.023840123787522316, -0.005322430282831192, 0.002823172602802515, -0.015779761597514153, -0.028259003534913063, -0.029050037264823914, -0.010031127370893955, -0.006393054034560919, -0.017893731594085693, 0.038869768381118774, -0.022121671587228775, -0.026145033538341522, 0.038487888872623444, -0.020826011896133423, 0.019093921408057213, 0.010426645167171955, 0.04901682212948799, 0.00876274611800909, 0.006826076656579971, -0.0009129280806519091, 0.025476746261119843, 0.005704308860003948, -0.004770070780068636, 0.021862540394067764, 0.021685238927602768, 0.002168523846194148, -0.0057725016959011555, -0.00803990475833416, 0.046289119869470596, 0.0015062035527080297, -0.02048504911363125, 0.028340833261609077, 0.002252059755846858, 0.003614206565544009, -0.02150793746113777, -0.004323409404605627, -0.014525018632411957, 0.02734522335231304, -0.020962396636605263, 0.018671127036213875, -0.027931679040193558, -0.013849912211298943, -0.012192832306027412, 0.0036414836067706347, -0.03535103052854538, 0.033932626247406006, 0.016011616215109825, 0.020553242415189743, 0.03256877511739731, -0.011804134584963322, -0.033032484352588654, 0.026895152404904366, 0.020416857674717903, 0.012458783574402332, -0.012513337656855583, 0.0017576636746525764, 0.00194348837248981, -0.004708697088062763, -0.019612183794379234, -0.004023361951112747, 0.030386611819267273, 0.021453384310007095, -0.02218986302614212, -0.005332659464329481, 0.0007961483206599951, -0.002705540508031845, 0.0350782610476017, -0.026254141703248024, -0.0014618783025071025, 0.018943896517157555, 0.008817300200462341, -0.0053497073240578175, -5.2609506383305416e-05, 0.01481142733246088, 0.0005088871112093329, -0.012383772060275078, -0.004841672722250223, -0.02643144130706787, -0.01977584697306156, -0.01243150606751442, 0.008810481056571007, -0.012636084109544754, -0.013345287181437016, -0.05248100683093071, -0.015288774855434895, -0.001542857033200562, -0.00497805792838335, 0.016311664134263992, -0.0019826991483569145, 0.02004861645400524, -0.039933573454618454, 0.012383772060275078, -0.0017397630726918578, 0.011940520256757736, -0.019162112846970558, -0.007923977449536324, -0.017457298934459686, -0.0074398098513484, 0.02510850690305233, -0.0024583423510193825, -0.02392195537686348, -0.010399367660284042, -0.011319966986775398, -0.017839178442955017, -0.00226058391854167, -0.013072516769170761, -0.008005808107554913, -0.004030181095004082, -0.004991696681827307, -0.007126124110072851, -0.024794820696115494, -0.007269328460097313, -0.021316999569535255, -0.00047479080967605114, 0.03491459786891937, -0.035405583679676056, 0.021698877215385437, 0.020430495962500572, -0.015097836032509804, -0.009724261239171028, -0.010276621207594872, -0.005226960871368647, 0.023812847211956978, 0.013931742869317532, -0.005220141727477312, -0.0013860140461474657, -0.023158198222517967, -0.005602019838988781, -0.024508411064743996, 0.004974648356437683, -0.013249817304313183, -0.01482506562024355, 0.040588222444057465, 0.016175279393792152, 0.0036721702199429274, -0.015261498279869556, -0.012288302183151245, -0.018834788352251053, -0.009696983732283115, 0.006062319967895746, 0.003934711683541536, -0.019830400124192238, -0.017211806029081345, 0.026813320815563202, 0.008074000477790833, -0.031150368973612785, -0.03226872533559799, 0.006945413537323475, -0.02510850690305233, 0.007855785079300404, 0.002940804697573185, -0.004602998960763216, 0.023212753236293793, -0.0038903863169252872, -0.011954158544540405, 0.0366603285074234, -0.01582067832350731, 0.019475799053907394, -0.017566407099366188, 0.0066044507548213005, 0.008149012923240662, -0.00777395348995924, -0.003111286321654916, 0.0020372532308101654, -0.0433432012796402, -0.014552295207977295, 0.043370477855205536, 0.023430969566106796, 0.0005276400479488075, 0.017893731594085693, -0.0148796197026968, -0.0321323424577713, 0.0006052090902812779, -0.01130632869899273, 0.016652626916766167, 0.012124639935791492, 0.010897173546254635, -0.019830400124192238, 0.009751537814736366, 0.013993116095662117, 0.0018411994678899646, -0.014265886507928371, -0.0052030934020876884, 0.007596652954816818, -0.004377963487058878, -0.01475687325000763, -0.0028504496440291405, -0.0030823044944554567, 0.023171836510300636, -0.03477821499109268, 0.0232536680996418, -0.0141431400552392, 0.0099561158567667, 0.009669707156717777, 0.010740330442786217, -0.008701372891664505, -0.008203567005693913, -0.013631695881485939, -0.028531773015856743, -0.0217807088047266, -0.004214301239699125, -0.030332056805491447, -0.0034096287563443184, -0.02137155272066593, 0.017907369881868362, -0.0031044669449329376, -0.001492565032094717, -0.03095942921936512, 0.0024276557378470898, 0.018507465720176697, 0.0352964773774147, 0.028913652524352074, -0.03057754971086979, -0.020021339878439903, -0.008462698198854923, -0.00877638440579176, 0.013386202044785023, -0.0006516653229482472, 0.0069829197600483894, -0.02738613821566105, -0.012254205532371998, -0.002715769223868847, -0.049753300845623016, -0.009649249725043774, 0.02896820567548275, -0.00770576111972332, 0.0011123913573101163, -0.007351159583777189, 0.1950853168964386, 0.002751570427790284, -0.011865507811307907, 0.028477219864726067, 0.004903045948594809, 0.02190345525741577, 0.031041260808706284, -0.0060793678276240826, -0.017880093306303024, 0.023430969566106796, -0.017089059576392174, -0.0011396683985367417, -0.029595578089356422, 0.004616637248545885, 0.0038256035186350346, -0.00386992865242064, -0.021221529692411423, -0.023062728345394135, -0.014975089579820633, 0.0248357355594635, -0.005670212674885988, -0.01467504259198904, 0.0033789421431720257, -0.005063298624008894, 0.010713053867220879, 0.0020065666176378727, -0.011667749844491482, -0.0026305285282433033, 0.05062616616487503, 0.017566407099366188, -4.1181923734257e-05, -0.0004833148850593716, -0.008790022693574429, -0.00713976239785552, 0.010849438607692719, 0.01395220123231411, 0.00032519333763048053, -0.024372026324272156, 0.004545035306364298, 0.017989201471209526, 0.003307339968159795, 0.008251301944255829, 0.002526534954085946, -0.01605253294110298, -0.0025299445260316133, 0.0018173321150243282, -0.004592769779264927, -0.021180612966418266, 0.013147528283298016, 0.02457660436630249, -0.022517187520861626, 0.002148066181689501, 0.01582067832350731, 0.005257647484540939, 0.00796489231288433, -0.00398585619404912, 0.009942477568984032, 0.013372563757002354, 0.006607860326766968, -0.008919589221477509, -0.007548918016254902, 0.01858929544687271, -0.018548380583524704, 0.015220582485198975, -0.014934173785150051, -0.002275927225127816, -0.01567065343260765, 0.00041149958269670606, 0.0028334015514701605, -0.021712515503168106, 0.015888869762420654, -0.027263391762971878, 0.0034556586761027575, -0.0033635988365858793, -0.02535399980843067, -0.016679903492331505, 0.026281418278813362, -0.00797171238809824, 0.03158679977059364, 0.03363257646560669, -0.0015317756915464997, -0.007187497336417437, -0.02456296607851982, 0.009035516530275345, -0.0024668665137141943, -0.016557157039642334, 0.03254149854183197, -0.0023032042663544416, -0.02553129941225052, -0.020703265443444252, 0.025026675313711166, -0.01726635918021202, 0.002468571299687028, 0.01715725101530552, 0.015111474320292473, -0.02006225474178791, -0.008183108642697334, 0.007180678192526102, -0.00668287230655551, -0.009710622951388359, -0.0008511285996064544, 0.0017124860314652324, 0.016434410586953163, 0.0036210257094353437, -0.02539491467177868, 0.014265886507928371, -0.008585445582866669, 0.019325776025652885, 0.0036926278844475746, 0.01189278531819582, -0.017102697864174843, -0.02579043246805668, -0.005441767629235983, -0.019366690889000893, 0.014920535497367382, -0.004429107531905174, -0.010467560030519962, -0.003607387188822031, -2.5345794711029157e-05, -0.01726635918021202, 0.006761293858289719, 0.005305382423102856, 0.0030550274532288313, 0.016966313123703003, -0.009949296712875366, -0.022626295685768127, -0.012254205532371998, 0.009976573288440704, -0.01382263470441103, -0.0403972826898098, 0.0055952006950974464, 0.007112485356628895, -0.00969016458839178, 0.0148796197026968, -0.04702559858560562, 0.015888869762420654, -0.005591791123151779, -0.0013936856994405389, -0.017866455018520355, 0.03229600191116333, -0.0020202051382511854, 0.00524400919675827, -0.022148948162794113, -0.00425521656870842, 0.022271694615483284, -0.023990148678421974, 0.01215191651135683, 0.00388697674497962, -0.02112605981528759, -0.011899604462087154, -0.002509486861526966, -0.022803597152233124, -0.01820741780102253, -0.019871316850185394, 0.01110175158828497, -0.002134427661076188, -0.01609344780445099, -0.004395011346787214, 0.008851395919919014, -0.006754474714398384, -0.030904874205589294, 0.00010511246364330873, 0.03319614380598068, -0.00996975414454937, -0.009062793105840683, 0.012049628421664238, -0.1744638830423355, 0.01740274578332901, 0.010924450121819973, -0.007378436625003815, 0.013849912211298943, 0.017457298934459686, 0.009205997921526432, -0.009219636209309101, -0.023076366633176804, 0.03783323988318443, 0.019584907218813896, 0.00803990475833416, -0.021548854187130928, -0.0069624618627130985, -0.010419825091958046, -0.004371143877506256, -0.0007710023201070726, 0.02033502608537674, 0.03044116497039795, -0.015220582485198975, 0.02775437757372856, -0.03603295609354973, 0.021016951650381088, 0.004279084037989378, -0.01741638407111168, 0.006266897544264793, 0.004865540191531181, 0.023212753236293793, 0.004391601774841547, -0.015888869762420654, 0.005295153241604567, -0.00355283310636878, 0.0390334315598011, -0.0013996525667607784, 0.0017423202516511083, -0.019230306148529053, -0.005775911267846823, -0.01002430822700262, -0.010208428837358952, 0.020839650183916092, 0.02404470182955265, 0.02287179045379162, 0.014034031890332699, -0.006907907780259848, -0.0022333068773150444, 0.033659856766462326, 0.031941402703523636, -0.01939396746456623, -0.0037710494361817837, 0.0007143171969801188, 0.009942477568984032, -0.009560598991811275, 0.022530827671289444, -0.010617583990097046, 0.01282020378857851, 0.016529880464076996, -0.004371143877506256, 0.0297592394053936, -0.01002430822700262, 0.009581056423485279, -0.006433969363570213, 0.001033969921991229, 0.0029050037264823914, 0.004118831362575293, 0.006069139111787081, -0.011401798576116562, 0.007917158305644989, 0.0031794789247214794, 0.007569375913590193, 0.005093985237181187, -0.0031709547620266676, -0.023144559934735298, 0.010651680640876293, 0.0010058404877781868, -0.0015283661196008325, 0.006075958255678415, -0.0009112232946790755, -0.01674809679389, 0.014320440590381622, -0.0009546960354782641, 0.006300993729382753, 0.028859097510576248, -0.02658146619796753, 0.018166501075029373, -0.027399776503443718, 0.0009163377108052373, -0.00963561050593853, 0.025613131001591682, -0.008367229253053665, -0.010031127370893955, 0.01993950828909874, -0.014961451292037964, 0.010931270197033882, -0.02737249992787838, 0.015397883020341396, 0.013713526539504528, 0.01978948526084423, 0.011551822535693645, 0.0062771267257630825, -0.028068063780665398, 0.006907907780259848, -0.0028504496440291405, -0.01315434742718935, 0.021889816969633102, 0.026908790692687035, 0.026636019349098206, -0.019107559695839882, 0.014865981414914131, 0.018671127036213875, 0.018657488748431206, 0.009724261239171028, -0.013461214490234852, 0.010985824279487133, 0.02007589489221573, -0.018371079117059708, 0.0031232198234647512, 0.006488523446023464, -0.009001419879496098, 0.0340690091252327, 0.0033925806637853384, 0.0007441514753736556, -0.02510850690305233, -0.01130632869899273, -0.006130512338131666, -9.557615703670308e-05, -0.010849438607692719, -0.10812614858150482, -0.008585445582866669, 0.02565404586493969, 0.018002839758992195, -0.024726627394557, -0.00041682712617330253, -0.017198167741298676, 0.009908380918204784, 0.0038426516111940145, 0.004640504717826843, -0.0350782610476017, -0.01402039360255003, -0.002396969124674797, -0.0017695972928777337, 0.03205050900578499, 0.008087639696896076, 0.008210386149585247, 0.0018872295040637255, -0.011770038865506649, 0.017975563183426857, -0.001284577650949359, -0.021098783239722252, 0.010910811834037304, -0.011735942214727402, 0.013242998160421848, -0.02218986302614212, -0.03346891701221466, -0.008271759375929832, 0.00415292801335454, 0.006297584157437086, 0.0028674977365881205, -0.005209912545979023, 0.0017661877209320664, -0.012786108069121838, 0.024344749748706818, -0.019721291959285736, 0.001205303706228733, -0.02021227963268757, 0.026145033538341522, -0.027277030050754547, -0.006086187437176704, 0.021357914432883263, 0.039388030767440796, -0.026267779991030693, 0.014975089579820633, -0.017061783000826836, -0.028204448521137238, 0.011122209019958973, 0.005782730411738157, -0.03786051645874977, -0.018834788352251053, -0.0029970635659992695, -0.02416744828224182, -0.01568429172039032, 0.039660800248384476, -0.0037062664050608873, -0.011858688667416573, 0.01939396746456623, -0.009253732860088348, -0.006532848812639713, 0.017239082604646683, 0.006505571771413088, -0.028640881180763245, 0.001655374770052731, 0.019966786727309227, -0.011217678897082806, -0.017730070278048515, -0.007017015945166349, 0.0201986413449049, 0.0064578368328511715, 0.0030226358212530613, -0.005598610267043114, 0.009001419879496098, 0.001434601261280477, -0.018698403611779213, -0.018957536667585373, -0.022353526204824448, 0.004057458136230707, -0.007998988963663578, -0.008619541302323341, -0.019339414313435555, -0.02349916100502014, -0.010447102598845959, -0.014838703908026218, 0.011831412091851234, 0.03562380000948906, 0.0017695972928777337, 0.0027311125304549932, 0.014579572714865208, -0.05070799961686134, 0.011054016649723053, 0.02194437012076378, 0.012595168314874172, -0.025940455496311188, 0.012322397902607918, 0.03150497004389763, -0.00956741813570261, -0.015288774855434895, -0.0016161639941856265, 0.015588822774589062, -0.05357208847999573, -0.0048553114756941795, -0.07610291242599487, 0.007651207037270069, 0.0010868192184716463, 0.0015897394623607397, 0.001584624988026917, 0.015438798815011978, 0.00700337765738368, 0.03532375395298004, 0.009799272753298283, 0.015452437102794647, -0.014661403372883797, 0.016011616215109825, 0.009621972218155861, -0.0057077184319496155, -0.017580045387148857, -0.0029510336462408304, 0.025735877454280853, -0.00047734801773913205, 0.017170891165733337, -0.003979036584496498, -0.0028299917466938496, -0.02535399980843067, 0.0017713020788505673, 0.004500709939748049, -0.0016153116011992097, 0.0005843251128681004, -0.01474323496222496, 0.008885492570698261, -0.01703450456261635, -0.010072043165564537, 0.005472454242408276, -0.03505098447203636, -0.0340690091252327, 0.033550746738910675, -0.005100804381072521, -0.03453271836042404, -0.030468443408608437, 0.03826967254281044, 0.01322935987263918, 0.00401995237916708, -0.0025128964334726334, -0.024385664612054825, 0.032759714871644974, -0.02379920892417431, 0.018248332664370537, 0.007132943253964186, 0.020839650183916092, 0.005397442262619734, -0.0016374741680920124, 0.0003341436095070094, 0.01703450456261635, 0.02261265739798546, -0.004787118639796972, -0.028886374086141586, -0.010147055611014366, 0.02509486675262451, -0.023621907457709312, 0.005898657720535994, -0.0056736222468316555, -0.019448522478342056, 0.034587275236845016, -0.011197220534086227, 0.021630683913826942, -0.014579572714865208, 0.010910811834037304, -0.018371079117059708, -0.003416447900235653, 0.0013689659535884857, -0.004930322989821434, -0.025476746261119843, -0.01282020378857851, -0.005810007452964783, 0.02403106354176998, 0.02176707051694393, 0.012022350914776325, -0.011872326955199242, -0.015234221704304218, -0.023349137976765633, -0.020171362906694412, 0.02007589489221573, -0.006635137367993593, 0.004582541063427925, -0.02165796235203743, 0.005434948019683361, 0.005451996345072985, -0.004579131491482258, 0.0006998262833803892, 0.016161641106009483, -0.005465635098516941, 0.016311664134263992, 0.003152201883494854, 0.008237662725150585, 0.009540141560137272, -0.004892817232757807, -0.002229897305369377, 0.019039366394281387, -0.013120251707732677, -0.01752549223601818, 0.026676936075091362, 0.00041831881389953196, -0.006304403766989708, 0.018712041899561882, -0.011729123070836067, -0.018371079117059708, -0.018234694376587868, -0.025613131001591682, -0.013699888251721859, -0.032623328268527985, 0.007187497336417437, -0.027208836749196053, 0.029022760689258575, 0.012942951172590256, 0.014170416630804539, 0.026</t>
+  </si>
+  <si>
+    <t>[-0.026933910325169563, -0.010626767762005329, -0.01042891200631857, -0.014781738631427288, -0.022427905350923538, 0.005080424714833498, 0.0027253031730651855, -0.011379895731806755, -0.011271394789218903, 0.012394704855978489, -0.00904392171651125, -0.00884606596082449, -0.0195941012352705, -0.02117694728076458, -0.030916554853320122, 6.073293479857966e-05, 0.033520590513944626, -0.011730930767953396, -0.017475130036473274, -0.03678840398788452, -0.015177450142800808, -0.0034656666684895754, -0.0038326571229845285, -0.026550963521003723, 0.021662011742591858, -0.015828458592295647, 0.009560899809002876, -0.03099314495921135, 0.0016817738069221377, -0.010256586596369743, -0.009363044053316116, -0.016926240175962448, -0.012432998977601528, -0.012203231453895569, 0.0064877537079155445, -0.008750329725444317, 0.01764107309281826, -0.005086807068437338, -0.004052851349115372, -0.01218408439308405, 0.023704394698143005, 0.02318103425204754, 0.013990315608680248, 0.0032135602086782455, -0.02464899607002735, 0.026129722595214844, 0.009867257438600063, 0.004576211795210838, -0.007792963180691004, -0.004671948496252298, 0.0015405622543767095, 0.016670942306518555, -0.005284662824124098, -0.009758755564689636, -0.028848642483353615, -0.030023012310266495, -0.023359742015600204, 0.02662755362689495, -0.0009326345170848072, -0.03326529264450073, -0.0064909448847174644, 0.010894830338656902, -0.027342386543750763, 0.0061973524279892445, -0.008590768091380596, -0.02200666442513466, -0.03285681828856468, 0.006982392631471157, -0.02828698791563511, -0.003966688644140959, 0.03449072316288948, 0.026755202561616898, 0.025657420977950096, 0.001504660933278501, 0.040668927133083344, -0.010582090355455875, 0.01021190918982029, 0.013849901966750622, 0.003446519374847412, 0.014028609730303288, 0.003408224554732442, -0.01803678460419178, 0.007416399195790291, 0.018981385976076126, 0.012260673567652702, 0.000738767790608108, 0.007722756359726191, 0.02316826954483986, 0.009975758381187916, 0.002934328280389309, -0.005472945049405098, -0.004097528290003538, -0.001132883713580668, -0.005823979619890451, -0.011833049356937408, 0.0025785069447010756, -6.987030246818904e-06, -0.0004531534796115011, 0.008578003384172916, -0.020564232021570206, 0.0026997735258191824, 0.00014968823234084994, -0.013952020555734634, -0.014437086880207062, -0.0430176667869091, -0.011360748670995235, -0.005964393261820078, -0.018547380343079567, 0.014373262412846088, -0.020194049924612045, 0.0017104947473853827, 0.025772305205464363, -0.003599697956815362, -0.04544299468398094, 0.008590768091380596, -0.012694679200649261, 0.008514178916811943, 0.007492988370358944, 0.03650757670402527, -0.0196579247713089, 0.02083229459822178, 0.03341847285628319, 0.013913726434111595, -0.016339054331183434, 0.04189435765147209, -0.0172070674598217, -0.0200664009898901, 0.0034911963157355785, -0.02116418071091175, -0.009522604756057262, -0.0020886545535176992, -0.008877978660166264, 0.012350027449429035, 0.012139406986534595, -0.0031242058612406254, 0.026091428473591805, -0.03249939903616905, 0.04148587957024574, -0.018343141302466393, -0.02589995414018631, 0.03556297346949577, 0.02509576641023159, -0.026984969154000282, -0.00841844268143177, -0.01770489662885666, 0.03170797601342201, 0.0025976544711738825, 0.01964516006410122, -0.017513424158096313, 0.018126139417290688, 0.03946902975440025, -0.019326038658618927, -0.0005616549751721323, 0.0011552221840247512, 0.02190454490482807, 0.009069452062249184, -0.03696710988879204, 0.004116675816476345, 0.0016331076622009277, 0.012120259925723076, -0.012375556863844395, 0.019428156316280365, 0.01605822704732418, -0.004687904380261898, 0.022427905350923538, 0.02869546413421631, -0.002388629363849759, 0.003705008188262582, -0.005747389979660511, 0.005227221176028252, 0.008137615397572517, 0.013964785262942314, -0.02397245727479458, 0.0075121354311704636, -0.0012469697976484895, 0.046132300049066544, 0.015624220483005047, -0.014028609730303288, -0.010850153863430023, -0.0012294180924072862, 0.005642079748213291, -0.00964387133717537, 0.02155989222228527, 0.01798572577536106, -0.00019406616047490388, 0.0035645945463329554, 0.0035294911358505487, -0.0012756908545270562, 0.003401842201128602, -0.011150128208100796, 0.012477676384150982, 0.005294236820191145, -0.0016091734869405627, -0.024495817720890045, -0.6380400657653809, -7.88830075180158e-05, -0.023308683186769485, -0.0036188452504575253, 0.0005728242686018348, -0.001803040155209601, 0.00922901276499033, 0.014258378185331821, -0.042200714349746704, -0.012547883205115795, -0.018726088106632233, 0.011462868191301823, -0.0007204182911664248, -0.027291327714920044, -0.03888184204697609, -0.017092183232307434, -0.011501162312924862, -0.03793724253773689, 0.018585674464702606, -0.0071547189727425575, -0.013288246467709541, 0.03495026007294655, 0.0056899478659033775, 0.019734514877200127, -0.006618593353778124, -0.0027253031730651855, 0.014130729250609875, 0.0018796295626088977, -0.0031465445645153522, 0.00039730709977447987, -0.02831251733005047, 0.011162892915308475, -0.007499370723962784, 0.011552222073078156, 0.030023012310266495, 0.004123058170080185, -0.034643903374671936, 0.04429415613412857, 0.030380429700016975, 0.010460824705660343, 0.017896370962262154, 0.002690199762582779, 0.02542765438556671, -0.018317611888051033, 0.014424321241676807, 0.014462616294622421, 0.03640545532107353, 0.004301766864955425, 0.012803181074559689, -0.016645411029458046, -0.0052176471799612045, -0.0029710272792726755, 0.0025051089469343424, 0.014169024303555489, 0.02038552425801754, -0.013543544337153435, 0.013569073751568794, -0.036277808248996735, -0.002744450466707349, 0.011609664186835289, -0.002077485201880336, 0.020538702607154846, -0.0164539385586977, -0.013594604097306728, -0.013454190455377102, 0.013454190455377102, -0.034337542951107025, -0.014156258665025234, -0.00820143986493349, -0.015815693885087967, 0.009656636975705624, 0.02905288152396679, -0.031503740698099136, 0.007218543440103531, 0.004611315205693245, 0.03175903856754303, 0.0039060551207512617, 0.014462616294622421, -0.001873247092589736, 0.021036531776189804, 0.02347462624311447, -0.006238838192075491, -0.019006915390491486, -0.0006685609114356339, 0.012598942965269089, 0.01140542607754469, -0.004132632166147232, 0.005970775615423918, 0.014960446394979954, 0.017500659450888634, 0.02711261808872223, -0.011756460182368755, 0.0014615794643759727, -0.021649247035384178, -0.011858579702675343, 0.01647946797311306, 0.00823335163295269, 0.008507796563208103, -0.007275985088199377, -0.011935168877243996, -0.019836632534861565, 0.014462616294622421, 0.01881544291973114, 0.01613481715321541, -0.00035961077082902193, 0.01080547645688057, -0.008737565018236637, -0.008137615397572517, 0.03806488960981369, -0.021317360922694206, -0.01607099175453186, 0.035869330167770386, 0.01079271174967289, 0.007269602734595537, -0.0018397392705082893, -0.01968345418572426, 0.027776392176747322, 0.020679116249084473, 0.026882851496338844, -0.006066512316465378, 0.018304847180843353, -0.01811337284743786, 0.018534615635871887, -0.04191988706588745, -0.005275089293718338, 0.016543293371796608, 0.018368670716881752, -0.026933910325169563, -0.022466199472546577, 0.008195056580007076, 0.02902735210955143, 0.01612205058336258, 0.03214198350906372, 0.0003651954175438732, 0.017755957320332527, 0.013824371621012688, 0.020564232021570206, -0.027725333347916603, 0.004413459450006485, -0.015777399763464928, -0.01058847364038229, -0.015419982373714447, 0.001996109029278159, -0.034286484122276306, 0.007193013560026884, -0.034694962203502655, -0.015037036500871181, 0.01139266137033701, -0.0038773342967033386, 0.0188409723341465, -0.007569577544927597, 0.013824371621012688, -0.010875683277845383, 9.204680100083351e-05, 0.012113877572119236, 0.028031690046191216, -0.02155989222228527, 0.0023295916616916656, -0.006344148423522711, -0.0011288946261629462, 0.010556560941040516, -0.006056938786059618, -0.02161095291376114, 0.002932732691988349, 0.011450103484094143, -0.01603269763290882, -0.015394452959299088, 0.002396607305854559, -0.006912185810506344, -0.041332703083753586, 0.004872995428740978, 0.017462365329265594, -0.01021829154342413, 0.022491728886961937, -0.004212412517517805, 0.0058080232702195644, -0.022453434765338898, -0.0005792067386209965, -0.006005879025906324, -0.0150880953297019, 0.010524649173021317, 0.003452901728451252, -0.0078057278878986835, 0.000763499760068953, 0.0024588361848145723, 0.007269602734595537, 0.032371751964092255, -0.014820032753050327, -0.01683688536286354, 0.033495061099529266, -0.0027077514678239822, -0.007454693783074617, -0.009465163573622704, -0.023219328373670578, -0.005367634817957878, -0.011667106300592422, -0.020576996728777885, 0.01764107309281826, 0.00841844268143177, 0.03525661677122116, 0.013875431381165981, 0.012586178258061409, 0.031197382137179375, -0.006101615726947784, 0.0053325314074754715, -0.019440921023488045, 0.008156762458384037, -0.01762830838561058, 0.05846317857503891, -0.012535118497908115, 0.022823616862297058, 0.004324105102568865, -0.035460855811834335, -0.008667358197271824, -0.005211264826357365, -0.007454693783074617, 0.017755957320332527, -0.0052367947064340115, -0.03132503107190132, 0.01764107309281826, 0.010090642608702183, 0.0023519303649663925, 0.011998993344604969, 0.003398651024326682, -0.030380429700016975, 0.0009701313683763146, 0.0076142544858157635, 0.03729899972677231, -0.013990315608680248, -0.014411556534469128, -0.011877726763486862, 0.024508582428097725, -0.018713323399424553, 0.012541500851511955, -0.0031656918581575155, 0.04669395461678505, -0.0017647455679252744, -0.023385271430015564, 0.009573664516210556, 0.01429667230695486, 0.02398522198200226, 0.014015845023095608, 0.023844808340072632, 0.01572633907198906, 0.004129440523684025, -0.010531031526625156, 0.019887693226337433, 0.012752121314406395, -0.012637237086892128, -0.024023516103625298, -0.02190454490482807, -0.011641575954854488, 0.005147440358996391, 0.0013107942650094628, -0.024431992322206497, 0.01564975082874298, 0.014513676054775715, -0.03972432762384415, 0.006746242288500071, 0.020181285217404366, 0.01641564443707466, 0.011456485837697983, 0.019874928519129753, -0.006130336783826351, 0.010243820957839489, -0.005342104937881231, 0.01600716821849346, -0.01877714693546295, -0.0006494136177934706, -0.012981889769434929, -0.012081964872777462, 0.003669904777780175, 0.009509840048849583, -0.0015860371058806777, -0.00806102529168129, -0.003452901728451252, -0.0003659932117443532, -0.020500406622886658, 0.005910142324864864, 0.020270640030503273, -0.016211405396461487, -0.03696710988879204, 0.004525152035057545, 0.03502684831619263, 0.019121799618005753, -0.0008504605502821505, -0.024840468540787697, 0.008341853506863117, -0.016236934810876846, 0.032371751964092255, 0.0007315875263884664, 0.008092937991023064, -0.013620133511722088, -0.021713072434067726, -0.005425076931715012, -0.012286202982068062, 0.0025513817090541124, -0.002809870522469282, 0.03377588838338852, -0.002120566787198186, -0.00881415419280529, -0.0077099911868572235, -0.011724548414349556, -0.0066696531139314175, 0.017079418525099754, 0.0036635224241763353, 0.0012150575639680028, -0.026755202561616898, -0.003331635380163789, 0.01998981274664402, -0.00782487541437149, -0.004643227439373732, 0.007186631206423044, 0.003007726278156042, 0.011079921387135983, 0.024585170671343803, -0.0034624754916876554, -0.005402738228440285, 0.021393949165940285, 0.0030157044529914856, -0.0004144599079154432, -0.039188202470541, -0.017526188865303993, 0.001774319214746356, 0.08276752382516861, -0.004378356039524078, -0.011922404170036316, 0.009146041236817837, -0.03094208426773548, -0.034771550446748734, -0.014743443578481674, -0.0045698294416069984, 0.021023767068982124, 0.02943582832813263, -0.01771766133606434, -0.007869552820920944, 0.03053360804915428, 0.013301011174917221, -0.01968345418572426, -0.021891780197620392, -0.005658036097884178, 0.018572909757494926, 0.017526188865303993, 0.008782241493463516, -4.556216936180135e-06, -0.001876438269391656, -0.006618593353778124, 0.040515750646591187, 0.016581587493419647, -0.01159689947962761, 0.0027061558794230223, -0.009688548743724823, 0.003701817011460662, -0.036711812019348145, -0.015049801208078861, -0.01041614729911089, -0.01963239535689354, 0.011418190784752369, -0.017883606255054474, 0.02588718943297863, -0.009184335358440876, 0.022581083700060844, -0.006835596635937691, -0.01881544291973114, 0.02195560373365879, -0.0027205164078623056, -0.013173363171517849, 0.0017551719211041927, 0.028414636850357056, 0.0016642221016809344, -0.008686505258083344, 0.014922152273356915, -0.021304596215486526, -0.00901200994849205, 0.03377588838338852, -0.007020687684416771, -0.001895585679449141, -0.01605822704732418, 0.008724799379706383, -0.005958010908216238, 0.030737847089767456, 0.015956107527017593, -0.026372255757451057, 0.013198892585933208, -0.01760277897119522, -0.0191856250166893, 0.018623968586325645, -0.0012126641813665628, -0.04084763675928116, -0.010645914822816849, -0.017807016149163246, -0.006325001362711191, -0.021393949165940285, -0.012713827192783356, -0.008782241493463516, -0.03538426384329796, 0.004796406254172325, -0.0002108200715156272, 0.019453687593340874, -0.0243681687861681, 0.007467458490282297, -0.006976010277867317, -0.018738852813839912, 0.005622932221740484, -0.008290793746709824, 0.012656385079026222, -0.006248411722481251, -0.04115399345755577, -0.012592560611665249, 0.019147329032421112, 0.0146796191111207, -0.00800996646285057, -0.0184963196516037, 0.024227755144238472, 0.003277384676039219, 0.011647959239780903, 0.037452176213264465, 0.007518518250435591, -0.0012597347376868129, 0.007786580827087164, -0.0034592843148857355, 0.0054123117588460445, 0.0016865605721250176, 0.003344400320202112, 0.005268706940114498, -0.001058687805198133, -0.018611203879117966, -0.022453434765338898, 0.015790164470672607, 0.01098418515175581, -0.016556058079004288, -0.020896118134260178, 0.000154076173203066, 0.016670942306518555, -0.019440921023488045, -0.018560145050287247, -0.004030512645840645, -0.012841476127505302, -0.034746021032333374, -0.022874675691127777, -0.00840567797422409, 0.019849399104714394, 0.025568068027496338, -0.013581839390099049, -0.014934916980564594, -0.011086303740739822, 0.0018205918604508042, 0.033597182482481, -0.037094760686159134, 0.037426646798849106, -0.04089869558811188, 0.001527797314338386, -0.010703356936573982, 0.001404137467034161, -0.02159818820655346, 0.03916267305612564, -0.023615039885044098, -0.010901212692260742, -0.013683957979083061, -0.02358951047062874, -0.014858327805995941, -0.004139014519751072, -0.01771766133606434, -0.008877978660166264, -0.021445009857416153, 0.0227980874478817, 0.01039061788469553, 0.0023758644238114357, 0.008112085051834583, -0.010824623517692089, 0.0032933407928794622, 0.001478333375416696, -0.04460051283240318, 0.009771520271897316, -0.004821935668587685, 0.000543305475730449, -0.013620133511722088, -0.007110041566193104, 0.0012350027682259679, -0.034720491617918015, -0.012164936400949955, -0.009554517455399036, 0.033546119928359985, 0.02747003547847271, 0.009675784036517143, -0.0037784064188599586, 0.02346186153590679, 0.01646670326590538, -0.007295132614672184, -0.01118842326104641, -0.01847079023718834, 0.011903256177902222, -0.019402626901865005, 0.020908884704113007, 0.04120505228638649, 0.017896370962262154, -0.02352568507194519, -0.013735017739236355, -0.0073334272019565105, 0.022083252668380737, -0.005594211630523205, -0.003768832655623555, -0.0297677144408226, -0.010875683277845383, 0.0009757159859873354, -0.02424051985144615, -0.006171822547912598, 0.019491981714963913, -0.04513663798570633, 0.009688548743724823, 0.021113121882081032, 0.004694286733865738, 0.016198640689253807, 0.004008174408227205, 0.005731434095650911, -0.03094208426773548, 0.04263472184538841, -0.0037369204219430685, -0.011686253361403942, -0.019121799618005753, -0.001624331809580326, -0.026116957888007164, -0.010499118827283382, -0.0029439018107950687, 0.006803684402257204, -0.018726088106632233, -0.001699325512163341, -0.018968621268868446, -0.0015892283990979195, -0.004365591332316399, 0.0008975310483947396, -0.01640287972986698, -0.014181789010763168, -0.019045209512114525, -0.02859334461390972, 0.00773552106693387, 0.008590768091380596, -0.03645651414990425, 0.024827703833580017, 0.004671948496252298, 0.014628559350967407, 0.012694679200649261, -0.010052347555756569, -0.019006915390491486, 0.02907841093838215, -0.013071243651211262, 0.03964773565530777, 0.016173111274838448, 0.012075582519173622, 0.010071495547890663, -0.020513173192739487, -0.006092042196542025, 0.0345417819917202, 0.01390096079558134, 0.010690592229366302, 0.035103436559438705, 0.02749556489288807, 0.002241833135485649, -0.011564986780285835, -0.016977299004793167, 0.00764616671949625, 0.004196456167846918, -0.022185372188687325, 0.037886183708906174, -0.005989923141896725, 0.012254291214048862, -0.005750581156462431, 0.004193264991044998, -0.01798572577536106, 0.004573020618408918, -0.017845310270786285, 0.013862666673958302, -0.003816701006144285, -0.009528988040983677, -0.024546876549720764, 0.018343141302466393, -0.033163174986839294, 0.014232847839593887, -0.008373765274882317, -0.02080676518380642, 0.03683946281671524, -0.019836632534861565, -0.03323976323008537, 0.02272149734199047, 0.006516474299132824, 0.025261709466576576, 0.004295384045690298, -0.012637237086892128, 0.03214198350906372, 0.006270750425755978, -0.014858327805995941, -0.020334463566541672, 0.010767181403934956, 0.022951265797019005, -0.02080676518380642, 0.013173363171517849, -0.0006314629572443664, 0.02672967128455639, 0.014220083132386208, -0.008316323161125183, -0.014245613478124142, 0.011296924203634262, 0.024163929745554924, -0.010958654806017876, -0.026091428473591805, 0.005973966792225838, -0.015522101894021034, -0.00823973398655653, -0.022453434765338898, 0.014066904783248901, -0.013364835642278194, -0.00714833615347743, 0.005179352592676878, -0.00920986570417881, -0.03566509112715721, 0.011067156679928303, -0.0006354519864544272, 0.007754668593406677, -0.014424321241676807, 0.017347481101751328, 0.0036858608946204185, 0.03957114741206169, -0.008737565018236637, 0.010511883534491062, -0.012050053104758263, 0.011469250544905663, 0.012681914493441582, 0.005003835540264845, -0.008782241493463516, -0.014462616294622421, 0.03763088583946228, -0.01845802552998066, -0.03806488960981369, -0.02004087157547474, -0.009663019329309464, -0.002514682710170746, -0.0015413600485771894, -0.03770747408270836, 0.008558856323361397, 0.0036794785410165787, -0.005013409070670605, -0.0032183469738811255, -0.0477917343378067, 0.03451625257730484, 0.012464911676943302, 0.02073017507791519, 0.010518265888094902, -0.012484058737754822, -0.0034177983179688454, 0.004758111201226711, 0.00845673680305481, 0.0057090953923761845, -0.02116418071091175, -0.020245110616087914, 0.004525152035057545, -0.008922655135393143, -0.008361000567674637, -0.002859334461390972, -0.014322202652692795, -0.005405929405242205, -0.03101867437362671, 0.01002681814134121, 0.018547380343079567, -0.006430311594158411, 0.028567815199494362, 0.01887926645576954, 0.021062063053250313, 0.010709739290177822, -0.011577751487493515, 0.006618593353778124, 0.004221986047923565, -0.018955856561660767, -0.023002324625849724, 0.0014240826712921262, -0.0486086867749691, 0.02632119506597519, 0.0012605325318872929, -0.00924815982580185, -0.021419478580355644, 0.010326793417334557, -0.021062063053250313, 0.024904293939471245, -0.012069200165569782, 0.012605325318872929, 0.02426604926586151, 0.03809041902422905, -0.006053747143596411, -0.004304958041757345, -0.002339165424928069, 0.009765137918293476, -0.005195308942347765, -0.004968732129782438, 0.013990315608680248, -0.0344141349196434, 0.024189459159970284, -0.018304847180843353, -0.028848642483353615, -0.020934414118528366, 0.011296924203634262, -0.006213308311998844, 0.016530528664588928, 0.02311720885336399, -0.002635949058458209, -0.012522353790700436, 0.0007108445861376822, 0.01688794419169426, 0.011635193601250648, 0.02981877513229847, 0.020959943532943726, -0.02946135774254799, -0.012579795904457569, -0.0167985912412405, -0.011750077828764915, -0.004193264991044998, 0.00020174504606984556, 0.012554265558719635, -0.00018828207976184785, 0.012401087209582329, -0.004687904380261898, 0.00042243796633556485, 0.007767433300614357, -0.007327044848352671, 0.04125611111521721, -0.0010052347788587213, -0.0016642221016809344, -0.0026678612921386957, 0.021023767068982124, -0.00012146586959715933, -0.01807507872581482, -0.009663019329309464, -0.015228508971631527, -0.021764131262898445, -0.013913726434111595, -0.017551718279719353, 0.019313273951411247, -0.015522101894021034, 0.02274702675640583, -0.006506900768727064, -0.01409243419766426, -0.00999490637332201, -0.0020838677883148193, -0.016275230795145035, 0.013186127878725529, -0.015241274610161781, -0.01998981274664402, -0.010288498364388943, -0.010294880717992783, -0.009771520271897316, -0.005524004343897104, -0.014947681687772274, -0.0004459732153918594, -0.0034369456116110086, -0.003376312553882599, 0.008526943624019623, -0.026525434106588364, -0.01926221325993538, 0.005910142324864864, 0.0014711531111970544, 0.00823335163295269, 2.1222870145720663e-06, 0.19463898241519928, -0.020142991095781326, -0.00021401129197329283, 0.008948185481131077, -0.013492484577000141, 0.020513173192739487, -0.01684965007007122, -0.0051378668285906315, -0.007786580827087164, 0.0029630493372678757, -0.01928774267435074, 0.030788905918598175, -0.004815553314983845, 0.017398539930582047, 0.005846317857503891, -0.011245864443480968, -0.009318366646766663, -0.023742688819766045, -0.009656636975705624, 0.02900182269513607, 0.005163396708667278, -0.0033922684378921986, -0.0045666382648050785, -0.003475240198895335, -0.006637740880250931, -0.02713814750313759, -0.004218794871121645, -0.007282367441803217, 0.028082750737667084, 0.007007922511547804, -0.014717914164066315, -0.03334188461303711, 0.011175657622516155, -0.027163678780198097, -0.037401117384433746, 0.015151919797062874, -0.026499904692173004, -0.008890743367373943, 0.025670185685157776, 0.0204110536724329, -0.0027540242299437523, -0.0059005687944591045, -0.0156369861215353, 0.028720993548631668, 0.014705149456858635, -0.00017172761727124453, -0.0016099712811410427, -0.010677827522158623, -0.011303306557238102, 0.0031944129150360823, -0.03216751292347908, -0.019453687593340874, -0.01928774267435074, 0.034337542951107025, 0.01568804495036602, -0.012611707672476768, 0.015049801208078861, 0.0008225373458117247, 0.0191856250166893, 0.011545839719474316, -0.010862918570637703, 0.009171570651233196, -0.017002828419208527, 0.023691629990935326, -0.0035167261958122253, 0.024968117475509644, -0.013352070935070515, 0.023678863421082497, 0.005195308942347765, -0.012981889769434929, -0.004304958041757345, -0.0010211908956989646, -0.03364824131131172, -0.014207318425178528, 0.007020687684416771, -0.011488397605717182, 0.034771550446748734, -0.003918820060789585, 0.01687517948448658, -0.008731182664632797, -0.0016075778985396028, -0.024993646889925003, -0.019772808998823166, 0.02001534216105938, 0.007486606016755104, 0.010467207059264183, -0.008731182664632797, 0.014794503338634968, -0.016632646322250366, -0.010569325648248196, -0.009548135101795197, -0.02318103425204754, 0.0001452005817554891, 0.022581083700060844, -0.007288750261068344, -0.004518769681453705, 0.04181776940822601, 0.033086586743593216, -0.01217770203948021, -0.013939255848526955, -0.024393698200583458, 0.021049298346042633, 0.019351568073034286, 0.0007714778184890747, -0.004579402972012758, 0.013058478944003582, 0.0023056576028466225, 0.01690070889890194, -0.0006107200169935822, -0.02711261808872223, -0.010626767762005329, -0.03798830136656761, -0.0060026878491044044, -0.013275481760501862, 0.011577751487493515, -0.002434902125969529, 0.02004087157547474, -0.006835596635937691, 0.027342386543750763, -0.007218543440103531, -0.009190717712044716, 0.001430465024895966, 0.028542285785079002, -0.004304958041757345, -0.001972174970433116, -0.019874928519129753, -0.04702584072947502, 0.028414636850357056, 0.0021636481396853924, -0.022185372188687325, -0.006385634187608957, 0.004834700841456652, 0.026806261390447617, -0.012681914493441582, -0.03175903856754303, -0.014590265229344368, -0.02828698791563511, 0.001258139149285853, 0.014398791827261448, 0.013811606913805008, 0.005195308942347765, -0.008278029039502144, 0.0165177620947361, -0.01688794419169426, 0.0156369861215353, 0.0006442278390750289, 0.013211657293140888, 0.019862163811922073, 0.01060762070119381, -0.013939255848526955, -0.011896873824298382, -0.0014200935838744044, -0.024049045518040657, -0.042507071048021317, 0.01218408439308405, -0.02042381837964058, -0.005198500119149685, -0.00980343297123909, 0.00863544549793005, 0.036711812019348145, -0.00864182785153389, -0.0006254794425331056, 0.03934137895703316, 0.0015070544322952628, 0.005160205531865358, 0.019109034910798073, -0.15859094262123108, 0.03323976323008537, 0.013798842206597328, 0.0026678612921386957, 0.017960194498300552, -0.0033124880865216255, 0.009484310634434223, 0.014539205469191074, -0.02826145850121975, 0.006226073484867811, 0.023742688819766045, 0.018317611888051033, -0.02508300170302391, -0.017385775223374367, 0.004671948496252298, 0.0016402879264205694, -0.02046211250126362, 0.026857320219278336, -0.0006873093661852181, 0.015547631308436394, 0.017755957320332527, -0.015892283990979195, 0.012388322502374649, 0.0020583379082381725, -0.002142905257642269, 0.006449458654969931, -3.512837065500207e-05, 0.044089917093515396, -0.00900562759488821, -0.011360748670995235, 0.00021161788026802242, -0.00862268079072237, 0.052693452686071396, -0.02315550297498703, -0.013530779629945755, 0.006976010277867317, -0.026550963521003723, -0.004017747938632965, -0.022542789578437805, 0.020615290850400925, 0.026104193180799484, -0.004052851349115372, 0.005074042361229658, -0.02790404111146927, 0.009682166390120983, 0.044472865760326385, 0.0008656188729219139, -0.014871092513203621, 0.011762842535972595, -0.030405959114432335, 0.024138400331139565, -0.006143101491034031, 0.009880022145807743, 0.01099056750535965, 0.007933377288281918, 0.004241133574396372, 0.00859715137630701, 0.0004575414059218019, 0.010275733657181263, -0.005109145771712065, -0.016211405396461487, -0.015445512719452381, 0.01199261099100113, -0.015981636941432953, -0.0030236823949962854, -0.01765383780002594, -0.0146796191111207, 0.02938476763665676, -0.010562943294644356, -0.005112336948513985, 0.009280072525143623, -0.019721750169992447, -0.00016185476852115244, 0.00021181732881814241, -0.0006725499406456947, -0.00032909473520703614, -0.010703356936573982, -0.027776392176747322, 0.00763340201228857, 0.003973070997744799, -0.012164936400949955, 0.028772054240107536, -0.01139904372394085, -0.011941551230847836, -0.005345296114683151, -0.01806231401860714, -0.03916267305612564, 0.016964534297585487, -0.031988807022571564, 0.017462365329265594, -0.0030970806255936623, -0.03244834020733833, -0.014207318425178528, -0.01120118796825409, 0.014079669490456581, 0.025951014831662178, -0.027623213827610016, -0.007582342717796564, -0.014066904783248901, -0.017909135669469833, 0.0029694316908717155, -0.0021109930239617825, -0.009924699552357197, -0.0006976808072067797, 0.014717914164066315, 0.021355655044317245, 0.01060762070119381, 0.011813902296125889, 0.03648204356431961, -0.00018808261665981263, 0.00042762368684634566, 0.019083505496382713, 0.00945239793509245, 0.023346977308392525, 0.0016897518653422594, 0.001949836383573711, 0.03839677944779396, -0.010882065631449223, 0.01690070889890194, 0.008143997751176357, 0.050446830689907074, -0.03765641525387764, -0.019479217007756233, 0.014858327805995941, 0.00982896238565445, -0.0015836437232792377, -0.08225692808628082, -0.0011647958308458328, 0.01040976494550705, 6.437292176997289e-05, -0.026168016716837883, 0.014615794643759727, -0.012809563428163528, -0.001354673528112471, 0.01100971456617117, -0.00940133910626173, -0.026525434106588364, -0.0022099209018051624, 0.026078661903738976, -0.005351678468286991, 0.034746021032333374, 0.016211405396461487, 0.006605828646570444, -0.005929289851337671, -0.005855891387909651, 0.012618090026080608, -0.012401087209582329, 0.008782241493463516, 0.008284411393105984, -0.01691347360610962, 0.0063920170068740845, -0.0007363744080066681, -0.029589006677269936, 0.031503740698099136, 0.02398522198200226, 0.00773552106693387, -0.01730918511748314, 0.0034305632580071688, -0.015407217666506767, -0.03293340653181076, -0.009382191114127636, -0.011935168877243996, 0.007218543440103531, -0.013479719869792461, 0.016594352200627327, -0.008386529982089996, -0.005517621990293264, 0.00821420457214117, 0.029665596783161163, -0.047638554126024246, 0.01839420199394226, -0.016619881615042686, -0.0076142544858157635, 0.015139155089855194, 0.007684461772441864, -0.026116957888007164, -0.04003068432211876, -0.0168624147772789, -0.0393158495426178, -0.005300619173794985, 0.0025242562405765057, 0.016530528664588928, -0.002492344006896019, 0.020155755802989006, -0.015126390382647514, -0.010167231783270836, -0.005182543769478798, 0.017449598759412766, 0.0035135350190103054, 0.004620888736099005, 0.015879519283771515, 0.008680122904479504, -0.0036411837209016085, -0.002591271884739399, 0.0005078031099401414, 0.007301514968276024, -0.011839431710541248, -0.02112588658928871, -0.016287995502352715, -0.014730678871273994, -0.03729899972677231, -0.018649499863386154, -0.008865213952958584, 0.008169527165591717, -0.002123757964000106, -0.03923926129937172, 0.011309688910841942, -0.007895082235336304, 0.0077291387133300304, 0.006334574893116951, 0.005642079748213291, 0.025951014831662178, 0.0053357225842773914, -0.007971671409904957, 0.004132632166147232, -0.008552473969757557, -0.0035358734894543886, 0.036328867077827454, 0.005074042361229658, -0.03722240775823593, -0.003695434657856822, 0.025670185685157776, 0.015764635056257248, -0.00744831096380949, 9.14983029360883e-05, 0.010703356936573982, -0.009516222402453423, 0.009299219585955143, -0.08092937618494034, 0.010084260255098343, 0.01612205058336258, -0.006123954430222511, -0.013326541520655155, 0.021304596215486526, 0.022134313359856606, -0.010160849429666996, 0.033571649342775345, 0.022964030504226685, -0.03765641525387764, -0.004186882637441158, 0.01930050738155842, 0.004435798153281212, -0.04171564802527428, -0.008533326908946037, 0.021036531776189804, 0.014743443578481674, -0.002216303488239646, 0.015330628491938114, 0.018636733293533325, -0.0013131876476109028, 0.030074073001742363, 0.011430955491960049, -0.04638759791851044, 0.0076270196586847305, -0.01448814570903778, 0.033980127424001694, -0.021355655044317245, 0.014717914164066315, 0.00981619767844677, -0.028363578021526337, -0.04523875564336777, 0.035843800753355026, 0.002793914405629039, -0.028057219460606575, -0.032371751964092255, 0.0029726228676736355, 0.002690199762582779, 0.04786832258105278, -0.013773312792181969, -0.021393949165940285, 0.005096381064504385, -0.004362399689853191, 0.012203231453895569, 0.018164433538913727, 0.009752373211085796, 0.010658680461347103, 0.002635949058458209, 0.005456988699734211, 0.0035614033695310354, 0.01198622863739729, -0.002072698436677456, -0.04830233007669449, -0.006663270760327578, 0.026780731976032257, 0.0013004228239879012, 0.03216751292347908, 0.022657673805952072, -0.0016386923380196095, 0.02356398105621338, 0.018126139417290688, 0.022249197587370872, -0.014500911347568035, 0.0003622036601882428, -0.037528764456510544, -0.00863544549793005, 0.0156369861215353, 0.016313524916768074, -0.03104420378804207, -0.012560647912323475, -0.0040783812291920185, 0.019096270203590393, 0.003647566307336092, 0.009337514638900757, 0.009560899809002876, -0.008163144811987877, -0.00940772145986557, -0.003794362535700202, 0.020870588719844818, 0.0006458234856836498, 0.004770876374095678, -0.03022725135087967, 0.015905048698186874, 0.01841973140835762, 0.004726198967546225, -0.021470539271831512, 0.0002489152830094099, 0.006356913596391678, 0.02627013623714447, -0.00039571148226968944, 0.025580832734704018, -0.004799597430974245, 0.004071998875588179, -0.0030699551571160555, -0.019900457933545113, -0.0035135350190103054, 0.008284411393105984, 0.012681914493441582, 0.018726088106632233, -0.004308149218559265, 0.005488900933414698, -0.006414355244487524, -0.03888184204697609, 0.0005337318289093673, -0.0014328585239127278, -0.03911161050200462, -0.021368419751524925, 0.00901200994849205, 0.018560145050287247, -0.0069632455706596375, 0.024993646889925003, -0.004215603694319725,</t>
+  </si>
+  <si>
+    <t>[0.001041149371303618, 0.005559503100812435, 0.009898464195430279, -0.022506263107061386, -0.007906699553132057, 0.033906932920217514, -0.0058746980503201485, -0.01626942679286003, -0.01073004212230444, -0.01374786626547575, -0.010099652223289013, -0.002618800848722458, -0.03015141747891903, -0.014686744660139084, -0.020829694345593452, -0.000728469283785671, 0.026516616344451904, -0.0009237895719707012, -0.008912641555070877, -0.02105770818889141, -0.024316957220435143, 0.023431729525327682, 0.005536030977964401, 0.016577914357185364, -0.010823929682374, -0.027173832058906555, 0.02411576919257641, -0.019904227927327156, -0.0029809398110955954, -0.005760691128671169, -0.010971467941999435, 0.0031569795683026314, -0.028246836736798286, 0.001465321402065456, -0.022103887051343918, -0.011266544461250305, 0.016229188069701195, 0.005800928920507431, 0.0062334840185940266, 0.017704568803310394, 0.023378079757094383, -0.009013235569000244, 0.024451082572340965, -0.011917052790522575, -0.017007116228342056, 0.01558538619428873, 0.00936866831034422, -0.006407847162336111, -0.019904227927327156, 0.0016497439937666059, 0.01443190686404705, 0.0289174634963274, -0.01774480752646923, 0.007443966809660196, -0.023337841033935547, -0.03919147700071335, 0.006156361661851406, -0.017717981711030006, 0.022841576486825943, -0.038815926760435104, 0.025792337954044342, -0.02400846965610981, -0.020615093410015106, -0.006712982431054115, -0.010394728742539883, -0.023257365450263023, -0.0239414069801569, 0.010569091886281967, -0.030526969581842422, -0.013908817432820797, 0.029346665367484093, 0.03232425078749657, -0.009871638379991055, 0.005187304690480232, 0.026637328788638115, -0.01567927375435829, 0.002244926057755947, 0.009261367842555046, 0.03253885358572006, 0.013265014626085758, -0.002142655197530985, -0.027924934402108192, -0.004657508805394173, 0.03835989907383919, 5.045425132266246e-05, 0.026154477149248123, -0.023136653006076813, 0.004707805812358856, 2.338028025405947e-05, 0.006780045572668314, 0.006974527146667242, 0.000652604503557086, 0.013949054293334484, -0.0017553678480908275, -0.019354313611984253, -0.0032257188577204943, 0.013285133056342602, 0.010978174395859241, -0.0068873455747962, -0.013499733991920948, -0.01643037609755993, -0.01833495870232582, -0.01584022492170334, -0.030312368646264076, -0.05837142840027809, -0.021151594817638397, 0.0031133887823671103, -0.002285163616761565, 0.046917110681533813, 0.02116500772535801, -0.0053985523991286755, 0.03210965171456337, 0.0011308458633720875, -0.026918992400169373, 0.028756512328982353, -0.0331290066242218, 0.009663743898272514, 0.012326136231422424, 0.03194870054721832, -0.007329959888011217, 0.017369255423545837, 0.026087414473295212, 0.011903640814125538, -0.03307535499334335, 0.03398740664124489, -0.014324606396257877, -0.022868402302265167, -0.008912641555070877, -0.0026003585662692785, -0.0034436727873981, 0.0013085621176287532, -0.007088534068316221, -0.001341255265288055, 0.00759821105748415, 0.00925466138869524, 0.015263484790921211, -0.017610682174563408, 0.024799810722470284, -0.015706099569797516, -0.04737313464283943, 0.030768396332859993, 0.005116888787597418, -0.009261367842555046, -0.009569856338202953, -0.005519265308976173, 0.006199952680617571, -0.008604152128100395, 0.04718536138534546, 0.010052707977592945, 0.0024595267605036497, 0.01649744063615799, -0.00394664378836751, 0.0001907097321236506, 0.003795752301812172, 0.029480790719389915, 0.009455849416553974, -0.019770102575421333, 0.023284191265702248, 0.016899816691875458, 0.023793868720531464, -0.027656683698296547, 0.039701156318187714, -0.010233777575194836, -0.00237905140966177, 0.027898108586668968, 0.007490910589694977, 0.008208482526242733, 0.01828130893409252, -0.01363385934382677, -0.01282910630106926, 0.010569091886281967, 0.03098299726843834, -0.014029529877007008, 0.012862637639045715, 0.03130489960312843, 0.008007293567061424, -0.015706099569797516, 0.01922018826007843, -0.023565854877233505, -0.007564679719507694, -0.01614871248602867, -0.010683097876608372, 0.02081628143787384, 0.03755514696240425, -0.018415434285998344, 0.012929700314998627, 0.011642095632851124, -0.01626942679286003, 0.022157536819577217, -0.006384375039488077, 0.002149361651390791, 0.01167562697082758, 0.00016985740512609482, -0.026932405307888985, -0.6236300468444824, 0.007169009186327457, -0.028166361153125763, -0.026744630187749863, -0.022425787523388863, -0.008369432762265205, 0.042598266154527664, 0.0021912758238613605, -0.014297781512141228, -0.028836987912654877, -0.013184539042413235, 0.010864167474210262, 0.005680216010659933, 0.006940995808690786, -0.04125701263546944, -0.020668743178248405, -0.002945731859654188, -0.025269249454140663, 0.015531735494732857, -0.0013253279030323029, -0.009791163727641106, -0.0014099945547059178, -0.02029319293797016, 0.01153479516506195, -0.0011040207464247942, 0.018200833350419998, 0.016832754015922546, -0.014190481044352055, -0.008463320322334766, -0.01327842753380537, -0.0378233976662159, 0.0100862393155694, -0.03004411794245243, -0.01558538619428873, 0.04957279562950134, 0.007128771860152483, -0.029722217470407486, 0.014700157567858696, 0.01916653849184513, 0.015424435958266258, 0.007725630421191454, 0.0012322783004492521, 0.023337841033935547, -0.031599972397089005, -0.024035293608903885, 0.026449553668498993, 0.039111003279685974, -0.0017142918659374118, -0.01596093736588955, -0.015142772346735, -0.0009698952198959887, -0.029829517006874084, -0.0010947996051982045, 0.021191833540797234, 0.010649566538631916, 0.001814047689549625, 0.045736804604530334, -0.00022549854475073516, -0.016537677496671677, 0.02365974336862564, -0.0012666479451581836, 0.0015122652985155582, -0.0021225365344434977, -0.025617975741624832, -0.008087769150733948, -0.004908994305878878, -0.04125701263546944, -0.011004999279975891, -0.0009916905546560884, 0.00743726035580039, 0.01903241127729416, 0.01443190686404705, -0.003249190980568528, -0.0019800281152129173, 0.019179949536919594, 0.017302192747592926, 0.006263662129640579, -0.000828644260764122, 0.0009942054748535156, 0.01191034633666277, -0.008000588044524193, -0.008161538280546665, -0.022251425310969353, 0.02424989454448223, 0.0033933757804334164, 0.005113535560667515, -0.019112886860966682, -0.0031603327952325344, 0.031197598204016685, 0.010823929682374, 0.0077524553053081036, 0.0077524553053081036, -0.01114583108574152, -0.035328663885593414, 0.005267779808491468, 0.0390305295586586, 0.004503264557570219, 0.022439200431108475, 0.023217128589749336, -0.03127807378768921, -0.0028568736743181944, -0.01708759181201458, -0.008597446605563164, -0.011735983192920685, -7.916549657238647e-05, -0.007799399551004171, -0.021607622504234314, 0.009999058209359646, 0.044556498527526855, -0.02985634282231331, -0.012728512287139893, -0.01844226010143757, -0.0032173360232263803, 0.00583781348541379, -0.025403374806046486, -0.030607445165514946, 0.023619504645466805, 0.013446084223687649, 0.014244130812585354, -0.010656272992491722, 0.022331900894641876, -0.0011576709803193808, -0.008020706474781036, -0.02482663467526436, -0.0035811515990644693, -0.012554149143397808, -0.0006337431259453297, -0.01590728759765625, -0.020092003047466278, -0.02530948631465435, 0.013922229409217834, 0.004194776061922312, 0.014029529877007008, 8.262341725639999e-05, 0.031841401010751724, 0.02862238697707653, 0.011541501618921757, -0.020185891538858414, -0.016832754015922546, -0.02253308892250061, -0.01939455047249794, -0.005582975223660469, 0.021540559828281403, -0.014405081048607826, -0.002553414786234498, -0.02324395440518856, -0.017878932878375053, 0.012922994792461395, -0.024638859555125237, 0.0024561737664043903, -0.005331489723175764, -0.019488438963890076, -0.03377280756831169, -0.0014468791196122766, 0.022009998559951782, 0.009180892258882523, -0.01182987168431282, -0.010562385432422161, -0.018361784517765045, -0.005090063903480768, 0.016484027728438377, 0.010542266070842743, -0.022546501830220222, -0.011192775331437588, -0.01448555663228035, -0.009341842494904995, -0.016336489468812943, -0.007866461761295795, -0.0050263539887964725, -0.02808588556945324, -0.01348632201552391, -0.0072763096541166306, 0.013030295260250568, 0.012587680481374264, 0.012936406768858433, 0.011977409943938255, -0.012433436699211597, -0.033263131976127625, -0.021862460300326347, -0.0009682186646386981, 0.027240894734859467, -0.023726806044578552, -0.008242013864219189, -0.015692686662077904, 0.016779104247689247, 0.008993116207420826, 0.016510851681232452, -0.004459673538804054, -0.02501440979540348, 0.010810517705976963, 0.004737984389066696, -0.004335607402026653, 0.009080298244953156, -0.009603387676179409, 0.0061261835508048534, -0.0005469806492328644, -0.0026037117931991816, -0.0006282942485995591, 0.007765867747366428, 0.015639036893844604, 0.027334781363606453, 0.016765691339969635, 0.025282662361860275, 0.020011529326438904, 0.007336666341871023, -0.025041235610842705, 0.019662803038954735, -0.0013881991617381573, 0.03830625116825104, -0.019005587324500084, 0.010656272992491722, -0.00109731440898031, -0.015880461782217026, -0.0033816397190093994, 0.0015625624218955636, 0.005019648000597954, 0.022801339626312256, -0.0033564912155270576, -0.007162303198128939, 0.0073031350038945675, 0.03377280756831169, -0.019381139427423477, 0.0050565325655043125, 0.013881991617381573, -0.028649212792515755, 0.011454319581389427, -0.00478828139603138, 0.05110182613134384, -0.005472321528941393, -0.030070943757891655, -0.02843461185693741, 0.01828130893409252, 0.002622154075652361, 0.02808588556945324, -0.0015860343119129539, 0.025872813537716866, 0.005331489723175764, -0.004503264557570219, -0.010870873928070068, 0.0012029382633045316, 0.011782927438616753, 0.0181471835821867, 0.0011450967285782099, 0.013285133056342602, 0.0018475791439414024, 0.011896934360265732, 0.03835989907383919, 0.029936816543340683, -0.01102511864155531, -0.011286662891507149, -0.012513911351561546, -0.00473127793520689, -0.02453155815601349, 0.01863003522157669, 0.007631742395460606, -0.004543502349406481, 0.018817812204360962, 0.015303722582757473, 0.020829694345593452, 0.016591327264904976, 0.008604152128100395, 0.0008294825674965978, -0.009388786740601063, 0.030070943757891655, 0.00551591208204627, 0.008765103295445442, -0.009294899180531502, 0.003571092151105404, -0.022090474143624306, -0.01743631809949875, -0.00722936587408185, -0.021835636347532272, -0.010797104798257351, -0.011373844929039478, -0.006837048567831516, -0.006615741644054651, 0.0018559619784355164, -0.005425377748906612, -0.008275545202195644, 0.03157315030694008, 0.0008097828831523657, -0.009543031454086304, 0.010662979446351528, 0.017248542979359627, 0.009911876171827316, -0.008262132294476032, -0.026047177612781525, 0.008034119382500648, -0.013184539042413235, 0.020078592002391815, -0.0002978005795739591, 0.015303722582757473, -0.028783338144421577, -0.00201020622625947, -0.03693816810846329, -0.022868402302265167, -0.0010797104332596064, -0.008242013864219189, 0.011849990114569664, -0.028193185105919838, 0.00883887242525816, -0.010850755497813225, 0.0039801751263439655, -0.021795397624373436, 0.033209480345249176, -0.024263307452201843, 0.010421553626656532, -0.0012456908589228988, -0.00526107382029295, 0.010844049043953419, 0.0012155126314610243, -0.0003483072214294225, 0.0063541969284415245, 0.01227248553186655, -0.011749396100640297, 0.013895404525101185, -0.00507329823449254, -0.0017419552896171808, 0.007028177380561829, -0.006015529856085777, 0.0044496143236756325, -0.02915889024734497, -0.025027822703123093, -0.009482674300670624, 0.08224577456712723, -0.018697097897529602, 0.0038225774187594652, 0.021017469465732574, 0.0064480844885110855, 0.0012121594045311213, -0.02206364832818508, 0.0014745425432920456, 0.00023430053261108696, 0.016779104247689247, 0.00546896830201149, -0.027871284633874893, 0.023512205109000206, 0.012487086467444897, -0.019649390131235123, -0.01684616692364216, 0.0012465291656553745, 0.002794840605929494, 0.0239414069801569, 0.016175538301467896, -0.01946161314845085, -0.002545031951740384, 0.00478828139603138, 0.04895581677556038, 0.017959408462047577, -0.005103476345539093, 0.01162197720259428, 0.0017025559209287167, 0.013090651482343674, -0.029480790719389915, 0.011990821920335293, 0.014311193488538265, -0.005455555859953165, -0.0005775780300609767, -0.00037576103932224214, 0.007819518446922302, 0.008148125372827053, 0.0032039235811680555, -0.004483145661652088, -0.005311370827257633, 0.03742102161049843, 0.011038530617952347, 0.00957656279206276, 0.008000588044524193, 0.006246896460652351, -0.011870109476149082, -0.005130301229655743, 0.02926618978381157, -0.014887933619320393, -0.024088945239782333, 0.039057351648807526, -0.03288757801055908, -0.021245483309030533, -0.023579267784953117, 0.008537089452147484, -0.021191833540797234, 0.008483439683914185, 0.017342429608106613, -0.009663743898272514, 0.019086062908172607, 0.00026049691950902343, -0.026878755539655685, 0.004989469423890114, -0.011206187307834625, -0.009797869250178337, -0.007665273733437061, -0.008684627711772919, -0.0036448612809181213, -0.02305617742240429, -0.020950406789779663, -0.012701687403023243, -0.022801339626312256, -0.012641331180930138, 0.008972997777163982, 0.016604740172624588, -0.006736454553902149, 0.010374609380960464, -0.009750925935804844, 0.0004128551227040589, 0.011709158308804035, -0.0007100270013324916, -0.0068303425796329975, -0.02453155815601349, -0.028836987912654877, -0.023525618016719818, 0.009422318078577518, -0.007115358952432871, -0.032136477530002594, -0.0028753159567713737, 0.027106769382953644, 0.015531735494732857, 0.004245073068886995, 0.03854767605662346, -0.0028451376128941774, -0.0033246364910155535, -0.004711159039288759, 0.02655685506761074, 0.0035643859300762415, -0.008114594034850597, -0.01487452071160078, 0.013573503121733665, 0.035221364349126816, -0.01903241127729416, 0.023324428126215935, 0.024169418960809708, 0.013439377769827843, 0.002739513758569956, -0.005599740892648697, 0.001817400916479528, 0.014378256164491177, 0.00928148627281189, -0.02797858417034149, -0.002870286349207163, -0.01946161314845085, -0.026033764705061913, 0.006320665590465069, -0.013499733991920948, 0.01932748779654503, 0.014338018372654915, -0.007517735939472914, -0.021902699023485184, -0.013841754756867886, 0.008248720318078995, 0.02317689172923565, 0.0020722392946481705, 0.02282816544175148, -0.018308134749531746, -0.00029067517607472837, 0.010032589547336102, 0.00024373123596888036, 0.00883887242525816, 0.007819518446922302, -0.005834460258483887, -0.02655685506761074, -0.017959408462047577, -0.027415256947278976, -0.009247954934835434, 0.010776986368000507, -0.01146773248910904, -0.010220364667475224, -0.01797282136976719, 0.02524242363870144, -0.015370785258710384, -0.003467144910246134, -0.03932560607790947, -0.021808810532093048, -0.004862050525844097, -0.01602800004184246, -0.01443190686404705, -0.011360432021319866, -0.005841166712343693, 0.011890227906405926, 0.01596093736588955, 0.0016061532078310847, -0.0036850988399237394, -0.022144123911857605, -0.018670273944735527, -0.012466968037188053, 0.019703039899468422, 0.022197773680090904, 0.013472909107804298, 0.030580619350075722, 0.03210965171456337, 0.02027978003025055, -0.023726806044578552, -0.0019381138263270259, -0.00428531039506197, 0.010595916770398617, -0.046917110681533813, 0.03693816810846329, -0.012668156065046787, 0.013868579640984535, -0.027924934402108192, -0.01487452071160078, -0.019904227927327156, -0.0042283073998987675, 0.004033825360238552, -0.014686744660139084, -0.03849402442574501, -0.03135854750871658, -0.0060021174140274525, 0.009482674300670624, -0.01975668966770172, -0.0007297266856767237, -0.0011719217291101813, 0.018831223249435425, 0.012326136231422424, -0.0011643772013485432, 0.002806576667353511, -0.02015906572341919, 0.009361961856484413, -0.04302746802568436, 0.019247012212872505, 0.00964362546801567, 0.012131653726100922, 0.013177832588553429, -0.004979410208761692, -0.010750160552561283, -0.008664509281516075, 0.0031770984642207623, 0.014726982451975346, -0.0075311483815312386, -0.004275251179933548, -0.020427318289875984, -0.01922018826007843, 0.013922229409217834, -0.00399358756840229, -0.004114300478249788, -0.0016111829318106174, -0.016899816691875458, -0.006786751560866833, -0.0023321076296269894, -0.020534617826342583, -0.019126299768686295, 0.012909581884741783, 0.003926524892449379, -0.007289722561836243, 0.030366018414497375, 0.01668521575629711, -0.013117476366460323, 0.024987585842609406, -0.005083357449620962, 0.03972798213362694, 0.01123301312327385, 0.02335125394165516, 0.011186068877577782, -0.01248038001358509, 0.002861903514713049, 0.04812423884868622, -0.014619681984186172, -0.007671980187296867, 0.015706099569797516, 0.03328995406627655, -0.002746220212429762, 0.008691334165632725, 0.004784928169101477, 0.02152714692056179, -0.03245837613940239, -0.006645919755101204, 0.05547431856393814, 0.019703039899468422, 0.015867048874497414, -0.021030882373452187, -0.0013513147132471204, 0.00399358756840229, -0.003631448606029153, -0.023927994072437286, -0.007283016107976437, -0.03117077238857746, -0.01319124549627304, -0.023699980229139328, 0.0038091649767011404, -0.012487086467444897, 0.027468908578157425, -9.959868475561962e-05, -0.02293546497821808, 0.02336466684937477, -0.01981033943593502, -0.020615093410015106, 0.007477498147636652, 0.01335890218615532, 0.0042048352770507336, 0.014083180576562881, -0.01614871248602867, 0.03133172169327736, -0.009174185805022717, -0.0017872226890176535, 0.012111535295844078, 0.006632507313042879, 0.02471933513879776, -0.00659562274813652, -0.004221600946038961, -0.003470497904345393, 0.014472144655883312, 0.03275345265865326, 0.007953643798828125, -0.01625601388514042, 0.023512205109000206, -0.02323054149746895, -0.009429024532437325, -0.005458909086883068, -0.03369233384728432, -0.003510735696181655, -0.021647859364748, -0.012574268504977226, -0.014552619308233261, -0.004949232097715139, -0.005257720593363047, -0.008852284401655197, -0.026328841224312782, -0.01549149863421917, -0.03717959672212601, -0.014177068136632442, 0.02105770818889141, 0.0022901934571564198, 0.00011233012628508732, 0.005066591780632734, 0.023552441969513893, -0.02643614076077938, 0.001981704728677869, 0.0030647683888673782, 0.008818753063678741, -0.003493970027193427, -0.012306016869843006, -0.012842519208788872, 0.0010788722429424524, 0.03168044984340668, -0.01487452071160078, -0.006535266060382128, -0.029668565839529037, -0.011347019113600254, 0.004587092902511358, 0.02501440979540348, -0.013130889274179935, -0.002005176618695259, 0.0050431196577847, -0.001653097104281187, 0.0065185003913939, -0.025282662361860275, 0.03157315030694008, 0.005918289069086313, 0.0072561907581985, 0.015102534554898739, -0.03173409774899483, -0.0005478189559653401, -0.004241719841957092, 0.018294721841812134, 0.005173892248421907, -0.031841401010751724, -0.011125712655484676, 0.03176092356443405, -0.0024662332143634558, -0.01558538619428873, 0.02300252765417099, -0.01897876150906086, -0.0036079767160117626, -0.024504734203219414, 0.011058649979531765, 0.013399139977991581, -0.018375197425484657, 0.010763573460280895, 0.02725430764257908, -0.002558444393798709, 0.027334781363606453, -0.004432848654687405, 0.010441672056913376, -0.0137746911495924, -0.010508734732866287, -0.013499733991920948, -0.009180892258882523, -0.022680627182126045, 0.036991819739341736, -0.0028099296614527702, -0.023860931396484375, -0.016819341108202934, 0.0009095387067645788, -0.046085529029369354, -0.0023756984155625105, -0.010394728742539883, 0.008905935101211071, 0.028649212792515755, 0.02553750015795231, 0.027871284633874893, -0.0014175391988828778, -0.017101004719734192, 0.031251247972249985, -0.03363868221640587, 0.009247954934835434, 0.019770102575421333, -0.034684859216213226, -0.010119770653545856, -0.027053117752075195, -0.03430930897593498, -0.01975668966770172, 0.03393375873565674, 0.01038131583482027, -0.0040740626864135265, 0.031009821221232414, -0.002930642804130912, -0.008174951188266277, 0.037099119275808334, -0.010468496941030025, 0.00907359179109335, 0.04536125436425209, 0.02518877387046814, -0.048097413033246994, 0.01625601388514042, -0.003210629802197218, 0.027656683698296547, 0.0005826077540405095, 0.0033732568845152855, -0.0050431196577847, 0.001457776757888496, 0.011219600215554237, -0.01774480752646923, 0.008483439683914185, -0.00394664378836751, 0.004064003471285105, 0.01821424625813961, 0.03135854750871658, 0.014405081048607826, 0.019072650000452995, 0.030714744701981544, 0.011876814998686314, 0.001129169249907136, -0.013700922951102257, -0.031787749379873276, -0.013801516965031624, 0.011876814998686314, -0.03878910094499588, 0.00916747935116291, -0.023632917553186417, 0.021567383781075478, -0.019662803038954735, 0.002918906742706895, 0.002882022177800536, -0.004144478589296341, -0.026516616344451904, 0.03540913760662079, 0.011709158308804035, -0.03221695125102997, -0.006263662129640579, -0.0036213891580700874, -0.005019648000597954, -0.018643448129296303, -0.018656861037015915, -0.006857167463749647, -0.009207717142999172, -0.006810223683714867, 0.004607211798429489, -0.033504556864500046, -0.04364444687962532, -0.008443201892077923, 0.007765867747366428, -0.0031770984642207623, 0.009288192726671696, 0.2140643447637558, -0.009864932857453823, -0.004979410208761692, 0.010595916770398617, -0.021500321105122566, 0.006689510773867369, -0.008463320322334766, 0.022318487986922264, -0.0303928442299366, 0.019904227927327156, -0.027871284633874893, 0.0019749982748180628, -0.014552619308233261, 0.010421553626656532, 0.02293546497821808, -0.0020286485087126493, -0.013814928941428661, -0.03565056622028351, -0.0166181530803442, 0.009556443430483341, 0.010341078042984009, -0.004935819189995527, 0.000362138933269307, 0.0074037290178239346, 0.0015558560844510794, -0.0030010587070137262, 0.0030848870519548655, -0.0009539677994325757, 0.055796217173337936, 0.0020152360666543245, -0.002918906742706895, -0.014351431280374527, -0.00967045035213232, -0.020977232605218887, -0.010139890015125275, -0.003926524892449379, -0.008885815739631653, -0.009482674300670624, 0.03299488127231598, 0.026811692863702774, -0.020373666658997536, -0.016416965052485466, -0.005663450341671705, 0.016577914357185364, -0.014284368604421616, 0.03197552636265755, -0.00202529551461339, 0.0001341255265288055, -0.0002485513687133789, -0.0028266955632716417, -0.02300252765417099, -0.010857461020350456, 0.02642272785305977, 0.03264615312218666, 0.007262897212058306, -0.01757044345140457, 0.012205422855913639, 0.005633272230625153, 0.013613740913569927, 0.0303391944617033, -0.013814928941428661, 0.02496076002717018, -0.008208482526242733, 0.0018794339848682284, 0.0008529545157216489, 0.01590728759765625, -0.022680627182126045, 0.010367902927100658, 0.020655330270528793, -0.0011224630288779736, 0.015008646063506603, -0.020092003047466278, -0.0002353483869228512, -0.024169418960809708, -0.007826224900782108, -0.00362809537909925, 0.0273884329944849, -0.016926640644669533, 0.024169418960809708, 0.010320959612727165, -0.005257720593363047, -0.009938701055943966, 0.0034151712898164988, 0.010850755497813225, 0.014968408271670341, -0.001768780406564474, 0.000438422808656469, 0.02015906572341919, -0.004248425830155611, -0.00473127793520689, -0.0017939289100468159, -0.00883887242525816, 0.00604570796713233, 0.01928725093603134, 0.024813221767544746, 0.010897698812186718, 0.012788868509232998, 0.03602611646056175, -0.03098299726843834, 0.011212893761694431, -0.004070709925144911, 0.0006018882850185037, 0.018898285925388336, 0.0014267603401094675, -0.02496076002717018, 0.010984880849719048, -0.0051537733525037766, 0.018106946721673012, 0.018375197425484657, -0.018898285925388336, -0.020413905382156372, -0.0273884329944849, -0.018790986388921738, -0.013016882352530956, 0.017007116228342056, 0.012031059712171555, 0.008899228647351265, 0.007906699553132057, 0.01584022492170334, -0.03162679821252823, -0.01601458713412285, -0.015893874689936638, 0.023083003237843513, 0.014472144655883312, -0.005080004222691059, -0.011729277670383453, -0.023565854877233505, 0.01291628833860159, 0.002278457395732403, -0.04694393277168274, 0.02512171119451523, -0.0012465291656553745, 0.006082592532038689, 0.037984348833560944, -0.02560456283390522, 0.010750160552561283, -0.012547442689538002, -0.008027412928640842, 0.005009588319808245, 0.023404903709888458, 0.003185481298714876, -0.0015625624218955636, 0.017543619498610497, -0.019086062908172607, -0.0024226424284279346, -0.0165645033121109, 0.017422905191779137, 0.014297781512141228, 0.013935642316937447, -0.0007355946581810713, 0.005452202633023262, -0.007028177380561829, -0.011259838007390499, -0.045334428548812866, 0.004292016848921776, -0.012902875430881977, -0.002798193832859397, -0.022962290793657303, -0.015880461782217026, 0.0006412876537069678, -0.032914403825998306, -0.00010379010200267658, 0.036213893443346024, -0.003862815210595727, -0.005428730510175228, 0.005103476345539093, -0.16953466832637787, 0.027710333466529846, 0.010844049043953419, 0.00019081452046521008, 0.01566586084663868, 0.014539207331836224, -0.001497176242992282, 0.020092003047466278, -0.004560268018394709, 0.029909992590546608, 0.0003137280000373721, 0.003618036163970828, -0.03216329962015152, -0.004986116662621498, -0.013640565797686577, -0.019072650000452995, -0.006397787481546402, -0.0013446083758026361, 0.01702052913606167, 0.017194893211126328, -0.005090063903480768, -0.021205246448516846, 0.0122993104159832, -0.005847873166203499, -0.0076518612913787365, -0.0015994468703866005, -0.0045736804604530334, 0.021969761699438095, -0.0030195009894669056, 0.0034604386892169714, -0.015558561310172081, 0.007537854369729757, 0.046917110681533813, 0.0007117035565897822, -0.03162679821252823, -0.0037018645089119673, -0.0031200950033962727, -0.007410435471683741, -0.025819163769483566, 0.005696981679648161, 0.027281131595373154, 0.010481909848749638, 0.0027478968258947134, -0.03715277090668678, -0.014002704992890358, 0.04477110132575035, 0.014391669072210789, -0.023337841033935547, 0.009931995533406734, 0.022546501830220222, 0.00930831115692854, 0.005324783269315958, 0.013110769912600517, 0.005485733970999718, -0.0020487674046307802, 0.0274420827627182, 0.0075713861733675, 0.024813221767544746, 0.01566586084663868, -0.006689510773867369, -0.003334695938974619, -0.018817812204360962, 0.008537089452147484, -0.014566032215952873, 0.004087475594133139, -0.013828341849148273, 0.015035471878945827, 0.0196225643157959, -0.002281810622662306, -0.008034119382500648, -0.0011945554288104177, -0.013405846431851387, -0.007269603665918112, -0.011293369345366955, -0.011548208072781563, 0.025698451325297356, 0.0009640272473916411, -0.022922052070498466, 0.006270368117839098, 0.01487452071160078, 0.004781574942171574, 0.035570088773965836, -0.017422905191779137, -0.026838518679142, -0.0001792881084838882, -0.02015906572341919, -0.021071119233965874, 0.012426730245351791, 0.009885051287710667, 0.00402041245251894, 0.007906699553132057, -0.0403449572622776, -0.003133507678285241, -0.002073915908113122, 0.009630212560296059, 0.014995234087109566, -0.027924934402108192, 0.025269249454140663, -0.015048883855342865, -0.024571796879172325, -0.001225571963004768, 0.008637683466076851, -0.027160419151186943, 0.007242778316140175, 0.03186822682619095, 0.03452391177415848, 0.00628378102555871, 0.020534617826342583, 0.038172125816345215, 0.034550733864307404, -0.004962644539773464, -0.0025316192768514156, 0.02437060885131359, 0.022854989394545555, -0.03339725732803345, 0.008369432762265205, 0.023968230932950974, -0.007457379251718521, 0.018656861037015915, -0.011367138475179672, 0.03460438549518585, -0.022144123911857605, -0.012399905361235142, 0.005673509556800127, -0.021567383781075478, -0.020118828862905502, -0.09399516880512238, -0.011253131553530693, 0.021419847384095192, 0.03299488127231598, -0.003309547435492277, 0.014297781512141228, -0.0059987641870975494, 0.013372315093874931, -0.007899993099272251, 0.009201010689139366, -0.027415256947278976, -0.017127830535173416, 0.011568326503038406, -0.007202540524303913, 0.04214223846793175, 0.01558538619428873, -0.003185481298714876, -0.005988704971969128, 0.025296073406934738, -0.004533442668616772, -0.0289174634963274, -0.0033967290073633194, 0.018120357766747475, -0.007410435471683741, 0.016940053552389145, -0.027415256947278976, -0.03916465491056442, 0.03862814977765083, 0.02685192972421646, 0.021191833540797234, 5.8522738981992006e-05, -0.005009588319808245, -0.011595151387155056, -0.013379021547734737, -0.0006731424946337938, -0.022922052070498466, -0.01227248553186655, -0.02140643447637558, 0.013117476366460323, -0.022103887051343918, -0.005381786730140448, 0.004526736680418253, 0.02867603674530983, -0.047212183475494385, -0.0036683331709355116, 0.002218100940808654, -0.0051537733525037766, 0.00914065446704626, 0.001373110106214881, -0.013868579640984535, -0.0028602269012480974, -0.020092003047466278, -0.0057573383674025536, -0.021312545984983444, 0.038815926760435104, -0.0137210413813591, -0.0035207951441407204, 0.019649390131235123, -0.02478639781475067, -0.006525206845253706, 0.021124770864844322, 0.008302370086312294, -0.013962467201054096, 0.005737219471484423, 0.008872403763234615, 0.007591504603624344, -0.03479216247797012, 0.006987940054386854, 0.015813399106264114, -0.010548972524702549, 0.01739608123898506, -0.011065355502068996, -0.011917052790522575, 0.009657037444412708, -0.026918992400169373, -0.0209906455129385, -0.038172125816345215, 0.006863873917609453, 0.0028317251708358526, -0.021097945049405098, -0.009355255402624607, -0.0032240422442555428, 0.02123207040131092, 0.002990999259054661, -0.005227542482316494, 0.02147349715232849, 0.005968586076050997, -0.0005310532287694514, -7.695190106460359e-06, -0.027817634865641594, 0.006434672046452761, 0.009053473360836506, 0.016537677496671677, -0.014767220243811607, -0.01206459105014801, 0.006337431259453297, 0.015075708739459515, -0.010877580381929874, -0.01887146197259426, -0.001444364315830171, -0.026623917743563652, -0.006880639586597681, -0.08106546849012375, 0.012118241749703884, 0.012078003957867622, -0.01096476148813963, -0.006028942298144102, 0.000652604503557086, 0.01162197720259428, -0.0022650447208434343, -0.007343372330069542, 0.009703981690108776, -0.027227481827139854, 0.004520030226558447, 0.013204658403992653, -0.010441672056913376, -0.02654344215989113, -0.007933524437248707, 0.016309663653373718, 0.0037119239568710327, 0.0003409722412470728, 0.008852284401655197, -0.0010629447642713785, -0.0029373490251600742, 0.008476733230054379, 0.010931230150163174, -0.025711864233016968, -0.007249484769999981, -0.02494734711945057, 0.01873733662068844, -0.00810118205845356, 0.00017446797573938966, 0.006873933132737875, -0.05069945007562637, -0.005475674755871296, 0.05767397582530975, -0.005371727515012026, -0.033343605697155, -0.0377160981297493, 0.014539207331836224, 0.023458555340766907, 0.04423459991812706, -0.022197773680090904, -0.024410845711827278, 0.018066707998514175, -0.0011585092870518565, -0.005968586076050997, 0.005532677751034498, 0.0180935338139534, -0.0035174419172108173, -0.006816929671913385, -0.0017788397381082177, -0.0037722804117947817, 0.02029319293797016, 0.02081628143787384, -0.022989114746451378, -0.009777750819921494, 0.03605294227600098, 0.0029323194175958633, 0.050645798444747925, 0.005643331445753574, -0.007262897212058306, 0.030607445165514946, 0.005351608619093895, -0.0022516322787851095, 0.012949819676578045, 0.0195689145475626, -0.007376904133707285, 0.00804082490503788, 0.007242778316140175, -0.004895581863820553, -0.03430930897593498, -0.025457024574279785, 0.00849014613777399, 0.001348799793049693, 0.015652449801564217, -0.007008058950304985, -0.0058746980503201485, -0.0013144301483407617, -0.006853814236819744, -0.020588267594575882, 0.033611856400966644, 0.018643448129296303, -0.01857638545334339, 0.007544560823589563, 0.03127807378768921, 0.018308134749531746, -0.006598975975066423, -0.016899816691875458, 0.0035409138072282076, 0.0144587317481637, 0.021849047392606735, 0.018133770674467087, 0.011125712655484676, 0.007001352496445179, 0.01274863164871931, 0.0002577725099399686, -0.009898464195430279, -0.015813399106264114, -0.014941583387553692, -0.001569268642924726, 0.022573325783014297, -0.016403552144765854, -0.00015298693324439228, -0.02194293588399887, -0.04595140367746353, -0.009844813495874405, -0.0020470907911658287, -0.022908639162778854, -0.0244913212954998, -0.00659562274813652, 0.022667214274406433, -0.008617565035820007, 0.017650919035077095, 0.01903241127729416, 0.0194482021033763</t>
+  </si>
+  <si>
+    <t>[-0.015026275999844074, -0.009776837192475796, -0.0043875426054000854, -0.023820875212550163, -0.0026653751265257597, 0.004868903663009405, -0.011324998922646046, 0.007142359856516123, 0.009952468797564507, 0.005581188481301069, 0.008046538569033146, -0.016886672005057335, -0.05224720761179924, -0.0191243514418602, -0.024770587682724, -0.011799855157732964, 0.028465360403060913, -0.0075911968015134335, -0.00846285093575716, -0.020282220095396042, -0.02383388578891754, 0.014349768869578838, 0.02257193811237812, 0.000543970731087029, -0.022324753925204277, -0.0020230181980878115, 0.009412563405930996, -0.012684518471360207, 0.0007822120096534491, 0.014141612686216831, 0.0160280279815197, -0.00810508243739605, -0.021049795672297478, 0.00823517981916666, 0.003837879979982972, -0.009301980026066303, 0.016808614134788513, -0.0022311743814498186, 0.023820875212550163, 0.011929952539503574, 0.02293621189892292, 0.00032321130856871605, -0.010843637399375439, -0.00787741132080555, -0.005470605101436377, 0.040746577084064484, -0.00973780732601881, 0.010524897836148739, -0.004114337731152773, -0.0070643010549247265, -0.0022051548585295677, 0.018135609105229378, -0.02629273012280464, 0.0073765357956290245, -0.00409482279792428, -0.030156631022691727, -0.02820516563951969, 0.00516162347048521, 0.024081071838736534, -0.030598962679505348, -0.0017872161697596312, -0.0024783597327768803, -0.02994847483932972, -0.010876161977648735, -0.012320245616137981, -0.009490622207522392, 0.007571681868284941, 0.014440836384892464, 0.0015156373847275972, -0.008592948317527771, 0.007981489412486553, 0.0351523794233799, 0.02340456284582615, -0.009328000247478485, 0.033174894750118256, 9.122079973167274e-06, -0.002847511786967516, 0.0311453714966774, 0.012573936022818089, 0.029610220342874527, 0.00016668759053573012, -0.030520902946591377, 0.006485366728156805, 0.038014527410268784, 0.02830924466252327, 0.022923201322555542, -0.011995001696050167, 0.018577940762043, -0.010401305742561817, -0.008527899160981178, 0.016613466665148735, -0.003880161792039871, 0.019358526915311813, 0.0047127865254879, -0.01451889518648386, -0.004211910534650087, 0.012105584144592285, 0.0026767586823552847, -0.0021433583460748196, -0.006960222963243723, -0.01627521403133869, 0.020815620198845863, 0.004153366666287184, -0.020893679931759834, -0.05443284660577774, -0.023352524265646935, -0.0022328004706650972, -0.005977985914796591, 0.03288868069648743, 0.006137355696409941, 0.007571681868284941, 0.036453355103731155, 0.012151118367910385, -0.028439341112971306, -0.024172140285372734, -0.010537908412516117, 0.013120345771312714, -0.010024022310972214, 0.008384792134165764, -0.015117344446480274, -0.0020181394647806883, 0.03184789791703224, 0.012866655364632607, 0.013907436281442642, 0.0223117433488369, -0.005594198126345873, -0.010700530372560024, 0.003632976207882166, -0.012255196459591389, -0.0062804631888866425, -0.004416814539581537, 0.006586192641407251, 0.014050544239580631, -0.00818964559584856, -0.00026995257940143347, 0.00330935837700963, -0.02348262257874012, 0.013348016887903214, 0.0025336514227092266, -0.01674356497824192, 0.019345518201589584, 0.021908441558480263, -0.029506143182516098, 0.0005699902540072799, -0.016912691295146942, 0.03195197880268097, -0.018877165392041206, 0.02548612467944622, 0.00140505435410887, 0.015676764771342278, 0.016899682581424713, -0.043296489864587784, 0.005633227527141571, -0.018877165392041206, 0.006368278991430998, 0.03874307498335838, -0.022910192608833313, 0.024328256025910378, 9.1576534032356e-05, 0.02067251317203045, -0.01497423741966486, 0.012365779839456081, -0.0042054057121276855, -0.008742560632526875, 0.02413311041891575, 0.02674807235598564, 0.005155118647962809, 0.004498125519603491, -0.013217919506132603, 0.0022539414931088686, 0.001918939989991486, 0.027866913005709648, -0.03439781442284584, 0.013790348544716835, 0.03111935220658779, 0.02695622853934765, -0.007636731024831533, 0.0007411499391309917, -0.010544412769377232, -0.008807609789073467, -0.0021742566023021936, 0.002429573331028223, 0.020503386855125427, 0.018551921471953392, 0.010472859255969524, 0.005112836603075266, 0.011103833094239235, 0.01373830996453762, -0.010043537244200706, -0.008892172947525978, -0.018682019785046577, 0.004800602328032255, -0.011539659462869167, -0.00964673887938261, -0.6540268063545227, 0.0016652496997267008, -0.001393670798279345, -0.0259544774889946, 0.0016685021109879017, 0.001167626236565411, 0.01178684551268816, 0.014987247064709663, 0.00330935837700963, -0.011298978701233864, -0.018499882891774178, 0.018916195258498192, 0.012118593789637089, 0.012248692102730274, -0.02229873277246952, -0.006472357083112001, 0.015819871798157692, -0.03546461462974548, 0.0013879791367799044, -0.0094255730509758, -0.004475358407944441, 0.025616222992539406, -0.03013061173260212, 0.021505137905478477, -0.013224423862993717, 0.018538912758231163, 0.0014985620509833097, -0.029974494129419327, -0.005717790685594082, -0.015806861221790314, -0.020100083202123642, 0.02548612467944622, -0.0006240620859898627, -0.013816367834806442, 0.040564440190792084, 0.02257193811237812, -0.004989244043827057, 0.016145115718245506, 0.02685215137898922, 0.029740318655967712, -0.008157121017575264, -0.01774531602859497, 0.027632735669612885, -0.018616970628499985, 0.01128596905618906, -0.0025515398010611534, 0.03582888841629028, 0.016158126294612885, -0.015247441828250885, -0.015884920954704285, 0.03158770501613617, -0.021557176485657692, -0.010576937347650528, 0.0189422145485878, 0.009575185365974903, -0.012951218523085117, 0.020087074488401413, -0.02685215137898922, -0.011058298870921135, 0.01684764213860035, 0.016249194741249084, 0.027997009456157684, -0.017355022951960564, -0.020087074488401413, -0.00017685146303847432, 0.006439832504838705, -0.019774839282035828, -0.003984239883720875, -0.008918192237615585, 0.007383040618151426, 0.001313986023887992, 0.009328000247478485, -0.028075069189071655, -0.007675759959965944, 0.027086326852440834, 0.02129698172211647, 0.014753071591258049, 0.021648244932293892, 0.002081562066450715, 0.024913696572184563, 0.0049794865772128105, -0.014401807449758053, -0.0340595580637455, 0.007480613887310028, 0.019449595361948013, 0.0013465104857459664, -0.008970231749117374, -0.00668701808899641, 0.021427080035209656, -0.005431576166301966, 0.018616970628499985, 0.021140864118933678, -0.00996547844260931, -0.044467370957136154, -0.018057551234960556, 0.03249838948249817, -0.0280490480363369, 0.012586945667862892, 0.00404928857460618, -0.022988250479102135, -0.002875157631933689, -0.02130999229848385, -0.002850764198228717, -0.010297227650880814, 0.0037370542995631695, 0.016769584268331528, -0.006062549538910389, 0.011305483989417553, 0.02339155413210392, -0.014401807449758053, -0.007643235847353935, 0.011455096304416656, -0.016171135008335114, -0.008963726460933685, -0.022702036425471306, -0.02711234614253044, 0.021375039592385292, 0.014557925052940845, 0.02538204751908779, -0.012047040276229382, 0.021166883409023285, -0.01137703750282526, -0.01451889518648386, -0.016808614134788513, 0.0027190404944121838, 0.028829634189605713, 0.022806113585829735, -0.01278859656304121, -0.02867351658642292, -0.022923201322555542, 0.014557925052940845, 0.011129852384328842, 0.01747211068868637, 0.007005757186561823, 0.003938705660402775, 0.02812710776925087, 0.0069407084956765175, -0.007708284538239241, -0.004524145275354385, -0.03593296557664871, -0.027242444455623627, -0.008892172947525978, 0.010329751297831535, -0.013764329254627228, -0.017237935215234756, 0.0019205661956220865, -0.0198528990149498, 0.00021201847994234413, -0.05060797929763794, 0.0285954587161541, -0.015533656813204288, 0.00030694910674355924, -0.023339515551924706, 0.007129350211471319, 0.02475757896900177, 0.012118593789637089, -0.010316741652786732, -0.008618967607617378, -0.03291470184922218, -0.008996251039206982, 0.023092329502105713, -0.0005878786905668676, -0.013608211651444435, 0.0002713755238801241, 0.0034931213594973087, 0.0033109846990555525, 0.0035711799282580614, 0.015988998115062714, -0.0033142371103167534, -0.030338767915964127, 0.0025466610677540302, 0.0016286596655845642, -0.005610460415482521, 0.026826130226254463, 0.0015701157972216606, 0.004198900889605284, -0.031535666435956955, -0.008625472895801067, -0.023638738319277763, -0.024081071838736534, 0.004927447531372309, 0.0012155997101217508, -0.013491123914718628, -0.001344884280115366, 0.011006259359419346, 0.006046287249773741, 0.0130683071911335, 0.015273462049663067, -0.035282477736473083, 0.02055542543530464, 0.0426199845969677, -0.016496378928422928, -0.02648787759244442, -0.021179893985390663, -0.0018034783424809575, 0.002862147754058242, 0.008163626305758953, -0.026722053065896034, -0.017641238868236542, 0.00837178248912096, 0.0026978994719684124, 0.029610220342874527, 0.006410560570657253, 0.013029277324676514, 0.0036394812632352114, -0.026722053065896034, 0.020230181515216827, -0.028439341112971306, 0.0375201553106308, 0.003346761455759406, 0.02030823938548565, -0.0037630738224834204, -0.030078571289777756, -0.01355617307126522, -0.010811112821102142, 0.00978334154933691, 0.03520441800355911, 0.007981489412486553, 0.008892172947525978, 0.010082566179335117, 0.0038118604570627213, -0.007526147644966841, 0.004075308330357075, 0.014453846961259842, -0.03939356282353401, 0.0046640001237392426, -0.018083570525050163, 0.023079318925738335, -0.009724797680974007, -0.018695028498768806, 0.004738806281238794, 0.04222968965768814, -0.0014831129228696227, 0.0347881056368351, -0.008625472895801067, 0.009724797680974007, -0.003701277542859316, -0.03811860457062721, 0.015546666458249092, -0.011168881319463253, 0.02929798699915409, 0.02166125550866127, 0.0222206749022007, -0.005708033684641123, -0.005112836603075266, 0.017901433631777763, 0.004725796170532703, 0.014714041724801064, -0.005548663903027773, -0.013699280098080635, -0.012027526274323463, 0.017224926501512527, 0.007857896387577057, -0.004280211869627237, -0.0019937462639063597, 0.0027174141723662615, 0.030286727473139763, -0.008937707170844078, 0.02750263921916485, 0.015884920954704285, -0.0024263206869363785, -0.01346510462462902, 0.008905182592570782, 0.01955367438495159, -0.007766828406602144, -0.00895722210407257, -0.005919442046433687, -0.0221296064555645, -0.004224920645356178, -0.00895722210407257, 0.0035158884711563587, 0.0055161393247544765, -0.0035549176391214132, 0.006117841228842735, -0.006784591358155012, -0.023001261055469513, -0.039627738296985626, -0.0017693277914077044, -0.008092072792351246, 0.012398304417729378, 0.009139358066022396, -0.028439341112971306, -0.006498376373201609, 0.012541411444544792, 0.011864903382956982, -0.015234432183206081, -0.017953472211956978, 0.02428922802209854, -0.007161874324083328, 0.014961227774620056, -0.009145863354206085, 0.019150370731949806, -0.04803204536437988, 0.014779090881347656, -0.0016351646045222878, -0.008534404449164867, -0.0007472482393495739, 0.003740306943655014, 0.0260455459356308, -0.0023547671735286713, 0.012899179942905903, -0.012964229099452496, -0.022090576589107513, -0.025434086099267006, 0.011838884092867374, -0.010778588242828846, -0.00792294554412365, -0.016249194741249084, 0.0165744386613369, 0.005249439273029566, 0.004475358407944441, 0.016795603558421135, 0.001205029315315187, -0.0055291494354605675, -0.0037533165886998177, 0.00012867468467447907, -0.001590443542227149, 0.00739605026319623, 0.026058554649353027, -0.015130354091525078, -0.01133150327950716, -0.024146119132637978, -0.015052295289933681, -0.015156373381614685, 0.10969831794500351, -0.0059519666247069836, 0.0013115467736497521, 0.010362275876104832, -0.0012505634222179651, -0.01501326635479927, -0.003984239883720875, 0.003919191192835569, 0.006706532556563616, 0.019813869148492813, -0.002813361119478941, -0.015858901664614677, 0.012073059566318989, -0.002292970661073923, 0.010407810099422932, 0.007526147644966841, -0.015468607656657696, -0.023274466395378113, 0.02921992726624012, 0.0024458353873342276, -0.007057796232402325, -0.005051040556281805, -0.00482662208378315, 0.012092574499547482, 0.0254080668091774, 0.0061893947422504425, 0.01874706894159317, 0.013777338899672031, 0.006433327682316303, -0.031899940222501755, 0.0006744748679921031, -0.0010668005561456084, -0.028647497296333313, -0.006140607874840498, -0.009210912510752678, 0.01766725815832615, -0.016587447375059128, 0.019605712965130806, 0.0025775593239814043, 0.02885565347969532, 0.051206428557634354, 0.00278734159655869, -0.02457544207572937, -0.010563927702605724, 0.004559922032058239, -0.013933456502854824, 0.012079564854502678, 0.027866913005709648, -0.0218564011156559, -0.00725944759324193, 0.012248692102730274, -0.0058446358889341354, 0.009308485314249992, -0.01155917439609766, 0.011097327806055546, -0.008794600144028664, 0.012281215749680996, 0.020906688645482063, -0.01820065826177597, -0.030364787206053734, 0.008898678235709667, -0.018083570525050163, 0.0004927447880618274, -0.0008887294097803533, 0.0061666276305913925, -0.008092072792351246, 0.015468607656657696, -0.004774583037942648, -0.025720302015542984, -0.0030263960361480713, -0.011552669107913971, -0.01592394895851612, -0.009328000247478485, -0.0032996011432260275, 0.025056803598999977, -0.0030800614040344954, 0.02348262257874012, 0.003860647091642022, -0.013751319609582424, 0.04418115317821503, -0.004999001510441303, -0.0042184158228337765, -0.011259949766099453, -0.0251348614692688, -0.0016099581262096763, 0.05307983234524727, 0.02585039846599102, -0.017407063394784927, -0.01665249653160572, 0.011142862029373646, 0.009035279974341393, -0.00047038422781042755, -0.0011538033140823245, -0.0070643010549247265, -0.004953467287123203, -0.00040370921487919986, -0.001313986023887992, -0.005291720852255821, 0.007721294183284044, 0.005880412645637989, -0.0007696087704971433, 0.0054933722130954266, -0.022272713482379913, 0.002640981925651431, 0.0096987783908844, -0.0035386555828154087, 0.006456094793975353, -0.03866501525044441, -0.013816367834806442, 0.007057796232402325, 0.009087319485843182, -0.0040590460412204266, 0.013959475792944431, 0.001005004160106182, -0.014714041724801064, 0.004959972109645605, -0.003694772720336914, 0.049385059624910355, 0.0012554421555250883, -0.017888424918055534, -0.0022181645035743713, -0.012541411444544792, 0.009256446734070778, 0.012177137657999992, -0.008573433384299278, 0.024874666705727577, -0.00044517783680930734, -0.0017026527784764767, 0.0049241953529417515, -0.006706532556563616, 0.013621222227811813, 0.0285954587161541, -0.012801607139408588, -0.008703531697392464, -0.025876417756080627, -0.010811112821102142, -0.001790468581020832, -0.008618967607617378, -0.019423576071858406, -0.03288868069648743, -0.04402503743767738, 0.02695622853934765, 0.010063051246106625, -0.010017517022788525, 0.010050041601061821, -0.020425327122211456, -0.006023520138114691, -0.0030833138152956963, -0.025082822889089584, 0.016522398218512535, 0.0004157025832682848, 0.003320741932839155, -0.008736055344343185, 0.0060755591839551926, 0.0008448214503005147, -0.007760323584079742, -0.0035614226944744587, 0.00017634326650295407, 0.011311989277601242, 0.0008399428334087133, -0.006700027734041214, 0.02340456284582615, 0.013211414217948914, -0.0024881171993911266, -0.008475860580801964, -0.02375582791864872, 0.001609145081602037, 0.004111085087060928, -0.020607464015483856, 0.023430582135915756, 0.0127495676279068, 0.039913952350616455, -0.02747661992907524, -0.0037760837003588676, -0.012112089432775974, 0.017263954505324364, 0.001457906560972333, -0.008775085210800171, -0.014870159327983856, -0.009399553760886192, 0.0037110347766429186, -0.008521394804120064, -0.011767330579459667, 0.014635982923209667, -0.016860652714967728, 0.0060983262956142426, 0.009770331904292107, -0.0008261199691332877, -0.0010253319051116705, -0.005444585811346769, 0.013855397701263428, -0.010889171622693539, 0.025967486202716827, 0.025967486202716827, -0.021908441558480263, 0.007402555085718632, -0.010082566179335117, -0.02512185275554657, -0.012196652591228485, 0.02003503404557705, 0.0030491631478071213, -0.01955367438495159, -0.010050041601061821, -0.0006212161970324814, -0.003297974821180105, 0.0011912063928321004, 0.011923447251319885, -0.01083713211119175, -0.024536412209272385, -0.01447986625134945, -0.035360533744096756, -0.02566826157271862, -0.03486616536974907, -0.004403804894536734, 0.012118593789637089, -0.007870906963944435, -0.0254991352558136, 0.033903442323207855, -0.009458097629249096, -0.03176984190940857, 0.023872915655374527, -0.0008643361506983638, 0.01610608585178852, 0.0015741813695058227, 0.03213411569595337, 0.009126348420977592, 0.009549166075885296, 0.013413065113127232, 0.030703039839863777, 0.000292719661956653, -0.007506633177399635, 0.012027526274323463, 0.00814411137253046, 0.019592702388763428, -0.01728997565805912, -0.007383040618151426, 0.026448847725987434, -0.00796847976744175, -0.011864903382956982, 0.04423319548368454, 0.008124597370624542, -0.018252696841955185, -0.020256200805306435, 0.0166655071079731, 0.0038443850353360176, 0.024276217445731163, 0.0064040557481348515, -0.0003894797700922936, -0.01064198650419712, -0.012938208878040314, -0.022363781929016113, 0.019423576071858406, -0.02640981785953045, 0.03085915744304657, 0.010934705846011639, -0.004722543992102146, 0.020191151648759842, -0.015520647168159485, -0.034163638949394226, 0.021062806248664856, 0.02140106074512005, 0.0025482873897999525, -0.015390549786388874, 0.012391799129545689, 0.0037110347766429186, -0.02082863077521324, -0.024458354339003563, -0.014089573174715042, 0.019813869148492813, 0.01993095688521862, -0.013185394927859306, 0.004790845327079296, 0.015208412893116474, 0.010342761874198914, 0.03476208820939064, -0.02849138155579567, -0.018916195258498192, 0.01728997565805912, 0.011045288294553757, -0.024419324472546577, -0.011403056792914867, 0.0029906192794442177, -0.008228675462305546, 0.016340261325240135, 0.010466353967785835, -0.017550170421600342, -0.01938454620540142, -0.029324006289243698, 0.0022262956481426954, 0.006934203673154116, 0.01647035963833332, -0.024640491232275963, 0.018994253128767014, 0.001862022327259183, 0.012320245616137981, 0.023079318925738335, -0.004608708433806896, 0.010180139914155006, -0.04220367223024368, 0.005499877501279116, 0.01728997565805912, 0.01324393879622221, -0.009314990602433681, 0.01346510462462902, 0.0009196276078000665, 0.0129772387444973, 0.021726304665207863, -0.0009488996001891792, -0.017966482788324356, -0.026800110936164856, -0.0076237209141254425, 0.003766326466575265, -0.004800602328032255, -0.008137607015669346, 0.003967977594584227, 0.010980240069329739, -0.0028149874415248632, -0.011799855157732964, -0.030807118862867355, -0.0014782343059778214, 0.0025206415448337793, -0.012313740327954292, 0.030651001259684563, -0.014622973278164864, 0.018161628395318985, 0.005678761284798384, 0.00796197447925806, 0.00580235430970788, -0.01830473728477955, -0.006072307005524635, 0.01483112946152687, 0.008358772844076157, 0.005782839842140675, 0.0005500690313056111, 0.00285564293153584, -0.017589200288057327, -0.016067057847976685, 0.025512145832180977, -0.0035549176391214132, -0.0043875426054000854, 0.02659195475280285, 0.00748711870983243, -0.005363274831324816, 0.01483112946152687, -0.008534404449164867, -0.0012660125503316522, -0.0409807525575161, -0.029428083449602127, -0.018955225124955177, -0.009158872999250889, -0.031353529542684555, 0.0037272970657795668, -0.00209294562228024, -0.020321249961853027, -0.024874666705727577, -0.0010749317007139325, -0.01783638447523117, 0.022181645035743713, 0.0027466861065477133, 0.011409562081098557, 0.0048038549721241, 0.011760825291275978, -0.017680266872048378, 0.0189422145485878, -0.015416569076478481, 0.02747661992907524, 0.005704781040549278, 0.009262951090931892, 0.012671508826315403, -0.02058144472539425, 0.0014245690545067191, -0.01438879780471325, -0.027060307562351227, -0.03265450522303581, 0.030598962679505348, 0.032446347177028656, -0.007428574841469526, 0.009184892289340496, -0.005669004283845425, 0.011721796356141567, 0.012560926377773285, -0.009848390705883503, -0.008046538569033146, -0.003323994344100356, 0.02693020924925804, -0.023079318925738335, 0.00973780732601881, -0.005457595456391573, 0.01964474283158779, -0.0009741060202941298, -0.009184892289340496, -0.0186690092086792, -0.009386544115841389, -0.0037598214112222195, -0.026552926748991013, -0.016132105141878128, 0.008261199109256268, -0.013035782612860203, 0.007812362629920244, -0.004943709820508957, 0.0006846387987025082, 0.037910450249910355, -0.008638482540845871, -0.011071308515965939, -0.006391046103090048, -0.011162376962602139, -0.040824636816978455, -0.019969986751675606, 0.01451889518648386, -0.025551173835992813, 0.006654493510723114, -0.012638984248042107, 0.025824379175901413, -0.020893679931759834, -0.003987492527812719, -0.004452591296285391, -0.011071308515965939, 0.015598705969750881, 0.018682019785046577, 0.02075057104229927, -0.026006516069173813, 0.0030036289244890213, -0.004618465900421143, 0.018590951338410378, -0.028257204219698906, -0.003701277542859316, 0.016405310481786728, -0.017511140555143356, -0.0014798605116084218, 0.0011757573811337352, -0.029376044869422913, -0.021921450272202492, 0.0010773709509521723, 0.005512887146323919, -0.0006224358221516013, -0.008996251039206982, 0.19150370359420776, 0.009685768745839596, -0.02750263921916485, 0.027814872562885284, -0.004774583037942648, 0.01278859656304121, 0.007747313939034939, 0.0008773459121584892, -0.01324393879622221, 0.008710036054253578, -0.024718549102544785, 0.01064198650419712, -0.01983988843858242, 3.158424806315452e-05, -0.005249439273029566, -0.005054292734712362, -0.00810508243739605, -0.048188161104917526, -0.018460853025317192, 0.0013091074069961905, -0.012352770194411278, -0.0155726857483387, -0.01402452401816845, -0.012814616784453392, 0.0019547168631106615, 0.00527545902878046, 0.003153241239488125, -0.001469290116801858, 0.0453520342707634, 0.0197618305683136, 0.007630225736647844, -0.0019595955964177847, 0.0013269957853481174, -0.0037728312890976667, -0.009354019537568092, 0.01748512126505375, -0.019865907728672028, -0.018551921471953392, 0.01820065826177597, 0.021166883409023285, -0.009262951090931892, -0.012196652591228485, -0.022819124162197113, -0.006013763137161732, -0.029193907976150513, 0.009249941445887089, -0.007662750314921141, -0.01756317913532257, 0.006218666676431894, 0.02921992726624012, -0.02021717093884945, 0.00630648247897625, -0.021635236218571663, 0.012899179942905903, 0.0188511461019516, 0.002681637415662408, 0.02219465561211109, 0.010765578597784042, 0.02376883663237095, 0.0021173388231545687, -0.01636628247797489, 0.02237679250538349, -0.005899927578866482, 0.02219465561211109, 0.001008256571367383, 6.473119356087409e-06, -0.012209662236273289, 0.009126348420977592, 0.01911134086549282, 0.001167626236565411, 0.006674008443951607, -0.0074545941315591335, -0.006088568828999996, 0.010264703072607517, -0.0066805132664740086, -0.0156637541949749, 0.03712986409664154, 0.00557468319311738, 0.019267458468675613, 0.029558181762695312, -0.005265701562166214, 0.013855397701263428, -0.027086326852440834, 0.02603253535926342, -0.003218290163204074, -0.001718914951197803, 0.025147872045636177, -0.003863899502903223, -0.039809875190258026, -0.015793852508068085, 0.005727548152208328, -0.021700285375118256, 0.0009017391712404788, 0.005103079602122307, 0.01337403617799282, 0.0036199665628373623, -0.016262203454971313, 0.024653499945998192, -0.024549422785639763, 0.015520647168159485, -0.0044103097170591354, 0.007298476994037628, 0.003629723796620965, -0.00787741132080555, -0.016795603558421135, 0.01283413078635931, 0.003029648447409272, 0.005353517364710569, -0.0028003514744341373, -0.00748711870983243, -0.021830381825566292, -0.0362452007830143, -0.013881416991353035, -0.016795603558421135, 0.01610608585178852, 0.006875659804791212, -0.0060755591839551926, -0.011663252487778664, 0.014011514373123646, -0.03020866960287094, 0.001162747503258288, 0.0004051321593578905, 0.014258700422942638, 0.01510433480143547, -0.012684518471360207, -0.020633483305573463, -0.03111935220658779, 0.007187894079834223, -0.011975486762821674, -0.0409807525575161, 0.019228430464863777, 0.0030491631478071213, 0.01637929119169712, 0.01766725815832615, -0.01565074548125267, 0.020815620198845863, -0.003740306943655014, -0.004078560508787632, -0.00407205568626523, 0.009939459152519703, -0.00991994421929121, 0.0016668759053573012, 0.014466856606304646, -0.0127951018512249, 0.015507637523114681, -0.01647035963833332, 0.013764329254627228, 0.00013436646258924156, -0.009445087984204292, -0.03270654380321503, 0.001223730854690075, -0.02302728034555912, -0.01955367438495159, -0.017094828188419342, 0.03104129433631897, -0.03450189158320427, 0.0074545941315591335, 0.0027531911619007587, 0.011747815646231174, 0.026357779279351234, -0.022259704768657684, -0.011129852384328842, 0.030104590579867363, 0.0019173137843608856, -0.0009375160443596542, 0.004283464513719082, -0.16298630833625793, 0.00778634287416935, -0.004520892631262541, 0.010362275876104832, 0.01129247434437275, 0.01119490060955286, 0.0053925467655062675, 0.0073765357956290245, -0.03739005699753761, 0.039887934923172, -0.003411810379475355, -0.007435079663991928, -0.019787849858403206, -0.0068626501597464085, -0.0037598214112222195, -0.012918694876134396, -0.016184145584702492, 0.01812260039150715, 0.020139113068580627, 0.012209662236273289, 0.02331349439918995, -0.03835278004407883, 0.018265707418322563, -0.0012489372165873647, -0.00281010870821774, 0.005655994638800621, -0.013302482664585114, 0.005236429627984762, -0.00744158448651433, -0.003681762842461467, -0.0025434086564928293, 0.00469001941382885, 0.0382487028837204, -0.007760323584079742, 0.005691771395504475, -0.004403804894536734, -0.00796197447925806, -0.0063812886364758015, -0.01946260593831539, 0.005834878887981176, 0.024653499945998192, 0.0189422145485878, -0.010830627754330635, -0.018265707418322563, -0.004507882986217737, 0.03871705383062363, 0.0364273376762867, -0.01920240931212902, -0.0025352775119245052, 0.009848390705883503, 0.0331488773226738, -0.018629981204867363, 0.02583738975226879, 0.00039191910764202476, 0.008749065920710564, 3.94612543459516e-05, 0.0021596206352114677, 0.012586945667862892, -0.002458845265209675, -0.040746577084064484, 0.001435952610336244, -0.00571128586307168, 0.0027060306165367365, 0.010661500506103039, -0.006134103052318096, -0.0224028117954731, -0.016496378928422928, 0.015858901664614677, 0.003714287420734763, 0.0032654504757374525, 0.02392495423555374, -0.009861400350928307, 0.0020409065764397383, -0.00796197447925806, 0.004989244043827057, 0.01920240931212902, -0.015299481339752674, -0.029193907976150513, 0.0198528990149498, -0.004267202224582434, 0.009412563405930996, 0.019943967461586, -0.030468864366412163, -0.00864498782902956, -0.010707034729421139, -0.0226760171353817, 0.0037338018883019686, 0.02293621189892292, -0.032186154276132584, -0.009328000247478485, 0.009022270329296589, -0.03085915744304657, 0.0054836152121424675, -0.021231932565569878, 0.0076237209141254425, 0.010290722362697124, 0.004628223367035389, 0.016522398218512535, -0.0015424700686708093, -0.004133852198719978, 0.008820619434118271, 0.0015888173365965486, -0.04454542696475983, 0.004377785138785839, 0.0429842583835125, 0.03778035193681717, 0.0003941551549360156, 0.005682013928890228, 0.030703039839863777, -0.007461098954081535, 0.02413311041891575, -0.0015075062401592731, 0.019774839282035828, 0.009282466024160385, -0.019592702388763428, 0.004585941322147846, 0.00864498782902956, -0.03556869179010391, 0.02640981785953045, 0.014531904831528664, 0.02058144472539425, -0.025238940492272377, -0.0032996011432260275, 0.01674356497824192, -0.03104129433631897, -0.004078560508787632, -0.11094725877046585, 0.014727051369845867, 0.018903184682130814, 0.0027694532182067633, -0.02346961200237274, 0.0036850152537226677, -0.010362275876104832, 0.004361522849649191, 0.006348764523863792, 0.018226677551865578, -0.021804362535476685, -0.0008106708410196006, 0.013413065113127232, -0.015793852508068085, 0.046002522110939026, 0.005564926192164421, 0.01319189928472042, 0.0356987901031971, -0.00886615365743637, -0.0032085326965898275, -0.01479210052639246, 0.0004793284460902214, 0.014453846961259842, 0.0009749191231094301, -0.011643737554550171, -0.014063553884625435, -0.02976633794605732, 0.014805110171437263, 0.03184789791703224, 0.012138108722865582, -0.02458845265209675, 0.003457344602793455, -0.004368027672171593, -0.007077311165630817, 0.027424579486250877, -0.010570432059466839, 0.01766725815832615, -0.01874706894159317, 0.030338767915964127, -0.030442845076322556, -0.015715792775154114, 0.017511140555143356, 0.01319840457290411, -0.03377334401011467, 0.008300228975713253, -0.008625472895801067, 0.005919442046433687, 0.025733310729265213, -0.006342259235680103, -0.03840481862425804, -0.007773333229124546, -0.0098353810608387, -0.03377334401011467, -0.022780094295740128, 0.05396449565887451, -0.005942209158092737, -0.010407810099422932, 0.004517639987170696, -0.0227670855820179, -0.03148362785577774, -0.003698025131598115, 0.0024734812323004007, -0.015364529564976692, -0.0038216179236769676, 0.006621969398111105, -0.012717043049633503, -0.018070559948682785, 0.011181890964508057, 0.022454850375652313, -0.008267704397439957, -0.0050705550238490105, -0.02358669973909855, 0.0009114965214394033, 0.018877165392041206, -0.04451940953731537, -0.02283213473856449, 0.005909684579819441, 0.0015424700686708093, -0.008573433384299278, -0.009321494959294796, -0.024744568392634392, -0.020230181515216827, -0.010063051246106625, -0.013185394927859306, 0.008840133436024189, 0.03580286726355553, 0.023990003392100334, 0.0096532441675663, 0.00316462479531765, -0.0335131511092186, 0.017224926501512527, 0.02758069708943367, 0.025434086099267006, -0.026800110936164856, -0.02794497087597847, 0.013699280098080635, 0.030703039839863777, -0.023976992815732956, -0.011123347096145153, 0.01083713211119175, -0.015481618233025074, -0.004101327620446682, -0.0768616795539856, 0.008085567504167557, -0.005077059846371412, 0.0028198661748319864, 0.010329751297831535, -0.014310739003121853, -0.0011042036348953843, 0.003509383648633957, -0.02147911861538887, 0.01055091805756092, -0.024796608835458755, 0.009106834419071674, 0.014505885541439056, 0.0031142120715230703, -0.018044540658593178, -0.013621222227811813, 0.022181645035743713, 0.011233930476009846, -0.000978171592578292, 0.0054836152121424675, 0.00022462168999481946, 0.02875157631933689, 0.013920445926487446, -0.006576435174793005, -0.038196664303541183, 0.02750263921916485, -0.0013091074069961905, 0.01674356497824192, -0.03291470184922218, 0.027814872562885284, 0.014570934697985649, -0.03268052265048027, -0.0019856151193380356, 0.041553184390068054, -0.02082863077521324, -0.0285954587161541, -0.019878918305039406, 0.028725557029247284, 0.009451592341065407, 0.009139358066022396, -0.03431975468993187, -0.023807866498827934, 0.043192412704229355, -0.01479210052639246, -0.006979737896472216, 0.01748512126505375, 0.007363525684922934, -0.008579938672482967, 0.01947561465203762, 0.01812260039150715, 0.003658995730802417, 0.01947561465203762, 0.0064203180372715, -0.015442588366568089, -0.001998624764382839, 0.010557422414422035, 0.0008903556736186147, 0.020529406145215034, -0.016067057847976685, -0.012222671881318092, 0.03286265954375267, -0.010941210202872753, 0.007903430610895157, 0.011390047147870064, 0.00513885635882616, -0.010245188139379025, 0.0004959971993230283, 0.01319840457290411, 0.014935207553207874, -0.04548213258385658, -0.0012676387559622526, 0.008540909737348557, 0.028465360403060913, -0.009080814197659492, 0.0018327503930777311, -0.018864156678318977, -0.025004765018820763, -0.028881672769784927, 0.009393048472702503, 0.03216013312339783, 0.005795849487185478, -0.007239933125674725, -0.012047040276229382, 0.012996752746403217, 0.028179146349430084, -0.004722543992102146, -0.04183939844369888, -0.024445343762636185, 0.008781589567661285, 0.01637929119169712, -0.006599202286452055, -0.0011985243763774633, 0.012086070142686367, 0.04048638045787811, 0.00837178248912096, 0.007812362629920244, -0.025160880759358406, -0.006791096180677414, -0.003343509044498205, 0.02228572405874729, -0.023326504975557327, 0.023235436528921127, -0.003837879979982972, -0.016769584268331528, -0.00725944759324193, -0.016600457951426506, -0.014440836384892464, -0.036271218210458755, 0.012638984248042107, 0.013321997597813606, -0.010713540017604828, 0.027268463745713234, 0.02565525285899639, 0.0021319747902452946, 0.002348262118175626, -0.002345009706914425, 0.014141612686216</t>
+  </si>
+  <si>
+    <t>[-0.004218237474560738, -0.002994850743561983, -0.01229911483824253, -0.017695065587759018, -0.005568856373429298, 0.004639082588255405, -0.006064735818654299, -0.010811476968228817, 0.0005876334616914392, -0.007503438740968704, 4.998682015866507e-06, -0.0011108351172879338, -0.023110590875148773, -0.0044237663969397545, -0.018647676333785057, -0.0033471861388534307, 0.023723915219306946, -0.009728371165692806, -0.021453309804201126, -0.03507694602012634, -0.021087925881147385, 0.01825619302690029, -0.002719180891290307, 0.005510134156793356, -0.014993827790021896, -0.023241085931658745, 0.024219796061515808, -0.03371980041265488, 0.019169654697179794, -0.000190542486961931, -0.017564570531249046, 0.004736953414976597, -0.028030237182974815, 0.010791902430355549, -0.006146294996142387, -0.02782144583761692, 0.00512843718752265, 0.004045332316309214, -0.0020161413121968508, 0.023893559351563454, 0.02638600580394268, -0.00834512896835804, 0.005660202819854021, 0.00465213181450963, -0.010909347794950008, 0.029178589582443237, -0.01205770019441843, 0.013153854757547379, 0.006560615263879299, 0.005141486879438162, 0.018151797354221344, 0.009943687357008457, -0.017695065587759018, -0.0011279626050963998, -0.012612301856279373, -0.03429397568106651, 0.008129812777042389, -0.01205770019441843, 0.005650415550917387, -0.04804810509085655, -0.0008416901109740138, 0.0005607189377769828, -0.01094849593937397, 0.006152819842100143, -0.01860852725803852, -0.02057899720966816, -0.025041911751031876, 0.013284348882734776, -0.04079260677099228, -0.007340320385992527, 0.046690963208675385, 0.036877769976854324, 0.0076274084858596325, 0.014902481809258461, 0.006449694745242596, -0.035859912633895874, -0.009428233839571476, 0.012853716500103474, -0.005333966109901667, 0.003383072093129158, 0.0089454036206007, -0.029126392677426338, 0.008488672785460949, 0.025472544133663177, 0.02309754118323326, 0.005882043391466141, -0.005024041514843702, 0.006779193878173828, -0.025981472805142403, -0.009943687357008457, 0.008064565248787403, 0.014184761792421341, 0.025707433000206947, 0.001344909891486168, -0.01849108375608921, -0.014824184589087963, -0.0021613165736198425, 0.027795346453785896, 0.016377070918679237, 0.0063420371152460575, 0.00045306090032681823, 0.016977345570921898, -0.010511338710784912, -0.016350971534848213, -0.043219808489084244, -0.01979602873325348, -0.019482841715216637, -0.017251383513212204, 0.04288052022457123, 0.015528855845332146, -0.017995202913880348, 0.03499864786863327, 0.01460234448313713, -0.0012527480721473694, 0.025459494441747665, -0.029335184022784233, -0.0012609038967639208, 0.013453992083668709, 0.040061838924884796, -0.009604401886463165, -0.003970297984778881, 0.020017869770526886, 0.0011059415992349386, -0.010465665720403194, 0.03596430644392967, -0.013049459084868431, 0.001301683485507965, -0.014589294791221619, -0.02236677147448063, -0.01154877059161663, 0.017133940011262894, 0.026960181072354317, 0.015633251518011093, -0.015568003989756107, 0.021074876189231873, 0.010733179748058319, -0.03074452467262745, 0.024089301005005836, 0.00017239557928405702, -0.003360235597938299, 0.017133940011262894, 0.011914155445992947, -0.017016494646668434, 0.00023672533279750496, -0.000950163695961237, 0.01546360831707716, -0.024193696677684784, 0.021375013515353203, 0.007725279312580824, 0.008208109065890312, 0.031083811074495316, -0.021401112899184227, 0.0033406615257263184, -0.010008934885263443, 0.046456072479486465, -0.00015088437066879123, -0.006022325251251459, 0.031214304268360138, 0.0025788992643356323, 0.008103713393211365, -0.028630511835217476, 0.03912227600812912, -0.013453992083668709, -0.0015316802309826016, 0.023658668622374535, 0.011183385737240314, 0.0047891512513160706, 0.007301172241568565, -0.011888056993484497, 0.001988411182537675, 0.003591863438487053, 0.022810453549027443, -0.008064565248787403, 0.010733179748058319, 0.011516147293150425, 0.024924466386437416, 0.0007854143041186035, 0.008195060305297375, -0.010380844585597515, 0.024572130292654037, -0.02847391925752163, 0.008103713393211365, 0.031136007979512215, 0.014811135828495026, -0.015620201826095581, 0.029413480311632156, -0.0012804780853912234, -0.004750003106892109, 0.014497948810458183, -0.015032975934445858, -0.014015118591487408, 0.01712089031934738, 0.00031359479180537164, -0.026033669710159302, -0.6384839415550232, 0.002384788589552045, -0.024154547601938248, -0.0078101009130477905, -0.005438361782580614, -0.00548729719594121, 0.0023929444141685963, 0.0006903979228809476, -0.01532006449997425, -0.030118150636553764, -0.024089301005005836, 0.009924113750457764, 0.0034874677658081055, 0.007947119884192944, -0.021166222169995308, -0.040766507387161255, -0.00975447054952383, -0.010041558183729649, -0.0016980607761070132, -0.008221158757805824, -0.021218419075012207, 0.016833800822496414, -0.001417497405782342, 0.02194918878376484, 0.022353721782565117, 0.00773180415853858, 0.00011683343473123387, -0.021622953936457634, -0.006531253922730684, -0.006987985223531723, -0.022001387551426888, 0.019313199445605278, -0.015307014808058739, -0.0074120922945439816, 0.04708244651556015, 0.004893546923995018, -0.03306732699275017, 0.034972548484802246, 0.020592045038938522, 0.024872267618775368, 0.0013783490285277367, 0.0034254828933626413, -0.0061201960779726505, -0.027429962530732155, -0.0021678414195775986, 0.02459822967648506, 0.02698628045618534, 0.010583111084997654, 0.009317313320934772, -0.021022677421569824, 0.008005842566490173, -0.035442329943180084, -0.0030030065681785345, 0.007483864668756723, 0.027899742126464844, -0.007144578732550144, 0.05292860418558121, -0.008808384649455547, 0.005594955291599035, 0.014902481809258461, 0.0021042251028120518, 0.008482147939503193, 0.012879815883934498, -0.01704259216785431, -0.010583111084997654, 0.007164152804762125, -0.04629947990179062, -0.0029818012844771147, -0.004655394237488508, 0.017447127029299736, -0.012566628865897655, 0.026581747457385063, -0.006805292796343565, 0.007816625759005547, 0.016050834208726883, 0.03476375713944435, 0.0011230690870434046, -0.008756186813116074, -0.01139217708259821, 0.009884964674711227, -0.0007519750506617129, 0.010132905095815659, -0.026464302092790604, 0.01682075299322605, 0.011255158111453056, -0.005650415550917387, -0.006589976605027914, 0.004844611510634422, 0.018830368295311928, 0.025589987635612488, 0.022418970242142677, 0.007855773903429508, -0.0003239935904275626, -0.04230634495615959, -0.018804270774126053, 0.042019255459308624, -0.01444575097411871, 0.013225626200437546, -0.01866072602570057, -0.029883259907364845, -0.011881532147526741, -0.0013375695561990142, -0.014837234281003475, -0.006227854173630476, 0.022588612511754036, -0.005425312556326389, -0.021557705476880074, -0.0017730952240526676, 0.04635167866945267, -0.048961568623781204, 0.0018823844147846103, -0.0038202290888875723, 0.009291214868426323, 0.004958794452250004, -0.024363338947296143, -0.029282985255122185, 0.04619508236646652, 0.009160719811916351, -0.005330703686922789, -0.010583111084997654, 0.01787775754928589, -0.01795605570077896, 0.005640628281980753, -0.012840667739510536, -0.013623635284602642, -0.016611961647868156, 0.008847532793879509, -0.016729405149817467, -0.019130505621433258, 0.0011459055822342634, 0.025041911751031876, 0.0057221874594688416, 0.00750996358692646, -0.008971503004431725, 0.022653860971331596, 0.01806045137345791, 0.018151797354221344, -0.004528162069618702, 0.010824525728821754, -0.008436474949121475, -0.019130505621433258, 0.009473906829953194, 0.001720897387713194, -0.023658668622374535, -0.0022151456214487553, -0.024624329060316086, -0.028761006891727448, 0.003200379665941, -0.02878710627555847, 0.010720130056142807, -0.008932354860007763, -0.006492105778306723, -0.023671718314290047, -0.00530786719173193, 0.012351312674582005, 0.01444575097411871, -0.01687294989824295, -0.010367794893682003, -0.018217043951153755, 0.00357555178925395, 0.008475623093545437, -0.006850965786725283, -0.013414843939244747, -0.015528855845332146, 0.025498641654849052, -0.01572459749877453, -0.015293965116143227, 0.019482841715216637, -0.022693008184432983, -0.034789856523275375, -0.01196635328233242, 0.0016067145625129342, 0.011698839254677296, 0.04444645717740059, 0.02172734960913658, 0.015633251518011093, -0.014184761792421341, -0.016311822459101677, -0.008377752266824245, 0.006671535782516003, 0.01787775754928589, -0.010746229439973831, -0.005637366324663162, -0.008534345775842667, -0.003924624528735876, 0.0015194463776424527, 0.03144919499754906, -0.0072359247133135796, 5.2554656576830894e-05, 0.014680640771985054, 0.013427892699837685, 0.0072359247133135796, 0.0009583196369931102, -0.017629818990826607, -0.008410376496613026, -0.002818683162331581, -0.0006377922836691141, 0.006097359582781792, 0.004883760120719671, 0.016350971534848213, 0.014576245099306107, 0.035207439213991165, 0.03186677768826485, 0.01926100067794323, -0.01528091635555029, -0.055903881788253784, 0.020709490403532982, -0.01543750986456871, 0.035990405827760696, 0.006707421969622374, -2.2572123725694837e-06, -0.027664853259921074, -0.037295352667570114, -0.01855633035302162, 0.004962056875228882, 0.03142309561371803, 0.03429397568106651, -0.011587919667363167, 0.0010749491630122066, 0.023645618930459023, 0.0094543332234025, -0.0027599604800343513, 0.011196435429155827, -3.995122369815363e-06, -0.038548100739717484, 0.0051838974468410015, 0.015176520682871342, 0.02194918878376484, -0.01919575408101082, -0.01669025793671608, -0.01307555753737688, 0.01388462446630001, 0.014067316427826881, 0.005382901523262262, 0.0004828299570363015, 0.01986127533018589, 0.01657281257212162, -0.019274050369858742, 0.007118479814380407, -0.014263058081269264, 0.0061201960779726505, 0.012886340729892254, 0.016063883900642395, 0.004081218037754297, -0.002546275733038783, -0.005513396114110947, 0.031005512923002243, 0.009774044156074524, -0.022810453549027443, -0.013793277554214, -0.021701250225305557, -0.0078035760670900345, -0.00695536145940423, -2.844374284904916e-05, 0.006961886305361986, -0.027795346453785896, 0.00244514225050807, 0.001417497405782342, 0.017969105392694473, 0.010361270047724247, 0.015215668827295303, -0.01154877059161663, 0.0076274084858596325, 0.01597253791987896, 0.010250349529087543, 0.0017926694126799703, 0.0007010006229393184, -0.009930637665092945, 0.0005574565730057657, -0.040348924696445465, -0.016050834208726883, -0.02805633656680584, 0.013316972181200981, -0.01391072291880846, 0.005816796328872442, -0.03259754925966263, -0.018947813659906387, 0.009584827348589897, 0.008384277112782001, 0.029413480311632156, 0.001720897387713194, -0.04024453088641167, 0.0045999339781701565, 0.024989712983369827, 0.007496913895010948, -0.007418617140501738, -0.02548559196293354, 0.01019815169274807, -0.027925841510295868, 0.03225826099514961, 0.011046366766095161, 0.028317324817180634, -0.01956113800406456, -0.0034711561165750027, -0.02130976691842079, -0.013127755373716354, 0.01752542331814766, -0.020487649366259575, 0.02172734960913658, -0.00562431663274765, -0.0017682017059996724, -0.009317313320934772, 0.001282924902625382, -0.022523365914821625, 0.02316278964281082, -0.0220144372433424, 0.00930426362901926, -0.0012853717198595405, -0.00562431663274765, -0.007960169576108456, -0.015176520682871342, 0.002874143188819289, 0.012031600810587406, -0.012207768857479095, -0.0028513066936284304, 0.017277482897043228, -0.013558387756347656, 0.01854328066110611, -0.009023700840771198, 0.01097459439188242, 0.007288122549653053, -0.01794300600886345, -9.901786143018398e-06, -0.018021302297711372, 0.08941488713026047, -0.004714116919785738, -0.003356973174959421, 0.01836058869957924, -0.0012976055731996894, 0.0016866425285115838, -0.027377763763070107, 0.010759279131889343, 0.004198663402348757, 0.03225826099514961, 0.010185102932155132, -0.020422402769327164, 0.009225967340171337, -0.0102568743750453, -0.006462744437158108, -0.006368136033415794, 0.013532288372516632, 0.005617791786789894, 0.03231045976281166, 0.01662500947713852, -0.0062963636592030525, -0.004280222579836845, 0.013962920755147934, 0.017603719606995583, 0.01825619302690029, 0.009506531059741974, 0.010028509423136711, -0.017133940011262894, -0.009682698175311089, -0.0229800958186388, -0.014732838608324528, 0.011026792228221893, -0.02022666111588478, 0.00903675053268671, 0.01806045137345791, 0.004143203143030405, 0.006149557419121265, 0.030013754963874817, 0.005735237151384354, 0.0029687518253922462, 0.03421568125486374, 0.012514431029558182, 0.008084139786660671, 0.00386590207926929, 0.00028301012935116887, 0.005663465242832899, 0.005875518545508385, 0.010570061393082142, -0.02189699187874794, -0.018895616754889488, 0.027717050164937973, -0.02740386314690113, -0.008684414438903332, -0.037895627319812775, -0.004560785833746195, -0.0046423450112342834, 1.2281656154300435e-06, 0.01914355531334877, -0.008514772169291973, 0.032206062227487564, -0.005705875810235739, -0.03661677986383438, 0.015254816971719265, -0.017212236300110817, -0.007418617140501738, -0.02572048269212246, -0.03515524044632912, 0.005679776892066002, -0.01909135840833187, -0.014954679645597935, -0.010406943038105965, -0.012279540300369263, -0.008162436075508595, 0.0032574711367487907, 0.02883930318057537, -0.009650074876844883, 0.02022666111588478, -0.020539848133921623, -0.011933729983866215, 0.03870469331741333, -0.013871574774384499, -0.00032970274332910776, -0.03110990859568119, -0.03309342637658119, -0.014041217975318432, 0.026098918169736862, 0.007353370077908039, -0.02338463068008423, -0.024376388639211655, -0.013649733737111092, 0.019156605005264282, 0.017603719606995583, 0.01444575097411871, -0.011170336976647377, -0.0005077054956927896, -0.011953304521739483, 0.020487649366259575, 0.005046878010034561, -0.0016899049514904618, -0.026007570326328278, 0.0184780340641737, -0.021636001765727997, 0.005099075846374035, 0.003118820721283555, -0.004387880675494671, 0.01313428021967411, 0.0039050504565238953, -0.009415184147655964, -0.012481806799769402, 0.003086196957156062, -0.008214633911848068, -0.03165798634290695, 0.005213258787989616, 0.00242393696680665, -0.06216762214899063, 0.0032215851824730635, 0.00906284898519516, 0.02573353238403797, 0.02542034536600113, -0.005555807147175074, -0.04079260677099228, -0.0326758436858654, 0.015111273154616356, 0.009806668385863304, -0.019052209332585335, 0.0046129836700856686, -0.005979914218187332, 0.0021254306193441153, 0.006837916560471058, -0.0016042678616940975, 0.0239979550242424, 0.007797051686793566, -0.014184761792421341, -0.04379398375749588, -0.0028284701984375715, -0.015515806153416634, 0.013153854757547379, -0.0007837830926291645, -0.014510998502373695, -0.016951246187090874, -0.01860852725803852, 0.026477351784706116, -0.02530290000140667, 0.0027909530326724052, -0.018830368295311928, -0.024924466386437416, -0.01363668404519558, -0.005513396114110947, -0.011914155445992947, 0.009728371165692806, -0.0084625743329525, 0.0017437338829040527, 0.01172493863850832, 0.0112486332654953, -0.00028545691748149693, 0.0076274084858596325, -0.01216861978173256, -0.006276789586991072, 0.010818000882863998, 0.013140805065631866, 0.009819718077778816, 0.031318701803684235, 0.007686131168156862, 0.0018546542851254344, -0.016233526170253754, -0.009526104666292667, -0.008958453312516212, -0.00759478472173214, -0.03836540877819061, 0.02590317465364933, 0.0266208965331316, 0.022223228588700294, -0.006903163623064756, -0.01992652378976345, 0.010015459731221199, 0.0017355780582875013, -0.0013759023277089, -0.013212576508522034, -0.01639012061059475, -0.02243201993405819, -0.006740045268088579, 0.004267172887921333, 0.008221158757805824, 0.004048594739288092, -0.02194918878376484, -0.007660032249987125, 0.0059375036507844925, 0.0011263313936069608, -0.0005611267406493425, -0.0034548442345112562, 0.011600968427956104, -0.034372273832559586, 0.02602062001824379, 0.017851660028100014, -0.0013701932039111853, -0.004665181506425142, -0.010543962940573692, -0.012507906183600426, -0.00506971450522542, -0.002606629393994808, 0.005692826118320227, -0.02595537342131138, -0.0015308646252378821, 4.095796975889243e-05, -0.017603719606995583, 0.026007570326328278, -0.011046366766095161, -0.011985927820205688, 0.004674968775361776, -0.010106805711984634, -0.034607164561748505, -0.00441071717068553, -0.014902481809258461, -0.014067316427826881, 0.010335171595215797, 0.03116210736334324, -0.015881191939115524, 0.016285724937915802, -0.009708797559142113, -0.039278872311115265, 0.03246705234050751, -0.010818000882863998, -0.0011981034185737371, 0.012077273800969124, 0.025655236095190048, -0.006227854173630476, 0.009212917648255825, 0.004521637223660946, 0.024011004716157913, -0.0066552241332829, -0.007653507404029369, 0.0078101009130477905, 0.024206746369600296, -0.0057515488006174564, 0.0022200392559170723, 0.019313199445605278, 0.014002068899571896, -0.01680770330131054, -0.005882043391466141, 0.044289860874414444, 0.015502756461501122, 0.0024141499307006598, -0.025694383308291435, -0.0178386103361845, -0.009884964674711227, 0.0017975629307329655, -0.016416218131780624, 0.002694713184610009, 0.0014215754345059395, -0.0009917588904500008, -0.02237982116639614, 0.013545338064432144, -0.01669025793671608, 0.0178908072412014, -0.014497948810458183, -0.025446444749832153, 0.04637777432799339, -0.011020268313586712, -0.033354416489601135, 0.008136337623000145, 0.001238067401573062, 0.0016417850274592638, -0.002958964789286256, -0.016246575862169266, 0.024376388639211655, 0.02117927186191082, -0.015802893787622452, 0.012951587326824665, 0.01297768671065569, 0.022758256644010544, 0.00146561732981354, 0.00617891876026988, 0.005278505850583315, 0.010909347794950008, 0.03961815685033798, -0.016311822459101677, 0.007973219268023968, -0.0006716393399983644, -0.009741420857608318, -0.032519251108169556, -0.0004322633321862668, -0.0004946560366079211, -0.0053568026050925255, -0.01620742678642273, -0.008442999795079231, 0.0025528003461658955, -0.002960596000775695, 0.0005782541120424867, 0.004981630947440863, -0.006273527164012194, -0.021923091262578964, -0.00022347198682837188, -0.006609550677239895, 0.01321910135447979, -0.008449524641036987, -0.005193684715777636, 0.02800413779914379, 0.031918976455926895, -0.03129260241985321, 0.01734273135662079, -0.005125174764543772, 0.009943687357008457, -0.018164847046136856, -0.010870198719203472, 0.00012651858560275286, 0.0028007400687783957, 0.024780921638011932, 0.0014338092878460884, 0.0008686045766808093, -0.011633592657744884, 0.002056920900940895, 0.005526445806026459, 0.01770811527967453, -0.018699875101447105, 0.015385312028229237, -0.012194719165563583, -0.0005439993110485375, -0.011633592657744884, -0.019535040482878685, 0.013238675892353058, 0.015607152134180069, -0.014563196338713169, 0.017512373626232147, -0.03186677768826485, 0.013623635284602642, 0.023410728201270103, -0.005249144975095987, 0.012116421945393085, -0.040114037692546844, -0.02326718531548977, 0.019665533676743507, -0.009030225686728954, 0.0012160463957116008, -0.023528173565864563, -0.020866084843873978, -0.0044237663969397545, -0.019117457792162895, 0.0076208836399018764, 0.009043274447321892, -0.020787788555026054, 0.018856467679142952, 0.029413480311632156, -0.007007559295743704, 0.013819376938045025, -0.025407295674085617, 0.0032591023482382298, -0.007379468996077776, -0.03272804245352745, -0.008058040402829647, -0.022940948605537415, -0.03734755143523216, 0.024245893582701683, 0.018451934680342674, -0.013049459084868431, -0.007288122549653053, 0.006544303614646196, -0.04734343662858009, 0.011418276466429234, -0.005529708229005337, 0.009049799293279648, 0.002512020757421851, 0.03839150816202164, 0.02823902852833271, -0.018203994259238243, -0.016768554225564003, 0.006371397990733385, -0.01669025793671608, -0.011790186166763306, 0.028082435950636864, -0.03870469331741333, 0.03463326394557953, -0.016703307628631592, -0.030848920345306396, -0.0174079779535532, 0.02703847922384739, 0.02643820270895958, 0.009571777656674385, 0.003363498020917177, -0.011764086782932281, -0.008149387314915657, -0.009500006213784218, -0.004691280424594879, 0.010354745201766491, 0.019782979041337967, 0.03366760164499283, -0.026907984167337418, 0.008084139786660671, -0.008247258141636848, 0.005637366324663162, -0.018504131585359573, -0.00918029434978962, -0.022771304473280907, 0.018895616754889488, -0.009141146205365658, -0.006974935531616211, -0.009369511157274246, -0.012449183501303196, 0.003389596939086914, 0.03301513195037842, 0.01148352399468422, -0.014680640771985054, 0.006191967986524105, 0.004446602892130613, 0.011796711012721062, 0.005161060951650143, 0.016716357320547104, -0.029048094525933266, 0.009793618693947792, -0.01787775754928589, -0.03773903474211693, 0.011183385737240314, -0.027064576745033264, 0.028865402564406395, -0.012814568355679512, 0.016833800822496414, 0.0004165631835348904, -0.000951794907450676, -0.04833519458770752, 0.03249315172433853, 0.016233526170253754, -0.00828640628606081, 0.0059407660737633705, -0.008292931132018566, -0.0046064588241279125, -0.003392859362065792, -0.010576586239039898, 0.005148011259734631, -0.003484205575659871, -0.00291002937592566, -0.011202960275113583, -0.02441553771495819, -0.015385312028229237, 0.0029393904842436314, -0.001313917338848114, -0.010465665720403194, 0.0057645984925329685, 0.2010660618543625, 0.006583451759070158, -0.014263058081269264, 0.02106182649731636, -0.009225967340171337, 0.011157287284731865, -0.008964978158473969, 0.013989020138978958, -0.016377070918679237, 0.01991347409784794, -0.02501581236720085, 0.010635308921337128, 0.028630511835217476, 0.012579678557813168, 0.011105089448392391, -0.007392518222332001, -0.013316972181200981, -0.02381526120007038, -0.01710784062743187, -0.016768554225564003, 0.013571437448263168, 0.019587237387895584, 0.017995202913880348, -0.0016850113170221448, -0.005493822041898966, -0.0037060461472719908, -0.001967205898836255, -0.011829334311187267, 0.049927227199077606, 0.027064576745033264, 0.007999317720532417, -0.007947119884192944, 0.0037354074884206057, -0.01855633035302162, -0.007040183059871197, 0.0008082508575171232, -0.0010439567267894745, -0.031684085726737976, 0.025772681459784508, 0.0240501519292593, -0.014824184589087963, -0.022418970242142677, -0.025459494441747665, -0.006779193878173828, 0.002143373480066657, 0.026633944362401962, 0.011092039756476879, -0.00368647207506001, 0.00019961594080086797, -0.0014142350992187858, -0.015985587611794472, -0.0074120922945439816, 0.016846850514411926, 0.0240501519292593, 0.015763746574521065, -0.023736964911222458, 0.031971175223588943, 0.010426517575979233, -0.009643550030887127, 0.0004958794452250004, -0.02064424380660057, 0.013597535900771618, -0.008266831748187542, 0.005353540647774935, 0.006139770150184631, -0.009682698175311089, -0.014432701282203197, 0.006061473395675421, 0.017199186608195305, -0.025276800617575645, 0.024128448218107224, -0.009056324139237404, -0.003500517224892974, -0.007320746313780546, 0.0036440612748265266, -0.002950808731839061, 0.03296293318271637, -0.0006842809962108731, -0.006759619805961847, 0.01532006449997425, -0.013571437448263168, -0.009787093847990036, 0.004740215837955475, 0.014967729337513447, 0.0006210726569406688, -0.008051515556871891, -0.0007307697087526321, 0.015842042863368988, -0.010524388402700424, -0.014171712100505829, -0.006622600369155407, -0.008221158757805824, -0.003989872056990862, 0.024793971329927444, 0.021466359496116638, 0.0065214671194553375, 0.030848920345306396, 0.026307709515094757, -0.02727336809039116, 0.007692656014114618, -0.007111954968422651, -0.007536062505096197, 0.0328846350312233, 0.016598911955952644, -0.020487649366259575, 0.0007295463001355529, 0.0023945756256580353, -0.004094267729669809, -0.01884341798722744, -0.022940948605537415, -0.014171712100505829, -0.02194918878376484, -0.014798086136579514, -0.005506871733814478, 0.033119525760412216, 0.01685990020632744, 0.016664158552885056, -0.0010594528866931796, 0.014889432117342949, 0.010035033337771893, -0.000772364845033735, -0.019574187695980072, 0.025811828672885895, 0.020122265443205833, -0.004922908265143633, -0.017264433205127716, -0.06629125028848648, 0.042802225798368454, -0.014471849426627159, -0.043767884373664856, 0.031318701803684235, -0.004802200943231583, -0.0022836553398519754, 0.016246575862169266, -0.025094108656048775, 0.018021302297711372, -0.009676173329353333, 0.012273015454411507, -0.01800825260579586, 0.009643550030887127, -0.011835859157145023, 0.014497948810458183, 0.01992652378976345, -0.004325895570218563, -0.005957077722996473, 0.01194025482982397, 0.01669025793671608, -0.005516658537089825, 0.010269924066960812, -0.012462233193218708, -0.014798086136579514, -0.01650756597518921, -0.011124663054943085, -0.023058393970131874, 0.03259754925966263, -0.019052209332585335, -0.011888056993484497, -0.02117927186191082, -0.002807264681905508, -0.015176520682871342, -0.02680358849465847, 0.010106805711984634, 0.03116210736334324, 0.005728712305426598, -0.000893072341568768, 0.004188876133412123, -0.1634836196899414, 0.03505084663629532, 0.0008376121404580772, -0.013023359701037407, 0.014250009320676327, -0.0017160038696601987, 0.022458117455244064, 0.015554954297840595, -0.035024747252464294, 0.03432007506489754, 0.003539665602147579, 0.010452616028487682, -0.03739975020289421, -0.008867107331752777, -0.01979602873325348, -0.012351312674582005, -0.008521296083927155, 0.0010928921401500702, 0.013519239611923695, 0.01669025793671608, 0.021492458879947662, 0.009297739714384079, 0.021792596206068993, -0.004368306137621403, -0.02248421683907509, -0.0009216180187650025, -0.0306923259049654, 0.014263058081269264, 0.012462233193218708, -0.009630500338971615, 0.0004173787892796099, 0.0008734981529414654, 0.017094790935516357, -0.024454684928059578, -0.009160719811916351, 0.000725876132491976, -0.02243201993405819, -0.0032232163939625025, -0.012220817618072033, 0.019887374714016914, 0.014693690463900566, 0.001750258612446487, 0.0018970650853589177, -0.01602473482489586, -0.011809759773314, 0.04165387153625488, 0.011000693775713444, -0.0229800958186388, 0.008677889592945576, 0.0042573860846459866, 0.017668966203927994, -0.018138747662305832, 0.04475964233279228, -0.00804499164223671, 0.007862298749387264, 0.009434758685529232, 0.022575562819838524, 0.0006912135286256671, 0.025381196290254593, 0.008801859803497791, -0.009552204050123692, -0.006527991499751806, 0.03092721663415432, -0.001810612389817834, -0.002114012371748686, -0.012958112172782421, -0.011242108419537544, -0.016768554225564003, -0.015698498114943504, -0.008899730630218983, 0.0009061218006536365, -0.016585862264037132, -0.007718754932284355, 0.0015439140843227506, 0.010909347794950008, 0.031136007979512215, -0.006218066904693842, 0.0010578217916190624, -0.012194719165563583, -0.0068705398589372635, 0.0024125187192112207, 0.024076251313090324, -0.015111273154616356, -0.022157980129122734, 0.0089454036206007, 0.0071511035785079, -0.014576245099306107, 0.024689575657248497, -0.004629295319318771, 0.003200379665941, -0.012051175348460674, -0.029596172273159027, -0.001360406051389873, -0.020905232056975365, 0.033119525760412216, 0.013467041775584221, -0.0143022071570158, 0.01597253791987896, -0.02650345116853714, 0.00923901703208685, -0.005392688792198896, -0.013949871063232422, -0.026607846841216087, 0.014380503445863724, 0.026777489110827446, 0.011105089448392391, 0.0022118831984698772, 0.020474601536989212, 0.0348159559071064, 0.0034026463981717825, -0.016559762880206108, -0.006831391714513302, -0.004629295319318771, 0.005617791786789894, -0.014850283972918987, -0.003202010877430439, 0.0419931598007679, -0.026007570326328278, 0.011124663054943085, 0.0003464223409537226, 0.05365937575697899, 0.0033765474800020456, -0.016364021226763725, 0.0028480442706495523, -0.0016523876693099737, -0.007823150604963303, -0.09881050139665604, -0.006857490632683039, 0.0174601748585701, 0.03332831710577011, -0.007601309567689896, 0.030666228383779526, -0.0072359247133135796, 0.020565947517752647, -0.010406943038105965, 0.009369511157274246, -0.03800002485513687, -0.02542034536600113, 0.009741420857608318, -0.008090664632618427, 0.041366785764694214, 0.019587237387895584, -0.0035625023301690817, 0.005196947138756514, 0.004639082588255405, -0.011092039756476879, -0.007823150604963303, 0.010263399221003056, -0.0031710185576230288, -0.030065951868891716, -0.0018595478031784296, -0.015842042863368988, -0.019939573481678963, 0.029648369178175926, 0.01704259216785431, 0.016912098973989487, 0.008580018766224384, -0.018334489315748215, 0.00544488662853837, 0.010850625112652779, 0.002812158316373825, 0.0021025941241532564, -0.021701250225305557, -0.01190763060003519, 0.005053402855992317, -0.016129130497574806, -0.00520673394203186, -0.0050109922885894775, 0.03692996874451637, -0.04449865221977234, 0.004283485002815723, 0.0013098394265398383, -0.0016980607761070132, 0.03325001895427704, 0.030953316017985344, -0.01687294989824295, 0.004988155793398619, -0.003275414230301976, -0.010844100266695023, -0.037425845861434937, 0.0220144372433424, -0.01460234448313713, -0.016964295879006386, 0.006798767950385809, -0.034189581871032715, 0.0002724074583966285, -0.028500018641352654, 0.019769929349422455, -0.011914155445992947, -0.002118905773386359, 0.030013754963874817, -0.00695536145940423, 0.005200209096074104, -0.007999317720532417, 0.010302547365427017, -0.010596160776913166, -0.001388136181049049, -0.007242449559271336, -0.026359906420111656, 0.01764286868274212, 0.0035886012483388186, 0.009767520241439342, -0.026229411363601685, 0.007248974405229092, -0.014576245099306107, -0.008932354860007763, -0.004981630947440863, -0.0025576939806342125, 0.019887374714016914, 0.014432701282203197, 0.01592033915221691, 0.022927898913621902, 0.0048282998614013195, -0.000574176199734211, 0.0011026792926713824, -0.020539848133921623, 0.00036253026337362826, 0.00645948201417923, 0.016181329265236855, -0.036825571209192276, -0.021740397438406944, 0.020135315135121346, 0.025211554020643234, -0.01657281257212162, -0.027925841510295868, 0.012879815883934498, -0.0398530475795269, -0.018217043951153755, -0.07469510287046432, 0.013871574774384499, -0.0025511691346764565, -0.005846157670021057, -0.018412785604596138, 0.024258943274617195, 0.0007185357972048223, 0.004932695534080267, -0.0038789515383541584, 0.0048250374384224415, -0.01949589140713215, 0.012899389490485191, 0.004743478260934353, -0.018230093643069267, -0.03129260241985321, -0.016416218131780624, 0.021087925881147385, -0.005868994165211916, -0.004012708552181721, 0.012534004636108875, 0.002296704798936844, -0.01829534024000168, 0.008925830014050007, 0.024780921638011932, -0.04679535701870918, 0.017434077337384224, -0.01361058559268713, 0.03494644910097122, -0.005242620129138231, 0.004720641765743494, -0.0005048509337939322, -0.05180634930729866, -0.003294988302513957, 0.06096706911921501, -0.01133345440030098, -0.014471849426627159, -0.02314973995089531, 0.011627067811787128, 0.012351312674582005, 0.03259754925966263, -0.037060461938381195, -0.00816896092146635, 0.03666897863149643, 0.003892000997439027, 0.008260306902229786, -0.0038495901972055435, 0.007960169576108456, 0.0266208965331316, 0.006283314432948828, 0.010041558183729649, 0.010576586239039898, 0.021388063207268715, 0.011509622447192669, -0.02962227165699005, 0.0021237994078546762, -0.008658315986394882, 0.0013269667979329824, 0.028030237182974815, 0.004316108301281929, -0.00882143434137106, 0.04157557711005211, 0.018451934680342674, -0.002833363600075245, 0.0005072976928204298, 0.03116210736334324, -0.01205770019441843, -0.019717732444405556, 0.008488672785460949, 0.0025038649328052998, -0.021570755168795586, -0.017734214663505554, 0.01734273135662079, -0.0001357959263259545, 0.01662500947713852, -0.013688881881535053, 0.01615522988140583, -0.006423595827072859, -0.020174462348222733, -0.004860923159867525, 0.01184238400310278, -0.013793277554214, -0.016977345570921898, 0.027847545221447945, 0.024754822254180908, 0.00987191591411829, -0.0050044674426317215, -0.019574187695980072, 0.005242620129138231, 0.008332079276442528, 0.021740397438406944, 0.009930637665092945, 0.00767308147624135, -0.009258590638637543, -0.010537438094615936, 0.012794993817806244, -0.01980907842516899, -0.0027354927733540535, 0.007914496585726738, -0.006094097159802914, 0.024807021021842957, -0.005151273682713509, 0.009467381983995438, -0.015828993171453476, -0.019013062119483948, -0.01866072602570057, 0.008775761350989342, -0.011242108419537544, -0.003418958280235529, -0.012625351548194885, 0.007157627958804369, 0.0074512409046292305, 0.026307709515094757, 0.030065951868891716, 0.00743166683241725, 0</t>
+  </si>
+  <si>
+    <t>[-0.008060417138040066, 0.002114576054736972, 0.004556445870548487, -0.03347383439540863, -0.023462487384676933, -0.008682917803525925, 0.007450751960277557, 0.005503031425178051, -0.01124351192265749, 0.01042206771671772, -0.013515316881239414, -0.008560984395444393, -0.01899588666856289, -0.024206921458244324, -0.020600270479917526, 0.006796163506805897, 0.02248702384531498, -0.02306460030376911, 0.010569671168923378, -0.016030987724661827, -0.017699547111988068, -0.018546659499406815, 0.005807864014059305, 0.00959420669823885, 0.010999645106494427, -0.019778825342655182, 0.026773933321237564, -0.01885470189154148, 0.00023383872758131474, -0.005637799855321646, -0.008079669438302517, -0.0011479356326162815, -0.014965678565204144, -0.021357538178563118, -0.002600703854113817, 0.004184229299426079, 0.012835059314966202, 0.006635725498199463, 0.009786732494831085, 0.010081938467919827, 0.0030980624724179506, -0.002554176840931177, 0.011192171834409237, -0.023372642695903778, -0.009542866609990597, 0.03370486572384834, 0.016788257285952568, -0.00507947476580739, -0.005907335784286261, 0.001671766396611929, 0.004026999697089195, 0.034449297934770584, -0.005223868880420923, -0.010909800417721272, -0.010306552052497864, -0.029520636424422264, -0.00922840740531683, 0.01701928861439228, -0.0010219916002824903, -0.03496269881725311, -0.0026472308672964573, 0.007033612113445997, -0.03542476147413254, 0.005570415407419205, -0.014580626972019672, -0.010954722762107849, -0.03768373280763626, -0.005130814854055643, -0.014080059714615345, -0.014092895202338696, 0.041970644146203995, 0.028596511110663414, 0.006841086316853762, -0.008066834881901741, 0.0283654797822237, -0.0006293189944699407, -0.0029199759010225534, 0.0021049496717751026, 0.008708587847650051, 0.01363083254545927, 0.006478495895862579, -0.03272940218448639, -0.010762196965515614, 0.024977024644613266, 0.02816011942923069, 0.01789207197725773, 0.0009144979412667453, 0.02524656057357788, -0.0029809423722326756, 0.0100498516112566, -0.009298999793827534, -0.009555701166391373, -0.014516451396048069, 0.010428485460579395, 0.001186440815217793, -0.007611189968883991, -0.009292582981288433, 0.015517585910856724, 0.001548229018226266, 0.0046815876848995686, 0.0068218340165913105, 0.005499822553247213, -0.017314493656158447, -0.01628769002854824, -0.03588682413101196, -0.013194440864026546, -0.00860590673983097, -0.028955893591046333, 0.012020032852888107, 0.001869105501100421, 0.0035200149286538363, 0.04464033618569374, 0.014054389670491219, -0.03578414395451546, 0.007072117645293474, -0.016133669763803482, 0.002332771895453334, 0.002820504130795598, 0.025721458718180656, -0.004248404409736395, 0.009658382274210453, 0.020382072776556015, 0.007970571517944336, -0.0032889838330447674, 0.023500993847846985, -0.003324280260130763, -0.02523372508585453, -0.006558714900165796, -0.015132534317672253, -0.008265778422355652, -0.002754724584519863, -0.014567791484296322, 0.015864131972193718, -0.008631576783955097, -0.019470784813165665, -0.013913203962147236, -0.00230389297939837, 0.029392285272479057, -0.014965678565204144, -0.018790526315569878, 0.04256105422973633, -0.002791625214740634, -0.024964189156889915, -0.003186303423717618, -0.011647815816104412, 0.05380456894636154, -0.026953624561429024, 0.027749396860599518, -0.012013615109026432, 0.018752021715044975, 0.030213728547096252, -0.002791625214740634, -0.012642533518373966, 0.005634590983390808, 0.024566302075982094, 0.022743724286556244, -0.01935526914894581, 0.006475287023931742, -0.0077331229113042355, -0.00032107700826600194, -0.021152177825570107, 0.010017763823270798, 0.000872784003149718, -0.007566267158836126, 0.012905651703476906, 0.03424393758177757, 0.011346192099153996, 0.006950184237211943, 0.005589668173342943, -0.0001305566111113876, -0.013772018253803253, 0.034628987312316895, -0.03752971068024635, 0.017430009320378304, -0.002233300358057022, 0.026234859600663185, -0.00019342835003044456, 0.01482449285686016, -0.01935526914894581, -0.003917901776731014, -0.010030598379671574, 0.0005190176889300346, 0.030829811468720436, -0.0057404800318181515, -0.00841979868710041, 0.001532185124233365, -0.00443772180005908, -0.005307296756654978, 0.028288470581173897, -0.011301269754767418, 0.004858069587498903, 0.000528644013684243, 0.0022685967851430178, -0.005044178105890751, -0.6481191515922546, 0.006802581250667572, -0.01843114383518696, -0.010088356211781502, -0.024091405794024467, -0.007765210699290037, 0.018392639234662056, 0.01569727621972561, -0.029905688017606735, -0.02613217942416668, -0.01080070249736309, 0.025734292343258858, 0.003171863965690136, -0.01379768829792738, -0.03930095210671425, -0.0022012125700712204, 0.0012281547533348203, -0.029751665890216827, 0.022551199421286583, -0.0030210521072149277, -0.011436037719249725, 0.024617642164230347, -0.01772521622478962, 0.028647851198911667, -0.0003088436205871403, 0.007373741362243891, 0.023321302607655525, -0.004922245163470507, -0.01627485454082489, 0.006292387843132019, -0.001729524228721857, 0.012064955197274685, 0.003372411709278822, 0.016890937462449074, 0.033935897052288055, 0.025875478982925415, -0.021434549242258072, 0.042715076357126236, 0.019676145166158676, 0.030573111027479172, -0.012116295285522938, -0.0032889838330447674, 0.018033258616924286, -0.005512658040970564, 0.01993284747004509, -0.007238973397761583, 0.041046518832445145, -0.004418469034135342, 0.023552333936095238, -0.011044568382203579, 0.002940832870081067, -0.01664707064628601, -0.015286555513739586, 0.01793057657778263, 0.004803520627319813, 0.01150663010776043, 0.012706708163022995, -0.021498722955584526, -0.0014920756220817566, 0.003446213435381651, -0.007771627977490425, 0.015350730158388615, -0.018597999587655067, -0.005403559654951096, 0.0016926233656704426, 0.0073673236183822155, -0.026093674823641777, -0.0035617288667708635, -0.024540632963180542, -0.008317118510603905, -0.006202542223036289, 0.026222025975584984, -0.02998269721865654, -0.009863742627203465, 0.01881619729101658, 0.0155560914427042, 0.019830165430903435, -0.0074058291502296925, -0.001761611900292337, 0.018020423129200935, 0.020882640033960342, -0.011410367675125599, -0.002332771895453334, 0.0059233796782791615, 0.01994568109512329, 0.010037016123533249, -0.007168380543589592, 0.0023776947055011988, 0.001654118183068931, 0.021293362602591515, 0.02430960163474083, -0.008779180236160755, 0.007495674304664135, -0.019817331805825233, -0.01069802138954401, 0.02905857376754284, 0.006963019259274006, 0.019060062244534492, -0.012334492057561874, -0.007912813685834408, 0.001747172442264855, -0.004219525493681431, 0.017686711624264717, -0.0006160828052088618, -0.006744823418557644, 0.02086980640888214, -0.024219756945967674, 0.005467735230922699, 0.031728263944387436, -0.026119345799088478, -0.0015618662582710385, 0.015376400202512741, 0.009915082715451717, -0.005012090317904949, -0.021498722955584526, -0.022191816940903664, 0.032087646424770355, 0.02379619888961315, 0.026799602434039116, -0.029700325801968575, 0.030316408723592758, -0.02375769428908825, 0.006475287023931742, -0.02597815915942192, 0.00726464344188571, 0.0018787317676469684, 0.001480042701587081, -0.01354098692536354, -0.04535909742116928, 0.020792795345187187, 0.04058445617556572, -0.0023792991414666176, 0.017481349408626556, -0.011500213295221329, 0.004704049322754145, 0.027184654027223587, 0.031009502708911896, -0.03419259563088417, 0.0037927599623799324, -0.003802386112511158, -0.012090625241398811, -0.020356403663754463, 0.009074387140572071, -0.015479081310331821, -0.00860590673983097, -0.02323145605623722, 0.0006465660990215838, -0.00904871616512537, 0.00030663757934235036, 0.006911679171025753, -0.029880017042160034, 0.011744079180061817, -0.019611969590187073, 0.014785988256335258, 0.018161607906222343, 0.02122918702661991, -0.0011423202231526375, 0.0022878493182361126, -0.025323571637272835, 0.0005386713892221451, 0.014850162900984287, 0.001761611900292337, -0.006379024125635624, 0.02066444419324398, 0.0022349045611917973, 0.003035491332411766, -0.012597610242664814, -0.00502813421189785, -0.011237094178795815, -0.03604084625840187, -0.002360046375542879, -0.0005005673156119883, -0.013733512721955776, 0.00484523456543684, 0.014850162900984287, 0.003818430006504059, -0.004562863614410162, -0.01333562657237053, 4.1388051613466814e-05, -0.00689884414896369, 0.0037285846192389727, -0.001883544959127903, -0.023295631632208824, -0.018790526315569878, 0.006093444302678108, 0.009696886874735355, 0.03401290625333786, -0.008195185102522373, -0.0036547831259667873, 0.025849808007478714, 0.011018898338079453, 0.003969241864979267, -0.011564387939870358, -0.028596511110663414, -0.014388101175427437, -0.008349206298589706, -0.007572684902697802, 0.005509449169039726, 0.0007889550179243088, 0.01790490746498108, 0.024245426058769226, 0.02669692225754261, 0.0200997032225132, -0.002836548024788499, 0.011301269754767418, -0.03455197811126709, 0.0020327523816376925, -0.012462842278182507, 0.04333115741610527, -0.0009610250126570463, 0.005936214700341225, -0.045282088220119476, -0.03177960589528084, -0.015376400202512741, -0.021152177825570107, 0.000601242296397686, -0.008689334616065025, -0.0028878883458673954, -0.04733569920063019, 0.030419088900089264, 0.012283151037991047, -0.007925649173557758, -0.00048452347982674837, 0.027338676154613495, -0.02762104757130146, -0.006010016426444054, 0.00036198878660798073, 0.02398872561752796, -0.015453411266207695, -0.019316764548420906, -0.021498722955584526, 0.011493795551359653, -0.030034037306904793, 0.01698078215122223, 0.004245195537805557, 0.03419259563088417, 0.0008551357896067202, -0.00037101341877132654, -0.01287998165935278, 0.004379963967949152, 0.008021911606192589, 0.013720678165555, 0.019534960389137268, 0.025747127830982208, -0.008175932802259922, -0.01554325595498085, 0.023295631632208824, -0.007431499194353819, -0.02233300171792507, -0.0109739750623703, -0.001549833337776363, -0.0047906856052577496, 0.011667069047689438, -0.008201602846384048, -0.011692739091813564, -0.002875053323805332, 0.010582505725324154, -0.010229541920125484, 0.007521344348788261, 0.018161607906222343, 0.011198588646948338, 0.005493405275046825, 0.021716920658946037, -0.004639873746782541, -0.010569671168923378, -0.019470784813165665, -0.0005599294672720134, -0.008445468731224537, -0.001331637380644679, -0.0005001662066206336, -0.018071763217449188, 0.0055511631071567535, 0.009812402538955212, 0.0007849441026337445, -0.002636000281199813, 0.006680648308247328, -0.0007075326284393668, -0.01701928861439228, 0.00997925829142332, 0.0011511443881317973, -0.030470430850982666, -0.028493830934166908, -0.009799567982554436, 0.03401290625333786, 0.009446603246033192, -0.0014976909151300788, -0.02230733260512352, -0.004155350383371115, -0.0346803292632103, 0.022089136764407158, -0.010819954797625542, -0.0011439246591180563, -0.024912849068641663, -0.024566302075982094, -0.014773152768611908, -0.0037446285132318735, -0.004610994830727577, -0.003261709352955222, 0.035578783601522446, 0.004784268327057362, -0.013438306748867035, -0.030650120228528976, -0.0038858139887452126, -0.013412636704742908, 0.0037574635352939367, 0.009363175369799137, 0.005130814854055643, -0.009696886874735355, -0.0017391504952684045, 0.009286165237426758, -0.04145723953843117, 0.001731128548271954, 0.003921110648661852, 0.002791625214740634, -0.004309371113777161, -0.002462727017700672, -0.0028413610998541117, 0.018687846139073372, 0.032883420586586, -0.02540058083832264, -0.0009690469596534967, -0.02887888252735138, -0.03765806183218956, -0.011314104311168194, 0.08620025962591171, 0.01208420842885971, -0.010852042585611343, 0.012571940198540688, -0.019470784813165665, -0.022243157029151917, -0.017622536048293114, 0.004184229299426079, 0.004562863614410162, 0.03142022341489792, -0.017044957727193832, -0.023809034377336502, 0.01995851658284664, 0.012982661835849285, -0.0018257871270179749, -0.012610445730388165, 0.0173530001193285, 0.009132144041359425, 0.025528931990265846, 0.012334492057561874, -0.001587536302395165, -0.008740674704313278, -0.001548229018226266, 0.04091816768050194, 0.026979293674230576, 0.0025509679690003395, 0.010441320016980171, -0.005503031425178051, -0.0012498138239607215, -0.03942929953336716, -0.00933750532567501, -0.012796553783118725, -0.014285420998930931, 0.00021839655528310686, -0.02502836473286152, 0.030650120228528976, -0.019663309678435326, 0.01846965029835701, 0.011968692764639854, -0.009170649573206902, 0.013515316881239414, 0.02982867695391178, -0.012270316481590271, 0.015761451795697212, -0.0004837212909478694, 0.003603442804887891, -0.0023504202254116535, 0.038864556699991226, -0.013669338077306747, -0.008021911606192589, 0.026260530576109886, -0.012186888605356216, 0.00023083051200956106, -0.018200114369392395, 0.011205006390810013, -0.015402071177959442, 0.033910226076841354, 0.019137073308229446, -0.02210197225213051, 5.304489241098054e-05, -0.008111757226288319, -0.03678527846932411, 0.003266522428020835, 0.014067224226891994, -0.016595730558037758, -0.024835839867591858, -0.024951355531811714, 0.017686711624264717, -0.018071763217449188, -0.006173663306981325, 0.01381052378565073, -0.03563012182712555, -0.013117429800331593, 0.007976989261806011, 0.013386966660618782, -0.0009762666886672378, 0.024271097034215927, -0.003343532793223858, -0.012488512322306633, 0.021344702690839767, -0.020433414727449417, -0.004370337352156639, -0.025824138894677162, -0.02762104757130146, -0.01418273989111185, 0.016724081709980965, 0.009292582981288433, -0.021331867203116417, -0.0019974559545516968, 0.017519855871796608, 0.00033230771077796817, -0.014734647236764431, 0.024258261546492577, 0.005345802288502455, -0.01773805171251297, 0.008265778422355652, 0.010832789354026318, 0.008490391075611115, -0.002191586419939995, -0.025297900661826134, -0.006667813286185265, -0.0006894833059050143, -0.019072897732257843, 0.004424886777997017, 0.014336761087179184, 0.023898879066109657, -0.014798822812736034, -0.012462842278182507, 0.002116180257871747, 0.008163097314536572, 0.0007989823934622109, -0.013669338077306747, 0.0035168060567229986, -0.005012090317904949, -0.028750531375408173, -0.01033222209662199, -0.016505885869264603, 0.029957028105854988, 0.02959764562547207, -0.02833981066942215, -0.019496453925967216, -0.03308878093957901, 0.0017102715792134404, 0.016724081709980965, -0.016698412597179413, 0.03216465935111046, -0.017853567376732826, 0.004370337352156639, 0.030444759875535965, -0.013322791084647179, -0.005143649876117706, 0.02172975428402424, -0.009055133908987045, 0.0164673812687397, -0.017442844808101654, -0.025156715884804726, -0.014028719626367092, 0.013438306748867035, -0.004492270760238171, -0.014336761087179184, -0.022384343668818474, 0.010415649972856045, -0.009459438733756542, 0.002424221718683839, -0.01645454578101635, -0.02338547818362713, 0.0030691835563629866, -0.022961920127272606, -0.0191884133964777, 0.012597610242664814, 0.010351475328207016, 0.004270866047590971, -0.009799567982554436, 0.004925454035401344, -0.008002659305930138, -0.016749752685427666, -0.010043433867394924, -0.01990717649459839, 0.016043823212385178, 0.034628987312316895, 0.012835059314966202, 0.003523223800584674, 0.013143100775778294, -0.00498962914571166, 0.0009834864176809788, -0.009709722362458706, -0.004283701069653034, 0.015491915866732597, -0.030752800405025482, 0.023706354200839996, 0.02429676614701748, 0.019637640565633774, -0.0114424554631114, 0.0064560347236692905, 0.0069309319369494915, 0.00726464344188571, 0.002911953954026103, 0.003937154542654753, -0.0246946532279253, -0.030470430850982666, 0.00017668260261416435, -0.011461707763373852, -0.020946815609931946, 0.030778471380472183, -0.0264915619045496, 0.007758792955428362, 0.008362040854990482, 0.01509402971714735, 0.01397737953811884, 0.0030387002043426037, 0.0027322631794959307, -0.0402507446706295, 0.04774641990661621, 0.013463976792991161, -0.020959651097655296, -0.01663423702120781, 0.00940809864550829, -0.02780073694884777, 0.01517103984951973, 0.010338639840483665, 0.0034397956915199757, -0.0210238266736269, -0.014644802547991276, -0.025310736149549484, -0.00420027319341898, 0.018700681626796722, 0.0018803360871970654, -0.004232360515743494, -0.01262328028678894, -0.03000836819410324, -0.01775088720023632, 0.005525493063032627, 0.014837328344583511, -0.00931825302541256, 0.0024434742517769337, 0.009286165237426758, -0.0008222459582611918, 0.019124237820506096, -0.005037760827690363, -0.024463621899485588, 0.009382427670061588, -0.008612324483692646, 0.030958162620663643, 0.015337895601987839, 0.021485889330506325, -0.00249481457285583, -0.00621858611702919, -0.011647815816104412, 0.017057793214917183, -0.003584190271794796, 0.004996046889573336, 0.01642887480556965, 0.005284835584461689, -0.0031333586666733027, -0.01789207197725773, -0.007007942069321871, 0.01845681481063366, -0.004357502330094576, -0.022384343668818474, 0.039968375116586685, -0.004415260162204504, 0.0035328499507158995, 0.0016212284099310637, 0.010569671168923378, 0.010197454132139683, 0.012886399403214455, -0.008753510192036629, 0.001808138913474977, -0.006042104214429855, -0.009972840547561646, -0.015106864273548126, 0.015787122771143913, -0.01813593879342079, 0.014144235290586948, -0.025541767477989197, -0.015081194229424, 0.01627485454082489, -0.022987591102719307, -0.02540058083832264, 0.01959913596510887, -0.016505885869264603, 0.016788257285952568, -0.01754552498459816, 0.007392994128167629, 0.024566302075982094, 0.005836742930114269, -0.023616507649421692, -0.03493703156709671, -0.0005194187979213893, 0.019111402332782745, -0.02393738552927971, -0.011583641171455383, 0.011480960063636303, 0.019855836406350136, 0.008060417138040066, -0.031163522973656654, -0.02140887826681137, 0.002998590702190995, 0.012924904003739357, -0.020523259416222572, -0.022551199421286583, -0.01758403144776821, 0.0008146251202560961, -0.01845681481063366, -0.006577967666089535, 0.015363565646111965, -0.03234434872865677, -0.01754552498459816, 0.005198198836296797, 0.001019584946334362, -0.022936251014471054, -0.008721422404050827, 0.007373741362243891, 0.03488568961620331, -0.0008431029273197055, 0.00922840740531683, -0.014580626972019672, 0.04168827086687088, -0.00970330461859703, 0.017596865072846413, -0.013374131172895432, 0.027826407924294472, -0.013451142236590385, -0.009812402538955212, -0.014670472592115402, 0.0024434742517769337, 0.029725996777415276, -0.01812310330569744, -0.026363210752606392, -0.024810168892145157, 0.0022124433889985085, 0.022987591102719307, -0.0006000390276312828, -0.02744135633111, -0.019496453925967216, 0.0012682642554864287, 0.01135260984301567, -0.011288434267044067, -0.04284342750906944, 0.030573111027479172, 0.0005454900092445314, 0.005888083484023809, -0.0020295437425374985, -0.026594242081046104, 0.015183874405920506, 0.019457949325442314, -0.010871294885873795, 0.003356367815285921, -0.02432243712246418, -0.012392249889671803, 0.01884186640381813, 0.007553432136774063, -0.01307892519980669, -0.008933201432228088, -0.01151946559548378, -0.026594242081046104, -0.0192269179970026, 0.0014880646485835314, 0.01881619729101658, 0.00034835151745937765, 0.0020744663197547197, 0.0329347625374794, 0.01740434020757675, 0.03072713129222393, -0.0086957523599267, -0.004890157375484705, -0.01333562657237053, -0.014157069846987724, -0.028083108365535736, -0.01587696745991707, -0.022243157029151917, 0.03583548590540886, 0.017455680295825005, -0.006379024125635624, -0.006446408573538065, 0.020613104104995728, -0.042124662548303604, 0.010640263557434082, 0.006176872178912163, 0.010377145372331142, 0.03532208129763603, 0.02543908730149269, -0.013085342943668365, 0.014503616839647293, -0.021331867203116417, 0.026645582169294357, -0.018533825874328613, -0.008208020590245724, 0.013874698430299759, -0.040533117949962616, 0.025670118629932404, 0.013682172633707523, -0.015145369805395603, -0.020356403663754463, 0.02215331234037876, 0.011359027586877346, -0.0013139891671016812, 0.019855836406350136, -0.0005113969091325998, 0.0011976714013144374, 0.015568926930427551, 0.03252403810620308, 0.026568572968244553, 0.004444139078259468, 0.028930222615599632, -0.014336761087179184, -0.0024402656126767397, -0.008670082315802574, -0.012308821082115173, -0.018174443393945694, -0.009286165237426758, 0.0023199368733912706, -0.00951719656586647, 0.009279747493565083, 0.006886009126901627, -0.016890937462449074, -0.0010990019654855132, -0.006667813286185265, 0.02816011942923069, -0.0077780457213521, -0.010884130373597145, 0.017147637903690338, 0.02029222808778286, -0.012764465995132923, -0.02249985747039318, 0.0086957523599267, -0.0183027945458889, 0.0021113671828061342, -0.016493050381541252, -0.020715784281492233, 0.0228849109262228, -0.03054744005203247, 0.004861278459429741, -0.01123067643493414, 0.002371277194470167, -0.024553468450903893, 0.0010364310583099723, -0.01124992873519659, 0.024656148627400398, 0.002573429374024272, -0.026594242081046104, -0.0007672958890907466, -0.01443944126367569, -0.0114167844876647, -0.006513792555779219, -0.007765210699290037, -0.006337310187518597, -0.014554956927895546, -0.01205853745341301, 0.005361845716834068, -0.023346971720457077, -0.00897170603275299, -0.003261709352955222, 0.00034373890957795084, 0.01793057657778263, 0.0011423202231526375, 0.21090568602085114, -0.012681038118898869, -0.019432278349995613, 0.011628563515841961, 0.0011768144322559237, 0.019843000918626785, -0.0033659941982477903, 0.011699155904352665, -0.007084952667355537, 0.015479081310331821, -0.023886045441031456, 0.0002980140270665288, -0.025387747213244438, 0.0076176077127456665, 0.005124397110193968, -0.020009856671094894, -0.03486001864075661, -0.01755836047232151, -0.011500213295221329, 0.01917557790875435, -0.004206690471619368, -0.0030563483014702797, -0.005390724632889032, -0.003975659608840942, -0.00561533821746707, -0.002908745314925909, -0.012507764622569084, -0.01624918542802334, 0.05051879212260246, 0.005929797422140837, -0.004187438171356916, -0.012661785818636417, 0.009953588247299194, -0.018610835075378418, -0.01716047339141369, 0.010486243292689323, -0.002371277194470167, -0.010556835681200027, 0.038659196346998215, 0.02047191932797432, -0.011840341612696648, 0.010216707363724709, -0.03157424554228783, 0.015427741222083569, 0.01662140153348446, 0.004229152109473944, 0.010922634974122047, -0.00044000186608172953, 0.008612324483692646, 0.000765290402341634, -0.019676145166158676, -0.012026450596749783, -0.01685243286192417, 0.04186796396970749, -0.002175542525947094, -0.017314493656158447, 0.013361296616494656, 0.020972486585378647, 0.01885470189154148, 0.010409233160316944, -0.021832434460520744, 0.034269608557224274, -0.01060175895690918, 0.01418273989111185, 0.008252942934632301, 0.00717479782178998, -0.008246525190770626, 0.010954722762107849, 2.8653266781475395e-05, 0.0005587261402979493, 0.007155545521527529, -0.01660856604576111, -0.03619486466050148, -0.01178258378058672, 0.017661040648818016, -0.006764076184481382, 0.05267508327960968, -0.0025798468850553036, 0.023308467119932175, 0.0016765795880928636, 0.014105729758739471, -0.00951719656586647, -0.020882640033960342, 0.037375692278146744, 0.008483974263072014, -0.007232555653899908, 0.018251454457640648, 0.0025654074270278215, -0.02541341632604599, -0.011269181966781616, 0.0010540792718529701, 0.0003124534559901804, 0.010466990992426872, 0.011108743958175182, 0.01753269135951996, -0.004344667308032513, 0.01716047339141369, 0.036143526434898376, -0.018341299146413803, -0.005326549522578716, -0.010794284753501415, 0.015235215425491333, 0.01935526914894581, -0.007540597114712, -0.023141611367464066, 0.009741810150444508, 0.0012682642554864287, -0.012738795951008797, 0.008278612978756428, -0.012751631438732147, -3.6048466427018866e-05, -0.03159991651773453, 0.0018947755452245474, -0.00484523456543684, 0.0024707489646971226, 0.020048361271619797, 0.013181605376303196, -0.022230321541428566, 0.017121968790888786, -0.004447347950190306, -0.025477591902017593, -0.016223514452576637, 0.017468515783548355, 0.013566656969487667, -0.007893561385571957, -0.024040065705776215, -0.021293362602591515, 0.023655014112591743, -0.01718614436686039, -0.030111048370599747, -0.00021077573182992637, 0.011493795551359653, 0.017879236489534378, -0.002332771895453334, -0.010807119309902191, -0.013592327013611794, -0.009947170503437519, 0.0008390919538214803, 0.0008302679052576423, 0.026979293674230576, -0.0006261102389544249, -0.009658382274210453, 0.010312969796359539, -0.02065161056816578, 0.0031173150055110455, 0.00407192250713706, 0.014221245422959328, 0.011731243692338467, -0.0017567987088114023, -0.029469294473528862, 0.0012305612908676267, -0.01107665617018938, -0.014311091043055058, -0.024823004379868507, 0.030496099963784218, -0.0183027945458889, -0.008451886475086212, -0.012328074313700199, 0.004351085051894188, 0.014862998388707638, -0.011622145771980286, -0.000561934954021126, 0.024579137563705444, 0.02520805597305298, 0.0017535899532958865, 0.01994568109512329, -0.16038689017295837, 0.017686711624264717, 0.013399801217019558, 0.0059875547885894775, -0.00025409404770471156, -0.018585165962576866, 0.006449616979807615, 0.0036098603159189224, -0.0016878102906048298, 0.02120351791381836, 0.023616507649421692, 0.0038986492436379194, -0.05211034044623375, -0.020356403663754463, -0.012982661835849285, 0.004594950936734676, 0.004120053723454475, 0.004267657175660133, 0.018559494987130165, 0.013348461128771305, 0.02233300171792507, -0.019509289413690567, 0.029366614297032356, 0.00750209204852581, 0.0025220890529453754, 0.01700645312666893, -0.005204616580158472, 0.019881505519151688, -0.010409233160316944, -0.005073057021945715, -0.010075521655380726, 0.0016228327294811606, 0.053855907171964645, 0.00897170603275299, -0.01159647572785616, 0.005185363814234734, -0.0100562684237957, -0.02430960163474083, -0.025528931990265846, 0.021460218355059624, 0.02926393412053585, 0.0029360197950154543, 0.014195575378835201, -0.03973734378814697, 0.0076882001012563705, 0.018225783482193947, 0.011018898338079453, -0.010813537053763866, 0.0001755795965436846, -0.0018739185761660337, 0.010094773955643177, -0.018777690827846527, 0.025862643495202065, 0.00785505585372448, 0.015402071177959442, 0.004229152109473944, 0.0012674620375037193, 0.01033222209662199, 0.022345837205648422, -0.012129130773246288, -0.009838072583079338, -0.01758403144776821, 0.008368458598852158, -0.017507020384073257, 0.011898099444806576, -0.019303929060697556, -0.004447347950190306, 0.032113317400217056, -0.0010773427784442902, 0.00113269395660609, 0.005454900208860636, -0.01848248578608036, -0.00016575274639762938, 0.004270866047590971, -0.004453765228390694, 0.009966423735022545, -0.00741224642843008, -0.026645582169294357, -0.0025461548939347267, 0.0028301305137574673, -0.010248794220387936, 0.011711991392076015, -0.025092540308833122, -0.016724081709980965, -0.010794284753501415, -0.01793057657778263, -0.02672259323298931, 0.02323145605623722, -0.029725996777415276, 0.00794490147382021, -0.0008471139008179307, -0.025310736149549484, -0.010775032453238964, -0.006687065586447716, 0.023732023313641548, 0.02196078561246395, -0.00475218053907156, -0.005332966800779104, -0.009619876742362976, -0.015376400202512741, -0.0014920756220817566, 0.006109488196671009, -0.027749396860599518, 0.009568536654114723, 0.024925684556365013, 0.02069011516869068, -0.008227272890508175, 0.001639678725041449, 0.03580981492996216, -7.921637734398246e-05, 0.0030274696182459593, 0.009716139174997807, 0.015953978523612022, 0.03691362962126732, -0.009273329749703407, -0.00027815980138257146, 0.025195220485329628, 0.002940832870081067, 0.022961920127272606, -0.0019493246218189597, 0.02575996331870556, -0.020009856671094894, -0.020728619769215584, 0.004206690471619368, -0.008920365944504738, -0.0010532770538702607, -0.09631428122520447, -0.02429676614701748, 0.023269962519407272, -0.004633456468582153, -0.0015674815513193607, 0.01809743233025074, -0.004553236998617649, -0.023154446855187416, 0.02545192278921604, -0.009658382274210453, -0.03891589865088463, 0.0027980429586023092, 0.029340945184230804, -0.01917557790875435, 0.05334250628948212, 0.02726166509091854, 0.001593151711858809, 0.0027932296507060528, -0.019971352070569992, 0.0040398347191512585, -0.004302953369915485, 0.009029463864862919, 0.0014720208710059524, -0.025092540308833122, 0.013592327013611794, -0.011898099444806576, -0.031548574566841125, 0.01886753737926483, 0.007887143641710281, 0.013900368474423885, -0.023642178624868393, -0.0030419090762734413, -0.015581761486828327, -0.017442844808101654, 0.012661785818636417, -0.01864934153854847, 0.0210238266736269, -0.020228052511811256, 0.026388881728053093, -0.013053255155682564, 0.011314104311168194, -0.0001942305389093235, 0.019509289413690567, -0.03139455243945122, 0.031009502708911896, -0.04112352803349495, -0.006950184237211943, 0.023115940392017365, 0.005044178105890751, -0.010524747893214226, -0.02196078561246395, -0.0028622180689126253, -0.035578783601522446, -0.00447622686624527, 0.005766150075942278, 0.016210678964853287, -0.014092895202338696, 0.006260300055146217, -0.026286201551556587, -0.016390370205044746, 0.004906201269477606, -0.0023087062872946262, 0.019984187558293343, -0.0021113671828061342, 0.02356516756117344, 0.008817685768008232, -0.02505403570830822, 0.004405634012073278, -0.001777655677869916, -0.011827507056295872, -0.009363175369799137, 0.0006485715857706964, 0.001557053066790104, -0.002525297924876213, -0.018238618969917297, -0.018148774281144142, -0.03147156536579132, 0.011493795551359653, 0.015248049981892109, -0.029032902792096138, -0.002530110999941826, -0.0035039710346609354, 0.009985676035284996, -0.005162902642041445, 0.012308821082115173, 0.0029825468081980944, 0.00823369063436985, 0.005965093616396189, 0.01571011170744896, -0.02599099464714527, 0.010749361477792263, 0.030239399522542953, 0.004505105782300234, -0.009664799086749554, -0.0008194383117370307, 0.02777506783604622, 0.018187278881669044, -0.005512658040970564, 0.009087221696972847, 0.018957382068037987, -0.03604084625840187, 0.0011872429167851806, -0.07269777357578278, 0.004065504763275385, 0.0015153391286730766, -0.008888278156518936, 0.01022312417626381, 0.02484867349267006, 0.013772018253803253, 0.002985755680128932, -0.0029296022839844227, 0.0100562684237957, -0.02303893119096756, 0.005307296756654978, 0.006590802688151598, -0.00987016037106514, -0.028622182086110115, -0.011949439533054829, 0.03401290625333786, 0.005634590983390808, -0.0011206610361114144, 0.02412991039454937, 0.013951709493994713, 0.003988494630903006, 0.016582896932959557, 0.003856935305520892, -0.051109205931425095, -0.007547014858573675, -0.020895475521683693, 0.030624451115727425, -0.010871294885873795, 0.014246915467083454, 0.019624805077910423, -0.02359083853662014, -0.010922634974122047, 0.042535386979579926, 0.012539852410554886, -0.0255802720785141, -0.037195999175310135, 0.013232945464551449, 0.030034037306904793, 0.04520507901906967, -0.03691362962126732, -0.010441320016980171, 0.018970217555761337, -0.0050473869778215885, 0.0025188804138451815, 0.015325060114264488, 0.009144979529082775, 0.01279013603925705, -0.007983407005667686, 0.006680648308247328, 0.013592327013611794, 0.02284640446305275, 0.0015097238356247544, -0.024258261546492577, 0.012507764622569084, 0.011878847144544125, -0.02122918702661991, 0.027184654027223587, 0.021704085171222687, -0.010736526921391487, 0.02541341632604599, 0.004604577552527189, 0.0022445309441536665, 0.010062686167657375, 0.0073609063401818275, -0.047284357249736786, 0.001686205854639411, -0.005470944102853537, 0.00046326540177688, -0.04330549016594887, -0.007842221297323704, 0.00951719656586647, -0.004104010295122862, 0.007790880743414164, 0.026645582169294357, -0.009587788954377174, -0.014490781351923943, -0.010171784088015556, -0.008560984395444393, 0.028391150757670403, -0.0019332807278260589, 0.014837328344583511, -0.026273366063833237, 0.04094383865594864, 0.02854517102241516, 0.008727840147912502, -0.012552687898278236, -0.0016493051080033183, 0.016685577109456062, 0.02048475481569767, 0.004181020427495241, 0.02522089146077633, 0.02543908730149269, 0.020228052511811256, -0.008830520324409008, -0.016146503388881683, -0.003433378180488944, -0.007983407005667686, 0.005371472332626581, 0.02342398278415203, -0.0015867342008277774, 0.007713870611041784, -0.020805630832910538, -0.040122393518686295, -0.016056658700108528, 0.009761062450706959, -0.03177960589528084, -0.01087771262973547, 0.019303929060697556, 0.01974032074213028, -0.0054420651867985725, 0.0228335689753294, 0.017776556313037872, 0.002233300358057022, 0.002165</t>
+  </si>
+  <si>
+    <t>[-0.024994250386953354, -0.0021220301277935505, 0.0012715858174487948, -0.020854659378528595, -0.023361919447779655, 0.023596975952386856, -0.012170659378170967, 0.0017204767791554332, -0.0060983882285654545, 0.000621918065007776, -0.0001531330490252003, -0.004756612237542868, -0.007417311891913414, 0.007547898218035698, -0.03831407055258751, -0.01668895222246647, 0.013763814233243465, 0.012536301277577877, -0.0119094867259264, -0.026417642831802368, -0.005455249920487404, 0.0008479959215037525, 0.004113473929464817, -0.01433839462697506, 0.011870310641825199, -0.012510184198617935, 0.02274816296994686, -0.022983219474554062, -0.004452998749911785, 0.004890463314950466, 0.00931081548333168, 0.007809071335941553, -0.007064728066325188, -0.010779913514852524, 0.007469546515494585, 0.00023954456264618784, 0.012131483294069767, 0.012666887603700161, 0.002472981344908476, -0.0030981639865785837, 0.0028810640797019005, 0.0005933523061685264, 0.015827080234885216, -0.018517162650823593, 0.007743777707219124, 0.024889782071113586, 0.004188561346381903, 0.020619604736566544, 0.004498703870922327, -0.014599568210542202, 0.021886292845010757, 0.03452706336975098, -0.007521780673414469, -0.018203753978013992, -0.001411150093190372, -0.046854425221681595, -0.006006977986544371, 0.0046325549483299255, 0.003721714485436678, -0.012138012796640396, -0.007750307209789753, 0.017119886353611946, -0.016075195744633675, 0.015918491408228874, -0.015931550413370132, -0.007032081484794617, -0.03337790444493294, 0.017368001863360405, 0.0003450339427217841, -0.008004951290786266, 0.042388368397951126, 0.021834058687090874, 0.032907791435718536, -0.0012030279031023383, 0.02995653636753559, -0.004730495158582926, 0.01668895222246647, 0.012235952541232109, -0.0029104461427778006, 0.016989300027489662, -0.007985362783074379, -0.03118404932320118, -0.006604410707950592, 0.017785876989364624, 0.004952492192387581, 0.022552283480763435, 0.005494426004588604, 0.015774846076965332, 0.007730719167739153, 0.011250024661421776, -0.021807940676808357, -0.0012495493283495307, 0.00382618373259902, -0.00469458382576704, 0.012529771775007248, -0.0005296914023347199, -0.0021693678572773933, -0.009330403991043568, -0.019875261932611465, -0.014260043390095234, 0.0017106827581301332, 0.013594051823019981, -0.0161143708974123, -0.020293138921260834, -0.05155554041266441, -0.0005272428970783949, 0.006568499840795994, -0.023126864805817604, 0.018817510455846786, -0.014155574142932892, -0.0005096953245811164, 0.03645974397659302, 0.010322860442101955, -0.040534041821956635, 0.0004615415818989277, -0.005961272399872541, 0.002934931078925729, 0.0004248141194693744, 0.014873798936605453, -0.022238876670598984, 0.021259477362036705, 0.03181086480617523, 0.022173583507537842, -0.014064162969589233, 0.010799501091241837, 0.007345489226281643, -0.03844465687870979, 0.012138012796640396, -0.029277486726641655, 0.0002942276478279382, -0.004237531218677759, 0.013554875738918781, 0.011857251636683941, 0.004018798936158419, -0.006392207928001881, 0.0031357076950371265, -0.025856122374534607, 0.02129865437746048, -0.024067087098956108, -0.008311829529702663, 0.037034325301647186, 0.020619604736566544, -0.021494533866643906, 0.006513000465929508, -0.02752762846648693, 0.04283236339688301, 0.01024450920522213, 0.018020933493971825, 0.00939569715410471, 0.010597092099487782, 0.02324439212679863, -0.009513224475085735, -0.01141978707164526, 0.012066190131008625, 0.01886974461376667, 0.0006455868715420365, -0.006101652979850769, -0.0060983882285654545, 0.0013825843343511224, 0.02137700654566288, -0.013554875738918781, 0.029695363715291023, 0.004224472213536501, -0.011028028093278408, 0.01445592287927866, 0.03084452450275421, -0.00340177770704031, 0.012144542299211025, 0.00621265172958374, 0.008494650013744831, -0.009206346236169338, 0.03450094535946846, -0.04066462814807892, 0.03499717637896538, 0.00617347564548254, 0.016702009364962578, 0.005350780673325062, 0.025203188881278038, -0.014808505773544312, -0.022003820165991783, 0.009970277547836304, -0.014024986885488033, 0.019013389945030212, 0.018582455813884735, -0.016584482043981552, -0.012699534185230732, 0.009160641580820084, 0.017720583826303482, 0.019640205428004265, -0.020123375579714775, 0.027971623465418816, 0.03288167342543602, -0.009552400559186935, -0.018086226657032967, -0.6447837948799133, -0.007828659377992153, -0.013032530434429646, -0.020671838894486427, 0.003148766467347741, 0.016101311892271042, 0.009957218542695045, -0.00972216296941042, -0.01950961910188198, 0.0020551045890897512, -0.013672403991222382, 0.013006412424147129, 0.008279182016849518, -0.03358684107661247, -0.02584306336939335, -0.010224920697510242, 0.016480013728141785, -0.041500382125377655, 0.024720018729567528, 0.005902508739382029, -0.00946751981973648, 0.016715068370103836, -0.008279182016849518, 0.010146569460630417, -0.005357310175895691, 0.0061832694336771965, 0.016571423038840294, -0.009852749295532703, -0.010329389944672585, 0.00554992537945509, -0.035676226019859314, 0.0062028574757277966, -0.02567330002784729, -0.004955756478011608, 0.03685150295495987, 0.034605417400598526, 0.004257119260728359, 0.03998557850718498, 0.022565342485904694, 0.025229306891560555, -0.0056152185425162315, 0.006313856225460768, 0.026339292526245117, -0.002270572353154421, 0.011798487976193428, 0.00716919731348753, 0.0328555554151535, 0.00617347564548254, -0.00048643461195752025, -0.01052526943385601, 0.0030034889932721853, -0.017511645331978798, 0.009669928811490536, 0.029825950041413307, 0.030139358714222908, 0.008194301277399063, 0.025307659059762955, -0.007025552447885275, 0.004413822665810585, 0.008625236339867115, 0.024119321256875992, -0.002233028644695878, -0.01933985762298107, -0.027919387444853783, 0.0006774173234589398, 0.0089517030864954, -0.018817510455846786, 0.013515699654817581, -0.01153731532394886, -0.008566472679376602, 0.01854327879846096, 0.03434424102306366, -0.03546728566288948, 0.006901495158672333, -0.005435661878436804, 0.020789366215467453, 0.01918315328657627, -0.007175726816058159, 0.0012519977753981948, 0.04925721883773804, 0.02033231407403946, 0.00615388760343194, -0.017851170152425766, 0.0023962617851793766, 0.02784103713929653, -0.005435661878436804, -0.008566472679376602, -0.01267994660884142, 0.012320834212005138, 0.022630635648965836, 0.025947531685233116, -0.006607675459235907, -0.018360458314418793, -0.035911280661821365, -0.022617576643824577, 0.016088252887129784, 0.008670941926538944, 0.013476524502038956, 0.009624223224818707, -0.004342000465840101, -0.02705751731991768, -0.013672403991222382, 0.01837351731956005, -0.006526059005409479, -0.00033523995080031455, 0.011073732748627663, -0.022944044321775436, 0.017851170152425766, 0.035676226019859314, -0.005853538867086172, -0.012366538867354393, 0.013580993749201298, -0.001198947080411017, -0.020384548231959343, -0.017433295026421547, -0.01991443708539009, 0.014612626284360886, 0.018269047141075134, 0.007587074302136898, -0.009950689040124416, 0.01933985762298107, -0.006584823131561279, 0.01364628691226244, -0.010381625033915043, 0.008494650013744831, 0.0102379797026515, 0.015761787071824074, -0.02687469683587551, -0.041657086461782455, 0.015435321256518364, 0.012333892285823822, 0.015409204177558422, 0.02007114142179489, -0.015657318755984306, 0.018582455813884735, 0.027553746476769447, 0.018895862624049187, -0.01773364283144474, 0.0014731786213815212, -0.027423160150647163, -0.01489991694688797, -0.00942834373563528, -0.0051581659354269505, -0.022878751158714294, 0.005416073836386204, -0.021729588508605957, -0.013920518569648266, 0.013554875738918781, -0.007025552447885275, 0.005047167185693979, -0.03335178643465042, 0.02009725756943226, 0.0004037978651467711, 0.012562418356537819, 0.011308788321912289, 0.005654394160956144, -0.0016715069068595767, -0.018491044640541077, -0.019888319075107574, 0.009696045890450478, 0.01651918888092041, 0.013019471429288387, -0.03053111769258976, 0.003129178425297141, -0.011733194813132286, -0.03118404932320118, -0.008292241021990776, -0.02526848204433918, -0.015892373397946358, -0.029251370579004288, -0.010740737430751324, -0.0017090504989027977, -0.01580096408724785, 0.02056737057864666, 0.009650340303778648, -0.009650340303778648, 0.0036074514500796795, -0.001643757219426334, -0.010884382762014866, -0.012399185448884964, 0.0025888767559081316, -0.015840139240026474, 0.00014619564171880484, -0.010355507023632526, 0.014599568210542202, 0.013306762091815472, 0.044582221657037735, 0.007097374647855759, -0.021742647513747215, 0.024328259751200676, 0.01789034716784954, -0.014403687790036201, -0.003930652979761362, -0.020789366215467453, -0.007952716201543808, -0.020528193563222885, -0.011217378079891205, 0.007926599122583866, 0.009571988135576248, 0.013541817665100098, 0.021168068051338196, 0.003995946142822504, 0.02695304900407791, -0.0019636941142380238, 0.015996843576431274, -0.0277888011187315, 0.009454460814595222, -0.004661937244236469, 0.025621065869927406, 0.005298546049743891, 0.02161206118762493, -0.030504999682307243, -0.03554563969373703, -0.004570526536554098, -0.004485645331442356, -0.0052756937220692635, 0.014769330620765686, 0.012457950040698051, -0.0356501080095768, 0.03572845831513405, 0.02058042772114277, -0.005448720417916775, 0.015108855441212654, 0.004642349202185869, -0.01918315328657627, 0.005295281298458576, 0.010094334371387959, 0.03708655759692192, -0.005951478611677885, -0.016480013728141785, 0.0044562635011971, 0.013411231338977814, -0.00488066952675581, 0.004550938494503498, -0.005755598656833172, 0.012196776457130909, -0.00018659583292901516, -0.012007426470518112, 0.007489134091883898, 0.02867678925395012, 0.025451304391026497, 0.03228097781538963, 0.015252499841153622, 0.037034325301647186, -0.006336708553135395, -0.01283012144267559, 0.0203192550688982, 0.008736235089600086, -0.020906895399093628, -0.01893503963947296, -0.03920206055045128, -0.02567330002784729, -0.00024995068088173866, -0.009931101463735104, -0.005363839212805033, -0.001860857242718339, 0.008475062437355518, -0.0020812219008803368, 0.01482156477868557, 0.01149813923984766, 0.0008749293629080057, -0.00757401529699564, 0.011550373397767544, 0.02883349359035492, 0.015239441767334938, 0.0009312448091804981, 0.0014005398843437433, -0.02632623352110386, -0.009702575393021107, 0.0119486628100276, -0.004524821415543556, -0.026691874489188194, 0.0051581659354269505, -0.008599119260907173, -0.00763277942314744, -0.020632663741707802, -0.013515699654817581, -0.012960707768797874, -0.00964381080120802, 0.01586625725030899, -0.011883368715643883, -0.027188103646039963, -0.031549692153930664, 0.03716491162776947, 0.013130470179021358, -0.011726665310561657, -0.03037441335618496, 0.005902508739382029, -0.012738710269331932, -0.005471573211252689, -0.012216364964842796, 0.011556902900338173, -0.0016176399076357484, 0.021168068051338196, -0.0027227280661463737, -0.011798487976193428, -0.00718878535553813, 0.005696834996342659, 7.84028961788863e-05, -0.0281022097915411, 0.007423840928822756, -0.010518740862607956, 0.005993918981403112, -0.004466057289391756, 0.022630635648965836, -0.0031308108009397984, 0.0036303040105849504, -0.03426589071750641, -0.017368001863360405, -0.0033854544162750244, -0.02614341303706169, -0.0057000997476279736, 0.0054976907558739185, -0.0044954395852983, -0.007058199029415846, 0.003233647672459483, -0.0012340422254055738, 0.005638070870190859, 0.02705751731991768, 0.000312795425998047, -0.0032711911480873823, -0.029538661241531372, -0.026926930993795395, -0.006797025911509991, 0.07767283171415329, 4.353732583695091e-05, -0.008958231657743454, -0.0010806031059473753, -0.008194301277399063, -0.00894517358392477, -0.028520086780190468, 0.010890912264585495, 0.005536866374313831, 0.01263424102216959, -0.01198130939155817, -0.035754576325416565, 0.01977079175412655, 0.013580993749201298, -0.0016992564778774977, -0.0038555655628442764, 0.0014291057595983148, 0.017707526683807373, 0.012340421788394451, -0.003085105447098613, -0.003542158054187894, -0.026626581326127052, -0.011517726816236973, 0.02315298095345497, 0.013228409923613071, -0.008292241021990776, 0.01097579300403595, 0.004629290662705898, 0.005389956757426262, -0.03212427347898483, -0.0020436784252524376, 0.005096137057989836, 0.004789258819073439, 0.012706063687801361, -0.02436743676662445, 0.027005283161997795, -0.01068197377026081, 0.01279747486114502, -0.007678484544157982, 0.0006419141427613795, 0.03423977270722389, 0.006447707302868366, 0.0006974134012125432, 0.0033430138137191534, -0.013776873238384724, -0.0008010664023458958, -0.015082737430930138, 0.020293138921260834, -0.018504103645682335, -0.03068782202899456, 0.037034325301647186, -0.008148595690727234, -0.005860067903995514, -0.006199592724442482, 0.011276141740381718, -0.00425058975815773, 0.01806010864675045, -0.0013140264200046659, -0.027632098644971848, -0.015983784571290016, 0.015605083666741848, -0.021024422720074654, -0.005889450199902058, -0.01234695129096508, -0.019326798617839813, -0.017720583826303482, 0.0006047785864211619, 0.01765529066324234, -0.03102734684944153, -0.028964079916477203, -0.01628413423895836, -0.018282106146216393, -0.0054976907558739185, 0.002497466281056404, 0.01855633780360222, -0.02679634466767311, 0.021651238203048706, -0.019705498591065407, 0.002455025678500533, 0.03134075552225113, -0.01356793474406004, -0.01888280361890793, -0.02455025725066662, -0.04325024038553238, -0.018269047141075134, 0.03277720510959625, 0.007789483293890953, -0.012549360282719135, -0.02341415546834469, 0.04066462814807892, 0.020828543230891228, -0.007626249920576811, 0.03961993753910065, 0.010877853259444237, 0.00528548751026392, -0.004887198563665152, 0.028467850759625435, 0.016336368396878242, 0.006219180766493082, -0.022630635648965836, 0.010740737430751324, -0.005236517637968063, -0.02857232093811035, 0.0016445734072476625, 0.012745239771902561, 0.002530112862586975, -0.02153370901942253, 0.0039078001864254475, 0.0017612851224839687, 0.020384548231959343, -0.006392207928001881, -0.0021661031059920788, 0.0037706843577325344, -0.005553189665079117, -0.026822462677955627, -0.011302259750664234, -0.024171557277441025, 0.03288167342543602, -0.0028859609737992287, -0.01263424102216959, -0.009336932562291622, -0.039149824529886246, 0.0002477062225807458, 0.04071686416864395, -0.01708071120083332, 0.01999278925359249, -0.01701541803777218, -0.01879139430820942, 0.005840479861944914, 0.01360711082816124, -0.004178767092525959, 0.02841561660170555, -0.019809968769550323, -0.017067652195692062, -0.010812560096383095, -0.01482156477868557, -0.004763141740113497, 0.020789366215467453, -0.004328941460698843, -0.021168068051338196, -0.023923441767692566, 0.022160524502396584, -0.00857953168451786, 0.005794774740934372, -0.013150057755410671, -0.019248446449637413, -0.002162838587537408, -0.008971290662884712, -0.01896115578711033, 0.013541817665100098, 0.014468980953097343, 0.01918315328657627, -0.020293138921260834, -0.007835188880562782, -0.0010259200353175402, -0.030583351850509644, -0.011184731498360634, -0.015161089599132538, 0.025542713701725006, 0.020358432084321976, 0.016009902581572533, 0.010381625033915043, 0.025281541049480438, 0.003946976270526648, -0.004648878704756498, 0.004035122226923704, 0.012575477361679077, 0.014181691221892834, -0.019561853259801865, 0.009924571961164474, 0.002774962689727545, 0.007319371681660414, -0.008200830779969692, -0.0057000997476279736, -0.0006043705507181585, 0.010179216042160988, -0.005115725100040436, 0.0042146784253418446, -0.014625685289502144, -0.019000332802534103, 0.0031552957370877266, -0.013071706518530846, -0.0001258935226360336, 0.028546202927827835, -0.02559494972229004, 0.01877833530306816, -0.00033972886740230024, 0.015069679357111454, -0.0025513332802802324, 0.00034217737265862525, 0.0217948816716671, -0.039306528866291046, 0.04066462814807892, 0.013280644081532955, 0.0011393669992685318, 0.0009720530943013728, -0.014586509205400944, -0.03296002745628357, -0.013326349668204784, 0.0055825719609856606, 0.005409544799476862, -0.00511898985132575, -0.0034638061188161373, -0.007763365749269724, 0.007325901184231043, 0.008573002181947231, 0.009284698404371738, -0.012412244454026222, -0.012053131125867367, -0.01145243365317583, -0.022526167333126068, -0.012993354350328445, -0.002157941460609436, -0.04727230221033096, 0.0031667219009250402, 0.021194184198975563, -0.0028810640797019005, 0.012934590689837933, 0.001960429362952709, -0.02251310832798481, 0.028781259432435036, -0.029852068051695824, 0.02948642522096634, 0.004563997499644756, 0.01449509896337986, 0.011563432402908802, -0.020345373079180717, -0.006751320790499449, 0.016832595691084862, 0.0007745409966446459, -0.010773384012281895, 0.02535989321768284, 0.010884382762014866, -0.003014915157109499, -0.020515134558081627, -0.005755598656833172, 0.0013752387603744864, -0.004443204961717129, -0.015161089599132538, 0.016793420538306236, 0.0019571648444980383, 0.019561853259801865, -0.01178542897105217, -0.0017645497573539615, -0.010094334371387959, 0.008481591939926147, -0.010877853259444237, -0.0028337265830487013, -0.00765236746519804, -0.023061571642756462, -0.010505681857466698, 0.006006977986544371, -0.020906895399093628, 0.019300680607557297, -0.02112889103591442, -0.02421073243021965, 0.02899019792675972, -0.02072407305240631, -0.021168068051338196, 0.02089383639395237, 0.013620168901979923, 0.012366538867354393, 0.005664188414812088, -0.0015270456206053495, 0.026522113010287285, 0.0015988681698217988, -0.010368566028773785, -0.008246535435318947, 0.011021498590707779, 0.02687469683587551, -0.017616115510463715, -0.012934590689837933, -0.0020338844042271376, 0.010956205427646637, 0.014886857941746712, -0.02041066624224186, -0.013802990317344666, 0.0201625507324934, -0.0017514911014586687, -0.010113922879099846, -0.00759360333904624, 0.005203871056437492, 0.010597092099487782, -0.013776873238384724, -0.005494426004588604, 0.020227845758199692, -0.010786443017423153, -0.0044366754591465, 0.018242930993437767, -0.01441674679517746, -0.00682314345613122, -0.002233028644695878, -0.007874364033341408, 0.016166605055332184, -0.009460990317165852, 0.005641335621476173, 0.0003115711733698845, 0.01847798563539982, -0.014220867305994034, 0.00854035560041666, -0.015213324688374996, 0.01742023602128029, -0.007045140489935875, -0.0009679722134023905, -0.005386692006140947, -0.005791509989649057, 0.027423160150647163, 0.005899243988096714, -0.01352875865995884, -0.01024450920522213, -0.011876840144395828, 0.005340986885130405, 0.0012340422254055738, -0.03403083607554436, 0.010466505773365498, -0.02414543926715851, 0.015578966587781906, -0.014664861373603344, -0.03781784325838089, 0.027188103646039963, -0.011550373397767544, 0.03311672806739807, -0.002290160395205021, 0.00016986443370115012, -0.01060362160205841, -0.0020697955042123795, -0.019953614100813866, 0.003917594440281391, -0.03742608428001404, -0.021350888535380363, 0.001008780556730926, -0.004022063221782446, -0.007782953791320324, -0.004240795969963074, -0.027814919129014015, -0.013998869806528091, -0.04121309146285057, 0.010140039958059788, 0.025738593190908432, -0.005618482828140259, 0.01470403652638197, 0.008716647513210773, -0.001500928308814764, 0.014468980953097343, -0.025777770206332207, 0.01620578207075596, -0.004603173118084669, -0.0316019281744957, -0.025895297527313232, 0.00967645738273859, -0.030217710882425308, 0.014155574142932892, -0.001194050069898367, -0.0027243602089583874, -0.012901943176984787, 0.01153731532394886, -0.034292008727788925, 0.011067203246057034, -0.0005398934590630233, -0.003901270916685462, 0.030740056186914444, 0.03212427347898483, -0.006561970338225365, 0.010303272865712643, -0.0023293362464755774, 0.01919621229171753, -0.004103680141270161, 0.006862319074571133, 0.010061687789857388, -0.030269945040345192, 0.020933011546730995, 0.0002917791425716132, -0.024249907582998276, -0.02436743676662445, 0.020619604736566544, -0.0038980061654001474, -0.008148595690727234, 0.008794998750090599, -0.001975120510905981, 0.0002817811327986419, 0.00946751981973648, 0.006999434903264046, 0.0028288294561207294, 0.022735105827450752, 0.03215039148926735, -0.015161089599132538, -0.007045140489935875, -0.033639077097177505, -0.003764155087992549, -0.013176174834370613, -0.007547898218035698, -0.011850722134113312, -0.004795788321644068, 0.025490479543805122, 0.011563432402908802, 0.0017629173817113042, 0.0015923387836664915, -0.005553189665079117, 0.004959021229296923, -5.070427869213745e-05, 0.016453895717859268, 0.021481474861502647, 0.016662834212183952, 0.0032483385875821114, -0.028128325939178467, -0.0028304618317633867, -0.016323309391736984, -0.016989300027489662, 0.0012944383779540658, -0.007058199029415846, 0.012183718383312225, -0.01796869933605194, 0.008710118010640144, -0.010459976270794868, -0.0028859609737992287, -0.02260451950132847, 0.012849709019064903, -0.028781259432435036, 0.012601594440639019, -0.01838657632470131, -0.013659344986081123, -0.009963748045265675, -0.01715906336903572, 0.0009859278798103333, -0.017459411174058914, -0.01068197377026081, 0.002167735481634736, -0.03110569901764393, -0.01534391101449728, -0.006372619885951281, -0.028624555096030235, -0.008037597872316837, -0.001975120510905981, 0.01389440055936575, 0.006219180766493082, -0.014508157037198544, 0.2070579081773758, -0.0158793143928051, -0.0019816497806459665, 0.013907459564507008, 0.02290486730635166, 0.006124505773186684, 0.017759760841727257, -0.004828434903174639, -0.006255092099308968, 0.03661644831299782, -0.019718557596206665, 0.033247318118810654, -0.01389440055936575, 0.0028239325620234013, 0.00461623165756464, -0.006434648297727108, -0.04259730875492096, -0.004459528252482414, -0.028467850759625435, 0.027579862624406815, 0.0035225702449679375, -0.0015254132449626923, 0.018007874488830566, 0.002313012955710292, 0.0024795106146484613, -0.012993354350328445, 0.01324146892875433, -0.003434424288570881, 0.033012259751558304, 0.02128559537231922, 0.00046439815196208656, -0.027005283161997795, 0.0008871718309819698, -0.03392636775970459, -0.0035976574290543795, 0.005438926629722118, -0.0219515860080719, -0.015735670924186707, 0.038105133920907974, 0.02227805182337761, -0.0030034889932721853, 0.01279094535857439, -0.028964079916477203, 0.033247318118810654, 0.005771921947598457, 0.017772819846868515, -0.009885395877063274, -0.015618142671883106, -0.000580701744183898, 0.010107393376529217, -0.01612742990255356, -0.00567071745172143, -0.020227845758199692, 0.04050792381167412, 0.0010626474395394325, -0.0005900876130908728, -0.0025758182164281607, -0.006797025911509991, 0.013228409923613071, 0.016166605055332184, -0.017694467678666115, 0.022447815164923668, -0.027188103646039963, 0.011916015297174454, -0.0033364843111485243, -0.0010144936386495829, -0.017694467678666115, 0.022251935675740242, 0.007828659377992153, 0.0004901073407381773, 0.002520318841561675, -0.01804705150425434, -0.030322179198265076, -0.010832147672772408, 0.00797230377793312, -0.018255989998579025, 0.036329157650470734, 0.006842731032520533, 0.029199136421084404, 0.020750191062688828, -0.011158614419400692, -0.015644259750843048, -0.02122030220925808, 0.006650116294622421, 0.0221082903444767, 0.008181242272257805, 0.01644083671271801, 0.007815600372850895, -0.008703588508069515, -0.007221431937068701, 0.0015654054004698992, -0.013776873238384724, 0.014142515137791634, 0.013319820165634155, 0.01149813923984766, 0.008573002181947231, 0.004782729782164097, 0.030061006546020508, -0.016336368396878242, -0.008533826097846031, -0.01397275272756815, 0.02428908459842205, 0.03327343240380287, 0.012033543549478054, -0.012836650013923645, 0.016963183879852295, -0.010094334371387959, 0.012196776457130909, 0.01012698095291853, -0.027161987498402596, -0.013411231338977814, -0.029042432084679604, 0.006023301277309656, -0.006881907116621733, 0.0035258347634226084, 0.030557235702872276, 0.03457929939031601, -0.019783850759267807, 0.03298614174127579, -0.011354493908584118, 0.004165708553045988, -0.01602295972406864, 0.03181086480617523, 0.0053932215087115765, 0.00882764533162117, -0.03828795254230499, -0.026038942858576775, 0.030165474861860275, 0.0015205162344500422, -0.019979730248451233, -0.0037706843577325344, 0.007809071335941553, 0.01748552918434143, -0.010316331870853901, -0.021507592871785164, -0.01486074086278677, -0.004684789571911097, -0.011080262251198292, 0.018595514819025993, 0.0015066413907334208, -0.021115832030773163, -0.029852068051695824, 0.010394683107733727, -0.023192157968878746, -0.003741302527487278, -0.016323309391736984, 0.0013123940443620086, 0.015735670924186707, 0.004988403525203466, -0.004306089133024216, 0.01748552918434143, -0.0018200490158051252, -0.022970160469412804, -0.03894088789820671, 0.0017988287145271897, -0.01486074086278677, -0.021233361214399338, -0.015069679357111454, -0.006663174834102392, 0.0036858031526207924, -0.01393357664346695, -0.008233477361500263, 0.04228390008211136, 0.01919621229171753, 0.005860067903995514, 0.017028477042913437, -0.16433002054691315, 0.024419670924544334, 0.026300115510821342, -0.012601594440639019, 0.020776307210326195, -0.015095796436071396, -0.004420352168381214, 0.007769895251840353, -0.012575477361679077, 0.026535172015428543, 0.027997739613056183, 0.0061179762706160545, -0.040690746158361435, -0.02598670870065689, 0.01449509896337986, -0.009212875738739967, 0.005252840928733349, 0.00024036073591560125, 0.013476524502038956, 0.01049262285232544, 0.002690081251785159, -0.01385522447526455, 0.009003937244415283, 0.03118404932320118, 0.002379938494414091, 0.026287056505680084, -0.0022868956439197063, 0.015095796436071396, 0.014168632216751575, -0.017028477042913437, 0.013659344986081123, -0.0056935702450573444, 0.052365176379680634, -0.011465492658317089, -0.013776873238384724, 0.003999210894107819, -0.029590895399451256, -0.0130390590056777, -0.02193852700293064, 0.013267586007714272, 0.006914553698152304, -0.008357534185051918, 0.002719463314861059, -0.03322120010852814, 0.0021269272547215223, 0.0277104489505291, 0.01526555884629488, -0.022330287843942642, -0.004361588042229414, -0.008749294094741344, 0.04526127129793167, -0.006111446768045425, -0.02162512019276619, 0.0006774173234589398, 0.02438049390912056, 0.005419338587671518, 0.009252051822841167, 0.01806010864675045, 0.003669479861855507, 0.008494650013744831, -0.003868624335154891, -0.02494201622903347, 0.015696493908762932, -0.003839242272078991, -0.007508722133934498, -0.023113805800676346, -0.012725652195513248, 0.0205543115735054, -0.006643586792051792, -0.0003989008837379515, 0.018321283161640167, -0.015814021229743958, 0.0028402558527886868, -0.019470443949103355, -0.0031340753193944693, 0.0038980061654001474, -0.009206346236169338, -0.02776268497109413, 0.011661372147500515, -0.00960463471710682, -0.0011760944034904242, 0.03196756914258003, -0.018765276297926903, -0.015840139240026474, -0.014390629716217518, -0.00469458382576704, -0.028885727748274803, 0.019979730248451233, -0.034292008727788925, 0.011125967837870121, 0.001733535435050726, -0.04108250513672829, -0.006986376363784075, -0.01234695129096508, 0.007828659377992153, 0.0277888011187315, -0.01732882484793663, -7.207761518657207e-05, 0.007195314858108759, 0.012915002182126045, 0.008364063687622547, 0.0021889556664973497, -0.020031964406371117, 0.002420746721327305, 0.002611729549244046, 0.015330852009356022, 0.013261056505143642, 0.016231898218393326, 0.04233613610267639, 0.004560732748359442, -0.0023734092246741056, -0.004596644081175327, 0.0047174361534416676, 0.033482372760772705, -0.008181242272257805, -0.0014544068835675716, 0.031131815165281296, 0.0044758515432477, 0.009826632216572762, 0.009898454882204533, 0.028546202927827835, -0.024328259751200676, -0.023218275979161263, 0.0021971173118799925, 0.0005643783952109516, -0.010420800186693668, -0.09151500463485718, -0.010414271615445614, 0.02598670870065689, 0.03434424102306366, -0.0025039955507963896, 0.03395248204469681, 0.006966788321733475, 0.014233925379812717, 0.0020093994680792093, 0.003917594440281391, -0.014116398058831692, -0.001305864774622023, 0.007345489226281643, -0.022069113329052925, 0.031941451132297516, 0.007090845610946417, 0.0030230768024921417, 0.008324887603521347, -0.0220299381762743, 0.0004537880013231188, -0.005207135807722807, 0.002954518888145685, -0.0028516820166260004, -0.020684897899627686, 0.00769154354929924, 0.007907010614871979, -0.022134406492114067, 0.029695363715291023, 0.01910480111837387, 0.008409769274294376, -0.015017444267868996, -0.01518720667809248, -0.003711920464411378, -0.03246379643678665, 0.008925585076212883, -0.013920518569648266, -0.0016364117618650198, -0.015069679357111454, 0.026613524183630943, -0.02242169715464115, -0.01667589321732521, 0.0044301459565758705, 0.024589432403445244, -0.032516032457351685, 0.017851170152425766, -0.031001228839159012, 0.003174883546307683, 0.008919056504964828, -0.002365247579291463, -0.03536281734704971, -0.06033094972372055, 0.0003276904462836683, -0.030713938176631927, 0.0011654843110591173, 0.0028386234771460295, -0.0010969263967126608, -0.006646851543337107, 0.023296626284718513, -0.007423840928822756, -0.005507484544068575, 0.00759360333904624, 0.024641668424010277, 0.006428119260817766, 0.0013695256784558296, -0.0007218983373604715, -0.01796869933605194, -0.035989630967378616, 0.000832896854262799, 0.010055158287286758, -0.03593739867210388, 0.004351794254034758, 0.0039796228520572186, 0.008853763341903687, -0.015696493908762932, -0.023427212610840797, -0.017185179516673088, -0.011295730248093605, -0.0007447509560734034, -0.0061506228521466255, -0.04006392881274223, -0.0010895809391513467, -0.021807940676808357, 0.001121411332860589, 0.010708090849220753, 0.004061239305883646, 0.014847681857645512, 0.0021971173118799925, -0.02404096908867359, 0.04476504400372505, -0.017798935994505882, -0.005056961439549923, 0.023832030594348907, 0.005576042458415031, -0.026848578825592995, -0.005892714485526085, 0.02009725756943226, 0.015017444267868996, -0.031706396490335464, 0.011106379330158234, 0.017720583826303482, -0.031053462997078896, -0.023388037458062172, -0.06900189071893692, 0.0027210956905037165, 0.03053111769258976, -0.011439375579357147, -0.02300933748483658, 0.02462860941886902, 0.017446352168917656, 0.013247997500002384, 0.02340109646320343, 0.0020191932562738657, -0.04816029220819473, -0.021899351850152016, 0.010068217292428017, 0.004792523570358753, -0.026430701836943626, -0.029982654377818108, 0.027971623465418816, 0.022304169833660126, -0.01474321261048317, 0.021246420219540596, 0.014638743363320827, -0.013789931312203407, 0.016336368396878242, 0.006934141740202904, -0.03288167342543602, -0.005899243988096714, -0.015983784571290016, 0.024654725566506386, -0.0277104489505291, 0.023348862305283546, 0.014847681857645512, -0.02648293785750866, 0.00026566185988485813, 0.027971623465418816, 0.015213324688374996, -0.03635527566075325, -0.03423977270722389, 0.0179817583411932, 0.012196776457130909, 0.025973649695515633, -0.014194749295711517, -0.022395581007003784, 0.019392091780900955, -0.01356793474406004, 0.0018445339519530535, 0.005833950825035572, 0.011465492658317089, -0.016231898218393326, 0.007325901184231043, 0.004472586791962385, 0.016636716201901436, 0.015814021229743958, 0.012196776457130909, -0.030478883534669876, -0.004400764126330614, 0.03248991444706917, -0.01893503963947296, 0.028363382443785667, 0.02502036839723587, -0.0015988681698217988, 0.031706396490335464, -0.0020648986101150513, 0.004338735714554787, -0.0009312448091804981, -0.010962734930217266, -0.0279455054551363, -0.019392091780900955, 0.0024909370113164186, 0.011530785821378231, -0.03369130939245224, -0.005432397127151489, 0.00759360333904624, 0.022225817665457726, 0.005736011080443859, 0.009578517638146877, -0.019418207928538322, -0.012529771775007248, -0.013802990317344666, -0.01181807555258274, 0.030870642513036728, 0.010597092099487782, 0.01016615703701973, -0.03280332311987877, 0.019940555095672607, 0.02964312955737114, 0.002283630892634392, -0.019823025912046432, -0.006010242272168398, 0.023335803300142288, 0.02648293785750866, 0.02065877988934517, 0.026665758341550827, 0.0119094867259264, 6.551640581164975e-07, 0.0055433958768844604, -0.012523243203759193, 0.0036400980316102505, -0.021834058687090874, 0.020123375579714775, 0.01918315328657627, 0.007456487510353327, 0.007423840928822756, 0.005298546049743891, -0.04860428720712662, -0.014586509205400944, 0.020267020910978317, -0.037138793617486954, -0.027083635330200195, 0.016741186380386353, 0.027266455814242363, -0.01902644895017147, -0.008031068369746208, -0.007116962689906359, -0.002926769433543086, 0.010355507023632526, 0.017263</t>
+  </si>
+  <si>
+    <t>[0.009895467199385166, -0.017967738211154938, -0.002675343304872513, -0.026264606043696404, -0.03384804725646973, 0.017175043001770973, -0.02313346229493618, -0.012795407325029373, -0.01971166580915451, -0.027242261916399002, -0.0018859519623219967, -0.004551386460661888, -0.03553912788629532, -0.011401587165892124, -0.023952580988407135, -0.012438694946467876, 0.022763539105653763, -0.029963845387101173, 0.012062164954841137, -0.03083580918610096, -0.00901029258966446, -0.018165912479162216, 0.024388562887907028, -0.003639788134023547, 0.006275496911257505, 0.001424372661858797, -0.004161645192652941, -0.01052301749587059, -0.009300947189331055, 0.007623077370226383, 0.023027770221233368, 0.010754220187664032, 0.0012617051834240556, 0.0052119651809334755, 0.019143568351864815, 0.02333163656294346, 0.02477169781923294, -0.002138623269274831, 0.01807343028485775, -0.018205545842647552, -0.0031509599648416042, -0.007959972135722637, 0.004283852409571409, -0.004868464544415474, -0.007438115309923887, 0.030016692355275154, 0.020306186750531197, -0.004422573838382959, 0.0013360201846808195, 0.0037190576549619436, 0.008990474976599216, 0.02491702511906624, -0.010014371946454048, 0.0008711380651220679, -0.00935379322618246, -0.014043901115655899, -0.009961524978280067, -0.014876230619847775, 0.0028124134987592697, -0.03236835077404976, 1.5830662960070185e-05, 0.004805709235370159, -0.033187467604875565, 0.006232559215277433, -0.008858359418809414, -0.0378115214407444, -0.020953552797436714, 0.0007249850314110518, -0.008382742293179035, -0.0024292778689414263, 0.016501253470778465, 0.02816707268357277, 0.009532148949801922, -0.0038709905929863453, 0.0221029594540596, -0.0027975505217909813, -0.007266364526003599, 0.021402746438980103, 0.018773643299937248, 0.005264811683446169, -0.003245092462748289, -0.015827463939785957, -0.005301143508404493, 0.027955686673521996, 0.031126463785767555, -0.011712058447301388, 0.001333543099462986, 0.015100827440619469, 0.01131571177393198, -0.015893520787358284, 0.012636869214475155, 0.013158725574612617, 0.0014962105778977275, -0.017360005527734756, -0.01815270073711872, -0.0011617926647886634, 0.0005899792886339128, 0.027321530506014824, -0.02288244292140007, -0.003930442500859499, -0.0037785095628350973, -0.003195549128577113, -0.013819304294884205, -0.016276657581329346, -0.034772858023643494, -0.007497567217797041, -0.0013029912952333689, -0.023529810830950737, 0.026198547333478928, 0.0038148413877934217, -0.013165331445634365, 0.028536995872855186, 0.013092667795717716, -0.03316104784607887, -0.0030535245314240456, -0.0130001874640584, 0.027453646063804626, -0.0065000937320292, -0.0049840654246509075, -0.012722743675112724, 0.01262365747243166, 0.03297608345746994, 0.0032814242877066135, -0.012280155904591084, 0.039132677018642426, 0.027295108884572983, -0.00426733773201704, -0.012914312072098255, 0.004875069949775934, -0.0009644447709433734, -0.00019641891412902623, 0.012973763979971409, 0.022948501631617546, 0.007675923407077789, 0.0022806476335972548, 0.02824634127318859, -0.02280317433178425, 0.007147460710257292, -0.013766458258032799, -0.024362139403820038, 0.02927684411406517, 0.028642687946558, -0.011811145581305027, 0.003043615957722068, -0.0002276931918459013, 0.023899734020233154, -0.013673976995050907, 0.025736141949892044, 0.019830569624900818, -0.000743150943890214, 0.012227309867739677, -0.027268685400485992, 0.0070549794472754, 0.003339224960654974, 0.002490381244570017, 0.025339795276522636, 0.0018479686696082354, 0.01518009603023529, -0.004006409086287022, -0.005770154297351837, 0.0009652705048210919, 0.016395561397075653, -0.004194674082100391, -0.029646767303347588, 0.01101184543222189, 0.03995179384946823, 0.003245092462748289, 0.007114431820809841, -0.02580220066010952, 0.005271417088806629, 0.01073440257459879, 0.03078296408057213, -0.0282199177891016, 0.006338251754641533, 0.009532148949801922, 0.021032823249697685, -0.012894494459033012, 0.0014582272851839662, 0.016474829986691475, -0.004524963442236185, 0.0005627304199151695, -0.004303669556975365, 0.031126463785767555, 0.03347812220454216, -0.009558572433888912, -0.006493487861007452, 0.026793068274855614, 0.020979976281523705, 0.013119091279804707, -0.019619185477495193, -5.867796062375419e-05, 0.009776563383638859, 0.0016960356151685119, -0.0023780830670148134, -0.6358465552330017, -0.0034977637697011232, -0.010787248611450195, 7.493438897654414e-05, -0.012557599693536758, -0.005747033748775721, 0.004660381935536861, 0.013991055078804493, -0.008415771648287773, 0.016025636345148087, -0.013297447003424168, -0.01887933723628521, -0.015034768730401993, -0.0019553126767277718, -0.018971817567944527, -0.00811851117759943, -0.0067841424606740475, -0.005555466283112764, 0.002992421155795455, 0.0145987868309021, -0.01595957949757576, 0.005730519536882639, 0.00506003201007843, 0.011183596216142178, 0.001993295969441533, 0.01601242460310459, 0.0028685627039521933, -0.022340768948197365, -0.01434776745736599, 0.0008959097322076559, -0.023014558479189873, 0.009875650517642498, 0.006708175875246525, -0.019777722656726837, 0.03950260207056999, -0.015695348381996155, -0.005040214862674475, 0.03255331516265869, 0.01603884808719158, 0.022974923253059387, 0.006982315797358751, -0.02718941494822502, 0.018443355336785316, -0.005849423352628946, 0.0038908079732209444, -0.011956472881138325, 0.038472097367048264, 0.008250626735389233, -0.01749212108552456, 0.019870204851031303, 0.02491702511906624, -0.006338251754641533, -0.017426064237952232, 0.015457539819180965, 0.016805119812488556, -0.020913919433951378, 0.021283842623233795, -0.03294965997338295, 0.008706426247954369, 0.008389348164200783, -0.003897413844242692, 0.014664845541119576, -0.00856109894812107, -0.04454942047595978, -0.006876623257994652, 0.002368174260482192, -0.031575657427310944, -0.008554493077099323, 0.010443747974932194, -0.012042348273098469, 0.0003695111663546413, 0.038577791303396225, 0.000789391458965838, 0.009175436571240425, 0.03202484920620918, 0.040691643953323364, 0.025617238134145737, 0.017333582043647766, 0.003874293528497219, 0.01832445152103901, 0.0094528803601861, -0.013872150331735611, -0.024507466703653336, 0.008442194201052189, -0.0020593537483364344, -0.01080046035349369, -0.0130001874640584, -0.004009712021797895, 0.03125857934355736, -0.009849227033555508, 0.030756540596485138, 0.02763860858976841, -0.001950358389876783, -0.020398667082190514, 0.003943654242902994, 0.043386802077293396, -0.017175043001770973, 0.009631236083805561, -0.007424903567880392, -0.03405943140387535, -0.01352864969521761, -0.03604117035865784, 0.03022807650268078, -0.021006399765610695, 0.04140506684780121, 0.0039106253534555435, -0.022671058773994446, 0.007874096743762493, 0.014611998572945595, -0.009908678941428661, -0.001506119268015027, -0.015483962371945381, -0.02374119497835636, -0.019698454067111015, -0.01623702235519886, -0.02157449722290039, -0.004600930027663708, 0.02925042062997818, 0.015946367755532265, -0.035354167222976685, 0.007768404670059681, -0.014981922693550587, 0.013607919216156006, -0.005898966919630766, 0.0015763057162985206, 0.006430732551962137, 0.02082143723964691, 0.007788221817463636, -0.012531176209449768, -0.011910232715308666, 0.017967738211154938, 0.0041649481281638145, 0.023450540378689766, -0.015853887423872948, 0.010364478453993797, 0.034852128475904465, 0.012022530660033226, 0.0007443895447067916, 0.017980949953198433, -0.014400613494217396, 0.001175004174001515, -0.022671058773994446, -0.008528069593012333, -0.03469358757138252, -0.02202369086444378, -0.01170545257627964, 0.002021370455622673, -0.0063448576256632805, -0.03997821733355522, -0.0028388365171849728, -0.012716137804090977, 0.01107790321111679, -0.005403533112257719, 0.015576443634927273, -0.0067841424606740475, 0.014783749356865883, -0.00056727189803496, -0.0065133050084114075, -0.03815501928329468, -0.01726752519607544, 0.021429169923067093, 0.009195254184305668, -0.029091881588101387, -0.005050123669207096, -0.012062164954841137, -0.005647947080433369, 0.022261498495936394, 0.017531756311655045, 0.008237414993345737, -0.03139069676399231, 0.002946180524304509, -0.0033342705573886633, -0.005918784532696009, 0.007173883728682995, -0.02187836356461048, 0.011712058447301388, -0.04684823378920555, -0.0029445290565490723, -4.840802648686804e-05, -0.00918864831328392, 0.012445300817489624, 0.0017125500598922372, -0.019975896924734116, -0.026991242542862892, 0.010694767348468304, -0.0038643849547952414, 0.0467161200940609, 0.00336399651132524, -0.02502271719276905, 0.04362460970878601, 0.018496200442314148, -0.003970077261328697, -0.015483962371945381, -0.01706935092806816, 0.0032632583752274513, -0.00981619767844677, 0.009935102425515652, -0.010575863532721996, -0.006988921668380499, 0.003246743930503726, 0.010014371946454048, 0.03030734695494175, 0.005337475333362818, 0.013489015400409698, 0.02343732863664627, -0.01595957949757576, 0.023556232452392578, -0.03395374119281769, 0.014493094757199287, 0.02925042062997818, 0.022393614053726196, -0.02652883715927601, -0.023701559752225876, 0.0037520865444093943, -0.018641527742147446, 0.015127249993383884, 0.012907706201076508, -0.004389544948935509, -0.003547307103872299, 0.021442381665110588, 0.024930236861109734, -0.02263142354786396, -0.009836015291512012, 0.004356516059488058, -0.008237414993345737, -0.00853467546403408, 0.007761798799037933, -0.01646161824464798, -0.017809199169278145, -0.02652883715927601, 0.011817751452326775, 0.0287748035043478, 0.000748518155887723, 0.022089749574661255, -0.0001565777783980593, 0.02341090515255928, 0.012372637167572975, -0.025088775902986526, -0.019870204851031303, 0.011520490981638432, 0.04906778037548065, 0.044892922043800354, 0.01837729662656784, -0.025154832750558853, 0.019024664536118507, -0.009254706092178822, -0.0008257232839241624, 0.0009338930249214172, -0.007590048015117645, -0.012610445730388165, -0.03358381614089012, 0.013700400479137897, -0.011745087802410126, 0.005010488908737898, -0.005261508747935295, 0.010516411624848843, -0.005545557476580143, -0.008653580211102962, 0.029171152040362358, 0.019949473440647125, 0.0035175811499357224, 0.003897413844242692, 0.009340581484138966, 0.034852128475904465, 0.008191174827516079, -0.03371593356132507, 0.005793274380266666, -0.021442381665110588, 0.006443944294005632, -0.031707774847745895, -0.009393427520990372, 0.004591021221131086, -0.019262472167611122, 0.009155619889497757, -0.022948501631617546, -0.022750327363610268, -0.01870758645236492, -0.015325423330068588, -0.02232755720615387, 0.017254313454031944, -0.0135550731793046, -0.010238968767225742, 0.02930326759815216, 0.028642687946558, 0.0015688742278143764, -0.005278022959828377, -0.016659792512655258, 0.032156966626644135, -0.008296866901218891, 0.01562928967177868, -0.0012831739149987698, 0.01920962519943714, -0.018086642026901245, 0.007563624996691942, -0.009182042442262173, -0.017901679500937462, -0.011863991618156433, -0.007537201978266239, 0.014955500140786171, -0.015378270298242569, 0.013621130958199501, -0.016197387129068375, -0.00500388303771615, -0.011745087802410126, 0.029091881588101387, -0.009479302912950516, -0.005674370098859072, -0.017478909343481064, 0.0033805109560489655, 0.0016068575205281377, -0.0037487836088985205, 0.0013236344093456864, -0.004891584627330303, -0.021164938807487488, -0.007200306747108698, 0.002361568622291088, 0.0027942475862801075, 0.005743730813264847, -0.012722743675112724, 0.011784722097218037, -0.008680002763867378, -0.03831356018781662, -0.007451326586306095, 0.018364084884524345, 0.0934322401881218, 0.003316104644909501, 0.025286948308348656, 0.022723903879523277, 0.0033491335343569517, -0.000544151640497148, -0.01128928828984499, 0.0025597421918064356, 0.006087231915444136, 0.02235398069024086, 0.006803959608078003, -0.034323666244745255, 0.014519518241286278, 0.015021557919681072, 0.015351846814155579, -0.014506306499242783, -0.018813278526067734, -0.024533890187740326, 0.012709532864391804, 0.008125117048621178, -0.007484355475753546, -0.008666791021823883, -0.01166581828147173, 0.03723021224141121, 0.02643635682761669, 0.03133784979581833, 0.024177176877856255, 0.020279763266444206, 0.024375351145863533, -0.003689331468194723, -0.012973763979971409, -0.0076891351491212845, -0.014215651899576187, 0.0015135507564991713, -0.005370504222810268, 0.018364084884524345, 0.0002863195550162345, -0.006292011123150587, 0.004468814469873905, 0.002274041762575507, 0.020610053092241287, -0.01280201319605112, -0.0063712806440889835, -0.022182229906320572, -0.01112414337694645, -0.015827463939785957, -9.624836820876226e-05, 0.017637448385357857, -0.013885362073779106, -0.0036067592445760965, 0.02343732863664627, -0.01514046173542738, 0.020649686455726624, -0.004260731860995293, -0.016408773139119148, 0.009115984663367271, 0.008825330063700676, 0.012742561288177967, -0.02721583843231201, -0.023556232452392578, 0.0143874017521739, -0.026449566707015038, 0.01852262392640114, 0.007834462448954582, -0.019949473440647125, -0.007213518489152193, -0.010371084325015545, 0.01249814685434103, -0.04011033475399017, -0.0019999018404632807, -0.011877203360199928, -0.008660185150802135, -0.027770724147558212, -0.0008397605852223933, 0.009611418470740318, -0.008501647040247917, 0.01407032459974289, -0.0035671244841068983, 0.007735375314950943, 0.02866911143064499, 0.010529623366892338, 0.025379430502653122, 0.003032055916264653, -0.010113458149135113, -0.014572364278137684, 0.035909052938222885, 0.02816707268357277, -0.016857966780662537, -0.00557528343051672, 0.010833488777279854, 0.01598600298166275, 0.011745087802410126, 0.024679217487573624, 0.0031410513911396265, -0.02401863783597946, 0.001971827121451497, -0.0009338930249214172, 0.012656685896217823, -0.012478330172598362, 0.020834648981690407, -0.0038115386851131916, -0.008792301639914513, -0.029091881588101387, -0.013231389224529266, 0.011223230510950089, -0.02235398069024086, 0.011394981294870377, -0.006870017386972904, 0.004614141769707203, 0.003183988854289055, 0.024626370519399643, 0.0036265766248106956, 0.01646161824464798, 0.01200931891798973, -0.03292323648929596, -1.7185366232297383e-05, 0.001635757740586996, 0.05316336825489998, -0.010390901938080788, 0.026040008291602135, -0.014744114130735397, -0.01180453971028328, 0.016527676954865456, 0.012584022246301174, 0.010060612112283707, 0.009571784175932407, -0.00849504116922617, -0.019341740757226944, -0.031047195196151733, 0.007642894517630339, 0.02305419370532036, 0.017888469621539116, -0.0036761199589818716, 0.0003220320795662701, 0.004637261852622032, -0.035961899906396866, 0.02160092070698738, 0.006836988497525454, -0.031654927879571915, -0.026925183832645416, -0.01907750964164734, 0.019473858177661896, -0.009175436571240425, -0.007959972135722637, 0.011579942889511585, -0.018033796921372414, -0.004148433450609446, -0.016065271571278572, -0.030175231397151947, 0.017690295353531837, -0.0018677860498428345, 0.006149986758828163, -0.0038115386851131916, 0.00278764171525836, 0.012940734624862671, -0.015695348381996155, -0.00863376259803772, -0.0037917213048785925, 0.026396721601486206, 0.02174624800682068, 0.004082375671714544, 0.02819349430501461, 0.021957632154226303, 0.0055257398635149, -0.0009008640772663057, -0.031232155859470367, -0.018337661400437355, 0.002827276475727558, -0.024150753393769264, 0.02713656984269619, 0.016606945544481277, 0.023278789594769478, -0.043413225561380386, 0.0135550731793046, -0.01976451277732849, 0.0033772082533687353, 0.01762423664331436, -0.007959972135722637, -0.010972211137413979, -0.015378270298242569, 0.023569444194436073, -0.01895860582590103, -0.02580220066010952, 0.02925042062997818, 0.0026489202864468098, -0.006186318583786488, 0.011599760502576828, 0.00459432415664196, 0.009736929088830948, 0.0006783316493965685, 0.009697293862700462, -0.02051757089793682, 0.031073618680238724, 0.02179909497499466, -0.010212545283138752, -0.013020004145801067, 0.012854860164225101, -0.0141099588945508, -0.02922399714589119, -0.006648723501712084, -0.016448406502604485, -0.013647554442286491, 0.00404604384675622, -0.016976870596408844, -0.0033920712303370237, 0.0018182425992563367, -0.021415958181023598, -0.02082143723964691, -0.010998633690178394, -0.016382349655032158, -0.0009058184223249555, -0.017637448385357857, -0.017637448385357857, -0.001136195263825357, -0.009168830700218678, -0.016831543296575546, -0.02363550290465355, 0.01255099382251501, -0.027929263189435005, -0.01976451277732849, 0.010318238288164139, -0.008904599584639072, 0.009294341318309307, 0.012161252088844776, 0.042382724583148956, 0.014294921420514584, 0.003093159291893244, -0.013924997299909592, 0.029356112703680992, -0.030439462512731552, -0.024983083829283714, 0.03207769617438316, 0.010047400370240211, 0.006424127146601677, -0.02880122698843479, -0.008547887206077576, 0.01082688383758068, -0.014162804931402206, -0.016673004254698753, 0.03202484920620918, 0.009611418470740318, 0.0061169578693807125, -0.031232155859470367, -0.014479883015155792, 0.0024540494196116924, 0.008831935934722424, -0.031575657427310944, -0.0025217588990926743, -0.007305999286472797, 0.002924711676314473, -0.018390508368611336, 0.027929263189435005, -0.039026983082294464, 0.03400658816099167, 0.011335529386997223, 0.008435589261353016, 0.012075376696884632, -0.007590048015117645, -0.041748568415641785, 0.022763539105653763, 0.015061192214488983, -0.006080626044422388, -0.02507556416094303, 0.00935379322618246, 0.012584022246301174, 0.00046488220687024295, -0.011963078752160072, -0.023556232452392578, 0.02705729939043522, 0.021059246733784676, -0.033266738057136536, -0.004802406299859285, 0.020636476576328278, -0.011652606539428234, 0.015404692851006985, -0.02633066289126873, -0.023318424820899963, 0.007940154522657394, 0.009479302912950516, -0.04407380521297455, 0.004812315106391907, -0.007847674190998077, 0.005420047324150801, -0.011328923515975475, 0.0025894681457430124, -0.010139881633222103, -0.027242261916399002, 0.00902350340038538, 0.008402559906244278, -0.0019553126767277718, 0.00842237751930952, -0.012980369850993156, 0.005912178661674261, 0.008263838477432728, 0.004174856934696436, 0.002036233665421605, -0.017901679500937462, 0.01615775190293789, -0.04634619504213333, 0.00729939341545105, -0.010364478453993797, 0.01704292744398117, 0.005809789057821035, 0.013125697150826454, 0.01868116296827793, -0.007576836738735437, 0.026449566707015038, -0.009763351641595364, -0.01511403825134039, -0.015510385856032372, -0.0014144639717414975, -0.016673004254698753, -0.007484355475753546, -0.0050699408166110516, 0.022644635289907455, -0.012181069701910019, -0.002089079935103655, 0.0006709001609124243, -0.010503199882805347, 0.02146880514919758, -0.0076032597571611404, -0.006427430082112551, -0.0024986385833472013, -0.008158145472407341, 0.004448996856808662, 0.01885291375219822, -0.025987163186073303, 0.002207983983680606, -0.02713656984269619, -0.01089954748749733, 0.0012922568712383509, 0.01721467822790146, -0.017452487722039223, 0.013383322395384312, -0.018496200442314148, -0.027268685400485992, -0.01413638237863779, 0.01194326113909483, -0.003761995118111372, -0.004075769800692797, 0.029673190787434578, 0.02829918824136257, 0.014915864914655685, 0.009294341318309307, 0.004637261852622032, -0.02469242922961712, -0.02471885085105896, 0.013436169363558292, -0.006493487861007452, -0.014202440157532692, -0.020147647708654404, -0.0003499002195894718, 0.0030287529807537794, -0.033319585025310516, -0.01407032459974289, 0.02051757089793682, -0.039185523986816406, 0.004666987806558609, -0.01338992826640606, 0.028457727283239365, 0.03794363513588905, 0.02227471023797989, -0.013792881742119789, 0.023807253688573837, -0.008270444348454475, 0.016924023628234863, -0.013502227142453194, -0.004749560263007879, 0.0031460055615752935, -0.03294965997338295, 0.03688671067357063, -0.011936655268073082, -0.046055540442466736, -0.023371271789073944, 0.04188068211078644, 0.019592761993408203, -0.012848254293203354, 0.011910232715308666, -0.024388562887907028, -0.004673593677580357, -0.0029164545703679323, -0.0030518730636686087, 0.015787828713655472, 0.005456379149109125, 0.025881469249725342, -0.037970058619976044, -0.00893762893974781, 0.012603839859366417, 0.01238584890961647, -0.01187059748917818, -0.006850200239568949, -0.006235862150788307, -0.0034911578986793756, -0.0034680375829339027, -0.017531756311655045, 0.0007538853096775711, 0.01721467822790146, -0.029514651745557785, -0.00018196876044385135, 0.016197387129068375, 0.014123170636594296, 0.028431303799152374, 0.021164938807487488, -0.04156360775232315, -0.018165912479162216, -0.019566338509321213, -0.049279164522886276, -0.015021557919681072, 0.002231104299426079, -0.017954526469111443, -0.019222836941480637, -0.015074403956532478, 0.006903046276420355, -0.016395561397075653, 0.005869240965694189, -0.03334600850939751, -0.0014103353023529053, -0.018641527742147446, 0.017439275979995728, 0.014096747152507305, -0.0268327035009861, -0.008779089897871017, 0.004386242013424635, -0.020359031856060028, 0.015470750629901886, -0.001760442042723298, 0.006417521275579929, -0.016355926170945168, -0.0145987868309021, 0.0013112485175952315, -0.03508993610739708, -0.05046820640563965, 0.02466600574553013, -0.006473670247942209, -0.004108799155801535, 0.007272970397025347, 0.19563695788383484, 0.012894494459033012, -0.018218757584691048, 0.02625139430165291, 0.021336689591407776, 0.03366308659315109, -0.0012361076660454273, 0.003340876428410411, 0.014057112857699394, -0.0007542981766164303, 0.006113654933869839, 0.007451326586306095, -0.012280155904591084, 0.0023846887052059174, 0.03456147387623787, -0.016316290944814682, -0.014942288398742676, -0.030122384428977966, 0.035327743738889694, 0.00032760569592937827, 0.00440605916082859, -0.009314158000051975, -0.021363113075494766, 0.001145278220064938, 0.014281709678471088, -0.00453817518427968, -0.012788801454007626, -0.002074216725304723, 0.02814064919948578, 0.013191754929721355, 0.004422573838382959, 0.008924417197704315, 0.0034515231382101774, 0.011375163681805134, -0.008554493077099323, 0.0222482867538929, 0.011745087802410126, -0.0057206107303500175, 0.016104906797409058, 0.020649686455726624, -0.015470750629901886, -0.017386429011821747, 0.0029610435012727976, -0.01091275829821825, -0.005542254541069269, 0.02811422571539879, 0.0026241485029459, -0.000366208259947598, 0.004131919238716364, 0.022486096248030663, -0.028510572388768196, 0.007490961346775293, -0.015563231892883778, 0.015272577293217182, 0.01073440257459879, -0.024560311809182167, 0.0031063708011060953, 0.0003447394701652229, 0.009532148949801922, 0.0031922461930662394, -0.019553126767277718, 0.0258550476282835, -0.024335715919733047, 0.016369137912988663, -0.0040790727362036705, 0.016646580770611763, -0.031152887269854546, 0.004247520584613085, 0.01807343028485775, 0.008646974340081215, 0.019777722656726837, -0.031020771712064743, -0.0031245367135852575, -0.010628709569573402, 0.0021881666034460068, -0.01562928967177868, 0.04240914806723595, -0.03136427327990532, 0.04320184141397476, 0.0542202927172184, 0.01854904741048813, 0.005053426139056683, -0.02880122698843479, 0.004627353046089411, -0.0102191511541605, -0.026740221306681633, 0.02051757089793682, 0.0034746434539556503, -0.01712219789624214, -0.004415967967361212, -0.00033648221869952977, -0.02293528988957405, 0.0031261881813406944, 0.0017125500598922372, 0.0005020397366024554, 0.008105299435555935, -0.013462591916322708, 0.01562928967177868, -0.030598001554608345, -0.01224712748080492, -0.021482016891241074, 0.007695741020143032, 0.00946609117090702, 0.0033128017093986273, -0.018918970599770546, -0.006351463496685028, 0.004861858673393726, 0.02290886640548706, 0.0013071199646219611, 0.0077155581675469875, -0.01726752519607544, -0.02240682579576969, -0.0017934709321707487, -0.011071297340095043, 0.000402746518375352, 0.030069537460803986, 0.01673906110227108, -0.02101961150765419, 0.011679030023515224, -0.015576443634927273, 0.0072069126181304455, -0.011632788926362991, -0.013310658745467663, 0.016831543296575546, -0.023556232452392578, -0.02985815331339836, -0.02146880514919758, -0.003501066705211997, -0.018985029309988022, -0.02761218510568142, -0.013753246515989304, 0.0006353940698318183, 0.003986591938883066, 0.0037058459129184484, -0.03368951007723808, 0.01603884808719158, 0.029012612998485565, -0.027268685400485992, -0.011738481931388378, 0.005274720024317503, 0.009505726397037506, -0.006242468021810055, -0.008613944984972477, -0.021693401038646698, -0.004620747175067663, -0.037494443356990814, 0.01693723537027836, 0.00814493466168642, -0.012399060651659966, -0.014360979199409485, 0.004458905663341284, -0.007035162299871445, 0.00846861768513918, 0.0005680976319126785, 0.014321343973279, -0.006103746127337217, -0.03398016467690468, -0.014968710951507092, -0.010179515928030014, 0.0025382733438163996, -0.02574935369193554, 0.0009875650284811854, 0.031575657427310944, -0.02121778577566147, -0.010324843227863312, 0.040876604616642, -0.16646580398082733, 0.020028743892908096, 0.00746453832834959, 0.0016960356151685119, 0.01380609255284071, 0.02074216865003109, -0.003477946389466524, 0.010390901938080788, -0.012491541914641857, 0.02174624800682068, 0.02874838188290596, -0.00011787199764512479, -0.035327743738889694, -0.023146674036979675, -0.001991644501686096, -0.011368557810783386, -0.0047462573274970055, -0.0003721947723533958, 0.001495384844020009, 0.007332422770559788, 0.032685428857803345, -0.023305213078856468, 0.023899734020233154, -0.0143874017521739, 0.00039139282307587564, 0.016606945544481277, -0.016646580770611763, 0.014149594120681286, -0.00398989487439394, -0.0074777500703930855, 0.024956660345196724, -0.008085481822490692, 0.043651033192873, 0.004617444705218077, -0.0025432277470827103, 0.01671263948082924, -0.004326790105551481, -0.020557206124067307, -0.01787525787949562, 0.011210018768906593, 0.008600733242928982, 0.005132695659995079, -0.0029841638170182705, -0.02386009879410267, 0.012372637167572975, 0.01012006402015686, 0.013924997299909592, -0.02280317433178425, -0.02308061718940735, -0.027453646063804626, 0.02419038861989975, -0.017161833122372627, 0.017478909343481064, -0.007411691825836897, 0.020834648981690407, 0.0048321327194571495, -0.014189228415489197, 0.0044357855804264545, 0.005149210337549448, 0.008475223556160927, -0.006070717237889767, -0.015787828713655472, -0.005320960655808449, 0.0109854219481349, 0.007220124360173941, -0.019949473440647125, -0.024533890187740326, 0.021944422274827957, -0.03199842944741249, -0.0063877953216433525, 0.013634342700242996, 0.014876230619847775, 0.007557019125670195, -0.011487461626529694, -0.009961524978280067, 0.007695741020143032, -0.015787828713655472, 0.00998134259134531, 0.007101220078766346, 0.0029577407985925674, 0.015840675681829453, 0.03876275196671486, -0.01963239535689354, 0.02366192638874054, 0.004231005907058716, -0.03207769617438316, -0.013508833013474941, 0.015814252197742462, 0.015774616971611977, 0.00590226985514164, -0.008277050219476223, -0.03036019206047058, 0.01935495249927044, -0.016924023628234863, 0.011302500031888485, 0.01998910866677761, 0.021138515323400497, 0.018760433420538902, -0.0019123750971630216, -0.006870017386972904, 0.016725851222872734, -0.007451326586306095, -0.03083580918610096, 0.03205127269029617, 0.029408959671854973, 0.04098229855298996, 0.005548860412091017, 0.014876230619847775, 0.026674164459109306, -0.003976683132350445, 0.0017769564874470234, 0.0032847272232174873, -0.0071606719866395, 0.0032500468660146, -0.017029715701937675, 0.024071484804153442, 0.013330476358532906, -0.02927684411406517, 0.027823571115732193, 0.029620345681905746, 0.010793854482471943, -0.03889486938714981, -0.0011576639954000711, -0.004075769800692797, -0.010575863532721996, 0.0019090721616521478, -0.09734286367893219, 0.004719834309071302, 0.028352033346891403, 0.03992537036538124, -0.021838728338479996, 0.02721583843231201, 0.00029664108296856284, 0.025485122576355934, 0.009545360691845417, -0.0022822991013526917, -0.00814493466168642, -0.011295894160866737, -0.004881675820797682, 0.0036067592445760965, 0.05012470483779907, 0.004432482644915581, 0.002908197231590748, 0.0031493084970861673, -0.009836015291512012, 0.00098508782684803, 0.013740034773945808, -0.021680189296603203, 0.004326790105551481, -0.013403140008449554, -0.003831355832517147, -0.00470001669600606, -0.015312212519347668, -0.00034164299722760916, 0.008613944984972477, 0.01047017052769661, -0.027480069547891617, -0.035829782485961914, 0.00729939341545105, -0.00617310730740428, -0.0032616069074720144, -0.018786855041980743, -0.01303982175886631, -0.011520490981638432, 0.015047980472445488, -0.03519563004374504, 0.01434776745736599, 0.017835622653365135, 0.003022147109732032, -0.03720378875732422, 0.013396534137427807, -0.03384804725646973, -0.02152165025472641, 0.019645607098937035, 0.0045183575712144375, -0.006331645883619785, -0.0007097091292962432, 0.005743730813264847, -0.02824634127318859, 0.009836015291512012, 0.03923837095499039, 0.008204386569559574, -0.002830579411238432, 0.008699820376932621, -0.0271101463586092, -0.01565571315586567, 0.013086061924695969, -0.0008868267759680748, -0.028563419356942177, -0.00636797770857811, 0.00942645687609911, 0.02232755720615387, -0.02977888286113739, 0.014691268093883991, 0.015074403956532478, 0.004716531373560429, -0.01241227239370346, 0.008244020864367485, 0.010820277966558933, -0.014876230619847775, -0.017809199169278145, -0.012181069701910019, -0.025485122576355934, -0.018007373437285423, 0.013119091279804707, -0.02293528988957405, -0.018694374710321426, -0.011071297340095043, -0.012914312072098255, -0.013033215887844563, 0.025062352418899536, 0.035459861159324646, 0.014228863641619682, -0.00718709547072649, 0.018165912479162216, -0.048116546124219894, 0.009994554333388805, 0.03839282691478729, 0.023252366110682487, -0.008587521500885487, 0.013086061924695969, 0.0138325160369277, 0.013046427629888058, -0.020808225497603416, 0.011877203360199928, -0.013158725574612617, -0.03440293297171593, -0.010628709569573402, -0.07356203347444534, -0.00631182873621583, 0.002528364537283778, -0.01762423664331436, 0.011243048124015331, -0.013171937316656113, 0.007319211028516293, 0.00888478197157383, 0.019592761993408203, 0.017280736938118935, -0.025128411129117012, 0.02068932168185711, -0.014030689373612404, -0.010998633690178394, -0.016052059829235077, -0.02444140799343586, 0.02134990133345127, -0.021402746438980103, 0.025696508586406708, 0.016871178522706032, 0.0264099333435297, -0.0010486685205250978, 0.0015696999616920948, 0.002437534974887967, -0.016474829986691475, -0.0010412370320409536, -0.02371477149426937, 0.003088204888626933, 0.012266945093870163, 0.018390508368611336, 0.031575657427310944, -0.01784883439540863, -0.013224783353507519, 0.05437882989645004, -0.010641921311616898, -0.0135550731793046, 0.0024457923136651516, 0.03561839833855629, 0.018813278526067734, 0.03950260207056999, -0.03133784979581833, -0.01935495249927044, 0.029435383155941963, 0.00045662495540454984, -0.009921890683472157, -0.0027513098903000355, 0.015999214723706245, 0.010404112748801708, 0.0015952973626554012, 0.012233915738761425, 0.012722743675112724, 0.026951607316732407, 0.01626344583928585, -0.020596841350197792, -0.001580434269271791, 0.004498540423810482, 0.00016504143422935158, 0.008699820376932621, 0.0031493084970861673, -0.0403217189013958, 0.0447608083486557, 0.01757139153778553, 0.01621059887111187, -0.008224203251302242, 0.002736446913331747, -0.00828365609049797, -0.005400230176746845, -0.00018145269132219255, 0.01693723537027836, -0.012167857959866524, -0.008977263234555721, -0.014783749356865883, 0.015550020150840282, -0.02240682579576969, 0.015972791239619255, -0.03981968015432358, -0.014479883015155792, -0.02718941494822502, -0.01148085668683052, 0.02280317433178425, -0.009320763871073723, 0.005961721763014793, -0.02880122698843479, 0.018060218542814255, 0.012934128753840923, -0.013469197787344456, -0.0019602670799940825, -0.0038875050377100706, -0.005089757964015007, 0.005476196762174368, 0.01905108615756035, 0.002999026793986559, 0.0319720059633255, 0.006526516750454903, -0.01262365747243166, 0.034772858023643494, -0.01235942542552948, -0.01063531544059515, 0.008210992440581322, 0.009096167050302029, -0.009750139899551868, 0.020702533423900604, -0.005875846836715937, -0.020055167376995087, -0.013284236192703247, 0.008858359418809414, -0.007332422770559788, -0.027744300663471222, 0.015589655376970768, -0.009307553060352802, 0.0068964408710598946, 0.006609089206904173, 0.007305999286472797, 0.0038908079732209444, 0.009836015291512012, 0.006685055326670408, 0.009122590534389019, 0.00367611995</t>
+  </si>
+  <si>
+    <t>[-0.011159426532685757, -0.015281849540770054, 0.006774428300559521, -0.00976121611893177, -0.006656269542872906, 0.01763189397752285, 0.0002207268844358623, 0.01072617806494236, 0.0008541884599253535, -0.005376217886805534, 0.004201195668429136, -0.013397876173257828, -0.023224735632538795, -0.006656269542872906, -0.008225154131650925, 0.010955930687487125, 0.03502747043967247, -0.013627628795802593, -0.001024862052872777, -0.020612116903066635, -0.025640422478318214, 0.002717648632824421, -0.0010831208201125264, 0.00037847686326131225, 0.010424217209219933, -0.013043399900197983, 0.012052180245518684, -0.041092947125434875, -0.004919994156807661, 0.013916460797190666, -0.007791905198246241, -0.00810699537396431, -0.025916127488017082, 0.0014162624720484018, -0.00046689072041772306, -0.015098047442734241, 0.025614166632294655, 0.004782142583280802, -0.0033379814121872187, 0.003925492521375418, 0.011960279196500778, 0.009229501709342003, 0.0014958555111661553, -0.014822344295680523, -0.005274469964206219, 0.04794614762067795, -0.009026006795465946, -0.0002849346201401204, -0.00834987685084343, -0.005556738004088402, -0.005235083866864443, 0.028673160821199417, 0.008527114987373352, 0.015242463909089565, -0.011133168824017048, -0.039412468671798706, -0.01641092076897621, -0.005297445226460695, 0.014494125731289387, -0.023723628371953964, -0.008527114987373352, -0.01109378319233656, -0.01599080115556717, -0.008619016036391258, -0.009794037789106369, -0.00928201712667942, -0.01347008440643549, -0.001661605783738196, -0.02385491505265236, -0.01763189397752285, 0.022358238697052002, 0.025863612070679665, 0.017973240464925766, -0.015098047442734241, 0.026139315217733383, 0.00026647234335541725, -0.01977187767624855, 0.02170180156826973, 0.017736922949552536, -8.508036989951506e-05, 0.008533678948879242, -0.028436845168471336, -0.011494209058582783, 0.02599489875137806, 0.015150562860071659, 0.02214817889034748, 0.005326984915882349, 0.021386712789535522, 0.006275536492466927, -0.0014482637634500861, 0.009196680039167404, -0.0106211481615901, -0.011120039969682693, 0.0021531127858906984, -0.013397876173257828, -0.00012092797260265797, 0.01312217302620411, -0.0014146213652566075, -0.012951498851180077, -0.0037482543848454952, 0.0008804459357634187, 0.017933854833245277, -0.005402475129812956, -0.027517832815647125, -0.0610748827457428, -0.0014146213652566075, 0.011087218299508095, -0.00015067277126945555, 0.03384588286280632, 0.013509470038115978, 0.007693439722061157, 0.03455483540892601, -0.002487895777449012, -0.039438724517822266, -0.0030048396438360214, -0.02522030472755432, 0.014415353536605835, 0.02118978090584278, 0.00423073535785079, -0.024353807792067528, 0.013614499941468239, 0.019955679774284363, 0.012124388478696346, -0.02669072151184082, 0.05498315021395683, 0.0137195298448205, -0.016804782673716545, -0.008619016036391258, -0.028725676238536835, -0.008756867609918118, 0.0008591117220930755, -0.009780908934772015, -0.00529416324570775, 0.01227536890655756, 0.009012877941131592, 0.001892179250717163, -0.008966927416622639, 0.0125051224604249, -0.020546473562717438, -0.03332073614001274, 0.017329933121800423, 0.015006146393716335, -0.039202407002449036, 0.005783208645880222, 0.001545088249258697, 0.048943933099508286, 0.0038828239776194096, 0.03494869917631149, -0.0010937879560515285, -0.002299170009791851, 0.024931471794843674, -0.03150896728038788, 0.006666116416454315, -0.005930907092988491, 0.022988418117165565, 0.011257891543209553, -0.02476079761981964, 0.0125051224604249, -0.003252644557505846, 0.010870594531297684, -0.011126604862511158, 0.030143579468131065, -0.004319354426115751, -0.013023707084357738, 0.040410254150629044, 0.02121603861451149, 0.003191924188286066, 0.03077375888824463, -0.01719864457845688, 0.0018134068232029676, 0.012354141101241112, 0.019863778725266457, -0.022725842893123627, 0.028226785361766815, 0.022752100601792336, 0.03833591192960739, -0.0038303090259432793, 0.012347577139735222, -0.0027964210603386164, -0.007122339680790901, -0.010319187305867672, 0.004112577065825462, 0.026638207957148552, 0.023421667516231537, -0.015229335054755211, 0.0049823555164039135, -0.0025814378168433905, 0.017106743529438972, 0.013995233923196793, 0.0064330813474953175, -0.013535727746784687, 0.006157377734780312, -0.015203077346086502, 0.0024944599717855453, -0.6528658270835876, 0.010089434683322906, 0.0013350284425541759, -0.003528348170220852, 0.026743236929178238, 0.012984320521354675, 0.01599080115556717, 0.012249111197888851, -0.02671697922050953, -0.024970857426524162, -0.02809549681842327, 0.001564781297929585, 0.006472467444837093, -0.011165990494191647, -0.017815696075558662, -0.020375799387693405, 0.007936321198940277, -0.02498398721218109, 0.024445708841085434, -0.006416670046746731, -0.0028358071576803923, 0.020152611657977104, -0.018971024081110954, 0.008573065511882305, -0.0011643548496067524, 0.016135217621922493, 0.017001714557409286, -0.01975874975323677, -0.009964711032807827, -0.015163690783083439, -0.015649454668164253, 0.011743655428290367, 0.003206694032996893, -0.010358573868870735, 0.047499772161245346, 0.02930334024131298, -0.01810452900826931, 0.038913577795028687, 0.016489693894982338, 0.017802568152546883, -0.006984488107264042, -0.007942886091768742, 0.02097972109913826, -0.007923192344605923, 0.007122339680790901, 0.0012045616749674082, 0.04413881525397301, 0.0070041813887655735, -0.011730526573956013, -0.012360705994069576, 0.005950599908828735, -0.006735042203217745, 0.02049395814538002, 0.012905548326671124, 0.014874858781695366, -0.01501927524805069, 0.015780741348862648, -0.0038303090259432793, 0.00565848546102643, -0.005632228218019009, -0.009879374876618385, -0.004440795164555311, -0.004263557493686676, -0.026546306908130646, 0.003090176498517394, -0.014861729927361012, -0.037075553089380264, -0.008612451143562794, -0.009117907844483852, -0.004870761651545763, 0.016266504302620888, 0.017474349588155746, -0.020887820050120354, -0.006872893776744604, 0.003630095859989524, 0.012419785372912884, 0.014021490700542927, -0.005802901927381754, 0.008540243841707706, 0.03355705365538597, 0.016095831990242004, -0.026533177122473717, -0.012347577139735222, -0.013693273067474365, 0.02930334024131298, 0.0005444323178380728, -0.00036596355494111776, 0.0036366600543260574, 0.03620905801653862, 0.006826943252235651, 0.0075818453915417194, 0.010424217209219933, 0.011041267774999142, -0.03447606414556503, -0.020900949835777283, 0.004975791554898024, -0.0212422963231802, 0.032480496913194656, -0.012295062653720379, -0.01743496209383011, -0.009032570756971836, -0.015452523715794086, 0.016752269119024277, 0.006301793735474348, 0.00196766946464777, 0.008330184035003185, -0.021281681954860687, 0.011389179155230522, 0.040594056248664856, -0.0011709192767739296, -0.038047078996896744, 0.01419216487556696, 0.004660701844841242, -0.010443910025060177, -0.01189463585615158, -0.017684409394860268, 0.029618430882692337, 0.010371701791882515, 0.01687042787671089, -0.00821202527731657, 0.006712066940963268, -0.009971275925636292, -0.0039681605994701385, -0.03122013621032238, -0.001708376919850707, 0.004342329688370228, 0.025916127488017082, -0.01664723828434944, -0.03599899634718895, -0.012176903896033764, 0.014139649458229542, -0.0014597513945773244, 0.011487645097076893, -0.004234017804265022, 0.02927708439528942, 0.014336580410599709, 0.02481331303715706, -0.013640757650136948, 0.0029227850027382374, -0.03833591192960739, -0.037075553089380264, -0.029172053560614586, 0.008927540853619576, -0.02570606768131256, -0.01178960595279932, -0.011172555387020111, -0.03332073614001274, 0.018012627959251404, -0.05025680363178253, 0.0271502286195755, -0.022331980988383293, 0.00625912519171834, -0.01738244853913784, 0.010949366725981236, 0.01144825853407383, 0.006095016375184059, -0.014704185537993908, -0.015413137152791023, -0.03353079408407211, 0.002845653798431158, 0.030064808204770088, -0.0018216122407466173, -0.004805117845535278, -0.018262073397636414, -0.0006880278815515339, -0.026126187294721603, -0.005103796720504761, 0.005290880799293518, -0.0068860226310789585, -0.040173936635255814, 0.009610235691070557, -0.02311970666050911, -0.0028161141090095043, 0.005320420488715172, -0.005044717341661453, -0.007476815953850746, -0.03148271143436432, -0.004627879709005356, -0.019916294142603874, -0.0026503638364374638, 0.011704268865287304, 0.004713216796517372, -0.01261015236377716, -0.018406489863991737, 0.012176903896033764, -0.00037457927828654647, 0.017054229974746704, -0.011008446104824543, -0.011467951349914074, 0.01617460325360298, 0.013456955552101135, 0.0011651754612103105, 0.008960363455116749, -0.008402391336858273, -0.010279800742864609, -0.0008246487705036998, -0.008474599570035934, -0.0014064159477129579, -0.015780741348862648, 0.025456620380282402, 0.02195124886929989, 0.021019108593463898, 0.01904979720711708, -0.02499711513519287, 0.008756867609918118, -0.026362504810094833, 0.010660534724593163, -0.01193402148783207, 0.05860668048262596, -0.01013538520783186, 0.03647163137793541, -0.02498398721218109, -0.040830373764038086, -0.0006958230515010655, 0.004476899281144142, -0.003150896867737174, 0.0121703390032053, 0.00859932228922844, 0.011021574959158897, 0.009472384117543697, 0.02262081392109394, -0.014940503053367138, 0.005806183908134699, 0.008303926326334476, -0.03907112032175064, -0.0023467617575079203, -0.0036169670056551695, 0.04571426287293434, 0.0040370868518948555, -0.0008968568290583789, -0.0017969958717003465, 0.02669072151184082, 0.009754651226103306, 0.006032654549926519, 0.009780908934772015, 0.013863946311175823, 0.002151471795514226, -0.020651502534747124, 0.02453760989010334, 0.0021613184362649918, 0.017500607296824455, 0.029749717563390732, 0.024721411988139153, 0.005366371478885412, 0.021281681954860687, 0.0039550322107970715, 0.031377680599689484, -0.001137276878580451, -0.008914411999285221, -0.016568467020988464, -0.012203160673379898, -0.014008362777531147, 0.001631245599128306, -0.018957896158099174, 0.008389263413846493, 0.015347493812441826, -0.0011528672184795141, 0.007713133003562689, 0.03122013621032238, 0.018262073397636414, -0.001982439309358597, -0.024695154279470444, 0.007220805156975985, 0.019679976627230644, -0.010601455345749855, -0.012452607043087482, 0.039412468671798706, 0.011874943040311337, 0.012695488519966602, 0.00417822040617466, 0.002761957934126258, -0.00042832503095269203, 0.001412980374880135, 0.0025633859913796186, -0.00649544270709157, -0.009557720273733139, -0.02736028842628002, 0.004279968328773975, -0.03318944573402405, 0.01954868994653225, -0.003751536598429084, -0.01618773303925991, 0.0009485512273386121, 0.0361565425992012, 0.009826859459280968, -0.010673663578927517, -0.026835137978196144, 0.004119141027331352, -0.022266337648034096, 0.008336747996509075, -0.004309508018195629, 0.005212108604609966, -0.012879290618002415, 0.016555337235331535, -0.001335848937742412, -0.012807083316147327, -0.016135217621922493, -0.01739557646214962, 0.02146548591554165, -0.022555170580744743, 0.007706568576395512, -0.016345277428627014, -0.00976121611893177, -0.0011922534322366118, 0.015623196959495544, -0.0003064739576075226, -0.024721411988139153, -0.012478864751756191, -0.015859514474868774, -0.005701154004782438, -0.005353242624551058, 0.007673746906220913, 0.0032231048680841923, -0.01928611472249031, -0.01687042787671089, 0.016003930941224098, 0.0137195298448205, 0.03374085575342178, 0.011343228630721569, -0.009964711032807827, -0.009150729514658451, -0.03077375888824463, -0.021294811740517616, -0.00360055617056787, 0.09536714851856232, -0.0028817576821893454, 0.002437021816149354, 0.02384178712964058, -0.03308441862463951, -0.02596864104270935, -0.004079754929989576, -0.008507421240210533, -0.006866329349577427, 0.009334531612694263, -0.004099448211491108, -0.026349375024437904, 0.014664798974990845, 0.01202592346817255, 0.0005981780705042183, -0.016095831990242004, -0.010936237871646881, -0.01595141552388668, 0.01883973740041256, 0.00928201712667942, 0.01226880494505167, -0.003293671878054738, -0.026086799800395966, 0.04852381348609924, 0.007818162441253662, 0.006098298355937004, 0.0014384172391146421, 0.007850985042750835, 0.013069657608866692, -0.022738972678780556, 0.00762779638171196, -0.004394844640046358, -0.0152687206864357, 0.010122256353497505, -0.030327381566166878, 0.015452523715794086, -0.004460488446056843, 0.01035200897604227, 0.005530480295419693, -0.011251327581703663, 0.018642807379364967, 0.02069089002907276, -0.0005432015168480575, -0.011402308009564877, -0.0041585275903344154, -0.021150395274162292, 0.0046968054957687855, 0.023303508758544922, -0.01713300123810768, 0.00047140370588749647, 0.020809048786759377, -0.009505205787718296, 0.00262082414701581, -0.013995233923196793, 0.01024041511118412, 0.005779926665127277, 0.025548521429300308, 0.005372935440391302, -0.028699418529868126, -0.0032592089846730232, 0.01763189397752285, -0.04429635778069496, 0.011008446104824543, -0.006587343756109476, -0.01880035176873207, 0.007063260301947594, -0.029749717563390732, 0.010627713054418564, -0.013200945220887661, 0.009794037789106369, -0.007549023721367121, -0.01642405055463314, -0.007384914439171553, 0.002487895777449012, 0.0233166366815567, -0.026493791490793228, 0.00941330473870039, -0.00906539335846901, -0.006045783404260874, 0.0419069267809391, -0.009853117167949677, -0.008783125318586826, -0.022463269531726837, -0.021977506577968597, -0.00476244930177927, 0.02504963055253029, 0.004959380254149437, -0.0011290713446214795, -0.013036835938692093, 0.013082786463201046, 0.009478948079049587, -0.017999498173594475, 0.03476489707827568, 0.015189948491752148, 0.00666939839720726, -0.0009567567030899227, 0.034213487058877945, 0.0006252560997381806, 0.027806665748357773, -0.020677760243415833, 0.020546473562717438, 0.009111343882977962, -0.003932056948542595, 0.0034856796264648438, 0.013772045262157917, 0.005031588487327099, 0.0013965694233775139, -0.009538027457892895, -0.005333549343049526, 0.002829242730513215, 0.006892587058246136, -0.005819312762469053, -0.0035414767917245626, -0.0024665615055710077, -0.025889869779348373, -0.016752269119024277, -0.02452448010444641, 0.02788543701171875, 0.018944768235087395, -0.010338880121707916, -0.014074006117880344, -0.02284400165081024, 0.007936321198940277, 0.011645189486443996, -0.014664798974990845, 0.013082786463201046, -0.02814801223576069, -0.01034544501453638, -0.01310247927904129, -0.0002718058822210878, 0.028489358723163605, 0.016069574281573296, -0.0009723471011966467, -0.02147861383855343, -0.027544090524315834, -0.026756366714835167, 0.0024058411363512278, -0.009800601750612259, -0.011973408050835133, -0.021176652982831, -0.03980633243918419, 0.03486992418766022, 0.006833507679402828, -0.0074571226723492146, -0.02027077041566372, -0.02171493135392666, -0.01203248742967844, -0.020349541679024696, -0.02096659317612648, 0.02045457251369953, 0.0011824069079011679, 0.007667182479053736, -0.0008029043092392385, 0.009990968741476536, -0.004509720951318741, -0.029986035078763962, -0.017500607296824455, -0.0171855166554451, 0.02287025935947895, 0.0064823138527572155, 0.0016804783372208476, 0.007450558245182037, 0.0252334326505661, 0.015229335054755211, 0.004847785923629999, -0.024196261540055275, -0.006977923680096865, 0.01226880494505167, -0.029907263815402985, 0.017763180658221245, -0.01392958965152502, 0.023461053147912025, -0.013877075165510178, 0.0025075888261198997, -0.009255759418010712, 0.013588243164122105, 0.0020612117368727922, 0.006108144763857126, -0.02451135218143463, -0.006925408728420734, -0.0008443418773822486, -0.0018823327263817191, -0.006354308687150478, 0.002023466629907489, 0.0009091650135815144, 0.0022286029998213053, 0.013312539085745811, 0.018695320934057236, 0.005563302431255579, -0.015413137152791023, 0.025653552263975143, -0.022817745804786682, 0.019391143694519997, 0.004703369922935963, 0.004437513183802366, -0.009715265594422817, -0.017776310443878174, -0.03211288899183273, -0.01574135571718216, -0.0044112554751336575, -0.010785257443785667, -0.01488798763602972, 0.009216373786330223, -0.015898900106549263, 0.012157210148870945, 0.025167789310216904, 0.0077787768095731735, -0.014979888685047626, -0.0009181910427287221, -0.019141698256134987, -0.031771544367074966, 0.021609900519251823, -0.008533678948879242, -0.013653886504471302, -0.02426190674304962, -0.001875768299214542, -0.012905548326671124, 0.034449804574251175, -0.018944768235087395, -0.0020677761640399694, 0.03497495502233505, -0.01133666466921568, 0.029986035078763962, 0.0010880440240725875, 0.018721578642725945, 0.013200945220887661, 0.0012816929956898093, 0.010601455345749855, 0.03699678182601929, -0.008993185125291348, -0.003298595082014799, 0.018524648621678352, 0.011881507001817226, -0.011533595621585846, -0.027465317398309708, 0.016489693894982338, 0.03812585398554802, -0.031535226851701736, -0.019837521016597748, 0.03791579231619835, 0.022476397454738617, 0.011054396629333496, -0.01647656410932541, 0.014809215441346169, -0.0028538592159748077, 0.011152861639857292, -0.017973240464925766, -0.007017309777438641, -0.011743655428290367, -0.005999832879751921, -0.01536062266677618, 0.0106211481615901, -0.026086799800395966, 0.01536062266677618, -0.007181419059634209, 0.00941330473870039, 0.018511518836021423, 0.001034708577208221, -0.03452857956290245, 0.019430531188845634, -0.0007889550179243088, 0.011868378147482872, -0.013995233923196793, -0.006131120026111603, 0.015439394861459732, -0.0013875433942303061, -0.014612284488976002, -0.009557720273733139, 0.0023533261846750975, 0.02506275847554207, -0.007424301002174616, -0.0019003846682608128, 0.011914328671991825, 0.009564285166561604, 0.01839336007833481, -0.01742183417081833, -0.015058661811053753, 0.005950599908828735, 0.014415353536605835, -0.007785341236740351, -0.001545088249258697, 0.006242714356631041, -0.007082953583449125, 0.010122256353497505, -0.006715348921716213, -0.0008582911686971784, -0.011467951349914074, -0.03140394017100334, 0.00015159588656388223, -0.007384914439171553, 0.007187983486801386, -0.0020201844163239002, -0.008730609901249409, 0.008619016036391258, -0.006561086513102055, -0.009689007885754108, 0.002463279291987419, 0.028673160821199417, -0.013509470038115978, -0.00439812708646059, 0.009590541943907738, 0.007489944342523813, -0.011435129679739475, -0.0014384172391146421, -0.013004014268517494, -0.007594974245876074, 0.02670385129749775, -0.021019108593463898, -0.041828155517578125, -0.0073717860504984856, -0.0042898147366940975, -0.009734958410263062, -0.002267989329993725, -0.03292687237262726, 0.011257891543209553, -0.02407810278236866, -0.0013292846269905567, -0.010161641985177994, -0.042773425579071045, 0.010430781170725822, -0.00428325030952692, 0.016542209312319756, 0.02764911949634552, -0.028988251462578773, -0.005356524605304003, 0.0193255003541708, 0.010686791501939297, 0.014231550507247448, -0.026309989392757416, 0.007358657196164131, 0.01597767323255539, 0.012787389568984509, 0.009222937747836113, -0.016161475330591202, -0.0012373834615573287, -0.012150646187365055, -0.049941714853048325, 0.02552226558327675, 0.009144165553152561, -0.016607852652668953, 0.009236066602170467, 0.019167955964803696, 0.02076966129243374, 0.0065676504746079445, -0.005786490626633167, 0.0040567796677351, -0.028646904975175858, -0.007365221623331308, -0.02386804297566414, 0.0034594221506267786, -0.02453760989010334, 0.031167620792984962, -0.002916220808401704, -0.02691391110420227, -0.01690981350839138, 0.004532696679234505, -0.02171493135392666, 0.010535811074078083, 0.021885603666305542, -0.0007996221538633108, -0.008783125318586826, 0.01546565257012844, -0.005317138507962227, -0.0003329365572426468, -0.0030393025372177362, 0.03234920650720596, -0.025692937895655632, -0.00055058638099581, 0.0264806617051363, -0.013397876173257828, 0.029250826686620712, -0.009741523303091526, -0.04193318635225296, -0.026323117315769196, 0.022279467433691025, 0.0013112325686961412, 3.007814120792318e-05, 0.02191186137497425, -0.010496425442397594, -0.007358657196164131, 0.016345277428627014, 0.012347577139735222, -0.002880116691812873, 0.024366935715079308, 0.03098381869494915, -0.030196094885468483, 0.006820378825068474, -0.02118978090584278, 0.006692373659461737, -0.027806665748357773, 1.7423782992409542e-05, -0.011769913136959076, 0.0017658150754868984, 0.02524656057357788, -0.005579713266342878, -0.01192089356482029, 0.0015828333562240005, -0.004805117845535278, 0.015688840299844742, 0.006977923680096865, -0.009459255263209343, 0.0049987668171525, 0.0030507901683449745, -0.0032592089846730232, -0.015596939250826836, -0.01927298679947853, -0.026835137978196144, -0.013732658699154854, 0.010332316160202026, -0.012334448285400867, 0.017474349588155746, -0.021097879856824875, 0.0240518469363451, -0.015623196959495544, -0.0016706318128854036, -0.0028965275269001722, 0.01179616991430521, -0.01647656410932541, 0.026113057509064674, 0.009597106836736202, -0.0162271186709404, 0.0010847619269043207, -0.012019358575344086, -0.013968976214528084, -0.007082953583449125, -0.012255676090717316, 0.006899151485413313, -0.018025755882263184, -0.012656102888286114, -0.00020688016957137734, -0.03935995325446129, -0.029250826686620712, 0.005179286934435368, 0.0060753230936825275, -0.011809298768639565, -0.012879290618002415, 0.20459823310375214, -0.012826776131987572, -0.015649454668164253, 0.012150646187365055, 0.009570849128067493, 0.02048083022236824, 0.008927540853619576, -0.0073717860504984856, -0.002523999661207199, 0.009104778990149498, -0.031535226851701736, 0.01839336007833481, 0.007719697430729866, 0.0012209725100547075, 0.018445875495672226, 0.00594731792807579, -0.024695154279470444, -0.024616381153464317, -0.002839089371263981, 0.023776141926646233, -0.008481164462864399, -0.018905380740761757, 0.02146548591554165, -0.003287107450887561, 0.005487812217324972, -0.0035447590053081512, 0.0022827591747045517, -0.010706485249102116, 0.023526696488261223, 0.017316803336143494, 0.015071789734065533, -0.007384914439171553, -0.011087218299508095, -0.010667098686099052, 0.017579378560185432, -0.003429882461205125, -0.019706234335899353, -0.024012459442019463, 0.03458109498023987, 0.01264297403395176, -0.0004071959701832384, 0.004545825067907572, -0.0016747345216572285, 0.009570849128067493, -0.02645440585911274, 0.006239432375878096, 0.004795270971953869, -0.0130959153175354, -0.007253627292811871, 0.02122916840016842, -0.014047748409211636, -0.019443659111857414, -0.008540243841707706, 0.0444013886153698, 0.01024697907269001, 0.008605887182056904, 0.014953631907701492, 0.00042750450666062534, 0.011704268865287304, 0.02146548591554165, -0.01838023215532303, 0.03150896728038788, -0.028200527653098106, -0.0035907095298171043, 0.011001881211996078, 0.002350043971091509, -0.014139649458229542, 0.015334364958107471, 0.029618430882692337, 0.0054221684113144875, 0.015583810396492481, -0.01761876419186592, -0.019194213673472404, -0.0033100827131420374, -0.006833507679402828, -0.02499711513519287, 0.0371805839240551, -0.00316074350848794, 0.027281515300273895, -0.0026520048268139362, 0.013161558657884598, -0.0055075050331652164, -0.0152687206864357, 0.014612284488976002, 0.0026437994092702866, 0.0034397291019558907, 0.01886599510908127, 0.010069740936160088, -0.016095831990242004, -0.010745870880782604, -0.0008582911686971784, -0.030616214498877525, 0.011343228630721569, -0.0024386628065258265, 0.001243947888724506, 0.01347008440643549, 0.010581761598587036, 0.01715925894677639, -0.03568390756845474, 0.004368587397038937, -0.006892587058246136, 0.009682443924248219, 0.03689175099134445, -0.006173788569867611, -0.028489358723163605, 0.008993185125291348, 0.0081135593354702, 0.005560019984841347, 0.02314596250653267, -0.016056444495916367, -0.007023874204605818, -0.016489693894982338, -0.0028735522646456957, -0.001305488753132522, 0.01071961410343647, 0.002844012575224042, 0.02553539350628853, -0.024235649034380913, 0.01110034715384245, -0.014008362777531147, -0.02361859753727913, -0.016739139333367348, 0.0011208659270778298, 0.013667015358805656, -0.003114792751148343, -0.02262081392109394, -0.02356608211994171, 0.021294811740517616, -0.002381224650889635, -0.007535894867032766, 0.021517999470233917, 0.01368014421314001, -0.0011307124514132738, 0.012065309099853039, -0.014507254585623741, -0.0032838252373039722, -0.01933863013982773, -0.008769996464252472, -0.004595058038830757, 0.00918355118483305, 0.00465741939842701, 0.002543692709878087, 0.004220888949930668, -0.020086968317627907, 0.019916294142603874, -0.011382615193724632, 0.005491094198077917, 0.008192331530153751, 0.011612367816269398, -0.01664723828434944, 0.019391143694519997, -0.010732742957770824, -0.046318184584379196, -0.02932959794998169, 0.014362838119268417, -0.03455483540892601, -0.017933854833245277, -0.019351758062839508, 0.015400008298456669, 0.022030020132660866, -0.023644855245947838, -0.0033527512568980455, 0.02577171102166176, 0.00034380878787487745, 0.0014482637634500861, 0.019456788897514343, -0.16594722867012024, 0.019850650802254677, 0.031535226851701736, -0.009190116077661514, 0.017487477511167526, 0.00123410124797374, 0.0008012632024474442, 0.010804950259625912, -0.009262324310839176, 0.03505372628569603, 0.01693607121706009, 0.020835306495428085, -0.021321069449186325, -0.03261178359389305, -0.00039693916914984584, 0.00028165243566036224, 0.005399193149060011, 0.03607776761054993, 0.04860258474946022, -0.0009346019942313433, 0.01261015236377716, -0.01571509800851345, 0.017316803336143494, -0.018262073397636414, 0.00476244930177927, 0.0036990216467529535, -0.005343395750969648, -0.016095831990242004, 0.008920976892113686, -0.001183227403089404, -0.0021547540090978146, 0.0024074821267277002, 0.013627628795802593, -0.007700004149228334, 0.002213833387941122, 0.003410189412534237, 0.004739474039524794, -0.004355458542704582, -0.021859347820281982, 0.012833340093493462, 0.0036727641709148884, 0.0033478280529379845, -0.014336580410599709, -0.008015094324946404, -0.019693106412887573, 0.03741690143942833, 0.044007524847984314, -0.0059112138114869595, -0.02620495855808258, -0.0012685642577707767, 0.015347493812441826, 0.004595058038830757, 0.0261918306350708, 0.007181419059634209, 0.033005643635988235, 0.0212422963231802, 0.013174687512218952, 0.022752100601792336, -0.013916460797190666, 0.001162713742814958, -0.0005079180118627846, -0.02145235612988472, 0.002926067216321826, 0.0005005330895073712, -0.025102145969867706, 0.011559853330254555, -0.008015094324946404, 0.009800601750612259, -0.01465167012065649, 0.017553120851516724, 0.013161558657884598, -0.006049065385013819, 0.029145795851945877, -0.007535894867032766, 0.022594556212425232, 0.0016936070751398802, -0.006813814397901297, -0.019863778725266457, 0.012183467857539654, 0.008047915995121002, -0.004227453377097845, 0.03069498762488365, -0.03723309934139252, -0.010161641985177994, 0.0015467293560504913, 0.012006229721009731, 0.0008558295667171478, 0.03124639391899109, -0.018721578642725945, 0.011257891543209553, 0.003001557430252433, -0.02785917930305004, 0.0060293725691735744, -0.0230934489518404, 0.006262407638132572, 0.019942551851272583, -0.0007380811730399728, 0.0072076767683029175, 0.0009830142371356487, -0.019850650802254677, -0.002543692709878087, 0.007023874204605818, -0.013384747318923473, 0.00531057408079505, 0.0380733385682106, 0.03557887673377991, -0.002272912533953786, 0.00601624371483922, 0.020086968317627907, 0.009367354214191437, 0.014113392680883408, -0.006505289115011692, 0.011192248202860355, 0.023973073810338974, -0.028961993753910065, -0.00032657734118402004, 0.028961993753910065, -0.012196596711874008, 0.02671697922050953, -0.021163523197174072, 0.01478295773267746, 0.006735042203217745, -0.012807083316147327, 0.02575858123600483, -0.009813730604946613, -0.020809048786759377, -0.09484199434518814, -0.0064002592116594315, 0.0230934489518404, 0.014362838119268417, -0.009787473827600479, -0.007253627292811871, -0.012531379237771034, 0.03602525591850281, 0.02694016881287098, -0.003103305120021105, -0.029933519661426544, -0.012052180245518684, 0.006866329349577427, -0.013653886504471302, 0.03360956534743309, 0.01786821149289608, 0.002258142689242959, 0.008389263413846493, -0.0026749800890684128, 0.0015270361909642816, 0.012839904986321926, 0.003042584750801325, 0.01621399074792862, -0.013082786463201046, 0.003741689957678318, -0.03234920650720596, -0.03529004380106926, 0.028069239109754562, 0.015596939250826836, 0.010430781170725822, 0.0031410502269864082, -0.01324033085256815, 0.0018774094060063362, -0.029592173174023628, 0.01131697092205286, 0.013456955552101135, 0.004562235902994871, -0.019916294142603874, 0.010745870880782604, -0.03413471579551697, -0.017553120851516724, -0.0012423067819327116, 0.038992349058389664, -0.04571426287293434, 0.010463603772222996, -0.02980223298072815, -0.011152861639857292, 0.006180352997034788, -0.013693273067474365, -0.009570849128067493, -0.02122916840016842, -0.0009444485185667872, -0.013745787553489208, -0.009229501709342003, 0.021531129255890846, -0.007956014946103096, -0.00786411389708519, 0.018262073397636414, -0.03308441862463951, -0.02403871715068817, -0.00649544270709157, 0.006748170591890812, -0.011165990494191647, 0.0030737656634300947, 0.006502007134258747, 0.0011307124514132738, -0.02549600787460804, 0.010693356394767761, 0.02094033546745777, -0.021767446771264076, 0.015032404102385044, 0.0052679055370390415, 0.0045753647573292255, 0.003899234812706709, -0.026401890441775322, -0.03048492781817913, -0.01688355579972267, -0.006308358162641525, -0.01082464400678873, -0.025837354362010956, -0.006715348921716213, -0.003984571900218725, 0.006298511754721403, 0.009597106836736202, 0.012216289527714252, 0.018721578642725945, -0.0003870926157105714, -0.007555588148534298, 0.01687042787671089, -0.016804782673716545, -0.010273236781358719, 0.008363005705177784, -0.009124471805989742, -0.030301125720143318, -0.01664723828434944, 0.0031623844988644123, 0.01642405055463314, -0.00630507618188858, 0.0063608731143176556, 0.021793702617287636, -0.030458670109510422, -0.02360546961426735, -0.07100021094083786, 0.007247062865644693, 0.015662582591176033, -0.001504060928709805, -0.003095099702477455, 0.02308031916618347, 0.014362838119268417, 0.022922774776816368, 0.008980056270956993, 0.03305815905332565, -0.03363582491874695, 0.0034791151992976665, 0.017999498173594475, -0.029881006106734276, -0.015518167056143284, -0.02426190674304962, 0.03329447656869888, 0.0032920308876782656, 0.006042501423507929, -0.006702220067381859, 0.01667349599301815, -0.004988919943571091, 0.04791989177465439, 0.002619182923808694, -0.047053392976522446, 0.0012258958304300904, -0.028069239109754562, 0.02880444936454296, -0.010502989403903484, 0.01071961410343647, 0.017763180658221245, -0.029172053560614586, -0.008888155221939087, 0.028226785361766815, -0.014389095827937126, -0.02359233982861042, -0.017789438366889954, 0.04214324429631233, 0.00787067785859108, 0.025443492457270622, -0.03140394017100334, -0.03426600247621536, 0.023671112954616547, 0.01788133941590786, -0.01719864457845688, 0.0019250010373070836, -0.00031180749647319317, -0.0053368317894637585, 0.017539992928504944, -0.016017058864235878, 0.016726011410355568, 0.011842120438814163, 0.0030360203236341476, -0.021084751933813095, -0.01669975370168686, 0.02289651706814766, -0.01647656410932541, 0.016594722867012024, 0.005271187983453274, -0.01978500746190548, 0.03318944573402405, 0.013732658699154854, 0.023395409807562828, 0.004706652369350195, -0.011408872902393341, -0.03978007286787033, -0.01664723828434944, -0.004864197224378586, 0.007306142244488001, -0.025561651214957237, -0.027544090524315834, 0.000530483026523143, 0.019010411575436592, 0.013391312211751938, 0.017553120851516724, -0.009721829555928707, -0.02524656057357788, -0.015426266007125378, -0.012629845179617405, 0.039202407002449036, 0.0055534555576741695, 0.0023270687088370323, -0.0030196094885468483, -0.004191349260509014, 0.006574214901775122, 0.008487728424370289, -0.031613998115062714, -0.01096905954182148, 0.0044900281354784966, 0.01169114001095295, -0.0033511100336909294, 0.0053827823139727116, 0.02120291069149971, 0.018432747572660446, -0.004755884874612093, 0.01642405055463314, -0.009006313979625702, -0.011435129679739475, -0.002044800901785493, 0.007791905198246241, -0.008868461474776268, 0.012472299858927727, -0.00906539335846901, -0.01856403425335884, 0.007588409818708897, -0.0005592021625488997, -0.018511518836021423, -0.029408371075987816, 0.006557804066687822, 0.011494209058582783, -0.011717397719621658, 0.01536062266677618, 0.02762286178767681, -0.005376217886805534, 0.011008446104824543, 0</t>
+  </si>
+  <si>
+    <t>[-0.021723439916968346, -0.011686229147017002, -0.0023951660841703415, -0.015018338337540627, -0.02476254105567932, 0.007400142960250378, 0.0031583483796566725, -0.020660435780882835, -0.015181876718997955, -0.006906118709594011, 0.01345790270715952, -0.0009377943351864815, -0.04393749684095383, -0.015127363614737988, 0.003539939410984516, 0.03407064080238342, 0.016449304297566414, -0.007999786175787449, -0.012170032598078251, -0.028128720819950104, -0.04107556492090225, 0.0027665358502417803, 0.005199179518967867, -0.012040563859045506, 0.010309775359928608, -0.0053082057274878025, 0.01890239119529724, -0.008885622955858707, -0.00659266859292984, 0.02624802105128765, 0.008967392146587372, 0.004241794813424349, -0.020278844982385635, -0.008776596747338772, 0.010752693749964237, -0.009015091694891453, -0.003584231249988079, -0.00715483445674181, 0.013573742471635342, -0.0327078141272068, 0.011447735130786896, 0.004681305959820747, -0.004790332168340683, -0.01575426384806633, -0.007672708015888929, 0.036278415471315384, 0.005199179518967867, -0.00013585668057203293, 0.006619925145059824, -0.003136202460154891, -0.005192365497350693, 0.03202640265226364, -0.0159723162651062, -0.019801855087280273, -0.0047324118204414845, -0.023495113477110863, -0.0005919773830100894, 0.015617981553077698, -0.0029249645303934813, -0.02823774702847004, 0.008265537209808826, 0.004981127567589283, -0.03407064080238342, 0.0015706565463915467, -0.013996219262480736, -0.011747556738555431, 0.0013832679251208901, -0.00014873963664285839, -0.009246771223843098, 0.013873564079403877, 0.017008062452077866, 0.010480129159986973, 0.009764645248651505, 0.005417231936007738, 0.03701434284448624, 0.013723653741180897, -0.019433893263339996, 0.03554249182343483, 0.0036966644693166018, -0.003959008492529392, 0.005887406412512064, -0.027569960802793503, -0.001766562694683671, 0.0349973626434803, 0.045109525322914124, 0.014977453276515007, -0.0177031047642231, 0.010071281343698502, -0.015168248675763607, -0.0011311452835798264, 0.01240171305835247, 0.02251387946307659, 0.00746147008612752, -0.01362825557589531, -0.014268783852458, -0.019079558551311493, -0.02378130704164505, 0.012129147537052631, -0.0016899037873372436, 0.0028295665979385376, -0.009055975824594498, 0.011038887314498425, -0.026902176439762115, -0.007918016985058784, -0.04461890831589699, -0.007318373303860426, 0.01031658984720707, 0.0015757670626044273, 0.03333471342921257, 0.0003492240502964705, -0.004729004576802254, 0.03867699205875397, 0.014582233503460884, -0.030636319890618324, -0.0013006466906517744, -0.03295312449336052, 0.009948627091944218, 0.012626579031348228, 0.00493683572858572, -0.018752479925751686, 0.009314913302659988, 0.0342341773211956, 0.00012968137161806226, 0.007768105715513229, 0.045382093638181686, 0.004694934003055096, -0.006241741124540567, -0.010548270307481289, -0.012428969144821167, -0.012313129380345345, 0.0009718650253489614, -0.017389655113220215, 0.003645558375865221, -0.010343845933675766, -0.005696611013263464, 0.005631876643747091, -0.027542704716324806, 0.03379807621240616, -0.01928398199379444, -0.01297409925609827, 0.0281559769064188, 0.025375813245773315, -0.018193721771240234, 0.00329633429646492, 0.016067713499069214, 0.056039389222860336, 0.0018636640161275864, 0.03486108034849167, 0.008190581575036049, -0.006112272851169109, 0.026643240824341774, -0.026397932320833206, 0.008865180425345898, -0.004200909752398729, 0.022691046819090843, 0.019542919471859932, -0.0167354978621006, 0.006640367675572634, -0.011515876278281212, 0.0046370141208171844, -0.006473421584814787, 0.015440814197063446, -0.015495327301323414, -0.005713646300137043, -0.0029590351041406393, 0.020360615104436874, 0.011120656505227089, 0.012899144552648067, -0.030936140567064285, 0.003286113264039159, -0.005175330210477114, 0.009696504101157188, -0.060018837451934814, 0.012558437883853912, 0.013805422931909561, 0.024299180135130882, 0.0021277114283293486, 0.0070866928435862064, -0.005665947217494249, 0.020319730043411255, -0.0010025285882875323, -0.008211024105548859, 0.03213542699813843, 0.02883739024400711, -0.00453139515593648, -0.0031549411360174417, -0.004367855843156576, 0.020660435780882835, -0.0028908937238156796, -0.005349090322852135, -0.009246771223843098, 0.017975669354200363, 0.0018364074639976025, -0.026275277137756348, -0.6362760066986084, -0.009798715822398663, -0.008374563418328762, -0.017757616937160492, -0.017212487757205963, 0.023576883599162102, 0.031481269747018814, 0.01928398199379444, -0.025552980601787567, -0.012756047770380974, -0.03761398792266846, 0.024026615545153618, 0.016844524070620537, -0.006265590433031321, -0.012940028682351112, 0.000729111663531512, 0.021137425675988197, -0.009601105935871601, 0.017444167286157608, -0.004006707109510899, -0.0010331921512261033, 0.013539671897888184, -0.01842540130019188, 0.0015476588159799576, -0.0020016501657664776, -0.012292686849832535, 0.012537995353341103, -0.013635070063173771, -0.015277274884283543, -0.010248448699712753, -0.013219407759606838, 0.025130504742264748, 0.020360615104436874, -0.0021174901630729437, 0.04778066650032997, 0.027719872072339058, -0.006763021927326918, 0.03248976171016693, 0.011822512373328209, 0.02450360357761383, -0.021628042683005333, -0.02713385783135891, 0.02984588034451008, -0.012367642484605312, 0.008040671236813068, -0.0052298433147370815, 0.031072422862052917, 0.007284302730113268, -0.004180467687547207, -0.02033335715532303, 0.010180307552218437, -0.027583589777350426, -0.03589682653546333, -0.014473207294940948, 0.027719872072339058, -0.0074546560645103455, 0.020306101068854332, -0.025498466566205025, 0.007638637442141771, 0.00621107779443264, 0.009185444563627243, 0.016149483621120453, -0.0016464636428281665, -0.012394898571074009, 0.002713726367801428, 0.014146129600703716, -0.01571337878704071, -0.009069603867828846, 0.02984588034451008, -0.008906065486371517, -0.006139529403299093, 0.027719872072339058, -0.019679201766848564, 0.002984588034451008, 0.006354174111038446, 0.008701641112565994, 0.0023883518297225237, -0.013028612360358238, 0.0034206921700388193, 0.019597431644797325, 0.010595968924462795, 0.004715376533567905, -0.04772615060210228, -0.014773029834032059, 0.030990654602646828, 0.013778166845440865, 0.029873136430978775, 0.0040509989485144615, -0.015154620632529259, -0.014091616496443748, 0.016026828438043594, 0.005652319174259901, 0.008715270087122917, -0.03494284674525261, 0.008940136060118675, 0.014609490521252155, -0.016926294192671776, 0.012149590067565441, -0.00989411398768425, -0.018289119005203247, -0.02544395439326763, 0.002146450337022543, -0.00418387446552515, -0.026697752997279167, 0.007202533073723316, 0.023127149790525436, 0.0005438525695353746, 0.01932486705482006, 0.006562005262821913, -0.009389868006110191, 0.007938459515571594, -0.0036796291824430227, 0.015849661082029343, -0.0016532777808606625, -0.004776703659445047, -0.02446271851658821, 0.02675226703286171, -0.007590938359498978, 0.016490189358592033, -0.0054206387139856815, -0.02318166382610798, -0.007911202497780323, 0.006909525953233242, -0.014445951208472252, -0.007543239742517471, 0.017825758084654808, 0.020864859223365784, -0.009287656284868717, -0.011393222026526928, -0.00028832280077040195, 0.01454134937375784, -0.014677631668746471, -0.01609496958553791, -0.009580664336681366, 0.016926294192671776, 0.016381163150072098, 0.00672895135357976, -0.02386307530105114, 0.01838451810181141, -0.020060792565345764, -0.010548270307481289, -0.009130931459367275, -0.012224545702338219, -0.019229469820857048, -0.004449625499546528, -0.004037370905280113, 0.0016268730396404862, -0.0030101409647613764, -0.037559472024440765, -0.016803639009594917, -0.005863557104021311, -0.006183821242302656, -0.0034632806200534105, 0.02729739621281624, -0.011481805704534054, 0.02123282290995121, 0.012224545702338219, 0.012265430763363838, -0.019679201766848564, 0.009205887094140053, 0.004517766647040844, -0.0020391277503222227, 0.012687906622886658, -0.005792008712887764, 0.006589261814951897, -0.024817053228616714, 0.009785087779164314, 0.004763075616210699, 0.026983946561813354, -0.03715062513947487, 0.00663355365395546, -0.00516851618885994, -0.02191423624753952, 0.030772602185606956, -0.010016768239438534, 0.007127577904611826, -0.04042140766978264, -0.001787005108781159, -0.01634027808904648, -0.00382613274268806, 0.001814261544495821, 0.015263646841049194, -0.023331573233008385, -0.005468337796628475, 0.02883739024400711, -0.011992865242064, 0.02275918796658516, 0.008095184341073036, -0.03240799158811569, 0.02984588034451008, 0.007870317436754704, 0.000325587549014017, 0.00547855906188488, -0.016708241775631905, 0.0012308018049225211, 0.010446058586239815, 0.006640367675572634, -0.011372779496014118, -0.009417125023901463, 0.021042026579380035, 0.025280414149165154, 0.04249290004372597, 0.02454448863863945, 0.0031242775730788708, 0.020537782460451126, -0.05451302230358124, 0.03289860859513283, -0.010350660420954227, 0.05230524763464928, 0.014977453276515007, 0.006984481122344732, -0.02845579758286476, -0.02697031758725643, -0.0018568498780950904, 0.00418387446552515, 0.01898416131734848, 0.018357260152697563, 0.009573849849402905, -0.020183447748422623, 0.00815651100128889, 0.012892330065369606, -0.006064573768526316, 0.01362825557589531, 0.01613585464656353, -0.03052729368209839, 0.0012529477244243026, -0.022663788869976997, 0.0025859614834189415, -0.012238173745572567, -0.03298037871718407, -0.03338922560214996, 0.03712336719036102, 0.0052911704406142235, 0.01046650018543005, 0.0034803159069269896, -0.0007231493364088237, 0.01383949350565672, -0.01677638292312622, 0.021846095100045204, 0.0031719766557216644, 0.017389655113220215, 0.022731930017471313, 0.053013917058706284, 0.010711808688938618, -0.017103461548686028, -0.010003140196204185, 0.011413664557039738, 0.025716518983244896, -0.010405173525214195, 0.004408740904182196, -0.015209133736789227, -0.011120656505227089, -0.002139636082574725, 0.008354120887815952, 0.02793792448937893, 0.012292686849832535, 0.023972101509571075, -0.013049054890871048, 0.019011417403817177, 0.0030084375757724047, 0.003587638260796666, 0.023072637617588043, 0.025253158062696457, 0.017743989825248718, 0.02169618383049965, -0.02199600450694561, 0.011829325929284096, -0.003488833550363779, 0.00481758825480938, -0.01996539533138275, -0.021600784733891487, 0.007406956981867552, -0.006998109631240368, 0.013982590287923813, -0.008885622955858707, 0.0006294550839811563, -0.026016339659690857, 0.0016464636428281665, -0.015999572351574898, 0.005546700209379196, -0.02153264358639717, -0.021042026579380035, 0.0027614254504442215, 0.02165529876947403, 0.01556346844881773, -0.006820942275226116, -0.024994220584630966, 0.02450360357761383, -0.005096967797726393, 0.02556660771369934, 0.019352123141288757, 0.013757724314928055, -0.024299180135130882, 0.01242215558886528, -0.00866075698286295, -0.004361041821539402, -0.009771459735929966, -0.00566935446113348, 0.020374242216348648, 0.012940028682351112, 0.023113522678613663, -0.008040671236813068, -0.001379860914312303, -0.028210489079356194, 0.021628042683005333, -0.013280735351145267, -0.016490189358592033, -0.011733928695321083, -0.01880699396133423, -0.014268783852458, -0.019815484061837196, 0.008027042262256145, -0.0068856761790812016, 0.006463200319558382, 0.0017478237859904766, 0.009485266171395779, -0.014568605460226536, 0.005294577218592167, 0.0376957543194294, 0.0006328621529974043, 0.0001690755452727899, -0.002694987691938877, -0.012408526614308357, 0.024476347491145134, 0.09250859916210175, 0.009519336745142937, -0.01689903810620308, -0.003969229757785797, -0.008231466636061668, -0.006115679629147053, -0.029736854135990143, 0.007045808248221874, 0.002284436486661434, 0.026983946561813354, -0.00588059239089489, -0.023236175999045372, 0.01677638292312622, -0.0033593650441616774, -0.0025484838988631964, -0.02339971624314785, 0.012463039718568325, 0.006415501236915588, -0.0023713165428489447, -0.007543239742517471, -0.020115306600928307, -0.004780110903084278, -0.018575312569737434, 0.015508955344557762, 0.016885409131646156, 0.012095076963305473, 0.01514099258929491, 0.03224445506930351, -0.01698080636560917, -0.018289119005203247, -0.004105512052774429, 0.00545811653137207, -0.014146129600703716, 0.012026935815811157, -0.022105030715465546, -0.00231339642778039, 0.010323403403162956, 0.027883412316441536, -0.009165002033114433, -0.012326757423579693, 0.04314705729484558, 0.02480342611670494, -0.012367642484605312, 4.666080712922849e-05, -0.008524473756551743, -0.011434107087552547, -0.006984481122344732, 0.01991088129580021, -0.007175276521593332, -0.012858259491622448, 0.044945988804101944, -0.021791581064462662, 0.04848933592438698, -0.020019907504320145, 0.0017282331828027964, -0.01826186291873455, 0.011386407539248466, -0.005335462279617786, -0.020101677626371384, -0.01631302200257778, -0.011645345017313957, -0.011924724094569683, -0.00987367145717144, -0.0074546560645103455, -0.027447307482361794, 0.003095317631959915, -0.020183447748422623, -0.0017256778664886951, -0.011665786616504192, -0.0039896718226373196, -0.003676221938803792, 0.02008804865181446, -0.03889504075050354, 0.0030987246427685022, 0.020142562687397003, 0.023726793006062508, 0.019215840846300125, -0.006367802619934082, -0.0008675236604176462, 0.04162069410085678, 0.0033627720549702644, 0.018411774188280106, -0.016381163150072098, -0.0029249645303934813, 0.00879022479057312, 0.02331794612109661, 0.028483055531978607, -0.0422203354537487, -0.023917589336633682, -0.012456226162612438, -0.009648805484175682, 0.02021070383489132, -0.010861719958484173, -0.0007295375689864159, 0.0006754504283890128, 0.007795362267643213, 0.01031658984720707, 0.002591072116047144, -0.0004778407164849341, 0.0015280682127922773, 0.008715270087122917, 0.009710132144391537, -0.04017609730362892, 0.011938352137804031, 0.011413664557039738, 0.002712022978812456, 0.013110382482409477, -0.022990867495536804, -0.014950196258723736, 0.013376133516430855, 0.03156303986907005, -0.00983278639614582, 0.008299607783555984, 0.002923260908573866, -0.030554549768567085, 0.006568819284439087, -0.022064145654439926, 0.04080299660563469, 0.003928344696760178, -0.014568605460226536, -0.007931645028293133, -0.01957017555832863, 0.006776650436222553, 0.0173215139657259, -0.02408112771809101, 0.01587691903114319, -0.005955548025667667, -0.004432590212672949, 0.008994649164378643, -0.010446058586239815, 0.0066267396323382854, 0.017730360850691795, -0.014664003625512123, -0.04099379479885101, -0.022064145654439926, -0.0159723162651062, -0.009389868006110191, 0.003139609470963478, -0.01749868132174015, -0.025593863800168037, -0.023168034851551056, 0.03022747114300728, -0.005853335838764906, -0.016367536038160324, 0.0032707813661545515, -0.020714949816465378, -0.0144595792517066, -0.00861987192183733, -0.007243418134748936, 0.013934891670942307, -0.012524367310106754, 0.00031494046561419964, -0.020074421539902687, -0.017062576487660408, -0.012687906622886658, -0.014214270748198032, -0.014773029834032059, 0.0030067339539527893, -0.011032072827219963, 0.030690832063555717, 0.03407064080238342, 0.011863396503031254, 0.013096753507852554, 0.0006584151415154338, -0.01067773811519146, -0.021341849118471146, -0.018111951649188995, -0.006480235606431961, -0.0391676090657711, 0.0074546560645103455, 0.01593143120408058, 0.024871567264199257, -0.012524367310106754, -0.006674438249319792, -0.013798609375953674, -0.00047102660755626857, -0.00036221349728293717, -0.018193721771240234, -0.0008351565338671207, -0.02582554519176483, 0.01159083191305399, -0.031917374581098557, -0.006616518367081881, 0.024094756692647934, 0.0033934356179088354, 0.0042077237740159035, 0.034288693219423294, 0.0349973626434803, 0.003621709067374468, 0.01958380453288555, 0.01299454178661108, -0.010977559722959995, 0.045545630156993866, 0.019856369122862816, -0.020224330946803093, -0.016885409131646156, -0.016272136941552162, -0.007263860199600458, -0.007202533073723316, 0.012878702022135258, -0.01154994685202837, -0.00864031445235014, 0.015822404995560646, -0.010248448699712753, 0.0021072691306471825, 0.010991188697516918, -0.000586866750381887, -0.010779950767755508, -0.005240064579993486, -0.022691046819090843, -0.04328333958983421, -0.028810132294893265, -0.037096112966537476, 0.004565465729683638, 0.0038363540079444647, -0.002587665105238557, -0.01850717142224312, 0.028183232992887497, -0.017335141077637672, -0.012940028682351112, -0.00214985734783113, -0.0033474403899163008, 0.01758044958114624, 0.005001570098102093, 0.027747128158807755, 0.02004716359078884, -0.014323296956717968, 0.0020629772916436195, 0.03379807621240616, -0.0022742152214050293, -0.03218993917107582, 0.021668927744030952, -0.003608080791309476, -0.006688066758215427, -0.012231359258294106, -0.008613057434558868, 0.02500784955918789, -0.003536532400175929, -0.018875135108828545, 0.031181449070572853, 0.003563788952305913, -0.009941812604665756, -0.03960371017456055, -0.00970331858843565, 0.0019335087854415178, 0.014636746607720852, -0.018152836710214615, 0.005451302509754896, -0.022622905671596527, -0.016108598560094833, -0.008865180425345898, 0.022404853254556656, 0.00512763112783432, 0.03218993917107582, -0.009505708701908588, 0.004408740904182196, 0.004657456651329994, -0.023195290938019753, -0.023917589336633682, 0.023576883599162102, 0.0025978863704949617, 0.008292793296277523, -0.021941492334008217, 0.004313343204557896, 0.00864031445235014, 0.025280414149165154, -0.030963396653532982, -0.00942393857985735, 0.022582020610570908, 0.022704673931002617, -0.004098698031157255, -0.0007721258443780243, 0.011209240183234215, -0.017348770052194595, 0.021300964057445526, -0.01758044958114624, -0.009205887094140053, 0.027624474838376045, -0.004763075616210699, -0.041675206273794174, 0.016912665218114853, -0.010555083863437176, 0.0033781039528548717, 0.009648805484175682, 0.0028431948740035295, -0.02408112771809101, -0.019883625209331512, -0.02492607943713665, -0.0004510100989136845, 0.012878702022135258, -0.017266999930143356, -0.014473207294940948, -0.006718730088323355, 0.01029614731669426, 0.008885622955858707, 0.024817053228616714, -0.0013117196504026651, 0.00991455651819706, -0.007386514917016029, 0.03126321732997894, 0.0005736643797717988, 0.016667356714606285, -0.02526678703725338, 0.000715483445674181, -0.0007955494220368564, -0.005110595840960741, 0.014813913963735104, 0.017430540174245834, -0.028210489079356194, -0.023685907945036888, 0.013641884550452232, 0.0010630039032548666, -0.00586014986038208, -0.026847664266824722, -0.001471851603128016, 0.00576475216075778, 0.004166839178651571, -0.005509222391992807, -0.04421006143093109, 0.008865180425345898, 0.017048947513103485, 0.004296307452023029, -0.010241634212434292, -0.017430540174245834, -0.01800292544066906, 0.03281683847308159, -0.013158081099390984, -0.014091616496443748, -0.01259250845760107, -0.002957331482321024, -0.0008287683012895286, 0.007182091008871794, 0.015849661082029343, 0.006033910438418388, -0.042274851351976395, -0.004899357911199331, -0.017975669354200363, 0.03867699205875397, 0.0061190868727862835, -0.009941812604665756, 0.0380500890314579, 0.02106928452849388, -0.01031658984720707, 0.008783411234617233, 0.006129308138042688, -0.00876978226006031, -0.020306101068854332, -0.027542704716324806, -0.031781092286109924, -0.032298967242240906, -0.012810560874640942, 0.01864345371723175, 0.013928077183663845, -0.015549840405583382, -0.01860256865620613, 0.012626579031348228, -0.019815484061837196, -0.011331894434988499, -0.018398145213723183, 0.023917589336633682, -0.005090153776109219, 0.02275918796658516, -0.022582020610570908, -0.004333785269409418, -0.0046540494076907635, 0.029164467006921768, -0.005321833770722151, -0.012231359258294106, 0.015645237639546394, 0.0010110462317243218, 0.011052515357732773, -0.001492294017225504, -0.0281559769064188, -0.013669140636920929, 0.02564837783575058, 0.020360615104436874, 0.007107135374099016, 0.008320050314068794, -0.019733713939785957, -0.010500570759177208, -0.030936140567064285, 0.017307884991168976, 0.006323510780930519, 0.0036660009063780308, 0.03218993917107582, 0.0005204290500842035, -0.003173680044710636, -0.01613585464656353, 0.006889083422720432, 0.011365965008735657, -0.04467342421412468, -0.007822618819773197, -0.01390763558447361, 0.024108383804559708, -0.015031966380774975, 0.002715429989621043, 0.0012699831277132034, -0.019311238080263138, 0.017389655113220215, -0.007100321352481842, 0.0013279031263664365, 0.010868534445762634, -0.0009650508873164654, -0.004909579176455736, -0.010998002253472805, -0.018916018307209015, -0.028646593913435936, -0.018193721771240234, -0.0054206387139856815, -0.024680770933628082, 0.002601293381303549, -0.013798609375953674, 0.010153050534427166, -0.006333732046186924, 0.020224330946803093, -0.035651516169309616, 0.00607138779014349, -0.0055160364136099815, 0.02195511944591999, 0.008115625940263271, -0.025484837591648102, 0.008231466636061668, -0.0022179987281560898, 0.009730574674904346, -0.009539779275655746, 0.006844791583716869, 0.004984534811228514, -0.012006493285298347, -0.013873564079403877, 0.009396682493388653, -0.05345001816749573, -0.04309254512190819, 0.007420585490763187, -0.01745779626071453, 0.001258058357052505, -0.005774973426014185, 0.20595020055770874, -0.00014522610581479967, -0.003214564872905612, 0.020905744284391403, 0.012531180866062641, 0.02861933782696724, 0.01880699396133423, 0.012769675813615322, 0.006507492158561945, 0.0289191585034132, 0.021805210039019585, -0.007590938359498978, 0.0035671959631145, 0.003941973205655813, -0.0033133698161691427, -0.029409775510430336, -0.03409789502620697, -0.03843168169260025, 0.0005519443657249212, 0.00535931158810854, -0.006033910438418388, -0.013471530750393867, -0.0037750268820673227, -0.00028236041544005275, 0.006439351011067629, 0.007195719052106142, -0.02233671210706234, -0.010623225010931492, 0.027338281273841858, 0.025512095540761948, 0.009778273291885853, -0.006146343424916267, -0.008783411234617233, -0.0017955227522179484, -0.022622905671596527, -0.0070253657177090645, -0.006735765375196934, -0.01071862317621708, 0.017348770052194595, 0.023331573233008385, -0.01305586937814951, -0.02331794612109661, -0.017716731876134872, 0.007175276521593332, -0.029191724956035614, 0.01762133464217186, 0.000908834335859865, -0.009199072606861591, -0.011965608224272728, 0.018534427508711815, -0.03014570288360119, -0.0019147699931636453, 0.022050518542528152, 0.020946629345417023, 0.01986999623477459, -0.021927863359451294, 0.008837924338877201, 0.02191423624753952, -0.003638744354248047, 0.017634963616728783, -0.04560014605522156, 0.013778166845440865, -0.026888549327850342, 0.033225689083337784, -0.005461523775011301, 0.013580556958913803, -0.01779850199818611, -0.030718088150024414, -0.0018909204518422484, 0.003570602973923087, 0.02446271851658821, 0.0032060472294688225, 0.018207350745797157, 0.016326650977134705, -0.010418801568448544, -0.011986050754785538, 0.05167834460735321, -0.008960578590631485, 0.011113842949271202, 0.027842527255415916, -0.0009267213754355907, 0.024258295074105263, -0.009321726858615875, -0.0006371209747157991, -0.002013574820011854, -0.02115105278789997, 0.020619550719857216, -0.0003692405589390546, -0.010078094899654388, -0.01575426384806633, -0.0016405013157054782, -0.0023542812559753656, 0.004197502974420786, 0.004780110903084278, -0.008715270087122917, -0.015536211431026459, 0.00659266859292984, 0.01685815304517746, 0.008183768019080162, -0.00021059914433863014, -0.015399929136037827, -0.009921370074152946, 0.01783938705921173, 0.006820942275226116, -0.02462625876069069, -0.01890239119529724, -0.016367536038160324, -0.0069299680180847645, 0.011713486164808273, 0.0034769088961184025, -0.01148861926048994, -0.02755633369088173, -0.02446271851658821, -0.015181876718997955, -0.0024871567729860544, 0.01958380453288555, 0.007938459515571594, -0.0214917603880167, -0.00361489481292665, -0.02611173875629902, 0.013021798804402351, -0.0047664823941886425, 0.01324666477739811, 0.020101677626371384, -0.029927650466561317, -0.011965608224272728, -0.03456125780940056, 0.012899144552648067, -0.007243418134748936, -0.015495327301323414, -0.00040778296533972025, -0.025961827486753464, 0.00876978226006031, 0.02883739024400711, -0.014595862478017807, 0.01894327625632286, -0.008067927323281765, -0.00691974675282836, -0.012503924779593945, 0.005948733538389206, -0.013485158793628216, -0.011291010305285454, 0.013083125464618206, -0.01723974384367466, 0.016122227534651756, -0.02038787119090557, 0.0008466553990729153, -0.004790332168340683, 0.0008053447236306965, -0.0021583749912679195, -0.008040671236813068, -0.018071066588163376, -0.01876610890030861, -0.013798609375953674, 0.035487979650497437, 0.003522904124110937, -0.004187281709164381, -0.013178523629903793, -0.000606883259024471, 0.02021070383489132, -0.028891902416944504, -0.012326757423579693, 0.017757616937160492, 0.0075500537641346455, -0.012156404554843903, 0.01469125971198082, -0.17378751933574677, 0.03854070603847504, 0.0005008383886888623, -0.002364502288401127, 0.023713165894150734, -0.0019335087854415178, 0.0205514095723629, 0.008803853765130043, -0.0022878434974700212, 0.005461523775011301, 0.016844524070620537, 0.007011737674474716, -0.01621762476861477, -0.025157760828733444, -0.0025859614834189415, -0.02518501691520214, -0.008306422270834446, 0.009505708701908588, 0.030772602185606956, 0.00966243352741003, 0.017757616937160492, -0.0010808910010382533, 0.006333732046186924, -0.009778273291885853, -0.00474604032933712, -0.02729739621281624, -0.003570602973923087, 0.0016950143035501242, 0.010582340881228447, -0.02390396036207676, 0.014963825233280659, -0.026520585641264915, 0.027910668402910233, 0.0076454514637589455, 0.024299180135130882, -0.012708348222076893, -0.017348770052194595, -0.003700071480125189, -0.009417125023901463, 0.0013074608286842704, -0.004902765154838562, 0.007161648478358984, 0.02275918796658516, -0.005730681587010622, -0.006579040549695492, 0.014187014661729336, 0.0079861581325531, -0.01880699396133423, -0.010868534445762634, 0.009539779275655746, 0.02173706889152527, 0.00021592268603853881, 0.028510311618447304, 0.011059329845011234, 0.021859722211956978, 0.0037988764233887196, 0.013832679949700832, 0.008463147096335888, 0.009751017205417156, -0.017853016033768654, -0.008435890078544617, -0.028646593913435936, 0.011979237198829651, -0.00041140298708342016, -0.0060577597469091415, -0.030799858272075653, -0.025157760828733444, 0.011250125244259834, -0.030799858272075653, 0.015617981553077698, 0.002696691080927849, -0.004534801933914423, 0.020714949816465378, -0.002085123211145401, -0.0085585443302989, 0.027788013219833374, 0.0029726633802056313, -0.017294256016612053, 0.004170246422290802, 0.002848305506631732, -0.012769675813615322, 0.022186800837516785, -0.03393435850739479, 0.004340599291026592, -0.007747663650661707, -0.02382219210267067, 0.009860043413937092, 0.02211865969002247, -0.02004716359078884, -0.004650642164051533, -0.028265003114938736, -0.014977453276515007, 0.033825330436229706, -0.04252015799283981, 0.003095317631959915, 0.021709810942411423, -0.013498787768185139, 0.019079558551311493, -0.0046540494076907635, -0.002166892634704709, -0.012892330065369606, -0.004350820556282997, -0.03813185915350914, 0.03546072170138359, 0.027624474838376045, 0.03300763666629791, -0.005662540439516306, 0.005539886187762022, 0.01647656224668026, -0.03137224540114403, 0.026725009083747864, 0.00859942939132452, 0.018657082691788673, 0.008258722722530365, -0.02861933782696724, 0.02586643025279045, 0.006279218941926956, -0.014609490521252155, 0.04467342421412468, 0.008797039277851582, 0.03439771756529808, -0.022582020610570908, -0.010963931679725647, 0.0018704781541600823, -0.022132286801934242, 0.006378023885190487, -0.10335668921470642, 0.0019607653375715017, -0.0016405013157054782, 0.017294256016612053, -0.020456012338399887, -0.009458009153604507, 0.0034070638939738274, 0.014064360409975052, 0.018752479925751686, 0.0005608879146166146, -0.0038465752732008696, -0.026643240824341774, 0.03619664907455444, -0.00277505349367857, 0.01783938705921173, 0.00661311112344265, 0.02514413185417652, 0.00682775629684329, -0.007011737674474716, 0.011938352137804031, -0.005107189062982798, -0.017825758084654808, -0.01299454178661108, -0.022404853254556656, 0.00943075306713581, -0.004579093772917986, -0.02476254105567932, 0.006735765375196934, 0.005444488022476435, 0.014841170981526375, -0.024612629786133766, -0.024599002674221992, 0.00727067468687892, -0.012735605239868164, -5.557772965403274e-05, 0.01339657511562109, 0.007536425720900297, -0.016544703394174576, 0.03982176259160042, -0.015508955344557762, 0.002071494935080409, 0.009934998117387295, 0.0012946843635290861, -0.0024871567729860544, 0.00045399126247502863, -0.005587584804743528, -0.019202211871743202, 0.032298967242240906, -0.00840863399207592, -0.03104516677558422, 0.006367802619934082, 0.012885515578091145, -0.003289520274847746, -0.01809832453727722, 0.03706885501742363, -0.008415447548031807, -0.009301284328103065, -0.0009199072956107557, -0.033825330436229706, -0.03660549595952034, 0.025539351627230644, -3.08765156660229e-05, -0.0023849448189139366, 0.006718730088323355, 0.025116875767707825, 0.01766221970319748, -0.023576883599162102, -0.0046097575686872005, 0.027283769100904465, -0.010166678577661514, 0.010391545481979847, -0.003550160676240921, -0.0026166250463575125, -0.0024633072316646576, -0.009246771223843098, -0.005693203769624233, -0.009226329624652863, -0.012640207074582577, -0.00983278639614582, -0.009996325708925724, -0.010820834897458553, -0.016449304297566414, 0.013505601324141026, -0.002529744990170002, 0.02938251942396164, 0.0034820192959159613, 0.016381163150072098, 0.024026615545153618, 0.0038397610187530518, -0.05843796208500862, -0.000990603817626834, 0.024231038987636566, 0.023304317146539688, -0.006412094458937645, -0.041893258690834045, 0.023958474397659302, 0.007843061350286007, -0.012292686849832535, -0.0022026668302714825, -0.016040457412600517, -0.014773029834032059, 0.0007299634744413197, -0.07800813764333725, 0.011447735130786896, 0.025062361732125282, -0.00964199099689722, 0.008054299280047417, -0.022827329114079475, 0.02705208770930767, 0.0018636640161275864, 0.013682768680155277, 0.03120870515704155, -0.03251701965928078, 0.00796571560204029, 0.006170192733407021, 0.010057653300464153, -0.031399503350257874, -0.024217410013079643, 0.02739279344677925, -0.006323510780930519, 0.011066143400967121, 0.021505387499928474, 0.019883625209331512, 0.03578779846429825, 0.02586643025279045, -0.0005681278998963535, -0.05685708299279213, 0.0357605442404747, -0.00711394939571619, 0.020960258319973946, -0.014527720399200916, 0.015808776021003723, 0.009110488928854465, -0.028401285409927368, -0.0055330717004835606, 0.04391023889183998, -0.020156189799308777, -0.018929647281765938, 0.000325587549014017, 0.020565038546919823, 0.028973672538995743, 0.009839600883424282, -0.048298537731170654, -0.017866643145680428, 0.012176847085356712, -0.0047324118204414845, -0.006899304687976837, 0.011747556738555431, -0.008476775139570236, 0.002091937232762575, 0.023154405876994133, 0.0008100294508039951, -0.01012579444795847, 0.025675633922219276, -0.0021311184391379356, -0.01422789879143238, 0.0018858099356293678, 0.014991081319749355, 0.03205365687608719, 0.014187014661729336, 0.006016875151544809, -0.007686336524784565, 0.016803639009594917, -0.006589261814951897, 0.0226365327835083, 0.008013414219021797, 0.0029658491257578135, -0.008279165253043175, -0.008061113767325878, 0.005802229978144169, 0.008333678357303143, -0.01864345371723175, -0.002868747804313898, -0.00838819146156311, 0.002132822060957551, -0.009008277207612991, 0.009969069622457027, -0.00023444858379662037, -0.03210816904902458, -0.02582554519176483, -0.010555083863437176, 0.010377916507422924, 0.0037579915951937437, 0.006374616641551256, -0.02229582704603672, 0.018234606832265854, -0.004091884009540081, 0.0016490189591422677, -0.030936140567064285, -0.012878702022135258, -0.009389868006110191, 0.024190153926610947, 0.0006418057018890977, 0.004521173890680075, 0.016912665218114853, -0.0054649305529892445, -0.008633499965071678, 0.01195198018103838, -0.015181876718997955, 0.002652399241924286, 0.002252069301903248, -0.002122600795701146, -0.0023099894169718027, 0.020265216007828712, 0.014800285920500755, -0.02420378290116787, -0.0033150732051581144, 0.017607707530260086, -0.02458537369966507, -0.019815484061837196, 0.008442704565823078, 0.0007653117645531893, 0.009294470772147179, 0.004166839178651571, 0.030091188848018646, 0.009860043413937092, -0.0204</t>
+  </si>
+  <si>
+    <t>[0.002475446555763483, -0.030772332102060318, -0.02808111160993576, -0.0174657441675663, -0.0036766412667930126, 0.006639701314270496, -0.01799583248794079, -0.0045431326143443584, -0.009004713036119938, 0.0033130545634776354, 0.03001117892563343, 0.013795899227261543, -0.015590045601129532, -0.03229463845491409, -0.022168584167957306, -0.001570727676153183, 0.015576453879475594, 0.007896963506937027, 0.010758083313703537, -0.02227731980383396, -0.01050663087517023, 0.004780992865562439, 0.010860023088753223, -0.01240271795541048, 0.0036834371276199818, -0.020986078307032585, 0.0017007014248520136, -0.012572618201375008, -0.01293280627578497, -0.013734735548496246, 0.0007815411081537604, 0.0003587018873076886, -0.003068398218601942, -0.007917351089417934, -0.00019124396203551441, 0.002687821863219142, 0.006581935100257397, 0.026178229600191116, 0.029032552614808083, 0.008046475239098072, 0.020850157365202904, 0.0023735063150525093, 0.003900909563526511, 0.007672694977372885, -0.004081003833562136, 0.024791842326521873, 0.002314041368663311, 0.011580400168895721, 0.005650882143527269, -0.0019555517937988043, 0.015073549002408981, 0.028488872572779655, -0.014991996809840202, -0.005443603731691837, -0.008909568190574646, -0.02445204183459282, -0.02170645445585251, 0.029521865770220757, 0.0039824615232646465, -0.00036698451731354, -0.0027218018658459187, -0.00928334891796112, -0.028624791651964188, 0.001262358739040792, -0.009908582083880901, -0.019572507590055466, 0.003143154550343752, -0.0004939849604852498, 0.010785267688333988, 0.007903759367763996, 0.005769812036305666, 0.023459825664758682, 0.023527786135673523, -0.025729691609740257, 0.03253929316997528, 0.011560012586414814, -0.026422886177897453, 0.016840511932969093, 0.01568518951535225, 0.002223994117230177, -0.00014813177403993905, -0.02799955941736698, -0.00527370348572731, 0.028570424765348434, 0.016147319227457047, 0.004026635549962521, -0.002798256929963827, 0.0162016861140728, -0.009528005495667458, -0.004899922758340836, 0.006802805699408054, 0.014298804104328156, 0.010649346746504307, -0.008712484501302242, -0.040014903992414474, -0.0032467935234308243, 0.00831831619143486, 0.01916474662721157, -0.03185969218611717, -0.009004713036119938, 0.0021866161841899157, 0.010391098447144032, -0.01166874822229147, -0.015929846093058586, -0.03378976136445999, 0.019219115376472473, -0.006714457646012306, -0.01953173242509365, 0.01605217531323433, -0.02532193250954151, 0.009385289624333382, 0.023133616894483566, 0.006374657154083252, -0.04006927087903023, -0.017424969002604485, -0.01162797212600708, 0.011845444329082966, -0.026477253064513206, -0.02295692078769207, -0.038166388869285583, 0.01459782849997282, 0.020918117836117744, 0.0018519125878810883, -0.003134659491479397, 0.03357228636741638, -0.005970294587314129, 0.0026759288739413023, -0.0271160788834095, -0.0038601334672421217, -0.0036324672400951385, 0.014203660190105438, 0.009228981100022793, 0.030582042410969734, -0.003598487004637718, -0.01843077875673771, 0.020850157365202904, -0.03126164525747299, 0.01404055580496788, -0.015658006072044373, -0.001975939841940999, 0.02726558968424797, 0.0027642769273370504, -0.02533552423119545, 0.01843077875673771, -0.025145236402750015, 0.03623632341623306, -0.02057831734418869, 0.017411377280950546, -0.0033368407748639584, 0.003428586758673191, 0.026463661342859268, -0.023011287674307823, 0.01103671919554472, -0.0146793806925416, 0.02199188619852066, -0.004726624581962824, -0.010880411602556705, 0.016894880682229996, -0.009976541623473167, -0.0016242462443187833, -0.026463661342859268, 0.025675324723124504, -0.005712046287953854, 0.009718293324112892, 0.03338199853897095, 0.02927720919251442, 0.015481309965252876, 0.0187298022210598, -0.0029545652214437723, 0.009303737431764603, 0.010540611110627651, 0.0460769459605217, -0.009752273559570312, 0.01007168646901846, 0.00825035572052002, 0.0023395263124257326, -0.018974458798766136, -0.008195987902581692, 0.0012886932818219066, -0.005960100330412388, -0.01939581148326397, 0.00939888134598732, 0.04672936350107193, 0.050045814365148544, 0.0025077275931835175, -0.0017287349328398705, 0.03811202198266983, 0.021652085706591606, -0.025512220337986946, -0.0041353716515004635, -0.0012827467871829867, 0.015032772906124592, 0.01523665338754654, -0.01295999065041542, -0.6489373445510864, -0.013238626532256603, -0.01745215244591236, -0.0063678608275949955, 0.012647373601794243, 0.027102487161755562, 0.02564813941717148, -0.00813482329249382, -0.023881178349256516, -0.011893017217516899, -0.011308560147881508, -0.0025502026546746492, 0.015712374821305275, 0.007135809864848852, -0.0024873395450413227, -0.02065986953675747, 0.005266907624900341, -0.012307573109865189, 0.006113010458648205, -0.00022384356998372823, 0.00290699303150177, 0.03561108931899071, -0.024329714477062225, 0.007135809864848852, 0.006347472779452801, 0.006021264474838972, 0.009738681837916374, -0.0024040883872658014, -0.003547517117112875, -0.03112572431564331, -0.036970291286706924, 0.01799583248794079, -0.002458456438034773, -0.042760491371154785, 0.04689246788620949, 0.00827754009515047, -0.011689136736094952, 0.040014903992414474, 0.03210435062646866, 0.0248190276324749, -0.018838537856936455, -0.029549049213528633, 0.038438230752944946, -0.005582921672612429, 0.00883481279015541, -0.018240489065647125, 0.027605390176177025, 0.00583097618073225, 0.0006987147498875856, -0.0039043074939399958, 0.011750300414860249, 0.007978515699505806, -0.014665788970887661, 0.006629507523030043, 0.033545102924108505, -0.020755013450980186, 0.026422886177897453, -0.010459058918058872, 0.00946684181690216, 0.008257151581346989, 0.006551353260874748, 0.010778470896184444, -0.011369723826646805, -0.007183382287621498, -0.009528005495667458, -0.00816880352795124, -0.01663663238286972, -0.015494901686906815, 0.013639591634273529, -0.006840183865278959, 0.02280740812420845, 0.02741510234773159, -0.004206730052828789, 0.0017941464902833104, 0.01693565584719181, 0.01738419197499752, 0.007876574993133545, 0.005389235448092222, 0.004488764330744743, 0.01947736367583275, 0.02155694179236889, -0.0019045816734433174, -0.0003344911092426628, 0.024098649621009827, 0.00116041861474514, 0.016990024596452713, -0.013456098735332489, -0.005406225565820932, 0.02072783000767231, -0.008481419645249844, 0.008984324522316456, 0.008794036693871021, -0.000606119108851999, -0.027211222797632217, -0.02110840566456318, 0.025022907182574272, -0.01826767437160015, 0.019110379740595818, -0.005457195919007063, -0.02392195351421833, -0.01679973490536213, -0.005742628127336502, 0.026844236999750137, 0.005253315437585115, 0.00561010604724288, 0.010839635506272316, -0.02176082320511341, 0.020768605172634125, 0.009799845516681671, -0.010608570650219917, -0.01240271795541048, -0.007047461811453104, -0.02422097884118557, -0.02199188619852066, -0.022345280274748802, -0.028570424765348434, 0.029657786712050438, 0.01916474662721157, 0.01766962558031082, -0.012198837473988533, -0.007767838891595602, -0.02824421599507332, 0.0020133177749812603, -0.003574701026082039, 0.014869669452309608, 0.009093061089515686, 0.02460155449807644, -0.013659979216754436, -0.025852020829916, -0.009833825752139091, 0.017030799761414528, 0.02021133340895176, 0.007258138153702021, -0.015943437814712524, -0.019422994926571846, 0.004848952870815992, 0.003392907790839672, 0.002246081130579114, 0.010003725998103619, -0.02591998130083084, -0.02668113447725773, -0.01626964658498764, -0.012015344575047493, -0.014570644125342369, -0.010227994062006474, -0.01534538995474577, -0.00015248545969370753, 0.004998465068638325, -0.023201577365398407, 0.011247395537793636, -0.01177068892866373, 0.012307573109865189, -0.009976541623473167, 0.024941354990005493, 0.01349007897078991, -0.001887591672129929, -0.015182285569608212, -0.023799626156687737, -0.01790068857371807, -0.037350866943597794, 0.014924037270247936, 0.012198837473988533, -0.011172640137374401, -0.0027778688818216324, 0.0011289870599284768, 0.014312395825982094, 0.007502794731408358, 0.018960867077112198, -0.0005147977499291301, -0.025838429108262062, -0.005042639095336199, -0.01459782849997282, 0.0025603966787457466, 0.031098539009690285, -0.007482406683266163, 0.02413942664861679, -0.041047897189855576, -0.003761591389775276, -0.027156854048371315, -0.000689794949721545, 0.007761043030768633, 0.00556932995095849, -0.0004765701596625149, -0.01856669783592224, 0.014543460682034492, -0.0045397342182695866, 0.0146793806925416, 0.018294857814908028, -0.042461469769477844, 0.033980049192905426, 0.016881287097930908, -0.0032111145555973053, -0.024846211075782776, -0.01114545576274395, -0.005881946533918381, 0.026110269129276276, 0.0017134438967332244, -0.004189739935100079, -0.0062421346083283424, 0.02876071259379387, 0.007067849859595299, 0.015250245109200478, 0.014733748510479927, -0.0022511782590299845, 0.025063684210181236, -0.03166940435767174, 0.028108295053243637, -0.014502684585750103, 0.03729650005698204, 0.013639591634273529, 0.017139535397291183, 0.006731447298079729, -0.029521865770220757, 0.010724103078246117, -0.009215389378368855, 0.014924037270247936, 0.011458071880042553, 0.02563454769551754, -0.0033691218122839928, 0.006554751191288233, 0.02430253103375435, 0.002472048392519355, -0.0032688805367797613, 0.02927720919251442, -0.005433409474790096, 0.006884357891976833, 0.009494025260210037, 0.029440313577651978, 0.017819136381149292, -0.01408133190125227, -0.01337454654276371, 0.024642331525683403, -0.0028526249807327986, 0.00828433595597744, 0.023677296936511993, 0.0039382874965667725, 0.02124432660639286, -0.033246077597141266, 0.012912418693304062, 0.012178448960185051, 0.03452372923493385, 0.02616463601589203, 0.027442287653684616, -0.008291131816804409, -0.000348720233887434, -0.003890715539455414, 0.00943965744227171, 0.020156964659690857, -0.0041829440742731094, 0.0022511782590299845, -0.011369723826646805, 0.02460155449807644, -0.007047461811453104, 0.00036719688796438277, -0.003883919445797801, 0.014896852895617485, 0.0006817246903665364, -0.009201796725392342, 0.014774524606764317, 0.026096677407622337, -0.00039777893107384443, 0.021339470520615578, 0.01821330562233925, 0.028108295053243637, -0.0004090348375029862, -0.006846979726105928, -0.013829879462718964, -0.0245879627764225, 0.006031458731740713, -0.02080938220024109, -0.01856669783592224, -0.00813482329249382, -0.0076930830255150795, -0.010227994062006474, -0.010275566950440407, -0.018525922670960426, -0.01278329361230135, 0.01656867191195488, -0.013945411890745163, 0.021801598370075226, -0.010792063549160957, -0.019558915868401527, 0.03411596640944481, 0.025430668145418167, 0.005637289956212044, -0.008549380116164684, -0.01977638714015484, 0.01663663238286972, -0.008515399880707264, 0.00337931583635509, 0.0030361171811819077, 0.007115421816706657, -0.013911431655287743, 0.034360624849796295, 0.005419817753136158, -0.018145345151424408, 0.0187841709703207, -0.028706343844532967, 0.027578206732869148, 0.0070542581379413605, 0.00817559938877821, -0.005015455186367035, -0.016772551462054253, -0.016446342691779137, 0.03982461616396904, -0.0046586645767092705, -0.020673461258411407, -0.009691109880805016, 0.01511432509869337, -0.01567159779369831, 0.022087031975388527, 0.02532193250954151, -0.020306477323174477, -0.017180312424898148, 0.008528991602361202, -0.007312506437301636, -0.0011485256254673004, -0.003105776384472847, 0.03253929316997528, 0.0003536048752721399, -0.006473198998719454, -0.01893368363380432, -0.012735721655189991, 0.000778143119532615, 0.08443362265825272, 0.023079248145222664, 0.011396908201277256, 0.0059465086087584496, -0.007217362057417631, 0.016826920211315155, -0.025824837386608124, -0.006269318982958794, -0.005790200084447861, 0.004845554940402508, 0.011621176265180111, -0.01834922656416893, 0.03009273111820221, -0.0032315026037395, 0.014611420221626759, 6.859721906948835e-05, -0.0164327509701252, -0.010085278190672398, 0.021149182692170143, 9.859523561317474e-05, 0.011193027719855309, 0.00024253259471151978, -0.004869340918958187, 0.01102992333471775, 0.01946377195417881, -0.00016809505177661777, 0.022481199353933334, 0.02139383740723133, -0.0039926557801663876, -0.02027929201722145, 0.007217362057417631, -0.01858028955757618, -0.006870765704661608, -0.0164871197193861, 7.53401400288567e-05, 0.015399757772684097, 0.0018383206333965063, 0.0006031458615325391, 0.009018304757773876, 0.01393181923776865, 0.04123818501830101, 0.011729912832379341, -0.01055420283228159, -0.012273592874407768, 0.004583908244967461, -0.02392195351421833, -0.018023017793893814, 0.020306477323174477, -0.004842157009989023, -0.011172640137374401, 0.0065751392394304276, 0.015916254371404648, -0.001212238217703998, -0.005525155924260616, -0.01954532414674759, -0.0034404797479510307, 0.01916474662721157, 0.005732433870434761, -0.017873505130410194, -0.023745257407426834, 0.020564725622534752, -0.028271399438381195, 0.00765230692923069, -0.007407650351524353, -0.019355034455657005, -0.027251997962594032, -0.010234790854156017, -0.0011782582150772214, -0.00865131989121437, 0.011342540383338928, -0.021121997386217117, -0.03373539075255394, -0.02408505789935589, 0.01628323830664158, -0.006979501806199551, -0.008107639849185944, 0.013707551173865795, -0.0009964648634195328, -0.015277429483830929, 0.036671265959739685, -0.005212539341300726, -0.002891702111810446, -0.019042419269680977, -0.002862819004803896, -0.01716672070324421, 0.03319171071052551, 0.03588293120265007, -0.01404055580496788, -0.020551133900880814, 0.013496874831616879, 0.005824180319905281, -0.028135480359196663, 0.022454015910625458, -0.006925133988261223, -0.003951879683881998, -0.03509459272027016, 0.015168693847954273, 0.003258686512708664, 0.0012751013273373246, -0.00529069360345602, -0.0011187930358573794, 8.926399459596723e-07, -0.014815300703048706, -0.00988139770925045, 0.023242352530360222, -0.00880083255469799, 0.008719280362129211, -0.01977638714015484, 0.009894990362226963, -0.008121231570839882, 0.011091087944805622, 0.0010177023941650987, -0.006320288870483637, 0.008855200372636318, -0.020687052980065346, 0.02734714187681675, -0.006833387538790703, 0.02445204183459282, -0.005093608982861042, 0.0019963278900831938, 0.006942123640328646, -0.011172640137374401, 0.0004451386339496821, 0.028434503823518753, -0.01694924756884575, 0.002971555106341839, 0.007869779132306576, -0.030364571139216423, -0.008304723538458347, 0.005147977266460657, 0.009167816489934921, 0.04333135858178139, 0.014570644125342369, -0.02029288373887539, -0.018172530457377434, -0.01954532414674759, -0.006965909618884325, 0.00076370156602934, -0.013959003612399101, -0.031397562474012375, -0.04153721034526825, 0.010044502094388008, -0.020415212959051132, 0.0011723116040229797, -0.012443493120372295, -0.02094530127942562, 0.008365888148546219, -0.019735611975193024, -0.0070066857151687145, 0.0338984951376915, -0.0021645291708409786, -0.0068197958171367645, -0.025729691609740257, 0.004240709822624922, 0.0030734953470528126, -0.008780444040894508, -0.0093649011105299, -0.007047461811453104, -0.0043086702935397625, 0.024941354990005493, -0.003737805178388953, 0.014285212382674217, 0.023092839866876602, -0.0034778579138219357, -0.009494025260210037, -0.007679490838199854, -0.026653949171304703, 0.0020812780130654573, -0.0374596044421196, 0.026585988700389862, 0.02408505789935589, 0.011492052115499973, -0.013632794842123985, -0.006075632758438587, -0.012844458222389221, 0.020156964659690857, 0.007502794731408358, -0.004427600186318159, -0.0010780170559883118, -0.03047330677509308, 0.015426942147314548, -0.01185224112123251, -0.002424476435407996, 0.0019266686867922544, 0.0012971883406862617, 0.0036018851678818464, 0.009453249163925648, 0.007217362057417631, -0.0015732762403786182, 0.0028594210743904114, 0.028488872572779655, -0.01901523396372795, 0.02265789546072483, -0.023201577365398407, -0.012096896767616272, -0.0005585470353253186, -0.005559135694056749, -0.016677407547831535, -0.018593883141875267, 0.002006521914154291, -0.014054147526621819, -0.01693565584719181, -0.0024567574728280306, -0.006038254592567682, -0.01349007897078991, 0.001548640662804246, 0.015399757772684097, -0.03520333021879196, -0.0017873505130410194, -0.004862545058131218, -0.013897839933633804, -0.012538637965917587, -0.018090978264808655, -0.003962073475122452, -0.0009522908367216587, -0.01463860459625721, -0.03979743272066116, 0.025756876915693283, -0.003384412731975317, -0.04028674587607384, 0.00932412501424551, -0.021516166627407074, 0.009541597217321396, 0.007774634752422571, 0.0278636384755373, 0.024683106690645218, 0.013265810906887054, -0.006687273271381855, 0.02816266380250454, -0.01218524482101202, -0.014720156788825989, 0.022168584167957306, -0.002101666061207652, 0.017343416810035706, -0.02816266380250454, -0.023731665685772896, 0.05213898420333862, -0.015549269504845142, -0.03838386386632919, 0.03245774284005165, 0.013585222885012627, -0.003297763643786311, -0.03031020238995552, 0.0006587881944142282, -0.007536774501204491, 0.022549159824848175, -0.020483173429965973, -0.002098267897963524, -0.017791952937841415, -0.004284883849322796, -0.02443845011293888, 0.013619203120470047, -0.01901523396372795, 0.03351791948080063, 0.01222602091729641, 0.003693631151691079, 0.015997806563973427, -0.009018304757773876, -0.005793598014861345, 0.03767707571387291, 0.008195987902581692, 0.006840183865278959, -0.009602761827409267, 0.011648360639810562, 0.012491066008806229, 0.0019130767323076725, -0.017370600253343582, -0.0031159704085439444, 0.019599691033363342, 0.022753039374947548, -0.025213195011019707, -0.01158719602972269, 6.514612323371693e-05, 0.004471774213016033, 0.03090825118124485, -0.025987939909100533, -0.00928334891796112, 0.015046365559101105, -0.008522195741534233, -0.03599166497588158, 0.012987174093723297, -0.007944535464048386, -0.018457962200045586, -0.009589169174432755, 0.004447988234460354, -0.023595744743943214, -0.00737367058172822, -0.012593005783855915, 0.023962730541825294, -0.01348328310996294, 0.01052022259682417, -0.022046254947781563, -0.0017873505130410194, -0.024356897920370102, 0.003280773526057601, 0.01879776269197464, 0.004706236533820629, 0.012878438457846642, -0.04232554882764816, 0.011621176265180111, 0.0039111035875976086, 0.02027929201722145, -0.003958675544708967, 0.020632684230804443, -0.012606597505509853, 0.01731623336672783, -0.0013116298941895366, -0.007495998404920101, -0.029440313577651978, -0.0014577440451830626, -0.012973582372069359, -0.014393948018550873, 0.0027642769273370504, -0.015807518735527992, 0.005548941902816296, -0.0049373009242117405, 0.0027251997962594032, -0.012008548714220524, -0.03134319558739662, -0.00556932995095849, -0.01125419232994318, -0.0066125174053013325, 0.037106212228536606, -0.011784280650317669, 0.008413460105657578, 0.01218524482101202, -0.00806006696075201, -0.0018604076467454433, -0.010377506725490093, -0.013259015046060085, 0.012987174093723297, 0.02630055695772171, -0.0037683872506022453, 0.008263947442173958, -0.02027929201722145, 0.011566808447241783, -0.01665022410452366, 0.02139383740723133, -0.0007407650700770319, -0.03357228636741638, 0.03449654579162598, 0.033626656979322433, -0.004801380913704634, -0.0024057873524725437, 0.0033827137667685747, -0.018090978264808655, -0.02742869406938553, -0.007563958875834942, -0.012015344575047493, -0.016092950478196144, -0.031832508742809296, 0.02623259648680687, 0.025376299396157265, -0.007862983271479607, -0.01798224076628685, 0.0063338810577988625, -0.012287185527384281, 0.019083194434642792, -0.020170556381344795, 0.0004693494120147079, 0.020551133900880814, -0.0024176803417503834, -0.02302488125860691, 0.011845444329082966, -0.023446233943104744, 0.026844236999750137, -0.016922064125537872, 0.013897839933633804, 0.009052284993231297, 0.004264495801180601, 0.010894003324210644, -0.006792611442506313, -0.05230208858847618, -0.014067740179598331, 0.03365384042263031, 0.025022907182574272, 0.010241586714982986, 0.012688149698078632, -0.011716320179402828, 0.007767838891595602, 0.009697905741631985, -0.01278329361230135, 0.026857830584049225, 0.021883150562644005, 0.02408505789935589, -0.02591998130083084, 0.004808176774531603, 0.006391646806150675, 0.022481199353933334, 0.003428586758673191, -0.012457085773348808, -0.01760166510939598, 0.004814972635358572, 0.013850267976522446, -0.0303917545825243, -0.015372573398053646, 0.0023310312535613775, -0.017057983204722404, 0.023092839866876602, 0.0016905074007809162, -0.00400964543223381, -0.008977528661489487, 0.007713471073657274, -0.037405237555503845, -0.013897839933633804, -0.019069602712988853, -0.03794891759753227, -0.031071355566382408, 0.013143482618033886, -0.016840511932969093, 0.0021764221601188183, -0.002371807349845767, 0.02591998130083084, -0.0027336948551237583, -0.003309656633064151, -0.04738177731633186, 0.011485256254673004, 0.017696809023618698, 0.022304503247141838, 0.005596513859927654, -0.024479227140545845, -0.002246081130579114, -0.0012241312069818377, -0.0038737254217267036, -0.012090100906789303, -0.0013625998981297016, -0.006840183865278959, -0.025090867653489113, 0.003826153464615345, 0.013748327270150185, -0.04534297436475754, -0.0364266112446785, 0.020075412467122078, -0.01052022259682417, -0.008997916243970394, 0.009677517227828503, 0.1965949684381485, 0.001984434900805354, -0.01575314998626709, 0.015467718243598938, 0.0020388029515743256, 0.002701413817703724, 0.008997916243970394, 0.0044242022559046745, -0.007747450843453407, 0.032213084399700165, -4.807645746041089e-05, 0.019586099311709404, -0.012749314308166504, -0.0033470347989350557, 0.015250245109200478, -0.004237311892211437, -0.03705184534192085, -0.030500490218400955, 0.01515510119497776, -0.011519236490130424, -0.00869889184832573, -0.027618983760476112, -0.0015741257229819894, -0.010092074051499367, 0.009031896479427814, 0.02957623451948166, -0.02191033400595188, -0.022861776873469353, 0.04352164641022682, 0.01474734116345644, -0.012484269216656685, 0.012355145066976547, 0.012531842105090618, 0.01348328310996294, -0.006768825463950634, 0.01605217531323433, -0.012654169462621212, -0.0074144466780126095, 0.023949136957526207, 0.006034856662154198, 0.0018332236213609576, -0.016378382220864296, 0.0008095746161416173, -0.011838648468255997, -0.0069727059453725815, -0.0034829548094421625, 0.005453797522932291, -0.033844128251075745, -0.0068197958171367645, 0.030799515545368195, -0.018675433471798897, -0.009072672575712204, -0.01573955826461315, 0.01404055580496788, 0.01414929237216711, -0.009174613282084465, 0.02808111160993576, -0.0005012056790292263, -0.012722129933536053, 0.016609447076916695, 0.0013923324877396226, 0.025457851588726044, -0.023500600829720497, 0.02704811841249466, -0.0008996217511594296, -0.008467827923595905, -0.023201577365398407, -0.005001862999051809, 0.012232817709445953, -0.007502794731408358, 0.009072672575712204, -0.023758849129080772, 0.0005627945647574961, -0.013775511644780636, -0.019885124638676643, -0.028706343844532967, 0.027292774990200996, 0.00884160865098238, 0.03634506091475487, 0.03900909423828125, -0.001057629007846117, 0.006197960581630468, -0.005015455186367035, 0.030935436487197876, -0.022562751546502113, -0.01864825002849102, 0.03270239755511284, 0.009147428907454014, 0.007822207175195217, -0.027727719396352768, 0.013530855067074299, -0.001138331601396203, 0.00010507267870707437, 0.009657129645347595, 3.955489955842495e-05, 0.008297927677631378, 0.0005623697652481496, 0.03979743272066116, -0.013741531409323215, -0.011193027719855309, -0.02385399304330349, -0.011152251623570919, 0.0034897509030997753, -0.007495998404920101, -0.04110226780176163, 0.011159047484397888, -0.0035848950501531363, 0.02495494671165943, -0.002592677716165781, -0.004594102501869202, -0.027918007224798203, -0.019885124638676643, -0.02816266380250454, -0.003975665662437677, 0.02726558968424797, 0.010785267688333988, -0.012056120671331882, -0.008943548426032066, 0.008963936939835548, -0.026123860850930214, 0.00995615404099226, -0.006884357891976833, 0.00946684181690216, 0.009405677206814289, -0.024125834926962852, -0.01968124322593212, -0.02674909308552742, 0.011716320179402828, 0.004519346170127392, -0.04999144747853279, 0.01526383776217699, 0.005345061421394348, 0.0002869190357159823, 0.021203549578785896, -0.04950213432312012, 0.019803572446107864, -0.006965909618884325, 0.0052261315286159515, 0.010037706233561039, 0.019803572446107864, -0.006248930934816599, 0.0012649073032662272, -0.0021917130798101425, -0.01917833834886551, 0.010146441869437695, -0.00920859258621931, 0.02824421599507332, 0.01054740697145462, -0.013782307505607605, -0.002745587844401598, 0.017941465601325035, -0.017112351953983307, -0.017207495868206024, -0.0030157293658703566, 0.016228871420025826, -0.004430998116731644, -0.015032772906124592, -0.006177572533488274, -0.007027073763310909, 0.005372245796024799, -0.030935436487197876, -0.0005891291075386107, 0.01821330562233925, 0.004679052624851465, -0.0255665872246027, 0.008603747934103012, -0.17386910319328308, 0.01393181923776865, -0.00036316175828687847, 0.00883481279015541, 0.017778361216187477, -0.0008877287618815899, 0.00046000489965081215, 0.01229398138821125, -0.010092074051499367, 0.01954532414674759, 0.007862983271479607, 0.017180312424898148, -0.007856187410652637, -0.028434503823518753, 0.020537540316581726, -0.006490189116448164, -0.005304285325109959, 0.013286198489367962, 0.031071355566382408, -0.004879534710198641, 0.016024990007281303, -0.015291021205484867, 0.013075522147119045, -0.01232796162366867, 0.005701852031052113, 0.006884357891976833, 0.0006434971583075821, 0.0023650112561881542, 0.012171653099358082, -0.01170272845774889, -0.0018009425839409232, -0.031316012144088745, 0.03552953898906708, -0.006999889854341745, -0.011227007955312729, -0.012090100906789303, -0.019599691033363342, 0.007156197912991047, -0.01588907092809677, 0.015073549002408981, 0.02282099984586239, 0.029766522347927094, -0.0047300225123763084, -0.014203660190105438, -0.005786802154034376, 0.0015741257229819894, 0.0324033722281456, -0.01739778369665146, -0.012103692628443241, -0.0066566914319992065, 0.030772332102060318, -0.014774524606764317, 0.015522086061537266, 0.005470787640661001, 0.02250838465988636, 0.0022919541224837303, -0.006999889854341745, 0.027319958433508873, 0.005457195919007063, -0.0134153226390481, -0.017030799761414528, 0.0017686615465208888, 0.017520112916827202, 0.016582263633608818, -0.00547758350148797, -0.040232375264167786, -0.02051035687327385, 0.007788226939737797, -0.01582111045718193, 0.008855200372636318, 0.00023998408869374543, -0.0003829126653727144, 0.005596513859927654, -0.004848952870815992, -0.010615367442369461, 0.007849390618503094, -0.0278636384755373, -0.017560888081789017, -0.005124191287904978, -0.008474623784422874, 0.010282362811267376, 0.027741311118006706, -0.037921734154224396, 0.020116187632083893, -0.013510467484593391, -0.010017317719757557, 0.009453249163925648, 0.03506740927696228, -0.01519587729126215, 0.00020961441623512655, -0.0016030087135732174, -0.019205523654818535, 0.027972375974059105, -0.032430559396743774, 0.010146441869437695, 0.01776476949453354, 0.014434724114835262, 0.01603858172893524, 0.0017219389555975795, -0.008087251335382462, -0.00559311592951417, -0.0065309652127325535, -0.03786736726760864, 0.012647373601794243, 0.0471099391579628, 0.016065767034888268, -0.0058207823894917965, 0.021638493984937668, 0.013619203120470047, 0.011859036982059479, 0.01526383776217699, 0.008678504265844822, 0.005151375196874142, 0.02452000230550766, -0.01655508019030094, 0.005983886308968067, 0.023242352530360222, -0.011859036982059479, 0.02698015794157982, 0.021978294476866722, 0.006381453014910221, 0.004954291041940451, 0.0013906334061175585, 0.01285125408321619, -0.016324015334248543, 0.004736818838864565, -0.10661579668521881, 0.011648360639810562, 0.010669735260307789, 0.04719148948788643, -0.012348349206149578, -0.009303737431764603, -0.004301873967051506, 0.02044239640235901, 0.013191054575145245, 0.01567159779369831, -0.023962730541825294, -0.03256647661328316, 0.015331797301769257, 0.009004713036119938, 0.018457962200045586, 0.017261864617466927, 0.007985311560332775, 0.000664734689053148, 0.0029120901599526405, 0.016990024596452713, -0.002555299550294876, -0.009833825752139091, 0.02698015794157982, -0.011804668232798576, -0.021054036915302277, -0.011546419933438301, -0.026626765727996826, 0.01300756260752678, 0.018621066585183144, 0.009188205003738403, -0.0010771675733849406, -0.03259366378188133, 0.015386166051030159, -0.0222909115254879, 0.005484379827976227, 0.008522195741534233, -0.011390112340450287, -0.02764616720378399, 0.015725966542959213, -0.02756461501121521, -0.012946397997438908, 0.002681025769561529, 9.556888835504651e-05, -0.010832839645445347, 0.0013422118499875069, -0.011954180896282196, -0.02393554523587227, 0.011396908201277256, 0.015535677783191204, -0.033327631652355194, -0.006248930934816599, 0.0005356104811653495, -0.03838386386632919, -0.013918227516114712, 0.03338199853897095, -0.0016718183178454638, -0.008148415945470333, -0.008984324522316456, -0.0021832180209457874, -0.020632684230804443, 0.016731776297092438, -0.0064154332503676414, -0.024846211075782776, 0.00217302399687469, 0.013945411890745163, 0.0030582044273614883, -0.025743285194039345, -0.011865832842886448, 0.029848074540495872, 0.024411266669631004, 0.0064596072770655155, -0.012056120671331882, -0.018607474863529205, 0.028271399438381195, -0.028108295053243637, -0.012647373601794243, -0.0210268534719944, -0.01893368363380432, -0.013734735548496246, -0.016065767034888268, -0.005909130442887545, -0.01414929237216711, 0.0024346704594790936, -0.011926996521651745, 0.01399977970868349, -0.003092184429988265, 0.01916474662721157, -0.010160034522414207, -0.002701413817703724, -0.05488457530736923, 0.015658006072044373, 0.01894727535545826, 0.018974458798766136, -0.011750300414860249, -0.019001642242074013, 0.009133837185800076, 0.0024329714942723513, -0.010384302586317062, -0.0040742079727351665, -0.022087031975388527, -0.04441871866583824, -0.010255178436636925, -0.08274821192026138, -0.006293104961514473, 0.017955057322978973, -0.010112462565302849, -0.012654169462621212, 0.0024567574728280306, 0.03104417212307453, 0.006408636923879385, 0.0037717854138463736, 0.017778361216187477, -0.016677407547831535, 0.0093649011105299, 0.005589717999100685, -0.010431874543428421, -0.013055134564638138, -0.0141900684684515, 0.028026742860674858, -0.017125943675637245, 0.018226897343993187, 0.01685410365462303, 0.013843471184372902, -0.0007467115647159517, 0.0141900684684515, -0.0029460701625794172, -0.025879204273223877, 0.010941575281322002, -0.015209469012916088, 0.020564725622534752, -0.000609092356171459, 0.002028608927503228, 0.006853775586932898, -0.0445818230509758, -0.01864825002849102, 0.028325768187642097, -0.007591142784804106, -0.02384040132164955, -0.045669183135032654, 0.03452372923493385, 0.02911410480737686, -0.007441630586981773, -0.023826809599995613, -0.022766632959246635, 0.033028606325387955, -0.006697467528283596, 0.0022868572268635035, -0.007978515699505806, 0.0007369422819465399, -0.00939888134598732, 0.015059957280755043, 0.021067630499601364, -0.007230954244732857, 0.017424969002604485, -0.0037344072479754686, -0.033327631652355194, 0.002193412045016885, -0.006806203629821539, -0.010873615741729736, 0.008202783763408661, -0.016690999269485474, -0.030717963352799416, 0.040449850261211395, -0.01344930287450552, 0.018226897343993187, 0.00046892467071302235, 0.012028937228024006, 0.006357667036354542, -0.016256054863333702, -0.0069727059453725815, 0.008372684009373188, -0.06458927690982819, -0.013170666992664337, 0.010968759655952454, 0.01709876023232937, -0.002672530710697174, 0.018838537856936455, -0.006157184485346079, -0.01991230808198452, -0.01240271795541048, 0.005766414105892181, 0.0384925976395607, -0.014176475815474987, -0.005294091533869505, -0.018689027056097984, 0.02280740812420845, 0.0031380574218928814, 0.006146990694105625, -0.022685080766677856, -0.008046475239098072, -0.023894770070910454, 0.016690999269485474, -0.016514303162693977, 0.016758959740400314, 0.003253589617088437, 0.0009777758968994021, 0.00831831619143486, 0.015291021205484867, -0.0011646661441773176, -0.007862983271479607, 0.01864825002849102, -0.007509590592235327, -0.010927983559668064, 0.012117285281419754, -0.01871621049940586, 0.00326038571074605, -0.007149402052164078, -0.018756985664367676, -0.0026334538124501705, -0.03775862976908684, 0.0034183927346020937, 0.008467827923595905, -0.0013566534034907818, 0.025824837386608124, -0.0005130987265147269, 0.011315356008708477, 0.0072513422928750515, 0.01383667</t>
+  </si>
+  <si>
+    <t>[-0.01432870328426361, -0.011733689345419407, 0.026900986209511757, -0.03890540078282356, -0.01752459816634655, 0.019267814233899117, -0.00043993082363158464, -0.023150430992245674, 0.022622182965278625, 0.0006524677737616003, -0.0015228374395519495, -0.005741386208683252, -0.009752762503921986, -0.011073380708694458, -0.016877496615052223, 0.011119602248072624, 0.02285989560186863, 0.0006083095795474946, -0.000431264255894348, -0.03499637171626091, -0.016520928591489792, 0.0037769670598208904, -0.010063108056783676, -0.001363537972792983, 0.0024745077826082706, -0.008478366769850254, 0.03378140553832054, -0.020786525681614876, -0.009838602505624294, -0.008504779078066349, -0.0016367407515645027, -0.007071908563375473, 0.001413886435329914, -0.015860620886087418, -0.007626567967236042, -0.008022753521800041, 0.01699635200202465, -0.008491572923958302, 0.022925926372408867, -0.011674261651933193, 0.003958552144467831, 0.007303016725927591, -0.0029614854138344526, -0.006170586682856083, -0.013602363876998425, 0.02593693509697914, 0.003110055113211274, -0.0076661864295601845, -0.008551000617444515, 0.003932139836251736, 0.006216808687895536, 0.03644905239343643, 0.0037472532130777836, 0.007184160873293877, -0.003502938896417618, -0.037637609988451004, -0.005632434971630573, -0.010597958229482174, -0.003337861504405737, -0.04405581206083298, 0.009006613865494728, -0.004608956165611744, -0.026689685881137848, 0.014223054051399231, -0.017247268930077553, -0.03547179698944092, -0.008709474466741085, 0.0030539287254214287, -0.016903908923268318, -0.009290546178817749, 0.03703012317419052, 0.02568601630628109, -0.0035095419734716415, -0.012281745672225952, 0.032302312552928925, -0.0040642013773322105, -0.0015030282083898783, 0.019994154572486877, 0.014698476530611515, 0.005090981721878052, 0.010102726519107819, -0.01249964814633131, 0.005127298645675182, 0.03335880860686302, 0.019439494237303734, 0.017537804320454597, 0.005619228817522526, 0.015081455931067467, -0.01483053807169199, 0.00920470617711544, 0.007732217665761709, 0.01302129216492176, 0.02056201919913292, -0.001365188742056489, 0.0048829843290150166, -0.011099793016910553, 0.008795314468443394, 0.0063422671519219875, 0.011680864728987217, -0.013655188493430614, -0.005615927278995514, -0.002426635241135955, -0.023044781759381294, -0.020548813045024872, -0.029317716136574745, -0.008953789249062538, 0.006160682067275047, -0.006933243479579687, 0.021697750315070152, 0.007837867364287376, -0.00789729505777359, 0.03446812555193901, -0.002037052996456623, -0.039777010679244995, 0.0057380846701562405, -0.015028631314635277, 0.024761585518717766, 0.013199575245380402, 0.01488336268812418, -0.008207639679312706, 0.014592827297747135, 0.046063151210546494, -0.010049901902675629, -0.009785777889192104, 0.05250776559114456, 0.01098754070699215, -0.029898788779973984, -0.015160692855715752, -0.004179755691438913, -0.013047704473137856, -0.0023903183173388243, -0.01378725003451109, -0.0022351457737386227, -0.017088795080780983, 0.0008782108779996634, 0.02752167545258999, -0.018237732350826263, 0.014738094992935658, -0.015424816869199276, -0.04896850883960724, 0.03697729855775833, 0.010650782845914364, -0.01378725003451109, -0.021169504150748253, -0.010551736690104008, 0.032989032566547394, -0.006926640402525663, 0.027389613911509514, 0.002806312870234251, 0.00904623232781887, 0.031509943306446075, -0.01600588858127594, -0.005668751895427704, -0.00925753079354763, 0.019056515768170357, 0.02316363714635372, -0.013641982339322567, -4.0830822399584576e-05, -0.002829423639923334, -0.004744319710880518, -0.0074284751899540424, 0.032196663320064545, 0.0009046232444234192, -0.021261947229504585, 0.011878957971930504, 0.028102748095989227, 0.0060286205261945724, -0.01715482585132122, 0.0012867769692093134, 0.008848140016198158, 0.015055043622851372, 0.015754971653223038, -0.05253417789936066, 0.02091858722269535, -0.012301554903388023, 0.027283964678645134, -0.008438748307526112, 0.009508448652923107, -0.012288348749279976, -0.014632445760071278, -0.01271094661206007, -0.00016414867423009127, 0.019109340384602547, 0.022424090653657913, -0.0018637219909578562, 0.009118866175413132, 0.007989738136529922, -0.014289084821939468, -0.005569705739617348, -0.028234809637069702, -0.002466253936290741, 0.014685270376503468, 0.009541464038193226, -0.0111129991710186, -0.6419259309768677, -0.006325759459286928, -0.023520203307271004, -0.016098331660032272, 0.00847176369279623, -0.014843744225800037, 0.023810740560293198, 0.014949394389986992, -0.04973446950316429, -0.018858423456549644, 0.0002478222013451159, 0.006230014842003584, 0.0019792760722339153, -0.015477641485631466, -0.02280707098543644, -0.021275153383612633, 0.003400590969249606, -0.02720472775399685, 0.036898061633110046, 0.004387752618640661, -0.01307411678135395, 0.03890540078282356, -0.01924140192568302, 0.014355115592479706, -0.004159945994615555, 0.008848140016198158, 0.02149965800344944, -0.012235524132847786, 0.009594288654625416, -0.002401873702183366, -0.03893181309103966, 0.012116668745875359, -0.0014823934761807323, -0.020324308425188065, 0.03217025101184845, 0.031034519895911217, -0.0035887788981199265, 0.023559821769595146, 0.026980223134160042, 0.01451359037309885, -0.012182699516415596, 2.6167321266257204e-05, 0.0376640222966671, -0.01788116618990898, -0.0011010650778189301, 0.005830527748912573, 0.03132505714893341, 0.001964419148862362, -0.007144542410969734, -0.0013800456654280424, 0.009660319425165653, -0.026346325874328613, -0.003304846119135618, 0.013774043880403042, 0.02322966791689396, 0.00043415313120931387, 0.011595024727284908, -0.032989032566547394, 0.008339702151715755, 0.007659583352506161, -0.010518721304833889, 0.01851506158709526, -0.015490847639739513, -0.011225251480937004, 0.023361729457974434, 0.009950855746865273, -0.017339712008833885, -0.012004416435956955, 0.007131336256861687, -0.00985841266810894, 0.001243856968358159, 0.010096123442053795, -0.04429352283477783, 0.008385923691093922, 0.006807785015553236, 0.02547471784055233, 0.005569705739617348, -0.011779910884797573, 0.028604581952095032, 0.014051374047994614, 0.012796786613762379, -0.004503306932747364, -0.01291564293205738, 0.0007870057015679777, 0.024035245180130005, 0.015147486701607704, -0.018475443124771118, 0.020469576120376587, 0.01579459011554718, 0.019479112699627876, -0.0020948301535099745, -0.002162511693313718, 0.008947186172008514, -0.026544418185949326, -0.03885257616639137, 0.022661801427602768, -0.010221581906080246, 0.027231140062212944, -0.010743225924670696, -0.030717570334672928, -0.023916389793157578, -0.01302129216492176, 0.0013148401631042361, -0.009145278483629227, 0.0038760134484618902, 0.013906106352806091, -0.015860620886087418, 0.010657385922968388, 0.03861486539244652, -0.023573027923703194, -0.02171095833182335, 0.012215714901685715, -0.015887033194303513, -0.0029086607974022627, -0.03301544487476349, -0.023361729457974434, 0.03409835323691368, 0.012176096439361572, 0.012730755843222141, 0.005982398986816406, 0.009178293868899345, -0.007646377198398113, 0.005295677576214075, -0.01064417976886034, -0.002340795239433646, 0.0024167306255549192, 0.019756443798542023, -0.020548813045024872, -0.050130654126405716, -0.0055994195863604546, 0.02264859527349472, 0.005341899115592241, 0.013225987553596497, -0.014751301147043705, 0.0235466156154871, 0.015055043622851372, 0.020548813045024872, -0.02229202911257744, -0.013655188493430614, -0.016085125505924225, -0.03354369476437569, -0.006150777451694012, 0.008828329853713512, -0.01967720501124859, 0.002449746010825038, -0.030321385711431503, -0.007956722751259804, -0.004136835224926472, -0.019888505339622498, 0.018079258501529694, -0.02233164757490158, -0.0031282135751098394, -0.023757915943861008, 0.0010399864986538887, 0.013503317721188068, 0.02185622602701187, -0.015543672256171703, -0.016388867050409317, -0.017234062775969505, -0.017669865861535072, 0.022450502961874008, 0.0034798281267285347, -0.015464435331523418, 0.008986804634332657, -0.003928838297724724, -0.009798984043300152, -0.01763024739921093, 0.005398025270551443, -0.014051374047994614, -0.018765980377793312, -0.003019262570887804, -0.009825396351516247, -0.010036695748567581, 0.01560970302671194, -0.01265812199562788, -0.0029796441085636616, -0.004311817232519388, -0.004249088000506163, -0.02610861510038376, -0.012017622590065002, -0.013483508490025997, -0.006312553305178881, -0.0035854773595929146, -0.01208365336060524, -0.004509910009801388, -0.00532208988443017, 0.03127222880721092, -0.01187235489487648, 0.002276415005326271, 0.012592091225087643, 0.015939857810735703, -0.0031463720370084047, -0.0017861356027424335, -0.019531937316060066, -3.51562921423465e-05, 0.009765968658030033, -0.001867023529484868, 0.016771847382187843, 0.010366850532591343, 0.032830558717250824, 0.01121864840388298, 0.03885257616639137, 0.010624370537698269, 0.004136835224926472, 0.022767452523112297, -0.02892153151333332, 0.017656659707427025, -0.017088795080780983, 0.04503306746482849, 0.003668016055598855, 0.026174645870923996, -0.021565688773989677, -0.02473517134785652, 0.0020304499194025993, 0.019162165001034737, -0.014764507301151752, 0.0037538562901318073, 0.007032290101051331, -0.006441313773393631, 0.002086576307192445, 0.015530466102063656, 0.0020816237665712833, 0.004331626463681459, 0.015490847639739513, -0.029845964163541794, 0.002349049085751176, -0.010518721304833889, 0.019175371155142784, -0.012704343535006046, -0.01800002157688141, -0.021169504150748253, 0.008075578138232231, -0.020944999530911446, 0.004668383859097958, 0.0047047012485563755, 0.041256099939346313, 0.022714626044034958, -0.014117404818534851, 0.014104198664426804, 0.011258266866207123, 0.01590023934841156, 0.03489072248339653, 0.009891428053379059, 0.010703607462346554, 0.010703607462346554, 0.0062663317658007145, 0.029264891520142555, -0.00931035540997982, -0.021011030301451683, 0.014341909438371658, -0.027033047750592232, -0.019426288083195686, -0.0037109360564500093, -0.012809992767870426, -0.009983871132135391, 0.017696280032396317, 0.021539276465773582, -0.013331636786460876, 0.01945270039141178, 0.020337514579296112, -0.008570809848606586, -0.01939987577497959, 0.02427295595407486, 0.022899514064192772, -0.014196641743183136, -0.00022058445028960705, 0.016388867050409317, -0.014606033451855183, -0.0115091847255826, -0.012011019513010979, -0.002809614408761263, -0.008498176001012325, -0.00676156347617507, 0.008636840619146824, 0.011476169340312481, -0.0077256145887076855, -0.02494647167623043, 0.0003518208395689726, -0.009937649592757225, 0.026135027408599854, -0.004628765396773815, -0.04933828115463257, -0.01736612431704998, 0.017709486186504364, 0.01908292807638645, -0.015860620886087418, -0.02871023118495941, 0.010413072071969509, 0.0014922982081770897, 0.0303477980196476, 0.007421872112900019, 0.014157023280858994, -0.013212781399488449, 0.0009508448420092463, 0.0011588421184569597, 0.0034897327423095703, -0.012466632761061192, -0.009039629250764847, 0.019584761932492256, 0.02139400877058506, 0.00369442836381495, 0.009838602505624294, -0.0007098320638760924, -0.013192972168326378, 0.0051239971071481705, 0.009264133870601654, -0.003331258427351713, -0.00645782146602869, -0.007065305486321449, 0.0006929116789251566, -0.006203602533787489, -0.00970654096454382, -0.004572639241814613, 0.027706561610102654, -0.02337493561208248, 0.019333845004439354, 0.0009409402264282107, -0.01156200934201479, 0.028076335787773132, 0.0008303384529426694, 0.0008076403755694628, -0.04117686301469803, -0.010386659763753414, -0.0211827103048563, 0.085787333548069, -0.004955618642270565, -0.014487178064882755, -0.005219742190092802, -0.016468103975057602, -0.007316222880035639, -0.004120327532291412, -0.010505515150725842, 0.003433606354519725, 0.002781551331281662, 0.0024101275485008955, -0.01667940430343151, 0.04463688284158707, 0.003915632143616676, -0.006101254373788834, -0.007738820742815733, -0.006698834244161844, -0.016151156276464462, 0.04453123360872269, -0.0024992693215608597, -0.002783202100545168, -0.0026197757106274366, -0.010796050541102886, 0.042391832917928696, 0.004321721848100424, -0.006992671638727188, 0.005427739582955837, 0.013641982339322567, 0.006444615311920643, -0.037426311522722244, -0.023837152868509293, -0.007362444419413805, -0.008273670449852943, 0.025672810152173042, -0.004107121378183365, 0.015385197475552559, -0.004060899838805199, 0.02321646176278591, 0.0057545923627913, -0.001414711819961667, 0.029476189985871315, 0.02328249253332615, -0.0022945734672248363, 0.009171690791845322, 0.0024068260099738836, -0.005721576977521181, 0.010558339767158031, 0.02275424636900425, -0.01663978397846222, -0.004070804454386234, 0.032143838703632355, -0.01317976601421833, 0.006401694845408201, -0.011502581648528576, 0.002996151801198721, 0.006401694845408201, -0.00022966369579080492, 0.027917861938476562, -0.002639584941789508, -0.010208375751972198, 0.008669856004416943, -0.03180047869682312, 0.005774401593953371, -0.007256795186549425, -0.015675734728574753, -0.015200311318039894, 0.006570073775947094, 0.004222675692290068, -0.00892077386379242, 0.003162879729643464, -0.019650792703032494, -0.027495263144373894, -0.02196187525987625, 0.018277350813150406, 0.014632445760071278, -0.009752762503921986, 0.02024507150053978, 0.007091717794537544, -0.011601627804338932, 0.016349248588085175, -0.008029356598854065, 0.002137750154361129, -0.01683787815272808, -0.025976553559303284, 0.0008303384529426694, 0.026927398517727852, 0.017234062775969505, 0.008894361555576324, -0.030796807259321213, 0.039777010679244995, 0.003493034280836582, 0.0020882270764559507, 0.020152628421783447, -0.008960392326116562, 0.011984607204794884, -0.0034170986618846655, 0.03195895254611969, 0.009409402497112751, -0.0008191957604140043, -0.003991567529737949, 0.0030951981898397207, -0.0033972894307225943, -0.01663978397846222, -0.0022334950044751167, 0.01600588858127594, -0.010829065926373005, -0.012294951826334, -0.008570809848606586, -0.01017536036670208, 0.00027753610629588366, -0.0031562766525894403, -0.013602363876998425, -0.0035590650513768196, -0.0068738157860934734, -0.03211742639541626, -0.005275868345052004, -0.026438768953084946, 0.040939152240753174, 0.008570809848606586, -0.02234485372900963, -0.013866486959159374, -0.023361729457974434, -0.014632445760071278, 0.028049923479557037, -0.033253155648708344, 0.04022601991891861, -0.026425562798976898, -0.0011357313487678766, -0.015094662085175514, -0.012077050283551216, -0.01826414465904236, 0.034388888627290726, -0.009072644636034966, -0.011694070883095264, -0.028023511171340942, -0.013668394647538662, 0.004849968943744898, 0.0010028441902250051, -0.03158918023109436, -0.02275424636900425, -0.024827616289258003, 0.021618513390421867, -0.0042028664611279964, -0.02144683338701725, -0.016851084306836128, -0.016877496615052223, -0.002756789792329073, -0.018132083117961884, -0.012539266608655453, 0.0045957500115036964, -0.002061814535409212, 0.017696280032396317, 0.006573375314474106, 0.013866486959159374, -0.0029631361830979586, -0.034705836325883865, -0.036898061633110046, -0.01720765046775341, 0.013463699258863926, 0.024127688258886337, 0.0311137568205595, 0.004592448472976685, 0.015160692855715752, 0.001077128923498094, 0.009336767718195915, 0.00821424275636673, -0.00781805720180273, 0.02448425441980362, -0.04358039051294327, 0.025144563987851143, -0.00593617744743824, 0.024959677830338478, -0.026504799723625183, -0.011819529347121716, 0.006807785015553236, 0.018237732350826263, 0.024405017495155334, 0.017762310802936554, 9.610589768271893e-05, -0.02395600825548172, -0.007785042282193899, -0.007606758736073971, -0.010578148998320103, 0.014553208835422993, -0.027231140062212944, 0.017920784652233124, 0.03372858092188835, 0.01187235489487648, -0.0002387429412920028, -0.005331994500011206, 0.009752762503921986, -0.014289084821939468, 0.03866769000887871, 0.01627001166343689, -0.018013227730989456, 1.4921433830750175e-05, -0.012862817384302616, -0.027812212705612183, -0.01930743269622326, 0.020548813045024872, 0.01244682352989912, -0.025923728942871094, 0.004741018172353506, -0.012169493362307549, 0.02008659765124321, 0.018330175429582596, 0.008478366769850254, -0.0162171870470047, -0.00996406190097332, -0.003139768959954381, -0.0444784089922905, -0.010980937629938126, -0.004037789069116116, -0.03217025101184845, 0.0019495621090754867, 0.011284679174423218, -0.005530087277293205, 0.028789469972252846, -0.003575572744011879, -0.008379320614039898, 0.005431041121482849, -0.015715353190898895, 0.03462659940123558, 0.009501845575869083, 0.018026433885097504, 0.019967742264270782, -0.013826868496835232, 0.007065305486321449, 0.03003085032105446, -0.012228921055793762, -0.00907924771308899, 0.023361729457974434, 0.009402799420058727, -0.011185633018612862, 0.0028195190243422985, -0.002632981864735484, 0.01778872311115265, -0.0196243803948164, -0.02464272826910019, 0.03890540078282356, 0.00480044586583972, 0.01192517951130867, -0.018488649278879166, 0.0023820644710212946, -0.006712040398269892, -0.0009912888053804636, -0.015979476273059845, -0.012103462591767311, -0.02243729680776596, -0.005024950951337814, -0.023625852540135384, 0.013945724815130234, -0.023467378690838814, 0.03388705477118492, -0.0022665103897452354, -0.004803747404366732, 0.005381517577916384, -0.005553198046982288, -0.015754971653223038, 0.01658695936203003, 0.008762299083173275, 0.0022450503893196583, 0.0005315486923791468, 0.02296554483473301, 0.018290556967258453, 0.007005877792835236, -0.007501109503209591, -0.015107868239283562, -0.0052098375745117664, 0.01930743269622326, 0.001054018153809011, -0.003836394753307104, -0.01600588858127594, 0.006058334372937679, 0.020113009959459305, -0.006959656253457069, -0.005909764673560858, 0.004473593086004257, -0.011700673960149288, -0.022714626044034958, -0.0037505547516047955, -0.009719747118651867, 0.0019528636476024985, -0.007032290101051331, 0.009640510194003582, 0.01012253575026989, -0.011898767203092575, -0.0190961342304945, 0.000912051706109196, -0.01627001166343689, -0.010763035155832767, -0.011944988742470741, -0.006840800400823355, 0.00970654096454382, -0.010261200368404388, 0.013008086010813713, -0.0005447548464871943, 0.01867353543639183, -0.017960403114557266, 0.02422013133764267, 0.0022136857733130455, 0.013496714644134045, -0.025382274761795998, -0.013721219263970852, -0.006147475913167, -0.01632283627986908, 0.040516555309295654, 0.01752459816634655, -0.024721965193748474, -0.020892174914479256, -0.00931035540997982, -0.010723416693508625, -0.01378725003451109, -0.021367596462368965, -0.021367596462368965, -0.01600588858127594, 0.012460029684007168, -0.012486441992223263, -0.04690834507346153, 0.010254597291350365, 0.01271094661206007, 0.003955250605940819, 0.005781004671007395, -0.034019116312265396, 0.01814528927206993, -0.0064809322357177734, 0.0008575762039981782, 0.0035557635128498077, -0.04458405822515488, -0.018660329282283783, 0.01831696927547455, 0.002273113466799259, 0.010492308996617794, -0.0007482125656679273, -0.015834208577871323, -0.01957155577838421, -0.028393283486366272, -0.003022564109414816, 0.007474697194993496, -0.016349248588085175, 0.004288706462830305, 0.031932540237903595, 0.010914906859397888, 0.018475443124771118, -0.006471027620136738, 0.0026296803262084723, -0.003493034280836582, -0.003015961032360792, -0.02218637987971306, 0.004856572020798922, -0.03029497340321541, 0.01177330780774355, 0.01237418968230486, -0.026584036648273468, -0.028314046561717987, -0.0016326138284057379, -0.025540748611092567, 0.004212771076709032, 0.004325023386627436, 0.030215736478567123, 0.018079258501529694, 0.013424080796539783, -0.008333099074661732, 0.009970664978027344, -0.011337503790855408, 0.03842997923493385, -0.01224212720990181, 0.005394723732024431, 0.016507722437381744, -0.014856950379908085, 0.029212066903710365, 0.017392536625266075, -0.031404294073581696, -0.04365962743759155, 0.033253155648708344, 0.020575225353240967, 0.005381517577916384, 0.029106417670845985, -0.01814528927206993, 0.0033972894307225943, 0.010796050541102886, 0.005057966336607933, 0.010314024984836578, -0.001392426434904337, 0.018713155761361122, -0.03338522091507912, 0.009112263098359108, -0.013173162937164307, -0.007408665958791971, 0.014658858068287373, 0.010730019770562649, 0.0010853827698156238, 0.026399150490760803, 0.01867353543639183, -0.0026247280184179544, 0.003948647528886795, -0.0010820812312886119, -0.0071907639503479, 0.012532663531601429, 0.015596496872603893, -0.006662516854703426, 0.009244324639439583, 0.03148353099822998, 0.011779910884797573, -0.03531331941485405, 0.0015946460189297795, -0.016600165516138077, -0.019333845004439354, 0.012321364134550095, -0.026174645870923996, 0.0167322289198637, -0.031457118690013885, 0.0143815279006958, -0.0086302375420928, 0.018330175429582596, -0.010155551135540009, 0.004186358768492937, -0.020905381068587303, 0.022675007581710815, 6.0459537053247914e-05, -0.026082202792167664, 0.022305235266685486, -0.010043298825621605, 0.0012892531231045723, -0.014606033451855183, -0.012955261394381523, -0.024233337491750717, -0.021948669105768204, -0.009158484637737274, -0.0038958226796239614, -0.031404294073581696, -0.0290271807461977, -0.00781805720180273, 0.009435814805328846, -0.005051363259553909, -0.01281659584492445, 0.19376105070114136, -0.019531937316060066, 0.0066063906997442245, 0.018792392686009407, -0.0021691147703677416, 0.021592101082205772, 0.006603089161217213, 0.013549539260566235, 0.009316958487033844, 0.017088795080780983, -0.009647113271057606, 0.012235524132847786, -0.009455624036490917, 0.010730019770562649, 0.01496260054409504, -0.03269849717617035, -0.020495988428592682, -0.011931782588362694, -0.020495988428592682, 0.014209847897291183, 0.011258266866207123, -0.009138675406575203, 0.0028938038740307093, -0.0032041489612311125, -0.006230014842003584, -0.014051374047994614, 0.005170218646526337, -0.006055032834410667, 0.04038449376821518, 0.039671361446380615, -0.007071908563375473, -0.005705069284886122, -0.01281659584492445, -0.024603109806776047, -0.015424816869199276, 0.008650046773254871, -0.01918857730925083, 0.010076314210891724, 0.02416730672121048, 0.025461511686444283, -5.375327236833982e-05, -0.001363537972792983, -0.03792814537882805, 0.013377858325839043, -0.013708013109862804, 0.006081445142626762, -0.019333845004439354, -0.004681590478867292, -0.0016870893305167556, 0.015424816869199276, -0.01616436243057251, -0.008828329853713512, 0.003578874282538891, 0.0439501628279686, 0.019756443798542023, 1.2580690963659436e-05, 0.0180528461933136, -0.007131336256861687, 0.027033047750592232, 0.027442438527941704, -0.013985343277454376, 0.026636861264705658, -0.02212034910917282, 0.0036779206711798906, 0.007124733179807663, -0.0011778260814025998, -0.02651800587773323, 0.012592091225087643, 0.0013693156652152538, -0.005658847279846668, 0.014196641743183136, -0.03666035085916519, -0.025752048939466476, -0.017801929265260696, -0.004803747404366732, -0.0295554269105196, 0.02929130382835865, -0.006338965613394976, 0.024127688258886337, 0.016811465844511986, 0.007672789506614208, 0.0018604203360155225, 0.006177189759910107, 0.021526070311665535, 0.006365377921611071, -0.018224526196718216, 0.0032437676563858986, 0.02462952211499214, 0.00011462550173746422, -0.023348523303866386, 0.0019743237644433975, -0.008696268312633038, 0.014645651914179325, 0.02427295595407486, -0.0023358429316431284, 0.004671685863286257, 0.017009558156132698, 0.04693475738167763, -0.013549539260566235, 0.007071908563375473, -0.016969939693808556, 0.009072644636034966, 0.020165834575891495, -0.00557300727814436, -0.02688778005540371, 0.012876024469733238, 0.00018715631449595094, -0.00852458830922842, -0.0015731860185042024, -0.01595306396484375, 0.0009293847833760083, -0.0303477980196476, -0.006652612239122391, -0.011852544732391834, 0.013430683873593807, 0.02736320160329342, 0.015055043622851372, -0.007151145488023758, 0.007210573647171259, -0.003909028600901365, -0.009033026173710823, -0.02321646176278591, -0.005256059113889933, -0.007151145488023758, -0.0022632088512182236, -0.028578169643878937, -0.02102423645555973, 0.01789437234401703, -0.004622162319719791, -0.011291282251477242, 0.013443890027701855, -0.0021394009236246347, 0.018224526196718216, -0.0063422671519219875, -0.01883201114833355, 0.015768177807331085, -0.013906106352806091, -0.007877485826611519, 0.001555027556605637, 0.025078533217310905, -0.011542200110852718, -0.005734783131629229, 0.006160682067275047, -0.016256805509328842, -0.009323561564087868, -0.0355774462223053, 0.022622182965278625, 0.011548803187906742, 0.026967016980051994, -0.018277350813150406, 0.01574176549911499, 0.0060022082179784775, -0.03143070638179779, -0.040569379925727844, 0.007798248436301947, -0.027336789295077324, -0.009316958487033844, -0.03201177716255188, -0.006490836851298809, 0.015160692855715752, 0.0006087222718633711, 0.00733603211119771, 0.022939132526516914, 0.008339702151715755, -0.007494506426155567, 0.012664725072681904, -0.1668204516172409, 0.01627001166343689, 0.018449030816555023, -0.013919312506914139, 0.011588421650230885, -0.0028162174858152866, 0.008181227371096611, 0.00100697111338377, -0.010056504979729652, 0.022397678345441818, 0.016903908923268318, 0.013225987553596497, -0.04262954369187355, -0.028498932719230652, -0.019730031490325928, -0.0061903963796794415, -0.03850921615958214, 0.021988287568092346, 0.01069700438529253, 0.016296423971652985, 0.018475443124771118, 0.001985879149287939, 0.033807817846536636, 0.008234051987528801, 0.005186726804822683, 0.01064417976886034, -0.010089520364999771, 0.019914917647838593, 0.010498912073671818, 0.002367207547649741, -0.000960749457590282, -0.009000010788440704, 0.015107868239283562, -0.03024214878678322, -0.0011637944262474775, 0.008584016002714634, -0.02395600825548172, 0.006781372707337141, -0.010512118227779865, 0.0011101444251835346, 0.024299368262290955, 0.022820277139544487, 0.018277350813150406, -0.034177590161561966, -0.0088877584785223, 0.051292795687913895, 0.03201177716255188, -0.010452690534293652, -0.008544397540390491, -0.01930743269622326, 0.006127666682004929, -0.002517427783459425, 0.04167870059609413, 0.007342635188251734, 0.0003445987240411341, -0.006731849629431963, 0.010518721304833889, 0.016652990132570267, -0.0005798337515443563, -0.006560169160366058, -0.005827226210385561, -0.0261482335627079, 0.0073756505735218525, 0.001318141701631248, 0.005510278046131134, -0.04651216045022011, -0.010089520364999771, 0.00868306215852499, -0.016137950122356415, 0.010399865917861462, -0.0023193350061774254, -0.002573553938418627, 0.0015723606338724494, 0.00136271258816123, -0.002657743403688073, 0.008980201557278633, -0.015873827040195465, -0.012024225667119026, -0.012737358920276165, -0.007144542410969734, 0.0025983157102018595, 0.034705836325883865, -0.023969214409589767, -0.013813662342727184, 0.0025933634024113417, -0.007580346427857876, -0.0022615580819547176, 0.018290556967258453, -0.017062382772564888, 0.013958930969238281, -0.02370508946478367, -0.03671317547559738, 0.011641246266663074, -0.010677195154130459, 0.004945714026689529, 0.02040354534983635, -0.024457842111587524, 0.014751301147043705, 0.00379347475245595, -0.014024961739778519, 0.014209847897291183, 0.0006524677737616003, -0.024906853213906288, 0.005015046335756779, 0.007118130102753639, 0.041916411370038986, 0.0067186434753239155, 0.024497460573911667, 0.024299368262290955, 0.010842272080481052, 0.013615570031106472, 0.013146750628948212, 0.013410874642431736, 0.01914895884692669, -0.007355841342359781, -0.013892900198698044, 0.019531937316060066, -0.005883352365344763, 0.032038189470767975, 0.005001840181648731, 0.033754993230104446, -0.012876024469733238, -0.03655470162630081, 0.0067681665532290936, -0.00374065013602376, -0.029898788779973984, -0.09038308262825012, -0.010089520364999771, 0.0016606769058853388, 0.03687164932489395, -0.008828329853713512, 0.015821002423763275, -0.01667940430343151, 0.01637566089630127, 0.026967016980051994, 0.020324308425188065, -0.029053593054413795, -0.02568601630628109, 0.017603835090994835, 0.009330164641141891, 0.023982420563697815, 0.02280707098543644, 0.009429211728274822, 0.0071907639503479, -0.008201036602258682, 0.0035062404349446297, -0.020482782274484634, 0.012011019513010979, -0.004787239711731672, -0.012843008153140545, 0.006322457920759916, -0.02165813185274601, -0.029845964163541794, 0.04038449376821518, 0.020073391497135162, -0.001247983891516924, -0.02202790603041649, -0.01757742278277874, 0.0044669900089502335, -0.028472520411014557, -0.012433617375791073, -0.002155908616259694, -0.00141553720459342, -0.01244682352989912, 0.009640510194003582, -0.017022764310240746, -0.011330900713801384, -0.0026049187872558832, 0.02478799782693386, -0.023876771330833435, 0.007303016725927591, -0.03238154947757721, -0.016666198149323463, 0.01982247456908226, 0.01914895884692669, -0.0074284751899540424, -0.026029378175735474, 0.016151156276464462, -0.02212034910917282, -0.015107868239283562, 0.02400883287191391, 0.0007531648734584451, -0.008372717536985874, 0.006088048219680786, -0.023454172536730766, -0.0193470511585474, 0.008115196600556374, 0.008227448910474777, -0.005586213432252407, -0.004533020779490471, 0.012433617375791073, 0.004196263384073973, -0.02369188331067562, 0.012261936441063881, 0.01736612431704998, -0.030770394951105118, 0.013364652171730995, -0.006263030227273703, -0.017022764310240746, -0.007956722751259804, -0.01768307387828827, -0.03127222880721092, -0.0162171870470047, 0.01490977592766285, -0.003918933682143688, -0.02056201919913292, 0.014368321746587753, -0.01080265361815691, -0.00042259771726094186, -0.015055043622851372, 0.015887033194303513, 0.012823198921978474, -0.0020519099198281765, 0.012618503533303738, 0.006058334372937679, -0.013265606015920639, 0.016243599355220795, 0.035339731723070145, 0.007520918734371662, -0.024708759039640427, 0.0030885948799550533, 0.013853280805051327, 0.01856788620352745, 0.0019479113398119807, -0.01616436243057251, 0.01893766038119793, -0.009739556349813938, -0.004975427873432636, -0.08013509213924408, -0.01315995678305626, 0.01862071081995964, -0.011964797973632812, -0.00413353368639946, -0.0045165130868554115, -0.001725057023577392, 0.01966399885714054, 0.005995605140924454, 0.007217176724225283, -0.04054296761751175, 0.004866476636379957, 0.004526417702436447, -0.005236249882727861, -0.003522748127579689, -0.019333845004439354, 0.011786513961851597, 0.011548803187906742, 0.0011134459637105465, 0.017907578498125076, 0.02353340946137905, 0.001556678325869143, 0.04648574814200401, 0.021063854917883873, -0.0392487607896328, 0.013774043880403042, -0.030717570334672928, 0.03333239629864693, -0.0031744351144880056, 0.021063854917883873, 0.029423365369439125, -0.050341952592134476, -0.02056201919913292, 0.026636861264705658, 0.028498932719230652, -0.020786525681614876, -0.062069039791822433, 0.015055043622851372, 0.010789447464048862, 0.03821868076920509, -0.039565712213516235, -0.02646518126130104, 0.00748130027204752, -0.009250927716493607, -0.026742510497570038, 0.021420421078801155, 0.0011159221176058054, -0.0023176842369139194, 0.038007382303476334, 0.011317694559693336, 0.01752459816634655, 0.015583290718495846, 0.024603109806776047, -0.02385035902261734, 3.1674193451181054e-05, 0.004140136763453484, -0.019267814233899117, 0.030506271868944168, 0.012598694302141666, -0.0060517312958836555, 0.019492318853735924, 0.013503317721188068, 0.03890540078282356, -0.003902425756677985, -0.0006565946969203651, -0.03850921615958214, 0.011344106867909431, -0.01467206422239542, 0.007164351642131805, -0.028181985020637512, -0.007745423819869757, 0.008729283697903156, 0.006167285144329071, -0.001509631285443902, -0.008966995403170586, 0.011892164126038551, -0.027706561610102654, -0.02499929629266262, -0.004410863388329744, 0.011859147809445858, -0.006226713303476572, 0.004536322318017483, -0.01276377122849226, 0.013437286950647831, 0.03594721853733063, 0.003618492977693677, -0.014738094992935658, -0.00474762124940753, 0.007910501211881638, 0.009805587120354176, -0.001077128923498094, 0.00359538197517395, 0.013800456188619137, 0.018343381583690643, -0.0172604750841856, 0.007837867364287376, -0.012123271822929382, 0.01590023934841156, 0.022450502961874008, -0.003552461974322796, -0.010690401308238506, 0.014632445760071278, -0.014698476530611515, -0.01512107439339161, -0.007527521811425686, 0.006289442535489798, -0.016811465844511986, -0.045904677361249924, -0.0032272599637508392, 0.007514315657317638, -0.016045507043600082, 0.019267814233899117, 0.006840800400823355, 0.007098320871591568, 0.00834630522876978, 0.018</t>
+  </si>
+  <si>
+    <t>[-0.014299082569777966, -0.013736538589000702, 0.004928801208734512, -0.027917880564928055, -0.02073563262820244, 0.008909126743674278, -0.007090670522302389, -0.005439015105366707, -0.01072758249938488, 0.009792190045118332, -0.012912346981465816, -0.008595149032771587, -0.021952297538518906, -0.02116735279560089, -0.02687128633260727, 0.005353979766368866, 0.02036932483315468, -0.01631377451121807, 0.0021177164744585752, -0.019872192293405533, -0.013605714775621891, -0.013128206133842468, 0.005723557900637388, -0.021494412794709206, 0.008634395897388458, -0.012003118172287941, 0.013605714775621891, -0.029383111745119095, 0.004945153836160898, -0.015450336039066315, -0.005115225445479155, 0.0007477419567294419, -0.0034014286939054728, -0.0119180828332901, 0.010923818685114384, 0.014626143500208855, 0.025746198371052742, -0.0018200913909822702, 0.009321223013103008, -0.002359741134569049, 0.007712085265666246, 0.027002111077308655, 0.009373552165925503, 0.0027178723830729723, -0.01759585179388523, 0.030220385640859604, 0.011519068852066994, 0.009811813943088055, -0.005739910993725061, 0.007247659377753735, -0.0021913049276918173, 0.01981986314058304, -0.021402835845947266, 0.010125791653990746, -0.010897654108703136, -0.047096703201532364, -0.027525408193469048, 0.016653917729854584, -0.008595149032771587, -0.028728989884257317, -0.003352369647473097, 0.0017121614655479789, -0.026347989216446877, -0.0015551724936813116, -0.005612357519567013, -0.024346379563212395, -0.003963972441852093, 0.007116835564374924, -0.0016361199086531997, -0.006194524932652712, 0.03885478153824806, 0.016902483999729156, 0.020107677206397057, 0.0036467239260673523, 0.044244736433029175, -0.005072707775980234, -0.004869929980486631, 0.021311258897185326, 0.01788366585969925, 0.012820770032703876, -0.012264766730368137, -0.02458186261355877, 0.002894484903663397, 0.011348997242748737, 0.011617187410593033, 0.00500075425952673, 0.011564857326447964, 0.017739757895469666, 0.016169868409633636, -0.007371942512691021, 0.0011749647092074156, 0.005422662477940321, -0.00318556884303689, -0.004752188455313444, -0.0005882999976165593, 0.003097262466326356, 0.008523195050656796, -0.006959846243262291, -0.0009427517652511597, 0.009262352250516415, 0.0006643415545113385, -0.003950890153646469, -0.024738851934671402, -0.014168258756399155, -0.043590616434812546, -0.005350708961486816, -0.01614370383322239, -0.02000301703810692, 0.017844418063759804, -0.0036205591168254614, 0.00016618758672848344, 0.03155479207634926, 0.0035387941170483828, -0.05730099231004715, -0.013723456300795078, -0.01173492893576622, 0.005648334044963121, 0.016366105526685715, 0.0252098198980093, -0.022881148383021355, 0.006191254127770662, 0.04563147574663162, 0.009281975217163563, -0.023234374821186066, 0.04280567169189453, -0.0019427391234785318, -0.015515747480094433, -0.005703934468328953, -0.02823185734450817, -0.010171580128371716, -0.02320821024477482, -0.015908220782876015, 0.025510715320706367, 0.019388142973184586, -0.011885376647114754, 0.012218978255987167, -0.014246753416955471, 0.03448525443673134, -0.021756060421466827, -0.0224755946546793, 0.03218274936079979, 0.020879538729786873, -0.03202575817704201, 0.01136862114071846, -0.03137163817882538, 0.03958739712834358, -0.014429907314479351, 0.03631679341197014, 0.00555021595209837, 0.004111149813979864, 0.0357934944331646, -0.002309046685695648, -0.0003025309124495834, -0.004382609855383635, 0.04042467102408409, -0.0034733819775283337, -0.025785446166992188, -0.008313876576721668, 0.010832241736352444, -0.00922310445457697, -0.031685616821050644, 0.01467847265303135, -0.005968853365629911, -0.007744791451841593, 0.016980977728962898, 0.03090067207813263, 0.0087194312363863, 0.01174147054553032, -0.014456071890890598, 0.008032605051994324, -0.0008945103036239743, 0.024137061089277267, -0.044140078127384186, 0.006979470141232014, 0.01151252817362547, 0.030403539538383484, 0.006835563573986292, -0.0038004424422979355, -0.013075876981019974, -0.009484753012657166, -0.005147931631654501, -0.0031316038221120834, 0.03252289071679115, 0.010701417922973633, 0.0042681386694312096, 0.007103752810508013, 0.019662873819470406, -0.00046115522854961455, 0.013272113166749477, -0.01953205093741417, 0.009530541487038136, 0.0003154089208692312, 0.008438159711658955, -0.03006339631974697, -0.6484692692756653, -0.006541208829730749, -0.027106769382953644, -0.012356343679130077, -0.007738250307738781, 0.0015788843156769872, 0.023993154987692833, 0.015711983665823936, -0.03801750764250755, -0.00045911112101748586, -0.0242940504103899, 0.015214852057397366, 0.0029190145432949066, -0.010066920891404152, -0.027996374294161797, -0.011257420293986797, 0.005752993281930685, -0.02998490259051323, 0.016797823831439018, -0.0010801171883940697, -0.014469154179096222, 0.021219681948423386, -0.0022076580207794905, 0.013160912320017815, -0.01086494792252779, 0.01594746671617031, 0.005586192477494478, 0.007908321917057037, 0.0017710323445498943, -0.0036205591168254614, -0.027708562090992928, 0.02731608971953392, -0.008896044455468655, -0.002655730815604329, 0.02990640699863434, 0.018642446026206017, -0.014534566551446915, 0.045605309307575226, 0.027002111077308655, 0.0224625114351511, -0.005651604384183884, -0.011885376647114754, 0.02070946805179119, -0.013232865370810032, 0.011577939614653587, -4.905906735075405e-06, 0.031057659536600113, 0.006250125356018543, -0.001409630523994565, -0.01962362788617611, 0.00020860324730165303, -0.017909830436110497, 0.0005179820000194013, 0.019204989075660706, 0.006920598912984133, -0.015908220782876015, 0.018276138231158257, -0.010707959532737732, 0.00318556884303689, 0.01834155060350895, -0.020604807883501053, 0.008627854287624359, -0.012853475287556648, -0.0025788715574890375, -0.0038854782469570637, 0.00582494679838419, -0.02466035820543766, -0.008621313609182835, -0.009792190045118332, -0.017478110268712044, 0.018289219588041306, 0.02742074802517891, -0.02899063751101494, 0.0007980274967849255, 0.017072554677724838, 0.025667704641819, 0.010400522500276566, 0.002240363974124193, -0.015005533583462238, 0.022240109741687775, 0.02568078599870205, -0.002405529608950019, -0.011257420293986797, 0.010531346313655376, 0.009190398268401623, 0.0008045686990953982, -0.012958135455846786, 0.0023908119183033705, 0.02172989584505558, 0.023038137704133987, 0.015908220782876015, -0.010289321653544903, 0.005972123704850674, -0.03524403274059296, -0.008876420557498932, 0.024594945833086967, 0.006122571416199207, 0.010701417922973633, -0.015698902308940887, -0.021585989743471146, -0.017857501283288002, 0.0037677364889532328, 0.007097211666405201, 0.009242728352546692, 0.002029410097748041, 0.010537887923419476, -0.02081412635743618, 0.015816643834114075, 0.03979671373963356, -0.025379890576004982, -0.024621110409498215, 0.019675957038998604, 0.008287712000310421, 0.004794706124812365, -0.01806681975722313, -0.024778099730610847, 0.02687128633260727, 0.027185264974832535, 0.021494412794709206, -0.0006717003998346627, 0.01971520483493805, -0.0014701366890221834, -0.002838884713128209, -0.031685616821050644, 0.0025478010065853596, 0.017661264166235924, 0.008739055134356022, -0.01870785839855671, -0.029644759371876717, 0.01787058264017105, 0.020696384832262993, -0.007823285646736622, 0.02055247873067856, -0.004869929980486631, 0.025183655321598053, 0.028127199038863182, 0.017922911792993546, -0.03097916580736637, 0.0006308178417384624, -0.016941731795668602, -0.014848544262349606, -0.02676662802696228, -0.0031152507290244102, -0.0178967472165823, 0.0004631993651855737, -0.03409278020262718, -0.011250879615545273, 0.010433228686451912, -0.014325248077511787, 0.019113412126898766, -0.022043874487280846, 0.020657138898968697, -0.027656231075525284, 0.002076833974570036, 0.01513635739684105, 0.03448525443673134, -0.021677566692233086, 0.01086494792252779, -0.026818957179784775, -0.011041561141610146, 0.023587599396705627, 0.00015044781321194023, -0.01651001162827015, -0.0016410257667303085, -0.008444700390100479, -0.018590116873383522, -0.003627100493758917, 0.019401226192712784, -0.013945857994258404, -0.03799134120345116, -0.004768541548401117, 0.003324569435790181, 0.0003479105653241277, 0.029121462255716324, 0.011957329697906971, 0.014848544262349606, -0.026361072435975075, -0.022580252960324287, -0.0059557706117630005, -0.0013098771451041102, -0.009837978519499302, 0.007875615730881691, -0.01889101229608059, -0.02081412635743618, -0.004428398329764605, 0.003345828503370285, 0.028676660731434822, -0.007842909544706345, -0.022501759231090546, 0.024869676679372787, 0.006920598912984133, -0.0100930854678154, -0.009857602417469025, -0.022606417536735535, 0.005622169002890587, 0.008379288949072361, -0.018851764500141144, -0.0021847637835890055, -0.005524050910025835, 0.04335513338446617, 0.01603904366493225, 0.015162522904574871, 0.028676660731434822, 0.012186272069811821, 0.009425882250070572, -0.03568883612751961, 0.006201066076755524, 0.0024578592274338007, 0.049085233360528946, -0.019741369411349297, 0.027263758704066277, -0.017491193488240242, -0.03364798054099083, -0.004598469939082861, -0.02218778058886528, -0.009576329961419106, 0.03197342902421951, -0.006053888704627752, -0.023273620754480362, 0.008183052763342857, 0.007587802596390247, 0.0013344066683202982, -0.002062116051092744, 0.02098419889807701, -0.030141891911625862, 0.008098016493022442, 0.0034799231216311455, 0.03903793543577194, -0.022580252960324287, -0.011702222749590874, -0.007247659377753735, 0.02412397973239422, -0.02119351737201214, 0.0031446863431483507, -0.009445506148040295, 0.043878428637981415, 0.00012837123358622193, -0.013841197825968266, -0.006518314592540264, 0.016889400780200958, 0.03338633105158806, 0.015384923666715622, 0.01059021707624197, 0.02677970938384533, 0.00045870227040722966, -0.014037434943020344, 0.025013582780957222, 0.01123125571757555, 0.002398988464847207, -0.007221494801342487, -0.023796917870640755, -0.015332593582570553, 0.0036303710658103228, -0.0006533032283186913, -0.014547648839652538, 0.005520780570805073, 0.018943341448903084, -0.0021569635719060898, 0.01906108297407627, 0.015437252819538116, -0.0002849514130502939, 0.0026017657946795225, 0.019584380090236664, -0.0007632773485966027, 0.0033621813636273146, -0.013684209436178207, 0.024267885833978653, -0.01924423687160015, 0.0027374960482120514, 0.007437354419380426, -0.0041438560001552105, -0.0013957304181531072, -0.008843714371323586, 0.007254200987517834, 0.005615627858787775, -0.01603904366493225, -0.006250125356018543, -0.01853778585791588, -0.01695481315255165, 0.03215658292174339, -0.0031839334405958652, -0.038828615099191666, 0.004016302525997162, 0.01780517026782036, 0.006439820397645235, -0.016091374680399895, -0.033883463591337204, 0.014259835705161095, -0.006979470141232014, 0.03338633105158806, 0.02027774788439274, 0.023312868550419807, -0.016339940950274467, -0.02107577584683895, 0.00023998061078600585, -0.005416120868176222, 0.00024877034593373537, 0.0023417528718709946, 0.022881148383021355, 0.0019492802675813437, -0.0041765617206692696, -0.007829827256500721, 0.009177315980196, -0.020330077037215233, 0.012689945288002491, 0.004853576887398958, -0.016339940950274467, -0.016104456037282944, -0.0011888646986335516, 0.009641742333769798, -0.003210098249837756, -0.0011054642964154482, 0.016431517899036407, 0.013880445621907711, 0.009857602417469025, 0.02768239565193653, -0.0026688133366405964, 0.002848696429282427, 0.03275837376713753, 0.006855187006294727, 0.007143000140786171, -0.04353828728199005, -0.017635099589824677, -0.0206309724599123, 0.10288013517856598, -0.0010367815848439932, -0.011806881986558437, 0.019924523308873177, -0.03173794597387314, -0.019754450768232346, -0.010165038518607616, 0.007286906708031893, 0.015934385359287262, 0.023823082447052002, -0.007738250307738781, -0.019505884498357773, 0.02804870344698429, 0.023456774652004242, -0.004712941125035286, -0.011021937243640423, -0.0017939265817403793, 0.007470060605555773, 0.006966387387365103, 0.013841197825968266, -0.004049008246511221, -0.005847841035574675, -0.016300693154335022, 0.044061582535505295, 0.012670321390032768, -0.016209116205573082, 0.01806681975722313, -0.0013523949310183525, 0.008117640390992165, -0.03694474697113037, 0.0020441277883946896, -0.013219783082604408, -0.022161616012454033, 0.006263207644224167, -0.0220046266913414, 0.019401226192712784, 0.012500250712037086, 0.014429907314479351, 0.008281170390546322, -0.017033308744430542, 0.0357934944331646, 0.011211631819605827, -0.00564179290086031, 0.0023711882531642914, 0.008353123441338539, 0.006887893192470074, -0.011767635121941566, 0.013501055538654327, -0.014246753416955471, -0.0031741217244416475, 0.036081310361623764, -0.016248364001512527, 0.0028061787597835064, -0.029644759371876717, -0.00043621688382700086, -0.011761093512177467, 0.016667000949382782, 0.020199254155158997, -0.026570390909910202, -0.015528829768300056, -0.007483142893761396, -0.024882759898900986, 0.01632685773074627, -0.014325248077511787, -0.018106065690517426, -0.005478262435644865, -0.01164989359676838, 0.013972022570669651, -0.03215658292174339, 0.004493810702115297, -0.024058567360043526, -0.01896950602531433, -0.0026181188877671957, 0.007829827256500721, 0.020774880424141884, -0.0064136553555727005, 0.01917882449924946, 0.0021226222161203623, -0.002631201408803463, 0.020971115678548813, -0.010433228686451912, 0.0034374052193015814, -0.01768742874264717, -0.03519170358777046, -0.015175605192780495, 0.011931165121495724, 0.01586897298693657, -0.01182650588452816, -0.02467343956232071, 0.021782226860523224, 0.005154472775757313, -0.015437252819538116, 0.032863035798072815, 0.0041765617206692696, -0.013357148505747318, 0.0005302467616274953, 0.011852670460939407, 0.007404648698866367, -0.007555096410214901, 0.0008356394246220589, 0.00016107727424241602, -0.0035715000703930855, -0.019008753821253777, -0.02171681448817253, 0.013147830031812191, 0.011983495205640793, -0.018223809078335762, -0.02127201110124588, -0.0002896529040299356, 0.007594343740493059, -0.016902483999729156, -0.009687530808150768, 0.004170020576566458, -0.014874708838760853, -0.03045586869120598, -0.028258023783564568, -0.015515747480094433, 0.03877628594636917, 0.026374153792858124, -0.02098419889807701, -0.013919692486524582, -0.014259835705161095, -0.0022092934232205153, 0.024686522781848907, -0.03317701071500778, 0.04073864966630936, -0.025615373626351357, -0.0019525508396327496, -0.001399001106619835, 0.0043499041348695755, 0.004781623836606741, 0.04361678287386894, -0.004994213115423918, -0.015345675870776176, -0.016850154846906662, -0.025720033794641495, -0.021141188219189644, -0.00518390815705061, -0.02091878652572632, -0.002006515860557556, -0.011021937243640423, 0.01843312755227089, -0.008255005814135075, -0.011623728089034557, 0.0017873853212222457, -0.015829725190997124, 0.005144660826772451, -0.011348997242748737, -0.044977352023124695, 0.017033308744430542, 0.002492200583219528, 0.012120860628783703, -0.02659655548632145, -0.0017415968468412757, -0.008510112762451172, -0.008058769628405571, -0.005883817560970783, 0.0036434533540159464, 0.016025962308049202, 0.011250879615545273, 0.009164233691990376, 0.009373552165925503, 0.03283686935901642, 0.010380898602306843, 0.002591954078525305, -0.002933732233941555, -0.014377577230334282, 0.01851162128150463, -0.044794198125600815, 0.02265874855220318, 0.0016459317412227392, 0.01109389029443264, -0.027630066499114037, -0.012218978255987167, -0.018092984333634377, 0.018642446026206017, 0.010302403941750526, -0.016549259424209595, -0.01934889703989029, -0.03524403274059296, -0.016339940950274467, -0.008326958864927292, -0.009203481487929821, -0.003329475410282612, -0.023417528718709946, 0.02218778058886528, 0.0385408028960228, 0.014508401975035667, 0.017268791794776917, -0.0003834783856291324, 0.014050517231225967, -0.024150144308805466, 0.03613363951444626, 0.0008765219827182591, -0.002634471980854869, -0.021585989743471146, 0.014194423332810402, -0.0329938568174839, -0.007790579926222563, -0.006515044253319502, -0.005556757096201181, -0.02786554954946041, -0.0114601980894804, -0.03236590325832367, 0.007803662214428186, 0.0021684106905013323, -0.010832241736352444, -0.015895137563347816, -0.02009459398686886, -0.01805373653769493, -0.031947266310453415, -0.0018315385095775127, 0.0004129138251300901, -0.012035824358463287, 0.0201730877161026, 0.004981130827218294, -0.013003923930227757, 0.01678474247455597, -0.015371841378509998, -0.027551572769880295, 0.03142396733164787, -0.006789775099605322, 0.03733722120523453, 0.0038462309166789055, 0.013815033249557018, 0.004137314856052399, -0.002976250136271119, -0.0059099821373820305, 0.03427593410015106, 0.0008871514583006501, -0.012860016897320747, 0.03417127579450607, 0.019571296870708466, 0.0038756662979722023, -0.0284411758184433, -0.006564103066921234, 0.006835563573986292, -0.0017644910840317607, -0.02182147279381752, 0.044323232024908066, -0.0018037384143099189, 0.0027407666202634573, -0.011178926564753056, 0.01632685773074627, -0.009641742333769798, 0.024699606001377106, -0.022318605333566666, -0.006603350397199392, -0.0038298778235912323, -0.008464324288070202, -0.010616382583975792, 0.02713293582201004, -0.03456375002861023, 0.02604709379374981, -0.011990035884082317, -0.03270604461431503, 0.02549763210117817, -0.010465933941304684, -0.026282578706741333, 0.02988024242222309, -0.0036598064471036196, 0.027289923280477524, -0.007293447852134705, -0.0067570689134299755, 0.03527019917964935, -0.0074896845035254955, -0.017085637897253036, -0.01796215958893299, 0.014809297397732735, 0.02906913310289383, -0.02182147279381752, -0.0003278781077824533, 0.013880445621907711, 0.032863035798072815, 0.006881352048367262, -0.0068028573878109455, -0.026975946500897408, 0.006237042602151632, 0.0014186246553435922, -0.01852470450103283, -0.013723456300795078, -0.015973633155226707, -0.014233671128749847, 9.740269160829484e-05, -0.0033441931009292603, 0.012186272069811821, -0.01980678178369999, -0.004500351846218109, -0.004637717269361019, -0.005210073199123144, -0.020225418731570244, 0.0041438560001552105, 0.007980274967849255, 0.014913956634700298, -0.0019443744095042348, 0.013775786384940147, 0.0011839588405564427, 0.026609638705849648, -0.019139576703310013, 0.023875413462519646, -0.011015395633876324, 0.01041360478848219, -0.002840520115569234, -0.01082570105791092, -0.0043139271438121796, -0.015633489936590195, 0.0265834741294384, -0.019859110936522484, -0.04160209000110626, 0.004062091000378132, 0.019937604665756226, -0.0009272163733839989, 0.007044882047921419, -0.021154269576072693, -0.007855991832911968, -0.01095652487128973, -0.007927944883704185, 0.004035925958305597, -0.03867162764072418, 0.03555801138281822, 0.016025962308049202, 0.0019590919837355614, 0.001941103721037507, -0.020853374153375626, -5.8155437727691606e-05, -0.0038887488190084696, 0.0013090594438835979, 0.010217368602752686, -0.0206309724599123, -0.008510112762451172, 0.01668008230626583, 0.006704739294946194, -0.015345675870776176, -0.013972022570669651, -0.009569788351655006, -0.016745494678616524, -0.028676660731434822, 0.006407114211469889, 0.0021635049488395452, -0.008137264288961887, 0.02980174869298935, 0.028728989884257317, 0.019597461447119713, 0.01677165925502777, -0.008006439544260502, 0.013671127147972584, -0.005337626673281193, -0.012964676134288311, -0.039744384586811066, 0.0071691651828587055, -0.027446912601590157, 0.02226627618074417, 0.008863338269293308, 0.0035878531634807587, -0.012304014526307583, 0.01347489096224308, -0.014351412653923035, 0.015110192820429802, -0.00016649421013426036, 0.007842909544706345, 0.024869676679372787, 0.03600281476974487, -0.0004697405674960464, -0.008928750641644001, -0.02026466466486454, 0.01988527551293373, -0.012663780711591244, 0.004340092185884714, 0.02192613296210766, -0.027211429551243782, 0.01059021707624197, -0.0026001306250691414, -0.024922005832195282, -0.01924423687160015, 0.028127199038863182, 0.01182650588452816, 0.002907567424699664, 0.020238500088453293, -0.007103752810508013, -0.0021520578302443027, 0.00044234926463104784, 0.012088154442608356, 0.022802654653787613, 0.01594746671617031, 0.01541108824312687, -0.028127199038863182, -0.014704638160765171, -0.02016000635921955, -0.011041561141610146, -0.010838783346116543, -0.004274680279195309, -0.002631201408803463, 0.006492150016129017, 0.03100533038377762, -0.0008577160187996924, -0.0021455164533108473, 0.020971115678548813, -0.012631074525415897, 0.03317701071500778, -0.002263258211314678, -0.005298379343003035, 0.017844418063759804, 0.008235381916165352, -0.010066920891404152, -0.01715105026960373, -0.019950687885284424, -0.022776490077376366, -0.028545835986733437, -0.014286000281572342, -0.01568581908941269, 0.02972325310111046, -0.025654621422290802, 0.01260490994900465, -0.012591827660799026, 0.009766025468707085, -0.015306429006159306, -0.0020702925976365805, -0.014469154179096222, 0.010263157077133656, -0.0012052177917212248, -0.01568581908941269, -0.0067112804390490055, -0.012532956898212433, -0.0059557706117630005, -0.008608231320977211, -0.0011978589463979006, -0.01623528078198433, -0.024738851934671402, 0.002766931429505348, 0.007195329759269953, -0.033961955457925797, -0.032313574105501175, 0.01431216485798359, 0.008150346577167511, -0.009288516826927662, 0.0022289168555289507, 0.19382910430431366, 0.006842104718089104, -0.009138069115579128, 0.008739055134356022, -0.011656434275209904, 0.018642446026206017, 0.0014742249622941017, 0.01678474247455597, -0.010518264025449753, 0.011394785717129707, -0.009844519197940826, 0.03595048561692238, -0.012611450627446175, 0.01780517026782036, 0.01113967876881361, -0.027760891243815422, -0.012977758422493935, -0.027891715988516808, 0.00021606430527754128, 0.0020228689536452293, -0.007188788615167141, -0.000582576438318938, -0.0067570689134299755, -0.002055574906989932, -0.009327763691544533, -0.005769346375018358, -0.005579651333391666, -0.009340846911072731, 0.018014488741755486, 0.011519068852066994, 0.002281246706843376, -0.029487770050764084, -0.013350607827305794, -0.031109990552067757, -0.03328167274594307, 0.012317096814513206, -0.027996374294161797, 0.013239406980574131, 0.01440374180674553, 0.02348294109106064, -0.007699002977460623, -0.010609840974211693, -0.024908924475312233, 0.012120860628783703, 0.017818253487348557, 0.011270503513514996, -0.010354734025895596, -0.013147830031812191, -0.005439015105366707, 0.014115928672254086, -0.02649189718067646, 0.005520780570805073, -0.011434033513069153, 0.028728989884257317, 0.01759585179388523, -0.018223809078335762, 0.01013233233243227, 0.024084731936454773, 0.015659654513001442, 0.012624532915651798, -0.015057862736284733, 0.008575525134801865, -0.009196939878165722, 0.009367011487483978, 0.017909830436110497, 0.018930258229374886, -0.03024655021727085, 0.0019983393140137196, 0.015306429006159306, 0.001916574197821319, -0.001963997958227992, -0.014286000281572342, -0.025903187692165375, -0.02034316025674343, 0.002055574906989932, -0.015254099853336811, 0.051335409283638, -0.011905000545084476, 0.027159100398421288, -0.0031708511523902416, 0.006583726964890957, -0.021481329575181007, -0.004183103330433369, 0.023064302280545235, 0.0034504877403378487, -0.010583676397800446, 0.011577939614653587, 0.016536176204681396, -0.010878030210733414, -0.0008642572211101651, -0.0042452444322407246, -0.012415214441716671, -0.0018756916979327798, 0.010943442583084106, -0.007568178698420525, 0.008863338269293308, 0.007666296791285276, 0.01669316552579403, -0.021860720589756966, -0.0042681386694312096, -0.03042970411479473, 0.021952297538518906, 0.006724362727254629, -0.007784038782119751, -0.013010464608669281, 0.013631879352033138, -0.011499445885419846, -0.0005817587953060865, 0.003398158121854067, -0.013592632487416267, -0.012565662153065205, -0.022527923807501793, -0.01063600555062294, -0.0029549910686910152, 0.013671127147972584, 0.011015395633876324, 0.005334355868399143, -0.004137314856052399, 0.011355538852512836, 0.000616100151091814, -0.008320418186485767, -0.014521484263241291, 0.008922209031879902, 0.007162624038755894, -0.024542616680264473, -0.03152862563729286, -0.02778705582022667, 0.024778099730610847, 0.004889553878456354, -0.03275837376713753, -0.009151151403784752, 0.004042467102408409, 0.02969708852469921, -0.00016097506158985198, -0.023077385500073433, -0.01210123673081398, -0.007914862595498562, -0.004474186804145575, 0.0017955618677660823, 0.02091878652572632, -0.0018429856281727552, 0.0002837249485310167, 0.011028477922081947, -0.023535270243883133, 0.016261445358395576, -0.002866684924811125, 0.015554995276033878, 0.003535523544996977, 0.009255810640752316, -0.02025158330798149, -0.0005609086947515607, -0.0041438560001552105, -0.01908724755048752, -0.033334001898765564, 0.02585085853934288, -0.021520577371120453, -0.0027865550946444273, -0.013788868673145771, -0.0028503318317234516, 0.025419138371944427, -0.017465028911828995, -0.01777900569140911, 0.027473077178001404, 0.006776692345738411, -0.0027783785481005907, 0.019414307549595833, -0.16452449560165405, 0.01696789637207985, 0.005834758281707764, -0.00958941224962473, 0.01449531875550747, 0.0018577033188194036, 4.477917627809802e-06, 0.009066116064786911, -0.014534566551446915, 0.00646271463483572, 0.03875012323260307, 0.008071851916611195, -0.03597664833068848, -0.028388846665620804, 0.0041209617629647255, -0.008680184371769428, -0.005589463282376528, 0.010799536481499672, 0.02081412635743618, 0.009236186742782593, -0.009111904539167881, -0.016091374680399895, 0.0201730877161026, -0.00890258513391018, -0.008425077423453331, -0.01541108824312687, 0.00046115522854961455, 0.018655527383089066, 0.0030351208988577127, -0.006992552429437637, -0.0035616883542388678, -0.0012608179822564125, 0.03840997815132141, -0.01297121774405241, -0.007685920689254999, 0.014011269435286522, -0.026204083114862442, -0.02183455601334572, -0.011591021902859211, -0.0011945882579311728, 0.020395489409565926, 3.85829116567038e-05, 0.010112709365785122, -0.019741369411349297, 0.0025788715574890375, 0.048169463872909546, 0.0206440556794405, -0.025013582780957222, 0.010806077159941196, -0.008405453525483608, 0.007110293954610825, -0.01669316552579403, 0.04076481610536575, -0.002235458232462406, 0.014129011891782284, 0.016994060948491096, 0.005210073199123144, 0.0293569453060627, -0.0016671906923875213, 0.0007264830055646598, -0.0016009608516469598, -0.017216462641954422, 0.007005634717643261, -0.018393879756331444, 0.005232966970652342, -0.01449531875550747, -0.01807990111410618, 0.01310858316719532, -0.018864845857024193, 0.013919692486524582, 0.0072149536572396755, -0.03042970411479473, -0.005743181332945824, 0.0010318757267668843, 0.0032656986732035875, 0.016274528577923775, -0.0017465028213337064, -0.019963769242167473, 0.003143050940707326, -0.006155277602374554, -0.004778353031724691, 0.03519170358777046, -0.010995772667229176, -0.01458689570426941, 0.0019329272909089923, -0.02273724228143692, -0.01933581382036209, 0.01695481315255165, -0.019479719921946526, 0.02053939551115036, -0.0020245041232556105, -0.03639528527855873, -0.0015290075680240989, -0.00027943227905780077, 0.029487770050764084, 0.024372544139623642, -0.01954513229429722, 0.0031054390128701925, -0.0018805975560098886, -0.00977256614714861, -0.0036925124004483223, 0.0025576127227395773, -0.013278653845191002, -0.0002957852848339826, 0.03746804594993591, 0.01953205093741417, -0.009340846911072731, 0.006511773448437452, 0.018119148910045624, 0.007509307935833931, 0.01991144008934498, 0.005582921672612429, 0.00678323395550251, 0.03877628594636917, -0.020866457372903824, -0.0034374052193015814, 0.02346985787153244, -0.006269748788326979, 0.020212335512042046, 0.005370332393795252, 0.02137667126953602, -0.02026466466486454, -0.015123275108635426, 0.019401226192712784, -0.000617735437117517, -0.005295108538120985, -0.09947870671749115, -0.002999144373461604, 0.0032231807708740234, 0.015895137563347816, -0.027342254295945168, 0.009380093775689602, -0.014102846384048462, 0.014351412653923035, 0.027028275653719902, -0.0007289359928108752, -0.026818957179784775, -0.009288516826927662, 0.02180839143693447, 0.005474992096424103, 0.0321042537689209, 0.00682902242988348, -0.0017219732981175184, 0.0008360482752323151, -0.023404445499181747, 0.0004979495424777269, -0.009556706063449383, -0.004428398329764605, 0.03375263884663582, -0.02768239565193653, 0.021756060421466827, -0.015371841378509998, -0.033700309693813324, 0.028205692768096924, 0.02403240278363228, 0.008981079794466496, -0.024150144308805466, -0.00876521971076727, -0.009484753012657166, -0.02705444023013115, -0.001522466423921287, -0.014011269435286522, -0.002102998783811927, -0.015646571293473244, 0.009700613096356392, -0.022318605333566666, 0.0042223501950502396, 0.01944047398865223, 0.02687128633260727, -0.0261255893856287, 0.013553384691476822, -0.024712687358260155, 0.013527220115065575, 0.006109489127993584, -0.01123779732733965, -0.02768239565193653, -0.0357411652803421, 0.004703129176050425, -0.03053436428308487, -0.015581159852445126, 0.016823990270495415, 0.009007244370877743, -0.008863338269293308, 0.010675253346562386, -0.017491193488240242, -0.022946560755372047, 0.023587599396705627, 0.012029283680021763, 0.015895137563347816, 0.004719482269138098, 0.017020225524902344, 0.007607426028698683, -0.0004656523233279586, 0.0009705518605187535, 0.003443946596235037, -0.004886283073574305, -0.0040293848142027855, -0.0007616420043632388, -0.00016853833221830428, -0.019924523308873177, -0.02933078072965145, -0.010243533179163933, -0.017726676538586617, -5.662233888870105e-05, 0.010099627077579498, -0.01695481315255165, -0.0010122520616278052, -0.015476500615477562, 0.003466840833425522, -0.005383415147662163, 0.01916574314236641, 0.029487770050764084, 0.009648283012211323, 0.005115225445479155, 0.010204286314547062, -0.018642446026206017, 0.003074368229135871, 0.024882759898900986, 0.002173316664993763, -0.03129314258694649, 0.010753748007118702, 0.028179528191685677, 0.01826305501163006, -0.002441506367176771, -0.017386533319950104, -0.005236237775534391, -0.0357411652803421, 0.009249269962310791, -0.08294253051280975, -0.00435971561819315, 0.018119148910045624, -0.011270503513514996, 0.00550115667283535, 0.005131578538566828, 0.016379186883568764, 0.00559600442647934, 0.010439769364893436, 0.014168258756399155, -0.037546541541814804, 0.0012133942218497396, 0.025144407525658607, 0.006106218788772821, -0.03861929848790169, -0.011447115801274776, 0.025105159729719162, 0.01022390928119421, 0.002802907954901457, 0.017177214846014977, 0.021206598728895187, 0.010949984192848206, 0.020853374153375626, -0.0004922259831801057, -0.03924725577235222, 0.005540404003113508, -0.0100930854678154, 0.02127201110124588, -0.014416825026273727, 0.019597461447119713, 0.03281070291996002, -0.0375988706946373, -0.026923615485429764, 0.03165945038199425, -0.0011250879615545273, -0.04233470559120178, -0.01651001162827015, 0.020513230934739113, 0.019741369411349297, 0.047803156077861786, -0.017373451963067055, -0.02604709379374981, 0.012827310711145401, -0.0016410257667303085, 0.0031741217244416475, 0.03192109987139702, 0.006668762769550085, 0.01246754452586174, 0.005334355868399143, 0.00940625835210085, 0.0022305522579699755, 0.018498539924621582, -0.0030367563012987375, -0.03500854969024658, -0.0019198448862880468, 0.01678474247455597, -0.004294303711503744, 0.02394082583487034, 0.010747206397354603, -0.018197642639279366, 0.028258023783564568, 0.009896849282085896, 0.02237093448638916, -0.006900975480675697, -0.014508401975035667, -0.038462307304143906, -0.009975343942642212, 0.02165140211582184, 0.0006520767929032445, -0.03330783545970917, -0.004500351846218109, -0.014560731127858162, 0.014456071890890598, 0.01677165925502777, 0.008503572084009647, -0.0192704014480114, 0.008411995135247707, -0.03990137577056885, 0.0034995467867702246, 0.01242175605148077, -0.00014002274838276207, 0.002101363381370902, -0.02878131903707981, 0.028912143781781197, 0.014207505621016026, -0.009628660045564175, -0.019414307549595833, -0.00042109034257009625, -0.0013752891682088375, 0.023182043805718422, 0.002330305753275752, 0.026439566165208817, 0.023339033126831055, -0.006197795737534761, -0.005141390487551689, -0.011617187410593033, -0.017399616539478302, 0.001475042663514614, 0.011702222749590874, 0.031057659536600113, -0.016470763832330704, 0.014809297397732735, -0.011126596480607986, -0.03181644156575203, 0.0026410131249576807, 0.004575575701892376, -0.03817449510097504, -0.025824693962931633, 0.008608231320977211, 0.01768742874264717, -0.014717720448970795, 0.03780818730592728, 0.0037317597307</t>
+  </si>
+  <si>
+    <t>[0.003314460627734661, -0.0035088572185486555, -0.0018888862105086446, -0.032814133912324905, -0.0009266234119422734, 0.015072209760546684, 0.0018791663460433483, 0.014022468589246273, -0.008955199271440506, -0.010212297551333904, 0.009570788592100143, 0.015266606584191322, -0.024714278057217598, -0.03421378880739212, 0.007173231802880764, 0.011566593311727047, 0.032321661710739136, -0.023483099415898323, 0.005057549569755793, -0.008048015646636486, -0.010341894812881947, -0.015124049037694931, 0.013776233419775963, 0.008184093050658703, 0.018843501806259155, -0.02483091503381729, 0.011223158799111843, -0.01779376156628132, -0.00024583059712313116, 0.004924711771309376, 0.009233835153281689, -0.00881912186741829, -0.018001118674874306, 0.017171692103147507, -0.00370325380936265, 0.005682858172804117, -0.0003029345825780183, -0.014359422959387302, 0.0063178869895637035, -0.016238588839769363, 0.01473525632172823, -0.018700946122407913, 0.005439862608909607, -0.015927555039525032, 0.002872208599001169, 0.049609992653131485, 0.007996177300810814, 0.006389165762811899, 0.005255185998976231, 0.004416041076183319, -0.0023716376163065434, 0.053549762815237045, -0.01665330119431019, -0.010834366083145142, 0.010393734090030193, -0.021163301542401314, -0.005903174169361591, -0.010840846225619316, 0.0033986992202699184, -0.008359050378203392, 0.016588503494858742, -0.0025854737032204866, -0.023418301716446877, -0.020269077271223068, -0.012026664800941944, -0.014942612498998642, -0.019517410546541214, -0.01662738248705864, -0.010510371997952461, 0.008501607924699783, 0.029911143705248833, 0.024273645132780075, 0.0102900555357337, -0.008365530520677567, 0.03812763839960098, -0.01407430786639452, -0.004364201799035072, 0.019517410546541214, 0.014579739421606064, 0.01857134699821472, -0.008203533478081226, -0.03895706310868263, 0.0033695397432893515, 0.0542755089700222, 0.01927117444574833, 0.027889421209692955, -0.011281478218734264, -0.0022906390950083733, -0.04051223397254944, 0.013633675873279572, 0.006784438621252775, 0.008022096008062363, -0.004438720643520355, -0.006680760532617569, -0.025725139304995537, -0.017392009496688843, -0.021655771881341934, 0.022951750084757805, -0.015124049037694931, -0.00591937405988574, 0.009687426500022411, 0.007134352345019579, -0.006450724322348833, -0.025621460750699043, -0.028433730825781822, -0.0011582792503759265, 0.03159591555595398, -0.009557829238474369, 0.007076033391058445, 0.009875343181192875, -0.006010092329233885, 0.029081718996167183, 0.012104423716664314, -0.00016918571782298386, -0.019815485924482346, -0.00322698219679296, 0.02617873065173626, 0.004633117001503706, -0.0068686772137880325, -0.03258085623383522, -0.009408791549503803, 0.024973472580313683, 0.005776816513389349, 0.005553260445594788, 0.04637005180120468, -0.004305882845073938, -0.017145773395895958, -0.02104666270315647, -0.029003961011767387, -0.024234766140580177, -0.0005876444629393518, -0.002519054803997278, -0.004020768217742443, 0.004079087171703577, -0.01349111832678318, 0.02287399023771286, -0.020126519724726677, 0.015201807953417301, -0.013970630243420601, 0.01480005495250225, 0.018480628728866577, 0.019958043470978737, -0.008022096008062363, 0.018182555213570595, 0.007056593894958496, 0.01958221010863781, -0.0048955525271594524, 0.0287966039031744, 0.0077175418846309185, -0.0018645866075530648, 0.024325484409928322, -0.0329178124666214, -4.657416502595879e-05, 0.016044192016124725, 0.0028138896450400352, -0.006726119667291641, 0.002305218717083335, 0.015836836770176888, -0.01298568770289421, -0.007873059250414371, -0.0022452797275036573, 0.019815485924482346, -0.00242671649903059, -0.021940886974334717, 0.03252901881933212, 0.036313269287347794, 0.014838933944702148, 0.014683417044579983, -0.01325136236846447, 0.022912869229912758, 0.002925667678937316, 0.04642188921570778, -0.025491863489151, 0.016031233593821526, 0.02536226622760296, 0.027448788285255432, -0.006603001616895199, 0.015033330768346786, -0.0023554377257823944, 0.006353526376187801, -0.00600037258118391, 0.0021173020359128714, 0.03322884440422058, 0.00765274278819561, -0.008274812251329422, -0.010730687528848648, 0.026619363576173782, 0.022122323513031006, 0.01546100340783596, -0.020450513809919357, -0.0022015406284481287, 0.012875529937446117, 0.01086676586419344, 0.021616892889142036, -0.648195743560791, 0.005005710292607546, -0.012234020978212357, -0.02533634565770626, -0.01665330119431019, 0.016847698017954826, 0.01676994003355503, 0.008708964101970196, -0.023444220423698425, -0.013594796881079674, -0.02799309976398945, 0.004775674548000097, 0.01564243994653225, -0.021694650873541832, -0.03423970565199852, -0.017651204019784927, 0.0032820613123476505, 0.0011015803320333362, 0.0028916483279317617, 0.0017690083477646112, -0.008488647639751434, 0.0027928301133215427, -0.025893617421388626, 0.008294251747429371, 0.0213836170732975, 0.00789249874651432, 0.006275767460465431, 0.003453778102993965, -0.018843501806259155, -0.0003175143210683018, -0.023496059700846672, 0.022161202505230904, 0.01595347374677658, 0.011087081395089626, 0.033513959497213364, -0.002188580809161067, -0.01828623190522194, 0.025919536128640175, -0.005773576442152262, 0.01859726756811142, -0.01010861899703741, -0.03747965022921562, 0.02454579994082451, -0.0011866287095472217, 0.022588875144720078, -0.017871519550681114, 0.015098129399120808, 0.004817793611437082, -0.033021487295627594, -0.024455081671476364, 0.0033986992202699184, -0.005193626973778009, -0.004315602593123913, -0.009311593137681484, 0.0033598197624087334, -0.010814926587045193, 0.014424221590161324, 0.007425947114825249, 0.008741363883018494, 0.013413360342383385, 0.014605658128857613, 0.003343620104715228, -0.019141577184200287, 0.004620157182216644, 0.0046817162074148655, 0.01910269819200039, -0.02301654778420925, -0.0029353874269872904, 0.024804996326565742, 0.008346091024577618, 0.004370681941509247, 0.018065916374325752, -0.014087268151342869, 0.010134538635611534, 0.0011995885288342834, 0.01349111832678318, 0.006214208900928497, 0.019789565354585648, 0.013180084526538849, 0.008534007705748081, 0.0001645283045945689, 0.00033310652361251414, -0.011255558580160141, -0.015149968676269054, 0.018156634643673897, 0.0039170896634459496, 0.0007601713878102601, 0.0008934140205383301, 0.007581464480608702, -0.010173417627811432, 0.029548270627856255, 0.02501235157251358, 0.004694676026701927, -0.03341028094291687, -0.006308167241513729, 0.02076154761016369, -0.005799496080726385, 0.026697121560573578, 0.002590333577245474, -0.02650272473692894, -0.028070857748389244, 0.008935759775340557, 0.015681318938732147, -0.0006540633039548993, 0.024727236479520798, 0.03014441952109337, -0.010944523848593235, 0.012856089510023594, 0.019297095015645027, -0.023288702592253685, -0.018156634643673897, -0.002107582287862897, -0.0027085915207862854, -0.015344365499913692, 0.003696773899719119, -0.0271377544850111, -0.009363432414829731, 0.020502353087067604, -0.0014595938846468925, -0.0068686772137880325, 0.016692182049155235, -0.004341522231698036, 0.01859726756811142, -0.01924525573849678, -0.015111089684069157, 0.0197766050696373, 0.015240686945617199, -0.008955199271440506, -0.02781166136264801, -0.0008448148728348315, 0.02486979402601719, -0.005818936042487621, 0.017845600843429565, -0.02616577222943306, 0.02781166136264801, 0.03188103064894676, 0.0026097733061760664, -0.0059226141311228275, 0.0014928033342584968, -0.03353988006711006, -0.023496059700846672, -0.035820797085762024, 0.004752994980663061, 0.0028689687605947256, -0.04572205990552902, -0.008948720060288906, 0.009745745919644833, -0.0004070177092216909, -0.022251920774579048, -0.002677812008187175, -0.00914311595261097, 0.01665330119431019, 0.003116824198514223, 0.03276229277253151, 0.018389910459518433, 0.0051741874776780605, 0.003622255055233836, -0.01178042870014906, -0.01367255486547947, -0.013128245249390602, 0.012039624154567719, 0.010322455316781998, -0.022329680621623993, -0.00604897178709507, 3.0981944291852415e-05, -0.03377315402030945, -0.012694092467427254, 0.0008383350213989615, -0.019815485924482346, -0.041730452328920364, 0.006959395483136177, -0.017379049211740494, -0.0143983019515872, 0.03322884440422058, -0.006836277432739735, 0.009486550465226173, -0.024779075756669044, -1.009317838907009e-05, -0.0296260304749012, -0.005410703364759684, 0.002658372512087226, 0.014929653145372868, -0.017003215849399567, -0.011890587396919727, 0.04128982126712799, -0.005329704377800226, 0.015448043122887611, 0.01350407861173153, -0.040589991956949234, 0.005715257488191128, -0.006855717394500971, 0.004516479093581438, -0.016342267394065857, -0.018662065267562866, 0.003693533828482032, 0.025090111419558525, 0.012408978305757046, -0.008384970016777515, -0.011262038722634315, 0.016497785225510597, 0.018467670306563377, 0.04901384189724922, 0.00805449578911066, -0.0013308061752468348, 0.023081347346305847, -0.026100972667336464, 0.019297095015645027, -0.031492237001657486, 0.039423614740371704, -0.01242193765938282, 0.005828655790537596, -0.020644910633563995, -0.0197766050696373, -0.002617873251438141, 0.024118129163980484, -0.0034796977415680885, -8.818717469694093e-05, 0.005579180084168911, -0.004066127352416515, 0.026567524299025536, 0.031207121908664703, 0.009855903685092926, -0.014165026135742664, 0.008663604967296124, -0.032010626047849655, -0.006622441578656435, 0.009266234003007412, 0.009149596095085144, -0.011806348338723183, -0.04209332540631294, -0.011359237134456635, 0.03509505093097687, -0.006285487674176693, 0.016018273308873177, 0.006810358259826899, 0.001585141639225185, 0.007613863795995712, -0.000562939909286797, 0.018351031467318535, 0.005047829821705818, 0.030377695336937904, 0.02287399023771286, 0.03550976514816284, -0.014009509235620499, -0.020942986011505127, -0.022990629076957703, -0.010134538635611534, 0.012972727417945862, 0.007432426791638136, 0.014761175960302353, -0.01595347374677658, -0.014890773221850395, -0.02433844469487667, -0.004140645731240511, 0.011002843268215656, 0.010652929544448853, 0.012454337440431118, -0.0014790334971621633, 0.022251920774579048, 0.01775488257408142, -0.0011655691778287292, 0.021435456350445747, 0.0018192274728789926, -0.009097756817936897, 0.0001671607606112957, -0.015033330768346786, 0.001968264812603593, -0.012143302708864212, 0.019685886800289154, -0.017171692103147507, 0.015422123484313488, -0.0059647331945598125, 0.00218372093513608, 0.015098129399120808, -0.004960351157933474, -0.007950817234814167, -0.020476434379816055, -0.009518949314951897, -0.006784438621252775, 0.027863500639796257, -0.004555358551442623, -0.04629229009151459, 0.002914327895268798, 0.007587944157421589, 0.017482727766036987, 0.007432426791638136, -0.014190945774316788, 0.019543329253792763, -0.0067131598480045795, 0.024934593588113785, 0.011346276849508286, 0.018506549298763275, 0.010147497989237309, 0.003819891717284918, 0.009551349096000195, -0.030844246968626976, -0.0012279379880055785, -0.006842757575213909, 0.010963963344693184, 0.01695137657225132, 0.002177241025492549, -0.0078277001157403, -0.018700946122407913, -0.004659036640077829, 0.029522351920604706, -0.004869632888585329, -0.0037648126017302275, -0.0020573632791638374, 0.013555916957557201, -0.015266606584191322, 0.004114726558327675, 0.02153913490474224, -0.0044678798876702785, -0.007400027476251125, 0.010782526805996895, 0.007140832021832466, 0.019621089100837708, 0.006301687099039555, 0.024144047871232033, -0.011482354253530502, -0.008611765690147877, 0.0010197717929258943, -0.03079240955412388, -0.007924898527562618, 0.08035056293010712, 0.02947051264345646, 0.011359237134456635, 0.005183907225728035, 0.03138855844736099, 0.01893422193825245, -0.005456062499433756, -0.021163301542401314, -0.0051353080198168755, 0.03278821334242821, 0.002886788221076131, -0.011683231219649315, 0.014061348512768745, 0.0034505382645875216, 0.005618059542030096, -0.007704582065343857, -0.007017714437097311, -0.01779376156628132, 0.013056966476142406, 0.0156554002314806, -0.005948533304035664, 0.016238588839769363, 0.013866951689124107, 0.024882754310965538, 0.013257842510938644, 0.009810544550418854, 0.002374877454712987, 0.011443475261330605, -0.009603188373148441, -0.036313269287347794, -0.00798969715833664, -0.008372009731829166, -0.028692927211523056, 0.004597477614879608, -0.010231737047433853, -0.0012084983754903078, -0.013737354427576065, 0.00881912186741829, 0.005485221743583679, -0.001734988996759057, 0.032321661710739136, 0.005329704377800226, -0.025958415120840073, 0.02087818644940853, 0.013776233419775963, -0.02385893277823925, 0.020930025726556778, 0.02568626031279564, 0.001851626904681325, 0.013283762149512768, 0.03986424580216408, -0.011968345381319523, 0.019465571269392967, -0.010374294593930244, -0.008579366840422153, 0.003152463585138321, -0.0032950211316347122, 0.0064766439609229565, -0.019297095015645027, -0.022342640906572342, -0.007050113752484322, -0.0030552654061466455, -0.022161202505230904, -0.0020346834789961576, -0.01758640445768833, -0.0069853151217103004, -0.008015616796910763, -0.02568626031279564, -0.016575543209910393, -0.008845041505992413, 0.008793202228844166, -0.0288225244730711, -0.021914968267083168, -0.021940886974334717, 0.027111833915114403, -0.004649316892027855, -0.00898111891001463, 0.0015454522799700499, -0.02371637523174286, 0.029366834089159966, 0.012324739247560501, -0.008780242875218391, -0.02695631794631481, -0.02996298298239708, -0.01159899216145277, 0.04670700430870056, 0.02944459207355976, 0.0019115657778456807, -0.030533213168382645, -0.009674467146396637, 0.03872378543019295, 0.011268517933785915, 0.010270616039633751, -0.010510371997952461, -0.00538478372618556, -0.003215642413124442, -0.005559740588068962, -0.011430514976382256, 0.006752039305865765, -0.007549064699560404, -0.003256141673773527, -0.0004260523710399866, -0.025090111419558525, -0.0013048866530880332, 0.01844174973666668, -0.006016572471708059, -0.011948905885219574, -0.04854729026556015, -0.0011534193763509393, -0.01487781386822462, 0.012383058667182922, -0.0007334418478421867, 0.0014612138038501143, -0.014851894229650497, -0.02404036931693554, -0.0012911169324070215, -0.013225443661212921, 0.037790682166814804, 0.005313504952937365, -0.009402311407029629, -0.02137065678834915, -0.02617873065173626, 0.018182555213570595, 0.02532338723540306, -0.013199524022638798, 0.009849423542618752, 0.0045845177955925465, 0.014670457690954208, -0.015590600669384003, -0.007860098965466022, 0.01135275699198246, 0.013283762149512768, 0.002600053558126092, 0.0016045812517404556, -0.029366834089159966, -0.03045545518398285, -0.00522602628916502, 0.023107266053557396, -0.018636146560311317, -0.04009752348065376, -0.02318502590060234, 0.015162928961217403, 0.0031767631880939007, 0.004824273753911257, 0.0073222690261900425, -0.02716367319226265, 0.0022128804121166468, -0.025090111419558525, 0.0028398092836141586, 0.008060975931584835, 0.02369045652449131, -0.0004434670554473996, -0.030896086245775223, -0.014709336683154106, -0.006337326485663652, -0.012350658886134624, -0.03343620151281357, 0.002849529031664133, -0.002339238068088889, 0.015409164130687714, 0.02336646243929863, 0.012370098382234573, 0.004247563891112804, 0.015499882400035858, -0.012473776936531067, 0.004195725079625845, -0.034628499299287796, 0.008294251747429371, -0.03802395984530449, 0.013387440703809261, 0.011573072522878647, 0.028070857748389244, -0.012972727417945862, 0.015253647230565548, -0.028044937178492546, 0.006661320570856333, 0.015668358653783798, -0.013387440703809261, -0.00994662195444107, -0.030559133738279343, -0.016536664217710495, -0.005245466250926256, -0.016510743647813797, 0.013996549881994724, -0.0016961096553131938, 0.0035088572185486555, 0.005935573950409889, 0.003001806326210499, 0.0071991509757936, 0.0033177006989717484, 0.0063600060530006886, -0.018713904544711113, 0.021811289712786674, 0.02107258327305317, -0.012648733332753181, -0.00703715393319726, -0.04232660308480263, -0.025712179020047188, 0.003732413286343217, -0.0038814505096524954, -0.026697121560573578, -0.01728833094239235, -0.02087818644940853, -0.02235559932887554, -0.006369725801050663, 0.010516852140426636, -0.022148244082927704, 0.01044557336717844, 0.003460258012637496, -0.02845965139567852, -0.007743461523205042, -0.02155209332704544, -0.008858001790940762, 0.0028884082566946745, -0.015435083769261837, -0.00019500400230754167, -0.014346463605761528, 0.020955944433808327, -0.02043755352497101, -0.019556289538741112, 0.006415085401386023, 0.0019990443252027035, 0.02781166136264801, 0.01087324507534504, 0.04364849999547005, 0.02286102995276451, 0.013685515150427818, -0.003550976514816284, 0.01538324449211359, -0.007419466972351074, -0.0077758608385920525, -0.001021391712129116, 0.008417368866503239, -0.002658372512087226, -0.0592520609498024, -0.023133186623454094, 0.03665022552013397, 0.007510185707360506, -0.019789565354585648, 0.014864853583276272, 0.009324553422629833, 0.012169222347438335, -0.032814133912324905, -0.002838189247995615, 0.003826371394097805, 0.030507294461131096, -0.015072209760546684, -0.00855344720184803, -0.012480256147682667, -0.007231550756841898, -0.03164775297045708, 0.017171692103147507, -0.00207842281088233, 0.03797211870551109, 0.0029337673913687468, 0.018299192190170288, 0.011119481176137924, -0.009026478044688702, -0.023755254223942757, 0.035302408039569855, 0.017806721851229668, 0.0021043422166258097, -0.02353493869304657, -0.00035497616045176983, 0.009363432414829731, 0.0030504052992910147, -0.012480256147682667, -0.004707635845988989, 0.020502353087067604, 0.019154537469148636, -0.004714115522801876, -0.012551534920930862, 0.0012514275731518865, -0.012357139028608799, 0.006295207422226667, -0.02599729411303997, -0.011125960387289524, 0.0076203434728085995, 0.015072209760546684, -0.02485683560371399, 0.0021513213869184256, -0.00530702481046319, -0.0189212616533041, -0.00026628273189999163, 0.013465198688209057, -0.031829189509153366, -0.017495686188340187, -0.01828623190522194, -0.018325112760066986, -0.001334856147877872, 0.0016880098264664412, -0.015435083769261837, -0.00415684562176466, -0.013711434789001942, 0.03206246718764305, 0.01745680719614029, -0.0071667516604065895, 0.007296349387615919, -0.02980746701359749, 0.02025611698627472, 0.007898978888988495, 0.005780056584626436, -0.009538388811051846, 0.0033695397432893515, -0.010426132939755917, 0.002199920592829585, 0.011359237134456635, 0.023807093501091003, -0.00033452402567490935, -0.009778144769370556, 0.004808073863387108, 0.0039041300769895315, -0.00703715393319726, 0.004250803962349892, -0.01810479536652565, 0.008605285547673702, 0.007056593894958496, -0.005381543654948473, -0.017392009496688843, -0.01629042811691761, -0.006217448506504297, -0.016990255564451218, 0.01375031378120184, -0.004186004865914583, 0.0056439791806042194, 0.010516852140426636, -0.016368186101317406, 0.015927555039525032, -0.018662065267562866, -0.012272899970412254, -0.004568318370729685, 0.0205671526491642, 0.025465944781899452, 0.016238588839769363, -0.016407066956162453, -0.006262808106839657, -0.018065916374325752, 0.01809183694422245, -0.025478903204202652, -0.007840659469366074, 0.03968280926346779, 0.007918418385088444, 0.0025158149655908346, 0.023807093501091003, 0.010678849183022976, -0.014540859498083591, -0.03737597167491913, -0.013050486333668232, -0.02269255369901657, -0.01680881902575493, -0.018014077097177505, 0.02091706544160843, 0.016251549124717712, -0.03571712225675583, -0.023884853348135948, 0.027034075930714607, -0.013018086552619934, -0.007587944157421589, 0.0044419607147574425, 0.018726864829659462, 0.006146170198917389, 0.029574191197752953, -0.04872872680425644, -0.003745372872799635, -0.008080415427684784, 0.0205671526491642, -0.003939769696444273, 0.012253460474312305, 0.0271377544850111, 0.0015195327578112483, 0.021992726251482964, 0.0006747179431840777, -0.015720197930932045, -0.018636146560311317, 0.011268517933785915, 0.01680881902575493, 0.003696773899719119, 0.0048372335731983185, -0.027396949008107185, -0.00954486895352602, -0.011443475261330605, 0.007523145526647568, -0.01480005495250225, 0.020826347172260284, 0.018312152475118637, -0.04134165868163109, 0.00501543004065752, -0.00448083970695734, 0.011255558580160141, -0.031181201338768005, -0.013659595511853695, -0.008955199271440506, -0.014126147143542767, 0.026619363576173782, 0.00020674879488069564, -0.011106520891189575, -0.008158174343407154, -0.020294995978474617, 0.019167497754096985, 0.015888676047325134, -0.004182765260338783, 0.002543354406952858, 0.007847139611840248, -0.005115868523716927, -0.021992726251482964, -0.005702298134565353, -0.035950396209955215, -0.006978834979236126, -0.026062093675136566, -0.029159478843212128, 0.002752330619841814, -0.0021853409707546234, 0.015759078785777092, -0.0008537247194908559, -0.004892312455922365, -0.022796232253313065, 0.025271547958254814, -0.009253274649381638, 0.038257233798503876, 0.02486979402601719, -0.0007735361577942967, 0.0019472051644697785, -0.006693720351904631, -0.025258587673306465, -0.015486923046410084, -0.001061890972778201, -0.018713904544711113, -0.03172551095485687, -0.017534567043185234, -0.0028430491220206022, -0.026852639392018318, -0.04909159988164902, -0.009557829238474369, -0.030818328261375427, -0.01161195244640112, 0.007186191156506538, 0.1940854787826538, -0.022964708507061005, -0.026256490498781204, 0.02238151989877224, 0.002549834316596389, 0.0010821406031027436, 0.011722110211849213, -0.0018078876892104745, 0.0036546546034514904, 0.01143699511885643, 0.013542957603931427, 0.0018062676535919309, 0.003141123801469803, 0.006107290741056204, 0.006739079486578703, -0.001689629745669663, -0.024714278057217598, -0.024416202679276466, 0.019219335168600082, 0.014190945774316788, 0.004487319849431515, -0.009091277606785297, -0.010166938416659832, 0.01709393411874771, 0.01582387648522854, -0.010620529763400555, -0.012396018020808697, -0.027085915207862854, 0.028718845918774605, 0.04141942039132118, 0.0006998274475336075, -0.016575543209910393, 0.013620716519653797, 0.005520861130207777, -0.010575170628726482, 0.014825974591076374, 0.020644910633563995, 0.007030674256384373, 0.010328935459256172, 0.03356580063700676, -0.026463845744729042, -0.0156294796615839, -0.0056860982440412045, -0.013931750319898129, -0.013581836596131325, 0.01218218170106411, 0.0006718829972669482, -0.007587944157421589, -0.02566034160554409, 0.05235746130347252, -0.02602321468293667, -0.02895212173461914, 0.0030406855512410402, 0.022796232253313065, 0.010886205360293388, -0.0049376715905964375, 0.0055467807687819, 0.0018451469950377941, 0.003239942016080022, -0.017651204019784927, -0.021668732166290283, 0.028070857748389244, -0.008909840136766434, 0.003372779581695795, 0.0012919268338009715, 0.01746976748108864, -0.021500255912542343, -9.124993084697053e-06, 0.013374480418860912, 0.004646076820790768, 0.01910269819200039, -0.014864853583276272, -0.003495897399261594, -0.0008423849358223379, -0.014126147143542767, -0.022601835429668427, 0.021772410720586777, 0.004659036640077829, 0.021007783710956573, 0.03504321351647377, 0.012434897013008595, 0.04243028163909912, -0.0043285624124109745, 0.004406321328133345, -0.01709393411874771, -0.03519872948527336, 0.019465571269392967, 0.009207915514707565, -0.009480070322751999, -0.017690083011984825, -0.015603560954332352, -0.007173231802880764, 0.0271377544850111, 0.007367628160864115, 0.01610899157822132, -0.002501235343515873, -0.01465749740600586, 0.020152438431978226, -0.005906414240598679, -0.007672182749956846, 0.018312152475118637, 0.006914036348462105, 0.01741792820394039, -0.01473525632172823, -0.02305542677640915, -0.01597939431667328, -0.013387440703809261, -0.0024024168960750103, 0.003878210671246052, 0.003985128831118345, -0.018480628728866577, -0.013264322653412819, -0.00687515689060092, -0.026062093675136566, 0.008171133697032928, 0.015486923046410084, 0.019621089100837708, 0.009162556380033493, 0.007963777519762516, -0.016031233593821526, 0.004898792132735252, -0.01159899216145277, 0.025699220597743988, 0.016834737733006477, -0.001788447960279882, -0.03491361439228058, -0.03359171748161316, 0.004169805441051722, -0.016523703932762146, -0.026360169053077698, -0.020942986011505127, -0.005789776332676411, -0.005313504952937365, -0.003894410328939557, -0.029029879719018936, 0.011268517933785915, -0.00637296587228775, -0.015007411129772663, -0.03468034043908119, -0.01119723916053772, 0.01078900694847107, -0.011812828481197357, 0.015992354601621628, -0.028407812118530273, 0.0026162532158195972, -0.021759450435638428, -0.00314598367549479, -0.008929280564188957, -0.005702298134565353, -0.013698474504053593, 0.019530370831489563, -0.014994451776146889, -0.004684956278651953, -0.010847325436770916, 0.024455081671476364, 0.00682331807911396, -0.0039332895539700985, -0.038101717829704285, 0.003738892963156104, 0.003280441276729107, -0.02650272473692894, -0.007678662426769733, 0.03426562622189522, -0.0005025960272178054, -0.011385155841708183, 0.032865971326828, -0.16225630044937134, 0.011534193530678749, -0.007516665384173393, 0.00580597622320056, 0.027189593762159348, 0.01036781445145607, 0.021435456350445747, 0.011560113169252872, -0.0071278722025454044, 0.016588503494858742, 0.026541605591773987, 0.016536664217710495, -0.032166145741939545, -0.04841769486665726, -0.007795300334692001, -0.0035023773089051247, -0.028252294287085533, 0.01758640445768833, 0.024325484409928322, -0.004257283639162779, 0.027889421209692955, -0.03600223734974861, 0.02796717919409275, 0.010063259862363338, -0.009032958187162876, 0.018895341083407402, -0.01938781328499317, 0.011080601252615452, 0.0102835763245821, -0.02845965139567852, 0.012629293836653233, -0.03029993735253811, 0.02174649015069008, -0.007477785926312208, 0.015188847668468952, -0.002561174100264907, -0.03245126083493233, 0.004999230615794659, -0.02319798432290554, -0.0014936132356524467, 0.021798329427838326, -0.002089762594550848, 0.005339424591511488, -0.008164653554558754, 0.02042459510266781, 0.012136822566390038, 0.025245627388358116, -0.009823503904044628, 0.015111089684069157, -0.02271847426891327, 0.03011850081384182, -0.005987412761896849, 0.021292898803949356, 0.009311593137681484, 0.02235559932887554, 0.02074858918786049, 0.013231922872364521, 0.024973472580313683, 0.012558015063405037, -0.005475501995533705, -0.00855344720184803, -0.01828623190522194, 0.02799309976398945, -0.002305218717083335, 0.016342267394065857, -0.030636891722679138, -0.011456434614956379, 0.006732599344104528, -0.027682064101099968, 0.013452239334583282, -0.0001300026779063046, 0.012428417801856995, -0.005083469208329916, 0.007419466972351074, 0.012570975348353386, 0.007944338023662567, -0.003327420447021723, -0.027034075930714607, 0.037583328783512115, -0.025491863489151, -0.0197247676551342, 0.013296722434461117, -0.03504321351647377, -0.008119294419884682, -0.019815485924482346, -0.024571720510721207, -0.0016572303138673306, 0.019983962178230286, 0.01665330119431019, 0.024558760225772858, 0.0016993496101349592, -0.013465198688209057, 0.005614819470793009, -0.017379049211740494, 0.01958221010863781, 0.005835135467350483, -0.00046371668577194214, 0.004953871481120586, 0.019361892715096474, -0.01208498328924179, 0.003832851303741336, -0.008663604967296124, -0.03027401864528656, 0.019141577184200287, 0.037401892244815826, 0.03320292383432388, -0.002619493054226041, 0.012856089510023594, 0.007309309206902981, -0.003761572763323784, 0.009389352053403854, -0.0011193999089300632, -0.0040726070292294025, 0.026100972667336464, -0.036935340613126755, 0.006078131031244993, -0.009752225130796432, -0.020528271794319153, 0.024921633303165436, 0.012778331525623798, 0.009894782677292824, -0.020852265879511833, -0.009505989961326122, 0.0007715111714787781, -0.0033889792393893003, -0.0035380166955292225, -0.09030366688966751, -0.01538324449211359, 0.015188847668468952, 0.0110935615375638, -0.013154164887964725, 0.017197612673044205, 0.00010793056571856141, 0.013076405972242355, -0.01004382036626339, 0.017327209934592247, -0.03255493566393852, -0.025271547958254814, 0.019945083186030388, 0.005634258966892958, 0.023975571617484093, 0.026295369490981102, 0.005935573950409889, -0.013594796881079674, -0.002682671882212162, 0.009771664626896381, 0.03815355524420738, -0.03276229277253151, 0.013121765106916428, -0.0010951004223898053, -0.010743647813796997, -0.011404596269130707, -0.02454579994082451, 0.014489020220935345, 0.010555731132626534, 0.02812269702553749, -0.009758705273270607, -0.005848095286637545, 0.028563328087329865, -0.0221871230751276, -0.003269101493060589, -0.0009225734975188971, -0.003894410328939557, -0.013841032050549984, 0.013789192773401737, -0.008585846051573753, -0.007218590937554836, -0.0015567921800538898, 0.021150341257452965, -0.03587263822555542, 0.010944523848593235, -0.021487295627593994, -0.001648320467211306, 0.014139106497168541, -0.006146170198917389, -0.028667006641626358, 0.02321094460785389, 0.0044840797781944275, -0.00847568828612566, -0.007082513067871332, 0.017573446035385132, -0.004620157182216644, -0.019698847085237503, 0.005562980193644762, -0.030688730999827385, -0.02108554169535637, -0.010199337266385555, 0.007412987295538187, -0.01251913607120514, -0.0107112480327487, 0.02339238114655018, 0.022498156875371933, -0.018869422376155853, 0.00650256359949708, 0.03110344335436821, 0.005533820949494839, -0.0012449476635083556, 0.014916692860424519, 0.003628734964877367, 0.015836836770176888, -0.03525057062506676, -0.03138855844736099, -0.007918418385088444, 0.004169805441051722, 0.012616334483027458, 0.006350286304950714, -0.007050113752484322, -0.01745680719614029, 0.016005313023924828, -0.014929653145372868, 0.009499509818851948, -0.005637499038130045, 0.022679593414068222, -0.0038522910326719284, 0.005417183041572571, -0.056556425988674164, 0.0066742803901433945, 0.020359795540571213, 0.035639360547065735, -0.019867325201630592, -0.0164589062333107, 0.021759450435638428, -0.00506078964099288, -0.004393361508846283, 0.007665702607482672, -0.024403242394328117, -0.03175143152475357, -0.008540486916899681, -0.07879538834095001, 0.014385342597961426, 0.002659992314875126, -0.0007589564193040133, 0.0037874921690672636, -0.0038522910326719284, 0.040382638573646545, -0.0038458111230283976, 0.010938044637441635, 0.014942612498998642, -0.009130156598985195, 0.00621096882969141, -0.003725933376699686, -0.0205671526491642, -0.02006172016263008, -0.014372382313013077, 0.02190200798213482, 0.010737167671322823, 0.0013575357152149081, 0.017560485750436783, -0.0010959104401990771, 0.020981865003705025, 0.02566034160554409, -0.001289496896788478, -0.010620529763400555, 0.02139657735824585, -0.008806162513792515, 0.009253274649381638, -0.008410889655351639, 0.012726492248475552, 0.021590974181890488, -0.021927926689386368, 0.0038101717364042997, 0.050957806408405304, -0.012162742204964161, -0.014670457690954208, -0.005485221743583679, 0.004714115522801876, 0.03180326893925667, 0.017832640558481216, -0.05243522301316261, -0.010925084352493286, 0.018817583099007607, -0.006939955987036228, 0.006272527854889631, 0.005268145818263292, 0.00461043743416667, -0.0018548667430877686, 0.00682331807911396, 0.011722110211849213, 0.013581836596131325, 0.025401145219802856, 0.018869422376155853, -0.03423970565199852, 0.009991981089115143, -0.0022128804121166468, 0.0014474440831691027, 0.04087510704994202, 0.004497039597481489, -0.012486736290156841, 0.03439522534608841, -0.004393361508846283, 0.039734650403261185, -0.0030811848118901253, 0.005345904268324375, 0.008890400640666485, -0.03931993618607521, -0.011378676630556583, 0.006797398440539837, -0.045333269983530045, -0.013607756234705448, -0.024947553873062134, 0.014864853583276272, 0.00873488374054432, 0.025543702766299248, -0.0028300893027335405, -0.016744019463658333, -0.012797771021723747, 0.00546578224748373, 0.016562582924962044, 0.019802525639533997, -0.0014109947951510549, -0.024934593588113785, 0.026373127475380898, 0.021266980096697807, 0.0018953661201521754, -0.006946435663849115, -0.004218404646962881, 0.00469143595546484, 0.018856462091207504, 0.002932147588580847, 0.004231364466249943, -0.017042094841599464, 0.016316348686814308, 0.010017900727689266, 0.008948720060288906, -0.0015770418103784323, -0.01218218170106411, 0.02564738132059574, 0.008261851966381073, -0.023923732340335846, 0.02566034160554409, -0.009084797464311123, -0.01989324390888214, -8.312475983984768e-05, 0.0005086708697490394, -0.027552466839551926, -0.047640107572078705, 0.01217570248991251, -0.012279380112886429, -0.0045812781900167465, 0.006104050669819117, 0.015914594754576683, 0.018130715936422348, 0.00031731181661598384, 0.0064604</t>
+  </si>
+  <si>
+    <t>[0.0020983759313821793, -0.02129775658249855, 0.013289151713252068, -0.04451325535774231, -0.010858208872377872, -0.005500006955116987, -0.016071230173110962, -0.008980981074273586, -0.01616576686501503, -0.011297129094600677, 0.012438321486115456, -0.01439658086746931, -0.017705364152789116, -0.022027038037776947, -0.0033864376600831747, -0.01265440508723259, 0.032277513295412064, -0.01206692773848772, 0.024660559371113777, -0.028712131083011627, -0.007036227732896805, 0.0004671967471949756, 0.006441997364163399, 0.0010027637472376227, 0.00588152976706624, 0.004973303060978651, 0.015260916203260422, -0.0101559367030859, -0.010115421377122402, 0.005358201917260885, 0.015139368362724781, -0.0015201830537989736, -0.02413385547697544, 0.005705961957573891, -0.006256300024688244, -0.030683893710374832, 0.0012652716832235456, -0.007968088611960411, 0.03595093637704849, -0.015652567148208618, 0.020271359011530876, 0.0038152290508151054, 0.007718241773545742, -0.020163316279649734, 0.00571271451190114, 0.028496045619249344, -0.005044205579906702, 0.003821981605142355, -0.01265440508723259, -0.0030707528349012136, 0.010763672180473804, 0.012924510054290295, -0.016408860683441162, 0.0009175119339488447, 0.0038962604012340307, -0.01247208472341299, -0.02321549877524376, 0.01382260862737894, 0.005577662028372288, -0.02078455686569214, -0.004027936607599258, 0.0045039961114525795, -0.028604088351130486, 0.005682327784597874, -0.002061236649751663, -0.015639062970876694, -0.018380625173449516, -0.007454889826476574, -0.017070617526769638, 0.008933712728321552, 0.01392389740794897, 0.04000250622630119, 0.017475774511694908, -0.013052809983491898, 0.03343896195292473, -0.007542673964053392, -0.006195526570081711, 0.032790713012218475, -0.008265203796327114, 0.008947218768298626, 0.00781277846544981, -0.06071953848004341, 0.004281159490346909, 0.037004344165325165, 0.010689393617212772, 0.01103377714753151, -0.0015860210405662656, 0.012985283508896828, -0.010959498584270477, 0.006452125962823629, 0.0027500034775584936, 0.014180497266352177, 0.016476387158036232, -0.0034944796934723854, -0.025187263265252113, 0.00685053039342165, -0.024620043113827705, 0.031710293143987656, -0.0021760310046374798, -0.013174356892704964, -0.0011597620323300362, 0.014491117559373379, 0.017462268471717834, -0.020879093557596207, -0.024714579805731773, -0.01071640383452177, 0.02206755429506302, -0.0020207208581268787, 0.03573485091328621, 0.005219773389399052, -0.016800513491034508, 0.04183921962976456, -0.007562931627035141, -0.02622716687619686, -0.011047282256186008, 0.007684479001909494, 0.011391665786504745, -0.01359977200627327, 0.015125863254070282, -0.031143072992563248, 0.018650729209184647, 0.015544525347650051, 0.017192164435982704, -0.00683364924043417, 0.04086684063076973, 0.007535921409726143, -0.0008630689699202776, -0.014599159359931946, -0.008238193579018116, -0.0038321104366332293, 0.029171308502554893, 0.018893824890255928, 0.018583204597234726, -0.006553415209054947, 0.009730521589517593, 0.030197706073522568, -0.028496045619249344, 3.711301906150766e-05, -0.010122173465788364, -0.03192637488245964, 0.023093951866030693, 0.016895050182938576, -0.02254023775458336, -0.007394116371870041, -0.006236042361706495, 0.026537787169218063, -0.0033543629106134176, 0.039975497871637344, 0.0130257997661829, 0.0046458011493086815, 0.027483154088258743, -0.009007992222905159, -0.010331504978239536, -0.010000626556575298, -0.0029711518436670303, -0.01174280233681202, 0.006418363191187382, 0.019055886194109917, -0.014963801018893719, 0.01045980490744114, -0.006607436574995518, 0.0345463901758194, -0.003082569921389222, -0.018785782158374786, 0.02960347570478916, 0.03946229815483093, -0.0036025214940309525, 0.022553743794560432, -0.0006668209680356085, 0.007421126589179039, -0.003114644903689623, 0.03738249093294144, -0.026483766734600067, 0.031143072992563248, 0.007373858243227005, 0.031062040477991104, -0.007468394935131073, 0.0005267041851766407, -0.017624331638216972, 0.009116034023463726, -0.007252311334013939, 0.008677113801240921, 0.01434255950152874, 0.030629873275756836, -0.018610214814543724, -0.018272582441568375, 0.008157161995768547, 0.013728071935474873, 0.015868650749325752, -0.008920207619667053, -0.005537146236747503, 0.033060815185308456, 0.004439846146851778, -0.014437096193432808, -0.6452261209487915, 0.0030707528349012136, 0.02200002782046795, -0.013741577044129372, 0.003713939804583788, 0.0233235415071249, 0.020581979304552078, 0.014977306127548218, -0.024282412603497505, -0.0027449391782283783, -0.03324988856911659, 0.01580112613737583, 0.01920444518327713, 0.004747090395539999, -0.03913817182183266, -0.005581038538366556, 0.015558031387627125, 0.003161913249641657, 0.016922060400247574, 0.02118971385061741, -0.009717016480863094, 0.02183796465396881, 0.004531006328761578, 0.017529794946312904, 0.01650339737534523, 0.004004302434623241, 0.012141206301748753, -0.02548437938094139, -0.030683893710374832, 0.018502172082662582, -0.025322316214442253, 0.020190326496958733, 0.0045647695660591125, -0.007833036594092846, 0.042541492730379105, -0.005827508866786957, -0.019042382016777992, 0.03978642448782921, 0.0008769962005317211, 0.033628035336732864, -0.005895035341382027, -0.010338257998228073, 0.022729311138391495, -0.010898725129663944, -0.0003724490525200963, 0.018313098698854446, 0.019582591950893402, 0.007988346740603447, -0.03838187828660011, -0.02497117966413498, 0.005854519549757242, 0.0037679607048630714, 0.01103377714753151, 0.01005464792251587, 0.020744040608406067, -0.012904251925647259, 0.04135303199291229, -0.008508298546075821, 0.015409473329782486, 0.0010061400244012475, 0.0031889236997812986, 0.02724006026983261, 0.01359977200627327, -0.01527442131191492, -0.011283623985946178, -0.005260289181023836, 0.010284236632287502, -0.0019126789411529899, 0.008373245596885681, 0.0030977632850408554, 0.01132414024323225, 0.03141317889094353, -0.02663232386112213, -0.013235130347311497, -0.012816468253731728, 0.028766151517629623, -0.004554640501737595, -0.007887057028710842, 0.01474771648645401, 0.016611440107226372, 0.015652567148208618, 0.01375508215278387, -0.03257462754845619, 0.008224688470363617, 0.02159487083554268, 0.005135365761816502, -0.002798960078507662, 0.006266429089009762, 0.026267683133482933, -0.012728684581816196, 0.005007065832614899, 0.003133214544504881, -0.011972391046583652, -0.02426890842616558, -0.0028951847925782204, 0.027820784598588943, -0.017300207167863846, 0.017732374370098114, 0.0026166392490267754, -0.03465443477034569, -0.017799900844693184, 0.004709950648248196, 0.004287912044674158, 0.0010998325888067484, -0.0020004629623144865, -0.002078118035569787, -0.038895078003406525, -0.0038287341594696045, 0.02443096973001957, -0.024444475769996643, -0.018745265901088715, -0.025457369163632393, 0.0101424315944314, -0.014112970791757107, -0.006701972801238298, -0.023472098633646965, 0.022229617461562157, 0.016179271042346954, 0.021675903350114822, -0.017529794946312904, -0.0023448464926332235, -0.009325364604592323, -0.0011665147030726075, -0.00781277846544981, 0.004000925924628973, 0.03562681004405022, 0.020203832536935806, -0.01576060988008976, -0.03732847049832344, -0.014572149142622948, 0.020865589380264282, -0.004838250577449799, 0.008238193579018116, -0.005243407562375069, 0.014977306127548218, 0.023242508992552757, 0.015085347928106785, -0.0024360069073736668, 0.021621881052851677, -0.035896915942430496, -0.015206894837319851, -0.011655017733573914, -0.008677113801240921, -0.01382260862737894, -0.012323527596890926, 0.0006782160489819944, -0.019461043179035187, -0.025767989456653595, -0.03681527078151703, -0.024782106280326843, 0.015436483547091484, -0.003109580371528864, -0.0032496971543878317, 0.01967712864279747, 0.011823833920061588, 0.0030943870078772306, -0.02713201753795147, -0.006249547470360994, -0.020500946789979935, 0.009062012657523155, 0.011168829165399075, 0.009156549349427223, -0.0199742428958416, 0.00045791189768351614, -0.0021000641863793135, -0.02395828813314438, 0.008339482359588146, -0.005206268280744553, -0.0046694353222846985, -0.027901815250515938, -0.00555065181106329, -0.018083510920405388, 0.006658080965280533, 0.019042382016777992, -0.017300207167863846, 0.005820756312459707, -0.016125250607728958, -0.0021456442773342133, -0.0007335030823014677, -0.015747103840112686, -0.0011741113848984241, 0.007731747347861528, -0.030197706073522568, -0.005250160116702318, 0.010236968286335468, -0.011054035276174545, 0.01240455824881792, -1.4903238479746506e-05, -0.015517515130341053, 0.04046168550848961, 0.0077452524565160275, 0.005378460045903921, -0.017124637961387634, -0.005648564547300339, -0.020122800022363663, -0.006597307510674, 0.01359977200627327, 0.025794999673962593, -0.005381836090236902, 0.02258075401186943, -0.00277194962836802, 0.003892884124070406, 0.008893197402358055, -0.009892584756016731, 0.00434530945494771, -0.03138616681098938, 0.02112218737602234, -0.0034235771745443344, 0.016719480976462364, 0.013039304874837399, 0.007157774642109871, -0.019582591950893402, -0.01781340502202511, 0.012728684581816196, 0.009203817695379257, 0.014572149142622948, 0.006556791719049215, 0.013626782223582268, -0.03125111386179924, 0.006870788522064686, 0.013208120130002499, 0.00014022232790011913, 0.010520578362047672, 0.01981217972934246, -0.03527567535638809, 0.00515562342479825, -0.0023651043884456158, 0.010297741740942001, -0.02318848855793476, -0.035518769174814224, -0.0008702435879968107, 0.027658721432089806, 0.012769199907779694, 0.00627655815333128, -0.009298354387283325, -0.027253564447164536, -0.007860046811401844, -0.015193389728665352, 0.02811790071427822, 0.003151784185320139, 0.025119736790657043, 0.02339106798171997, 0.01191161759197712, -0.009791295975446701, -0.015504010021686554, 0.00838675070554018, -0.00845427718013525, 0.00197007623501122, -0.020298369228839874, -0.002454576548188925, 0.0030504949390888214, 0.015639062970876694, -0.016881544142961502, 0.009311859495937824, 0.0070227221585810184, 0.007218548096716404, 0.020095789805054665, -0.007562931627035141, 0.008190925233066082, 0.014369570650160313, -0.006188774015754461, 0.009473922662436962, -0.002007215516641736, 0.0020089037716388702, -0.006259676534682512, -0.012364042922854424, 0.003957034088671207, -0.02800985798239708, -0.0022283638827502728, -0.020933113992214203, 0.018313098698854446, -0.0039030129555612803, -0.005273794289678335, 0.0037071870174258947, -0.0027348101139068604, -0.03476247563958168, -0.012492342852056026, 0.007360353134572506, -0.012829973362386227, 0.01886681281030178, -0.017826911062002182, -0.03519464284181595, 0.023782718926668167, 0.013106830418109894, -0.0019633236806839705, -0.006219160743057728, -0.014734211377799511, 0.007670973427593708, -0.022796837612986565, 0.01940702274441719, 0.0010998325888067484, 0.013910392299294472, -0.0034944796934723854, 0.016314323991537094, 0.015341946855187416, -0.006263053044676781, -0.018826298415660858, -0.0033526746556162834, 0.04029962047934532, -0.009541449137032032, 0.005044205579906702, -0.0044567277655005455, -0.006357589736580849, -0.015585041604936123, 0.018488667905330658, -0.00794783141463995, -0.024620043113827705, 0.011290377005934715, 0.002422501565888524, -0.010432794690132141, 0.008629845455288887, 0.0297655388712883, -0.013613277114927769, -0.03230452165007591, 0.011249860748648643, 0.01240455824881792, -0.01711113378405571, 0.017961962148547173, 0.018542688339948654, 3.5952412872575223e-05, -0.021081672981381416, -0.028901202604174614, -0.026132630184292793, 0.014450601302087307, 0.10393629223108292, 0.015382463112473488, -0.011614502407610416, 0.01071640383452177, 0.02163538709282875, 0.0048483796417713165, -0.02426890842616558, -0.016692470759153366, 0.01214795932173729, 0.03478948771953583, 0.016273807734251022, -0.014612664468586445, 0.03368205577135086, -0.00845427718013525, 0.012228990904986858, -0.01869124546647072, -0.011952132917940617, -0.017732374370098114, 0.0446212962269783, -0.0169085543602705, -0.009122786112129688, -0.005861272104084492, -0.011871102266013622, 0.030683893710374832, 0.011479450389742851, 0.02278333157300949, 0.008238193579018116, 0.024849632754921913, -0.004412835463881493, -0.030926989391446114, -0.005267041735351086, -0.0026740366593003273, -0.042676541954278946, -0.002351599046960473, -0.014990811236202717, -0.011769812554121017, 0.009588717482984066, 0.0015184949152171612, -0.0036058977711945772, 0.010581351816654205, 0.03468144312500954, 0.025632936507463455, -0.004426341038197279, 0.01068264152854681, 0.011027025058865547, -0.007049732841551304, 0.013869876973330975, 0.007265816442668438, -0.01573359966278076, -0.016314323991537094, 0.03292576223611832, -0.0025609303265810013, 0.011263365857303143, 0.0030268607661128044, -0.008136903867125511, -0.025659946724772453, 0.013795597478747368, 0.003432017983868718, -0.017664847895503044, 0.004929410759359598, -0.002370168687775731, -0.042541492730379105, -0.0068437778390944, -0.002922195242717862, -0.004146107006818056, -0.013424203731119633, -0.01206692773848772, 0.01037877332419157, -0.0030707528349012136, -0.00394015247002244, 0.011135066859424114, -0.019866202026605606, -0.016395356506109238, -0.001347991288639605, 0.026362219825387, 0.007968088611960411, 0.007049732841551304, -0.014221012592315674, -0.008670360781252384, 0.034168243408203125, 0.0011563857551664114, 0.009629232808947563, 0.003798347432166338, -0.01697608083486557, -0.020676515996456146, 0.03435731679201126, 0.0473763644695282, -0.008805413730442524, -0.008609587326645851, -0.0048247454687952995, 0.01839413121342659, 0.0073198373429477215, 0.004888894967734814, -0.020622493699193, 0.0027263693045824766, -0.000713667250238359, -0.0041967518627643585, -0.0014805113896727562, 0.001941377529874444, -0.009831811301410198, -0.0040887100622057915, 0.011344397440552711, -0.010088411159813404, 0.0027500034775584936, 0.028901202604174614, -0.0013775340048596263, -0.002017344580963254, -0.024525506421923637, -0.003592392662540078, -0.004534382838755846, 0.002988033229485154, -0.0044094594195485115, -0.009426654316484928, 0.014045444317162037, -0.03789569064974785, 0.010979756712913513, -0.008373245596885681, 0.033898141235113144, 0.01643587090075016, -0.012674663215875626, -0.02960347570478916, -0.020622493699193, 0.02044692635536194, 0.03287174180150032, 0.0010382150067016482, -0.0030082911252975464, -0.00804912019520998, -0.024849632754921913, -0.009244333952665329, -0.01159424427896738, 0.007333342917263508, 0.012039917521178722, -0.018515678122639656, -0.02129775658249855, -0.018488667905330658, -0.012917757965624332, -0.009116034023463726, 0.021014146506786346, -0.015085347928106785, -0.020946620032191277, -0.03370906785130501, 0.025538399815559387, 0.0021844718139618635, 0.0043756961822509766, -0.01237079594284296, -0.020136306062340736, 0.005030700005590916, -0.008886444382369518, 0.006448749918490648, 0.030521832406520844, 0.007610199972987175, 0.007299579679965973, -0.01277595292776823, 0.006739112548530102, -0.0010145808337256312, -0.024552518501877785, -0.01137140765786171, -0.002903625601902604, 0.0016653643688187003, 0.02260776422917843, 0.02136528305709362, -0.0016645202413201332, 0.023985298350453377, -0.011722544208168983, -0.006229289807379246, -0.005756606347858906, -0.014383075758814812, 0.0023684806656092405, -0.024349939078092575, 0.027766764163970947, 0.005040829069912434, 0.011411923915147781, -0.0021321389358490705, 0.005911916960030794, -0.01528792642056942, -0.0018265830585733056, 0.0005739724729210138, -0.019771665334701538, -0.007630458101630211, -0.0037206923589110374, 0.0037915948778390884, -0.028712131083011627, -0.030008632689714432, 0.00442971708253026, 0.006485889200121164, -0.005331191699951887, 0.029468422755599022, 0.0042068809270858765, 0.01137140765786171, -0.0050982264801859856, 0.0137010607868433, -0.015179884620010853, 0.021621881052851677, 0.011783317662775517, 0.015706589445471764, 0.005891658831387758, -0.02443096973001957, -0.0304407998919487, -0.03708537667989731, 0.003172042081132531, 0.006161763798445463, -0.02258075401186943, -0.020622493699193, -0.013201367110013962, -0.010527330450713634, 0.001988645875826478, -0.008251698687672615, -0.020730536431074142, -0.01488276943564415, 0.0009225764079019427, -0.04427016153931618, -0.024079835042357445, -0.018893824890255928, -0.009062012657523155, -0.010594856925308704, 0.00048661051550880075, -0.011182335205376148, 0.023539625108242035, -0.012823221273720264, -0.023296531289815903, 0.006401481572538614, -0.0035653822124004364, 0.04751141741871834, 0.017975468188524246, 0.01981217972934246, 0.008825670927762985, 0.0024832752533257008, 0.005935551133006811, 0.03395216166973114, 0.024647055193781853, -0.021540850400924683, -0.008980981074273586, 0.0036734240129590034, 0.0043723201379179955, -0.025389842689037323, -0.01264089997857809, 0.008764897473156452, -0.022391680628061295, -0.016665460541844368, 0.03489752858877182, -0.002662219572812319, -0.002469769911840558, -0.03368205577135086, 0.014599159359931946, 0.0011977455578744411, 0.013194615021348, -0.0013690931955352426, -0.01086496189236641, -0.009899337776005268, -0.012269506230950356, -0.03176431357860565, 0.017556805163621902, -0.016516903415322304, 0.0029390768613666296, -0.008845929056406021, -0.016516903415322304, 0.01909640245139599, -0.01341745164245367, -0.023607151582837105, 0.021041156724095345, 0.009467169642448425, 0.009480674751102924, 0.015612051822245121, -0.005044205579906702, 0.006171892397105694, -0.0007356132846325636, -0.005898411385715008, 0.008548813872039318, 0.019717643037438393, 0.02325601503252983, -0.008440772071480751, -0.01312708854675293, -0.00041043254896067083, 0.0021557731088250875, 0.03300679475069046, -0.007083496078848839, 0.01054758857935667, 0.012181722559034824, -8.583210001233965e-05, -0.030062653124332428, -0.0024832752533257008, 0.008244946599006653, -0.014288539066910744, 0.0013631846522912383, 0.011155324056744576, -0.023161478340625763, -0.022162090986967087, -0.02193250134587288, -6.520496390294284e-05, -0.00011141819413751364, -0.008947218768298626, -0.015193389728665352, 0.007833036594092846, 0.021513840183615685, -0.009845316410064697, 0.003548500593751669, -0.013707813806831837, 0.02075754664838314, -0.016692470759153366, 0.03195338696241379, -0.004524253774434328, 0.01751629076898098, -0.005922045558691025, -0.012168217450380325, 0.011736049316823483, 0.0028445401694625616, 0.04705223813652992, 0.006026711314916611, -0.005516888573765755, -0.026132630184292793, -0.002851292723789811, 0.003374620573595166, 0.004233891144394875, -0.029981622472405434, 0.021203219890594482, 0.013079820200800896, 0.004460103809833527, -0.017948457971215248, -0.02895522490143776, -0.008940465748310089, 0.004061699379235506, -0.013505235314369202, 0.010216710157692432, -0.03135915473103523, 0.0005279703182168305, 0.014194002375006676, -0.015585041604936123, 0.0030234844889491796, -0.027928827330470085, -0.008778402581810951, 0.0022705676965415478, 0.023201994597911835, 0.01407245546579361, -0.006553415209054947, -0.015814630314707756, -0.02571396715939045, -0.012573374435305595, 0.033898141235113144, 0.009858821518719196, -0.012748941779136658, 0.022283637896180153, 0.02814491093158722, -0.002493404084816575, 0.011958885937929153, 0.0020224088802933693, -0.006526404991745949, -0.014599159359931946, 0.006350836716592312, -0.014085960574448109, -0.019177434965968132, -0.017705364152789116, 0.03743651136755943, 0.004797734785825014, -0.019082898274064064, -0.021446313709020615, -0.0005959185073152184, -0.041596125811338425, 0.01176305953413248, -0.014112970791757107, 0.021513840183615685, 0.013566008768975735, 0.0002903625718317926, -0.010020884685218334, -0.005395341664552689, 0.013390440493822098, 0.029009245336055756, -0.012938015162944794, -0.007279322016984224, 0.007380611263215542, -0.0030285490211099386, 0.03473546355962753, -0.010588104836642742, -0.06342058628797531, -0.01562555693089962, 0.0072725689969956875, 0.01238430105149746, -0.009143044240772724, 0.004963173996657133, 0.0028918085154145956, 0.009116034023463726, -0.022229617461562157, -0.0006997400196269155, 0.005604672711342573, 0.00887293927371502, 0.044567275792360306, -0.010810940526425838, 0.0022351164370775223, 0.010891972109675407, 0.031143072992563248, -0.0169355645775795, -0.02008228562772274, -0.019042382016777992, -0.020568473264575005, 0.02551138959825039, 0.015504010021686554, -0.00966974813491106, -0.0038017237093299627, -0.00034121819771826267, 0.012073680758476257, 0.019785169512033463, -0.02800985798239708, 0.012748941779136658, 0.00393339991569519, -0.02618665061891079, -0.023472098633646965, 0.0003716049832291901, -0.011175582185387611, -0.0019363131141290069, -0.0011175582185387611, -0.041190966963768005, -0.0018806039588525891, 0.009521191008388996, 0.02615964040160179, -0.005814003758132458, -0.024012308567762375, -0.018988361582159996, -0.020946620032191277, -0.014545137993991375, 0.03354700282216072, 0.015868650749325752, -0.02551138959825039, 0.021486829966306686, 0.01774587854743004, -0.004723456222563982, 0.01580112613737583, -0.0004701509897131473, 0.0048720138147473335, -0.03967837989330292, -0.0008613807731308043, 0.007576437201350927, -0.025187263265252113, -0.025808503851294518, -0.011628007516264915, -0.0074616423808038235, -0.008656855672597885, -0.00627655815333128, 0.2083047479391098, -0.024984685704112053, -0.008899950422346592, 0.0236881822347641, 0.01272193156182766, 0.027928827330470085, 0.008244946599006653, 0.004885518923401833, 6.64051367493812e-06, 0.015071842819452286, -0.009703511372208595, -0.009298354387283325, 0.0016189400339499116, 0.002625080058351159, -0.006387976463884115, -0.017394743859767914, -0.010824445635080338, -0.03054884262382984, -0.008082883432507515, 0.03338494151830673, -0.009872326627373695, -0.0006372783100232482, 0.006306944880634546, 0.01447761245071888, 0.010385526344180107, 0.0025896287988871336, -0.02118971385061741, -0.041244987398386, 0.04167715460062027, 0.038489919155836105, -0.0098048010841012, -0.017097627744078636, -0.008805413730442524, 0.001532000140286982, -0.013356677256524563, 0.020230842754244804, -0.0169085543602705, 0.0008710876572877169, 0.03341195359826088, 0.0048247454687952995, -0.012755694799125195, -0.0010576287750154734, 0.0017641213489696383, 0.004831498023122549, -0.029873579740524292, -0.0004701509897131473, -0.008906702511012554, -0.02089259959757328, 0.00578699354082346, 0.017084121704101562, -0.013275646604597569, -0.02825295180082321, 0.009359127841889858, 0.0226752907037735, 0.005557404365390539, -0.020798062905669212, -0.009467169642448425, -0.002809088909998536, -0.004247396718710661, -0.003133214544504881, -0.019258465617895126, 0.03803074359893799, -0.018569698557257652, 0.011857596226036549, -0.011641512624919415, 0.025457369163632393, 0.0035552531480789185, 0.0233505517244339, 0.011837339028716087, -0.013674050569534302, 0.014126475900411606, -0.008461030200123787, 0.015639062970876694, 0.00799509882926941, -0.030089663341641426, -0.016881544142961502, 0.027550680562853813, -0.018988361582159996, 0.012728684581816196, 0.017124637961387634, 0.008913455531001091, 0.0045411353930830956, 0.0073671056888997555, -0.017097627744078636, -0.0007225300651043653, -0.03757156431674957, -0.0021372034680098295, -0.002474834444001317, -0.002257062355056405, -0.03262864798307419, 0.006658080965280533, -0.011877854354679585, 0.006664833519607782, 0.006455502472817898, 0.005841014441102743, -0.011884607374668121, -0.0065061473287642, 0.010642125271260738, -0.006671586073935032, -0.011418676003813744, 0.0032108696177601814, -0.006222537253051996, 0.006138129625469446, -0.008582577109336853, -0.044297169893980026, -0.00044778294977732003, 0.0023212123196572065, 0.01201290637254715, 0.010945993475615978, -0.004699822049587965, -0.027523670345544815, -0.02692943997681141, 0.011351150460541248, -0.01535545289516449, 0.04019157961010933, 0.017300207167863846, 0.014977306127548218, -0.014788232743740082, 0.014248022809624672, -0.023201994597911835, 0.030413789674639702, -0.03473546355962753, -0.0016906866803765297, 0.0013682491844519973, -0.01495029591023922, -0.00973727460950613, -0.009406396187841892, 0.028469035401940346, -0.008224688470363617, -0.01815103553235531, 0.005837637931108475, -0.014842253178358078, -0.010669135488569736, 0.014437096193432808, -0.013950907625257969, 0.011330892331898212, -0.009082270786166191, -0.005972690414637327, -0.014275033958256245, 0.007900563068687916, 0.00180970155633986, 0.014369570650160313, -0.0015826447634026408, -0.011628007516264915, 0.006820143666118383, -0.01044629979878664, 0.021203219890594482, -0.012917757965624332, 0.006614189129322767, -0.012546363286674023, -0.02800985798239708, -0.0019042381318286061, -0.009082270786166191, -0.018110521137714386, 0.006813391111791134, -0.022661784663796425, -0.02557891607284546, -0.04329778254032135, 0.010182947851717472, 0.008035615086555481, -0.022351164370775223, -0.024012308567762375, 0.04086684063076973, -0.007340095471590757, -0.007056485395878553, -0.0015995262656360865, -0.17265093326568604, 0.04305468872189522, 0.004649177193641663, -0.01879928819835186, 0.029549455270171165, -0.011297129094600677, 0.008771650493144989, 0.029117288067936897, -0.005709338001906872, 0.019960736855864525, 0.008656855672597885, 0.004142730962485075, -0.02895522490143776, -0.02096012607216835, 0.008845929056406021, -0.026011083275079727, -0.005962561350315809, 0.009453664533793926, 0.011175582185387611, 0.021946007385849953, 0.03357401490211487, -0.027050986886024475, 0.020163316279649734, 0.034006182104349136, -0.010081658139824867, 0.011209345422685146, -0.010250473394989967, 0.014315549284219742, 0.01670597679913044, -0.009696759283542633, 0.0099736163392663, -0.012350537814199924, 0.02159487083554268, -0.016989586874842644, 0.015328441746532917, -0.005908540450036526, 0.0035890163853764534, 0.007427879609167576, -0.001691530691459775, -0.004331804346293211, 0.014572149142622948, 0.009548201225697994, -0.0023262768518179655, -0.01734072156250477, 0.018097015097737312, 0.012087185867130756, 0.025876030325889587, -0.0012399493716657162, -0.016800513491034508, 0.0014957047533243895, 0.029009245336055756, -0.0017472398467361927, 0.02075754664838314, 0.014031939208507538, 0.025862526148557663, -0.0015573224518448114, 0.006728983484208584, -0.0016974392347037792, 0.021149197593331337, -0.008420513942837715, -0.021689407527446747, -0.00242081331089139, 0.020595483481884003, 0.013039304874837399, -0.015882156789302826, -0.04143406078219414, -0.03208843991160393, -0.00939964409917593, -0.00026124189025722444, 0.003322287928313017, 0.012829973362386227, -0.011567234061658382, 0.027793774381279945, -0.016854533925652504, -0.0004908309201709926, 0.01805649884045124, -0.009946606121957302, -0.026078609749674797, 0.029117288067936897, -0.0014779792400076985, 0.005898411385715008, 0.013977918773889542, -0.01896134950220585, -0.0005423196125775576, 0.0038557446096092463, -0.026105619966983795, 0.015787620097398758, 0.01441008597612381, 0.0005748166004195809, -0.009744027629494667, -0.004463480319827795, -0.020649503916502, 0.019380012527108192, -0.03330390900373459, 0.0021608376409858465, 0.013140593655407429, -0.009993874467909336, -0.001990334130823612, 0.012087185867130756, -0.013511988334357738, -0.0031230857130140066, -0.007306332234293222, -0.007704736664891243, 0.02341807819902897, 0.03743651136755943, 0.03311483561992645, -0.006553415209054947, 0.024957675486803055, 0.013809103518724442, 0.007353600580245256, -0.005057710688561201, 0.013235130347311497, 0.008204430341720581, 0.02008228562772274, -0.02051445282995701, 0.02021733671426773, 0.01900186575949192, -0.01237079594284296, 0.03894909843802452, 0.0098183061927557, 0.039543330669403076, -0.037652596831321716, 0.0017826911062002182, 0.005202891770750284, -0.021581366658210754, -0.0010812629479914904, -0.09021497517824173, 0.020838577300310135, 0.027280574664473534, 0.01798897422850132, -0.014180497266352177, 0.01446410734206438, -0.0024562645703554153, 0.00811664666980505, 0.014248022809624672, 0.010885220021009445, -0.035896915942430496, -0.029441412538290024, 0.020392905920743942, -0.02652428299188614, 0.03300679475069046, 0.006722230929881334, 0.007151022087782621, -0.012431569397449493, -0.0023634161334484816, 0.0013268893817439675, 0.005108355078846216, -0.008731134235858917, -0.010473310016095638, -0.0004410303372424096, -0.011891359463334084, -0.032790713012218475, -0.03992147371172905, 0.009055260568857193, 0.0077587575651705265, 0.0018654105952009559, -0.007130764424800873, -0.019150422886013985, 0.011972391046583652, -0.02105466090142727, 0.0076642208732664585, 0.005050958134233952, -0.001136127975769341, 0.0038050999864935875, 0.009885832667350769, -0.01805649884045124, -0.013336420059204102, -0.0133499251678586, 0.00838675070554018, -0.03535670414566994, 0.0076169525273144245, -0.01118908729404211, -0.015031326562166214, 0.016314323991537094, 0.01224924810230732, -0.00620227912440896, 0.010338257998228073, -0.007029475178569555, -0.02497117966413498, -0.017880931496620178, 0.04113694652915001, -0.003158536972478032, -0.031143072992563248, -0.00394015247002244, -0.005878153722733259, -0.0004414523718878627, -0.012492342852056026, 0.006823520176112652, -0.012364042922854424, -0.005621554329991341, 0.025808503851294518, 0.03135915473103523, -0.018313098698854446, -0.022229617461562157, 0.00691130431368947, 0.005442610010504723, 0.007907315157353878, 0.00467281136661768, 0.002013968303799629, 0.01108779851347208, -0.035383716225624084, -0.012985283508896828, -0.02021733671426773, -0.0021355152130126953, 0.009318612515926361, 0.011006766930222511, -0.006921432912349701, -0.014275033958256245, -0.0025491132400929928, -0.015152874402701855, 0.009717016480863094, -0.005891658831387758, 0.004166365135461092, 0.000758825393859297, 0.003747702809050679, -0.04951019212603569, 0.014112970791757107, 0.01846165582537651, 0.00594905624166131, 0.007799273356795311, -0.0202848631888628, 0.029144298285245895, -0.003119709435850382, 0.013005541637539864, 0.0020511075854301453, 0.0037814658135175705, -0.029144298285245895, -0.028739141300320625, -0.08362441509962082, 0.01990671642124653, 0.021446313709020615, -0.01596318744122982, 0.016962574794888496, 0.010277483612298965, 0.0033070945646613836, 0.02855006791651249, 0.0042068809270858765, 0.004071828443557024, -0.030818946659564972, 0.0015809566248208284, -0.012688168324530125, -0.01650339737534523, -0.02145981974899769, -0.019420528784394264, 0.006313697434961796, -0.00044904908281750977, 0.019393518567085266, 0.005381836090236902, 0.015976693481206894, 0.03595093637704849, 0.025930052623152733, 0.008933712728321552, -0.03819280490279198, 0.012283011339604855, -0.01987970620393753, 0.030683893710374832, 0.0045884037390351295, -0.005841014441102743, 0.01839413121342659, -0.02595706284046173, 0.0034674692433327436, 0.030791936442255974, -0.003821981605142355, -0.025470873340964317, -0.025632936507463455, 0.02118971385061741, 0.016678964719176292, 0.019231455400586128, -0.04697120934724808, -0.01609824039041996, 0.025727473199367523, -0.02224312163889408, -0.022796837612986565, -0.0012433257652446628, 0.004200128372758627, 0.016341334208846092, 0.03543773666024208, -0.014558644033968449, 0.0033003417775034904, 0.019690632820129395, 0.0006123780040070415, -0.027145523577928543, -0.022756321355700493, 0.012208732776343822, 0.006874164566397667, 0.027280574664473534, 0.010277483612298965, -0.030062653124332428, 0.03624805063009262, 0.017030101269483566, 0.010831198655068874, -0.022837352007627487, 0.019758159294724464, -0.009251086041331291, 0.0023870503064244986, -0.006816767621785402, 0.006826896220445633, -0.046458009630441666, -0.014302044175565243, -0.015517515130341053, 0.0162332933396101, -0.007731747347861528, 0.005408846773207188, 0.0017075681826099753, -0.03784167021512985, -0.018839802592992783, -0.01609824039041996, 0.03611299768090248, -0.0027128641959279776, -0.012181722559034824, -0.004787605721503496, 0.01765134185552597, 0.020095789805054665, 0.004044817760586739, 0.0026926063001155853, -0.0014349312987178564, -0.0010669135954231024, 0.027280574664473534, 0.00043047938379459083, -0.000368650711607188, -0.008082883432507515, -0.004929410759359598, 0.0002549113123677671, 0.033898141235113144, -0.013383688405156136, -0.0003924958873540163, 0.011682028882205486, 0.01785392127931118, -0.0011825521942228079, 0.019123412668704987, -0.02389076165854931, -0.01375508215278387, 0.007387363817542791, -0.01603071391582489, -0.030467810109257698, -0.05037452653050423, 0.0050712157972157, -0.014329054392874241, 0.016381850466132164, 0.008008604869246483, 0.01446410734206438, 0.014045444317162037, -0.00099010</t>
+  </si>
+  <si>
+    <t>[-0.021160943433642387, -0.008703075349330902, -0.009065144695341587, -0.01912262663245201, -0.002886497648432851, -0.0012379084946587682, -0.006537363864481449, 0.007858246564865112, -0.000895954086445272, -0.021000023931264877, -0.0017751456471160054, -0.0010996181517839432, -0.023883169516921043, -0.0056992401368916035, -0.010734686627984047, -0.004224142525345087, 0.027316123247146606, 0.0077241468243300915, 0.014777794480323792, -0.03285444527864456, -0.01735251024365425, 0.0149118946865201, 0.011465529911220074, -0.005957382265478373, -0.009353458881378174, -0.009118784219026566, 0.013557486236095428, -0.00964177306741476, -0.006812268402427435, 0.010560357011854649, -0.0038285483606159687, 0.003050769679248333, -0.010634112171828747, -0.0038721307646483183, -0.0037581459619104862, -0.00992338266223669, 0.018009599298238754, 0.00925958901643753, 0.02447320707142353, -0.004965044092386961, 0.02242148108780384, -0.013302696868777275, -0.0008247135556302965, -0.0010158057557418942, -0.01654791086912155, 0.021067073568701744, -0.02640424482524395, 0.011190625838935375, -0.015649443492293358, 0.006151827052235603, 0.012229898944497108, 0.012484688311815262, -0.02588125504553318, -0.002740663941949606, 0.00046096794540062547, -0.022153282538056374, -0.020342934876680374, 0.01284005306661129, 0.015448293648660183, -0.03006516769528389, -0.006835735868662596, -0.0018136993749067187, -0.033954061567783356, -0.01566285267472267, 0.011284495703876019, -0.0130009725689888, 0.00875671487301588, -0.006617823615670204, -0.0020902801770716906, 0.005772995296865702, 0.0022796960547566414, 0.027074743062257767, 0.026940643787384033, -0.010245222598314285, 0.038057513535022736, 0.008904224261641502, -0.01479120459407568, 0.02431228756904602, 0.010855376720428467, 0.009635068476200104, 0.014455955475568771, -0.029957888647913933, 0.0014256482245400548, 0.045540280640125275, 0.032264403998851776, 0.009454033337533474, -0.0139061463996768, 0.022729910910129547, -0.0003897274436894804, -0.009695413522422314, -0.0044655222445726395, 0.007181042805314064, 0.00885728932917118, -0.00683238310739398, -0.018492357805371284, -0.014362085610628128, 0.002722225384786725, 0.004948281683027744, -0.008099625818431377, -0.023454049602150917, 0.004381709732115269, 0.014549825340509415, -0.015931053087115288, -0.01751342974603176, -0.04905369505286217, 0.00018669202108867466, -0.005441098008304834, -0.033471301198005676, 0.007784491404891014, -0.006959778256714344, 0.007965526543557644, 0.024862097576260567, 0.002688700333237648, -0.03703835606575012, -0.002626679139211774, -0.021120714023709297, 0.01956515572965145, -0.008709779940545559, -0.009393689222633839, -0.02081228420138359, 0.008609205484390259, 0.011700204573571682, 0.001984676579013467, 0.02181803248822689, 0.057341061532497406, -0.013510551303625107, 0.0054176305420696735, -0.0018975117709487677, -0.02181803248822689, 0.011378365568816662, 0.017084309831261635, 0.012685838155448437, 0.023132210597395897, -0.029877427965402603, -0.007650391664355993, 0.010815146379172802, -0.02926057018339634, 0.011545990593731403, -0.004455464892089367, -0.003556996351107955, 0.032666705548763275, 0.018411898985505104, -0.038298893719911575, 0.015555573627352715, -0.006795505993068218, 0.047551777213811874, -0.011069935746490955, 0.046344880014657974, 0.003644161159172654, -0.0054176305420696735, 0.021764392033219337, -0.025143707171082497, 0.005571845453232527, -0.021281633526086807, 0.01831802912056446, 0.025063246488571167, -0.02998470887541771, 0.024164779111742973, -0.010178172960877419, 0.006966482847929001, -0.0007216244121082127, 0.012645607814192772, 0.0030759135261178017, 0.016775881871581078, 0.01217625942081213, 0.013825686648488045, 0.0077375564724206924, 0.02209964208304882, 0.00274736899882555, 0.007563226856291294, 0.009977023117244244, 0.02318585105240345, -0.014697334729135036, 0.023641789332032204, 0.03808433562517166, -0.004579507280141115, -0.011639859527349472, -0.005860160104930401, 0.0004911404103040695, -0.009728938341140747, -0.016534501686692238, 0.005283530801534653, 0.04784679785370827, 0.016038332134485245, 0.003915713168680668, 0.006007669493556023, 0.022770140320062637, 0.016682012006640434, -0.03234486281871796, -0.013148481957614422, -0.030842946842312813, 0.009413803927600384, 0.00813315063714981, -0.022314202040433884, -0.6342382431030273, -0.016293121501803398, 0.012357293628156185, -0.01948469690978527, -0.008964569307863712, 0.006299336440861225, 0.0024456444662064314, 0.006225581746548414, -0.008763419464230537, -0.0014826406259089708, -0.013919556513428688, 0.017567070201039314, 0.01171361468732357, 0.009608248248696327, -0.021724162623286247, -0.0029602523427456617, 0.006443493999540806, -0.03800387308001518, 0.01334292721003294, -0.00582663482055068, 0.0012655665632337332, 0.045298900455236435, -0.017500020563602448, 0.025183936581015587, 0.0002889430907089263, 0.01815710961818695, -0.0017550307093188167, -0.013041202910244465, 0.0038251958321779966, -0.01372511126101017, -0.020195424556732178, 0.008548860438168049, 0.011485645547509193, -0.02145596221089363, 0.056375544518232346, 0.017419559881091118, -0.0022109700366854668, 0.03642149642109871, 0.042643725872039795, 0.017178179696202278, -0.008682959713041782, -0.026659034192562103, 0.03601919859647751, -0.003453069133684039, 0.009051734581589699, -0.008924339897930622, 0.03875483199954033, 0.009909972548484802, -0.02266286127269268, 0.004827591590583324, 0.010976065881550312, -0.005075676366686821, -0.004495694767683744, 0.0020332876592874527, 0.015367833897471428, -0.010251927189528942, 0.011827599257230759, -0.025344856083393097, 0.001284005236811936, 0.03196938335895538, -0.01121074054390192, 0.028402330353856087, -0.014549825340509415, 0.007315142545849085, -0.002237789798527956, -0.0039626481011509895, -0.019954046234488487, -0.007905181497335434, 0.018411898985505104, -8.501715637976304e-05, -0.0018891304498538375, 0.03937169164419174, -0.02628355473279953, 0.0021422437857836485, 0.02040998451411724, 0.018452128395438194, 0.012873577885329723, 0.008113035932183266, 0.005340523086488247, 0.02688700333237648, 0.013369747437536716, -0.004277782514691353, -0.03234486281871796, 0.02495596744120121, 0.009239474311470985, 0.014040245674550533, -0.0018690155120566487, -0.009366868995130062, 0.02503642626106739, -0.011881239712238312, -0.008589089848101139, 0.0051963659934699535, -0.020517265424132347, -0.045701202005147934, -0.007462651934474707, 0.02572033554315567, -0.03140616416931152, 0.00809292122721672, -0.007469356991350651, -0.01948469690978527, -0.010399437509477139, -0.012907102704048157, 0.0030356834176927805, -0.003456421662122011, -0.008589089848101139, 0.029475130140781403, -0.023172440007328987, 0.009547903202474117, -0.0002878954401239753, -0.003664276096969843, -0.004043107852339745, 0.007992345839738846, -0.0031731356866657734, -0.037896595895290375, -0.01690998114645481, -0.04068586975336075, 0.03255942463874817, 0.0187605582177639, 0.0099837277084589, -0.022810371592640877, 0.009091963991522789, -0.016521092504262924, -0.0029904248658567667, -0.0057662902399897575, 0.005303645972162485, 0.033793140202760696, 0.023373588919639587, -0.009554608725011349, -0.041034530848264694, 0.00024221770581789315, 0.010808441787958145, -0.008890815079212189, 0.012511508539319038, 0.004173855297267437, -0.01344350166618824, 0.025747155770659447, -0.003027302213013172, -0.004522514529526234, 0.014040245674550533, -0.028992369771003723, -0.007750966586172581, -0.013959785923361778, 0.016132201999425888, -0.014295035041868687, -0.01872032694518566, 0.000589200877584517, -0.008052690885961056, 0.01334292721003294, -0.021831441670656204, 0.027758652344346046, 0.004515809938311577, 0.005370695609599352, -0.033954061567783356, 0.01743297092616558, 0.008602499961853027, 0.0189617071300745, -0.014147525653243065, -0.015622623264789581, -0.026632213965058327, -0.022448301315307617, 0.017969369888305664, 0.0037480886094272137, 0.004110157955437899, -0.011881239712238312, 0.005206423345953226, -0.0035402339417487383, 0.01570308208465576, -0.008542154915630817, 0.015931053087115288, -0.019216496497392654, 0.009903267957270145, -0.01434867549687624, -0.006332861725240946, 0.04623759910464287, -0.0020768700633198023, 0.032586243003606796, -0.0229847002774477, 0.0020215539261698723, -0.02020883560180664, -0.010432962328195572, 0.006805563345551491, -0.009058439172804356, -0.022126462310552597, -0.013068022206425667, 0.013450207188725471, -0.013517256826162338, -0.00123539415653795, 0.012886987999081612, -0.026873594149947166, 0.024285467341542244, 0.019109217450022697, -0.016212662681937218, -0.014429135248064995, -0.021992363035678864, -0.012699248269200325, -0.0016200928948819637, 0.008662845008075237, -0.019699256867170334, -0.026095815002918243, 0.028724171221256256, 0.007181042805314064, 0.028402330353856087, 0.022796960547566414, 0.0010334063554182649, 0.010942541062831879, -0.04725676029920578, 0.035160958766937256, -0.01133143063634634, 0.01654791086912155, 0.02016860619187355, 0.0017282108310610056, -0.001545499893836677, -0.03446364030241966, -0.005531615577638149, -0.007100582588464022, 0.008072806522250175, 0.022434892132878304, -0.0011415242915973067, 0.006292631849646568, 0.011023000814020634, 0.01763411983847618, -0.016293121501803398, 0.0021355387289077044, 0.021227993071079254, -0.037574756890535355, 0.02656516432762146, -0.018049828708171844, 0.013879326172173023, -0.006859203334897757, -0.028965549543499947, -0.002222703769803047, 0.032264403998851776, -0.00028768592164851725, 0.01642722263932228, 0.006443493999540806, 0.015877412632107735, -0.004153740126639605, -0.032103486359119415, 0.024459797888994217, 0.004653261974453926, 0.03542915731668472, 0.014750974252820015, 0.03328356146812439, -0.005176251288503408, 0.000406070874305442, 0.007844836451113224, 0.0009102021576836705, 0.017848679795861244, -0.004083338193595409, -0.00028810498770326376, -0.00319492700509727, 0.0149118946865201, 0.019015347585082054, -0.006373091600835323, -0.005095791071653366, 0.01767434924840927, 0.016413811594247818, -0.029636049643158913, 0.015019173733890057, 0.01495212409645319, 0.008166676387190819, -0.004381709732115269, 0.016454041004180908, 0.017929138615727425, 6.0659192968159914e-05, 0.017768219113349915, -0.008776829577982426, -0.018264388665556908, -0.0035167664755135775, -0.02572033554315567, -0.018465537577867508, -0.001739944564178586, -0.01642722263932228, -0.0016075209714472294, -0.007469356991350651, -0.010030662640929222, -0.014978944323956966, 0.010855376720428467, -0.02523757703602314, 0.0199674554169178, 0.0020031153690069914, -0.01338315661996603, 0.025183936581015587, 0.01791572943329811, 0.007026827894151211, -0.017044080421328545, -0.01755365915596485, 0.03521459922194481, -0.0031731356866657734, 0.011485645547509193, 0.003384342882782221, 0.0033541705925017595, -0.024821868166327477, 0.03172800689935684, -0.014080476015806198, 0.007945410907268524, 0.015408063307404518, -0.01638699136674404, 0.04655943810939789, 0.008227020502090454, 0.0070000081323087215, 0.015689672902226448, -0.030091987922787666, -0.02712838351726532, 0.036609236150979996, -0.015461703762412071, -0.013242351822555065, -0.004019640386104584, 0.013919556513428688, -0.01145212072879076, -0.004361595027148724, 0.007958821021020412, -0.010258632712066174, 0.0015631004935130477, 0.01227683387696743, -0.013483732007443905, -0.008408055640757084, 0.02133527398109436, 0.026591984555125237, -0.0030960284639149904, 0.007905181497335434, -0.0023366885725408792, -0.015448293648660183, 0.006993303075432777, 0.09521083533763885, 0.018425308167934418, 0.004264372866600752, 0.009058439172804356, 0.01422798540443182, -0.009386983700096607, 0.001820404315367341, -0.0018556055147200823, -0.006215524394065142, 0.0241915974766016, 0.005122611299157143, -0.014804614707827568, 0.021241404116153717, 0.006101539358496666, 0.008910929784178734, -0.008810354396700859, -0.011814190074801445, -0.022434892132878304, 0.01117051113396883, 0.00733525725081563, 0.00398611556738615, 0.008019166067242622, -0.009675298817455769, 0.005431040655821562, 0.023561328649520874, 0.012632198631763458, 0.037574756890535355, 0.025143707171082497, -0.0033474655356258154, -0.017486609518527985, -0.015689672902226448, -0.013155187480151653, -0.0249961968511343, -0.020517265424132347, 0.002108718967065215, 0.01479120459407568, -0.009534494020044804, -0.0018757205689325929, -0.0038754832930862904, 0.011659975163638592, 0.046344880014657974, -0.009407098405063152, -0.014697334729135036, -0.010962655767798424, 0.014804614707827568, -0.023159030824899673, -0.008649434894323349, 0.020959794521331787, -0.02165711298584938, -0.00246575940400362, 0.020624544471502304, 0.00392577052116394, 0.030252907425165176, -0.011425300501286983, -0.004053165670484304, -0.010815146379172802, 0.030440647155046463, -0.0012462896993383765, -0.019994275644421577, -0.020262476056814194, 0.02443297766149044, -0.022957880049943924, 0.0030138923320919275, -0.003694448620080948, -0.014120705425739288, 0.007020122837275267, 0.008428170345723629, -0.006232286803424358, -0.020101554691791534, -0.0026518229860812426, -0.010493307374417782, -0.012853463180363178, -0.02294447086751461, -0.0017265345668420196, 0.014026835560798645, 0.009299819357693195, 0.003479889128357172, 0.0021070425864309072, 0.0017768219113349915, 0.0187605582177639, -0.0020584315061569214, -0.010855376720428467, -0.009581428952515125, -0.01835825853049755, -0.029394669458270073, 0.04851729795336723, 0.041839126497507095, -0.016494272276759148, -0.03666287660598755, 0.007650391664355993, 0.016279712319374084, -0.013865916058421135, 0.012363999150693417, -0.0008599147549830377, -0.010875491425395012, -0.0021958837751299143, -0.004757189191877842, -0.018827607855200768, 0.0038319008890539408, -0.008066100999712944, -0.011069935746490955, 0.01171361468732357, -0.025814205408096313, -0.005122611299157143, 0.026216505095362663, -0.01171361468732357, 0.013698291033506393, -0.027597732841968536, 0.014174345880746841, 0.013430091552436352, 0.0030960284639149904, 0.007274912670254707, -0.010137942619621754, 0.030118808150291443, 0.003302206750959158, 0.015636032447218895, -0.008863994851708412, 0.05283530801534653, -0.010345797054469585, -0.012169553898274899, 0.0055584353394806385, -0.022837189957499504, 0.014120705425739288, 0.013798866420984268, -0.01187453418970108, 0.014254805631935596, -0.004261020105332136, -0.025130296126008034, -0.022408071905374527, 0.004019640386104584, 0.01495212409645319, 0.03070884756743908, 0.0037480886094272137, -0.026578573510050774, -0.016051743179559708, -0.01783526875078678, -0.003469831543043256, -0.004700196906924248, -0.025170527398586273, -0.037091996520757675, -0.04712265729904175, 0.01646745204925537, -0.009534494020044804, 0.004649909678846598, 0.013550781644880772, -0.02612263523042202, 0.00409674784168601, -0.009179129265248775, -0.02290424145758152, 0.025988535955548286, -0.0030658559408038855, -0.011693499982357025, -0.041758667677640915, -0.012947333045303822, 0.010131238028407097, -0.0023283071350306273, -0.0008934396901167929, -0.008924339897930622, 0.007026827894151211, 0.02338699996471405, -0.0046432046219706535, 0.030333368107676506, 0.026994284242391586, 0.004713607020676136, -0.010627406649291515, -0.013336221687495708, -0.008662845008075237, 0.005377400666475296, -0.029072830453515053, 0.01863986812531948, 0.023601559922099113, 0.0343027226626873, -0.013329517096281052, 0.0014114000368863344, -0.0290191899985075, 0.021885082125663757, 0.013148481957614422, 0.004954986274242401, 0.006081424653530121, -0.02185826189815998, 0.003560348879545927, 0.016400402411818504, -0.0025998593773692846, 0.00915901456028223, -0.013798866420984268, 0.0011540960986167192, 0.004602974746376276, -0.009574723429977894, -0.007596752140671015, 0.009896563366055489, 0.035080499947071075, -0.026270145550370216, 0.02869735099375248, -0.0025361618027091026, -0.010372617281973362, -0.020114965736865997, -0.00847510527819395, -0.0141072953119874, -0.018747147172689438, 0.003302206750959158, 0.004827591590583324, -0.022448301315307617, -0.018344849348068237, 0.008327595889568329, -0.013597716577351093, -0.0023433933965861797, 0.009956907480955124, -0.01406706590205431, -0.017446380108594894, -0.005404220893979073, -0.025975124910473824, -0.031084327027201653, -0.021201172843575478, -0.013544077053666115, 0.018411898985505104, -0.011841009370982647, -0.02274332009255886, 0.026833364740014076, -0.004143682774156332, -0.04068586975336075, 0.006352976430207491, -0.00869636982679367, 0.009829512797296047, -0.003228452056646347, 0.02386975847184658, 0.007160927634686232, 0.007046943064779043, -0.01658814214169979, 0.020262476056814194, 0.018827607855200768, -0.019390827044844627, 0.021281633526086807, -0.01463028509169817, 0.01149235013872385, -0.028160952031612396, -0.015931053087115288, 0.03835253417491913, -0.01086878590285778, -0.036126479506492615, 0.04141001030802727, 0.004629794508218765, -0.01590423285961151, -0.02966286987066269, 0.01711113005876541, 0.004056517966091633, 0.034436821937561035, -0.016574731096625328, 0.011036410927772522, -0.015676263719797134, 0.0021422437857836485, -0.037923414260149, 0.02205941267311573, -0.018653277307748795, 0.037977054715156555, -0.0007098906789906323, 0.001485993037931621, 0.007207862567156553, -0.023655198514461517, -0.03365904092788696, 0.025787385180592537, 0.019860176369547844, 0.008019166067242622, -0.015743313357234, 0.0302260871976614, 0.003449716605246067, -0.005410925485193729, -0.0251973457634449, -0.0189617071300745, 0.010969361290335655, 0.01920308731496334, -0.020718414336442947, 0.01835825853049755, 0.008139856159687042, -0.003701153676956892, 0.025143707171082497, -0.020839104428887367, -0.003945885691791773, 0.0029032600577920675, 0.016561321914196014, -0.03078930638730526, 0.01161304023116827, -0.02258240059018135, -0.027182023972272873, -0.0033524942118674517, -0.0028429150115698576, -0.028187772259116173, -0.009849628433585167, -0.027678191661834717, 0.019873585551977158, 0.00616858946159482, 0.007683916948735714, -0.0017248583026230335, 0.01267913356423378, -0.019055576995015144, -0.0023618321865797043, -0.0011440386297181249, -0.003694448620080948, 0.012967447750270367, -0.0399349108338356, 0.00921935960650444, 0.008515335619449615, 0.021871672943234444, -0.001877396716736257, 0.011264380998909473, -0.010412846691906452, 0.0187605582177639, 0.008957864716649055, -0.005387458018958569, -0.021630292758345604, -0.013839095830917358, -0.008280660957098007, 0.008508630096912384, -0.0024205008521676064, -0.0282145906239748, 0.006617823615670204, -0.004646556917577982, 0.001370331970974803, -0.021442553028464317, -0.00308429473079741, 0.009909972548484802, 0.00711399270221591, 0.011458825320005417, 0.03196938335895538, 0.0009906620252877474, 0.010681046172976494, 0.011988519690930843, -0.009507673792541027, -0.0020047915168106556, -0.005112553481012583, -0.017218410968780518, 0.003146315924823284, 0.008649434894323349, -0.004757189191877842, 0.003446364076808095, -0.020785463973879814, -0.004750484135001898, -0.0027574265841394663, 0.03164754435420036, -0.009232768788933754, -0.016896570101380348, 0.02531803585588932, 0.018063239753246307, -0.0006566697848029435, 0.02547895535826683, -0.006155179347842932, -0.0042140851728618145, -0.027624553069472313, -0.012035454623401165, -0.01723182015120983, -0.019994275644421577, -0.03567053750157356, 0.024406157433986664, 0.011666679754853249, -0.027021102607250214, -0.014429135248064995, 0.007107287645339966, -0.0016410459065809846, 0.011525874957442284, -0.021442553028464317, 0.005568492691963911, 0.0032150419428944588, 0.01622607186436653, -0.029796969145536423, 0.012732773087918758, -0.006966482847929001, 0.036528777331113815, 0.0032636530231684446, 0.015206913463771343, 0.012652313336730003, -0.014898484572768211, -0.001313339569605887, -0.017446380108594894, -0.045620743185281754, -0.021187763661146164, 0.02539849653840065, 0.026310374960303307, 0.005172898527234793, 0.00011817541962955147, -0.024701178073883057, 0.009071849286556244, 0.010432962328195572, 0.0013653032947331667, 0.017969369888305664, 0.012042159214615822, 0.02805367112159729, -0.01622607186436653, 0.01602492295205593, -0.01064752135425806, 0.024057498201727867, -0.007549817208200693, -0.001905892975628376, -0.018009599298238754, -0.0016142260283231735, 0.0028278289828449488, -0.0251973457634449, -0.00786495115607977, 0.0013778751017525792, -0.018586227670311928, 0.026149455457925797, -0.011961699463427067, -0.010272041894495487, -0.005705945193767548, 0.003955943044275045, -0.025773975998163223, -0.006517248693853617, -0.01755365915596485, -0.04065905138850212, -0.008649434894323349, -0.003929123282432556, -0.02366860955953598, 0.013088137842714787, -0.002267962321639061, 0.030118808150291443, -0.0037346784956753254, -0.0022528760600835085, -0.02511688694357872, -0.008863994851708412, 0.00522318622097373, 0.024821868166327477, 0.010701161809265614, -0.002153977518901229, 0.003389371559023857, -0.011090051382780075, 0.007730851881206036, -0.022636041045188904, 0.005756232421845198, 0.026712674647569656, -0.023172440007328987, 0.01880078762769699, -0.00454933475703001, -0.040954068303108215, -0.037413835525512695, -0.0008025033166632056, 0.0016619990346953273, 0.008991389535367489, -0.0006084776832722127, 0.1855940818786621, 0.0018790729809552431, -0.004847706761211157, 0.030279727652668953, 0.0007241387502290308, 0.006554126273840666, 0.005652305204421282, -0.0026836716569960117, -0.006094834301620722, 0.0018841017736122012, -0.0030205973889678717, 0.006862555630505085, -0.026189684867858887, 0.008837174624204636, -0.007274912670254707, -0.006912843324244022, -0.01707090064883232, -0.04108816757798195, -0.0004425292427185923, 0.0040598707273602486, 0.004160445183515549, -0.013329517096281052, -0.011385070160031319, -0.011237560771405697, 0.0001948637218447402, 0.018532587215304375, -0.010734686627984047, -0.0029200224671512842, 0.04076632857322693, 0.0008385426481254399, -0.0013837419683113694, -0.00437835743650794, 0.0018874543020501733, 0.01094924658536911, -0.019390827044844627, 0.02475481666624546, -0.017727989703416824, 0.0042442576959729195, 0.03398087993264198, 0.011968404054641724, 0.02109389379620552, -0.02012837491929531, 0.005139373708516359, -0.004257667809724808, -0.013932965695858002, 0.010466487146914005, 0.0019310367060825229, -0.014536415226757526, 0.004582859575748444, 0.015032583847641945, -0.021603472530841827, -0.0024255295284092426, -0.002777541521936655, 0.02242148108780384, 0.030413826927542686, -0.006145121995359659, 0.026310374960303307, 0.01111016608774662, 0.0018757205689325929, 0.004143682774156332, -0.012873577885329723, 0.02173757180571556, -0.013711701147258282, 0.013517256826162338, -0.014201165176928043, 0.007040238007903099, -0.03253260254859924, -0.006647996138781309, 0.020275885239243507, 0.003959295805543661, 0.012129324488341808, -0.017540249973535538, 0.006587651092559099, -0.009433918632566929, -0.011478940024971962, -0.01642722263932228, 0.024727998301386833, 0.0012773002963513136, 0.01670883037149906, 0.054444506764411926, -0.01916285790503025, 0.003308911807835102, -0.010795031674206257, 0.028804630041122437, -0.010687751695513725, -0.013584306463599205, 0.03151344507932663, -0.0002336269390070811, -0.024580487981438637, -0.02218010276556015, 0.002977014984935522, -0.0037682035472244024, -0.0008632672834210098, -0.0034597739577293396, 0.013839095830917358, -0.007476062048226595, 0.008790239691734314, 0.018787378445267677, -0.02386975847184658, -0.014268215745687485, -0.019551746547222137, -0.02672608382999897, 0.008394645527005196, -0.009474148973822594, -0.036126479506492615, -0.00032644913881085813, -0.005441098008304834, 0.023655198514461517, 0.0032955019269138575, -0.008488515391945839, -0.02861689031124115, -0.03505367785692215, -0.0035234715323895216, -0.024084318429231644, 0.02282378077507019, 0.013322812505066395, -0.0219789519906044, -0.0037313259672373533, 0.006446846295148134, -0.03204984590411186, -0.005303645972162485, -0.001791908172890544, 0.026015356183052063, -0.0031228484585881233, -0.039505790919065475, -0.022193511947989464, -0.04830273613333702, 0.02133527398109436, -0.01111016608774662, -0.029206929728388786, 0.021670522168278694, -0.01032568234950304, 0.012089094147086143, 0.022957880049943924, -0.01622607186436653, 0.012471278198063374, -0.022957880049943924, 0.009963613003492355, -0.00092445028712973, 0.00011314667790429667, 0.005910447333008051, 0.00011094660294475034, 0.006487076170742512, -0.002888173796236515, 0.021187763661146164, 0.0038721307646483183, 0.015756722539663315, -0.002832857659086585, -0.0072212726809084415, -0.010909016244113445, 0.011693499982357025, -0.026136044412851334, -0.015341013669967651, -0.025371676310896873, 0.01438890490680933, -0.04189276695251465, -0.01117051113396883, 0.010962655767798424, 0.017258640378713608, 0.010593881830573082, -0.03312264382839203, -0.008689665235579014, 0.025250986218452454, 0.015609213151037693, -0.007355372421443462, -0.004693491850048304, -0.16885842382907867, 0.02805367112159729, -0.007670506834983826, 0.018787378445267677, 0.030816126614809036, 0.014777794480323792, 0.01296074315905571, 0.011887944303452969, -0.018586227670311928, 0.02716861292719841, -5.625904304906726e-05, 0.011190625838935375, -0.01690998114645481, -0.029233749955892563, 0.009742348454892635, -0.01972607523202896, -0.023722250014543533, 0.02314561977982521, 0.027544092386960983, 0.0099837277084589, 0.02507665753364563, -0.03221076354384422, 0.022957880049943924, -0.009936792775988579, 0.007999051362276077, -0.0109894759953022, -0.0031898983288556337, 0.0018924829782918096, 0.018143698573112488, 0.006222229450941086, 0.0007497015176340938, -0.031137965619564056, 0.022676270455121994, -0.003302206750959158, -0.0005783052765764296, -0.01539465319365263, -0.012538328766822815, -0.004934871569275856, -0.032103486359119415, 0.01165326964110136, 0.03440999984741211, 0.030574748292565346, -0.00017412017041351646, -0.017164770513772964, -0.005250005982816219, 0.007201157510280609, 0.02061113528907299, -0.026417654007673264, 0.008119741454720497, 0.003307235660031438, 0.03204984590411186, -0.008528745733201504, 0.0025110181886702776, 0.022126462310552597, 0.015689672902226448, 0.0058098724111914635, -0.010580471716821194, 0.005518205463886261, 0.006373091600835323, -0.021362092345952988, -0.011297905817627907, -0.003979410510510206, 0.007871656678617, -0.004462169948965311, -0.016896570101380348, -0.04004219174385071, -0.03006516769528389, -0.0011582867009565234, -0.004988511558622122, -0.0035167664755135775, 0.0197663065046072, -0.012826642952859402, 0.012853463180363178, 0.0019343891181051731, 0.004351537674665451, 0.02065136469900608, -0.0363142192363739, -0.029046010226011276, 0.009340048767626286, 0.006738513242453337, -0.00033189693931490183, 0.023038340732455254, -0.038459815084934235, -0.010238517075777054, -0.005266768392175436, -0.016775881871581078, 0.013959785923361778, 0.03135252743959427, -0.03534869849681854, -0.003701153676956892, 0.004616384394466877, -0.023641789332032204, 0.019296957179903984, -0.03682379797101021, 0.002681995276361704, 0.013188712298870087, 0.004606327041983604, 0.018009599298238754, -0.005705945193767548, -0.007214567624032497, -0.00803257618099451, -0.00431801239028573, -0.04535254091024399, 0.007040238007903099, 0.03322992101311684, 0.012866873294115067, -0.009614953771233559, 0.03336402401328087, 0.030440647155046463, -0.010681046172976494, 0.013316106982529163, 0.0036307512782514095, 0.010935836471617222, 0.009500968270003796, -0.008850584737956524, 0.017942549660801888, 0.025908075273036957, -0.023078570142388344, 0.047551777213811874, 0.019699256867170334, 0.01642722263932228, -0.022475121542811394, 0.015126453712582588, 0.03111114725470543, -0.026900414377450943, 0.0004597107763402164, -0.11425300687551498, 0.01743297092616558, 0.016199251636862755, 0.027275893837213516, -0.02290424145758152, 0.0015010792994871736, -0.011291200295090675, 0.007657096721231937, 0.022877421230077744, 0.016856340691447258, -0.024285467341542244, -0.01622607186436653, 0.017567070201039314, -0.0035402339417487383, 0.03261306509375572, 0.011318020522594452, 0.01827779784798622, 0.02185826189815998, -0.01422798540443182, 0.008944454602897167, -0.005025388672947884, -0.0025646581780165434, 0.0001906731049530208, -0.011720320209860802, -0.017848679795861244, 0.0014440868981182575, -0.02028929442167282, 0.0011054850183427334, 0.010721276514232159, -0.004851059056818485, -0.002383623505011201, -0.007683916948735714, 0.015434883534908295, -0.02242148108780384, 0.012008634395897388, -0.006302689202129841, 0.016400402411818504, -0.02246171049773693, 0.0065407161600887775, -0.022555580362677574, -0.02527780644595623, 0.00020282590412534773, 0.008448285050690174, -0.024017268791794777, -0.0034279252868145704, -0.0006373929791152477, -0.01863986812531948, 0.01143200509250164, -0.003835253417491913, -0.017044080421328545, 0.00010460829798830673, -0.034034520387649536, -0.02745022252202034, -0.021080484613776207, 0.04371652379631996, -0.0046432046219706535, -0.01988699659705162, -0.016883160918951035, -0.026779724285006523, -0.018224159255623817, -0.013711701147258282, 0.00023718897136859596, -0.02628355473279953, 0.0011331430869176984, 0.0016972002340480685, 0.019980866461992264, -0.0021657112520188093, -0.024097729474306107, 0.006674815900623798, 0.012270129285752773, 0.0005963249132037163, -0.001202707295306027, -0.006688226014375687, 0.020865924656391144, -0.02797321230173111, -0.014174345880746841, 0.000279933272395283, -0.019457876682281494, -0.010600586421787739, -0.021764392033219337, -0.01368488185107708, -0.014429135248064995, 0.0007233006181195378, -0.021925311535596848, 0.008273955434560776, 0.024285467341542244, 0.03513414040207863, -0.005689182784408331, 0.006758628413081169, -0.05836021900177002, 0.02439274825155735, 0.017540249973535538, 0.03422226011753082, -0.00986303761601448, -0.02354791946709156, 0.0033541705925017595, 0.016494272276759148, -0.0038888934068381786, -0.0010493306908756495, 0.003171459538862109, -0.024687767028808594, -0.010862081311643124, -0.07498858869075775, 0.006034489721059799, 0.012062273919582367, -0.0002420081727905199, 0.007107287645339966, -0.015273964032530785, 0.011572809889912605, -0.00017883461259771138, -0.0007077953196130693, 0.03196938335895538, 0.005930562503635883, 0.007060352712869644, 0.01338315661996603, -0.009521083906292915, -0.031245246529579163, -0.03896939381957054, 0.022072821855545044, 0.015756722539663315, 0.02061113528907299, 0.012732773087918758, 0.012451163493096828, 0.01589082181453705, 0.02628355473279953, -0.010627406649291515, -0.04444066435098648, 0.027839113026857376, -0.003389371559023857, 0.03497321903705597, -0.01703067123889923, -0.00207854644395411, 0.010640816763043404, -0.024205008521676064, -0.014214575290679932, 0.02704792283475399, -0.009078554809093475, -0.010795031674206257, -0.028241410851478577, 0.011659975163638592, 0.014375495724380016, 0.004227495286613703, -0.02765137329697609, -0.025452136993408203, 0.04808817803859711, -0.01650768145918846, -0.009333344176411629, 0.002532809507101774, -0.012759593315422535, -0.005058913957327604, 0.023802708834409714, 0.03424908220767975, -0.010312272235751152, 0.021643701940774918, 0.001765088178217411, -0.029850607737898827, -0.002237789798527956, 0.013477026484906673, -0.0038754832930862904, 0.017727989703416824, -0.01026533730328083, -0.019189676269888878, 0.03867437317967415, -0.000783226452767849, 0.013316106982529163, -0.009789283387362957, 0.023574739694595337, 0.007871656678617, -0.010620702058076859, 0.006242344155907631, 0.010687751695513725, -0.039827629923820496, -9.23507395782508e-05, 0.016896570101380348, 0.023695429787039757, 0.001790231908671558, 0.028000032529234886, -0.015810362994670868, -0.028992369771003723, -0.025425316765904427, 0.014616874977946281, 0.0268065445125103, 0.0020886037964373827, -0.010654226876795292, -0.026833364740014076, 0.014590054750442505, 0.013054612092673779, -0.007958821021020412, -0.05398856848478317, -0.035000041127204895, -0.004230847582221031, 0.035241417586803436, -0.014120705425739288, 0.0018153756391257048, 0.004264372866600752, 0.01723182015120983, 0.017365919426083565, 0.005813225172460079, -0.015810362994670868, -0.0013803895562887192, 0.0022444948554039, 0.0017039051745086908, -0.004810829181224108, 0.003220070619136095, 0.004773951601237059, -0.004224142525345087, 0.005990907084196806, -0.009896563366055489, -0.008783535100519657, -0.018854428082704544, 0.015837183222174644, 0.019377415999770164, 0.0023383647203445435, 0.02000768482685089, 0.005793110001832247, 0.0021221288479864597, -0.0</t>
+  </si>
+  <si>
+    <t>[0.01588224619626999, -0.011770465411245823, -0.00021039214334450662, 0.003119961591437459, -0.013051291927695274, 0.025432612746953964, -0.0014409295981749892, -0.005054337438195944, 0.012939630076289177, -0.0230154637247324, 0.014529167674481869, -0.004975517746061087, -0.004597838036715984, -0.01762942411005497, -0.01663103699684143, -0.015291095711290836, 0.026811962947249413, -0.010522481054067612, 0.02534065581858158, -0.031501758843660355, -0.008111899718642235, -0.008157878182828426, 0.038359105587005615, -0.02610258385539055, 0.010364840738475323, -0.0054254489950835705, -0.007796619553118944, -0.008269540034234524, -0.00291962712071836, -0.002717650728300214, -0.00362243945710361, 0.00046224691323004663, -0.01986265927553177, 0.006689854431897402, 0.007678389549255371, 0.00724487891420722, 0.02091359533369541, -0.009307337924838066, 0.018404489383101463, 0.00888039544224739, 0.019494833424687386, 6.638898412347771e-06, -0.01567205972969532, -0.011573415249586105, -0.018746042624115944, 0.03651997074484825, -0.019468558952212334, -0.0009129992686212063, 0.00895264744758606, -0.0027619870379567146, 0.01414820458739996, 0.023961303755640984, -0.013222068548202515, 0.013504507020115852, -0.0013555411715060472, -0.02955752983689308, -0.016749266535043716, -0.009143128991127014, 0.0024220754858106375, -0.010955991223454475, -0.007967396639287472, 0.005188988521695137, -0.028506595641374588, -0.01797097735106945, -0.005675045773386955, -0.02459186501801014, -0.00968830194324255, 0.0028917116578668356, -0.0024647696409374475, -0.0029968051239848137, 0.028926968574523926, 0.01818116568028927, 0.019941480830311775, 0.002016480313614011, 0.044743530452251434, 0.001518107601441443, -0.01924523524940014, 0.024158354848623276, 0.020177939906716347, 0.006732548587024212, 0.00738938245922327, -0.04390278458595276, -0.023396426811814308, 0.008814712055027485, 0.019284646958112717, 0.00479160388931632, -0.009346747770905495, 0.016105569899082184, 0.001555054448544979, -0.002949184738099575, -0.0031150351278483868, -0.02091359533369541, 0.007954259403049946, -0.005537110380828381, -0.01581656187772751, -0.0005956663517281413, 0.007264583837240934, -0.013130111619830132, -0.008085626177489758, 0.0009573355782777071, -0.007638979237526655, 0.018404489383101463, 0.00853884220123291, -0.021754341199994087, -0.03310443460941315, -0.006647160276770592, -0.01080491952598095, -0.018154891207814217, 0.055436789989471436, 0.006141398102045059, 0.016026750206947327, 0.05212634429335594, 0.028243862092494965, -0.0348384752869606, 0.006374573800712824, -0.007678389549255371, 0.008775302208960056, 0.01748492196202278, -0.008374633267521858, -0.042405202984809875, 0.011271271854639053, 0.011685077100992203, -0.002730787266045809, -0.018128618597984314, 0.060586366802453995, 0.035994503647089005, -0.014857584610581398, -0.018404489383101463, -0.005313787143677473, -0.0028933538123965263, -0.0016355166444554925, -0.005257956217974424, 0.014384664595127106, 0.0182468481361866, 0.00011566436296561733, 0.012203975580632687, 0.006141398102045059, -0.0034286733716726303, -0.007139785680919886, -0.02122887410223484, 0.031948406249284744, 0.023580340668559074, -0.036099597811698914, 0.021452197805047035, 0.005297366064041853, 0.013156385160982609, -0.021767478436231613, 0.007133217062801123, 0.016709856688976288, -0.005313787143677473, 0.01988893374800682, -0.03315697982907295, 0.019941480830311775, -0.012834535911679268, 0.011251566000282764, 0.019941480830311775, -0.0007414013962261379, 0.027665847912430763, -0.010174358263611794, -0.002929479582235217, -0.031396664679050446, 0.006969008594751358, -0.00733026722446084, -0.002451632870361209, 0.02840150147676468, 0.03856929391622543, 0.01786588504910469, 0.02390875667333603, -0.016552217304706573, 0.011015105992555618, 0.017471784725785255, 0.04505881294608116, -0.021071234717965126, 0.020834773778915405, 0.013110406696796417, 0.01117931492626667, 0.0028391650412231684, 0.011547141708433628, -0.0017898726509884, 0.0021035107783973217, -0.013832923956215382, 0.010042991489171982, 0.029741443693637848, 0.024000713601708412, -0.00783602986484766, -0.004922970663756132, 0.0210580974817276, 0.010213769041001797, -0.019113868474960327, -0.0008629156509414315, 0.014713081531226635, 0.005707887466996908, -0.004032960627228022, -0.012814830988645554, -0.6486366987228394, -0.009609481319785118, -0.01728787086904049, 0.005533826537430286, 0.012893651612102985, -0.00439093541353941, 0.007606137543916702, 0.0008243266493082047, -0.024132080376148224, 0.022411176934838295, -0.003003373509272933, -0.022279810160398483, 0.0029787421226501465, -0.008900100365281105, -0.031160205602645874, -0.030608464032411575, 0.005248103756457567, -0.01667044684290886, 0.003451662603765726, -0.02178061567246914, 0.012538961134850979, 0.016617899760603905, 0.0024467066396027803, 0.021281421184539795, 0.004551859572529793, 0.016039885580539703, 0.0022414459381252527, -0.012624349445104599, 0.002024690853431821, -0.0160136129707098, -0.0471869558095932, 0.008348359726369381, -0.005947631783783436, -0.016880633309483528, 0.04074998199939728, -0.006131545174866915, -0.015094045549631119, 0.045636825263500214, -0.005399175453931093, 0.025918669998645782, -0.013366571627557278, -0.01759001426398754, 0.029032062739133835, 0.0036487127654254436, 0.018601538613438606, 0.005018211901187897, 0.038359105587005615, 0.03625723719596863, -0.01481817476451397, -0.013090701773762703, 0.008998625911772251, -0.011323818005621433, 0.017642561346292496, 0.017209051176905632, 0.01762942411005497, -0.006131545174866915, 0.01649967022240162, -0.02599748969078064, 0.014082521200180054, 0.01790529489517212, 0.00019007133960258216, 0.009629186242818832, 0.00886725913733244, -0.036020778119564056, -0.003835910465568304, -0.0007221068954095244, -0.013110406696796417, -0.015251685865223408, -0.014555441215634346, 0.010726098902523518, 0.024854598566889763, 0.022818412631750107, -0.01903504878282547, 0.008762165904045105, 0.012460140511393547, 0.03906848654150963, -0.007428792305290699, 0.01735355332493782, 0.003826058004051447, 0.01246670912951231, -0.0034680834505707026, -0.007849166169762611, -0.030477097257971764, -0.013031586073338985, 0.03567922115325928, -0.0033728426788002253, -0.0016806740313768387, -0.020742816850543022, 0.02092673070728779, 0.016920043155550957, 0.024158354848623276, -0.011251566000282764, 0.004584701266139746, -0.040382154285907745, -0.019337192177772522, 0.035784315317869186, -0.02421090193092823, 0.01594792865216732, 0.01328775193542242, -0.019429149106144905, -0.012854241766035557, -0.012630918063223362, 0.02565593644976616, -0.009813100099563599, 0.008085626177489758, 0.016000475734472275, -0.015501282177865505, 0.018680358305573463, 0.036204688251018524, 0.0011790170101448894, -0.02565593644976616, -0.005987042095512152, -0.01673613116145134, -0.02287095971405506, -0.007698094472289085, -0.029688896611332893, 0.013405981473624706, 0.03680897876620293, 0.021767478436231613, -0.03265778720378876, 0.009051172062754631, -0.003550187684595585, -0.01246670912951231, -0.006400847341865301, -0.00658476073294878, 0.004624111577868462, 0.032289959490299225, 0.0032119182869791985, -0.02363288775086403, -0.01722218655049801, 0.031370390206575394, -8.302792411996052e-05, 0.014713081531226635, -0.011047948151826859, -0.00944527331739664, 0.0238693468272686, 0.013977427035570145, -0.014292707666754723, 0.004269421100616455, -0.03205350041389465, -0.00965545978397131, -0.017603151500225067, 0.007192332297563553, -0.022923506796360016, -0.016854360699653625, -0.025866122916340828, -0.011277839541435242, -0.013136680237948895, -0.03100256435573101, 0.016079295426607132, 0.003954140469431877, 0.0001752925745677203, -0.013353435322642326, 0.01667044684290886, 0.02932106889784336, 0.010548753663897514, 0.0001198722020490095, -0.007980532944202423, -0.01950797066092491, -0.025406338274478912, 0.009366452693939209, 0.034207914024591446, -0.015369915403425694, -0.012066040188074112, -0.027376841753721237, -0.005862243473529816, 0.022135306149721146, -0.003789932234212756, 0.0030739831272512674, -0.03707171231508255, 0.0071726273745298386, -0.0015197496395558119, -0.017498057335615158, 0.021622974425554276, -0.02195139229297638, 0.018562128767371178, -0.04469098523259163, -0.014568578451871872, -0.01213829219341278, -0.015343641862273216, 0.0011157967383041978, 0.0021790468599647284, -0.015330505557358265, -0.0004679942212533206, 0.004075654782354832, -0.0005656982539221644, 0.04558428004384041, 0.015803426504135132, -0.010903444141149521, 0.03741326555609703, 0.015527555719017982, -0.02565593644976616, 0.008946078829467297, -0.0037538062315434217, 0.003609302919358015, -0.0014828027924522758, 0.014516031369566917, 0.0010575026972219348, -0.019087595865130424, 0.003408968448638916, 0.004233295097947121, 0.008184151723980904, 0.006824505049735308, -0.010279452428221703, 0.02280527725815773, -0.01841762475669384, 0.027481934055685997, -0.009143128991127014, 0.04424433782696724, 0.021189464256167412, 0.019284646958112717, -0.02538006566464901, -0.0465826690196991, 0.0010254820808768272, -0.00206574285402894, 0.00870961882174015, 0.017957841977477074, 0.022476859390735626, 0.009530661627650261, 0.02208275906741619, 0.009964171797037125, -0.0037965006195008755, -0.007560159545391798, 0.021925119683146477, -0.028690509498119354, 0.008946078829467297, 0.005980473477393389, 0.012492982670664787, -0.005014927592128515, -0.02534065581858158, 0.006446825806051493, 0.062267862260341644, -0.0119346734136343, 0.010791782289743423, 0.023882484063506126, 0.027324294671416283, 0.003898309776559472, -0.027718394994735718, 0.0014532451750710607, -0.00366513361223042, 0.04232638329267502, 0.03956767916679382, -0.005011643283069134, 0.018562128767371178, 0.013898607343435287, 0.0008013374754227698, 0.006105272099375725, 0.006289185490459204, -0.000785327167250216, -0.003366274293512106, -0.002248014323413372, 0.01869349554181099, -0.012341910973191261, -0.00041708958451636136, -0.011409206315875053, 0.010706393979489803, -0.007152922451496124, 0.000879336497746408, 0.03625723719596863, 0.014673671685159206, 0.0016929896082729101, -0.009524093009531498, 0.006831073667854071, 0.003133098129183054, 0.007395950611680746, -0.01711709424853325, 0.002248014323413372, -0.0314754843711853, 0.010995401069521904, -0.020046573132276535, -0.01697259023785591, -0.008295813575387001, -0.001939302426762879, 0.00462082726880908, 0.007593001239001751, -0.033866360783576965, -0.02280527725815773, 0.01085746567696333, -0.013832923956215382, 0.0426679365336895, -0.00842061173170805, -0.01982324942946434, 0.007290857378393412, 0.024565592408180237, 0.009018330834805965, -0.018168028444051743, -0.03384008631110191, 0.015540692023932934, -0.0020181224681437016, 0.027114108204841614, -0.005523974075913429, 0.008814712055027485, -0.018365077674388885, -0.008111899718642235, 0.0056520565412938595, -0.003993550781160593, -0.005248103756457567, -0.021412787958979607, 0.02503851242363453, -0.0070215556770563126, 0.004627395421266556, -0.025800438597798347, -0.009478114545345306, 0.0007262121071107686, 0.019941480830311775, -0.001151101547293365, -0.008643935434520245, -0.010739236138761044, 0.0018062934977933764, 0.019810114055871964, -0.000717180606443435, 0.003046067664399743, -0.0021560576278716326, -0.0160136129707098, -0.0006330237374641001, -0.017445510253310204, 0.008571683429181576, -0.008341792039573193, 0.016880633309483528, -0.022371765226125717, -0.011041379533708096, -0.042063649743795395, -0.02380366437137127, 0.028322681784629822, 0.08517823368310928, 0.012223680503666401, 0.005369618069380522, 0.01064727921038866, 0.022411176934838295, -0.0024861167185008526, -0.016486532986164093, -0.030161816626787186, -0.019744429737329483, -0.004709499888122082, -0.010167790576815605, -0.004262852482497692, 0.011382932774722576, 0.0230154637247324, 0.021136917173862457, -0.008361496962606907, -0.006213649641722441, -0.02252940647304058, 0.025051647797226906, -0.004496028646826744, -0.0005110989441163838, 0.02222726307809353, 0.02171493135392666, 0.01344539225101471, 0.024618137627840042, 0.022581953555345535, 0.01588224619626999, 0.01948169618844986, 0.009359884075820446, -0.026483546942472458, -0.0060034627094864845, -0.03205350041389465, -0.030818650498986244, -0.02510419487953186, -0.025183016434311867, 0.01176389679312706, -0.011671939864754677, -0.005277661141008139, 0.008354928344488144, -0.012788558378815651, 0.02095300517976284, 0.011625961400568485, -0.00842061173170805, -0.0011683434713631868, 0.0012291006278246641, -0.019429149106144905, 0.015961065888404846, 0.01797097735106945, -0.014384664595127106, -0.021649248898029327, 0.01783961057662964, -0.01567205972969532, 0.02109750732779503, -0.0024220754858106375, -0.006147966254502535, 0.007251447532325983, 0.02129455842077732, 0.011974084191024303, -0.008972352370619774, -0.02037499099969864, 0.005251387599855661, -0.018614675849676132, -0.016473397612571716, -0.005865527782589197, -0.0052251145243644714, -0.004400787875056267, 0.003963993396610022, 0.015895383432507515, -0.026982741430401802, -0.010121812112629414, -0.006831073667854071, -0.02318624034523964, -0.027928581461310387, -0.011908400803804398, 0.009977308101952076, 0.021662386134266853, 0.011120199225842953, -0.0010928076226264238, 0.009924761950969696, 0.027797214686870575, 0.01443721167743206, 0.002106795087456703, -0.004811308812350035, -0.026772553101181984, -0.02531438320875168, 0.03778109326958656, 0.001906460733152926, 0.010693257674574852, -0.029399890452623367, -0.019324056804180145, 0.013143247924745083, 0.016342028975486755, 0.008840985596179962, 0.014502895064651966, 7.887139508966357e-05, 0.004788320045918226, -0.007993670180439949, -0.004328535869717598, -0.010673552751541138, -0.003619155380874872, 0.013465097174048424, 0.008821280673146248, -0.016197526827454567, 0.0046897949650883675, 0.0047259205020964146, -0.011816443875432014, -0.017957841977477074, -0.01117931492626667, 0.0008415685733780265, 0.014043111354112625, 0.01728787086904049, -0.021360240876674652, 0.017879022285342216, 0.017787065356969833, -0.03286797180771828, 0.004785035736858845, -0.005205409601330757, 0.009563502855598927, -0.004660237114876509, -0.01724846102297306, -0.006400847341865301, -0.021202601492404938, 0.006732548587024212, 0.02122887410223484, -0.02633904293179512, 0.0029869526624679565, -0.015698332339525223, 0.0025008954107761383, -0.0024204333312809467, 0.0036158710718154907, 0.014870721846818924, 0.040382154285907745, -0.01605302281677723, -0.015869108960032463, -0.023685434833168983, -0.03100256435573101, -0.013366571627557278, -0.007809756323695183, -0.00824983511120081, -0.022043349221348763, -0.020191077142953873, 0.0027110823430120945, -0.016854360699653625, -0.021990802139043808, 0.012184270657598972, -0.022555679082870483, -0.011015105992555618, -0.0216361116617918, -0.03281542658805847, 0.0038096371572464705, -2.4618446332169697e-05, -0.008400906808674335, 0.003451662603765726, -0.002865438349545002, 0.005987042095512152, -0.020834773778915405, -0.02414521761238575, -0.0030657725874334574, 0.005198840983211994, 0.02205648645758629, 0.00579656008630991, 0.029846535995602608, 0.01387233380228281, -0.0030017313547432423, -0.022765865549445152, -0.0235934779047966, -0.01896936632692814, 0.012506118975579739, -0.042063649743795395, 0.009701438248157501, 0.016092432662844658, 0.020939867943525314, -0.00513644190505147, 0.009753985330462456, -0.029347343370318413, 0.005113452672958374, 0.010010150261223316, 0.001673284568823874, -0.012322206050157547, -0.031528033316135406, 0.0039968350902199745, 0.0010312293889001012, -0.018851134926080704, 0.027692120522260666, 0.01584283635020256, -0.0004959096550010145, 0.011632530018687248, 0.0007828639936633408, -0.009320474229753017, 0.014857584610581398, 0.015317369252443314, -0.0022759297862648964, 0.03809637203812599, 0.004857287276536226, 0.015291095711290836, -0.020138530060648918, 0.019350329414010048, -0.013622737489640713, -0.03977786749601364, -0.0021478470880538225, -0.01896936632692814, -0.007796619553118944, -0.00632859580218792, -0.019429149106144905, -0.015790289267897606, 0.006476383190602064, -0.004847434815019369, -0.019796976819634438, -0.0202304869890213, -0.010778645984828472, -0.028322681784629822, -0.033997729420661926, -0.012460140511393547, 0.0032447599805891514, 0.008749028667807579, -0.018916819244623184, -0.020703407004475594, 0.011028243228793144, -0.0073236990720033646, -0.02997790277004242, 0.014410938136279583, -0.0067391167394816875, 0.019560515880584717, -0.006131545174866915, 0.03749208524823189, 0.019258372485637665, 0.008059353567659855, -0.013228637166321278, 0.018719768151640892, -0.005257956217974424, -0.007461633998900652, 0.00891980528831482, 0.0033925476018339396, 0.030950017273426056, -0.032158590853214264, 0.004410640336573124, 0.016144979745149612, -0.02065086178481579, -0.02242431230843067, 0.033524807542562485, -0.002001701621338725, 0.011875558644533157, -0.036099597811698914, -0.0032152023632079363, 0.0143189812079072, 0.0190744586288929, -0.030240638181567192, 0.0034680834505707026, -0.035652950406074524, -0.02133396826684475, -0.03286797180771828, 0.026050036773085594, -0.013268047012388706, 0.01001671887934208, -0.013596463948488235, -0.0008637367282062769, 0.02233235538005829, -0.007310562301427126, -0.0210580974817276, 0.0561198964715004, 0.0011946167796850204, 0.02252940647304058, -0.014805038459599018, 0.009064309298992157, 0.013846060261130333, 0.00602645194157958, -0.018299395218491554, -0.015448736026883125, 0.016210662201046944, 0.022109031677246094, -0.03680897876620293, -0.02084791101515293, 0.004446766339242458, -0.0022874244023114443, 0.025288108736276627, -0.020283034071326256, -0.016407713294029236, 0.022450586780905724, 0.02606317214667797, -0.02397444099187851, 0.004584701266139746, -0.00645667826756835, -0.014949541538953781, -0.008749028667807579, -0.006056009326130152, -0.011901832185685635, -0.023961303755640984, -0.026930194348096848, -0.0009409147314727306, 0.004338388331234455, 0.031370390206575394, -0.019179552793502808, 0.023619750514626503, -0.017025137320160866, 0.02459186501801014, -0.00962261762470007, -0.022831549867987633, 0.011790170334279537, -0.037439536303281784, 0.01978383958339691, 0.008348359726369381, -0.0044237771071493626, 0.014384664595127106, 0.003431957680732012, 0.003655281150713563, -0.00644025718793273, 0.022174715995788574, -0.018575266003608704, -0.01677554100751877, -0.0017652413807809353, 0.006082282867282629, -0.00602645194157958, 0.004177464172244072, -0.010982264764606953, 0.0022398040164262056, -0.0018916819244623184, 0.012722874991595745, -0.0129133565351367, -0.017169641330838203, 0.02263449877500534, -0.01950797066092491, -0.0006211186409927905, 0.011731055565178394, -0.009418999776244164, -0.009392726235091686, 0.021898845210671425, -0.014686807990074158, 0.004302262794226408, 0.0019869229290634394, -0.012151429429650307, 0.006699706893414259, 0.019008776172995567, -0.003078909358009696, 0.016985727474093437, 0.014752491377294064, -0.03223741427063942, -0.010062696412205696, 0.01639457605779171, 0.0030427835881710052, -0.0015895382966846228, 0.029242249205708504, 0.02565593644976616, 0.01265719160437584, 0.028795601800084114, 0.006791663356125355, -0.003760374616831541, -0.014726217836141586, -0.015987340360879898, -0.03906848654150963, -0.018049798905849457, -0.021557291969656944, 0.024710094556212425, 0.013570190407335758, 0.011153041385114193, -0.02009912021458149, 0.010299157351255417, -0.03675642982125282, 0.021307695657014847, -0.005103600211441517, 0.004811308812350035, 0.018062934279441833, -0.002257866784930229, -0.016854360699653625, 0.00509374774992466, 0.004124917555600405, 0.029399890452623367, -0.01944228634238243, 0.0063121747225522995, 0.012335342355072498, -0.002697945572435856, 0.013333730399608612, 0.010923149064183235, -0.03528512269258499, -0.02143906243145466, 0.049709197133779526, 0.008755597285926342, 0.0008908311137929559, 0.013057859614491463, -0.022384902462363243, -0.0060789985582232475, -0.002003343775868416, -0.007684957701712847, 0.011809875257313251, 0.0012791842455044389, 0.02538006566464901, -0.014686807990074158, -0.017879022285342216, -0.0011264702770859003, 0.006837641820311546, -0.007120080757886171, 0.0063942791894078255, -0.013635873794555664, -0.008446885272860527, 0.011658803559839725, -0.00035120092798024416, 0.00596733670681715, 0.026772553101181984, -0.015580102801322937, 0.01975756697356701, 0.006056009326130152, -0.006033020094037056, 0.016368303447961807, -0.0091234240680933, -0.015448736026883125, -0.024407951161265373, -0.009642323479056358, -0.06100674346089363, -0.029715169221162796, -0.014358391053974628, -0.016342028975486755, 0.0017947988817468286, -0.01632889360189438, -0.0002181920426664874, -0.011047948151826859, -0.0034253892954438925, -0.002078879624605179, 0.007934554480016232, 0.009346747770905495, 0.000322259176755324, -0.004124917555600405, -0.0221878532320261, 0.0055765206925570965, -0.008978920988738537, -0.005947631783783436, -0.01837821491062641, -0.002046037930995226, -0.01931091956794262, -0.018128618597984314, 0.0071989004500210285, 0.0073236990720033646, -0.03562667593359947, -0.03638860210776329, 0.008466590195894241, -0.01555382926017046, -0.004124917555600405, -0.00474890973418951, 0.1863306760787964, 0.017708243802189827, -0.010745803825557232, 0.029925357550382614, 0.002046037930995226, 0.00601003086194396, 0.011244998313486576, 0.01255209743976593, 0.014634261839091778, 0.023343879729509354, -0.006039588712155819, -0.010049560107290745, -0.009845941327512264, 0.009596345014870167, 0.03236877918243408, -0.015133455395698547, -0.011573415249586105, -0.017550604417920113, 0.0065125091932713985, 0.013136680237948895, -0.017169641330838203, 0.0011207229690626264, 0.03000417724251747, -0.0031823606695979834, 0.006381142418831587, 0.019560515880584717, -0.003924583084881306, -0.01522541232407093, 0.031948406249284744, 0.019284646958112717, -0.0026815247256308794, -0.001811219728551805, -0.017892157658934593, -0.007382814306765795, -0.009878783486783504, 0.0176688339561224, 0.01539618894457817, -0.016709856688976288, 0.014384664595127106, 0.017537467181682587, -0.004069086629897356, 0.0005599510041065514, 0.015172865241765976, 0.00859138835221529, 0.002983668353408575, 0.003898309776559472, -0.008072489872574806, 0.015921656042337418, 0.004676658194512129, 0.016210662201046944, -0.02054576762020588, -0.0033071592915803194, 0.00026375989546068013, 0.022384902462363243, 0.03213232010602951, 0.0005061727133579552, 0.02112378180027008, 0.009149697609245777, 0.007468202617019415, 0.002525526797398925, -0.005622499156743288, 0.018575266003608704, -0.016236936673521996, 0.02612885646522045, 0.0018194301519542933, 0.018562128767371178, -0.008932942524552345, 0.0007360646268352866, 0.016079295426607132, 0.008814712055027485, 0.01690690778195858, -0.037912458181381226, 0.00258956803008914, -0.0049919383600354195, -0.011717918328940868, -0.017708243802189827, 0.03389263525605202, -0.015724606812000275, 0.03730817139148712, 0.02270018309354782, -0.0027077982667833567, 0.0176688339561224, 0.0024992532562464476, 0.02397444099187851, 0.004771898966282606, 0.002331760711967945, 0.032973065972328186, 0.0025764312595129013, -0.021031824871897697, -0.003082193434238434, -0.0010632500052452087, -0.0019113869639113545, 9.05071101442445e-06, -0.01999402604997158, 0.005517405457794666, 0.0030444255098700523, -0.00862423051148653, 0.0077177993953228, -0.02267391048371792, -0.006716127507388592, -0.03066101111471653, -0.005474711302667856, 0.010384545661509037, -0.007120080757886171, -0.018785452470183372, 0.007264583837240934, -0.006466530729085207, -0.0016494743758812547, -0.009668596088886261, 0.017130231484770775, -0.010824624449014664, -0.022581953555345535, 0.007106943987309933, -0.018943091854453087, 0.017931567505002022, 0.010056128725409508, 0.00012828789476770908, -0.019810114055871964, 0.007619274314492941, -0.018575266003608704, 0.003238191595301032, -0.009090582840144634, 0.008729323744773865, 0.006870483513921499, -0.019560515880584717, -0.028716782107949257, -0.018916819244623184, 0.02761330083012581, 0.025196151807904243, -0.039593953639268875, -0.0004400787875056267, -0.007704662624746561, 0.009589776396751404, 0.010811487212777138, -0.021307695657014847, -0.016144979745149612, 0.00016605584823992103, 0.000392663583625108, 0.009228517301380634, 0.003720964537933469, 0.0030723409727215767, 0.0005693929851986468, -0.007494475692510605, -0.020558904856443405, 0.0037045436911284924, -0.01694631762802601, 0.027219200506806374, 0.0006494446424767375, 0.004968949127942324, -0.01982324942946434, 0.008571683429181576, -0.029925357550382614, -0.006528929807245731, -0.02294977940618992, 0.026391590014100075, -0.01999402604997158, -0.022831549867987633, -0.023501520976424217, 0.0004437734605744481, 0.02753448113799095, -0.021596701815724373, -0.0035337668377906084, 0.013176090084016323, -0.008328654803335667, -0.01249955128878355, 0.02897951565682888, -0.16478651762008667, 0.019402876496315002, 0.013195795007050037, 0.00812503695487976, 0.022962916642427444, 0.01931091956794262, -0.0012668685521930456, 0.006374573800712824, 0.00579656008630991, 0.0174192376434803, -0.006207081489264965, -0.020755954086780548, -0.03615214303135872, -0.0014704870991408825, 0.008525704964995384, -0.008716187439858913, 0.010042991489171982, 0.0026782406494021416, 0.030188091099262238, 0.001283289398998022, 0.004860571585595608, -0.01505463570356369, 0.008308949880301952, 0.002248014323413372, -0.01147488970309496, 0.013846060261130333, -0.009110287763178349, 0.004000118933618069, 0.007120080757886171, 0.003934435546398163, 0.009983876720070839, -0.016092432662844658, 0.017787065356969833, -0.0037143961526453495, -0.00225950893945992, 0.004344956949353218, -0.001327625708654523, 0.021360240876674652, -0.007724368013441563, 0.019179552793502808, 0.0146079882979393, 0.025393202900886536, 0.009090582840144634, -0.010430524125695229, 0.01358332671225071, 0.00977369025349617, 0.015172865241765976, -0.011212156154215336, -0.013438823632895947, -0.007849166169762611, 0.013675283640623093, -0.015685195103287697, 0.0037669430021196604, -0.012821399606764317, 0.02242431230843067, 0.0017209050711244345, -0.009642323479056358, 0.010417386889457703, -0.0015320653328672051, -0.013268047012388706, 0.007849166169762611, -0.013208931311964989, 0.002271003555506468, 0.023987578228116035, 0.004824445582926273, -0.01828625798225403, -0.011100494302809238, 0.014384664595127106, -0.010758941061794758, 0.004358093719929457, 0.0027652711141854525, -0.013688420876860619, 0.0022512986324727535, -0.014529167674481869, 0.01073266752064228, 0.009024899452924728, 0.00602645194157958, -0.014581714756786823, 0.006141398102045059, 0.004335104487836361, -0.01745864748954773, 0.0325789675116539, -0.031186478212475777, -0.0022430880926549435, -0.0047062155790627, 0.001209395588375628, 0.015540692023932934, 0.010194064117968082, -0.0022874244023114443, 0.002298919018357992, -0.006660296581685543, -0.026903919875621796, 0.015790289267897606, -0.03799127787351608, 0.0031363824382424355, 0.006765390280634165, 0.026391590014100075, 0.021701795980334282, 0.002886785427108407, -0.012197406962513924, -0.013294320553541183, -0.004121633246541023, -0.02050635777413845, 0.010752372443675995, 0.04450707137584686, 0.02250313200056553, 0.0009639039053581655, 0.021425925195217133, 0.014844448305666447, 0.003014868125319481, 0.011625961400568485, -0.011685077100992203, 0.015514419414103031, 0.01414820458739996, -0.047003041952848434, 0.023646023124456406, 0.015895383432507515, -0.0068901884369552135, 0.03686152398586273, 0.024775778874754906, 0.0143189812079072, -0.02356720343232155, 0.004367946181446314, -0.011737623251974583, -0.028112495318055153, -0.012098882347345352, -0.11528750509023666, 0.011258134618401527, 0.03179076686501503, 0.007468202617019415, -0.014305844902992249, 0.006059293635189533, -0.011126767843961716, 0.0009203886147588491, 0.017379827797412872, 0.0003608481783885509, -0.023501520976424217, 0.01538305263966322, 0.0036487127654254436, 0.008900100365281105, 0.013438823632895947, 0.015724606812000275, 0.020427538082003593, 0.0033186536747962236, -0.014883858151733875, 0.010410819202661514, -0.015238548628985882, 0.002394160022959113, -0.005287513602524996, -0.011698213405907154, 0.004942676052451134, -0.010213769041001797, -0.021990802139043808, 0.016880633309483528, 0.01590851880609989, -0.00016964790120255202, -0.021347105503082275, -0.019849523901939392, -0.010213769041001797, -0.023646023124456406, 0.006289185490459204, -0.0035107778385281563, -0.01958679035305977, -0.008906668983399868, 0.012906787917017937, -0.029925357550382614, -0.015251685865223408, 0.005806412547826767, 0.017537467181682587, -0.03407654911279678, -0.004962380975484848, 0.0005755507736466825, -0.0182468481361866, 0.021898845210671425, 0.010850897990167141, -0.01986265927553177, 0.002727503189817071, 0.002482832409441471, -0.03741326555609703, -0.03449692204594612, 0.06836327910423279, 0.005914790090173483, -0.014082521200180054, 0.001411372097209096, -0.04582073912024498, -0.002088732086122036, 0.015291095711290836, 0.005891800858080387, -0.013346866704523563, -0.012217112816870213, -0.002803039038553834, 0.012683464214205742, -0.02438167855143547, 0.014135067351162434, 0.024618137627840042, -0.004601122345775366, -0.0058031282387673855, -0.0005714455619454384, -0.001343225478194654, -0.0005102779250591993, -0.03980414196848869, -0.03943631425499916, -0.009392726235091686, 0.0016059591434895992, 2.904437860706821e-05, -0.0023925178684294224, -0.0061873761005699635, -0.008545409888029099, 0.0012808262836188078, -0.02438167855143547, 0.0016511164139956236, 0.02987281046807766, 0.034418102353811264, 0.006285901181399822, 0.0036782703828066587, -0.03412909433245659, -0.0025206005666404963, 0.011001969687640667, 0.013622737489640713, -0.0033892635256052017, 0.002256224863231182, 0.004266136791557074, 0.01089030783623457, -0.03785991296172142, -0.0013538991333916783, 0.003783363848924637, -0.025905532762408257, -0.013064428232610226, -0.0685734674334526, -0.008157878182828426, -0.02431599423289299, -0.028716782107949257, 0.007120080757886171, 0.011488026939332485, 0.002044395776465535, 0.016026750206947327, 0.002853943733498454, 0.03126529976725578, -0.038674384355545044, 0.027665847912430763, 0.019678747281432152, 0.002959037199616432, -0.01588224619626999, -0.022726455703377724, 0.015199138782918453, -0.006302322261035442, 0.027035286650061607, 0.011691644787788391, -0.0020394695457071066, 0.01015465334057808, 0.012598075903952122, -0.005415596533566713, -0.04030333459377289, 0.0036815544590353966, 0.0033055171370506287, 0.002704513957723975, -0.0015583386411890388, -0.0007984638214111328, 0.030582191422581673, -0.040487248450517654, -0.013649010099470615, 0.04185346141457558, -0.032184865325689316, -0.027087833732366562, -0.004890128970146179, 0.03331461921334267, 0.013662147335708141, 0.022647636011242867, -0.02331760711967945, -0.020572040230035782, 0.01971815712749958, 0.0070478287525475025, -0.006909893825650215, -0.013333730399608612, 0.013911743648350239, 0.00816444680094719, -0.0036355762276798487, 0.006338448263704777, 0.021938255056738853, 0.006364721339195967, -0.008657071739435196, -0.025156741961836815, 0.002916343044489622, 0.012506118975579739, 0.01786588504910469, -0.0012028272030875087, -0.00845345389097929, -0.014713081531226635, 0.04411297291517258, 0.011704782024025917, 0.013517643325030804, 0.016210662201046944, -0.01399056427180767, -0.012190839275717735, -0.027587028220295906, 0.0018194301519542933, -0.010082402266561985, -0.048132795840501785, -0.01786588504910469, -0.022200988605618477, 0.011606256477534771, 0.0046076904982328415, 0.013570190407335758, 0.005169283598661423, -0.025222426280379295, -0.03772854432463646, -0.026628050953149796, 0.03893711790442467, -0.004226726945489645, 0.009734279476106167, -0.014253297820687294, 0.015343641862273216, 0.01663103699684143, 0.0025206005666404963, -0.021281421184539795, -0.004936107434332371, 0.028900695964694023, 0.0009885351173579693, 0.010108674876391888, 0.0168412234634161, 0.03415536880493164, -0.009596345014870167, 0.0010870603146031499, 0.012532392516732216, -0.01986265927553177, -0.008860690519213676, 0.005031348206102848, 0.01381978765130043, 0.001778378034941852, 0.011218724772334099, -0.005980473477393389, -0.01790529489517212, 0.00812503695487976, -0.01835194230079651, -0.03134411945939064, -0.03221113979816437, -0.0024976113345474005, 0.006522361654788256, 0.007744072936475277, 0.009458409622311592, 0.016985727474093437, 0.002781691960990429, 0.02157042920589447, 0.02154415473341942, -0.00</t>
+  </si>
+  <si>
+    <t>[-0.013076022267341614, -0.012114168144762516, 0.00246150279417634, -0.024813247844576836, 0.012302638962864876, -0.0013777916319668293, -0.01667647808790207, -0.010443920269608498, 0.006648494396358728, -0.006141571328043938, 0.004468074068427086, -0.014661782421171665, -0.028439698740839958, -0.01926308684051037, -0.014219849370419979, 0.0005503855063579977, 0.026853937655687332, -0.013504957780241966, -0.0007096113986335695, -0.015207699500024319, -0.013855904340744019, -0.010476415976881981, 0.016234545037150383, -0.002263282658532262, -0.009612046182155609, -0.006226058583706617, 0.023513443768024445, -0.02543715201318264, 0.019068116322159767, 0.008799669332802296, -0.0009975990979000926, -0.0014175981050357223, -0.008975142613053322, 0.006979944184422493, -0.01527268998324871, 0.0016669979086145759, 0.01756034418940544, 0.006960447411984205, 0.027633819729089737, 0.027503840625286102, 0.002300651976838708, 0.009878505952656269, 0.0022990272846072912, -0.016923440620303154, -0.006255303975194693, 0.01862618327140808, 0.00891015212982893, -0.0005337317707017064, -0.011321287602186203, 0.006551009137183428, -0.003808424109593034, 0.010053979232907295, -0.04182767495512962, 0.005836117547005415, -0.015935590490698814, -0.047806769609451294, -0.015701625496149063, 0.01831422932446003, 0.013296988792717457, -0.032053153961896896, -0.003528966335579753, -0.007590851746499538, -0.012439118698239326, 0.006440525874495506, -0.013582945801317692, -0.013147511519491673, -0.014882748946547508, 0.014635786414146423, -0.009618544951081276, 0.011301790364086628, 0.024709263816475868, 0.02875165082514286, 0.012166160158813, 0.0149477394297719, 0.024046363309025764, -0.030103446915745735, 0.0026061057578772306, 0.010528407990932465, 0.00501724099740386, 0.014921743422746658, -0.010840360075235367, -0.030337411910295486, 0.022863542661070824, 0.018951132893562317, 0.0062812999822199345, -0.001787229673936963, -0.0036881922278553247, 0.01119780633598566, -0.02261658012866974, -0.019627030938863754, -0.014284839853644371, -0.008539708331227303, -0.013361979275941849, -0.003853917121887207, -0.014921743422746658, -0.012913546524941921, 0.006823968142271042, 0.02509920485317707, 0.02574910596013069, -0.004156121518462896, 0.0008058781386353076, -0.0035452137235552073, 0.0015110215172171593, -0.017508352175354958, -0.04346542805433273, -0.019354073330760002, 0.0014452189207077026, 0.010411425493657589, 0.02437131479382515, -0.010807865299284458, -0.013465963304042816, 0.02087484300136566, -0.004796274472028017, -0.048612646758556366, -0.0020991824567317963, -0.01991298794746399, 0.012952541001141071, 0.01687144860625267, 0.041229765862226486, -0.005667143035680056, 0.016481507569551468, 0.021615730598568916, 0.017911290749907494, -0.013530953787267208, 0.026645969599485397, 0.015987582504749298, -0.015753617510199547, 0.00026889683795161545, -0.015896596014499664, 0.004172368906438351, -0.024800248444080353, 0.006365787237882614, 0.018262237310409546, -0.007311394438147545, 0.01793728768825531, 0.01195819117128849, -0.0032511332537978888, 0.014830756932497025, -0.020471904426813126, -0.023396462202072144, 0.028205733746290207, 0.01050891075283289, -0.02626902610063553, -0.009189610369503498, 0.0006210622959770262, 0.039436034858226776, 0.00044437029282562435, 0.021576736122369766, -0.003158522304147482, 0.009085625410079956, 0.020770858973264694, -0.0325990691781044, 0.015792611986398697, -0.007961295545101166, 0.019354073330760002, 0.0036102039739489555, -0.02091383747756481, 0.017690325155854225, 0.014271841384470463, -0.0027653316501528025, -0.01388190034776926, 0.02087484300136566, -0.012679582461714745, -0.02563212253153324, 0.02898561581969261, 0.03363891318440437, -0.006258553359657526, 0.008273248560726643, -0.013777916319668293, -0.0013680431293323636, 0.01626054011285305, 0.03064936399459839, -0.029713505879044533, -0.004926254972815514, 0.006908454932272434, 0.036082543432712555, -0.006229307968169451, -0.009859008714556694, -0.02162872813642025, -0.001933457562699914, -0.011431771330535412, -0.015220697969198227, 0.04385536536574364, 0.007135920692235231, 0.013491959311068058, 0.007077429443597794, 0.026295023038983345, 0.0009285470587201416, -0.0043315947987139225, -0.020705867558717728, 0.0014639035798609257, 0.0015288937138393521, 0.010274945758283138, -0.018249239772558212, -0.6430387496948242, -0.009423574432730675, -0.01420685090124607, -0.01858718879520893, -0.009638042189180851, 0.007792321499437094, 0.017716320231556892, 0.009800517931580544, -0.02196667715907097, -0.015350678004324436, -0.026152044534683228, -0.0036232019774615765, 0.009417075663805008, 0.007636344991624355, -0.023903384804725647, -0.01766432821750641, -0.01425884384661913, -0.030415399000048637, 0.01949705183506012, 0.0055599091574549675, 0.0062812999822199345, 0.01473977044224739, -0.008370733819901943, 0.00891015212982893, -0.004776777699589729, 0.0028774398379027843, 0.00040070503018796444, -0.013244996778666973, -0.016091566532850266, -0.015207699500024319, -0.03218313306570053, 0.011951692402362823, -0.018574191257357597, -0.018145255744457245, 0.03038940392434597, -0.0018635931191965938, -0.023630425333976746, 0.029843486845493317, 0.017014427110552788, 0.028231730684638023, 0.002721463330090046, -0.006209810730069876, 0.023019518703222275, 0.00056988256983459, 0.008786670863628387, 0.016611488536000252, 0.030831336975097656, -0.0034152334555983543, 0.009059629403054714, -0.021953679621219635, 0.004828769713640213, -0.012744572944939137, -0.010196957737207413, 0.0215507410466671, 0.014830756932497025, -0.00626505259424448, 0.04323146119713783, -0.01302403025329113, 0.00667449040338397, -0.008422725833952427, -0.0027442099526524544, 0.00720740994438529, 0.007733830250799656, -0.0026239780709147453, -0.016247542575001717, -0.003538714721798897, -0.02760782465338707, -0.011516258120536804, -0.01123030111193657, 0.007850812748074532, -0.002654848387464881, -0.009020635858178139, 0.0025687364395707846, -0.000956167874392122, 0.031507235020399094, 0.02669796161353588, -0.003254382871091366, 0.00845522154122591, -0.011399275623261929, 0.015974583104252815, 0.005858863703906536, -0.0034022354520857334, -0.00881916657090187, 0.010937845334410667, -0.0055274139158427715, 0.0005304822698235512, -0.013634937815368176, 0.010079975239932537, 0.03751232475042343, 0.03012944385409355, 0.027893781661987305, 0.005631398409605026, -0.011789216659963131, -0.02563212253153324, -0.00036232019192539155, 0.03187118098139763, -0.011984187178313732, 0.009189610369503498, -0.007252903189510107, -0.02105681598186493, -0.010294442996382713, -0.032391101121902466, 0.010372431017458439, 0.00015201607311610132, 0.014063873328268528, 0.0017596088582649827, -0.012744572944939137, 0.013868902809917927, 0.059842947870492935, -0.017547346651554108, -0.02616504207253456, -0.002258408349007368, -0.011399275623261929, 0.005959598813205957, 0.0007774449186399579, -0.018457207828760147, 0.018678175285458565, 0.005823119077831507, 0.025424154475331306, 0.0019302080618217587, 0.02379940077662468, -0.009066129103302956, -0.014271841384470463, -0.024839242920279503, 0.0014037876389920712, 0.013868902809917927, 0.036576468497514725, -0.02026393450796604, -0.022863542661070824, -0.003866915125399828, 0.016520502045750618, 0.009235103614628315, 0.01831422932446003, 0.01169173140078783, 0.014674780890345573, 0.035016704350709915, 0.01548065897077322, -0.0190811138600111, -0.0004423393402248621, -0.02695792354643345, -0.01934107393026352, -0.017716320231556892, 0.00827974732965231, -0.02460527792572975, -0.014661782421171665, -0.040735840797424316, -0.0001288633211515844, 0.00738938245922327, -0.02825772576034069, 0.003938404377549887, -0.013582945801317692, 0.005114726256579161, -0.03842218965291977, -0.00038039559149183333, 0.012705578468739986, 0.023136500269174576, -0.013738921843469143, -0.00024736885097809136, -0.015428666956722736, -0.0036102039739489555, 0.016403518617153168, -0.01653349958360195, -0.01949705183506012, -0.005602152552455664, 0.004624050576239824, -0.009235103614628315, -0.012159661389887333, 0.02687993459403515, -0.001829473301768303, -0.03574459254741669, 0.006024588830769062, 0.007447873707860708, -0.0023055262863636017, 0.02509920485317707, -0.002482624491676688, 0.02555413544178009, -0.009885004721581936, -0.006713484413921833, -0.009943496435880661, -0.006297547370195389, -0.009105122648179531, 0.012543102726340294, -0.026217034086585045, -0.012283142656087875, 0.0071554179303348064, 0.004380337428301573, 0.01900312677025795, 0.012198654934763908, -0.009495063684880733, 0.012874552980065346, -0.009560054168105125, 0.012140164151787758, -0.006693987641483545, -0.014297837391495705, -0.009397578425705433, 0.008877657353878021, 0.009300093166530132, 0.013296988792717457, 0.003600455354899168, 0.02292853221297264, 0.012055676430463791, 0.03389887139201164, 0.05807521566748619, 0.009254599921405315, 0.017690325155854225, -0.011015834286808968, 0.00694095017388463, -0.01736537367105484, 0.04486921429634094, -0.022135652601718903, 0.023864390328526497, -0.007519362960010767, -0.055735569447278976, -0.0024257581681013107, -0.005264203995466232, 0.011529256589710712, 0.030857333913445473, 0.0016881197225302458, -0.00798079278320074, -0.0054396772757172585, 0.02817973867058754, -0.001150325988419354, -0.013017531484365463, -0.005059484858065844, -0.017261389642953873, 0.008422725833952427, 0.001052028383128345, 0.03317098319530487, -0.02752983570098877, -0.05646346136927605, 0.00286606652662158, 0.02802376076579094, -0.019640030339360237, 0.009306592866778374, 0.004422581288963556, 0.031481239944696426, 0.007987291552126408, -0.019809003919363022, 0.0027133396361023188, 0.005030239000916481, 0.0378502756357193, 0.007506364490836859, 0.006661492399871349, -0.0018262238008901477, 0.004549311939626932, 0.007330891210585833, 0.016741467639803886, 0.010944345034658909, -0.0028741902206093073, -0.0011714478023350239, -0.01873016729950905, -0.012270144186913967, 0.007863810285925865, 0.0035809583496302366, 0.008442223072052002, 0.004945752210915089, 0.011477264575660229, 0.007974294014275074, 0.029765497893095016, 0.02417634427547455, 0.0060830800794065, 0.0007079866481944919, 0.027997765690088272, 0.023136500269174576, 0.018288234248757362, -0.01132778637111187, 0.005309696774929762, -0.0025573631282895803, 0.002974925097078085, -0.022915534675121307, 0.007304895203560591, 0.0029570527840405703, 0.007649342995136976, -0.009469067677855492, -0.013803912326693535, -0.02285054326057434, -0.022213639691472054, -0.009092125110328197, -0.015740619972348213, 0.039618007838726044, 0.012666583992540836, -0.04138574004173279, 0.004721535835415125, 0.03374289721250534, 0.01938006840646267, -0.016195550560951233, -0.014999731443822384, 0.007493366487324238, -0.012075173668563366, 0.03941003978252411, 0.002578485058620572, 0.029375556856393814, -0.008266749791800976, -0.005030239000916481, 0.0017059920355677605, -0.01338797528296709, 0.00855270680040121, 0.004416082054376602, 0.03311898931860924, -0.022720564156770706, -0.017729317769408226, -0.010612894780933857, 0.0013712926302105188, -0.012783566489815712, 0.02010795846581459, 0.00042365468107163906, -0.0163775235414505, -0.024007368832826614, -0.006810969673097134, -0.015519652515649796, -0.00017912915791384876, -0.013699928298592567, 0.010671386495232582, -0.012088172137737274, 0.01706641912460327, 0.0037726794835180044, 0.014817759394645691, -0.013543951325118542, 0.009124619886279106, 0.02604806050658226, 0.009904501959681511, -0.011756721884012222, -0.021602733060717583, 0.005806871689856052, 0.11947792768478394, 0.002529742429032922, 0.009521059691905975, 0.011795716360211372, -0.014765766449272633, 0.018535196781158447, -0.00568339042365551, -0.015701625496149063, 0.00778582226485014, 0.028621671721339226, -0.0070904274471104145, -0.02040691301226616, 0.016286537051200867, 0.012101169675588608, -0.004458325915038586, 0.00993699673563242, -0.008175763301551342, -0.0071099246852099895, 0.026217034086585045, 0.017040422186255455, -0.00029225266189314425, -0.013400972820818424, 0.003603704972192645, 0.039851970970630646, -0.004711787216365337, 0.001526456675492227, 0.021342772990465164, -0.007246403954923153, -0.004997744224965572, -0.016169553622603416, 0.0006803658325225115, -0.013030529022216797, -0.008013288490474224, 0.012920046225190163, -0.0298174899071455, 0.00997599121183157, 0.012413122691214085, 0.03103930503129959, 0.0059336028061807156, 0.0034769740886986256, 0.03423682227730751, -0.0062812999822199345, -0.0004918943741358817, -0.0011519507970660925, 0.009852509945631027, 0.0006864586612209678, -0.00594985019415617, 0.01462278887629509, -0.01858718879520893, 0.016234545037150383, 0.029271572828292847, -0.02212265320122242, -0.008884156122803688, -0.032755047082901, -0.02006896398961544, -0.007714333478361368, 0.02350044623017311, 0.02064087800681591, -0.019977979362010956, -0.007181413937360048, -0.0035517127253115177, -0.024228336289525032, 0.01576661504805088, -0.024306323379278183, 0.0007762263412587345, -0.017352376133203506, -0.0059466008096933365, -0.0052739521488547325, -0.02524218149483204, -0.01372592430561781, -0.046169016510248184, -0.018574191257357597, -0.016234545037150383, 0.0046175518073141575, 0.021303778514266014, -0.02608705498278141, 0.030909325927495956, -0.003645948600023985, -0.007675339002162218, 0.010495912283658981, -0.002687343629077077, -0.020172949880361557, -0.012419621460139751, -0.024007368832826614, -0.019016124308109283, 0.028725655749440193, 0.019484052434563637, -0.018743164837360382, -0.036160532385110855, 0.01797628030180931, 0.021342772990465164, -0.014245845377445221, 0.03688842058181763, 0.0017189900390803814, 0.0002504152653273195, -0.0006953948177397251, -0.001629628473892808, 0.022265631705522537, -0.007350388448685408, -0.007259401958435774, -0.0015597641468048096, -0.006645245011895895, -0.02239561267197132, -0.01850919984281063, 0.03127327188849449, 0.013465963304042816, 0.01564963348209858, -0.023734411224722862, 0.003528966335579753, -0.005975846201181412, 0.0030594123527407646, -0.001749860355630517, -0.016312532126903534, 0.002053689444437623, -0.012348132207989693, -0.009898003190755844, -0.011067826300859451, 0.01126929558813572, 0.02307151071727276, -0.03941003978252411, -0.038630157709121704, -0.020315926522016525, 0.012114168144762516, 0.023630425333976746, -0.029947470873594284, 0.015532650984823704, -0.016585491597652435, 0.017651330679655075, 0.012179157696664333, -0.003922156989574432, -0.0001579058007337153, 0.026853937655687332, 0.0077988202683627605, 0.02162872813642025, 0.008845162577927113, -0.022486599162220955, -0.001912335748784244, -0.001795353484340012, -0.012179157696664333, -0.005936852190643549, -0.015025727450847626, 0.036654457449913025, 0.0009504812187515199, -0.0011933819623664021, -0.017729317769408226, -0.015857601538300514, 0.0019903238862752914, 0.003837669501081109, -0.04398534819483757, 0.0032478838693350554, -0.013478961773216724, 0.007967795245349407, -0.019445059821009636, 0.007304895203560591, -0.007298395968973637, -0.01477876491844654, -0.015857601538300514, -0.017508352175354958, 0.014323833398520947, 0.00640803063288331, 0.006499017123132944, 0.006706985644996166, 0.01308252103626728, 0.02441030740737915, -0.00011088947940152138, -0.0006425903411582112, -0.019822001457214355, 0.006547759752720594, -0.04551911726593971, 0.01793728768825531, 0.027295872569084167, 0.02067987248301506, -0.009261099621653557, -0.007187912706285715, -0.01024245098233223, 0.02547614648938179, -0.0019773258827626705, -0.0009724154369905591, -0.004383586812764406, -0.020809853449463844, -0.0019805755000561476, 0.0021186794620007277, 0.0013298613484948874, 0.0037856774870306253, -0.010079975239932537, 0.010794867761433125, 0.024124352261424065, 0.009020635858178139, 0.003437980078160763, 0.022824548184871674, 0.020666874945163727, -0.022148650139570236, 0.032885026186704636, 0.019172100350260735, -0.012705578468739986, 0.0037531822454184294, -0.016013577580451965, -0.01926308684051037, 0.004458325915038586, 0.01770332269370556, 0.012465114705264568, -0.011659236624836922, -0.01969202235341072, -0.03382088616490364, -0.011015834286808968, 0.012972038239240646, -0.013751920312643051, -0.015038725920021534, -0.0007437312742695212, -0.0063690366223454475, -0.017534347251057625, -0.009404078125953674, -0.01793728768825531, -0.034366801381111145, 0.02342245727777481, 0.012192156165838242, -0.012036179192364216, 0.022330623120069504, 0.01249111071228981, -0.04109978303313255, 0.021277781575918198, -0.011548752896487713, 0.0383961945772171, 0.01740436814725399, 0.023279478773474693, -0.005452675279229879, -0.006680989637970924, -0.004162620287388563, 0.012244148179888725, 0.0025427404325455427, -0.0022437856532633305, 0.02014695294201374, 0.01728738471865654, 0.007915803231298923, -0.011314788833260536, -0.00024736885097809136, 0.016247542575001717, -0.016897443681955338, -0.01319300476461649, 0.05149821192026138, 0.012380627915263176, 0.0015516403364017606, -0.011763220652937889, 0.0016531874425709248, -0.004269854165613651, 0.03233910724520683, -0.015090717934072018, -0.009930497966706753, -0.013816909864544868, -2.6605350285535678e-05, -0.014700776897370815, 0.02578810043632984, -0.0492885448038578, 0.03358691930770874, -0.018704170361161232, -0.040111932903528214, 0.02395537681877613, -0.017924288287758827, -0.024683266878128052, 0.01308252103626728, 0.0019367070635780692, 0.01572762057185173, -0.006242305971682072, -0.002003322122618556, 0.01900312677025795, 0.004926254972815514, -0.01606556959450245, -0.01592259109020233, -0.002315274905413389, 0.02646399661898613, -0.032807037234306335, 0.008968643844127655, -0.012712077237665653, 0.022824548184871674, 0.015298685990273952, -0.012640587985515594, -0.009410576894879341, 0.0037011902313679457, 0.00518946535885334, -0.0242543313652277, 0.010222953744232655, -0.0006198437768034637, -0.010554403997957706, 0.003225137246772647, 0.0035972059704363346, 0.0019107110565528274, 0.0027182139456272125, -0.000591410556808114, -7.220001862151548e-05, 0.006732981652021408, -0.01477876491844654, -0.0034314810764044523, -0.0009886629413813353, 0.023747408762574196, -0.00016633421182632446, 0.005202463362365961, -0.01100283581763506, 0.01462278887629509, -0.034288812428712845, 0.0037726794835180044, 0.019224092364311218, 0.0325990691781044, 0.0016799959121271968, 0.003707689233124256, -0.010352933779358864, -0.01329049002379179, 0.03660246357321739, -0.014154858887195587, -0.024241333827376366, -0.02162872813642025, 0.006232557352632284, 0.015857601538300514, 0.00011200649896636605, -0.030025457963347435, 0.0070904274471104145, -0.0004407145897857845, 0.0030074201058596373, 0.009755024686455727, -0.03153323009610176, 0.012302638962864876, 0.008676188066601753, 0.013582945801317692, 0.03054537996649742, -0.013452965766191483, 0.0018912139348685741, 0.013595943339169025, -0.010411425493657589, 0.032391101121902466, -0.03990396484732628, -0.015506654977798462, -0.004087881650775671, -0.009469067677855492, -0.019029121845960617, -0.015506654977798462, -0.016689475625753403, -0.01713140867650509, -0.013998882845044136, 0.009949995204806328, -0.005351940635591745, -0.014765766449272633, 0.037772286683321, 0.015428666956722736, 0.0019350823713466525, 0.021849695593118668, -0.004185366909950972, -0.008559205569326878, -0.009872007183730602, -0.0023558936081826687, -0.015753617510199547, -0.016546497121453285, -0.019185097888112068, 0.0082472525537014, 0.008942647837102413, -0.021108807995915413, -0.020133955404162407, 0.012354631908237934, -0.03527666628360748, 0.024384312331676483, -0.0011779468040913343, 0.02105681598186493, 0.031247274950146675, 0.03673244267702103, -0.007876808755099773, -0.002869316143915057, -0.005218710750341415, 0.015012728981673717, -0.006089578848332167, 0.0005308884428814054, 0.030207430943846703, -0.02060188353061676, -0.009735527448356152, -0.006255303975194693, -0.030259422957897186, -0.03909808769822121, 0.018210245296359062, -0.009800517931580544, 0.008351236581802368, 0.01548065897077322, -0.01847020722925663, -0.0039644003845751286, 0.0009870382491499186, -0.007623346988111734, 0.0035647109616547823, 0.011737224645912647, 0.02597007155418396, -0.03621252253651619, -0.0007839439203962684, -0.010482914745807648, -0.0007157042273320258, 0.0013989134458824992, -0.01420685090124607, -0.03548463433980942, 0.010365932248532772, 0.018821153789758682, -2.9626378818647936e-05, 0.001472839736379683, 0.004949001595377922, -0.019523046910762787, 0.03023342788219452, 0.012978537008166313, 0.0002788484562188387, 0.011451267637312412, 0.0024858741089701653, -0.010957342572510242, -0.029427548870444298, -0.006437276490032673, -0.023630425333976746, -0.013998882845044136, -0.008500714786350727, -0.042633552104234695, 0.009001138620078564, -0.03519867733120918, 0.011119818314909935, -0.008630694821476936, 0.0037304358556866646, -0.014427818357944489, -0.0030561627354472876, -0.024579282850027084, 0.02190168760716915, 0.01596158556640148, 0.005472172517329454, -0.003918907139450312, -0.015636635944247246, -0.013998882845044136, -0.010755873285233974, -0.00770133500918746, -0.009586050175130367, -0.018639180809259415, 0.016273539513349533, -0.01180221512913704, -0.0431014820933342, -0.032053153961896896, 0.01306302472949028, 0.013777916319668293, -0.021420760080218315, -0.0011730726109817624, 0.18945933878421783, 0.007265901193022728, 0.002130052773281932, 0.007382883224636316, -0.012978537008166313, 0.006209810730069876, -0.005728883668780327, 0.005712635815143585, -0.028959620743989944, -0.0026028563734143972, -0.022421609610319138, 0.024631274864077568, -0.020289931446313858, 0.013699928298592567, 0.014713774435222149, -0.03249508515000343, -0.00394165376201272, -0.02768581360578537, -0.012003684416413307, 0.00012845713354181498, -0.003662196220830083, -0.0038604161236435175, -0.001883090240880847, 0.006560757756233215, -0.013894898816943169, -0.007681838236749172, -0.009930497966706753, -0.0062683019787073135, 0.046662941575050354, 0.01458379440009594, -0.005686639808118343, -0.026139046996831894, 0.002867691218852997, -0.000732357962988317, -0.007902804762125015, 0.014388823881745338, -0.015740619972348213, 0.002788078272715211, 0.0077988202683627605, 0.03423682227730751, -0.0047410330735147, -0.015909593552350998, -0.01941906288266182, -0.0022567836567759514, 0.005810121074318886, -0.0039449031464755535, -0.021225789561867714, -0.002562237437814474, -0.005862113554030657, 0.010931346565485, -0.04224361106753349, -0.019224092364311218, -0.0032283866312354803, 0.02296752668917179, 0.030857333913445473, -0.028049757704138756, 0.022785553708672523, -0.0009691659361124039, 0.028283722698688507, 0.01691044308245182, -0.026671966537833214, 0.01801527477800846, -0.015025727450847626, 0.018405215814709663, 0.00675897765904665, 0.0076103489845991135, -0.018444210290908813, 0.012939542531967163, 0.0009179861517623067, -0.012725075706839561, 0.012829059734940529, -0.017677325755357742, -0.01892513781785965, -0.010593397542834282, -0.0011885077692568302, -0.00667449040338397, 0.04385536536574364, -0.007837814278900623, 0.028205733746290207, 0.008429225534200668, 0.03054537996649742, -0.0016580617520958185, 0.008461720310151577, 0.012653586454689503, 0.005615150555968285, -0.00594985019415617, 0.017222395166754723, 0.02292853221297264, -0.01710541360080242, -0.012055676430463791, -0.002721463330090046, -0.005049736239016056, 0.00818876177072525, 0.005855614319443703, 0.014401821419596672, 0.00917661190032959, 0.003954651765525341, 0.01653349958360195, -0.011009334586560726, 0.022980524227023125, -0.018899140879511833, 0.017469357699155807, 0.01007347647100687, 0.0019903238862752914, -0.037980254739522934, 0.00586536293849349, -0.008526710793375969, -0.003033416112884879, 0.007031936664134264, -0.008260251022875309, -0.022148650139570236, -0.02597007155418396, -0.01490874495357275, -0.00573213305324316, 0.034444790333509445, 0.005589154548943043, 0.011522756889462471, -0.0006031900411471725, 0.008468219079077244, 0.0034639760851860046, -0.008422725833952427, -0.005267453379929066, 0.00533244339749217, 0.007434875704348087, -0.00907912664115429, -0.02734786458313465, -0.04245157912373543, 0.03631650656461716, 0.007369885221123695, -0.025723109021782875, -0.0007486055255867541, -0.014752768911421299, 0.019886992871761322, -0.0019448308739811182, -0.036654457449913025, 0.006232557352632284, -0.013985884375870228, -0.006089578848332167, 0.011607244610786438, 0.030519384890794754, -0.009573051705956459, -0.01232213620096445, -0.0005036738002672791, -0.02101782150566578, -0.009820015169680119, 0.000532513193320483, 0.0016028201207518578, -0.00798079278320074, 0.0037141882348805666, -0.016702473163604736, 0.012335134670138359, 0.01262759044766426, -0.04167169705033302, -0.03111729398369789, 0.01401188038289547, -0.020237939432263374, -0.009462568908929825, -0.03249508515000343, -0.007733830250799656, 0.03145524114370346, -0.015064721927046776, -0.007681838236749172, 0.03483473137021065, -0.010586898773908615, -0.007532360963523388, 0.013777916319668293, -0.1622154712677002, 0.03270305320620537, 0.00394165376201272, 0.000889552989974618, 0.021680720150470734, 0.0031341509893536568, 0.0061675673350691795, -0.010482914745807648, -0.030831336975097656, 0.026853937655687332, 0.037902265787124634, 0.013089020736515522, -0.03431481122970581, -0.01809326373040676, -0.024683266878128052, -0.02064087800681591, -0.003707689233124256, 0.020016971975564957, 0.015285688452422619, 0.02018594741821289, -0.010372431017458439, -0.0246442724019289, 0.020848846063017845, 0.011028831824660301, -0.030701356008648872, -0.004682541824877262, -0.023864390328526497, 0.028621671721339226, 0.01186070591211319, 0.0013916019815951586, -0.010502411983907223, -0.007252903189510107, 0.036654457449913025, -0.020536893978714943, -0.0015638259937986732, 0.0008538083638995886, -0.01880815625190735, -0.014674780890345573, -0.019315078854560852, 0.012842058204114437, 0.020250936970114708, -0.006771975662559271, 0.014219849370419979, -0.03064936399459839, -0.0008538083638995886, 0.0540718212723732, 0.0038311704993247986, -0.01713140867650509, -0.0015678878407925367, 0.004955500364303589, 0.02010795846581459, -0.008325240574777126, 0.019899990409612656, -0.0027068406343460083, 0.009020635858178139, 0.012244148179888725, 0.005855614319443703, 0.016247542575001717, 0.0007928800769150257, -0.0017059920355677605, -0.011620242148637772, -0.007519362960010767, 0.0149477394297719, -0.019847998395562172, -0.0004055792815051973, -0.00967053696513176, -0.025541137903928757, 0.016650481149554253, -0.009826513938605785, 0.0076103489845991135, 0.015142709948122501, -0.029271572828292847, 0.0032933768816292286, -0.011353782378137112, -0.0081497672945261, 0.027867784723639488, -0.008799669332802296, -0.006726482883095741, -0.0030984063632786274, -0.007116423919796944, 0.0006109076202847064, 0.036342501640319824, -0.001959453569725156, -0.006973445415496826, 0.02577510103583336, -0.007116423919796944, -0.013712925836443901, 0.04817071557044983, -0.027295872569084167, 0.007129421923309565, -0.026412004604935646, -0.04970448091626167, 0.011379779316484928, 0.002079685451462865, 0.013608941808342934, 0.02014695294201374, 0.0027848288882523775, 0.01511671394109726, -0.01511671394109726, -0.028621671721339226, -0.004974997602403164, 0.01315401028841734, -0.0217457115650177, 0.01269907969981432, 0.02342245727777481, 0.033612918108701706, -0.013712925836443901, 0.007194411940872669, 0.009417075663805008, 0.022525593638420105, -0.009820015169680119, -0.006391783244907856, -0.001039030379615724, 0.017573341727256775, -0.019107110798358917, 0.004854765720665455, 0.020094960927963257, -0.012445617467164993, 0.01126929558813572, 0.011581248603761196, 0.04250357300043106, -0.020861845463514328, -0.013699928298592567, -0.0019903238862752914, -0.010222953744232655, -0.012731574475765228, -0.1041402518749237, -0.005062734242528677, 0.025697113946080208, 0.004100879654288292, -0.007844313979148865, 0.008708682842552662, -0.00911812111735344, -0.00640803063288331, -0.0050854808650910854, 0.001961078494787216, -0.03618652746081352, -0.008747677318751812, 0.03340494632720947, -0.012868054211139679, 0.035510629415512085, -0.010404926724731922, 0.0024533788673579693, 0.010177460499107838, -0.006404781248420477, -0.0029944221023470163, -0.015974583104252815, -0.011399275623261929, 0.011106819845736027, -0.0322091281414032, 0.017989279702305794, -0.02940155379474163, -0.015857601538300514, 0.016247542575001717, 0.022785553708672523, 0.011217303574085236, -0.013504957780241966, 0.0011040205135941505, 0.008520211093127728, -0.005176466889679432, 0.012484611943364143, -0.024046363309025764, -0.006411280483007431, 0.0021560490131378174, 0.006726482883095741, -0.016884446144104004, -0.013595943339169025, -0.021524744108319283, 0.047052882611751556, -0.03956601768732071, 0.008208259008824825, -0.013777916319668293, -0.010911849327385426, 0.003337245201691985, 0.010879354551434517, -0.03431481122970581, -0.01850919984281063, -0.012192156165838242, -0.023747408762574196, -0.006395032629370689, 0.02330547571182251, 0.00586536293849349, -0.014934740960597992, 0.015220697969198227, -0.004724785219877958, 0.006706985644996166, 0.00559890316799283, 0.02726987563073635, -0.0001707007468212396, -0.00720740994438529, 0.03818822279572487, 0.018223244696855545, -0.008708682842552662, 0.020549891516566277, 0.00415937090292573, -0.003541964339092374, -0.011542254127562046, -0.009001138620078564, -0.013855904340744019, -0.0036264515947550535, -0.02642500400543213, -0.025203188881278038, -0.03072735294699669, -0.012653586454689503, 0.002108931075781584, -0.017872296273708344, -0.01732637919485569, -0.013595943339169025, 0.014570795930922031, -0.006778474897146225, 0.0011283918283879757, 0.028699658811092377, 0.003145524300634861, -0.013244996778666973, 0.022603580728173256, -0.03262506425380707, 0.038214221596717834, 0.02597007155418396, 0.023474449291825294, -0.030285419896245003, -0.019016124308109283, 0.02105681598186493, 0.04593505337834358, -0.010268446989357471, -0.020055966451764107, 0.015259692445397377, -0.03054537996649742, 0.008936148136854172, -0.07351688295602798, 0.015194701962172985, -0.0027295872569084167, -0.011828211136162281, -0.001070713042281568, 0.017417365685105324, 0.015025727450847626, 0.0062488047406077385, -0.0032316362485289574, -0.014492807909846306, -0.015519652515649796, -0.0020861844532191753, 0.024813247844576836, 0.007753327488899231, -0.030909325927495956, -0.01507771946489811, 0.02654198557138443, 0.029531532898545265, -0.007103425450623035, 0.016325531527400017, -0.0030301667284220457, -0.006229307968169451, 0.025996068492531776, -0.004815771710127592, -0.04372538626194, -0.021264784038066864, -0.004253606777638197, 0.020510897040367126, -0.006791472900658846, 0.00012327822332736105, 0.008325240574777126, -0.03743433952331543, -0.016312532126903534, 0.04078783094882965, -0.008136769756674767, -0.01983500085771084, -0.033300962299108505, 0.02677595056593418, 0.01401188038289547, 0.04900258779525757, -0.01687144860625267, -0.012250646948814392, 0.035354651510715485, -0.024839242920279503, -0.0015548898372799158, -0.004403084050863981, 0.0017742316704243422, 0.0071229226887226105, 0.018561191856861115, 0.019964979961514473, -0.012348132207989693, 0.01912010833621025, 0.024930229410529137, -0.028491690754890442, 0.007850812748074532, 0.008305744268000126, 0.0037531822454184294, 0.026645969599485397, 0.002565487055107951, -0.030259422957897186, 0.0484306737780571, -0.0005337317707017064, 6.905205373186618e-05, 0.011984187178313732, 0.020770858973264694, -0.021355770528316498, -0.020380917936563492, 0.010053979232907295, 0.007870309986174107, -0.007850812748074532, 0.011587747372686863, -0.023435454815626144, 0.0270359106361866, 0.005290200002491474, 0.005127724260091782, 0.013011031784117222, 0.0005694763967767358, -0.03733035549521446, -0.005975846201181412, 0.00881266687065363, -0.00900763738900423, -0.008240753784775734, -0.021693719550967216, 0.012471613474190235, 0.02239561267197132, -0.025333167985081673, -0.01759933866560459, -0.017924288287758827, -0.00015617950703017414, 0.006830466911196709, 0.007915803231298923, 0.02285054326057434, -0.0001997432264033705, 0.001837597112171352, -0.012133664451539516, -0.00657700514420867, -0.007239905185997486, -0.009430074132978916, -0.0005560721619985998, 0.017963282763957977, -0.01596158556640148, 0.012185657396912575, 0.005917354952543974, -0.026360012590885162, -0.0029261824674904346, -0.00944307167083025, -0.017417365685105324, -0.03579658642411232, -0.004133374895900488, -0.0012827435275539756, -0.0012478112475946546, 0.040007948875427246, -0.00046630448196083307, 0.</t>
+  </si>
+  <si>
+    <t>[-0.013052024878561497, -0.007853172719478607, -0.02428283728659153, -0.031567689031362534, -0.00043713950435630977, 0.0061934152618050575, 0.006703612860292196, -0.0052602048963308334, -0.007917754352092743, 0.0007326022023335099, -0.01931002177298069, -0.006577678024768829, -0.031128529459238052, 0.0051697902381420135, -0.028777744621038437, 0.012412662617862225, 0.012212458997964859, -0.005518532823771238, -0.002371774520725012, -0.03301432356238365, -0.012993901036679745, 0.020330417901277542, -0.0014958808897063136, -0.0022878178860992193, -0.016520079225301743, -0.025393648073077202, 0.008240665309131145, -0.031696852296590805, 0.010120001621544361, 0.0028157758060842752, -0.01649424619972706, -0.0057994648814201355, -0.040118347853422165, -0.01455678604543209, -0.011566638946533203, -0.03280766308307648, 0.014957194216549397, 0.005818839184939861, 0.004230122081935406, 0.019206691533327103, 0.010139375925064087, 0.008182541467249393, 0.016235917806625366, -0.012767864391207695, -0.019245440140366554, 0.03769006207585335, 0.011708718724548817, 0.007775674574077129, 0.003416388528421521, -0.009312726557254791, -9.64693826972507e-05, 0.023688683286309242, -0.00849253498017788, -0.007181519642472267, -0.03324681892991066, -0.018341291695833206, 0.0028948886319994926, -0.006542157847434282, 0.017772970721125603, -0.03787089139223099, 0.007717550732195377, -0.03280766308307648, -0.03567510470747948, 0.004795214626938105, -0.015448017977178097, -0.011502056382596493, -0.018044214695692062, 0.01881919801235199, -0.03050854243338108, -0.012748489156365395, 0.037380069494247437, 0.03807755559682846, -0.005618635099381208, 0.0007410785765387118, 0.024515332654118538, -0.04412243142724037, -8.07275137049146e-05, 0.01035249698907137, 0.001880951109342277, 0.009532305411994457, 0.014233876019716263, -0.024566998705267906, 0.016765490174293518, 0.026736954227089882, 0.009138355031609535, -0.013161813840270042, -0.010591450147330761, 0.02406325750052929, -0.01671382412314415, -0.007187977898865938, 0.006923191715031862, -0.00414616521447897, 0.015486766584217548, -0.010481661185622215, -0.01725631393492222, -0.015021775849163532, -0.008686280809342861, 0.018470454961061478, 0.005621864460408688, -0.004120332654565573, -0.0029239505529403687, -0.0004633759381249547, -0.00997146312147379, -0.009609803557395935, -0.03045687824487686, -0.032781828194856644, 0.0037651313468813896, -0.016055088490247726, 0.02616863138973713, 0.00019021421030629426, 0.0033614938147366047, 0.03769006207585335, 0.011986421421170235, -0.008634614758193493, 0.012432037852704525, -0.03105103224515915, -0.005634780507534742, 0.0049146912060678005, 0.035649269819259644, 0.00044682680163532495, 0.0054055145010352135, 0.01818629540503025, 0.007962962612509727, -0.022513289004564285, 0.022707035765051842, 0.021337896585464478, -0.0010220103431493044, -0.012122043408453465, 0.0039039826951920986, -0.0053021833300590515, -0.0029255652334541082, -0.007530262693762779, 0.023714514449238777, -0.0012641928624361753, 0.004869483876973391, 0.01586134172976017, -0.0371992401778698, 0.032678499817848206, -0.0054862420074641705, -0.03647591918706894, 0.022694120183587074, 0.012638700194656849, -0.017617972567677498, -0.001704965136013925, -0.006451743189245462, 0.02069207653403282, -0.013239312916994095, 0.020898738875985146, 0.009512930177152157, 0.008356912061572075, 0.018651286140084267, -0.004882400389760733, 0.012154335156083107, -0.00011806399561464787, 0.03939502686262131, 0.015189689584076405, -0.013329727575182915, 0.02952689677476883, -0.004013772122561932, 0.014001380652189255, -0.04017001390457153, 0.020149588584899902, -0.007562553510069847, 0.007691717706620693, 0.028932742774486542, 0.008892943151295185, 0.0010236249072477221, 0.013181189075112343, -0.000826649775262922, 0.020227085798978806, 0.011883090250194073, 0.02087290585041046, -0.007523804437369108, 0.008395661599934101, -0.0019455330912023783, 0.02056291326880455, -0.02593613602221012, 0.015008860267698765, -0.014595534652471542, 0.002437971066683531, -0.026633622124791145, -0.012483702972531319, 0.017307979986071587, 0.020369166508316994, -0.022771617397665977, 0.018044214695692062, -0.014053045772016048, -0.016907570883631706, 0.015435101464390755, -0.028700247406959534, 0.0021425082813948393, 0.001105159753933549, -0.00916418805718422, -0.02437325194478035, -0.6315604448318481, -0.008415035903453827, -0.02880357764661312, -0.006639030762016773, -0.009118979796767235, -0.011967047117650509, 0.00806629378348589, -0.0006248309509828687, -0.022384125739336014, -0.011605387553572655, -0.0145826181396842, 0.02213871479034424, -0.004546573851257563, -0.0051794773899018764, -0.028700247406959534, -0.01976209692656994, 0.003526177955791354, -0.020059173926711082, 0.006374244578182697, -0.004846880212426186, -0.0244120005518198, -0.0020391771104186773, 0.004423867911100388, 0.0065744491294026375, 0.0026995281223207712, 0.030973533168435097, 0.023856595158576965, -0.014711782336235046, -0.0033259736374020576, 0.013781801797449589, -0.036992575973272324, 0.019645849242806435, -0.022564955055713654, -0.01580967754125595, 0.03766423091292381, -0.010145834647119045, -0.03136102482676506, 0.026762785390019417, 0.02257787249982357, 0.03668258339166641, -0.016377998515963554, -0.00084118073573336, 0.0100166704505682, -0.023662850260734558, -0.010720614343881607, 0.02056291326880455, 0.03955002501606941, 0.015293020755052567, -0.008867110125720501, -0.0031661333050578833, 0.009977920912206173, -0.02096332237124443, -0.0095452219247818, 0.019297106191515923, 0.0072913090698421, -0.006645489018410444, 0.045724064111709595, -0.007569011766463518, 0.004675737582147121, 0.0013223167043179274, 0.009939171373844147, 0.0011802363442257047, -0.0043237656354904175, -0.020278751850128174, -0.009932713583111763, 0.0014627826167270541, -0.04655071347951889, 0.00891877617686987, -0.015603014267981052, 0.021673724055290222, 0.0069038174115121365, 0.021182900294661522, -0.017269229516386986, -0.0044561587274074554, 0.001485386281274259, 0.027744432911276817, 0.0057704029604792595, -0.0047629233449697495, 0.0034874286502599716, 0.011359975673258305, 0.006506637670099735, -0.013652637600898743, -0.011502056382596493, 0.02388242818415165, 0.016300499439239502, 0.0010720613645389676, -0.007401098497211933, 0.011437474749982357, 0.01072707213461399, 0.02486407570540905, 0.020356250926852226, 0.023327022790908813, -0.01863836869597435, -0.02665945515036583, -0.018793364986777306, 0.04076416790485382, -0.01464720070362091, 0.021312063559889793, -0.00686506787315011, -0.026530291885137558, -0.009235227480530739, -0.02293953113257885, -0.017682556062936783, -0.005977065302431583, 0.013077857904136181, 0.009661469608545303, -0.01473761536180973, -0.009345017373561859, 0.04763569310307503, -0.038284216076135635, -0.001002635806798935, 0.014272624626755714, 0.005282808560878038, 0.0050890627317130566, -0.009118979796767235, -0.021738305687904358, 0.03614009544253349, 0.024360334500670433, 0.02181580476462841, -0.019994590431451797, 0.005137498956173658, 0.0052376012317836285, -0.012012254446744919, -0.013988464139401913, 0.00462730135768652, -0.0010010212427005172, -0.0012480474542826414, -0.003774818731471896, -0.018741700798273087, 0.013407225720584393, 0.008989816531538963, 0.008602323941886425, 0.02455408126115799, -0.015060525387525558, 0.01498302724212408, 0.01658466085791588, 0.026814451441168785, -0.00997146312147379, 0.02119581587612629, -0.027847763150930405, -0.0040751248598098755, -0.0036101345904171467, 0.016365082934498787, -0.020446665585041046, -0.009538763202726841, -0.029010239988565445, -0.02397284284234047, -0.00443678442388773, -0.02620737999677658, 0.017282146960496902, -0.017824634909629822, -0.006144978571683168, -0.02083415724337101, 0.0026817680336534977, 0.013219937682151794, 0.023314107209444046, -0.04050583764910698, -0.010746447369456291, -0.020136671140789986, 0.00024117346038110554, 0.01187017373740673, 0.018625453114509583, -0.01653299480676651, -0.008544200100004673, 0.0022006321232765913, 0.0037877350114285946, -0.014078878797590733, 0.0027269755955785513, 0.006461430341005325, -0.023236608132719994, -0.015305937267839909, 4.1751263779588044e-05, 0.007846714928746223, 0.034925952553749084, 0.014259708113968372, 0.02208704873919487, -0.016868822276592255, -0.018018381670117378, -0.016326332464814186, 0.005421659909188747, 0.022345377132296562, -0.02333994023501873, 0.0038071097806096077, -0.02370159886777401, -0.0021796429064124823, 0.014685950241982937, 0.029371900483965874, -0.0056606135331094265, -0.0019487622193992138, 0.034564293920993805, 0.011715177446603775, 0.0026769244577735662, 0.006542157847434282, -0.013833466917276382, 0.004378660582005978, -0.010488118976354599, 0.0014191897353157401, 0.0009558137971907854, -0.008841278031468391, 0.007904838770627975, 0.011347060091793537, 0.014272624626755714, 0.039860017597675323, -0.0017889217706397176, -0.013846383430063725, -0.04017001390457153, 0.024980323389172554, -0.014724698849022388, 0.03872337564826012, -0.017902133986353874, -0.012225375510752201, -0.01580967754125595, -0.02415367215871811, -0.011967047117650509, -0.011424558237195015, 0.012186625972390175, 0.020821241661906242, -0.016946319490671158, 0.000600209110416472, -0.002977230818942189, 0.020046256482601166, 0.0010066721588373184, 0.00782088190317154, 0.01216079294681549, -0.0324460044503212, 0.007930670864880085, -0.00018617782916408032, 0.03226517513394356, -0.014040129259228706, -0.01845753937959671, -0.025781139731407166, 0.029320234432816505, -0.005796235520392656, 0.032187674194574356, 0.006500179413706064, 0.029449397698044777, 0.010765821672976017, -0.013019734062254429, -0.0019875115249305964, -0.010494576767086983, 0.013084315694868565, 0.0267886184155941, 0.005547594744712114, -0.001463589840568602, -0.007717550732195377, -0.0013053639559075236, 0.03477095440030098, 0.016210084781050682, -0.007756299804896116, -0.024696161970496178, -0.011463307775557041, -0.007472138851881027, 0.012432037852704525, 0.014375955797731876, 0.011611846275627613, -0.020821241661906242, -0.002634946024045348, -0.006335495505481958, 0.021118318662047386, 0.0068456935696303844, 0.023365773260593414, -0.022681202739477158, 0.009893964044749737, 0.018961278721690178, 0.011166229844093323, -0.012302873656153679, 0.01626175083220005, -0.0007309876382350922, -0.013484724797308445, -0.02746027149260044, -0.016003422439098358, -0.028467752039432526, 0.005315099842846394, -0.018922530114650726, -0.018845031037926674, -0.013562222942709923, -0.010216874070465565, 6.417837721528485e-05, 0.006787569727748632, 0.032781828194856644, 0.004536886233836412, -0.03422846645116806, 0.023856595158576965, 0.03180018439888954, -0.0014934591017663479, -0.007924213074147701, -0.029320234432816505, 0.016235917806625366, -0.024721994996070862, -0.0015919465804472566, -0.0058575887233018875, 0.017178814858198166, -0.025458229705691338, 0.010488118976354599, -0.023365773260593414, -0.016558827832341194, 0.010927276685833931, -0.027253609150648117, 0.01525427121669054, -0.005189164541661739, 0.00711047975346446, -0.0040751248598098755, -0.007569011766463518, -0.0011374506866559386, 0.011276019737124443, -0.007097563240677118, 0.007368807680904865, -0.004472304601222277, -0.0016371540259569883, 0.01675257459282875, -0.0011471379548311234, -0.010623740963637829, 0.0054119727574288845, -0.006800485774874687, 0.009571054019033909, 0.010862695053219795, -0.0012133346172049642, 0.015783844515681267, 0.010823945514857769, 0.008046918548643589, 0.01577092707157135, -0.023817846551537514, -0.0060028983280062675, -0.005744569934904575, 0.07507013529539108, -0.001412731478922069, 0.0028222340624779463, 0.020989153534173965, -0.0050180223770439625, 0.011321227066218853, -0.01952960155904293, 0.003438992192968726, -0.0003190755087416619, 0.021221648901700974, 0.0029304088093340397, -0.013135981746017933, 0.031386859714984894, 0.0011503670830279589, -0.003842629725113511, -0.010565617121756077, 0.007659426890313625, -0.0015120264142751694, 0.042856622487306595, 0.025277400389313698, -0.008718571625649929, -0.010933734476566315, -0.008983357809484005, 0.022784534841775894, 0.022280793637037277, -0.00410095788538456, 0.022461624816060066, -0.025109486654400826, -0.0033905557356774807, -0.015422184951603413, -0.0010567231802269816, 0.0001419795153196901, -0.008531283587217331, -0.0039072115905582905, 0.0064129941165447235, 0.011456849053502083, 0.012044545263051987, 0.0157321784645319, 0.009532305411994457, 0.0024395855143666267, 0.020330417901277542, 0.014479286968708038, 0.011192062869668007, -0.0045724064111709595, 0.014053045772016048, 0.004882400389760733, -0.0012246364494785666, 0.010946650989353657, -0.025057820603251457, -0.032420169562101364, 0.05096812546253204, -0.0150734419003129, -0.0072913090698421, -0.012147876434028149, -0.004320536740124226, 0.0017017360078170896, 0.024360334500670433, 0.020537080243229866, -0.013575139455497265, 0.029268568381667137, -0.005092291627079248, -0.022681202739477158, -0.0021182899363338947, -0.0040815831162035465, -0.010733530856668949, -0.01894836314022541, -0.018870864063501358, 0.007336516864597797, -0.0145826181396842, -0.030405212193727493, -0.018870864063501358, -0.02691778354346752, -0.021260399371385574, -0.0007176676299422979, 0.014518036507070065, 0.0065227835439145565, 0.019465018063783646, -0.015577181242406368, 0.016390914097428322, 0.032910995185375214, 0.006942566484212875, -0.0052279140800237656, -0.022422874346375465, -0.037380069494247437, -0.026581956073641777, 0.017411310225725174, 0.019155025482177734, -0.0315418541431427, -0.0314643569290638, 0.01119852066040039, 0.006858609616756439, 0.0061288331635296345, 0.010746447369456291, 0.0006551038241013885, -0.011508515104651451, 0.006109458394348621, 0.00029970091418363154, 0.001273880247026682, -0.002517083892598748, -0.006038418039679527, 0.0004532849998213351, -0.012076836079359055, -0.005437805317342281, -0.017359646037220955, 0.0006268491852097213, 0.013342644087970257, 0.008899400942027569, 0.0022216213401407003, 0.0043463693000376225, 0.01274203136563301, 0.011431016027927399, -0.029759392142295837, 0.019697513431310654, -0.008415035903453827, -0.043889936059713364, -0.0007539950311183929, -0.015189689584076405, 0.02321077510714531, 0.03087020292878151, -0.016739657148718834, -0.020795408636331558, -0.021880386397242546, 0.02548406273126602, 0.029759392142295837, -0.007879005745053291, 0.014750531874597073, -0.02020125277340412, 5.701380723621696e-05, 0.0030692601576447487, -0.002875514095649123, 0.0034648249857127666, 0.01272265613079071, -0.011586013250052929, -0.03324681892991066, -0.014660117216408253, -0.032497670501470566, -0.012825988233089447, 0.010397704318165779, -0.016029255464673042, -0.011631220579147339, -0.03257516771554947, 0.029681893065571785, -0.027356941252946854, -0.015305937267839909, -0.020666243508458138, -0.02638821117579937, -0.0015346300788223743, -0.014143460430204868, 0.0039653354324400425, 0.012302873656153679, -0.0051633319817483425, 0.021221648901700974, 0.011902464553713799, -0.007937129586935043, 0.00168236147146672, -0.0014191897353157401, -0.0017388707492500544, -0.020394999533891678, 9.40475583774969e-05, -0.01449220348149538, 0.025303233414888382, 0.014763448387384415, 0.021919135004281998, 0.012503077276051044, -0.006651947274804115, 0.0028625978156924248, 0.012012254446744919, -0.009784175083041191, -0.040970828384160995, 0.027744432911276817, 0.016248835250735283, 0.03428013250231743, -0.010191041976213455, -0.012767864391207695, -0.010604366660118103, -0.006871526129543781, -0.013872216455638409, 0.00011665125930448994, -0.015874259173870087, -0.028054427355527878, -0.03203267976641655, -0.00095904286717996, -0.012884112074971199, -0.0056444681249558926, -0.0058059231378138065, 0.017411310225725174, 0.01001021172851324, -0.01283244602382183, 0.0024718765635043383, -0.020976237952709198, 0.021389562636613846, -0.04156498238444328, 0.03521011397242546, 0.014259708113968372, 0.018134629353880882, -0.007349432911723852, 0.0039717936888337135, -0.01854795403778553, -0.004326994996517897, -0.016197169199585915, 0.003117696614935994, -0.0042204344645142555, 0.00715568708255887, -0.007485055364668369, -0.03068937174975872, 0.023262441158294678, -0.0013707532780244946, -0.008176082745194435, 0.008892943151295185, -0.014789281412959099, -0.021040819585323334, -0.00988104846328497, 0.0005142342997714877, -0.008188999257981777, -0.008008169941604137, 0.00887356884777546, -0.011437474749982357, 0.017178814858198166, -0.012025170959532261, -0.03262683376669884, 0.023262441158294678, -0.007891922257840633, 0.017307979986071587, 0.006503408774733543, 0.030405212193727493, 0.004662821535021067, 0.004136478062719107, 0.012102669104933739, 0.044329095631837845, 0.007368807680904865, -0.0053538489155471325, 0.009609803557395935, 0.023675765842199326, 0.0017679325537756085, -0.007149228826165199, 0.003665029304102063, 0.018625453114509583, -0.0039717936888337135, -0.007330058608204126, 0.039446692913770676, 0.02947523072361946, -0.004795214626938105, -0.019297106191515923, -0.007904838770627975, 0.013445975258946419, -0.0029740016907453537, -0.02406325750052929, -0.0006115109426900744, -0.02513531967997551, -0.009054398164153099, -0.021118318662047386, 0.008460244163870811, -0.021492894738912582, 0.02025291882455349, -0.010475202463567257, 0.003752215066924691, 0.03518427908420563, -0.03936919569969177, -0.01648133061826229, 0.007497971877455711, -0.0068198605440557, 0.010552700608968735, 0.0012423964217305183, -0.01564176380634308, 0.025961969047784805, -0.0004851723788306117, -0.010914360173046589, 0.0027867138851433992, 0.015112191438674927, 0.027847763150930405, -0.0031725913286209106, 0.007297767326235771, 0.006038418039679527, -0.005502387415617704, 0.03332431986927986, -0.0033485773019492626, 0.0056961337104439735, 0.017643805593252182, -0.006619656458497047, -0.029423564672470093, 0.0021441227290779352, -0.022771617397665977, -0.014337207190692425, -0.01473761536180973, 0.00031443368061445653, 0.0010647958843037486, -0.008737945929169655, -0.01684298925101757, -0.0009776102378964424, -0.01440178882330656, -0.005841443315148354, -0.015435101464390755, 0.01818629540503025, 0.027744432911276817, -0.0007572241011075675, -0.001895482069812715, 0.009106064215302467, 0.021350814029574394, -0.03203267976641655, 0.018405873328447342, 0.0032436316832900047, -0.0065744491294026375, -0.0046821958385407925, -0.02625904604792595, -0.000622005492914468, -0.0040589794516563416, 0.017811719328165054, -0.01005541905760765, -0.013342644087970257, -0.01747589185833931, 0.001947147655300796, 0.006064251065254211, 0.008163166232407093, -0.040609169751405716, 0.0012052617967128754, -0.01631341688334942, -0.0002482371055521071, -0.014440538361668587, -0.024257004261016846, 0.021273314952850342, -0.0042785583063960075, -0.013316811062395573, 0.01068186480551958, -0.02782193198800087, 0.008692738600075245, 0.02244870737195015, -0.0026672370731830597, 0.00374575681053102, -0.033220987766981125, -0.009009190835058689, 0.0045498027466237545, -0.0344867967069149, -0.015189689584076405, -0.003681174712255597, -0.024941572919487953, -0.01482803001999855, -0.03037937916815281, 0.004979273304343224, 0.0028658269438892603, -0.003842629725113511, 0.0010333121754229069, 0.04001501575112343, 0.0054927002638578415, 0.01516385655850172, -0.0009840683778747916, -0.00988104846328497, -0.011250186711549759, -0.02414075657725334, -0.005305412225425243, -0.017152981832623482, -0.02150581032037735, 0.015396351926028728, 0.02513531967997551, -0.019193774089217186, -0.024347418919205666, 0.0026365607045590878, -0.05502387508749962, 0.002823848510161042, -0.02016250416636467, 0.01301327534019947, 0.0157321784645319, 0.03996334969997406, 0.007885463535785675, -0.007711092475801706, -0.012134959921240807, 0.033350151032209396, -0.03324681892991066, -0.0007850750698707998, 0.02720194309949875, -0.05285391956567764, 0.012871195562183857, -0.007116938009858131, -0.03216184303164482, -0.018690034747123718, 0.03567510470747948, 0.04130665585398674, 0.006316120736300945, 0.012961610220372677, -0.012277040630578995, 0.0013941641664132476, 0.004181685391813517, -0.009370850399136543, -0.0060997712425887585, 0.01245141215622425, 0.03668258339166641, -0.028596915304660797, 0.019116275012493134, -0.017450060695409775, 0.024876991286873817, -0.0025719786062836647, -0.0035164905712008476, -0.02034333348274231, 0.02330118976533413, 0.011921839788556099, -0.015706345438957214, 0.008272956125438213, -0.001763088977895677, 0.009441890753805637, 0.024024508893489838, 0.010701239109039307, -0.009713134728372097, 0.003254933515563607, 0.0052149975672364235, -0.0015265573747456074, 0.008369828574359417, -0.002073082607239485, -0.04045417159795761, 7.124202966224402e-05, -0.02043374814093113, -0.03838754817843437, 0.0038103386759757996, -0.02370159886777401, 0.01604217290878296, -0.01724339835345745, 0.0063548702746629715, -0.0031774351373314857, -0.002489636652171612, -0.021738305687904358, 0.028286920860409737, 0.016597576439380646, -0.014970110729336739, 0.0043948059901595116, -0.0048501091077923775, -0.002510625869035721, -0.028235256671905518, -0.026194464415311813, -0.029320234432816505, -0.015383435413241386, -0.0008306861273013055, 0.0031144674867391586, -0.028906909748911858, -0.03502928465604782, -0.0024977093562483788, -0.008427952416241169, -0.004430326167494059, 0.009306267835199833, 0.2134823054075241, 0.013743052259087563, -0.007588386535644531, 0.02566489204764366, -0.02235829271376133, 0.01854795403778553, -0.011379350908100605, 0.013833466917276382, -0.03198101371526718, 0.009241686202585697, -0.03087020292878151, 0.009441890753805637, 0.0005009142332710326, 0.015305937267839909, 0.014530953019857407, 0.0038975244387984276, -0.007530262693762779, -0.04748069494962692, -0.004617613740265369, -0.0020924571435898542, 0.01345889177173376, -0.0034228467848151922, 0.011056440882384777, 0.0020456353668123484, -0.002985303523018956, 0.0015491610392928123, 0.00962917786091566, -0.008195457048714161, 0.06468534469604492, 0.012444954365491867, -0.0011939599644392729, 0.0064000776037573814, -0.0066777803003787994, -0.014802196994423866, 0.003484199522063136, 0.0060190437361598015, 0.017036734148859978, -0.011799133382737637, 0.016791323199868202, 0.018741700798273087, -0.013226396404206753, -0.022991197183728218, -0.007607761304825544, 0.010074794292449951, 0.0037877350114285946, 0.02312036044895649, -0.012335164472460747, -0.010533326305449009, -0.0057477992959320545, -0.00019505785894580185, -0.02321077510714531, 0.007549637462943792, 0.018496287986636162, 0.04055750370025635, 0.01994292624294758, -0.028390252962708473, 0.016003422439098358, 0.015473850071430206, -0.006858609616756439, 0.013949714601039886, -0.026633622124791145, 0.026866117492318153, 0.004210747312754393, -0.0141305448487401, 0.0064872633665800095, -0.00022966977849137038, -0.019297106191515923, -0.005298953969031572, 0.0072913090698421, -0.023869512602686882, 0.020059173926711082, -0.008892943151295185, 0.012851820327341557, -0.01177975907921791, 0.0034583667293190956, -0.012186625972390175, 0.0478423535823822, -0.011514972895383835, 0.007071730215102434, 0.018702950328588486, 0.0005473325727507472, -0.0066325729712843895, 0.0011761998757719994, 0.0045498027466237545, 0.0007168603478930891, -0.018741700798273087, 0.0045142825692892075, 0.01305848266929388, -0.016959236934781075, -0.02566489204764366, 0.01724339835345745, 0.00820191577076912, 0.0020036569330841303, 0.03673424944281578, 0.01787630096077919, 0.016675075516104698, 0.01644258014857769, 0.025703640654683113, -0.028519416227936745, 0.026220297440886497, -0.017760053277015686, -0.018702950328588486, 0.03136102482676506, 0.005124582909047604, -0.03208434581756592, 0.015835508704185486, 0.010765821672976017, 0.00652924133464694, 0.0045433444902300835, -0.02517406828701496, -0.016545912250876427, -0.011850799433887005, -0.013278061524033546, -0.006929649971425533, 0.03843921422958374, 0.0044044931419193745, 0.018896697089076042, -0.006787569727748632, 0.005964148789644241, -0.006358099170029163, -0.01967168040573597, -0.014298457652330399, 0.0030111363157629967, 0.023533685132861137, -0.025212818756699562, -0.03624342754483223, -0.05050313472747803, 0.016649242490530014, 0.015745094045996666, -0.041151657700538635, 0.03221350908279419, -0.012909944169223309, 0.003842629725113511, 0.036630917340517044, -0.026310712099075317, 0.016791323199868202, -0.006316120736300945, -0.006461430341005325, -0.0025235421489924192, 0.025651976466178894, -0.010526868514716625, 0.013433058746159077, 0.017062567174434662, -0.011728093959391117, -0.006658405531197786, -0.011411641724407673, 0.0047629233449697495, 0.004136478062719107, 0.009887506254017353, -0.007969420403242111, -0.0002651898830663413, -0.020911656320095062, -0.01836712472140789, -0.018664201721549034, 0.030301880091428757, -0.014285541139543056, -0.01498302724212408, -0.022784534841775894, -0.024566998705267906, 0.013962631113827229, -0.027976928278803825, 0.002935252385213971, 0.04593072831630707, 0.012367455288767815, -0.015396351926028728, -0.0030062927398830652, -0.16130003333091736, 0.03451262786984444, 0.012535369023680687, 0.003703778376802802, 0.035106781870126724, 0.011508515104651451, 0.02181580476462841, 0.0060997712425887585, -0.0017243397887796164, 0.018070047721266747, -0.0004399649624247104, 0.024179505184292793, -0.03404763713479042, -0.013019734062254429, -0.010572075843811035, 0.009357933886349201, 0.005034167785197496, 0.005095520988106728, 0.03650175407528877, 0.012348080985248089, 0.026504458859562874, -0.016390914097428322, 0.022745784372091293, -0.010946650989353657, -0.013032650575041771, 0.009480639360845089, -0.0033711811993271112, 0.014143460430204868, -0.009002733044326305, 0.005369994323700666, -0.022926615551114082, 0.012490161694586277, 0.04562073573470116, -0.010081252083182335, 0.006600281689316034, -0.0015572337433695793, -0.02208704873919487, -0.022229129448533058, -0.023469103500247, 0.01680424064397812, 0.0052731214091181755, 0.025613225996494293, -0.00439157709479332, -0.022345377132296562, -0.006309662479907274, 0.04107416048645973, 0.013006817549467087, -0.02168663963675499, 0.008214832283556461, 0.00844732765108347, 0.016003422439098358, -0.01680424064397812, 0.02168663963675499, -0.0006930457311682403, -0.003374410094693303, 0.021428311243653297, 0.006387161090970039, 0.02401159331202507, -0.001969751436263323, -0.003548781620338559, -0.01747589185833931, -0.0005545980529859662, 0.016248835250735283, 0.0058866506442427635, 0.004501366522163153, -0.021402478218078613, 0.003240402555093169, 0.028080258518457413, -0.0032097259536385536, -0.012354538775980473, 0.0020989153999835253, -0.042365800589323044, -0.0002605480549391359, -0.007898380048573017, 2.5403940526302904e-05, 0.022836199030280113, -0.0008036424405872822, 0.0035390942357480526, 0.006367786321789026, 0.00959042925387621, 0.014866779558360577, 0.02746027149260044, -0.027537770569324493, -0.0258457213640213, 0.0052731214091181755, -0.023856595158576965, -0.014182209968566895, 0.029139405116438866, -0.001858347444795072, 0.008163166232407093, -0.003671487560495734, -0.0420299731194973, 0.02186746895313263, -0.02709861285984516, 0.03781922534108162, 0.018212128430604935, -0.009577512741088867, 0.010617283172905445, -0.01177975907921791, -0.01043645292520523, -0.0037489859387278557, -0.006551844999194145, -0.029139405116438866, 0.02593613602221012, 0.031154362484812737, 0.022422874346375465, 0.012031628750264645, 0.021492894738912582, 0.042934123426675797, 0.0011414870386943221, -0.01388513296842575, -0.009422515518963337, 0.012264124117791653, 0.0067359041422605515, -0.010132918134331703, 0.01747589185833931, 0.0325235016644001, 0.0002508607576601207, 0.029501063749194145, 0.008931692689657211, 0.050296470522880554, -0.005143957212567329, -0.0007475367747247219, 0.006345182657241821, -0.013420142233371735, 0.0012900256551802158, -0.08669489622116089, -0.009512930177152157, 0.0005876963259652257, 0.03750923275947571, -0.005124582909047604, 0.015486766584217548, -0.012154335156083107, 0.015460933558642864, 0.0035294070839881897, 0.015138023532927036, -0.033711809664964676, -0.012709740549325943, 0.013039108365774155, -0.006645489018410444, 0.03399597108364105, 0.007420473266392946, 0.0046240719966590405, -2.236404543509707e-05, -0.00925460271537304, 0.0033711811993271112, -0.0050083352252841, 0.0003705392882693559, 0.010481661185622215, -0.02388242818415165, 0.017101317644119263, -0.02758943662047386, -0.032368503510951996, 0.030792703852057457, 0.01671382412314415, 0.005240830592811108, -0.018341291695833206, -0.029191069304943085, 0.003007907187566161, -0.01287765335291624, 0.0012859893031418324, -0.02787359617650509, -0.017992548644542694, -0.009506472386419773, 0.012670991010963917, -0.016416747123003006, -0.0052376012317836285, 0.019103359431028366, 0.031877681612968445, -0.03490012139081955, -0.002678538905456662, -0.0023152651265263557, -0.006251538638025522, 0.028932742774486542, 0.0052505177445709705, -0.013368477113544941, -0.010216874070465565, -0.02168663963675499, -0.023585351184010506, -0.010074794292449951, 0.041513316333293915, -0.010210416279733181, -0.008589407429099083, -0.0047112577594816685, -0.028519416227936745, -0.03074103780090809, -0.00515364482998848, 0.0025590623263269663, -0.020717909559607506, -0.008699197322130203, 0.025251567363739014, 0.007433389779180288, -0.007691717706620693, -0.013019734062254429, 0.00605779280886054, 0.017411310225725174, -0.0015330155147239566, -0.007388182450085878, -0.004698341246694326, 0.0015798375243321061, -0.012102669104933739, -0.005977065302431583, -0.006480805110186338, -0.001047035912051797, -0.006716529373079538, -0.019142108038067818, 0.00018981056928168982, -0.011250186711549759, 0.021751221269369125, 0.006606739945709705, 0.031025199219584465, 0.02553572878241539, 0.005063229706138372, -0.0031564459204673767, -0.0038878372870385647, -0.027305275201797485, -0.0185996200889349, 0.01010062638670206, 0.009015648625791073, -0.035235945135354996, -0.020847074687480927, 0.010274997912347317, 0.01684298925101757, -0.013252229429781437, -0.0015330155147239566, 0.012225375510752201, -0.021802887320518494, -0.020330417901277542, -0.07662010192871094, -0.00041372852865606546, -0.01354930642992258, -0.0012650002026930451, 0.0008427952998317778, 0.022952446714043617, 0.004449700471013784, 0.008796069771051407, -0.006374244578182697, 0.03019854985177517, -0.03686341270804405, 0.010378329083323479, 0.011553722433745861, -0.017527557909488678, -0.02419242262840271, -0.0047047995030879974, 0.019839594140648842, -0.014479286968708038, 0.008376287296414375, 0.017643805593252182, 0.005731653887778521, -0.01800546608865261, 0.012858279049396515, 0.015486766584217548, -0.0314643569290638, 0.0027786411810666323, -0.018031297251582146, 0.016700908541679382, -0.010649573989212513, -0.0024799492675811052, -0.00029828818514943123, -0.05086479336023331, -0.0004641832201741636, 0.04996064677834511, 0.007104021497070789, -0.033840976655483246, -0.022564955055713654, 0.026091134175658226, 0.036992575973272324, 0.032368503510951996, -0.02885524369776249, -0.021983716636896133, 0.03996334969997406, -0.00035177014069631696, -0.01026208233088255, -0.023598266765475273, 0.012858279049396515, -0.0021425082813948393, 0.010281456634402275, 0.0032468608114868402, 0.008802528493106365, 0.014711782336235046, 0.010358954779803753, -0.016675075516104698, -0.0023088068701326847, 0.01599050685763359, -0.0034712832421064377, 0.03477095440030098, 0.0028771287761628628, -0.014272624626755714, 0.030766870826482773, 0.013168272562325, -0.008098584599792957, 0.006509867031127214, 0.0066777803003787994, -0.023417437449097633, -0.008744404651224613, -0.0012464328901842237, 0.011624762788414955, -0.02575530670583248, -0.0215445589274168, 0.020808324217796326, 0.003513261443004012, 0.0291652362793684, -0.0043592858128249645, -0.013471808284521103, -0.011146855540573597, -0.019878342747688293, -0.023494936525821686, 0.026581956073641777, -0.0023394834715873003, 0.0020746970549225807, 0.001083363313227892, 0.03311765566468239, 0.016507161781191826, -0.016597576439380646, -0.010584992356598377, 0.0059447744861245155, 0.011766842566430569, 0.029604393988847733, 0.008376287296414375, 0.026814451441168785, 0.018754616379737854, 0.004304391331970692, 0.003140300279483199, -0.023443270474672318, -0.008460244163870811, 0.011269561015069485, -0.008505451492965221, 0.016649242490530014, 0.013755968771874905, 0.00795650389045477, -0.02212579734623432, -0.027486104518175125, -0.022435791790485382, 0.0032839954365044832, -0.03316932171583176, -0.012419121339917183, 0.006461430341005325, 0.026530291885137558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.01128819864243269, -0.023659199476242065, -0.015402842313051224, -0.04166076332330704, -0.01449599675834179, -0.0024278424680233, 0.0012249184073880315, 0.02077624201774597, -0.017473699524998665, 0.0031012094113975763, 0.0022958761546760798, 0.0057523795403540134, -0.0069976006634533405, -0.034108225256204605, -0.010367818176746368, 0.0016724197193980217, 0.014631346799433231, 0.001078571192920208, 0.018597105517983437, -0.006141511257737875, -0.024227669462561607, -0.007078810594975948, 0.021520666778087616, -0.009603089652955532, -0.007092345505952835, 0.005759146995842457, 0.0076946537010371685, -0.021913181990385056, -0.00202179211191833, 0.028423521667718887, 0.017554908990859985, -0.01124759390950203, -0.0137854078784585, 0.015551727265119553, -0.012831189669668674, -0.017568442970514297, 0.011768692173063755, 0.03215918689966202, 0.013771872967481613, -0.017960958182811737, 0.021263502538204193, 0.009325622580945492, 0.0014567055040970445, -0.0021520666778087616, -0.009332389570772648, 0.027367791160941124, 0.00028465819195844233, -0.0033177693840116262, -0.01026630587875843, 0.00505194254219532, 0.00010526643018238246, 0.009562484920024872, -0.02575712464749813, -0.0014423246029764414, -0.009704602882266045, -0.025851869955658913, -0.014360646717250347, 0.0062870122492313385, 0.03684229776263237, -0.011633341200649738, -0.012499582022428513, -0.008324031718075275, -0.030697403475642204, -0.00739011587575078, -0.015321631915867329, -0.017933888360857964, -0.02472846396267414, 0.020261911675333977, 0.004280447028577328, -0.004287214484065771, 0.030047724023461342, 0.018989620730280876, 0.02337496355175972, -0.013189868070185184, 0.008425544016063213, -0.006273477338254452, -0.007599908392876387, -0.007451023440808058, 0.006693062838166952, 0.02019423618912697, 0.003705209121108055, -0.02512097917497158, 0.011017498560249805, 0.020492006093263626, 0.01054377295076847, -0.0053395614959299564, 0.011626574210822582, 0.0005900418618693948, -0.002874497789889574, -0.006825028918683529, 0.015971312299370766, 0.003850710578262806, -0.00441579706966877, 0.0071667879819869995, -0.010564075782895088, -0.006473118904978037, -0.0065813991241157055, 0.01663452759385109, 0.008181913755834103, 0.009217342361807823, -0.01877306029200554, 0.02154773660004139, -0.008141309022903442, -0.02107401192188263, -0.046235594898462296, -0.0038067216519266367, 0.001592901535332203, -0.01909790001809597, 0.032998356968164444, 0.0036172315012663603, -0.0017054113559424877, 0.03091396391391754, 0.022711748257279396, -0.01988293044269085, -0.02194025181233883, -0.016607457771897316, 0.019043760374188423, -0.0051703741773962975, -0.002069164765998721, -0.03010186366736889, 0.01093628816306591, 0.02877543307840824, 0.014685486443340778, 0.011146081611514091, 0.031563643366098404, 0.009406832046806812, -0.010645286180078983, -0.011369409039616585, -0.008858664892613888, -0.012269486673176289, 0.00328900758177042, -0.006594934035092592, -0.0019033608259633183, 0.0027594503480941057, -0.005989242345094681, 0.008493219502270222, -0.02518865466117859, 0.002864346606656909, -0.010577610693871975, 0.008073633536696434, 0.02463371865451336, 0.008053331635892391, -0.014211760833859444, 0.012052927166223526, -0.02472846396267414, 0.033404406160116196, 0.010158025659620762, 0.01792035438120365, 0.007890910841524601, -0.002837276551872492, 0.015118607319891453, -0.057875704020261765, -0.011958181858062744, -0.005322643090039492, 0.015145677141845226, 0.007383348420262337, -0.00860149972140789, 0.03343147784471512, -0.008851896971464157, 0.01981525495648384, -0.016512712463736534, 0.009616625495254993, 0.01656685210764408, -0.02195378765463829, 0.03058912418782711, 0.03289007768034935, 0.009122597053647041, 0.0010151257738471031, 0.0030995174311101437, 0.010347515344619751, 0.002581803360953927, 0.03305249661207199, -0.02774677239358425, 0.012580792419612408, 0.020018281415104866, 0.03543465957045555, -0.0001077513734344393, -0.001964268507435918, -0.007505163550376892, -0.012486047111451626, -0.0023483242839574814, -0.016350293532013893, 0.029370972886681557, 0.0307515449821949, -0.013846315443515778, -0.010354283265769482, 0.014062875881791115, 0.012411604635417461, 0.017378954216837883, -0.016296152025461197, -0.011173151433467865, 0.012337162159383297, -0.014008736237883568, 0.023577988147735596, -0.6479480266571045, -0.0023669349029660225, -0.03002065420150757, -0.006503572687506676, -0.012614630162715912, 0.01727067306637764, 0.04247286170721054, 0.005079012829810381, -0.015646472573280334, 0.025865405797958374, -0.004385343287140131, 0.009339157491922379, 0.010354283265769482, 0.010340748354792595, 0.0011411706218495965, -0.02774677239358425, 0.015443447045981884, -0.016431502997875214, -0.018258729949593544, 0.0049368953332304955, -0.010002372786402702, 0.03708592802286148, -0.00947450753301382, 0.01295977272093296, -0.012634932063519955, -0.021737227216362953, 0.024038178846240044, -0.023794548586010933, -0.012431907467544079, -0.019070830196142197, -0.007735258433967829, 0.03153657540678978, 0.001445708330720663, -0.029695812612771988, 0.03302542492747307, 0.016201408579945564, -0.01878659427165985, 0.03865598887205124, 0.020573215559124947, 0.022562863305211067, -0.011775459162890911, -0.032294534146785736, 0.015511122532188892, -0.030534984543919563, 0.027070021256804466, -0.01632322371006012, 0.03971172124147415, 0.006358071230351925, -0.03586777672171593, -0.024187063798308372, 0.011795761995017529, -0.02115522138774395, 0.011423548683524132, 0.02360505796968937, 0.010929521173238754, -0.005792984738945961, 0.04206681251525879, -0.008384939283132553, 0.0020251760724931955, -0.00946773961186409, 0.04642508551478386, 0.008073633536696434, -0.023510312661528587, 0.0032179488334804773, 0.005982474889606237, -0.01996413990855217, -0.017297742888331413, -0.025770660489797592, -0.015497587621212006, -0.0027425314765423536, 0.02187257632613182, 0.02139885164797306, -0.03343147784471512, 0.00379318674094975, -0.011112243868410587, 0.03397287800908089, 0.005163606721907854, 0.012594327330589294, 0.0129191679880023, -0.0010311986552551389, 0.007755561266094446, 0.00019953565788455307, -0.0232937540858984, 0.003647685283794999, 0.04017191007733345, -0.012073229067027569, -0.007985656149685383, -0.008060098625719547, 0.026691041886806488, 0.023510312661528587, 0.025337539613246918, 0.017460163682699203, -0.011775459162890911, -0.024308878928422928, -0.017812073230743408, 0.016336757689714432, -0.0029201784636825323, 0.02169662155210972, 0.010963358916342258, -0.016350293532013893, -0.02536460943520069, -0.009210574440658092, 0.023347893729805946, -0.0034920326434075832, 0.006906239315867424, 0.004740637261420488, -0.018285799771547318, 0.010279840789735317, 0.038547709584236145, -0.015484051778912544, -0.018015099689364433, 0.009900860488414764, -0.017473699524998665, -0.0006078065489418805, -0.025134515017271042, -0.03107638470828533, 0.021331176161766052, 0.0028711140621453524, 0.015078001655638218, -0.02686699666082859, 0.006012928672134876, -0.009291784837841988, 0.010631751269102097, -0.02551349438726902, -0.001925355289131403, 0.004862452391535044, 0.02600075490772724, -0.017893284559249878, -0.03305249661207199, -0.012492815032601357, 0.004327819682657719, 0.007342743221670389, 0.009142899885773659, -0.006709981709718704, 0.011423548683524132, 0.011220524087548256, 0.01963930018246174, -0.008723313920199871, 0.005342945456504822, -0.01839407905936241, -0.025391679257154465, -0.019937070086598396, 0.007417185697704554, 0.00025758816627785563, -0.010814473032951355, -0.03326905518770218, 0.005573040805757046, -0.01188373938202858, -0.012607862241566181, -0.0025479658506810665, -0.013433498330414295, 0.010631751269102097, 0.0005046020960435271, 0.02084391564130783, -0.019449809566140175, 0.0009982070187106729, -0.010983660817146301, -0.014956186525523663, -0.033620964735746384, -0.011585969477891922, 0.0009618317126296461, -0.0002781021757982671, -0.020383726805448532, -0.007965353317558765, 0.006341152358800173, 0.011125778779387474, 0.0016470416449010372, 0.019300924614071846, -0.010286607779562473, -0.015551727265119553, 0.021845506504178047, 0.011274663731455803, -0.008953409269452095, 0.027300115674734116, -0.00307921483181417, 0.012066462077200413, -0.007254765834659338, 0.0038743969053030014, -0.03889961913228035, -0.00819544866681099, -0.006713365204632282, 0.012201812118291855, -0.0012748287990689278, 0.0017460163217037916, 0.01672927290201187, 0.014292971231043339, 0.041011083871126175, -0.007322440855205059, -0.016512712463736534, 0.020627357065677643, 0.006855482701212168, -0.0040605030953884125, -0.005444458220154047, -0.011058103293180466, -0.004436099901795387, 0.005542587023228407, 0.009244412183761597, -0.031157594174146652, -0.019558090716600418, 0.02194025181233883, 0.0115318289026618, 0.027936261147260666, -0.0005071399500593543, -0.003106284886598587, -0.006127975881099701, -0.035705357789993286, 0.024525439366698265, -0.02877543307840824, 0.04669578745961189, 0.008053331635892391, 0.021967321634292603, -0.028423521667718887, -0.024471299722790718, -0.012255951762199402, 0.013101890683174133, 0.015511122532188892, 0.020722100511193275, 0.017568442970514297, 0.001761243212968111, 0.02956046350300312, 0.009555717930197716, -0.0040097469463944435, 0.0011986943427473307, -0.0033803689293563366, -0.037600260227918625, -0.003184111323207617, -0.002600413979962468, 0.032375745475292206, 0.0042432257905602455, -0.03091396391391754, -0.005045175086706877, 0.028315242379903793, -0.003074139356613159, 0.014807301573455334, 0.00943390280008316, 0.004977500066161156, -0.011863436549901962, -0.0139004560187459, 0.019233250990509987, 8.147441985784099e-05, 0.010665588080883026, 0.007620210759341717, 0.03416236862540245, -0.019544554874300957, 0.01639089733362198, -0.016972903162240982, 0.019355066120624542, -0.014360646717250347, -0.026501551270484924, -0.00041725899791345, -0.03603019937872887, 0.009765510447323322, -0.016918763518333435, -0.0005917337257415056, 0.003106284886598587, 0.0033888283651322126, 0.015673542395234108, -0.019233250990509987, 0.008384939283132553, 0.02376747876405716, -0.026109036058187485, 0.01718946360051632, 0.029587533324956894, 0.001771394512616098, -0.006415594834834337, -0.018258729949593544, 0.006764121353626251, -0.021358245983719826, 0.01829933375120163, 0.008615034632384777, 0.014631346799433231, 0.016675133258104324, 0.0041924696415662766, 0.009359459392726421, 0.03256523609161377, -0.02788212150335312, -0.01006328035145998, 0.011667178943753242, -0.03132001310586929, 0.018800130113959312, -0.010882148519158363, -0.042283374816179276, -0.0048929061740636826, 0.03210504353046417, 0.006567863747477531, -0.00171810039319098, -0.03337733447551727, 0.011044568382203579, -0.015267492271959782, -0.002126688603311777, -0.004872603807598352, 0.0016901844646781683, -0.02503976970911026, 0.008608266711235046, 0.009785812348127365, -0.01457720622420311, 0.009420366957783699, -0.020965730771422386, 0.011308501474559307, -0.012370999902486801, -0.00441579706966877, 0.007755561266094446, 0.0044936235062778, -0.027462536469101906, 0.03383752703666687, -0.005501981824636459, -0.030399633571505547, -0.027827981859445572, 0.01940920576453209, -0.01774439960718155, 0.012932702898979187, 0.002894800389185548, -0.00942713487893343, 0.00016115122707560658, -0.012472512200474739, 0.011119010858237743, 0.018745990470051765, 0.008466148748993874, 0.02646094560623169, 0.009447437711060047, -0.012804119847714901, -0.018759524449706078, -0.020085955038666725, -0.004019898362457752, 0.09810175746679306, 0.016810482367873192, 0.01359591819345951, 0.012925934977829456, -0.006889320444315672, 0.009339157491922379, -0.027476072311401367, -0.00923087727278471, 0.007160020526498556, 0.04063210263848305, 0.00283389282412827, -0.01576828770339489, 0.03050791472196579, -0.0057659144513309, 0.023334357887506485, -0.008621801622211933, -0.0022231254260987043, -0.006608468946069479, 0.025093909353017807, -0.023970503360033035, 0.01568707823753357, 0.01926032081246376, -0.03714006766676903, 0.0181504487991333, 0.011362641118466854, -0.0030707556288689375, 0.008770686574280262, 0.012337162159383297, 0.0006674451869912446, -0.02441716007888317, 0.012905633077025414, -0.018204588443040848, -0.032592304050922394, -0.0012350697070360184, 8.343064837390557e-05, 0.024214133620262146, 0.004392110742628574, 0.004385343287140131, 0.024620184674859047, 0.005857275798916817, 0.0500524677336216, 0.03421650826931, -0.021601876243948936, 0.004348122049123049, 0.027719702571630478, -0.021371781826019287, 0.009955000132322311, 0.016702203080058098, 0.016269082203507423, -0.031644854694604874, 0.01414408627897501, 0.0058234385214746, 0.002189287915825844, -0.009650462307035923, 0.0003688290307763964, 0.02487734891474247, -0.002426150720566511, 0.008141309022903442, -0.01940920576453209, -0.01911143586039543, -0.008493219502270222, -0.030534984543919563, 0.014401251450181007, -0.003830407978966832, -0.019043760374188423, -0.024051714688539505, -2.3606962713529356e-05, 0.0013416579458862543, -0.021425921469926834, -0.0025039769243448973, -0.00594186969101429, -0.010442260652780533, -0.026677506044507027, -0.004574833437800407, 0.010036210529506207, -0.0076269786804914474, 0.02600075490772724, -0.0085541270673275, -0.015484051778912544, 0.030156003311276436, -0.015281027182936668, -0.008317263796925545, -0.016066057607531548, -0.021019872277975082, -0.012736445292830467, 0.02392989955842495, 0.014022271148860455, 0.007647281046956778, -0.024931490421295166, -0.004767707549035549, 0.019300924614071846, -0.0228877030313015, 0.01632322371006012, -0.006178732495754957, -0.00293202162720263, -0.005359864328056574, 0.01632322371006012, -0.0076946537010371685, -0.006124592386186123, 0.001798464567400515, 0.016011917963624, -0.020586751401424408, -0.014198225922882557, -0.007593140937387943, 0.013677128590643406, -0.005217746365815401, 0.013981666415929794, 0.00159543938934803, -0.008229286409914494, 0.006510340142995119, 0.022238021716475487, 0.006608468946069479, 0.00719385826960206, 0.0025039769243448973, -0.02091159112751484, -0.0026833158917725086, -0.0003102478221990168, 0.02027544565498829, 0.004331203177571297, -0.010665588080883026, -0.015984848141670227, -0.0075796060264110565, 0.007065275683999062, 0.03952223062515259, 0.0007617673254571855, -0.015714148059487343, 0.0048218476586043835, -0.008290193974971771, -0.007342743221670389, -0.0040131304413080215, -0.003952222876250744, 0.015078001655638218, 0.010279840789735317, -0.009839952923357487, -0.04317668452858925, -0.04507158696651459, -0.006046765949577093, 0.008073633536696434, -0.002245119772851467, -0.02313133329153061, -0.03979293256998062, 0.033079564571380615, -0.024444229900836945, 0.00844584684818983, -0.015890102833509445, -0.014726091176271439, 0.0038642454892396927, -0.00245660450309515, -0.029614603146910667, 0.009758742526173592, 0.013013912364840508, 0.03370217606425285, -0.012790584936738014, 0.007539000827819109, -0.011416781693696976, -0.006439281161874533, -0.017094718292355537, -0.02115522138774395, 0.006770889274775982, 0.026122570037841797, 0.020857451483607292, 0.023023054003715515, 0.019355066120624542, 0.011538596823811531, -0.008716546930372715, -0.0209251269698143, 0.002255271188914776, -0.00819544866681099, -0.028883712366223335, 0.0016673441277816892, 0.017162393778562546, 0.008256356231868267, -0.008919572457671165, 0.003627382917329669, -0.017054112628102303, 0.01609312742948532, 0.017067648470401764, 0.0027509909123182297, -0.022292163223028183, -0.036246757954359055, 0.003529254114255309, -0.016052521765232086, -0.004449634812772274, 0.0262985248118639, -0.009332389570772648, -0.0032771644182503223, 0.024295344948768616, 0.007160020526498556, -0.0014710865216329694, 0.00816161185503006, 0.024525439366698265, -0.013135727494955063, 0.032998356968164444, 0.01656685210764408, 0.01228302251547575, 0.00566778564825654, 0.003057220485061407, -0.04620852693915367, -0.00981965009123087, -0.006885936483740807, 0.0033736014738678932, 0.004263528157025576, -0.015199816785752773, -0.02399757318198681, -0.0011403246317058802, 0.019070830196142197, 0.0016876466106623411, -0.0185564998537302, -0.01679694838821888, -0.0075863734818995, -0.021493596956133842, -0.032294534146785736, -0.005853892304003239, -0.01457720622420311, -0.00804656371474266, 0.0069976006634533405, -0.020965730771422386, 0.036409176886081696, -0.008215751498937607, -0.02083038166165352, 0.024105854332447052, -0.013927525840699673, 0.02045140042901039, 0.005481679458171129, 0.0243359487503767, 0.045531775802373886, -8.432945833192207e-06, 0.02758435159921646, 0.025851869955658913, 0.008154843933880329, -0.00515007134526968, 0.022251557558774948, 0.020627357065677643, 0.005603494588285685, -0.014956186525523663, -0.016025451943278313, 0.013440265320241451, -0.0061178249306976795, -0.0290732029825449, 0.03946809098124504, 0.001252834452316165, -0.015714148059487343, -0.03175313398241997, -0.005836973432451487, -0.0015937475254759192, 0.013853083364665508, -0.008344333618879318, -0.003887931816279888, -0.011667178943753242, 0.015281027182936668, -0.003776267869397998, -3.925681994587649e-06, -0.02108754590153694, 0.0042939819395542145, 0.0007875684532336891, -0.0009068457293324172, 0.014265901409089565, -0.01359591819345951, -0.023415569216012955, 0.012844725511968136, 0.020857451483607292, 0.0007131258607842028, -0.010509936138987541, -0.0019964140374213457, -0.006087371148169041, -0.01212736964225769, -0.027719702571630478, -0.017338348552584648, 0.015835963189601898, 0.025933081284165382, -0.028396451845765114, -0.01541637722402811, -0.002923562191426754, -0.01168748177587986, 0.033323194831609726, -0.018015099689364433, -0.008743616752326488, 0.02709709107875824, 0.01821812428534031, -0.008696244098246098, -0.006757353898137808, 0.025770660489797592, -0.02130410633981228, 0.002952324226498604, -0.004036816768348217, -0.04610024765133858, -0.0006141511257737875, -0.011836366727948189, -0.0064663514494895935, -0.0012063077883794904, 0.0034683465491980314, -0.03627382963895798, 0.014983256347477436, -0.003358374582603574, -0.00427706353366375, 0.0023178705014288425, -0.008567661978304386, 0.03589484840631485, -0.019314460456371307, 0.03137415647506714, 0.010381353087723255, 0.004628973547369242, -0.004622206091880798, -0.00013714772649109364, -0.0013864926295354962, 0.0016555009642615914, 0.003915001638233662, -0.006777656730264425, -0.008337566629052162, -0.012249184772372246, -0.020478470250964165, -0.009081992320716381, -0.024917954578995705, -0.01694583334028721, -0.00522789778187871, -0.02130410633981228, -0.002894800389185548, -0.01846175454556942, -0.01295977272093296, 0.009839952923357487, -0.00883159413933754, -0.0050553265027701855, 0.028179891407489777, -0.023821618407964706, 0.002602105727419257, 0.0220214631408453, -0.018204588443040848, 0.002497209468856454, -0.00011420165537856519, -0.0038134893402457237, 0.020018281415104866, 0.02836938202381134, 0.02321254275739193, 0.0063513037748634815, -0.021723691374063492, 0.005982474889606237, -0.03778975084424019, 0.03367510810494423, -0.006107673514634371, -0.003395595820620656, 0.03481204807758331, 0.01449599675834179, 0.0066490741446614265, -0.004026665817946196, -0.009751975536346436, 0.00655771279707551, -0.0004762631724588573, -0.02378101460635662, -0.02608196623623371, -0.013291380368173122, -0.05183909088373184, 0.02748960629105568, 0.006134743336588144, 0.0034920326434075832, -0.0312117338180542, 0.008703012019395828, -0.009366227313876152, 0.008892501704394817, -0.005468144081532955, 0.012783817946910858, 0.02510744519531727, 0.002011640928685665, -0.015876566991209984, 0.013162798248231411, 0.008818059228360653, 0.035461727529764175, -0.0035089515149593353, 0.002515820087864995, 0.032456956803798676, 0.008540592156350613, -0.00043481221655383706, -0.010191863402724266, -0.02931683324277401, -0.025134515017271042, 0.019761115312576294, 0.02606843039393425, 0.010421957820653915, 0.02353738434612751, 0.0070991129614412785, -0.0069840652868151665, 0.009873790666460991, -0.010144490748643875, 0.01632322371006012, 0.007220928091555834, 0.01625554822385311, -0.008851896971464157, -0.00839847419410944, -0.00412141066044569, 0.0168781578540802, -0.007072043139487505, 0.002331405645236373, -0.016607457771897316, -0.003850710578262806, 0.004334587138146162, -0.00012096915452275425, 0.00493351137265563, 0.0172842089086771, -0.015619401820003986, 0.03050791472196579, -0.0073968833312392235, -0.011024266481399536, 0.0027696015313267708, -0.011152848601341248, 0.0021723692771047354, -0.0026951590552926064, 0.0014017195207998157, -0.052272211760282516, -0.020735636353492737, -0.0036713716108351946, -0.034649625420570374, 0.007241230458021164, -0.012966540642082691, 0.021723691374063492, 0.011775459162890911, 9.553814015816897e-05, -0.013223705813288689, 0.0003899775038007647, 0.03500153869390488, 0.015835963189601898, 0.008506754413247108, -0.03619261831045151, -0.0008615879924036562, -0.008026260882616043, -0.005633948370814323, -0.018177518621087074, -0.0010811089305207133, 0.008134541101753712, -0.026826390996575356, -0.01949041523039341, 0.0025175120681524277, -0.0312117338180542, -0.030237214639782906, 0.026488015428185463, -0.0010760333389043808, 0.0045409961603581905, -0.004429332446306944, 0.2019423544406891, -0.007329208310693502, -0.034893255680799484, 0.028423521667718887, -0.01335905585438013, 0.014888511970639229, 0.022711748257279396, 0.002292492426931858, -0.009589554741978645, 0.016350293532013893, -0.015876566991209984, 0.017771469429135323, -0.022522257640957832, 0.004422564525157213, 0.0022874167189002037, -0.010956590995192528, -0.03865598887205124, -0.03335026651620865, -0.0023466325365006924, 0.033404406160116196, -0.0006771734915673733, -0.003762732958421111, -0.0016106662806123495, 0.00017362881044391543, 0.008770686574280262, 0.004446250852197409, -0.005908031947910786, 0.0076946537010371685, 0.0372212789952755, 0.04848240688443184, -0.0009440669673494995, 0.004645892418920994, -0.0027442234568297863, -0.0022231254260987043, 0.000848898955155164, 0.00697053037583828, -0.005217746365815401, -0.023713339120149612, 0.018434684723615646, 0.009007549844682217, -0.01963930018246174, -0.006442665122449398, -0.007904445752501488, -0.005045175086706877, -0.019124969840049744, -0.010435492731630802, -0.0156058669090271, -0.018570033833384514, -0.00209961854852736, 0.01702704280614853, -0.017148857936263084, -0.011816063895821571, -0.0016588846920058131, 0.04079452157020569, 0.026014290750026703, -0.007478093262761831, 0.015429912135004997, 0.03700472041964531, 0.00741041824221611, -0.015578797087073326, -0.017175927758216858, 0.020464936271309853, -0.010144490748643875, 0.009054922498762608, -0.01972050964832306, -0.0016927223186939955, -0.019043760374188423, 0.010794171132147312, 0.00887896679341793, -0.011626574210822582, -0.01168748177587986, -0.015267492271959782, -0.014929116703569889, -0.0031773436348885298, -0.024782603606581688, -0.033323194831609726, 0.037843890488147736, 0.018109844997525215, 0.02115522138774395, 0.011125778779387474, -0.00045469176257029176, -0.005698239430785179, -0.009122597053647041, 0.0011614731047302485, 0.0022586549166589975, -0.013602686114609241, 0.004321052227169275, 0.01120698917657137, -0.005992625840008259, -0.028937852010130882, 0.00981965009123087, -0.01926032081246376, 0.014089945703744888, 0.0179744940251112, 0.0011902350233867764, 0.004148480948060751, -0.0013179716188460588, 0.010178327560424805, -0.002263730624690652, 0.008432311937212944, -0.014292971231043339, -0.009142899885773659, 0.01664806343615055, 0.0035191026981920004, -0.021344712004065514, 0.031103454530239105, -0.00613812729716301, 0.014996792189776897, -0.010320445522665977, -0.010726495645940304, -0.03516395762562752, -0.042418722063302994, 0.006006160750985146, -0.01704057864844799, 0.013839548453688622, 0.011504759080708027, 0.0050722453743219376, 0.005119617562741041, 0.014306506142020226, -0.01774439960718155, -1.026360951073002e-05, 0.0014846214326098561, -0.00300984806381166, 0.010246003046631813, -0.0009592938586138189, -0.04634387791156769, -0.023104263469576836, 0.010956590995192528, -0.02812575176358223, -0.034433066844940186, -0.0009982070187106729, 0.0139004560187459, 0.00808716844767332, -0.001847528968937695, -0.024701394140720367, 0.018908409401774406, -0.0034006715286523104, -0.0013458876637741923, -0.013954595662653446, -0.011464154347777367, -0.007789398543536663, 0.00015322054969146848, -0.02014009654521942, -0.015172746963799, 0.02598722092807293, -0.01422529574483633, 0.02012656070291996, 0.015389307402074337, -0.009846719913184643, -0.004544379655271769, -0.0027425314765423536, -0.027273045852780342, -0.015619401820003986, -0.03232160583138466, 0.027530211955308914, -0.01750076934695244, -0.017311278730630875, -0.003475114004686475, 0.005542587023228407, 0.010712960734963417, -0.03413529694080353, -0.003405747003853321, 0.020640891045331955, -0.004046968184411526, -0.008953409269452095, 0.016201408579945564, -0.17324814200401306, -0.00574561208486557, 4.988391447113827e-05, -0.01704057864844799, 0.03018307313323021, 0.008574428968131542, 0.012749980203807354, 0.024782603606581688, -0.0278009120374918, 0.02788212150335312, 0.001876290887594223, 0.001993030309677124, -0.013331985101103783, -0.018570033833384514, 0.011863436549901962, 0.019923536106944084, -0.005566273350268602, 0.0012612937716767192, 0.029749954119324684, -0.0024041563738137484, 0.01844821870326996, -0.012777050025761127, -0.0011386327678337693, 0.0001522688689874485, -0.003705209121108055, 0.009366227313876152, 0.0012925935443490744, 0.04620852693915367, -0.004632357507944107, -0.013494405895471573, -0.0031164363026618958, 0.007038205396384001, 0.03935981169342995, 0.0025598087813705206, 0.017852678894996643, -0.0035664753522723913, 0.0032348674722015858, -0.004859068896621466, -0.014049340970814228, 0.0034125144593417645, 0.010746798478066921, 0.019855860620737076, 0.0033397639635950327, -0.01045579556375742, 0.0102595379576087, 0.028234032914042473, 0.049159158021211624, -0.007376580964773893, 0.009014316834509373, -0.007572838570922613, 0.019070830196142197, -0.01556526217609644, 0.00685209920629859, 0.0012164590880274773, 0.02180490270256996, 0.0034395845141261816, -0.011802528984844685, 0.01247928012162447, 0.010279840789735317, -0.005809903144836426, -0.01449599675834179, -0.006689678877592087, 0.000832403136882931, -0.008723313920199871, -0.006104290019720793, -0.016851088032126427, 0.0018695233156904578, 0.02536460943520069, -0.007640513591468334, 0.006385141052305698, -0.004324435722082853, -0.022779423743486404, 0.005698239430785179, -0.010949824005365372, 0.009589554741978645, -0.00568808801472187, -0.01783914491534233, -0.008777454495429993, 0.024538973346352577, -0.02956046350300312, 0.014157621189951897, 0.039901211857795715, -0.006080603692680597, -0.008148076012730598, -0.0014330192934721708, -0.002256962936371565, -0.009264715015888214, 0.01418469101190567, -0.021249966695904732, -0.01593070663511753, 0.009406832046806812, -0.010449028573930264, -0.004172166809439659, -0.040848661214113235, -0.0010802630567923188, -0.005772681906819344, -0.0017104869475588202, -0.000637837394606322, -0.003047069301828742, -0.0014643189497292042, -0.0031976462341845036, 0.012655234895646572, -0.04366394504904747, 0.012384534813463688, 0.025242794305086136, 0.016688667237758636, -0.00041408673860132694, 0.011064871214330196, 0.020938660949468613, -0.0026731647085398436, 0.015538192354142666, -0.018813664093613625, 0.01893547922372818, 0.034433066844940186, -0.015281027182936668, 0.020072421059012413, 0.027137696743011475, -0.02796333283185959, 0.022765887901186943, 0.00741041824221611, 0.0013348903739824891, -0.01862417533993721, -0.010929521173238754, 0.014292971231043339, -0.008804524317383766, -0.017812073230743408, -0.09496163576841354, -0.006422362755984068, 0.0022197416983544827, 0.014455391094088554, -0.02060028538107872, 0.016512712463736534, 0.002487058285623789, 0.02654215507209301, -0.006337768863886595, 0.012777050025761127, -0.026339130476117134, -0.0033939038403332233, 0.0005130614736117423, -0.00719385826960206, 0.03597605973482132, 0.0007647281163372099, 0.005444458220154047, 0.0034886489156633615, -0.011592736467719078, 0.00016115122707560658, -0.006442665122449398, -0.001503232168033719, 0.0004390419053379446, -0.0022975681349635124, -0.001461781095713377, -0.0077623287215828896, -0.033079564571380615, 0.01823166012763977, 0.020789775997400284, 8.147441985784099e-05, 0.008208983577787876, -0.030453773215413094, -0.015714148059487343, -0.00859473180025816, -0.0027611420955508947, 0.0017494001658633351, 0.006243023555725813, -0.01877306029200554, 0.04642508551478386, -0.026136105880141258, -0.013995201326906681, 0.00012392994540277869, 0.03107638470828533, -0.019693439826369286, -0.0022671143524348736, -0.000682672078255564, -0.013819245621562004, 0.039116181433200836, -0.009372995235025883, -0.03096810355782509, -0.03643624857068062, -0.009731672704219818, -0.026136105880141258, -0.011382943950593472, 0.031347084790468216, -0.01870538480579853, 0.00417893473058939, 0.004578217398375273, -0.024687860161066055, -0.015294562093913555, 0.011362641118466854, -0.005640715826302767, 0.003552940208464861, 0.009887325577437878, 0.006229488644748926, -0.012343930080533028, -0.007004368118941784, 0.01735188439488411, 0.018407614901661873, 0.005901264492422342, -0.006249791011214256, -0.001572599052451551, -0.00566778564825654, 0.010110653005540371, -0.02812575176358223, -0.019937070086598396, 0.006855482701212168, -0.004490239545702934, -0.00816161185503006, -0.006706597749143839, -0.01157243363559246, -0.011146081611514091, -0.01295977272093296, -3.5370791010791436e-05, 0.02211620658636093, 0.0228877030313015, -0.010279840789735317, 0.001915203989483416, 0.017135323956608772, -0.02899199351668358, 0.005684704519808292, 0.03925153240561485, 0.02156127244234085, -0.03510981798171997, -0.014008736237883568, -0.0007486552931368351, -0.00907522439956665, -0.03421650826931, -0.003982676658779383, 0.012174742296338081, -0.04637094587087631, -0.032700587064027786, -0.08819413185119629, 0.009941465221345425, 0.0055358195677399635, 0.000697053037583828, -0.026921136304736137, -0.01556526217609644, 0.030480843037366867, 0.015281027182936668, 0.02407878451049328, 0.00328900758177042, -0.015226886607706547, -0.00839847419410944, -0.00542415538802743, -0.005359864328056574, -0.006364838685840368, -0.009352692402899265, 0.04333910346031189, 0.0011301733320578933, 0.006432513706386089, -0.007356278132647276, 0.0013949520653113723, 0.005292189307510853, 0.004016514401882887, 0.0031976462341845036, -0.03603019937872887, 0.01084831077605486, -0.0075863734818995, 0.011816063895821571, -0.022860633209347725, 0.010117419995367527, -0.0005528205656446517, -0.029127342626452446, -0.007180323358625174, 0.029343903064727783, 0.0037559655029326677, -0.032592304050922394, -0.01616080291569233, 0.03356682509183884, 0.022765887901186943, -0.0030149235390126705, -0.02520219050347805, -0.034027017652988434, 0.030237214639782906, 0.008337566629052162, -0.0017950808396562934, 0.01054377295076847, 0.007187090814113617, -0.0023347893729805946, 0.020329585298895836, 0.011748389340937138, 0.007518698461353779, 0.013237240724265575, -0.009129364974796772, -0.03516395762562752, -0.010354283265769482, 0.004324435722082853, -0.005342945456504822, 0.006185499951243401, -0.014157621189951897, -0.006188883446156979, 0.037519048899412155, 0.0007084732060320675, 0.032835934311151505, -0.014401251450181007, 0.012174742296338081, 0.008804524317383766, -0.006665992550551891, 0.007877375930547714, 0.018570033833384514, -0.04255407303571701, 0.006706597749143839, -0.01189050730317831, 0.019828790798783302, 0.02575712464749813, -0.003348223166540265, -0.027476072311401367, -0.027083557099103928, 0.011897274293005466, -0.019761115312576294, 0.011552131734788418, 0.007769096177071333, -0.014468926005065441, -0.005792984738945961, -0.005894497036933899, 0.028342312201857567, 0.02185904234647751, -0.02234630286693573, -0.01168071385473013, 0.003860861761495471, 0.017812073230743408, 0.005836973432451487, 0.01208676490932703, 0.0018712151795625687, 0.016066057607531548, 0.02915441244840622, 0.002757758367806673, -0.010198630392551422, -0.024363018572330475, -0.0015387615421786904, -0.0004931819275952876, -0.008499986492097378, 0.018732454627752304, -0.007227695547044277, -0.013433498330414295, -0.0120799969881773, -0.006808110512793064, -0.025391679257154465, -0.025567635893821716, 0.01453660149127245, 0.0156058669090271, 0.020586751401424408, 0.017947424203157425, 0.003955606836825609, 0.004744021221995354, 0.026095500215888023, </t>
+  </si>
+  <si>
+    <t>[0.020964233204722404, -0.016027580946683884, 0.0032806245144456625, -0.025953827425837517, 0.0047381287440657616, 0.016384925693273544, 0.00325084594078362, -0.025278842076659203, 0.006988077890127897, -0.014929075725376606, 0.0036429327446967363, 2.464759563736152e-05, -0.022777428850531578, -0.0031896340660750866, -0.02477591298520565, -0.010938724502921104, 0.02235390804708004, -0.010978429578244686, 0.013354110531508923, -0.04105495661497116, -0.008655687794089317, 0.0014955545775592327, 0.03208163008093834, -0.011984288692474365, 0.0007403325871564448, -0.017470194026827812, 0.020236309617757797, -0.027608200907707214, -0.00650169188156724, 0.015312890522181988, -0.016358455643057823, 0.0035337440203875303, -0.03049343079328537, -0.00029096310026943684, -0.005092164501547813, -0.013294553384184837, 0.009833602234721184, 0.004625631030648947, 0.024974437430500984, 0.025424426421523094, 0.014611435122787952, -0.0011191843077540398, -0.0008983253501355648, -0.013254848308861256, -0.0031002978794276714, 0.03875206783413887, -0.0004156616050750017, -0.007146897725760937, 0.017933418974280357, -0.011157101951539516, -0.013711456209421158, 0.029196400195360184, -0.022737722843885422, 0.007133662700653076, -0.0003013029636349529, -0.02157304249703884, -0.017761364579200745, -0.0003412147343624383, 0.012123255990445614, -0.03859324753284454, -0.011805616319179535, -0.00824540201574564, -0.028614060953259468, -0.00924464501440525, 0.006481839343905449, -0.03584036976099014, -0.015815820544958115, 0.008099817670881748, -0.0009520925232209265, -0.007808647584170103, 0.017483429983258247, 0.035628609359264374, 0.028719941154122353, 0.010945341549813747, 0.022036267444491386, -0.009496109560132027, -0.00807996466755867, 0.02334653213620186, 0.015286420471966267, -0.0007014547591097653, -0.005426348187029362, -0.0309698898345232, -0.001737093203701079, 0.039519697427749634, 0.016742270439863205, 0.02594059146940708, -0.02292301319539547, 0.012235754169523716, -0.0007072450825944543, -0.009800514206290245, -0.0075704175978899, 0.010237269103527069, 0.014412910677492619, 0.014532025903463364, -0.02384946309030056, -0.002771077211946249, 0.018171649426221848, 0.010171093977987766, -0.018330469727516174, -0.030996359884738922, -0.007848352193832397, -0.001539395423606038, 0.006554631516337395, -0.01950838416814804, -0.05185471475124359, 0.005502449348568916, 0.003340182127431035, -0.004764598328620195, 0.026880277320742607, 0.008973327465355396, -0.005072311963886023, 0.046931296586990356, 0.04544897750020027, -0.022631842643022537, -0.029064051806926727, -0.006150964181870222, 0.004430415108799934, -0.005138487089425325, -0.013268083333969116, -0.008629217743873596, 0.021109819412231445, 0.011660031042993069, 0.007438067812472582, -0.02220832370221615, 0.03390805795788765, 0.00433776993304491, -0.009463022463023663, -0.021520104259252548, 0.008900534361600876, -0.01780106872320175, 0.001344179268926382, 0.008887299336493015, 0.02076570875942707, 0.004632248543202877, -0.01705990917980671, 0.015895230695605278, -0.016001110896468163, -0.013962920755147934, 0.0012399536790326238, -0.029461100697517395, 0.02384946309030056, 0.008629217743873596, -0.023200947791337967, 0.0029646391049027443, -0.01310926303267479, 0.011435036547482014, -0.012010758742690086, 0.028084661811590195, -0.013334258459508419, 0.0069946954026818275, 0.014929075725376606, -0.01711284928023815, 0.007755707483738661, -0.01768195442855358, 0.0255567766726017, -0.002268147422000766, -0.014624670147895813, 0.025570012629032135, 0.00648514786735177, 0.0014277251902967691, -0.032637499272823334, 0.003098643384873867, 0.012758536264300346, -0.00848363246768713, 0.0206465944647789, 0.033563949167728424, 0.02612588182091713, 0.026589106768369675, -0.009621841832995415, -0.004724893718957901, 0.01950838416814804, 0.03875206783413887, -0.005641417112201452, 0.017827538773417473, 0.010965194553136826, 0.006382576655596495, -0.013592340983450413, 0.005836633034050465, -0.009509344585239887, 0.007484390400350094, -0.023915637284517288, 0.0023558293469250202, 0.017999595031142235, 0.029461100697517395, -0.0064024291932582855, -0.015590825118124485, 0.010885784402489662, 0.01059461385011673, -0.012454131618142128, -0.0001341077295364812, 0.013949685730040073, 0.01285118144005537, -0.005485905800014734, 0.0016295588575303555, -0.6458678245544434, 0.008615982718765736, -0.021798038855195045, 0.000835459097288549, -0.012460748665034771, -0.01409527100622654, 0.011838703416287899, 0.01893927901983261, -0.03528450056910515, 0.0058564855717122555, 0.00905273761600256, -0.00579031091183424, -0.01774812862277031, 0.006071554496884346, -0.03790502995252609, -0.013221761211752892, -0.0033848502207547426, -0.009813749231398106, 0.012712213210761547, -0.002900118473917246, 0.020805412903428078, 0.029884621500968933, -0.009277732111513615, 0.00738512771204114, -0.004493281245231628, 0.0031366939656436443, -0.004926727153360844, -0.01711284928023815, 0.00540980463847518, -0.012473983690142632, -0.02678763121366501, 0.01282471138983965, -0.008754950016736984, -0.018687814474105835, 0.05042533576488495, -0.010687259025871754, -0.017906948924064636, 0.006359415594488382, 0.014717315323650837, 0.04605778679251671, -0.001114221173338592, -0.03618447855114937, 0.04603131487965584, -0.006372650619596243, 0.019733378663659096, 0.006756465416401625, 0.017470194026827812, 0.01478349044919014, -0.023121537640690804, -0.006726686842739582, -0.003676020074635744, -0.029646391049027443, -0.01446585077792406, 0.030334610491991043, 0.01261295098811388, -0.015392300672829151, 0.028561120852828026, -0.029408160597085953, -0.00030399131355807185, 0.022128913551568985, 0.003887780010700226, 0.013909980654716492, 0.0003379059780854732, -0.018873104825615883, -0.03779914975166321, -0.0015551120741292834, -0.025424426421523094, -0.008854212239384651, -0.007100575137883425, 0.012209284119307995, 0.01786724478006363, 0.01696726493537426, -0.014889370650053024, -0.005161648616194725, 0.012057080864906311, 0.043887246400117874, 0.007537330035120249, 0.0011621980229392648, 0.019773084670305252, 0.019256919622421265, -0.00906597264111042, -0.024074457585811615, -0.019548088312149048, 0.006521544419229031, 0.0010976775083690882, -0.011315921321511269, -0.019786318764090538, 0.00813952274620533, 0.03075813129544258, 0.02178480289876461, 0.017973124980926514, 0.0014575038803741336, 0.0013334258692339063, -0.02909052185714245, -0.010647553950548172, 0.04018144682049751, -0.010157858952879906, 0.002610602881759405, 0.015167305245995522, -0.0332198403775692, -0.017165789380669594, -0.013023235835134983, 0.010535056702792645, -0.0011853593168780208, -0.003480803919956088, 0.01903192326426506, -0.02543766237795353, 0.0065579405054450035, 0.03803737834095955, -0.004903566092252731, -0.007305717561393976, -0.0038414576556533575, -0.01186517346650362, -0.02337300218641758, -0.023981813341379166, -0.02375681698322296, 0.029672861099243164, 0.040446147322654724, 0.019614264369010925, -0.030149320140480995, 0.013565870933234692, 0.007775560021400452, 0.010018891654908657, -0.0071402802132070065, 0.013446755707263947, 0.013049705885350704, 0.03719033673405647, 0.008794655092060566, -0.03186986967921257, -0.0233994722366333, 0.02232743799686432, 0.010283592157065868, 0.02477591298520565, -0.0008544844458810985, -0.015259950421750546, 0.0284023005515337, 0.005816780496388674, -0.02361123263835907, 0.007722619920969009, -0.02866700105369091, -0.00579692842438817, -0.03210810199379921, -0.002443511039018631, -0.023320062085986137, -0.027819961309432983, -0.026086177676916122, -0.008986562490463257, -0.0016692638164386153, -0.0357874296605587, -0.001240780926309526, -0.0006121185724623501, 0.002751224674284458, -0.016345219686627388, 0.0061377291567623615, 0.028719941154122353, 0.005002828314900398, -0.01687462069094181, -0.02031571790575981, -0.026972921565175056, -0.024233277887105942, 0.0029183165170252323, 0.01855546422302723, -0.032002221792936325, -0.0008118842961266637, -0.010601231828331947, -0.0007775560370646417, -0.002216861816123128, 0.005982218310236931, 0.004827464930713177, -0.02752879075706005, 0.008205697871744633, -0.008430692367255688, 0.0026172203943133354, 0.02776702120900154, -0.006187360733747482, 0.012149726040661335, -0.033087488263845444, -0.0036627850495278835, -0.026628810912370682, -0.0010480462806299329, 0.00704763550311327, 0.006488456856459379, -0.029275810346007347, -0.012546775862574577, 0.004486663732677698, 0.008774802088737488, 0.012480600737035275, 0.033590421080589294, -0.006164199206978083, 0.033352188766002655, 0.01815841533243656, -0.017880478873848915, -0.01294382568448782, -6.684706750093028e-05, 0.012533540837466717, -0.004973049741238356, 0.02645675651729107, 0.0006017787382006645, -0.011170336976647377, 0.017761364579200745, 0.0060748630203306675, 0.0046190135180950165, 0.0010149587178602815, -0.016027580946683884, 0.033087488263845444, -0.012361486442387104, 0.014002625830471516, -0.021083349362015724, 0.061780959367752075, 0.009860072284936905, 0.008205697871744633, -0.0023988429456949234, -0.03051990084350109, 0.01649080403149128, -8.313231955980882e-05, 0.02621852606534958, 0.0009330672328360379, 0.011018133722245693, -0.011097543872892857, -0.007186602801084518, 0.01777459867298603, -0.024233277887105942, 0.00504253339022398, 0.026668516919016838, -0.01421438530087471, 0.0052112797275185585, -0.01084607932716608, 0.027211152017116547, -0.0033385276328772306, -0.022631842643022537, 0.0031979058403521776, 0.030440490692853928, 0.006160890683531761, 0.023095067590475082, 0.01604081504046917, 0.026906747370958328, 0.00881450716406107, -0.0059127346612513065, -0.011236511170864105, -0.01207693386822939, 0.009476257488131523, 0.04611072689294815, -0.009985804557800293, 0.005998761858791113, -0.0006079826271161437, -0.002923279767856002, 0.009608606807887554, -0.0054197306744754314, -0.008364517241716385, -0.0004379956517368555, -0.007332187611609697, 0.02142745815217495, -0.0065116179175674915, -0.007828500121831894, -0.00882774218916893, 0.018621638417243958, 0.005217897240072489, -0.011289451271295547, 0.03629035875201225, 0.015934934839606285, 0.014717315323650837, -0.030864009633660316, 0.007411597762256861, 0.0015749644953757524, 0.003887780010700226, -0.0023277048021554947, -0.0018694432219490409, -0.021890683099627495, 0.009833602234721184, 0.00296298461034894, 0.0011324193328619003, -0.010104919783771038, -0.005353556014597416, 0.0025593172758817673, -0.01627904549241066, -0.01478349044919014, -0.03483450785279274, 0.025689126923680305, -0.027343502268195152, 0.019323093816637993, 0.00867553986608982, -0.03570801764726639, 0.018767224624753, 0.0262449961155653, 0.013400433585047722, -0.01225560624152422, -0.02776702120900154, 0.014029095880687237, -0.0008110571070574224, 0.045978374779224396, 0.009390229359269142, 0.008920387364923954, -0.011071073822677135, 0.0016270773485302925, -0.0037091076374053955, -0.009304202161729336, 0.005300615914165974, -0.03306102007627487, 0.03398746997117996, 0.0006212175940163434, -0.01594817079603672, -0.000643138075247407, -0.0066671292297542095, 0.004016821272671223, 0.04190199822187424, 0.003755429992452264, -0.011421801522374153, 0.00207954877987504, 0.030122850090265274, 0.002610602881759405, 0.01083284430205822, 0.011944583617150784, -0.0097277220338583, -0.005972291808575392, -0.027369972318410873, -0.015987874940037727, 0.010640936903655529, -0.0141085060313344, -0.0005538018885999918, -0.009721104055643082, 0.0012672508601099253, -0.022737722843885422, -0.005029298365116119, 0.0073586576618254185, 0.0760747566819191, 0.007398362737149, 0.01050196960568428, 0.02477591298520565, 0.01312249805778265, 0.0010315024992451072, -0.02627146616578102, -0.021295107901096344, -0.00756380008533597, 0.018145179376006126, 0.009013032540678978, -0.02354505844414234, 0.02095099911093712, -0.007808647584170103, 0.0220230333507061, -0.007610122673213482, -0.009224792011082172, -0.01744372397661209, 0.020223073661327362, -0.010224034078419209, 0.010369619354605675, 0.013532782904803753, 0.0184892900288105, 0.02726409211754799, 0.019587794318795204, 0.019773084670305252, 0.02292301319539547, 0.029619920998811722, -0.0010521821677684784, -0.012427661567926407, -0.007993937470018864, -0.012156344018876553, -0.01512760017067194, -0.015034954994916916, -0.007854970172047615, 0.022870073094964027, 0.0007469500997103751, 0.01570994034409523, 0.01843634992837906, 0.005773766897618771, 0.01606728509068489, 0.014307030476629734, 0.00017453651526011527, -0.00812628772109747, 0.0025394647382199764, -0.0154849449172616, 0.014704080298542976, 0.0316581092774868, -0.011944583617150784, -0.010859314352273941, 0.014505555853247643, -0.0038778537418693304, 0.015723174437880516, -0.00596236577257514, -0.01316882111132145, 0.003669402562081814, 0.025781771168112755, -0.003808370092883706, 0.0017619088757783175, -0.009833602234721184, 0.0154849449172616, -0.014346735551953316, -0.0017155864043161273, 0.006177434232085943, -0.020276013761758804, -0.001297856797464192, 0.011646796017885208, 0.0062932404689490795, -0.02636411227285862, -0.006217139307409525, -0.0002448474115226418, -0.014386440627276897, -0.03856677934527397, -0.008874064311385155, -0.003391467733308673, 0.005303924437612295, -0.0053667910397052765, -0.016239339485764503, -0.013923215679824352, 0.03327278047800064, 0.00199352134950459, 0.019587794318795204, -0.0075704175978899, -0.024352392181754112, -0.03491391986608505, 0.034516870975494385, 0.01855546422302723, -0.006005379371345043, -0.014333500526845455, -0.00048597250133752823, 0.00260729412548244, 0.010760052129626274, 0.007014547940343618, 0.0033699609339237213, -0.005518993362784386, -0.02095099911093712, 0.004413871094584465, 0.0063858856447041035, -0.004605778492987156, 0.0021473781671375036, -0.013592340983450413, 0.004188876133412123, -0.010296827182173729, -0.006640659179538488, 0.011077691800892353, -0.022075973451137543, -0.01283794641494751, -0.005780384410172701, 0.001602261676453054, 0.011726206168532372, 0.029302280396223068, -0.016464335843920708, 0.02621852606534958, -0.010852696374058723, -0.04039320722222328, -0.00614103814586997, -0.008073347620666027, 0.018290763720870018, -0.0068226405419409275, -0.015643764287233353, -0.029434630647301674, -0.00991962943226099, 0.01843634992837906, 0.024789147078990936, -0.01192473154515028, 0.007113810162991285, 0.008417457342147827, -0.010243887081742287, -0.008781420066952705, -0.010839461348950863, -0.014823195524513721, 0.01891280896961689, -0.033087488263845444, -0.0233994722366333, -0.025358252227306366, -0.021837742999196053, -0.00905273761600256, 0.017734894528985023, -0.004569382406771183, -0.025000907480716705, -0.027422912418842316, 0.02591412141919136, -0.023055363446474075, -0.010753434151411057, 0.011051221750676632, -0.021612748503684998, -0.031234590336680412, -0.03163164108991623, -0.025331782177090645, 0.0191775094717741, 0.005571933463215828, -0.006663820240646601, 0.005353556014597416, -0.0059127346612513065, 0.009879924356937408, -0.029064051806926727, -0.007431450299918652, -0.0016585104167461395, -0.005806854460388422, 0.01577611453831196, -0.004800994880497456, 0.028746411204338074, 0.037507977336645126, 0.0032293389085680246, -0.026297936215996742, -0.014002625830471516, -0.031843401491642, 0.02178480289876461, -0.04695776477456093, 0.006677055265754461, 0.014505555853247643, 0.01352616585791111, -0.015987874940037727, 0.009595371782779694, -0.013446755707263947, 0.008953474462032318, 0.019111333414912224, -0.0010339840082451701, -0.01774812862277031, -0.02097746916115284, 0.011964436620473862, -0.002190391765907407, -0.006968225352466106, 0.008966709487140179, 0.013433520682156086, 0.0083049600943923, -0.001381402718834579, 0.01265927404165268, -0.010779904201626778, 0.004847317468374968, 0.01570994034409523, -0.022578902542591095, 0.0302816703915596, -0.019773084670305252, 0.00026759508182294667, 0.010144623927772045, -0.005078929476439953, -0.016861384734511375, -0.04417841508984566, 0.004724893718957901, -0.015101130120456219, -0.008132904767990112, -0.0034410988446325064, -0.015895230695605278, -0.015246715396642685, -0.00415248004719615, -0.012460748665034771, -0.019137803465127945, -0.023412708193063736, -0.02627146616578102, -0.026761161163449287, -0.03189634159207344, -0.015537885017693043, -0.0016270773485302925, 0.00915861688554287, -0.008397605270147324, -0.022075973451137543, 0.03025520034134388, 0.0036627850495278835, -0.03118165023624897, 0.028296422213315964, 3.978253516834229e-05, 0.027687611058354378, -0.005704283248633146, 0.03374924138188362, 0.009774044156074524, 0.023240651935338974, 0.007497625425457954, 0.04245786741375923, 0.015762880444526672, -0.0054925233125686646, 0.02866700105369091, -0.0047116586938500404, 0.03210810199379921, -0.032002221792936325, 0.005499140825122595, 0.010184329003095627, -0.0141085060313344, -0.024008283391594887, 0.028296422213315964, -0.012427661567926407, -0.006405738182365894, -0.027581730857491493, 0.01815841533243656, -0.0008602747111581266, 0.017602544277906418, -0.027131741866469383, -0.003202869091182947, -0.015577590093016624, -0.0029332060366868973, -0.027634670957922935, 0.0387255996465683, -0.036158010363578796, 0.018065769225358963, -0.00038815761217847466, -0.015815820544958115, 0.026469992473721504, -0.03570801764726639, -0.03388158977031708, 0.048043034970760345, 0.01792018488049507, 0.006124494597315788, -0.013082793913781643, -0.00022685610747430474, 0.007782177533954382, -0.009866689331829548, -0.00704763550311327, -0.022962717339396477, 0.009502727538347244, 0.024908263236284256, -0.03695210814476013, 0.002564280526712537, 0.01637168973684311, 0.01594817079603672, 0.015074660070240498, -0.026417052373290062, -0.007087340112775564, 0.01983925886452198, 0.01207693386822939, -0.026536166667938232, -0.0014682573964819312, 0.0029216252733021975, -0.008973327465355396, 0.000560005777515471, -1.1121791430923622e-05, -0.006409046705812216, -0.0240876916795969, -0.020090723410248756, -0.00918508693575859, -0.02387593314051628, 0.0016212869668379426, -0.027872901409864426, 0.023320062085986137, 0.004185567609965801, -0.0061675081960856915, 0.020606888458132744, 0.007815265096724033, 0.020990703254938126, -0.02684057131409645, 0.006392503157258034, -0.01421438530087471, 0.011726206168532372, -0.002837252337485552, -0.018952514976263046, -0.017046675086021423, 0.02477591298520565, 0.03049343079328537, -0.019230449572205544, -0.02166568860411644, -0.03486097976565361, -0.02508031763136387, -0.008874064311385155, -0.013314405456185341, -0.011421801522374153, -0.002929897280409932, 0.003113532904535532, 0.020686298608779907, -0.012963678687810898, -0.01536583062261343, 0.025503836572170258, 0.001367340562865138, 0.00045991610386408865, 0.02211567759513855, -0.030122850090265274, 0.013923215679824352, 0.023505352437496185, -0.014743785373866558, -0.01915103942155838, -0.025186197832226753, 0.008966709487140179, 0.010779904201626778, 0.029461100697517395, -0.0075704175978899, 0.019984843209385872, -0.002208590041846037, -0.021149523556232452, -0.010190946981310844, 0.020117193460464478, 0.009072589688003063, -0.016623154282569885, 0.041134368628263474, 0.01279162336140871, 0.009992421604692936, 0.017470194026827812, 0.0060748630203306675, -0.010462264530360699, -0.01385704055428505, -0.022750958800315857, -0.022539198398590088, -0.01388351060450077, -0.018634874373674393, 0.006756465416401625, 0.005052459891885519, -0.01276515331119299, -0.04086966812610626, 0.03255809098482132, -0.022062737494707108, 0.025159727782011032, 0.005125252064317465, 0.0198657289147377, 0.021493634209036827, 0.012685743160545826, -0.01192473154515028, 0.02439209818840027, -0.013711456209421158, 0.03666093945503235, -0.011838703416287899, -0.008589512668550014, 0.0076696802861988544, -0.010204182006418705, 0.009701251983642578, -0.017827538773417473, -0.040472619235515594, -0.02645675651729107, 0.051007673144340515, 0.014002625830471516, 0.00525098480284214, 0.014889370650053024, -0.000594334036577493, -0.01050196960568428, 0.00792776234447956, -0.001794996322132647, 0.0016245957231149077, 0.026139117777347565, 0.006177434232085943, -0.01744372397661209, -0.013671751134097576, 0.006048392970114946, 0.023240651935338974, 0.009707869961857796, 0.00815275777131319, -0.000629075919277966, 0.006395811680704355, 0.012639421038329601, 0.006220448296517134, 0.00815275777131319, 0.01981278881430626, -0.011739441193640232, 0.02028924785554409, 0.005882955621927977, -0.021559808403253555, 0.00815275777131319, 0.019428974017500877, -0.008199079893529415, -0.008854212239384651, -0.022883307188749313, -0.05323115363717079, -0.02095099911093712, -0.010422559455037117, -0.026284702122211456, 0.007451302837580442, -0.00915861688554287, 0.014717315323650837, -0.013473225757479668, -0.0075704175978899, -0.017787834629416466, -0.013049705885350704, 0.0220230333507061, 0.010389471426606178, 0.01536583062261343, -0.029487570747733116, 0.004784450866281986, -0.006988077890127897, -0.004109466448426247, -0.040022626519203186, -0.004605778492987156, -0.013552635908126831, -0.026708221063017845, -0.010601231828331947, 0.0007101402734406292, -0.04187552630901337, -0.030784601345658302, 0.013036470860242844, 0.004794377367943525, -0.014293795451521873, -0.010151241905987263, 0.18878398835659027, -0.0032988227903842926, -0.006756465416401625, 0.026628810912370682, 0.020937763154506683, 0.010726964101195335, -0.003937411122024059, -0.00011198047286598012, -0.005399878136813641, 0.007292482536286116, 0.004486663732677698, 0.002084511797875166, -0.015259950421750546, 0.005671195685863495, 0.004910183604806662, 0.007007930427789688, -0.013321023434400558, -0.03213457018136978, -0.00738512771204114, -0.017311375588178635, 1.567778417665977e-05, -0.00520797073841095, -0.0032475371845066547, -0.012149726040661335, 0.01336072850972414, -0.0019653968047350645, 0.012460748665034771, -0.010753434151411057, 0.058816321194171906, 0.020064253360033035, -0.005270837340503931, 0.0034377900883555412, -0.003285587765276432, -0.013565870933234692, -0.010164476931095123, 0.01969367451965809, -0.0042451247572898865, -0.030308140441775322, 0.026165587827563286, 0.019468678161501884, -0.0027528791688382626, -0.039069708436727524, 0.012368103489279747, 0.007246160414069891, -0.00907920766621828, 0.02043483406305313, -0.008529954589903355, 0.00395064614713192, -0.0019769775681197643, 0.012917355634272099, -0.014796725474298, 0.005535536911338568, 0.004817538429051638, 0.024550916627049446, 0.014280560426414013, -0.005178192164748907, 0.021493634209036827, 0.003009307198226452, 0.001531123649328947, 0.02731703221797943, -0.008523337543010712, 0.026906747370958328, -0.009112294763326645, 0.01735107973217964, -0.007120427675545216, 0.012698978185653687, -0.0208318829536438, 0.011388714425265789, 0.0052576023153960705, 0.003075482090935111, 0.005889573134481907, -0.011607091873884201, -0.0019587792921811342, -0.004953197203576565, -0.021017173305153847, -0.035866837948560715, 0.023267121985554695, -0.007318952586501837, 0.027581730857491493, 0.010455646552145481, 0.0016824988415464759, 0.000525677518453449, -0.0067663914524018764, 0.015207010321319103, -0.006002070847898722, -0.006809405516833067, 0.008285107091069221, 0.0032756614964455366, -0.013499695807695389, -0.021652452647686005, 0.006981460377573967, 0.0005430484306998551, 0.005436274688690901, -0.0008966709719970822, 0.008311577141284943, 0.009615224786102772, -0.00993286445736885, 0.02259213849902153, -0.01187840849161148, -0.01765548437833786, -0.013261466287076473, -0.02050100825726986, 0.005657960660755634, 0.0018843325087800622, -0.04719599708914757, 0.02050100825726986, 0.007113810162991285, 0.00647853035479784, 0.003808370092883706, -0.008622599765658379, -0.0015327779110521078, -0.018978985026478767, -0.0005910252803005278, -0.020845118910074234, 0.011408566497266293, 0.02669498696923256, -0.006677055265754461, -0.008880682289600372, 0.016451099887490273, -0.03171104937791824, 0.001203557476401329, -0.017033439129590988, 0.023227417841553688, 0.015617295168340206, -0.009357142262160778, -0.016358455643057823, -0.031499288976192474, -0.004218655172735453, 0.007107192650437355, -0.0411078967154026, 0.01443938072770834, 0.010674024000763893, -0.005525610875338316, 0.045951906591653824, -0.008629217743873596, 0.02582147717475891, -0.0015551120741292834, -0.003457642626017332, -0.009621841832995415, 0.020223073661327362, 0.014161445200443268, -0.011415183544158936, 0.01696726493537426, -0.01672903448343277, -0.007133662700653076, -0.021850978955626488, 0.01711284928023815, -0.007120427675545216, -0.00022023860947228968, -0.01319529116153717, 0.01385704055428505, -0.03258455917239189, -0.01792018488049507, -0.02256566844880581, 0.0282170120626688, -0.005727444309741259, -0.01682168059051037, 0.013155586086213589, 0.004612396005541086, 0.022539198398590088, -0.03094341978430748, -0.000669194501824677, 0.02693321742117405, -0.02140098810195923, -0.008834360167384148, 0.012732066214084625, -0.16676095128059387, 0.012930590659379959, 0.000603019492700696, -0.014399675652384758, 0.03732268884778023, 0.024590622633695602, -0.004923418629914522, 0.01858193427324295, -0.01420115027576685, 0.03295513987541199, -0.008265255019068718, 0.004671953618526459, -0.02983168140053749, -0.010369619354605675, -0.0029199710115790367, -0.005859794560819864, -0.0035370527766644955, -0.011646796017885208, 0.013367345556616783, 0.007788795046508312, 0.023650938645005226, 0.0005322949727997184, 0.026178821921348572, 0.00523774977773428, -0.008146139793097973, 0.006686981767416, -0.0006952508701942861, -0.006452060304582119, 0.010237269103527069, -0.0016063976800069213, -0.008225549943745136, -0.01819811947643757, 0.027608200907707214, -0.0014798379270359874, -0.004384092520922422, -0.0032640809658914804, -0.015987874940037727, -0.00043261892278678715, -0.007894675247371197, 0.019230449572205544, 0.010515204630792141, 0.026192057877779007, 0.013737925328314304, -0.007709385361522436, 0.0047910683788359165, 0.037031520158052444, 0.02175833284854889, -0.012368103489279747, 0.0066208066418766975, -0.005052459891885519, 0.024074457585811615, -0.004840699955821037, 0.018039299175143242, 0.0027644596993923187, 0.02594059146940708, 0.0021457236725836992, -0.011600473895668983, -0.005178192164748907, -0.014598200097680092, -0.010230652056634426, -0.018449584022164345, -0.006849110592156649, -0.01888633891940117, 0.005833324510604143, -0.00738512771204114, -0.013632046058773994, -0.011335774324834347, 0.006256844382733107, 0.0013243267312645912, 0.0007738336571492255, -0.004142553545534611, -0.017523134127259254, -0.0019521618960425258, 0.008721861988306046, -0.01192473154515028, 0.019428974017500877, -0.005270837340503931, -0.018383409827947617, 0.002334322314709425, -0.012394573539495468, 0.0016957338666543365, 0.0454225055873394, -0.03721680864691734, 0.0029199710115790367, -0.023743582889437675, -0.003745503956452012, -0.01066740695387125, 0.023836227133870125, 0.00043634127359837294, -0.004030056297779083, -0.006961607839912176, -0.029011111706495285, 0.011633560992777348, -0.027449382469058037, 0.005634799599647522, 0.0208318829536438, 0.0032690439838916063, 0.03411981835961342, -0.004397327546030283, 0.008099817670881748, -0.007027782965451479, -0.004403945058584213, -0.025609716773033142, 0.008338047191500664, 0.02726409211754799, 0.034728627651929855, -0.011454888619482517, 0.02980521135032177, 0.033352188766002655, 0.023915637284517288, 0.0302816703915596, -0.00824540201574564, 0.03629035875201225, 0.011408566497266293, -0.02100393921136856, 0.023531822487711906, -0.005115326028317213, -0.012308546341955662, 0.026072941720485687, 0.0044006360694766045, -0.0020398437045514584, -0.02337300218641758, -0.010329914279282093, -0.002240023110061884, -0.027012627571821213, -0.013036470860242844, -0.10852696746587753, 0.01512760017067194, 0.020871588960289955, 0.013354110531508923, -0.020540714263916016, 0.0010951958829537034, -0.0013507967814803123, 0.007596887648105621, -0.0036429327446967363, 0.0032243758905678988, -0.032663971185684204, -0.008238784968852997, 0.015551120042800903, -0.013923215679824352, 0.0031069153919816017, 0.0019620880484580994, 0.018383409827947617, 0.000875991303473711, -0.019680438563227654, 0.01446585077792406, -0.007074105553328991, 0.016411395743489265, -0.009568901732563972, -0.016543744131922722, -0.011408566497266293, -0.018423113971948624, -0.03806384652853012, 0.018092239275574684, 0.023836227133870125, 0.0025113404262810946, -0.009899777360260487, -0.001791687565855682, -0.0023707186337560415, -0.026761161163449287, 0.012368103489279747, -0.006091407034546137, -0.008629217743873596, -0.024074457585811615, 0.011646796017885208, -0.03721680864691734, -0.006157581694424152, 0.02211567759513855, 0.021268637850880623, -0.02678763121366501, 0.012004141695797443, -0.007874822244048119, -0.029937561601400375, 0.03483450785279274, 0.026496462523937225, 0.004387401044368744, -0.01242104358971119, -0.013804100453853607, -0.03345806896686554, -0.01762901432812214, 0.054898764938116074, 0.016212869435548782, -0.012937208637595177, -0.004989593289792538, -0.035178620368242264, -0.008788037113845348, 0.013486460782587528, -0.0010075140744447708, 0.0038414576556533575, 0.003341836389154196, 0.01536583062261343, 0.008324812166392803, -0.0179863590747118, 0.004053217358887196, 0.013043088838458061, -0.006521544419229031, 0.006081480532884598, -0.01732460968196392, -0.014359970577061176, 0.010124771855771542, -0.018145179376006126, -0.004016821272671223, -0.0186745785176754, -0.002185428747907281, 0.0039738076739013195, 0.010601231828331947, -0.013962920755147934, -0.014386440627276897, -0.017099615186452866, -0.026549402624368668, 0.0342256985604763, 0.021109819412231445, 0.010932106524705887, -0.0029712566174566746, 0.01879369467496872, -0.047566574066877365, -0.012050463818013668, 0.021745098754763603, 0.005310541950166225, -0.012335016392171383, -0.008913769386708736, 0.0256494227796793, -0.010151241905987263, -0.01159385684877634, -0.004228581208735704, -0.009224792011082172, -0.02441856823861599, -0.006359415594488382, -0.07173367589712143, -0.019084863364696503, -0.009873307310044765, -0.006614189129322767, -0.011587238870561123, 0.01353940088301897, 0.0023740273900330067, 0.023425942286849022, -0.013790865428745747, 0.03687269985675812, -0.01191149652004242, 0.03171104937791824, 0.020752472802996635, -0.015670234337449074, -0.01789371483027935, -0.004023438785225153, 0.0062469178810715675, 0.00466202711686492, 0.01243427861481905, 0.014849665574729443, 0.0011431727325543761, 0.007934380322694778, 0.012632803991436958, 0.012427661567926407, -0.01905839331448078, 0.019733378663659096, -0.0032706984784454107, 0.01670256443321705, -0.0004814229905605316, -0.008708626963198185, 0.023320062085986137, -0.03539038076996803, -0.014611435122787952, 0.037481509149074554, -0.02187744900584221, -0.021414224058389664, -0.02657587267458439, 0.04084319621324539, 0.020024549216032028, 0.01606728509068489, -0.03049343079328537, -0.016954028978943825, 0.03115518018603325, 0.0034907301887869835, -0.0130298538133502, -0.0006853246595710516, 0.0011307649547234178, -0.005787001922726631, 0.004370857495814562, 0.006739921867847443, 0.018052535131573677, 0.010396089404821396, 0.01580258458852768, -0.017099615186452866, -0.015220245346426964, 0.027211152017116547, 0.011421801522374153, 0.009694634936749935, -0.010925489477813244, -0.00958875473588705, 0.025371486321091652, -0.005442892201244831, 0.01187840849161148, -0.004959814716130495, 0.009138764813542366, -0.014704080298542976, -0.01387027557939291, -0.0003470050578471273, 0.013294553384184837, -0.05050474405288696, -0.0024716355837881565, 0.00906597264111042, 0.02845524065196514, -0.001010822830721736, 0.011104161851108074, -0.013896745629608631, -0.01924368366599083, -0.03591977804899216, -0.00918508693575859, 0.03938734903931618, -0.0032409196719527245, -0.002547736745327711, -0.008477014489471912, 0.01047549955546856, 0.015207010321319103, -0.00288357469253242, -0.020368658006191254, 0.00026573389186523855, 0.000369132321793586, 0.014849665574729443, 0.011051221750676632, 0.02325388789176941, 0.0029514040797948837, 0.0029977266676723957, 0.011415183544158936, 0.01672903448343277, -0.02259213849902153, 0.007947615347802639, 0.007239542901515961, 0.013506313785910606, -0.013340875506401062, 0.013493078760802746, -0.014082035981118679, -0.02043483406305313, -0.01078652124851942, -0.03253161907196045, -0.017589310184121132, -0.012566628865897655, -0.00112580182030797, 0.02363770268857479, 0.018237823620438576, -0.007808647584170103, 0.017006969079375267, 0.006352798081934452, -0.00704763550311327, 0.020487774163484573, 0.004106157459318638</t>
+  </si>
+  <si>
+    <t>[-0.008658912032842636, -0.020643159747123718, -0.0011328960536047816, -0.03596578165888786, -0.009630431421101093, 0.012740598060190678, -0.009187052957713604, -0.01609201356768608, -0.006950602401047945, 0.007054926827549934, 0.014944447204470634, -0.019573835656046867, -0.02675916813313961, -0.030462678521871567, -0.031010380014777184, 0.004860857501626015, 0.030906055122613907, -0.011104010976850986, -0.011827760376036167, -0.0429815873503685, -0.014018570072948933, 0.02793281525373459, 0.0048347762785851955, -0.012707996182143688, -0.009408742189407349, 0.0005957892281003296, 0.0002760924689937383, -0.021386468783020973, -0.018947890028357506, 0.0007115239277482033, 0.01590944640338421, -0.004371837712824345, -0.019052214920520782, -0.003323705168440938, 0.0016488119727000594, -0.0003755265206564218, 0.01776120252907276, -0.009676073677837849, 0.007498304825276136, -0.00232284446246922, 0.015766000375151634, -0.0019397787982597947, 0.010771477594971657, -0.004880418535321951, -0.014605393633246422, 0.035704970359802246, 0.022168900817632675, 0.01472275797277689, -0.002614626195281744, 0.008267696015536785, 0.005988863296806812, 0.01511397399008274, -0.011645193211734295, 0.015739919617772102, -0.0075830682180821896, -0.020486673340201378, -0.02486829087138176, 0.0195607952773571, 0.01052370760589838, -0.024568358436226845, -0.011899483390152454, 0.01773511990904808, -0.024242345243692398, -0.011488706804811954, -0.00890016183257103, -0.011782119050621986, 0.0070875282399356365, 0.013849043287336826, -0.007426581811159849, -0.002806974109262228, 0.021321266889572144, 0.028767408803105354, 0.015700798481702805, -0.02246883325278759, 0.03776537626981735, -0.0038208751939237118, -0.031062541529536247, 0.032705649733543396, 0.009441344067454338, 0.00853502657264471, -0.002823274815455079, -0.025572478771209717, -0.011253977194428444, 0.04011267051100731, 0.01704397238790989, 0.027385113760828972, 0.008287256583571434, 0.008280736394226551, -0.0004955401527695358, 0.0011630522785708308, 0.004603307228535414, -0.012271138839423656, -0.0035079026129096746, 0.0010831790277734399, -0.009793438017368317, 0.008450263179838657, 0.002601585816591978, -0.00047760939924046397, 0.009565228596329689, 0.010941004380583763, -0.019886808469891548, 0.0179568100720644, -0.011742996983230114, -0.02164728008210659, -0.04929320141673088, -0.00910228956490755, 0.000525696377735585, -0.017369985580444336, 0.03505294397473335, 0.003209600457921624, 0.004828256089240313, 0.04731104150414467, 0.009180532768368721, -0.0035144228022545576, -0.020917009562253952, -0.027306869626045227, -0.006924521643668413, -0.015922486782073975, 0.017383025959134102, -0.02322518453001976, -0.005186870694160461, 0.02253403514623642, 0.018478430807590485, 0.006885400041937828, 0.028376193717122078, -0.005656329914927483, -0.0038730374071747065, -0.020851807668805122, -0.012701475992798805, -0.016522351652383804, 0.006272494792938232, -0.007015805225819349, 0.00629531592130661, -0.008091649040579796, -0.013275259174406528, 0.011742996983230114, -0.025481196120381355, 0.010028167627751827, -0.010432424023747444, -0.01666579768061638, 0.030879974365234375, 0.01770903915166855, -0.01858275569975376, 0.002093004994094372, -0.03450524061918259, 0.026081059128046036, -0.006800636183470488, 0.028949975967407227, 0.005835636984556913, -0.0007616484654136002, 0.031766731292009354, -0.03852172568440437, -0.00013774060062132776, 0.008652391843497753, 0.01069975458085537, 0.006279014982283115, -0.01853059232234955, 0.03531375527381897, -0.012603672221302986, 6.6578017140273e-05, -0.010158573277294636, 0.02613322250545025, -0.0032780631445348263, 0.0010570979211479425, 0.006768035236746073, 0.025129102170467377, 0.021347347646951675, 0.010667153634130955, 0.0005126558244228363, 0.026407072320580482, 0.011586510576307774, 0.019521674141287804, -0.03395754098892212, 0.004309894982725382, 0.009558708406984806, 0.017539512366056442, -0.011319180019199848, 0.0021060456056147814, 0.011006207205355167, -0.0179568100720644, -0.013405664823949337, 0.006164910737425089, 0.026680923998355865, 0.00954566802829504, 0.013053570874035358, 0.0006569167017005384, 0.03174065053462982, 0.0047304523177444935, -0.003323705168440938, -0.012871002778410912, -0.00880235806107521, 0.023029575124382973, -0.005653069820255041, -0.008632831275463104, -0.6526524424552917, 0.0093891816213727, -0.00510536739602685, -0.013405664823949337, -0.018191538751125336, -0.004055604804307222, 0.014905326068401337, 0.013034009374678135, 0.0038436963222920895, 0.0033448960166424513, -0.0242032241076231, 0.015413906425237656, 0.0035600645933300257, -0.007954723201692104, -0.009160972200334072, -0.01773511990904808, -0.0018876167014241219, -0.028637003153562546, 0.0006565091898664832, -0.00015118865121621639, -0.008737155236303806, 0.027724167332053185, -0.020682280883193016, 0.010895363055169582, -0.015818163752555847, -0.005164050031453371, 0.007609149441123009, -0.01880444400012493, -0.013757758773863316, -0.003608966711908579, -0.03202754259109497, 0.012884043157100677, 0.010823640041053295, -0.013118772767484188, 0.04436388239264488, 0.000971519504673779, -0.007830838672816753, 0.0424078032374382, 0.006846278440207243, 0.015335663221776485, -0.013992488384246826, -0.014279380440711975, 0.02006937563419342, -0.012962286360561848, 0.022833967581391335, -0.0052259922958910465, 0.03414010629057884, 0.011997287161648273, -0.024842210114002228, -0.011019247584044933, 0.003824135521426797, -0.016574513167142868, -0.023433832451701164, 0.02615930326282978, 0.00880235806107521, -0.004469641484320164, 0.013731678016483784, -0.02398153394460678, -0.0010359070729464293, 0.04673726111650467, 0.02369464375078678, 0.00970215443521738, 0.01259063184261322, -0.020434509962797165, -0.0026064759586006403, 0.004264253191649914, -0.006442021578550339, -0.012525429017841816, -0.022860048338770866, -0.0075374264270067215, 0.00572805292904377, 0.009734755381941795, -0.024085858836770058, -0.005017343908548355, 0.017017891630530357, 0.03020186722278595, 0.005291195120662451, 0.007961243391036987, 0.006135569419711828, 0.012864482589066029, 0.018765322864055634, 0.0018370846519246697, -0.026615722104907036, -0.000580711115617305, 0.007759115193039179, 0.00513470871374011, -0.015205257572233677, -0.008587189018726349, 0.023303426802158356, 0.0033008840400725603, 0.02868916653096676, 0.005724792834371328, -0.0009544037748128176, -0.041703615337610245, 0.0016064302762970328, 0.02306869812309742, -0.024229304865002632, 0.01830890402197838, 0.01766991801559925, -0.024985656142234802, -0.02553335763514042, -0.0036187469959259033, 0.00018715197802521288, 0.0008223684271797538, 0.016052892431616783, 0.0013448046520352364, -0.02164728008210659, 0.01624849997460842, 0.026811329647898674, -0.012368942610919476, -0.023812007158994675, 0.005825856700539589, 0.01555735245347023, -0.017252620309591293, -0.014031610451638699, -0.029862813651561737, 0.030097542330622673, 0.027880653738975525, 0.02139950916171074, -0.007054926827549934, 0.026394031941890717, -0.0034818213898688555, 0.013444785960018635, -0.019873768091201782, 0.012584111653268337, 0.008815398439764977, 0.027280788868665695, -0.039434563368558884, -0.030853893607854843, -0.014970527961850166, 0.034948620945215225, 0.013444785960018635, 0.015257420018315315, -0.007811277639120817, 0.012029889039695263, 0.020969172939658165, 0.014592353254556656, 0.0008101428975351155, 0.010002086870372295, -0.024216264486312866, -0.018282823264598846, -0.020812686532735825, 0.016352824866771698, -0.02619842439889908, -0.007902560755610466, -0.004052344709634781, -0.008059047162532806, -0.0001036620233207941, -0.0446246936917305, 0.00623989338055253, -0.008626310154795647, -0.001549377921037376, -0.013653434813022614, 0.0163137037307024, 0.013483908027410507, 0.01786552555859089, -0.012088571675121784, -0.011840800754725933, -0.038860779255628586, -0.009245735593140125, 0.00913489144295454, 0.0163137037307024, -0.018256742507219315, -0.00014303831267170608, -0.005193390883505344, 0.004309894982725382, 0.00987820141017437, -0.0028575060423463583, -0.002267422154545784, -0.037035103887319565, -0.012812321074306965, -0.008450263179838657, -0.011977726593613625, 0.03998226672410965, 0.0035600645933300257, -0.0032633927185088396, -0.026146262884140015, 0.011149653233587742, -0.026785248890519142, -0.019430389627814293, 0.00804600678384304, 0.002521712565794587, -0.019521674141287804, -0.011156173422932625, 0.019104376435279846, 0.0204214695841074, 0.016900526359677315, 0.003951280377805233, -0.035079024732112885, 0.03505294397473335, 0.02060403674840927, -0.03098429925739765, -0.02082572691142559, -0.027593761682510376, 0.00946742482483387, 0.001705049304291606, 0.0017849225550889969, 0.000612497387919575, 0.0066963122226297855, 0.0250247772783041, 0.0204214695841074, 0.03680037707090378, -0.002886847360059619, -0.009695634245872498, 0.01975640282034874, -0.029967138543725014, 0.023238224908709526, -0.022416671738028526, 0.031479839235544205, 0.015426946803927422, 0.012134213000535965, -0.007576548028737307, -0.024607479572296143, 0.003318814793601632, 0.006383339408785105, 0.014148974791169167, 0.018295863643288612, 0.018361065536737442, -0.0028281649574637413, 0.0052781542763113976, 0.023329507559537888, 0.015857284888625145, 0.011586510576307774, 0.011560429818928242, -0.012460226193070412, 0.008117729797959328, 0.0023570756893604994, 0.02449011616408825, -0.011932085268199444, -0.020186740905046463, -0.01243414543569088, 0.038260914385318756, -0.014318501576781273, 0.021516874432563782, -0.0008476344519294798, 0.017174378037452698, -0.009597830474376678, -0.020473632961511612, 0.013268738985061646, -0.01764383725821972, 0.03260132670402527, 0.04900631308555603, 0.021738562732934952, -0.0015591583214700222, 0.0020033514592796564, -0.003478561295196414, -0.0007482004002667964, 0.010054248385131359, -9.220062202075496e-05, -0.022886130958795547, -0.027437275275588036, 0.006924521643668413, 0.016496270895004272, 0.015596473589539528, -0.003556804498657584, 0.006794115994125605, 0.0157790407538414, -0.0066963122226297855, 0.005196650978177786, 0.014331542886793613, -0.019482551142573357, 0.0005277339369058609, -0.0022886130027472973, 0.0070875282399356365, -0.004573965910822153, -0.0034981220960617065, 0.032836053520441055, -0.021073495969176292, -0.006194251589477062, -0.018504511564970016, 0.004352276679128408, 0.011136612854897976, -0.012564551085233688, 0.009689114056527615, -0.01111053116619587, -0.016965730115771294, -0.027280788868665695, -0.012375462800264359, 0.0021174561697989702, 0.028376193717122078, 0.0021696181502193213, -0.024033697322010994, 0.00585519801825285, 0.00725053483620286, 0.010432424023747444, -0.007465703412890434, -0.0203823484480381, 0.01840018853545189, -0.02988889440894127, 0.020108496770262718, -0.01323613803833723, 0.007576548028737307, -0.03711334988474846, -0.015048771165311337, -0.027698086574673653, -0.012225496582686901, 0.012466746382415295, -0.007719993591308594, 0.04407699033617973, -0.016300663352012634, -0.024985656142234802, -0.020903969183564186, -0.007837358862161636, -0.013914245180785656, 0.006800636183470488, 0.0036448282189667225, 0.0027156902942806482, -0.009402222000062466, 0.015948567539453506, -0.010960565879940987, -0.002943899715319276, 0.00833289884030819, 0.019430389627814293, -0.02004329487681389, -0.011136612854897976, 0.0015762740513309836, -0.024059778079390526, -0.009552188217639923, 0.02053883485496044, -0.003908898681402206, 0.011234416626393795, -0.035235513001680374, -0.016574513167142868, -0.006122529041022062, 0.09514370560646057, 0.008815398439764977, 0.0023032836616039276, 0.005975822918117046, 0.005819336511194706, 0.012584111653268337, -0.003511162707582116, -0.01853059232234955, 0.0031264671124517918, 0.024307547137141228, -0.0033155546989291906, -0.026328830048441887, 0.020630117505788803, 0.005754133686423302, 0.03247091919183731, -0.006618069019168615, -0.011742996983230114, -0.013131814077496529, 0.029419435188174248, 0.004104506690055132, 0.0028835872653871775, -0.01906525529921055, 0.00784387905150652, 0.023342547938227654, 0.018726201727986336, 0.0348442979156971, -0.0016153956530615687, 0.0315580815076828, -0.01096708606928587, -0.04204266890883446, 0.019639037549495697, -0.016105053946375847, -0.02733295038342476, -0.0024059778079390526, -0.0012331451289355755, 0.031479839235544205, -4.4954169425182045e-05, -0.003442700020968914, -0.0028672865591943264, 0.022860048338770866, 0.031792812049388885, 0.018830524757504463, -0.02375984564423561, 0.004779354203492403, 0.004300114698708057, -0.016209378838539124, 0.0038665172178298235, 0.028063220903277397, -0.010901883244514465, -0.0013456196757033467, 0.030254028737545013, 0.013992488384246826, 0.0053661782294511795, -0.011977726593613625, 0.01726566255092621, -0.006357258185744286, 0.013483908027410507, 0.018126336857676506, -0.02575504593551159, -0.02793281525373459, -0.010432424023747444, -0.008430702611804008, -0.0012657464249059558, 0.013705597259104252, -0.01858275569975376, -0.028819570317864418, -0.0038567367009818554, -0.006288795731961727, -0.01555735245347023, -0.007504825014621019, -0.009226175025105476, -0.015179176814854145, 0.004587006289511919, -0.0053792186081409454, 0.011325700208544731, 0.013783840462565422, 0.012805800884962082, -0.01243414543569088, -0.018348025158047676, 0.042772937566041946, -0.0028200147207826376, 0.015635594725608826, -0.014970527961850166, -0.030280111357569695, -0.010673673823475838, 0.026367951184511185, 0.015739919617772102, -0.008639351464807987, -0.018882688134908676, 0.009591309353709221, 0.002886847360059619, 0.0026749386452138424, 0.007667831610888243, -0.010106410831212997, 0.003119946690276265, 0.0027857832610607147, -0.006099707912653685, 0.014827082864940166, -0.0081568518653512, 0.006376819219440222, 0.018035052344202995, 0.016365865245461464, -0.01811329647898674, 0.007211413234472275, 0.013549110852181911, 0.006950602401047945, -0.027698086574673653, -0.03414010629057884, -0.011795159429311752, 0.016496270895004272, 0.007980803959071636, -0.01764383725821972, 0.007798236794769764, 0.011508267372846603, -0.017526471987366676, -0.0012282548705115914, 0.0066963122226297855, 0.027750248089432716, 0.004932580515742302, -0.008006885647773743, -0.009441344067454338, -0.026680923998355865, 0.014201137237250805, 0.039147671312093735, -0.005783475004136562, 0.02398153394460678, 0.003439439693465829, -0.0032291612587869167, 0.010817119851708412, -0.0071005686186254025, 0.01026941742748022, 0.04311199113726616, -0.018595796078443527, -0.02413802035152912, -0.026367951184511185, -0.021256063133478165, 0.001172832679003477, -0.0008158481796272099, -0.014918366447091103, 0.0002553091326262802, -0.022390589118003845, 0.015466068871319294, -0.007446142379194498, -0.0225601177662611, -0.0012657464249059558, -0.022677481174468994, 0.00015465253090951592, -0.019482551142573357, -0.025129102170467377, 0.03322726860642433, -0.008326378650963306, 0.0027156902942806482, -0.034766051918268204, 0.0057639144361019135, -0.0020718141458928585, -0.010973606258630753, -0.02329038642346859, -0.00725053483620286, 0.008541546761989594, 0.019652077928185463, 0.0062659746035933495, 0.00046660646330565214, 0.033149026334285736, -0.005930181127041578, -0.005072765983641148, -0.03489645943045616, -0.01722653955221176, 0.009982525371015072, -0.019117416813969612, 0.020721402019262314, 0.01532262284308672, 0.017187418416142464, -0.003154178149998188, -0.003053114050999284, -0.010008607059717178, 0.02720254473388195, -0.007465703412890434, -0.0024858510587364435, -0.029054300859570503, 0.0010473175207152963, 0.011149653233587742, -0.01688748598098755, -0.02373376488685608, 0.008372019976377487, -0.010328100062906742, 0.0018370846519246697, 0.008052526973187923, 0.0060736266896128654, -0.005131448619067669, 0.009904282167553902, 0.006464842706918716, -0.025507276877760887, 0.02638099156320095, 0.00874367542564869, -0.022507954388856888, 0.006983203813433647, 0.0023489254526793957, -0.021855928003787994, -0.010021647438406944, 0.005454201716929674, 0.012421105057001114, -0.020995253697037697, -0.006471362896263599, -0.027124302461743355, -0.0012111392570659518, 0.012675395235419273, 0.004075165838003159, -0.01465755607932806, 0.0010187914595007896, -0.029993219301104546, -0.04196442663669586, -0.01849147118628025, -0.020525794476270676, -0.021542955189943314, -0.0013496947940438986, 0.0005399594665504992, -0.021477753296494484, 0.026081059128046036, -0.022703561931848526, -0.020278023555874825, 0.036591727286577225, -0.001346434699371457, 0.02691565454006195, 0.003723071189597249, 0.02524646557867527, -0.013170935213565826, 0.009330498985946178, 0.003778493497520685, 0.032523080706596375, -0.003284583566710353, -0.0036057066172361374, 0.012779719196259975, 0.01924782246351242, 0.00621707271784544, -0.030853893607854843, 0.0003728776646312326, 0.024072818458080292, -0.000582748674787581, -0.01186688244342804, 0.0402691550552845, 0.0027694825548678637, -0.0037393718957901, -0.015387825667858124, 0.028506599366664886, 0.002950419904664159, 0.025807209312915802, -0.010275937616825104, 0.008593709208071232, -0.0225601177662611, -0.02619842439889908, -0.02269052155315876, 0.05216211825609207, -0.012499348260462284, 0.007896040566265583, 0.008339419029653072, -0.017995931208133698, 0.026863491162657738, -0.004811955615878105, -0.0027645924128592014, 0.04269469529390335, -0.002996061695739627, 0.02262531965970993, -0.0008162556914612651, -0.001982160611078143, 0.001300792908295989, -0.02553335763514042, -0.026328830048441887, -0.018908768892288208, 0.005953001789748669, 0.020917009562253952, -0.00683323759585619, 0.007133170031011105, 0.008339419029653072, 0.004309894982725382, 0.017943769693374634, -0.020617077127099037, -0.005708491895347834, 0.00814381055533886, 0.017122216522693634, -0.02704605832695961, -0.010738876648247242, -0.005998643580824137, -0.007309217005968094, 0.0029993217904120684, -0.0012282548705115914, -0.024372750893235207, -0.015140055678784847, -0.019208701327443123, 0.021477753296494484, 0.005294455215334892, -0.007178811822086573, -0.037791457027196884, 0.00964347179979086, 0.007452663034200668, 0.007009285036474466, 0.006487663835287094, -0.006885400041937828, 0.01624849997460842, -0.015205257572233677, 0.025768086314201355, 0.006728913635015488, 0.0038208751939237118, -0.0002848540898412466, -0.005653069820255041, -0.017330864444375038, 0.0013578451471403241, 0.01647019013762474, -0.008626310154795647, -0.031923215836286545, -0.015413906425237656, -0.009206614457070827, -0.005776954814791679, -0.0037947942037135363, -0.017030932009220123, -0.005891059525310993, 0.0009707044227980077, 6.214627501321957e-05, -0.0076417503878474236, -0.029706327244639397, 0.007074487395584583, -0.012857962399721146, -0.013470867648720741, 0.02733295038342476, -0.025663763284683228, -0.002314693992957473, 0.029706327244639397, -0.002335884841158986, -0.005369438324123621, -0.016457147896289825, 0.013523029163479805, -0.003814355004578829, 0.013796880841255188, -0.0029585701413452625, 0.0014157125260680914, -0.002238081069663167, 7.753002864774317e-05, -0.018348025158047676, 0.017369985580444336, -0.00017991855565924197, -0.009936884045600891, 0.0336967296898365, 0.015061812475323677, -0.011671273969113827, 0.0052194721065461636, -0.010197694413363934, -0.0008671952527947724, -0.026993896812200546, -0.024542277678847313, 0.00456744572147727, -0.016809243708848953, -0.03857388719916344, 0.011860362254083157, -0.0019120677607133985, -0.012981847859919071, -0.02549423649907112, 0.012857962399721146, -0.023329507559537888, 0.014631474390625954, -0.007309217005968094, 0.024685723707079887, 0.004003442823886871, 0.005336836911737919, -0.018947890028357506, 0.008424182422459126, -0.01276667881757021, 0.026498356834053993, -0.02044755034148693, 0.025585519149899483, 0.008952324278652668, -0.03142767772078514, 0.00931093841791153, -0.01978248357772827, -0.031636327505111694, -0.025350790470838547, 0.043816179037094116, 0.0010554678738117218, -0.007622189819812775, 0.007980803959071636, 0.005796515382826328, 0.0064974441193044186, 0.004785874392837286, 0.002410867949947715, -0.004349016584455967, -0.0002758887130767107, 0.023864170536398888, -0.022390589118003845, -0.00905664823949337, 0.0011068149469792843, 0.01962599717080593, -0.01374471839517355, -0.00585519801825285, 0.0023212144151329994, -0.0026798290200531483, 0.007289656437933445, 0.007035365793853998, 0.002927599009126425, 0.01997809112071991, -0.006204032339155674, 0.034635648131370544, 0.012466746382415295, -0.0064974441193044186, 0.013809921219944954, -0.007133170031011105, -0.018100256100296974, -0.006428981199860573, -0.006618069019168615, -0.022664440795779228, -0.026172343641519547, 0.009297898039221764, -0.02673308551311493, -0.002521712565794587, -0.004466381389647722, 0.01597464829683304, 0.005682411137968302, -0.013164415024220943, -0.01650931127369404, -0.005072765983641148, -0.0013064980739727616, 0.007009285036474466, -0.003853476606309414, -0.029810652136802673, 0.0014825452817603946, -0.003142767818644643, -0.003837175900116563, -0.008847999386489391, 0.0141359344124794, -0.0039056388195604086, -0.007015805225819349, -0.01547910925000906, 0.01358823198825121, -0.03153200075030327, -0.020786603912711143, -0.006367038935422897, -0.019612956792116165, 0.004965181928128004, -0.021673360839486122, 0.19289551675319672, 0.0025412733666598797, -0.05091023072600365, 0.013888164423406124, -0.0022315606474876404, -0.006676751188933849, 0.019130457192659378, 0.01524437963962555, 0.00037022880860604346, 0.024685723707079887, -0.009356580674648285, 0.009858640842139721, -0.006086667533963919, 0.009323978796601295, -0.0012673764722421765, -0.0033840176183730364, -0.01846539042890072, -0.03985185921192169, -0.003615486901253462, 0.01789160631597042, -0.0047760941088199615, -0.0031574382446706295, 0.0008826808771118522, -0.0041338480077683926, -0.004117547534406185, 0.019456470385193825, 0.005408559925854206, -0.013203536160290241, 0.04819779843091965, 0.022886130958795547, -0.0031574382446706295, 0.006676751188933849, -0.01465755607932806, -0.006631109397858381, -0.009969484992325306, 0.019299983978271484, -0.027098221704363823, -0.01817849837243557, 0.010080330073833466, 0.016770120710134506, -0.04055604711174965, -0.001903917407616973, -0.0056498097255826, 0.013509988784790039, -0.005995383486151695, 0.002699389588087797, -0.00880235806107521, -0.0075830682180821896, 0.0004641613631974906, 0.024972615763545036, -0.023942412808537483, -0.00461634760722518, -0.006976683624088764, 0.00796776358038187, -0.0028428356163203716, -0.01624849997460842, 0.016118094325065613, 0.003098755842074752, -0.011703875847160816, 0.002130496548488736, -0.0359136201441288, 0.026054978370666504, -0.015453027561306953, 0.017252620309591293, 0.005369438324123621, 0.00047271919902414083, -0.013731678016483784, -0.005496583413332701, 0.002745031611993909, 0.009865161031484604, 0.003227531211450696, -0.01243414543569088, -0.0018436049576848745, -0.011495226994156837, 0.020708361640572548, -0.016704918816685677, 0.038678210228681564, 0.009565228596329689, 0.0190261323004961, 0.032836053520441055, 0.01219941582530737, -0.005349877290427685, -0.0027238407637923956, 0.022716602310538292, -0.0017197198467329144, -0.023303426802158356, 0.01780032366514206, 0.01884356513619423, -0.00043441265006549656, -0.011651713401079178, 0.0032242711167782545, 0.0002720172924455255, -0.00623989338055253, 0.015426946803927422, -0.002767852507531643, 0.005079286638647318, 0.00015832018107175827, 0.018791403621435165, -0.018361065536737442, -0.022260185331106186, -0.017122216522693634, 0.009845600463449955, -0.001659407396800816, 0.007022325415164232, -0.016809243708848953, 0.002000091364607215, -0.002194069093093276, 0.008521986193954945, -0.0019332586089149117, 0.003341635689139366, -0.02224714495241642, -0.04582442343235016, -0.014240258373320103, -0.01101272739470005, 0.01472275797277689, 0.012551509775221348, -0.009519587270915508, -0.013731678016483784, 0.0025787646882236004, -0.039591047912836075, 0.0032780631445348263, -0.014683636836707592, 0.013966407626867294, -0.0019365187035873532, -0.008965364657342434, -0.02473788522183895, -0.014918366447091103, 0.013340461999177933, 3.4798094930010848e-06, -0.03596578165888786, 0.015127014368772507, 0.010654113255441189, 0.006471362896263599, 0.01928694359958172, -0.011104010976850986, 0.009460904635488987, -0.0009853750234469771, -0.005767174530774355, -0.00033171847462654114, 0.016861405223608017, -0.004352276679128408, 0.0067615145817399025, 0.02575504593551159, -0.019430389627814293, 0.002568984404206276, -0.0038502165116369724, 0.007511345203965902, 0.012916645035147667, -0.004661989398300648, 0.0003649310674518347, 0.010569349862635136, -0.02309477888047695, -0.0093891816213727, -0.03922591358423233, 0.031192947179079056, -0.003370977006852627, 0.01673099957406521, -0.010106410831212997, -8.781981887295842e-05, -0.0019283683504909277, -0.0220254547894001, -0.021725522354245186, 0.037817537784576416, 0.006976683624088764, 0.006409420631825924, 0.022964373230934143, -0.16358040273189545, 0.010954044759273529, -0.0008252210100181401, 0.006080146878957748, 0.02126910351216793, 0.004117547534406185, 0.015922486782073975, 0.009506545960903168, -0.021595116704702377, 0.009284857660531998, -0.005793255288153887, -0.014683636836707592, -0.01480100117623806, -0.0023326247464865446, 0.005711751990020275, -0.0032226410694420338, 0.00026447823620401323, 0.00013916690659243613, 0.015192217193543911, 0.015361743979156017, 0.02240363135933876, -0.025350790470838547, 0.01704397238790989, 0.009610870853066444, -0.02089092880487442, 0.006145349703729153, -0.01255802996456623, 0.014892284758388996, -0.0003775640798266977, 0.0008989815250970423, -0.005385738797485828, -0.01682228408753872, 0.046033069491386414, 0.003899118397384882, 0.004303374793380499, 0.011260497383773327, -0.008619789965450764, 0.0031753689981997013, -0.0035698451101779938, -0.001732760458253324, 0.005314015783369541, 0.0032992539927363396, -0.003732851706445217, -0.019586876034736633, 0.017083093523979187, 0.023107819259166718, 0.03346199914813042, -0.013144854456186295, -0.007746074814349413, 0.003592666005715728, 0.048302121460437775, -0.017239579930901527, 0.03249699994921684, 0.0004996153293177485, 0.019078295677900314, 0.015622555278241634, -0.006513744592666626, 0.013053570874035358, -0.005679150577634573, -0.0304887592792511, -0.012173335067927837, -0.015674717724323273, -0.002996061695739627, -0.015622555278241634, -0.008548066951334476, -0.03275781124830246, -0.01909133605659008, 0.0008329638512805104, -0.002158207818865776, 0.001716459752060473, 0.004626127891242504, 0.0053726984187960625, -0.0043457564897835255, 0.004909759387373924, 0.010236816480755806, 0.0359136201441288, -0.014096813276410103, -0.025611601769924164, 0.019612956792116165, 0.009617391042411327, 0.0005872313631698489, 0.011723436415195465, -0.037035103887319565, 0.026028897613286972, -0.008756715804338455, -0.017239579930901527, -0.0031036462169140577, 0.019743362441658974, -0.03865212947130203, -0.0036676491145044565, 0.004322935827076435, -0.012655834667384624, 0.013940326869487762, -0.027593761682510376, 0.03729591518640518, 0.0006618069019168615, 0.0035307235084474087, 0.010673673823475838, 0.005108627490699291, -0.0148140424862504, -0.00345574039965868, -0.007380940020084381, -0.04423347860574722, 0.0031753689981997013, 0.04582442343235016, 0.028584841638803482, 0.003204710315912962, 0.02224714495241642, 0.029862813651561737, -0.007752595003694296, 0.009284857660531998, -0.00077713408973068, 0.023772886022925377, 0.019925929605960846, -0.021229982376098633, 0.03241875767707825, 0.017656877636909485, -0.023564238101243973, 0.038104429841041565, 0.0225601177662611, 0.01975640282034874, -0.013888164423406124, -0.010667153634130955, 0.0017637317068874836, -0.03831307590007782, 0.004632648080587387, -0.10364612936973572, -0.0027874133083969355, 0.016326744109392166, -0.007915602065622807, -0.048171717673540115, 0.0003965136129409075, -0.01650931127369404, 0.008600229397416115, 0.02136038802564144, -0.011306139640510082, -0.026993896812200546, -0.017122216522693634, 0.02902822010219097, -0.00279719359241426, 0.03896510228514671, -0.006666970904916525, 0.02524646557867527, 0.013183975592255592, -0.01268843561410904, 0.007433102000504732, -0.003297623945400119, 0.005268373992294073, -0.006360518280416727, -0.0017083093989640474, 0.007113608997315168, -0.014122894033789635, -0.02960200235247612, 0.01766991801559925, 0.027776328846812248, 0.010360701009631157, -0.022886130958795547, -0.018413228914141655, 0.009500025771558285, -0.017656877636909485, 0.012584111653268337, 2.561305336712394e-06, 0.009415262378752232, -0.03518335148692131, 0.03367064893245697, -0.017383025959134102, -0.02704605832695961, 0.012903604656457901, 0.018856605514883995, -0.034348756074905396, 0.018035052344202995, -0.009519587270915508, -0.015622555278241634, 0.030019300058484077, 0.0012950876262038946, -0.0304887592792511, 0.008352459408342838, -0.0007759115542285144, -0.04152104631066322, -0.027593761682510376, 0.03711334988474846, -0.008684992790222168, -0.021569035947322845, 0.006448542233556509, -0.012792759574949741, -0.02113869972527027, 0.0015942048048600554, 0.012297219596803188, -0.00923269521445036, -0.018882688134908676, 0.0009478835272602737, 0.0003156215825583786, -0.006689792033284903, 0.008606749586760998, 0.02022586204111576, -0.005151009187102318, 0.019495591521263123, -0.01473579928278923, -0.014162015169858932, 0.001312203356064856, -0.029080381616950035, -0.009989045560359955, -0.013125292956829071, -0.003449220210313797, -0.0017490610480308533, -0.01568775810301304, -0.01555735245347023, -0.003563324920833111, 0.003527463413774967, -0.009910802356898785, 0.02704605832695961, 0.026276668533682823, 0.024164101108908653, 0.001323613803833723, 0.012284179218113422, -0.05302279442548752, 0.010438944213092327, 0.026041937991976738, 0.0141359344124794, -0.028637003153562546, -0.020395388826727867, 0.01647019013762474, 0.016496270895004272, -0.030280111357569695, -0.0023913071490824223, -0.004883678629994392, -0.03067132644355297, -0.008052526973187923, -0.06478535383939743, -0.007700433023273945, 0.012388503178954124, -0.011214856058359146, 0.005248813424259424, 0.004952141083776951, 0.01183428056538105, 0.016496270895004272, 0.002942269667983055, 0.012564551085233688, -0.03218402713537216, -0.002093004994094372, 0.020434509962797165, 0.0017246101051568985, -0.017017891630530357, 0.012649314478039742, 0.027280788868665695, 0.01503573078662157, 0.004593526478856802, 0.018504511564970016, -0.016170257702469826, 0.021164780482649803, 0.030097542330622673, 0.005164050031453371, -0.03189713507890701, 0.029210787266492844, -0.02319910190999508, 0.020943090319633484, -0.018791403621435165, 0.02297741360962391, 0.007746074814349413, -0.030619164928793907, -0.002495631342753768, 0.049997393041849136, -0.019143497571349144, -0.027698086574673653, -0.04073861613869667, 0.025637682527303696, 0.019234782084822655, 0.014527150429785252, -0.03304470330476761, 0.0026227766647934914, 0.02960200235247612, -0.02900213934481144, -0.0012600412592291832, 0.008443742990493774, -0.0013016079319640994, 0.029497679322957993, 0.015153096057474613, -0.022208021953701973, 0.004463121294975281, 0.0149574875831604, -0.00186968594789505, -0.015009650029242039, -0.026146262884140015, 0.03560064733028412, 0.0037132909055799246, 0.017343904823064804, -0.01068019401282072, -0.029993219301104546, 0.03635699674487114, 0.0013765909243375063, 0.01178863923996687, -0.013275259174406528, -0.0007490154239349067, -0.017343904823064804, 9.179310291074216e-05, 0.009343539364635944, 0.017565593123435974, -0.03995618224143982, -0.010451984591782093, -0.011671273969113827, 0.02413802035152912, 0.003245461964979768, 0.012362422421574593, -0.020017214119434357, -0.028767408803105354, -0.0354180783033371, -0.011104010976850986, 0.027906734496355057, -0.011403943412005901, -0.004564185626804829, -0.0027939334977418184, 0.030853893607854843, 0.01707005314528942, 0.001967489952221513, -0.02902822010219097, -0.017057012766599655, -0.012505868449807167, 0.011495226994156837, -0.0018158938037231565, 0.008580668829381466, 0.012851442210376263, 0.015309582464396954, -0.011253977194428444, 0.015179176814854145, -0.02439883165061474, -0.020877888426184654, 0.022051535546779633, 0.03601794317364693, -0.01456627156585455, 0.005128188524395227, -0.022925252094864845, -0.017695998772978783, -0.011273537762463093, -0.014383704401552677, -0.024229304865002632, -0.022416671738028526, -0.0012934575788676739, 0.026785248890519142, 0.0003040073497686535, 0.036722131073474884, 0.0275937616825</t>
+  </si>
+  <si>
+    <t>[0.0164989922195673, -0.015063161961734295, -0.01758239045739174, -0.006454708520323038, -0.012752780690789223, 0.01114726159721613, -0.0105337705463171, -0.007009461056441069, -0.008184230886399746, -0.015298116020858288, 0.01741270162165165, 0.00888256635516882, -0.03842803090810776, -0.0216157678514719, -0.028716599568724632, -0.00988764688372612, 0.03010021708905697, -0.001995477359741926, 0.011375688947737217, -0.009313315153121948, -0.030935609713196754, 0.0053647831082344055, 0.017673762515187263, -0.005521418992429972, 0.005430047865957022, -0.0038343186024576426, -0.006027222611010075, -0.02942146174609661, -0.0017066797008737922, 0.011923915706574917, 0.0008427342982031405, 0.00853013526648283, -0.021550502628087997, 0.007459789514541626, -0.010814410634338856, -0.007015987299382687, 0.013457642868161201, -0.007270521018654108, 0.010677353478968143, -0.011010205373167992, 0.0073879980482161045, -0.008758562617003918, 0.006330704782158136, -0.017282171174883842, -0.00379189639352262, 0.030074112117290497, -0.01563749462366104, 0.003445992013439536, 0.00969837885349989, -0.019488127902150154, 0.01780429109930992, 0.021876826882362366, -0.026602013036608696, 0.009926806204020977, -0.009052255190908909, -0.021524395793676376, -0.011950021609663963, 0.00853013526648283, 0.007649058010429144, -0.03195374459028244, -0.02051931619644165, 0.007466315757483244, -0.02396530844271183, 0.0009112625266425312, -0.02267306111752987, -0.03015242889523506, -0.0013999341754242778, -0.00286023854278028, -0.006826718803495169, 0.009300262667238712, 0.030178535729646683, 0.021472183987498283, 0.020362678915262222, -0.013013840653002262, 0.03798422962427139, 0.005433311220258474, -0.035660795867443085, 0.02139386720955372, -0.004049693234264851, 0.00644491845741868, -0.005195093806833029, -0.028742706403136253, 0.012720148079097271, 0.03683556616306305, 0.02234673500061035, -0.005537735298275948, -0.01288983691483736, -0.005097196437418461, 0.005022141616791487, 0.0019106328254565597, -0.015833288431167603, 0.015193691477179527, 0.0005294622969813645, -0.011010205373167992, -0.02324739284813404, -0.0008309049881063402, -0.0010107916314154863, 0.015650546178221703, 0.01007038913667202, -0.0001815182768041268, -0.011643275618553162, -0.00110053108073771, 0.007557686883956194, -0.02181156352162361, -0.03513867408037186, 0.01223718747496605, -0.007074725814163685, -0.018221987411379814, 0.030439594760537148, 0.014279982075095177, -0.008732456713914871, 0.0326324999332428, 0.02175934985280037, -0.015154533088207245, -0.00960700772702694, -0.012224134057760239, 0.00917625892907381, 0.008406131528317928, -0.0018469995120540261, -0.017477966845035553, -0.004395597614347935, 0.03049180656671524, -0.001158453756943345, -0.0012742991093546152, 0.04247445985674858, -0.018000086769461632, -0.013366271741688251, -0.016198772937059402, -0.03156215324997902, -0.022581689059734344, 0.013444589450955391, -0.005837954115122557, -0.005864060018211603, -0.0016438621096313, -0.009398159570991993, 0.03832360729575157, -0.026810862123966217, -0.005446364171802998, -0.019187910482287407, -0.008641085587441921, 0.03576521947979927, 0.01142137497663498, -0.03352010250091553, 0.011754225939512253, -0.016381515190005302, 0.0037103150971233845, 0.016799211502075195, 0.01742575503885746, 0.009463424794375896, 0.0002767643891274929, 0.0067222947254776955, -0.042735520750284195, -0.012400349602103233, -0.01580718345940113, 0.03046570159494877, 0.016577308997511864, -0.010044283233582973, 0.02050626277923584, -0.007237888406962156, 0.011206000111997128, -0.03197984769940376, 0.008595400489866734, -0.008386552333831787, -0.012543932534754276, 0.01978834718465805, 0.022934120148420334, -0.005668265279382467, 0.01451493613421917, -0.0340944342315197, -0.0060957507230341434, 0.015180638991296291, 0.03156215324997902, -0.013862285763025284, 0.025531668215990067, 0.007414103951305151, 0.02049320936203003, -0.007968856021761894, -0.00454244390130043, -0.012021812610328197, 0.00621322775259614, -0.011232106015086174, -0.004085588734596968, 0.033102408051490784, 0.022568637505173683, 0.016055189073085785, 0.005443100817501545, 0.024435214698314667, 0.0242916326969862, -0.006568922195583582, -0.015285062603652477, -0.0033480944111943245, 0.016799211502075195, -0.007825273089110851, -0.01216539554297924, -0.6503526568412781, -0.003893057117238641, -0.019644765183329582, 0.008314760401844978, 0.01775207929313183, -0.0024180682376027107, 0.014475776813924313, -0.0028455539140850306, -0.01981445401906967, 0.005403941962867975, -0.02412194386124611, -0.004578339867293835, 0.0022190099116414785, -0.00498624611645937, 0.00030042295111343265, -0.026967497542500496, -0.006523236632347107, -0.01925317384302616, 0.009391633793711662, 0.0044641257263720036, -0.013953656889498234, 0.026471484452486038, -0.010827463120222092, 0.013692596927285194, 0.0015565701760351658, 0.003990954719483852, 0.0117803318426013, -0.014580200426280499, 0.007910117506980896, -0.017021112143993378, -0.028429433703422546, 0.018939903005957603, 0.019083485007286072, -0.010455452837049961, 0.04451072961091995, 0.0159507654607296, -0.005188567563891411, 0.042030658572912216, 0.009404686279594898, 0.011434427462518215, 0.024030571803450584, -0.015820235013961792, 0.02087174728512764, -0.036913882941007614, 0.004914454184472561, -0.0008753667934797704, 0.03487761691212654, 0.01598992384970188, 0.0020330047700554132, -0.03960280120372772, 0.01525895670056343, 0.007603372447192669, -0.010860095731914043, 0.013457642868161201, 0.026588959619402885, -0.029551992192864418, 0.03709662705659866, -0.02704581618309021, 0.005142882000654936, 0.03359842300415039, 0.029082084074616432, 0.014319140464067459, 0.012478668242692947, -0.00503519456833601, -0.004013797268271446, 0.010683880187571049, -0.02123722992837429, 0.00015816563973203301, -0.0030348224099725485, -0.012818045914173126, -0.018992114812135696, 0.03754042834043503, -0.026784755289554596, -0.0035928383003920317, 0.008947831578552723, 0.03534752503037453, 0.0006302151596173644, 0.015546122565865517, -0.0011143998708575964, 0.02307770401239395, 0.012276345863938332, 0.013914497569203377, -0.023678140714764595, 0.013653437606990337, 0.01708637736737728, 0.014775996096432209, -0.024617956951260567, -0.00030368618899956346, 0.022816643118858337, 0.009019622579216957, 0.013549013994634151, 0.01706027053296566, 0.0049568768590688705, -0.0414041168987751, 0.0008876039646565914, 0.043440382927656174, -0.031692683696746826, 0.021380813792347908, -0.006689662579447031, -0.05231642350554466, -0.019566446542739868, 0.002781920600682497, 0.0059456415474414825, 0.005975010804831982, 0.022960226982831955, 0.01798703335225582, -0.03305019438266754, -0.0016626258147880435, 0.026758650317788124, -0.02015383169054985, -0.002535545267164707, 0.003543889382854104, -0.01088620163500309, -0.008334340527653694, -0.037305474281311035, -0.023665089160203934, 0.014958737418055534, 0.016016030684113503, 0.011558431200683117, -0.03012632392346859, 0.0034720979165285826, -0.01298120804131031, 0.010220498777925968, -0.01062514167279005, 0.0007481000502593815, 0.01016176026314497, 0.03370284661650658, -0.0164989922195673, -0.023103808984160423, -0.0027509196661412716, 0.009195838123559952, 0.010233552195131779, 0.00776653503999114, -0.018822425976395607, 0.01559833437204361, 0.015063161961734295, 0.0051461453549563885, -0.012674462981522083, 0.010827463120222092, -0.017464913427829742, -0.025466402992606163, -0.020741216838359833, -0.008118965663015842, -0.02048015594482422, -0.01758239045739174, -0.02485291101038456, -0.005514892283827066, -0.014802101999521255, -0.04004660248756409, 0.008203810080885887, -0.01998414285480976, 0.015650546178221703, -0.013914497569203377, -0.006852824706584215, -0.0012751149479299784, 0.012400349602103233, 0.011401794850826263, -0.01777818612754345, -0.02592325769364834, -0.0072966269217431545, 0.008562767878174782, 0.025309765711426735, 0.004444546531885862, -0.01653815060853958, -0.005185304209589958, 0.011950021609663963, -0.007074725814163685, 0.003638523630797863, -0.0038669512141495943, -0.029995793476700783, 0.016394568607211113, 0.005051510874181986, 0.009378580376505852, 0.030413489788770676, -0.01170201413333416, 0.03137941285967827, -0.035269204527139664, -0.0046925535425543785, -0.02284274995326996, -0.0008394710603170097, 0.007877484895288944, -0.0023103810381144285, -0.010866622440516949, -0.014136399142444134, 0.0004903033259324729, 0.0038506349083036184, 0.0017670498928055167, 0.004535917192697525, -0.02413499727845192, 0.031248880550265312, 0.026197370141744614, -0.005296254530549049, -0.004108431749045849, -0.006177332252264023, 0.003400306450203061, 0.008229915983974934, 0.015376433730125427, 0.006702715530991554, 0.009965965524315834, 0.007962330244481564, -0.018809372559189796, 0.016942793503403664, 0.014384405687451363, 0.004526127595454454, 0.02795952558517456, -0.024761540815234184, 0.013418483547866344, -0.03234533220529556, 0.04868768900632858, -0.002414804883301258, 0.03265860676765442, -0.011741173453629017, -0.018835479393601418, 0.007518528029322624, 0.010357555001974106, 0.02012772485613823, 0.03344178572297096, 0.012511299923062325, 0.004408650565892458, 0.03357231616973877, 0.025857992470264435, -0.008432237431406975, -0.02412194386124611, 0.021563556045293808, -0.009665746241807938, -0.007825273089110851, 0.02068900503218174, 0.01233508437871933, -0.006007642950862646, -0.01260919775813818, -0.0002651390677783638, 0.024552691727876663, -0.0014986474998295307, 0.012361191213130951, 0.0051820408552885056, 0.009939859621226788, 0.0006962959305383265, -0.01978834718465805, -0.002582862274721265, -0.02668033167719841, 0.02194209210574627, 0.030987821519374847, 0.023913094773888588, 0.01525895670056343, 0.03955058753490448, 0.010135654360055923, 0.011114628985524178, 0.017843451350927353, -0.012243714183568954, -0.012472141534090042, -0.02610599994659424, 0.0073423124849796295, 0.008040647953748703, 0.0036972621455788612, -0.020558474585413933, 0.012315505184233189, 0.009952912107110023, -0.0031881951726973057, 0.030570125207304955, 0.01995803602039814, 0.0029483463149517775, -0.005469206720590591, 0.0027427615132182837, 0.01134958304464817, 0.022999385371804237, -0.002163534751161933, -0.004480442032217979, -0.03156215324997902, 0.01852220669388771, -0.01994498446583748, 0.003811475820839405, -0.00899351667612791, -0.011401794850826263, 0.0021896406542509794, 0.007753482088446617, -0.03174489364027977, -0.01739964820444584, 0.008628033101558685, -0.02665422484278679, 0.028220584616065025, -5.889146268600598e-05, -0.04539833217859268, 0.026354007422924042, 0.02574051544070244, 0.005103722680360079, -0.0022891699336469173, -0.015663599595427513, 0.0008606821647845209, -0.005430047865957022, 0.010827463120222092, -0.0026513906195759773, 0.012909417040646076, -0.010644720867276192, -0.00798843614757061, -0.0046011824160814285, 0.018078405410051346, 0.025309765711426735, -0.034564342349767685, 0.0237434059381485, 0.013144371099770069, -0.014723783358931541, -0.011029784567654133, -0.00494382344186306, -0.032736923545598984, 0.03448602557182312, -0.005420258268713951, -0.015454751439392567, -0.008373498916625977, 0.006741874385625124, -0.011956547386944294, -0.005103722680360079, 0.01507621444761753, -0.016368461772799492, -0.0034264123532921076, 0.011114628985524178, 0.015415593050420284, -0.017177747562527657, 0.008504029363393784, 0.025623038411140442, -0.004868769086897373, 0.008960884064435959, -0.03516478091478348, -0.008588873781263828, -0.0074858954176306725, 0.09779307246208191, -0.003808212699368596, 0.017282171174883842, 0.018404729664325714, 0.016068242490291595, 0.003733157878741622, -0.02683696709573269, -0.017882609739899635, -0.004969929810613394, 0.007851378992199898, -3.4213135222671553e-05, -0.003925689496099949, 0.00971795804798603, -0.008869512937963009, 0.023195181041955948, -0.006581975147128105, 0.02104143612086773, -0.01542864553630352, 0.010879674926400185, 0.0038669512141495943, 0.003961585462093353, 0.007923170924186707, -0.010683880187571049, 0.03508646413683891, 0.026967497542500496, 0.015154533088207245, 0.01379702053964138, 0.011767279356718063, -0.008458344265818596, -0.031640470027923584, 0.0005058037349954247, -0.013757862150669098, -0.020401839166879654, -0.0015802287962287664, 0.002522492315620184, -0.0021945356857031584, 0.002667706925421953, 0.03289356082677841, 0.000977343413978815, 0.0074402098543941975, 0.037331581115722656, 0.025505561381578445, -0.015206744894385338, -0.007002934347838163, -0.003465571440756321, -0.0319015309214592, -0.02343013510107994, 0.01414945162832737, -0.009678799659013748, -0.017373543232679367, 0.013307533226907253, -0.0045196013525128365, 0.01831335946917534, -0.016733946278691292, 0.010585982352495193, -0.0037233682814985514, 0.021837668493390083, 0.01852220669388771, -0.04503284767270088, -0.018404729664325714, 0.002365856198593974, -0.03714883700013161, 0.004167170263826847, -0.01580718345940113, -0.018117563799023628, -0.011950021609663963, -0.020023301243782043, 0.017882609739899635, -0.011290844529867172, 0.013118265196681023, -0.009313315153121948, 0.00454244390130043, -0.03085729107260704, 0.006245860364288092, -0.002595915226265788, 0.010037756524980068, 0.008660665713250637, -0.0017964191501960158, -0.020062461495399475, 0.03968111798167229, -0.0009626587270759046, 0.012400349602103233, -0.013124790973961353, -0.03305019438266754, -7.240335980895907e-05, 0.04866158217191696, 0.03751432150602341, 0.00644491845741868, -0.04495453089475632, -0.0016055189771577716, 0.018561365082859993, 0.010024704039096832, -0.0019236858934164047, -0.004878558684140444, -0.0029352933634072542, -0.023351816460490227, -0.007877484895288944, -0.0057792156003415585, -0.0038604247383773327, -0.0015785971190780401, 0.008967410773038864, -0.013692596927285194, -0.019670870155096054, -0.021276390179991722, 0.016459831967949867, -0.01743880845606327, -0.015180638991296291, -0.022085675969719887, -0.0006710057496093214, -0.0043825446628034115, 0.0005551603971980512, -0.0030723498202860355, -0.00034733215579763055, 0.007981909438967705, -0.03432938829064369, 0.0006220570066943765, 0.019683923572301865, 0.02555777318775654, 0.014501882717013359, 0.003573258640244603, -0.03325904160737991, -0.02121112495660782, -0.004627288319170475, 0.037644851952791214, -0.012902890332043171, 0.010194392874836922, -0.006242597009986639, -0.023495400324463844, 0.005789005197584629, 0.0008582347072660923, 0.017517125234007835, 0.04098641872406006, 0.007512001320719719, -0.011447480879724026, -0.012654882855713367, -0.01738659478724003, 0.001203323365189135, -0.007760008331388235, -0.016407620161771774, -0.03028295934200287, -0.006878931075334549, 0.010749145410954952, -0.008738983422517776, 0.006911563221365213, -0.0012604303192347288, -0.023325711488723755, -0.003977901767939329, -0.008954358287155628, -0.03064844384789467, 0.012733201496303082, 0.002674233401194215, -0.01399281620979309, -0.006196911446750164, 0.02814226783812046, -0.006963775493204594, 0.0034525184892117977, -0.009287209250032902, 0.006608081050217152, 0.010651247575879097, 0.007355365436524153, 0.02467016875743866, 0.01552001666277647, 0.011388742364943027, 0.0022842749021947384, -0.019187910482287407, -0.024369951337575912, -0.03179710730910301, 0.0033073038794100285, -0.028638280928134918, 0.028377221897244453, 0.020427944138646126, 0.026784755289554596, -0.010709986090660095, 0.003853898262605071, 0.002803131705150008, -0.0033937799744307995, 0.006347021088004112, -0.01596381887793541, -0.012139289639890194, -0.027280770242214203, 0.03516478091478348, -0.010631668381392956, -0.013405431061983109, 0.0004813293635379523, -0.01981445401906967, -0.0073488387279212475, 0.0003609970153775066, 0.00534846680238843, 0.0007860353216528893, 0.024187209084630013, 0.024396056309342384, -0.027489617466926575, 0.032763030380010605, 0.0006151226116344333, -0.016224877908825874, -0.012380770407617092, 0.001966108102351427, -0.013836179859936237, -0.017021112143993378, 0.008562767878174782, -0.017151642590761185, -0.01980140060186386, 0.004398860968649387, -0.013575119897723198, -0.02541419118642807, 0.013066052459180355, 0.00639597000554204, -0.034407708793878555, -0.011995706707239151, -0.017530178651213646, -0.03305019438266754, -0.02996968664228916, -0.028272798284888268, -0.011316950432956219, 0.01921401545405388, -0.0051461453549563885, -0.022816643118858337, 0.022607795894145966, -0.013405431061983109, -0.033102408051490784, 0.022464212030172348, 0.0011755857849493623, 0.029134295880794525, 0.006147962994873524, 0.03375505656003952, 0.0013093790039420128, 0.008686771616339684, -0.01034450251609087, 0.035321418195962906, 0.009045728482306004, -0.015219797380268574, 0.01593771204352379, -0.008660665713250637, 0.015572228468954563, -0.04260499030351639, -0.0022842749021947384, 0.03500814363360405, -0.024905122816562653, -0.006020696368068457, 0.03879351541399956, 0.010285764001309872, -0.0006204253877513111, -0.00951563660055399, 0.005883639678359032, -0.0040268502198159695, 0.04391029104590416, -0.004362965002655983, 0.014606306329369545, -0.003935479559004307, -0.0004331964300945401, -0.03761874511837959, 0.02615821175277233, 0.00031266012229025364, 0.003964848816394806, 0.008125492371618748, -0.006366600748151541, 0.030987821519374847, -0.01722995936870575, -0.018378622829914093, 0.02634095400571823, 0.014736836776137352, 0.01205444522202015, -0.006741874385625124, 0.016250984743237495, -0.008484450168907642, 0.0068071396090090275, -0.019370650872588158, -0.01043587364256382, 0.03192763775587082, 0.020062461495399475, -0.03234533220529556, -0.0025698093231767416, 0.017282171174883842, 0.0037429477088153362, 0.021380813792347908, -0.020192990079522133, -0.009796276688575745, 0.007942750118672848, -0.014371353201568127, -0.034955933690071106, 0.007929697632789612, 0.016002977266907692, 0.0072966269217431545, 0.004708869848400354, 0.004695816896855831, -0.012472141534090042, -0.012139289639890194, -0.020088566467165947, 0.008047174662351608, 0.020741216838359833, 0.00862150639295578, -0.012968155555427074, 0.0030723498202860355, -0.011695487424731255, 0.011799911968410015, 0.014945684932172298, -0.0024294895119965076, 0.023312658071517944, -0.03613070398569107, 0.019005168229341507, 0.008242969401180744, 0.017504071816802025, 0.014802101999521255, -0.0021031645592302084, 0.014293034560978413, 0.004845926072448492, 0.021537449210882187, 0.014684624969959259, -0.036209020763635635, 0.0051461453549563885, -0.00799496192485094, -0.02467016875743866, 6.0523088905029e-05, -0.00195468682795763, 0.015402539633214474, -0.023142969235777855, -0.003317093476653099, 0.0002814553154166788, -0.008967410773038864, -0.0159507654607296, 0.0013852495467290282, 0.008667191490530968, 0.0014513303758576512, -0.027150239795446396, 0.012648357078433037, 0.029473673552274704, -0.00020752230193465948, -0.004568549804389477, -0.024396056309342384, 0.009678799659013748, 0.007949276827275753, 0.0242916326969862, -0.01225676666945219, -0.017177747562527657, -0.023351816460490227, -0.017099428921937943, -0.022947173565626144, 0.021537449210882187, -0.019488127902150154, -0.024069732055068016, 0.026380112394690514, 0.028194479644298553, 0.007877484895288944, -0.009868067689239979, -0.010063862428069115, 0.006454708520323038, -0.023495400324463844, 0.009757117368280888, 0.00445107277482748, -0.025701357051730156, -0.0478522963821888, 0.011630223132669926, 0.019174857065081596, -0.008601927198469639, -0.004258541390299797, -0.004157380200922489, -0.02031046710908413, 0.020910905674099922, -0.022242311388254166, 0.017464913427829742, 0.0062687029130756855, 0.018483048304915428, -0.0004511442966759205, -0.001858420786447823, -0.015585281886160374, 0.02486596442759037, -0.004924244247376919, 0.01854831352829933, -0.00399748096242547, 0.007662110961973667, 0.012028339318931103, -0.01399281620979309, -0.03244975581765175, -0.02017993852496147, 0.043492596596479416, 0.007257468067109585, -0.001685468596406281, 0.0013868812238797545, -0.02233368344604969, -0.017347436398267746, -0.0006077802972868085, 0.010318396613001823, 0.013692596927285194, -0.007786114234477282, 0.011728120036423206, -0.009567848406732082, -0.027907313778996468, -0.015572228468954563, 0.006820192560553551, -0.010109548456966877, -0.010488085448741913, -0.02814226783812046, 0.008223390206694603, 0.018561365082859993, 0.009822382591664791, -0.010651247575879097, 0.011499692685902119, -0.011206000111997128, 0.022960226982831955, -0.0012783781858161092, -0.006581975147128105, 0.010553350672125816, 0.011630223132669926, -0.00817770417779684, -0.007042093202471733, 0.005129829049110413, -0.040934208780527115, -0.023834777995944023, -0.010266183875501156, -0.014645465649664402, 0.003667892888188362, -0.013522908091545105, 0.020414890721440315, -0.0038604247383773327, 0.014645465649664402, -0.010037756524980068, 0.004754554945975542, -0.011473586782813072, 0.006865877658128738, -0.003127824980765581, -0.003664629766717553, 0.02451353333890438, -0.013783968053758144, -0.0010311870137229562, -0.01685142330825329, -0.005844480823725462, -0.008105913177132607, -0.018613576889038086, 0.0073423124849796295, -0.001537806587293744, -0.04333595931529999, -0.02957809716463089, 0.01615961454808712, -0.010507664643228054, -0.00045073640649206936, 0.0051069860346615314, 0.18932071328163147, 0.022947173565626144, -0.012556985951960087, 0.016616469249129295, 0.005067827180027962, 0.03393780067563057, 0.0004270778445061296, 0.012831098400056362, 0.0006587685784325004, 0.023129915818572044, 0.0011266371002420783, 0.03067454881966114, 0.008504029363393784, 0.0015394381480291486, 0.00240664673037827, -0.015363380312919617, -0.028090056031942368, -0.03088339790701866, -0.006996408104896545, -0.0060435389168560505, -0.010037756524980068, -0.008954358287155628, 0.015128427185118198, -0.027698464691638947, 0.0031310883350670338, 0.004656657576560974, -0.002814552979543805, -0.038924045860767365, 0.02215094119310379, 0.026967497542500496, 0.008556241169571877, -0.011166841723024845, -0.0068593514151871204, -0.001157637918367982, -0.01205444522202015, 0.00317187886685133, -0.020375732332468033, -0.00594237819314003, 0.0033937799744307995, 0.025897150859236717, 0.0004323806206230074, -0.014828207902610302, -0.0035961014218628407, -0.0024751750752329826, 0.0005869771121069789, 0.0057792156003415585, -0.00781874731183052, -0.0012424824526533484, 0.0009691852610558271, 0.012987734749913216, -0.02215094119310379, 0.012713621370494366, -0.019840558990836143, 0.020023301243782043, 0.02158966101706028, -0.016433726996183395, 0.025466402992606163, 0.011682434938848019, 0.003481887746602297, -0.00304134888574481, -0.03466876596212387, 0.01288983691483736, -0.02071511000394821, 0.009522163309156895, 0.01533727440983057, 0.014880419708788395, -0.03268470987677574, 0.004190012812614441, 0.02016688510775566, 0.002625284483656287, 0.009567848406732082, -0.03030906617641449, -0.00403990363702178, 0.003605891251936555, -0.014632413163781166, -0.01904432661831379, 0.03451213240623474, -0.0038473717868328094, 0.025871045887470245, 0.022216206416487694, -0.005831427872180939, -0.001157637918367982, 0.006347021088004112, 0.01957949995994568, 0.0008419184596277773, -0.019905824214220047, 0.00988764688372612, 0.0012645093956962228, -0.010285764001309872, -0.008073280565440655, 0.012589618563652039, -0.017530178651213646, 0.0006738611264154315, 0.010298816487193108, 0.009796276688575745, 0.010455452837049961, 0.011799911968410015, 0.004973192699253559, -0.0208847988396883, 0.009691852144896984, -0.016955846920609474, -0.012550459243357182, 0.0015223061200231314, 0.0033073038794100285, -0.006144699640572071, 0.016629520803689957, 0.000492342805955559, 0.008601927198469639, -0.014475776813924313, 0.007166096940636635, -0.022385895252227783, -0.023116862401366234, -0.022738326340913773, -0.0041932761669158936, 0.014906525611877441, 0.013190056197345257, -2.569809294072911e-05, -0.0030968242790549994, 0.024409109726548195, -0.013940603472292423, 0.0030136113055050373, -0.019644765183329582, 0.0081581249833107, 0.016107400879263878, -0.008908672258257866, -0.025153130292892456, -0.03652229160070419, 0.01399281620979309, -0.00035202308208681643, -0.04135190322995186, 0.028194479644298553, -0.012367716990411282, -0.013131317682564259, 0.030622337013483047, -0.040934208780527115, 0.01287025772035122, -0.016211826354265213, -0.002980978926643729, -0.012224134057760239, 0.0036711562424898148, 0.007139991037547588, 0.023377923294901848, 0.016002977266907692, -0.014593253843486309, 0.010116075165569782, -0.005188567563891411, 0.026941390708088875, 0.00962006114423275, 0.0004739870491903275, -0.0009047360508702695, 0.007942750118672848, -0.027359087020158768, 0.010076915845274925, -0.016760051250457764, 0.030987821519374847, -0.005426784511655569, -0.013013840653002262, -0.01251782663166523, -0.014031974598765373, -0.0023299604654312134, -0.030726760625839233, -0.0009438950219191611, 0.04589434713125229, -0.004203065764158964, -0.02162882126867771, 0.027437405660748482, -0.16384124755859375, 0.014802101999521255, -0.006236070767045021, -0.028037844225764275, 0.01963171176612377, 0.003945269156247377, 0.025544719770550728, 0.022438107058405876, -0.006794086191803217, 0.030204640701413155, 0.014645465649664402, 0.0015337275108322501, -0.012406876310706139, -0.0053256237879395485, -0.009855015203356743, -0.012641830369830132, 0.0003993402060586959, 0.0024458058178424835, 0.018378622829914093, 0.005485523026436567, 0.01396670937538147, -0.020597632974386215, 0.01793482154607773, -0.011839070357382298, -0.0003881228039972484, 0.006105540785938501, -0.0011454006889835, 0.018182829022407532, -0.0029646626207977533, -0.01596381887793541, 0.013692596927285194, -0.014841260388493538, 0.02489207126200199, -0.024905122816562653, -0.016760051250457764, 0.0004401308251544833, -0.01833946444094181, -0.014293034560978413, -0.008295181207358837, 0.0027182872872799635, 0.011036311276257038, 0.018221987411379814, 0.009678799659013748, -0.021485237404704094, 0.0036483134608715773, 0.022255364805459976, 0.024174155667424202, -0.0036907356698065996, -0.0038506349083036184, -0.01690363511443138, 0.010089969262480736, -0.0022402210161089897, 0.03033517114818096, 0.01414945162832737, 0.018378622829914093, -0.005844480823725462, -0.011695487424731255, 0.004366228356957436, 0.002884713001549244, 0.0029891368467360735, 0.009659219533205032, 0.001809472101740539, 0.010364081710577011, 0.011114628985524178, 0.009633113630115986, -0.05268190801143646, -0.019370650872588158, 0.0053190975449979305, -0.002892871154472232, 0.005808584857732058, 0.008099386468529701, -0.008889093063771725, -0.016224877908825874, 0.0034068329259753227, 0.001339564099907875, 0.013562066480517387, -0.01708637736737728, -0.010116075165569782, -0.0035079936496913433, -0.01738659478724003, -0.01106894388794899, 0.015911607071757317, -0.03250196948647499, 0.008614979684352875, -0.022725272923707962, 0.011865177191793919, -0.016655627638101578, 0.007910117506980896, -0.018378622829914093, 0.005795531906187534, -0.03218869864940643, -0.026210423558950424, 0.01653815060853958, -0.02104143612086773, 0.0235606636852026, 0.018117563799023628, 0.0032828294206410646, 0.030752867460250854, 0.007512001320719719, -0.007603372447192669, -0.013953656889498234, -0.016002977266907692, -0.03717494383454323, 0.005482259672135115, 0.03046570159494877, 0.019357599318027496, -0.014319140464067459, 0.009965965524315834, 0.029343143105506897, -0.00030266641988418996, -0.0010458716424182057, 0.0002001799875870347, 0.00607290817424655, 0.014488829299807549, -0.022986331954598427, 0.009802802465856075, 0.019527288153767586, -0.02358677051961422, 0.035321418195962906, 0.02597546949982643, 0.003292619250714779, -0.0003561021585483104, 0.015820235013961792, 0.023443186655640602, -0.008614979684352875, -0.017099428921937943, -0.10525938868522644, -0.005576894152909517, 0.021185018122196198, 0.021511344239115715, -0.016368461772799492, 0.014932631514966488, 0.012824572622776031, 0.02229452319443226, -0.011538852006196976, 0.012217607349157333, -0.025492507964372635, -0.031640470027923584, 0.0038604247383773327, -0.014684624969959259, 0.04046430066227913, -0.0002404607366770506, 0.0063992333598434925, -0.00997901801019907, -0.014710730873048306, -0.006852824706584215, -0.0046468679793179035, 0.004708869848400354, -0.0013917761389166117, -0.020467104390263557, 0.004281383939087391, -0.015480857342481613, -0.02520534209907055, 0.023351816460490227, 0.008216863498091698, 0.024944283068180084, -0.01034450251609087, -0.006546079181134701, 0.0054626804776489735, -0.02596241608262062, 0.017699867486953735, -0.006555869244039059, 0.00407906249165535, -0.015663599595427513, 0.006513447035104036, -0.021498290821909904, -0.004793714266270399, 0.01888769119977951, 0.022816643118858337, -0.03030906617641449, 0.018026193603873253, 0.0008280496695078909, -0.012465614825487137, 0.026066839694976807, 0.0028700283728539944, -0.011923915706574917, -0.003317093476653099, 0.012583091855049133, -0.028429433703422546, -0.02268611267209053, 0.032214801758527756, 0.012987734749913216, 0.0015900185098871589, -0.0017034164629876614, -0.02905597724020481, -0.008967410773038864, -0.023312658071517944, -0.0021994304843246937, -0.010351029224693775, -0.011036311276257038, 0.012217607349157333, -0.00988112110644579, 0.004206329118460417, 0.003028295934200287, 0.014279982075095177, -0.023195181041955948, 0.005296254530549049, -0.03028295934200287, -0.00826907530426979, 0.002374014351516962, -0.016029084101319313, -0.006852824706584215, -0.014684624969959259, 0.012100130319595337, -0.010259658098220825, -0.01798703335225582, -0.007237888406962156, -0.006748401094228029, -0.019187910482287407, -0.005521418992429972, -0.0005049879546277225, 0.0131508968770504, 0.009332895278930664, -0.00798843614757061, 0.0016699681291356683, -0.04918370395898819, 0.025884099304676056, 0.010461979545652866, 0.03378116339445114, -0.027907313778996468, -0.019540341570973396, 0.0121458163484931, 0.013170477002859116, -0.007002934347838163, -0.025113971903920174, -0.025296714156866074, -0.03926342353224754, -0.0034916773438453674, -0.07194813340902328, -0.008601927198469639, 0.007942750118672848, -0.01216539554297924, -0.010925360955297947, 0.02016688510775566, 0.0190573800355196, 0.0068593514151871204, -0.008125492371618748, 0.009091414511203766, -0.021198071539402008, -0.0010752408998087049, 0.017647655680775642, 0.014567147940397263, -0.023273497819900513, -0.011343056336045265, 0.011839070357382298, -0.010847043246030807, 0.002098269760608673, -0.006053328514099121, 0.009411212988197803, 0.003746210830286145, 0.005678054876625538, 0.01253088004887104, -0.01831335946917534, 0.0239261481910944, 0.008693297393620014, 0.021171964704990387, -0.013444589450955391, 0.02704581618309021, 0.022607795894145966, -0.035112570971250534, -0.010455452837049961, 0.05388278141617775, -0.012524353340268135, -0.0351908877491951, -0.013509854674339294, 0.03051791340112686, 0.019475076347589493, 0.016786158084869385, -0.026732543483376503, -0.016107400879263878, 0.022464212030172348, -0.01425387617200613, -0.0029989266768097878, 0.004278120584785938, 0.006431865505874157, 0.020754270255565643, 0.024578798562288284, -0.0002216970460722223, 0.02285580337047577, 0.013013840653002262, 0.005139618646353483, -0.04978414252400398, -0.020192990079522133, 0.02049320936203003, -0.014619359746575356, 0.026941390708088875, -0.020245201885700226, -0.017712920904159546, 0.04832220450043678, 0.0035863115917891264, 0.0186918955296278, -0.00780569389462471, 0.009489530697464943, -0.02795952558517456, -0.012935522943735123, 0.013039946556091309, 0.0016022557392716408, -0.04210897907614708, -0.016055189073085785, -0.006846298463642597, 0.005606263410300016, 0.010396714322268963, 0.026536747813224792, 0.00037160259671509266, -0.020767321810126305, -0.029186507686972618, 0.00025616513448767364, 0.021015329286456108, -0.008099386468529701, -0.007668637204915285, 0.001956318272277713, 0.031327199190855026, 0.016224877908825874, 0.004594655707478523, -0.03412054106593132, 0.008190757595002651, -0.02141997218132019, 0.01188475638628006, 0.022738326340913773, 0.009985544718801975, 0.020558474585413933, -0.004212855827063322, 0.004777397960424423, 0.015546122565865517, 0.004973192699253559, -0.004842662718147039, 0.016381515190005302, -0.0020966380834579468, -0.014449670910835266, 0.02211178094148636, -0.009404686279594898, -0.01922706887125969, -0.007831799797713757, -0.010200919583439827, -0.031118351966142654, -0.014710730873048306, 0.01125821191817522, 0.006513447035104036, 0.0190573800355196, 0.02683696709573269, 0.017112482339143753, 3.844516322715208e-05, 0.011734646745026112, -0</t>
+  </si>
+  <si>
+    <t>[-0.018015308305621147, -0.012193449772894382, 0.00426870072260499, -0.03995159640908241, 0.0007496719481423497, 0.018836595118045807, -0.008027409203350544, -0.029937203973531723, -0.007769101765006781, -0.010590617544949055, 0.028215153142809868, 0.017127789556980133, -0.03661346435546875, -0.019286977127194405, -0.011378786526620388, 0.004632981028407812, 0.03677242249250412, -0.00735183572396636, 0.011445019394159317, -0.022413162514567375, -0.020452674478292465, 0.009305701591074467, 0.031076407060027122, -0.027632303535938263, 0.011610601097345352, -0.0002696914889384061, 0.0061099715530872345, -0.023062244057655334, -0.018598156049847603, -0.0012998178135603666, -0.0016823118785396218, 0.020068524405360222, 1.7838860003394075e-05, -0.002420807024464011, -0.01756492629647255, 0.009166613221168518, 0.03632204234600067, 0.004825056064873934, -0.004205779638141394, -0.0034871543757617474, 0.023698078468441963, 0.010352179408073425, 0.01919425092637539, -0.010007768869400024, -0.028453590348362923, 0.02100902982056141, -0.02247939631342888, 0.015352752059698105, -0.009107003919780254, 0.0001575097703607753, 0.022108493372797966, 0.029301369562745094, -0.012054361402988434, 0.005262192338705063, -0.020465919747948647, -0.033248841762542725, -0.02380405180156231, 0.012133840471506119, 0.010352179408073425, -0.009941536001861095, 0.008570518344640732, 0.005798677448183298, -0.028956959024071693, 0.010908534750342369, -0.0017982192803174257, -0.029460327699780464, -0.0031891069374978542, 0.010113741271197796, -0.010458151809871197, 0.0021095131523907185, 0.005785430781543255, 0.00698093231767416, 0.014809643849730492, 0.008643373847007751, 0.024201447144150734, 0.009199729189276695, -0.01329291332513094, 0.03004317730665207, -0.0070206718519330025, -0.001200468628667295, 0.005166154820472002, -0.043448686599731445, -0.008239354006946087, 0.03266599401831627, 0.018770361319184303, -0.0019174382323399186, -0.004175974987447262, -0.009511022828519344, -0.007735985331237316, -0.007384951692074537, -0.004195844754576683, 0.01723376289010048, -0.006659703329205513, -0.01771063730120659, -0.020121511071920395, -0.0065040565095841885, -0.024241186678409576, 0.02629440277814865, -0.004676032345741987, -0.0005584249156527221, -0.006103347986936569, -0.01019322033971548, -0.010809184983372688, -0.02153889089822769, -0.03777916356921196, -0.00919310562312603, 0.007206123322248459, -0.020320208743214607, 0.011007883585989475, 0.020942796021699905, -0.00305664143525064, 0.02674478478729725, 0.03197717294096947, -0.028294632211327553, -0.01288226991891861, -0.012332538142800331, 0.0013950273860245943, -0.006282176356762648, 0.02070435881614685, -0.006318604573607445, 0.005311866756528616, 0.02149915136396885, 0.010935027152299881, 0.011299307458102703, 0.049674563109874725, -0.009199729189276695, -0.0007066206890158355, -0.01890282705426216, -0.014875875785946846, -0.00280992453917861, 0.005894714966416359, 0.012074231170117855, 0.0038017600309103727, -0.0016922468785196543, -0.005089987069368362, -0.009577255696058273, -0.030599530786275864, 0.028453590348362923, -0.013094214722514153, -0.013418755494058132, 0.028665535151958466, 0.025989731773734093, 0.004096495918929577, 0.01001439243555069, 0.0002583077293820679, 0.049701057374477386, -0.03136783093214035, 0.035394784063100815, -0.0007947930134832859, 0.012604093179106712, 0.0344410315155983, -0.016306502744555473, -0.0010936682811006904, -0.008272470906376839, 0.02299601212143898, 0.0033480655401945114, -0.003997146617621183, 0.036375027149915695, -0.021432919427752495, -0.000735597510356456, -0.008014163002371788, 0.0325070358812809, -0.029433835297822952, -0.0023380161728709936, 0.011941765435039997, 0.043952055275440216, 0.014253288507461548, 0.010219713672995567, -0.014822890050709248, 0.00879570934921503, 0.013491611927747726, 0.020479166880249977, -0.03815006464719772, 0.02792372927069664, 0.0010514449095353484, 0.00020635641703847796, 0.009709721431136131, 0.006994178518652916, 0.013736672699451447, -0.000880067702382803, -0.006576912477612495, -0.017299994826316833, 0.016650913283228874, 0.012710065580904484, -0.001497688121162355, 0.006994178518652916, 0.020585140213370323, -0.010895287618041039, 0.0017005258705466986, -0.010623733513057232, -0.007928060367703438, 0.010352179408073425, 0.01019322033971548, -0.0318182148039341, -0.6468555331230164, -0.00209129904396832, -0.03052005171775818, -0.007497547660022974, -0.011252944357693195, 0.028850987553596497, 0.016478708013892174, 0.009027523919939995, -0.017856350168585777, 0.00894804485142231, 0.0006138948374427855, 0.022386670112609863, 0.00017924238636624068, -0.005325113423168659, -0.011219828389585018, -0.012080853804945946, 0.01002101507037878, -0.03351377323269844, -0.012087477371096611, 0.0011665243655443192, -0.007239239756017923, 0.02678452432155609, -0.003323228331282735, 0.0035500754602253437, -0.005546993110328913, -0.00311956275254488, 0.011305931024253368, -0.0033844937570393085, -0.01691584475338459, -0.014399000443518162, -0.015458724461495876, 0.025234678760170937, -0.012041114270687103, -0.005464202258735895, 0.041329238563776016, 0.014001604169607162, -0.0056562768295407295, 0.05796690657734871, 0.021432919427752495, 0.037699684500694275, -0.013544597662985325, -0.0002142215525964275, 0.03165925666689873, -0.01134567055851221, 0.013484988361597061, 0.008265847340226173, 0.005845040548592806, 0.020134756341576576, -0.016862858086824417, -9.272585157305002e-05, 0.008020786568522453, -0.019313471391797066, -0.03150029852986336, -0.004798562731593847, 0.008298964239656925, -0.003137776628136635, 0.016200531274080276, -0.002670835703611374, 0.006480874959379435, 0.02887747995555401, 0.012027868069708347, 0.0038547462318092585, -0.0012493153335526586, -0.0018727310234680772, -0.014597699046134949, 0.020280469208955765, -0.010113741271197796, -0.010809184983372688, 0.0018627961399033666, 0.008358573541045189, 0.004391231574118137, 0.028003208339214325, -0.024188201874494553, 0.006003999151289463, 0.01412082277238369, 0.008391689509153366, -0.003583191893994808, 0.008497661910951138, -0.0034142984077334404, 0.020108263939619064, 0.011537745594978333, -0.006828596815466881, -0.026705045253038406, 0.0070869047194719315, 0.009100380353629589, 0.024850528687238693, -0.013120708055794239, -0.002742036012932658, 0.012703442014753819, 0.002563207410275936, 0.0328514464199543, 0.0026940172538161278, -0.014902369119226933, -0.03022862784564495, -0.014041343703866005, 0.024665076285600662, -0.011955011636018753, -0.002768529113382101, 0.0050833639688789845, -0.004659474361687899, -0.03348727896809578, 0.009577255696058273, -0.013657193630933762, 0.005219141021370888, 0.00862350407987833, -0.00183795893099159, -0.01824050024151802, 0.00648418627679348, 0.03711683303117752, -0.00472570676356554, 0.007947930134832859, -0.009616995230317116, -0.011703327298164368, 0.0008415699121542275, 0.009630242362618446, -0.028798000887036324, 0.005235699005424976, 0.011305931024253368, -0.003944160416722298, -0.018982306122779846, -0.0035732570104300976, -0.0039044206496328115, -0.014571205712854862, -0.004560125060379505, -0.005162843037396669, 0.014928862452507019, 0.02495650202035904, -0.010564124211668968, -0.005801989231258631, -0.001177287194877863, 0.015988586470484734, -0.021803822368383408, 0.013418755494058132, -0.016200531274080276, 0.0010290914215147495, 0.020585140213370323, 0.00968985166400671, 0.004053444601595402, -0.008332080207765102, -0.02021423541009426, 0.004563436843454838, -0.007941306568682194, -0.0012021244037896395, -0.013816151767969131, -0.0013884040527045727, -0.033725716173648834, -0.0009686539997346699, 0.0029639157000929117, -0.043289728462696075, -0.011935141868889332, 0.015710409730672836, 0.01182916946709156, -0.014173809438943863, 0.025168446823954582, 0.01855841651558876, 0.014028096571564674, -0.027499839663505554, -0.025830773636698723, -0.008981160819530487, -0.0055834208615124226, 0.00945141352713108, 0.0005513876676559448, -0.014584451913833618, 0.013511481694877148, 0.018306732177734375, -0.01870412938296795, 0.02005527727305889, -0.008126758970320225, -0.009020901285111904, -0.009484530426561832, 0.009544139727950096, -0.008649997413158417, -0.01626676321029663, 0.04217701777815819, -0.005202582571655512, 0.027526332065463066, -0.019816840067505836, -0.01690259762108326, -0.019962551072239876, -0.009067263454198837, 0.013061098754405975, -0.004984014667570591, -0.02001553773880005, -0.013537975028157234, 0.02087656408548355, 0.00944479089230299, 0.004897912032902241, 0.03038758598268032, -0.02263835445046425, 0.026387128978967667, 0.01314057782292366, -0.005119791720062494, 0.0018015308305621147, -0.002574798185378313, -0.02430742047727108, -0.001803186722099781, 0.005739068146795034, 0.007451184559613466, -0.008828826248645782, 0.013458495028316975, 0.0016872793203219771, 0.03054654598236084, 0.016491955146193504, -0.02400274947285652, 0.012696818448603153, -0.04432295635342598, 0.029354356229305267, -0.01955190859735012, 0.06178191304206848, -0.0020863316021859646, 0.024214694276452065, 9.903866157401353e-05, -0.03221561014652252, -0.009650112129747868, -0.005712574813514948, 0.024333912879228592, 0.020929548889398575, 0.014597699046134949, -0.015220286324620247, 0.01519379299134016, 0.030652517452836037, -0.0037818902637809515, 0.0034142984077334404, 0.0014074459904804826, -0.021432919427752495, 0.01388238463550806, -0.008040656335651875, 0.016955584287643433, -0.021393179893493652, -0.019326716661453247, -0.01469042431563139, 0.035898152738809586, 0.016677407547831535, 0.024519365280866623, -0.0018926009070128202, -0.0035136474762111902, 0.013034605421125889, -0.03173873573541641, 0.02412196807563305, 0.014134068973362446, 0.022717833518981934, 0.049330152571201324, 0.020227482542395592, 0.029857724905014038, 0.004205779638141394, 0.010683342814445496, 0.007067034486681223, 0.029857724905014038, 0.01543223112821579, 0.004904535133391619, -0.006381525658071041, 0.008113511838018894, -0.01304785255342722, -0.010113741271197796, 0.012683572247624397, 0.008491039276123047, 0.014743410982191563, -0.005537058226764202, 0.030573038384318352, -0.012253059074282646, -0.012643832713365555, -0.014571205712854862, 0.00435480335727334, 0.002174090128391981, 0.015458724461495876, -0.013339276425540447, 0.0011615569237619638, -0.01841270551085472, 0.019644634798169136, -0.020585140213370323, 0.00868973694741726, -0.0007794767152518034, 0.012425264343619347, -0.014796396717429161, -0.01108736265450716, -0.002743691671639681, -0.020889809355139732, -0.013279667124152184, -0.011809299699962139, 0.041806112974882126, -0.021300453692674637, -0.02115474082529545, 0.004576683044433594, -0.0044839573092758656, 0.012021244503557682, -0.01462419144809246, -0.002540026092901826, 0.018505431711673737, -0.022373422980308533, 0.0061232177540659904, 0.024347160011529922, 0.005758937913924456, -0.008305586874485016, -0.0061662690714001656, -0.013895631767809391, -0.02070435881614685, 0.013299536891281605, -0.02316821739077568, 0.01675688661634922, -0.01639922894537449, 0.013802905566990376, 0.009418297559022903, -0.012060984037816525, -0.0009686539997346699, 0.03804409131407738, 0.00047190836630761623, -0.016717147082090378, 0.010120364837348461, -0.006679573096334934, -0.01596209406852722, 0.00330501445569098, 0.0022254204377532005, -0.0010986358392983675, -0.008808956481516361, 0.032586514949798584, 0.005593355745077133, 0.004364738240838051, 0.02267809398472309, 0.020929548889398575, -0.007914814166724682, -0.003381181973963976, -0.022452903911471367, -0.015207040123641491, 0.0011690080864354968, 0.09235495328903198, 0.03157977759838104, -0.004782004747539759, 0.0009164956863969564, 0.007067034486681223, 0.007219369988888502, -0.009153366088867188, -0.008014163002371788, 0.010901911184191704, 0.01372342649847269, -0.016836365684866905, -0.016876105219125748, -0.00698093231767416, 0.01060386374592781, 0.010908534750342369, -0.019008800387382507, 0.011709950864315033, -0.01355122122913599, 0.017286747694015503, -0.007173006888478994, 0.003238781588152051, -0.0074644312262535095, 0.0021906483452767134, 0.02447962574660778, 0.009418297559022903, 0.01296837255358696, 0.038812391459941864, 0.0021707783453166485, -0.0009206352406181395, -0.01165696419775486, -0.0034043635241687298, -0.0060371155850589275, -0.021962780505418777, -0.0006859229179099202, -0.028321124613285065, 0.007100150920450687, 0.003184139495715499, 0.009736214764416218, -0.002031689742580056, 0.01643896847963333, 0.016160791739821434, 0.018161021173000336, -0.016690652817487717, -0.012425264343619347, -0.0014943764545023441, -0.021909793838858604, -0.00665639154613018, 0.013484988361597061, -0.006663015112280846, -4.395034920889884e-06, 0.0400310754776001, -4.863967842538841e-05, 0.015895860269665718, -0.02104876935482025, 0.006351721007376909, 0.004947586450725794, -0.008146628737449646, 0.003497089259326458, -0.019989045336842537, -0.0036461129784584045, -0.0031791720539331436, -0.016293257474899292, -0.022134985774755478, -0.015233533456921577, -0.018306732177734375, 0.007418068125844002, -0.009067263454198837, 0.011339046992361546, -0.019657880067825317, 0.0002516844542697072, 0.03295741602778435, -0.013895631767809391, 0.009504400193691254, 0.006401395425200462, 0.002670835703611374, 0.019975798204541206, -0.0032139443792402744, -0.005696016829460859, 0.026214923709630966, 0.016876105219125748, 0.030758490785956383, -0.01469042431563139, -0.0020548710599541664, -0.025579089298844337, -0.01609455794095993, 0.018359718844294548, 0.0063715907745063305, -0.042600907385349274, -0.03682541102170944, 0.015869367867708206, -0.02877150848507881, 0.0036726060789078474, -0.0036030616611242294, -0.0019025357905775309, -0.014836136251688004, 0.0017882842803373933, -0.006159645970910788, -0.00171377242077142, 0.025910252705216408, -0.020717604085803032, -0.007510794326663017, -2.1551517420448363e-05, -0.019353210926055908, -0.022744327783584595, 0.005676147062331438, 0.011021129786968231, -0.004043509718030691, -0.025380391627550125, -0.004126300569623709, 0.009729591198265553, 0.0040335748344659805, -0.008954668417572975, 0.01628001034259796, 0.01838621124625206, -0.020982535555958748, 0.01371017936617136, -0.012869023717939854, 0.0436871238052845, -0.00968985166400671, -0.013266419991850853, 0.004527008626610041, -0.03303689509630203, 0.03224210441112518, 0.02099578268826008, -0.023857036605477333, 0.014279781840741634, -0.010709836147725582, -0.011802676133811474, -0.004901223815977573, -0.005288685206323862, -0.007517417427152395, 0.03613658994436264, -0.015551450662314892, -0.008000916801393032, -0.02104876935482025, -0.010683342814445496, -0.005235699005424976, -0.008285717107355595, -0.03189769387245178, -0.028956959024071693, -0.009484530426561832, 0.02083682455122471, -0.0012327571166679263, 0.008802332915365696, 0.00717963045462966, -0.020253974944353104, -0.0074644312262535095, 0.0010986358392983675, -0.01139865629374981, 0.026506347581744194, 0.004775381647050381, -0.0023032440803945065, 0.003139432519674301, -0.014822890050709248, -0.006477563176304102, -0.011266191489994526, -0.012590846046805382, -0.017988815903663635, 0.00787507463246584, 0.010656849481165409, 0.010133611038327217, 0.01690259762108326, 0.007325342390686274, -0.00406006770208478, -0.012524613179266453, 0.013372392393648624, -0.02940734289586544, 0.010776069015264511, -0.041302744299173355, 0.024095475673675537, -0.0015448789345100522, 0.024188201874494553, -0.009981275536119938, -0.02842709794640541, -0.007318719290196896, 0.006566977594047785, -0.017326487228274345, -0.02924838289618492, -0.006835219915956259, -0.025724800303578377, 0.016995323821902275, 0.0029076177161186934, -0.015392491593956947, 0.004682655446231365, -0.011961635202169418, -0.004732330329716206, 0.034229084849357605, 0.010544254444539547, 0.00258638896048069, 0.023022504523396492, 0.01578988879919052, -0.013670439831912518, 0.030122656375169754, -0.009524269960820675, 0.01560443639755249, 0.0015572975389659405, -0.0032718980219215155, -0.01953866146504879, 0.0010969799477607012, -0.0026691798120737076, -0.02429417334496975, -0.016200531274080276, 0.004927716683596373, -0.015551450662314892, -0.033275336027145386, 0.024757802486419678, 0.005679458379745483, 0.0006697787321172655, -0.006129841320216656, -0.005407904274761677, -0.04511775076389313, -0.020465919747948647, -0.014041343703866005, -0.01058399397879839, 0.014809643849730492, -0.004341556690633297, -0.021406425163149834, 0.018796855583786964, -0.025168446823954582, -0.02893046662211418, 0.01690259762108326, -0.01659792847931385, 0.02365833893418312, 0.003223879262804985, 0.022254204377532005, 0.013935371302068233, -0.014319521375000477, -0.003343098098412156, 0.03414960578083992, -0.007497547660022974, -0.0018230564892292023, 6.794031651224941e-05, 0.018995553255081177, 0.018465692177414894, -0.012623962946236134, -0.01724700815975666, -0.002157531911507249, 0.0025085655506700277, -0.02397625707089901, 0.016478708013892174, 0.012974996119737625, 0.0021989273373037577, -0.02940734289586544, -0.020916303619742393, -0.008285717107355595, 0.011133725754916668, -0.038865379989147186, 0.010961520485579967, -0.015061328187584877, -0.02104876935482025, -0.013630700297653675, 0.030996927991509438, -0.002246946096420288, 0.029009945690631866, 0.008544025011360645, 0.0045501901768147945, -0.014028096571564674, 0.004298505838960409, -0.029115917161107063, 0.038706421852111816, 0.010643603280186653, -0.00038663370651192963, -0.015485217794775963, -0.011974881403148174, -0.004901223815977573, 0.017167529091238976, -0.028692027553915977, -0.006073543336242437, 0.007298849523067474, 0.025181692093610764, -0.04167364910244942, -0.006315292790532112, -0.00685508968308568, -0.03271897882223129, 0.009054017253220081, -0.01805504783987999, -0.001455464749597013, -0.02232043817639351, 0.005030377767980099, -0.021432919427752495, 0.009643488563597202, 0.0030467065516859293, -0.008100265637040138, 0.008298964239656925, 0.008252601139247417, -0.010908534750342369, -0.03263949975371361, -0.015326258726418018, 0.009994522668421268, 0.011266191489994526, -0.02662556618452072, -0.043289728462696075, 0.013332652859389782, -0.013524727895855904, -0.004003769718110561, 0.009511022828519344, -0.02069111168384552, 0.02707595005631447, -0.031950678676366806, 0.006616652011871338, 0.005580109544098377, -0.025976484641432762, 0.007735985331237316, -0.007285602856427431, 0.0054608904756605625, 0.0025764540769159794, -0.0015216975007206202, -0.007371705491095781, -0.033275336027145386, 0.003964030183851719, 0.025088965892791748, -0.014915616251528263, 0.01723376289010048, -0.01890282705426216, -0.015286519192159176, -0.008431429043412209, 0.009908420033752918, -0.007828711532056332, 0.0020681177265942097, -0.017763623967766762, -0.01642572320997715, 0.001710460870526731, -0.0026940172538161278, -0.04225649684667587, -0.005239010788500309, 0.016637668013572693, 0.015339505858719349, 0.01790933683514595, -0.013842645101249218, 0.0007625045836903155, 0.005338359624147415, -0.0048846653662621975, 0.004288570489734411, 0.004480645526200533, -0.021883301436901093, -0.008610257878899574, -0.024532612413167953, 0.019816840067505836, -0.025327404960989952, -0.03155328333377838, 0.0032752095721662045, 0.025552595034241676, 0.003609684994444251, 0.011319177225232124, 0.00038849649718031287, -0.016054818406701088, -0.01792258210480213, -0.022929778322577477, -0.004272012505680323, -0.030917448922991753, -0.02659907378256321, 0.03584516420960426, 0.014412246644496918, -0.010478021577000618, -0.028824493288993835, -0.0005431085592135787, -0.029672272503376007, 0.006573600694537163, -0.010590617544949055, 0.014650684781372547, -0.0067060659639537334, 0.02152564376592636, -0.01755167916417122, 0.009378558024764061, 0.021803822368383408, 0.022611862048506737, -0.00025478910538367927, -0.010478021577000618, 0.00796117726713419, 5.810888978885487e-05, 0.03237456828355789, -0.017763623967766762, -0.02479754202067852, -0.01804180257022381, 0.02693023718893528, 0.00615302287042141, 0.0035335172433406115, 0.012200073339045048, -0.024678323417901993, 0.00024940771982073784, -0.005116479936987162, 0.012869023717939854, 0.019989045336842537, 0.017286747694015503, 0.043289728462696075, -0.03550075367093086, 0.0022452902048826218, -0.018002063035964966, 0.002371132606640458, 0.015511710196733475, 0.0024059046991169453, -0.0063715907745063305, 0.004050132818520069, 0.018796855583786964, 0.01740596815943718, 0.01874386891722679, 0.0073981983587145805, -0.0021177921444177628, 0.025062473490834236, -0.013392262160778046, -0.002826482756063342, 0.022240959107875824, 0.0011880500242114067, 0.0036428014282137156, -0.009974652901291847, -0.007192877121269703, -0.041435208171606064, -0.03695787489414215, -0.007451184559613466, -0.027711784467101097, 0.005470825359225273, -0.014902369119226933, 0.002397625707089901, 0.014226795174181461, 0.017286747694015503, -0.01628001034259796, 0.010782691650092602, 0.021962780505418777, 0.0321626253426075, 0.014425493776798248, -0.033911168575286865, -0.008835448883473873, -0.008676490746438503, -0.01968437433242798, -0.0031857953872531652, -0.010683342814445496, -0.025194939225912094, -0.030149148777127266, 0.0023943139240145683, -0.01923399046063423, -0.047369666397571564, -0.046230461448431015, 0.025035981088876724, -0.015392491593956947, 0.0017634470714256167, -0.010769445449113846, 0.18608753383159637, -0.0019174382323399186, -0.02148590423166752, 0.02940734289586544, -0.008338703773915768, 0.002286685863509774, 0.010511137545108795, 0.035394784063100815, 0.00657028891146183, 0.01412082277238369, 0.012339161708950996, 0.012193449772894382, 0.0039044206496328115, -0.0003729731834027916, 0.011431773193180561, -0.02877150848507881, -0.022890038788318634, -0.04668084532022476, 0.018266992643475533, 0.011935141868889332, -0.008166498504579067, -0.018757116049528122, 0.009173235855996609, -0.009676605463027954, 5.4176322009880096e-05, 0.014743410982191563, -0.006368278991430998, -0.004023639485239983, 0.018955813720822334, 0.0014653996331617236, -0.014134068973362446, 0.00768299913033843, -0.00935868825763464, -0.030626025050878525, -0.00912025012075901, -0.013451872393488884, -0.002811580430716276, 0.012736557982861996, 0.011127102188766003, 0.01643896847963333, -0.003520270809531212, 0.0021906483452767134, -0.007822087965905666, -0.010875417850911617, -0.01470367144793272, 0.007411445025354624, -0.013451872393488884, -0.014319521375000477, -0.00048142930609174073, 0.007278979290276766, -0.029698766767978668, -0.007073658052831888, 0.01858491078019142, 0.008782463148236275, 0.0068087270483374596, -0.01743246056139469, 0.022863546386361122, 0.018492184579372406, -0.01200137473642826, 0.006090101785957813, -0.02840060368180275, 0.0046164230443537235, -0.0025350586511194706, 0.007120020687580109, -0.005503941792994738, 0.013776412233710289, -0.011683457531034946, -0.02659907378256321, 0.011378786526620388, 0.0022403227631002665, 0.020903056487441063, 0.0017088049789890647, 0.00788169726729393, -0.01100126001983881, -0.0070869047194719315, -0.02100902982056141, 0.046071503311395645, -0.009093756787478924, 0.021936288103461266, 0.028294632211327553, 0.005030377767980099, 0.014001604169607162, -0.0006991694681346416, 0.014425493776798248, -0.02988421730697155, -0.00435480335727334, 0.007206123322248459, 0.011093986220657825, -0.02675803191959858, -0.018836595118045807, -0.004570059943944216, -0.001563092926517129, 0.008974538184702396, 0.00759689649567008, 0.008040656335651875, 0.008404936641454697, -0.0026046030689030886, 0.001919094007462263, -0.002760249888524413, -0.01536599826067686, -0.02430742047727108, 0.004543566610664129, 0.026864005252718925, 0.012041114270687103, -0.03197717294096947, -0.009411673992872238, 0.008842072449624538, 0.011630470864474773, 0.012471627444028854, 0.011193335056304932, -0.021273959428071976, -0.03263949975371361, -0.005586732644587755, -0.012133840471506119, 0.02263835445046425, -0.007828711532056332, 0.006686196196824312, -0.022903285920619965, 0.017684144899249077, -0.00877583958208561, 0.038653433322906494, -0.024757802486419678, 0.027976714074611664, 0.01536599826067686, 0.0047621349804103374, -0.03150029852986336, -0.05046935752034187, 0.007815464399755001, 0.013895631767809391, -0.010391918942332268, -0.01230604574084282, 0.003324884222820401, 0.0005141317378729582, 0.0040335748344659805, -0.02216147817671299, -0.0029440459329634905, 0.0011590732028707862, 0.01536599826067686, 0.01092840451747179, -0.013345899991691113, -0.005984129384160042, 0.001370190060697496, 0.005239010788500309, -0.02903643809258938, 0.0005389690049923956, -0.016465462744235992, -0.013829398900270462, -0.005424462258815765, 0.01165696419775486, -0.023035751655697823, 0.0030781670939177275, -0.027340879663825035, -0.0033182608895003796, -0.047555115073919296, 0.017498692497611046, 0.006573600694537163, -0.016942337155342102, -0.008226107805967331, -0.01175631396472454, 0.02269134111702442, -0.029009945690631866, -0.005954324267804623, 0.03436155244708061, -0.018094787374138832, -0.015339505858719349, 0.016200531274080276, -0.1670125126838684, 0.055582527071237564, 0.04167364910244942, -0.013683686964213848, 0.037991106510162354, 0.013405509293079376, 0.0033480655401945114, -0.01214046310633421, -0.019922811537981033, 0.013008113019168377, 0.010292570106685162, -0.007848581299185753, -0.0022601927630603313, -0.049833521246910095, -0.010689966380596161, 0.0029307992663234472, -0.023870283737778664, 0.005331736523658037, 0.04450840875506401, 0.008504285477101803, 0.00035413826117292047, -0.021737588569521904, 0.02612219750881195, 0.021803822368383408, 0.02367158606648445, 0.004586617927998304, 0.0018627961399033666, -0.001181426690891385, 0.014809643849730492, -0.006901452783495188, -0.0038348764646798372, -0.029804738238453865, 0.041647154837846756, -0.011603978462517262, 0.022744327783584595, 0.0016094559105113149, -0.031950678676366806, -0.03971315920352936, -0.015617682598531246, 0.005195959471166134, -0.0064874980598688126, 0.00929245539009571, 0.008928175084292889, -0.023883530870079994, 0.015683915466070175, 0.025870513170957565, 0.020757345482707024, -0.012829284183681011, -0.004212403204292059, 0.004940963350236416, 0.02017449587583542, -0.002377755707129836, 0.010391918942332268, 0.016836365684866905, 0.03399064764380455, 0.011431773193180561, 0.01871737651526928, 0.018505431711673737, -0.0068153501488268375, -0.013504858128726482, -0.006663015112280846, 0.004272012505680323, 0.019154511392116547, -0.016611173748970032, -0.001829679822549224, -0.04170013964176178, -0.0006300390814431012, 0.0027883988805115223, -0.0031742046121507883, 0.019909566268324852, 0.005417839158326387, -0.0019356522243469954, 0.02017449587583542, -0.01280941441655159, -0.0031675812788307667, 0.014332767575979233, 0.006593470461666584, -0.023406654596328735, -0.0008949700859375298, -0.0004959177458658814, -0.03287793695926666, 0.012683572247624397, -0.016531694680452347, 0.002937422599643469, -0.014584451913833618, -0.002145941136404872, 0.0036295547615736723, 0.014385754242539406, 0.013332652859389782, 0.0007674720254726708, -0.019273731857538223, -0.011776183731853962, 0.001876042690128088, -0.03963368013501167, 0.023910023272037506, 0.007173006888478994, -0.005331736523658037, 0.014385754242539406, -0.01952541619539261, -0.004076625686138868, 0.0027321011293679476, 0.025830773636698723, -0.018783608451485634, 0.020929548889398575, 0.022095246240496635, 0.025552595034241676, -0.006315292790532112, 0.005179401021450758, 0.032745473086833954, 0.0007277323747985065, 0.01451821904629469, 0.008166498504579067, -0.00497407978400588, 0.03173873573541641, -0.027711784467101097, 0.026228170841932297, 0.022890038788318634, -0.014279781840741634, 0.05595342814922333, 0.006086790002882481, 0.025075720623135567, -0.03597763180732727, 0.008610257878899574, 0.0005298620089888573, -0.016558188945055008, -0.018280239775776863, -0.09913718700408936, 0.025208186358213425, -0.004917781800031662, 0.022095246240496635, -0.00788169726729393, 0.005566862877458334, 0.010511137545108795, -0.0004541083180811256, 0.0034142984077334404, 0.010332309640944004, -0.006821973714977503, -0.020571893081068993, 0.04273337125778198, 0.00030011715716682374, 0.008279094472527504, -0.006414642091840506, 0.02531415782868862, 0.003957407083362341, -0.033725716173648834, 0.0014447019202634692, -0.014306274242699146, -0.008544025011360645, 0.006788857281208038, -0.01890282705426216, 0.015856120735406876, 0.01462419144809246, -0.030917448922991753, -0.0031046601943671703, 0.015551450662314892, -0.016664160415530205, -0.016505202278494835, -0.018677636981010437, 0.01272331178188324, -0.012504743412137032, 0.01870412938296795, 0.012133840471506119, 0.012060984037816525, 0.0008883468108251691, 0.015087820589542389, -0.00936531089246273, 0.000594438926782459, 0.018664389848709106, -0.005219141021370888, -0.029937203973531723, 0.02151239849627018, 0.0016301536234095693, -0.01673039235174656, 0.022413162514567375, -0.0068153501488268375, -0.012253059074282646, -0.006219255272299051, 0.027062702924013138, -0.024757802486419678, -0.007630012929439545, 0.03560672700405121, -0.002997032133862376, -0.0014579484704881907, 0.0018147773807868361, -0.02694348432123661, -0.027393866330385208, 0.004159417003393173, 0.00476544676348567, -0.020452674478292465, 0.0016301536234095693, 0.01904853992164135, 0.008577140979468822, -0.011464889161288738, -0.008312210440635681, 0.013564467430114746, -0.007047164719551802, -0.020571893081068993, 0.001841270481236279, -0.007345212157815695, 0.024082228541374207, -0.05584745854139328, -0.013975110836327076, -0.01936645619571209, -0.008000916801393032, 0.004748888313770294, -0.0036990991793572903, 0.02279731258749962, -0.003917667083442211, 0.011458266526460648, -0.016650913283228874, 0.02514195255935192, 0.024214694276452065, 0.015895860269665718, 0.012286175973713398, 0.015736902132630348, -0.04750213027000427, 0.01575014926493168, 0.026638813316822052, 0.010789315216243267, -0.021764082834124565, -0.025738047435879707, -0.0006238297210074961, 0.01906178705394268, -0.018810100853443146, 0.00837844330817461, 0.0044905804097652435, -0.03828253224492073, -0.021247467026114464, -0.07216721028089523, 0.034229084849357605, 0.007484300993382931, -0.0008502629352733493, 0.0057225096970796585, 0.011935141868889332, 0.012087477371096611, 0.010610487312078476, 0.009736214764416218, 0.025181692093610764, -0.024665076285600662, 0.011597354896366596, 0.00863675121217966, 0.009782577864825726, -0.027208413928747177, -0.006010622251778841, 0.005424462258815765, 0.001042337971739471, -0.0014264879282563925, -0.011809299699962139, 0.007278979290276766, 0.014663930982351303, 0.036057110875844955, 0.0023065556306391954, -0.021883301436901093, 0.01232591550797224, -0.025592336431145668, 0.013504858128726482, -0.00407000258564949, -0.0019902943167835474, 0.016518447548151016, -0.01296174991875887, -0.016531694680452347, 0.04644240438938141, -0.02956630103290081, -0.018293486908078194, 0.0011516220401972532, 0.017445707693696022, 0.021817069500684738, 0.019657880067825317, -0.026652060449123383, -0.01232591550797224, 0.010795938782393932, 0.0020515595097094774, -0.0029672272503376007, 0.008312210440635681, 0.013074344955384731, 0.0036262432113289833, -0.0030053111258894205, 0.009166613221168518, -0.014160562306642532, 0.027791263535618782, -0.007590273395180702, -0.04940963163971901, -0.00920635275542736, 0.028692027553915977, 0.01673039235174656, 0.02560558170080185, -0.004553501959890127, -0.014584451913833618, 0.0387859009206295, 0.0049508982338011265, 0.017114542424678802, 0.0029208643827587366, -0.0037620202638208866, 0.0013321061851456761, -0.00330501445569098, 0.019816840067505836, 0.01394861750304699, -0.025181692093610764, -0.023101983591914177, -0.02279731258749962, 0.0005211689858697355, -0.008027409203350544, 0.023605352267622948, -0.022916533052921295, 0.0006842671427875757, -0.018266992643475533, -0.009915042668581009, 0.022386670112609863, -0.01753843203186989, 0.00894804485142231, -0.021724343299865723, 0.030811475589871407, 0.008371819742023945, -0.018147774040699005, -0.020797085016965866, -0.020651372149586678, -0.01628001034259796, 0.016293257474899292, 0.015723655000329018, 0.013842645101249218, -0.008967914618551731, -0.010630357079207897, -0.004185909871011972, 0.005576797761023045, -0.00435480335727334, -0.024704815819859505, 0.026042718440294266, -0.00537147605791688, -0.0024804165586829185, 0.013385639525949955, 0.01871737651526928, -0.03674593195319176, -0.020227482542395592, -0.017313241958618164, -0.027473345398902893, -0.03936874866485596, 0.011127102188766003, -0.005941078066825867, 0.02134019322693348, 0.009107003919780254, 0</t>
+  </si>
+  <si>
+    <t>[0.0022962165530771017, 0.011077781207859516, -0.004006995353847742, -0.03301868587732315, -0.0036752475425601006, 0.00824166089296341, -0.013972445391118526, -0.01693866401910782, 0.01756313070654869, -0.022506825625896454, -0.0017563130240887403, -0.029011689126491547, -0.05013948306441307, -0.002710901666432619, -0.023118283599615097, -0.0029353194404393435, 0.02843926101922989, -0.0101150618866086, -0.006361756008118391, -0.03351305425167084, -0.016977692022919655, 0.005974716506898403, 0.00837826356291771, -0.0015400262782350183, -0.0060072410851716995, -0.022129543125629425, 0.0357247069478035, -0.023599643260240555, 0.001364395022392273, 0.010225644335150719, -0.023222360759973526, -0.007044766563922167, -0.02374275028705597, -0.004159859847277403, 0.0010302076116204262, 0.0024263139348477125, 0.024146052077412605, -0.0034996161703020334, 0.0031288391910493374, 0.008859623223543167, 0.013120308518409729, 0.005340492352843285, 0.013068269938230515, -0.012964191846549511, -0.01159166544675827, 0.030494797974824905, 0.006921174004673958, 0.002346629276871681, -0.009275934658944607, 0.01159817073494196, -0.006608940660953522, 0.020685464143753052, -0.02908974699676037, -0.006882145069539547, -0.026826053857803345, -0.02942799963057041, -0.0006301585817709565, 0.005008744541555643, 0.011799821630120277, -0.042099472135305405, 0.007233407814055681, -0.023703720420598984, -0.026058480143547058, -0.006218648981302977, -0.0006443879683502018, -0.016912642866373062, -0.029974408447742462, -0.006657727062702179, -0.019371481612324715, -0.010973704047501087, 0.02640974335372448, 0.0250307135283947, 0.02088060975074768, -0.006979717873036861, 0.021492067724466324, -0.013224386610090733, 0.004381025210022926, 0.010589917190372944, 0.0040948111563920975, 0.006378018297255039, -0.010980208404362202, -0.014870116487145424, 0.016171088442206383, 0.020763522014021873, 0.024041973054409027, 0.018838083371520042, 0.003688257187604904, 0.026747995987534523, -0.01968371495604515, -0.0055031138472259045, -0.008384767919778824, 0.020451288670301437, 0.0005354315508157015, 0.02307925373315811, 0.012502346187829971, -0.02778877504169941, -3.501445826259442e-05, 0.005971464328467846, -0.0011725015938282013, -0.002806848380714655, 0.011142830364406109, 0.0036817523650825024, -0.027632657438516617, -0.017498081550002098, -0.048344142735004425, -0.02345653623342514, -0.006387775298207998, 0.0021872601937502623, 0.02445828542113304, -0.002353134099394083, 0.006176367402076721, 0.04274995997548103, -0.0018278665374964476, -0.03405946120619774, -0.0010041882051154971, -0.030286641791462898, 0.031067226082086563, -0.005870638880878687, 0.03413752093911171, -0.009282439015805721, 0.013478076085448265, 0.019358472898602486, 0.009451566264033318, -0.012996716424822807, 0.03457985073328018, -0.003980976063758135, -0.00961418729275465, -0.002170997904613614, -0.019527599215507507, -0.0052071427926421165, -0.0007078103953972459, -0.012638948857784271, 0.0022669448517262936, 0.014362737536430359, 0.00655690161511302, 0.0033890334889292717, -0.010537877678871155, 0.00892467238008976, -0.010993218049407005, -0.03429363667964935, 0.03468392789363861, 0.007909913547337055, -0.028283143416047096, 0.0044753458350896835, -0.014232640154659748, 0.03189984709024429, -0.009184866212308407, 0.026904113590717316, 0.006130833178758621, -0.00627719284966588, 0.025512073189020157, -0.005857629235833883, 0.006221901625394821, 0.003532140515744686, 0.012717006728053093, 0.02319634146988392, -0.02732042409479618, 0.03385130688548088, 0.016249148175120354, 0.012411278672516346, -0.01241778302937746, 0.03588082268834114, 0.0195015799254179, 0.007409038953483105, 0.031223341822624207, 0.015065263025462627, 0.007851369678974152, 0.034189559519290924, -0.004530637059360743, 0.008280690759420395, -0.012899143621325493, 0.021479057148098946, -0.03356509283185005, 0.019345462322235107, 0.03236819803714752, 0.03340897709131241, -0.010921664535999298, -0.002390537178143859, -6.703058170387521e-05, 0.01618409901857376, -0.01591089554131031, -0.02807498909533024, 0.027112267911434174, 0.02445828542113304, -0.009087293408811092, 0.021231872960925102, 0.01563769020140171, 0.00813758373260498, 0.018187597393989563, -0.02768469601869583, 0.00813758373260498, 0.01693866401910782, 0.0020506579894572496, -0.02916780486702919, -0.6461150050163269, 0.015546622686088085, -0.010186615400016308, 0.0011944554280489683, -0.005363259464502335, 0.0033142275642603636, 0.01730293594300747, 0.013224386610090733, -0.014375747181475163, -0.021231872960925102, -0.022402748465538025, 0.009854867123067379, 0.01214457955211401, -0.010043508373200893, -0.04324432834982872, -0.008820594288408756, 0.000595194986090064, -0.006130833178758621, 0.01602798141539097, -0.0052526770159602165, 0.0022734496742486954, 0.03752005100250244, -0.016054002568125725, 0.009126322343945503, 0.0024067992344498634, 0.006836610846221447, 0.009340982884168625, -0.019761772826313972, -0.01728992536664009, 0.0013034119037911296, -0.017524100840091705, 0.01540351565927267, -0.007805835455656052, -0.0025141295045614243, 0.04433714598417282, 0.024783527478575706, -0.026058480143547058, 0.03588082268834114, 0.012625939212739468, 0.02199944667518139, 0.007363504730165005, 0.0037858302239328623, 0.03356509283185005, -0.013569144532084465, 0.006212144158780575, 0.005441317800432444, 0.03356509283185005, 0.007422048598527908, -0.0025808042846620083, -0.021231872960925102, -0.006407290231436491, -0.03171771019697189, 0.011324966326355934, 0.027008190751075745, 0.025707218796014786, -0.024054983630776405, 0.033434994518756866, -0.011994967237114906, -0.004459083545953035, -0.003844374092295766, 0.009022245183587074, 0.008651467971503735, 0.0041501023806631565, -0.0022506825625896454, -0.006312969606369734, 0.005067288409918547, -0.02630566619336605, 0.011702248826622963, -0.023131292313337326, 0.006205639336258173, 0.010824091732501984, 0.03530839458107948, -0.023443525657057762, 0.006000736262649298, 0.006140590645372868, 0.021101774647831917, 0.013959435746073723, -0.013029240071773529, 0.02078954130411148, 0.044493261724710464, -0.007578165270388126, -0.012268171645700932, -0.023508574813604355, 0.01619710959494114, 0.009191371500492096, -0.010388266295194626, -0.005064035765826702, 0.008475836366415024, 0.0266699381172657, 0.013764290139079094, 0.019436530768871307, 0.0009879260323941708, -0.0003185350215062499, -0.030754992738366127, -0.020633425563573837, 0.039055198431015015, 0.0007911539287306368, 0.01085661631077528, 0.010147586464881897, -0.031067226082086563, -0.011734772473573685, -0.032524313777685165, -0.012313705869019032, 0.00030613510170951486, 0.017003711313009262, 0.007701757829636335, -0.018655946478247643, 0.0030019942205399275, 0.026526831090450287, -0.026630908250808716, -0.010043508373200893, 0.012326715514063835, -0.0017449294682592154, -0.006726028397679329, -0.0069406889379024506, -0.023066243156790733, 0.03884704038500786, 0.025694208219647408, 0.007818845100700855, -0.014687980525195599, 0.01719885692000389, -0.001528642838820815, 0.008163603022694588, -0.03541247546672821, 0.005090055055916309, 0.007031756918877363, 0.010193120688199997, -0.012847104109823704, -0.02906372770667076, 0.02436721697449684, 0.010661470703780651, 0.007545641157776117, 0.029011689126491547, -0.011246908456087112, 0.015377496369183064, 0.019670706242322922, 0.024041973054409027, -0.02077653259038925, 0.005532385781407356, -0.018434781581163406, -0.025134790688753128, -0.008352244272828102, -0.007409038953483105, -0.031223341822624207, -0.01719885692000389, -0.02695615217089653, -0.03413752093911171, 0.009783313609659672, -0.028387222439050674, 0.01572875864803791, -0.0408245213329792, -0.012619433924555779, -0.018734004348516464, -0.012359239161014557, 0.00842379778623581, 0.006992727518081665, -0.009965449571609497, 0.0034443249460309744, -0.01628817617893219, 0.021179834380745888, 0.0010887514799833298, -0.014063513837754726, -0.024588381871581078, -0.015234389342367649, -0.0012456811964511871, -0.003948451951146126, -0.013263415545225143, 0.01812254823744297, 0.007142339367419481, -0.03523033857345581, 0.0074480678886175156, -0.003122334135696292, 0.019085267558693886, 0.030598875135183334, -0.005990978796035051, 0.014635941945016384, -0.010362247005105019, -0.02144002914428711, -0.024627411738038063, -0.015026233159005642, 0.006290202494710684, -0.0020717987790703773, -0.019202355295419693, -0.02659188024699688, 0.008605933748185635, 0.010251663625240326, 0.010550887323915958, -0.012912153266370296, -0.026097510010004044, 0.0010163848055526614, -0.011155840009450912, 0.009074283763766289, -0.01481807790696621, -0.01609303057193756, 0.00896370131522417, 0.0029092999175190926, -0.002639348153024912, -0.006316221784800291, -0.018655946478247643, 0.01531244721263647, 0.014740019105374813, 0.019488569349050522, 0.03902917727828026, -0.000780583533924073, -0.0036687427200376987, -0.029375961050391197, 0.02337847650051117, -0.0033337422646582127, 0.03200392425060272, -0.0065829213708639145, 0.008664477616548538, -0.016912642866373062, -0.040434226393699646, -0.007558650802820921, -0.005255929194390774, 0.008222146891057491, 0.015104291960597038, 0.0027938387356698513, -0.011201374232769012, 0.008085544221103191, 0.03632315620779991, -0.005164861213415861, 0.02246779575943947, 0.013074774295091629, -0.04254180192947388, -0.01250885147601366, 0.009802828542888165, 0.03130140155553818, -0.02154410630464554, -0.02419809065759182, -0.01951458863914013, 0.02172624133527279, -0.015676720067858696, 0.01420662086457014, -0.01265846285969019, 0.009145837277173996, 0.015325456857681274, -0.008313214406371117, -0.004104568623006344, -0.009965449571609497, 0.027944890782237053, -0.001806725631467998, 0.00409155897796154, -0.000741960946470499, 0.013191862031817436, 0.0021612406708300114, 0.034814026206731796, 0.028647417202591896, -9.437133121537045e-05, -0.007409038953483105, -0.0012497467687353492, 0.004881899803876877, 0.0018246140098199248, -0.014128562062978745, 0.008521370589733124, -0.00796195212751627, 0.02291012741625309, 0.008996225893497467, 0.02760663814842701, 0.01375128049403429, 0.010368751361966133, -0.0043192291632294655, 0.02815304696559906, 0.017055749893188477, -0.0013351230882108212, 0.0025515325833112, -0.005454327445477247, -0.009464575909078121, -0.013686231337487698, -0.0155075928196311, 0.0010733023518696427, -0.01673050783574581, 0.005464084912091494, 0.0003079645975958556, -0.00039740646025165915, -0.030520817264914513, -0.034371696412563324, 0.0017335460288450122, -0.009412536397576332, 0.01518234983086586, 0.0064365616999566555, -0.03733791410923004, -0.0007557837525382638, 0.028543338179588318, 0.015624680556356907, -0.019267404451966286, -0.029141785576939583, -0.0005126644973643124, -0.013029240071773529, 0.022597894072532654, -0.013055260293185711, 0.017055749893188477, -0.028751494362950325, -0.013608173467218876, -0.010102052241563797, -0.008170108310878277, -0.0016961430665105581, -0.0007663541473448277, 0.012242152355611324, -0.024250129237771034, 0.0076952530071139336, -0.023144302889704704, -0.001639225403778255, -0.013360988348722458, 0.017003711313009262, -0.009275934658944607, -0.017407013103365898, -0.01728992536664009, 0.0017416770569980145, 0.0025450275279581547, -0.013933416455984116, 0.006124328356236219, 0.0003305283607915044, -0.006137338001281023, 0.004641219507902861, 0.015689728781580925, 0.007396029308438301, 0.006745542865246534, 0.03226412087678909, 0.01003049872815609, 0.02244177646934986, -0.036297135055065155, -0.014063513837754726, -0.014050504192709923, 0.09023545682430267, 0.005886901170015335, -0.016249148175120354, 8.156488183885813e-05, -0.009757294319570065, -0.008866128511726856, -0.008456321433186531, -0.00019473933207336813, -0.0035744220949709415, 0.039159275591373444, 0.003967966418713331, -0.027294404804706573, 0.02538197487592697, 0.01420662086457014, -0.0012692613527178764, -0.0015530360396951437, 0.005412045866250992, -0.005695007275789976, 0.05219502002000809, 0.03364315256476402, -0.004761559888720512, 0.010752538219094276, -0.005145346745848656, 0.03728587552905083, 0.024783527478575706, 0.0091133126989007, 0.026188578456640244, -0.028829552233219147, 0.0008618943393230438, -0.029011689126491547, -0.0018034732202067971, 0.009191371500492096, -0.01637924462556839, -0.000455340399639681, -0.013881377875804901, 0.007285446394234896, -0.013738270848989487, 0.011650209315121174, -0.004234666004776955, 0.011455063708126545, 0.035386454313993454, 0.008105059154331684, 0.01031020749360323, -0.00809855479747057, 0.0045794234611094, 0.011168849654495716, 0.010746033862233162, 0.010921664535999298, -0.012372249737381935, -0.020308181643486023, 0.023664690554142, -0.03359111398458481, -0.002785707591101527, -0.009666225872933865, 0.0028832803945988417, -0.010212634690105915, 0.014922155998647213, 0.01118185929954052, -0.01494817528873682, 0.01673050783574581, -0.007701757829636335, -0.024913625791668892, -0.005717774387449026, -0.007161854300647974, -0.016145069152116776, -0.0101605961099267, -0.012710502371191978, -0.0006159291951917112, -0.029323922470211983, -0.010843606665730476, 0.008768555708229542, -0.008657972328364849, -0.015065263025462627, 0.013146327808499336, 0.04222957044839859, -0.010661470703780651, 0.008261175826191902, -0.010954189114272594, -0.01804449036717415, 0.031587615609169006, -0.01766720786690712, -0.009191371500492096, -0.03707771748304367, -0.03765014559030533, -0.02843926101922989, 0.01453186385333538, 0.01748507097363472, -0.021596144884824753, -0.023534594103693962, -0.002323862398043275, 0.008111564442515373, 0.015104291960597038, 0.02945401892066002, 4.1519320802763104e-05, 0.0023287408985197544, -0.007246417459100485, 0.003919180016964674, -0.002884906716644764, 0.00710331043228507, -0.010850111022591591, -0.0047713168896734715, -0.0050835502333939075, -0.016392255201935768, 0.006205639336258173, 0.0265788696706295, -0.001951458863914013, 0.0184087622910738, -0.01719885692000389, -0.014375747181475163, 0.0009610935230739415, 0.005786075722426176, -0.02797091007232666, 0.000711875909473747, -0.0014074897626414895, -0.02706022933125496, -0.01485710684210062, -0.006371513474732637, 0.022376729175448418, 0.03018256463110447, -0.015234389342367649, -0.03189984709024429, -0.02255886420607567, 0.019761772826313972, 0.02851731888949871, -0.028829552233219147, 0.015104291960597038, -0.013217881321907043, 0.0009058021823875606, 0.010609431192278862, -0.00892467238008976, 0.009464575909078121, 0.014596912078559399, -0.002341750543564558, -0.01531244721263647, 0.0038378690369427204, -0.015195359475910664, -0.011968947947025299, -0.007194378413259983, -0.022142553701996803, -0.013608173467218876, -0.04152704402804375, 0.038326650857925415, -0.01135749090462923, 0.011142830364406109, -0.029688194394111633, -0.021765271201729774, -0.008638458326458931, -0.017328955233097076, -0.0019937404431402683, 0.021400999277830124, 0.004358258098363876, -0.0038606361486017704, -0.007070785854011774, 0.0023856584448367357, 0.010362247005105019, -0.01924138516187668, 0.0038638885598629713, -0.023586632683873177, 0.00030613510170951486, 0.0006716271163895726, 0.005997483618557453, 0.013608173467218876, 0.00948408991098404, 0.006212144158780575, -0.014792058616876602, -0.011350985616445541, -0.010850111022591591, -0.013152833096683025, -0.03229013830423355, 0.036947622895240784, 0.007578165270388126, 0.04306219145655632, -0.024913625791668892, -0.01394642610102892, -0.013998464681208134, -0.003480101702734828, 0.012821084819734097, 0.0012920283479616046, -0.04069442301988602, -0.0265788696706295, 0.006312969606369734, -0.006000736262649298, -0.0010513485176488757, 0.017459051683545113, -0.03346101567149162, 0.014245649799704552, 0.018694976344704628, -0.014870116487145424, 0.008690496906638145, 0.013842348009347916, 0.011578655801713467, -0.05063385143876076, 0.04368665814399719, 0.01053137332201004, -0.003948451951146126, 0.011259918101131916, -0.011832345277071, -0.02447129413485527, -0.009692246094346046, 0.006329231429845095, 0.004081801511347294, -0.024731488898396492, -0.008540884591639042, -0.019163325428962708, 0.0036915098316967487, 0.0011025742860510945, -0.012736521661281586, -0.007324475795030594, -0.006543891970068216, -0.009425546042621136, -0.029870331287384033, -0.015260408632457256, -0.01122739352285862, -0.0182266253978014, 0.008176612667739391, 0.0004898975021205842, 0.0048721423372626305, 0.018096528947353363, -0.0129706971347332, -0.032602373510599136, 0.020451288670301437, -0.012990211136639118, 0.018890121951699257, 0.013269920833408833, 0.02198643609881401, -0.0069406889379024506, -0.022298669442534447, -0.009887391701340675, 0.026006441563367844, -0.0024588382802903652, -0.006286949850618839, 0.0247575081884861, 0.0008992973016574979, -0.010804577730596066, 0.010082537308335304, 0.0007395215798169374, 0.017315944656729698, -0.010596421547234058, -0.027034210041165352, 0.04850025847554207, 0.010037003085017204, -0.004829860758036375, 0.0020945658907294273, -0.003379276255145669, -0.007760301697999239, 0.009991469793021679, -0.017784295603632927, -0.008599428460001945, -0.017550120130181313, 0.000327275920426473, -0.020087016746401787, 0.0048266081139445305, -0.028855571523308754, 0.0075391363352537155, -0.009347488172352314, -0.022298669442534447, 0.04293209686875343, -0.021674202755093575, -0.04121481254696846, 0.01904623955488205, -0.0015009971102699637, 0.016040991991758347, -0.0127885602414608, -0.001338375499472022, 0.017185848206281662, -0.010505354031920433, -0.005441317800432444, -0.011500597931444645, 0.015767788514494896, 0.027632657438516617, -0.015845846384763718, 0.00476481206715107, -0.004270442295819521, 0.030468778684735298, 0.02706022933125496, -0.00759117491543293, -0.0035711696837097406, 0.022767020389437675, -0.0018278665374964476, -0.026904113590717316, -0.007877388969063759, -0.012177103199064732, -0.015039242804050446, -0.0019986191764473915, 0.0012375501682981849, -0.006700008641928434, -0.012255162000656128, -0.00818311795592308, 0.003473596880212426, -0.008300204761326313, -0.009445060975849628, -0.006667484529316425, -0.013881377875804901, 0.036114998161792755, -0.0012985332868993282, 0.01440176647156477, 0.0019400754244998097, 0.02934994176030159, -0.018994199112057686, 0.013237396255135536, 0.008235156536102295, 0.04056432470679283, -0.019735753536224365, 0.0003541084879543632, 0.01494817528873682, -0.0033662666101008654, 0.04111073538661003, -0.009991469793021679, -0.02833518385887146, -0.02179129049181938, 0.012528366409242153, 0.006634960416704416, 0.009653216227889061, -0.009900401346385479, -0.011630695313215256, -0.013712250627577305, -0.0029206834733486176, 0.011858365498483181, -0.025421004742383957, 0.03340897709131241, 0.01804449036717415, 0.02089362032711506, 0.0063942801207304, -0.02401595376431942, 0.005015249364078045, 0.018382743000984192, 0.006251173093914986, 0.00013101199874654412, -0.04454530030488968, -0.014792058616876602, 0.011422539129853249, -0.010648461058735847, -0.015195359475910664, -0.004608695395290852, -0.02319634146988392, -0.023846827447414398, -0.015481573529541492, 0.019007209688425064, 0.0012099045561626554, -0.022936146706342697, 0.013413026928901672, 0.030989166349172592, -0.0049274335615336895, 0.033903345465660095, -0.019904879853129387, -0.013725261203944683, -0.008176612667739391, -0.009958945214748383, -0.013842348009347916, -0.016496332362294197, -0.023976923897862434, 0.018369732424616814, 0.0010798072908073664, -0.02760663814842701, 0.00035044949618168175, 0.01996992900967598, -0.0491507425904274, 0.0036199563182890415, 0.011051761917769909, 0.02199944667518139, 0.014154581353068352, 0.01848682016134262, -0.008573409169912338, -0.005655978340655565, -0.013465066440403461, 0.01866895705461502, -0.0048949094489216805, 0.02124488167464733, 0.031119264662265778, -0.027398481965065002, 0.020113036036491394, 0.01895517110824585, -0.029375961050391197, -0.007727777119725943, 0.028595376759767532, 0.013094289228320122, -0.0048721423372626305, 0.002439323579892516, -0.008131078444421291, -0.006355251185595989, -0.012690987437963486, -0.0008257110603153706, 0.005314473062753677, 0.018838083371520042, 0.03551655262708664, -0.019449539482593536, 0.015026233159005642, -0.003104445757344365, 0.021218862384557724, -0.025733238086104393, -0.001145669026300311, -0.022220611572265625, -0.000650486268568784, -0.00025409620138816535, 0.005633211228996515, -0.0020100027322769165, -0.0006224340759217739, -0.009301953949034214, 0.02549906261265278, 0.002092939568683505, 0.0067390380427241325, 0.0056267064064741135, 0.0058836485259234905, -0.008703506551682949, 0.0019969928544014692, 0.008085544221103191, -0.024965664371848106, -0.015195359475910664, -0.004865637514740229, -0.03366916999220848, 0.011910404078662395, -0.01702973060309887, 0.02898566983640194, -0.035750728100538254, -0.007168359123170376, -0.015299437567591667, -0.009711760096251965, -0.03975772112607956, 0.02289711683988571, 0.021596144884824753, -0.017433032393455505, -0.006000736262649298, -0.021661194041371346, -0.021596144884824753, -0.016132060438394547, -0.02501770295202732, -0.00519738532602787, -0.018265655264258385, -0.006456076633185148, 0.0042411708272993565, -0.036193057894706726, -0.02218158356845379, -0.0019937404431402683, 0.007324475795030594, -0.008384767919778824, -0.009796323254704475, 0.19233578443527222, 0.0101150618866086, -0.0034410725347697735, 0.0185908991843462, 0.0015140068717300892, 0.023755759000778198, 0.0025450275279581547, 0.009347488172352314, -0.011051761917769909, 0.006595931015908718, -0.03780626505613327, 0.02291012741625309, -0.007721272297203541, 0.01098671369254589, 0.021921388804912567, -0.0064820959232747555, -0.014102542772889137, -0.039523545652627945, -0.01792740263044834, 0.0036199563182890415, -0.0027726979460567236, -0.0009797950042411685, 0.002732042456045747, 0.0032394216395914555, -0.0008240847964771092, -0.007500106934458017, -0.0032914606854319572, -0.004920928739011288, 0.04186529666185379, 0.015624680556356907, 0.004618452861905098, -0.00833272933959961, 0.014596912078559399, 0.005226657260209322, -0.010154090821743011, 0.009249915368855, -0.003293086774647236, -0.006901659537106752, 0.030963147059082985, 0.021192843094468117, -0.00800748635083437, -0.0091133126989007, -0.03416353836655617, 0.01362118311226368, 0.020828571170568466, 0.012996716424822807, -0.013556133955717087, 0.002457211958244443, -0.010134576819837093, -0.007122824899852276, -0.026266636326909065, 0.009314963594079018, 0.0017270410899072886, 0.03257635235786438, 0.023976923897862434, -0.01904623955488205, 0.013120308518409729, 0.005831609480082989, 0.002297842875123024, -0.004901414271444082, -0.03856082633137703, 0.022025465965270996, -0.009373507462441921, -0.0031727468594908714, -0.004637967329472303, 0.01453186385333538, -0.00809204950928688, 0.014102542772889137, 0.014414776116609573, 0.009282439015805721, 0.014089533127844334, -0.00437126774340868, -0.013191862031817436, -0.0129251629114151, -0.0015384000726044178, -0.010967198759317398, 0.02961013652384281, -0.007519621402025223, 0.022012455388903618, 0.011923413723707199, -0.007545641157776117, 0.0027938387356698513, -0.008157097734510899, 0.023599643260240555, 0.0064268046990036964, -0.009887391701340675, 0.01628817617893219, 0.012385259382426739, -0.015299437567591667, -0.018291674554347992, -0.008957196027040482, -0.0037728205788880587, -0.0017449294682592154, 0.008248166181147099, 0.020919639617204666, 0.011116811074316502, 0.015559632331132889, 0.03470994904637337, -0.028959650546312332, 0.010843606665730476, -0.004485102836042643, 0.011370500549674034, 0.047615595161914825, -0.005922677926719189, -0.027814794331789017, 0.0020717987790703773, 0.013413026928901672, -0.0031922615598887205, 0.006059279665350914, -0.025889353826642036, -0.019254393875598907, -0.03247227519750595, -0.012495841830968857, -0.015156330540776253, 0.027476541697978973, -0.006016998086124659, 0.021648183465003967, -0.01265846285969019, 0.015104291960597038, -0.024445274844765663, -0.007343990262597799, -0.012209627777338028, 0.015104291960597038, 0.01527341827750206, -0.001513193710707128, -0.02116682380437851, -0.050737932324409485, 0.022584883496165276, -0.0007972522871568799, -0.03775422275066376, 0.024809546768665314, 0.011864869855344296, 0.009126322343945503, 0.010921664535999298, -0.028387222439050674, -0.0015229510609060526, -0.015533613041043282, -0.009789818897843361, 0.010238653980195522, 0.011058267205953598, -0.011513607576489449, -0.010349237360060215, 0.025876345112919807, -0.006465833634138107, 0.0013367492938414216, -0.00022949969570618123, 0.012339725159108639, -0.008846613578498363, -0.007285446394234896, -0.00919787585735321, 0.00327845080755651, -0.026526831090450287, -0.01536448672413826, -0.048344142735004425, 0.030885089188814163, 0.0017969683976843953, 0.009685740806162357, -0.014427785761654377, 0.00289954268373549, 0.019267404451966286, -0.015390506014227867, 0.00813758373260498, 0.04730336368083954, -0.0010464697843417525, -0.01592390425503254, 0.016509342938661575, -0.16340215504169464, 0.0373639315366745, 0.025902364403009415, -0.014674970880150795, 0.013321959413588047, -0.0006740664248354733, 0.02778877504169941, -0.008996225893497467, -0.020399250090122223, 0.037025678902864456, 0.02235070988535881, 0.010557392612099648, -0.03830063343048096, -0.017055749893188477, -0.02483556605875492, -0.023313429206609726, -0.0011733146384358406, 0.001000122632831335, 0.017797304317355156, 0.015663709491491318, 0.01905924826860428, -0.019436530768871307, 0.013933416455984116, -0.008697002194821835, 0.002889785449951887, -0.007526126224547625, -0.012020986527204514, 0.0012326715514063835, 0.010368751361966133, -0.02171323262155056, 0.002190512605011463, -0.0016034487634897232, 0.030859069898724556, -0.02206449583172798, 0.006039765197783709, 0.0020864347461611032, -0.0066154454834759235, -0.011734772473573685, -0.021479057148098946, 0.009653216227889061, 0.027268385514616966, -0.004823355935513973, -0.0020067503210157156, -0.02438022568821907, -0.016782546415925026, 0.048083946108818054, 0.007890398614108562, -0.01674351654946804, 0.012411278672516346, 0.00014890037709847093, 0.015520603395998478, -0.017068760469555855, 0.026552850380539894, 0.00011312363494653255, 0.026982171460986137, 0.023300418630242348, 0.01609303057193756, 0.01795342192053795, 0.004104568623006344, -0.0046704914420843124, -0.004130587913095951, -0.01665244996547699, 0.01682157628238201, 0.0032800771296024323, 0.01122088823467493, -0.01518234983086586, -0.010928169824182987, 0.009913410991430283, -0.0011188364587724209, -0.003193887649103999, 0.013764290139079094, -0.022376729175448418, 0.009015739895403385, -0.012593414634466171, 0.002014881232753396, 0.024783527478575706, -0.008144088089466095, -0.00538277393206954, 0.00900923553854227, 0.015988953411579132, 0.007838360033929348, 0.03239421918988228, -0.018473811447620392, -0.02833518385887146, -0.0007293577655218542, -0.005574667360633612, -0.02097167819738388, 0.01903322897851467, -0.004758307244628668, 0.010693994350731373, 0.005629959050565958, -0.02789285220205784, -0.01416759192943573, -0.008040010929107666, 0.015351476147770882, 0.016977692022919655, -0.005971464328467846, 0.010700499638915062, -0.01077205315232277, -0.02456236258149147, -0.0049729677848517895, -0.0025531586725264788, -0.03689558431506157, 0.017420023679733276, 0.025746246799826622, 0.0248485766351223, -0.005291705951094627, 0.022832069545984268, 0.0357247069478035, 0.01440176647156477, 0.012352734804153442, 0.026188578456640244, 0.022129543125629425, -0.00032300708699040115, -0.022233622148633003, 0.002118959091603756, 0.02501770295202732, -0.01420662086457014, 0.01702973060309887, 0.0041175782680511475, 0.038040436804294586, -0.012593414634466171, -0.015221379697322845, 0.008905157446861267, -0.009867876768112183, 0.0006273126928135753, -0.0968443974852562, -0.03585480526089668, 0.011162344366312027, 0.015754777938127518, -0.010537877678871155, 0.026643918827176094, -0.005155103746801615, 0.01035574171692133, -0.0004000490589533001, 0.01951458863914013, -0.03788432106375694, -0.01527341827750206, 0.012235647067427635, -0.006875640247017145, 0.033825285732746124, 0.013373997993767262, 0.022142553701996803, 0.006752047687768936, -0.009633702225983143, 0.006273940205574036, 0.0021628669928759336, -0.0026491053868085146, -0.008326224982738495, -0.014154581353068352, -0.005561657715588808, -0.00961418729275465, -0.03983578085899353, 0.031041206791996956, 0.018473811447620392, 0.014779048971831799, -0.010550887323915958, -0.00896370131522417, 0.005766560789197683, -0.009087293408811092, 0.009744284674525261, -0.004029762465506792, -0.01398545503616333, -0.020737502723932266, 0.02134896069765091, -0.013933416455984116, -0.00039903269498609006, 0.013308949768543243, 0.019748764112591743, -0.04493559151887894, 0.012248656712472439, -0.012528366409242153, -0.0101150618866086, 0.02154410630464554, -0.0016034487634897232, -0.0026523577980697155, -0.0016628055600449443, -0.02088060975074768, -0.009178361855447292, -0.03874296322464943, 0.013016230426728725, 0.01242428831756115, -0.0020864347461611032, 0.012242152355611324, -0.025043722242116928, -0.008410788141191006, 0.025434013456106186, -0.0036004416178911924, -0.005990978796035051, 0.006423552054911852, 0.029011689126491547, 0.020581386983394623, -0.0006541452603414655, 0.004322481341660023, 0.012131568975746632, -0.02786683291196823, -6.179619958857074e-05, -0.0003854131209664047, -0.01375128049403429, -0.004446073900908232, -0.018890121951699257, -0.004907919093966484, -0.023300418630242348, -0.0015099412994459271, 0.0045761712826788425, -0.01159166544675827, -0.016067011281847954, -0.015676720067858696, 0.015195359475910664, 0.012951182201504707, 0.008762050420045853, 0.019813813269138336, 0.010759043507277966, -0.01774526573717594, 0.02271498180925846, -0.030312661081552505, 0.024237118661403656, 0.03137945756316185, 0.01786235347390175, -0.027164308354258537, -0.0072594271041452885, 0.027086248621344566, 0.03949752822518349, -0.002814979525282979, -0.00423141336068511, 0.004488355480134487, -0.02631867490708828, -0.010999723337590694, -0.06353949755430222, 0.005483599379658699, 0.0030768001452088356, -0.0036459756083786488, -0.0031646157149225473, 0.009588168002665043, 0.01214457955211401, 0.003454082179814577, -0.006534134969115257, 0.00017644440231379122, -0.027840813621878624, 0.00425418047234416, 0.0043062190525233746, -0.018447792157530785, -0.02612352930009365, -0.020100027322769165, 0.020919639617204666, -0.008410788141191006, -0.00824166089296341, -0.0012733269250020385, 0.004520879592746496, -0.008209137246012688, 0.014870116487145424, -0.00842379778623581, -0.03689558431506157, -0.00022828002693131566, -0.007552145980298519, 0.024445274844765663, -0.026826053857803345, -0.003639470785856247, 0.005877143703401089, -0.03273247182369232, -0.010180110111832619, 0.041006654500961304, 0.0018620169721543789, -0.04142296686768532, -0.021101774647831917, 0.04059034585952759, 0.010050013661384583, 0.024445274844765663, -0.03255033493041992, -0.01766720786690712, 0.02888159081339836, -0.017172837629914284, 0.011884384788572788, 0.006719523575156927, -0.0035939367953687906, 0.0028377464041113853, 0.01218360848724842, 0.01710779033601284, -0.003320732619613409, 0.010667975060641766, 0.0027743240352720022, -0.02042526938021183, -0.001319674076512456, 0.018720995634794235, -0.01637924462556839, 0.023599643260240555, 0.0005435626371763647, -0.015065263025462627, 0.02227265015244484, 0.00559092964977026, -0.00022990624711383134, 0.0030019942205399275, 0.019618665799498558, -0.048344142735004425, -0.02272799052298069, 0.00503476383164525, 0.010479333810508251, -0.026357704773545265, -0.025342946872115135, -0.010674480348825455, 0.02354760468006134, 0.02448430471122265, -0.007779816165566444, -0.006752047687768936, 0.0024913623929023743, -0.01868196576833725, -0.008983215317130089, 0.03874296322464943, -0.0009171856800094247, -0.001353011466562748, -0.01592390425503254, 0.02890761010348797, 0.020932648330926895, -0.005912920460104942, -0.017511090263724327, -0.01394642610102892, 0.0019173083128407598, 0.030572855845093727, 0.01839575171470642, 0.013595163822174072, 0.0074480678886175156, -0.005896658170968294, 0.001962842419743538, 0.004816851112991571, -0.008059524931013584, 0.009256419725716114, 0.007500106934458017, 0.023521583527326584, -0.00556816253811121, 0.001349759055301547, -0.006804086733609438, -0.02336546778678894, -0.0028458775486797094, -0.004036267288029194, -0.016782546415925026, -0.011149334721267223, 0.004797336645424366, 0.019579637795686722, 0.006296707317233086, 0.029974408447742462, 0.03494412451982498, -5.010777385905385e</t>
+  </si>
+  <si>
+    <t>[-0.0036436656955629587, -0.013695620000362396, -0.011306771077215672, -0.04600547254085541, -0.002252966398373246, 0.01905710995197296, 0.002390526467934251, 0.005844627507030964, -0.0011273219715803862, -0.008032169193029404, -0.00908567849546671, 0.009837226010859013, -0.04291875660419464, -0.016466952860355377, -0.0017731834668666124, 0.008944762870669365, 0.011729516088962555, 0.002744492143392563, 0.01378285326063633, -0.0019526826217770576, -0.011487947776913643, -0.023767704144120216, 0.022304870188236237, -0.0012011347571387887, -0.0034624887630343437, -0.01417204737663269, 0.020439419895410538, -0.014547821134328842, -0.02056020498275757, 0.01893632486462593, 0.01681588590145111, -0.009830515831708908, -0.01894974522292614, 0.008522016927599907, 0.01531278993934393, -0.011917403899133205, 0.0006525717908516526, 0.011501368135213852, 0.033712293952703476, -0.00582449696958065, 0.0031571725849062204, 0.0010644133435562253, -0.004257653374224901, -0.010394176468253136, 0.0008723324863240123, 0.024988969787955284, 0.026988623663783073, -0.0008165535400621593, -0.001380633912049234, -0.009689600206911564, 0.013836534693837166, 0.020976239815354347, -0.038758400827646255, 0.01285012811422348, 0.016238804906606674, -0.027257034555077553, -0.012769605033099651, 0.014373354613780975, 0.004828024655580521, -0.017446650192141533, -0.011501368135213852, -0.006958528887480497, -0.02979350835084915, -0.005418526474386454, -0.013064856640994549, -0.015433574095368385, -0.007790599949657917, 0.020842036232352257, -0.005475563928484917, 0.016587737947702408, 0.024814503267407417, 0.02516343630850315, 0.028129367157816887, -0.015406733378767967, 0.05776182934641838, -0.018842380493879318, -0.015192005783319473, 0.008146243169903755, 0.003546366933733225, 0.022720905020833015, 0.008092560805380344, -0.006646502297371626, 0.013534573838114738, 0.0389731302857399, 0.024317944422364235, 0.009984851814806461, -0.0006446033366955817, 0.006096262019127607, -0.010629035532474518, -0.0037074130959808826, 0.0198623389005661, 0.011508078314363956, 0.006324410438537598, -0.0033031203784048557, -0.020694410428404808, -0.008683063089847565, -0.005465498194098473, 0.022774588316679, 0.0013940543867647648, 0.0080254590138793, -0.002244578441604972, 0.0001763537438819185, -0.010018402710556984, -0.02596866711974144, -0.02066756971180439, 0.0049219680950045586, 0.0013269518967717886, -0.008280448615550995, 0.012038188055157661, 0.01617170125246048, 0.007562451530247927, 0.04321400821208954, 0.026304179802536964, -0.039670996367931366, -0.01827871985733509, 0.004432119894772768, 0.006669988390058279, -0.0021607005037367344, -0.004465671256184578, -0.014789390377700329, 0.02637128159403801, 0.042059846222400665, 0.017124557867646217, -0.003985888324677944, 0.04879693686962128, 0.00520044332370162, -0.02332482859492302, -0.021526481956243515, 0.00854214746505022, 0.0026941653341054916, 0.006441839970648289, 0.024707140401005745, 0.028773551806807518, 0.017674798145890236, -0.017070874571800232, 0.01711113750934601, -0.02979350835084915, -0.0012145552318543196, -0.037013739347457886, -0.02965930476784706, 0.01907053031027317, 0.021137285977602005, -0.031457651406526566, -0.007179967127740383, -0.018131094053387642, 0.026156553998589516, 0.004089897032827139, 0.02807568572461605, -0.0032561486586928368, 0.003932206425815821, 0.013172220438718796, -0.03073294460773468, -0.005338003858923912, -0.009461452253162861, 0.014225729741156101, -0.0014099911786615849, 0.009890908375382423, 0.037711601704359055, 0.002957542659714818, 0.018077412620186806, -0.019016847014427185, 0.02254643850028515, 0.006515652406960726, -0.003834907663986087, 0.026196815073490143, 0.027995161712169647, -0.008555568754673004, -0.00705918250605464, -0.031242921948432922, -0.01932551898062229, 0.012299887835979462, 0.029176166281104088, -0.01576908677816391, 0.011407424695789814, 0.011669124476611614, 0.03341704234480858, -0.004177130293101072, -0.004482446704059839, -0.005794300697743893, -0.0017698283772915602, -0.00038898480124771595, -0.02834409475326538, 0.040476225316524506, 0.030947672203183174, 0.00813953299075365, -0.013917057774960995, 0.011031650938093662, 0.011152435094118118, 0.0013831502292305231, -0.00860925018787384, -0.0007897125324234366, 0.028961438685655594, 0.010186159051954746, -0.012273047119379044, -0.641177773475647, -0.0033836434595286846, -0.020627306774258614, -0.021647265180945396, 0.013393658213317394, 0.0009226593538187444, 0.014024421572685242, -0.0062539526261389256, -0.007495348807424307, 0.007549031171947718, -0.005707067437469959, -0.0058043659664690495, 0.011501368135213852, -0.00033299613278359175, -0.014333093538880348, -0.022855110466480255, 0.032531291246414185, -0.007025631610304117, 0.020573625341057777, -0.011185985989868641, -3.884605393977836e-05, 0.03237024322152138, -0.018090832978487015, -0.0009897617856040597, 0.005307807587087154, -0.010441148653626442, 0.024170320481061935, 0.002779721049591899, 0.0063009243458509445, -0.023351669311523438, -0.019942862913012505, 0.03749687597155571, 0.016265645623207092, -0.021566743031144142, 0.034785933792591095, 0.014279411174356937, -0.006213691085577011, 0.029122482985258102, 0.016534054651856422, 0.02371402271091938, -0.0066632782109081745, -0.03594009578227997, 0.029632462188601494, -0.023875068873167038, 0.0025280865374952555, 0.011615442112088203, 0.03242392838001251, 0.009233303368091583, -0.005250770598649979, -0.011628862470388412, -0.009300406090915203, 0.012487774714827538, -0.0011692610569298267, 0.029632462188601494, 0.006807548459619284, -0.0014099911786615849, 0.024049535393714905, -0.020962819457054138, 0.0017983469879254699, -0.0013797951396554708, 0.009092388674616814, -0.00940776988863945, 0.011105462908744812, -0.014051263220608234, 0.003928851336240768, -0.01854713074862957, -0.014816231094300747, -0.008522016927599907, -0.003351769642904401, -0.006525717675685883, 0.006891426630318165, 0.01232672855257988, -0.015285949222743511, 0.004099962767213583, 0.021284911781549454, -0.009105809032917023, 0.00503939762711525, 0.022439075633883476, -0.014628344215452671, 0.015339630655944347, -0.007052472326904535, 0.003583273384720087, -0.023942170664668083, 0.00928027555346489, 0.020828615874052048, 0.01531278993934393, 0.0015005796449258924, -0.012031477876007557, 0.020828615874052048, -0.008032169193029404, 0.020587045699357986, 0.012776315212249756, 0.011414134874939919, 0.0030783270485699177, 0.0051803127862513065, 0.028397776186466217, -0.007985197007656097, 0.0049085477367043495, 0.000172788932104595, -0.0355374813079834, -0.023378510028123856, 0.00034306151792407036, 0.01962077058851719, -0.013809693977236748, 0.02268064394593239, 0.029095642268657684, -0.013615096919238567, -0.01074310950934887, 0.0410667285323143, -0.013219191692769527, -0.022613542154431343, -0.01531278993934393, -0.0237408634275198, -0.005418526474386454, 0.008186504244804382, -0.027095988392829895, 0.029390893876552582, 0.0147088672965765, 0.028773551806807518, -0.023928750306367874, -0.010870604775846004, -0.003888589795678854, -0.001236363546922803, -0.013756011612713337, -0.0167219415307045, 0.04329453036189079, 0.019258417189121246, -0.015527517534792423, -0.025539210066199303, 0.0018537065479904413, 0.006891426630318165, 0.010917576029896736, 0.009689600206911564, -0.01654747501015663, 0.015822768211364746, 0.008562278933823109, 0.005549376364797354, -0.0027042306028306484, 0.011440975591540337, -0.03443700075149536, -0.02582104131579399, -0.026317600160837173, -0.010971258394420147, -0.005878178868442774, -0.019647611305117607, 0.0008907856536097825, -0.026049189269542694, 0.004727371037006378, -0.022465916350483894, 0.017540592700242996, -0.005093079525977373, 0.035188548266887665, -0.0028854073025286198, 0.016923250630497932, -0.000946983986068517, -0.00675386656075716, -0.010944417677819729, -0.013480891473591328, -0.036503758281469345, -0.010501541197299957, 0.02372744306921959, 0.008213345892727375, -0.009978141635656357, -0.017513751983642578, -8.083754073595628e-05, -0.02544526755809784, 0.01298433355987072, -0.010984678752720356, -0.00688471645116806, -0.03298758715391159, 0.012353570200502872, -0.010977968573570251, -0.006904846988618374, 0.01331984531134367, -0.00014018130605109036, 0.016346167773008347, -0.03183342516422272, -0.0062539526261389256, -0.01588987186551094, -0.005965412128716707, -0.008944762870669365, 0.01587645150721073, -0.02438504807651043, -0.014507560059428215, 0.03454436734318733, 0.0014443813124671578, -0.0015718759968876839, 0.009307116270065308, -0.020962819457054138, 0.03459804877638817, -0.004136868752539158, 0.002858566353097558, -0.009193042293190956, -0.006904846988618374, 0.005257480777800083, 0.0126555310562253, 0.011206117458641529, -0.0034960401244461536, -0.006532428320497274, 0.011917403899133205, 0.012481064535677433, 0.03604746237397194, 0.02041257917881012, -0.006629726849496365, 0.018506869673728943, -0.035054344683885574, 0.023432191461324692, -0.014561241492629051, 0.052125219255685806, 0.00430462509393692, 0.007367854006588459, -0.025217117741703987, -0.02810252644121647, 0.024452149868011475, -0.023673761636018753, -0.007434956729412079, 0.008857529610395432, 0.007280620746314526, 0.008998445235192776, 0.019513405859470367, 0.014561241492629051, 0.005304452497512102, 0.015688564628362656, 0.017406387254595757, -0.037040580064058304, -0.0011348710395395756, 0.0034624887630343437, 0.036772169172763824, -0.016265645623207092, -0.014816231094300747, -0.004210681654512882, 0.04144250229001045, -0.004156999755650759, 0.017661377787590027, 0.00735443364828825, -0.006106327287852764, 0.010890735313296318, -0.0017916366923600435, -0.0020483038388192654, -0.0017698283772915602, 0.025995507836341858, 0.0121321314945817, 0.02623707614839077, 0.00795835629105568, 0.004099962767213583, 0.005304452497512102, 0.006364671979099512, 0.01345405075699091, -0.0049219680950045586, -0.007515479810535908, -0.02464003674685955, -0.011763067916035652, -0.00407647667452693, 0.0188155397772789, 0.016091179102659225, -0.003017934737727046, -0.007991907186806202, 0.010300233028829098, 0.02437162771821022, 0.003881879383698106, -0.011702675372362137, 0.028022002428770065, 0.012373700737953186, 0.006106327287852764, 0.012467644177377224, -0.02690810151398182, 0.008837399072945118, -0.02556605078279972, -0.007401405368000269, 0.006579400040209293, 0.015353051014244556, 0.003613469423726201, 0.0036235349252820015, -0.006220401730388403, 0.010548512451350689, -0.018842380493879318, -0.05169576406478882, -0.007522189989686012, -0.008736745454370975, 0.017983470112085342, -0.0033970638178288937, -0.03752371668815613, 0.005327938124537468, 0.034893300384283066, -0.0038684590253978968, -0.01801031082868576, -0.0057573942467570305, 0.01524568721652031, -0.0074081155471503735, 0.022855110466480255, -0.00761613342911005, 0.018117673695087433, -0.012487774714827538, 0.03416858986020088, 0.012742764316499233, -0.014507560059428215, -0.002420722506940365, -0.018654493615031242, 0.02174120955169201, 0.0069249775260686874, 0.004932033363729715, 0.005535956006497145, 0.000827457697596401, -0.030035078525543213, 0.04112040996551514, -0.0008090044721029699, -0.03194078803062439, -0.029229847714304924, -0.001029184553772211, -0.01693667098879814, 0.01894974522292614, 0.02437162771821022, -0.018131094053387642, 0.017674798145890236, 0.01949998550117016, 0.02319062314927578, -0.0007314172107726336, 0.0032997652888298035, 0.02041257917881012, -0.010803502053022385, -0.020868876948952675, -0.00430462509393692, -0.0026941653341054916, 0.007502058986574411, 0.09458768367767334, -0.002006364753469825, -0.0026941653341054916, 0.008005327545106411, -0.003019612282514572, 0.010622325353324413, -0.0212043896317482, -0.020640728995203972, -0.014963856898248196, 0.01750033162534237, 0.0011180953588336706, -0.021942516788840294, 0.028961438685655594, 0.0005292709683999419, 0.004982360638678074, -0.012836707755923271, 0.002179153496399522, -0.020493103191256523, 0.03510802611708641, 0.008568989112973213, 0.0106021948158741, -0.0037376091349869967, -0.007837572135031223, 0.04871641471982002, 0.027914639562368393, 0.010125766508281231, 0.006696829106658697, -0.01225962582975626, 0.014131786301732063, -0.009642628952860832, -0.013635227456688881, -0.002669001929461956, -0.01788952574133873, 0.01376943290233612, -0.014037842862308025, -0.009897618554532528, 0.0012304920237511396, 0.019151052460074425, 0.019942862913012505, 0.013279584236443043, 0.02411663718521595, 0.017728479579091072, -0.008461625315248966, 0.008092560805380344, 0.002068434376269579, -0.012165682390332222, -0.015849610790610313, 0.0077973101288080215, -0.0022093497682362795, -0.010964548215270042, 0.04662281647324562, 0.0023066482972353697, 0.005509114824235439, -0.010300233028829098, -0.007978486828505993, 0.0029323790222406387, 0.031081877648830414, 0.01417204737663269, -0.013494311831891537, -0.03615482524037361, -0.00045252247946336865, -0.029766667634248734, 0.022157244384288788, -0.007549031171947718, -0.006700184196233749, 0.00735443364828825, -0.017312444746494293, -0.0022563214879482985, -0.007522189989686012, -0.005938570946455002, -0.03481277450919151, 1.8518716387916356e-05, -0.036262188106775284, 0.008401232771575451, 0.01218581385910511, 0.001190230599604547, 0.029712986201047897, 0.002204317133873701, -0.014091524295508862, 0.036235347390174866, -0.007428246550261974, 0.002523053903132677, 0.01040088664740324, -0.022895371541380882, -0.01826529949903488, 0.04085199907422066, 0.03526907414197922, -0.005304452497512102, -0.013339976780116558, -0.007629553787410259, 0.008293868973851204, -0.01711113750934601, 0.02728387527167797, -0.0049085477367043495, -0.00928027555346489, -0.0003967435040976852, 0.021808311343193054, 0.004646847955882549, -0.004965584725141525, 0.012548167258501053, -0.0035396567545831203, -0.016869567334651947, -0.010830342769622803, -0.002088565146550536, 0.019285257905721664, -0.0053212279453873634, -0.009253434836864471, -0.030303487554192543, -0.003489329945296049, -0.005468853749334812, 0.014413616620004177, -0.0007825828506611288, 0.0032192422077059746, -0.006680053658783436, -0.01338694803416729, 3.273868060205132e-05, -0.013849955052137375, 0.004817959386855364, -0.006931688170880079, 0.005965412128716707, -0.009065547026693821, 0.003425582544878125, -0.005636609625071287, 0.029310371726751328, -0.010306943207979202, 0.011239668354392052, 0.0038852347061038017, -0.022479336708784103, 0.00036654737778007984, -0.003308153012767434, 0.005962057039141655, 0.024009274318814278, 0.009689600206911564, -0.014749129302799702, -0.044180285185575485, -0.025257380679249763, -0.005384975578635931, 0.001749697607010603, -0.0039556920528411865, -0.020318636670708656, -0.03207499533891678, 0.029900873079895973, -0.011259798891842365, -0.010226421058177948, -0.0010174416238442063, -0.020962819457054138, 0.0030783270485699177, -0.014722287654876709, -0.020439419895410538, 0.02623707614839077, -0.016453532502055168, 0.018842380493879318, -0.006368027068674564, 0.012648820877075195, -0.010441148653626442, -0.01670852117240429, 0.006113037467002869, -0.01312524825334549, -0.004834734834730625, 0.019808657467365265, -0.008320709690451622, 0.007844282314181328, 0.00215231254696846, 0.018493447452783585, -0.004583100788295269, -0.014910174533724785, -0.02304299734532833, 0.0005665966891683638, -0.03430279716849327, 0.010575353167951107, 0.017178239300847054, 0.020345477387309074, -0.011709385551512241, 0.011930824257433414, 0.0017127912724390626, 0.006750511005520821, 0.0023401996586471796, -0.014480719342827797, -0.021150706335902214, -0.014507560059428215, -0.00366044114343822, -0.048984821885824203, -0.009179621934890747, 0.007716787047684193, -0.0062271119095385075, 0.00015989267558325082, 0.029122482985258102, 0.009783544577658176, 0.0052138641476631165, -0.010293522849678993, 0.029203006997704506, -0.021915676072239876, 0.04112040996551514, 0.020506523549556732, 0.022304870188236237, -0.0014854815090075135, -0.031189240515232086, -0.03140396997332573, -0.02568683587014675, 0.02557947114109993, -0.018359243869781494, -0.008428073488175869, -0.0038315525744110346, -0.025337902829051018, -0.013729170896112919, 0.0206809900701046, 0.0027964964974671602, -0.023646920919418335, -0.018922904506325722, -0.017580853775143623, -0.023620078340172768, -0.028558822348713875, -0.05819128453731537, -0.016225384548306465, 0.0007775502162985504, 0.003727543633431196, -0.028397776186466217, 0.040476225316524506, -0.015849610790610313, -0.033846501260995865, 0.016507213935256004, -0.023150362074375153, 0.026424963027238846, 0.014413616620004177, 0.033202316612005234, 0.01827871985733509, -0.004354951903223991, -0.0026740345638245344, 0.01644011214375496, 0.005844627507030964, -0.026532327756285667, 0.0062539526261389256, 0.0018386084120720625, 0.009676179848611355, -0.03204815089702606, -0.0006118909223005176, 0.04442185163497925, -0.024411888793110847, -0.012346859090030193, 0.04514655843377113, -0.00735443364828825, 0.0023200688883662224, -0.016507213935256004, -0.0028719869442284107, 0.011910693719983101, 0.026948362588882446, -0.02753886580467224, -0.005046107806265354, -0.00789125356823206, -0.013729170896112919, -0.01760769449174404, -0.005589637905359268, -0.025673415511846542, 0.011447685770690441, -0.006243887357413769, -0.012246205471456051, 0.02874670922756195, -0.0157556664198637, -0.021633844822645187, 0.020372318103909492, 0.015071220695972443, 0.010313653387129307, -0.0036168245133012533, 0.02278800867497921, 0.003482619533315301, 0.007676525507122278, -0.006992080248892307, -9.331441106041893e-05, 0.02210356295108795, 0.02637128159403801, -0.00030238062026910484, -0.012226074934005737, 0.007247069850564003, -0.0010308620985597372, 0.03642323613166809, -0.018869223073124886, -0.0038449731655418873, 0.0023016156628727913, 0.006945108529180288, -0.0013202416012063622, -0.01324603334069252, 0.013158800080418587, -0.0328533835709095, 0.009837226010859013, 0.0005741457571275532, -0.024291103705763817, -0.018117673695087433, -0.01763453707098961, -0.003063228912651539, -0.028397776186466217, -0.006797483190894127, -0.005133341066539288, -0.017258761450648308, 0.006297569256275892, 0.010736399330198765, 0.018359243869781494, -0.011709385551512241, -0.0037476744037121534, -0.03803369402885437, 0.013098407536745071, -0.012561587616801262, 0.011045071296393871, -0.014574662782251835, -0.0008614283287897706, -0.01774189993739128, 0.006750511005520821, 0.01032707467675209, 0.014749129302799702, 0.01590329222381115, -0.01464176457375288, -0.001124805654399097, -0.013145378790795803, 0.012856838293373585, -0.005690291989594698, -0.003371900413185358, -0.010608904995024204, -0.009099098853766918, -0.007938225753605366, -0.02955194003880024, -0.02080177329480648, 0.011273219250142574, -0.02039915882050991, 0.0053916857577860355, -0.020077066496014595, 0.011206117458641529, 0.016990352421998978, 0.004022794775664806, -0.005096434615552425, -0.022559858858585358, -0.01185701135545969, 0.024331364780664444, 0.022049881517887115, -0.0067236702889204025, 0.0002205994533142075, 0.0028250152245163918, -0.005374909844249487, -0.025525789707899094, 0.021781470626592636, 0.010548512451350689, -0.019285257905721664, 0.04305296391248703, 0.013219191692769527, -0.00874345563352108, -0.01932551898062229, 0.0006311828619800508, -0.012454223819077015, -0.028585663065314293, -0.013514443300664425, -0.009025285951793194, -0.007931515574455261, -0.03403438627719879, 0.006931688170880079, -0.004519353155046701, -0.02450583130121231, -0.028854073956608772, 0.010830342769622803, -0.002846823539584875, 0.024559514597058296, 0.012823287397623062, 0.008213345892727375, 0.015044379979372025, 0.008367681875824928, -0.008790426887571812, 0.004992425907403231, -0.011669124476611614, 0.0352422334253788, -0.013568124733865261, -0.009253434836864471, 0.011877141892910004, -0.01697693206369877, 0.01345405075699091, -0.023539556190371513, -0.05115894228219986, -0.010830342769622803, 0.04820643365383148, 0.0172453410923481, 0.021929096430540085, 0.008501886390149593, -0.02186199277639389, -0.02148621901869774, 0.0072068083100020885, -0.015688564628362656, -0.0024442083667963743, -0.003368545323610306, 0.023767704144120216, -0.024452149868011475, -0.003175625577569008, 0.007689946331083775, 0.008065720088779926, -0.008528727106750011, -0.018077412620186806, 0.0008576537948101759, -0.007636264432221651, 0.010682717896997929, -0.019231576472520828, -0.019110791385173798, 0.01066929753869772, -0.009327246807515621, 0.006170074455440044, -0.005871468689292669, -0.014561241492629051, 0.012481064535677433, 0.01464176457375288, -0.035430118441581726, -0.005116565618664026, -0.023928750306367874, -0.04885061830282211, -0.03647691756486893, -0.014883333817124367, -0.019164472818374634, -0.0059687672182917595, -0.010676007717847824, 0.007589292246848345, -0.0001613605418242514, 0.014682026579976082, -0.0263578612357378, 0.01107191201299429, 0.010642455890774727, 0.023432191461324692, 0.009810385294258595, -0.030545057728886604, -0.012715923599898815, -0.010642455890774727, -0.00994458980858326, -0.0044388300739228725, -0.0011977795511484146, 0.004083186853677034, -0.024841343984007835, -0.023539556190371513, 0.006931688170880079, -0.036745328456163406, -0.025888143107295036, 0.015742246061563492, 0.005126630887389183, 0.003502750303596258, 0.013729170896112919, 0.19400674104690552, 0.005764104425907135, -0.02132517285645008, 0.029095642268657684, 0.0019308743067085743, 0.024291103705763817, -0.0019778460264205933, 0.01945972442626953, 0.012219364754855633, -0.002261354122310877, -4.102164439245826e-06, 0.002877019578590989, -0.022573279216885567, 0.00758258206769824, -0.0014821264194324613, 0.006861230358481407, -0.03328283876180649, -0.02410321682691574, 0.0040496354922652245, 0.004948809277266264, -0.007112864870578051, -0.00533129321411252, -0.015581199899315834, 0.006951818708330393, 0.0041402243077754974, 0.003296410199254751, -0.010414307937026024, -0.012340148910880089, 0.046032313257455826, 0.012078449130058289, -0.010293522849678993, -0.00440527917817235, 0.0029307014774531126, -0.005056173074990511, 0.000843394489493221, 0.01464176457375288, 0.006009028758853674, -0.02331140823662281, 0.015956973657011986, 0.022989315912127495, -0.0062271119095385075, 0.010635745711624622, -0.022465916350483894, 0.013534573838114738, -0.02625049650669098, 0.0006110520916990936, 0.002026495523750782, -0.020332057029008865, 0.010293522849678993, 0.03156501427292824, -0.021110445261001587, -0.004787763115018606, -0.007763758767396212, 0.02570025622844696, 0.019446304067969322, -0.015608040615916252, 0.018748437985777855, 0.01921815611422062, -0.006203625816851854, 0.010233131237328053, -0.017782161012291908, 0.02595524676144123, -0.01854713074862957, 0.026196815073490143, 0.003821487305685878, 0.003972467966377735, -0.010374045930802822, 0.01631932705640793, 0.009817095473408699, -0.01376943290233612, 0.008515306748449802, -0.03800685331225395, -0.009025285951793194, 0.012400541454553604, -0.024720560759305954, -0.037953171879053116, 0.019701292738318443, 0.018063992261886597, 0.037550557404756546, 0.03432963788509369, 0.017312444746494293, 0.02796832099556923, -0.02320404350757599, -0.005093079525977373, 0.001910743652842939, -0.01198450569063425, 0.02425084263086319, -0.011575181037187576, -0.019902599975466728, -0.026720214635133743, 0.026424963027238846, -0.021660685539245605, -0.0001884112280094996, 0.021419117227196693, 0.00712628522887826, -0.010776661336421967, -0.011172565631568432, 0.01790294609963894, -0.01587645150721073, 0.0027545574121177197, -0.011118884198367596, 0.013594966381788254, 0.011420845054090023, 0.008656222373247147, -0.04436817020177841, -0.00036969283246435225, -0.016856146976351738, 0.00459987623617053, 0.01908395066857338, -0.010877314954996109, -0.021660685539245605, -0.012212654575705528, -0.013145378790795803, -0.013326556421816349, 0.03228972107172012, 0.007884543389081955, 0.022774588316679, 0.00764968479052186, -0.004442185163497925, -0.006408288609236479, -0.00487499637529254, -0.00913264974951744, 0.0010241519194096327, 0.0253110621124506, -0.008971603587269783, -0.009897618554532528, -0.004509287886321545, 0.007186677306890488, -0.014225729741156101, -0.03655743971467018, -0.005911730229854584, 0.00908567849546671, 0.002133859321475029, -0.0029457996133714914, -0.04265034571290016, 0.014480719342827797, 0.012923941016197205, 0.0012086837086826563, 0.012944071553647518, 0.02649206668138504, -0.01298433355987072, 0.01107191201299429, 0.003313185879960656, -0.014722287654876709, 0.0009897617856040597, -0.04455605894327164, 0.03309495002031326, -0.004613296594470739, -0.002023140201345086, -0.0072537800297141075, 0.013876796700060368, 0.006136523559689522, -0.03126976266503334, -0.011917403899133205, 0.020976239815354347, 0.007153126411139965, -0.021244650706648827, -0.007622843608260155, 0.002299938118085265, 0.01185701135545969, -0.025485528632998466, -0.008421363309025764, 0.022989315912127495, 0.00020288021187298, -0.008079140447080135, 0.0029139260295778513, -0.17092348635196686, 0.005690291989594698, 0.007112864870578051, 0.007220228668302298, 0.03789949044585228, 0.020694410428404808, -0.002153990091755986, 0.017527172341942787, -0.000554014986846596, 0.022358551621437073, 0.0034457133151590824, 0.01431967318058014, -0.012628690339624882, -0.021271491423249245, 0.0022378682624548674, -0.005069593898952007, -0.015138323418796062, 0.015567779541015625, 0.035054344683885574, -0.012333438731729984, 0.027136249467730522, -0.003002836834639311, 0.014628344215452671, 0.0005762426881119609, -0.019929442554712296, 0.015433574095368385, -0.008320709690451622, 0.009575526230037212, -0.014990697614848614, -0.02928352914750576, -0.01750033162534237, -0.011635572649538517, 0.014413616620004177, -0.010166028514504433, 0.0010199579410254955, -0.0008488465682603419, 0.0050024911761283875, 0.002041593426838517, -0.02011732943356037, 0.022734325379133224, 0.015151743777096272, 0.011910693719983101, -0.007394695188850164, -0.01737954653799534, 0.013286294415593147, 0.04597863182425499, 0.024814503267407417, -0.007179967127740383, -0.01516516413539648, -0.002506278222426772, 0.005408461205661297, -0.005435302387923002, 0.02584788203239441, 0.007850992493331432, 0.000538078136742115, 0.0008522017160430551, -0.012427382171154022, 0.023821387439966202, 0.00168846664018929, -0.022345131263136864, -0.007045762147754431, -0.0036738617345690727, 0.01484307274222374, 0.00038625876186415553, -0.013293004594743252, -0.032128676772117615, -0.004690464586019516, 0.039268381893634796, -0.012668951414525509, 0.002278129803016782, 0.0034960401244461536, -0.0034088068641722202, -0.018238458782434464, -6.63685641484335e-05, -0.004301270004361868, 0.0006500554154627025, -0.019526826217770576, -0.02874670922756195, 0.012662241235375404, -0.02545868791639805, 0.008407942950725555, 0.04487815126776695, -0.03736267238855362, 0.0029273463878780603, -0.006562624126672745, 0.015004117973148823, 0.015675144270062447, 0.01854713074862957, -0.0077838897705078125, 0.010212999768555164, -0.010595484636723995, -0.01894974522292614, 0.003118588589131832, -0.02571367658674717, -0.00626066280528903, 0.00782415084540844, 0.0006320216343738139, 0.010360625572502613, -0.008736745454370975, -0.012897100299596786, 0.0028367580380290747, 0.001685111434198916, -0.03298758715391159, 0.04412660375237465, 0.02266722358763218, 0.022774588316679, -0.005737263709306717, 0.005965412128716707, 0.012333438731729984, -0.01159531157463789, 0.01476254966109991, 0.0026304179336875677, 0.0167219415307045, 0.022371971979737282, 0.002247933764010668, 0.03296074643731117, -0.004257653374224901, -0.0014259280869737267, 0.006633081939071417, -0.008911211974918842, 0.015500676818192005, -0.005042752716690302, -0.009454742074012756, 0.02477424219250679, -0.012897100299596786, -0.016802465543150902, -0.0827239602804184, -0.005250770598649979, 0.011971085332334042, 0.034651730209589005, -0.019419463351368904, -0.00016796593263279647, -0.0147088672965765, 0.018386084586381912, 0.006797483190894127, -0.004948809277266264, -0.026317600160837173, -0.03500066325068474, 0.011756357736885548, 0.011897272430360317, 0.038489993661642075, 0.01536647230386734, 0.02728387527167797, -0.008562278933823109, 0.0062539526261389256, -0.0005011718021705747, 0.00401272950693965, -0.018211618065834045, 0.02702888660132885, -0.011219537816941738, 0.008099270984530449, -0.03341704234480858, -0.024183740839362144, 0.0034926850348711014, 0.006794127635657787, -0.0035899835638701916, -0.023096678778529167, -0.006804193370044231, 0.015675144270062447, -0.022559858858585358, -0.00327795697376132, -0.01921815611422062, -0.017809003591537476, -0.02145937830209732, 0.025512369349598885, -0.02081519551575184, 0.004999136086553335, 0.013299714773893356, 0.024143477901816368, -0.01894974522292614, -0.002263031667098403, -0.027404660359025, -0.02065414935350418, 0.02320404350757599, 0.011971085332334042, -0.032128676772117615, -0.005210509058088064, -0.003948981873691082, -0.019768396392464638, -0.022479336708784103, 0.02555263042449951, -0.019124211743474007, 0.0006735413335263729, 0.023901909589767456, -0.03381966054439545, -0.029632462188601494, 0.011917403899133205, 0.0013378560543060303, -0.010890735313296318, -0.01286354847252369, -0.010998099111020565, -0.0007863573846407235, -0.03918785974383354, 0.016399851068854332, 0.03341704234480858, -0.011226247996091843, -0.003241050522774458, -0.01092428620904684, -0.00028958922484889627, -0.00017970887711271644, -0.03446384146809578, -0.024599775671958923, -0.009031996130943298, -0.005525890737771988, -0.005173602607101202, -0.01576908677816391, -0.005777525249868631, -0.018922904506325722, 0.014225729741156101, -0.010427728295326233, 0.019406042993068695, 0.016668260097503662, 0.0039053652435541153, 0.015084641054272652, 0.0217277891933918, -0.05048792064189911, -0.004982360638678074, 0.018493447452783585, 0.003017934737727046, -0.04632756486535072, -0.010857184417545795, 0.02968614548444748, 0.00094782275846228, -0.022707484662532806, -0.020761512219905853, 2.0589457562891766e-05, -0.03881208598613739, -0.0042610084637999535, -0.09099098294973373, -0.0032158871181309223, 0.008555568754673004, -0.007696656510233879, -0.006388157606124878, -0.00960907805711031, 0.03816790133714676, 0.007086023688316345, -0.008488466031849384, 0.01211871113628149, -0.03137712925672531, 0.014628344215452671, 0.00228316243737936, -0.029712986201047897, -0.025150015950202942, -0.02002338506281376, 0.027122829109430313, -0.003938916604965925, -0.0056030587293207645, 0.01311182789504528, 0.002697520423680544, 0.0009377573733218014, 0.018761858344078064, -0.008589119650423527, -0.01999654434621334, 0.007045762147754431, 0.00021514738909900188, 0.011709385551512241, -0.012239495292305946, 0.0121321314945817, 0.00794493593275547, -0.04082515835762024, 0.0020332057029008865, 0.016252225264906883, -0.013011174276471138, -0.018345823511481285, -0.04780381917953491, 0.022975895553827286, 0.019902599975466728, -0.002442530822008848, -0.020372318103909492, -0.006354606710374355, 0.016856146976351738, -0.024801082909107208, 0.0010375723941251636, 0.002521376358345151, -0.01180332899093628, 0.012360280379652977, 0.008515306748449802, 0.0007372886757366359, 0.006203625816851854, 0.011850301176309586, 0.016614578664302826, -0.035054344683885574, -0.012675661593675613, 0.008790426887571812, -0.024532673880457878, 0.014333093538880348, -0.014198888093233109, -0.025217117741703987, 0.03881208598613739, -0.00037241887184791267, 0.0341954343020916, -0.013165510259568691, 0.011521498672664165, 6.437645788537338e-05, 0.0034926850348711014, 0.009038706310093403, -0.0015383247518911958, -0.05577559396624565, -0.0020298506133258343, 0.0028854073025286198, 0.018345823511481285, 0.015500676818192005, 0.0002000493259401992, -0.013360107317566872, -0.024801082909107208, -0.020506523549556732, -0.013501022011041641, 0.022439075633883476, 0.0064519052393734455, 0.004512642975896597, -0.010769951157271862, 0.011226247996091843, 0.016359588131308556, 2.1192332496866584e-05, -0.011742937378585339, -0.01826529949903488, -0.004750856664031744, 0.02304299734532833, -0.008971603587269783, 0.010219709947705269, 0.004573035053908825, 0.009964721277356148, 0.0006399900885298848, 0.011454395949840546, 0.003266214160248637, 0.003502750303596258, 0.016762204468250275, 0.010514961555600166, -0.02356639690697193, 0.030276646837592125, -0.009521844796836376, -0.012360280379652977, 0.0002577155246399343, -0.0035966939758509398, -0.015259107574820518, -0.031726062297821045, 0.007119575049728155, -0.014802810736000538, 0.0057573942467570305, 0.02238539233803749, -0.015970394015312195, 0.01650721393525</t>
+  </si>
+  <si>
+    <t>[-0.009330806322395802, -0.004545777570456266, -0.009744646959006786, -0.01221475563943386, 0.004393820185214281, 0.0016876925947144628, -0.006834831554442644, 0.0009351821499876678, -0.0007282620063051581, -0.012900179252028465, 0.01108316145837307, 0.004684801679104567, -0.0171743743121624, -0.010003296658396721, -0.029822368174791336, 0.007610782515257597, 0.034788452088832855, -0.009686450473964214, 0.000956197502091527, -0.020898936316370964, -0.023731157183647156, -0.0037504280917346478, -0.019825538620352745, 0.012143626809120178, -0.01713557541370392, 0.0027190602850168943, 0.016760533675551414, -0.02380875125527382, 0.00017004230176098645, 0.01576473005115986, -0.014406816102564335, -0.021946469321846962, -0.010727517306804657, -0.016540680080652237, -0.03238300606608391, -0.006957690697163343, 0.013514473102986813, 0.00457810889929533, 0.01123188529163599, -0.014031773433089256, 0.002909814938902855, 0.0010168186854571104, 0.006175273563712835, -0.018997857347130775, -0.01470426470041275, 0.01743302308022976, 0.010035628452897072, 0.003886219346895814, 0.01635962538421154, 0.011264216154813766, 0.007216340862214565, 0.024054469540715218, -0.015700068324804306, 0.007533187512308359, -0.005680605303496122, -0.039780400693416595, -0.008710045367479324, 0.017652876675128937, 0.005208568647503853, -0.02886536344885826, 0.002788572572171688, -0.013734325766563416, -0.03246060013771057, 0.013643798418343067, -0.01416109874844551, -0.018441759049892426, 0.0014338920591399074, 0.007177543360739946, -0.001406410476192832, -0.009912769310176373, 0.033417608588933945, 0.02463643252849579, 0.018713342025876045, -0.017872730270028114, 0.03610756993293762, 0.0033915508538484573, -0.02914987877011299, 0.00955712515860796, 0.015286227688193321, 0.005506016314029694, -0.007668978534638882, -0.011949639767408371, -0.003191096941009164, 0.014846522361040115, 0.009595923125743866, 0.015169834718108177, -0.0026818793267011642, 0.01942463032901287, -0.006401592865586281, -0.008244475349783897, -0.013113565742969513, 0.01718730665743351, 0.005531881470233202, -0.00553511455655098, -0.008658315986394882, -0.012382878921926022, 0.01661827601492405, 0.030132750049233437, 0.004348556511104107, -0.010494732297956944, -0.010119689628481865, 0.006796034052968025, -0.005451052915304899, -0.012150093913078308, -0.021183451637625694, -0.019553955644369125, 0.020446298643946648, -0.020601488649845123, 0.023446641862392426, -0.00038979394594207406, -0.0014532908098772168, 0.03140013664960861, 0.0255158431828022, -0.02775316685438156, -0.028606712818145752, -0.016566546633839607, -0.00692535936832428, 0.013721393421292305, -0.011167222633957863, -0.00856778770685196, -0.003695464925840497, 0.022787082940340042, 0.027572112157940865, -0.017239036038517952, 0.05149725452065468, 0.014988779090344906, -0.010300744324922562, -0.017924459651112556, -0.0074426596984267235, -0.008574254810810089, -0.007177543360739946, 0.020097121596336365, 0.0034303483553230762, -0.015027577057480812, -0.009143284521996975, 0.0028677841182798147, -0.03271925076842308, 0.01749768666923046, -0.01912718266248703, -0.027623841539025307, 0.016695870086550713, 0.02052389457821846, -0.03414182737469673, 0.0014613736420869827, -0.0038280230946838856, 0.04415158927440643, -0.005046912003308535, 0.02524426020681858, 0.02684789150953293, 0.0007383655174635351, 0.024287253618240356, -0.028089413419365883, 0.005851960740983486, 0.008205677382647991, 0.01776926964521408, 0.0063757277093827724, -0.01722610369324684, 0.030339669436216354, -0.004836759064346552, 0.020071256905794144, -0.03654727339744568, 0.027054810896515846, -0.0015640255296602845, 0.006847764365375042, 0.009835174307227135, 0.03297790139913559, 0.006834831554442644, 0.03134840354323387, -0.008807039819657803, 0.0012576866429299116, 0.006091212388128042, 0.03662487119436264, -0.029020553454756737, -0.0023036033380776644, 0.005706469994038343, 0.02135157398879528, -0.005014580674469471, 0.001451674266718328, -0.002547704614698887, -0.016851061955094337, -0.007610782515257597, -0.015506080351769924, 0.0188426673412323, 0.019062520936131477, 0.008199211210012436, 0.0012827434111386538, 0.012111295945942402, -0.009595923125743866, -0.015531945042312145, -0.001583424280397594, -0.024494174867868423, 0.026136603206396103, 0.016566546633839607, -0.0010976467747241259, -0.649729311466217, -0.006369261536747217, -0.010365406982600689, -0.007436193525791168, -0.00435825577005744, -0.007080549374222755, 0.005767899565398693, 0.020355772227048874, -0.009026892483234406, 0.011846179142594337, -0.01889439858496189, -0.0010968385031446815, -0.0016125224065035582, 0.015131036750972271, -0.012660928070545197, -0.025981413200497627, 0.006524451542645693, -0.0056127095595002174, -0.012454007752239704, 0.012078965082764626, -0.0035208759363740683, 0.02938266284763813, -0.03970280662178993, -0.009343738667666912, -7.193708734121174e-05, 0.025412382557988167, 0.007468524854630232, -0.022075794637203217, -0.0017151741776615381, -0.012732056900858879, -0.02803768217563629, 0.03253819793462753, -0.00222115870565176, -0.01914011500775814, 0.02382168360054493, 0.011975504457950592, -0.015454350039362907, 0.03522815927863121, 0.025696897879242897, 0.03820263594388962, 0.006320764310657978, -0.004730065818876028, 0.01881680265069008, -0.0032460601069033146, 0.0003396804677322507, -0.008069886825978756, 0.030158614739775658, -0.00645332271233201, -0.004943452309817076, 0.0012673860182985663, 0.005447819828987122, -0.026110738515853882, -0.006152641959488392, 0.0099774319678545, 0.013824854046106339, 0.011335344985127449, 0.03215022012591362, -0.002002922585234046, -0.01302950456738472, -0.0018299502553418279, 0.0131588289514184, -0.0032897072378546, -0.008270340040326118, 0.0006167190731503069, 0.005072777159512043, -0.006543850060552359, -0.019838470965623856, -0.01330755278468132, -0.0145490737631917, -0.00430652592331171, 0.010158486664295197, 0.024726958945393562, -0.016695870086550713, 0.005425188224762678, 0.012583332136273384, 0.028451522812247276, 0.016799330711364746, 0.013734325766563416, 0.008360868319869041, 0.002051419345661998, -0.0037504280917346478, -0.006262568291276693, -0.035952378064394, 0.012997172772884369, 0.011037897318601608, 0.003433581441640854, -0.02580035850405693, -0.012932510115206242, 0.011309480294585228, -0.004500513430684805, 0.018803870305418968, 0.016152705997228622, -0.009207947179675102, -0.02798595279455185, -0.009227345697581768, 0.025347720831632614, -0.02102826163172722, 0.0025865021161735058, -0.011296547949314117, -0.0327451154589653, -0.0034594465978443623, -0.0252701248973608, 0.012712657451629639, -0.007520254701375961, 0.017859796062111855, 0.012919577769935131, -0.013184694573283195, 0.011315946467220783, 0.029253339394927025, 0.0032395939342677593, 0.004872323479503393, -0.004374421667307615, -0.01941169798374176, -0.020084189251065254, -0.01634669303894043, -0.02107999101281166, 0.032848577946424484, 0.007494389545172453, 0.015932852402329445, -0.012641528621315956, 0.01687692664563656, -0.011277149431407452, 0.001130786375142634, -0.025968480855226517, 0.013475676067173481, 0.021015329286456108, -0.006081513129174709, -0.02325265295803547, -0.017251968383789062, -0.010449468158185482, 0.006362794898450375, 0.00280473823659122, 0.015687135979533195, -0.005008114501833916, -0.005205335561186075, -0.009460131637752056, -0.0014411666197702289, 7.405882934108377e-05, 0.008664782159030437, -0.03494364395737648, -0.035926513373851776, -0.014626669697463512, -0.0018768305890262127, -0.01882973499596119, -0.016773466020822525, -0.034297019243240356, -0.00856778770685196, -0.005350826308131218, -0.03574546054005623, 0.008160414174199104, -0.034503936767578125, -0.007455592043697834, -0.01882973499596119, 0.01576473005115986, -0.007959960028529167, 0.023666493594646454, -0.010281345807015896, 0.0009222496300935745, -0.043091125786304474, -0.01910131797194481, 0.03264165669679642, 0.00788236502557993, -0.003107035532593727, -0.008399665355682373, -0.01744595728814602, -0.005108341574668884, -0.008755309507250786, 0.015467282384634018, 0.007390929851680994, -0.02664097212255001, -0.00914975069463253, -0.012007836252450943, -0.00259458483196795, 0.0038150905165821314, -0.019075453281402588, 0.016010448336601257, -0.01721317134797573, -0.011406473815441132, -0.014885319396853447, -0.011374142952263355, 0.012182424776256084, 0.018674544990062714, -0.020847206935286522, -0.01886853203177452, 0.009983898140490055, 0.003918550442904234, 0.018221907317638397, 0.03207262605428696, -0.01881680265069008, 0.015221565030515194, 0.01538968738168478, -0.0051245070062577724, -0.0032848576083779335, -0.015441417694091797, -0.007707776036113501, 0.011005566455423832, 0.017070913687348366, -0.009085088968276978, -0.007112880703061819, 0.039211370050907135, -0.007778904866427183, 0.006705506704747677, 0.011206020601093769, 0.015001712366938591, 0.0236018318682909, -0.03318482264876366, 0.028684308752417564, -0.023472506552934647, 0.037323225289583206, 0.007649580016732216, 0.006298132706433535, 0.004332391079515219, -0.03049485944211483, -0.003773059928789735, -0.019062520936131477, 0.001227780245244503, 0.02581329084932804, 0.006783101707696915, -0.004416452255100012, 0.010792179964482784, 0.015958717092871666, -0.004484347999095917, 0.010863308794796467, 0.004982249811291695, -0.00036615171120502055, 0.006252868566662073, -0.006007151212543249, 0.021830078214406967, -0.0073198010213673115, -0.032615792006254196, -0.01776926964521408, 0.03129667416214943, -0.001821867423132062, 0.01882973499596119, -0.017950324341654778, 0.0051891696639359, -0.002276121871545911, -0.02214045822620392, 0.021985268220305443, -0.007054684218019247, 0.03540921211242676, 0.038357824087142944, 0.021209316328167915, -0.004736531991511583, 0.0025509377010166645, 0.0040187775157392025, -0.0025719529949128628, 0.008160414174199104, -0.013016571290791035, -0.007462058681994677, -0.018933195620775223, 0.023343181237578392, 0.010740449652075768, 0.004519912414252758, -0.002103149425238371, 0.017627011984586716, 0.016734668985009193, -0.015337957069277763, 0.01972207799553871, 0.022567231208086014, -0.012841982766985893, -0.008108683861792088, 0.015441417694091797, 0.014199896715581417, -0.005929556209594011, -0.029822368174791336, 0.018648680299520493, -0.006718439050018787, 0.001737806131131947, 0.007817702367901802, 0.015066375024616718, -0.0072034080512821674, -0.00871651154011488, -0.002723909914493561, -0.020446298643946648, -0.021545562893152237, -0.032564062625169754, -0.006566482130438089, -0.008632450364530087, 0.030831104144454002, -0.0051536052487790585, -0.03052072413265705, 0.006957690697163343, 0.016463086009025574, 0.009427799843251705, -0.02074374631047249, 0.000684614758938551, 0.024028604850172997, 0.010009762831032276, 0.020937735214829445, 0.017290767282247543, 0.01441974937915802, -0.022838814184069633, 0.00456840917468071, -0.007662512362003326, -0.042263444513082504, -0.006673175375908613, -0.005541580729186535, 0.023123327642679214, 0.013217025436460972, -0.002940529491752386, -0.0114905359223485, -0.029046418145298958, -0.019528090953826904, 0.028373926877975464, 0.019191846251487732, -0.0045069800689816475, 0.009563591331243515, 0.021519698202610016, -0.009175616316497326, -0.0009133585263043642, 0.0064694881439208984, 0.0025266893208026886, -0.01862281560897827, 0.0010523829841986299, 0.0013126498088240623, -0.0094536654651165, 0.012861381284892559, 0.025619303807616234, -0.010022695176303387, -0.011296547949314117, -0.030443130061030388, -0.005438120570033789, -0.015713000670075417, 0.101804718375206, 0.022011132910847664, -0.01774340495467186, 0.0019010789692401886, 0.0018832968780770898, -0.0038506549317389727, 0.00996449962258339, -0.018506422638893127, -0.006285199895501137, 0.0017054748022928834, 0.022256851196289062, -0.016695870086550713, 0.020989464595913887, 0.008153948001563549, -0.0020433366298675537, -0.0010968385031446815, -0.014005908742547035, -0.022399108856916428, 0.025683965533971786, 0.004060808103531599, 0.010520596988499165, 0.001357105327770114, 0.006217304151505232, 0.02164902165532112, -0.0022809715010225773, 0.006052414886653423, 0.010067959316074848, 0.008386733010411263, 0.006456555798649788, 0.008845836855471134, -0.0027255264576524496, 0.0028338362462818623, -0.01688985899090767, -0.010740449652075768, -0.01471719704568386, 0.014290424063801765, 0.01806671731173992, 0.001980290748178959, -0.0006219728966243565, -0.0012867847690358758, 0.01079864613711834, 0.017950324341654778, -0.003071471117436886, -0.009550658985972404, 0.01769167371094227, -0.021131722256541252, -0.009595923125743866, 0.01857108436524868, -0.017575280740857124, -0.0030730878934264183, 0.04166854918003082, 0.0006640036008320749, 0.008089285343885422, -0.015441417694091797, 0.01604924537241459, -0.0023795817978680134, 0.025942616164684296, 0.011975504457950592, -0.0037374955136328936, -0.01854521967470646, 0.005774365738034248, -0.012408743612468243, -0.005344360135495663, -0.0017879195511341095, -0.012240621261298656, -0.0019107784610241652, -0.006718439050018787, -0.0008608202333562076, -0.00984164047986269, 0.0042871274054050446, -0.024028604850172997, -0.005431654397398233, -0.026666836813092232, -0.0054898508824408054, 0.01453614141792059, -0.0015098706353455782, 0.020342838019132614, 0.0031587656121701, -0.0054898508824408054, 0.010003296658396721, 0.003934716340154409, -0.0043517895974218845, -0.009880437515676022, -0.02411913126707077, -0.022541366517543793, 0.027779031544923782, 0.03155532479286194, -0.018079649657011032, -0.03737495467066765, 0.005302329082041979, 0.013889515772461891, -0.004859390668570995, 0.0036857654340565205, -0.01968328095972538, -0.02658924087882042, -0.007462058681994677, 0.01012615580111742, 0.007934095337986946, -0.0015947401989251375, -0.0028532349970191717, 0.012570399791002274, -0.003108652075752616, -0.04322044923901558, -0.023511303588747978, 0.011270683258771896, -0.005127740558236837, 0.0014540990814566612, -0.00526353158056736, -0.006146175786852837, 0.010708118788897991, 0.01638549007475376, -0.010973234660923481, 0.004051108844578266, 0.007106414530426264, -0.017562348395586014, 0.015467282384634018, -0.028994688764214516, 0.041435763239860535, -0.00788236502557993, -0.035331618040800095, -0.015415552072227001, -0.032874442636966705, 0.0072810035198926926, 0.03129667416214943, 0.006181739736348391, 0.0235371682792902, -0.004173967521637678, -0.008076352998614311, 0.00370516418479383, -0.017032116651535034, 0.012156560085713863, 0.033650390803813934, 0.007901763543486595, 9.07296416698955e-05, -0.02577449381351471, -0.02550291083753109, 0.004610439762473106, -0.019618617370724678, -0.017911527305841446, -0.016178570687770844, -0.033727988600730896, 0.027546247467398643, -0.010016229003667831, -0.0032864741515368223, 0.007733641192317009, -0.016954520717263222, 0.00580993015319109, -0.012091897428035736, -0.02242497354745865, 0.007533187512308359, -0.004196599591523409, 0.005674139130860567, -0.00665377639234066, 0.025347720831632614, 0.010843910276889801, 0.006990022026002407, -0.014458546414971352, 0.005224734079092741, -0.00665377639234066, 0.0023779652547091246, 0.012344080954790115, 0.02664097212255001, 0.025011474266648293, 0.03165878355503082, -0.0026285327039659023, -0.013436878100037575, -0.0026964284479618073, 0.01386365108191967, -0.028891228139400482, 0.029874099418520927, 0.009007493034005165, 0.013475676067173481, 0.0031797809060662985, -0.01109609380364418, 0.004119004588574171, 0.012285884469747543, 0.005431654397398233, 0.004206298850476742, -0.016269098967313766, -0.035952378064394, -0.015014644712209702, -0.01747182197868824, -0.022308580577373505, -0.010430069640278816, -0.0033915508538484573, 0.002568719908595085, 0.0049919490702450275, 0.0033980170264840126, -0.006796034052968025, -0.01582939177751541, 0.031762246042490005, -0.022825879976153374, 0.05012641102075577, 0.005761433392763138, 0.02245083823800087, -0.006718439050018787, -0.008431997150182724, -0.020730813965201378, -0.02109292522072792, -0.0037374955136328936, -0.01262213010340929, -0.020006593316793442, -0.010979701764881611, -0.015169834718108177, -0.004966083914041519, 0.01221475563943386, 0.035641998052597046, -0.011193087324500084, -0.00942133367061615, -0.013721393421292305, -0.029305068776011467, -0.028167007490992546, -0.02051096223294735, -0.006071813404560089, -0.004943452309817076, 0.012790252454578876, -0.026446983218193054, 0.041435763239860535, -0.013165295124053955, -0.05061784386634827, 0.0188426673412323, 0.0023327015805989504, 0.023692358285188675, -0.0023941309191286564, 0.026666836813092232, 0.009343738667666912, -0.021532630547881126, -0.008832904510200024, 0.04627252370119095, -0.00026228747447021306, -0.013656730763614178, 0.009725247509777546, -0.002471726154908538, -0.013992976397275925, -0.018933195620775223, 0.003310722764581442, 0.041461627930402756, 0.009292008355259895, -0.009641186334192753, 0.03804744407534599, 0.0027998886071145535, -0.0161268413066864, -0.039754536002874374, 0.014665466733276844, -0.009634720161557198, 0.03328828141093254, -0.016269098967313766, 0.013786056078970432, 0.0073844632133841515, -0.016217367723584175, -0.030986294150352478, 0.029460258781909943, -0.01635962538421154, 0.031193215399980545, -0.0041448697447776794, -0.020032458007335663, 0.016579478979110718, -0.02687375620007515, -0.029796503484249115, 0.01412230171263218, 0.017109710723161697, 0.009007493034005165, -0.018208974972367287, -0.011057296767830849, -0.008005224168300629, -0.02023937925696373, -0.0058228629641234875, -0.0026414652820676565, 0.0026495479978621006, 0.021248115226626396, -0.02912401407957077, 0.013372215442359447, -0.0043808878399431705, 0.003847421845421195, 0.03944415599107742, -0.015428485348820686, -0.014678399078547955, 0.007817702367901802, 0.016398422420024872, -0.030391398817300797, -0.004794728010892868, -0.0005185128538869321, -0.021273979917168617, 0.01994193159043789, -0.0063078319653868675, -0.013359283097088337, -0.01329462043941021, -0.015195699408650398, 0.01246047392487526, 0.002450710628181696, -0.00616880739107728, -0.0046298387460410595, 0.012311750091612339, 0.016553612425923347, 0.012932510115206242, 0.0004942643572576344, 0.004280660767108202, 0.011458204127848148, -0.024791622534394264, 0.019566887989640236, 0.024752825498580933, 0.012699725106358528, 0.007416794542223215, -0.013540338724851608, 0.02329145185649395, -0.008697113022208214, 0.011949639767408371, -0.010087357833981514, -0.028658442199230194, -0.0072228070348501205, -0.015299160033464432, -0.017045048996806145, -0.0014767310349270701, -0.013553271070122719, -0.0057937647216022015, 0.0021112323738634586, -0.0016569779254496098, 0.0019608919974416494, -0.017614079639315605, -0.02132570929825306, -0.004002612084150314, -0.01860988326370716, 0.023162126541137695, -0.02966717816889286, -0.008768241852521896, 0.009531260468065739, 0.003045606194064021, 0.013708461076021194, -0.016488950699567795, -0.0009893369860947132, -0.0035790721885859966, 0.009615321643650532, -0.018377097323536873, 0.0046298387460410595, 0.0010087358532473445, -0.0020692015532404184, -0.02692548744380474, 0.009201481007039547, 0.017045048996806145, -0.004742998164147139, 0.02435191720724106, 0.02961544878780842, -0.013980044052004814, 0.0019204778363928199, 0.011322412639856339, -0.008509592153131962, -0.03678005933761597, -0.007449125871062279, -0.011186621151864529, -0.011762117967009544, -0.022825879976153374, 0.0021112323738634586, 0.014859454706311226, -0.014380951412022114, -0.03540921211242676, -0.018415894359350204, -0.0017555883387103677, -0.0029227472841739655, -0.0016828429652377963, 0.018092582002282143, 0.02995169349014759, 0.025645168498158455, -0.01860988326370716, 0.0019091618014499545, -0.007293935865163803, 0.031451866030693054, 0.00843846332281828, -0.00048335257451981306, 0.025994345545768738, -0.02079547755420208, 0.011296547949314117, -0.009699382819235325, -0.03802157938480377, -0.026718566194176674, 0.04133230447769165, 0.01721317134797573, 0.000588025082834065, -0.011568130925297737, -0.027882492169737816, 0.01385071873664856, 0.002140330383554101, -0.003267075400799513, 0.010999100282788277, 0.0041060722433030605, 0.002366649452596903, -0.02361476421356201, -0.002759474329650402, -0.01888146437704563, 0.036986980587244034, -0.0025234560016542673, 0.00805695354938507, -0.004733298905193806, -0.010307210497558117, 0.021817145869135857, -0.012822584249079227, 0.004591041244566441, 0.01246047392487526, -0.0032331275288015604, 0.032874442636966705, -0.012007836252450943, -0.019528090953826904, 0.01718730665743351, 0.01511810440570116, -0.005046912003308535, -0.010488266125321388, -0.026666836813092232, -0.04409985989332199, -0.021273979917168617, 0.016773466020822525, -0.0404011607170105, 0.011063762940466404, -0.018351232632994652, 0.03659900277853012, -0.0257615614682436, 0.011445271782577038, -0.0271841362118721, -0.00409637251868844, -0.016721736639738083, 0.034762587398290634, -0.014846522361040115, -0.013074767775833607, 0.0051536052487790585, -0.02520546317100525, -0.0051827034913003445, -0.02216632291674614, 0.00276755727827549, -0.017950324341654778, -0.026822026818990707, -0.016682937741279602, 0.003144216490909457, -0.021170519292354584, -0.0394182913005352, -0.0026818793267011642, 0.004830292426049709, 0.005409022327512503, -0.0019980729557573795, 0.20495443046092987, 0.01096030231565237, -0.007901763543486595, 0.034814316779375076, -0.01663120836019516, 0.018208974972367287, 0.003166848560795188, -0.001530077657662332, 0.0067378380335867405, 0.01858401671051979, -0.0053346604108810425, -0.006214071065187454, -0.014574939385056496, 0.00943426601588726, 0.008819972164928913, -0.0005868126754648983, -0.018402962014079094, -0.03915964066982269, -0.013980044052004814, 0.012990706600248814, -0.014730129390954971, -0.011865578591823578, 0.006692573893815279, -0.000906892295461148, -0.008147481828927994, -0.009447199292480946, -0.000579942250624299, -0.016514815390110016, 0.057782456278800964, 0.016928656026721, 0.001556750969029963, -0.004882022738456726, -0.016450153663754463, -0.006236703135073185, 0.004707433748990297, 0.011458204127848148, 0.007242206018418074, -0.01860988326370716, 0.02083427459001541, 0.010042094625532627, -0.020135918632149696, -0.02658924087882042, 0.009970965795218945, 0.0050016483291983604, -0.005910157226026058, 0.007507322356104851, -0.011962572112679482, 0.003870053682476282, -0.0006041907472535968, 0.020614420995116234, -0.028115278109908104, -0.018726274371147156, -0.008121616207063198, 0.021170519292354584, 0.008412597700953484, 0.00242646224796772, 0.017083846032619476, 0.006912427023053169, -0.009938634000718594, 0.0037213298492133617, -0.02325265295803547, 0.018752140924334526, -0.02163608931005001, -0.005276464391499758, 0.0019673581700772047, -0.005531881470233202, -0.03318482264876366, -0.0064694881439208984, -0.004869089927524328, -0.0085871871560812, 0.018635747954249382, -0.016476018354296684, 0.017937391996383667, -0.002607517410069704, -0.014355086721479893, -0.02247670292854309, 0.030701778829097748, 0.013889515772461891, 0.01798912137746811, 0.03248646482825279, 0.01413523405790329, -0.002450710628181696, 0.0025719529949128628, 0.005101875402033329, 0.0013862034538760781, -0.015661269426345825, 0.009466597810387611, 0.019592752680182457, -0.004300059750676155, -0.022812947630882263, -0.0020724348723888397, 0.0047817956656217575, 0.004759163595736027, 0.013695528730750084, 0.00803108885884285, 0.006485654041171074, 0.0037665937561541796, 0.01011322345584631, -0.010501198470592499, 0.016424288973212242, -0.019269440323114395, -0.0050889430567622185, 0.02380875125527382, -0.0005621600430458784, -0.015337957069277763, 0.03442634269595146, -0.008794107474386692, 0.006647310219705105, 0.01386365108191967, -0.014238693751394749, -0.014898251742124557, -0.03189156949520111, 0.0011720088077709079, -0.004536077845841646, 0.017407158389687538, 0.02080840989947319, -0.0070740832015872, -0.012699725106358528, -0.0013934780145063996, -0.009511861018836498, -0.009240278974175453, -0.026951352134346962, -0.002893649274483323, 0.015053441748023033, -0.015881123021245003, -0.014574939385056496, -0.004138403106480837, 0.010882707312703133, 0.0005617559072561562, -0.02497267723083496, 0.009207947179675102, 0.012369946576654911, 0.013320486061275005, 0.013747258111834526, -0.016760533675551414, 0.023343181237578392, 0.004235397092998028, 0.007520254701375961, 0.0016941588837653399, 0.006320764310657978, -0.016204435378313065, -0.020407501608133316, 0.01611390709877014, -0.011729787103831768, -0.01009382400661707, -0.02995169349014759, -0.01138060912489891, -0.008703579194843769, -0.0031959465704858303, -0.020174715667963028, 0.018752140924334526, -0.025968480855226517, -0.01910131797194481, -0.03253819793462753, 0.023162126541137695, -0.0257615614682436, 0.006899494212120771, 0.001511487178504467, 0.005541580729186535, 0.01885559968650341, -0.021791279315948486, 0.015480214729905128, 0.019308237358927727, -0.005842261482030153, 0.0033883177675306797, 0.008942831307649612, -0.16232886910438538, 0.015363822691142559, -0.009945100173354149, -0.0057840654626488686, 0.009414867497980595, 0.019812606275081635, -0.014665466733276844, 0.02137744054198265, -0.008619518019258976, 0.03556440398097038, -0.003718096762895584, 0.02193353697657585, -0.010863308794796467, -0.02935679815709591, -0.01357913576066494, 0.011199554428458214, -0.020730813965201378, 0.020459230989217758, 0.026201266795396805, 0.020614420995116234, -0.005431654397398233, -0.03460739925503731, 0.023951008915901184, -0.009615321643650532, -0.008250941522419453, 0.005108341574668884, 0.008322070352733135, 0.012091897428035736, 0.007714242674410343, -0.010462400503456593, 0.011910841800272465, 0.006711972877383232, 0.04857450723648071, 0.007888831198215485, 0.012783786281943321, 1.092443540073873e-06, -0.027235867455601692, -0.025153731927275658, -0.0004433426074683666, 0.0003237169003114104, 0.017963256686925888, 0.0018946127966046333, -0.0019107784610241652, -0.023097462952136993, -0.005677372217178345, 0.053126752376556396, 0.036702465265989304, -0.005299095995724201, -0.027675572782754898, 0.009039824828505516, 0.038150906562805176, -0.005803463980555534, 0.01610097475349903, 0.0045069800689816475, 0.01634669303894043, 0.005276464391499758, 0.009673518128693104, 0.020433366298675537, -0.0028677841182798147, -0.02025231160223484, -0.02136450633406639, -0.01694158837199211, 0.009537726640701294, 0.01915304735302925, 0.008593653328716755, -0.03458153456449509, -0.020045390352606773, 0.000489414669573307, -0.03377971798181534, 0.005463985726237297, -0.0035855385940521955, -0.007701309863477945, -0.02437778189778328, -0.0029502289835363626, 0.008781174197793007, 0.023394910618662834, -0.023718224838376045, -0.01441974937915802, 0.004513446241617203, -0.0013627632288262248, 0.0053637586534023285, 0.04190133512020111, -0.01470426470041275, -0.003016507951542735, 0.002471726154908538, -0.017407158389687538, 0.00735859852284193, 0.019295305013656616, -0.016010448336601257, -0.00650505255907774, 0.002843535738065839, -0.018351232632994652, 0.03789225593209267, -0.04045289382338524, 0.015868190675973892, 0.008794107474386692, 0.009337272495031357, 0.015363822691142559, -0.001556750969029963, -0.009667051956057549, 0.01770460605621338, 0.006178506650030613, -0.02914987877011299, 0.008807039819657803, 0.03696111589670181, 0.026446983218193054, -0.014471478760242462, -0.002615600125864148, 0.027313461527228355, -0.004979016724973917, 0.0001022476571961306, 0.007610782515257597, 0.02414499595761299, 0.029718909412622452, -0.02883949875831604, 0.015971649438142776, 0.023187991231679916, -0.007649580016732216, 0.02824460342526436, 0.014523209072649479, 0.03491777926683426, -0.015480214729905128, -0.005628874991089106, 0.031167350709438324, -0.02329145185649395, 0.012932510115206242, -0.09678690880537033, 0.02417086251080036, 0.0014945132425054908, 0.019877268001437187, -0.012402277439832687, 0.010766315273940563, -0.024804554879665375, 0.01827363669872284, 0.0322536826133728, 0.007481457199901342, -0.026201266795396805, -0.02105412632226944, 0.00678956788033247, 0.010371873155236244, 0.024584703147411346, 0.009634720161557198, 0.009660584852099419, 0.006802500691264868, -0.0024216126184910536, 0.003349520266056061, -0.004746231250464916, -0.004953151568770409, 0.025580504909157753, -0.013811920769512653, 0.001783069921657443, -0.04301352798938751, -0.040633946657180786, 0.021286912262439728, 0.006362794898450375, -0.009195014834403992, -0.003637268440797925, -0.0016294963425025344, 0.0021661955397576094, -0.016191503033041954, 0.00969291664659977, 0.004393820185214281, 0.016463086009025574, -0.0227353535592556, 0.012525136582553387, -0.028736038133502007, -0.022049929946660995, 0.019463427364826202, 0.023420777171850204, -0.020717881619930267, 0.004972550086677074, -0.0016569779254496098, -0.029486123472452164, 0.02470109425485134, -0.023627696558833122, -0.032589927315711975, -0.03409009799361229, -0.004827059339731932, -0.003378618275746703, -0.0161268413066864, 0.054782114923000336, -0.006395126227289438, 0.006382193882018328, 0.018778005614876747, -0.030882835388183594, -0.02498560957610607, 0.0049046543426811695, 0.00276755727827549, -0.022929340600967407, -0.00421923166140914, -0.0064985863864421844, -0.005842261482030153, -0.023175058886408806, -0.003834489267319441, 0.022657757624983788, 0.014924117363989353, -0.020019525662064552, -0.026421118527650833, -0.012945442460477352, -0.007300402037799358, -0.017019184306263924, -0.012072497978806496, -0.01039773877710104, -0.000204596362891607, 0.011600461788475513, 0.010300744324922562, -0.008050487376749516, -0.011859112419188023, -0.0020821341313421726, -9.088119259104133e-05, 0.009110953658819199, 0.01773047260940075, 0.014911184087395668, 0.007300402037799358, 0.026977216824889183, -0.03346933797001839, 0.009602389298379421, 0.013915381394326687, 0.015894055366516113, -0.030624184757471085, -0.020627353340387344, 0.02997755818068981, 0.018493490293622017, -0.001383778639137745, -0.0011324029183015227, -0.00872297864407301, -0.03680592402815819, -0.018519354984164238, -0.07749160379171371, 0.009214413352310658, 0.011206020601093769, 0.006711972877383232, 0.019049588590860367, -0.0022098426707088947, 0.013385147787630558, 0.02414499595761299, -0.004574875347316265, 0.00465247081592679, -0.02634352445602417, 0.010889173485338688, 0.009246745146811008, -0.03613343462347984, -0.024248456582427025, -0.02467522956430912, 0.03416769206523895, 0.005279697477817535, -0.008419063873589039, 0.035874783992767334, 0.002570336451753974, 0.023782886564731598, 0.03251232951879501, 0.0057840654626488686, -0.03910791128873825, 0.014652534388005733, -0.02409326657652855, 0.013281688094139099, -0.022903475910425186, 0.006320764310657978, -0.0045716422609984875, -0.038694072514772415, -0.007371530868113041, 0.03142600134015083, -0.01965741626918316, -0.026395253837108612, -0.036159299314022064, 0.0255158431828022, 0.011645725928246975, 0.03584891930222511, -0.033857312053442, -0.019515158608555794, 0.03318482264876366, -0.013695528730750084, 0.008878168649971485, 0.02661510556936264, -0.0026495479978621006, 0.004827059339731932, 0.03742668405175209, 0.011206020601093769, 0.00969291664659977, 0.012809651903808117, -0.0065858811140060425, -0.03140013664960861, 0.0045328447595238686, 0.010177886113524437, 0.00150502088945359, 0.012964841909706593, -0.006450089626014233, -0.03680592402815819, 0.04192719981074333, -0.009654118679463863, 0.0008891100878827274, 2.733003202592954e-05, 0.001980290748178959, -0.008942831307649612, -0.018959060311317444, -0.011089627631008625, 0.006666709203273058, -0.024584703147411346, -0.010940903797745705, 0.00470420066267252, 0.02858084812760353, 0.0065858811140060425, 0.03967694193124771, 0.0018380330875515938, -0.01346274372190237, -0.009744646959006786, -0.016812263056635857, 0.03321068733930588, -0.015234497375786304, -0.0019560421351343393, -0.008199211210012436, 0.01180091593414545, 0.028477387502789497, 0.010953836143016815, -0.038409557193517685, -0.00873591098934412, -0.007759506348520517, 0.0255158431828022, 0.008994560688734055, 0.004422918427735567, 0.02444244548678398, 0.01801498606801033, 0.0053637586534023285, 0.006705506704747677, -0.0224896352738142, 0.0025137567427009344, 0.03388317674398422, 0.0071646105498075485, -0.008813505992293358, 0.006016850471496582, 0.007326267194002867, -0.027546247467398643, 0.0056967707350850105, 0.005234433803707361, -0.010436535812914371, -0.029227472841739655, 0.01180091593414545, 0.025658100843429565, 0.0015890821814537048, -0.0003483695036265999, 0.001515528536401689, 0.012525136582553387, -0.005360525567084551, -0.00</t>
+  </si>
+  <si>
+    <t>[0.0015615150332450867, -0.014139288105070591, -0.007254126947373152, -0.04195665940642357, -0.027540646493434906, -0.0021083748433738947, -0.01620813086628914, 0.00788005068898201, 0.011846430599689484, 0.007596737705171108, -0.002315917983651161, 0.015588795766234398, -0.0144687220454216, -0.02342931553721428, -0.021465890109539032, 0.0021643785294145346, 0.028858380392193794, 0.0038510782178491354, -0.00282489275559783, -0.022717738524079323, -0.013664904050529003, -0.01318393088877201, 0.026275619864463806, 0.02066207304596901, -0.026789536699652672, 0.0005089748301543295, 0.0021281407680362463, -0.0039301421493291855, -0.017947539687156677, 0.026315152645111084, 0.009731467813253403, -0.020543476566672325, -0.010917427949607372, 0.008703635074198246, -0.019423402845859528, -0.03165197744965553, 0.014640027657151222, 0.002757358830422163, 0.029438182711601257, 0.004862439353018999, 0.008031589910387993, -0.009197784587740898, 0.01939704827964306, -0.021334117278456688, -0.006647969130426645, 0.025023773312568665, 0.02663140930235386, 0.016484854742884636, -0.017525864765048027, 0.003081850940361619, 0.013025802560150623, 0.006466780789196491, -0.012630483135581017, 0.0033997544087469578, -0.007537439931184053, -0.02573535032570362, -0.00531376339495182, 0.003554588183760643, 0.019845077767968178, -0.011378634721040726, -0.006723738741129637, -0.012162687256932259, -0.024154068902134895, 0.008446676656603813, -0.01054187398403883, -0.0067995088174939156, -0.035420697182416916, -0.016102712601423264, 0.009546984918415546, -0.0314674936234951, 0.04198301210999489, 0.017525864765048027, 0.0035974145866930485, -0.021768970414996147, 0.027356162667274475, -0.019449757412075996, 0.0009495922131463885, 0.0019008315866813064, 0.013928450644016266, 0.01869864948093891, 0.021584486588835716, -0.053789909929037094, 0.003129618940874934, 0.034999020397663116, 0.01765763945877552, 0.004691133741289377, 0.009355912916362286, 0.016326727345585823, -0.00356117682531476, 0.006246060132980347, -0.008986947126686573, 0.0019205976277589798, 0.007675801869481802, 0.022256530821323395, -0.0014519784599542618, -0.014455544762313366, -0.02130776271224022, 0.04443399980664253, -0.014033869840204716, -0.002609113696962595, 0.0024542799219489098, 0.006792920175939798, -0.006677618250250816, -0.027145326137542725, -0.0217030830681324, -0.02277044765651226, 0.00506009953096509, -0.01054187398403883, 0.019436579197645187, 0.0031922112684696913, 0.0018612996209412813, 0.03752906993031502, 0.010752711445093155, -0.0490197129547596, -0.022058870643377304, 0.028463060036301613, 0.014139288105070591, -0.001734467688947916, 0.0010731298243626952, -0.0174863338470459, 0.020490767434239388, 0.007043289486318827, 0.005784853361546993, -0.013888918794691563, 0.013664904050529003, 0.029016507789492607, -0.01416564267128706, -0.004687839653342962, 0.011088733561336994, 0.005293997470289469, 0.002483929041773081, -0.012623894028365612, 0.03600050136446953, -0.008196307346224785, -0.011688302271068096, 0.016036825254559517, -0.02490517683327198, -0.006591965444386005, -0.007563794497400522, -0.003017611335963011, 0.018593229353427887, 0.018909486010670662, -0.01809249073266983, -0.008841997012495995, -0.01701194979250431, 0.05708424746990204, -0.010489164851605892, 0.022730914875864983, 0.0027161797042936087, 0.0021923803724348545, 0.019001727923750877, -0.04048079624772072, -0.0032498619984835386, 0.002889132359996438, 0.007148708216845989, 0.007227772381156683, -0.00644701486453414, 0.04100789129734039, -0.0054916576482355595, 0.017380915582180023, -0.019739659503102303, 0.016682514920830727, 0.018435101956129074, -0.021571310237050056, 0.031810104846954346, 0.02280998043715954, -0.0062065282836556435, 0.005396121647208929, -0.003515056101605296, -0.018356038257479668, 0.016985595226287842, 0.02682906948029995, -0.02536638453602791, 0.02511601522564888, -0.0007539910729974508, 0.04580444097518921, -0.012426233850419521, -0.0044308812357485294, -0.030413305386900902, -0.024641631171107292, -0.008683868683874607, 0.00369624444283545, 0.03831971064209938, 0.04409138858318329, -0.021162811666727066, -0.008809053339064121, 0.007445198483765125, 0.019252097234129906, 0.006397599820047617, -0.012880852445960045, -0.00927684921771288, 0.022269709035754204, 0.0003494054835755378, 0.00917143002152443, -0.6455843448638916, -0.006209822837263346, -0.013783500529825687, -0.026552345603704453, -0.012926972471177578, 0.017512688413262367, 0.009540395811200142, 0.0058243852108716965, -0.02407500520348549, -0.00521822739392519, 0.003969674464315176, -0.004266164731234312, 0.008354434743523598, -0.002057312522083521, -0.0280940942466259, 0.009612871333956718, 0.003071967978030443, -0.0009965365752577782, 0.013243229128420353, -0.0003730835160240531, -0.00807112269103527, 0.031441137194633484, -0.004869027994573116, 0.00271288538351655, 0.010475987568497658, 0.010812009684741497, 0.015127588994801044, -0.027145326137542725, -0.05236675962805748, 0.0014149171765893698, -0.02126822993159294, 0.008466442115604877, -0.00660514272749424, -0.015180298127233982, 0.04493473842740059, 0.009349324740469456, -0.030307887122035027, 0.025181900709867477, 0.01214292086660862, 0.03723916783928871, 0.004411115311086178, -0.0049612694419920444, 0.04788646101951599, -0.006542550399899483, -0.0015153944259509444, 0.00830172561109066, 0.02087290957570076, 0.01236034743487835, -0.0011999617563560605, -0.017301850020885468, 0.01977919042110443, -0.020609363913536072, -0.005784853361546993, 0.027329808101058006, 0.019528821110725403, -0.010508930310606956, 0.04193030297756195, -0.02296810783445835, 0.005152340978384018, -0.008031589910387993, 0.0015532792313024402, 0.017156898975372314, -0.0049085598438978195, 0.003355280729010701, -0.02365333028137684, -0.015127588994801044, -0.011319337412714958, -0.002632174175232649, 0.014613673090934753, 0.022849511355161667, -0.010660470463335514, 0.02000320516526699, -0.042062077671289444, -0.0067171500995755196, -0.0019881315529346466, 0.006114286836236715, 0.022902220487594604, -0.002024369314312935, 0.026539167389273643, 0.012630483135581017, -0.0005485068541020155, -0.00967875774949789, -0.029965275898575783, 0.01065388135612011, 0.018777713179588318, 0.018000250682234764, 0.00018777712830342352, 0.011207330040633678, 0.03304877504706383, 0.03228449076414108, -0.0031922112684696913, 0.0015285717090591788, 0.020596185699105263, -0.00981053151190281, -0.03046601638197899, 0.018000250682234764, 0.009520630352199078, 0.018158378079533577, 0.020069092512130737, -0.019252097234129906, -0.0111677972599864, -0.008393967524170876, 0.019199388101696968, -0.012584362179040909, 0.02449668012559414, 0.015246185474097729, -0.03486724942922592, 0.0011703127529472113, 0.042879071086645126, -0.005310468841344118, -0.024325374513864517, -0.012775433249771595, -0.015483377501368523, -0.010798832401633263, 0.005336823873221874, -0.0253532063215971, 0.028568478301167488, 0.012182452715933323, 0.01276225596666336, -0.026433749124407768, 0.018369214609265327, -0.010265150107443333, 0.013730790466070175, -0.00894082710146904, 0.00489208847284317, 0.01875135861337185, 0.017552219331264496, 0.003940025344491005, -0.03325961157679558, -0.008038179017603397, 0.032258134335279465, 0.04641060158610344, 0.024154068902134895, -0.01960788480937481, -0.00521822739392519, 0.010258561000227928, 0.03304877504706383, -0.025247788056731224, -0.006766565144062042, -0.022651851177215576, -0.020701605826616287, -0.019041260704398155, -0.0038510782178491354, -0.024180423468351364, -0.007649447303265333, -0.020938796922564507, -0.0020721370819956064, -0.012610716745257378, -0.012261517345905304, -0.0018711825832724571, -0.011879374273121357, 0.016023648902773857, -0.013038980774581432, 0.0028364229947328568, -0.0018860071431845427, -0.012301049195230007, 0.010153142735362053, -0.013506775721907616, -0.02899015322327614, -0.002803479554131627, 0.008795876055955887, 0.013197108171880245, -0.014969460666179657, 0.005270936992019415, 0.008150186389684677, -0.018224265426397324, -0.010535284876823425, -0.012380112893879414, -0.008492797613143921, -0.016708869487047195, 0.002915486926212907, 0.012287871912121773, -0.0005670374957844615, -0.0013490304118022323, -0.0033355148043483496, -0.009757822379469872, -0.011708068661391735, 0.0036665955558419228, 0.0012345522409304976, -0.01873818039894104, 0.001057481742464006, 0.008855174295604229, -0.027567001059651375, -0.010706590488553047, 0.015140766277909279, 0.004987624008208513, 0.02617020159959793, -0.0019700126722455025, 0.005415887571871281, 0.032468970865011215, -1.0423484127386473e-05, 0.03407660871744156, -0.004506651312112808, 0.005577309988439083, -0.015720568597316742, -0.014745445922017097, 0.014139288105070591, -0.022045694291591644, -0.003781897248700261, 0.016115888953208923, 0.025419093668460846, 0.010403512045741081, 0.023798281326889992, -0.01594458520412445, 0.014389658346772194, -0.01574692502617836, 0.005244582425802946, -0.02848941460251808, 0.017947539687156677, 0.01939704827964306, 0.004509945400059223, -0.021189166232943535, -0.02746158093214035, 0.015905052423477173, -0.006601848639547825, 0.020266752690076828, 0.006351478863507509, -0.004483590833842754, -0.032073650509119034, 0.008861762471497059, 0.01869864948093891, -0.010930605232715607, 0.010357391089200974, 0.03578966110944748, -0.021624019369482994, -0.010271738283336163, 0.0043024024926126, 0.029332764446735382, -0.007161885499954224, -0.005089748650789261, 0.001757528050802648, 0.016023648902773857, -0.00372918788343668, 0.040744341909885406, -0.01382303237915039, -0.0022302651777863503, -0.006163701880723238, -0.010805420577526093, 0.01792118512094021, 0.009869829751551151, 0.009303203783929348, 0.015298894606530666, 0.007306836545467377, 0.006766565144062042, -0.005606959108263254, -0.008156774565577507, 0.004931620322167873, 0.008117242716252804, -0.017354559153318405, -0.02172943763434887, -0.023890521377325058, -0.0016726988833397627, -0.013243229128420353, -0.0043024024926126, -0.00927684921771288, 4.748475839733146e-05, 0.004216749686747789, -0.0139416279271245, -0.018263796344399452, 0.028779316693544388, 0.008314902894198895, 0.007102587725967169, 0.026012074202299118, 0.0051424577832221985, -0.0042266324162483215, -0.009402033872902393, 0.016010470688343048, -0.008163363672792912, 0.0003378753026481718, -0.009270260110497475, 0.00032243310124613345, 0.0013786794152110815, 0.008841997012495995, -0.008868351578712463, 0.014402835629880428, -0.009105543605983257, -0.02279680222272873, -0.004898677114397287, -0.011661947704851627, 0.002279680222272873, -0.020082270726561546, -0.023785103112459183, 0.008011824451386929, 0.02323165535926819, 0.011754189617931843, -0.006242766045033932, -0.012663425877690315, -0.006526079028844833, -0.011727835051715374, 0.014534608460962772, -0.005788147449493408, -0.0036072975490242243, -0.0200163833796978, 0.004915148951113224, 0.005330235231667757, -0.017183255404233932, 0.009856652468442917, -0.023969585075974464, 0.01830332912504673, 0.008242427371442318, -0.0076033263467252254, -0.0018168260576203465, -0.009830297902226448, -0.029306409880518913, 0.016866998746991158, -0.010344213806092739, -0.03513079509139061, -0.005211638752371073, -0.008163363672792912, -0.004602186847478151, -0.00936909019947052, 0.021782146766781807, -0.011207330040633678, -0.016339903697371483, -0.0002847541472874582, 0.005577309988439083, 0.003412931691855192, 0.023521555587649345, 0.004813024308532476, -0.0012304343981668353, -0.018356038257479668, -0.027540646493434906, -0.01661662943661213, 0.0009899478172883391, 0.07727193832397461, -0.010489164851605892, 0.014929928816854954, -0.000572802615351975, -0.005521306302398443, -0.012274694629013538, -0.018013427034020424, -0.012182452715933323, -0.009553573094308376, 0.03979557380080223, 0.007063055410981178, -0.028621187433600426, 0.014336948283016682, -0.0030110226944088936, 0.011022847145795822, -0.01479815598577261, -0.012287871912121773, -0.018184732645750046, 0.04024360328912735, 0.004002617672085762, 0.0059726303443312645, 0.0038741386961191893, -0.02300764061510563, 0.03383941575884819, 0.017130544409155846, -0.0027079437859356403, -0.003416226012632251, 0.021992985159158707, 0.0050568049773573875, -0.014824510551989079, -0.004855850711464882, 6.676177144981921e-05, -0.038346067070961, 0.022309239953756332, 0.006259237881749868, 0.022915398702025414, 0.005191872827708721, 0.009296614676713943, 0.019462935626506805, 0.019752835854887962, 0.013915273360908031, 0.03486724942922592, -0.004592303652316332, 0.00026395864551886916, -0.0016496385214850307, -0.008275371044874191, 0.0008878234657458961, 0.014389658346772194, -0.023126235231757164, -0.03302241861820221, 0.03515714779496193, 0.019331160932779312, -0.006262531969696283, -0.007708745542913675, 0.008855174295604229, 0.02319212257862091, 0.012834731489419937, 0.0024361612740904093, -0.008683868683874607, 0.0010286562610417604, 0.008453264832496643, -0.03826700150966644, 0.007952526211738586, 0.010087255388498306, -0.001938716508448124, -0.021755792200565338, -0.002483929041773081, 0.0026437044143676758, -0.006898338906466961, -0.016353081911802292, -0.0033931657671928406, -0.00019271863857284188, -0.016129067167639732, -0.010041135363280773, 0.012386702001094818, -0.001882712822407484, 0.03194187954068184, -0.006677618250250816, -0.00415086280554533, 0.018395569175481796, -0.016722047701478004, -0.001458567101508379, 0.004276047460734844, -0.018369214609265327, -0.013078512623906136, 0.0174863338470459, 0.00494809215888381, -0.007379311602562666, -0.008973769843578339, 0.0006514548440463841, -0.011194152757525444, -0.006611731369048357, 0.03615862876176834, 0.00041652756044641137, -0.007208006456494331, 0.0009224139503203332, 0.021755792200565338, -0.007379311602562666, -0.008874939754605293, -0.010838364250957966, 0.02875296026468277, -0.013770323246717453, -0.03043966181576252, -0.0006913986871950328, 0.030914045870304108, -0.019476111978292465, 0.001628225320018828, -0.003297629998996854, 0.01682746596634388, 0.0047240774147212505, 0.0069181048311293125, 0.02427266538143158, 0.0063844225369393826, -0.0042266324162483215, -0.009995014406740665, 0.0005616841954179108, -0.028779316693544388, 0.03125665709376335, -0.004233221057802439, 0.004552771802991629, -0.014811333268880844, -0.004915148951113224, 0.014336948283016682, 0.0331541933119297, -0.009751233272254467, 0.006012162659317255, 0.008400555700063705, -0.012149509973824024, -0.010706590488553047, -0.01876453496515751, 0.009178019128739834, 0.02574852667748928, -0.001887654303573072, -0.016866998746991158, -0.03136207535862923, -0.023995939642190933, 0.0061538186855614185, 0.0074188439175486565, -0.011339102871716022, -0.02000320516526699, -0.0358160175383091, -0.004687839653342962, -0.023323895409703255, 0.0017130544874817133, -0.029200991615653038, -0.02004273794591427, 0.004285930655896664, -0.01140499021857977, -0.012109978124499321, 0.010930605232715607, 0.0130982780829072, 0.015233008190989494, 0.016893353313207626, 0.018461456522345543, 0.013381591066718102, -0.011635593138635159, -0.01594458520412445, -0.02429901994764805, 0.011141442693769932, 0.01289402972906828, 0.013361825607717037, 0.019673772156238556, 0.014943106099963188, -0.004328757058829069, -0.009612871333956718, -0.01107555627822876, -0.005979218985885382, 0.0003844077873509377, -0.023113058879971504, 0.015575618483126163, 0.014705914072692394, 0.019001727923750877, 0.002189086051657796, 0.02320530079305172, 0.008650925010442734, 0.03228449076414108, -0.003689655801281333, 0.003719304921105504, -0.029859857633709908, -0.002383451908826828, -0.013236640021204948, -0.037766262888908386, -0.011233684606850147, 0.020583009347319603, -0.007102587725967169, 0.015522909350693226, 0.027408871799707413, 0.01935751549899578, 0.008855174295604229, -0.004289224743843079, 0.024351729080080986, -0.021241875365376472, 0.04380148649215698, 0.036922913044691086, 0.005998984910547733, -0.0017147016478702426, -0.026249265298247337, -0.032442618161439896, -0.02578805945813656, 0.026328330859541893, 0.008262193761765957, 0.007102587725967169, 0.003389871446415782, 0.000429087202064693, -0.009178019128739834, 0.02657870016992092, -0.016129067167639732, -0.006825863383710384, -0.017842121422290802, -0.004918443039059639, -0.0344192199409008, -0.018158378079533577, -0.03381305932998657, -0.023890521377325058, 0.001966718351468444, 0.01063411496579647, -0.01298627071082592, 0.038873158395290375, 0.004523122683167458, -0.03655394911766052, -0.0031032641418278217, -0.02341613732278347, 0.03402389958500862, 0.01267001498490572, 0.004295813851058483, 0.025458626449108124, -0.011793721467256546, -0.01127321645617485, 0.016471678391098976, 0.006226294208317995, -0.0076033263467252254, 0.01087130792438984, 0.026091137900948524, -0.002922075567767024, -0.0011143090669065714, -0.007840518839657307, 0.03165197744965553, -0.020134979858994484, -0.021544955670833588, 0.04103424400091171, -0.004121213685721159, -0.008150186389684677, -0.017723524942994118, -0.01318393088877201, 0.008571861311793327, 0.017736703157424927, -0.006819274742156267, 0.004332051146775484, 0.005518012214452028, -0.006018751300871372, -0.015812810510396957, -0.011240272782742977, -0.037792619317770004, 0.005956158973276615, -0.03154655918478966, -0.004915148951113224, 0.027118971571326256, -0.014574140310287476, -0.0421411395072937, 0.012070445343852043, 0.009797354228794575, 0.01075930055230856, -0.0091648418456316, -0.0016224603168666363, 0.015878697857260704, -0.005574015900492668, -0.007464964408427477, -0.005125986412167549, 0.0040125008672475815, 0.02664458565413952, -0.011596061289310455, 9.00151462701615e-06, 0.007471553049981594, 0.0038971989415585995, 0.017367737367749214, -0.023126235231757164, -0.0006955165881663561, 0.014060224406421185, -0.015681037679314613, -0.005550955422222614, -0.01682746596634388, 0.015259362757205963, -0.009520630352199078, 0.004753726068884134, -0.01702512614428997, -0.020095447078347206, -0.0247206948697567, -0.007221183739602566, 0.014126110821962357, -0.04024360328912735, -0.010172908194363117, -0.012637071311473846, -0.0017772940918803215, 0.009869829751551151, -0.00012261104711797088, -0.004806435666978359, -0.006203233730047941, 0.04111330956220627, -0.011655359528958797, -0.0043748775497078896, -0.015074879862368107, 0.013651726767420769, -0.0022022633347660303, -0.00820948462933302, -0.0026124082505702972, -0.0022302651777863503, 0.03210000693798065, -0.011582884006202221, -0.009263671934604645, -0.029253700748085976, -0.004803141113370657, 0.004285930655896664, -0.01427106186747551, -0.013572663068771362, 0.0012007852783426642, 0.0063877166248857975, -0.0005225639906711876, -0.004259576089680195, -0.046542372554540634, 0.007926171645522118, -0.023258009925484657, 0.010001602582633495, 0.007978880777955055, -0.026486458256840706, 0.017064658924937248, 0.04514557495713234, -0.013572663068771362, -0.0004426763334777206, -0.02066207304596901, -0.005185284186154604, -0.007142119575291872, 0.00807112269103527, -0.0024147480726242065, 0.0034491694532334805, 0.007016934920102358, -0.012347170151770115, -0.02321847714483738, 0.008005235344171524, 0.009243905544281006, -0.015825988724827766, 0.003946613986045122, 0.027593355625867844, -0.0033651639241725206, 0.01160265039652586, 0.013506775721907616, -0.01479815598577261, -0.02296810783445835, -0.005040333606302738, -0.01160265039652586, -0.0035512938629835844, -0.03710739687085152, 0.01172124594449997, -0.010113609954714775, -0.015878697857260704, -0.017565397545695305, 0.01544384565204382, -0.02212475799024105, 0.009046245366334915, 0.02109692431986332, 0.018619583919644356, 0.032258134335279465, 0.0037061276379972696, -0.020174510776996613, -0.0021577898878604174, -0.010469398461282253, 0.025603575631976128, -0.014416012912988663, -0.0007889933767728508, 0.011437932960689068, -0.029912566766142845, 0.017710348591208458, -0.010785655118525028, -0.0498630627989769, -0.02365333028137684, 0.03065049834549427, 0.007405666634440422, 0.00020445469999685884, 0.037186458706855774, -0.019686950370669365, -0.015707392245531082, 0.004315579775720835, -0.03491995856165886, -0.016774756833910942, 0.010462810285389423, 0.02743522636592388, -0.012749078683555126, -0.0034887013025581837, -0.020517122000455856, 0.014060224406421185, -0.0004006735689472407, 0.019331160932779312, 0.0068851616233587265, -0.004019089508801699, 0.013888918794691563, 0.005817796569317579, -0.02087290957570076, -0.0014248001389205456, -0.006766565144062042, 0.011365457437932491, 0.01573374681174755, -0.0005604488542303443, 0.0153120718896389, 0.011846430599689484, -0.020596185699105263, -0.02259914204478264, 0.009309791959822178, -0.03043966181576252, -0.020780669525265694, 0.0043089911341667175, -0.020372170954942703, 0.008387378416955471, -3.868270505336113e-05, 0.004819612950086594, -0.014719091355800629, -0.00807112269103527, -0.019028082489967346, -0.018856776878237724, -0.013981160707771778, 0.023113058879971504, 0.015707392245531082, -0.03955838084220886, 0.008057944476604462, -0.0012650248827412724, -0.002457574475556612, -0.017539042979478836, -0.010917427949607372, -0.028199512511491776, -0.01999002881348133, -0.03262709826231003, 0.0308349821716547, -0.02022721990942955, -0.0003821429272647947, 0.0024641631171107292, 0.014086578972637653, -0.0009767705341801047, -0.005333529319614172, 0.20092812180519104, -0.009626048617064953, -0.005860622972249985, 0.027118971571326256, 0.0018925957847386599, 0.03998005762696266, 0.010495753027498722, 0.0024196894373744726, -0.008782698772847652, 0.014284239150583744, -0.023706039413809776, 0.0013177342480048537, -0.018408747389912605, 0.003146090544760227, -0.0017212904058396816, -0.01171465776860714, -0.05560838431119919, -0.024140890687704086, -0.020767491310834885, 0.004229926969856024, -0.0174863338470459, -0.02125505357980728, -0.0139416279271245, 0.0108515415340662, 0.009296614676713943, -0.001989778596907854, -0.0037324822042137384, -0.009092366322875023, 0.052920207381248474, 0.018896309658885002, -0.008169951848685741, -0.026868600398302078, -0.008393967524170876, -0.004931620322167873, 0.0010484223021194339, 0.011134854517877102, 0.005659668706357479, -0.017328204587101936, 0.02274409309029579, -0.019541999325156212, -0.012584362179040909, 0.010680235922336578, -0.016642984002828598, 0.001270790002308786, -0.019686950370669365, -0.007906405255198479, 0.006226294208317995, -0.007906405255198479, 0.02487882226705551, 0.0024081594310700893, -0.012386702001094818, -0.023258009925484657, -0.019686950370669365, 0.03449828177690506, 0.019199388101696968, -0.016313549131155014, 0.013757145032286644, 0.011266627348959446, -0.008169951848685741, 0.030966755002737045, -0.012887440621852875, 0.030097050592303276, -0.010581405833363533, -0.0011834900360554457, -0.01702512614428997, 0.013691258616745472, -0.013796677812933922, 0.021597664803266525, 0.0024691044818609953, -0.014969460666179657, 0.008960592560470104, -0.03723916783928871, -0.030123405158519745, -0.018237441778182983, -0.005251171067357063, -0.02232241816818714, 0.0425628162920475, -0.010074078105390072, 0.008387378416955471, 0.010752711445093155, 0.0035117617808282375, 0.014969460666179657, 0.005188578739762306, 0.031810104846954346, 0.008334669284522533, -0.0040783872827887535, 0.0261965561658144, 0.012327403761446476, -0.005027156323194504, -0.03170468658208847, -0.00028537181788124144, -0.01939704827964306, 0.013730790466070175, 0.02172943763434887, 0.02130776271224022, 0.0029303114861249924, 0.004411115311086178, 0.0050568049773573875, -0.0037225992418825626, -0.02234877273440361, 0.002324153669178486, -0.0029385474044829607, 0.026262443512678146, 0.011675124987959862, -0.052024148404598236, 0.008361023850739002, 0.022612320259213448, -0.010620937682688236, 0.015272540040314198, -0.017828945070505142, -0.02043805830180645, -0.0327325202524662, 0.011345691978931427, -0.0037489538080990314, 0.018000250682234764, 0.00607146043330431, 0.01236034743487835, -0.011240272782742977, 0.003758837003260851, -0.01959470845758915, -6.532049883389845e-05, -0.007952526211738586, 0.009718289598822594, 0.019304806366562843, -0.002627232577651739, -0.021400004625320435, -0.01594458520412445, 0.00040582095971331, -0.01479815598577261, -0.04061257094144821, 0.007339779753237963, -0.000602863437961787, 0.010179497301578522, -0.013546307571232319, -0.0308349821716547, -0.0005917450180277228, -0.006865395233035088, -0.008901295252144337, -0.0005583898746408522, 0.00018427689792588353, -0.0028166568372398615, 0.00978417694568634, -0.004407821223139763, 0.0033289261627942324, -0.011042612604796886, -0.0236006211489439, 0.016774756833910942, 0.0007494613528251648, 0.00559378182515502, -0.014086578972637653, 0.002133082365617156, -0.01129298284649849, -0.024391259998083115, -0.028410350903868675, 0.020503945648670197, -0.025287320837378502, -0.007320013828575611, -0.034761831164360046, -0.0036138861905783415, 0.014231530018150806, -0.035473406314849854, -0.001961776753887534, 0.029016507789492607, -0.005998984910547733, 0.0012518474832177162, 0.017723524942994118, -0.16666702926158905, 0.019937319681048393, 0.01191231794655323, -0.01656392030417919, 0.03465640917420387, -0.012492120265960693, 0.013809855096042156, 0.008090888150036335, -0.02833128534257412, 0.03307512775063515, -0.020095447078347206, 0.011154619976878166, -0.03463005647063255, -0.02191391959786415, -0.00015246597467921674, -0.001259259763173759, 0.015074879862368107, 0.00712235365062952, 0.013915273360908031, 0.005570721346884966, 0.03597414493560791, -0.008960592560470104, 0.020332640036940575, 0.007280481513589621, 0.007471553049981594, 0.012485532090067863, -0.02324483171105385, 0.03086133673787117, 0.014455544762313366, -0.017499510198831558, -0.008505974896252155, 0.003884021658450365, 0.030545080080628395, -0.01958153024315834, 0.022467369213700294, -0.0067171500995755196, -0.008644336834549904, -0.007860284298658371, -0.005919921211898327, 0.022467369213700294, 0.02083337865769863, 0.014877219684422016, 0.015233008190989494, -0.011635593138635159, 0.01382303237915039, 0.032917000353336334, 0.013012625277042389, -0.008585038594901562, -0.024114536121487617, -0.007544028572738171, 0.016761580482125282, -0.021610841155052185, -0.003422814654186368, -0.011516997590661049, 0.005382944364100695, 0.02174261584877968, 0.01541749108582735, -0.0011447815923020244, 0.01657709665596485, -0.034208379685878754, -0.02983350306749344, -0.012992859818041325, 0.008565272204577923, -0.020899266004562378, 0.001541749108582735, -0.022638674825429916, -0.016102712601423264, 0.026881778612732887, 0.019449757412075996, -0.016537563875317574, -0.0015804575523361564, -0.017196431756019592, 0.0025596986524760723, 0.002866071881726384, -0.0005069159087724984, 0.012386702001094818, -0.016919707879424095, -0.01521983090788126, 0.032020941376686096, -0.025590399280190468, 0.0023752159904688597, 0.04975764453411102, -0.04319532960653305, -0.012887440621852875, -0.0017756469314917922, -0.011029435321688652, -0.010831775143742561, 0.022638674825429916, 0.001228787237778306, -0.005890272092074156, 0.00019580707885324955, -0.0007387547520920634, 0.00011458111112006009, -0.02404865063726902, -0.009204373694956303, 0.02258596569299698, -0.01595776155591011, 0.017604930326342583, 0.01701194979250431, -0.020596185699105263, 0.006305358372628689, 0.007636270020157099, -0.023060349747538567, 0.03260074555873871, 0.035447049885988235, 0.02618337981402874, 0.004236515611410141, 0.00851915217936039, 0.015246185474097729, 0.016985595226287842, 0.0040750931948423386, 0.010344213806092739, 0.004229926969856024, 0.0019090675050392747, 0.007491318974643946, 0.004167334642261267, 0.0289374440908432, -0.01265024859458208, 0.019225742667913437, 0.013994337990880013, 0.04084976017475128, -0.030755916610360146, -0.01641896925866604, 0.013981160707771778, -0.005620136391371489, -0.006727033294737339, -0.09825026243925095, -0.020134979858994484, -0.007109176367521286, 0.006150524597615004, -0.006157113239169121, 0.0236665066331625, -0.008084299974143505, 0.02004273794591427, -0.010884485207498074, -0.0003312866319902241, -0.037370942533016205, 0.0011472523910924792, -0.001745997928082943, -0.02022721990942955, 0.05297291651368141, 0.005317057482898235, -0.0022846218198537827, -0.005666257347911596, -0.0072343610227108, 0.00024728107382543385, -0.0024872233625501394, 0.02382463589310646, 0.00033046305179595947, -0.01788165420293808, -0.007906405255198479, -0.021584486588835716, -0.031388428062200546, 0.031151236966252327, 0.007280481513589621, 0.0009290026500821114, -0.00019796898413915187, -0.005326940678060055, -0.0036171805113554, -0.00871681235730648, 0.002841364359483123, 0.008150186389684677, -0.0009125309879891574, -0.02168990485370159, 0.03212635964155197, -0.014297416433691978, -0.007339779753237963, 0.013796677812933922, 0.020978329703211784, -0.005386238917708397, 0.01854052022099495, -0.0006090403185226023, -0.005834268406033516, 0.012828143313527107, 0.019199388101696968, -0.006977402605116367, -0.022216999903321266, -0.027198035269975662, -0.02917463704943657, -0.0164321456104517, 0.029121926054358482, -0.00584744568914175, 0.013809855096042156, 0.00872340053319931, -0.028041385114192963, -0.012492120265960693, 0.008018412627279758, -0.005086454097181559, 0.020951975136995316, 0.012953327968716621, 0.042720943689346313, 0.007688979152590036, -0.03752906993031502, 0.0028001852333545685, 0.007807575166225433, -0.011925495229661465, -0.019910965114831924, 0.004931620322167873, 0.000595862977206707, 0.004081681836396456, -0.011787132360041142, 0.005086454097181559, 0.002922075567767024, 0.0003181092906743288, 0.0023290952667593956, -0.014350125566124916, -0.004061915911734104, -0.006582082714885473, -0.008051356300711632, -0.001762469531968236, 0.03194187954068184, 0.014336948283016682, 0.006598554085940123, -0.0040454440750181675, 0.01340794563293457, -0.031625621020793915, 0.005214933305978775, 0.013981160707771778, 0.000807112199254334, -0.023086704313755035, -0.026038428768515587, 0.02087290957570076, 0.03212635964155197, -0.021426359191536903, 0.02004273794591427, 0.032442618161439896, -0.009329558350145817, -0.036949269473552704, -0.0809088796377182, 0.008321492001414299, 0.004888793919235468, -0.00852574035525322, -0.008156774565577507, 0.012841320596635342, 0.01107555627822876, 0.02935911901295185, -0.00981053151190281, 0.014284239150583744, -0.03217906877398491, -0.014376480132341385, -0.0055871931836009026, -0.023271186277270317, -0.017064658924937248, -0.026025250554084778, 0.017288673669099808, -0.002406512154266238, 0.008888117037713528, -0.0008548800833523273, 0.005877094808965921, 0.005844151135534048, 0.00989618431776762, 0.015918228775262833, -0.02851576916873455, -0.008914472535252571, -0.012531653046607971, 0.03824064880609512, -0.0035842370707541704, 0.007320013828575611, 0.02299446240067482, -0.02551133558154106, 0.012399879284203053, 0.01576010137796402, 0.0017328205285593867, -0.02896379865705967, -0.04851897433400154, 0.01599729433655739, 0.013915273360908031, 0.005086454097181559, -0.029754439368844032, -0.010673647746443748, 0.03233719989657402, -0.030097050592303276, 0.0009446507319808006, 0.01160265039652586, 0.0049085598438978195, 0.01541749108582735, 0.03312784060835838, -0.006147230044007301, 0.022467369213700294, 0.009342735633254051, 0.020279930904507637, -0.023574264720082283, -0.02875296026468277, 0.020543476566672325, -0.01786847598850727, 0.005636608228087425, 0.016642984002828598, -0.002332389587536454, 0.015667859464883804, 0.01660345122218132, 0.0021297880448400974, 0.0003543469647411257, 0.028383996337652206, -0.025695817545056343, 0.0028117154724895954, -0.0025547572877258062, -0.006008868105709553, -0.05581922084093094, -0.024364905431866646, 0.008321492001414299, 0.025603575631976128, 0.002281327499076724, 0.017512688413262367, -0.024562565609812737, -0.014231530018150806, -0.007517674006521702, -0.017525864765048027, 0.012696369551122189, 0.000834702281281352, 0.0068851616233587265, -0.019528821110725403, 0.019897786900401115, 0.031177591532468796, 0.005794736556708813, -3.729290983756073e-05, -0.007148708216845989, -0.004934914875775576, -0.00048385554691776633, 0.007517674006521702, -0.002114963484928012, 0.013994337990880013, 0.02767241932451725, 0.014864042401313782, 0.0034656410571187735, -0.012584362179040909, -0.024575743824243546, 0.009303203783929348, -0.0036040032282471657, -0.01118097547441721, 0.008815642446279526, -0.006460192147642374, -0.03001798689365387, -0.011958437971770763, -0.016735224053263664, -0.03001798689365387, -0.036527592688798904, 0.031124882400035858, 0.0031691507901996374, 0.01999002881348133, 0.016880175098776817, -0.0036369464360177517, 0.00829513743519783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.011355789378285408, -0.0015257145278155804, -0.008058328181505203, -0.03484060987830162, -0.015349806286394596, 0.012199325487017632, -0.00265362486243248, -0.011061829514801502, 0.005655528046190739, 0.0005567659391090274, 0.014288995414972305, -0.007866615429520607, -0.03018837794661522, -0.0008091878262348473, -0.00833311676979065, -0.01442958414554596, 0.02804119512438774, -0.013017300516366959, -0.009368366561830044, -0.03243780881166458, -0.04411951079964638, 0.03284679725766182, -0.013177060522139072, -0.008620685897767544, 0.005224174354225397, -0.034278251230716705, 0.01609109528362751, -0.022200344130396843, -0.00667799636721611, 0.006543797440826893, -0.018404429778456688, -0.01285753957927227, -0.030904104933142662, -0.016896288841962814, -0.027069849893450737, -0.010742307640612125, 0.013841665349900723, -0.0028693017084151506, -0.0033677550964057446, 0.008352288044989109, 0.017369180917739868, -0.004447737243026495, -0.0027175291907042265, -0.029881637543439865, -0.01786763407289982, 0.029344841837882996, -0.004994118586182594, 0.001961861038580537, -0.005265711806714535, -0.015413709916174412, 0.002044936642050743, 0.01924796588718891, -0.01055698562413454, -0.02002759836614132, -0.03417600318789482, -0.030418433248996735, -0.0023612629156559706, -0.005393520463258028, 0.011950098909437656, -0.04938521981239319, 0.017471427097916603, -0.010748698376119137, -0.02397688291966915, 0.012761683203279972, -0.024999350309371948, -0.032821234315633774, -0.03151758760213852, -0.0007341002929024398, -0.04094985872507095, -0.0047065494582057, 0.012825586833059788, 0.04575545713305473, 0.003604200901463628, 0.0011774362064898014, 0.021625205874443054, -0.001848431071266532, 0.01121519971638918, 0.027095410972833633, -0.012512456625699997, 0.008901865221560001, 0.005275297444313765, -0.023670142516493797, 0.01455739326775074, 0.0333324670791626, 0.0025274138897657394, -0.0041122399270534515, -0.006556578446179628, 0.016615111380815506, -0.03118528425693512, 0.023158907890319824, 0.019171280786395073, 0.012934224680066109, 0.015183654613792896, -0.010275807231664658, -0.007189230527728796, 0.0043295142240822315, -0.00994989462196827, 0.016972973942756653, 0.0028133855666965246, 0.007668512407690287, 0.013726637698709965, -0.005457424558699131, -0.007406504824757576, -0.01742030493915081, -0.03859817981719971, -0.023938540369272232, 0.0004601107502821833, -0.013662733137607574, 0.04322484880685806, 0.020794449374079704, -0.011477206833660603, 0.033000167459249496, 0.014582954347133636, -0.013764980249106884, 0.022622112184762955, -0.009834866970777512, 0.013509362936019897, 0.0029332060366868973, 0.012071517296135426, -0.01858336292207241, 0.008754884824156761, 0.025433899834752083, -0.028347935527563095, -0.020922258496284485, 0.026635300368070602, 0.001397905987687409, -0.021535739302635193, -0.01505584642291069, -0.03190101310610771, -0.020909477025270462, 0.00045212270924821496, -0.01568210870027542, 0.0026791866403073072, 0.016730139032006264, 0.008428973145782948, 0.012684998102486134, -0.030418433248996735, 0.02811788022518158, -0.019887009635567665, -0.03356252238154411, 0.023900197818875313, 0.009662325493991375, 0.0033230220433324575, 0.004195315297693014, -0.017151907086372375, 0.01812325045466423, -0.006991127505898476, 0.02919147163629532, 0.0111576858907938, 0.0023724460043013096, 0.03287235647439957, -0.010243854485452175, 0.024973789229989052, 0.0002707943494897336, 0.03918609768152237, 0.021433493122458458, -0.02375960722565651, 0.01708800159394741, 0.02318446896970272, 0.006927222944796085, -0.03184988722205162, 0.024973789229989052, 0.001901152078062296, -0.0036649098619818687, 0.021637985482811928, 0.008659028448164463, 0.004581936169415712, 0.010256635956466198, -0.015247559174895287, 0.01549039501696825, 0.00721479207277298, 0.02442421205341816, -0.01812325045466423, 0.01712634414434433, 0.0061028581112623215, 0.006022977642714977, -0.0011838265927508473, 0.010665622539818287, -0.0189923495054245, 0.015068626962602139, -0.007406504824757576, -0.0030242695938795805, 0.015004723332822323, 0.016704576089978218, -0.011017096228897572, 0.01445514615625143, 0.005189026705920696, -0.015375367365777493, 0.008154185488820076, -0.00887630321085453, -0.0015552701661363244, -0.000873092096298933, 0.005435058381408453, -0.01333043072372675, -0.6408831477165222, -0.005157074891030788, -0.03310241177678108, -0.017982661724090576, 0.011202419176697731, 0.007988033816218376, 0.024028006941080093, -0.0008011998143047094, -0.014301775954663754, -0.01646174117922783, 0.0067163389176130295, 0.016653453931212425, 0.025037692859768867, 0.0062785944901406765, -0.019771981984376907, -0.03450830653309822, 0.005224174354225397, -0.019669733941555023, 0.015937725082039833, -0.008013595826923847, -0.012039564549922943, 0.0031121380161494017, -0.011144905351102352, 0.001445834175683558, -0.0048790909349918365, 0.012391038239002228, 0.0084161926060915, -0.02384907379746437, -0.0028149832505732775, -0.009355585090816021, -0.03969733417034149, 0.0021711476147174835, -0.005975049454718828, -0.011547502130270004, 0.04025969281792641, 0.013752198778092861, -0.029063662514090538, 0.03530072048306465, 0.015515957027673721, 0.01379054132848978, -0.02401522547006607, -0.009739010594785213, 0.01588660106062889, -0.02251986600458622, -0.01055698562413454, 0.0299838837236166, 0.022711578756570816, 0.010346101596951485, -0.011106562800705433, -0.016308370977640152, 0.012052346020936966, -0.037013355642557144, -0.01055059488862753, 0.02259655110538006, 0.01051225233823061, -0.010218293406069279, 0.023325059562921524, -0.006284985225647688, -0.008390630595386028, 0.009764572605490685, 0.00956007931381464, 0.0023772388231009245, -0.004581936169415712, -0.010646451264619827, -0.014710763469338417, 0.006508650258183479, -0.040080759674310684, -0.010390834882855415, 0.005409496370702982, 0.01770148240029812, 0.018174374476075172, 0.02712097205221653, -0.025101598352193832, 0.016487302258610725, 0.01003936119377613, 0.01633393205702305, -0.023452866822481155, -0.006920832674950361, 0.016730139032006264, -0.012538017705082893, -0.0050739990547299385, -0.0038757941219955683, -0.024206938222050667, -0.0067163389176130295, 0.025906791910529137, 0.021497396752238274, -0.004156972747296095, -0.011994832195341587, 0.0012469320790842175, 0.016896288841962814, 0.012116249650716782, -0.0022094901651144028, -0.004786429926753044, -0.03655324503779411, -0.03417600318789482, 0.03072517365217209, -0.005524524487555027, 0.022174783051013947, 0.00506121851503849, -0.019554706290364265, -0.009745401330292225, -0.011688090860843658, -0.03164539486169815, -0.0166662335395813, -0.0014697982696816325, -0.009266119450330734, -0.01816159300506115, 0.01638505607843399, 0.02939596399664879, -0.03885379806160927, 0.02161242440342903, -0.01047390978783369, -0.00839702133089304, -0.00442537060007453, -0.019874228164553642, -0.025868449360132217, 0.03570970520377159, 0.002391617279499769, 0.013701075688004494, -0.01451905071735382, -0.0017941123805940151, 0.006003806367516518, -0.0026248679496347904, -0.03310241177678108, -0.018838979303836823, -0.010224683210253716, 0.004684183280915022, -0.018353307619690895, -0.020794449374079704, -0.00035207258770242333, 0.01655120588839054, -0.0016375469276681542, 0.013560486026108265, -0.01175838615745306, 0.014928038232028484, 0.010371663607656956, 0.014046158641576767, -0.00026859765057452023, -0.0013164279516786337, -0.01503028441220522, -0.02397688291966915, -0.004863115027546883, 0.006515040528029203, -0.021574081853032112, 0.013030081056058407, -0.029344841837882996, -0.019925352185964584, -0.009119139984250069, -0.012761683203279972, 0.0073553817346692085, -0.01903069205582142, -0.016781261190772057, -0.009189434349536896, -0.007010298781096935, 0.005351982545107603, 0.0030753931496292353, -0.008160575293004513, -0.017612017691135406, -0.0031728469766676426, -0.023452866822481155, 0.0027622622437775135, 0.02865467593073845, -0.03064848855137825, -0.022992756217718124, -0.007540704216808081, 0.004610693082213402, -0.008435363881289959, 0.018506677821278572, 0.0014761886559426785, -0.019669733941555023, -0.00253540207631886, -0.003153675701469183, 0.005093170329928398, 0.018519457429647446, 0.002358067547902465, 0.01791875809431076, -0.02159964293241501, -0.018340526148676872, -0.032744549214839935, -0.009630373679101467, 0.016193341463804245, -0.027223220095038414, -0.019682515412569046, -0.0027303099632263184, 0.01061449944972992, 0.0015384953003376722, 0.04317372664809227, -0.017279714345932007, -0.002051327144727111, 0.033818140625953674, -0.0019283114233985543, -0.014621296897530556, 0.0203215591609478, -0.016972973942756653, 0.007118935696780682, -0.007400114554911852, -0.015541519038379192, 0.0030114888213574886, -0.0062306663021445274, 0.011937317438423634, 0.0010767870116978884, 0.013228184543550014, 0.031670957803726196, -0.002447533654049039, -0.005850436165928841, -0.06012113764882088, 0.03006056882441044, -0.025318872183561325, 0.025165501981973648, 0.002652027178555727, 0.007802711334079504, -0.004668206907808781, -0.028424620628356934, -0.006709948647767305, 0.011720043607056141, 0.012947005219757557, -0.000448128703283146, -0.0199892558157444, -0.006000610999763012, 0.013943912461400032, 0.015835478901863098, -0.0055117434822022915, 0.016896288841962814, 0.02185526117682457, -0.02770889177918434, 0.00224463758058846, 0.011087391525506973, 0.021842479705810547, -0.019145719707012177, -0.028705798089504242, -0.023938540369272232, 0.010237464681267738, 0.004914238583296537, -0.0018388454336673021, 0.0063265226781368256, 0.03136421740055084, -0.002706345869228244, -0.02351677231490612, 0.01625724695622921, -0.01011604629456997, 0.0021296099293977022, 0.009770963340997696, 0.017279714345932007, 0.019069034606218338, 0.008710152469575405, 0.0008443351835012436, 0.04831162840127945, 0.023989664390683174, -0.01062089018523693, -0.0009218191262334585, -0.003792718518525362, -0.024360308423638344, -0.010703965090215206, 0.01005853246897459, 0.012103469111025333, -0.010378053411841393, 0.011413303203880787, 0.008754884824156761, 0.017675921320915222, 0.01895400695502758, -0.0010336516425013542, -0.020002037286758423, 0.0028565209358930588, 0.00829477421939373, 0.022162001579999924, 0.0017669531516730785, -0.0012589141260832548, -0.01511975098401308, -0.0024251670110970736, -0.013509362936019897, -0.014110063202679157, -0.007348990999162197, 0.003348583821207285, 0.008128623478114605, 0.010263025760650635, -0.037933576852083206, 0.0004157771763857454, -0.0017397938063368201, 0.006729119922965765, 0.03284679725766182, 0.01509418897330761, -0.03335803002119064, 0.008639857172966003, 0.020411023870110512, 0.01221210602670908, -0.007655731867998838, -0.029830513522028923, 0.00749597093090415, -0.029830513522028923, 0.006495869252830744, -0.000901050225365907, 0.034150443971157074, -0.027299905195832253, -0.010716746561229229, -0.01845555379986763, -0.021305684000253677, 0.007809102069586515, -0.03031618706882, 0.012569970451295376, -0.007323429454118013, 0.010946801863610744, -0.0027718478813767433, 0.0002019974053837359, -0.011368569917976856, 0.022455960512161255, -0.0036776908673346043, 0.005658723413944244, -0.0047257207334041595, -0.009847648441791534, 0.01708800159394741, -0.012474114075303078, -0.008454535156488419, -0.008352288044989109, 0.0015297085046768188, -0.0033070461358875036, 0.019874228164553642, -0.00420809630304575, 0.003393316874280572, 0.021740233525633812, 0.0021312073804438114, 0.0028213735204190016, -0.03343471512198448, -0.00995628535747528, 0.00885074120014906, 0.08869913220405579, -0.014250652864575386, 0.009611202403903008, 0.029804952442646027, -0.004732111468911171, -0.004182534758001566, -0.022162001579999924, 0.018634485080838203, 0.01295978669077158, 0.005537305027246475, 0.02396410144865513, -0.016896288841962814, 0.019503584131598473, 0.01720302924513817, 0.0039045510347932577, -0.013509362936019897, 0.00560759985819459, 0.006908051669597626, 0.02857799082994461, 0.013982255011796951, -0.007994424551725388, -0.014902476221323013, 0.008869912475347519, 0.027223220095038414, 0.023069441318511963, 0.0008698969031684101, 0.008569562807679176, -0.007035860326141119, -0.008109452202916145, -0.03939059376716614, 0.010914849117398262, -0.011841461062431335, -0.018851760774850845, -0.011125734075903893, 0.006467112340033054, 0.029012538492679596, 0.0109915342181921, 0.028347935527563095, -0.014723544009029865, -0.020398244261741638, 0.0256639551371336, -0.008575953543186188, 0.0032671059016138315, 0.004585131537169218, 0.017573675140738487, -0.012435771524906158, -0.0005971055361442268, 0.030009446665644646, -0.010237464681267738, -0.018468335270881653, 0.04434956610202789, -0.029804952442646027, -0.006153981201350689, -0.024564802646636963, -0.01005853246897459, 0.00028377489070408046, 0.015170874074101448, 0.028705798089504242, -0.02990719862282276, 0.02139515057206154, -0.01402059756219387, -0.017842072993516922, -0.0041122399270534515, -0.00893381703644991, -0.03351140022277832, -0.0289869774132967, -0.004671402275562286, -0.00789856817573309, -0.03172207996249199, -0.029753828421235085, -0.00019570683070924133, 0.0009361975826323032, -0.01511975098401308, -0.0094130989164114, 0.027529960498213768, 0.002840544795617461, 0.023031098768115044, -0.021625205874443054, -0.017266934737563133, 0.0409754179418087, 0.0011878206860274076, -0.007106155157089233, -0.028475742787122726, -0.04258580505847931, -0.00319840875454247, 0.024436993524432182, 0.009259728714823723, -0.04148665443062782, -0.03553077578544617, -0.009445051662623882, 0.007649341132491827, 0.02218756265938282, -0.013189841993153095, -0.002358067547902465, -0.023503990843892097, -0.0035307109355926514, 0.006684386637061834, 0.00891464576125145, -0.01932465098798275, -0.018021004274487495, 0.004134606570005417, 0.004748087376356125, 0.004345490597188473, -0.004946190398186445, -0.006620482541620731, 0.005102755967527628, 0.012250448577105999, -0.0032175800297409296, -0.002287772949784994, 0.0199892558157444, 0.027504397556185722, -0.036399874836206436, 0.016972973942756653, -0.00639681750908494, -0.03392038866877556, 0.02135680802166462, -0.025408338755369186, 0.02857799082994461, 0.023248374462127686, 0.013649952597916126, -0.03243780881166458, -0.017522551119327545, -0.0010224683210253716, 0.047544777393341064, -0.015362586826086044, 0.0004780838207807392, -0.027223220095038414, 0.002591318218037486, -0.007745197508484125, -0.001889968873001635, 0.001445834175683558, 0.017318056896328926, -0.011087391525506973, -0.046675678342580795, -0.011208808980882168, -0.020104283466935158, -0.0013755394611507654, -0.0014314557192847133, 0.00048727006651461124, -0.021625205874443054, -0.013662733137607574, 0.020909477025270462, -0.004585131537169218, -0.010672013275325298, -0.012435771524906158, -0.021471835672855377, -0.01679404266178608, -0.03269342705607414, 0.0069336132146418095, 0.011745604686439037, -0.022532645612955093, -0.0042815860360860825, 0.020628299564123154, -0.0024251670110970736, 0.013803322799503803, -0.009234167635440826, -0.009087187238037586, -0.006812195293605328, 0.008000814355909824, 0.01919684372842312, 0.03310241177678108, 0.04222794249653816, 0.015733230859041214, 0.010723136365413666, -0.03177320212125778, -0.0025242187548428774, 0.008952988311648369, 0.020129846408963203, -0.04751921445131302, 0.016806824132800102, 0.015861039981245995, 0.016576768830418587, -0.02671198546886444, 0.001792514813132584, -0.02074332721531391, -0.01495359931141138, 0.007943300530314445, -0.010505862534046173, -0.01495359931141138, -0.02811788022518158, -0.024296404793858528, 0.0061667622067034245, -0.014340118505060673, 0.02517828345298767, -0.010199122130870819, -0.001523318118415773, 0.019835885614156723, 0.001323617179878056, 0.0073298197239637375, -0.015311463735997677, 0.008090280927717686, -0.03857261687517166, 0.035888638347387314, 0.019516363739967346, -0.0005719432374462485, -0.006965565495193005, -0.0031169308349490166, 0.006441550329327583, -0.004741697106510401, -0.0031345044262707233, 0.002845337614417076, -0.008115842007100582, -0.009163872338831425, -0.001396308303810656, -0.014199528843164444, 0.03790801391005516, -0.018110470846295357, -0.005185831803828478, -0.002890070667490363, 0.006243447307497263, -0.024603145197033882, -0.008684590458869934, -0.013522143475711346, -1.8859249394154176e-05, 0.006109248381108046, 0.02691647969186306, -0.014646858908236027, 0.010735917836427689, -0.011509159579873085, -0.007924129255115986, 0.02396410144865513, -0.025523366406559944, 0.02342730574309826, 0.005294468719512224, 0.04309704154729843, 0.020807230845093727, -0.0013915154850110412, -0.008007205091416836, 0.03277011215686798, 0.0026025015395134687, -0.0011622589081525803, 0.018685609102249146, 0.02102450467646122, 0.0033102412708103657, 0.0017589650815352798, 0.007451238110661507, 0.005118732340633869, 0.006176347844302654, -0.0023644580505788326, 0.05168577656149864, 0.018890103325247765, 0.009425880387425423, -0.032156627625226974, -0.006157176569104195, 0.0013955095782876015, -0.004930214490741491, -0.019107377156615257, -0.00827560294419527, -0.027964510023593903, -0.013867226429283619, -0.012263230048120022, 0.00951534602791071, -0.03057180345058441, 0.021804137155413628, -0.0032639107666909695, -0.003629762679338455, 0.0403108149766922, -0.01775260642170906, 0.007067812606692314, 0.013100375421345234, -0.010371663607656956, 0.0071125454269349575, 0.020308777689933777, -0.008927426300942898, 0.033204659819602966, 0.019797543063759804, -0.011125734075903893, -0.0005300060729496181, 0.015068626962602139, 0.022992756217718124, -0.0023037490900605917, 0.0028325568418949842, -0.006246642675250769, 0.010294978506863117, 0.03057180345058441, -0.006607701536267996, -0.00727869663387537, 0.001069597783498466, -0.015311463735997677, -0.016065534204244614, 0.011438864283263683, -0.006831366568803787, 0.009847648441791534, -0.0015600629849359393, -0.006946394219994545, 0.012659436091780663, 5.3519826906267554e-05, -0.01503028441220522, 0.00881239864975214, -0.031159723177552223, -0.005415887106209993, -0.028884731233119965, 0.006339303683489561, -0.004102654289454222, -0.0005355976754799485, 0.001845235819928348, 0.011164076626300812, 0.03315353766083717, -0.014467926695942879, 0.009726230055093765, 0.00991155207157135, 0.012742511928081512, -0.0012373464414849877, -0.016947412863373756, 0.008160575293004513, -0.007821883074939251, 0.028169002383947372, 0.0078346636146307, -0.015861039981245995, 0.0035754439886659384, 0.002003398956730962, 0.0019602635875344276, 0.012480503879487514, -0.02342730574309826, -0.005435058381408453, -0.007956082001328468, -0.0031680541578680277, -0.0050260708667337894, -0.015733230859041214, 0.02475651539862156, -0.013215403072535992, 0.011017096228897572, 0.0047257207334041595, -0.03072517365217209, 0.00755987549200654, 0.006575749721378088, 0.009068015962839127, 0.020538832992315292, -0.05644025281071663, -0.020768888294696808, 0.004029164090752602, -0.004578741267323494, -0.009508955292403698, 0.01561820413917303, -0.01742030493915081, 0.01272973045706749, -0.029804952442646027, 0.03243780881166458, -0.005994220729917288, -0.0063265226781368256, 0.0051155369728803635, 0.02625187486410141, 0.011049048975110054, 0.018685609102249146, -0.02658417634665966, -0.0075726560316979885, -0.01225683931261301, -0.023120565339922905, -0.02939596399664879, -0.015694888308644295, -0.03343471512198448, 0.03376701846718788, 0.021753013134002686, -0.005895168986171484, -0.008761275559663773, 0.020832791924476624, -0.03936503082513809, -0.009783743880689144, -0.01958026923239231, 0.009240557439625263, 0.005220978986471891, 0.02891029231250286, 0.024411432445049286, -0.017407523468136787, -0.0042592198587954044, 0.026737546548247337, -0.01779094897210598, 0.011873413808643818, 0.017139125615358353, -0.016244465485215187, 0.018672827631235123, -0.0025497805327177048, -0.023503990843892097, -0.015221997164189816, 0.04570433497428894, 0.024909885600209236, 0.021957507357001305, 0.02405356802046299, -0.0035051493905484676, -0.0014026988064870238, 0.006211495026946068, -0.004994118586182594, 0.0032607153989374638, 0.021995849907398224, 0.029012538492679596, -0.03724341094493866, 0.0016119852662086487, -0.01109378132969141, -0.0021807332523167133, -0.0007169260643422604, -0.002287772949784994, -0.021267341449856758, 0.007630169857293367, 0.0016079911729320884, -0.009400318376719952, 0.015976067632436752, -0.008614296093583107, 0.003591420128941536, 0.0169985368847847, 0.026481930166482925, 0.010205511935055256, -2.481283081579022e-05, -0.0024091911036521196, 0.018097689375281334, -0.0121545922011137, 0.008007205091416836, -0.034073758870363235, -0.01720302924513817, -0.0030178793240338564, -0.028884731233119965, 0.02567673660814762, -0.0033773407340049744, 0.014135625213384628, -0.0006242648232728243, 0.002252625534310937, -0.0024794857017695904, -2.631058669066988e-05, -0.01612943783402443, 0.020551614463329315, 0.015733230859041214, -0.031543146818876266, 0.0026680033188313246, 0.0010919641936197877, 0.00026480332599021494, -0.03578639030456543, -0.01762479729950428, -0.022455960512161255, -0.014314556494355202, -0.008786837570369244, 0.010985144414007664, -0.036476559937000275, -0.031031914055347443, -0.007131716702133417, -0.005182636436074972, 0.006793024018406868, -0.005195417441427708, 0.1858847439289093, 0.0024571192916482687, 0.0012453345116227865, 0.0018755904166027904, -0.01269138790667057, 0.03417600318789482, -0.0016343517927452922, 0.02355511486530304, -0.013368773274123669, 0.019733639433979988, -0.02078166976571083, 0.016065534204244614, 0.0075982180424034595, 0.012199325487017632, 0.013266527093946934, -0.010045751929283142, -0.024909885600209236, -0.03312797471880913, -0.022660454735159874, -0.00719562079757452, 0.014110063202679157, 0.0019107377156615257, 0.013240965083241463, -0.007374553009867668, -0.0018005028832703829, -0.011100172065198421, -0.009055235423147678, 0.0060197822749614716, 0.05245262756943703, 0.008352288044989109, 0.010307759046554565, -0.006128419656306505, 0.013279307633638382, -0.044681865721940994, -0.014800229109823704, -0.012224887497723103, -0.003409292781725526, -0.013637171126902103, 0.019771981984376907, 0.036681052297353745, -0.015247559174895287, -0.025932352989912033, -0.006476697977632284, 0.008115842007100582, 0.0034029025118798018, 0.01333043072372675, -0.015068626962602139, 0.0031233213376253843, -0.026136847212910652, 0.0026600153651088476, -0.02102450467646122, -0.020385462790727615, 0.026302998885512352, 0.02297997660934925, 0.013432677835226059, -0.016870727762579918, -0.0032095920760184526, 0.011835071258246899, -0.005649137776345015, -0.008128623478114605, -0.014199528843164444, 0.019669733941555023, -0.0042176819406449795, 0.009668716229498386, 0.007866615429520607, 0.023043880239129066, -0.028399057686328888, 0.025101598352193832, 0.004680987913161516, -0.016653453931212425, 0.013036471791565418, -0.013637171126902103, -0.0017829291755333543, -0.01991257071495056, 0.011828680522739887, -0.02571507915854454, 0.05102116987109184, 0.002639246406033635, 0.027683330699801445, 0.01675570011138916, -0.026111286133527756, -0.009266119450330734, 0.0030114888213574886, 0.01559264212846756, 0.002912437077611685, -0.0006941601750440896, 0.0023293106351047754, -0.0004002004861831665, -0.019976474344730377, -0.017484208568930626, 0.0030642098281532526, 0.01341989729553461, 0.0017397938063368201, 0.025446681305766106, 0.01858336292207241, 0.02338896319270134, 0.014774667099118233, 0.04483523592352867, -0.017675921320915222, 0.01866004802286625, -0.005722627509385347, 0.005192222073674202, 0.009745401330292225, 0.0018244669772684574, -0.031696517020463943, 0.02094781957566738, 0.007227573078125715, -0.00949617475271225, -0.020679421722888947, -0.01869839057326317, -0.006882490124553442, -0.01936299353837967, -0.02778557687997818, -0.01612943783402443, 0.027606645599007607, 0.0027430907357484102, -0.0008211698732338846, -0.008927426300942898, 0.008544000796973705, -0.01272973045706749, 0.012953395955264568, -0.019963694736361504, 0.01825105957686901, 0.028884731233119965, -0.014672420918941498, -0.012972567230463028, -0.0320032574236393, 0.011042658239603043, 0.005377544555813074, -0.04271361604332924, 0.0299838837236166, -0.015439271926879883, 0.014365680515766144, 0.027887824922800064, -0.031083038076758385, 0.008256431668996811, 0.002661612816154957, -0.006824976298958063, 0.009176653809845448, 0.0033549743238836527, -0.005428667645901442, 0.011304665356874466, 0.015771573409438133, -0.005962268449366093, -0.007348990999162197, -0.014710763469338417, 0.028143441304564476, 0.008703761734068394, 0.0010376456193625927, -0.005112341605126858, -0.010358882136642933, -0.02990719862282276, -0.005550086032599211, -0.022877728566527367, 0.04309704154729843, 0.00952173676341772, 0.009317242540419102, -0.02505047433078289, -0.01974641904234886, 0.008345898240804672, -0.011860632337629795, -0.007956082001328468, 0.03363920748233795, 0.007700464688241482, -0.01788041554391384, 0.00829477421939373, -0.15889157354831696, 0.03862374275922775, 0.01684516668319702, 0.010205511935055256, 0.02554892748594284, 0.009029673412442207, 0.028271250426769257, 0.004933409858494997, -0.009483394213020802, 0.021586863324046135, 0.0030226721428334713, 0.024411432445049286, -0.03011169284582138, -0.007272305898368359, -0.009866819716989994, -0.015388148836791515, -0.01708800159394741, 0.002695162547752261, 0.00877405609935522, 0.018148813396692276, 0.0019347018096596003, -0.00033869262551888824, 0.02244318090379238, -0.00781549233943224, -0.0021328050643205643, 0.009138311259448528, -0.026200750842690468, 0.007745197508484125, -0.010314149782061577, -0.0063680605962872505, -0.014442365616559982, 0.0053583732806146145, 0.020666642114520073, -0.011841461062431335, -0.012058735825121403, 0.017471427097916603, -0.0198231041431427, 0.0030737954657524824, -0.029804952442646027, 0.02562561258673668, 0.0149919418618083, 0.012071517296135426, 0.016244465485215187, -0.011387741193175316, -0.02338896319270134, 0.011751995421946049, 0.014979161322116852, -0.015950506553053856, 0.0008826777338981628, 0.004006797913461924, 0.011432474479079247, -0.011636967770755291, 0.01638505607843399, 0.005428667645901442, 0.0028756922110915184, 0.012934224680066109, -0.0017861244268715382, 0.015132531523704529, 0.0178292915225029, 0.004323123954236507, -0.018072128295898438, -0.020270435139536858, 0.011004315689206123, -0.002806995064020157, -0.0018532238900661469, -0.01965695433318615, 0.021676328033208847, 0.022238686680793762, 0.0004800808383151889, -0.0014682005858048797, -0.004597912542521954, -0.011898974888026714, -0.0014610113576054573, 0.009355585090816021, -0.00179890519939363, -0.006882490124553442, 0.010250245220959187, -0.004505251068621874, -0.017905976623296738, 0.028552427887916565, 0.0095792505890131, 0.028271250426769257, -0.03044399432837963, -0.010537814348936081, 0.005137903615832329, -0.00837785005569458, -0.006588530261069536, 0.0002687973319552839, -0.01561820413917303, 0.01932465098798275, -0.011042658239603043, -0.04005519673228264, 0.018647266551852226, -0.003441245062276721, 0.0349939800798893, 0.003450830699875951, -0.008147794753313065, 0.012026784010231495, -0.0021168289240449667, -0.0029156324453651905, -0.022379275411367416, -0.01165613904595375, -0.020334338769316673, 0.016985755413770676, 0.025855667889118195, 0.02421971969306469, 0.025242187082767487, 0.004773648921400309, 0.023900197818875313, 0.020602736622095108, 0.00648947898298502, -0.02451367862522602, 0.018199937418103218, 0.03243780881166458, -0.026149628683924675, 0.030622927471995354, 0.028015632182359695, -0.016359493136405945, 0.010231073945760727, -0.006112443748861551, 0.03305128961801529, 0.00011033471673727036, 0.006569358985871077, 0.0026696010027080774, -0.009905162267386913, -0.01742030493915081, -0.09636764228343964, -0.03491729497909546, -0.0015616606688126922, 0.02451367862522602, -0.012333524413406849, 0.031875450164079666, -0.001097555854357779, 0.00937475636601448, -0.013841665349900723, 0.02467983029782772, -0.019631391391158104, -0.005949487444013357, 0.023452866822481155, 0.002150378655642271, 0.04371052235364914, 0.015324244275689125, 0.0042592198587954044, -0.002600903855636716, 0.02006594091653824, 0.005192222073674202, -0.02007872238755226, 0.010128826834261417, -0.010186340659856796, -0.019720857962965965, -0.0029587678145617247, -0.004185729660093784, -0.02770889177918434, 0.03412488102912903, 0.03596532344818115, 0.013841665349900723, -0.027095410972833633, -0.020538832992315292, -0.007233963347971439, -0.03179876506328583, -0.023031098768115044, 0.005300859455019236, -0.01758645474910736, -0.015707669779658318, 0.02268601581454277, -0.01295978669077158, -0.0015616606688126922, -0.0117392148822546, 0.028552427887916565, -0.021216217428445816, 0.01878785528242588, -0.0011870218440890312, 0.0004485280951485038, 0.036936670541763306, 0.017560893669724464, -0.035684145987033844, -0.004946190398186445, -0.007080593146383762, -0.021970288828015327, -0.037473466247320175, 0.034738361835479736, 0.005224174354225397, 0.0050100949592888355, 0.013713856227695942, -0.023746827617287636, -0.01989978924393654, 0.03325578197836876, 0.0002887674199882895, 0.002838947344571352, 0.006281789857894182, 0.01509418897330761, -0.0024123862385749817, -0.01575879380106926, -0.017241371795535088, 0.010997924953699112, -0.015311463735997677, -0.00023944131680764258, -0.012045955285429955, -0.020628299564123154, 0.005821679253131151, -0.025894010439515114, -0.02554892748594284, -0.020104283466935158, -0.011662529781460762, -0.017151907086372375, -0.017062440514564514, 0.0028101904317736626, -0.013662733137607574, 0.023734046146273613, -0.0031520782504230738, 0.0219830684363842, 0.010946801863610744, 0.010601718910038471, -0.006064515560865402, 0.010946801863610744, -0.005949487444013357, 0.01795710064470768, 0.030469557270407677, 0.03213106840848923, -0.004623474087566137, -0.013701075688004494, 0.020500490441918373, 0.010461129248142242, -0.016027191653847694, -0.015976067632436752, 0.015976067632436752, -0.007317039184272289, -0.021420711651444435, -0.07688961923122406, -0.001620772061869502, 0.006508650258183479, -0.0061028581112623215, -0.009783743880689144, 0.006818585563451052, 0.005844045430421829, -0.011317446827888489, -0.007610998582094908, 0.014646858908236027, -0.03210550546646118, 0.01825105957686901, 0.005067608784884214, 0.004754477646201849, -0.029217032715678215, -0.01009687501937151, 0.007821883074939251, -0.004591521807014942, -0.002952377311885357, 0.005275297444313765, -0.009119139984250069, -0.012640264816582203, 0.015375367365777493, 0.009553688578307629, -0.03190101310610771, 0.020334338769316673, -0.016653453931212425, 0.019963694736361504, -0.012461332604289055, -0.003994016908109188, 0.01924796588718891, -0.03939059376716614, -0.006294570863246918, 0.04711022973060608, -0.0022701991256326437, -0.0373200960457325, 0.0013843262568116188, 0.03144090250134468, 0.023529551923274994, 0.03509622439742088, -0.028347935527563095, -0.021931946277618408, 0.020513271912932396, 0.0027830309700220823, 0.008262822404503822, -0.001995410770177841, 0.02484598010778427, 0.02294163405895233, 0.0024347526486963034, 0.0009146298980340362, 0.022903291508555412, 0.023529551923274994, 0.007719635963439941, -0.041205473244190216, -0.008742104284465313, -0.004105849657207727, 0.005952682811766863, 0.04084761068224907, -0.003936503082513809, -0.011081000789999962, 0.02529331110417843, 0.01708800159394741, 0.003399707144126296, 0.010390834882855415, 0.0099946279078722, -0.013598828576505184, -0.004994118586182594, 0.01658954843878746, -0.0028756922110915184, -0.055264413356781006, -0.024603145197033882, -0.009445051662623882, 0.0037639616057276726, 0.03317909687757492, -0.0014873718610033393, -0.01692185178399086, -0.007470409385859966, -0.009751792065799236, -0.014071720652282238, 0.02588123083114624, 0.0034795876126736403, 0.002348481910303235, -0.005118732340633869, 0.018608924001455307, 0.03052067942917347, -0.011867023073136806, -0.0117392148822546, 0.015477614477276802, 0.01696019433438778, 0.014352899044752121, 0.016154998913407326, 0.01219293475151062, 0.01177755743265152, -0.007240354083478451, 0.01003297045826912, -0.010282197035849094, -0.023376181721687317, 0.0035083445254713297, -0.021842479705810547, 0.029804952442646027, -0.006131615024060011, 0.0013819298474118114, -0.01729249581694603, -0.03269342705607414, 0.003585029626265168, 0.016116656363010406, -0.030162816867232323, -0.004013188183307648, -0.013432677835226059, 0.008563172072172165, 0.002802202245220542, 0.023746827617287636, 0.016538426280021667, 0.01345823984593153, -0.000363056140486151, </t>
+  </si>
+  <si>
+    <t>[0.00849541649222374, 0.004536194261163473, 0.0030854742508381605, -0.02577142044901848, 0.02160661108791828, 0.01967010647058487, -0.018330469727516174, -0.014391142874956131, -0.026156067848205566, -0.007301681209355593, 0.02252180688083172, 0.005514394026249647, -0.04745761305093765, -0.027827298268675804, -0.008104137144982815, -0.008309724740684032, 0.04644956812262535, 0.014789055101573467, 0.013953439891338348, 0.005690138787031174, -0.020399611443281174, -0.0026593771763145924, 0.021938202902674675, 0.00013522783410735428, -0.004605828784406185, -0.003733739024028182, 0.023437004536390305, -0.01730916276574135, -0.011380277574062347, 0.024750113487243652, -0.008011290803551674, 0.0008538523688912392, -0.020797522738575935, 0.0043306066654622555, -0.005096586886793375, -0.006313533987849951, 0.005332017783075571, -0.0027306696865707636, 0.024909278377890587, -0.0002455861831549555, 0.017945822328329086, 0.02410019002854824, 0.024338938295841217, -1.299171617574757e-05, 0.001556000905111432, 0.019378304481506348, -0.020877106115221977, -0.012169469147920609, -0.015399185940623283, 0.003995697479695082, 0.016579657793045044, 0.03074531815946102, -0.02530718967318535, 0.007931708358228207, 0.004625724628567696, -0.03477749228477478, -0.01791929453611374, 0.010358970612287521, 0.011267535388469696, -0.021341335028409958, -0.005570765119045973, 0.0006872268277220428, -0.03228390961885452, 0.0037834779359400272, -1.8393058780930005e-05, -0.03130239248275757, 0.005587344523519278, -0.0001473517040722072, 0.0008787218830548227, 0.023874707520008087, -0.001395178260281682, 0.014072814024984837, 0.023821651935577393, 0.0022349378559738398, 0.030612681061029434, 0.0025698470417410135, -0.02260139025747776, 0.00022196017380338162, -0.006628547329455614, -0.0015750675229355693, -0.01413913257420063, -0.03313278779387474, -0.004015593323856592, 0.056768748909235, 0.006661706604063511, 0.014921692200005054, -0.023264575749635696, 0.0014631547965109348, -0.009715680032968521, -0.01242147944867611, -0.018967129290103912, 0.004529562778770924, 0.008475521579384804, -0.0024139981251209974, -0.017799921333789825, -0.0027920145075768232, -0.02228306047618389, 0.024789905175566673, -0.008813746273517609, 5.276994124869816e-05, 0.012268946506083012, -0.0056370836682617664, -0.009914635680615902, -0.0237420704215765, -0.02981685660779476, -0.025545937940478325, 0.013144352473318577, -0.024869486689567566, 0.013648374006152153, -0.0038066895212978125, -0.006751236971467733, 0.03963201493024826, 0.009841685183346272, -0.016553130000829697, -0.031249338760972023, -0.012023568153381348, 0.016964305192232132, 0.002077431185171008, 0.011625655926764011, -0.0371914878487587, 0.0063997479155659676, 0.03292056918144226, 0.011731766164302826, -0.0027422753628343344, 0.032257381826639175, 0.007573587819933891, -0.0030224716756492853, -0.022574862465262413, -0.012076622806489468, -0.014470725320279598, -0.016088899224996567, 0.010617612861096859, -0.01620827428996563, -0.008090873248875141, 0.004688727203756571, 0.026142803952097893, -0.020731205120682716, 0.020943423733115196, -0.005882462486624718, -0.022482017055153847, 0.028304792940616608, 0.017295898869633675, -0.014271769672632217, 0.01764075644314289, -0.02138112671673298, 0.037536345422267914, -0.0020658252760767937, 0.04554763808846474, 0.0021404337603598833, 0.004317342769354582, 0.03398166596889496, -0.0024770009331405163, 0.03087795525789261, -0.012554117478430271, -0.0015070908702909946, 0.005458023399114609, -0.010564558207988739, 0.030214767903089523, -0.03281445801258087, 0.012375056743621826, -0.0015609747497364879, 0.024856222793459892, 0.001760759623721242, -0.006482646334916353, 0.008502048440277576, 0.036899685859680176, 0.027150847017765045, 0.014497253112494946, -0.005020320415496826, 0.010272756218910217, 0.015133911743760109, 0.04634346067905426, -0.03384903073310852, 0.017733601853251457, -0.0007821453618817031, 0.026978420093655586, -0.012295474298298359, 0.007785807363688946, -0.0073083131574094296, 0.008117400109767914, 0.011101738549768925, -0.018012139946222305, 0.02963116392493248, 0.01308466587215662, 0.00046671737800352275, -0.008110769093036652, 0.01646028459072113, 0.010345706716179848, 0.00479152100160718, -0.01076351385563612, -0.023410476744174957, 0.017627492547035217, 0.0019282142166048288, -0.026076486334204674, -0.6387810707092285, 0.01251432579010725, -0.003733739024028182, 0.005036900285631418, -0.02530718967318535, 0.022482017055153847, 0.016579657793045044, 0.01745506376028061, -0.001006385195069015, 0.0035248352214694023, -0.012322002090513706, 0.03552025929093361, 0.01451051700860262, -0.007600115146487951, -0.015969526022672653, -0.00740779098123312, 0.0029445472173392773, -0.03634260967373848, 0.014590099453926086, 0.011420068331062794, -0.016261328011751175, 0.019789479672908783, -0.0270977932959795, -0.034008193761110306, 0.005796248558908701, 0.01588994450867176, -0.0003027860075235367, -0.023715542629361153, -0.004473191685974598, 0.0016745454631745815, -0.014988010749220848, 0.012348528951406479, 0.014033022336661816, 0.009888107888400555, 0.04024214670062065, 0.0071690441109240055, -0.013190776109695435, 0.037748564034700394, 0.006668338552117348, 0.024829695001244545, -0.009974322281777859, -0.012620436027646065, 0.04058700427412987, -0.009118812158703804, -0.005849303212016821, 0.007109357509762049, 0.017189789563417435, 0.010126855224370956, -0.03034740686416626, -5.495249752129894e-06, -0.008468889631330967, -0.022680971771478653, -0.0027157480362802744, -0.006061522755771875, 0.017667284235358238, 0.0008770638960413635, 0.02370227873325348, -0.011837875470519066, -0.01760096475481987, 0.0304535161703825, 0.011499650776386261, -0.0009450404904782772, -0.010093695484101772, -0.00044765076017938554, -0.010531398467719555, 0.0035977857187390327, -0.0034087777603417635, -0.009364190511405468, 0.004781573545187712, -0.005295542534440756, 0.0004733492387458682, 0.014457461424171925, -0.013913649134337902, 0.0026593771763145924, 0.017733601853251457, 0.004619092680513859, 0.0024587633088231087, 0.0012161178747192025, 0.00032392508001066744, 0.024697057902812958, 0.008163823746144772, -0.010617612861096859, -0.01992211677134037, 0.01810498721897602, 0.0058459872379899025, -0.0024355517234653234, -0.017110206186771393, 0.005570765119045973, -0.004449980333447456, -0.00964272953569889, 0.01194398570805788, 0.01977621577680111, -0.0067280251532793045, -0.022641180083155632, 0.008309724740684032, 0.016367439180612564, -0.00851531233638525, 0.013243830762803555, -0.0009980953764170408, -0.013661637902259827, -0.006535700988024473, -0.0012675148900598288, -0.00336898653768003, 0.01187103521078825, 0.009980954229831696, 0.017375482246279716, -0.008621422573924065, 0.024617476388812065, 0.030824899673461914, -0.004390293266624212, -0.018237624317407608, 0.0022680971305817366, 0.003360696602612734, -0.013144352473318577, 0.0029445472173392773, -0.023490060120821, 0.0017077047377824783, 0.009755470789968967, 0.01699083298444748, -0.02234937809407711, -0.010073800571262836, -0.00476499367505312, 0.006903769448399544, -0.018144777044653893, -0.00790518056601286, 0.029365889728069305, 0.004735150374472141, -0.010385497473180294, -0.03191252425312996, -0.008077609352767467, 0.007613379042595625, -0.0075404285453259945, 0.009795261546969414, -0.003955906257033348, 0.026500925421714783, 0.032257381826639175, 0.01310456171631813, -0.0031352133955806494, 0.00015626328240614384, -0.029763802886009216, -0.011512914672493935, -0.004585933405905962, 0.0020724572241306305, 0.001164720975793898, -0.02724369429051876, -0.011128266341984272, -0.021659664809703827, 0.009059125557541847, -0.04936758801341057, -0.010007482022047043, -0.006708129774779081, 0.0028997822664678097, -0.03106364794075489, 0.02009454555809498, 0.017680548131465912, 0.011048683896660805, -0.0057664052583277225, -0.01749485544860363, -0.007533796597272158, -0.008024554699659348, 0.030931010842323303, -0.003538099117577076, -0.027827298268675804, 0.002067483263090253, 0.0038696920964866877, -0.01992211677134037, 0.004881051369011402, 0.010206437669694424, -0.015730779618024826, -0.015240021981298923, 0.007421054877340794, -0.019683370366692543, -0.011134898290038109, 0.03437957912683487, -0.015041065402328968, 0.015664460137486458, -0.02249527908861637, -0.0017441799864172935, -0.014842109754681587, -0.0025068442337214947, 0.009649360552430153, 0.0077062249183654785, -0.021394390612840652, -0.01878143660724163, 0.029392417520284653, 0.01465641800314188, -0.017481591552495956, 0.03106364794075489, -0.020930159837007523, 0.02110258862376213, -0.0057664052583277225, -0.005209328606724739, -0.006857346743345261, -0.004111755173653364, -0.015571614727377892, 0.008628053590655327, 0.014218715019524097, 0.0007659802213311195, -0.011877667158842087, 0.017481591552495956, 0.00895964726805687, 0.021500499919056892, 0.00034941628109663725, -0.00962283369153738, 0.015730779618024826, -0.03955243155360222, 0.022535070776939392, -0.016486812382936478, 0.051569368690252304, 0.0090325977653265, 0.015359395183622837, -0.0075934831984341145, -0.034857071936130524, 0.015186966396868229, -0.0047981529496610165, 0.0007406962104141712, 0.0007978960638865829, 0.003965854179114103, -0.014682944864034653, -0.00673797307536006, 0.02403387241065502, -0.004121703095734119, -0.0019182664109393954, -0.007752648089081049, -0.0258112121373415, 0.016301119700074196, -0.025784684345126152, 0.0027522232849150896, -0.016539866104722023, -0.030904483050107956, 0.010577822104096413, 0.029684219509363174, 0.006034995429217815, 0.026328496634960175, -0.019219139590859413, -0.007752648089081049, -0.024378729984164238, -0.03570595011115074, 0.030506569892168045, -0.00336898653768003, 0.02321152202785015, 0.03697926923632622, 0.019086502492427826, 0.009304503910243511, -0.013422891497612, 0.0011116660898551345, -0.002180224983021617, 0.01660618558526039, 0.009311135858297348, 0.005593976471573114, -0.021686192601919174, 0.023941027000546455, -0.011632287874817848, -0.006409695837646723, 0.00479152100160718, 0.0001896298344945535, 0.015266548842191696, -0.003657472552731633, 0.019683370366692543, -0.0022001205943524837, -0.004141598474234343, 0.031647250056266785, -0.009377454407513142, 0.016659241169691086, 0.024697057902812958, 0.001976295141503215, -0.005215960554778576, -0.0096758883446455, 0.00047625068691559136, -0.011174689047038555, 0.022680971771478653, -0.013834066689014435, -0.015545086935162544, -0.002286334754899144, -0.007938340306282043, -0.010299284011125565, -0.03310626000165939, -0.02648766152560711, -0.002578136743977666, 0.03459179773926735, -0.012925500981509686, -0.017972350120544434, 0.007712856866419315, 0.002768802922219038, 0.004907578695565462, 0.0007444266229867935, 0.018436579033732414, 0.029578110203146935, -0.006529069505631924, 0.01988232508301735, 0.00560392439365387, 0.006628547329455614, -0.0011871035676449537, 0.008714267984032631, 0.01660618558526039, -0.013310149312019348, 0.00020185734319966286, -0.009768734686076641, 0.011380277574062347, -0.011599129065871239, 0.010736986063420773, -0.0033988298382610083, -0.00014092709170654416, -0.013701429590582848, 0.02298603765666485, -0.0005467142327688634, -0.028039516881108284, 0.004254340194165707, 0.028623120859265327, -0.024020608514547348, 0.014006495475769043, 0.01920587569475174, -0.004983845166862011, -0.025161288678646088, 0.01905997470021248, 0.009563147090375423, 0.0012169468682259321, 0.01863553561270237, 0.022932982072234154, 0.022800344973802567, 0.005670242942869663, -0.020306766033172607, -0.020983215421438217, -0.0025035282596945763, 0.10717090964317322, 0.03414083272218704, -0.027429386973381042, 0.027933407574892044, 0.016725558787584305, 0.02488275058567524, -0.00915860291570425, -0.020412875339388847, 0.01246127113699913, 0.014802318997681141, -0.006406379863619804, -0.03780161961913109, -0.006714761722832918, 0.00035584092256613076, 0.0029528371524065733, -0.029259780421853065, -0.010372234508395195, -0.01821109652519226, 0.02331763133406639, 0.009251449257135391, 0.0025466354563832283, 0.007898548617959023, -0.0035845220554620028, 0.009828421287238598, 0.02099647931754589, 0.025214344263076782, 0.020293502137064934, 0.0032628767658025026, 0.0024852906353771687, -0.011844507418572903, 0.01606237329542637, -0.013170880265533924, -0.008402571082115173, 0.0032612187787890434, -0.019006919115781784, 0.02788035199046135, 0.010902782902121544, 0.0016529918648302555, -0.001247619278728962, -0.009171866811811924, 0.012136309407651424, 0.02131480909883976, -0.008322988636791706, -0.00043853194802068174, 0.009430509060621262, -0.01770707406103611, -0.023264575749635696, 0.0157440435141325, -0.007606747094541788, 0.004393609240651131, 0.04759025201201439, -0.017693810164928436, 0.019590523093938828, -0.024551156908273697, 0.0007564469124190509, -0.0015253284946084023, -0.013754484243690968, 0.004158178344368935, -0.021646400913596153, -0.012474535033106804, -0.008641317486763, -0.009377454407513142, 7.797620492056012e-05, -0.014616626314818859, -0.02545309066772461, 0.018502898514270782, -0.037536345422267914, -0.005816143937408924, -0.008263301104307175, -0.0030589469242841005, -0.010664035566151142, -0.028782285749912262, -0.0013205697759985924, 0.005089954938739538, 0.012693386524915695, 0.0020940108224749565, 0.010465079918503761, 0.0048677874729037285, 0.0037436867132782936, 0.007580219767987728, 0.012779599986970425, -0.012116414494812489, -0.01290560606867075, -0.011081843636929989, -0.02120869792997837, 0.03594470024108887, 0.026898836717009544, -0.01595626212656498, -0.03140850365161896, 0.01724284514784813, -0.012759705074131489, -0.001260882942005992, -0.0029345995280891657, 0.002738959388807416, -0.012375056743621826, -8.83384927874431e-05, 0.013940175995230675, -0.0015501980669796467, 0.014271769672632217, -0.016699030995368958, 0.002607980277389288, 0.0030108659993857145, -0.01578383520245552, -0.01527981273829937, 0.02070467732846737, 0.002656061202287674, 0.0002723208745010197, -0.04058700427412987, -0.006088050547987223, 0.017004096880555153, 0.01681840419769287, -0.007984763011336327, -0.010458447970449924, 0.008787218481302261, -0.02160661108791828, -0.007520532701164484, 0.0023509955499321222, 0.027933407574892044, -0.00422118091955781, 0.004005645401775837, -0.019802743569016457, -0.03395513817667961, 0.016340911388397217, 0.024776641279459, 0.004847892094403505, 0.02524087205529213, -0.006336745340377092, -0.007726120762526989, -0.022906456142663956, -0.012540853582322598, 0.003727107075974345, 0.03135544806718826, -0.003544730832800269, -0.0058625671081244946, -0.03544067591428757, -0.03376944735646248, -0.010219701565802097, 0.013078033924102783, -0.016367439180612564, -0.022216740995645523, -0.03501623868942261, 0.016513340175151825, -0.0077062249183654785, -0.005017004441469908, 0.011134898290038109, -0.02171272039413452, 0.00785212591290474, 0.006253846921026707, -0.011148162186145782, 0.01688472367823124, 0.000489099882543087, 0.011400172486901283, -0.01627459190785885, 0.0012658569030463696, -0.010969101451337337, -0.0010635850485414267, 0.0029743907507508993, -0.0020094546489417553, 0.01194398570805788, 0.013310149312019348, 0.009835053235292435, -0.004731834400445223, 0.011187952943146229, -0.0073083131574094296, 0.0024222880601882935, 0.014749263413250446, -0.026010166853666306, 0.019086502492427826, -0.03403472155332565, 0.025837739929556847, -0.0004142842080909759, 0.024975595995783806, -0.020306766033172607, -0.022999301552772522, -0.019298721104860306, -0.005414916202425957, 0.00044392034760676324, -0.022375905886292458, -0.016088899224996567, -0.02673967182636261, 0.006694865878671408, -0.01090941485017538, -0.01817130483686924, -0.003238007193431258, -0.009921267628669739, 0.009702416136860847, 0.03708538040518761, 0.011174689047038555, 0.0031700306572020054, 0.013323413208127022, -0.0029661008156836033, -0.029472000896930695, 0.03705885261297226, 0.012759705074131489, -0.013847330585122108, 0.0032545868307352066, -0.04146241024136543, -0.017216317355632782, 0.00034630761365406215, 0.0049540018662810326, -0.020863842219114304, -0.020797522738575935, -0.007586851716041565, -0.03231043741106987, -0.012845919467508793, 0.025148024782538414, 0.000828153919428587, -0.018861018121242523, -0.004310711286962032, -0.023437004536390305, -0.052179500460624695, -0.0263152327388525, -0.018582480028271675, -0.005985256750136614, 0.00972894299775362, -0.0038531124591827393, -0.017468327656388283, 0.02484295889735222, -0.007958236150443554, -0.011632287874817848, 0.0010809936793521047, 0.01730916276574135, 0.044539593160152435, -0.009563147090375423, 0.018516162410378456, 0.0076796975918114185, -0.007076198235154152, 0.017229581251740456, 0.027641605585813522, 0.013940175995230675, -0.011718502268195152, -0.0021619873587042093, 0.0029909703880548477, 0.011466491036117077, -0.027429386973381042, -0.006532385479658842, 0.0190997663885355, 0.002858333056792617, -0.005487866699695587, 0.028861869126558304, 0.019802743569016457, 0.003551362780854106, -0.022641180083155632, -0.0096758883446455, -0.007746016141027212, 0.008263301104307175, -0.01537265907973051, 0.019272195175290108, -0.01240821648389101, -0.011028788052499294, -0.023463532328605652, 0.03544067591428757, -0.0229595098644495, 0.02384817972779274, 0.013979967683553696, 0.0034784122835844755, 0.007765911985188723, 0.004672147799283266, -0.03634260967373848, 0.019802743569016457, 0.015359395183622837, -0.008933119475841522, -0.0010892834980040789, -0.005318754352629185, -0.002574821002781391, 0.0009873185772448778, -0.006283690221607685, 0.004314026795327663, 0.01419218722730875, 0.01842331513762474, -0.027084529399871826, 0.0019000287866219878, 0.007699592970311642, -0.01813151314854622, 0.009589673951268196, 0.008448993787169456, -0.006081418599933386, 0.013661637902259827, 0.025678575038909912, -0.03591817244887352, -0.013336677104234695, -0.015160439535975456, -0.01614195480942726, 0.016340911388397217, 0.0034585166722536087, -0.010451816022396088, -0.025148024782538414, -0.017402008175849915, 0.019179347902536392, 0.006721393205225468, -0.02663356252014637, -0.03578553348779678, 0.007228730712085962, 0.004018909297883511, 0.0014789054403081536, 0.0058194599114358425, -0.016831668093800545, 0.02673967182636261, -0.03188599646091461, 0.009967690333724022, 0.02406040020287037, -0.004251024220138788, 0.007494005374610424, -0.009470300748944283, 0.008986175060272217, 0.004125019069761038, 0.024551156908273697, -0.0006922007305547595, -0.02171272039413452, 0.010206437669694424, 0.0005293056019581854, -0.008250038139522076, 0.007799071259796619, -0.013296885415911674, -0.015982789918780327, -0.02074446901679039, 0.02331763133406639, -0.006850714795291424, -0.004045436624437571, 0.004890999291092157, 0.008555103093385696, -0.015253284946084023, 0.01315761636942625, -0.04520278051495552, 0.007421054877340794, 0.01973642408847809, 0.00781896710395813, 0.021686192601919174, -0.030798371881246567, 0.0004314855905249715, 0.007096093613654375, 0.02445831149816513, 0.007228730712085962, -0.004277551546692848, -0.018264152109622955, -0.0009433825616724789, -0.030612681061029434, 0.026859046891331673, -0.008654581382870674, -0.012912238016724586, 0.023158466443419456, 0.005660295020788908, -0.014749263413250446, 0.02642134390771389, 0.00913870707154274, 0.015186966396868229, -0.024896014481782913, -0.007288417778909206, -0.016393965110182762, -0.0178131852298975, -0.016699030995368958, 0.025572463870048523, 0.00201277039013803, -0.020081281661987305, -0.02078425884246826, -0.006214055698364973, -0.02785382606089115, 0.019378304481506348, -0.011831243522465229, 0.0061742644757032394, -0.006224003620445728, -0.0013537290506064892, -0.017375482246279716, 0.006180896423757076, -0.0004072378505952656, 0.03934021294116974, 0.01963031478226185, -0.0024239460472017527, 0.03138197585940361, -0.02795993536710739, 0.030480043962597847, -0.03207169100642204, -0.04090533405542374, -0.028570067137479782, 0.00858826283365488, 0.023330895230174065, 0.013416259549558163, -0.016473548486828804, -0.01614195480942726, 0.0005645373603329062, -0.014948219992220402, 0.025837739929556847, 0.0023178362753242254, 0.027694661170244217, 0.03785467520356178, -0.021646400913596153, -0.01585015282034874, -0.004171441774815321, 0.023689014837145805, -0.01399323157966137, -0.017693810164928436, 0.0006996615557000041, -0.027933407574892044, 0.019325248897075653, 0.00738126365467906, 0.026036694645881653, 0.01563793420791626, 0.001760759623721242, 0.032443076372146606, -0.004390293266624212, -0.018118251115083694, 0.022826872766017914, 0.01692451536655426, 0.0007170701865106821, -0.025691838935017586, -0.02648766152560711, -0.026328496634960175, -0.01928545907139778, -0.005908990278840065, -0.03520192950963974, 0.011725134216248989, -0.011957249604165554, 0.027190638706088066, 0.012739809229969978, 0.015412449836730957, -0.03334500640630722, 0.00858826283365488, 0.0031153177842497826, 0.03650177642703056, 0.004987161140888929, -0.028119100257754326, -0.004264288116246462, 0.0014905112329870462, -0.013058139011263847, -0.003929378930479288, -0.007560323923826218, -0.007467478048056364, -0.04772288724780083, -0.03252265602350235, -0.019842535257339478, -0.029976021498441696, -0.0157440435141325, 0.010823200456798077, -0.007613379042595625, -0.012646962888538837, -0.0022896507289260626, 0.2032002955675125, -0.016699030995368958, -0.01846310682594776, 0.015120647847652435, 0.0011348775587975979, 0.01928545907139778, 0.005017004441469908, 0.02274729125201702, -0.010186541825532913, 0.006883874069899321, 0.0054480754770338535, 0.014072814024984837, 0.006578808184713125, 0.0030572889372706413, -0.017415272071957588, -0.02184535749256611, -0.032151274383068085, -0.02256159856915474, 0.010106959380209446, 0.0017922610277310014, 0.019802743569016457, -0.011247639544308186, -0.007759280037134886, -0.006844082847237587, 0.009874843992292881, -0.005136378109455109, -0.004032172728329897, -0.012103150598704815, 0.030294351279735565, 0.015651196241378784, -0.006917033344507217, -0.008574998937547207, -0.018449842929840088, 0.0011158109409734607, 0.0008066003792919219, 0.007600115146487951, -0.004914210643619299, -0.003277798416092992, 0.018662063404917717, 0.01246127113699913, -0.0011158109409734607, -0.0074011594988405704, -0.008163823746144772, -0.018343733623623848, -0.023370685055851936, 0.026699882000684738, -0.00794497225433588, -0.002069141250103712, 0.027296748012304306, 0.02049245685338974, -0.02252180688083172, -0.0012484482722356915, 0.013323413208127022, 0.03544067591428757, -0.008429097943007946, -0.004237760789692402, 0.003634260967373848, -0.00038692777161486447, -0.005759773310273886, 0.003727107075974345, -0.042390868067741394, 0.02524087205529213, -0.01764075644314289, 0.009271345101296902, -0.005660295020788908, 0.013608583249151707, -0.02912714332342148, 0.00740779098123312, 0.018834492191672325, -0.007580219767987728, -0.004526246804744005, 0.004682095255702734, -0.014364616014063358, -0.005773036740720272, -0.011042051948606968, -0.03477749228477478, 0.007858757860958576, -0.018807964399456978, 0.03498971089720726, 0.02699168398976326, 0.030373932793736458, 0.012302106246352196, 0.005471287295222282, 0.013144352473318577, -0.028410902246832848, -0.026752935722470284, -0.0036110496148467064, 0.010916046798229218, -0.018330469727516174, -0.034830544143915176, 0.011519546620547771, -0.015770571306347847, -0.0090325977653265, 0.023291103541851044, 0.015452241525053978, -0.011997040361166, -0.005627135746181011, 0.0011207849020138383, -0.02555919997394085, -0.004042120650410652, 0.003531467169523239, 0.014629890210926533, 0.018264152109622955, 0.0003019570140168071, -0.021434182301163673, -0.003138529369607568, -0.013635111041367054, 0.005298858508467674, 0.012195996008813381, -0.021805565804243088, -0.022216740995645523, -0.016287855803966522, -0.016473548486828804, -0.019908852875232697, 0.015492032282054424, 0.013389731757342815, 0.002803620183840394, -0.015996053814888, 0.014258505776524544, -0.01846310682594776, 0.022840136662125587, -0.022548334673047066, 0.021049533039331436, 0.01884775608778, 0.011367013677954674, -0.013336677104234695, -0.023198258131742477, 0.004997109062969685, -0.016725558787584305, -0.011307327076792717, -0.01347594615072012, -0.015438977628946304, 0.0020359819754958153, -0.013456050306558609, -0.011632287874817848, 0.0032396651804447174, -0.01019317377358675, 0.011718502268195152, -0.01147975493222475, 0.012792863883078098, -0.007765911985188723, -0.010160014033317566, 0.02302582934498787, -0.021580083295702934, 0.0017508119344711304, -0.038703553378582, -0.005686822813004255, 0.0009408955811522901, 0.010199805721640587, -0.029604637995362282, 0.017680548131465912, -0.015624669380486012, -0.013701429590582848, -0.04048089310526848, 0.018768172711133957, -0.00044392034760676324, -0.0001429995463695377, -0.005786300636827946, 0.007314945105463266, 0.002138775773346424, -0.021049533039331436, -0.0053088064305484295, 0.05151631310582161, -0.021341335028409958, 0.007553691975772381, -0.0029876544140279293, -0.1673351675271988, 0.027376331388950348, 0.005998520180583, -0.0059156217612326145, 0.010179909877479076, -0.01244137529283762, 0.010199805721640587, 0.011791452765464783, -0.02171272039413452, 0.01709694415330887, 0.02274729125201702, 0.001971321413293481, -0.024617476388812065, -0.01692451536655426, -0.008913224563002586, 0.0007365513010881841, -0.009781998582184315, 0.013376467861235142, 0.039181046187877655, 0.02334415912628174, 0.012600540183484554, -0.03403472155332565, 0.019444622099399567, 0.0036375769414007664, 0.023224784061312675, -0.006485962308943272, -0.0007502295193262398, -0.004065332002937794, -0.016858195886015892, -0.004224496893584728, -0.011877667158842087, -0.001936504035256803, 0.04255003482103348, -0.016009317710995674, 0.0021205381490290165, 0.0049374219961464405, -0.015545086935162544, -0.02553267404437065, -0.02078425884246826, -0.02506844326853752, 0.010093695484101772, -0.007261889986693859, 0.005938833579421043, -0.018436579033732414, 0.01667250320315361, 0.03440610691905022, 0.021447446197271347, -0.017906030640006065, 0.0008828667923808098, -0.0009699100046418607, 0.03756287321448326, -0.002326125977560878, 0.010418657213449478, 0.020253710448741913, 0.022999301552772522, 0.005298858508467674, 0.029180198907852173, 0.023357423022389412, 0.002886518370360136, 0.005922253709286451, 0.002921335631981492, -0.013044875115156174, 0.02899450622498989, -0.002145407721400261, 0.005527657922357321, -0.04281530901789665, -0.023821651935577393, -0.00019812691607512534, -0.01789276674389839, 0.013714693486690521, -0.013276990503072739, 0.020518984645605087, -0.010650772601366043, -0.01642049290239811, 0.0030042340513318777, 0.004108439199626446, -0.012593908235430717, -0.03289404138922691, 0.027323275804519653, -0.0005421548266895115, -0.017799921333789825, -0.005922253709286451, -0.03292056918144226, -0.0007601773249916732, -0.020253710448741913, -0.03315931558609009, 0.0005036070942878723, 0.017189789563417435, -0.005242487881332636, -0.010087063536047935, -0.005030268337577581, -0.015054329298436642, 0.012945396825671196, -0.03382250294089317, 0.008548472076654434, 0.004008961375802755, 0.0007668091566301882, 0.018555954098701477, -0.010723723098635674, -0.010664035566151142, 0.009331031702458858, 0.011784820817410946, -0.04347849637269974, 0.01290560606867075, 0.02541329897940159, 0.02467053197324276, -0.005690138787031174, 0.009258081205189228, 0.021328071132302284, 0.004546142183244228, -0.008263301104307175, 0.021832093596458435, 0.0019331881776452065, 0.030002549290657043, -0.013204040005803108, 0.021394390612840652, 0.012620436027646065, -0.01789276674389839, 0.05952760577201843, -0.004685411229729652, 0.027906879782676697, -0.03138197585940361, -0.007348104380071163, -0.004440032411366701, -0.027694661170244217, -0.025943849235773087, -0.09369496256113052, 0.021805565804243088, 0.010644140653312206, -0.002725695725530386, -0.013966703787446022, 0.002929625567048788, 0.0009234869503416121, 0.002732327673584223, -0.0013097929768264294, 0.022627918049693108, -0.037828147411346436, -0.022614654153585434, 0.028649648651480675, -0.01362184714525938, 0.03416736051440239, 0.007241994608193636, 0.021447446197271347, 0.021447446197271347, -0.005802880506962538, 0.004612460732460022, -0.012898974120616913, -0.0005069230683147907, 0.008986175060272217, 0.002062509534880519, -0.0076531702652573586, -0.012540853582322598, -0.026262179017066956, 0.00849541649222374, 0.00654233293607831, -0.0047716256231069565, -0.01308466587215662, -0.016725558787584305, 0.05175505951046944, -0.027323275804519653, 0.007646538317203522, -0.008236774243414402, 0.0039326949045062065, -0.015730779618024826, 0.021805565804243088, -0.019617050886154175, 0.004957317840307951, 0.004881051369011402, 0.006572176236659288, -0.025015387684106827, 0.01764075644314289, -0.00952998735010624, 0.00807097740471363, 0.023357423022389412, 0.010677299462258816, -0.014576835557818413, -0.023370685055851936, 0.0022564914543181658, -0.009563147090375423, 0.0016645976575091481, 0.020505720749497414, 0.00020206457702443004, -0.019298721104860306, 0.02342374064028263, -0.01481558196246624, -0.04273572564125061, 0.007149148732423782, 0.005348597653210163, -0.03085142746567726, -0.009238185361027718, 0.012859182432293892, 0.011532810516655445, -0.030824899673461914, -0.010179909877479076, 0.03475096449255943, -0.005852619186043739, 0.013383099809288979, -0.019431360065937042, 0.004682095255702734, 0.017826449126005173, -0.04472528398036957, -0.0025549253914505243, 0.0014109289040789008, -0.0033507489133626223, 0.009835053235292435, -0.00742768682539463, -0.012063358910381794, -0.01542571373283863, 0.01090941485017538, -0.016393965110182762, 0.025652047246694565, 0.018715117126703262, 0.003544730832800269, 0.010577822104096413, 0.004207917023450136, -0.04488445073366165, 0.007215467281639576, 0.03703232482075691, 0.0103191789239645, -0.03382250294089317, -0.020200654864311218, 0.024445047602057457, 0.0024687109980732203, -0.0027074581012129784, -0.007248626556247473, 0.003209821879863739, -0.039181046187877655, -0.0149614829570055, -0.074276864528656, 0.01899365708231926, 0.015107383951544762, -0.0036475248634815216, 0.002145407721400261, 0.01409934088587761, 0.012249051593244076, 0.004695359151810408, 0.0021221961360424757, 0.012945396825671196, -0.0017491539474576712, 0.017508119344711304, 0.0039161150343716145, -0.012593908235430717, -0.020558776333928108, -0.04265614226460457, 0.022336116060614586, 0.018184568732976913, 0.013754484243690968, 0.012189364992082119, 0.004091859795153141, 0.02070467732846737, 0.011718502268195152, 0.023158466443419456, -0.027402859181165695, -0.00020838557975366712, -0.021500499919056892, 0.009331031702458858, -0.004924158565700054, -0.016539866104722023, 0.0157440435141325, -0.019656842574477196, -0.00624721497297287, 0.04419473558664322, -0.013343309052288532, -0.04101144149899483, -0.010100327432155609, 0.009470300748944283, 0.02410019002854824, 0.032469600439071655, -0.036183446645736694, -0.021341335028409958, 0.023357423022389412, -0.02574489265680313, 0.008800482377409935, 0.019113030284643173, -0.0013164248084649444, 0.0015369342872872949, 0.030002549290657043, 0.014311560429632664, -0.014590099453926086, 0.024511367082595825, 0.015836888924241066, -0.03796078637242317, 0.00587251503020525, 0.004715254530310631, -0.006011784076690674, 0.043292801827192307, -0.0028898343443870544, -0.02827826514840126, 0.04345196858048439, -0.007911812514066696, 0.026500925421714783, -0.01347594615072012, 0.008376043289899826, -0.00794497225433588, -0.011691974475979805, 0.009689152240753174, 0.007175676058977842, -0.0043471865355968475, -0.005554185248911381, -0.010332442820072174, 0.0029329415410757065, 0.01699083298444748, 0.011930721811950207, -0.032045163214206696, 0.00236923317424953, -0.020837314426898956, -0.02724369429051876, 0.03788120299577713, -0.016765350475907326, 0.0008579972782172263, -0.009337663650512695, 0.011519546620547771, 0.005099902860820293, 0.005816143937408924, -0.0031418451108038425, -0.034326523542404175, -0.0008646291680634022, 0.008382675237953663, -0.0029478631913661957, 0.011678711511194706, -0.002747249323874712, 0.001223578816279769, -0.009403982199728489, 0.02920672483742237, -0.005796248558908701, -0.022800344973802567, 0.02509497106075287, 0.00964272953569889, -0.008780586533248425, 0.02880881354212761, -0.003733739024028182, -0.03674052283167839, -0.0006039140280336142, 0.0002234108978882432, -0.016951043158769608, -0.02378186210989952, 0.010272756218910217, 0.0005881633842363954, 0.01404628623276949, 0.006204108241945505, -0.0011439963709563017, 0.009370822459459305, -0</t>
+  </si>
+  <si>
+    <t>[0.006892548408359289, 0.006733642425388098, 0.002572291065007448, -0.024630432948470116, -0.010673187673091888, 0.01943950168788433, 0.012924355454742908, -0.015096071176230907, 0.007898952811956406, -0.028973862528800964, 0.003817054908722639, -0.02738480269908905, -0.014433963224291801, -0.006230439990758896, -0.01988973654806614, 0.004313636105507612, 0.03278760612010956, -0.008090964518487453, -0.003027490573003888, -0.015109313651919365, -0.01710888184607029, -0.001809211215004325, -0.0160362645983696, -0.01141474861651659, 0.011547170579433441, -0.03244331106543541, 0.019863251596689224, -0.03901142627000809, -0.00779301580041647, 0.0003904370532836765, -0.003482690081000328, -0.006041739135980606, -0.022246841341257095, -0.0046446905471384525, -0.019611651077866554, 0.00920992810279131, 0.020008916035294533, 0.0009418491972610354, 0.011553791351616383, -0.007389129605144262, 0.022339537739753723, 0.0028652739711105824, 0.009183443151414394, -0.038693614304065704, -0.007733426056802273, 0.03350268304347992, 0.020882898941636086, 0.006472109351307154, -0.007005106657743454, 0.00580669054761529, 0.008931842632591724, 0.025888437405228615, -0.005379630718380213, -0.026510819792747498, -0.015930328518152237, -0.04542063549160957, 0.014222088269889355, 0.0008822594536468387, 0.0012116583529859781, -0.02844417653977871, 0.013930760324001312, -0.016486499458551407, -0.013262031599879265, 0.0060715340077877045, -0.010256059467792511, -0.019704345613718033, -0.023213520646095276, 0.01352025382220745, -0.01867145672440529, -0.02596789039671421, 0.03617760166525841, 0.024564221501350403, 0.020776960998773575, -0.007879089564085007, 0.022498443722724915, -0.012043751776218414, 0.00030788040021434426, 0.021134499460458755, -0.005578263197094202, 0.005541847087442875, -0.013983729295432568, -0.023120824247598648, -0.008024754002690315, 0.030907219275832176, 0.014606110751628876, 0.014539900235831738, -0.010414965450763702, 0.007985027506947517, -0.0019565303809940815, 0.012758828699588776, -0.0024779406376183033, 0.017095638439059258, 0.006002012640237808, -0.003216191427782178, -0.022803012281656265, 0.0039560976438224316, 0.00018663180526345968, 0.019757313653826714, 0.005369699094444513, -0.004244114737957716, 0.007799637038260698, 0.009560844860970974, -0.039911892265081406, -0.020181063562631607, -0.043858058750629425, -0.032522764056921005, 0.0035820063203573227, -0.003285712795332074, 0.021836334839463234, 0.009494634345173836, -0.006631015799939632, 0.03681322559714317, 0.009891899302601814, -0.0141691192984581, 0.011116799898445606, -0.026841875165700912, 0.017837200313806534, -0.004141488112509251, 0.009203306399285793, -0.006952138151973486, 0.018512550741434097, 0.015824390575289726, 0.0069984858855605125, -0.010699671693146229, 0.04081236198544502, -0.007680457551032305, -0.022511685267090797, -0.006160918623209, -0.011043967679142952, -0.00999783631414175, -0.01933356560766697, 0.002618638798594475, 0.022485200315713882, 0.0025358751881867647, 0.014553142711520195, -0.01716184988617897, -0.0036415960639715195, 0.0047738016583025455, -0.03766072541475296, -0.02749074064195156, 0.02308109775185585, 0.01518876664340496, -0.022617623209953308, -0.004740695934742689, 0.007653973065316677, 0.030192142352461815, -0.0008756383322179317, 0.033846981823444366, -0.005757032427936792, 0.01032226998358965, 0.029927300289273262, -0.008964947424829006, 0.011050589382648468, 0.010004458017647266, 0.012209278531372547, 0.014566384255886078, -0.019969189539551735, 0.01716184988617897, -0.0038931972812861204, -0.003863402409479022, -0.03631002455949783, 0.025676563382148743, -0.01680431142449379, -0.00307549349963665, 0.022697076201438904, 0.01838012970983982, 0.014010213315486908, 0.013023671694099903, 0.0021237125620245934, 0.008203523233532906, -0.015228493139147758, 0.020723992958664894, -0.01947922818362713, 0.005651094950735569, 0.0049029127694666386, 0.023915356025099754, 0.01897602714598179, 0.0030225247610360384, -0.01569196954369545, 0.015215250663459301, -0.009554224088788033, -0.009408560581505299, 0.02580898441374302, 0.022445473819971085, -0.003515795571729541, -0.009977973066270351, 0.016671888530254364, -0.01751938834786415, -0.005482257343828678, -0.016023023054003716, 0.023663753643631935, -0.011335295625030994, -0.006852821912616491, -0.015135797671973705, -0.6407090425491333, -0.004373225849121809, -0.00962043460458517, -0.014698806218802929, -0.015572789125144482, 0.026404883712530136, 0.013811580836772919, 0.027053749188780785, -0.021333131939172745, -0.025928163900971413, -0.01265289168804884, 0.034800417721271515, 0.008249870501458645, -0.007832742296159267, -0.032972998917102814, -0.013626190833747387, -0.007448719348758459, -0.02759667858481407, 0.02693456970155239, -0.008044617250561714, -0.01883036270737648, 0.013301758095622063, -0.03506525978446007, 0.008435260504484177, -0.006435693707317114, -0.005836485419422388, 0.008203523233532906, -0.016274623572826385, -0.023902112618088722, 0.012672754935920238, -0.02110801637172699, -0.002699746983125806, -0.0199956726282835, 0.004972434137016535, 0.04316946864128113, 0.0206048134714365, -0.016234897077083588, 0.02783503755927086, 0.024113988503813744, 0.030986672267317772, 0.0028387897182255983, 0.027702614665031433, 0.025292539969086647, -0.022657349705696106, 0.009064263664186, 0.002007843693718314, 0.05228007957339287, -0.011149905622005463, 0.0003995410224888474, -0.004806906916201115, -0.0013118023052811623, -0.0008003234979696572, -0.01953219808638096, 0.01371888630092144, 0.02561035193502903, 0.002789131598547101, 0.038243379443883896, -0.010938030667603016, -0.003959408029913902, 0.008230007253587246, 0.01685727946460247, -0.0012737310025840998, -0.0029016900807619095, -0.03472096472978592, -0.001570852124132216, 0.0025044248905032873, -0.03310541808605194, -0.006558183580636978, -0.013599706813693047, 0.0024382141418755054, 0.003393305465579033, 0.020935866981744766, -0.01985001005232334, -0.01032226998358965, 0.005326662212610245, 0.0007862537167966366, 0.005190929863601923, -0.0159965381026268, 0.00959395058453083, 0.02125367894768715, -0.009759477339684963, -0.0019283907022327185, -0.01197091955691576, 0.002107159933075309, -0.002319034654647112, -0.001557609997689724, -0.011229358613491058, 0.023054614663124084, 0.012030509300529957, 0.02019430696964264, 0.03482690081000328, -0.005647784564644098, 0.023266488686203957, -0.030854251235723495, -0.03517119958996773, 0.021041804924607277, 0.008991432376205921, 0.00011938642273889855, 0.009289381094276905, -0.0307747982442379, -0.002491182880476117, -0.040971267968416214, -0.00012342113768681884, -0.00832932349294424, 0.010335512459278107, 0.019624892622232437, 0.001463259570300579, 0.01245425920933485, 0.023266488686203957, 0.004691037815064192, 0.004369915463030338, -0.017996106296777725, 0.010878440923988819, -0.003502553328871727, -0.010759261436760426, -0.022657349705696106, 0.03037753328680992, 0.016936732456088066, 0.00832932349294424, 0.010117016732692719, 0.021134499460458755, -0.011394885368645191, -0.005445841699838638, -0.020167822018265724, -0.012222521007061005, 0.018300676718354225, 0.013354726135730743, -0.021068289875984192, -0.013050156645476818, 0.002815615851432085, 0.009276138618588448, 0.017400208860635757, 0.01209672074764967, -0.012520469725131989, 0.012930977158248425, 0.023067856207489967, 0.03411182388663292, -0.021584734320640564, 0.002957969205453992, -0.017333997413516045, -0.013381211087107658, -0.005373009480535984, -0.0033022656571120024, -0.011825256049633026, -0.02024727500975132, -0.014738532714545727, -0.04078587889671326, 0.0034396531991660595, -0.03660135343670845, 0.002443179953843355, -0.038640644401311874, 0.0027196102309972048, -0.028920894488692284, -0.0037872600369155407, -0.017797473818063736, 0.015546305105090141, -0.017929894849658012, -0.0036018695682287216, -0.01589060202240944, -0.009031158871948719, 0.011467717587947845, -0.01245425920933485, -0.03519768267869949, -0.013626190833747387, 0.026590272784233093, -0.021478796377778053, 0.0029099665116518736, 0.0038402287755161524, -0.002006188500672579, -0.02600761689245701, 0.0187773946672678, 0.005399493966251612, 0.0021204021759331226, 0.03156932815909386, -0.01782395876944065, 0.028285270556807518, -0.00817703828215599, -0.0017247924115508795, -0.008753073401749134, -0.002156818052753806, 0.004293772857636213, -0.00435336260125041, -0.005624610930681229, -0.009653540328145027, 0.0018870088970288634, 0.020287001505494118, 0.01574493758380413, 0.00597221776843071, -0.016327593475580215, 0.020313486456871033, 0.0009178477339446545, 0.015082829631865025, 0.0016436841106042266, -0.01872442476451397, -0.005217414349317551, 0.02298840321600437, -0.009891899302601814, 0.01994270458817482, 0.001080891932360828, 0.01791665330529213, 0.011163147166371346, 0.030748313292860985, 0.032575733959674835, -0.008852389641106129, -0.0037111176643520594, -0.044334776699543, 0.01933356560766697, -0.02236602082848549, 0.02783503755927086, -0.006571425590664148, 0.001478984602726996, -0.001605612807907164, -0.04277220368385315, -0.01214968878775835, -0.00779301580041647, 0.018552277237176895, 0.0034197899512946606, 0.010229574516415596, 0.0019499092595651746, 0.015149040147662163, 0.04459962248802185, -0.00435336260125041, 0.03750181943178177, 0.010256059467792511, -0.010487796738743782, -0.005919249262660742, 0.010686429217457771, 0.03088073618710041, 0.007567898835986853, -0.03273463994264603, -0.018446339294314384, 0.030589407309889793, -0.021094772964715958, 0.00041423155926167965, -0.006098018493503332, 0.010911546647548676, 0.01781071536242962, -0.005283624865114689, -0.004128245636820793, -0.008772936649620533, 0.010057426057755947, 0.025292539969086647, 0.008594167418777943, -0.0007548035937361419, 0.01316271536052227, -0.012937597930431366, 0.03922330215573311, 0.006210576742887497, 0.011540548875927925, -0.0019565303809940815, -0.018035832792520523, -0.027570193633437157, -0.013996971771121025, -0.00523727759718895, 0.011937814764678478, -0.004350052215158939, 0.01065332442522049, 0.0037773284129798412, 0.02030024304986, 0.009977973066270351, 0.006240371614694595, -0.01070629246532917, 0.019320322200655937, 0.02910628542304039, 0.017095638439059258, -0.02474961243569851, -0.007375887595117092, 0.007865848019719124, 0.019465986639261246, -0.008037995547056198, -0.013063398189842701, -0.0038038126658648252, 0.02641812525689602, 0.009633677080273628, 0.0029298297595232725, -0.01802259124815464, -0.031145578250288963, 0.006826337426900864, 0.004727453924715519, 0.016738099977374077, -0.00037947087548673153, -0.021531764417886734, 0.003476069075986743, 0.019757313653826714, -0.0007084559765644372, -0.02424640953540802, -0.038799550384283066, -0.0009277794160880148, -0.010587112978100777, 0.03011268936097622, -0.011580275371670723, -0.005733858793973923, -0.026894843205809593, -0.0012058649444952607, -0.0123019739985466, -0.018512550741434097, -0.013381211087107658, -0.002067433437332511, 0.0018919747089967132, -0.027517225593328476, 0.0029712114483118057, -0.021425828337669373, -0.0016304418677464128, 0.009931625798344612, 0.042586810886859894, -0.002946382388472557, -0.0009277794160880148, -0.022140905261039734, -0.013321621343493462, -0.01518876664340496, -0.021981999278068542, 0.01159351784735918, -0.005025402642786503, 0.011169768869876862, -0.024736369028687477, -0.0008913634228520095, 0.011858361773192883, -0.0006939723389223218, 0.022034967318177223, 0.0012704205000773072, 0.004201077856123447, -0.03951462730765343, -0.007031591143459082, -0.010004458017647266, 0.08909330517053604, 0.015519821085035801, 0.009779340587556362, 0.013334862887859344, -0.02237926423549652, -0.009156959131360054, -0.00654163071885705, 0.0051809982396662235, 0.00163209717720747, 0.010944651439785957, -0.00010060943895950913, -0.017135364934802055, 0.014116151258349419, 0.015096071176230907, 0.0037409125361591578, -0.007269950117915869, 0.0242993775755167, -0.0093688340857625, 0.039355721324682236, 0.03016565926373005, -0.007210360374301672, -0.0017363792285323143, 0.011050589382648468, 0.04761883616447449, 0.013169336132705212, 0.0012025543255731463, 0.025981133803725243, -0.007230223622173071, -0.02004864253103733, -0.029238706454634666, 0.0041812146082520485, -0.0019946014508605003, -0.004525511059910059, 0.013175956904888153, -0.021121257916092873, 0.017069155350327492, -0.004840012174099684, -0.0017198265995830297, 0.0130832614377141, 0.007058075629174709, 0.027199413627386093, -0.005369699094444513, -0.013374589383602142, -0.009004673920571804, 0.01675134152173996, 0.017453176900744438, 0.0002458077506162226, 0.014354510232806206, -0.008011511527001858, -0.008772936649620533, 0.04115665704011917, -0.03331729397177696, -0.0035555220674723387, -0.01694997400045395, 0.011408127844333649, -0.004959191661328077, 0.00225282390601933, 0.023147309198975563, -0.02510715089738369, 0.015082829631865025, -0.010361996479332447, -0.021094772964715958, -0.007455340586602688, -0.005488878581672907, -0.01766505278646946, -0.02257789671421051, -0.013473905622959137, -0.022697076201438904, 0.0006848683697171509, -0.008362429216504097, 0.0031516358722001314, -0.0264710932970047, -0.020618055015802383, -0.00020639160356950015, 0.029185738414525986, -0.029874330386519432, 0.033688075840473175, -0.0020922624971717596, -0.006369482725858688, 0.023147309198975563, 0.010209711268544197, -0.012765449471771717, -0.03972650319337845, -0.018711183220148087, -0.026947811245918274, 0.03970002010464668, -0.004412952344864607, -0.030695345252752304, -0.02783503755927086, 0.005684200674295425, 0.006399277597665787, 0.013314999639987946, -0.0010750985238701105, 0.0029695562552660704, -0.012083478271961212, -0.0032658495474606752, -0.0009029502980411053, 0.02865605056285858, 0.003232744289562106, -0.019757313653826714, 0.004760559182614088, -0.012765449471771717, -0.023200277239084244, -0.00020204651809763163, 0.023213520646095276, -0.0042540463618934155, -0.006064912769943476, -0.011288948357105255, 0.010620218701660633, 0.0034793796949088573, -0.0009741269750520587, -0.028920894488692284, -0.003476069075986743, -0.00524058798328042, -0.04653297737240791, -0.0037177386693656445, -0.024762853980064392, 0.017492903396487236, 0.026457851752638817, -0.012368184514343739, -0.037184007465839386, -0.03448260575532913, 0.022313052788376808, 0.012540332973003387, -0.018486065790057182, 0.002158473478630185, -0.015043103136122227, 0.003178120357915759, 0.018499309197068214, 0.012950840406119823, 0.007978405803442001, 0.015652243047952652, -0.015877358615398407, -0.013262031599879265, -0.00011111006460851058, -0.01619517058134079, -0.00012083478213753551, 0.00651845708489418, -0.006376103963702917, -0.009752856567502022, -0.02743777260184288, 0.01902899518609047, -0.021545007824897766, -0.008369049988687038, -0.029318159446120262, -0.01569196954369545, 0.007422235328704119, 0.008839147165417671, -0.016711615025997162, 0.006246992852538824, -0.005697442684322596, 0.005839796271175146, 0.007786394562572241, 0.0206048134714365, -0.002150197047740221, -0.029900815337896347, 0.0007105250842869282, -0.009719750843942165, 0.03276112303137779, 0.018035832792520523, 0.021584734320640564, 0.021492037922143936, 0.004393089096993208, 0.014884197153151035, -0.01015012152493, -0.005687511060386896, -0.02014133706688881, -0.0021286786068230867, -0.01953219808638096, 0.03066886030137539, 0.01538739912211895, 0.02606058679521084, -0.013513632118701935, -0.009355591610074043, -0.018062317743897438, 0.02180984988808632, -0.0018836983945220709, 0.0031483254861086607, -0.02288246527314186, -0.020565086975693703, -0.014010213315486908, -0.000693558540660888, -0.013295136392116547, 0.014976891689002514, -0.031410422176122665, 0.020472392439842224, 0.0020094988867640495, 0.008918600156903267, 0.0018141770269721746, -0.018803877755999565, 0.012321837246418, -0.053418904542922974, 0.03593924269080162, 0.012911113910377026, -0.0023206898476928473, -0.002080675680190325, -0.016460014507174492, -0.013559980317950249, 0.00885901041328907, 0.004462610464543104, 0.005939112510532141, -0.010984377935528755, -0.028576597571372986, -0.021836334839463234, -0.0029165875166654587, 0.009785962291061878, -0.023557817563414574, -0.013513632118701935, 0.0047738016583025455, -0.022908950224518776, -0.007620867807418108, 0.0038600920233875513, -0.0019879804458469152, -0.04136853292584419, 0.007111044134944677, -0.00834918674081564, 0.019571924582123756, 0.012785312719643116, 0.012917734682559967, -0.03355565294623375, 0.011990782804787159, -0.026047343388199806, 0.00870672520250082, 0.00941518135368824, 0.02783503755927086, 0.01136840134859085, -0.009699887596070766, -0.005445841699838638, 0.02298840321600437, 0.009256275370717049, -0.0038402287755161524, 0.014990134164690971, 0.01635407656431198, -0.013156093657016754, -0.023478364571928978, -0.012255626730620861, 0.01088506169617176, -0.0021336444187909365, -3.333819404360838e-05, 0.03339674696326256, 0.011375022120773792, 0.0144736897200346, -0.016075991094112396, 0.006690605543553829, -0.001439258106984198, 0.01589060202240944, -0.008395534008741379, -0.00992500502616167, -0.02383590303361416, -0.014937165193259716, -0.017347240820527077, -0.0005880350363440812, -0.0286030825227499, -0.0013424247736111283, -0.0039560976438224316, -0.015109313651919365, 0.04610922932624817, -0.017598841339349747, -0.020260516554117203, 0.023372426629066467, 0.005518673453480005, 0.010851956903934479, -0.009918383322656155, -0.002645123051479459, 0.008971569128334522, 0.002800718415528536, -0.005121408496052027, -0.006455556955188513, 0.008316081017255783, 0.023875629529356956, -0.016897005960345268, -0.00048333912855014205, 0.011964298784732819, 0.020061884075403214, 0.01569196954369545, -0.015109313651919365, -0.00563123170286417, 0.003754154546186328, -0.0010635115904733539, -0.027649646624922752, -0.009865415282547474, -0.020737234503030777, -0.009401938877999783, -0.005720616318285465, 7.443546928698197e-05, -0.0144736897200346, -0.013983729295432568, -0.004220941103994846, 0.00651514669880271, 0.0036912544164806604, -0.02631218731403351, -0.0036151118110865355, -0.019598407670855522, 0.025941407307982445, 0.0009004673920571804, 0.011447854340076447, -0.003216191427782178, 0.026126796379685402, -0.006640947423875332, 0.00019511506252456456, -0.002878516213968396, 0.03734291344881058, -0.015003376640379429, 0.021995240822434425, -0.0052538299933075905, 0.01247412245720625, 0.025477930903434753, -0.003836918156594038, -0.014870954677462578, -0.011547170579433441, -0.006644257809966803, -0.0036084908060729504, 0.019902978092432022, -0.02799394354224205, -0.025888437405228615, 0.008263112977147102, 0.003929613158106804, 0.000577689555939287, -0.03599221259355545, 0.013228925876319408, 0.0021518522407859564, 0.003896507900208235, 0.018353644758462906, -0.02586195431649685, 0.005293556489050388, 0.012825039215385914, 0.009706509299576283, 0.016844037920236588, -0.05259789153933525, -0.00033498546690680087, 0.010534144937992096, 0.0056444741785526276, 0.0001642856514081359, -0.006008633878082037, -0.017333997413516045, -0.002138610230758786, -0.01897602714598179, 0.018287433311343193, 0.004777112044394016, -0.003489311318844557, 0.024233167991042137, 0.02353133261203766, 0.0028421003371477127, 0.034085340797901154, -0.020816687494516373, -0.023425394669175148, -0.016579193994402885, -0.019267354160547256, -0.017744505777955055, -0.025570625439286232, -0.023968324065208435, 0.010659945197403431, 0.025689804926514626, -0.02449801005423069, -0.013652674853801727, 0.004277220461517572, -0.05572304129600525, -0.004396399948745966, -0.008806041441857815, 0.013493768870830536, 0.03289354592561722, 0.03882603719830513, -0.00217006029561162, 0.027305349707603455, 0.00013469767873175442, 0.034138310700654984, -0.01730751432478428, -0.0009211582946591079, 0.009494634345173836, -0.04756586626172066, 0.014235330745577812, 0.012672754935920238, -0.03170175105333328, -0.010838714428246021, 0.031966593116521835, 0.0007485963287763298, 0.014102908782660961, 0.007210360374301672, 0.0013780130539089441, -0.027146443724632263, 0.028073396533727646, 0.0023008265998214483, 0.010540765710175037, 0.010236196219921112, 0.014394236728549004, -0.018618488684296608, 0.0055153630673885345, 0.0006981105543673038, 0.000770114827901125, -0.02408750355243683, -0.01928059570491314, 0.002550772624090314, -0.011984162032604218, -0.027464255690574646, -0.006743574049323797, -0.0013945657992735505, -0.0028603081591427326, -0.010659945197403431, 0.026298945769667625, 0.004128245636820793, -0.0012737310025840998, -0.01171931903809309, 0.011130042374134064, 0.003052319632843137, -0.03289354592561722, -0.01015012152493, -0.026457851752638817, -0.008243249729275703, 0.014937165193259716, -0.04939328506588936, 0.010547386482357979, -0.01234832126647234, 0.01191795151680708, -0.02550441585481167, -0.015307946130633354, -0.008468366228044033, 0.003793881041929126, -0.026431366801261902, 0.03715752437710762, 0.033979400992393494, -0.01746642030775547, -0.018605245277285576, -0.01857876218855381, -0.00740237208083272, -0.022710317745804787, -0.01583763211965561, -0.013573221862316132, -0.031860657036304474, -0.0027907867915928364, -0.01371888630092144, -0.03164878115057945, -0.011937814764678478, -0.009355591610074043, 0.0035124849528074265, -0.007991648279130459, -0.0112161161378026, 0.20181064307689667, -0.0056411633267998695, 0.010567249730229378, 0.01974407210946083, -0.002727886661887169, 0.023955082520842552, -0.008839147165417671, 0.0011123421136289835, -0.028841441497206688, 0.004598342813551426, -0.01726778782904148, 0.005435910075902939, -0.010156743228435516, 0.012546953745186329, 0.014619353227317333, -0.010408343747258186, -0.03805799037218094, -0.03082776628434658, -0.014261814765632153, 0.0017529319738969207, -0.010798987932503223, 3.1036332075018436e-05, 0.010236196219921112, 0.01272572297602892, 0.0027311970479786396, -0.005482257343828678, 0.007706941571086645, -0.007064696401357651, 0.036124635487794876, 0.03344971686601639, -0.0010461312485858798, 0.007852605544030666, 0.020975593477487564, -0.0016635473584756255, -0.0024994590785354376, 0.004081898368895054, -0.012685996480286121, -0.015281462110579014, 0.0160362645983696, 0.00597221776843071, -0.016671888530254364, -0.017492903396487236, -0.02950355038046837, -0.00926289614289999, 0.0018555588321760297, 0.0007837708108127117, -0.012897871434688568, 0.006021875888109207, -0.014698806218802929, 0.025292539969086647, -0.03469448164105415, -0.008640514686703682, 0.017241302877664566, 0.029185738414525986, 0.02343863807618618, -0.011341916397213936, 0.012229141779243946, 0.008693483658134937, 0.019651377573609352, -0.006207266356796026, -0.02474961243569851, 0.022869223728775978, -0.015572789125144482, -0.004244114737957716, 0.009719750843942165, 0.014010213315486908, -0.002209786791354418, 0.00668067391961813, 0.01836688630282879, -0.0031317726243287325, 0.014725291170179844, 0.003101977752521634, -0.015254977159202099, -0.007872468791902065, -0.010368617251515388, -0.022591138258576393, 0.049128443002700806, 0.014460447244346142, 0.025424962863326073, 0.01250060647726059, 0.014222088269889355, 0.00024291101726703346, -0.010441449470818043, 0.009203306399285793, 0.00450564781203866, -0.0041050720028579235, 0.01288462895900011, -0.0021518522407859564, -0.012017267756164074, -0.00792543776333332, -0.008865631185472012, 0.003409858327358961, -0.008037995547056198, 0.014023455791175365, 0.009481391869485378, -0.004502336960285902, 0.015480094589293003, 0.03972650319337845, -0.025319024920463562, 0.01726778782904148, -0.020631298422813416, 0.004849943798035383, 0.0356479175388813, 0.015294703654944897, -0.02141258493065834, 0.007137528620660305, 0.013328242115676403, 0.015281462110579014, 0.012765449471771717, -0.023253247141838074, -0.0034793796949088573, -0.02196875587105751, -0.006674052681773901, -0.015003376640379429, 0.03797853738069534, 0.006154297385364771, 0.013268652372062206, -0.01716184988617897, 0.0387730672955513, -0.004005755763500929, -0.009348970837891102, -0.01782395876944065, 0.00850147195160389, 0.012010646052658558, 0.007309676613658667, -0.0035257271956652403, -0.0517239086329937, 0.025795742869377136, -0.014645837247371674, -0.018658215180039406, 0.009865415282547474, 0.007289813365787268, 0.030562924221158028, 0.03461502864956856, -0.02100207842886448, 0.006743574049323797, -0.016009781509637833, 0.005766964051872492, 0.020432665944099426, -0.0023024820256978273, 0.0019697723910212517, -0.010514281690120697, 0.014778259210288525, -0.011739182285964489, 0.012215900234878063, 0.0035356588196009398, 0.00883252639323473, -0.008753073401749134, -0.008561061695218086, -0.00488635990768671, -0.008071101270616055, -0.012659512460231781, -0.018499309197068214, -0.03225792199373245, 0.015705211088061333, -0.0038898868951946497, -0.0070713176392018795, -0.03948814421892166, -0.01933356560766697, 0.03276112303137779, -0.027623161673545837, 0.017850441858172417, 0.03411182388663292, -0.0016966527327895164, -0.009865415282547474, 0.016009781509637833, -0.167275071144104, 0.029583003371953964, 0.00687268516048789, 0.007150770630687475, 0.012176173739135265, 0.014314783737063408, 0.01034875400364399, -0.004777112044394016, -0.011103557422757149, 0.027000781148672104, 0.010686429217457771, 0.008739830926060677, -0.04960516095161438, -0.005359767470508814, -0.011381642892956734, -0.014208845794200897, -0.020287001505494118, 0.017704779282212257, 0.029794877395033836, 0.007197118364274502, 0.0010750985238701105, -0.000695627648383379, 0.011692834086716175, -0.007408992853015661, -0.008508092723786831, 0.0050287130288779736, -0.012738965451717377, -0.007269950117915869, 0.004071966744959354, -0.016777826473116875, 0.010441449470818043, 0.006766747683286667, 0.046347588300704956, -0.004654622171074152, -0.020578328520059586, -0.003896507900208235, -0.0166056789457798, -0.02672269567847252, -0.009706509299576283, 0.007905574515461922, 0.04078587889671326, -0.0021915787365287542, 0.010600355453789234, -0.030801283195614815, -0.01216955203562975, 0.03487987071275711, 0.029477065429091454, -0.03127799928188324, 0.01639380306005478, 0.0017231371020898223, 0.01685727946460247, -0.019757313653826714, 0.014606110751628876, 0.0006943861953914165, 0.03244331106543541, 0.023014888167381287, 0.009779340587556362, 0.02505418099462986, 0.0011826910777017474, 0.00903777964413166, -0.008587545715272427, -0.01852579228579998, 0.028179332613945007, -0.012619785964488983, 0.005925870034843683, 0.004710901062935591, -0.013732127845287323, 0.027106717228889465, -0.004042171873152256, 0.0027676131576299667, 0.00598545977845788, -0.017281029373407364, 0.003823675913736224, -0.0013639433309435844, 0.021690670400857925, 0.006177471484988928, -0.0064787305891513824, -0.01913493312895298, 0.006501904223114252, 0.0008214281988330185, -0.010335512459278107, 0.02227332629263401, -0.00472083268687129, -0.011454475112259388, 0.008845767937600613, -0.01929383911192417, -0.03209901601076126, 0.023253247141838074, -0.015466852113604546, 0.007342781871557236, -0.0033717870246618986, -0.04338134080171585, 0.019730830565094948, -0.0023769692052155733, 0.01644677296280861, 0.01918790116906166, 0.008766314946115017, 0.0072368448600173, -0.025928163900971413, -0.016565952450037003, -0.0002871895267162472, 0.012209278531372547, -0.023968324065208435, 0.03265518695116043, 0.025544142350554466, 0.02333270013332367, -0.008157175034284592, 0.009474771097302437, 0.025742774829268456, 0.015572789125144482, 0.01065332442522049, 0.002272687153890729, 0.015731696039438248, 0.00946152862161398, -0.022803012281656265, 0.007653973065316677, 0.01563899964094162, 0.0013118023052811623, 0.011467717587947845, -0.022127661854028702, 0.04245439171791077, -0.01888333074748516, -0.01649974100291729, 0.01407642476260662, -0.004091829992830753, 0.003495932323858142, -0.09084127098321915, -0.015453609637916088, 0.012911113910377026, 0.007316297851502895, 0.0032542627304792404, 0.01771802082657814, 0.007687078323215246, 0.028020426630973816, -0.03882603719830513, 0.021730396896600723, -0.01868469826877117, -0.01908196322619915, 0.007541414815932512, -0.02288246527314186, 0.02120071090757847, 0.01574493758380413, 0.020935866981744766, 0.0016031299019232392, 0.02196875587105751, 0.0018075559055432677, -0.011255842633545399, 0.007528172340244055, -0.004042171873152256, -0.02809987962245941, 0.0009675059118308127, -0.012580059468746185, -0.023981565609574318, 0.023928597569465637, 0.01669837348163128, 0.023703480139374733, -0.012785312719643116, -0.007832742296159267, -0.0025557384360581636, -0.006743574049323797, 0.008296217769384384, -0.011494201608002186, 0.006773368921130896, -0.026153281331062317, 0.029344644397497177, -0.023902112618088722, -0.008620651438832283, -0.013142851181328297, 0.021929029375314713, -0.035409558564424515, 0.008422018960118294, -0.002113780938088894, 0.0014649148797616363, 0.01065332442522049, 0.03498580679297447, -0.011322053149342537, -0.02004864253103733, -0.003754154546186328, 0.0005615506670437753, -0.01892305724322796, 0.017837200313806534, 0.020565086975693703, -0.0038071232847869396, -0.0039759608916938305, -0.006412519607692957, -0.008587545715272427, 0.0013308378402143717, 0.03456205874681473, 0.005326662212610245, 0.004220941103994846, 0.02186281979084015, 0.002612017560750246, -0.03032456524670124, 0.007468582596629858, 0.01371888630092144, -0.026404883712530136, 0.0027047127950936556, -0.006832958664745092, -0.0021452312357723713, 0.011514064855873585, -0.022855982184410095, -0.037793148308992386, -0.036415960639715195, -0.00850147195160389, 0.007985027506947517, -0.013202441856265068, -0.01863173022866249, -0.0033055762760341167, 0.010693050920963287, -0.00034864144981838763, 0.008044617250561714, 0.0023322768975049257, 0.026431366801261902, -0.01836688630282879, 0.008402155712246895, -0.011725939810276031, 0.0037773284129798412, 0.0261665228754282, 0.00979258306324482, -0.038349319249391556, -0.008753073401749134, 0.019201142713427544, 0.009838930331170559, -0.01922762766480446, -0.014142635278403759, 0.014486931264400482, -0.026987537741661072, -0.007852605544030666, -0.07055427134037018, 0.005836485419422388, 0.004035550635308027, -0.015281462110579014, -0.024842306971549988, 0.029688941314816475, 0.02415371499955654, 0.0071242861449718475, 0.0011719318572431803, 0.004866496659815311, -0.03882603719830513, 0.014208845794200897, 0.002509390702471137, -0.03305245190858841, -0.033476199954748154, 0.0057901376858353615, 0.026510819792747498, 0.013553358614444733, 0.005906006786972284, 0.010295785963535309, 0.013500390574336052, -0.014778259210288525, 0.033476199954748154, -0.0036614593118429184, -0.04510282352566719, -0.010971136391162872, -0.019267354160547256, 0.011401506140828133, -0.0071242861449718475, 0.004224251490086317, -0.0133878318592906, -0.02693456970155239, -0.014712048694491386, 0.0436461865901947, 0.01072615571320057, -0.0332113578915596, -0.014725291170179844, 0.009249654598534107, 0.024683400988578796, 0.0029695562552660704, -0.032310888171195984, -0.03225792199373245, 0.010189848020672798, -0.004879738669842482, 0.004734075162559748, 0.0014400857035070658, -0.003817054908722639, 0.013228925876319408, 0.014367751777172089, 0.005194240249693394, -0.010547386482357979, 0.039805956184864044, 0.016115717589855194, -0.011096936650574207, -0.0004916155012324452, 0.02749074064195156, -0.004813528154045343, 0.05262437462806702, 0.00832932349294424, -0.00148726103361696, 0.03683971241116524, 0.0011677936417981982, 0.017453176900744438, 0.007932058535516262, 0.030695345252752304, -0.025888437405228615, -0.019015753641724586, 0.0024233167059719563, 0.006578046828508377, -0.01978379860520363, -0.03154284507036209, -0.0016213379567489028, 0.008077722042798996, 0.035303618758916855, -0.009732993319630623, -0.010997620411217213, -0.004604964051395655, -0.009653540328145027, -0.0047903540544211864, 0.04165986180305481, -0.006213887128978968, 0.0015369191532954574, -0.01407642476260662, 0.031304486095905304, 0.02555738389492035, -0.0045155794359743595, -0.03228440508246422, -0.001958185574039817, 0.002863618778064847, 0.027014022693037987, 0.008746451698243618, 0.011282326653599739, -0.0019350118236616254, 0.008958326652646065, -0.00865375716239214, -0.016870521008968353, -0.019399775192141533, 0.0016676855739206076, 0.013785096816718578, 0.008408776484429836, -0.006548251956701279, -0.006061602383852005, -0.0046413796953856945, -0.025570625439286232, -0.021293405443429947, -0.013149472884833813, -0.02292219176888466, -0.02055184543132782, -0.005369699094444513, 0.022617623209953308, 0.007812879048287868, 0.015652243047952652, -0.0010428207460790873, 0.004081898368895054, 0.0038733340334147215, 0.010136</t>
+  </si>
+  <si>
+    <t>[-0.005863260943442583, -0.012183823622763157, -0.015012561343610287, -0.020944418385624886, -0.0021166536025702953, 0.0015891233924776316, 0.001971296966075897, 0.009348553605377674, 0.0060527147725224495, -0.01128228660672903, -0.008603804744780064, -0.018801633268594742, -0.015626652166247368, -0.017364399507641792, -0.026432037353515625, -0.016946295276284218, 0.030338700860738754, -0.007009781897068024, -0.004648145288228989, -0.009335487149655819, -0.020565509796142578, 0.004576283507049084, 0.02377968840301037, 0.007721866015344858, -0.003308904357254505, -0.02538677677512169, -0.00038564414717257023, -0.01958557777106762, 0.002369802678003907, 0.0022489444818347692, 0.008590739220380783, -0.006137642078101635, -0.02033032663166523, 0.0051642428152263165, -0.021493179723620415, -0.023753557354211807, -0.0056378766894340515, -0.00990384817123413, 0.033579010516405106, 0.0065655456855893135, -0.01567891612648964, -0.01699855737388134, 0.010021439753472805, -0.01723374053835869, -0.024054069072008133, 0.039693787693977356, 0.0007308661006391048, 0.004386829677969217, -0.007676135748624802, 0.0012420640559867024, 0.0016667013987898827, 0.024994803592562675, -0.014307009987533092, 0.012294882908463478, -0.0381258949637413, -0.009028442203998566, -0.017390530556440353, 0.005530084017664194, 0.01745585910975933, -0.032977987080812454, -0.016044756397604942, -0.018788566812872887, -0.02764715440571308, -0.0009374684887006879, -0.013085361570119858, -0.00417124480009079, -0.01149787101894617, 0.007133906707167625, 0.0054255579598248005, -0.024223923683166504, 0.04105262830853462, 0.023936478421092033, 0.01435927301645279, -0.01872323825955391, 0.016475927084684372, -0.004269238095730543, -0.007721866015344858, 0.002018660306930542, 0.0032011119183152914, 0.02162383683025837, 0.010302353650331497, -0.03287345916032791, -0.0013318911660462618, 0.022930413484573364, 0.021414784714579582, -0.0038837979082018137, -0.0021280860528349876, 0.017037754878401756, -0.0027993395924568176, -0.0051642428152263165, 0.01834433153271675, 0.0009611501591280103, 0.0018765701679512858, 0.0032762400805950165, -0.02541290782392025, -0.0038086699787527323, 0.005396159831434488, 0.01527387648820877, 0.032977987080812454, 0.005258969496935606, -0.009492277167737484, 0.015234679915010929, 0.0010019807377830148, -0.0169070977717638, -0.017194543033838272, -0.01627994142472744, -0.007493215147405863, -0.01317682210355997, 0.030573885887861252, 0.014568325132131577, 0.005458222236484289, 0.030678411945700645, 0.028849205002188683, -0.018697107210755348, 0.006336894817650318, -0.010792319662868977, 0.027725549414753914, 0.014698983170092106, 0.009126435033977032, -0.009851585142314434, 0.0007096342160366476, 0.00879979133605957, -0.006892189849168062, 0.008133437484502792, 0.030652279034256935, 0.024733489379286766, -0.002291408134624362, -0.03224630281329155, -0.01003450620919466, -0.021427851170301437, 0.0062029710970819, 0.0038903309032320976, 0.016240743920207024, -0.014228615909814835, -0.01197477150708437, 0.022734427824616432, -0.017586516216397285, 0.0071927024982869625, -0.00979278888553381, 0.0008370254072360694, 0.017390530556440353, 0.026288315653800964, -0.02759489044547081, 0.005827330052852631, -0.027777811512351036, 0.0255305003374815, -0.012810980901122093, 0.0020170272327959538, 0.009511874988675117, 0.007316827308386564, 0.015718111768364906, -0.03809976577758789, -0.008270627819001675, -0.010106367990374565, 0.03945860266685486, 0.014463799074292183, 0.003119450993835926, 0.03517303243279457, -0.01820060797035694, 0.022316323593258858, -0.017063885927200317, 0.018540317192673683, -0.0075258794240653515, -0.009106836281716824, 0.04382256790995598, 0.021832888945937157, -0.007310294080525637, 0.005115245934575796, -0.030573885887861252, -0.010184762068092823, -0.002969194669276476, 0.002026826376095414, -0.03078293800354004, 0.020147405564785004, 0.020539378747344017, 0.02368822880089283, -0.010433011688292027, 0.013732116669416428, -0.019572513177990913, -0.023531438782811165, 0.005020519252866507, -0.014698983170092106, 0.014725115150213242, 0.010439544916152954, -0.01723374053835869, 0.020343393087387085, -0.007950516417622566, 0.013732116669416428, 0.0006222569500096142, -0.02426312118768692, 0.006042915396392345, 0.009714394807815552, -0.0053863609209656715, 0.0007998696528375149, -0.6564239263534546, 0.008113838732242584, -0.011001372709870338, -0.02584407851099968, 0.0113280164077878, -0.005405959207564592, 0.019677039235830307, 0.003057388588786125, -0.006532881408929825, 0.006588411051779985, -0.03255988284945488, 0.019990617409348488, -0.014320076443254948, 0.012020502239465714, 0.002108487533405423, -0.01742972806096077, -0.0038086699787527323, -0.0018602380296215415, 0.004396629054099321, -0.023466110229492188, -0.005533350631594658, 0.0014078359818086028, 0.01306576281785965, -0.0018471722723916173, -0.022551506757736206, -0.00024232907162513584, -0.011687325313687325, -0.02661495842039585, -0.01117122732102871, -0.007173103746026754, -0.04418841004371643, 0.004827799275517464, 0.024511370807886124, -0.009387750178575516, 0.04439746215939522, 0.013849708251655102, -0.01178531814366579, 0.03577405959367752, 0.005347163416445255, 0.0170246884226799, -0.007068577688187361, -0.025687290355563164, 0.016436729580163956, -0.007506280671805143, 0.023243991658091545, 0.022721361368894577, 0.04045160114765167, 0.01183104794472456, -0.01584877073764801, -0.02248617820441723